--- a/ProjectManagement/文档/问题点一览.xlsx
+++ b/ProjectManagement/文档/问题点一览.xlsx
@@ -1224,7 +1224,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1235,18 +1247,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1647,10 +1647,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K286"/>
+  <dimension ref="A1:K287"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="F96" sqref="F96"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="C104" sqref="C104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="22.2" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1705,7 +1705,7 @@
       <c r="A2" s="13">
         <v>1</v>
       </c>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="42" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -1733,7 +1733,7 @@
       <c r="A3" s="13">
         <v>2</v>
       </c>
-      <c r="B3" s="47"/>
+      <c r="B3" s="43"/>
       <c r="C3" s="4" t="s">
         <v>51</v>
       </c>
@@ -1759,7 +1759,7 @@
       <c r="A4" s="13">
         <v>3</v>
       </c>
-      <c r="B4" s="47"/>
+      <c r="B4" s="43"/>
       <c r="C4" s="4" t="s">
         <v>52</v>
       </c>
@@ -1785,7 +1785,7 @@
       <c r="A5" s="13">
         <v>4</v>
       </c>
-      <c r="B5" s="47"/>
+      <c r="B5" s="43"/>
       <c r="C5" s="4" t="s">
         <v>13</v>
       </c>
@@ -1811,7 +1811,7 @@
       <c r="A6" s="13">
         <v>5</v>
       </c>
-      <c r="B6" s="47"/>
+      <c r="B6" s="43"/>
       <c r="C6" s="4" t="s">
         <v>53</v>
       </c>
@@ -1837,7 +1837,7 @@
       <c r="A7" s="13">
         <v>6</v>
       </c>
-      <c r="B7" s="47"/>
+      <c r="B7" s="43"/>
       <c r="C7" s="4" t="s">
         <v>16</v>
       </c>
@@ -1863,7 +1863,7 @@
       <c r="A8" s="13">
         <v>7</v>
       </c>
-      <c r="B8" s="47"/>
+      <c r="B8" s="43"/>
       <c r="C8" s="4" t="s">
         <v>14</v>
       </c>
@@ -1889,7 +1889,7 @@
       <c r="A9" s="13">
         <v>8</v>
       </c>
-      <c r="B9" s="47"/>
+      <c r="B9" s="43"/>
       <c r="C9" s="4" t="s">
         <v>17</v>
       </c>
@@ -1915,7 +1915,7 @@
       <c r="A10" s="13">
         <v>9</v>
       </c>
-      <c r="B10" s="47"/>
+      <c r="B10" s="43"/>
       <c r="C10" s="6" t="s">
         <v>163</v>
       </c>
@@ -1948,7 +1948,7 @@
       <c r="A11" s="13">
         <v>10</v>
       </c>
-      <c r="B11" s="47"/>
+      <c r="B11" s="43"/>
       <c r="C11" s="4" t="s">
         <v>48</v>
       </c>
@@ -1974,7 +1974,7 @@
       <c r="A12" s="13">
         <v>11</v>
       </c>
-      <c r="B12" s="47"/>
+      <c r="B12" s="43"/>
       <c r="C12" s="4" t="s">
         <v>107</v>
       </c>
@@ -2000,7 +2000,7 @@
       <c r="A13" s="13">
         <v>12</v>
       </c>
-      <c r="B13" s="47"/>
+      <c r="B13" s="43"/>
       <c r="C13" s="4" t="s">
         <v>110</v>
       </c>
@@ -2026,7 +2026,7 @@
       <c r="A14" s="13">
         <v>13</v>
       </c>
-      <c r="B14" s="47"/>
+      <c r="B14" s="43"/>
       <c r="C14" s="4" t="s">
         <v>109</v>
       </c>
@@ -2052,7 +2052,7 @@
       <c r="A15" s="13">
         <v>14</v>
       </c>
-      <c r="B15" s="47"/>
+      <c r="B15" s="43"/>
       <c r="C15" s="6" t="s">
         <v>138</v>
       </c>
@@ -2078,7 +2078,7 @@
       <c r="A16" s="13">
         <v>15</v>
       </c>
-      <c r="B16" s="47"/>
+      <c r="B16" s="43"/>
       <c r="C16" s="6" t="s">
         <v>156</v>
       </c>
@@ -2107,7 +2107,7 @@
       <c r="A17" s="13">
         <v>16</v>
       </c>
-      <c r="B17" s="47"/>
+      <c r="B17" s="43"/>
       <c r="C17" s="6" t="s">
         <v>159</v>
       </c>
@@ -2133,7 +2133,7 @@
       <c r="A18" s="13">
         <v>17</v>
       </c>
-      <c r="B18" s="47"/>
+      <c r="B18" s="43"/>
       <c r="C18" s="10" t="s">
         <v>148</v>
       </c>
@@ -2160,7 +2160,7 @@
       <c r="A19" s="32">
         <v>18</v>
       </c>
-      <c r="B19" s="47"/>
+      <c r="B19" s="43"/>
       <c r="C19" s="10" t="s">
         <v>157</v>
       </c>
@@ -2187,7 +2187,7 @@
       <c r="A20" s="32">
         <v>19</v>
       </c>
-      <c r="B20" s="47"/>
+      <c r="B20" s="43"/>
       <c r="C20" s="10" t="s">
         <v>153</v>
       </c>
@@ -2214,7 +2214,7 @@
       <c r="A21" s="32">
         <v>20</v>
       </c>
-      <c r="B21" s="47"/>
+      <c r="B21" s="43"/>
       <c r="C21" s="37" t="s">
         <v>171</v>
       </c>
@@ -2241,7 +2241,7 @@
       <c r="A22" s="32">
         <v>21</v>
       </c>
-      <c r="B22" s="47"/>
+      <c r="B22" s="43"/>
       <c r="C22" s="40" t="s">
         <v>184</v>
       </c>
@@ -2268,7 +2268,7 @@
       <c r="A23" s="32">
         <v>22</v>
       </c>
-      <c r="B23" s="47"/>
+      <c r="B23" s="43"/>
       <c r="C23" s="40" t="s">
         <v>185</v>
       </c>
@@ -2295,7 +2295,7 @@
       <c r="A24" s="32">
         <v>23</v>
       </c>
-      <c r="B24" s="47"/>
+      <c r="B24" s="43"/>
       <c r="C24" s="10" t="s">
         <v>154</v>
       </c>
@@ -2322,7 +2322,7 @@
       <c r="A25" s="32">
         <v>24</v>
       </c>
-      <c r="B25" s="47"/>
+      <c r="B25" s="43"/>
       <c r="C25" s="30" t="s">
         <v>176</v>
       </c>
@@ -2349,7 +2349,7 @@
       <c r="A26" s="32">
         <v>25</v>
       </c>
-      <c r="B26" s="47"/>
+      <c r="B26" s="43"/>
       <c r="C26" s="6" t="s">
         <v>177</v>
       </c>
@@ -2376,7 +2376,7 @@
       <c r="A27" s="32">
         <v>26</v>
       </c>
-      <c r="B27" s="47"/>
+      <c r="B27" s="43"/>
       <c r="C27" s="6" t="s">
         <v>180</v>
       </c>
@@ -2402,7 +2402,7 @@
       <c r="A28" s="32">
         <v>27</v>
       </c>
-      <c r="B28" s="48"/>
+      <c r="B28" s="44"/>
       <c r="C28" s="6" t="s">
         <v>181</v>
       </c>
@@ -2428,7 +2428,7 @@
       <c r="A29" s="32">
         <v>28</v>
       </c>
-      <c r="B29" s="46" t="s">
+      <c r="B29" s="42" t="s">
         <v>12</v>
       </c>
       <c r="C29" s="4" t="s">
@@ -2456,7 +2456,7 @@
       <c r="A30" s="32">
         <v>29</v>
       </c>
-      <c r="B30" s="47"/>
+      <c r="B30" s="43"/>
       <c r="C30" s="4" t="s">
         <v>17</v>
       </c>
@@ -2482,7 +2482,7 @@
       <c r="A31" s="32">
         <v>30</v>
       </c>
-      <c r="B31" s="47"/>
+      <c r="B31" s="43"/>
       <c r="C31" s="4" t="s">
         <v>18</v>
       </c>
@@ -2508,7 +2508,7 @@
       <c r="A32" s="32">
         <v>31</v>
       </c>
-      <c r="B32" s="47"/>
+      <c r="B32" s="43"/>
       <c r="C32" s="4" t="s">
         <v>106</v>
       </c>
@@ -2534,7 +2534,7 @@
       <c r="A33" s="32">
         <v>32</v>
       </c>
-      <c r="B33" s="47"/>
+      <c r="B33" s="43"/>
       <c r="C33" s="4" t="s">
         <v>55</v>
       </c>
@@ -2560,7 +2560,7 @@
       <c r="A34" s="32">
         <v>33</v>
       </c>
-      <c r="B34" s="47"/>
+      <c r="B34" s="43"/>
       <c r="C34" s="4" t="s">
         <v>164</v>
       </c>
@@ -2586,7 +2586,7 @@
       <c r="A35" s="32">
         <v>34</v>
       </c>
-      <c r="B35" s="47"/>
+      <c r="B35" s="43"/>
       <c r="C35" s="4" t="s">
         <v>179</v>
       </c>
@@ -2612,7 +2612,7 @@
       <c r="A36" s="32">
         <v>35</v>
       </c>
-      <c r="B36" s="47"/>
+      <c r="B36" s="43"/>
       <c r="C36" s="4" t="s">
         <v>166</v>
       </c>
@@ -2638,7 +2638,7 @@
       <c r="A37" s="32">
         <v>36</v>
       </c>
-      <c r="B37" s="48"/>
+      <c r="B37" s="44"/>
       <c r="C37" s="4" t="s">
         <v>165</v>
       </c>
@@ -2658,7 +2658,7 @@
       <c r="A38" s="32">
         <v>37</v>
       </c>
-      <c r="B38" s="42" t="s">
+      <c r="B38" s="45" t="s">
         <v>19</v>
       </c>
       <c r="C38" s="4" t="s">
@@ -2688,7 +2688,7 @@
       <c r="A39" s="32">
         <v>38</v>
       </c>
-      <c r="B39" s="42"/>
+      <c r="B39" s="45"/>
       <c r="C39" s="4" t="s">
         <v>21</v>
       </c>
@@ -2714,7 +2714,7 @@
       <c r="A40" s="32">
         <v>39</v>
       </c>
-      <c r="B40" s="42"/>
+      <c r="B40" s="45"/>
       <c r="C40" s="4" t="s">
         <v>71</v>
       </c>
@@ -2740,7 +2740,7 @@
       <c r="A41" s="32">
         <v>40</v>
       </c>
-      <c r="B41" s="42"/>
+      <c r="B41" s="45"/>
       <c r="C41" s="4" t="s">
         <v>90</v>
       </c>
@@ -2766,7 +2766,7 @@
       <c r="A42" s="32">
         <v>41</v>
       </c>
-      <c r="B42" s="42"/>
+      <c r="B42" s="45"/>
       <c r="C42" s="4" t="s">
         <v>89</v>
       </c>
@@ -2792,7 +2792,7 @@
       <c r="A43" s="32">
         <v>42</v>
       </c>
-      <c r="B43" s="42"/>
+      <c r="B43" s="45"/>
       <c r="C43" s="4" t="s">
         <v>94</v>
       </c>
@@ -2818,7 +2818,7 @@
       <c r="A44" s="32">
         <v>43</v>
       </c>
-      <c r="B44" s="42"/>
+      <c r="B44" s="45"/>
       <c r="C44" s="4" t="s">
         <v>96</v>
       </c>
@@ -2844,7 +2844,7 @@
       <c r="A45" s="32">
         <v>44</v>
       </c>
-      <c r="B45" s="42"/>
+      <c r="B45" s="45"/>
       <c r="C45" s="4" t="s">
         <v>152</v>
       </c>
@@ -2872,7 +2872,7 @@
       <c r="A46" s="32">
         <v>45</v>
       </c>
-      <c r="B46" s="42"/>
+      <c r="B46" s="45"/>
       <c r="C46" s="6" t="s">
         <v>137</v>
       </c>
@@ -2898,7 +2898,7 @@
       <c r="A47" s="32">
         <v>46</v>
       </c>
-      <c r="B47" s="42"/>
+      <c r="B47" s="45"/>
       <c r="C47" s="4" t="s">
         <v>22</v>
       </c>
@@ -2924,7 +2924,7 @@
       <c r="A48" s="32">
         <v>47</v>
       </c>
-      <c r="B48" s="42" t="s">
+      <c r="B48" s="45" t="s">
         <v>23</v>
       </c>
       <c r="C48" s="4" t="s">
@@ -2952,7 +2952,7 @@
       <c r="A49" s="32">
         <v>48</v>
       </c>
-      <c r="B49" s="42"/>
+      <c r="B49" s="45"/>
       <c r="C49" s="4" t="s">
         <v>92</v>
       </c>
@@ -2980,7 +2980,7 @@
       <c r="A50" s="32">
         <v>49</v>
       </c>
-      <c r="B50" s="42"/>
+      <c r="B50" s="45"/>
       <c r="C50" s="6" t="s">
         <v>91</v>
       </c>
@@ -3006,7 +3006,7 @@
       <c r="A51" s="32">
         <v>50</v>
       </c>
-      <c r="B51" s="42"/>
+      <c r="B51" s="45"/>
       <c r="C51" s="6" t="s">
         <v>149</v>
       </c>
@@ -3032,7 +3032,7 @@
       <c r="A52" s="32">
         <v>51</v>
       </c>
-      <c r="B52" s="42"/>
+      <c r="B52" s="45"/>
       <c r="C52" s="4" t="s">
         <v>25</v>
       </c>
@@ -3058,7 +3058,7 @@
       <c r="A53" s="32">
         <v>52</v>
       </c>
-      <c r="B53" s="42" t="s">
+      <c r="B53" s="45" t="s">
         <v>26</v>
       </c>
       <c r="C53" s="4" t="s">
@@ -3086,7 +3086,7 @@
       <c r="A54" s="32">
         <v>53</v>
       </c>
-      <c r="B54" s="42"/>
+      <c r="B54" s="45"/>
       <c r="C54" s="4" t="s">
         <v>28</v>
       </c>
@@ -3112,7 +3112,7 @@
       <c r="A55" s="32">
         <v>54</v>
       </c>
-      <c r="B55" s="42" t="s">
+      <c r="B55" s="45" t="s">
         <v>29</v>
       </c>
       <c r="C55" s="4" t="s">
@@ -3140,7 +3140,7 @@
       <c r="A56" s="32">
         <v>55</v>
       </c>
-      <c r="B56" s="42"/>
+      <c r="B56" s="45"/>
       <c r="C56" s="4" t="s">
         <v>62</v>
       </c>
@@ -3166,7 +3166,7 @@
       <c r="A57" s="32">
         <v>56</v>
       </c>
-      <c r="B57" s="42"/>
+      <c r="B57" s="45"/>
       <c r="C57" s="4" t="s">
         <v>63</v>
       </c>
@@ -3192,7 +3192,7 @@
       <c r="A58" s="32">
         <v>57</v>
       </c>
-      <c r="B58" s="42"/>
+      <c r="B58" s="45"/>
       <c r="C58" s="4" t="s">
         <v>72</v>
       </c>
@@ -3216,7 +3216,7 @@
     </row>
     <row r="59" spans="1:10" s="28" customFormat="1" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A59" s="32"/>
-      <c r="B59" s="42"/>
+      <c r="B59" s="45"/>
       <c r="C59" s="4" t="s">
         <v>198</v>
       </c>
@@ -3236,7 +3236,7 @@
       <c r="A60" s="32">
         <v>58</v>
       </c>
-      <c r="B60" s="42"/>
+      <c r="B60" s="45"/>
       <c r="C60" s="4" t="s">
         <v>61</v>
       </c>
@@ -3262,7 +3262,7 @@
       <c r="A61" s="32">
         <v>59</v>
       </c>
-      <c r="B61" s="42" t="s">
+      <c r="B61" s="45" t="s">
         <v>31</v>
       </c>
       <c r="C61" s="4" t="s">
@@ -3288,7 +3288,7 @@
     </row>
     <row r="62" spans="1:10" s="28" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="32"/>
-      <c r="B62" s="42"/>
+      <c r="B62" s="45"/>
       <c r="C62" s="4" t="s">
         <v>194</v>
       </c>
@@ -3308,7 +3308,7 @@
       <c r="A63" s="32">
         <v>60</v>
       </c>
-      <c r="B63" s="42"/>
+      <c r="B63" s="45"/>
       <c r="C63" s="4" t="s">
         <v>64</v>
       </c>
@@ -3334,7 +3334,7 @@
       <c r="A64" s="32">
         <v>61</v>
       </c>
-      <c r="B64" s="46" t="s">
+      <c r="B64" s="42" t="s">
         <v>33</v>
       </c>
       <c r="C64" s="4" t="s">
@@ -3362,7 +3362,7 @@
       <c r="A65" s="32">
         <v>62</v>
       </c>
-      <c r="B65" s="47"/>
+      <c r="B65" s="43"/>
       <c r="C65" s="4" t="s">
         <v>35</v>
       </c>
@@ -3386,7 +3386,7 @@
     </row>
     <row r="66" spans="1:10" s="28" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="32"/>
-      <c r="B66" s="47"/>
+      <c r="B66" s="43"/>
       <c r="C66" s="4" t="s">
         <v>196</v>
       </c>
@@ -3404,7 +3404,7 @@
     </row>
     <row r="67" spans="1:10" s="28" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="32"/>
-      <c r="B67" s="47"/>
+      <c r="B67" s="43"/>
       <c r="C67" s="4"/>
       <c r="D67" s="12"/>
       <c r="E67" s="14"/>
@@ -3416,7 +3416,7 @@
     </row>
     <row r="68" spans="1:10" s="28" customFormat="1" ht="57.6" x14ac:dyDescent="0.25">
       <c r="A68" s="32"/>
-      <c r="B68" s="47"/>
+      <c r="B68" s="43"/>
       <c r="C68" s="4" t="s">
         <v>195</v>
       </c>
@@ -3434,7 +3434,7 @@
     </row>
     <row r="69" spans="1:10" s="28" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A69" s="32"/>
-      <c r="B69" s="47"/>
+      <c r="B69" s="43"/>
       <c r="C69" s="4" t="s">
         <v>197</v>
       </c>
@@ -3454,7 +3454,7 @@
       <c r="A70" s="32">
         <v>63</v>
       </c>
-      <c r="B70" s="47"/>
+      <c r="B70" s="43"/>
       <c r="C70" s="4" t="s">
         <v>155</v>
       </c>
@@ -3474,7 +3474,7 @@
       <c r="A71" s="32">
         <v>64</v>
       </c>
-      <c r="B71" s="47"/>
+      <c r="B71" s="43"/>
       <c r="C71" s="4" t="s">
         <v>36</v>
       </c>
@@ -3496,7 +3496,7 @@
       <c r="A72" s="32">
         <v>65</v>
       </c>
-      <c r="B72" s="48"/>
+      <c r="B72" s="44"/>
       <c r="C72" s="4" t="s">
         <v>168</v>
       </c>
@@ -3516,7 +3516,7 @@
       <c r="A73" s="32">
         <v>66</v>
       </c>
-      <c r="B73" s="42" t="s">
+      <c r="B73" s="45" t="s">
         <v>209</v>
       </c>
       <c r="C73" s="4" t="s">
@@ -3544,7 +3544,7 @@
       <c r="A74" s="32">
         <v>67</v>
       </c>
-      <c r="B74" s="42"/>
+      <c r="B74" s="45"/>
       <c r="C74" s="4" t="s">
         <v>105</v>
       </c>
@@ -3570,7 +3570,7 @@
       <c r="A75" s="32">
         <v>68</v>
       </c>
-      <c r="B75" s="42"/>
+      <c r="B75" s="45"/>
       <c r="C75" s="4" t="s">
         <v>210</v>
       </c>
@@ -3588,7 +3588,7 @@
     </row>
     <row r="76" spans="1:10" s="28" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="32"/>
-      <c r="B76" s="42"/>
+      <c r="B76" s="45"/>
       <c r="C76" s="4" t="s">
         <v>212</v>
       </c>
@@ -3604,7 +3604,7 @@
       <c r="A77" s="32">
         <v>69</v>
       </c>
-      <c r="B77" s="42"/>
+      <c r="B77" s="45"/>
       <c r="C77" s="4" t="s">
         <v>151</v>
       </c>
@@ -3622,7 +3622,7 @@
     </row>
     <row r="78" spans="1:10" s="28" customFormat="1" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A78" s="32"/>
-      <c r="B78" s="42"/>
+      <c r="B78" s="45"/>
       <c r="C78" s="4" t="s">
         <v>211</v>
       </c>
@@ -3642,7 +3642,7 @@
       <c r="A79" s="32">
         <v>70</v>
       </c>
-      <c r="B79" s="42"/>
+      <c r="B79" s="45"/>
       <c r="C79" s="4" t="s">
         <v>37</v>
       </c>
@@ -3668,7 +3668,7 @@
       <c r="A80" s="32">
         <v>71</v>
       </c>
-      <c r="B80" s="42" t="s">
+      <c r="B80" s="45" t="s">
         <v>39</v>
       </c>
       <c r="C80" s="4" t="s">
@@ -3696,7 +3696,7 @@
     </row>
     <row r="81" spans="1:10" s="28" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A81" s="32"/>
-      <c r="B81" s="42"/>
+      <c r="B81" s="45"/>
       <c r="C81" s="4" t="s">
         <v>217</v>
       </c>
@@ -3714,7 +3714,7 @@
     </row>
     <row r="82" spans="1:10" s="28" customFormat="1" ht="25.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="32"/>
-      <c r="B82" s="42"/>
+      <c r="B82" s="45"/>
       <c r="C82" s="4" t="s">
         <v>216</v>
       </c>
@@ -3734,7 +3734,7 @@
       <c r="A83" s="32">
         <v>72</v>
       </c>
-      <c r="B83" s="42"/>
+      <c r="B83" s="45"/>
       <c r="C83" s="4" t="s">
         <v>105</v>
       </c>
@@ -3760,7 +3760,7 @@
       <c r="A84" s="32">
         <v>73</v>
       </c>
-      <c r="B84" s="42"/>
+      <c r="B84" s="45"/>
       <c r="C84" s="4" t="s">
         <v>37</v>
       </c>
@@ -3786,7 +3786,7 @@
       <c r="A85" s="32">
         <v>74</v>
       </c>
-      <c r="B85" s="42" t="s">
+      <c r="B85" s="45" t="s">
         <v>41</v>
       </c>
       <c r="C85" s="4" t="s">
@@ -3812,7 +3812,7 @@
     </row>
     <row r="86" spans="1:10" s="28" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A86" s="32"/>
-      <c r="B86" s="42"/>
+      <c r="B86" s="45"/>
       <c r="C86" s="4" t="s">
         <v>218</v>
       </c>
@@ -3830,7 +3830,7 @@
     </row>
     <row r="87" spans="1:10" s="28" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A87" s="32"/>
-      <c r="B87" s="42"/>
+      <c r="B87" s="45"/>
       <c r="C87" s="4" t="s">
         <v>219</v>
       </c>
@@ -3850,7 +3850,7 @@
       <c r="A88" s="32">
         <v>75</v>
       </c>
-      <c r="B88" s="42"/>
+      <c r="B88" s="45"/>
       <c r="C88" s="4" t="s">
         <v>105</v>
       </c>
@@ -3876,7 +3876,7 @@
       <c r="A89" s="32">
         <v>76</v>
       </c>
-      <c r="B89" s="42"/>
+      <c r="B89" s="45"/>
       <c r="C89" s="4" t="s">
         <v>37</v>
       </c>
@@ -3902,7 +3902,7 @@
       <c r="A90" s="32">
         <v>77</v>
       </c>
-      <c r="B90" s="42" t="s">
+      <c r="B90" s="45" t="s">
         <v>43</v>
       </c>
       <c r="C90" s="4" t="s">
@@ -3922,7 +3922,7 @@
     </row>
     <row r="91" spans="1:10" s="28" customFormat="1" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="32"/>
-      <c r="B91" s="42"/>
+      <c r="B91" s="45"/>
       <c r="C91" s="4" t="s">
         <v>223</v>
       </c>
@@ -3948,7 +3948,7 @@
       <c r="A92" s="32">
         <v>78</v>
       </c>
-      <c r="B92" s="42"/>
+      <c r="B92" s="45"/>
       <c r="C92" s="4" t="s">
         <v>126</v>
       </c>
@@ -3972,7 +3972,7 @@
     </row>
     <row r="93" spans="1:10" s="28" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A93" s="32"/>
-      <c r="B93" s="42"/>
+      <c r="B93" s="45"/>
       <c r="C93" s="4" t="s">
         <v>225</v>
       </c>
@@ -3990,7 +3990,7 @@
     </row>
     <row r="94" spans="1:10" s="28" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="32"/>
-      <c r="B94" s="42"/>
+      <c r="B94" s="45"/>
       <c r="C94" s="4" t="s">
         <v>224</v>
       </c>
@@ -4014,7 +4014,7 @@
     </row>
     <row r="95" spans="1:10" s="28" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="32"/>
-      <c r="B95" s="42"/>
+      <c r="B95" s="45"/>
       <c r="C95" s="4" t="s">
         <v>229</v>
       </c>
@@ -4032,7 +4032,7 @@
     </row>
     <row r="96" spans="1:10" s="28" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="32"/>
-      <c r="B96" s="42"/>
+      <c r="B96" s="45"/>
       <c r="C96" s="4" t="s">
         <v>231</v>
       </c>
@@ -4050,7 +4050,7 @@
     </row>
     <row r="97" spans="1:10" s="28" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A97" s="32"/>
-      <c r="B97" s="42"/>
+      <c r="B97" s="45"/>
       <c r="C97" s="4" t="s">
         <v>222</v>
       </c>
@@ -4068,7 +4068,7 @@
     </row>
     <row r="98" spans="1:10" s="28" customFormat="1" ht="25.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="32"/>
-      <c r="B98" s="42"/>
+      <c r="B98" s="45"/>
       <c r="C98" s="4" t="s">
         <v>221</v>
       </c>
@@ -4094,7 +4094,7 @@
       <c r="A99" s="32">
         <v>79</v>
       </c>
-      <c r="B99" s="42"/>
+      <c r="B99" s="45"/>
       <c r="C99" s="4" t="s">
         <v>45</v>
       </c>
@@ -4114,7 +4114,7 @@
       <c r="A100" s="32">
         <v>80</v>
       </c>
-      <c r="B100" s="42" t="s">
+      <c r="B100" s="45" t="s">
         <v>44</v>
       </c>
       <c r="C100" s="4" t="s">
@@ -4140,7 +4140,7 @@
     </row>
     <row r="101" spans="1:10" s="28" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="32"/>
-      <c r="B101" s="42"/>
+      <c r="B101" s="45"/>
       <c r="C101" s="4" t="s">
         <v>228</v>
       </c>
@@ -4158,33 +4158,21 @@
     </row>
     <row r="102" spans="1:10" s="28" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="32"/>
-      <c r="B102" s="42"/>
-      <c r="C102" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="D102" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E102" s="14">
-        <v>42893</v>
-      </c>
+      <c r="B102" s="45"/>
+      <c r="C102" s="4"/>
+      <c r="D102" s="12"/>
+      <c r="E102" s="14"/>
       <c r="F102" s="12"/>
-      <c r="G102" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="H102" s="14">
-        <v>42893</v>
-      </c>
-      <c r="I102" s="12" t="s">
-        <v>76</v>
-      </c>
+      <c r="G102" s="12"/>
+      <c r="H102" s="14"/>
+      <c r="I102" s="12"/>
       <c r="J102" s="12"/>
     </row>
     <row r="103" spans="1:10" s="28" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="32"/>
-      <c r="B103" s="42"/>
+      <c r="B103" s="45"/>
       <c r="C103" s="4" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="D103" s="12" t="s">
         <v>10</v>
@@ -4204,23 +4192,21 @@
       </c>
       <c r="J103" s="12"/>
     </row>
-    <row r="104" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A104" s="32">
-        <v>81</v>
-      </c>
-      <c r="B104" s="42"/>
+    <row r="104" spans="1:10" s="28" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="32"/>
+      <c r="B104" s="45"/>
       <c r="C104" s="4" t="s">
-        <v>136</v>
+        <v>227</v>
       </c>
       <c r="D104" s="12" t="s">
         <v>10</v>
       </c>
       <c r="E104" s="14">
-        <v>42880</v>
+        <v>42893</v>
       </c>
       <c r="F104" s="12"/>
       <c r="G104" s="12" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="H104" s="14">
         <v>42893</v>
@@ -4230,65 +4216,67 @@
       </c>
       <c r="J104" s="12"/>
     </row>
-    <row r="105" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A105" s="32">
-        <v>82</v>
-      </c>
-      <c r="B105" s="46" t="s">
-        <v>65</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="B105" s="45"/>
       <c r="C105" s="4" t="s">
-        <v>66</v>
+        <v>136</v>
       </c>
       <c r="D105" s="12" t="s">
         <v>10</v>
       </c>
       <c r="E105" s="14">
-        <v>42830</v>
+        <v>42880</v>
       </c>
       <c r="F105" s="12"/>
       <c r="G105" s="12" t="s">
         <v>78</v>
       </c>
       <c r="H105" s="14">
-        <v>42830</v>
+        <v>42893</v>
       </c>
       <c r="I105" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="J105" s="12" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="106" spans="1:10" s="28" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="32"/>
-      <c r="B106" s="47"/>
+      <c r="J105" s="12"/>
+    </row>
+    <row r="106" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="32">
+        <v>82</v>
+      </c>
+      <c r="B106" s="42" t="s">
+        <v>65</v>
+      </c>
       <c r="C106" s="4" t="s">
-        <v>187</v>
+        <v>66</v>
       </c>
       <c r="D106" s="12" t="s">
         <v>10</v>
       </c>
       <c r="E106" s="14">
-        <v>42892</v>
+        <v>42830</v>
       </c>
       <c r="F106" s="12"/>
       <c r="G106" s="12" t="s">
         <v>78</v>
       </c>
       <c r="H106" s="14">
-        <v>42892</v>
+        <v>42830</v>
       </c>
       <c r="I106" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="J106" s="12"/>
+      <c r="J106" s="12" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="107" spans="1:10" s="28" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="32"/>
-      <c r="B107" s="48"/>
+      <c r="B107" s="43"/>
       <c r="C107" s="4" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D107" s="12" t="s">
         <v>10</v>
@@ -4308,61 +4296,65 @@
       </c>
       <c r="J107" s="12"/>
     </row>
-    <row r="108" spans="1:10" s="20" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="32">
-        <v>83</v>
-      </c>
-      <c r="B108" s="49" t="s">
-        <v>67</v>
-      </c>
-      <c r="C108" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="D108" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E108" s="19">
-        <v>42830</v>
-      </c>
-      <c r="F108" s="9"/>
-      <c r="G108" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="H108" s="19">
-        <v>42831</v>
-      </c>
-      <c r="I108" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="J108" s="9"/>
+    <row r="108" spans="1:10" s="28" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="32"/>
+      <c r="B108" s="44"/>
+      <c r="C108" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="D108" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E108" s="14">
+        <v>42892</v>
+      </c>
+      <c r="F108" s="12"/>
+      <c r="G108" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="H108" s="14">
+        <v>42892</v>
+      </c>
+      <c r="I108" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="J108" s="12"/>
     </row>
     <row r="109" spans="1:10" s="20" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="32">
-        <v>84</v>
-      </c>
-      <c r="B109" s="49"/>
+        <v>83</v>
+      </c>
+      <c r="B109" s="46" t="s">
+        <v>67</v>
+      </c>
       <c r="C109" s="8" t="s">
-        <v>95</v>
+        <v>68</v>
       </c>
       <c r="D109" s="9" t="s">
         <v>10</v>
       </c>
       <c r="E109" s="19">
-        <v>42857</v>
+        <v>42830</v>
       </c>
       <c r="F109" s="9"/>
-      <c r="G109" s="9"/>
-      <c r="H109" s="19"/>
-      <c r="I109" s="9"/>
+      <c r="G109" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="H109" s="19">
+        <v>42831</v>
+      </c>
+      <c r="I109" s="9" t="s">
+        <v>70</v>
+      </c>
       <c r="J109" s="9"/>
     </row>
     <row r="110" spans="1:10" s="20" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="32">
-        <v>85</v>
-      </c>
-      <c r="B110" s="49"/>
+        <v>84</v>
+      </c>
+      <c r="B110" s="46"/>
       <c r="C110" s="8" t="s">
-        <v>190</v>
+        <v>95</v>
       </c>
       <c r="D110" s="9" t="s">
         <v>10</v>
@@ -4378,11 +4370,11 @@
     </row>
     <row r="111" spans="1:10" s="20" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="32">
-        <v>86</v>
-      </c>
-      <c r="B111" s="49"/>
+        <v>85</v>
+      </c>
+      <c r="B111" s="46"/>
       <c r="C111" s="8" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D111" s="9" t="s">
         <v>10</v>
@@ -4397,16 +4389,18 @@
       <c r="J111" s="9"/>
     </row>
     <row r="112" spans="1:10" s="20" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="32"/>
-      <c r="B112" s="49"/>
+      <c r="A112" s="32">
+        <v>86</v>
+      </c>
+      <c r="B112" s="46"/>
       <c r="C112" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="D112" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E112" s="14">
-        <v>42892</v>
+        <v>189</v>
+      </c>
+      <c r="D112" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E112" s="19">
+        <v>42857</v>
       </c>
       <c r="F112" s="9"/>
       <c r="G112" s="9"/>
@@ -4416,9 +4410,9 @@
     </row>
     <row r="113" spans="1:10" s="20" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="32"/>
-      <c r="B113" s="49"/>
+      <c r="B113" s="46"/>
       <c r="C113" s="8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D113" s="12" t="s">
         <v>10</v>
@@ -4434,9 +4428,9 @@
     </row>
     <row r="114" spans="1:10" s="20" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="32"/>
-      <c r="B114" s="49"/>
+      <c r="B114" s="46"/>
       <c r="C114" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D114" s="12" t="s">
         <v>10</v>
@@ -4452,9 +4446,9 @@
     </row>
     <row r="115" spans="1:10" s="20" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="32"/>
-      <c r="B115" s="49"/>
+      <c r="B115" s="46"/>
       <c r="C115" s="8" t="s">
-        <v>215</v>
+        <v>193</v>
       </c>
       <c r="D115" s="12" t="s">
         <v>10</v>
@@ -4468,89 +4462,79 @@
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
     </row>
-    <row r="116" spans="1:10" s="20" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A116" s="32">
-        <v>87</v>
-      </c>
-      <c r="B116" s="49"/>
+    <row r="116" spans="1:10" s="20" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="32"/>
+      <c r="B116" s="46"/>
       <c r="C116" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="D116" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E116" s="19">
-        <v>42826</v>
+        <v>215</v>
+      </c>
+      <c r="D116" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E116" s="14">
+        <v>42892</v>
       </c>
       <c r="F116" s="9"/>
       <c r="G116" s="9"/>
-      <c r="H116" s="9"/>
+      <c r="H116" s="19"/>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
     </row>
-    <row r="117" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:10" s="20" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A117" s="32">
-        <v>88</v>
-      </c>
-      <c r="B117" s="42" t="s">
         <v>87</v>
       </c>
-      <c r="C117" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D117" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E117" s="14">
-        <v>42837</v>
-      </c>
-      <c r="F117" s="12"/>
-      <c r="G117" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="H117" s="14">
-        <v>42839</v>
-      </c>
-      <c r="I117" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="J117" s="12"/>
+      <c r="B117" s="46"/>
+      <c r="C117" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="D117" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E117" s="19">
+        <v>42826</v>
+      </c>
+      <c r="F117" s="9"/>
+      <c r="G117" s="9"/>
+      <c r="H117" s="9"/>
+      <c r="I117" s="9"/>
+      <c r="J117" s="9"/>
     </row>
     <row r="118" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="32">
-        <v>89</v>
-      </c>
-      <c r="B118" s="42"/>
+        <v>88</v>
+      </c>
+      <c r="B118" s="45" t="s">
+        <v>87</v>
+      </c>
       <c r="C118" s="4" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D118" s="12" t="s">
         <v>10</v>
       </c>
       <c r="E118" s="14">
-        <v>42857</v>
+        <v>42837</v>
       </c>
       <c r="F118" s="12"/>
       <c r="G118" s="12" t="s">
-        <v>144</v>
+        <v>56</v>
       </c>
       <c r="H118" s="14">
-        <v>42882</v>
+        <v>42839</v>
       </c>
       <c r="I118" s="12" t="s">
-        <v>145</v>
+        <v>50</v>
       </c>
       <c r="J118" s="12"/>
     </row>
     <row r="119" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="32">
-        <v>90</v>
-      </c>
-      <c r="B119" s="46" t="s">
-        <v>97</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="B119" s="45"/>
       <c r="C119" s="4" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D119" s="12" t="s">
         <v>10</v>
@@ -4560,39 +4544,49 @@
       </c>
       <c r="F119" s="12"/>
       <c r="G119" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="H119" s="14">
+        <v>42882</v>
+      </c>
+      <c r="I119" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="J119" s="12"/>
+    </row>
+    <row r="120" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="32">
+        <v>90</v>
+      </c>
+      <c r="B120" s="42" t="s">
+        <v>97</v>
+      </c>
+      <c r="C120" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D120" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E120" s="14">
+        <v>42857</v>
+      </c>
+      <c r="F120" s="12"/>
+      <c r="G120" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="H119" s="14">
+      <c r="H120" s="14">
         <v>42857</v>
       </c>
-      <c r="I119" s="12" t="s">
+      <c r="I120" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="J119" s="12"/>
-    </row>
-    <row r="120" spans="1:10" s="28" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="32"/>
-      <c r="B120" s="47"/>
-      <c r="C120" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="D120" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E120" s="14">
-        <v>42892</v>
-      </c>
-      <c r="F120" s="12"/>
-      <c r="G120" s="12"/>
-      <c r="H120" s="14"/>
-      <c r="I120" s="12"/>
       <c r="J120" s="12"/>
     </row>
     <row r="121" spans="1:10" s="28" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="32"/>
-      <c r="B121" s="47"/>
+      <c r="B121" s="43"/>
       <c r="C121" s="4" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="D121" s="12" t="s">
         <v>10</v>
@@ -4608,9 +4602,9 @@
     </row>
     <row r="122" spans="1:10" s="28" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="32"/>
-      <c r="B122" s="47"/>
+      <c r="B122" s="43"/>
       <c r="C122" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D122" s="12" t="s">
         <v>10</v>
@@ -4624,11 +4618,11 @@
       <c r="I122" s="12"/>
       <c r="J122" s="12"/>
     </row>
-    <row r="123" spans="1:10" s="28" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:10" s="28" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="32"/>
-      <c r="B123" s="47"/>
+      <c r="B123" s="43"/>
       <c r="C123" s="4" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D123" s="12" t="s">
         <v>10</v>
@@ -4642,75 +4636,67 @@
       <c r="I123" s="12"/>
       <c r="J123" s="12"/>
     </row>
-    <row r="124" spans="1:10" s="28" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:10" s="28" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A124" s="32"/>
-      <c r="B124" s="47"/>
+      <c r="B124" s="43"/>
       <c r="C124" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="D124" s="12"/>
-      <c r="E124" s="14"/>
+        <v>207</v>
+      </c>
+      <c r="D124" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E124" s="14">
+        <v>42892</v>
+      </c>
       <c r="F124" s="12"/>
       <c r="G124" s="12"/>
       <c r="H124" s="14"/>
       <c r="I124" s="12"/>
       <c r="J124" s="12"/>
     </row>
-    <row r="125" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A125" s="32">
-        <v>91</v>
-      </c>
-      <c r="B125" s="48"/>
+    <row r="125" spans="1:10" s="28" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="32"/>
+      <c r="B125" s="43"/>
       <c r="C125" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="D125" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="E125" s="14">
-        <v>42892</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="D125" s="12"/>
+      <c r="E125" s="14"/>
       <c r="F125" s="12"/>
       <c r="G125" s="12"/>
       <c r="H125" s="14"/>
       <c r="I125" s="12"/>
       <c r="J125" s="12"/>
     </row>
-    <row r="126" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A126" s="32">
-        <v>92</v>
-      </c>
-      <c r="B126" s="42" t="s">
-        <v>99</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="B126" s="44"/>
       <c r="C126" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="D126" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="D126" s="24" t="s">
         <v>10</v>
       </c>
       <c r="E126" s="14">
-        <v>42857</v>
+        <v>42892</v>
       </c>
       <c r="F126" s="12"/>
-      <c r="G126" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="H126" s="14">
-        <v>42857</v>
-      </c>
-      <c r="I126" s="12" t="s">
-        <v>76</v>
-      </c>
+      <c r="G126" s="12"/>
+      <c r="H126" s="14"/>
+      <c r="I126" s="12"/>
       <c r="J126" s="12"/>
     </row>
     <row r="127" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="32">
-        <v>93</v>
-      </c>
-      <c r="B127" s="42"/>
+        <v>92</v>
+      </c>
+      <c r="B127" s="45" t="s">
+        <v>99</v>
+      </c>
       <c r="C127" s="4" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D127" s="12" t="s">
         <v>10</v>
@@ -4732,11 +4718,11 @@
     </row>
     <row r="128" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="32">
-        <v>94</v>
-      </c>
-      <c r="B128" s="42"/>
+        <v>93</v>
+      </c>
+      <c r="B128" s="45"/>
       <c r="C128" s="4" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D128" s="12" t="s">
         <v>10</v>
@@ -4756,99 +4742,105 @@
       </c>
       <c r="J128" s="12"/>
     </row>
-    <row r="129" spans="1:10" s="28" customFormat="1" ht="40.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="32"/>
-      <c r="B129" s="41" t="s">
+    <row r="129" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="32">
+        <v>94</v>
+      </c>
+      <c r="B129" s="45"/>
+      <c r="C129" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D129" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E129" s="14">
+        <v>42857</v>
+      </c>
+      <c r="F129" s="12"/>
+      <c r="G129" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="H129" s="14">
+        <v>42857</v>
+      </c>
+      <c r="I129" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="J129" s="12"/>
+    </row>
+    <row r="130" spans="1:10" s="28" customFormat="1" ht="40.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="32"/>
+      <c r="B130" s="41" t="s">
         <v>201</v>
       </c>
-      <c r="C129" s="4" t="s">
+      <c r="C130" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="D129" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E129" s="14">
+      <c r="D130" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E130" s="14">
         <v>42892</v>
       </c>
-      <c r="F129" s="12"/>
-      <c r="G129" s="12"/>
-      <c r="H129" s="14"/>
-      <c r="I129" s="12"/>
-      <c r="J129" s="12"/>
-    </row>
-    <row r="130" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A130" s="32">
+      <c r="F130" s="12"/>
+      <c r="G130" s="12"/>
+      <c r="H130" s="14"/>
+      <c r="I130" s="12"/>
+      <c r="J130" s="12"/>
+    </row>
+    <row r="131" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A131" s="32">
         <v>95</v>
       </c>
-      <c r="B130" s="46" t="s">
+      <c r="B131" s="42" t="s">
         <v>111</v>
       </c>
-      <c r="C130" s="4" t="s">
+      <c r="C131" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="D130" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E130" s="14">
+      <c r="D131" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E131" s="14">
         <v>42863</v>
       </c>
-      <c r="F130" s="12"/>
-      <c r="G130" s="7" t="s">
+      <c r="F131" s="12"/>
+      <c r="G131" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="H130" s="15">
+      <c r="H131" s="15">
         <v>42881</v>
       </c>
-      <c r="I130" s="12" t="s">
+      <c r="I131" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="J130" s="12"/>
-    </row>
-    <row r="131" spans="1:10" s="28" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A131" s="32"/>
-      <c r="B131" s="47"/>
-      <c r="C131" s="4" t="s">
+      <c r="J131" s="12"/>
+    </row>
+    <row r="132" spans="1:10" s="28" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A132" s="32"/>
+      <c r="B132" s="43"/>
+      <c r="C132" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="D131" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="E131" s="14">
+      <c r="D132" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E132" s="14">
         <v>42892</v>
       </c>
-      <c r="F131" s="12"/>
-      <c r="G131" s="29"/>
-      <c r="H131" s="33"/>
-      <c r="I131" s="12"/>
-      <c r="J131" s="12"/>
-    </row>
-    <row r="132" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A132" s="32">
-        <v>96</v>
-      </c>
-      <c r="B132" s="47"/>
-      <c r="C132" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="D132" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E132" s="14">
-        <v>42886</v>
-      </c>
       <c r="F132" s="12"/>
-      <c r="G132" s="7"/>
-      <c r="H132" s="15"/>
+      <c r="G132" s="29"/>
+      <c r="H132" s="33"/>
       <c r="I132" s="12"/>
       <c r="J132" s="12"/>
     </row>
-    <row r="133" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A133" s="32">
-        <v>97</v>
-      </c>
-      <c r="B133" s="47"/>
+        <v>96</v>
+      </c>
+      <c r="B133" s="43"/>
       <c r="C133" s="4" t="s">
-        <v>150</v>
+        <v>213</v>
       </c>
       <c r="D133" s="12" t="s">
         <v>10</v>
@@ -4862,55 +4854,49 @@
       <c r="I133" s="12"/>
       <c r="J133" s="12"/>
     </row>
-    <row r="134" spans="1:10" s="28" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="43" t="s">
+    <row r="134" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="32">
+        <v>97</v>
+      </c>
+      <c r="B134" s="43"/>
+      <c r="C134" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="D134" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E134" s="14">
+        <v>42886</v>
+      </c>
+      <c r="F134" s="12"/>
+      <c r="G134" s="7"/>
+      <c r="H134" s="15"/>
+      <c r="I134" s="12"/>
+      <c r="J134" s="12"/>
+    </row>
+    <row r="135" spans="1:10" s="28" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="47" t="s">
         <v>199</v>
       </c>
-      <c r="B134" s="44"/>
-      <c r="C134" s="44"/>
-      <c r="D134" s="44"/>
-      <c r="E134" s="44"/>
-      <c r="F134" s="44"/>
-      <c r="G134" s="44"/>
-      <c r="H134" s="44"/>
-      <c r="I134" s="44"/>
-      <c r="J134" s="45"/>
-    </row>
-    <row r="135" spans="1:10" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A135" s="32">
+      <c r="B135" s="48"/>
+      <c r="C135" s="48"/>
+      <c r="D135" s="48"/>
+      <c r="E135" s="48"/>
+      <c r="F135" s="48"/>
+      <c r="G135" s="48"/>
+      <c r="H135" s="48"/>
+      <c r="I135" s="48"/>
+      <c r="J135" s="49"/>
+    </row>
+    <row r="136" spans="1:10" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A136" s="32">
         <v>98</v>
       </c>
-      <c r="B135" s="42" t="s">
+      <c r="B136" s="45" t="s">
         <v>113</v>
       </c>
-      <c r="C135" s="4" t="s">
+      <c r="C136" s="4" t="s">
         <v>115</v>
-      </c>
-      <c r="D135" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E135" s="14">
-        <v>42863</v>
-      </c>
-      <c r="F135" s="12"/>
-      <c r="G135" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="H135" s="14">
-        <v>42141</v>
-      </c>
-      <c r="I135" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="J135" s="12"/>
-    </row>
-    <row r="136" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="32">
-        <v>99</v>
-      </c>
-      <c r="B136" s="42"/>
-      <c r="C136" s="4" t="s">
-        <v>116</v>
       </c>
       <c r="D136" s="12" t="s">
         <v>10</v>
@@ -4926,19 +4912,17 @@
         <v>42141</v>
       </c>
       <c r="I136" s="12" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="J136" s="12"/>
     </row>
-    <row r="137" spans="1:10" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="32">
-        <v>100</v>
-      </c>
-      <c r="B137" s="42" t="s">
-        <v>114</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="B137" s="45"/>
       <c r="C137" s="4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D137" s="12" t="s">
         <v>10</v>
@@ -4958,13 +4942,15 @@
       </c>
       <c r="J137" s="12"/>
     </row>
-    <row r="138" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:10" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A138" s="32">
-        <v>101</v>
-      </c>
-      <c r="B138" s="42"/>
+        <v>100</v>
+      </c>
+      <c r="B138" s="45" t="s">
+        <v>114</v>
+      </c>
       <c r="C138" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D138" s="12" t="s">
         <v>10</v>
@@ -4984,15 +4970,13 @@
       </c>
       <c r="J138" s="12"/>
     </row>
-    <row r="139" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="32">
-        <v>102</v>
-      </c>
-      <c r="B139" s="46" t="s">
-        <v>118</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="B139" s="45"/>
       <c r="C139" s="4" t="s">
-        <v>140</v>
+        <v>117</v>
       </c>
       <c r="D139" s="12" t="s">
         <v>10</v>
@@ -5001,80 +4985,80 @@
         <v>42863</v>
       </c>
       <c r="F139" s="12"/>
-      <c r="G139" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="H139" s="15">
-        <v>42882</v>
+      <c r="G139" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="H139" s="14">
+        <v>42141</v>
       </c>
       <c r="I139" s="12" t="s">
         <v>124</v>
       </c>
       <c r="J139" s="12"/>
     </row>
-    <row r="140" spans="1:10" s="26" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="32">
+        <v>102</v>
+      </c>
+      <c r="B140" s="42" t="s">
+        <v>118</v>
+      </c>
+      <c r="C140" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="D140" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E140" s="14">
+        <v>42863</v>
+      </c>
+      <c r="F140" s="12"/>
+      <c r="G140" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H140" s="15">
+        <v>42882</v>
+      </c>
+      <c r="I140" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="J140" s="12"/>
+    </row>
+    <row r="141" spans="1:10" s="26" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A141" s="32">
         <v>103</v>
       </c>
-      <c r="B140" s="48"/>
-      <c r="C140" s="4" t="s">
+      <c r="B141" s="44"/>
+      <c r="C141" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="D140" s="24" t="s">
+      <c r="D141" s="24" t="s">
         <v>170</v>
       </c>
-      <c r="E140" s="25">
+      <c r="E141" s="25">
         <v>42887</v>
       </c>
-      <c r="F140" s="12"/>
-      <c r="G140" s="24"/>
-      <c r="H140" s="27"/>
-      <c r="I140" s="11"/>
-      <c r="J140" s="11"/>
-    </row>
-    <row r="141" spans="1:10" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A141" s="32">
+      <c r="F141" s="12"/>
+      <c r="G141" s="24"/>
+      <c r="H141" s="27"/>
+      <c r="I141" s="11"/>
+      <c r="J141" s="11"/>
+    </row>
+    <row r="142" spans="1:10" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A142" s="32">
         <v>104</v>
       </c>
-      <c r="B141" s="22" t="s">
+      <c r="B142" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="C141" s="4" t="s">
+      <c r="C142" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="D141" s="12" t="s">
+      <c r="D142" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="E141" s="14">
+      <c r="E142" s="14">
         <v>42864</v>
-      </c>
-      <c r="F141" s="12"/>
-      <c r="G141" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="H141" s="14">
-        <v>42151</v>
-      </c>
-      <c r="I141" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="J141" s="12"/>
-    </row>
-    <row r="142" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="32">
-        <v>105</v>
-      </c>
-      <c r="B142" s="46" t="s">
-        <v>132</v>
-      </c>
-      <c r="C142" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="D142" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="E142" s="14">
-        <v>42880</v>
       </c>
       <c r="F142" s="12"/>
       <c r="G142" s="12" t="s">
@@ -5084,17 +5068,19 @@
         <v>42151</v>
       </c>
       <c r="I142" s="12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J142" s="12"/>
     </row>
     <row r="143" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="32">
-        <v>106</v>
-      </c>
-      <c r="B143" s="47"/>
+        <v>105</v>
+      </c>
+      <c r="B143" s="42" t="s">
+        <v>132</v>
+      </c>
       <c r="C143" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D143" s="12" t="s">
         <v>134</v>
@@ -5114,13 +5100,13 @@
       </c>
       <c r="J143" s="12"/>
     </row>
-    <row r="144" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="32">
-        <v>107</v>
-      </c>
-      <c r="B144" s="48"/>
+        <v>106</v>
+      </c>
+      <c r="B144" s="43"/>
       <c r="C144" s="4" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D144" s="12" t="s">
         <v>134</v>
@@ -5140,37 +5126,41 @@
       </c>
       <c r="J144" s="12"/>
     </row>
-    <row r="145" spans="1:10" s="26" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A145" s="32">
+        <v>107</v>
+      </c>
+      <c r="B145" s="44"/>
+      <c r="C145" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="D145" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="E145" s="14">
+        <v>42880</v>
+      </c>
+      <c r="F145" s="12"/>
+      <c r="G145" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="H145" s="14">
+        <v>42151</v>
+      </c>
+      <c r="I145" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="J145" s="12"/>
+    </row>
+    <row r="146" spans="1:10" s="26" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A146" s="32">
         <v>108</v>
       </c>
-      <c r="B145" s="11" t="s">
+      <c r="B146" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="C145" s="4" t="s">
+      <c r="C146" s="4" t="s">
         <v>174</v>
-      </c>
-      <c r="D145" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="E145" s="25">
-        <v>42888</v>
-      </c>
-      <c r="F145" s="12"/>
-      <c r="G145" s="11"/>
-      <c r="H145" s="11"/>
-      <c r="I145" s="11"/>
-      <c r="J145" s="11"/>
-    </row>
-    <row r="146" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A146" s="32">
-        <v>109</v>
-      </c>
-      <c r="B146" s="31" t="s">
-        <v>200</v>
-      </c>
-      <c r="C146" s="4" t="s">
-        <v>175</v>
       </c>
       <c r="D146" s="24" t="s">
         <v>10</v>
@@ -5179,17 +5169,27 @@
         <v>42888</v>
       </c>
       <c r="F146" s="12"/>
-      <c r="G146" s="12"/>
-      <c r="H146" s="12"/>
-      <c r="I146" s="12"/>
-      <c r="J146" s="12"/>
-    </row>
-    <row r="147" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="12"/>
-      <c r="B147" s="22"/>
-      <c r="C147" s="4"/>
-      <c r="D147" s="12"/>
-      <c r="E147" s="12"/>
+      <c r="G146" s="11"/>
+      <c r="H146" s="11"/>
+      <c r="I146" s="11"/>
+      <c r="J146" s="11"/>
+    </row>
+    <row r="147" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A147" s="32">
+        <v>109</v>
+      </c>
+      <c r="B147" s="31" t="s">
+        <v>200</v>
+      </c>
+      <c r="C147" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="D147" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E147" s="25">
+        <v>42888</v>
+      </c>
       <c r="F147" s="12"/>
       <c r="G147" s="12"/>
       <c r="H147" s="12"/>
@@ -6864,32 +6864,44 @@
       <c r="I286" s="12"/>
       <c r="J286" s="12"/>
     </row>
+    <row r="287" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A287" s="12"/>
+      <c r="B287" s="22"/>
+      <c r="C287" s="4"/>
+      <c r="D287" s="12"/>
+      <c r="E287" s="12"/>
+      <c r="F287" s="12"/>
+      <c r="G287" s="12"/>
+      <c r="H287" s="12"/>
+      <c r="I287" s="12"/>
+      <c r="J287" s="12"/>
+    </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="B55:B60"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="B136:B137"/>
+    <mergeCell ref="B38:B47"/>
+    <mergeCell ref="B48:B52"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="A135:J135"/>
+    <mergeCell ref="B106:B108"/>
     <mergeCell ref="B29:B37"/>
     <mergeCell ref="B64:B72"/>
     <mergeCell ref="B2:B28"/>
-    <mergeCell ref="B119:B125"/>
-    <mergeCell ref="B142:B144"/>
+    <mergeCell ref="B120:B126"/>
+    <mergeCell ref="B143:B145"/>
     <mergeCell ref="B73:B79"/>
     <mergeCell ref="B80:B84"/>
     <mergeCell ref="B85:B89"/>
     <mergeCell ref="B90:B99"/>
-    <mergeCell ref="B137:B138"/>
-    <mergeCell ref="B100:B104"/>
-    <mergeCell ref="B108:B116"/>
-    <mergeCell ref="B117:B118"/>
-    <mergeCell ref="B126:B128"/>
-    <mergeCell ref="B130:B133"/>
-    <mergeCell ref="B139:B140"/>
-    <mergeCell ref="B55:B60"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="B135:B136"/>
-    <mergeCell ref="B38:B47"/>
-    <mergeCell ref="B48:B52"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="A134:J134"/>
-    <mergeCell ref="B105:B107"/>
+    <mergeCell ref="B138:B139"/>
+    <mergeCell ref="B100:B105"/>
+    <mergeCell ref="B109:B117"/>
+    <mergeCell ref="B118:B119"/>
+    <mergeCell ref="B127:B129"/>
+    <mergeCell ref="B131:B134"/>
+    <mergeCell ref="B140:B141"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I44">

--- a/ProjectManagement/文档/问题点一览.xlsx
+++ b/ProjectManagement/文档/问题点一览.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="233">
   <si>
     <t>NO</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -933,6 +933,10 @@
   </si>
   <si>
     <t>更新了问题的状态为已解决，然后在左侧树那里，突然出现多条同样的问题。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这里是测试github是多人协作。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1224,19 +1228,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1247,6 +1239,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1705,7 +1709,7 @@
       <c r="A2" s="13">
         <v>1</v>
       </c>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="46" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -1733,7 +1737,7 @@
       <c r="A3" s="13">
         <v>2</v>
       </c>
-      <c r="B3" s="43"/>
+      <c r="B3" s="47"/>
       <c r="C3" s="4" t="s">
         <v>51</v>
       </c>
@@ -1759,7 +1763,7 @@
       <c r="A4" s="13">
         <v>3</v>
       </c>
-      <c r="B4" s="43"/>
+      <c r="B4" s="47"/>
       <c r="C4" s="4" t="s">
         <v>52</v>
       </c>
@@ -1785,7 +1789,7 @@
       <c r="A5" s="13">
         <v>4</v>
       </c>
-      <c r="B5" s="43"/>
+      <c r="B5" s="47"/>
       <c r="C5" s="4" t="s">
         <v>13</v>
       </c>
@@ -1811,7 +1815,7 @@
       <c r="A6" s="13">
         <v>5</v>
       </c>
-      <c r="B6" s="43"/>
+      <c r="B6" s="47"/>
       <c r="C6" s="4" t="s">
         <v>53</v>
       </c>
@@ -1837,7 +1841,7 @@
       <c r="A7" s="13">
         <v>6</v>
       </c>
-      <c r="B7" s="43"/>
+      <c r="B7" s="47"/>
       <c r="C7" s="4" t="s">
         <v>16</v>
       </c>
@@ -1863,7 +1867,7 @@
       <c r="A8" s="13">
         <v>7</v>
       </c>
-      <c r="B8" s="43"/>
+      <c r="B8" s="47"/>
       <c r="C8" s="4" t="s">
         <v>14</v>
       </c>
@@ -1889,7 +1893,7 @@
       <c r="A9" s="13">
         <v>8</v>
       </c>
-      <c r="B9" s="43"/>
+      <c r="B9" s="47"/>
       <c r="C9" s="4" t="s">
         <v>17</v>
       </c>
@@ -1915,7 +1919,7 @@
       <c r="A10" s="13">
         <v>9</v>
       </c>
-      <c r="B10" s="43"/>
+      <c r="B10" s="47"/>
       <c r="C10" s="6" t="s">
         <v>163</v>
       </c>
@@ -1948,7 +1952,7 @@
       <c r="A11" s="13">
         <v>10</v>
       </c>
-      <c r="B11" s="43"/>
+      <c r="B11" s="47"/>
       <c r="C11" s="4" t="s">
         <v>48</v>
       </c>
@@ -1974,7 +1978,7 @@
       <c r="A12" s="13">
         <v>11</v>
       </c>
-      <c r="B12" s="43"/>
+      <c r="B12" s="47"/>
       <c r="C12" s="4" t="s">
         <v>107</v>
       </c>
@@ -2000,7 +2004,7 @@
       <c r="A13" s="13">
         <v>12</v>
       </c>
-      <c r="B13" s="43"/>
+      <c r="B13" s="47"/>
       <c r="C13" s="4" t="s">
         <v>110</v>
       </c>
@@ -2026,7 +2030,7 @@
       <c r="A14" s="13">
         <v>13</v>
       </c>
-      <c r="B14" s="43"/>
+      <c r="B14" s="47"/>
       <c r="C14" s="4" t="s">
         <v>109</v>
       </c>
@@ -2052,7 +2056,7 @@
       <c r="A15" s="13">
         <v>14</v>
       </c>
-      <c r="B15" s="43"/>
+      <c r="B15" s="47"/>
       <c r="C15" s="6" t="s">
         <v>138</v>
       </c>
@@ -2078,7 +2082,7 @@
       <c r="A16" s="13">
         <v>15</v>
       </c>
-      <c r="B16" s="43"/>
+      <c r="B16" s="47"/>
       <c r="C16" s="6" t="s">
         <v>156</v>
       </c>
@@ -2107,7 +2111,7 @@
       <c r="A17" s="13">
         <v>16</v>
       </c>
-      <c r="B17" s="43"/>
+      <c r="B17" s="47"/>
       <c r="C17" s="6" t="s">
         <v>159</v>
       </c>
@@ -2133,7 +2137,7 @@
       <c r="A18" s="13">
         <v>17</v>
       </c>
-      <c r="B18" s="43"/>
+      <c r="B18" s="47"/>
       <c r="C18" s="10" t="s">
         <v>148</v>
       </c>
@@ -2160,7 +2164,7 @@
       <c r="A19" s="32">
         <v>18</v>
       </c>
-      <c r="B19" s="43"/>
+      <c r="B19" s="47"/>
       <c r="C19" s="10" t="s">
         <v>157</v>
       </c>
@@ -2187,7 +2191,7 @@
       <c r="A20" s="32">
         <v>19</v>
       </c>
-      <c r="B20" s="43"/>
+      <c r="B20" s="47"/>
       <c r="C20" s="10" t="s">
         <v>153</v>
       </c>
@@ -2214,7 +2218,7 @@
       <c r="A21" s="32">
         <v>20</v>
       </c>
-      <c r="B21" s="43"/>
+      <c r="B21" s="47"/>
       <c r="C21" s="37" t="s">
         <v>171</v>
       </c>
@@ -2241,7 +2245,7 @@
       <c r="A22" s="32">
         <v>21</v>
       </c>
-      <c r="B22" s="43"/>
+      <c r="B22" s="47"/>
       <c r="C22" s="40" t="s">
         <v>184</v>
       </c>
@@ -2268,7 +2272,7 @@
       <c r="A23" s="32">
         <v>22</v>
       </c>
-      <c r="B23" s="43"/>
+      <c r="B23" s="47"/>
       <c r="C23" s="40" t="s">
         <v>185</v>
       </c>
@@ -2295,7 +2299,7 @@
       <c r="A24" s="32">
         <v>23</v>
       </c>
-      <c r="B24" s="43"/>
+      <c r="B24" s="47"/>
       <c r="C24" s="10" t="s">
         <v>154</v>
       </c>
@@ -2322,7 +2326,7 @@
       <c r="A25" s="32">
         <v>24</v>
       </c>
-      <c r="B25" s="43"/>
+      <c r="B25" s="47"/>
       <c r="C25" s="30" t="s">
         <v>176</v>
       </c>
@@ -2349,7 +2353,7 @@
       <c r="A26" s="32">
         <v>25</v>
       </c>
-      <c r="B26" s="43"/>
+      <c r="B26" s="47"/>
       <c r="C26" s="6" t="s">
         <v>177</v>
       </c>
@@ -2376,7 +2380,7 @@
       <c r="A27" s="32">
         <v>26</v>
       </c>
-      <c r="B27" s="43"/>
+      <c r="B27" s="47"/>
       <c r="C27" s="6" t="s">
         <v>180</v>
       </c>
@@ -2402,7 +2406,7 @@
       <c r="A28" s="32">
         <v>27</v>
       </c>
-      <c r="B28" s="44"/>
+      <c r="B28" s="48"/>
       <c r="C28" s="6" t="s">
         <v>181</v>
       </c>
@@ -2428,7 +2432,7 @@
       <c r="A29" s="32">
         <v>28</v>
       </c>
-      <c r="B29" s="42" t="s">
+      <c r="B29" s="46" t="s">
         <v>12</v>
       </c>
       <c r="C29" s="4" t="s">
@@ -2456,7 +2460,7 @@
       <c r="A30" s="32">
         <v>29</v>
       </c>
-      <c r="B30" s="43"/>
+      <c r="B30" s="47"/>
       <c r="C30" s="4" t="s">
         <v>17</v>
       </c>
@@ -2482,7 +2486,7 @@
       <c r="A31" s="32">
         <v>30</v>
       </c>
-      <c r="B31" s="43"/>
+      <c r="B31" s="47"/>
       <c r="C31" s="4" t="s">
         <v>18</v>
       </c>
@@ -2508,7 +2512,7 @@
       <c r="A32" s="32">
         <v>31</v>
       </c>
-      <c r="B32" s="43"/>
+      <c r="B32" s="47"/>
       <c r="C32" s="4" t="s">
         <v>106</v>
       </c>
@@ -2534,7 +2538,7 @@
       <c r="A33" s="32">
         <v>32</v>
       </c>
-      <c r="B33" s="43"/>
+      <c r="B33" s="47"/>
       <c r="C33" s="4" t="s">
         <v>55</v>
       </c>
@@ -2560,7 +2564,7 @@
       <c r="A34" s="32">
         <v>33</v>
       </c>
-      <c r="B34" s="43"/>
+      <c r="B34" s="47"/>
       <c r="C34" s="4" t="s">
         <v>164</v>
       </c>
@@ -2586,7 +2590,7 @@
       <c r="A35" s="32">
         <v>34</v>
       </c>
-      <c r="B35" s="43"/>
+      <c r="B35" s="47"/>
       <c r="C35" s="4" t="s">
         <v>179</v>
       </c>
@@ -2612,7 +2616,7 @@
       <c r="A36" s="32">
         <v>35</v>
       </c>
-      <c r="B36" s="43"/>
+      <c r="B36" s="47"/>
       <c r="C36" s="4" t="s">
         <v>166</v>
       </c>
@@ -2638,7 +2642,7 @@
       <c r="A37" s="32">
         <v>36</v>
       </c>
-      <c r="B37" s="44"/>
+      <c r="B37" s="48"/>
       <c r="C37" s="4" t="s">
         <v>165</v>
       </c>
@@ -2658,7 +2662,7 @@
       <c r="A38" s="32">
         <v>37</v>
       </c>
-      <c r="B38" s="45" t="s">
+      <c r="B38" s="42" t="s">
         <v>19</v>
       </c>
       <c r="C38" s="4" t="s">
@@ -2688,7 +2692,7 @@
       <c r="A39" s="32">
         <v>38</v>
       </c>
-      <c r="B39" s="45"/>
+      <c r="B39" s="42"/>
       <c r="C39" s="4" t="s">
         <v>21</v>
       </c>
@@ -2714,7 +2718,7 @@
       <c r="A40" s="32">
         <v>39</v>
       </c>
-      <c r="B40" s="45"/>
+      <c r="B40" s="42"/>
       <c r="C40" s="4" t="s">
         <v>71</v>
       </c>
@@ -2740,7 +2744,7 @@
       <c r="A41" s="32">
         <v>40</v>
       </c>
-      <c r="B41" s="45"/>
+      <c r="B41" s="42"/>
       <c r="C41" s="4" t="s">
         <v>90</v>
       </c>
@@ -2766,7 +2770,7 @@
       <c r="A42" s="32">
         <v>41</v>
       </c>
-      <c r="B42" s="45"/>
+      <c r="B42" s="42"/>
       <c r="C42" s="4" t="s">
         <v>89</v>
       </c>
@@ -2792,7 +2796,7 @@
       <c r="A43" s="32">
         <v>42</v>
       </c>
-      <c r="B43" s="45"/>
+      <c r="B43" s="42"/>
       <c r="C43" s="4" t="s">
         <v>94</v>
       </c>
@@ -2818,7 +2822,7 @@
       <c r="A44" s="32">
         <v>43</v>
       </c>
-      <c r="B44" s="45"/>
+      <c r="B44" s="42"/>
       <c r="C44" s="4" t="s">
         <v>96</v>
       </c>
@@ -2844,7 +2848,7 @@
       <c r="A45" s="32">
         <v>44</v>
       </c>
-      <c r="B45" s="45"/>
+      <c r="B45" s="42"/>
       <c r="C45" s="4" t="s">
         <v>152</v>
       </c>
@@ -2872,7 +2876,7 @@
       <c r="A46" s="32">
         <v>45</v>
       </c>
-      <c r="B46" s="45"/>
+      <c r="B46" s="42"/>
       <c r="C46" s="6" t="s">
         <v>137</v>
       </c>
@@ -2898,7 +2902,7 @@
       <c r="A47" s="32">
         <v>46</v>
       </c>
-      <c r="B47" s="45"/>
+      <c r="B47" s="42"/>
       <c r="C47" s="4" t="s">
         <v>22</v>
       </c>
@@ -2924,7 +2928,7 @@
       <c r="A48" s="32">
         <v>47</v>
       </c>
-      <c r="B48" s="45" t="s">
+      <c r="B48" s="42" t="s">
         <v>23</v>
       </c>
       <c r="C48" s="4" t="s">
@@ -2952,7 +2956,7 @@
       <c r="A49" s="32">
         <v>48</v>
       </c>
-      <c r="B49" s="45"/>
+      <c r="B49" s="42"/>
       <c r="C49" s="4" t="s">
         <v>92</v>
       </c>
@@ -2980,7 +2984,7 @@
       <c r="A50" s="32">
         <v>49</v>
       </c>
-      <c r="B50" s="45"/>
+      <c r="B50" s="42"/>
       <c r="C50" s="6" t="s">
         <v>91</v>
       </c>
@@ -3006,7 +3010,7 @@
       <c r="A51" s="32">
         <v>50</v>
       </c>
-      <c r="B51" s="45"/>
+      <c r="B51" s="42"/>
       <c r="C51" s="6" t="s">
         <v>149</v>
       </c>
@@ -3032,7 +3036,7 @@
       <c r="A52" s="32">
         <v>51</v>
       </c>
-      <c r="B52" s="45"/>
+      <c r="B52" s="42"/>
       <c r="C52" s="4" t="s">
         <v>25</v>
       </c>
@@ -3058,7 +3062,7 @@
       <c r="A53" s="32">
         <v>52</v>
       </c>
-      <c r="B53" s="45" t="s">
+      <c r="B53" s="42" t="s">
         <v>26</v>
       </c>
       <c r="C53" s="4" t="s">
@@ -3086,7 +3090,7 @@
       <c r="A54" s="32">
         <v>53</v>
       </c>
-      <c r="B54" s="45"/>
+      <c r="B54" s="42"/>
       <c r="C54" s="4" t="s">
         <v>28</v>
       </c>
@@ -3112,7 +3116,7 @@
       <c r="A55" s="32">
         <v>54</v>
       </c>
-      <c r="B55" s="45" t="s">
+      <c r="B55" s="42" t="s">
         <v>29</v>
       </c>
       <c r="C55" s="4" t="s">
@@ -3140,7 +3144,7 @@
       <c r="A56" s="32">
         <v>55</v>
       </c>
-      <c r="B56" s="45"/>
+      <c r="B56" s="42"/>
       <c r="C56" s="4" t="s">
         <v>62</v>
       </c>
@@ -3166,7 +3170,7 @@
       <c r="A57" s="32">
         <v>56</v>
       </c>
-      <c r="B57" s="45"/>
+      <c r="B57" s="42"/>
       <c r="C57" s="4" t="s">
         <v>63</v>
       </c>
@@ -3192,7 +3196,7 @@
       <c r="A58" s="32">
         <v>57</v>
       </c>
-      <c r="B58" s="45"/>
+      <c r="B58" s="42"/>
       <c r="C58" s="4" t="s">
         <v>72</v>
       </c>
@@ -3216,7 +3220,7 @@
     </row>
     <row r="59" spans="1:10" s="28" customFormat="1" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A59" s="32"/>
-      <c r="B59" s="45"/>
+      <c r="B59" s="42"/>
       <c r="C59" s="4" t="s">
         <v>198</v>
       </c>
@@ -3236,7 +3240,7 @@
       <c r="A60" s="32">
         <v>58</v>
       </c>
-      <c r="B60" s="45"/>
+      <c r="B60" s="42"/>
       <c r="C60" s="4" t="s">
         <v>61</v>
       </c>
@@ -3262,7 +3266,7 @@
       <c r="A61" s="32">
         <v>59</v>
       </c>
-      <c r="B61" s="45" t="s">
+      <c r="B61" s="42" t="s">
         <v>31</v>
       </c>
       <c r="C61" s="4" t="s">
@@ -3288,7 +3292,7 @@
     </row>
     <row r="62" spans="1:10" s="28" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="32"/>
-      <c r="B62" s="45"/>
+      <c r="B62" s="42"/>
       <c r="C62" s="4" t="s">
         <v>194</v>
       </c>
@@ -3308,7 +3312,7 @@
       <c r="A63" s="32">
         <v>60</v>
       </c>
-      <c r="B63" s="45"/>
+      <c r="B63" s="42"/>
       <c r="C63" s="4" t="s">
         <v>64</v>
       </c>
@@ -3334,7 +3338,7 @@
       <c r="A64" s="32">
         <v>61</v>
       </c>
-      <c r="B64" s="42" t="s">
+      <c r="B64" s="46" t="s">
         <v>33</v>
       </c>
       <c r="C64" s="4" t="s">
@@ -3362,7 +3366,7 @@
       <c r="A65" s="32">
         <v>62</v>
       </c>
-      <c r="B65" s="43"/>
+      <c r="B65" s="47"/>
       <c r="C65" s="4" t="s">
         <v>35</v>
       </c>
@@ -3386,7 +3390,7 @@
     </row>
     <row r="66" spans="1:10" s="28" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="32"/>
-      <c r="B66" s="43"/>
+      <c r="B66" s="47"/>
       <c r="C66" s="4" t="s">
         <v>196</v>
       </c>
@@ -3404,7 +3408,7 @@
     </row>
     <row r="67" spans="1:10" s="28" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="32"/>
-      <c r="B67" s="43"/>
+      <c r="B67" s="47"/>
       <c r="C67" s="4"/>
       <c r="D67" s="12"/>
       <c r="E67" s="14"/>
@@ -3416,7 +3420,7 @@
     </row>
     <row r="68" spans="1:10" s="28" customFormat="1" ht="57.6" x14ac:dyDescent="0.25">
       <c r="A68" s="32"/>
-      <c r="B68" s="43"/>
+      <c r="B68" s="47"/>
       <c r="C68" s="4" t="s">
         <v>195</v>
       </c>
@@ -3434,7 +3438,7 @@
     </row>
     <row r="69" spans="1:10" s="28" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A69" s="32"/>
-      <c r="B69" s="43"/>
+      <c r="B69" s="47"/>
       <c r="C69" s="4" t="s">
         <v>197</v>
       </c>
@@ -3454,7 +3458,7 @@
       <c r="A70" s="32">
         <v>63</v>
       </c>
-      <c r="B70" s="43"/>
+      <c r="B70" s="47"/>
       <c r="C70" s="4" t="s">
         <v>155</v>
       </c>
@@ -3474,7 +3478,7 @@
       <c r="A71" s="32">
         <v>64</v>
       </c>
-      <c r="B71" s="43"/>
+      <c r="B71" s="47"/>
       <c r="C71" s="4" t="s">
         <v>36</v>
       </c>
@@ -3496,7 +3500,7 @@
       <c r="A72" s="32">
         <v>65</v>
       </c>
-      <c r="B72" s="44"/>
+      <c r="B72" s="48"/>
       <c r="C72" s="4" t="s">
         <v>168</v>
       </c>
@@ -3516,7 +3520,7 @@
       <c r="A73" s="32">
         <v>66</v>
       </c>
-      <c r="B73" s="45" t="s">
+      <c r="B73" s="42" t="s">
         <v>209</v>
       </c>
       <c r="C73" s="4" t="s">
@@ -3544,7 +3548,7 @@
       <c r="A74" s="32">
         <v>67</v>
       </c>
-      <c r="B74" s="45"/>
+      <c r="B74" s="42"/>
       <c r="C74" s="4" t="s">
         <v>105</v>
       </c>
@@ -3570,7 +3574,7 @@
       <c r="A75" s="32">
         <v>68</v>
       </c>
-      <c r="B75" s="45"/>
+      <c r="B75" s="42"/>
       <c r="C75" s="4" t="s">
         <v>210</v>
       </c>
@@ -3588,7 +3592,7 @@
     </row>
     <row r="76" spans="1:10" s="28" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="32"/>
-      <c r="B76" s="45"/>
+      <c r="B76" s="42"/>
       <c r="C76" s="4" t="s">
         <v>212</v>
       </c>
@@ -3604,7 +3608,7 @@
       <c r="A77" s="32">
         <v>69</v>
       </c>
-      <c r="B77" s="45"/>
+      <c r="B77" s="42"/>
       <c r="C77" s="4" t="s">
         <v>151</v>
       </c>
@@ -3622,7 +3626,7 @@
     </row>
     <row r="78" spans="1:10" s="28" customFormat="1" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A78" s="32"/>
-      <c r="B78" s="45"/>
+      <c r="B78" s="42"/>
       <c r="C78" s="4" t="s">
         <v>211</v>
       </c>
@@ -3642,7 +3646,7 @@
       <c r="A79" s="32">
         <v>70</v>
       </c>
-      <c r="B79" s="45"/>
+      <c r="B79" s="42"/>
       <c r="C79" s="4" t="s">
         <v>37</v>
       </c>
@@ -3668,7 +3672,7 @@
       <c r="A80" s="32">
         <v>71</v>
       </c>
-      <c r="B80" s="45" t="s">
+      <c r="B80" s="42" t="s">
         <v>39</v>
       </c>
       <c r="C80" s="4" t="s">
@@ -3696,7 +3700,7 @@
     </row>
     <row r="81" spans="1:10" s="28" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A81" s="32"/>
-      <c r="B81" s="45"/>
+      <c r="B81" s="42"/>
       <c r="C81" s="4" t="s">
         <v>217</v>
       </c>
@@ -3714,7 +3718,7 @@
     </row>
     <row r="82" spans="1:10" s="28" customFormat="1" ht="25.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="32"/>
-      <c r="B82" s="45"/>
+      <c r="B82" s="42"/>
       <c r="C82" s="4" t="s">
         <v>216</v>
       </c>
@@ -3734,7 +3738,7 @@
       <c r="A83" s="32">
         <v>72</v>
       </c>
-      <c r="B83" s="45"/>
+      <c r="B83" s="42"/>
       <c r="C83" s="4" t="s">
         <v>105</v>
       </c>
@@ -3760,7 +3764,7 @@
       <c r="A84" s="32">
         <v>73</v>
       </c>
-      <c r="B84" s="45"/>
+      <c r="B84" s="42"/>
       <c r="C84" s="4" t="s">
         <v>37</v>
       </c>
@@ -3786,7 +3790,7 @@
       <c r="A85" s="32">
         <v>74</v>
       </c>
-      <c r="B85" s="45" t="s">
+      <c r="B85" s="42" t="s">
         <v>41</v>
       </c>
       <c r="C85" s="4" t="s">
@@ -3812,7 +3816,7 @@
     </row>
     <row r="86" spans="1:10" s="28" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A86" s="32"/>
-      <c r="B86" s="45"/>
+      <c r="B86" s="42"/>
       <c r="C86" s="4" t="s">
         <v>218</v>
       </c>
@@ -3830,7 +3834,7 @@
     </row>
     <row r="87" spans="1:10" s="28" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A87" s="32"/>
-      <c r="B87" s="45"/>
+      <c r="B87" s="42"/>
       <c r="C87" s="4" t="s">
         <v>219</v>
       </c>
@@ -3850,7 +3854,7 @@
       <c r="A88" s="32">
         <v>75</v>
       </c>
-      <c r="B88" s="45"/>
+      <c r="B88" s="42"/>
       <c r="C88" s="4" t="s">
         <v>105</v>
       </c>
@@ -3876,7 +3880,7 @@
       <c r="A89" s="32">
         <v>76</v>
       </c>
-      <c r="B89" s="45"/>
+      <c r="B89" s="42"/>
       <c r="C89" s="4" t="s">
         <v>37</v>
       </c>
@@ -3902,7 +3906,7 @@
       <c r="A90" s="32">
         <v>77</v>
       </c>
-      <c r="B90" s="45" t="s">
+      <c r="B90" s="42" t="s">
         <v>43</v>
       </c>
       <c r="C90" s="4" t="s">
@@ -3922,7 +3926,7 @@
     </row>
     <row r="91" spans="1:10" s="28" customFormat="1" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="32"/>
-      <c r="B91" s="45"/>
+      <c r="B91" s="42"/>
       <c r="C91" s="4" t="s">
         <v>223</v>
       </c>
@@ -3948,7 +3952,7 @@
       <c r="A92" s="32">
         <v>78</v>
       </c>
-      <c r="B92" s="45"/>
+      <c r="B92" s="42"/>
       <c r="C92" s="4" t="s">
         <v>126</v>
       </c>
@@ -3972,7 +3976,7 @@
     </row>
     <row r="93" spans="1:10" s="28" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A93" s="32"/>
-      <c r="B93" s="45"/>
+      <c r="B93" s="42"/>
       <c r="C93" s="4" t="s">
         <v>225</v>
       </c>
@@ -3990,7 +3994,7 @@
     </row>
     <row r="94" spans="1:10" s="28" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="32"/>
-      <c r="B94" s="45"/>
+      <c r="B94" s="42"/>
       <c r="C94" s="4" t="s">
         <v>224</v>
       </c>
@@ -4014,7 +4018,7 @@
     </row>
     <row r="95" spans="1:10" s="28" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="32"/>
-      <c r="B95" s="45"/>
+      <c r="B95" s="42"/>
       <c r="C95" s="4" t="s">
         <v>229</v>
       </c>
@@ -4032,7 +4036,7 @@
     </row>
     <row r="96" spans="1:10" s="28" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="32"/>
-      <c r="B96" s="45"/>
+      <c r="B96" s="42"/>
       <c r="C96" s="4" t="s">
         <v>231</v>
       </c>
@@ -4050,7 +4054,7 @@
     </row>
     <row r="97" spans="1:10" s="28" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A97" s="32"/>
-      <c r="B97" s="45"/>
+      <c r="B97" s="42"/>
       <c r="C97" s="4" t="s">
         <v>222</v>
       </c>
@@ -4068,7 +4072,7 @@
     </row>
     <row r="98" spans="1:10" s="28" customFormat="1" ht="25.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="32"/>
-      <c r="B98" s="45"/>
+      <c r="B98" s="42"/>
       <c r="C98" s="4" t="s">
         <v>221</v>
       </c>
@@ -4094,7 +4098,7 @@
       <c r="A99" s="32">
         <v>79</v>
       </c>
-      <c r="B99" s="45"/>
+      <c r="B99" s="42"/>
       <c r="C99" s="4" t="s">
         <v>45</v>
       </c>
@@ -4114,7 +4118,7 @@
       <c r="A100" s="32">
         <v>80</v>
       </c>
-      <c r="B100" s="45" t="s">
+      <c r="B100" s="42" t="s">
         <v>44</v>
       </c>
       <c r="C100" s="4" t="s">
@@ -4140,7 +4144,7 @@
     </row>
     <row r="101" spans="1:10" s="28" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="32"/>
-      <c r="B101" s="45"/>
+      <c r="B101" s="42"/>
       <c r="C101" s="4" t="s">
         <v>228</v>
       </c>
@@ -4158,8 +4162,10 @@
     </row>
     <row r="102" spans="1:10" s="28" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="32"/>
-      <c r="B102" s="45"/>
-      <c r="C102" s="4"/>
+      <c r="B102" s="42"/>
+      <c r="C102" s="4" t="s">
+        <v>232</v>
+      </c>
       <c r="D102" s="12"/>
       <c r="E102" s="14"/>
       <c r="F102" s="12"/>
@@ -4170,7 +4176,7 @@
     </row>
     <row r="103" spans="1:10" s="28" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="32"/>
-      <c r="B103" s="45"/>
+      <c r="B103" s="42"/>
       <c r="C103" s="4" t="s">
         <v>220</v>
       </c>
@@ -4194,7 +4200,7 @@
     </row>
     <row r="104" spans="1:10" s="28" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="32"/>
-      <c r="B104" s="45"/>
+      <c r="B104" s="42"/>
       <c r="C104" s="4" t="s">
         <v>227</v>
       </c>
@@ -4220,7 +4226,7 @@
       <c r="A105" s="32">
         <v>81</v>
       </c>
-      <c r="B105" s="45"/>
+      <c r="B105" s="42"/>
       <c r="C105" s="4" t="s">
         <v>136</v>
       </c>
@@ -4246,7 +4252,7 @@
       <c r="A106" s="32">
         <v>82</v>
       </c>
-      <c r="B106" s="42" t="s">
+      <c r="B106" s="46" t="s">
         <v>65</v>
       </c>
       <c r="C106" s="4" t="s">
@@ -4274,7 +4280,7 @@
     </row>
     <row r="107" spans="1:10" s="28" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="32"/>
-      <c r="B107" s="43"/>
+      <c r="B107" s="47"/>
       <c r="C107" s="4" t="s">
         <v>187</v>
       </c>
@@ -4298,7 +4304,7 @@
     </row>
     <row r="108" spans="1:10" s="28" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="32"/>
-      <c r="B108" s="44"/>
+      <c r="B108" s="48"/>
       <c r="C108" s="4" t="s">
         <v>186</v>
       </c>
@@ -4324,7 +4330,7 @@
       <c r="A109" s="32">
         <v>83</v>
       </c>
-      <c r="B109" s="46" t="s">
+      <c r="B109" s="49" t="s">
         <v>67</v>
       </c>
       <c r="C109" s="8" t="s">
@@ -4352,7 +4358,7 @@
       <c r="A110" s="32">
         <v>84</v>
       </c>
-      <c r="B110" s="46"/>
+      <c r="B110" s="49"/>
       <c r="C110" s="8" t="s">
         <v>95</v>
       </c>
@@ -4372,7 +4378,7 @@
       <c r="A111" s="32">
         <v>85</v>
       </c>
-      <c r="B111" s="46"/>
+      <c r="B111" s="49"/>
       <c r="C111" s="8" t="s">
         <v>190</v>
       </c>
@@ -4392,7 +4398,7 @@
       <c r="A112" s="32">
         <v>86</v>
       </c>
-      <c r="B112" s="46"/>
+      <c r="B112" s="49"/>
       <c r="C112" s="8" t="s">
         <v>189</v>
       </c>
@@ -4410,7 +4416,7 @@
     </row>
     <row r="113" spans="1:10" s="20" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="32"/>
-      <c r="B113" s="46"/>
+      <c r="B113" s="49"/>
       <c r="C113" s="8" t="s">
         <v>191</v>
       </c>
@@ -4428,7 +4434,7 @@
     </row>
     <row r="114" spans="1:10" s="20" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="32"/>
-      <c r="B114" s="46"/>
+      <c r="B114" s="49"/>
       <c r="C114" s="8" t="s">
         <v>192</v>
       </c>
@@ -4446,7 +4452,7 @@
     </row>
     <row r="115" spans="1:10" s="20" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="32"/>
-      <c r="B115" s="46"/>
+      <c r="B115" s="49"/>
       <c r="C115" s="8" t="s">
         <v>193</v>
       </c>
@@ -4464,7 +4470,7 @@
     </row>
     <row r="116" spans="1:10" s="20" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="32"/>
-      <c r="B116" s="46"/>
+      <c r="B116" s="49"/>
       <c r="C116" s="8" t="s">
         <v>215</v>
       </c>
@@ -4484,7 +4490,7 @@
       <c r="A117" s="32">
         <v>87</v>
       </c>
-      <c r="B117" s="46"/>
+      <c r="B117" s="49"/>
       <c r="C117" s="8" t="s">
         <v>188</v>
       </c>
@@ -4504,7 +4510,7 @@
       <c r="A118" s="32">
         <v>88</v>
       </c>
-      <c r="B118" s="45" t="s">
+      <c r="B118" s="42" t="s">
         <v>87</v>
       </c>
       <c r="C118" s="4" t="s">
@@ -4532,7 +4538,7 @@
       <c r="A119" s="32">
         <v>89</v>
       </c>
-      <c r="B119" s="45"/>
+      <c r="B119" s="42"/>
       <c r="C119" s="4" t="s">
         <v>93</v>
       </c>
@@ -4558,7 +4564,7 @@
       <c r="A120" s="32">
         <v>90</v>
       </c>
-      <c r="B120" s="42" t="s">
+      <c r="B120" s="46" t="s">
         <v>97</v>
       </c>
       <c r="C120" s="4" t="s">
@@ -4584,7 +4590,7 @@
     </row>
     <row r="121" spans="1:10" s="28" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="32"/>
-      <c r="B121" s="43"/>
+      <c r="B121" s="47"/>
       <c r="C121" s="4" t="s">
         <v>208</v>
       </c>
@@ -4602,7 +4608,7 @@
     </row>
     <row r="122" spans="1:10" s="28" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="32"/>
-      <c r="B122" s="43"/>
+      <c r="B122" s="47"/>
       <c r="C122" s="4" t="s">
         <v>202</v>
       </c>
@@ -4620,7 +4626,7 @@
     </row>
     <row r="123" spans="1:10" s="28" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="32"/>
-      <c r="B123" s="43"/>
+      <c r="B123" s="47"/>
       <c r="C123" s="4" t="s">
         <v>203</v>
       </c>
@@ -4638,7 +4644,7 @@
     </row>
     <row r="124" spans="1:10" s="28" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A124" s="32"/>
-      <c r="B124" s="43"/>
+      <c r="B124" s="47"/>
       <c r="C124" s="4" t="s">
         <v>207</v>
       </c>
@@ -4656,7 +4662,7 @@
     </row>
     <row r="125" spans="1:10" s="28" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="32"/>
-      <c r="B125" s="43"/>
+      <c r="B125" s="47"/>
       <c r="C125" s="4" t="s">
         <v>206</v>
       </c>
@@ -4672,7 +4678,7 @@
       <c r="A126" s="32">
         <v>91</v>
       </c>
-      <c r="B126" s="44"/>
+      <c r="B126" s="48"/>
       <c r="C126" s="4" t="s">
         <v>205</v>
       </c>
@@ -4692,7 +4698,7 @@
       <c r="A127" s="32">
         <v>92</v>
       </c>
-      <c r="B127" s="45" t="s">
+      <c r="B127" s="42" t="s">
         <v>99</v>
       </c>
       <c r="C127" s="4" t="s">
@@ -4720,7 +4726,7 @@
       <c r="A128" s="32">
         <v>93</v>
       </c>
-      <c r="B128" s="45"/>
+      <c r="B128" s="42"/>
       <c r="C128" s="4" t="s">
         <v>104</v>
       </c>
@@ -4746,7 +4752,7 @@
       <c r="A129" s="32">
         <v>94</v>
       </c>
-      <c r="B129" s="45"/>
+      <c r="B129" s="42"/>
       <c r="C129" s="4" t="s">
         <v>101</v>
       </c>
@@ -4792,7 +4798,7 @@
       <c r="A131" s="32">
         <v>95</v>
       </c>
-      <c r="B131" s="42" t="s">
+      <c r="B131" s="46" t="s">
         <v>111</v>
       </c>
       <c r="C131" s="4" t="s">
@@ -4818,7 +4824,7 @@
     </row>
     <row r="132" spans="1:10" s="28" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A132" s="32"/>
-      <c r="B132" s="43"/>
+      <c r="B132" s="47"/>
       <c r="C132" s="4" t="s">
         <v>214</v>
       </c>
@@ -4838,7 +4844,7 @@
       <c r="A133" s="32">
         <v>96</v>
       </c>
-      <c r="B133" s="43"/>
+      <c r="B133" s="47"/>
       <c r="C133" s="4" t="s">
         <v>213</v>
       </c>
@@ -4858,7 +4864,7 @@
       <c r="A134" s="32">
         <v>97</v>
       </c>
-      <c r="B134" s="43"/>
+      <c r="B134" s="47"/>
       <c r="C134" s="4" t="s">
         <v>150</v>
       </c>
@@ -4875,24 +4881,24 @@
       <c r="J134" s="12"/>
     </row>
     <row r="135" spans="1:10" s="28" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="47" t="s">
+      <c r="A135" s="43" t="s">
         <v>199</v>
       </c>
-      <c r="B135" s="48"/>
-      <c r="C135" s="48"/>
-      <c r="D135" s="48"/>
-      <c r="E135" s="48"/>
-      <c r="F135" s="48"/>
-      <c r="G135" s="48"/>
-      <c r="H135" s="48"/>
-      <c r="I135" s="48"/>
-      <c r="J135" s="49"/>
+      <c r="B135" s="44"/>
+      <c r="C135" s="44"/>
+      <c r="D135" s="44"/>
+      <c r="E135" s="44"/>
+      <c r="F135" s="44"/>
+      <c r="G135" s="44"/>
+      <c r="H135" s="44"/>
+      <c r="I135" s="44"/>
+      <c r="J135" s="45"/>
     </row>
     <row r="136" spans="1:10" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A136" s="32">
         <v>98</v>
       </c>
-      <c r="B136" s="45" t="s">
+      <c r="B136" s="42" t="s">
         <v>113</v>
       </c>
       <c r="C136" s="4" t="s">
@@ -4920,7 +4926,7 @@
       <c r="A137" s="32">
         <v>99</v>
       </c>
-      <c r="B137" s="45"/>
+      <c r="B137" s="42"/>
       <c r="C137" s="4" t="s">
         <v>116</v>
       </c>
@@ -4946,7 +4952,7 @@
       <c r="A138" s="32">
         <v>100</v>
       </c>
-      <c r="B138" s="45" t="s">
+      <c r="B138" s="42" t="s">
         <v>114</v>
       </c>
       <c r="C138" s="4" t="s">
@@ -4974,7 +4980,7 @@
       <c r="A139" s="32">
         <v>101</v>
       </c>
-      <c r="B139" s="45"/>
+      <c r="B139" s="42"/>
       <c r="C139" s="4" t="s">
         <v>117</v>
       </c>
@@ -5000,7 +5006,7 @@
       <c r="A140" s="32">
         <v>102</v>
       </c>
-      <c r="B140" s="42" t="s">
+      <c r="B140" s="46" t="s">
         <v>118</v>
       </c>
       <c r="C140" s="4" t="s">
@@ -5028,7 +5034,7 @@
       <c r="A141" s="32">
         <v>103</v>
       </c>
-      <c r="B141" s="44"/>
+      <c r="B141" s="48"/>
       <c r="C141" s="4" t="s">
         <v>169</v>
       </c>
@@ -5076,7 +5082,7 @@
       <c r="A143" s="32">
         <v>105</v>
       </c>
-      <c r="B143" s="42" t="s">
+      <c r="B143" s="46" t="s">
         <v>132</v>
       </c>
       <c r="C143" s="4" t="s">
@@ -5104,7 +5110,7 @@
       <c r="A144" s="32">
         <v>106</v>
       </c>
-      <c r="B144" s="43"/>
+      <c r="B144" s="47"/>
       <c r="C144" s="4" t="s">
         <v>135</v>
       </c>
@@ -5130,7 +5136,7 @@
       <c r="A145" s="32">
         <v>107</v>
       </c>
-      <c r="B145" s="44"/>
+      <c r="B145" s="48"/>
       <c r="C145" s="4" t="s">
         <v>139</v>
       </c>
@@ -6878,14 +6884,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B55:B60"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="B136:B137"/>
-    <mergeCell ref="B38:B47"/>
-    <mergeCell ref="B48:B52"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="A135:J135"/>
-    <mergeCell ref="B106:B108"/>
     <mergeCell ref="B29:B37"/>
     <mergeCell ref="B64:B72"/>
     <mergeCell ref="B2:B28"/>
@@ -6902,6 +6900,14 @@
     <mergeCell ref="B127:B129"/>
     <mergeCell ref="B131:B134"/>
     <mergeCell ref="B140:B141"/>
+    <mergeCell ref="B55:B60"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="B136:B137"/>
+    <mergeCell ref="B38:B47"/>
+    <mergeCell ref="B48:B52"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="A135:J135"/>
+    <mergeCell ref="B106:B108"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I44">

--- a/ProjectManagement/文档/问题点一览.xlsx
+++ b/ProjectManagement/文档/问题点一览.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18201"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8028"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8025"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -936,14 +936,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>这里是测试github是多人协作。</t>
+    <t>这里是测试github是多人协作。这里再更新一些。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1228,7 +1228,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1239,18 +1251,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1331,7 +1331,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1406,23 +1406,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1458,23 +1441,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1654,26 +1620,26 @@
   <dimension ref="A1:K287"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="C104" sqref="C104"/>
+      <selection activeCell="C102" sqref="C102"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="22.2" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="22.15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.88671875" style="23" customWidth="1"/>
+    <col min="2" max="2" width="12.875" style="23" customWidth="1"/>
     <col min="3" max="3" width="58" style="5" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" style="3"/>
-    <col min="5" max="5" width="10.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.875" style="3"/>
+    <col min="5" max="5" width="10.5" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="30" style="3" customWidth="1"/>
-    <col min="7" max="7" width="8.88671875" style="3"/>
-    <col min="8" max="8" width="11.33203125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="8.88671875" style="3"/>
-    <col min="10" max="10" width="30.77734375" style="3" customWidth="1"/>
-    <col min="11" max="11" width="16.109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.88671875" style="3"/>
+    <col min="7" max="7" width="8.875" style="3"/>
+    <col min="8" max="8" width="11.375" style="3" customWidth="1"/>
+    <col min="9" max="9" width="8.875" style="3"/>
+    <col min="10" max="10" width="30.75" style="3" customWidth="1"/>
+    <col min="11" max="11" width="16.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1705,11 +1671,11 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="13">
         <v>1</v>
       </c>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="42" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -1733,11 +1699,11 @@
       </c>
       <c r="J2" s="12"/>
     </row>
-    <row r="3" spans="1:11" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="27" x14ac:dyDescent="0.15">
       <c r="A3" s="13">
         <v>2</v>
       </c>
-      <c r="B3" s="47"/>
+      <c r="B3" s="43"/>
       <c r="C3" s="4" t="s">
         <v>51</v>
       </c>
@@ -1759,11 +1725,11 @@
       </c>
       <c r="J3" s="12"/>
     </row>
-    <row r="4" spans="1:11" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="27" x14ac:dyDescent="0.15">
       <c r="A4" s="13">
         <v>3</v>
       </c>
-      <c r="B4" s="47"/>
+      <c r="B4" s="43"/>
       <c r="C4" s="4" t="s">
         <v>52</v>
       </c>
@@ -1785,11 +1751,11 @@
       </c>
       <c r="J4" s="12"/>
     </row>
-    <row r="5" spans="1:11" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="13">
         <v>4</v>
       </c>
-      <c r="B5" s="47"/>
+      <c r="B5" s="43"/>
       <c r="C5" s="4" t="s">
         <v>13</v>
       </c>
@@ -1811,11 +1777,11 @@
       </c>
       <c r="J5" s="12"/>
     </row>
-    <row r="6" spans="1:11" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="13">
         <v>5</v>
       </c>
-      <c r="B6" s="47"/>
+      <c r="B6" s="43"/>
       <c r="C6" s="4" t="s">
         <v>53</v>
       </c>
@@ -1837,11 +1803,11 @@
       </c>
       <c r="J6" s="12"/>
     </row>
-    <row r="7" spans="1:11" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="27" x14ac:dyDescent="0.15">
       <c r="A7" s="13">
         <v>6</v>
       </c>
-      <c r="B7" s="47"/>
+      <c r="B7" s="43"/>
       <c r="C7" s="4" t="s">
         <v>16</v>
       </c>
@@ -1863,11 +1829,11 @@
       </c>
       <c r="J7" s="12"/>
     </row>
-    <row r="8" spans="1:11" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="13">
         <v>7</v>
       </c>
-      <c r="B8" s="47"/>
+      <c r="B8" s="43"/>
       <c r="C8" s="4" t="s">
         <v>14</v>
       </c>
@@ -1889,11 +1855,11 @@
       </c>
       <c r="J8" s="12"/>
     </row>
-    <row r="9" spans="1:11" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="13">
         <v>8</v>
       </c>
-      <c r="B9" s="47"/>
+      <c r="B9" s="43"/>
       <c r="C9" s="4" t="s">
         <v>17</v>
       </c>
@@ -1915,11 +1881,11 @@
       </c>
       <c r="J9" s="12"/>
     </row>
-    <row r="10" spans="1:11" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="27" x14ac:dyDescent="0.15">
       <c r="A10" s="13">
         <v>9</v>
       </c>
-      <c r="B10" s="47"/>
+      <c r="B10" s="43"/>
       <c r="C10" s="6" t="s">
         <v>163</v>
       </c>
@@ -1948,11 +1914,11 @@
         <v>108</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="13">
         <v>10</v>
       </c>
-      <c r="B11" s="47"/>
+      <c r="B11" s="43"/>
       <c r="C11" s="4" t="s">
         <v>48</v>
       </c>
@@ -1974,11 +1940,11 @@
       </c>
       <c r="J11" s="12"/>
     </row>
-    <row r="12" spans="1:11" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="13">
         <v>11</v>
       </c>
-      <c r="B12" s="47"/>
+      <c r="B12" s="43"/>
       <c r="C12" s="4" t="s">
         <v>107</v>
       </c>
@@ -2000,11 +1966,11 @@
       </c>
       <c r="J12" s="12"/>
     </row>
-    <row r="13" spans="1:11" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="13">
         <v>12</v>
       </c>
-      <c r="B13" s="47"/>
+      <c r="B13" s="43"/>
       <c r="C13" s="4" t="s">
         <v>110</v>
       </c>
@@ -2026,11 +1992,11 @@
       </c>
       <c r="J13" s="12"/>
     </row>
-    <row r="14" spans="1:11" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="13">
         <v>13</v>
       </c>
-      <c r="B14" s="47"/>
+      <c r="B14" s="43"/>
       <c r="C14" s="4" t="s">
         <v>109</v>
       </c>
@@ -2052,11 +2018,11 @@
       </c>
       <c r="J14" s="12"/>
     </row>
-    <row r="15" spans="1:11" s="16" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" s="16" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A15" s="13">
         <v>14</v>
       </c>
-      <c r="B15" s="47"/>
+      <c r="B15" s="43"/>
       <c r="C15" s="6" t="s">
         <v>138</v>
       </c>
@@ -2078,11 +2044,11 @@
       </c>
       <c r="J15" s="7"/>
     </row>
-    <row r="16" spans="1:11" s="16" customFormat="1" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" s="16" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A16" s="13">
         <v>15</v>
       </c>
-      <c r="B16" s="47"/>
+      <c r="B16" s="43"/>
       <c r="C16" s="6" t="s">
         <v>156</v>
       </c>
@@ -2107,11 +2073,11 @@
         <v>125</v>
       </c>
     </row>
-    <row r="17" spans="1:11" s="16" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" s="16" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A17" s="13">
         <v>16</v>
       </c>
-      <c r="B17" s="47"/>
+      <c r="B17" s="43"/>
       <c r="C17" s="6" t="s">
         <v>159</v>
       </c>
@@ -2133,11 +2099,11 @@
       </c>
       <c r="J17" s="7"/>
     </row>
-    <row r="18" spans="1:11" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="27" x14ac:dyDescent="0.15">
       <c r="A18" s="13">
         <v>17</v>
       </c>
-      <c r="B18" s="47"/>
+      <c r="B18" s="43"/>
       <c r="C18" s="10" t="s">
         <v>148</v>
       </c>
@@ -2160,11 +2126,11 @@
       <c r="J18" s="18"/>
       <c r="K18" s="16"/>
     </row>
-    <row r="19" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="32">
         <v>18</v>
       </c>
-      <c r="B19" s="47"/>
+      <c r="B19" s="43"/>
       <c r="C19" s="10" t="s">
         <v>157</v>
       </c>
@@ -2187,11 +2153,11 @@
       <c r="J19" s="18"/>
       <c r="K19" s="16"/>
     </row>
-    <row r="20" spans="1:11" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="32">
         <v>19</v>
       </c>
-      <c r="B20" s="47"/>
+      <c r="B20" s="43"/>
       <c r="C20" s="10" t="s">
         <v>153</v>
       </c>
@@ -2214,11 +2180,11 @@
       <c r="J20" s="18"/>
       <c r="K20" s="16"/>
     </row>
-    <row r="21" spans="1:11" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A21" s="32">
         <v>20</v>
       </c>
-      <c r="B21" s="47"/>
+      <c r="B21" s="43"/>
       <c r="C21" s="37" t="s">
         <v>171</v>
       </c>
@@ -2241,11 +2207,11 @@
       <c r="J21" s="18"/>
       <c r="K21" s="16"/>
     </row>
-    <row r="22" spans="1:11" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="27" x14ac:dyDescent="0.15">
       <c r="A22" s="32">
         <v>21</v>
       </c>
-      <c r="B22" s="47"/>
+      <c r="B22" s="43"/>
       <c r="C22" s="40" t="s">
         <v>184</v>
       </c>
@@ -2268,11 +2234,11 @@
       <c r="J22" s="18"/>
       <c r="K22" s="16"/>
     </row>
-    <row r="23" spans="1:11" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" ht="27" x14ac:dyDescent="0.15">
       <c r="A23" s="32">
         <v>22</v>
       </c>
-      <c r="B23" s="47"/>
+      <c r="B23" s="43"/>
       <c r="C23" s="40" t="s">
         <v>185</v>
       </c>
@@ -2295,11 +2261,11 @@
       <c r="J23" s="18"/>
       <c r="K23" s="16"/>
     </row>
-    <row r="24" spans="1:11" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" ht="27" x14ac:dyDescent="0.15">
       <c r="A24" s="32">
         <v>23</v>
       </c>
-      <c r="B24" s="47"/>
+      <c r="B24" s="43"/>
       <c r="C24" s="10" t="s">
         <v>154</v>
       </c>
@@ -2322,11 +2288,11 @@
       <c r="J24" s="18"/>
       <c r="K24" s="16"/>
     </row>
-    <row r="25" spans="1:11" s="28" customFormat="1" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" s="28" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A25" s="32">
         <v>24</v>
       </c>
-      <c r="B25" s="47"/>
+      <c r="B25" s="43"/>
       <c r="C25" s="30" t="s">
         <v>176</v>
       </c>
@@ -2349,11 +2315,11 @@
       <c r="J25" s="36"/>
       <c r="K25" s="34"/>
     </row>
-    <row r="26" spans="1:11" s="28" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" s="28" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A26" s="32">
         <v>25</v>
       </c>
-      <c r="B26" s="47"/>
+      <c r="B26" s="43"/>
       <c r="C26" s="6" t="s">
         <v>177</v>
       </c>
@@ -2376,11 +2342,11 @@
       <c r="J26" s="36"/>
       <c r="K26" s="34"/>
     </row>
-    <row r="27" spans="1:11" s="34" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" s="34" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A27" s="32">
         <v>26</v>
       </c>
-      <c r="B27" s="47"/>
+      <c r="B27" s="43"/>
       <c r="C27" s="6" t="s">
         <v>180</v>
       </c>
@@ -2402,11 +2368,11 @@
       </c>
       <c r="J27" s="29"/>
     </row>
-    <row r="28" spans="1:11" s="34" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" s="34" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A28" s="32">
         <v>27</v>
       </c>
-      <c r="B28" s="48"/>
+      <c r="B28" s="44"/>
       <c r="C28" s="6" t="s">
         <v>181</v>
       </c>
@@ -2428,11 +2394,11 @@
       </c>
       <c r="J28" s="29"/>
     </row>
-    <row r="29" spans="1:11" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="32">
         <v>28</v>
       </c>
-      <c r="B29" s="46" t="s">
+      <c r="B29" s="42" t="s">
         <v>12</v>
       </c>
       <c r="C29" s="4" t="s">
@@ -2456,11 +2422,11 @@
       </c>
       <c r="J29" s="12"/>
     </row>
-    <row r="30" spans="1:11" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="32">
         <v>29</v>
       </c>
-      <c r="B30" s="47"/>
+      <c r="B30" s="43"/>
       <c r="C30" s="4" t="s">
         <v>17</v>
       </c>
@@ -2482,11 +2448,11 @@
       </c>
       <c r="J30" s="12"/>
     </row>
-    <row r="31" spans="1:11" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" ht="27" x14ac:dyDescent="0.15">
       <c r="A31" s="32">
         <v>30</v>
       </c>
-      <c r="B31" s="47"/>
+      <c r="B31" s="43"/>
       <c r="C31" s="4" t="s">
         <v>18</v>
       </c>
@@ -2508,11 +2474,11 @@
       </c>
       <c r="J31" s="12"/>
     </row>
-    <row r="32" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="32">
         <v>31</v>
       </c>
-      <c r="B32" s="47"/>
+      <c r="B32" s="43"/>
       <c r="C32" s="4" t="s">
         <v>106</v>
       </c>
@@ -2534,11 +2500,11 @@
       </c>
       <c r="J32" s="12"/>
     </row>
-    <row r="33" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A33" s="32">
         <v>32</v>
       </c>
-      <c r="B33" s="47"/>
+      <c r="B33" s="43"/>
       <c r="C33" s="4" t="s">
         <v>55</v>
       </c>
@@ -2560,11 +2526,11 @@
       </c>
       <c r="J33" s="12"/>
     </row>
-    <row r="34" spans="1:10" s="26" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" s="26" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A34" s="32">
         <v>33</v>
       </c>
-      <c r="B34" s="47"/>
+      <c r="B34" s="43"/>
       <c r="C34" s="4" t="s">
         <v>164</v>
       </c>
@@ -2586,11 +2552,11 @@
       </c>
       <c r="J34" s="11"/>
     </row>
-    <row r="35" spans="1:10" s="26" customFormat="1" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" s="26" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A35" s="32">
         <v>34</v>
       </c>
-      <c r="B35" s="47"/>
+      <c r="B35" s="43"/>
       <c r="C35" s="4" t="s">
         <v>179</v>
       </c>
@@ -2612,11 +2578,11 @@
       </c>
       <c r="J35" s="11"/>
     </row>
-    <row r="36" spans="1:10" s="26" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" s="26" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A36" s="32">
         <v>35</v>
       </c>
-      <c r="B36" s="47"/>
+      <c r="B36" s="43"/>
       <c r="C36" s="4" t="s">
         <v>166</v>
       </c>
@@ -2638,11 +2604,11 @@
       </c>
       <c r="J36" s="11"/>
     </row>
-    <row r="37" spans="1:10" s="26" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" s="26" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A37" s="32">
         <v>36</v>
       </c>
-      <c r="B37" s="48"/>
+      <c r="B37" s="44"/>
       <c r="C37" s="4" t="s">
         <v>165</v>
       </c>
@@ -2658,11 +2624,11 @@
       <c r="I37" s="11"/>
       <c r="J37" s="11"/>
     </row>
-    <row r="38" spans="1:10" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A38" s="32">
         <v>37</v>
       </c>
-      <c r="B38" s="42" t="s">
+      <c r="B38" s="45" t="s">
         <v>19</v>
       </c>
       <c r="C38" s="4" t="s">
@@ -2688,11 +2654,11 @@
         <v>60</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A39" s="32">
         <v>38</v>
       </c>
-      <c r="B39" s="42"/>
+      <c r="B39" s="45"/>
       <c r="C39" s="4" t="s">
         <v>21</v>
       </c>
@@ -2714,11 +2680,11 @@
       </c>
       <c r="J39" s="12"/>
     </row>
-    <row r="40" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A40" s="32">
         <v>39</v>
       </c>
-      <c r="B40" s="42"/>
+      <c r="B40" s="45"/>
       <c r="C40" s="4" t="s">
         <v>71</v>
       </c>
@@ -2740,11 +2706,11 @@
       </c>
       <c r="J40" s="12"/>
     </row>
-    <row r="41" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="32">
         <v>40</v>
       </c>
-      <c r="B41" s="42"/>
+      <c r="B41" s="45"/>
       <c r="C41" s="4" t="s">
         <v>90</v>
       </c>
@@ -2766,11 +2732,11 @@
       </c>
       <c r="J41" s="12"/>
     </row>
-    <row r="42" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A42" s="32">
         <v>41</v>
       </c>
-      <c r="B42" s="42"/>
+      <c r="B42" s="45"/>
       <c r="C42" s="4" t="s">
         <v>89</v>
       </c>
@@ -2792,11 +2758,11 @@
       </c>
       <c r="J42" s="12"/>
     </row>
-    <row r="43" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="32">
         <v>42</v>
       </c>
-      <c r="B43" s="42"/>
+      <c r="B43" s="45"/>
       <c r="C43" s="4" t="s">
         <v>94</v>
       </c>
@@ -2818,11 +2784,11 @@
       </c>
       <c r="J43" s="12"/>
     </row>
-    <row r="44" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A44" s="32">
         <v>43</v>
       </c>
-      <c r="B44" s="42"/>
+      <c r="B44" s="45"/>
       <c r="C44" s="4" t="s">
         <v>96</v>
       </c>
@@ -2844,11 +2810,11 @@
       </c>
       <c r="J44" s="12"/>
     </row>
-    <row r="45" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A45" s="32">
         <v>44</v>
       </c>
-      <c r="B45" s="42"/>
+      <c r="B45" s="45"/>
       <c r="C45" s="4" t="s">
         <v>152</v>
       </c>
@@ -2872,11 +2838,11 @@
       </c>
       <c r="J45" s="12"/>
     </row>
-    <row r="46" spans="1:10" s="16" customFormat="1" ht="57.6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" s="16" customFormat="1" ht="54" x14ac:dyDescent="0.15">
       <c r="A46" s="32">
         <v>45</v>
       </c>
-      <c r="B46" s="42"/>
+      <c r="B46" s="45"/>
       <c r="C46" s="6" t="s">
         <v>137</v>
       </c>
@@ -2898,11 +2864,11 @@
       </c>
       <c r="J46" s="7"/>
     </row>
-    <row r="47" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="32">
         <v>46</v>
       </c>
-      <c r="B47" s="42"/>
+      <c r="B47" s="45"/>
       <c r="C47" s="4" t="s">
         <v>22</v>
       </c>
@@ -2924,11 +2890,11 @@
       </c>
       <c r="J47" s="12"/>
     </row>
-    <row r="48" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="32">
         <v>47</v>
       </c>
-      <c r="B48" s="42" t="s">
+      <c r="B48" s="45" t="s">
         <v>23</v>
       </c>
       <c r="C48" s="4" t="s">
@@ -2952,11 +2918,11 @@
       </c>
       <c r="J48" s="12"/>
     </row>
-    <row r="49" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A49" s="32">
         <v>48</v>
       </c>
-      <c r="B49" s="42"/>
+      <c r="B49" s="45"/>
       <c r="C49" s="4" t="s">
         <v>92</v>
       </c>
@@ -2980,11 +2946,11 @@
       </c>
       <c r="J49" s="12"/>
     </row>
-    <row r="50" spans="1:10" s="16" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" s="16" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="32">
         <v>49</v>
       </c>
-      <c r="B50" s="42"/>
+      <c r="B50" s="45"/>
       <c r="C50" s="6" t="s">
         <v>91</v>
       </c>
@@ -3006,11 +2972,11 @@
       </c>
       <c r="J50" s="7"/>
     </row>
-    <row r="51" spans="1:10" s="16" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" s="16" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="32">
         <v>50</v>
       </c>
-      <c r="B51" s="42"/>
+      <c r="B51" s="45"/>
       <c r="C51" s="6" t="s">
         <v>149</v>
       </c>
@@ -3032,11 +2998,11 @@
       </c>
       <c r="J51" s="7"/>
     </row>
-    <row r="52" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="32">
         <v>51</v>
       </c>
-      <c r="B52" s="42"/>
+      <c r="B52" s="45"/>
       <c r="C52" s="4" t="s">
         <v>25</v>
       </c>
@@ -3058,11 +3024,11 @@
       </c>
       <c r="J52" s="12"/>
     </row>
-    <row r="53" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="32">
         <v>52</v>
       </c>
-      <c r="B53" s="42" t="s">
+      <c r="B53" s="45" t="s">
         <v>26</v>
       </c>
       <c r="C53" s="4" t="s">
@@ -3086,11 +3052,11 @@
       </c>
       <c r="J53" s="12"/>
     </row>
-    <row r="54" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="32">
         <v>53</v>
       </c>
-      <c r="B54" s="42"/>
+      <c r="B54" s="45"/>
       <c r="C54" s="4" t="s">
         <v>28</v>
       </c>
@@ -3112,11 +3078,11 @@
       </c>
       <c r="J54" s="12"/>
     </row>
-    <row r="55" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="32">
         <v>54</v>
       </c>
-      <c r="B55" s="42" t="s">
+      <c r="B55" s="45" t="s">
         <v>29</v>
       </c>
       <c r="C55" s="4" t="s">
@@ -3140,11 +3106,11 @@
       </c>
       <c r="J55" s="12"/>
     </row>
-    <row r="56" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A56" s="32">
         <v>55</v>
       </c>
-      <c r="B56" s="42"/>
+      <c r="B56" s="45"/>
       <c r="C56" s="4" t="s">
         <v>62</v>
       </c>
@@ -3166,11 +3132,11 @@
       </c>
       <c r="J56" s="12"/>
     </row>
-    <row r="57" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="32">
         <v>56</v>
       </c>
-      <c r="B57" s="42"/>
+      <c r="B57" s="45"/>
       <c r="C57" s="4" t="s">
         <v>63</v>
       </c>
@@ -3192,11 +3158,11 @@
       </c>
       <c r="J57" s="12"/>
     </row>
-    <row r="58" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="32">
         <v>57</v>
       </c>
-      <c r="B58" s="42"/>
+      <c r="B58" s="45"/>
       <c r="C58" s="4" t="s">
         <v>72</v>
       </c>
@@ -3218,9 +3184,9 @@
       </c>
       <c r="J58" s="12"/>
     </row>
-    <row r="59" spans="1:10" s="28" customFormat="1" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" s="28" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A59" s="32"/>
-      <c r="B59" s="42"/>
+      <c r="B59" s="45"/>
       <c r="C59" s="4" t="s">
         <v>198</v>
       </c>
@@ -3236,11 +3202,11 @@
       <c r="I59" s="12"/>
       <c r="J59" s="12"/>
     </row>
-    <row r="60" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="32">
         <v>58</v>
       </c>
-      <c r="B60" s="42"/>
+      <c r="B60" s="45"/>
       <c r="C60" s="4" t="s">
         <v>61</v>
       </c>
@@ -3262,11 +3228,11 @@
       </c>
       <c r="J60" s="12"/>
     </row>
-    <row r="61" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="32">
         <v>59</v>
       </c>
-      <c r="B61" s="42" t="s">
+      <c r="B61" s="45" t="s">
         <v>31</v>
       </c>
       <c r="C61" s="4" t="s">
@@ -3290,9 +3256,9 @@
       </c>
       <c r="J61" s="12"/>
     </row>
-    <row r="62" spans="1:10" s="28" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" s="28" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="32"/>
-      <c r="B62" s="42"/>
+      <c r="B62" s="45"/>
       <c r="C62" s="4" t="s">
         <v>194</v>
       </c>
@@ -3308,11 +3274,11 @@
       <c r="I62" s="12"/>
       <c r="J62" s="12"/>
     </row>
-    <row r="63" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="32">
         <v>60</v>
       </c>
-      <c r="B63" s="42"/>
+      <c r="B63" s="45"/>
       <c r="C63" s="4" t="s">
         <v>64</v>
       </c>
@@ -3334,11 +3300,11 @@
       </c>
       <c r="J63" s="12"/>
     </row>
-    <row r="64" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="32">
         <v>61</v>
       </c>
-      <c r="B64" s="46" t="s">
+      <c r="B64" s="42" t="s">
         <v>33</v>
       </c>
       <c r="C64" s="4" t="s">
@@ -3362,11 +3328,11 @@
       </c>
       <c r="J64" s="12"/>
     </row>
-    <row r="65" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="32">
         <v>62</v>
       </c>
-      <c r="B65" s="47"/>
+      <c r="B65" s="43"/>
       <c r="C65" s="4" t="s">
         <v>35</v>
       </c>
@@ -3388,9 +3354,9 @@
       </c>
       <c r="J65" s="12"/>
     </row>
-    <row r="66" spans="1:10" s="28" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" s="28" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="32"/>
-      <c r="B66" s="47"/>
+      <c r="B66" s="43"/>
       <c r="C66" s="4" t="s">
         <v>196</v>
       </c>
@@ -3406,9 +3372,9 @@
       <c r="I66" s="12"/>
       <c r="J66" s="12"/>
     </row>
-    <row r="67" spans="1:10" s="28" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" s="28" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="32"/>
-      <c r="B67" s="47"/>
+      <c r="B67" s="43"/>
       <c r="C67" s="4"/>
       <c r="D67" s="12"/>
       <c r="E67" s="14"/>
@@ -3418,9 +3384,9 @@
       <c r="I67" s="12"/>
       <c r="J67" s="12"/>
     </row>
-    <row r="68" spans="1:10" s="28" customFormat="1" ht="57.6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" s="28" customFormat="1" ht="54" x14ac:dyDescent="0.15">
       <c r="A68" s="32"/>
-      <c r="B68" s="47"/>
+      <c r="B68" s="43"/>
       <c r="C68" s="4" t="s">
         <v>195</v>
       </c>
@@ -3436,9 +3402,9 @@
       <c r="I68" s="12"/>
       <c r="J68" s="12"/>
     </row>
-    <row r="69" spans="1:10" s="28" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" s="28" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A69" s="32"/>
-      <c r="B69" s="47"/>
+      <c r="B69" s="43"/>
       <c r="C69" s="4" t="s">
         <v>197</v>
       </c>
@@ -3454,11 +3420,11 @@
       <c r="I69" s="12"/>
       <c r="J69" s="12"/>
     </row>
-    <row r="70" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A70" s="32">
         <v>63</v>
       </c>
-      <c r="B70" s="47"/>
+      <c r="B70" s="43"/>
       <c r="C70" s="4" t="s">
         <v>155</v>
       </c>
@@ -3474,11 +3440,11 @@
       <c r="I70" s="12"/>
       <c r="J70" s="12"/>
     </row>
-    <row r="71" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="32">
         <v>64</v>
       </c>
-      <c r="B71" s="47"/>
+      <c r="B71" s="43"/>
       <c r="C71" s="4" t="s">
         <v>36</v>
       </c>
@@ -3496,11 +3462,11 @@
         <v>85</v>
       </c>
     </row>
-    <row r="72" spans="1:10" s="26" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" s="26" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A72" s="32">
         <v>65</v>
       </c>
-      <c r="B72" s="48"/>
+      <c r="B72" s="44"/>
       <c r="C72" s="4" t="s">
         <v>168</v>
       </c>
@@ -3516,11 +3482,11 @@
       <c r="I72" s="11"/>
       <c r="J72" s="11"/>
     </row>
-    <row r="73" spans="1:10" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A73" s="32">
         <v>66</v>
       </c>
-      <c r="B73" s="42" t="s">
+      <c r="B73" s="45" t="s">
         <v>209</v>
       </c>
       <c r="C73" s="4" t="s">
@@ -3544,11 +3510,11 @@
       </c>
       <c r="J73" s="12"/>
     </row>
-    <row r="74" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="32">
         <v>67</v>
       </c>
-      <c r="B74" s="42"/>
+      <c r="B74" s="45"/>
       <c r="C74" s="4" t="s">
         <v>105</v>
       </c>
@@ -3570,11 +3536,11 @@
       </c>
       <c r="J74" s="12"/>
     </row>
-    <row r="75" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="32">
         <v>68</v>
       </c>
-      <c r="B75" s="42"/>
+      <c r="B75" s="45"/>
       <c r="C75" s="4" t="s">
         <v>210</v>
       </c>
@@ -3590,9 +3556,9 @@
       <c r="I75" s="12"/>
       <c r="J75" s="12"/>
     </row>
-    <row r="76" spans="1:10" s="28" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" s="28" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="32"/>
-      <c r="B76" s="42"/>
+      <c r="B76" s="45"/>
       <c r="C76" s="4" t="s">
         <v>212</v>
       </c>
@@ -3604,11 +3570,11 @@
       <c r="I76" s="12"/>
       <c r="J76" s="12"/>
     </row>
-    <row r="77" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A77" s="32">
         <v>69</v>
       </c>
-      <c r="B77" s="42"/>
+      <c r="B77" s="45"/>
       <c r="C77" s="4" t="s">
         <v>151</v>
       </c>
@@ -3624,9 +3590,9 @@
       <c r="I77" s="12"/>
       <c r="J77" s="12"/>
     </row>
-    <row r="78" spans="1:10" s="28" customFormat="1" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" s="28" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A78" s="32"/>
-      <c r="B78" s="42"/>
+      <c r="B78" s="45"/>
       <c r="C78" s="4" t="s">
         <v>211</v>
       </c>
@@ -3642,11 +3608,11 @@
       <c r="I78" s="12"/>
       <c r="J78" s="12"/>
     </row>
-    <row r="79" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="32">
         <v>70</v>
       </c>
-      <c r="B79" s="42"/>
+      <c r="B79" s="45"/>
       <c r="C79" s="4" t="s">
         <v>37</v>
       </c>
@@ -3668,11 +3634,11 @@
       </c>
       <c r="J79" s="12"/>
     </row>
-    <row r="80" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A80" s="32">
         <v>71</v>
       </c>
-      <c r="B80" s="42" t="s">
+      <c r="B80" s="45" t="s">
         <v>39</v>
       </c>
       <c r="C80" s="4" t="s">
@@ -3698,9 +3664,9 @@
         <v>85</v>
       </c>
     </row>
-    <row r="81" spans="1:10" s="28" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" s="28" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A81" s="32"/>
-      <c r="B81" s="42"/>
+      <c r="B81" s="45"/>
       <c r="C81" s="4" t="s">
         <v>217</v>
       </c>
@@ -3716,9 +3682,9 @@
       <c r="I81" s="12"/>
       <c r="J81" s="12"/>
     </row>
-    <row r="82" spans="1:10" s="28" customFormat="1" ht="25.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" s="28" customFormat="1" ht="25.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="32"/>
-      <c r="B82" s="42"/>
+      <c r="B82" s="45"/>
       <c r="C82" s="4" t="s">
         <v>216</v>
       </c>
@@ -3734,11 +3700,11 @@
       <c r="I82" s="12"/>
       <c r="J82" s="12"/>
     </row>
-    <row r="83" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="32">
         <v>72</v>
       </c>
-      <c r="B83" s="42"/>
+      <c r="B83" s="45"/>
       <c r="C83" s="4" t="s">
         <v>105</v>
       </c>
@@ -3760,11 +3726,11 @@
       </c>
       <c r="J83" s="12"/>
     </row>
-    <row r="84" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="32">
         <v>73</v>
       </c>
-      <c r="B84" s="42"/>
+      <c r="B84" s="45"/>
       <c r="C84" s="4" t="s">
         <v>37</v>
       </c>
@@ -3786,11 +3752,11 @@
       </c>
       <c r="J84" s="12"/>
     </row>
-    <row r="85" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A85" s="32">
         <v>74</v>
       </c>
-      <c r="B85" s="42" t="s">
+      <c r="B85" s="45" t="s">
         <v>41</v>
       </c>
       <c r="C85" s="4" t="s">
@@ -3814,9 +3780,9 @@
       </c>
       <c r="J85" s="12"/>
     </row>
-    <row r="86" spans="1:10" s="28" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" s="28" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A86" s="32"/>
-      <c r="B86" s="42"/>
+      <c r="B86" s="45"/>
       <c r="C86" s="4" t="s">
         <v>218</v>
       </c>
@@ -3832,9 +3798,9 @@
       <c r="I86" s="12"/>
       <c r="J86" s="12"/>
     </row>
-    <row r="87" spans="1:10" s="28" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" s="28" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A87" s="32"/>
-      <c r="B87" s="42"/>
+      <c r="B87" s="45"/>
       <c r="C87" s="4" t="s">
         <v>219</v>
       </c>
@@ -3850,11 +3816,11 @@
       <c r="I87" s="12"/>
       <c r="J87" s="12"/>
     </row>
-    <row r="88" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="32">
         <v>75</v>
       </c>
-      <c r="B88" s="42"/>
+      <c r="B88" s="45"/>
       <c r="C88" s="4" t="s">
         <v>105</v>
       </c>
@@ -3876,11 +3842,11 @@
       </c>
       <c r="J88" s="12"/>
     </row>
-    <row r="89" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="32">
         <v>76</v>
       </c>
-      <c r="B89" s="42"/>
+      <c r="B89" s="45"/>
       <c r="C89" s="4" t="s">
         <v>37</v>
       </c>
@@ -3902,11 +3868,11 @@
       </c>
       <c r="J89" s="12"/>
     </row>
-    <row r="90" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A90" s="32">
         <v>77</v>
       </c>
-      <c r="B90" s="42" t="s">
+      <c r="B90" s="45" t="s">
         <v>43</v>
       </c>
       <c r="C90" s="4" t="s">
@@ -3924,9 +3890,9 @@
       <c r="I90" s="12"/>
       <c r="J90" s="12"/>
     </row>
-    <row r="91" spans="1:10" s="28" customFormat="1" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" s="28" customFormat="1" ht="28.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="32"/>
-      <c r="B91" s="42"/>
+      <c r="B91" s="45"/>
       <c r="C91" s="4" t="s">
         <v>223</v>
       </c>
@@ -3948,11 +3914,11 @@
       </c>
       <c r="J91" s="12"/>
     </row>
-    <row r="92" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A92" s="32">
         <v>78</v>
       </c>
-      <c r="B92" s="42"/>
+      <c r="B92" s="45"/>
       <c r="C92" s="4" t="s">
         <v>126</v>
       </c>
@@ -3974,9 +3940,9 @@
       </c>
       <c r="J92" s="12"/>
     </row>
-    <row r="93" spans="1:10" s="28" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" s="28" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A93" s="32"/>
-      <c r="B93" s="42"/>
+      <c r="B93" s="45"/>
       <c r="C93" s="4" t="s">
         <v>225</v>
       </c>
@@ -3992,9 +3958,9 @@
       <c r="I93" s="12"/>
       <c r="J93" s="12"/>
     </row>
-    <row r="94" spans="1:10" s="28" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" s="28" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="32"/>
-      <c r="B94" s="42"/>
+      <c r="B94" s="45"/>
       <c r="C94" s="4" t="s">
         <v>224</v>
       </c>
@@ -4016,9 +3982,9 @@
       </c>
       <c r="J94" s="12"/>
     </row>
-    <row r="95" spans="1:10" s="28" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" s="28" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="32"/>
-      <c r="B95" s="42"/>
+      <c r="B95" s="45"/>
       <c r="C95" s="4" t="s">
         <v>229</v>
       </c>
@@ -4034,9 +4000,9 @@
       <c r="I95" s="12"/>
       <c r="J95" s="12"/>
     </row>
-    <row r="96" spans="1:10" s="28" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" s="28" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="32"/>
-      <c r="B96" s="42"/>
+      <c r="B96" s="45"/>
       <c r="C96" s="4" t="s">
         <v>231</v>
       </c>
@@ -4052,9 +4018,9 @@
       <c r="I96" s="12"/>
       <c r="J96" s="12"/>
     </row>
-    <row r="97" spans="1:10" s="28" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" s="28" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A97" s="32"/>
-      <c r="B97" s="42"/>
+      <c r="B97" s="45"/>
       <c r="C97" s="4" t="s">
         <v>222</v>
       </c>
@@ -4070,9 +4036,9 @@
       <c r="I97" s="12"/>
       <c r="J97" s="12"/>
     </row>
-    <row r="98" spans="1:10" s="28" customFormat="1" ht="25.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" s="28" customFormat="1" ht="25.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="32"/>
-      <c r="B98" s="42"/>
+      <c r="B98" s="45"/>
       <c r="C98" s="4" t="s">
         <v>221</v>
       </c>
@@ -4094,11 +4060,11 @@
       </c>
       <c r="J98" s="12"/>
     </row>
-    <row r="99" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="32">
         <v>79</v>
       </c>
-      <c r="B99" s="42"/>
+      <c r="B99" s="45"/>
       <c r="C99" s="4" t="s">
         <v>45</v>
       </c>
@@ -4114,11 +4080,11 @@
       <c r="I99" s="12"/>
       <c r="J99" s="12"/>
     </row>
-    <row r="100" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="32">
         <v>80</v>
       </c>
-      <c r="B100" s="42" t="s">
+      <c r="B100" s="45" t="s">
         <v>44</v>
       </c>
       <c r="C100" s="4" t="s">
@@ -4142,9 +4108,9 @@
       </c>
       <c r="J100" s="12"/>
     </row>
-    <row r="101" spans="1:10" s="28" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" s="28" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="32"/>
-      <c r="B101" s="42"/>
+      <c r="B101" s="45"/>
       <c r="C101" s="4" t="s">
         <v>228</v>
       </c>
@@ -4160,9 +4126,9 @@
       <c r="I101" s="12"/>
       <c r="J101" s="12"/>
     </row>
-    <row r="102" spans="1:10" s="28" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" s="28" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="32"/>
-      <c r="B102" s="42"/>
+      <c r="B102" s="45"/>
       <c r="C102" s="4" t="s">
         <v>232</v>
       </c>
@@ -4174,9 +4140,9 @@
       <c r="I102" s="12"/>
       <c r="J102" s="12"/>
     </row>
-    <row r="103" spans="1:10" s="28" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" s="28" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="32"/>
-      <c r="B103" s="42"/>
+      <c r="B103" s="45"/>
       <c r="C103" s="4" t="s">
         <v>220</v>
       </c>
@@ -4198,9 +4164,9 @@
       </c>
       <c r="J103" s="12"/>
     </row>
-    <row r="104" spans="1:10" s="28" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" s="28" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="32"/>
-      <c r="B104" s="42"/>
+      <c r="B104" s="45"/>
       <c r="C104" s="4" t="s">
         <v>227</v>
       </c>
@@ -4222,11 +4188,11 @@
       </c>
       <c r="J104" s="12"/>
     </row>
-    <row r="105" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A105" s="32">
         <v>81</v>
       </c>
-      <c r="B105" s="42"/>
+      <c r="B105" s="45"/>
       <c r="C105" s="4" t="s">
         <v>136</v>
       </c>
@@ -4248,11 +4214,11 @@
       </c>
       <c r="J105" s="12"/>
     </row>
-    <row r="106" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="32">
         <v>82</v>
       </c>
-      <c r="B106" s="46" t="s">
+      <c r="B106" s="42" t="s">
         <v>65</v>
       </c>
       <c r="C106" s="4" t="s">
@@ -4278,9 +4244,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="107" spans="1:10" s="28" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" s="28" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="32"/>
-      <c r="B107" s="47"/>
+      <c r="B107" s="43"/>
       <c r="C107" s="4" t="s">
         <v>187</v>
       </c>
@@ -4302,9 +4268,9 @@
       </c>
       <c r="J107" s="12"/>
     </row>
-    <row r="108" spans="1:10" s="28" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" s="28" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="32"/>
-      <c r="B108" s="48"/>
+      <c r="B108" s="44"/>
       <c r="C108" s="4" t="s">
         <v>186</v>
       </c>
@@ -4326,11 +4292,11 @@
       </c>
       <c r="J108" s="12"/>
     </row>
-    <row r="109" spans="1:10" s="20" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" s="20" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" s="32">
         <v>83</v>
       </c>
-      <c r="B109" s="49" t="s">
+      <c r="B109" s="46" t="s">
         <v>67</v>
       </c>
       <c r="C109" s="8" t="s">
@@ -4354,11 +4320,11 @@
       </c>
       <c r="J109" s="9"/>
     </row>
-    <row r="110" spans="1:10" s="20" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" s="20" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A110" s="32">
         <v>84</v>
       </c>
-      <c r="B110" s="49"/>
+      <c r="B110" s="46"/>
       <c r="C110" s="8" t="s">
         <v>95</v>
       </c>
@@ -4374,11 +4340,11 @@
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
     </row>
-    <row r="111" spans="1:10" s="20" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" s="20" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="32">
         <v>85</v>
       </c>
-      <c r="B111" s="49"/>
+      <c r="B111" s="46"/>
       <c r="C111" s="8" t="s">
         <v>190</v>
       </c>
@@ -4394,11 +4360,11 @@
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
     </row>
-    <row r="112" spans="1:10" s="20" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" s="20" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="32">
         <v>86</v>
       </c>
-      <c r="B112" s="49"/>
+      <c r="B112" s="46"/>
       <c r="C112" s="8" t="s">
         <v>189</v>
       </c>
@@ -4414,9 +4380,9 @@
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
     </row>
-    <row r="113" spans="1:10" s="20" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:10" s="20" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A113" s="32"/>
-      <c r="B113" s="49"/>
+      <c r="B113" s="46"/>
       <c r="C113" s="8" t="s">
         <v>191</v>
       </c>
@@ -4432,9 +4398,9 @@
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
     </row>
-    <row r="114" spans="1:10" s="20" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:10" s="20" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" s="32"/>
-      <c r="B114" s="49"/>
+      <c r="B114" s="46"/>
       <c r="C114" s="8" t="s">
         <v>192</v>
       </c>
@@ -4450,9 +4416,9 @@
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
     </row>
-    <row r="115" spans="1:10" s="20" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10" s="20" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A115" s="32"/>
-      <c r="B115" s="49"/>
+      <c r="B115" s="46"/>
       <c r="C115" s="8" t="s">
         <v>193</v>
       </c>
@@ -4468,9 +4434,9 @@
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
     </row>
-    <row r="116" spans="1:10" s="20" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:10" s="20" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A116" s="32"/>
-      <c r="B116" s="49"/>
+      <c r="B116" s="46"/>
       <c r="C116" s="8" t="s">
         <v>215</v>
       </c>
@@ -4486,11 +4452,11 @@
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
     </row>
-    <row r="117" spans="1:10" s="20" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:10" s="20" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A117" s="32">
         <v>87</v>
       </c>
-      <c r="B117" s="49"/>
+      <c r="B117" s="46"/>
       <c r="C117" s="8" t="s">
         <v>188</v>
       </c>
@@ -4506,11 +4472,11 @@
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
     </row>
-    <row r="118" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A118" s="32">
         <v>88</v>
       </c>
-      <c r="B118" s="42" t="s">
+      <c r="B118" s="45" t="s">
         <v>87</v>
       </c>
       <c r="C118" s="4" t="s">
@@ -4534,11 +4500,11 @@
       </c>
       <c r="J118" s="12"/>
     </row>
-    <row r="119" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A119" s="32">
         <v>89</v>
       </c>
-      <c r="B119" s="42"/>
+      <c r="B119" s="45"/>
       <c r="C119" s="4" t="s">
         <v>93</v>
       </c>
@@ -4560,11 +4526,11 @@
       </c>
       <c r="J119" s="12"/>
     </row>
-    <row r="120" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A120" s="32">
         <v>90</v>
       </c>
-      <c r="B120" s="46" t="s">
+      <c r="B120" s="42" t="s">
         <v>97</v>
       </c>
       <c r="C120" s="4" t="s">
@@ -4588,9 +4554,9 @@
       </c>
       <c r="J120" s="12"/>
     </row>
-    <row r="121" spans="1:10" s="28" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:10" s="28" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A121" s="32"/>
-      <c r="B121" s="47"/>
+      <c r="B121" s="43"/>
       <c r="C121" s="4" t="s">
         <v>208</v>
       </c>
@@ -4606,9 +4572,9 @@
       <c r="I121" s="12"/>
       <c r="J121" s="12"/>
     </row>
-    <row r="122" spans="1:10" s="28" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:10" s="28" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A122" s="32"/>
-      <c r="B122" s="47"/>
+      <c r="B122" s="43"/>
       <c r="C122" s="4" t="s">
         <v>202</v>
       </c>
@@ -4624,9 +4590,9 @@
       <c r="I122" s="12"/>
       <c r="J122" s="12"/>
     </row>
-    <row r="123" spans="1:10" s="28" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:10" s="28" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A123" s="32"/>
-      <c r="B123" s="47"/>
+      <c r="B123" s="43"/>
       <c r="C123" s="4" t="s">
         <v>203</v>
       </c>
@@ -4642,9 +4608,9 @@
       <c r="I123" s="12"/>
       <c r="J123" s="12"/>
     </row>
-    <row r="124" spans="1:10" s="28" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:10" s="28" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A124" s="32"/>
-      <c r="B124" s="47"/>
+      <c r="B124" s="43"/>
       <c r="C124" s="4" t="s">
         <v>207</v>
       </c>
@@ -4660,9 +4626,9 @@
       <c r="I124" s="12"/>
       <c r="J124" s="12"/>
     </row>
-    <row r="125" spans="1:10" s="28" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:10" s="28" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A125" s="32"/>
-      <c r="B125" s="47"/>
+      <c r="B125" s="43"/>
       <c r="C125" s="4" t="s">
         <v>206</v>
       </c>
@@ -4674,11 +4640,11 @@
       <c r="I125" s="12"/>
       <c r="J125" s="12"/>
     </row>
-    <row r="126" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A126" s="32">
         <v>91</v>
       </c>
-      <c r="B126" s="48"/>
+      <c r="B126" s="44"/>
       <c r="C126" s="4" t="s">
         <v>205</v>
       </c>
@@ -4694,11 +4660,11 @@
       <c r="I126" s="12"/>
       <c r="J126" s="12"/>
     </row>
-    <row r="127" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A127" s="32">
         <v>92</v>
       </c>
-      <c r="B127" s="42" t="s">
+      <c r="B127" s="45" t="s">
         <v>99</v>
       </c>
       <c r="C127" s="4" t="s">
@@ -4722,11 +4688,11 @@
       </c>
       <c r="J127" s="12"/>
     </row>
-    <row r="128" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A128" s="32">
         <v>93</v>
       </c>
-      <c r="B128" s="42"/>
+      <c r="B128" s="45"/>
       <c r="C128" s="4" t="s">
         <v>104</v>
       </c>
@@ -4748,11 +4714,11 @@
       </c>
       <c r="J128" s="12"/>
     </row>
-    <row r="129" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A129" s="32">
         <v>94</v>
       </c>
-      <c r="B129" s="42"/>
+      <c r="B129" s="45"/>
       <c r="C129" s="4" t="s">
         <v>101</v>
       </c>
@@ -4774,7 +4740,7 @@
       </c>
       <c r="J129" s="12"/>
     </row>
-    <row r="130" spans="1:10" s="28" customFormat="1" ht="40.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:10" s="28" customFormat="1" ht="40.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A130" s="32"/>
       <c r="B130" s="41" t="s">
         <v>201</v>
@@ -4794,11 +4760,11 @@
       <c r="I130" s="12"/>
       <c r="J130" s="12"/>
     </row>
-    <row r="131" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A131" s="32">
         <v>95</v>
       </c>
-      <c r="B131" s="46" t="s">
+      <c r="B131" s="42" t="s">
         <v>111</v>
       </c>
       <c r="C131" s="4" t="s">
@@ -4822,9 +4788,9 @@
       </c>
       <c r="J131" s="12"/>
     </row>
-    <row r="132" spans="1:10" s="28" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:10" s="28" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A132" s="32"/>
-      <c r="B132" s="47"/>
+      <c r="B132" s="43"/>
       <c r="C132" s="4" t="s">
         <v>214</v>
       </c>
@@ -4840,11 +4806,11 @@
       <c r="I132" s="12"/>
       <c r="J132" s="12"/>
     </row>
-    <row r="133" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A133" s="32">
         <v>96</v>
       </c>
-      <c r="B133" s="47"/>
+      <c r="B133" s="43"/>
       <c r="C133" s="4" t="s">
         <v>213</v>
       </c>
@@ -4860,11 +4826,11 @@
       <c r="I133" s="12"/>
       <c r="J133" s="12"/>
     </row>
-    <row r="134" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A134" s="32">
         <v>97</v>
       </c>
-      <c r="B134" s="47"/>
+      <c r="B134" s="43"/>
       <c r="C134" s="4" t="s">
         <v>150</v>
       </c>
@@ -4880,25 +4846,25 @@
       <c r="I134" s="12"/>
       <c r="J134" s="12"/>
     </row>
-    <row r="135" spans="1:10" s="28" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="43" t="s">
+    <row r="135" spans="1:10" s="28" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A135" s="47" t="s">
         <v>199</v>
       </c>
-      <c r="B135" s="44"/>
-      <c r="C135" s="44"/>
-      <c r="D135" s="44"/>
-      <c r="E135" s="44"/>
-      <c r="F135" s="44"/>
-      <c r="G135" s="44"/>
-      <c r="H135" s="44"/>
-      <c r="I135" s="44"/>
-      <c r="J135" s="45"/>
-    </row>
-    <row r="136" spans="1:10" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="B135" s="48"/>
+      <c r="C135" s="48"/>
+      <c r="D135" s="48"/>
+      <c r="E135" s="48"/>
+      <c r="F135" s="48"/>
+      <c r="G135" s="48"/>
+      <c r="H135" s="48"/>
+      <c r="I135" s="48"/>
+      <c r="J135" s="49"/>
+    </row>
+    <row r="136" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A136" s="32">
         <v>98</v>
       </c>
-      <c r="B136" s="42" t="s">
+      <c r="B136" s="45" t="s">
         <v>113</v>
       </c>
       <c r="C136" s="4" t="s">
@@ -4922,11 +4888,11 @@
       </c>
       <c r="J136" s="12"/>
     </row>
-    <row r="137" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A137" s="32">
         <v>99</v>
       </c>
-      <c r="B137" s="42"/>
+      <c r="B137" s="45"/>
       <c r="C137" s="4" t="s">
         <v>116</v>
       </c>
@@ -4948,11 +4914,11 @@
       </c>
       <c r="J137" s="12"/>
     </row>
-    <row r="138" spans="1:10" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A138" s="32">
         <v>100</v>
       </c>
-      <c r="B138" s="42" t="s">
+      <c r="B138" s="45" t="s">
         <v>114</v>
       </c>
       <c r="C138" s="4" t="s">
@@ -4976,11 +4942,11 @@
       </c>
       <c r="J138" s="12"/>
     </row>
-    <row r="139" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A139" s="32">
         <v>101</v>
       </c>
-      <c r="B139" s="42"/>
+      <c r="B139" s="45"/>
       <c r="C139" s="4" t="s">
         <v>117</v>
       </c>
@@ -5002,11 +4968,11 @@
       </c>
       <c r="J139" s="12"/>
     </row>
-    <row r="140" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A140" s="32">
         <v>102</v>
       </c>
-      <c r="B140" s="46" t="s">
+      <c r="B140" s="42" t="s">
         <v>118</v>
       </c>
       <c r="C140" s="4" t="s">
@@ -5030,11 +4996,11 @@
       </c>
       <c r="J140" s="12"/>
     </row>
-    <row r="141" spans="1:10" s="26" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:10" s="26" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A141" s="32">
         <v>103</v>
       </c>
-      <c r="B141" s="48"/>
+      <c r="B141" s="44"/>
       <c r="C141" s="4" t="s">
         <v>169</v>
       </c>
@@ -5050,7 +5016,7 @@
       <c r="I141" s="11"/>
       <c r="J141" s="11"/>
     </row>
-    <row r="142" spans="1:10" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:10" ht="42" x14ac:dyDescent="0.15">
       <c r="A142" s="32">
         <v>104</v>
       </c>
@@ -5078,11 +5044,11 @@
       </c>
       <c r="J142" s="12"/>
     </row>
-    <row r="143" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A143" s="32">
         <v>105</v>
       </c>
-      <c r="B143" s="46" t="s">
+      <c r="B143" s="42" t="s">
         <v>132</v>
       </c>
       <c r="C143" s="4" t="s">
@@ -5106,11 +5072,11 @@
       </c>
       <c r="J143" s="12"/>
     </row>
-    <row r="144" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A144" s="32">
         <v>106</v>
       </c>
-      <c r="B144" s="47"/>
+      <c r="B144" s="43"/>
       <c r="C144" s="4" t="s">
         <v>135</v>
       </c>
@@ -5132,11 +5098,11 @@
       </c>
       <c r="J144" s="12"/>
     </row>
-    <row r="145" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A145" s="32">
         <v>107</v>
       </c>
-      <c r="B145" s="48"/>
+      <c r="B145" s="44"/>
       <c r="C145" s="4" t="s">
         <v>139</v>
       </c>
@@ -5158,7 +5124,7 @@
       </c>
       <c r="J145" s="12"/>
     </row>
-    <row r="146" spans="1:10" s="26" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:10" s="26" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A146" s="32">
         <v>108</v>
       </c>
@@ -5180,7 +5146,7 @@
       <c r="I146" s="11"/>
       <c r="J146" s="11"/>
     </row>
-    <row r="147" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A147" s="32">
         <v>109</v>
       </c>
@@ -5202,7 +5168,7 @@
       <c r="I147" s="12"/>
       <c r="J147" s="12"/>
     </row>
-    <row r="148" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A148" s="12"/>
       <c r="B148" s="22"/>
       <c r="C148" s="4"/>
@@ -5214,7 +5180,7 @@
       <c r="I148" s="12"/>
       <c r="J148" s="12"/>
     </row>
-    <row r="149" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A149" s="12"/>
       <c r="B149" s="22"/>
       <c r="C149" s="4"/>
@@ -5226,7 +5192,7 @@
       <c r="I149" s="12"/>
       <c r="J149" s="12"/>
     </row>
-    <row r="150" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A150" s="12"/>
       <c r="B150" s="22"/>
       <c r="C150" s="4"/>
@@ -5238,7 +5204,7 @@
       <c r="I150" s="12"/>
       <c r="J150" s="12"/>
     </row>
-    <row r="151" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A151" s="12"/>
       <c r="B151" s="22"/>
       <c r="C151" s="4"/>
@@ -5250,7 +5216,7 @@
       <c r="I151" s="12"/>
       <c r="J151" s="12"/>
     </row>
-    <row r="152" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A152" s="12"/>
       <c r="B152" s="22"/>
       <c r="C152" s="4"/>
@@ -5262,7 +5228,7 @@
       <c r="I152" s="12"/>
       <c r="J152" s="12"/>
     </row>
-    <row r="153" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A153" s="12"/>
       <c r="B153" s="22"/>
       <c r="C153" s="4"/>
@@ -5274,7 +5240,7 @@
       <c r="I153" s="12"/>
       <c r="J153" s="12"/>
     </row>
-    <row r="154" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A154" s="12"/>
       <c r="B154" s="22"/>
       <c r="C154" s="4"/>
@@ -5286,7 +5252,7 @@
       <c r="I154" s="12"/>
       <c r="J154" s="12"/>
     </row>
-    <row r="155" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A155" s="12"/>
       <c r="B155" s="22"/>
       <c r="C155" s="4"/>
@@ -5298,7 +5264,7 @@
       <c r="I155" s="12"/>
       <c r="J155" s="12"/>
     </row>
-    <row r="156" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A156" s="12"/>
       <c r="B156" s="22"/>
       <c r="C156" s="4"/>
@@ -5310,7 +5276,7 @@
       <c r="I156" s="12"/>
       <c r="J156" s="12"/>
     </row>
-    <row r="157" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A157" s="12"/>
       <c r="B157" s="22"/>
       <c r="C157" s="4"/>
@@ -5322,7 +5288,7 @@
       <c r="I157" s="12"/>
       <c r="J157" s="12"/>
     </row>
-    <row r="158" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A158" s="12"/>
       <c r="B158" s="22"/>
       <c r="C158" s="4"/>
@@ -5334,7 +5300,7 @@
       <c r="I158" s="12"/>
       <c r="J158" s="12"/>
     </row>
-    <row r="159" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A159" s="12"/>
       <c r="B159" s="22"/>
       <c r="C159" s="4"/>
@@ -5346,7 +5312,7 @@
       <c r="I159" s="12"/>
       <c r="J159" s="12"/>
     </row>
-    <row r="160" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A160" s="12"/>
       <c r="B160" s="22"/>
       <c r="C160" s="4"/>
@@ -5358,7 +5324,7 @@
       <c r="I160" s="12"/>
       <c r="J160" s="12"/>
     </row>
-    <row r="161" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A161" s="12"/>
       <c r="B161" s="22"/>
       <c r="C161" s="4"/>
@@ -5370,7 +5336,7 @@
       <c r="I161" s="12"/>
       <c r="J161" s="12"/>
     </row>
-    <row r="162" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A162" s="12"/>
       <c r="B162" s="22"/>
       <c r="C162" s="4"/>
@@ -5382,7 +5348,7 @@
       <c r="I162" s="12"/>
       <c r="J162" s="12"/>
     </row>
-    <row r="163" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A163" s="12"/>
       <c r="B163" s="22"/>
       <c r="C163" s="4"/>
@@ -5394,7 +5360,7 @@
       <c r="I163" s="12"/>
       <c r="J163" s="12"/>
     </row>
-    <row r="164" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A164" s="12"/>
       <c r="B164" s="22"/>
       <c r="C164" s="4"/>
@@ -5406,7 +5372,7 @@
       <c r="I164" s="12"/>
       <c r="J164" s="12"/>
     </row>
-    <row r="165" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A165" s="12"/>
       <c r="B165" s="22"/>
       <c r="C165" s="4"/>
@@ -5418,7 +5384,7 @@
       <c r="I165" s="12"/>
       <c r="J165" s="12"/>
     </row>
-    <row r="166" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A166" s="12"/>
       <c r="B166" s="22"/>
       <c r="C166" s="4"/>
@@ -5430,7 +5396,7 @@
       <c r="I166" s="12"/>
       <c r="J166" s="12"/>
     </row>
-    <row r="167" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A167" s="12"/>
       <c r="B167" s="22"/>
       <c r="C167" s="4"/>
@@ -5442,7 +5408,7 @@
       <c r="I167" s="12"/>
       <c r="J167" s="12"/>
     </row>
-    <row r="168" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A168" s="12"/>
       <c r="B168" s="22"/>
       <c r="C168" s="4"/>
@@ -5454,7 +5420,7 @@
       <c r="I168" s="12"/>
       <c r="J168" s="12"/>
     </row>
-    <row r="169" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A169" s="12"/>
       <c r="B169" s="22"/>
       <c r="C169" s="4"/>
@@ -5466,7 +5432,7 @@
       <c r="I169" s="12"/>
       <c r="J169" s="12"/>
     </row>
-    <row r="170" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A170" s="12"/>
       <c r="B170" s="22"/>
       <c r="C170" s="4"/>
@@ -5478,7 +5444,7 @@
       <c r="I170" s="12"/>
       <c r="J170" s="12"/>
     </row>
-    <row r="171" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A171" s="12"/>
       <c r="B171" s="22"/>
       <c r="C171" s="4"/>
@@ -5490,7 +5456,7 @@
       <c r="I171" s="12"/>
       <c r="J171" s="12"/>
     </row>
-    <row r="172" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A172" s="12"/>
       <c r="B172" s="22"/>
       <c r="C172" s="4"/>
@@ -5502,7 +5468,7 @@
       <c r="I172" s="12"/>
       <c r="J172" s="12"/>
     </row>
-    <row r="173" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A173" s="12"/>
       <c r="B173" s="22"/>
       <c r="C173" s="4"/>
@@ -5514,7 +5480,7 @@
       <c r="I173" s="12"/>
       <c r="J173" s="12"/>
     </row>
-    <row r="174" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A174" s="12"/>
       <c r="B174" s="22"/>
       <c r="C174" s="4"/>
@@ -5526,7 +5492,7 @@
       <c r="I174" s="12"/>
       <c r="J174" s="12"/>
     </row>
-    <row r="175" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A175" s="12"/>
       <c r="B175" s="22"/>
       <c r="C175" s="4"/>
@@ -5538,7 +5504,7 @@
       <c r="I175" s="12"/>
       <c r="J175" s="12"/>
     </row>
-    <row r="176" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A176" s="12"/>
       <c r="B176" s="22"/>
       <c r="C176" s="4"/>
@@ -5550,7 +5516,7 @@
       <c r="I176" s="12"/>
       <c r="J176" s="12"/>
     </row>
-    <row r="177" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A177" s="12"/>
       <c r="B177" s="22"/>
       <c r="C177" s="4"/>
@@ -5562,7 +5528,7 @@
       <c r="I177" s="12"/>
       <c r="J177" s="12"/>
     </row>
-    <row r="178" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A178" s="12"/>
       <c r="B178" s="22"/>
       <c r="C178" s="4"/>
@@ -5574,7 +5540,7 @@
       <c r="I178" s="12"/>
       <c r="J178" s="12"/>
     </row>
-    <row r="179" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A179" s="12"/>
       <c r="B179" s="22"/>
       <c r="C179" s="4"/>
@@ -5586,7 +5552,7 @@
       <c r="I179" s="12"/>
       <c r="J179" s="12"/>
     </row>
-    <row r="180" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A180" s="12"/>
       <c r="B180" s="22"/>
       <c r="C180" s="4"/>
@@ -5598,7 +5564,7 @@
       <c r="I180" s="12"/>
       <c r="J180" s="12"/>
     </row>
-    <row r="181" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A181" s="12"/>
       <c r="B181" s="22"/>
       <c r="C181" s="4"/>
@@ -5610,7 +5576,7 @@
       <c r="I181" s="12"/>
       <c r="J181" s="12"/>
     </row>
-    <row r="182" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A182" s="12"/>
       <c r="B182" s="22"/>
       <c r="C182" s="4"/>
@@ -5622,7 +5588,7 @@
       <c r="I182" s="12"/>
       <c r="J182" s="12"/>
     </row>
-    <row r="183" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A183" s="12"/>
       <c r="B183" s="22"/>
       <c r="C183" s="4"/>
@@ -5634,7 +5600,7 @@
       <c r="I183" s="12"/>
       <c r="J183" s="12"/>
     </row>
-    <row r="184" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A184" s="12"/>
       <c r="B184" s="22"/>
       <c r="C184" s="4"/>
@@ -5646,7 +5612,7 @@
       <c r="I184" s="12"/>
       <c r="J184" s="12"/>
     </row>
-    <row r="185" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A185" s="12"/>
       <c r="B185" s="22"/>
       <c r="C185" s="4"/>
@@ -5658,7 +5624,7 @@
       <c r="I185" s="12"/>
       <c r="J185" s="12"/>
     </row>
-    <row r="186" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A186" s="12"/>
       <c r="B186" s="22"/>
       <c r="C186" s="4"/>
@@ -5670,7 +5636,7 @@
       <c r="I186" s="12"/>
       <c r="J186" s="12"/>
     </row>
-    <row r="187" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A187" s="12"/>
       <c r="B187" s="22"/>
       <c r="C187" s="4"/>
@@ -5682,7 +5648,7 @@
       <c r="I187" s="12"/>
       <c r="J187" s="12"/>
     </row>
-    <row r="188" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A188" s="12"/>
       <c r="B188" s="22"/>
       <c r="C188" s="4"/>
@@ -5694,7 +5660,7 @@
       <c r="I188" s="12"/>
       <c r="J188" s="12"/>
     </row>
-    <row r="189" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A189" s="12"/>
       <c r="B189" s="22"/>
       <c r="C189" s="4"/>
@@ -5706,7 +5672,7 @@
       <c r="I189" s="12"/>
       <c r="J189" s="12"/>
     </row>
-    <row r="190" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A190" s="12"/>
       <c r="B190" s="22"/>
       <c r="C190" s="4"/>
@@ -5718,7 +5684,7 @@
       <c r="I190" s="12"/>
       <c r="J190" s="12"/>
     </row>
-    <row r="191" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A191" s="12"/>
       <c r="B191" s="22"/>
       <c r="C191" s="4"/>
@@ -5730,7 +5696,7 @@
       <c r="I191" s="12"/>
       <c r="J191" s="12"/>
     </row>
-    <row r="192" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A192" s="12"/>
       <c r="B192" s="22"/>
       <c r="C192" s="4"/>
@@ -5742,7 +5708,7 @@
       <c r="I192" s="12"/>
       <c r="J192" s="12"/>
     </row>
-    <row r="193" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A193" s="12"/>
       <c r="B193" s="22"/>
       <c r="C193" s="4"/>
@@ -5754,7 +5720,7 @@
       <c r="I193" s="12"/>
       <c r="J193" s="12"/>
     </row>
-    <row r="194" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A194" s="12"/>
       <c r="B194" s="22"/>
       <c r="C194" s="4"/>
@@ -5766,7 +5732,7 @@
       <c r="I194" s="12"/>
       <c r="J194" s="12"/>
     </row>
-    <row r="195" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A195" s="12"/>
       <c r="B195" s="22"/>
       <c r="C195" s="4"/>
@@ -5778,7 +5744,7 @@
       <c r="I195" s="12"/>
       <c r="J195" s="12"/>
     </row>
-    <row r="196" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A196" s="12"/>
       <c r="B196" s="22"/>
       <c r="C196" s="4"/>
@@ -5790,7 +5756,7 @@
       <c r="I196" s="12"/>
       <c r="J196" s="12"/>
     </row>
-    <row r="197" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A197" s="12"/>
       <c r="B197" s="22"/>
       <c r="C197" s="4"/>
@@ -5802,7 +5768,7 @@
       <c r="I197" s="12"/>
       <c r="J197" s="12"/>
     </row>
-    <row r="198" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A198" s="12"/>
       <c r="B198" s="22"/>
       <c r="C198" s="4"/>
@@ -5814,7 +5780,7 @@
       <c r="I198" s="12"/>
       <c r="J198" s="12"/>
     </row>
-    <row r="199" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A199" s="12"/>
       <c r="B199" s="22"/>
       <c r="C199" s="4"/>
@@ -5826,7 +5792,7 @@
       <c r="I199" s="12"/>
       <c r="J199" s="12"/>
     </row>
-    <row r="200" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A200" s="12"/>
       <c r="B200" s="22"/>
       <c r="C200" s="4"/>
@@ -5838,7 +5804,7 @@
       <c r="I200" s="12"/>
       <c r="J200" s="12"/>
     </row>
-    <row r="201" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A201" s="12"/>
       <c r="B201" s="22"/>
       <c r="C201" s="4"/>
@@ -5850,7 +5816,7 @@
       <c r="I201" s="12"/>
       <c r="J201" s="12"/>
     </row>
-    <row r="202" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A202" s="12"/>
       <c r="B202" s="22"/>
       <c r="C202" s="4"/>
@@ -5862,7 +5828,7 @@
       <c r="I202" s="12"/>
       <c r="J202" s="12"/>
     </row>
-    <row r="203" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A203" s="12"/>
       <c r="B203" s="22"/>
       <c r="C203" s="4"/>
@@ -5874,7 +5840,7 @@
       <c r="I203" s="12"/>
       <c r="J203" s="12"/>
     </row>
-    <row r="204" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A204" s="12"/>
       <c r="B204" s="22"/>
       <c r="C204" s="4"/>
@@ -5886,7 +5852,7 @@
       <c r="I204" s="12"/>
       <c r="J204" s="12"/>
     </row>
-    <row r="205" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A205" s="12"/>
       <c r="B205" s="22"/>
       <c r="C205" s="4"/>
@@ -5898,7 +5864,7 @@
       <c r="I205" s="12"/>
       <c r="J205" s="12"/>
     </row>
-    <row r="206" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A206" s="12"/>
       <c r="B206" s="22"/>
       <c r="C206" s="4"/>
@@ -5910,7 +5876,7 @@
       <c r="I206" s="12"/>
       <c r="J206" s="12"/>
     </row>
-    <row r="207" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A207" s="12"/>
       <c r="B207" s="22"/>
       <c r="C207" s="4"/>
@@ -5922,7 +5888,7 @@
       <c r="I207" s="12"/>
       <c r="J207" s="12"/>
     </row>
-    <row r="208" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A208" s="12"/>
       <c r="B208" s="22"/>
       <c r="C208" s="4"/>
@@ -5934,7 +5900,7 @@
       <c r="I208" s="12"/>
       <c r="J208" s="12"/>
     </row>
-    <row r="209" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A209" s="12"/>
       <c r="B209" s="22"/>
       <c r="C209" s="4"/>
@@ -5946,7 +5912,7 @@
       <c r="I209" s="12"/>
       <c r="J209" s="12"/>
     </row>
-    <row r="210" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A210" s="12"/>
       <c r="B210" s="22"/>
       <c r="C210" s="4"/>
@@ -5958,7 +5924,7 @@
       <c r="I210" s="12"/>
       <c r="J210" s="12"/>
     </row>
-    <row r="211" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A211" s="12"/>
       <c r="B211" s="22"/>
       <c r="C211" s="4"/>
@@ -5970,7 +5936,7 @@
       <c r="I211" s="12"/>
       <c r="J211" s="12"/>
     </row>
-    <row r="212" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A212" s="12"/>
       <c r="B212" s="22"/>
       <c r="C212" s="4"/>
@@ -5982,7 +5948,7 @@
       <c r="I212" s="12"/>
       <c r="J212" s="12"/>
     </row>
-    <row r="213" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A213" s="12"/>
       <c r="B213" s="22"/>
       <c r="C213" s="4"/>
@@ -5994,7 +5960,7 @@
       <c r="I213" s="12"/>
       <c r="J213" s="12"/>
     </row>
-    <row r="214" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A214" s="12"/>
       <c r="B214" s="22"/>
       <c r="C214" s="4"/>
@@ -6006,7 +5972,7 @@
       <c r="I214" s="12"/>
       <c r="J214" s="12"/>
     </row>
-    <row r="215" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A215" s="12"/>
       <c r="B215" s="22"/>
       <c r="C215" s="4"/>
@@ -6018,7 +5984,7 @@
       <c r="I215" s="12"/>
       <c r="J215" s="12"/>
     </row>
-    <row r="216" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A216" s="12"/>
       <c r="B216" s="22"/>
       <c r="C216" s="4"/>
@@ -6030,7 +5996,7 @@
       <c r="I216" s="12"/>
       <c r="J216" s="12"/>
     </row>
-    <row r="217" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A217" s="12"/>
       <c r="B217" s="22"/>
       <c r="C217" s="4"/>
@@ -6042,7 +6008,7 @@
       <c r="I217" s="12"/>
       <c r="J217" s="12"/>
     </row>
-    <row r="218" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A218" s="12"/>
       <c r="B218" s="22"/>
       <c r="C218" s="4"/>
@@ -6054,7 +6020,7 @@
       <c r="I218" s="12"/>
       <c r="J218" s="12"/>
     </row>
-    <row r="219" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A219" s="12"/>
       <c r="B219" s="22"/>
       <c r="C219" s="4"/>
@@ -6066,7 +6032,7 @@
       <c r="I219" s="12"/>
       <c r="J219" s="12"/>
     </row>
-    <row r="220" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A220" s="12"/>
       <c r="B220" s="22"/>
       <c r="C220" s="4"/>
@@ -6078,7 +6044,7 @@
       <c r="I220" s="12"/>
       <c r="J220" s="12"/>
     </row>
-    <row r="221" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A221" s="12"/>
       <c r="B221" s="22"/>
       <c r="C221" s="4"/>
@@ -6090,7 +6056,7 @@
       <c r="I221" s="12"/>
       <c r="J221" s="12"/>
     </row>
-    <row r="222" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A222" s="12"/>
       <c r="B222" s="22"/>
       <c r="C222" s="4"/>
@@ -6102,7 +6068,7 @@
       <c r="I222" s="12"/>
       <c r="J222" s="12"/>
     </row>
-    <row r="223" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A223" s="12"/>
       <c r="B223" s="22"/>
       <c r="C223" s="4"/>
@@ -6114,7 +6080,7 @@
       <c r="I223" s="12"/>
       <c r="J223" s="12"/>
     </row>
-    <row r="224" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A224" s="12"/>
       <c r="B224" s="22"/>
       <c r="C224" s="4"/>
@@ -6126,7 +6092,7 @@
       <c r="I224" s="12"/>
       <c r="J224" s="12"/>
     </row>
-    <row r="225" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A225" s="12"/>
       <c r="B225" s="22"/>
       <c r="C225" s="4"/>
@@ -6138,7 +6104,7 @@
       <c r="I225" s="12"/>
       <c r="J225" s="12"/>
     </row>
-    <row r="226" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A226" s="12"/>
       <c r="B226" s="22"/>
       <c r="C226" s="4"/>
@@ -6150,7 +6116,7 @@
       <c r="I226" s="12"/>
       <c r="J226" s="12"/>
     </row>
-    <row r="227" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A227" s="12"/>
       <c r="B227" s="22"/>
       <c r="C227" s="4"/>
@@ -6162,7 +6128,7 @@
       <c r="I227" s="12"/>
       <c r="J227" s="12"/>
     </row>
-    <row r="228" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A228" s="12"/>
       <c r="B228" s="22"/>
       <c r="C228" s="4"/>
@@ -6174,7 +6140,7 @@
       <c r="I228" s="12"/>
       <c r="J228" s="12"/>
     </row>
-    <row r="229" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A229" s="12"/>
       <c r="B229" s="22"/>
       <c r="C229" s="4"/>
@@ -6186,7 +6152,7 @@
       <c r="I229" s="12"/>
       <c r="J229" s="12"/>
     </row>
-    <row r="230" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A230" s="12"/>
       <c r="B230" s="22"/>
       <c r="C230" s="4"/>
@@ -6198,7 +6164,7 @@
       <c r="I230" s="12"/>
       <c r="J230" s="12"/>
     </row>
-    <row r="231" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A231" s="12"/>
       <c r="B231" s="22"/>
       <c r="C231" s="4"/>
@@ -6210,7 +6176,7 @@
       <c r="I231" s="12"/>
       <c r="J231" s="12"/>
     </row>
-    <row r="232" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A232" s="12"/>
       <c r="B232" s="22"/>
       <c r="C232" s="4"/>
@@ -6222,7 +6188,7 @@
       <c r="I232" s="12"/>
       <c r="J232" s="12"/>
     </row>
-    <row r="233" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A233" s="12"/>
       <c r="B233" s="22"/>
       <c r="C233" s="4"/>
@@ -6234,7 +6200,7 @@
       <c r="I233" s="12"/>
       <c r="J233" s="12"/>
     </row>
-    <row r="234" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A234" s="12"/>
       <c r="B234" s="22"/>
       <c r="C234" s="4"/>
@@ -6246,7 +6212,7 @@
       <c r="I234" s="12"/>
       <c r="J234" s="12"/>
     </row>
-    <row r="235" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A235" s="12"/>
       <c r="B235" s="22"/>
       <c r="C235" s="4"/>
@@ -6258,7 +6224,7 @@
       <c r="I235" s="12"/>
       <c r="J235" s="12"/>
     </row>
-    <row r="236" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A236" s="12"/>
       <c r="B236" s="22"/>
       <c r="C236" s="4"/>
@@ -6270,7 +6236,7 @@
       <c r="I236" s="12"/>
       <c r="J236" s="12"/>
     </row>
-    <row r="237" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A237" s="12"/>
       <c r="B237" s="22"/>
       <c r="C237" s="4"/>
@@ -6282,7 +6248,7 @@
       <c r="I237" s="12"/>
       <c r="J237" s="12"/>
     </row>
-    <row r="238" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A238" s="12"/>
       <c r="B238" s="22"/>
       <c r="C238" s="4"/>
@@ -6294,7 +6260,7 @@
       <c r="I238" s="12"/>
       <c r="J238" s="12"/>
     </row>
-    <row r="239" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A239" s="12"/>
       <c r="B239" s="22"/>
       <c r="C239" s="4"/>
@@ -6306,7 +6272,7 @@
       <c r="I239" s="12"/>
       <c r="J239" s="12"/>
     </row>
-    <row r="240" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A240" s="12"/>
       <c r="B240" s="22"/>
       <c r="C240" s="4"/>
@@ -6318,7 +6284,7 @@
       <c r="I240" s="12"/>
       <c r="J240" s="12"/>
     </row>
-    <row r="241" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A241" s="12"/>
       <c r="B241" s="22"/>
       <c r="C241" s="4"/>
@@ -6330,7 +6296,7 @@
       <c r="I241" s="12"/>
       <c r="J241" s="12"/>
     </row>
-    <row r="242" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A242" s="12"/>
       <c r="B242" s="22"/>
       <c r="C242" s="4"/>
@@ -6342,7 +6308,7 @@
       <c r="I242" s="12"/>
       <c r="J242" s="12"/>
     </row>
-    <row r="243" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A243" s="12"/>
       <c r="B243" s="22"/>
       <c r="C243" s="4"/>
@@ -6354,7 +6320,7 @@
       <c r="I243" s="12"/>
       <c r="J243" s="12"/>
     </row>
-    <row r="244" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A244" s="12"/>
       <c r="B244" s="22"/>
       <c r="C244" s="4"/>
@@ -6366,7 +6332,7 @@
       <c r="I244" s="12"/>
       <c r="J244" s="12"/>
     </row>
-    <row r="245" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A245" s="12"/>
       <c r="B245" s="22"/>
       <c r="C245" s="4"/>
@@ -6378,7 +6344,7 @@
       <c r="I245" s="12"/>
       <c r="J245" s="12"/>
     </row>
-    <row r="246" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A246" s="12"/>
       <c r="B246" s="22"/>
       <c r="C246" s="4"/>
@@ -6390,7 +6356,7 @@
       <c r="I246" s="12"/>
       <c r="J246" s="12"/>
     </row>
-    <row r="247" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A247" s="12"/>
       <c r="B247" s="22"/>
       <c r="C247" s="4"/>
@@ -6402,7 +6368,7 @@
       <c r="I247" s="12"/>
       <c r="J247" s="12"/>
     </row>
-    <row r="248" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A248" s="12"/>
       <c r="B248" s="22"/>
       <c r="C248" s="4"/>
@@ -6414,7 +6380,7 @@
       <c r="I248" s="12"/>
       <c r="J248" s="12"/>
     </row>
-    <row r="249" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A249" s="12"/>
       <c r="B249" s="22"/>
       <c r="C249" s="4"/>
@@ -6426,7 +6392,7 @@
       <c r="I249" s="12"/>
       <c r="J249" s="12"/>
     </row>
-    <row r="250" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A250" s="12"/>
       <c r="B250" s="22"/>
       <c r="C250" s="4"/>
@@ -6438,7 +6404,7 @@
       <c r="I250" s="12"/>
       <c r="J250" s="12"/>
     </row>
-    <row r="251" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A251" s="12"/>
       <c r="B251" s="22"/>
       <c r="C251" s="4"/>
@@ -6450,7 +6416,7 @@
       <c r="I251" s="12"/>
       <c r="J251" s="12"/>
     </row>
-    <row r="252" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A252" s="12"/>
       <c r="B252" s="22"/>
       <c r="C252" s="4"/>
@@ -6462,7 +6428,7 @@
       <c r="I252" s="12"/>
       <c r="J252" s="12"/>
     </row>
-    <row r="253" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A253" s="12"/>
       <c r="B253" s="22"/>
       <c r="C253" s="4"/>
@@ -6474,7 +6440,7 @@
       <c r="I253" s="12"/>
       <c r="J253" s="12"/>
     </row>
-    <row r="254" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A254" s="12"/>
       <c r="B254" s="22"/>
       <c r="C254" s="4"/>
@@ -6486,7 +6452,7 @@
       <c r="I254" s="12"/>
       <c r="J254" s="12"/>
     </row>
-    <row r="255" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A255" s="12"/>
       <c r="B255" s="22"/>
       <c r="C255" s="4"/>
@@ -6498,7 +6464,7 @@
       <c r="I255" s="12"/>
       <c r="J255" s="12"/>
     </row>
-    <row r="256" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A256" s="12"/>
       <c r="B256" s="22"/>
       <c r="C256" s="4"/>
@@ -6510,7 +6476,7 @@
       <c r="I256" s="12"/>
       <c r="J256" s="12"/>
     </row>
-    <row r="257" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A257" s="12"/>
       <c r="B257" s="22"/>
       <c r="C257" s="4"/>
@@ -6522,7 +6488,7 @@
       <c r="I257" s="12"/>
       <c r="J257" s="12"/>
     </row>
-    <row r="258" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A258" s="12"/>
       <c r="B258" s="22"/>
       <c r="C258" s="4"/>
@@ -6534,7 +6500,7 @@
       <c r="I258" s="12"/>
       <c r="J258" s="12"/>
     </row>
-    <row r="259" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A259" s="12"/>
       <c r="B259" s="22"/>
       <c r="C259" s="4"/>
@@ -6546,7 +6512,7 @@
       <c r="I259" s="12"/>
       <c r="J259" s="12"/>
     </row>
-    <row r="260" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A260" s="12"/>
       <c r="B260" s="22"/>
       <c r="C260" s="4"/>
@@ -6558,7 +6524,7 @@
       <c r="I260" s="12"/>
       <c r="J260" s="12"/>
     </row>
-    <row r="261" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A261" s="12"/>
       <c r="B261" s="22"/>
       <c r="C261" s="4"/>
@@ -6570,7 +6536,7 @@
       <c r="I261" s="12"/>
       <c r="J261" s="12"/>
     </row>
-    <row r="262" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A262" s="12"/>
       <c r="B262" s="22"/>
       <c r="C262" s="4"/>
@@ -6582,7 +6548,7 @@
       <c r="I262" s="12"/>
       <c r="J262" s="12"/>
     </row>
-    <row r="263" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A263" s="12"/>
       <c r="B263" s="22"/>
       <c r="C263" s="4"/>
@@ -6594,7 +6560,7 @@
       <c r="I263" s="12"/>
       <c r="J263" s="12"/>
     </row>
-    <row r="264" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A264" s="12"/>
       <c r="B264" s="22"/>
       <c r="C264" s="4"/>
@@ -6606,7 +6572,7 @@
       <c r="I264" s="12"/>
       <c r="J264" s="12"/>
     </row>
-    <row r="265" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A265" s="12"/>
       <c r="B265" s="22"/>
       <c r="C265" s="4"/>
@@ -6618,7 +6584,7 @@
       <c r="I265" s="12"/>
       <c r="J265" s="12"/>
     </row>
-    <row r="266" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A266" s="12"/>
       <c r="B266" s="22"/>
       <c r="C266" s="4"/>
@@ -6630,7 +6596,7 @@
       <c r="I266" s="12"/>
       <c r="J266" s="12"/>
     </row>
-    <row r="267" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A267" s="12"/>
       <c r="B267" s="22"/>
       <c r="C267" s="4"/>
@@ -6642,7 +6608,7 @@
       <c r="I267" s="12"/>
       <c r="J267" s="12"/>
     </row>
-    <row r="268" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A268" s="12"/>
       <c r="B268" s="22"/>
       <c r="C268" s="4"/>
@@ -6654,7 +6620,7 @@
       <c r="I268" s="12"/>
       <c r="J268" s="12"/>
     </row>
-    <row r="269" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A269" s="12"/>
       <c r="B269" s="22"/>
       <c r="C269" s="4"/>
@@ -6666,7 +6632,7 @@
       <c r="I269" s="12"/>
       <c r="J269" s="12"/>
     </row>
-    <row r="270" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A270" s="12"/>
       <c r="B270" s="22"/>
       <c r="C270" s="4"/>
@@ -6678,7 +6644,7 @@
       <c r="I270" s="12"/>
       <c r="J270" s="12"/>
     </row>
-    <row r="271" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A271" s="12"/>
       <c r="B271" s="22"/>
       <c r="C271" s="4"/>
@@ -6690,7 +6656,7 @@
       <c r="I271" s="12"/>
       <c r="J271" s="12"/>
     </row>
-    <row r="272" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A272" s="12"/>
       <c r="B272" s="22"/>
       <c r="C272" s="4"/>
@@ -6702,7 +6668,7 @@
       <c r="I272" s="12"/>
       <c r="J272" s="12"/>
     </row>
-    <row r="273" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A273" s="12"/>
       <c r="B273" s="22"/>
       <c r="C273" s="4"/>
@@ -6714,7 +6680,7 @@
       <c r="I273" s="12"/>
       <c r="J273" s="12"/>
     </row>
-    <row r="274" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A274" s="12"/>
       <c r="B274" s="22"/>
       <c r="C274" s="4"/>
@@ -6726,7 +6692,7 @@
       <c r="I274" s="12"/>
       <c r="J274" s="12"/>
     </row>
-    <row r="275" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A275" s="12"/>
       <c r="B275" s="22"/>
       <c r="C275" s="4"/>
@@ -6738,7 +6704,7 @@
       <c r="I275" s="12"/>
       <c r="J275" s="12"/>
     </row>
-    <row r="276" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A276" s="12"/>
       <c r="B276" s="22"/>
       <c r="C276" s="4"/>
@@ -6750,7 +6716,7 @@
       <c r="I276" s="12"/>
       <c r="J276" s="12"/>
     </row>
-    <row r="277" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A277" s="12"/>
       <c r="B277" s="22"/>
       <c r="C277" s="4"/>
@@ -6762,7 +6728,7 @@
       <c r="I277" s="12"/>
       <c r="J277" s="12"/>
     </row>
-    <row r="278" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A278" s="12"/>
       <c r="B278" s="22"/>
       <c r="C278" s="4"/>
@@ -6774,7 +6740,7 @@
       <c r="I278" s="12"/>
       <c r="J278" s="12"/>
     </row>
-    <row r="279" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A279" s="12"/>
       <c r="B279" s="22"/>
       <c r="C279" s="4"/>
@@ -6786,7 +6752,7 @@
       <c r="I279" s="12"/>
       <c r="J279" s="12"/>
     </row>
-    <row r="280" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A280" s="12"/>
       <c r="B280" s="22"/>
       <c r="C280" s="4"/>
@@ -6798,7 +6764,7 @@
       <c r="I280" s="12"/>
       <c r="J280" s="12"/>
     </row>
-    <row r="281" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A281" s="12"/>
       <c r="B281" s="22"/>
       <c r="C281" s="4"/>
@@ -6810,7 +6776,7 @@
       <c r="I281" s="12"/>
       <c r="J281" s="12"/>
     </row>
-    <row r="282" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A282" s="12"/>
       <c r="B282" s="22"/>
       <c r="C282" s="4"/>
@@ -6822,7 +6788,7 @@
       <c r="I282" s="12"/>
       <c r="J282" s="12"/>
     </row>
-    <row r="283" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A283" s="12"/>
       <c r="B283" s="22"/>
       <c r="C283" s="4"/>
@@ -6834,7 +6800,7 @@
       <c r="I283" s="12"/>
       <c r="J283" s="12"/>
     </row>
-    <row r="284" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A284" s="12"/>
       <c r="B284" s="22"/>
       <c r="C284" s="4"/>
@@ -6846,7 +6812,7 @@
       <c r="I284" s="12"/>
       <c r="J284" s="12"/>
     </row>
-    <row r="285" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A285" s="12"/>
       <c r="B285" s="22"/>
       <c r="C285" s="4"/>
@@ -6858,7 +6824,7 @@
       <c r="I285" s="12"/>
       <c r="J285" s="12"/>
     </row>
-    <row r="286" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A286" s="12"/>
       <c r="B286" s="22"/>
       <c r="C286" s="4"/>
@@ -6870,7 +6836,7 @@
       <c r="I286" s="12"/>
       <c r="J286" s="12"/>
     </row>
-    <row r="287" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A287" s="12"/>
       <c r="B287" s="22"/>
       <c r="C287" s="4"/>
@@ -6884,6 +6850,14 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="B55:B60"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="B136:B137"/>
+    <mergeCell ref="B38:B47"/>
+    <mergeCell ref="B48:B52"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="A135:J135"/>
+    <mergeCell ref="B106:B108"/>
     <mergeCell ref="B29:B37"/>
     <mergeCell ref="B64:B72"/>
     <mergeCell ref="B2:B28"/>
@@ -6900,14 +6874,6 @@
     <mergeCell ref="B127:B129"/>
     <mergeCell ref="B131:B134"/>
     <mergeCell ref="B140:B141"/>
-    <mergeCell ref="B55:B60"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="B136:B137"/>
-    <mergeCell ref="B38:B47"/>
-    <mergeCell ref="B48:B52"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="A135:J135"/>
-    <mergeCell ref="B106:B108"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I44">

--- a/ProjectManagement/文档/问题点一览.xlsx
+++ b/ProjectManagement/文档/问题点一览.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18201"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8025"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8028"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -943,7 +943,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1103,7 +1103,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1228,19 +1228,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1251,6 +1239,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1331,7 +1334,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1406,6 +1409,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1441,6 +1461,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1620,26 +1657,26 @@
   <dimension ref="A1:K287"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="C102" sqref="C102"/>
+      <selection activeCell="C99" sqref="C99"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="22.15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="22.2" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.875" style="23" customWidth="1"/>
+    <col min="2" max="2" width="12.88671875" style="23" customWidth="1"/>
     <col min="3" max="3" width="58" style="5" customWidth="1"/>
-    <col min="4" max="4" width="8.875" style="3"/>
-    <col min="5" max="5" width="10.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" style="3"/>
+    <col min="5" max="5" width="10.44140625" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="30" style="3" customWidth="1"/>
-    <col min="7" max="7" width="8.875" style="3"/>
-    <col min="8" max="8" width="11.375" style="3" customWidth="1"/>
-    <col min="9" max="9" width="8.875" style="3"/>
-    <col min="10" max="10" width="30.75" style="3" customWidth="1"/>
-    <col min="11" max="11" width="16.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.875" style="3"/>
+    <col min="7" max="7" width="8.88671875" style="3"/>
+    <col min="8" max="8" width="11.33203125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="8.88671875" style="3"/>
+    <col min="10" max="10" width="30.77734375" style="3" customWidth="1"/>
+    <col min="11" max="11" width="16.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1671,11 +1708,11 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13">
         <v>1</v>
       </c>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="46" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -1699,11 +1736,11 @@
       </c>
       <c r="J2" s="12"/>
     </row>
-    <row r="3" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A3" s="13">
         <v>2</v>
       </c>
-      <c r="B3" s="43"/>
+      <c r="B3" s="47"/>
       <c r="C3" s="4" t="s">
         <v>51</v>
       </c>
@@ -1725,11 +1762,11 @@
       </c>
       <c r="J3" s="12"/>
     </row>
-    <row r="4" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A4" s="13">
         <v>3</v>
       </c>
-      <c r="B4" s="43"/>
+      <c r="B4" s="47"/>
       <c r="C4" s="4" t="s">
         <v>52</v>
       </c>
@@ -1751,11 +1788,11 @@
       </c>
       <c r="J4" s="12"/>
     </row>
-    <row r="5" spans="1:11" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="13">
         <v>4</v>
       </c>
-      <c r="B5" s="43"/>
+      <c r="B5" s="47"/>
       <c r="C5" s="4" t="s">
         <v>13</v>
       </c>
@@ -1777,11 +1814,11 @@
       </c>
       <c r="J5" s="12"/>
     </row>
-    <row r="6" spans="1:11" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
         <v>5</v>
       </c>
-      <c r="B6" s="43"/>
+      <c r="B6" s="47"/>
       <c r="C6" s="4" t="s">
         <v>53</v>
       </c>
@@ -1803,11 +1840,11 @@
       </c>
       <c r="J6" s="12"/>
     </row>
-    <row r="7" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A7" s="13">
         <v>6</v>
       </c>
-      <c r="B7" s="43"/>
+      <c r="B7" s="47"/>
       <c r="C7" s="4" t="s">
         <v>16</v>
       </c>
@@ -1829,11 +1866,11 @@
       </c>
       <c r="J7" s="12"/>
     </row>
-    <row r="8" spans="1:11" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="13">
         <v>7</v>
       </c>
-      <c r="B8" s="43"/>
+      <c r="B8" s="47"/>
       <c r="C8" s="4" t="s">
         <v>14</v>
       </c>
@@ -1855,11 +1892,11 @@
       </c>
       <c r="J8" s="12"/>
     </row>
-    <row r="9" spans="1:11" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:11" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="13">
         <v>8</v>
       </c>
-      <c r="B9" s="43"/>
+      <c r="B9" s="47"/>
       <c r="C9" s="4" t="s">
         <v>17</v>
       </c>
@@ -1881,11 +1918,11 @@
       </c>
       <c r="J9" s="12"/>
     </row>
-    <row r="10" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A10" s="13">
         <v>9</v>
       </c>
-      <c r="B10" s="43"/>
+      <c r="B10" s="47"/>
       <c r="C10" s="6" t="s">
         <v>163</v>
       </c>
@@ -1914,11 +1951,11 @@
         <v>108</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="13">
         <v>10</v>
       </c>
-      <c r="B11" s="43"/>
+      <c r="B11" s="47"/>
       <c r="C11" s="4" t="s">
         <v>48</v>
       </c>
@@ -1940,11 +1977,11 @@
       </c>
       <c r="J11" s="12"/>
     </row>
-    <row r="12" spans="1:11" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:11" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="13">
         <v>11</v>
       </c>
-      <c r="B12" s="43"/>
+      <c r="B12" s="47"/>
       <c r="C12" s="4" t="s">
         <v>107</v>
       </c>
@@ -1966,11 +2003,11 @@
       </c>
       <c r="J12" s="12"/>
     </row>
-    <row r="13" spans="1:11" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:11" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="13">
         <v>12</v>
       </c>
-      <c r="B13" s="43"/>
+      <c r="B13" s="47"/>
       <c r="C13" s="4" t="s">
         <v>110</v>
       </c>
@@ -1992,11 +2029,11 @@
       </c>
       <c r="J13" s="12"/>
     </row>
-    <row r="14" spans="1:11" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:11" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="13">
         <v>13</v>
       </c>
-      <c r="B14" s="43"/>
+      <c r="B14" s="47"/>
       <c r="C14" s="4" t="s">
         <v>109</v>
       </c>
@@ -2018,11 +2055,11 @@
       </c>
       <c r="J14" s="12"/>
     </row>
-    <row r="15" spans="1:11" s="16" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:11" s="16" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A15" s="13">
         <v>14</v>
       </c>
-      <c r="B15" s="43"/>
+      <c r="B15" s="47"/>
       <c r="C15" s="6" t="s">
         <v>138</v>
       </c>
@@ -2044,11 +2081,11 @@
       </c>
       <c r="J15" s="7"/>
     </row>
-    <row r="16" spans="1:11" s="16" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:11" s="16" customFormat="1" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A16" s="13">
         <v>15</v>
       </c>
-      <c r="B16" s="43"/>
+      <c r="B16" s="47"/>
       <c r="C16" s="6" t="s">
         <v>156</v>
       </c>
@@ -2073,11 +2110,11 @@
         <v>125</v>
       </c>
     </row>
-    <row r="17" spans="1:11" s="16" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:11" s="16" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A17" s="13">
         <v>16</v>
       </c>
-      <c r="B17" s="43"/>
+      <c r="B17" s="47"/>
       <c r="C17" s="6" t="s">
         <v>159</v>
       </c>
@@ -2099,11 +2136,11 @@
       </c>
       <c r="J17" s="7"/>
     </row>
-    <row r="18" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:11" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A18" s="13">
         <v>17</v>
       </c>
-      <c r="B18" s="43"/>
+      <c r="B18" s="47"/>
       <c r="C18" s="10" t="s">
         <v>148</v>
       </c>
@@ -2126,11 +2163,11 @@
       <c r="J18" s="18"/>
       <c r="K18" s="16"/>
     </row>
-    <row r="19" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="32">
         <v>18</v>
       </c>
-      <c r="B19" s="43"/>
+      <c r="B19" s="47"/>
       <c r="C19" s="10" t="s">
         <v>157</v>
       </c>
@@ -2153,11 +2190,11 @@
       <c r="J19" s="18"/>
       <c r="K19" s="16"/>
     </row>
-    <row r="20" spans="1:11" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:11" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="32">
         <v>19</v>
       </c>
-      <c r="B20" s="43"/>
+      <c r="B20" s="47"/>
       <c r="C20" s="10" t="s">
         <v>153</v>
       </c>
@@ -2180,11 +2217,11 @@
       <c r="J20" s="18"/>
       <c r="K20" s="16"/>
     </row>
-    <row r="21" spans="1:11" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:11" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A21" s="32">
         <v>20</v>
       </c>
-      <c r="B21" s="43"/>
+      <c r="B21" s="47"/>
       <c r="C21" s="37" t="s">
         <v>171</v>
       </c>
@@ -2207,11 +2244,11 @@
       <c r="J21" s="18"/>
       <c r="K21" s="16"/>
     </row>
-    <row r="22" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A22" s="32">
         <v>21</v>
       </c>
-      <c r="B22" s="43"/>
+      <c r="B22" s="47"/>
       <c r="C22" s="40" t="s">
         <v>184</v>
       </c>
@@ -2234,11 +2271,11 @@
       <c r="J22" s="18"/>
       <c r="K22" s="16"/>
     </row>
-    <row r="23" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A23" s="32">
         <v>22</v>
       </c>
-      <c r="B23" s="43"/>
+      <c r="B23" s="47"/>
       <c r="C23" s="40" t="s">
         <v>185</v>
       </c>
@@ -2261,11 +2298,11 @@
       <c r="J23" s="18"/>
       <c r="K23" s="16"/>
     </row>
-    <row r="24" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A24" s="32">
         <v>23</v>
       </c>
-      <c r="B24" s="43"/>
+      <c r="B24" s="47"/>
       <c r="C24" s="10" t="s">
         <v>154</v>
       </c>
@@ -2288,11 +2325,11 @@
       <c r="J24" s="18"/>
       <c r="K24" s="16"/>
     </row>
-    <row r="25" spans="1:11" s="28" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:11" s="28" customFormat="1" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A25" s="32">
         <v>24</v>
       </c>
-      <c r="B25" s="43"/>
+      <c r="B25" s="47"/>
       <c r="C25" s="30" t="s">
         <v>176</v>
       </c>
@@ -2315,11 +2352,11 @@
       <c r="J25" s="36"/>
       <c r="K25" s="34"/>
     </row>
-    <row r="26" spans="1:11" s="28" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:11" s="28" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A26" s="32">
         <v>25</v>
       </c>
-      <c r="B26" s="43"/>
+      <c r="B26" s="47"/>
       <c r="C26" s="6" t="s">
         <v>177</v>
       </c>
@@ -2342,11 +2379,11 @@
       <c r="J26" s="36"/>
       <c r="K26" s="34"/>
     </row>
-    <row r="27" spans="1:11" s="34" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:11" s="34" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A27" s="32">
         <v>26</v>
       </c>
-      <c r="B27" s="43"/>
+      <c r="B27" s="47"/>
       <c r="C27" s="6" t="s">
         <v>180</v>
       </c>
@@ -2368,11 +2405,11 @@
       </c>
       <c r="J27" s="29"/>
     </row>
-    <row r="28" spans="1:11" s="34" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:11" s="34" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A28" s="32">
         <v>27</v>
       </c>
-      <c r="B28" s="44"/>
+      <c r="B28" s="48"/>
       <c r="C28" s="6" t="s">
         <v>181</v>
       </c>
@@ -2394,11 +2431,11 @@
       </c>
       <c r="J28" s="29"/>
     </row>
-    <row r="29" spans="1:11" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:11" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="32">
         <v>28</v>
       </c>
-      <c r="B29" s="42" t="s">
+      <c r="B29" s="46" t="s">
         <v>12</v>
       </c>
       <c r="C29" s="4" t="s">
@@ -2422,11 +2459,11 @@
       </c>
       <c r="J29" s="12"/>
     </row>
-    <row r="30" spans="1:11" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:11" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="32">
         <v>29</v>
       </c>
-      <c r="B30" s="43"/>
+      <c r="B30" s="47"/>
       <c r="C30" s="4" t="s">
         <v>17</v>
       </c>
@@ -2448,11 +2485,11 @@
       </c>
       <c r="J30" s="12"/>
     </row>
-    <row r="31" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A31" s="32">
         <v>30</v>
       </c>
-      <c r="B31" s="43"/>
+      <c r="B31" s="47"/>
       <c r="C31" s="4" t="s">
         <v>18</v>
       </c>
@@ -2474,11 +2511,11 @@
       </c>
       <c r="J31" s="12"/>
     </row>
-    <row r="32" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="32">
         <v>31</v>
       </c>
-      <c r="B32" s="43"/>
+      <c r="B32" s="47"/>
       <c r="C32" s="4" t="s">
         <v>106</v>
       </c>
@@ -2500,11 +2537,11 @@
       </c>
       <c r="J32" s="12"/>
     </row>
-    <row r="33" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A33" s="32">
         <v>32</v>
       </c>
-      <c r="B33" s="43"/>
+      <c r="B33" s="47"/>
       <c r="C33" s="4" t="s">
         <v>55</v>
       </c>
@@ -2526,11 +2563,11 @@
       </c>
       <c r="J33" s="12"/>
     </row>
-    <row r="34" spans="1:10" s="26" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:10" s="26" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A34" s="32">
         <v>33</v>
       </c>
-      <c r="B34" s="43"/>
+      <c r="B34" s="47"/>
       <c r="C34" s="4" t="s">
         <v>164</v>
       </c>
@@ -2552,11 +2589,11 @@
       </c>
       <c r="J34" s="11"/>
     </row>
-    <row r="35" spans="1:10" s="26" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:10" s="26" customFormat="1" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A35" s="32">
         <v>34</v>
       </c>
-      <c r="B35" s="43"/>
+      <c r="B35" s="47"/>
       <c r="C35" s="4" t="s">
         <v>179</v>
       </c>
@@ -2578,11 +2615,11 @@
       </c>
       <c r="J35" s="11"/>
     </row>
-    <row r="36" spans="1:10" s="26" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:10" s="26" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A36" s="32">
         <v>35</v>
       </c>
-      <c r="B36" s="43"/>
+      <c r="B36" s="47"/>
       <c r="C36" s="4" t="s">
         <v>166</v>
       </c>
@@ -2604,11 +2641,11 @@
       </c>
       <c r="J36" s="11"/>
     </row>
-    <row r="37" spans="1:10" s="26" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:10" s="26" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A37" s="32">
         <v>36</v>
       </c>
-      <c r="B37" s="44"/>
+      <c r="B37" s="48"/>
       <c r="C37" s="4" t="s">
         <v>165</v>
       </c>
@@ -2624,11 +2661,11 @@
       <c r="I37" s="11"/>
       <c r="J37" s="11"/>
     </row>
-    <row r="38" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:10" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A38" s="32">
         <v>37</v>
       </c>
-      <c r="B38" s="45" t="s">
+      <c r="B38" s="42" t="s">
         <v>19</v>
       </c>
       <c r="C38" s="4" t="s">
@@ -2654,11 +2691,11 @@
         <v>60</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A39" s="32">
         <v>38</v>
       </c>
-      <c r="B39" s="45"/>
+      <c r="B39" s="42"/>
       <c r="C39" s="4" t="s">
         <v>21</v>
       </c>
@@ -2680,11 +2717,11 @@
       </c>
       <c r="J39" s="12"/>
     </row>
-    <row r="40" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A40" s="32">
         <v>39</v>
       </c>
-      <c r="B40" s="45"/>
+      <c r="B40" s="42"/>
       <c r="C40" s="4" t="s">
         <v>71</v>
       </c>
@@ -2706,11 +2743,11 @@
       </c>
       <c r="J40" s="12"/>
     </row>
-    <row r="41" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="32">
         <v>40</v>
       </c>
-      <c r="B41" s="45"/>
+      <c r="B41" s="42"/>
       <c r="C41" s="4" t="s">
         <v>90</v>
       </c>
@@ -2732,11 +2769,11 @@
       </c>
       <c r="J41" s="12"/>
     </row>
-    <row r="42" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A42" s="32">
         <v>41</v>
       </c>
-      <c r="B42" s="45"/>
+      <c r="B42" s="42"/>
       <c r="C42" s="4" t="s">
         <v>89</v>
       </c>
@@ -2758,11 +2795,11 @@
       </c>
       <c r="J42" s="12"/>
     </row>
-    <row r="43" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="32">
         <v>42</v>
       </c>
-      <c r="B43" s="45"/>
+      <c r="B43" s="42"/>
       <c r="C43" s="4" t="s">
         <v>94</v>
       </c>
@@ -2784,11 +2821,11 @@
       </c>
       <c r="J43" s="12"/>
     </row>
-    <row r="44" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A44" s="32">
         <v>43</v>
       </c>
-      <c r="B44" s="45"/>
+      <c r="B44" s="42"/>
       <c r="C44" s="4" t="s">
         <v>96</v>
       </c>
@@ -2810,11 +2847,11 @@
       </c>
       <c r="J44" s="12"/>
     </row>
-    <row r="45" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A45" s="32">
         <v>44</v>
       </c>
-      <c r="B45" s="45"/>
+      <c r="B45" s="42"/>
       <c r="C45" s="4" t="s">
         <v>152</v>
       </c>
@@ -2838,11 +2875,11 @@
       </c>
       <c r="J45" s="12"/>
     </row>
-    <row r="46" spans="1:10" s="16" customFormat="1" ht="54" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:10" s="16" customFormat="1" ht="57.6" x14ac:dyDescent="0.25">
       <c r="A46" s="32">
         <v>45</v>
       </c>
-      <c r="B46" s="45"/>
+      <c r="B46" s="42"/>
       <c r="C46" s="6" t="s">
         <v>137</v>
       </c>
@@ -2864,11 +2901,11 @@
       </c>
       <c r="J46" s="7"/>
     </row>
-    <row r="47" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="32">
         <v>46</v>
       </c>
-      <c r="B47" s="45"/>
+      <c r="B47" s="42"/>
       <c r="C47" s="4" t="s">
         <v>22</v>
       </c>
@@ -2890,11 +2927,11 @@
       </c>
       <c r="J47" s="12"/>
     </row>
-    <row r="48" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="32">
         <v>47</v>
       </c>
-      <c r="B48" s="45" t="s">
+      <c r="B48" s="42" t="s">
         <v>23</v>
       </c>
       <c r="C48" s="4" t="s">
@@ -2918,11 +2955,11 @@
       </c>
       <c r="J48" s="12"/>
     </row>
-    <row r="49" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A49" s="32">
         <v>48</v>
       </c>
-      <c r="B49" s="45"/>
+      <c r="B49" s="42"/>
       <c r="C49" s="4" t="s">
         <v>92</v>
       </c>
@@ -2946,11 +2983,11 @@
       </c>
       <c r="J49" s="12"/>
     </row>
-    <row r="50" spans="1:10" s="16" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:10" s="16" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="32">
         <v>49</v>
       </c>
-      <c r="B50" s="45"/>
+      <c r="B50" s="42"/>
       <c r="C50" s="6" t="s">
         <v>91</v>
       </c>
@@ -2972,11 +3009,11 @@
       </c>
       <c r="J50" s="7"/>
     </row>
-    <row r="51" spans="1:10" s="16" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:10" s="16" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="32">
         <v>50</v>
       </c>
-      <c r="B51" s="45"/>
+      <c r="B51" s="42"/>
       <c r="C51" s="6" t="s">
         <v>149</v>
       </c>
@@ -2998,11 +3035,11 @@
       </c>
       <c r="J51" s="7"/>
     </row>
-    <row r="52" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="32">
         <v>51</v>
       </c>
-      <c r="B52" s="45"/>
+      <c r="B52" s="42"/>
       <c r="C52" s="4" t="s">
         <v>25</v>
       </c>
@@ -3024,11 +3061,11 @@
       </c>
       <c r="J52" s="12"/>
     </row>
-    <row r="53" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="32">
         <v>52</v>
       </c>
-      <c r="B53" s="45" t="s">
+      <c r="B53" s="42" t="s">
         <v>26</v>
       </c>
       <c r="C53" s="4" t="s">
@@ -3052,11 +3089,11 @@
       </c>
       <c r="J53" s="12"/>
     </row>
-    <row r="54" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="32">
         <v>53</v>
       </c>
-      <c r="B54" s="45"/>
+      <c r="B54" s="42"/>
       <c r="C54" s="4" t="s">
         <v>28</v>
       </c>
@@ -3078,11 +3115,11 @@
       </c>
       <c r="J54" s="12"/>
     </row>
-    <row r="55" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="32">
         <v>54</v>
       </c>
-      <c r="B55" s="45" t="s">
+      <c r="B55" s="42" t="s">
         <v>29</v>
       </c>
       <c r="C55" s="4" t="s">
@@ -3106,11 +3143,11 @@
       </c>
       <c r="J55" s="12"/>
     </row>
-    <row r="56" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A56" s="32">
         <v>55</v>
       </c>
-      <c r="B56" s="45"/>
+      <c r="B56" s="42"/>
       <c r="C56" s="4" t="s">
         <v>62</v>
       </c>
@@ -3132,11 +3169,11 @@
       </c>
       <c r="J56" s="12"/>
     </row>
-    <row r="57" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="32">
         <v>56</v>
       </c>
-      <c r="B57" s="45"/>
+      <c r="B57" s="42"/>
       <c r="C57" s="4" t="s">
         <v>63</v>
       </c>
@@ -3158,11 +3195,11 @@
       </c>
       <c r="J57" s="12"/>
     </row>
-    <row r="58" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="32">
         <v>57</v>
       </c>
-      <c r="B58" s="45"/>
+      <c r="B58" s="42"/>
       <c r="C58" s="4" t="s">
         <v>72</v>
       </c>
@@ -3184,9 +3221,9 @@
       </c>
       <c r="J58" s="12"/>
     </row>
-    <row r="59" spans="1:10" s="28" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:10" s="28" customFormat="1" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A59" s="32"/>
-      <c r="B59" s="45"/>
+      <c r="B59" s="42"/>
       <c r="C59" s="4" t="s">
         <v>198</v>
       </c>
@@ -3202,11 +3239,11 @@
       <c r="I59" s="12"/>
       <c r="J59" s="12"/>
     </row>
-    <row r="60" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="32">
         <v>58</v>
       </c>
-      <c r="B60" s="45"/>
+      <c r="B60" s="42"/>
       <c r="C60" s="4" t="s">
         <v>61</v>
       </c>
@@ -3228,11 +3265,11 @@
       </c>
       <c r="J60" s="12"/>
     </row>
-    <row r="61" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="32">
         <v>59</v>
       </c>
-      <c r="B61" s="45" t="s">
+      <c r="B61" s="42" t="s">
         <v>31</v>
       </c>
       <c r="C61" s="4" t="s">
@@ -3256,9 +3293,9 @@
       </c>
       <c r="J61" s="12"/>
     </row>
-    <row r="62" spans="1:10" s="28" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:10" s="28" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="32"/>
-      <c r="B62" s="45"/>
+      <c r="B62" s="42"/>
       <c r="C62" s="4" t="s">
         <v>194</v>
       </c>
@@ -3274,11 +3311,11 @@
       <c r="I62" s="12"/>
       <c r="J62" s="12"/>
     </row>
-    <row r="63" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="32">
         <v>60</v>
       </c>
-      <c r="B63" s="45"/>
+      <c r="B63" s="42"/>
       <c r="C63" s="4" t="s">
         <v>64</v>
       </c>
@@ -3300,11 +3337,11 @@
       </c>
       <c r="J63" s="12"/>
     </row>
-    <row r="64" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="32">
         <v>61</v>
       </c>
-      <c r="B64" s="42" t="s">
+      <c r="B64" s="46" t="s">
         <v>33</v>
       </c>
       <c r="C64" s="4" t="s">
@@ -3328,11 +3365,11 @@
       </c>
       <c r="J64" s="12"/>
     </row>
-    <row r="65" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="32">
         <v>62</v>
       </c>
-      <c r="B65" s="43"/>
+      <c r="B65" s="47"/>
       <c r="C65" s="4" t="s">
         <v>35</v>
       </c>
@@ -3354,9 +3391,9 @@
       </c>
       <c r="J65" s="12"/>
     </row>
-    <row r="66" spans="1:10" s="28" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:10" s="28" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="32"/>
-      <c r="B66" s="43"/>
+      <c r="B66" s="47"/>
       <c r="C66" s="4" t="s">
         <v>196</v>
       </c>
@@ -3372,9 +3409,9 @@
       <c r="I66" s="12"/>
       <c r="J66" s="12"/>
     </row>
-    <row r="67" spans="1:10" s="28" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:10" s="28" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="32"/>
-      <c r="B67" s="43"/>
+      <c r="B67" s="47"/>
       <c r="C67" s="4"/>
       <c r="D67" s="12"/>
       <c r="E67" s="14"/>
@@ -3384,9 +3421,9 @@
       <c r="I67" s="12"/>
       <c r="J67" s="12"/>
     </row>
-    <row r="68" spans="1:10" s="28" customFormat="1" ht="54" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:10" s="28" customFormat="1" ht="57.6" x14ac:dyDescent="0.25">
       <c r="A68" s="32"/>
-      <c r="B68" s="43"/>
+      <c r="B68" s="47"/>
       <c r="C68" s="4" t="s">
         <v>195</v>
       </c>
@@ -3402,9 +3439,9 @@
       <c r="I68" s="12"/>
       <c r="J68" s="12"/>
     </row>
-    <row r="69" spans="1:10" s="28" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:10" s="28" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A69" s="32"/>
-      <c r="B69" s="43"/>
+      <c r="B69" s="47"/>
       <c r="C69" s="4" t="s">
         <v>197</v>
       </c>
@@ -3420,11 +3457,11 @@
       <c r="I69" s="12"/>
       <c r="J69" s="12"/>
     </row>
-    <row r="70" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A70" s="32">
         <v>63</v>
       </c>
-      <c r="B70" s="43"/>
+      <c r="B70" s="47"/>
       <c r="C70" s="4" t="s">
         <v>155</v>
       </c>
@@ -3440,11 +3477,11 @@
       <c r="I70" s="12"/>
       <c r="J70" s="12"/>
     </row>
-    <row r="71" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="32">
         <v>64</v>
       </c>
-      <c r="B71" s="43"/>
+      <c r="B71" s="47"/>
       <c r="C71" s="4" t="s">
         <v>36</v>
       </c>
@@ -3462,11 +3499,11 @@
         <v>85</v>
       </c>
     </row>
-    <row r="72" spans="1:10" s="26" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:10" s="26" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A72" s="32">
         <v>65</v>
       </c>
-      <c r="B72" s="44"/>
+      <c r="B72" s="48"/>
       <c r="C72" s="4" t="s">
         <v>168</v>
       </c>
@@ -3482,11 +3519,11 @@
       <c r="I72" s="11"/>
       <c r="J72" s="11"/>
     </row>
-    <row r="73" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:10" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A73" s="32">
         <v>66</v>
       </c>
-      <c r="B73" s="45" t="s">
+      <c r="B73" s="42" t="s">
         <v>209</v>
       </c>
       <c r="C73" s="4" t="s">
@@ -3510,11 +3547,11 @@
       </c>
       <c r="J73" s="12"/>
     </row>
-    <row r="74" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="32">
         <v>67</v>
       </c>
-      <c r="B74" s="45"/>
+      <c r="B74" s="42"/>
       <c r="C74" s="4" t="s">
         <v>105</v>
       </c>
@@ -3536,11 +3573,11 @@
       </c>
       <c r="J74" s="12"/>
     </row>
-    <row r="75" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="32">
         <v>68</v>
       </c>
-      <c r="B75" s="45"/>
+      <c r="B75" s="42"/>
       <c r="C75" s="4" t="s">
         <v>210</v>
       </c>
@@ -3556,9 +3593,9 @@
       <c r="I75" s="12"/>
       <c r="J75" s="12"/>
     </row>
-    <row r="76" spans="1:10" s="28" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:10" s="28" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="32"/>
-      <c r="B76" s="45"/>
+      <c r="B76" s="42"/>
       <c r="C76" s="4" t="s">
         <v>212</v>
       </c>
@@ -3570,11 +3607,11 @@
       <c r="I76" s="12"/>
       <c r="J76" s="12"/>
     </row>
-    <row r="77" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A77" s="32">
         <v>69</v>
       </c>
-      <c r="B77" s="45"/>
+      <c r="B77" s="42"/>
       <c r="C77" s="4" t="s">
         <v>151</v>
       </c>
@@ -3590,9 +3627,9 @@
       <c r="I77" s="12"/>
       <c r="J77" s="12"/>
     </row>
-    <row r="78" spans="1:10" s="28" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:10" s="28" customFormat="1" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A78" s="32"/>
-      <c r="B78" s="45"/>
+      <c r="B78" s="42"/>
       <c r="C78" s="4" t="s">
         <v>211</v>
       </c>
@@ -3608,11 +3645,11 @@
       <c r="I78" s="12"/>
       <c r="J78" s="12"/>
     </row>
-    <row r="79" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="32">
         <v>70</v>
       </c>
-      <c r="B79" s="45"/>
+      <c r="B79" s="42"/>
       <c r="C79" s="4" t="s">
         <v>37</v>
       </c>
@@ -3634,11 +3671,11 @@
       </c>
       <c r="J79" s="12"/>
     </row>
-    <row r="80" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A80" s="32">
         <v>71</v>
       </c>
-      <c r="B80" s="45" t="s">
+      <c r="B80" s="42" t="s">
         <v>39</v>
       </c>
       <c r="C80" s="4" t="s">
@@ -3664,9 +3701,9 @@
         <v>85</v>
       </c>
     </row>
-    <row r="81" spans="1:10" s="28" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:10" s="28" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A81" s="32"/>
-      <c r="B81" s="45"/>
+      <c r="B81" s="42"/>
       <c r="C81" s="4" t="s">
         <v>217</v>
       </c>
@@ -3682,9 +3719,9 @@
       <c r="I81" s="12"/>
       <c r="J81" s="12"/>
     </row>
-    <row r="82" spans="1:10" s="28" customFormat="1" ht="25.9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:10" s="28" customFormat="1" ht="25.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="32"/>
-      <c r="B82" s="45"/>
+      <c r="B82" s="42"/>
       <c r="C82" s="4" t="s">
         <v>216</v>
       </c>
@@ -3700,11 +3737,11 @@
       <c r="I82" s="12"/>
       <c r="J82" s="12"/>
     </row>
-    <row r="83" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="32">
         <v>72</v>
       </c>
-      <c r="B83" s="45"/>
+      <c r="B83" s="42"/>
       <c r="C83" s="4" t="s">
         <v>105</v>
       </c>
@@ -3726,11 +3763,11 @@
       </c>
       <c r="J83" s="12"/>
     </row>
-    <row r="84" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="32">
         <v>73</v>
       </c>
-      <c r="B84" s="45"/>
+      <c r="B84" s="42"/>
       <c r="C84" s="4" t="s">
         <v>37</v>
       </c>
@@ -3752,11 +3789,11 @@
       </c>
       <c r="J84" s="12"/>
     </row>
-    <row r="85" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A85" s="32">
         <v>74</v>
       </c>
-      <c r="B85" s="45" t="s">
+      <c r="B85" s="42" t="s">
         <v>41</v>
       </c>
       <c r="C85" s="4" t="s">
@@ -3780,9 +3817,9 @@
       </c>
       <c r="J85" s="12"/>
     </row>
-    <row r="86" spans="1:10" s="28" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:10" s="28" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A86" s="32"/>
-      <c r="B86" s="45"/>
+      <c r="B86" s="42"/>
       <c r="C86" s="4" t="s">
         <v>218</v>
       </c>
@@ -3798,9 +3835,9 @@
       <c r="I86" s="12"/>
       <c r="J86" s="12"/>
     </row>
-    <row r="87" spans="1:10" s="28" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:10" s="28" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A87" s="32"/>
-      <c r="B87" s="45"/>
+      <c r="B87" s="42"/>
       <c r="C87" s="4" t="s">
         <v>219</v>
       </c>
@@ -3816,11 +3853,11 @@
       <c r="I87" s="12"/>
       <c r="J87" s="12"/>
     </row>
-    <row r="88" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="32">
         <v>75</v>
       </c>
-      <c r="B88" s="45"/>
+      <c r="B88" s="42"/>
       <c r="C88" s="4" t="s">
         <v>105</v>
       </c>
@@ -3842,11 +3879,11 @@
       </c>
       <c r="J88" s="12"/>
     </row>
-    <row r="89" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="32">
         <v>76</v>
       </c>
-      <c r="B89" s="45"/>
+      <c r="B89" s="42"/>
       <c r="C89" s="4" t="s">
         <v>37</v>
       </c>
@@ -3868,11 +3905,11 @@
       </c>
       <c r="J89" s="12"/>
     </row>
-    <row r="90" spans="1:10" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A90" s="32">
         <v>77</v>
       </c>
-      <c r="B90" s="45" t="s">
+      <c r="B90" s="42" t="s">
         <v>43</v>
       </c>
       <c r="C90" s="4" t="s">
@@ -3890,9 +3927,9 @@
       <c r="I90" s="12"/>
       <c r="J90" s="12"/>
     </row>
-    <row r="91" spans="1:10" s="28" customFormat="1" ht="28.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:10" s="28" customFormat="1" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="32"/>
-      <c r="B91" s="45"/>
+      <c r="B91" s="42"/>
       <c r="C91" s="4" t="s">
         <v>223</v>
       </c>
@@ -3914,11 +3951,11 @@
       </c>
       <c r="J91" s="12"/>
     </row>
-    <row r="92" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A92" s="32">
         <v>78</v>
       </c>
-      <c r="B92" s="45"/>
+      <c r="B92" s="42"/>
       <c r="C92" s="4" t="s">
         <v>126</v>
       </c>
@@ -3940,9 +3977,9 @@
       </c>
       <c r="J92" s="12"/>
     </row>
-    <row r="93" spans="1:10" s="28" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:10" s="28" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A93" s="32"/>
-      <c r="B93" s="45"/>
+      <c r="B93" s="42"/>
       <c r="C93" s="4" t="s">
         <v>225</v>
       </c>
@@ -3958,9 +3995,9 @@
       <c r="I93" s="12"/>
       <c r="J93" s="12"/>
     </row>
-    <row r="94" spans="1:10" s="28" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:10" s="28" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="32"/>
-      <c r="B94" s="45"/>
+      <c r="B94" s="42"/>
       <c r="C94" s="4" t="s">
         <v>224</v>
       </c>
@@ -3982,9 +4019,9 @@
       </c>
       <c r="J94" s="12"/>
     </row>
-    <row r="95" spans="1:10" s="28" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:10" s="28" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="32"/>
-      <c r="B95" s="45"/>
+      <c r="B95" s="42"/>
       <c r="C95" s="4" t="s">
         <v>229</v>
       </c>
@@ -4000,9 +4037,9 @@
       <c r="I95" s="12"/>
       <c r="J95" s="12"/>
     </row>
-    <row r="96" spans="1:10" s="28" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:10" s="28" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="32"/>
-      <c r="B96" s="45"/>
+      <c r="B96" s="42"/>
       <c r="C96" s="4" t="s">
         <v>231</v>
       </c>
@@ -4018,9 +4055,9 @@
       <c r="I96" s="12"/>
       <c r="J96" s="12"/>
     </row>
-    <row r="97" spans="1:10" s="28" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:10" s="28" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A97" s="32"/>
-      <c r="B97" s="45"/>
+      <c r="B97" s="42"/>
       <c r="C97" s="4" t="s">
         <v>222</v>
       </c>
@@ -4036,9 +4073,9 @@
       <c r="I97" s="12"/>
       <c r="J97" s="12"/>
     </row>
-    <row r="98" spans="1:10" s="28" customFormat="1" ht="25.9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:10" s="28" customFormat="1" ht="25.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="32"/>
-      <c r="B98" s="45"/>
+      <c r="B98" s="42"/>
       <c r="C98" s="4" t="s">
         <v>221</v>
       </c>
@@ -4060,11 +4097,11 @@
       </c>
       <c r="J98" s="12"/>
     </row>
-    <row r="99" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="32">
         <v>79</v>
       </c>
-      <c r="B99" s="45"/>
+      <c r="B99" s="42"/>
       <c r="C99" s="4" t="s">
         <v>45</v>
       </c>
@@ -4080,11 +4117,11 @@
       <c r="I99" s="12"/>
       <c r="J99" s="12"/>
     </row>
-    <row r="100" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="32">
         <v>80</v>
       </c>
-      <c r="B100" s="45" t="s">
+      <c r="B100" s="42" t="s">
         <v>44</v>
       </c>
       <c r="C100" s="4" t="s">
@@ -4108,9 +4145,9 @@
       </c>
       <c r="J100" s="12"/>
     </row>
-    <row r="101" spans="1:10" s="28" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:10" s="28" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="32"/>
-      <c r="B101" s="45"/>
+      <c r="B101" s="42"/>
       <c r="C101" s="4" t="s">
         <v>228</v>
       </c>
@@ -4126,10 +4163,10 @@
       <c r="I101" s="12"/>
       <c r="J101" s="12"/>
     </row>
-    <row r="102" spans="1:10" s="28" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:10" s="28" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="32"/>
-      <c r="B102" s="45"/>
-      <c r="C102" s="4" t="s">
+      <c r="B102" s="42"/>
+      <c r="C102" s="50" t="s">
         <v>232</v>
       </c>
       <c r="D102" s="12"/>
@@ -4140,9 +4177,9 @@
       <c r="I102" s="12"/>
       <c r="J102" s="12"/>
     </row>
-    <row r="103" spans="1:10" s="28" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:10" s="28" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="32"/>
-      <c r="B103" s="45"/>
+      <c r="B103" s="42"/>
       <c r="C103" s="4" t="s">
         <v>220</v>
       </c>
@@ -4164,9 +4201,9 @@
       </c>
       <c r="J103" s="12"/>
     </row>
-    <row r="104" spans="1:10" s="28" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:10" s="28" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="32"/>
-      <c r="B104" s="45"/>
+      <c r="B104" s="42"/>
       <c r="C104" s="4" t="s">
         <v>227</v>
       </c>
@@ -4188,11 +4225,11 @@
       </c>
       <c r="J104" s="12"/>
     </row>
-    <row r="105" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A105" s="32">
         <v>81</v>
       </c>
-      <c r="B105" s="45"/>
+      <c r="B105" s="42"/>
       <c r="C105" s="4" t="s">
         <v>136</v>
       </c>
@@ -4214,11 +4251,11 @@
       </c>
       <c r="J105" s="12"/>
     </row>
-    <row r="106" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="32">
         <v>82</v>
       </c>
-      <c r="B106" s="42" t="s">
+      <c r="B106" s="46" t="s">
         <v>65</v>
       </c>
       <c r="C106" s="4" t="s">
@@ -4244,9 +4281,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="107" spans="1:10" s="28" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:10" s="28" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="32"/>
-      <c r="B107" s="43"/>
+      <c r="B107" s="47"/>
       <c r="C107" s="4" t="s">
         <v>187</v>
       </c>
@@ -4268,9 +4305,9 @@
       </c>
       <c r="J107" s="12"/>
     </row>
-    <row r="108" spans="1:10" s="28" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:10" s="28" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="32"/>
-      <c r="B108" s="44"/>
+      <c r="B108" s="48"/>
       <c r="C108" s="4" t="s">
         <v>186</v>
       </c>
@@ -4292,11 +4329,11 @@
       </c>
       <c r="J108" s="12"/>
     </row>
-    <row r="109" spans="1:10" s="20" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:10" s="20" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="32">
         <v>83</v>
       </c>
-      <c r="B109" s="46" t="s">
+      <c r="B109" s="49" t="s">
         <v>67</v>
       </c>
       <c r="C109" s="8" t="s">
@@ -4320,11 +4357,11 @@
       </c>
       <c r="J109" s="9"/>
     </row>
-    <row r="110" spans="1:10" s="20" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:10" s="20" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="32">
         <v>84</v>
       </c>
-      <c r="B110" s="46"/>
+      <c r="B110" s="49"/>
       <c r="C110" s="8" t="s">
         <v>95</v>
       </c>
@@ -4340,11 +4377,11 @@
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
     </row>
-    <row r="111" spans="1:10" s="20" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:10" s="20" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="32">
         <v>85</v>
       </c>
-      <c r="B111" s="46"/>
+      <c r="B111" s="49"/>
       <c r="C111" s="8" t="s">
         <v>190</v>
       </c>
@@ -4360,11 +4397,11 @@
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
     </row>
-    <row r="112" spans="1:10" s="20" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:10" s="20" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="32">
         <v>86</v>
       </c>
-      <c r="B112" s="46"/>
+      <c r="B112" s="49"/>
       <c r="C112" s="8" t="s">
         <v>189</v>
       </c>
@@ -4380,9 +4417,9 @@
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
     </row>
-    <row r="113" spans="1:10" s="20" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:10" s="20" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="32"/>
-      <c r="B113" s="46"/>
+      <c r="B113" s="49"/>
       <c r="C113" s="8" t="s">
         <v>191</v>
       </c>
@@ -4398,9 +4435,9 @@
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
     </row>
-    <row r="114" spans="1:10" s="20" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:10" s="20" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="32"/>
-      <c r="B114" s="46"/>
+      <c r="B114" s="49"/>
       <c r="C114" s="8" t="s">
         <v>192</v>
       </c>
@@ -4416,9 +4453,9 @@
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
     </row>
-    <row r="115" spans="1:10" s="20" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:10" s="20" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="32"/>
-      <c r="B115" s="46"/>
+      <c r="B115" s="49"/>
       <c r="C115" s="8" t="s">
         <v>193</v>
       </c>
@@ -4434,9 +4471,9 @@
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
     </row>
-    <row r="116" spans="1:10" s="20" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:10" s="20" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="32"/>
-      <c r="B116" s="46"/>
+      <c r="B116" s="49"/>
       <c r="C116" s="8" t="s">
         <v>215</v>
       </c>
@@ -4452,11 +4489,11 @@
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
     </row>
-    <row r="117" spans="1:10" s="20" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:10" s="20" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A117" s="32">
         <v>87</v>
       </c>
-      <c r="B117" s="46"/>
+      <c r="B117" s="49"/>
       <c r="C117" s="8" t="s">
         <v>188</v>
       </c>
@@ -4472,11 +4509,11 @@
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
     </row>
-    <row r="118" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="32">
         <v>88</v>
       </c>
-      <c r="B118" s="45" t="s">
+      <c r="B118" s="42" t="s">
         <v>87</v>
       </c>
       <c r="C118" s="4" t="s">
@@ -4500,11 +4537,11 @@
       </c>
       <c r="J118" s="12"/>
     </row>
-    <row r="119" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="32">
         <v>89</v>
       </c>
-      <c r="B119" s="45"/>
+      <c r="B119" s="42"/>
       <c r="C119" s="4" t="s">
         <v>93</v>
       </c>
@@ -4526,11 +4563,11 @@
       </c>
       <c r="J119" s="12"/>
     </row>
-    <row r="120" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="32">
         <v>90</v>
       </c>
-      <c r="B120" s="42" t="s">
+      <c r="B120" s="46" t="s">
         <v>97</v>
       </c>
       <c r="C120" s="4" t="s">
@@ -4554,9 +4591,9 @@
       </c>
       <c r="J120" s="12"/>
     </row>
-    <row r="121" spans="1:10" s="28" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:10" s="28" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="32"/>
-      <c r="B121" s="43"/>
+      <c r="B121" s="47"/>
       <c r="C121" s="4" t="s">
         <v>208</v>
       </c>
@@ -4572,9 +4609,9 @@
       <c r="I121" s="12"/>
       <c r="J121" s="12"/>
     </row>
-    <row r="122" spans="1:10" s="28" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:10" s="28" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="32"/>
-      <c r="B122" s="43"/>
+      <c r="B122" s="47"/>
       <c r="C122" s="4" t="s">
         <v>202</v>
       </c>
@@ -4590,9 +4627,9 @@
       <c r="I122" s="12"/>
       <c r="J122" s="12"/>
     </row>
-    <row r="123" spans="1:10" s="28" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:10" s="28" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="32"/>
-      <c r="B123" s="43"/>
+      <c r="B123" s="47"/>
       <c r="C123" s="4" t="s">
         <v>203</v>
       </c>
@@ -4608,9 +4645,9 @@
       <c r="I123" s="12"/>
       <c r="J123" s="12"/>
     </row>
-    <row r="124" spans="1:10" s="28" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:10" s="28" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A124" s="32"/>
-      <c r="B124" s="43"/>
+      <c r="B124" s="47"/>
       <c r="C124" s="4" t="s">
         <v>207</v>
       </c>
@@ -4626,9 +4663,9 @@
       <c r="I124" s="12"/>
       <c r="J124" s="12"/>
     </row>
-    <row r="125" spans="1:10" s="28" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:10" s="28" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="32"/>
-      <c r="B125" s="43"/>
+      <c r="B125" s="47"/>
       <c r="C125" s="4" t="s">
         <v>206</v>
       </c>
@@ -4640,11 +4677,11 @@
       <c r="I125" s="12"/>
       <c r="J125" s="12"/>
     </row>
-    <row r="126" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A126" s="32">
         <v>91</v>
       </c>
-      <c r="B126" s="44"/>
+      <c r="B126" s="48"/>
       <c r="C126" s="4" t="s">
         <v>205</v>
       </c>
@@ -4660,11 +4697,11 @@
       <c r="I126" s="12"/>
       <c r="J126" s="12"/>
     </row>
-    <row r="127" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="32">
         <v>92</v>
       </c>
-      <c r="B127" s="45" t="s">
+      <c r="B127" s="42" t="s">
         <v>99</v>
       </c>
       <c r="C127" s="4" t="s">
@@ -4688,11 +4725,11 @@
       </c>
       <c r="J127" s="12"/>
     </row>
-    <row r="128" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="32">
         <v>93</v>
       </c>
-      <c r="B128" s="45"/>
+      <c r="B128" s="42"/>
       <c r="C128" s="4" t="s">
         <v>104</v>
       </c>
@@ -4714,11 +4751,11 @@
       </c>
       <c r="J128" s="12"/>
     </row>
-    <row r="129" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="32">
         <v>94</v>
       </c>
-      <c r="B129" s="45"/>
+      <c r="B129" s="42"/>
       <c r="C129" s="4" t="s">
         <v>101</v>
       </c>
@@ -4740,7 +4777,7 @@
       </c>
       <c r="J129" s="12"/>
     </row>
-    <row r="130" spans="1:10" s="28" customFormat="1" ht="40.9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:10" s="28" customFormat="1" ht="40.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="32"/>
       <c r="B130" s="41" t="s">
         <v>201</v>
@@ -4760,11 +4797,11 @@
       <c r="I130" s="12"/>
       <c r="J130" s="12"/>
     </row>
-    <row r="131" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A131" s="32">
         <v>95</v>
       </c>
-      <c r="B131" s="42" t="s">
+      <c r="B131" s="46" t="s">
         <v>111</v>
       </c>
       <c r="C131" s="4" t="s">
@@ -4788,9 +4825,9 @@
       </c>
       <c r="J131" s="12"/>
     </row>
-    <row r="132" spans="1:10" s="28" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:10" s="28" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A132" s="32"/>
-      <c r="B132" s="43"/>
+      <c r="B132" s="47"/>
       <c r="C132" s="4" t="s">
         <v>214</v>
       </c>
@@ -4806,11 +4843,11 @@
       <c r="I132" s="12"/>
       <c r="J132" s="12"/>
     </row>
-    <row r="133" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A133" s="32">
         <v>96</v>
       </c>
-      <c r="B133" s="43"/>
+      <c r="B133" s="47"/>
       <c r="C133" s="4" t="s">
         <v>213</v>
       </c>
@@ -4826,11 +4863,11 @@
       <c r="I133" s="12"/>
       <c r="J133" s="12"/>
     </row>
-    <row r="134" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="32">
         <v>97</v>
       </c>
-      <c r="B134" s="43"/>
+      <c r="B134" s="47"/>
       <c r="C134" s="4" t="s">
         <v>150</v>
       </c>
@@ -4846,25 +4883,25 @@
       <c r="I134" s="12"/>
       <c r="J134" s="12"/>
     </row>
-    <row r="135" spans="1:10" s="28" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A135" s="47" t="s">
+    <row r="135" spans="1:10" s="28" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="43" t="s">
         <v>199</v>
       </c>
-      <c r="B135" s="48"/>
-      <c r="C135" s="48"/>
-      <c r="D135" s="48"/>
-      <c r="E135" s="48"/>
-      <c r="F135" s="48"/>
-      <c r="G135" s="48"/>
-      <c r="H135" s="48"/>
-      <c r="I135" s="48"/>
-      <c r="J135" s="49"/>
-    </row>
-    <row r="136" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="B135" s="44"/>
+      <c r="C135" s="44"/>
+      <c r="D135" s="44"/>
+      <c r="E135" s="44"/>
+      <c r="F135" s="44"/>
+      <c r="G135" s="44"/>
+      <c r="H135" s="44"/>
+      <c r="I135" s="44"/>
+      <c r="J135" s="45"/>
+    </row>
+    <row r="136" spans="1:10" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A136" s="32">
         <v>98</v>
       </c>
-      <c r="B136" s="45" t="s">
+      <c r="B136" s="42" t="s">
         <v>113</v>
       </c>
       <c r="C136" s="4" t="s">
@@ -4888,11 +4925,11 @@
       </c>
       <c r="J136" s="12"/>
     </row>
-    <row r="137" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="32">
         <v>99</v>
       </c>
-      <c r="B137" s="45"/>
+      <c r="B137" s="42"/>
       <c r="C137" s="4" t="s">
         <v>116</v>
       </c>
@@ -4914,11 +4951,11 @@
       </c>
       <c r="J137" s="12"/>
     </row>
-    <row r="138" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:10" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A138" s="32">
         <v>100</v>
       </c>
-      <c r="B138" s="45" t="s">
+      <c r="B138" s="42" t="s">
         <v>114</v>
       </c>
       <c r="C138" s="4" t="s">
@@ -4942,11 +4979,11 @@
       </c>
       <c r="J138" s="12"/>
     </row>
-    <row r="139" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="32">
         <v>101</v>
       </c>
-      <c r="B139" s="45"/>
+      <c r="B139" s="42"/>
       <c r="C139" s="4" t="s">
         <v>117</v>
       </c>
@@ -4968,11 +5005,11 @@
       </c>
       <c r="J139" s="12"/>
     </row>
-    <row r="140" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="32">
         <v>102</v>
       </c>
-      <c r="B140" s="42" t="s">
+      <c r="B140" s="46" t="s">
         <v>118</v>
       </c>
       <c r="C140" s="4" t="s">
@@ -4996,11 +5033,11 @@
       </c>
       <c r="J140" s="12"/>
     </row>
-    <row r="141" spans="1:10" s="26" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:10" s="26" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A141" s="32">
         <v>103</v>
       </c>
-      <c r="B141" s="44"/>
+      <c r="B141" s="48"/>
       <c r="C141" s="4" t="s">
         <v>169</v>
       </c>
@@ -5016,7 +5053,7 @@
       <c r="I141" s="11"/>
       <c r="J141" s="11"/>
     </row>
-    <row r="142" spans="1:10" ht="42" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:10" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A142" s="32">
         <v>104</v>
       </c>
@@ -5044,11 +5081,11 @@
       </c>
       <c r="J142" s="12"/>
     </row>
-    <row r="143" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="32">
         <v>105</v>
       </c>
-      <c r="B143" s="42" t="s">
+      <c r="B143" s="46" t="s">
         <v>132</v>
       </c>
       <c r="C143" s="4" t="s">
@@ -5072,11 +5109,11 @@
       </c>
       <c r="J143" s="12"/>
     </row>
-    <row r="144" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="32">
         <v>106</v>
       </c>
-      <c r="B144" s="43"/>
+      <c r="B144" s="47"/>
       <c r="C144" s="4" t="s">
         <v>135</v>
       </c>
@@ -5098,11 +5135,11 @@
       </c>
       <c r="J144" s="12"/>
     </row>
-    <row r="145" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A145" s="32">
         <v>107</v>
       </c>
-      <c r="B145" s="44"/>
+      <c r="B145" s="48"/>
       <c r="C145" s="4" t="s">
         <v>139</v>
       </c>
@@ -5124,7 +5161,7 @@
       </c>
       <c r="J145" s="12"/>
     </row>
-    <row r="146" spans="1:10" s="26" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:10" s="26" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A146" s="32">
         <v>108</v>
       </c>
@@ -5146,7 +5183,7 @@
       <c r="I146" s="11"/>
       <c r="J146" s="11"/>
     </row>
-    <row r="147" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A147" s="32">
         <v>109</v>
       </c>
@@ -5168,7 +5205,7 @@
       <c r="I147" s="12"/>
       <c r="J147" s="12"/>
     </row>
-    <row r="148" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="12"/>
       <c r="B148" s="22"/>
       <c r="C148" s="4"/>
@@ -5180,7 +5217,7 @@
       <c r="I148" s="12"/>
       <c r="J148" s="12"/>
     </row>
-    <row r="149" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="12"/>
       <c r="B149" s="22"/>
       <c r="C149" s="4"/>
@@ -5192,7 +5229,7 @@
       <c r="I149" s="12"/>
       <c r="J149" s="12"/>
     </row>
-    <row r="150" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="12"/>
       <c r="B150" s="22"/>
       <c r="C150" s="4"/>
@@ -5204,7 +5241,7 @@
       <c r="I150" s="12"/>
       <c r="J150" s="12"/>
     </row>
-    <row r="151" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="12"/>
       <c r="B151" s="22"/>
       <c r="C151" s="4"/>
@@ -5216,7 +5253,7 @@
       <c r="I151" s="12"/>
       <c r="J151" s="12"/>
     </row>
-    <row r="152" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="12"/>
       <c r="B152" s="22"/>
       <c r="C152" s="4"/>
@@ -5228,7 +5265,7 @@
       <c r="I152" s="12"/>
       <c r="J152" s="12"/>
     </row>
-    <row r="153" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="12"/>
       <c r="B153" s="22"/>
       <c r="C153" s="4"/>
@@ -5240,7 +5277,7 @@
       <c r="I153" s="12"/>
       <c r="J153" s="12"/>
     </row>
-    <row r="154" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="12"/>
       <c r="B154" s="22"/>
       <c r="C154" s="4"/>
@@ -5252,7 +5289,7 @@
       <c r="I154" s="12"/>
       <c r="J154" s="12"/>
     </row>
-    <row r="155" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="12"/>
       <c r="B155" s="22"/>
       <c r="C155" s="4"/>
@@ -5264,7 +5301,7 @@
       <c r="I155" s="12"/>
       <c r="J155" s="12"/>
     </row>
-    <row r="156" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="12"/>
       <c r="B156" s="22"/>
       <c r="C156" s="4"/>
@@ -5276,7 +5313,7 @@
       <c r="I156" s="12"/>
       <c r="J156" s="12"/>
     </row>
-    <row r="157" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="12"/>
       <c r="B157" s="22"/>
       <c r="C157" s="4"/>
@@ -5288,7 +5325,7 @@
       <c r="I157" s="12"/>
       <c r="J157" s="12"/>
     </row>
-    <row r="158" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="12"/>
       <c r="B158" s="22"/>
       <c r="C158" s="4"/>
@@ -5300,7 +5337,7 @@
       <c r="I158" s="12"/>
       <c r="J158" s="12"/>
     </row>
-    <row r="159" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="12"/>
       <c r="B159" s="22"/>
       <c r="C159" s="4"/>
@@ -5312,7 +5349,7 @@
       <c r="I159" s="12"/>
       <c r="J159" s="12"/>
     </row>
-    <row r="160" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="12"/>
       <c r="B160" s="22"/>
       <c r="C160" s="4"/>
@@ -5324,7 +5361,7 @@
       <c r="I160" s="12"/>
       <c r="J160" s="12"/>
     </row>
-    <row r="161" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="12"/>
       <c r="B161" s="22"/>
       <c r="C161" s="4"/>
@@ -5336,7 +5373,7 @@
       <c r="I161" s="12"/>
       <c r="J161" s="12"/>
     </row>
-    <row r="162" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="12"/>
       <c r="B162" s="22"/>
       <c r="C162" s="4"/>
@@ -5348,7 +5385,7 @@
       <c r="I162" s="12"/>
       <c r="J162" s="12"/>
     </row>
-    <row r="163" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="12"/>
       <c r="B163" s="22"/>
       <c r="C163" s="4"/>
@@ -5360,7 +5397,7 @@
       <c r="I163" s="12"/>
       <c r="J163" s="12"/>
     </row>
-    <row r="164" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="12"/>
       <c r="B164" s="22"/>
       <c r="C164" s="4"/>
@@ -5372,7 +5409,7 @@
       <c r="I164" s="12"/>
       <c r="J164" s="12"/>
     </row>
-    <row r="165" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="12"/>
       <c r="B165" s="22"/>
       <c r="C165" s="4"/>
@@ -5384,7 +5421,7 @@
       <c r="I165" s="12"/>
       <c r="J165" s="12"/>
     </row>
-    <row r="166" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="12"/>
       <c r="B166" s="22"/>
       <c r="C166" s="4"/>
@@ -5396,7 +5433,7 @@
       <c r="I166" s="12"/>
       <c r="J166" s="12"/>
     </row>
-    <row r="167" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="12"/>
       <c r="B167" s="22"/>
       <c r="C167" s="4"/>
@@ -5408,7 +5445,7 @@
       <c r="I167" s="12"/>
       <c r="J167" s="12"/>
     </row>
-    <row r="168" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="12"/>
       <c r="B168" s="22"/>
       <c r="C168" s="4"/>
@@ -5420,7 +5457,7 @@
       <c r="I168" s="12"/>
       <c r="J168" s="12"/>
     </row>
-    <row r="169" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="12"/>
       <c r="B169" s="22"/>
       <c r="C169" s="4"/>
@@ -5432,7 +5469,7 @@
       <c r="I169" s="12"/>
       <c r="J169" s="12"/>
     </row>
-    <row r="170" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="12"/>
       <c r="B170" s="22"/>
       <c r="C170" s="4"/>
@@ -5444,7 +5481,7 @@
       <c r="I170" s="12"/>
       <c r="J170" s="12"/>
     </row>
-    <row r="171" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="12"/>
       <c r="B171" s="22"/>
       <c r="C171" s="4"/>
@@ -5456,7 +5493,7 @@
       <c r="I171" s="12"/>
       <c r="J171" s="12"/>
     </row>
-    <row r="172" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="12"/>
       <c r="B172" s="22"/>
       <c r="C172" s="4"/>
@@ -5468,7 +5505,7 @@
       <c r="I172" s="12"/>
       <c r="J172" s="12"/>
     </row>
-    <row r="173" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="12"/>
       <c r="B173" s="22"/>
       <c r="C173" s="4"/>
@@ -5480,7 +5517,7 @@
       <c r="I173" s="12"/>
       <c r="J173" s="12"/>
     </row>
-    <row r="174" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="12"/>
       <c r="B174" s="22"/>
       <c r="C174" s="4"/>
@@ -5492,7 +5529,7 @@
       <c r="I174" s="12"/>
       <c r="J174" s="12"/>
     </row>
-    <row r="175" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="12"/>
       <c r="B175" s="22"/>
       <c r="C175" s="4"/>
@@ -5504,7 +5541,7 @@
       <c r="I175" s="12"/>
       <c r="J175" s="12"/>
     </row>
-    <row r="176" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="12"/>
       <c r="B176" s="22"/>
       <c r="C176" s="4"/>
@@ -5516,7 +5553,7 @@
       <c r="I176" s="12"/>
       <c r="J176" s="12"/>
     </row>
-    <row r="177" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="12"/>
       <c r="B177" s="22"/>
       <c r="C177" s="4"/>
@@ -5528,7 +5565,7 @@
       <c r="I177" s="12"/>
       <c r="J177" s="12"/>
     </row>
-    <row r="178" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="12"/>
       <c r="B178" s="22"/>
       <c r="C178" s="4"/>
@@ -5540,7 +5577,7 @@
       <c r="I178" s="12"/>
       <c r="J178" s="12"/>
     </row>
-    <row r="179" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="12"/>
       <c r="B179" s="22"/>
       <c r="C179" s="4"/>
@@ -5552,7 +5589,7 @@
       <c r="I179" s="12"/>
       <c r="J179" s="12"/>
     </row>
-    <row r="180" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="12"/>
       <c r="B180" s="22"/>
       <c r="C180" s="4"/>
@@ -5564,7 +5601,7 @@
       <c r="I180" s="12"/>
       <c r="J180" s="12"/>
     </row>
-    <row r="181" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="12"/>
       <c r="B181" s="22"/>
       <c r="C181" s="4"/>
@@ -5576,7 +5613,7 @@
       <c r="I181" s="12"/>
       <c r="J181" s="12"/>
     </row>
-    <row r="182" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="12"/>
       <c r="B182" s="22"/>
       <c r="C182" s="4"/>
@@ -5588,7 +5625,7 @@
       <c r="I182" s="12"/>
       <c r="J182" s="12"/>
     </row>
-    <row r="183" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="12"/>
       <c r="B183" s="22"/>
       <c r="C183" s="4"/>
@@ -5600,7 +5637,7 @@
       <c r="I183" s="12"/>
       <c r="J183" s="12"/>
     </row>
-    <row r="184" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="12"/>
       <c r="B184" s="22"/>
       <c r="C184" s="4"/>
@@ -5612,7 +5649,7 @@
       <c r="I184" s="12"/>
       <c r="J184" s="12"/>
     </row>
-    <row r="185" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="12"/>
       <c r="B185" s="22"/>
       <c r="C185" s="4"/>
@@ -5624,7 +5661,7 @@
       <c r="I185" s="12"/>
       <c r="J185" s="12"/>
     </row>
-    <row r="186" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="12"/>
       <c r="B186" s="22"/>
       <c r="C186" s="4"/>
@@ -5636,7 +5673,7 @@
       <c r="I186" s="12"/>
       <c r="J186" s="12"/>
     </row>
-    <row r="187" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="12"/>
       <c r="B187" s="22"/>
       <c r="C187" s="4"/>
@@ -5648,7 +5685,7 @@
       <c r="I187" s="12"/>
       <c r="J187" s="12"/>
     </row>
-    <row r="188" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="12"/>
       <c r="B188" s="22"/>
       <c r="C188" s="4"/>
@@ -5660,7 +5697,7 @@
       <c r="I188" s="12"/>
       <c r="J188" s="12"/>
     </row>
-    <row r="189" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="12"/>
       <c r="B189" s="22"/>
       <c r="C189" s="4"/>
@@ -5672,7 +5709,7 @@
       <c r="I189" s="12"/>
       <c r="J189" s="12"/>
     </row>
-    <row r="190" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="12"/>
       <c r="B190" s="22"/>
       <c r="C190" s="4"/>
@@ -5684,7 +5721,7 @@
       <c r="I190" s="12"/>
       <c r="J190" s="12"/>
     </row>
-    <row r="191" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="12"/>
       <c r="B191" s="22"/>
       <c r="C191" s="4"/>
@@ -5696,7 +5733,7 @@
       <c r="I191" s="12"/>
       <c r="J191" s="12"/>
     </row>
-    <row r="192" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="12"/>
       <c r="B192" s="22"/>
       <c r="C192" s="4"/>
@@ -5708,7 +5745,7 @@
       <c r="I192" s="12"/>
       <c r="J192" s="12"/>
     </row>
-    <row r="193" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="12"/>
       <c r="B193" s="22"/>
       <c r="C193" s="4"/>
@@ -5720,7 +5757,7 @@
       <c r="I193" s="12"/>
       <c r="J193" s="12"/>
     </row>
-    <row r="194" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="12"/>
       <c r="B194" s="22"/>
       <c r="C194" s="4"/>
@@ -5732,7 +5769,7 @@
       <c r="I194" s="12"/>
       <c r="J194" s="12"/>
     </row>
-    <row r="195" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="12"/>
       <c r="B195" s="22"/>
       <c r="C195" s="4"/>
@@ -5744,7 +5781,7 @@
       <c r="I195" s="12"/>
       <c r="J195" s="12"/>
     </row>
-    <row r="196" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="12"/>
       <c r="B196" s="22"/>
       <c r="C196" s="4"/>
@@ -5756,7 +5793,7 @@
       <c r="I196" s="12"/>
       <c r="J196" s="12"/>
     </row>
-    <row r="197" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="12"/>
       <c r="B197" s="22"/>
       <c r="C197" s="4"/>
@@ -5768,7 +5805,7 @@
       <c r="I197" s="12"/>
       <c r="J197" s="12"/>
     </row>
-    <row r="198" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="12"/>
       <c r="B198" s="22"/>
       <c r="C198" s="4"/>
@@ -5780,7 +5817,7 @@
       <c r="I198" s="12"/>
       <c r="J198" s="12"/>
     </row>
-    <row r="199" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="12"/>
       <c r="B199" s="22"/>
       <c r="C199" s="4"/>
@@ -5792,7 +5829,7 @@
       <c r="I199" s="12"/>
       <c r="J199" s="12"/>
     </row>
-    <row r="200" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="12"/>
       <c r="B200" s="22"/>
       <c r="C200" s="4"/>
@@ -5804,7 +5841,7 @@
       <c r="I200" s="12"/>
       <c r="J200" s="12"/>
     </row>
-    <row r="201" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="12"/>
       <c r="B201" s="22"/>
       <c r="C201" s="4"/>
@@ -5816,7 +5853,7 @@
       <c r="I201" s="12"/>
       <c r="J201" s="12"/>
     </row>
-    <row r="202" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="12"/>
       <c r="B202" s="22"/>
       <c r="C202" s="4"/>
@@ -5828,7 +5865,7 @@
       <c r="I202" s="12"/>
       <c r="J202" s="12"/>
     </row>
-    <row r="203" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="12"/>
       <c r="B203" s="22"/>
       <c r="C203" s="4"/>
@@ -5840,7 +5877,7 @@
       <c r="I203" s="12"/>
       <c r="J203" s="12"/>
     </row>
-    <row r="204" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="12"/>
       <c r="B204" s="22"/>
       <c r="C204" s="4"/>
@@ -5852,7 +5889,7 @@
       <c r="I204" s="12"/>
       <c r="J204" s="12"/>
     </row>
-    <row r="205" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="12"/>
       <c r="B205" s="22"/>
       <c r="C205" s="4"/>
@@ -5864,7 +5901,7 @@
       <c r="I205" s="12"/>
       <c r="J205" s="12"/>
     </row>
-    <row r="206" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="12"/>
       <c r="B206" s="22"/>
       <c r="C206" s="4"/>
@@ -5876,7 +5913,7 @@
       <c r="I206" s="12"/>
       <c r="J206" s="12"/>
     </row>
-    <row r="207" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="12"/>
       <c r="B207" s="22"/>
       <c r="C207" s="4"/>
@@ -5888,7 +5925,7 @@
       <c r="I207" s="12"/>
       <c r="J207" s="12"/>
     </row>
-    <row r="208" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="12"/>
       <c r="B208" s="22"/>
       <c r="C208" s="4"/>
@@ -5900,7 +5937,7 @@
       <c r="I208" s="12"/>
       <c r="J208" s="12"/>
     </row>
-    <row r="209" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="12"/>
       <c r="B209" s="22"/>
       <c r="C209" s="4"/>
@@ -5912,7 +5949,7 @@
       <c r="I209" s="12"/>
       <c r="J209" s="12"/>
     </row>
-    <row r="210" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="12"/>
       <c r="B210" s="22"/>
       <c r="C210" s="4"/>
@@ -5924,7 +5961,7 @@
       <c r="I210" s="12"/>
       <c r="J210" s="12"/>
     </row>
-    <row r="211" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="12"/>
       <c r="B211" s="22"/>
       <c r="C211" s="4"/>
@@ -5936,7 +5973,7 @@
       <c r="I211" s="12"/>
       <c r="J211" s="12"/>
     </row>
-    <row r="212" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="12"/>
       <c r="B212" s="22"/>
       <c r="C212" s="4"/>
@@ -5948,7 +5985,7 @@
       <c r="I212" s="12"/>
       <c r="J212" s="12"/>
     </row>
-    <row r="213" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="12"/>
       <c r="B213" s="22"/>
       <c r="C213" s="4"/>
@@ -5960,7 +5997,7 @@
       <c r="I213" s="12"/>
       <c r="J213" s="12"/>
     </row>
-    <row r="214" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="12"/>
       <c r="B214" s="22"/>
       <c r="C214" s="4"/>
@@ -5972,7 +6009,7 @@
       <c r="I214" s="12"/>
       <c r="J214" s="12"/>
     </row>
-    <row r="215" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="12"/>
       <c r="B215" s="22"/>
       <c r="C215" s="4"/>
@@ -5984,7 +6021,7 @@
       <c r="I215" s="12"/>
       <c r="J215" s="12"/>
     </row>
-    <row r="216" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="12"/>
       <c r="B216" s="22"/>
       <c r="C216" s="4"/>
@@ -5996,7 +6033,7 @@
       <c r="I216" s="12"/>
       <c r="J216" s="12"/>
     </row>
-    <row r="217" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="12"/>
       <c r="B217" s="22"/>
       <c r="C217" s="4"/>
@@ -6008,7 +6045,7 @@
       <c r="I217" s="12"/>
       <c r="J217" s="12"/>
     </row>
-    <row r="218" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="12"/>
       <c r="B218" s="22"/>
       <c r="C218" s="4"/>
@@ -6020,7 +6057,7 @@
       <c r="I218" s="12"/>
       <c r="J218" s="12"/>
     </row>
-    <row r="219" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="12"/>
       <c r="B219" s="22"/>
       <c r="C219" s="4"/>
@@ -6032,7 +6069,7 @@
       <c r="I219" s="12"/>
       <c r="J219" s="12"/>
     </row>
-    <row r="220" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="12"/>
       <c r="B220" s="22"/>
       <c r="C220" s="4"/>
@@ -6044,7 +6081,7 @@
       <c r="I220" s="12"/>
       <c r="J220" s="12"/>
     </row>
-    <row r="221" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="12"/>
       <c r="B221" s="22"/>
       <c r="C221" s="4"/>
@@ -6056,7 +6093,7 @@
       <c r="I221" s="12"/>
       <c r="J221" s="12"/>
     </row>
-    <row r="222" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="222" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="12"/>
       <c r="B222" s="22"/>
       <c r="C222" s="4"/>
@@ -6068,7 +6105,7 @@
       <c r="I222" s="12"/>
       <c r="J222" s="12"/>
     </row>
-    <row r="223" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="12"/>
       <c r="B223" s="22"/>
       <c r="C223" s="4"/>
@@ -6080,7 +6117,7 @@
       <c r="I223" s="12"/>
       <c r="J223" s="12"/>
     </row>
-    <row r="224" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="12"/>
       <c r="B224" s="22"/>
       <c r="C224" s="4"/>
@@ -6092,7 +6129,7 @@
       <c r="I224" s="12"/>
       <c r="J224" s="12"/>
     </row>
-    <row r="225" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="225" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="12"/>
       <c r="B225" s="22"/>
       <c r="C225" s="4"/>
@@ -6104,7 +6141,7 @@
       <c r="I225" s="12"/>
       <c r="J225" s="12"/>
     </row>
-    <row r="226" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="226" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="12"/>
       <c r="B226" s="22"/>
       <c r="C226" s="4"/>
@@ -6116,7 +6153,7 @@
       <c r="I226" s="12"/>
       <c r="J226" s="12"/>
     </row>
-    <row r="227" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="227" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="12"/>
       <c r="B227" s="22"/>
       <c r="C227" s="4"/>
@@ -6128,7 +6165,7 @@
       <c r="I227" s="12"/>
       <c r="J227" s="12"/>
     </row>
-    <row r="228" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="228" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="12"/>
       <c r="B228" s="22"/>
       <c r="C228" s="4"/>
@@ -6140,7 +6177,7 @@
       <c r="I228" s="12"/>
       <c r="J228" s="12"/>
     </row>
-    <row r="229" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="229" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="12"/>
       <c r="B229" s="22"/>
       <c r="C229" s="4"/>
@@ -6152,7 +6189,7 @@
       <c r="I229" s="12"/>
       <c r="J229" s="12"/>
     </row>
-    <row r="230" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="230" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="12"/>
       <c r="B230" s="22"/>
       <c r="C230" s="4"/>
@@ -6164,7 +6201,7 @@
       <c r="I230" s="12"/>
       <c r="J230" s="12"/>
     </row>
-    <row r="231" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="231" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="12"/>
       <c r="B231" s="22"/>
       <c r="C231" s="4"/>
@@ -6176,7 +6213,7 @@
       <c r="I231" s="12"/>
       <c r="J231" s="12"/>
     </row>
-    <row r="232" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="232" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="12"/>
       <c r="B232" s="22"/>
       <c r="C232" s="4"/>
@@ -6188,7 +6225,7 @@
       <c r="I232" s="12"/>
       <c r="J232" s="12"/>
     </row>
-    <row r="233" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="233" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="12"/>
       <c r="B233" s="22"/>
       <c r="C233" s="4"/>
@@ -6200,7 +6237,7 @@
       <c r="I233" s="12"/>
       <c r="J233" s="12"/>
     </row>
-    <row r="234" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="234" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="12"/>
       <c r="B234" s="22"/>
       <c r="C234" s="4"/>
@@ -6212,7 +6249,7 @@
       <c r="I234" s="12"/>
       <c r="J234" s="12"/>
     </row>
-    <row r="235" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="12"/>
       <c r="B235" s="22"/>
       <c r="C235" s="4"/>
@@ -6224,7 +6261,7 @@
       <c r="I235" s="12"/>
       <c r="J235" s="12"/>
     </row>
-    <row r="236" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="236" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="12"/>
       <c r="B236" s="22"/>
       <c r="C236" s="4"/>
@@ -6236,7 +6273,7 @@
       <c r="I236" s="12"/>
       <c r="J236" s="12"/>
     </row>
-    <row r="237" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="237" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="12"/>
       <c r="B237" s="22"/>
       <c r="C237" s="4"/>
@@ -6248,7 +6285,7 @@
       <c r="I237" s="12"/>
       <c r="J237" s="12"/>
     </row>
-    <row r="238" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="12"/>
       <c r="B238" s="22"/>
       <c r="C238" s="4"/>
@@ -6260,7 +6297,7 @@
       <c r="I238" s="12"/>
       <c r="J238" s="12"/>
     </row>
-    <row r="239" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="239" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="12"/>
       <c r="B239" s="22"/>
       <c r="C239" s="4"/>
@@ -6272,7 +6309,7 @@
       <c r="I239" s="12"/>
       <c r="J239" s="12"/>
     </row>
-    <row r="240" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="240" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="12"/>
       <c r="B240" s="22"/>
       <c r="C240" s="4"/>
@@ -6284,7 +6321,7 @@
       <c r="I240" s="12"/>
       <c r="J240" s="12"/>
     </row>
-    <row r="241" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="12"/>
       <c r="B241" s="22"/>
       <c r="C241" s="4"/>
@@ -6296,7 +6333,7 @@
       <c r="I241" s="12"/>
       <c r="J241" s="12"/>
     </row>
-    <row r="242" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="242" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="12"/>
       <c r="B242" s="22"/>
       <c r="C242" s="4"/>
@@ -6308,7 +6345,7 @@
       <c r="I242" s="12"/>
       <c r="J242" s="12"/>
     </row>
-    <row r="243" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="243" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="12"/>
       <c r="B243" s="22"/>
       <c r="C243" s="4"/>
@@ -6320,7 +6357,7 @@
       <c r="I243" s="12"/>
       <c r="J243" s="12"/>
     </row>
-    <row r="244" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="244" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="12"/>
       <c r="B244" s="22"/>
       <c r="C244" s="4"/>
@@ -6332,7 +6369,7 @@
       <c r="I244" s="12"/>
       <c r="J244" s="12"/>
     </row>
-    <row r="245" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="245" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="12"/>
       <c r="B245" s="22"/>
       <c r="C245" s="4"/>
@@ -6344,7 +6381,7 @@
       <c r="I245" s="12"/>
       <c r="J245" s="12"/>
     </row>
-    <row r="246" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="246" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="12"/>
       <c r="B246" s="22"/>
       <c r="C246" s="4"/>
@@ -6356,7 +6393,7 @@
       <c r="I246" s="12"/>
       <c r="J246" s="12"/>
     </row>
-    <row r="247" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="247" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="12"/>
       <c r="B247" s="22"/>
       <c r="C247" s="4"/>
@@ -6368,7 +6405,7 @@
       <c r="I247" s="12"/>
       <c r="J247" s="12"/>
     </row>
-    <row r="248" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="248" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="12"/>
       <c r="B248" s="22"/>
       <c r="C248" s="4"/>
@@ -6380,7 +6417,7 @@
       <c r="I248" s="12"/>
       <c r="J248" s="12"/>
     </row>
-    <row r="249" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="249" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="12"/>
       <c r="B249" s="22"/>
       <c r="C249" s="4"/>
@@ -6392,7 +6429,7 @@
       <c r="I249" s="12"/>
       <c r="J249" s="12"/>
     </row>
-    <row r="250" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="250" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="12"/>
       <c r="B250" s="22"/>
       <c r="C250" s="4"/>
@@ -6404,7 +6441,7 @@
       <c r="I250" s="12"/>
       <c r="J250" s="12"/>
     </row>
-    <row r="251" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="251" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="12"/>
       <c r="B251" s="22"/>
       <c r="C251" s="4"/>
@@ -6416,7 +6453,7 @@
       <c r="I251" s="12"/>
       <c r="J251" s="12"/>
     </row>
-    <row r="252" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="252" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="12"/>
       <c r="B252" s="22"/>
       <c r="C252" s="4"/>
@@ -6428,7 +6465,7 @@
       <c r="I252" s="12"/>
       <c r="J252" s="12"/>
     </row>
-    <row r="253" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="253" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="12"/>
       <c r="B253" s="22"/>
       <c r="C253" s="4"/>
@@ -6440,7 +6477,7 @@
       <c r="I253" s="12"/>
       <c r="J253" s="12"/>
     </row>
-    <row r="254" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="254" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="12"/>
       <c r="B254" s="22"/>
       <c r="C254" s="4"/>
@@ -6452,7 +6489,7 @@
       <c r="I254" s="12"/>
       <c r="J254" s="12"/>
     </row>
-    <row r="255" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="255" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="12"/>
       <c r="B255" s="22"/>
       <c r="C255" s="4"/>
@@ -6464,7 +6501,7 @@
       <c r="I255" s="12"/>
       <c r="J255" s="12"/>
     </row>
-    <row r="256" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="256" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="12"/>
       <c r="B256" s="22"/>
       <c r="C256" s="4"/>
@@ -6476,7 +6513,7 @@
       <c r="I256" s="12"/>
       <c r="J256" s="12"/>
     </row>
-    <row r="257" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="257" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="12"/>
       <c r="B257" s="22"/>
       <c r="C257" s="4"/>
@@ -6488,7 +6525,7 @@
       <c r="I257" s="12"/>
       <c r="J257" s="12"/>
     </row>
-    <row r="258" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="258" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="12"/>
       <c r="B258" s="22"/>
       <c r="C258" s="4"/>
@@ -6500,7 +6537,7 @@
       <c r="I258" s="12"/>
       <c r="J258" s="12"/>
     </row>
-    <row r="259" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="259" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="12"/>
       <c r="B259" s="22"/>
       <c r="C259" s="4"/>
@@ -6512,7 +6549,7 @@
       <c r="I259" s="12"/>
       <c r="J259" s="12"/>
     </row>
-    <row r="260" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="260" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="12"/>
       <c r="B260" s="22"/>
       <c r="C260" s="4"/>
@@ -6524,7 +6561,7 @@
       <c r="I260" s="12"/>
       <c r="J260" s="12"/>
     </row>
-    <row r="261" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="261" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="12"/>
       <c r="B261" s="22"/>
       <c r="C261" s="4"/>
@@ -6536,7 +6573,7 @@
       <c r="I261" s="12"/>
       <c r="J261" s="12"/>
     </row>
-    <row r="262" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="262" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="12"/>
       <c r="B262" s="22"/>
       <c r="C262" s="4"/>
@@ -6548,7 +6585,7 @@
       <c r="I262" s="12"/>
       <c r="J262" s="12"/>
     </row>
-    <row r="263" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="263" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="12"/>
       <c r="B263" s="22"/>
       <c r="C263" s="4"/>
@@ -6560,7 +6597,7 @@
       <c r="I263" s="12"/>
       <c r="J263" s="12"/>
     </row>
-    <row r="264" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="264" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="12"/>
       <c r="B264" s="22"/>
       <c r="C264" s="4"/>
@@ -6572,7 +6609,7 @@
       <c r="I264" s="12"/>
       <c r="J264" s="12"/>
     </row>
-    <row r="265" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="265" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="12"/>
       <c r="B265" s="22"/>
       <c r="C265" s="4"/>
@@ -6584,7 +6621,7 @@
       <c r="I265" s="12"/>
       <c r="J265" s="12"/>
     </row>
-    <row r="266" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="266" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="12"/>
       <c r="B266" s="22"/>
       <c r="C266" s="4"/>
@@ -6596,7 +6633,7 @@
       <c r="I266" s="12"/>
       <c r="J266" s="12"/>
     </row>
-    <row r="267" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="267" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="12"/>
       <c r="B267" s="22"/>
       <c r="C267" s="4"/>
@@ -6608,7 +6645,7 @@
       <c r="I267" s="12"/>
       <c r="J267" s="12"/>
     </row>
-    <row r="268" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="268" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="12"/>
       <c r="B268" s="22"/>
       <c r="C268" s="4"/>
@@ -6620,7 +6657,7 @@
       <c r="I268" s="12"/>
       <c r="J268" s="12"/>
     </row>
-    <row r="269" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="269" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="12"/>
       <c r="B269" s="22"/>
       <c r="C269" s="4"/>
@@ -6632,7 +6669,7 @@
       <c r="I269" s="12"/>
       <c r="J269" s="12"/>
     </row>
-    <row r="270" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="270" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="12"/>
       <c r="B270" s="22"/>
       <c r="C270" s="4"/>
@@ -6644,7 +6681,7 @@
       <c r="I270" s="12"/>
       <c r="J270" s="12"/>
     </row>
-    <row r="271" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="271" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="12"/>
       <c r="B271" s="22"/>
       <c r="C271" s="4"/>
@@ -6656,7 +6693,7 @@
       <c r="I271" s="12"/>
       <c r="J271" s="12"/>
     </row>
-    <row r="272" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="272" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="12"/>
       <c r="B272" s="22"/>
       <c r="C272" s="4"/>
@@ -6668,7 +6705,7 @@
       <c r="I272" s="12"/>
       <c r="J272" s="12"/>
     </row>
-    <row r="273" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="273" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="12"/>
       <c r="B273" s="22"/>
       <c r="C273" s="4"/>
@@ -6680,7 +6717,7 @@
       <c r="I273" s="12"/>
       <c r="J273" s="12"/>
     </row>
-    <row r="274" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="274" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="12"/>
       <c r="B274" s="22"/>
       <c r="C274" s="4"/>
@@ -6692,7 +6729,7 @@
       <c r="I274" s="12"/>
       <c r="J274" s="12"/>
     </row>
-    <row r="275" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="275" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="12"/>
       <c r="B275" s="22"/>
       <c r="C275" s="4"/>
@@ -6704,7 +6741,7 @@
       <c r="I275" s="12"/>
       <c r="J275" s="12"/>
     </row>
-    <row r="276" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="276" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="12"/>
       <c r="B276" s="22"/>
       <c r="C276" s="4"/>
@@ -6716,7 +6753,7 @@
       <c r="I276" s="12"/>
       <c r="J276" s="12"/>
     </row>
-    <row r="277" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="277" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="12"/>
       <c r="B277" s="22"/>
       <c r="C277" s="4"/>
@@ -6728,7 +6765,7 @@
       <c r="I277" s="12"/>
       <c r="J277" s="12"/>
     </row>
-    <row r="278" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="278" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="12"/>
       <c r="B278" s="22"/>
       <c r="C278" s="4"/>
@@ -6740,7 +6777,7 @@
       <c r="I278" s="12"/>
       <c r="J278" s="12"/>
     </row>
-    <row r="279" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="279" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="12"/>
       <c r="B279" s="22"/>
       <c r="C279" s="4"/>
@@ -6752,7 +6789,7 @@
       <c r="I279" s="12"/>
       <c r="J279" s="12"/>
     </row>
-    <row r="280" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="280" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" s="12"/>
       <c r="B280" s="22"/>
       <c r="C280" s="4"/>
@@ -6764,7 +6801,7 @@
       <c r="I280" s="12"/>
       <c r="J280" s="12"/>
     </row>
-    <row r="281" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="281" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" s="12"/>
       <c r="B281" s="22"/>
       <c r="C281" s="4"/>
@@ -6776,7 +6813,7 @@
       <c r="I281" s="12"/>
       <c r="J281" s="12"/>
     </row>
-    <row r="282" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="282" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" s="12"/>
       <c r="B282" s="22"/>
       <c r="C282" s="4"/>
@@ -6788,7 +6825,7 @@
       <c r="I282" s="12"/>
       <c r="J282" s="12"/>
     </row>
-    <row r="283" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="283" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="12"/>
       <c r="B283" s="22"/>
       <c r="C283" s="4"/>
@@ -6800,7 +6837,7 @@
       <c r="I283" s="12"/>
       <c r="J283" s="12"/>
     </row>
-    <row r="284" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="284" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="12"/>
       <c r="B284" s="22"/>
       <c r="C284" s="4"/>
@@ -6812,7 +6849,7 @@
       <c r="I284" s="12"/>
       <c r="J284" s="12"/>
     </row>
-    <row r="285" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="285" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" s="12"/>
       <c r="B285" s="22"/>
       <c r="C285" s="4"/>
@@ -6824,7 +6861,7 @@
       <c r="I285" s="12"/>
       <c r="J285" s="12"/>
     </row>
-    <row r="286" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="286" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A286" s="12"/>
       <c r="B286" s="22"/>
       <c r="C286" s="4"/>
@@ -6836,7 +6873,7 @@
       <c r="I286" s="12"/>
       <c r="J286" s="12"/>
     </row>
-    <row r="287" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="287" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" s="12"/>
       <c r="B287" s="22"/>
       <c r="C287" s="4"/>
@@ -6850,14 +6887,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B55:B60"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="B136:B137"/>
-    <mergeCell ref="B38:B47"/>
-    <mergeCell ref="B48:B52"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="A135:J135"/>
-    <mergeCell ref="B106:B108"/>
     <mergeCell ref="B29:B37"/>
     <mergeCell ref="B64:B72"/>
     <mergeCell ref="B2:B28"/>
@@ -6874,6 +6903,14 @@
     <mergeCell ref="B127:B129"/>
     <mergeCell ref="B131:B134"/>
     <mergeCell ref="B140:B141"/>
+    <mergeCell ref="B55:B60"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="B136:B137"/>
+    <mergeCell ref="B38:B47"/>
+    <mergeCell ref="B48:B52"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="A135:J135"/>
+    <mergeCell ref="B106:B108"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I44">

--- a/ProjectManagement/文档/问题点一览.xlsx
+++ b/ProjectManagement/文档/问题点一览.xlsx
@@ -936,7 +936,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>这里是测试github是多人协作。这里再更新一些。</t>
+    <t>这里是测试github是多人协作。这里再更新一些。仅仅是测试拉</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1228,7 +1228,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1239,21 +1254,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1657,7 +1657,7 @@
   <dimension ref="A1:K287"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="C99" sqref="C99"/>
+      <selection activeCell="C102" sqref="C102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="22.2" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1712,7 +1712,7 @@
       <c r="A2" s="13">
         <v>1</v>
       </c>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="43" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -1740,7 +1740,7 @@
       <c r="A3" s="13">
         <v>2</v>
       </c>
-      <c r="B3" s="47"/>
+      <c r="B3" s="44"/>
       <c r="C3" s="4" t="s">
         <v>51</v>
       </c>
@@ -1766,7 +1766,7 @@
       <c r="A4" s="13">
         <v>3</v>
       </c>
-      <c r="B4" s="47"/>
+      <c r="B4" s="44"/>
       <c r="C4" s="4" t="s">
         <v>52</v>
       </c>
@@ -1792,7 +1792,7 @@
       <c r="A5" s="13">
         <v>4</v>
       </c>
-      <c r="B5" s="47"/>
+      <c r="B5" s="44"/>
       <c r="C5" s="4" t="s">
         <v>13</v>
       </c>
@@ -1818,7 +1818,7 @@
       <c r="A6" s="13">
         <v>5</v>
       </c>
-      <c r="B6" s="47"/>
+      <c r="B6" s="44"/>
       <c r="C6" s="4" t="s">
         <v>53</v>
       </c>
@@ -1844,7 +1844,7 @@
       <c r="A7" s="13">
         <v>6</v>
       </c>
-      <c r="B7" s="47"/>
+      <c r="B7" s="44"/>
       <c r="C7" s="4" t="s">
         <v>16</v>
       </c>
@@ -1870,7 +1870,7 @@
       <c r="A8" s="13">
         <v>7</v>
       </c>
-      <c r="B8" s="47"/>
+      <c r="B8" s="44"/>
       <c r="C8" s="4" t="s">
         <v>14</v>
       </c>
@@ -1896,7 +1896,7 @@
       <c r="A9" s="13">
         <v>8</v>
       </c>
-      <c r="B9" s="47"/>
+      <c r="B9" s="44"/>
       <c r="C9" s="4" t="s">
         <v>17</v>
       </c>
@@ -1922,7 +1922,7 @@
       <c r="A10" s="13">
         <v>9</v>
       </c>
-      <c r="B10" s="47"/>
+      <c r="B10" s="44"/>
       <c r="C10" s="6" t="s">
         <v>163</v>
       </c>
@@ -1955,7 +1955,7 @@
       <c r="A11" s="13">
         <v>10</v>
       </c>
-      <c r="B11" s="47"/>
+      <c r="B11" s="44"/>
       <c r="C11" s="4" t="s">
         <v>48</v>
       </c>
@@ -1981,7 +1981,7 @@
       <c r="A12" s="13">
         <v>11</v>
       </c>
-      <c r="B12" s="47"/>
+      <c r="B12" s="44"/>
       <c r="C12" s="4" t="s">
         <v>107</v>
       </c>
@@ -2007,7 +2007,7 @@
       <c r="A13" s="13">
         <v>12</v>
       </c>
-      <c r="B13" s="47"/>
+      <c r="B13" s="44"/>
       <c r="C13" s="4" t="s">
         <v>110</v>
       </c>
@@ -2033,7 +2033,7 @@
       <c r="A14" s="13">
         <v>13</v>
       </c>
-      <c r="B14" s="47"/>
+      <c r="B14" s="44"/>
       <c r="C14" s="4" t="s">
         <v>109</v>
       </c>
@@ -2059,7 +2059,7 @@
       <c r="A15" s="13">
         <v>14</v>
       </c>
-      <c r="B15" s="47"/>
+      <c r="B15" s="44"/>
       <c r="C15" s="6" t="s">
         <v>138</v>
       </c>
@@ -2085,7 +2085,7 @@
       <c r="A16" s="13">
         <v>15</v>
       </c>
-      <c r="B16" s="47"/>
+      <c r="B16" s="44"/>
       <c r="C16" s="6" t="s">
         <v>156</v>
       </c>
@@ -2114,7 +2114,7 @@
       <c r="A17" s="13">
         <v>16</v>
       </c>
-      <c r="B17" s="47"/>
+      <c r="B17" s="44"/>
       <c r="C17" s="6" t="s">
         <v>159</v>
       </c>
@@ -2140,7 +2140,7 @@
       <c r="A18" s="13">
         <v>17</v>
       </c>
-      <c r="B18" s="47"/>
+      <c r="B18" s="44"/>
       <c r="C18" s="10" t="s">
         <v>148</v>
       </c>
@@ -2167,7 +2167,7 @@
       <c r="A19" s="32">
         <v>18</v>
       </c>
-      <c r="B19" s="47"/>
+      <c r="B19" s="44"/>
       <c r="C19" s="10" t="s">
         <v>157</v>
       </c>
@@ -2194,7 +2194,7 @@
       <c r="A20" s="32">
         <v>19</v>
       </c>
-      <c r="B20" s="47"/>
+      <c r="B20" s="44"/>
       <c r="C20" s="10" t="s">
         <v>153</v>
       </c>
@@ -2221,7 +2221,7 @@
       <c r="A21" s="32">
         <v>20</v>
       </c>
-      <c r="B21" s="47"/>
+      <c r="B21" s="44"/>
       <c r="C21" s="37" t="s">
         <v>171</v>
       </c>
@@ -2248,7 +2248,7 @@
       <c r="A22" s="32">
         <v>21</v>
       </c>
-      <c r="B22" s="47"/>
+      <c r="B22" s="44"/>
       <c r="C22" s="40" t="s">
         <v>184</v>
       </c>
@@ -2275,7 +2275,7 @@
       <c r="A23" s="32">
         <v>22</v>
       </c>
-      <c r="B23" s="47"/>
+      <c r="B23" s="44"/>
       <c r="C23" s="40" t="s">
         <v>185</v>
       </c>
@@ -2302,7 +2302,7 @@
       <c r="A24" s="32">
         <v>23</v>
       </c>
-      <c r="B24" s="47"/>
+      <c r="B24" s="44"/>
       <c r="C24" s="10" t="s">
         <v>154</v>
       </c>
@@ -2329,7 +2329,7 @@
       <c r="A25" s="32">
         <v>24</v>
       </c>
-      <c r="B25" s="47"/>
+      <c r="B25" s="44"/>
       <c r="C25" s="30" t="s">
         <v>176</v>
       </c>
@@ -2356,7 +2356,7 @@
       <c r="A26" s="32">
         <v>25</v>
       </c>
-      <c r="B26" s="47"/>
+      <c r="B26" s="44"/>
       <c r="C26" s="6" t="s">
         <v>177</v>
       </c>
@@ -2383,7 +2383,7 @@
       <c r="A27" s="32">
         <v>26</v>
       </c>
-      <c r="B27" s="47"/>
+      <c r="B27" s="44"/>
       <c r="C27" s="6" t="s">
         <v>180</v>
       </c>
@@ -2409,7 +2409,7 @@
       <c r="A28" s="32">
         <v>27</v>
       </c>
-      <c r="B28" s="48"/>
+      <c r="B28" s="45"/>
       <c r="C28" s="6" t="s">
         <v>181</v>
       </c>
@@ -2435,7 +2435,7 @@
       <c r="A29" s="32">
         <v>28</v>
       </c>
-      <c r="B29" s="46" t="s">
+      <c r="B29" s="43" t="s">
         <v>12</v>
       </c>
       <c r="C29" s="4" t="s">
@@ -2463,7 +2463,7 @@
       <c r="A30" s="32">
         <v>29</v>
       </c>
-      <c r="B30" s="47"/>
+      <c r="B30" s="44"/>
       <c r="C30" s="4" t="s">
         <v>17</v>
       </c>
@@ -2489,7 +2489,7 @@
       <c r="A31" s="32">
         <v>30</v>
       </c>
-      <c r="B31" s="47"/>
+      <c r="B31" s="44"/>
       <c r="C31" s="4" t="s">
         <v>18</v>
       </c>
@@ -2515,7 +2515,7 @@
       <c r="A32" s="32">
         <v>31</v>
       </c>
-      <c r="B32" s="47"/>
+      <c r="B32" s="44"/>
       <c r="C32" s="4" t="s">
         <v>106</v>
       </c>
@@ -2541,7 +2541,7 @@
       <c r="A33" s="32">
         <v>32</v>
       </c>
-      <c r="B33" s="47"/>
+      <c r="B33" s="44"/>
       <c r="C33" s="4" t="s">
         <v>55</v>
       </c>
@@ -2567,7 +2567,7 @@
       <c r="A34" s="32">
         <v>33</v>
       </c>
-      <c r="B34" s="47"/>
+      <c r="B34" s="44"/>
       <c r="C34" s="4" t="s">
         <v>164</v>
       </c>
@@ -2593,7 +2593,7 @@
       <c r="A35" s="32">
         <v>34</v>
       </c>
-      <c r="B35" s="47"/>
+      <c r="B35" s="44"/>
       <c r="C35" s="4" t="s">
         <v>179</v>
       </c>
@@ -2619,7 +2619,7 @@
       <c r="A36" s="32">
         <v>35</v>
       </c>
-      <c r="B36" s="47"/>
+      <c r="B36" s="44"/>
       <c r="C36" s="4" t="s">
         <v>166</v>
       </c>
@@ -2645,7 +2645,7 @@
       <c r="A37" s="32">
         <v>36</v>
       </c>
-      <c r="B37" s="48"/>
+      <c r="B37" s="45"/>
       <c r="C37" s="4" t="s">
         <v>165</v>
       </c>
@@ -2665,7 +2665,7 @@
       <c r="A38" s="32">
         <v>37</v>
       </c>
-      <c r="B38" s="42" t="s">
+      <c r="B38" s="46" t="s">
         <v>19</v>
       </c>
       <c r="C38" s="4" t="s">
@@ -2695,7 +2695,7 @@
       <c r="A39" s="32">
         <v>38</v>
       </c>
-      <c r="B39" s="42"/>
+      <c r="B39" s="46"/>
       <c r="C39" s="4" t="s">
         <v>21</v>
       </c>
@@ -2721,7 +2721,7 @@
       <c r="A40" s="32">
         <v>39</v>
       </c>
-      <c r="B40" s="42"/>
+      <c r="B40" s="46"/>
       <c r="C40" s="4" t="s">
         <v>71</v>
       </c>
@@ -2747,7 +2747,7 @@
       <c r="A41" s="32">
         <v>40</v>
       </c>
-      <c r="B41" s="42"/>
+      <c r="B41" s="46"/>
       <c r="C41" s="4" t="s">
         <v>90</v>
       </c>
@@ -2773,7 +2773,7 @@
       <c r="A42" s="32">
         <v>41</v>
       </c>
-      <c r="B42" s="42"/>
+      <c r="B42" s="46"/>
       <c r="C42" s="4" t="s">
         <v>89</v>
       </c>
@@ -2799,7 +2799,7 @@
       <c r="A43" s="32">
         <v>42</v>
       </c>
-      <c r="B43" s="42"/>
+      <c r="B43" s="46"/>
       <c r="C43" s="4" t="s">
         <v>94</v>
       </c>
@@ -2825,7 +2825,7 @@
       <c r="A44" s="32">
         <v>43</v>
       </c>
-      <c r="B44" s="42"/>
+      <c r="B44" s="46"/>
       <c r="C44" s="4" t="s">
         <v>96</v>
       </c>
@@ -2851,7 +2851,7 @@
       <c r="A45" s="32">
         <v>44</v>
       </c>
-      <c r="B45" s="42"/>
+      <c r="B45" s="46"/>
       <c r="C45" s="4" t="s">
         <v>152</v>
       </c>
@@ -2879,7 +2879,7 @@
       <c r="A46" s="32">
         <v>45</v>
       </c>
-      <c r="B46" s="42"/>
+      <c r="B46" s="46"/>
       <c r="C46" s="6" t="s">
         <v>137</v>
       </c>
@@ -2905,7 +2905,7 @@
       <c r="A47" s="32">
         <v>46</v>
       </c>
-      <c r="B47" s="42"/>
+      <c r="B47" s="46"/>
       <c r="C47" s="4" t="s">
         <v>22</v>
       </c>
@@ -2931,7 +2931,7 @@
       <c r="A48" s="32">
         <v>47</v>
       </c>
-      <c r="B48" s="42" t="s">
+      <c r="B48" s="46" t="s">
         <v>23</v>
       </c>
       <c r="C48" s="4" t="s">
@@ -2959,7 +2959,7 @@
       <c r="A49" s="32">
         <v>48</v>
       </c>
-      <c r="B49" s="42"/>
+      <c r="B49" s="46"/>
       <c r="C49" s="4" t="s">
         <v>92</v>
       </c>
@@ -2987,7 +2987,7 @@
       <c r="A50" s="32">
         <v>49</v>
       </c>
-      <c r="B50" s="42"/>
+      <c r="B50" s="46"/>
       <c r="C50" s="6" t="s">
         <v>91</v>
       </c>
@@ -3013,7 +3013,7 @@
       <c r="A51" s="32">
         <v>50</v>
       </c>
-      <c r="B51" s="42"/>
+      <c r="B51" s="46"/>
       <c r="C51" s="6" t="s">
         <v>149</v>
       </c>
@@ -3039,7 +3039,7 @@
       <c r="A52" s="32">
         <v>51</v>
       </c>
-      <c r="B52" s="42"/>
+      <c r="B52" s="46"/>
       <c r="C52" s="4" t="s">
         <v>25</v>
       </c>
@@ -3065,7 +3065,7 @@
       <c r="A53" s="32">
         <v>52</v>
       </c>
-      <c r="B53" s="42" t="s">
+      <c r="B53" s="46" t="s">
         <v>26</v>
       </c>
       <c r="C53" s="4" t="s">
@@ -3093,7 +3093,7 @@
       <c r="A54" s="32">
         <v>53</v>
       </c>
-      <c r="B54" s="42"/>
+      <c r="B54" s="46"/>
       <c r="C54" s="4" t="s">
         <v>28</v>
       </c>
@@ -3119,7 +3119,7 @@
       <c r="A55" s="32">
         <v>54</v>
       </c>
-      <c r="B55" s="42" t="s">
+      <c r="B55" s="46" t="s">
         <v>29</v>
       </c>
       <c r="C55" s="4" t="s">
@@ -3147,7 +3147,7 @@
       <c r="A56" s="32">
         <v>55</v>
       </c>
-      <c r="B56" s="42"/>
+      <c r="B56" s="46"/>
       <c r="C56" s="4" t="s">
         <v>62</v>
       </c>
@@ -3173,7 +3173,7 @@
       <c r="A57" s="32">
         <v>56</v>
       </c>
-      <c r="B57" s="42"/>
+      <c r="B57" s="46"/>
       <c r="C57" s="4" t="s">
         <v>63</v>
       </c>
@@ -3199,7 +3199,7 @@
       <c r="A58" s="32">
         <v>57</v>
       </c>
-      <c r="B58" s="42"/>
+      <c r="B58" s="46"/>
       <c r="C58" s="4" t="s">
         <v>72</v>
       </c>
@@ -3223,7 +3223,7 @@
     </row>
     <row r="59" spans="1:10" s="28" customFormat="1" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A59" s="32"/>
-      <c r="B59" s="42"/>
+      <c r="B59" s="46"/>
       <c r="C59" s="4" t="s">
         <v>198</v>
       </c>
@@ -3243,7 +3243,7 @@
       <c r="A60" s="32">
         <v>58</v>
       </c>
-      <c r="B60" s="42"/>
+      <c r="B60" s="46"/>
       <c r="C60" s="4" t="s">
         <v>61</v>
       </c>
@@ -3269,7 +3269,7 @@
       <c r="A61" s="32">
         <v>59</v>
       </c>
-      <c r="B61" s="42" t="s">
+      <c r="B61" s="46" t="s">
         <v>31</v>
       </c>
       <c r="C61" s="4" t="s">
@@ -3295,7 +3295,7 @@
     </row>
     <row r="62" spans="1:10" s="28" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="32"/>
-      <c r="B62" s="42"/>
+      <c r="B62" s="46"/>
       <c r="C62" s="4" t="s">
         <v>194</v>
       </c>
@@ -3315,7 +3315,7 @@
       <c r="A63" s="32">
         <v>60</v>
       </c>
-      <c r="B63" s="42"/>
+      <c r="B63" s="46"/>
       <c r="C63" s="4" t="s">
         <v>64</v>
       </c>
@@ -3341,7 +3341,7 @@
       <c r="A64" s="32">
         <v>61</v>
       </c>
-      <c r="B64" s="46" t="s">
+      <c r="B64" s="43" t="s">
         <v>33</v>
       </c>
       <c r="C64" s="4" t="s">
@@ -3369,7 +3369,7 @@
       <c r="A65" s="32">
         <v>62</v>
       </c>
-      <c r="B65" s="47"/>
+      <c r="B65" s="44"/>
       <c r="C65" s="4" t="s">
         <v>35</v>
       </c>
@@ -3393,7 +3393,7 @@
     </row>
     <row r="66" spans="1:10" s="28" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="32"/>
-      <c r="B66" s="47"/>
+      <c r="B66" s="44"/>
       <c r="C66" s="4" t="s">
         <v>196</v>
       </c>
@@ -3411,7 +3411,7 @@
     </row>
     <row r="67" spans="1:10" s="28" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="32"/>
-      <c r="B67" s="47"/>
+      <c r="B67" s="44"/>
       <c r="C67" s="4"/>
       <c r="D67" s="12"/>
       <c r="E67" s="14"/>
@@ -3423,7 +3423,7 @@
     </row>
     <row r="68" spans="1:10" s="28" customFormat="1" ht="57.6" x14ac:dyDescent="0.25">
       <c r="A68" s="32"/>
-      <c r="B68" s="47"/>
+      <c r="B68" s="44"/>
       <c r="C68" s="4" t="s">
         <v>195</v>
       </c>
@@ -3441,7 +3441,7 @@
     </row>
     <row r="69" spans="1:10" s="28" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A69" s="32"/>
-      <c r="B69" s="47"/>
+      <c r="B69" s="44"/>
       <c r="C69" s="4" t="s">
         <v>197</v>
       </c>
@@ -3461,7 +3461,7 @@
       <c r="A70" s="32">
         <v>63</v>
       </c>
-      <c r="B70" s="47"/>
+      <c r="B70" s="44"/>
       <c r="C70" s="4" t="s">
         <v>155</v>
       </c>
@@ -3481,7 +3481,7 @@
       <c r="A71" s="32">
         <v>64</v>
       </c>
-      <c r="B71" s="47"/>
+      <c r="B71" s="44"/>
       <c r="C71" s="4" t="s">
         <v>36</v>
       </c>
@@ -3503,7 +3503,7 @@
       <c r="A72" s="32">
         <v>65</v>
       </c>
-      <c r="B72" s="48"/>
+      <c r="B72" s="45"/>
       <c r="C72" s="4" t="s">
         <v>168</v>
       </c>
@@ -3523,7 +3523,7 @@
       <c r="A73" s="32">
         <v>66</v>
       </c>
-      <c r="B73" s="42" t="s">
+      <c r="B73" s="46" t="s">
         <v>209</v>
       </c>
       <c r="C73" s="4" t="s">
@@ -3551,7 +3551,7 @@
       <c r="A74" s="32">
         <v>67</v>
       </c>
-      <c r="B74" s="42"/>
+      <c r="B74" s="46"/>
       <c r="C74" s="4" t="s">
         <v>105</v>
       </c>
@@ -3577,7 +3577,7 @@
       <c r="A75" s="32">
         <v>68</v>
       </c>
-      <c r="B75" s="42"/>
+      <c r="B75" s="46"/>
       <c r="C75" s="4" t="s">
         <v>210</v>
       </c>
@@ -3595,7 +3595,7 @@
     </row>
     <row r="76" spans="1:10" s="28" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="32"/>
-      <c r="B76" s="42"/>
+      <c r="B76" s="46"/>
       <c r="C76" s="4" t="s">
         <v>212</v>
       </c>
@@ -3611,7 +3611,7 @@
       <c r="A77" s="32">
         <v>69</v>
       </c>
-      <c r="B77" s="42"/>
+      <c r="B77" s="46"/>
       <c r="C77" s="4" t="s">
         <v>151</v>
       </c>
@@ -3629,7 +3629,7 @@
     </row>
     <row r="78" spans="1:10" s="28" customFormat="1" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A78" s="32"/>
-      <c r="B78" s="42"/>
+      <c r="B78" s="46"/>
       <c r="C78" s="4" t="s">
         <v>211</v>
       </c>
@@ -3649,7 +3649,7 @@
       <c r="A79" s="32">
         <v>70</v>
       </c>
-      <c r="B79" s="42"/>
+      <c r="B79" s="46"/>
       <c r="C79" s="4" t="s">
         <v>37</v>
       </c>
@@ -3675,7 +3675,7 @@
       <c r="A80" s="32">
         <v>71</v>
       </c>
-      <c r="B80" s="42" t="s">
+      <c r="B80" s="46" t="s">
         <v>39</v>
       </c>
       <c r="C80" s="4" t="s">
@@ -3703,7 +3703,7 @@
     </row>
     <row r="81" spans="1:10" s="28" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A81" s="32"/>
-      <c r="B81" s="42"/>
+      <c r="B81" s="46"/>
       <c r="C81" s="4" t="s">
         <v>217</v>
       </c>
@@ -3721,7 +3721,7 @@
     </row>
     <row r="82" spans="1:10" s="28" customFormat="1" ht="25.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="32"/>
-      <c r="B82" s="42"/>
+      <c r="B82" s="46"/>
       <c r="C82" s="4" t="s">
         <v>216</v>
       </c>
@@ -3741,7 +3741,7 @@
       <c r="A83" s="32">
         <v>72</v>
       </c>
-      <c r="B83" s="42"/>
+      <c r="B83" s="46"/>
       <c r="C83" s="4" t="s">
         <v>105</v>
       </c>
@@ -3767,7 +3767,7 @@
       <c r="A84" s="32">
         <v>73</v>
       </c>
-      <c r="B84" s="42"/>
+      <c r="B84" s="46"/>
       <c r="C84" s="4" t="s">
         <v>37</v>
       </c>
@@ -3793,7 +3793,7 @@
       <c r="A85" s="32">
         <v>74</v>
       </c>
-      <c r="B85" s="42" t="s">
+      <c r="B85" s="46" t="s">
         <v>41</v>
       </c>
       <c r="C85" s="4" t="s">
@@ -3819,7 +3819,7 @@
     </row>
     <row r="86" spans="1:10" s="28" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A86" s="32"/>
-      <c r="B86" s="42"/>
+      <c r="B86" s="46"/>
       <c r="C86" s="4" t="s">
         <v>218</v>
       </c>
@@ -3837,7 +3837,7 @@
     </row>
     <row r="87" spans="1:10" s="28" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A87" s="32"/>
-      <c r="B87" s="42"/>
+      <c r="B87" s="46"/>
       <c r="C87" s="4" t="s">
         <v>219</v>
       </c>
@@ -3857,7 +3857,7 @@
       <c r="A88" s="32">
         <v>75</v>
       </c>
-      <c r="B88" s="42"/>
+      <c r="B88" s="46"/>
       <c r="C88" s="4" t="s">
         <v>105</v>
       </c>
@@ -3883,7 +3883,7 @@
       <c r="A89" s="32">
         <v>76</v>
       </c>
-      <c r="B89" s="42"/>
+      <c r="B89" s="46"/>
       <c r="C89" s="4" t="s">
         <v>37</v>
       </c>
@@ -3909,7 +3909,7 @@
       <c r="A90" s="32">
         <v>77</v>
       </c>
-      <c r="B90" s="42" t="s">
+      <c r="B90" s="46" t="s">
         <v>43</v>
       </c>
       <c r="C90" s="4" t="s">
@@ -3929,7 +3929,7 @@
     </row>
     <row r="91" spans="1:10" s="28" customFormat="1" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="32"/>
-      <c r="B91" s="42"/>
+      <c r="B91" s="46"/>
       <c r="C91" s="4" t="s">
         <v>223</v>
       </c>
@@ -3955,7 +3955,7 @@
       <c r="A92" s="32">
         <v>78</v>
       </c>
-      <c r="B92" s="42"/>
+      <c r="B92" s="46"/>
       <c r="C92" s="4" t="s">
         <v>126</v>
       </c>
@@ -3979,7 +3979,7 @@
     </row>
     <row r="93" spans="1:10" s="28" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A93" s="32"/>
-      <c r="B93" s="42"/>
+      <c r="B93" s="46"/>
       <c r="C93" s="4" t="s">
         <v>225</v>
       </c>
@@ -3997,7 +3997,7 @@
     </row>
     <row r="94" spans="1:10" s="28" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="32"/>
-      <c r="B94" s="42"/>
+      <c r="B94" s="46"/>
       <c r="C94" s="4" t="s">
         <v>224</v>
       </c>
@@ -4021,7 +4021,7 @@
     </row>
     <row r="95" spans="1:10" s="28" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="32"/>
-      <c r="B95" s="42"/>
+      <c r="B95" s="46"/>
       <c r="C95" s="4" t="s">
         <v>229</v>
       </c>
@@ -4039,7 +4039,7 @@
     </row>
     <row r="96" spans="1:10" s="28" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="32"/>
-      <c r="B96" s="42"/>
+      <c r="B96" s="46"/>
       <c r="C96" s="4" t="s">
         <v>231</v>
       </c>
@@ -4057,7 +4057,7 @@
     </row>
     <row r="97" spans="1:10" s="28" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A97" s="32"/>
-      <c r="B97" s="42"/>
+      <c r="B97" s="46"/>
       <c r="C97" s="4" t="s">
         <v>222</v>
       </c>
@@ -4075,7 +4075,7 @@
     </row>
     <row r="98" spans="1:10" s="28" customFormat="1" ht="25.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="32"/>
-      <c r="B98" s="42"/>
+      <c r="B98" s="46"/>
       <c r="C98" s="4" t="s">
         <v>221</v>
       </c>
@@ -4101,7 +4101,7 @@
       <c r="A99" s="32">
         <v>79</v>
       </c>
-      <c r="B99" s="42"/>
+      <c r="B99" s="46"/>
       <c r="C99" s="4" t="s">
         <v>45</v>
       </c>
@@ -4121,7 +4121,7 @@
       <c r="A100" s="32">
         <v>80</v>
       </c>
-      <c r="B100" s="42" t="s">
+      <c r="B100" s="46" t="s">
         <v>44</v>
       </c>
       <c r="C100" s="4" t="s">
@@ -4147,7 +4147,7 @@
     </row>
     <row r="101" spans="1:10" s="28" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="32"/>
-      <c r="B101" s="42"/>
+      <c r="B101" s="46"/>
       <c r="C101" s="4" t="s">
         <v>228</v>
       </c>
@@ -4165,8 +4165,8 @@
     </row>
     <row r="102" spans="1:10" s="28" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="32"/>
-      <c r="B102" s="42"/>
-      <c r="C102" s="50" t="s">
+      <c r="B102" s="46"/>
+      <c r="C102" s="42" t="s">
         <v>232</v>
       </c>
       <c r="D102" s="12"/>
@@ -4179,7 +4179,7 @@
     </row>
     <row r="103" spans="1:10" s="28" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="32"/>
-      <c r="B103" s="42"/>
+      <c r="B103" s="46"/>
       <c r="C103" s="4" t="s">
         <v>220</v>
       </c>
@@ -4203,7 +4203,7 @@
     </row>
     <row r="104" spans="1:10" s="28" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="32"/>
-      <c r="B104" s="42"/>
+      <c r="B104" s="46"/>
       <c r="C104" s="4" t="s">
         <v>227</v>
       </c>
@@ -4229,7 +4229,7 @@
       <c r="A105" s="32">
         <v>81</v>
       </c>
-      <c r="B105" s="42"/>
+      <c r="B105" s="46"/>
       <c r="C105" s="4" t="s">
         <v>136</v>
       </c>
@@ -4255,7 +4255,7 @@
       <c r="A106" s="32">
         <v>82</v>
       </c>
-      <c r="B106" s="46" t="s">
+      <c r="B106" s="43" t="s">
         <v>65</v>
       </c>
       <c r="C106" s="4" t="s">
@@ -4283,7 +4283,7 @@
     </row>
     <row r="107" spans="1:10" s="28" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="32"/>
-      <c r="B107" s="47"/>
+      <c r="B107" s="44"/>
       <c r="C107" s="4" t="s">
         <v>187</v>
       </c>
@@ -4307,7 +4307,7 @@
     </row>
     <row r="108" spans="1:10" s="28" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="32"/>
-      <c r="B108" s="48"/>
+      <c r="B108" s="45"/>
       <c r="C108" s="4" t="s">
         <v>186</v>
       </c>
@@ -4333,7 +4333,7 @@
       <c r="A109" s="32">
         <v>83</v>
       </c>
-      <c r="B109" s="49" t="s">
+      <c r="B109" s="47" t="s">
         <v>67</v>
       </c>
       <c r="C109" s="8" t="s">
@@ -4361,7 +4361,7 @@
       <c r="A110" s="32">
         <v>84</v>
       </c>
-      <c r="B110" s="49"/>
+      <c r="B110" s="47"/>
       <c r="C110" s="8" t="s">
         <v>95</v>
       </c>
@@ -4381,7 +4381,7 @@
       <c r="A111" s="32">
         <v>85</v>
       </c>
-      <c r="B111" s="49"/>
+      <c r="B111" s="47"/>
       <c r="C111" s="8" t="s">
         <v>190</v>
       </c>
@@ -4401,7 +4401,7 @@
       <c r="A112" s="32">
         <v>86</v>
       </c>
-      <c r="B112" s="49"/>
+      <c r="B112" s="47"/>
       <c r="C112" s="8" t="s">
         <v>189</v>
       </c>
@@ -4419,7 +4419,7 @@
     </row>
     <row r="113" spans="1:10" s="20" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="32"/>
-      <c r="B113" s="49"/>
+      <c r="B113" s="47"/>
       <c r="C113" s="8" t="s">
         <v>191</v>
       </c>
@@ -4437,7 +4437,7 @@
     </row>
     <row r="114" spans="1:10" s="20" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="32"/>
-      <c r="B114" s="49"/>
+      <c r="B114" s="47"/>
       <c r="C114" s="8" t="s">
         <v>192</v>
       </c>
@@ -4455,7 +4455,7 @@
     </row>
     <row r="115" spans="1:10" s="20" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="32"/>
-      <c r="B115" s="49"/>
+      <c r="B115" s="47"/>
       <c r="C115" s="8" t="s">
         <v>193</v>
       </c>
@@ -4473,7 +4473,7 @@
     </row>
     <row r="116" spans="1:10" s="20" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="32"/>
-      <c r="B116" s="49"/>
+      <c r="B116" s="47"/>
       <c r="C116" s="8" t="s">
         <v>215</v>
       </c>
@@ -4493,7 +4493,7 @@
       <c r="A117" s="32">
         <v>87</v>
       </c>
-      <c r="B117" s="49"/>
+      <c r="B117" s="47"/>
       <c r="C117" s="8" t="s">
         <v>188</v>
       </c>
@@ -4513,7 +4513,7 @@
       <c r="A118" s="32">
         <v>88</v>
       </c>
-      <c r="B118" s="42" t="s">
+      <c r="B118" s="46" t="s">
         <v>87</v>
       </c>
       <c r="C118" s="4" t="s">
@@ -4541,7 +4541,7 @@
       <c r="A119" s="32">
         <v>89</v>
       </c>
-      <c r="B119" s="42"/>
+      <c r="B119" s="46"/>
       <c r="C119" s="4" t="s">
         <v>93</v>
       </c>
@@ -4567,7 +4567,7 @@
       <c r="A120" s="32">
         <v>90</v>
       </c>
-      <c r="B120" s="46" t="s">
+      <c r="B120" s="43" t="s">
         <v>97</v>
       </c>
       <c r="C120" s="4" t="s">
@@ -4593,7 +4593,7 @@
     </row>
     <row r="121" spans="1:10" s="28" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="32"/>
-      <c r="B121" s="47"/>
+      <c r="B121" s="44"/>
       <c r="C121" s="4" t="s">
         <v>208</v>
       </c>
@@ -4611,7 +4611,7 @@
     </row>
     <row r="122" spans="1:10" s="28" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="32"/>
-      <c r="B122" s="47"/>
+      <c r="B122" s="44"/>
       <c r="C122" s="4" t="s">
         <v>202</v>
       </c>
@@ -4629,7 +4629,7 @@
     </row>
     <row r="123" spans="1:10" s="28" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="32"/>
-      <c r="B123" s="47"/>
+      <c r="B123" s="44"/>
       <c r="C123" s="4" t="s">
         <v>203</v>
       </c>
@@ -4647,7 +4647,7 @@
     </row>
     <row r="124" spans="1:10" s="28" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A124" s="32"/>
-      <c r="B124" s="47"/>
+      <c r="B124" s="44"/>
       <c r="C124" s="4" t="s">
         <v>207</v>
       </c>
@@ -4665,7 +4665,7 @@
     </row>
     <row r="125" spans="1:10" s="28" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="32"/>
-      <c r="B125" s="47"/>
+      <c r="B125" s="44"/>
       <c r="C125" s="4" t="s">
         <v>206</v>
       </c>
@@ -4681,7 +4681,7 @@
       <c r="A126" s="32">
         <v>91</v>
       </c>
-      <c r="B126" s="48"/>
+      <c r="B126" s="45"/>
       <c r="C126" s="4" t="s">
         <v>205</v>
       </c>
@@ -4701,7 +4701,7 @@
       <c r="A127" s="32">
         <v>92</v>
       </c>
-      <c r="B127" s="42" t="s">
+      <c r="B127" s="46" t="s">
         <v>99</v>
       </c>
       <c r="C127" s="4" t="s">
@@ -4729,7 +4729,7 @@
       <c r="A128" s="32">
         <v>93</v>
       </c>
-      <c r="B128" s="42"/>
+      <c r="B128" s="46"/>
       <c r="C128" s="4" t="s">
         <v>104</v>
       </c>
@@ -4755,7 +4755,7 @@
       <c r="A129" s="32">
         <v>94</v>
       </c>
-      <c r="B129" s="42"/>
+      <c r="B129" s="46"/>
       <c r="C129" s="4" t="s">
         <v>101</v>
       </c>
@@ -4801,7 +4801,7 @@
       <c r="A131" s="32">
         <v>95</v>
       </c>
-      <c r="B131" s="46" t="s">
+      <c r="B131" s="43" t="s">
         <v>111</v>
       </c>
       <c r="C131" s="4" t="s">
@@ -4827,7 +4827,7 @@
     </row>
     <row r="132" spans="1:10" s="28" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A132" s="32"/>
-      <c r="B132" s="47"/>
+      <c r="B132" s="44"/>
       <c r="C132" s="4" t="s">
         <v>214</v>
       </c>
@@ -4847,7 +4847,7 @@
       <c r="A133" s="32">
         <v>96</v>
       </c>
-      <c r="B133" s="47"/>
+      <c r="B133" s="44"/>
       <c r="C133" s="4" t="s">
         <v>213</v>
       </c>
@@ -4867,7 +4867,7 @@
       <c r="A134" s="32">
         <v>97</v>
       </c>
-      <c r="B134" s="47"/>
+      <c r="B134" s="44"/>
       <c r="C134" s="4" t="s">
         <v>150</v>
       </c>
@@ -4884,24 +4884,24 @@
       <c r="J134" s="12"/>
     </row>
     <row r="135" spans="1:10" s="28" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="43" t="s">
+      <c r="A135" s="48" t="s">
         <v>199</v>
       </c>
-      <c r="B135" s="44"/>
-      <c r="C135" s="44"/>
-      <c r="D135" s="44"/>
-      <c r="E135" s="44"/>
-      <c r="F135" s="44"/>
-      <c r="G135" s="44"/>
-      <c r="H135" s="44"/>
-      <c r="I135" s="44"/>
-      <c r="J135" s="45"/>
+      <c r="B135" s="49"/>
+      <c r="C135" s="49"/>
+      <c r="D135" s="49"/>
+      <c r="E135" s="49"/>
+      <c r="F135" s="49"/>
+      <c r="G135" s="49"/>
+      <c r="H135" s="49"/>
+      <c r="I135" s="49"/>
+      <c r="J135" s="50"/>
     </row>
     <row r="136" spans="1:10" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A136" s="32">
         <v>98</v>
       </c>
-      <c r="B136" s="42" t="s">
+      <c r="B136" s="46" t="s">
         <v>113</v>
       </c>
       <c r="C136" s="4" t="s">
@@ -4929,7 +4929,7 @@
       <c r="A137" s="32">
         <v>99</v>
       </c>
-      <c r="B137" s="42"/>
+      <c r="B137" s="46"/>
       <c r="C137" s="4" t="s">
         <v>116</v>
       </c>
@@ -4955,7 +4955,7 @@
       <c r="A138" s="32">
         <v>100</v>
       </c>
-      <c r="B138" s="42" t="s">
+      <c r="B138" s="46" t="s">
         <v>114</v>
       </c>
       <c r="C138" s="4" t="s">
@@ -4983,7 +4983,7 @@
       <c r="A139" s="32">
         <v>101</v>
       </c>
-      <c r="B139" s="42"/>
+      <c r="B139" s="46"/>
       <c r="C139" s="4" t="s">
         <v>117</v>
       </c>
@@ -5009,7 +5009,7 @@
       <c r="A140" s="32">
         <v>102</v>
       </c>
-      <c r="B140" s="46" t="s">
+      <c r="B140" s="43" t="s">
         <v>118</v>
       </c>
       <c r="C140" s="4" t="s">
@@ -5037,7 +5037,7 @@
       <c r="A141" s="32">
         <v>103</v>
       </c>
-      <c r="B141" s="48"/>
+      <c r="B141" s="45"/>
       <c r="C141" s="4" t="s">
         <v>169</v>
       </c>
@@ -5085,7 +5085,7 @@
       <c r="A143" s="32">
         <v>105</v>
       </c>
-      <c r="B143" s="46" t="s">
+      <c r="B143" s="43" t="s">
         <v>132</v>
       </c>
       <c r="C143" s="4" t="s">
@@ -5113,7 +5113,7 @@
       <c r="A144" s="32">
         <v>106</v>
       </c>
-      <c r="B144" s="47"/>
+      <c r="B144" s="44"/>
       <c r="C144" s="4" t="s">
         <v>135</v>
       </c>
@@ -5139,7 +5139,7 @@
       <c r="A145" s="32">
         <v>107</v>
       </c>
-      <c r="B145" s="48"/>
+      <c r="B145" s="45"/>
       <c r="C145" s="4" t="s">
         <v>139</v>
       </c>
@@ -6887,6 +6887,14 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="B55:B60"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="B136:B137"/>
+    <mergeCell ref="B38:B47"/>
+    <mergeCell ref="B48:B52"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="A135:J135"/>
+    <mergeCell ref="B106:B108"/>
     <mergeCell ref="B29:B37"/>
     <mergeCell ref="B64:B72"/>
     <mergeCell ref="B2:B28"/>
@@ -6903,14 +6911,6 @@
     <mergeCell ref="B127:B129"/>
     <mergeCell ref="B131:B134"/>
     <mergeCell ref="B140:B141"/>
-    <mergeCell ref="B55:B60"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="B136:B137"/>
-    <mergeCell ref="B38:B47"/>
-    <mergeCell ref="B48:B52"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="A135:J135"/>
-    <mergeCell ref="B106:B108"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I44">

--- a/ProjectManagement/文档/问题点一览.xlsx
+++ b/ProjectManagement/文档/问题点一览.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18201"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8028"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8025"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -943,7 +943,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1103,7 +1103,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1231,6 +1231,18 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
@@ -1240,19 +1252,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1334,7 +1340,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1409,23 +1415,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1461,23 +1450,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1657,26 +1629,26 @@
   <dimension ref="A1:K287"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="C102" sqref="C102"/>
+      <selection activeCell="C104" sqref="C104"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="22.2" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="22.15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.88671875" style="23" customWidth="1"/>
+    <col min="2" max="2" width="12.875" style="23" customWidth="1"/>
     <col min="3" max="3" width="58" style="5" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" style="3"/>
-    <col min="5" max="5" width="10.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.875" style="3"/>
+    <col min="5" max="5" width="10.5" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="30" style="3" customWidth="1"/>
-    <col min="7" max="7" width="8.88671875" style="3"/>
-    <col min="8" max="8" width="11.33203125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="8.88671875" style="3"/>
-    <col min="10" max="10" width="30.77734375" style="3" customWidth="1"/>
-    <col min="11" max="11" width="16.109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.88671875" style="3"/>
+    <col min="7" max="7" width="8.875" style="3"/>
+    <col min="8" max="8" width="11.375" style="3" customWidth="1"/>
+    <col min="9" max="9" width="8.875" style="3"/>
+    <col min="10" max="10" width="30.75" style="3" customWidth="1"/>
+    <col min="11" max="11" width="16.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1708,11 +1680,11 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="13">
         <v>1</v>
       </c>
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="47" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -1736,11 +1708,11 @@
       </c>
       <c r="J2" s="12"/>
     </row>
-    <row r="3" spans="1:11" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="27" x14ac:dyDescent="0.15">
       <c r="A3" s="13">
         <v>2</v>
       </c>
-      <c r="B3" s="44"/>
+      <c r="B3" s="48"/>
       <c r="C3" s="4" t="s">
         <v>51</v>
       </c>
@@ -1762,11 +1734,11 @@
       </c>
       <c r="J3" s="12"/>
     </row>
-    <row r="4" spans="1:11" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="27" x14ac:dyDescent="0.15">
       <c r="A4" s="13">
         <v>3</v>
       </c>
-      <c r="B4" s="44"/>
+      <c r="B4" s="48"/>
       <c r="C4" s="4" t="s">
         <v>52</v>
       </c>
@@ -1788,11 +1760,11 @@
       </c>
       <c r="J4" s="12"/>
     </row>
-    <row r="5" spans="1:11" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="13">
         <v>4</v>
       </c>
-      <c r="B5" s="44"/>
+      <c r="B5" s="48"/>
       <c r="C5" s="4" t="s">
         <v>13</v>
       </c>
@@ -1814,11 +1786,11 @@
       </c>
       <c r="J5" s="12"/>
     </row>
-    <row r="6" spans="1:11" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="13">
         <v>5</v>
       </c>
-      <c r="B6" s="44"/>
+      <c r="B6" s="48"/>
       <c r="C6" s="4" t="s">
         <v>53</v>
       </c>
@@ -1840,11 +1812,11 @@
       </c>
       <c r="J6" s="12"/>
     </row>
-    <row r="7" spans="1:11" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="27" x14ac:dyDescent="0.15">
       <c r="A7" s="13">
         <v>6</v>
       </c>
-      <c r="B7" s="44"/>
+      <c r="B7" s="48"/>
       <c r="C7" s="4" t="s">
         <v>16</v>
       </c>
@@ -1866,11 +1838,11 @@
       </c>
       <c r="J7" s="12"/>
     </row>
-    <row r="8" spans="1:11" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="13">
         <v>7</v>
       </c>
-      <c r="B8" s="44"/>
+      <c r="B8" s="48"/>
       <c r="C8" s="4" t="s">
         <v>14</v>
       </c>
@@ -1892,11 +1864,11 @@
       </c>
       <c r="J8" s="12"/>
     </row>
-    <row r="9" spans="1:11" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="13">
         <v>8</v>
       </c>
-      <c r="B9" s="44"/>
+      <c r="B9" s="48"/>
       <c r="C9" s="4" t="s">
         <v>17</v>
       </c>
@@ -1918,11 +1890,11 @@
       </c>
       <c r="J9" s="12"/>
     </row>
-    <row r="10" spans="1:11" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="27" x14ac:dyDescent="0.15">
       <c r="A10" s="13">
         <v>9</v>
       </c>
-      <c r="B10" s="44"/>
+      <c r="B10" s="48"/>
       <c r="C10" s="6" t="s">
         <v>163</v>
       </c>
@@ -1951,11 +1923,11 @@
         <v>108</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="13">
         <v>10</v>
       </c>
-      <c r="B11" s="44"/>
+      <c r="B11" s="48"/>
       <c r="C11" s="4" t="s">
         <v>48</v>
       </c>
@@ -1977,11 +1949,11 @@
       </c>
       <c r="J11" s="12"/>
     </row>
-    <row r="12" spans="1:11" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="13">
         <v>11</v>
       </c>
-      <c r="B12" s="44"/>
+      <c r="B12" s="48"/>
       <c r="C12" s="4" t="s">
         <v>107</v>
       </c>
@@ -2003,11 +1975,11 @@
       </c>
       <c r="J12" s="12"/>
     </row>
-    <row r="13" spans="1:11" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="13">
         <v>12</v>
       </c>
-      <c r="B13" s="44"/>
+      <c r="B13" s="48"/>
       <c r="C13" s="4" t="s">
         <v>110</v>
       </c>
@@ -2029,11 +2001,11 @@
       </c>
       <c r="J13" s="12"/>
     </row>
-    <row r="14" spans="1:11" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="13">
         <v>13</v>
       </c>
-      <c r="B14" s="44"/>
+      <c r="B14" s="48"/>
       <c r="C14" s="4" t="s">
         <v>109</v>
       </c>
@@ -2055,11 +2027,11 @@
       </c>
       <c r="J14" s="12"/>
     </row>
-    <row r="15" spans="1:11" s="16" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" s="16" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A15" s="13">
         <v>14</v>
       </c>
-      <c r="B15" s="44"/>
+      <c r="B15" s="48"/>
       <c r="C15" s="6" t="s">
         <v>138</v>
       </c>
@@ -2081,11 +2053,11 @@
       </c>
       <c r="J15" s="7"/>
     </row>
-    <row r="16" spans="1:11" s="16" customFormat="1" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" s="16" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A16" s="13">
         <v>15</v>
       </c>
-      <c r="B16" s="44"/>
+      <c r="B16" s="48"/>
       <c r="C16" s="6" t="s">
         <v>156</v>
       </c>
@@ -2110,11 +2082,11 @@
         <v>125</v>
       </c>
     </row>
-    <row r="17" spans="1:11" s="16" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" s="16" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A17" s="13">
         <v>16</v>
       </c>
-      <c r="B17" s="44"/>
+      <c r="B17" s="48"/>
       <c r="C17" s="6" t="s">
         <v>159</v>
       </c>
@@ -2136,11 +2108,11 @@
       </c>
       <c r="J17" s="7"/>
     </row>
-    <row r="18" spans="1:11" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="27" x14ac:dyDescent="0.15">
       <c r="A18" s="13">
         <v>17</v>
       </c>
-      <c r="B18" s="44"/>
+      <c r="B18" s="48"/>
       <c r="C18" s="10" t="s">
         <v>148</v>
       </c>
@@ -2163,11 +2135,11 @@
       <c r="J18" s="18"/>
       <c r="K18" s="16"/>
     </row>
-    <row r="19" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="32">
         <v>18</v>
       </c>
-      <c r="B19" s="44"/>
+      <c r="B19" s="48"/>
       <c r="C19" s="10" t="s">
         <v>157</v>
       </c>
@@ -2190,11 +2162,11 @@
       <c r="J19" s="18"/>
       <c r="K19" s="16"/>
     </row>
-    <row r="20" spans="1:11" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="32">
         <v>19</v>
       </c>
-      <c r="B20" s="44"/>
+      <c r="B20" s="48"/>
       <c r="C20" s="10" t="s">
         <v>153</v>
       </c>
@@ -2217,11 +2189,11 @@
       <c r="J20" s="18"/>
       <c r="K20" s="16"/>
     </row>
-    <row r="21" spans="1:11" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A21" s="32">
         <v>20</v>
       </c>
-      <c r="B21" s="44"/>
+      <c r="B21" s="48"/>
       <c r="C21" s="37" t="s">
         <v>171</v>
       </c>
@@ -2244,11 +2216,11 @@
       <c r="J21" s="18"/>
       <c r="K21" s="16"/>
     </row>
-    <row r="22" spans="1:11" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="27" x14ac:dyDescent="0.15">
       <c r="A22" s="32">
         <v>21</v>
       </c>
-      <c r="B22" s="44"/>
+      <c r="B22" s="48"/>
       <c r="C22" s="40" t="s">
         <v>184</v>
       </c>
@@ -2271,11 +2243,11 @@
       <c r="J22" s="18"/>
       <c r="K22" s="16"/>
     </row>
-    <row r="23" spans="1:11" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" ht="27" x14ac:dyDescent="0.15">
       <c r="A23" s="32">
         <v>22</v>
       </c>
-      <c r="B23" s="44"/>
+      <c r="B23" s="48"/>
       <c r="C23" s="40" t="s">
         <v>185</v>
       </c>
@@ -2298,11 +2270,11 @@
       <c r="J23" s="18"/>
       <c r="K23" s="16"/>
     </row>
-    <row r="24" spans="1:11" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" ht="27" x14ac:dyDescent="0.15">
       <c r="A24" s="32">
         <v>23</v>
       </c>
-      <c r="B24" s="44"/>
+      <c r="B24" s="48"/>
       <c r="C24" s="10" t="s">
         <v>154</v>
       </c>
@@ -2325,11 +2297,11 @@
       <c r="J24" s="18"/>
       <c r="K24" s="16"/>
     </row>
-    <row r="25" spans="1:11" s="28" customFormat="1" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" s="28" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A25" s="32">
         <v>24</v>
       </c>
-      <c r="B25" s="44"/>
+      <c r="B25" s="48"/>
       <c r="C25" s="30" t="s">
         <v>176</v>
       </c>
@@ -2352,11 +2324,11 @@
       <c r="J25" s="36"/>
       <c r="K25" s="34"/>
     </row>
-    <row r="26" spans="1:11" s="28" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" s="28" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A26" s="32">
         <v>25</v>
       </c>
-      <c r="B26" s="44"/>
+      <c r="B26" s="48"/>
       <c r="C26" s="6" t="s">
         <v>177</v>
       </c>
@@ -2379,11 +2351,11 @@
       <c r="J26" s="36"/>
       <c r="K26" s="34"/>
     </row>
-    <row r="27" spans="1:11" s="34" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" s="34" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A27" s="32">
         <v>26</v>
       </c>
-      <c r="B27" s="44"/>
+      <c r="B27" s="48"/>
       <c r="C27" s="6" t="s">
         <v>180</v>
       </c>
@@ -2405,11 +2377,11 @@
       </c>
       <c r="J27" s="29"/>
     </row>
-    <row r="28" spans="1:11" s="34" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" s="34" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A28" s="32">
         <v>27</v>
       </c>
-      <c r="B28" s="45"/>
+      <c r="B28" s="49"/>
       <c r="C28" s="6" t="s">
         <v>181</v>
       </c>
@@ -2431,11 +2403,11 @@
       </c>
       <c r="J28" s="29"/>
     </row>
-    <row r="29" spans="1:11" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="32">
         <v>28</v>
       </c>
-      <c r="B29" s="43" t="s">
+      <c r="B29" s="47" t="s">
         <v>12</v>
       </c>
       <c r="C29" s="4" t="s">
@@ -2459,11 +2431,11 @@
       </c>
       <c r="J29" s="12"/>
     </row>
-    <row r="30" spans="1:11" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="32">
         <v>29</v>
       </c>
-      <c r="B30" s="44"/>
+      <c r="B30" s="48"/>
       <c r="C30" s="4" t="s">
         <v>17</v>
       </c>
@@ -2485,11 +2457,11 @@
       </c>
       <c r="J30" s="12"/>
     </row>
-    <row r="31" spans="1:11" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" ht="27" x14ac:dyDescent="0.15">
       <c r="A31" s="32">
         <v>30</v>
       </c>
-      <c r="B31" s="44"/>
+      <c r="B31" s="48"/>
       <c r="C31" s="4" t="s">
         <v>18</v>
       </c>
@@ -2511,11 +2483,11 @@
       </c>
       <c r="J31" s="12"/>
     </row>
-    <row r="32" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="32">
         <v>31</v>
       </c>
-      <c r="B32" s="44"/>
+      <c r="B32" s="48"/>
       <c r="C32" s="4" t="s">
         <v>106</v>
       </c>
@@ -2537,11 +2509,11 @@
       </c>
       <c r="J32" s="12"/>
     </row>
-    <row r="33" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A33" s="32">
         <v>32</v>
       </c>
-      <c r="B33" s="44"/>
+      <c r="B33" s="48"/>
       <c r="C33" s="4" t="s">
         <v>55</v>
       </c>
@@ -2563,11 +2535,11 @@
       </c>
       <c r="J33" s="12"/>
     </row>
-    <row r="34" spans="1:10" s="26" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" s="26" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A34" s="32">
         <v>33</v>
       </c>
-      <c r="B34" s="44"/>
+      <c r="B34" s="48"/>
       <c r="C34" s="4" t="s">
         <v>164</v>
       </c>
@@ -2589,11 +2561,11 @@
       </c>
       <c r="J34" s="11"/>
     </row>
-    <row r="35" spans="1:10" s="26" customFormat="1" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" s="26" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A35" s="32">
         <v>34</v>
       </c>
-      <c r="B35" s="44"/>
+      <c r="B35" s="48"/>
       <c r="C35" s="4" t="s">
         <v>179</v>
       </c>
@@ -2615,11 +2587,11 @@
       </c>
       <c r="J35" s="11"/>
     </row>
-    <row r="36" spans="1:10" s="26" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" s="26" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A36" s="32">
         <v>35</v>
       </c>
-      <c r="B36" s="44"/>
+      <c r="B36" s="48"/>
       <c r="C36" s="4" t="s">
         <v>166</v>
       </c>
@@ -2641,11 +2613,11 @@
       </c>
       <c r="J36" s="11"/>
     </row>
-    <row r="37" spans="1:10" s="26" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" s="26" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A37" s="32">
         <v>36</v>
       </c>
-      <c r="B37" s="45"/>
+      <c r="B37" s="49"/>
       <c r="C37" s="4" t="s">
         <v>165</v>
       </c>
@@ -2661,11 +2633,11 @@
       <c r="I37" s="11"/>
       <c r="J37" s="11"/>
     </row>
-    <row r="38" spans="1:10" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A38" s="32">
         <v>37</v>
       </c>
-      <c r="B38" s="46" t="s">
+      <c r="B38" s="43" t="s">
         <v>19</v>
       </c>
       <c r="C38" s="4" t="s">
@@ -2691,11 +2663,11 @@
         <v>60</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A39" s="32">
         <v>38</v>
       </c>
-      <c r="B39" s="46"/>
+      <c r="B39" s="43"/>
       <c r="C39" s="4" t="s">
         <v>21</v>
       </c>
@@ -2717,11 +2689,11 @@
       </c>
       <c r="J39" s="12"/>
     </row>
-    <row r="40" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A40" s="32">
         <v>39</v>
       </c>
-      <c r="B40" s="46"/>
+      <c r="B40" s="43"/>
       <c r="C40" s="4" t="s">
         <v>71</v>
       </c>
@@ -2743,11 +2715,11 @@
       </c>
       <c r="J40" s="12"/>
     </row>
-    <row r="41" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="32">
         <v>40</v>
       </c>
-      <c r="B41" s="46"/>
+      <c r="B41" s="43"/>
       <c r="C41" s="4" t="s">
         <v>90</v>
       </c>
@@ -2769,11 +2741,11 @@
       </c>
       <c r="J41" s="12"/>
     </row>
-    <row r="42" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A42" s="32">
         <v>41</v>
       </c>
-      <c r="B42" s="46"/>
+      <c r="B42" s="43"/>
       <c r="C42" s="4" t="s">
         <v>89</v>
       </c>
@@ -2795,11 +2767,11 @@
       </c>
       <c r="J42" s="12"/>
     </row>
-    <row r="43" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="32">
         <v>42</v>
       </c>
-      <c r="B43" s="46"/>
+      <c r="B43" s="43"/>
       <c r="C43" s="4" t="s">
         <v>94</v>
       </c>
@@ -2821,11 +2793,11 @@
       </c>
       <c r="J43" s="12"/>
     </row>
-    <row r="44" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A44" s="32">
         <v>43</v>
       </c>
-      <c r="B44" s="46"/>
+      <c r="B44" s="43"/>
       <c r="C44" s="4" t="s">
         <v>96</v>
       </c>
@@ -2847,11 +2819,11 @@
       </c>
       <c r="J44" s="12"/>
     </row>
-    <row r="45" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A45" s="32">
         <v>44</v>
       </c>
-      <c r="B45" s="46"/>
+      <c r="B45" s="43"/>
       <c r="C45" s="4" t="s">
         <v>152</v>
       </c>
@@ -2875,11 +2847,11 @@
       </c>
       <c r="J45" s="12"/>
     </row>
-    <row r="46" spans="1:10" s="16" customFormat="1" ht="57.6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" s="16" customFormat="1" ht="54" x14ac:dyDescent="0.15">
       <c r="A46" s="32">
         <v>45</v>
       </c>
-      <c r="B46" s="46"/>
+      <c r="B46" s="43"/>
       <c r="C46" s="6" t="s">
         <v>137</v>
       </c>
@@ -2901,11 +2873,11 @@
       </c>
       <c r="J46" s="7"/>
     </row>
-    <row r="47" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="32">
         <v>46</v>
       </c>
-      <c r="B47" s="46"/>
+      <c r="B47" s="43"/>
       <c r="C47" s="4" t="s">
         <v>22</v>
       </c>
@@ -2927,11 +2899,11 @@
       </c>
       <c r="J47" s="12"/>
     </row>
-    <row r="48" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="32">
         <v>47</v>
       </c>
-      <c r="B48" s="46" t="s">
+      <c r="B48" s="43" t="s">
         <v>23</v>
       </c>
       <c r="C48" s="4" t="s">
@@ -2955,11 +2927,11 @@
       </c>
       <c r="J48" s="12"/>
     </row>
-    <row r="49" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A49" s="32">
         <v>48</v>
       </c>
-      <c r="B49" s="46"/>
+      <c r="B49" s="43"/>
       <c r="C49" s="4" t="s">
         <v>92</v>
       </c>
@@ -2983,11 +2955,11 @@
       </c>
       <c r="J49" s="12"/>
     </row>
-    <row r="50" spans="1:10" s="16" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" s="16" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="32">
         <v>49</v>
       </c>
-      <c r="B50" s="46"/>
+      <c r="B50" s="43"/>
       <c r="C50" s="6" t="s">
         <v>91</v>
       </c>
@@ -3009,11 +2981,11 @@
       </c>
       <c r="J50" s="7"/>
     </row>
-    <row r="51" spans="1:10" s="16" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" s="16" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="32">
         <v>50</v>
       </c>
-      <c r="B51" s="46"/>
+      <c r="B51" s="43"/>
       <c r="C51" s="6" t="s">
         <v>149</v>
       </c>
@@ -3035,11 +3007,11 @@
       </c>
       <c r="J51" s="7"/>
     </row>
-    <row r="52" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="32">
         <v>51</v>
       </c>
-      <c r="B52" s="46"/>
+      <c r="B52" s="43"/>
       <c r="C52" s="4" t="s">
         <v>25</v>
       </c>
@@ -3061,11 +3033,11 @@
       </c>
       <c r="J52" s="12"/>
     </row>
-    <row r="53" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="32">
         <v>52</v>
       </c>
-      <c r="B53" s="46" t="s">
+      <c r="B53" s="43" t="s">
         <v>26</v>
       </c>
       <c r="C53" s="4" t="s">
@@ -3089,11 +3061,11 @@
       </c>
       <c r="J53" s="12"/>
     </row>
-    <row r="54" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="32">
         <v>53</v>
       </c>
-      <c r="B54" s="46"/>
+      <c r="B54" s="43"/>
       <c r="C54" s="4" t="s">
         <v>28</v>
       </c>
@@ -3115,11 +3087,11 @@
       </c>
       <c r="J54" s="12"/>
     </row>
-    <row r="55" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="32">
         <v>54</v>
       </c>
-      <c r="B55" s="46" t="s">
+      <c r="B55" s="43" t="s">
         <v>29</v>
       </c>
       <c r="C55" s="4" t="s">
@@ -3143,11 +3115,11 @@
       </c>
       <c r="J55" s="12"/>
     </row>
-    <row r="56" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A56" s="32">
         <v>55</v>
       </c>
-      <c r="B56" s="46"/>
+      <c r="B56" s="43"/>
       <c r="C56" s="4" t="s">
         <v>62</v>
       </c>
@@ -3169,11 +3141,11 @@
       </c>
       <c r="J56" s="12"/>
     </row>
-    <row r="57" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="32">
         <v>56</v>
       </c>
-      <c r="B57" s="46"/>
+      <c r="B57" s="43"/>
       <c r="C57" s="4" t="s">
         <v>63</v>
       </c>
@@ -3195,11 +3167,11 @@
       </c>
       <c r="J57" s="12"/>
     </row>
-    <row r="58" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="32">
         <v>57</v>
       </c>
-      <c r="B58" s="46"/>
+      <c r="B58" s="43"/>
       <c r="C58" s="4" t="s">
         <v>72</v>
       </c>
@@ -3221,9 +3193,9 @@
       </c>
       <c r="J58" s="12"/>
     </row>
-    <row r="59" spans="1:10" s="28" customFormat="1" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" s="28" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A59" s="32"/>
-      <c r="B59" s="46"/>
+      <c r="B59" s="43"/>
       <c r="C59" s="4" t="s">
         <v>198</v>
       </c>
@@ -3239,11 +3211,11 @@
       <c r="I59" s="12"/>
       <c r="J59" s="12"/>
     </row>
-    <row r="60" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="32">
         <v>58</v>
       </c>
-      <c r="B60" s="46"/>
+      <c r="B60" s="43"/>
       <c r="C60" s="4" t="s">
         <v>61</v>
       </c>
@@ -3265,11 +3237,11 @@
       </c>
       <c r="J60" s="12"/>
     </row>
-    <row r="61" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="32">
         <v>59</v>
       </c>
-      <c r="B61" s="46" t="s">
+      <c r="B61" s="43" t="s">
         <v>31</v>
       </c>
       <c r="C61" s="4" t="s">
@@ -3293,9 +3265,9 @@
       </c>
       <c r="J61" s="12"/>
     </row>
-    <row r="62" spans="1:10" s="28" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" s="28" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="32"/>
-      <c r="B62" s="46"/>
+      <c r="B62" s="43"/>
       <c r="C62" s="4" t="s">
         <v>194</v>
       </c>
@@ -3311,11 +3283,11 @@
       <c r="I62" s="12"/>
       <c r="J62" s="12"/>
     </row>
-    <row r="63" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="32">
         <v>60</v>
       </c>
-      <c r="B63" s="46"/>
+      <c r="B63" s="43"/>
       <c r="C63" s="4" t="s">
         <v>64</v>
       </c>
@@ -3337,11 +3309,11 @@
       </c>
       <c r="J63" s="12"/>
     </row>
-    <row r="64" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="32">
         <v>61</v>
       </c>
-      <c r="B64" s="43" t="s">
+      <c r="B64" s="47" t="s">
         <v>33</v>
       </c>
       <c r="C64" s="4" t="s">
@@ -3365,11 +3337,11 @@
       </c>
       <c r="J64" s="12"/>
     </row>
-    <row r="65" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="32">
         <v>62</v>
       </c>
-      <c r="B65" s="44"/>
+      <c r="B65" s="48"/>
       <c r="C65" s="4" t="s">
         <v>35</v>
       </c>
@@ -3391,9 +3363,9 @@
       </c>
       <c r="J65" s="12"/>
     </row>
-    <row r="66" spans="1:10" s="28" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" s="28" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="32"/>
-      <c r="B66" s="44"/>
+      <c r="B66" s="48"/>
       <c r="C66" s="4" t="s">
         <v>196</v>
       </c>
@@ -3409,9 +3381,9 @@
       <c r="I66" s="12"/>
       <c r="J66" s="12"/>
     </row>
-    <row r="67" spans="1:10" s="28" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" s="28" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="32"/>
-      <c r="B67" s="44"/>
+      <c r="B67" s="48"/>
       <c r="C67" s="4"/>
       <c r="D67" s="12"/>
       <c r="E67" s="14"/>
@@ -3421,9 +3393,9 @@
       <c r="I67" s="12"/>
       <c r="J67" s="12"/>
     </row>
-    <row r="68" spans="1:10" s="28" customFormat="1" ht="57.6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" s="28" customFormat="1" ht="54" x14ac:dyDescent="0.15">
       <c r="A68" s="32"/>
-      <c r="B68" s="44"/>
+      <c r="B68" s="48"/>
       <c r="C68" s="4" t="s">
         <v>195</v>
       </c>
@@ -3439,9 +3411,9 @@
       <c r="I68" s="12"/>
       <c r="J68" s="12"/>
     </row>
-    <row r="69" spans="1:10" s="28" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" s="28" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A69" s="32"/>
-      <c r="B69" s="44"/>
+      <c r="B69" s="48"/>
       <c r="C69" s="4" t="s">
         <v>197</v>
       </c>
@@ -3457,11 +3429,11 @@
       <c r="I69" s="12"/>
       <c r="J69" s="12"/>
     </row>
-    <row r="70" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A70" s="32">
         <v>63</v>
       </c>
-      <c r="B70" s="44"/>
+      <c r="B70" s="48"/>
       <c r="C70" s="4" t="s">
         <v>155</v>
       </c>
@@ -3477,11 +3449,11 @@
       <c r="I70" s="12"/>
       <c r="J70" s="12"/>
     </row>
-    <row r="71" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="32">
         <v>64</v>
       </c>
-      <c r="B71" s="44"/>
+      <c r="B71" s="48"/>
       <c r="C71" s="4" t="s">
         <v>36</v>
       </c>
@@ -3499,11 +3471,11 @@
         <v>85</v>
       </c>
     </row>
-    <row r="72" spans="1:10" s="26" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" s="26" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A72" s="32">
         <v>65</v>
       </c>
-      <c r="B72" s="45"/>
+      <c r="B72" s="49"/>
       <c r="C72" s="4" t="s">
         <v>168</v>
       </c>
@@ -3519,11 +3491,11 @@
       <c r="I72" s="11"/>
       <c r="J72" s="11"/>
     </row>
-    <row r="73" spans="1:10" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A73" s="32">
         <v>66</v>
       </c>
-      <c r="B73" s="46" t="s">
+      <c r="B73" s="43" t="s">
         <v>209</v>
       </c>
       <c r="C73" s="4" t="s">
@@ -3547,11 +3519,11 @@
       </c>
       <c r="J73" s="12"/>
     </row>
-    <row r="74" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="32">
         <v>67</v>
       </c>
-      <c r="B74" s="46"/>
+      <c r="B74" s="43"/>
       <c r="C74" s="4" t="s">
         <v>105</v>
       </c>
@@ -3573,11 +3545,11 @@
       </c>
       <c r="J74" s="12"/>
     </row>
-    <row r="75" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="32">
         <v>68</v>
       </c>
-      <c r="B75" s="46"/>
+      <c r="B75" s="43"/>
       <c r="C75" s="4" t="s">
         <v>210</v>
       </c>
@@ -3593,9 +3565,9 @@
       <c r="I75" s="12"/>
       <c r="J75" s="12"/>
     </row>
-    <row r="76" spans="1:10" s="28" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" s="28" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="32"/>
-      <c r="B76" s="46"/>
+      <c r="B76" s="43"/>
       <c r="C76" s="4" t="s">
         <v>212</v>
       </c>
@@ -3607,11 +3579,11 @@
       <c r="I76" s="12"/>
       <c r="J76" s="12"/>
     </row>
-    <row r="77" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A77" s="32">
         <v>69</v>
       </c>
-      <c r="B77" s="46"/>
+      <c r="B77" s="43"/>
       <c r="C77" s="4" t="s">
         <v>151</v>
       </c>
@@ -3627,9 +3599,9 @@
       <c r="I77" s="12"/>
       <c r="J77" s="12"/>
     </row>
-    <row r="78" spans="1:10" s="28" customFormat="1" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" s="28" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A78" s="32"/>
-      <c r="B78" s="46"/>
+      <c r="B78" s="43"/>
       <c r="C78" s="4" t="s">
         <v>211</v>
       </c>
@@ -3645,11 +3617,11 @@
       <c r="I78" s="12"/>
       <c r="J78" s="12"/>
     </row>
-    <row r="79" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="32">
         <v>70</v>
       </c>
-      <c r="B79" s="46"/>
+      <c r="B79" s="43"/>
       <c r="C79" s="4" t="s">
         <v>37</v>
       </c>
@@ -3671,11 +3643,11 @@
       </c>
       <c r="J79" s="12"/>
     </row>
-    <row r="80" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A80" s="32">
         <v>71</v>
       </c>
-      <c r="B80" s="46" t="s">
+      <c r="B80" s="43" t="s">
         <v>39</v>
       </c>
       <c r="C80" s="4" t="s">
@@ -3701,9 +3673,9 @@
         <v>85</v>
       </c>
     </row>
-    <row r="81" spans="1:10" s="28" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" s="28" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A81" s="32"/>
-      <c r="B81" s="46"/>
+      <c r="B81" s="43"/>
       <c r="C81" s="4" t="s">
         <v>217</v>
       </c>
@@ -3719,9 +3691,9 @@
       <c r="I81" s="12"/>
       <c r="J81" s="12"/>
     </row>
-    <row r="82" spans="1:10" s="28" customFormat="1" ht="25.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" s="28" customFormat="1" ht="25.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="32"/>
-      <c r="B82" s="46"/>
+      <c r="B82" s="43"/>
       <c r="C82" s="4" t="s">
         <v>216</v>
       </c>
@@ -3737,11 +3709,11 @@
       <c r="I82" s="12"/>
       <c r="J82" s="12"/>
     </row>
-    <row r="83" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="32">
         <v>72</v>
       </c>
-      <c r="B83" s="46"/>
+      <c r="B83" s="43"/>
       <c r="C83" s="4" t="s">
         <v>105</v>
       </c>
@@ -3763,11 +3735,11 @@
       </c>
       <c r="J83" s="12"/>
     </row>
-    <row r="84" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="32">
         <v>73</v>
       </c>
-      <c r="B84" s="46"/>
+      <c r="B84" s="43"/>
       <c r="C84" s="4" t="s">
         <v>37</v>
       </c>
@@ -3789,11 +3761,11 @@
       </c>
       <c r="J84" s="12"/>
     </row>
-    <row r="85" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A85" s="32">
         <v>74</v>
       </c>
-      <c r="B85" s="46" t="s">
+      <c r="B85" s="43" t="s">
         <v>41</v>
       </c>
       <c r="C85" s="4" t="s">
@@ -3817,9 +3789,9 @@
       </c>
       <c r="J85" s="12"/>
     </row>
-    <row r="86" spans="1:10" s="28" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" s="28" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A86" s="32"/>
-      <c r="B86" s="46"/>
+      <c r="B86" s="43"/>
       <c r="C86" s="4" t="s">
         <v>218</v>
       </c>
@@ -3835,9 +3807,9 @@
       <c r="I86" s="12"/>
       <c r="J86" s="12"/>
     </row>
-    <row r="87" spans="1:10" s="28" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" s="28" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A87" s="32"/>
-      <c r="B87" s="46"/>
+      <c r="B87" s="43"/>
       <c r="C87" s="4" t="s">
         <v>219</v>
       </c>
@@ -3853,11 +3825,11 @@
       <c r="I87" s="12"/>
       <c r="J87" s="12"/>
     </row>
-    <row r="88" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="32">
         <v>75</v>
       </c>
-      <c r="B88" s="46"/>
+      <c r="B88" s="43"/>
       <c r="C88" s="4" t="s">
         <v>105</v>
       </c>
@@ -3879,11 +3851,11 @@
       </c>
       <c r="J88" s="12"/>
     </row>
-    <row r="89" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="32">
         <v>76</v>
       </c>
-      <c r="B89" s="46"/>
+      <c r="B89" s="43"/>
       <c r="C89" s="4" t="s">
         <v>37</v>
       </c>
@@ -3905,11 +3877,11 @@
       </c>
       <c r="J89" s="12"/>
     </row>
-    <row r="90" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A90" s="32">
         <v>77</v>
       </c>
-      <c r="B90" s="46" t="s">
+      <c r="B90" s="43" t="s">
         <v>43</v>
       </c>
       <c r="C90" s="4" t="s">
@@ -3927,9 +3899,9 @@
       <c r="I90" s="12"/>
       <c r="J90" s="12"/>
     </row>
-    <row r="91" spans="1:10" s="28" customFormat="1" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" s="28" customFormat="1" ht="28.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="32"/>
-      <c r="B91" s="46"/>
+      <c r="B91" s="43"/>
       <c r="C91" s="4" t="s">
         <v>223</v>
       </c>
@@ -3951,11 +3923,11 @@
       </c>
       <c r="J91" s="12"/>
     </row>
-    <row r="92" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A92" s="32">
         <v>78</v>
       </c>
-      <c r="B92" s="46"/>
+      <c r="B92" s="43"/>
       <c r="C92" s="4" t="s">
         <v>126</v>
       </c>
@@ -3977,9 +3949,9 @@
       </c>
       <c r="J92" s="12"/>
     </row>
-    <row r="93" spans="1:10" s="28" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" s="28" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A93" s="32"/>
-      <c r="B93" s="46"/>
+      <c r="B93" s="43"/>
       <c r="C93" s="4" t="s">
         <v>225</v>
       </c>
@@ -3995,9 +3967,9 @@
       <c r="I93" s="12"/>
       <c r="J93" s="12"/>
     </row>
-    <row r="94" spans="1:10" s="28" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" s="28" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="32"/>
-      <c r="B94" s="46"/>
+      <c r="B94" s="43"/>
       <c r="C94" s="4" t="s">
         <v>224</v>
       </c>
@@ -4019,9 +3991,9 @@
       </c>
       <c r="J94" s="12"/>
     </row>
-    <row r="95" spans="1:10" s="28" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" s="28" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="32"/>
-      <c r="B95" s="46"/>
+      <c r="B95" s="43"/>
       <c r="C95" s="4" t="s">
         <v>229</v>
       </c>
@@ -4037,9 +4009,9 @@
       <c r="I95" s="12"/>
       <c r="J95" s="12"/>
     </row>
-    <row r="96" spans="1:10" s="28" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" s="28" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="32"/>
-      <c r="B96" s="46"/>
+      <c r="B96" s="43"/>
       <c r="C96" s="4" t="s">
         <v>231</v>
       </c>
@@ -4055,9 +4027,9 @@
       <c r="I96" s="12"/>
       <c r="J96" s="12"/>
     </row>
-    <row r="97" spans="1:10" s="28" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" s="28" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A97" s="32"/>
-      <c r="B97" s="46"/>
+      <c r="B97" s="43"/>
       <c r="C97" s="4" t="s">
         <v>222</v>
       </c>
@@ -4073,9 +4045,9 @@
       <c r="I97" s="12"/>
       <c r="J97" s="12"/>
     </row>
-    <row r="98" spans="1:10" s="28" customFormat="1" ht="25.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" s="28" customFormat="1" ht="25.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="32"/>
-      <c r="B98" s="46"/>
+      <c r="B98" s="43"/>
       <c r="C98" s="4" t="s">
         <v>221</v>
       </c>
@@ -4097,11 +4069,11 @@
       </c>
       <c r="J98" s="12"/>
     </row>
-    <row r="99" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="32">
         <v>79</v>
       </c>
-      <c r="B99" s="46"/>
+      <c r="B99" s="43"/>
       <c r="C99" s="4" t="s">
         <v>45</v>
       </c>
@@ -4117,11 +4089,11 @@
       <c r="I99" s="12"/>
       <c r="J99" s="12"/>
     </row>
-    <row r="100" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="32">
         <v>80</v>
       </c>
-      <c r="B100" s="46" t="s">
+      <c r="B100" s="43" t="s">
         <v>44</v>
       </c>
       <c r="C100" s="4" t="s">
@@ -4145,9 +4117,9 @@
       </c>
       <c r="J100" s="12"/>
     </row>
-    <row r="101" spans="1:10" s="28" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" s="28" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="32"/>
-      <c r="B101" s="46"/>
+      <c r="B101" s="43"/>
       <c r="C101" s="4" t="s">
         <v>228</v>
       </c>
@@ -4163,23 +4135,23 @@
       <c r="I101" s="12"/>
       <c r="J101" s="12"/>
     </row>
-    <row r="102" spans="1:10" s="28" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" s="28" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="32"/>
-      <c r="B102" s="46"/>
+      <c r="B102" s="43"/>
       <c r="C102" s="42" t="s">
         <v>232</v>
       </c>
-      <c r="D102" s="12"/>
-      <c r="E102" s="14"/>
+      <c r="D102" s="51"/>
+      <c r="E102" s="52"/>
       <c r="F102" s="12"/>
       <c r="G102" s="12"/>
       <c r="H102" s="14"/>
       <c r="I102" s="12"/>
       <c r="J102" s="12"/>
     </row>
-    <row r="103" spans="1:10" s="28" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" s="28" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="32"/>
-      <c r="B103" s="46"/>
+      <c r="B103" s="43"/>
       <c r="C103" s="4" t="s">
         <v>220</v>
       </c>
@@ -4201,9 +4173,9 @@
       </c>
       <c r="J103" s="12"/>
     </row>
-    <row r="104" spans="1:10" s="28" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" s="28" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="32"/>
-      <c r="B104" s="46"/>
+      <c r="B104" s="43"/>
       <c r="C104" s="4" t="s">
         <v>227</v>
       </c>
@@ -4225,11 +4197,11 @@
       </c>
       <c r="J104" s="12"/>
     </row>
-    <row r="105" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A105" s="32">
         <v>81</v>
       </c>
-      <c r="B105" s="46"/>
+      <c r="B105" s="43"/>
       <c r="C105" s="4" t="s">
         <v>136</v>
       </c>
@@ -4251,11 +4223,11 @@
       </c>
       <c r="J105" s="12"/>
     </row>
-    <row r="106" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="32">
         <v>82</v>
       </c>
-      <c r="B106" s="43" t="s">
+      <c r="B106" s="47" t="s">
         <v>65</v>
       </c>
       <c r="C106" s="4" t="s">
@@ -4281,9 +4253,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="107" spans="1:10" s="28" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" s="28" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="32"/>
-      <c r="B107" s="44"/>
+      <c r="B107" s="48"/>
       <c r="C107" s="4" t="s">
         <v>187</v>
       </c>
@@ -4305,9 +4277,9 @@
       </c>
       <c r="J107" s="12"/>
     </row>
-    <row r="108" spans="1:10" s="28" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" s="28" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="32"/>
-      <c r="B108" s="45"/>
+      <c r="B108" s="49"/>
       <c r="C108" s="4" t="s">
         <v>186</v>
       </c>
@@ -4329,11 +4301,11 @@
       </c>
       <c r="J108" s="12"/>
     </row>
-    <row r="109" spans="1:10" s="20" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" s="20" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" s="32">
         <v>83</v>
       </c>
-      <c r="B109" s="47" t="s">
+      <c r="B109" s="50" t="s">
         <v>67</v>
       </c>
       <c r="C109" s="8" t="s">
@@ -4357,11 +4329,11 @@
       </c>
       <c r="J109" s="9"/>
     </row>
-    <row r="110" spans="1:10" s="20" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" s="20" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A110" s="32">
         <v>84</v>
       </c>
-      <c r="B110" s="47"/>
+      <c r="B110" s="50"/>
       <c r="C110" s="8" t="s">
         <v>95</v>
       </c>
@@ -4377,11 +4349,11 @@
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
     </row>
-    <row r="111" spans="1:10" s="20" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" s="20" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="32">
         <v>85</v>
       </c>
-      <c r="B111" s="47"/>
+      <c r="B111" s="50"/>
       <c r="C111" s="8" t="s">
         <v>190</v>
       </c>
@@ -4397,11 +4369,11 @@
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
     </row>
-    <row r="112" spans="1:10" s="20" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" s="20" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="32">
         <v>86</v>
       </c>
-      <c r="B112" s="47"/>
+      <c r="B112" s="50"/>
       <c r="C112" s="8" t="s">
         <v>189</v>
       </c>
@@ -4417,9 +4389,9 @@
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
     </row>
-    <row r="113" spans="1:10" s="20" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:10" s="20" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A113" s="32"/>
-      <c r="B113" s="47"/>
+      <c r="B113" s="50"/>
       <c r="C113" s="8" t="s">
         <v>191</v>
       </c>
@@ -4435,9 +4407,9 @@
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
     </row>
-    <row r="114" spans="1:10" s="20" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:10" s="20" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" s="32"/>
-      <c r="B114" s="47"/>
+      <c r="B114" s="50"/>
       <c r="C114" s="8" t="s">
         <v>192</v>
       </c>
@@ -4453,9 +4425,9 @@
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
     </row>
-    <row r="115" spans="1:10" s="20" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10" s="20" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A115" s="32"/>
-      <c r="B115" s="47"/>
+      <c r="B115" s="50"/>
       <c r="C115" s="8" t="s">
         <v>193</v>
       </c>
@@ -4471,9 +4443,9 @@
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
     </row>
-    <row r="116" spans="1:10" s="20" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:10" s="20" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A116" s="32"/>
-      <c r="B116" s="47"/>
+      <c r="B116" s="50"/>
       <c r="C116" s="8" t="s">
         <v>215</v>
       </c>
@@ -4489,11 +4461,11 @@
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
     </row>
-    <row r="117" spans="1:10" s="20" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:10" s="20" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A117" s="32">
         <v>87</v>
       </c>
-      <c r="B117" s="47"/>
+      <c r="B117" s="50"/>
       <c r="C117" s="8" t="s">
         <v>188</v>
       </c>
@@ -4509,11 +4481,11 @@
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
     </row>
-    <row r="118" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A118" s="32">
         <v>88</v>
       </c>
-      <c r="B118" s="46" t="s">
+      <c r="B118" s="43" t="s">
         <v>87</v>
       </c>
       <c r="C118" s="4" t="s">
@@ -4537,11 +4509,11 @@
       </c>
       <c r="J118" s="12"/>
     </row>
-    <row r="119" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A119" s="32">
         <v>89</v>
       </c>
-      <c r="B119" s="46"/>
+      <c r="B119" s="43"/>
       <c r="C119" s="4" t="s">
         <v>93</v>
       </c>
@@ -4563,11 +4535,11 @@
       </c>
       <c r="J119" s="12"/>
     </row>
-    <row r="120" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A120" s="32">
         <v>90</v>
       </c>
-      <c r="B120" s="43" t="s">
+      <c r="B120" s="47" t="s">
         <v>97</v>
       </c>
       <c r="C120" s="4" t="s">
@@ -4591,9 +4563,9 @@
       </c>
       <c r="J120" s="12"/>
     </row>
-    <row r="121" spans="1:10" s="28" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:10" s="28" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A121" s="32"/>
-      <c r="B121" s="44"/>
+      <c r="B121" s="48"/>
       <c r="C121" s="4" t="s">
         <v>208</v>
       </c>
@@ -4609,9 +4581,9 @@
       <c r="I121" s="12"/>
       <c r="J121" s="12"/>
     </row>
-    <row r="122" spans="1:10" s="28" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:10" s="28" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A122" s="32"/>
-      <c r="B122" s="44"/>
+      <c r="B122" s="48"/>
       <c r="C122" s="4" t="s">
         <v>202</v>
       </c>
@@ -4627,9 +4599,9 @@
       <c r="I122" s="12"/>
       <c r="J122" s="12"/>
     </row>
-    <row r="123" spans="1:10" s="28" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:10" s="28" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A123" s="32"/>
-      <c r="B123" s="44"/>
+      <c r="B123" s="48"/>
       <c r="C123" s="4" t="s">
         <v>203</v>
       </c>
@@ -4645,9 +4617,9 @@
       <c r="I123" s="12"/>
       <c r="J123" s="12"/>
     </row>
-    <row r="124" spans="1:10" s="28" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:10" s="28" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A124" s="32"/>
-      <c r="B124" s="44"/>
+      <c r="B124" s="48"/>
       <c r="C124" s="4" t="s">
         <v>207</v>
       </c>
@@ -4663,9 +4635,9 @@
       <c r="I124" s="12"/>
       <c r="J124" s="12"/>
     </row>
-    <row r="125" spans="1:10" s="28" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:10" s="28" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A125" s="32"/>
-      <c r="B125" s="44"/>
+      <c r="B125" s="48"/>
       <c r="C125" s="4" t="s">
         <v>206</v>
       </c>
@@ -4677,11 +4649,11 @@
       <c r="I125" s="12"/>
       <c r="J125" s="12"/>
     </row>
-    <row r="126" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A126" s="32">
         <v>91</v>
       </c>
-      <c r="B126" s="45"/>
+      <c r="B126" s="49"/>
       <c r="C126" s="4" t="s">
         <v>205</v>
       </c>
@@ -4697,11 +4669,11 @@
       <c r="I126" s="12"/>
       <c r="J126" s="12"/>
     </row>
-    <row r="127" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A127" s="32">
         <v>92</v>
       </c>
-      <c r="B127" s="46" t="s">
+      <c r="B127" s="43" t="s">
         <v>99</v>
       </c>
       <c r="C127" s="4" t="s">
@@ -4725,11 +4697,11 @@
       </c>
       <c r="J127" s="12"/>
     </row>
-    <row r="128" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A128" s="32">
         <v>93</v>
       </c>
-      <c r="B128" s="46"/>
+      <c r="B128" s="43"/>
       <c r="C128" s="4" t="s">
         <v>104</v>
       </c>
@@ -4751,11 +4723,11 @@
       </c>
       <c r="J128" s="12"/>
     </row>
-    <row r="129" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A129" s="32">
         <v>94</v>
       </c>
-      <c r="B129" s="46"/>
+      <c r="B129" s="43"/>
       <c r="C129" s="4" t="s">
         <v>101</v>
       </c>
@@ -4777,7 +4749,7 @@
       </c>
       <c r="J129" s="12"/>
     </row>
-    <row r="130" spans="1:10" s="28" customFormat="1" ht="40.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:10" s="28" customFormat="1" ht="40.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A130" s="32"/>
       <c r="B130" s="41" t="s">
         <v>201</v>
@@ -4797,11 +4769,11 @@
       <c r="I130" s="12"/>
       <c r="J130" s="12"/>
     </row>
-    <row r="131" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A131" s="32">
         <v>95</v>
       </c>
-      <c r="B131" s="43" t="s">
+      <c r="B131" s="47" t="s">
         <v>111</v>
       </c>
       <c r="C131" s="4" t="s">
@@ -4825,9 +4797,9 @@
       </c>
       <c r="J131" s="12"/>
     </row>
-    <row r="132" spans="1:10" s="28" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:10" s="28" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A132" s="32"/>
-      <c r="B132" s="44"/>
+      <c r="B132" s="48"/>
       <c r="C132" s="4" t="s">
         <v>214</v>
       </c>
@@ -4843,11 +4815,11 @@
       <c r="I132" s="12"/>
       <c r="J132" s="12"/>
     </row>
-    <row r="133" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A133" s="32">
         <v>96</v>
       </c>
-      <c r="B133" s="44"/>
+      <c r="B133" s="48"/>
       <c r="C133" s="4" t="s">
         <v>213</v>
       </c>
@@ -4863,11 +4835,11 @@
       <c r="I133" s="12"/>
       <c r="J133" s="12"/>
     </row>
-    <row r="134" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A134" s="32">
         <v>97</v>
       </c>
-      <c r="B134" s="44"/>
+      <c r="B134" s="48"/>
       <c r="C134" s="4" t="s">
         <v>150</v>
       </c>
@@ -4883,25 +4855,25 @@
       <c r="I134" s="12"/>
       <c r="J134" s="12"/>
     </row>
-    <row r="135" spans="1:10" s="28" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="48" t="s">
+    <row r="135" spans="1:10" s="28" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A135" s="44" t="s">
         <v>199</v>
       </c>
-      <c r="B135" s="49"/>
-      <c r="C135" s="49"/>
-      <c r="D135" s="49"/>
-      <c r="E135" s="49"/>
-      <c r="F135" s="49"/>
-      <c r="G135" s="49"/>
-      <c r="H135" s="49"/>
-      <c r="I135" s="49"/>
-      <c r="J135" s="50"/>
-    </row>
-    <row r="136" spans="1:10" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="B135" s="45"/>
+      <c r="C135" s="45"/>
+      <c r="D135" s="45"/>
+      <c r="E135" s="45"/>
+      <c r="F135" s="45"/>
+      <c r="G135" s="45"/>
+      <c r="H135" s="45"/>
+      <c r="I135" s="45"/>
+      <c r="J135" s="46"/>
+    </row>
+    <row r="136" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A136" s="32">
         <v>98</v>
       </c>
-      <c r="B136" s="46" t="s">
+      <c r="B136" s="43" t="s">
         <v>113</v>
       </c>
       <c r="C136" s="4" t="s">
@@ -4925,11 +4897,11 @@
       </c>
       <c r="J136" s="12"/>
     </row>
-    <row r="137" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A137" s="32">
         <v>99</v>
       </c>
-      <c r="B137" s="46"/>
+      <c r="B137" s="43"/>
       <c r="C137" s="4" t="s">
         <v>116</v>
       </c>
@@ -4951,11 +4923,11 @@
       </c>
       <c r="J137" s="12"/>
     </row>
-    <row r="138" spans="1:10" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A138" s="32">
         <v>100</v>
       </c>
-      <c r="B138" s="46" t="s">
+      <c r="B138" s="43" t="s">
         <v>114</v>
       </c>
       <c r="C138" s="4" t="s">
@@ -4979,11 +4951,11 @@
       </c>
       <c r="J138" s="12"/>
     </row>
-    <row r="139" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A139" s="32">
         <v>101</v>
       </c>
-      <c r="B139" s="46"/>
+      <c r="B139" s="43"/>
       <c r="C139" s="4" t="s">
         <v>117</v>
       </c>
@@ -5005,11 +4977,11 @@
       </c>
       <c r="J139" s="12"/>
     </row>
-    <row r="140" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A140" s="32">
         <v>102</v>
       </c>
-      <c r="B140" s="43" t="s">
+      <c r="B140" s="47" t="s">
         <v>118</v>
       </c>
       <c r="C140" s="4" t="s">
@@ -5033,11 +5005,11 @@
       </c>
       <c r="J140" s="12"/>
     </row>
-    <row r="141" spans="1:10" s="26" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:10" s="26" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A141" s="32">
         <v>103</v>
       </c>
-      <c r="B141" s="45"/>
+      <c r="B141" s="49"/>
       <c r="C141" s="4" t="s">
         <v>169</v>
       </c>
@@ -5053,7 +5025,7 @@
       <c r="I141" s="11"/>
       <c r="J141" s="11"/>
     </row>
-    <row r="142" spans="1:10" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:10" ht="42" x14ac:dyDescent="0.15">
       <c r="A142" s="32">
         <v>104</v>
       </c>
@@ -5081,11 +5053,11 @@
       </c>
       <c r="J142" s="12"/>
     </row>
-    <row r="143" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A143" s="32">
         <v>105</v>
       </c>
-      <c r="B143" s="43" t="s">
+      <c r="B143" s="47" t="s">
         <v>132</v>
       </c>
       <c r="C143" s="4" t="s">
@@ -5109,11 +5081,11 @@
       </c>
       <c r="J143" s="12"/>
     </row>
-    <row r="144" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A144" s="32">
         <v>106</v>
       </c>
-      <c r="B144" s="44"/>
+      <c r="B144" s="48"/>
       <c r="C144" s="4" t="s">
         <v>135</v>
       </c>
@@ -5135,11 +5107,11 @@
       </c>
       <c r="J144" s="12"/>
     </row>
-    <row r="145" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A145" s="32">
         <v>107</v>
       </c>
-      <c r="B145" s="45"/>
+      <c r="B145" s="49"/>
       <c r="C145" s="4" t="s">
         <v>139</v>
       </c>
@@ -5161,7 +5133,7 @@
       </c>
       <c r="J145" s="12"/>
     </row>
-    <row r="146" spans="1:10" s="26" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:10" s="26" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A146" s="32">
         <v>108</v>
       </c>
@@ -5183,7 +5155,7 @@
       <c r="I146" s="11"/>
       <c r="J146" s="11"/>
     </row>
-    <row r="147" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A147" s="32">
         <v>109</v>
       </c>
@@ -5205,7 +5177,7 @@
       <c r="I147" s="12"/>
       <c r="J147" s="12"/>
     </row>
-    <row r="148" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A148" s="12"/>
       <c r="B148" s="22"/>
       <c r="C148" s="4"/>
@@ -5217,7 +5189,7 @@
       <c r="I148" s="12"/>
       <c r="J148" s="12"/>
     </row>
-    <row r="149" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A149" s="12"/>
       <c r="B149" s="22"/>
       <c r="C149" s="4"/>
@@ -5229,7 +5201,7 @@
       <c r="I149" s="12"/>
       <c r="J149" s="12"/>
     </row>
-    <row r="150" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A150" s="12"/>
       <c r="B150" s="22"/>
       <c r="C150" s="4"/>
@@ -5241,7 +5213,7 @@
       <c r="I150" s="12"/>
       <c r="J150" s="12"/>
     </row>
-    <row r="151" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A151" s="12"/>
       <c r="B151" s="22"/>
       <c r="C151" s="4"/>
@@ -5253,7 +5225,7 @@
       <c r="I151" s="12"/>
       <c r="J151" s="12"/>
     </row>
-    <row r="152" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A152" s="12"/>
       <c r="B152" s="22"/>
       <c r="C152" s="4"/>
@@ -5265,7 +5237,7 @@
       <c r="I152" s="12"/>
       <c r="J152" s="12"/>
     </row>
-    <row r="153" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A153" s="12"/>
       <c r="B153" s="22"/>
       <c r="C153" s="4"/>
@@ -5277,7 +5249,7 @@
       <c r="I153" s="12"/>
       <c r="J153" s="12"/>
     </row>
-    <row r="154" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A154" s="12"/>
       <c r="B154" s="22"/>
       <c r="C154" s="4"/>
@@ -5289,7 +5261,7 @@
       <c r="I154" s="12"/>
       <c r="J154" s="12"/>
     </row>
-    <row r="155" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A155" s="12"/>
       <c r="B155" s="22"/>
       <c r="C155" s="4"/>
@@ -5301,7 +5273,7 @@
       <c r="I155" s="12"/>
       <c r="J155" s="12"/>
     </row>
-    <row r="156" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A156" s="12"/>
       <c r="B156" s="22"/>
       <c r="C156" s="4"/>
@@ -5313,7 +5285,7 @@
       <c r="I156" s="12"/>
       <c r="J156" s="12"/>
     </row>
-    <row r="157" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A157" s="12"/>
       <c r="B157" s="22"/>
       <c r="C157" s="4"/>
@@ -5325,7 +5297,7 @@
       <c r="I157" s="12"/>
       <c r="J157" s="12"/>
     </row>
-    <row r="158" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A158" s="12"/>
       <c r="B158" s="22"/>
       <c r="C158" s="4"/>
@@ -5337,7 +5309,7 @@
       <c r="I158" s="12"/>
       <c r="J158" s="12"/>
     </row>
-    <row r="159" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A159" s="12"/>
       <c r="B159" s="22"/>
       <c r="C159" s="4"/>
@@ -5349,7 +5321,7 @@
       <c r="I159" s="12"/>
       <c r="J159" s="12"/>
     </row>
-    <row r="160" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A160" s="12"/>
       <c r="B160" s="22"/>
       <c r="C160" s="4"/>
@@ -5361,7 +5333,7 @@
       <c r="I160" s="12"/>
       <c r="J160" s="12"/>
     </row>
-    <row r="161" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A161" s="12"/>
       <c r="B161" s="22"/>
       <c r="C161" s="4"/>
@@ -5373,7 +5345,7 @@
       <c r="I161" s="12"/>
       <c r="J161" s="12"/>
     </row>
-    <row r="162" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A162" s="12"/>
       <c r="B162" s="22"/>
       <c r="C162" s="4"/>
@@ -5385,7 +5357,7 @@
       <c r="I162" s="12"/>
       <c r="J162" s="12"/>
     </row>
-    <row r="163" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A163" s="12"/>
       <c r="B163" s="22"/>
       <c r="C163" s="4"/>
@@ -5397,7 +5369,7 @@
       <c r="I163" s="12"/>
       <c r="J163" s="12"/>
     </row>
-    <row r="164" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A164" s="12"/>
       <c r="B164" s="22"/>
       <c r="C164" s="4"/>
@@ -5409,7 +5381,7 @@
       <c r="I164" s="12"/>
       <c r="J164" s="12"/>
     </row>
-    <row r="165" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A165" s="12"/>
       <c r="B165" s="22"/>
       <c r="C165" s="4"/>
@@ -5421,7 +5393,7 @@
       <c r="I165" s="12"/>
       <c r="J165" s="12"/>
     </row>
-    <row r="166" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A166" s="12"/>
       <c r="B166" s="22"/>
       <c r="C166" s="4"/>
@@ -5433,7 +5405,7 @@
       <c r="I166" s="12"/>
       <c r="J166" s="12"/>
     </row>
-    <row r="167" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A167" s="12"/>
       <c r="B167" s="22"/>
       <c r="C167" s="4"/>
@@ -5445,7 +5417,7 @@
       <c r="I167" s="12"/>
       <c r="J167" s="12"/>
     </row>
-    <row r="168" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A168" s="12"/>
       <c r="B168" s="22"/>
       <c r="C168" s="4"/>
@@ -5457,7 +5429,7 @@
       <c r="I168" s="12"/>
       <c r="J168" s="12"/>
     </row>
-    <row r="169" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A169" s="12"/>
       <c r="B169" s="22"/>
       <c r="C169" s="4"/>
@@ -5469,7 +5441,7 @@
       <c r="I169" s="12"/>
       <c r="J169" s="12"/>
     </row>
-    <row r="170" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A170" s="12"/>
       <c r="B170" s="22"/>
       <c r="C170" s="4"/>
@@ -5481,7 +5453,7 @@
       <c r="I170" s="12"/>
       <c r="J170" s="12"/>
     </row>
-    <row r="171" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A171" s="12"/>
       <c r="B171" s="22"/>
       <c r="C171" s="4"/>
@@ -5493,7 +5465,7 @@
       <c r="I171" s="12"/>
       <c r="J171" s="12"/>
     </row>
-    <row r="172" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A172" s="12"/>
       <c r="B172" s="22"/>
       <c r="C172" s="4"/>
@@ -5505,7 +5477,7 @@
       <c r="I172" s="12"/>
       <c r="J172" s="12"/>
     </row>
-    <row r="173" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A173" s="12"/>
       <c r="B173" s="22"/>
       <c r="C173" s="4"/>
@@ -5517,7 +5489,7 @@
       <c r="I173" s="12"/>
       <c r="J173" s="12"/>
     </row>
-    <row r="174" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A174" s="12"/>
       <c r="B174" s="22"/>
       <c r="C174" s="4"/>
@@ -5529,7 +5501,7 @@
       <c r="I174" s="12"/>
       <c r="J174" s="12"/>
     </row>
-    <row r="175" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A175" s="12"/>
       <c r="B175" s="22"/>
       <c r="C175" s="4"/>
@@ -5541,7 +5513,7 @@
       <c r="I175" s="12"/>
       <c r="J175" s="12"/>
     </row>
-    <row r="176" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A176" s="12"/>
       <c r="B176" s="22"/>
       <c r="C176" s="4"/>
@@ -5553,7 +5525,7 @@
       <c r="I176" s="12"/>
       <c r="J176" s="12"/>
     </row>
-    <row r="177" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A177" s="12"/>
       <c r="B177" s="22"/>
       <c r="C177" s="4"/>
@@ -5565,7 +5537,7 @@
       <c r="I177" s="12"/>
       <c r="J177" s="12"/>
     </row>
-    <row r="178" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A178" s="12"/>
       <c r="B178" s="22"/>
       <c r="C178" s="4"/>
@@ -5577,7 +5549,7 @@
       <c r="I178" s="12"/>
       <c r="J178" s="12"/>
     </row>
-    <row r="179" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A179" s="12"/>
       <c r="B179" s="22"/>
       <c r="C179" s="4"/>
@@ -5589,7 +5561,7 @@
       <c r="I179" s="12"/>
       <c r="J179" s="12"/>
     </row>
-    <row r="180" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A180" s="12"/>
       <c r="B180" s="22"/>
       <c r="C180" s="4"/>
@@ -5601,7 +5573,7 @@
       <c r="I180" s="12"/>
       <c r="J180" s="12"/>
     </row>
-    <row r="181" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A181" s="12"/>
       <c r="B181" s="22"/>
       <c r="C181" s="4"/>
@@ -5613,7 +5585,7 @@
       <c r="I181" s="12"/>
       <c r="J181" s="12"/>
     </row>
-    <row r="182" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A182" s="12"/>
       <c r="B182" s="22"/>
       <c r="C182" s="4"/>
@@ -5625,7 +5597,7 @@
       <c r="I182" s="12"/>
       <c r="J182" s="12"/>
     </row>
-    <row r="183" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A183" s="12"/>
       <c r="B183" s="22"/>
       <c r="C183" s="4"/>
@@ -5637,7 +5609,7 @@
       <c r="I183" s="12"/>
       <c r="J183" s="12"/>
     </row>
-    <row r="184" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A184" s="12"/>
       <c r="B184" s="22"/>
       <c r="C184" s="4"/>
@@ -5649,7 +5621,7 @@
       <c r="I184" s="12"/>
       <c r="J184" s="12"/>
     </row>
-    <row r="185" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A185" s="12"/>
       <c r="B185" s="22"/>
       <c r="C185" s="4"/>
@@ -5661,7 +5633,7 @@
       <c r="I185" s="12"/>
       <c r="J185" s="12"/>
     </row>
-    <row r="186" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A186" s="12"/>
       <c r="B186" s="22"/>
       <c r="C186" s="4"/>
@@ -5673,7 +5645,7 @@
       <c r="I186" s="12"/>
       <c r="J186" s="12"/>
     </row>
-    <row r="187" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A187" s="12"/>
       <c r="B187" s="22"/>
       <c r="C187" s="4"/>
@@ -5685,7 +5657,7 @@
       <c r="I187" s="12"/>
       <c r="J187" s="12"/>
     </row>
-    <row r="188" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A188" s="12"/>
       <c r="B188" s="22"/>
       <c r="C188" s="4"/>
@@ -5697,7 +5669,7 @@
       <c r="I188" s="12"/>
       <c r="J188" s="12"/>
     </row>
-    <row r="189" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A189" s="12"/>
       <c r="B189" s="22"/>
       <c r="C189" s="4"/>
@@ -5709,7 +5681,7 @@
       <c r="I189" s="12"/>
       <c r="J189" s="12"/>
     </row>
-    <row r="190" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A190" s="12"/>
       <c r="B190" s="22"/>
       <c r="C190" s="4"/>
@@ -5721,7 +5693,7 @@
       <c r="I190" s="12"/>
       <c r="J190" s="12"/>
     </row>
-    <row r="191" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A191" s="12"/>
       <c r="B191" s="22"/>
       <c r="C191" s="4"/>
@@ -5733,7 +5705,7 @@
       <c r="I191" s="12"/>
       <c r="J191" s="12"/>
     </row>
-    <row r="192" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A192" s="12"/>
       <c r="B192" s="22"/>
       <c r="C192" s="4"/>
@@ -5745,7 +5717,7 @@
       <c r="I192" s="12"/>
       <c r="J192" s="12"/>
     </row>
-    <row r="193" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A193" s="12"/>
       <c r="B193" s="22"/>
       <c r="C193" s="4"/>
@@ -5757,7 +5729,7 @@
       <c r="I193" s="12"/>
       <c r="J193" s="12"/>
     </row>
-    <row r="194" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A194" s="12"/>
       <c r="B194" s="22"/>
       <c r="C194" s="4"/>
@@ -5769,7 +5741,7 @@
       <c r="I194" s="12"/>
       <c r="J194" s="12"/>
     </row>
-    <row r="195" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A195" s="12"/>
       <c r="B195" s="22"/>
       <c r="C195" s="4"/>
@@ -5781,7 +5753,7 @@
       <c r="I195" s="12"/>
       <c r="J195" s="12"/>
     </row>
-    <row r="196" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A196" s="12"/>
       <c r="B196" s="22"/>
       <c r="C196" s="4"/>
@@ -5793,7 +5765,7 @@
       <c r="I196" s="12"/>
       <c r="J196" s="12"/>
     </row>
-    <row r="197" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A197" s="12"/>
       <c r="B197" s="22"/>
       <c r="C197" s="4"/>
@@ -5805,7 +5777,7 @@
       <c r="I197" s="12"/>
       <c r="J197" s="12"/>
     </row>
-    <row r="198" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A198" s="12"/>
       <c r="B198" s="22"/>
       <c r="C198" s="4"/>
@@ -5817,7 +5789,7 @@
       <c r="I198" s="12"/>
       <c r="J198" s="12"/>
     </row>
-    <row r="199" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A199" s="12"/>
       <c r="B199" s="22"/>
       <c r="C199" s="4"/>
@@ -5829,7 +5801,7 @@
       <c r="I199" s="12"/>
       <c r="J199" s="12"/>
     </row>
-    <row r="200" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A200" s="12"/>
       <c r="B200" s="22"/>
       <c r="C200" s="4"/>
@@ -5841,7 +5813,7 @@
       <c r="I200" s="12"/>
       <c r="J200" s="12"/>
     </row>
-    <row r="201" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A201" s="12"/>
       <c r="B201" s="22"/>
       <c r="C201" s="4"/>
@@ -5853,7 +5825,7 @@
       <c r="I201" s="12"/>
       <c r="J201" s="12"/>
     </row>
-    <row r="202" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A202" s="12"/>
       <c r="B202" s="22"/>
       <c r="C202" s="4"/>
@@ -5865,7 +5837,7 @@
       <c r="I202" s="12"/>
       <c r="J202" s="12"/>
     </row>
-    <row r="203" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A203" s="12"/>
       <c r="B203" s="22"/>
       <c r="C203" s="4"/>
@@ -5877,7 +5849,7 @@
       <c r="I203" s="12"/>
       <c r="J203" s="12"/>
     </row>
-    <row r="204" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A204" s="12"/>
       <c r="B204" s="22"/>
       <c r="C204" s="4"/>
@@ -5889,7 +5861,7 @@
       <c r="I204" s="12"/>
       <c r="J204" s="12"/>
     </row>
-    <row r="205" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A205" s="12"/>
       <c r="B205" s="22"/>
       <c r="C205" s="4"/>
@@ -5901,7 +5873,7 @@
       <c r="I205" s="12"/>
       <c r="J205" s="12"/>
     </row>
-    <row r="206" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A206" s="12"/>
       <c r="B206" s="22"/>
       <c r="C206" s="4"/>
@@ -5913,7 +5885,7 @@
       <c r="I206" s="12"/>
       <c r="J206" s="12"/>
     </row>
-    <row r="207" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A207" s="12"/>
       <c r="B207" s="22"/>
       <c r="C207" s="4"/>
@@ -5925,7 +5897,7 @@
       <c r="I207" s="12"/>
       <c r="J207" s="12"/>
     </row>
-    <row r="208" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A208" s="12"/>
       <c r="B208" s="22"/>
       <c r="C208" s="4"/>
@@ -5937,7 +5909,7 @@
       <c r="I208" s="12"/>
       <c r="J208" s="12"/>
     </row>
-    <row r="209" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A209" s="12"/>
       <c r="B209" s="22"/>
       <c r="C209" s="4"/>
@@ -5949,7 +5921,7 @@
       <c r="I209" s="12"/>
       <c r="J209" s="12"/>
     </row>
-    <row r="210" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A210" s="12"/>
       <c r="B210" s="22"/>
       <c r="C210" s="4"/>
@@ -5961,7 +5933,7 @@
       <c r="I210" s="12"/>
       <c r="J210" s="12"/>
     </row>
-    <row r="211" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A211" s="12"/>
       <c r="B211" s="22"/>
       <c r="C211" s="4"/>
@@ -5973,7 +5945,7 @@
       <c r="I211" s="12"/>
       <c r="J211" s="12"/>
     </row>
-    <row r="212" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A212" s="12"/>
       <c r="B212" s="22"/>
       <c r="C212" s="4"/>
@@ -5985,7 +5957,7 @@
       <c r="I212" s="12"/>
       <c r="J212" s="12"/>
     </row>
-    <row r="213" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A213" s="12"/>
       <c r="B213" s="22"/>
       <c r="C213" s="4"/>
@@ -5997,7 +5969,7 @@
       <c r="I213" s="12"/>
       <c r="J213" s="12"/>
     </row>
-    <row r="214" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A214" s="12"/>
       <c r="B214" s="22"/>
       <c r="C214" s="4"/>
@@ -6009,7 +5981,7 @@
       <c r="I214" s="12"/>
       <c r="J214" s="12"/>
     </row>
-    <row r="215" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A215" s="12"/>
       <c r="B215" s="22"/>
       <c r="C215" s="4"/>
@@ -6021,7 +5993,7 @@
       <c r="I215" s="12"/>
       <c r="J215" s="12"/>
     </row>
-    <row r="216" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A216" s="12"/>
       <c r="B216" s="22"/>
       <c r="C216" s="4"/>
@@ -6033,7 +6005,7 @@
       <c r="I216" s="12"/>
       <c r="J216" s="12"/>
     </row>
-    <row r="217" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A217" s="12"/>
       <c r="B217" s="22"/>
       <c r="C217" s="4"/>
@@ -6045,7 +6017,7 @@
       <c r="I217" s="12"/>
       <c r="J217" s="12"/>
     </row>
-    <row r="218" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A218" s="12"/>
       <c r="B218" s="22"/>
       <c r="C218" s="4"/>
@@ -6057,7 +6029,7 @@
       <c r="I218" s="12"/>
       <c r="J218" s="12"/>
     </row>
-    <row r="219" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A219" s="12"/>
       <c r="B219" s="22"/>
       <c r="C219" s="4"/>
@@ -6069,7 +6041,7 @@
       <c r="I219" s="12"/>
       <c r="J219" s="12"/>
     </row>
-    <row r="220" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A220" s="12"/>
       <c r="B220" s="22"/>
       <c r="C220" s="4"/>
@@ -6081,7 +6053,7 @@
       <c r="I220" s="12"/>
       <c r="J220" s="12"/>
     </row>
-    <row r="221" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A221" s="12"/>
       <c r="B221" s="22"/>
       <c r="C221" s="4"/>
@@ -6093,7 +6065,7 @@
       <c r="I221" s="12"/>
       <c r="J221" s="12"/>
     </row>
-    <row r="222" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A222" s="12"/>
       <c r="B222" s="22"/>
       <c r="C222" s="4"/>
@@ -6105,7 +6077,7 @@
       <c r="I222" s="12"/>
       <c r="J222" s="12"/>
     </row>
-    <row r="223" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A223" s="12"/>
       <c r="B223" s="22"/>
       <c r="C223" s="4"/>
@@ -6117,7 +6089,7 @@
       <c r="I223" s="12"/>
       <c r="J223" s="12"/>
     </row>
-    <row r="224" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A224" s="12"/>
       <c r="B224" s="22"/>
       <c r="C224" s="4"/>
@@ -6129,7 +6101,7 @@
       <c r="I224" s="12"/>
       <c r="J224" s="12"/>
     </row>
-    <row r="225" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A225" s="12"/>
       <c r="B225" s="22"/>
       <c r="C225" s="4"/>
@@ -6141,7 +6113,7 @@
       <c r="I225" s="12"/>
       <c r="J225" s="12"/>
     </row>
-    <row r="226" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A226" s="12"/>
       <c r="B226" s="22"/>
       <c r="C226" s="4"/>
@@ -6153,7 +6125,7 @@
       <c r="I226" s="12"/>
       <c r="J226" s="12"/>
     </row>
-    <row r="227" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A227" s="12"/>
       <c r="B227" s="22"/>
       <c r="C227" s="4"/>
@@ -6165,7 +6137,7 @@
       <c r="I227" s="12"/>
       <c r="J227" s="12"/>
     </row>
-    <row r="228" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A228" s="12"/>
       <c r="B228" s="22"/>
       <c r="C228" s="4"/>
@@ -6177,7 +6149,7 @@
       <c r="I228" s="12"/>
       <c r="J228" s="12"/>
     </row>
-    <row r="229" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A229" s="12"/>
       <c r="B229" s="22"/>
       <c r="C229" s="4"/>
@@ -6189,7 +6161,7 @@
       <c r="I229" s="12"/>
       <c r="J229" s="12"/>
     </row>
-    <row r="230" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A230" s="12"/>
       <c r="B230" s="22"/>
       <c r="C230" s="4"/>
@@ -6201,7 +6173,7 @@
       <c r="I230" s="12"/>
       <c r="J230" s="12"/>
     </row>
-    <row r="231" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A231" s="12"/>
       <c r="B231" s="22"/>
       <c r="C231" s="4"/>
@@ -6213,7 +6185,7 @@
       <c r="I231" s="12"/>
       <c r="J231" s="12"/>
     </row>
-    <row r="232" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A232" s="12"/>
       <c r="B232" s="22"/>
       <c r="C232" s="4"/>
@@ -6225,7 +6197,7 @@
       <c r="I232" s="12"/>
       <c r="J232" s="12"/>
     </row>
-    <row r="233" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A233" s="12"/>
       <c r="B233" s="22"/>
       <c r="C233" s="4"/>
@@ -6237,7 +6209,7 @@
       <c r="I233" s="12"/>
       <c r="J233" s="12"/>
     </row>
-    <row r="234" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A234" s="12"/>
       <c r="B234" s="22"/>
       <c r="C234" s="4"/>
@@ -6249,7 +6221,7 @@
       <c r="I234" s="12"/>
       <c r="J234" s="12"/>
     </row>
-    <row r="235" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A235" s="12"/>
       <c r="B235" s="22"/>
       <c r="C235" s="4"/>
@@ -6261,7 +6233,7 @@
       <c r="I235" s="12"/>
       <c r="J235" s="12"/>
     </row>
-    <row r="236" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A236" s="12"/>
       <c r="B236" s="22"/>
       <c r="C236" s="4"/>
@@ -6273,7 +6245,7 @@
       <c r="I236" s="12"/>
       <c r="J236" s="12"/>
     </row>
-    <row r="237" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A237" s="12"/>
       <c r="B237" s="22"/>
       <c r="C237" s="4"/>
@@ -6285,7 +6257,7 @@
       <c r="I237" s="12"/>
       <c r="J237" s="12"/>
     </row>
-    <row r="238" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A238" s="12"/>
       <c r="B238" s="22"/>
       <c r="C238" s="4"/>
@@ -6297,7 +6269,7 @@
       <c r="I238" s="12"/>
       <c r="J238" s="12"/>
     </row>
-    <row r="239" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A239" s="12"/>
       <c r="B239" s="22"/>
       <c r="C239" s="4"/>
@@ -6309,7 +6281,7 @@
       <c r="I239" s="12"/>
       <c r="J239" s="12"/>
     </row>
-    <row r="240" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A240" s="12"/>
       <c r="B240" s="22"/>
       <c r="C240" s="4"/>
@@ -6321,7 +6293,7 @@
       <c r="I240" s="12"/>
       <c r="J240" s="12"/>
     </row>
-    <row r="241" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A241" s="12"/>
       <c r="B241" s="22"/>
       <c r="C241" s="4"/>
@@ -6333,7 +6305,7 @@
       <c r="I241" s="12"/>
       <c r="J241" s="12"/>
     </row>
-    <row r="242" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A242" s="12"/>
       <c r="B242" s="22"/>
       <c r="C242" s="4"/>
@@ -6345,7 +6317,7 @@
       <c r="I242" s="12"/>
       <c r="J242" s="12"/>
     </row>
-    <row r="243" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A243" s="12"/>
       <c r="B243" s="22"/>
       <c r="C243" s="4"/>
@@ -6357,7 +6329,7 @@
       <c r="I243" s="12"/>
       <c r="J243" s="12"/>
     </row>
-    <row r="244" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A244" s="12"/>
       <c r="B244" s="22"/>
       <c r="C244" s="4"/>
@@ -6369,7 +6341,7 @@
       <c r="I244" s="12"/>
       <c r="J244" s="12"/>
     </row>
-    <row r="245" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A245" s="12"/>
       <c r="B245" s="22"/>
       <c r="C245" s="4"/>
@@ -6381,7 +6353,7 @@
       <c r="I245" s="12"/>
       <c r="J245" s="12"/>
     </row>
-    <row r="246" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A246" s="12"/>
       <c r="B246" s="22"/>
       <c r="C246" s="4"/>
@@ -6393,7 +6365,7 @@
       <c r="I246" s="12"/>
       <c r="J246" s="12"/>
     </row>
-    <row r="247" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A247" s="12"/>
       <c r="B247" s="22"/>
       <c r="C247" s="4"/>
@@ -6405,7 +6377,7 @@
       <c r="I247" s="12"/>
       <c r="J247" s="12"/>
     </row>
-    <row r="248" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A248" s="12"/>
       <c r="B248" s="22"/>
       <c r="C248" s="4"/>
@@ -6417,7 +6389,7 @@
       <c r="I248" s="12"/>
       <c r="J248" s="12"/>
     </row>
-    <row r="249" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A249" s="12"/>
       <c r="B249" s="22"/>
       <c r="C249" s="4"/>
@@ -6429,7 +6401,7 @@
       <c r="I249" s="12"/>
       <c r="J249" s="12"/>
     </row>
-    <row r="250" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A250" s="12"/>
       <c r="B250" s="22"/>
       <c r="C250" s="4"/>
@@ -6441,7 +6413,7 @@
       <c r="I250" s="12"/>
       <c r="J250" s="12"/>
     </row>
-    <row r="251" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A251" s="12"/>
       <c r="B251" s="22"/>
       <c r="C251" s="4"/>
@@ -6453,7 +6425,7 @@
       <c r="I251" s="12"/>
       <c r="J251" s="12"/>
     </row>
-    <row r="252" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A252" s="12"/>
       <c r="B252" s="22"/>
       <c r="C252" s="4"/>
@@ -6465,7 +6437,7 @@
       <c r="I252" s="12"/>
       <c r="J252" s="12"/>
     </row>
-    <row r="253" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A253" s="12"/>
       <c r="B253" s="22"/>
       <c r="C253" s="4"/>
@@ -6477,7 +6449,7 @@
       <c r="I253" s="12"/>
       <c r="J253" s="12"/>
     </row>
-    <row r="254" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A254" s="12"/>
       <c r="B254" s="22"/>
       <c r="C254" s="4"/>
@@ -6489,7 +6461,7 @@
       <c r="I254" s="12"/>
       <c r="J254" s="12"/>
     </row>
-    <row r="255" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A255" s="12"/>
       <c r="B255" s="22"/>
       <c r="C255" s="4"/>
@@ -6501,7 +6473,7 @@
       <c r="I255" s="12"/>
       <c r="J255" s="12"/>
     </row>
-    <row r="256" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A256" s="12"/>
       <c r="B256" s="22"/>
       <c r="C256" s="4"/>
@@ -6513,7 +6485,7 @@
       <c r="I256" s="12"/>
       <c r="J256" s="12"/>
     </row>
-    <row r="257" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A257" s="12"/>
       <c r="B257" s="22"/>
       <c r="C257" s="4"/>
@@ -6525,7 +6497,7 @@
       <c r="I257" s="12"/>
       <c r="J257" s="12"/>
     </row>
-    <row r="258" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A258" s="12"/>
       <c r="B258" s="22"/>
       <c r="C258" s="4"/>
@@ -6537,7 +6509,7 @@
       <c r="I258" s="12"/>
       <c r="J258" s="12"/>
     </row>
-    <row r="259" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A259" s="12"/>
       <c r="B259" s="22"/>
       <c r="C259" s="4"/>
@@ -6549,7 +6521,7 @@
       <c r="I259" s="12"/>
       <c r="J259" s="12"/>
     </row>
-    <row r="260" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A260" s="12"/>
       <c r="B260" s="22"/>
       <c r="C260" s="4"/>
@@ -6561,7 +6533,7 @@
       <c r="I260" s="12"/>
       <c r="J260" s="12"/>
     </row>
-    <row r="261" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A261" s="12"/>
       <c r="B261" s="22"/>
       <c r="C261" s="4"/>
@@ -6573,7 +6545,7 @@
       <c r="I261" s="12"/>
       <c r="J261" s="12"/>
     </row>
-    <row r="262" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A262" s="12"/>
       <c r="B262" s="22"/>
       <c r="C262" s="4"/>
@@ -6585,7 +6557,7 @@
       <c r="I262" s="12"/>
       <c r="J262" s="12"/>
     </row>
-    <row r="263" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A263" s="12"/>
       <c r="B263" s="22"/>
       <c r="C263" s="4"/>
@@ -6597,7 +6569,7 @@
       <c r="I263" s="12"/>
       <c r="J263" s="12"/>
     </row>
-    <row r="264" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A264" s="12"/>
       <c r="B264" s="22"/>
       <c r="C264" s="4"/>
@@ -6609,7 +6581,7 @@
       <c r="I264" s="12"/>
       <c r="J264" s="12"/>
     </row>
-    <row r="265" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A265" s="12"/>
       <c r="B265" s="22"/>
       <c r="C265" s="4"/>
@@ -6621,7 +6593,7 @@
       <c r="I265" s="12"/>
       <c r="J265" s="12"/>
     </row>
-    <row r="266" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A266" s="12"/>
       <c r="B266" s="22"/>
       <c r="C266" s="4"/>
@@ -6633,7 +6605,7 @@
       <c r="I266" s="12"/>
       <c r="J266" s="12"/>
     </row>
-    <row r="267" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A267" s="12"/>
       <c r="B267" s="22"/>
       <c r="C267" s="4"/>
@@ -6645,7 +6617,7 @@
       <c r="I267" s="12"/>
       <c r="J267" s="12"/>
     </row>
-    <row r="268" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A268" s="12"/>
       <c r="B268" s="22"/>
       <c r="C268" s="4"/>
@@ -6657,7 +6629,7 @@
       <c r="I268" s="12"/>
       <c r="J268" s="12"/>
     </row>
-    <row r="269" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A269" s="12"/>
       <c r="B269" s="22"/>
       <c r="C269" s="4"/>
@@ -6669,7 +6641,7 @@
       <c r="I269" s="12"/>
       <c r="J269" s="12"/>
     </row>
-    <row r="270" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A270" s="12"/>
       <c r="B270" s="22"/>
       <c r="C270" s="4"/>
@@ -6681,7 +6653,7 @@
       <c r="I270" s="12"/>
       <c r="J270" s="12"/>
     </row>
-    <row r="271" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A271" s="12"/>
       <c r="B271" s="22"/>
       <c r="C271" s="4"/>
@@ -6693,7 +6665,7 @@
       <c r="I271" s="12"/>
       <c r="J271" s="12"/>
     </row>
-    <row r="272" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A272" s="12"/>
       <c r="B272" s="22"/>
       <c r="C272" s="4"/>
@@ -6705,7 +6677,7 @@
       <c r="I272" s="12"/>
       <c r="J272" s="12"/>
     </row>
-    <row r="273" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A273" s="12"/>
       <c r="B273" s="22"/>
       <c r="C273" s="4"/>
@@ -6717,7 +6689,7 @@
       <c r="I273" s="12"/>
       <c r="J273" s="12"/>
     </row>
-    <row r="274" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A274" s="12"/>
       <c r="B274" s="22"/>
       <c r="C274" s="4"/>
@@ -6729,7 +6701,7 @@
       <c r="I274" s="12"/>
       <c r="J274" s="12"/>
     </row>
-    <row r="275" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A275" s="12"/>
       <c r="B275" s="22"/>
       <c r="C275" s="4"/>
@@ -6741,7 +6713,7 @@
       <c r="I275" s="12"/>
       <c r="J275" s="12"/>
     </row>
-    <row r="276" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A276" s="12"/>
       <c r="B276" s="22"/>
       <c r="C276" s="4"/>
@@ -6753,7 +6725,7 @@
       <c r="I276" s="12"/>
       <c r="J276" s="12"/>
     </row>
-    <row r="277" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A277" s="12"/>
       <c r="B277" s="22"/>
       <c r="C277" s="4"/>
@@ -6765,7 +6737,7 @@
       <c r="I277" s="12"/>
       <c r="J277" s="12"/>
     </row>
-    <row r="278" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A278" s="12"/>
       <c r="B278" s="22"/>
       <c r="C278" s="4"/>
@@ -6777,7 +6749,7 @@
       <c r="I278" s="12"/>
       <c r="J278" s="12"/>
     </row>
-    <row r="279" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A279" s="12"/>
       <c r="B279" s="22"/>
       <c r="C279" s="4"/>
@@ -6789,7 +6761,7 @@
       <c r="I279" s="12"/>
       <c r="J279" s="12"/>
     </row>
-    <row r="280" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A280" s="12"/>
       <c r="B280" s="22"/>
       <c r="C280" s="4"/>
@@ -6801,7 +6773,7 @@
       <c r="I280" s="12"/>
       <c r="J280" s="12"/>
     </row>
-    <row r="281" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A281" s="12"/>
       <c r="B281" s="22"/>
       <c r="C281" s="4"/>
@@ -6813,7 +6785,7 @@
       <c r="I281" s="12"/>
       <c r="J281" s="12"/>
     </row>
-    <row r="282" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A282" s="12"/>
       <c r="B282" s="22"/>
       <c r="C282" s="4"/>
@@ -6825,7 +6797,7 @@
       <c r="I282" s="12"/>
       <c r="J282" s="12"/>
     </row>
-    <row r="283" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A283" s="12"/>
       <c r="B283" s="22"/>
       <c r="C283" s="4"/>
@@ -6837,7 +6809,7 @@
       <c r="I283" s="12"/>
       <c r="J283" s="12"/>
     </row>
-    <row r="284" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A284" s="12"/>
       <c r="B284" s="22"/>
       <c r="C284" s="4"/>
@@ -6849,7 +6821,7 @@
       <c r="I284" s="12"/>
       <c r="J284" s="12"/>
     </row>
-    <row r="285" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A285" s="12"/>
       <c r="B285" s="22"/>
       <c r="C285" s="4"/>
@@ -6861,7 +6833,7 @@
       <c r="I285" s="12"/>
       <c r="J285" s="12"/>
     </row>
-    <row r="286" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A286" s="12"/>
       <c r="B286" s="22"/>
       <c r="C286" s="4"/>
@@ -6873,7 +6845,7 @@
       <c r="I286" s="12"/>
       <c r="J286" s="12"/>
     </row>
-    <row r="287" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A287" s="12"/>
       <c r="B287" s="22"/>
       <c r="C287" s="4"/>
@@ -6887,14 +6859,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B55:B60"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="B136:B137"/>
-    <mergeCell ref="B38:B47"/>
-    <mergeCell ref="B48:B52"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="A135:J135"/>
-    <mergeCell ref="B106:B108"/>
     <mergeCell ref="B29:B37"/>
     <mergeCell ref="B64:B72"/>
     <mergeCell ref="B2:B28"/>
@@ -6911,6 +6875,14 @@
     <mergeCell ref="B127:B129"/>
     <mergeCell ref="B131:B134"/>
     <mergeCell ref="B140:B141"/>
+    <mergeCell ref="B55:B60"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="B136:B137"/>
+    <mergeCell ref="B38:B47"/>
+    <mergeCell ref="B48:B52"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="A135:J135"/>
+    <mergeCell ref="B106:B108"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I44">

--- a/ProjectManagement/文档/问题点一览.xlsx
+++ b/ProjectManagement/文档/问题点一览.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="235">
   <si>
     <t>NO</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -937,6 +937,14 @@
   </si>
   <si>
     <t>这里是测试github是多人协作。这里再更新一些。仅仅是测试拉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无法更新工作的状态，点击保存时没有反应。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加问题时，保存时出错，提示“未将对象设置到实例”</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1231,16 +1239,10 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1252,13 +1254,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1626,10 +1634,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K287"/>
+  <dimension ref="A1:K289"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="C104" sqref="C104"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="F95" sqref="F95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="22.15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1684,7 +1692,7 @@
       <c r="A2" s="13">
         <v>1</v>
       </c>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="45" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -1712,7 +1720,7 @@
       <c r="A3" s="13">
         <v>2</v>
       </c>
-      <c r="B3" s="48"/>
+      <c r="B3" s="46"/>
       <c r="C3" s="4" t="s">
         <v>51</v>
       </c>
@@ -1738,7 +1746,7 @@
       <c r="A4" s="13">
         <v>3</v>
       </c>
-      <c r="B4" s="48"/>
+      <c r="B4" s="46"/>
       <c r="C4" s="4" t="s">
         <v>52</v>
       </c>
@@ -1764,7 +1772,7 @@
       <c r="A5" s="13">
         <v>4</v>
       </c>
-      <c r="B5" s="48"/>
+      <c r="B5" s="46"/>
       <c r="C5" s="4" t="s">
         <v>13</v>
       </c>
@@ -1790,7 +1798,7 @@
       <c r="A6" s="13">
         <v>5</v>
       </c>
-      <c r="B6" s="48"/>
+      <c r="B6" s="46"/>
       <c r="C6" s="4" t="s">
         <v>53</v>
       </c>
@@ -1816,7 +1824,7 @@
       <c r="A7" s="13">
         <v>6</v>
       </c>
-      <c r="B7" s="48"/>
+      <c r="B7" s="46"/>
       <c r="C7" s="4" t="s">
         <v>16</v>
       </c>
@@ -1842,7 +1850,7 @@
       <c r="A8" s="13">
         <v>7</v>
       </c>
-      <c r="B8" s="48"/>
+      <c r="B8" s="46"/>
       <c r="C8" s="4" t="s">
         <v>14</v>
       </c>
@@ -1868,7 +1876,7 @@
       <c r="A9" s="13">
         <v>8</v>
       </c>
-      <c r="B9" s="48"/>
+      <c r="B9" s="46"/>
       <c r="C9" s="4" t="s">
         <v>17</v>
       </c>
@@ -1894,7 +1902,7 @@
       <c r="A10" s="13">
         <v>9</v>
       </c>
-      <c r="B10" s="48"/>
+      <c r="B10" s="46"/>
       <c r="C10" s="6" t="s">
         <v>163</v>
       </c>
@@ -1927,7 +1935,7 @@
       <c r="A11" s="13">
         <v>10</v>
       </c>
-      <c r="B11" s="48"/>
+      <c r="B11" s="46"/>
       <c r="C11" s="4" t="s">
         <v>48</v>
       </c>
@@ -1953,7 +1961,7 @@
       <c r="A12" s="13">
         <v>11</v>
       </c>
-      <c r="B12" s="48"/>
+      <c r="B12" s="46"/>
       <c r="C12" s="4" t="s">
         <v>107</v>
       </c>
@@ -1979,7 +1987,7 @@
       <c r="A13" s="13">
         <v>12</v>
       </c>
-      <c r="B13" s="48"/>
+      <c r="B13" s="46"/>
       <c r="C13" s="4" t="s">
         <v>110</v>
       </c>
@@ -2005,7 +2013,7 @@
       <c r="A14" s="13">
         <v>13</v>
       </c>
-      <c r="B14" s="48"/>
+      <c r="B14" s="46"/>
       <c r="C14" s="4" t="s">
         <v>109</v>
       </c>
@@ -2031,7 +2039,7 @@
       <c r="A15" s="13">
         <v>14</v>
       </c>
-      <c r="B15" s="48"/>
+      <c r="B15" s="46"/>
       <c r="C15" s="6" t="s">
         <v>138</v>
       </c>
@@ -2057,7 +2065,7 @@
       <c r="A16" s="13">
         <v>15</v>
       </c>
-      <c r="B16" s="48"/>
+      <c r="B16" s="46"/>
       <c r="C16" s="6" t="s">
         <v>156</v>
       </c>
@@ -2086,7 +2094,7 @@
       <c r="A17" s="13">
         <v>16</v>
       </c>
-      <c r="B17" s="48"/>
+      <c r="B17" s="46"/>
       <c r="C17" s="6" t="s">
         <v>159</v>
       </c>
@@ -2112,7 +2120,7 @@
       <c r="A18" s="13">
         <v>17</v>
       </c>
-      <c r="B18" s="48"/>
+      <c r="B18" s="46"/>
       <c r="C18" s="10" t="s">
         <v>148</v>
       </c>
@@ -2139,7 +2147,7 @@
       <c r="A19" s="32">
         <v>18</v>
       </c>
-      <c r="B19" s="48"/>
+      <c r="B19" s="46"/>
       <c r="C19" s="10" t="s">
         <v>157</v>
       </c>
@@ -2166,7 +2174,7 @@
       <c r="A20" s="32">
         <v>19</v>
       </c>
-      <c r="B20" s="48"/>
+      <c r="B20" s="46"/>
       <c r="C20" s="10" t="s">
         <v>153</v>
       </c>
@@ -2193,7 +2201,7 @@
       <c r="A21" s="32">
         <v>20</v>
       </c>
-      <c r="B21" s="48"/>
+      <c r="B21" s="46"/>
       <c r="C21" s="37" t="s">
         <v>171</v>
       </c>
@@ -2220,7 +2228,7 @@
       <c r="A22" s="32">
         <v>21</v>
       </c>
-      <c r="B22" s="48"/>
+      <c r="B22" s="46"/>
       <c r="C22" s="40" t="s">
         <v>184</v>
       </c>
@@ -2247,7 +2255,7 @@
       <c r="A23" s="32">
         <v>22</v>
       </c>
-      <c r="B23" s="48"/>
+      <c r="B23" s="46"/>
       <c r="C23" s="40" t="s">
         <v>185</v>
       </c>
@@ -2274,7 +2282,7 @@
       <c r="A24" s="32">
         <v>23</v>
       </c>
-      <c r="B24" s="48"/>
+      <c r="B24" s="46"/>
       <c r="C24" s="10" t="s">
         <v>154</v>
       </c>
@@ -2301,7 +2309,7 @@
       <c r="A25" s="32">
         <v>24</v>
       </c>
-      <c r="B25" s="48"/>
+      <c r="B25" s="46"/>
       <c r="C25" s="30" t="s">
         <v>176</v>
       </c>
@@ -2328,7 +2336,7 @@
       <c r="A26" s="32">
         <v>25</v>
       </c>
-      <c r="B26" s="48"/>
+      <c r="B26" s="46"/>
       <c r="C26" s="6" t="s">
         <v>177</v>
       </c>
@@ -2355,7 +2363,7 @@
       <c r="A27" s="32">
         <v>26</v>
       </c>
-      <c r="B27" s="48"/>
+      <c r="B27" s="46"/>
       <c r="C27" s="6" t="s">
         <v>180</v>
       </c>
@@ -2381,7 +2389,7 @@
       <c r="A28" s="32">
         <v>27</v>
       </c>
-      <c r="B28" s="49"/>
+      <c r="B28" s="47"/>
       <c r="C28" s="6" t="s">
         <v>181</v>
       </c>
@@ -2407,7 +2415,7 @@
       <c r="A29" s="32">
         <v>28</v>
       </c>
-      <c r="B29" s="47" t="s">
+      <c r="B29" s="45" t="s">
         <v>12</v>
       </c>
       <c r="C29" s="4" t="s">
@@ -2435,7 +2443,7 @@
       <c r="A30" s="32">
         <v>29</v>
       </c>
-      <c r="B30" s="48"/>
+      <c r="B30" s="46"/>
       <c r="C30" s="4" t="s">
         <v>17</v>
       </c>
@@ -2461,7 +2469,7 @@
       <c r="A31" s="32">
         <v>30</v>
       </c>
-      <c r="B31" s="48"/>
+      <c r="B31" s="46"/>
       <c r="C31" s="4" t="s">
         <v>18</v>
       </c>
@@ -2487,7 +2495,7 @@
       <c r="A32" s="32">
         <v>31</v>
       </c>
-      <c r="B32" s="48"/>
+      <c r="B32" s="46"/>
       <c r="C32" s="4" t="s">
         <v>106</v>
       </c>
@@ -2513,7 +2521,7 @@
       <c r="A33" s="32">
         <v>32</v>
       </c>
-      <c r="B33" s="48"/>
+      <c r="B33" s="46"/>
       <c r="C33" s="4" t="s">
         <v>55</v>
       </c>
@@ -2539,7 +2547,7 @@
       <c r="A34" s="32">
         <v>33</v>
       </c>
-      <c r="B34" s="48"/>
+      <c r="B34" s="46"/>
       <c r="C34" s="4" t="s">
         <v>164</v>
       </c>
@@ -2565,7 +2573,7 @@
       <c r="A35" s="32">
         <v>34</v>
       </c>
-      <c r="B35" s="48"/>
+      <c r="B35" s="46"/>
       <c r="C35" s="4" t="s">
         <v>179</v>
       </c>
@@ -2591,7 +2599,7 @@
       <c r="A36" s="32">
         <v>35</v>
       </c>
-      <c r="B36" s="48"/>
+      <c r="B36" s="46"/>
       <c r="C36" s="4" t="s">
         <v>166</v>
       </c>
@@ -2617,7 +2625,7 @@
       <c r="A37" s="32">
         <v>36</v>
       </c>
-      <c r="B37" s="49"/>
+      <c r="B37" s="47"/>
       <c r="C37" s="4" t="s">
         <v>165</v>
       </c>
@@ -2637,7 +2645,7 @@
       <c r="A38" s="32">
         <v>37</v>
       </c>
-      <c r="B38" s="43" t="s">
+      <c r="B38" s="48" t="s">
         <v>19</v>
       </c>
       <c r="C38" s="4" t="s">
@@ -2667,7 +2675,7 @@
       <c r="A39" s="32">
         <v>38</v>
       </c>
-      <c r="B39" s="43"/>
+      <c r="B39" s="48"/>
       <c r="C39" s="4" t="s">
         <v>21</v>
       </c>
@@ -2693,7 +2701,7 @@
       <c r="A40" s="32">
         <v>39</v>
       </c>
-      <c r="B40" s="43"/>
+      <c r="B40" s="48"/>
       <c r="C40" s="4" t="s">
         <v>71</v>
       </c>
@@ -2719,7 +2727,7 @@
       <c r="A41" s="32">
         <v>40</v>
       </c>
-      <c r="B41" s="43"/>
+      <c r="B41" s="48"/>
       <c r="C41" s="4" t="s">
         <v>90</v>
       </c>
@@ -2745,7 +2753,7 @@
       <c r="A42" s="32">
         <v>41</v>
       </c>
-      <c r="B42" s="43"/>
+      <c r="B42" s="48"/>
       <c r="C42" s="4" t="s">
         <v>89</v>
       </c>
@@ -2771,7 +2779,7 @@
       <c r="A43" s="32">
         <v>42</v>
       </c>
-      <c r="B43" s="43"/>
+      <c r="B43" s="48"/>
       <c r="C43" s="4" t="s">
         <v>94</v>
       </c>
@@ -2797,7 +2805,7 @@
       <c r="A44" s="32">
         <v>43</v>
       </c>
-      <c r="B44" s="43"/>
+      <c r="B44" s="48"/>
       <c r="C44" s="4" t="s">
         <v>96</v>
       </c>
@@ -2823,7 +2831,7 @@
       <c r="A45" s="32">
         <v>44</v>
       </c>
-      <c r="B45" s="43"/>
+      <c r="B45" s="48"/>
       <c r="C45" s="4" t="s">
         <v>152</v>
       </c>
@@ -2851,7 +2859,7 @@
       <c r="A46" s="32">
         <v>45</v>
       </c>
-      <c r="B46" s="43"/>
+      <c r="B46" s="48"/>
       <c r="C46" s="6" t="s">
         <v>137</v>
       </c>
@@ -2877,7 +2885,7 @@
       <c r="A47" s="32">
         <v>46</v>
       </c>
-      <c r="B47" s="43"/>
+      <c r="B47" s="48"/>
       <c r="C47" s="4" t="s">
         <v>22</v>
       </c>
@@ -2903,7 +2911,7 @@
       <c r="A48" s="32">
         <v>47</v>
       </c>
-      <c r="B48" s="43" t="s">
+      <c r="B48" s="48" t="s">
         <v>23</v>
       </c>
       <c r="C48" s="4" t="s">
@@ -2931,7 +2939,7 @@
       <c r="A49" s="32">
         <v>48</v>
       </c>
-      <c r="B49" s="43"/>
+      <c r="B49" s="48"/>
       <c r="C49" s="4" t="s">
         <v>92</v>
       </c>
@@ -2959,7 +2967,7 @@
       <c r="A50" s="32">
         <v>49</v>
       </c>
-      <c r="B50" s="43"/>
+      <c r="B50" s="48"/>
       <c r="C50" s="6" t="s">
         <v>91</v>
       </c>
@@ -2985,7 +2993,7 @@
       <c r="A51" s="32">
         <v>50</v>
       </c>
-      <c r="B51" s="43"/>
+      <c r="B51" s="48"/>
       <c r="C51" s="6" t="s">
         <v>149</v>
       </c>
@@ -3011,7 +3019,7 @@
       <c r="A52" s="32">
         <v>51</v>
       </c>
-      <c r="B52" s="43"/>
+      <c r="B52" s="48"/>
       <c r="C52" s="4" t="s">
         <v>25</v>
       </c>
@@ -3037,7 +3045,7 @@
       <c r="A53" s="32">
         <v>52</v>
       </c>
-      <c r="B53" s="43" t="s">
+      <c r="B53" s="48" t="s">
         <v>26</v>
       </c>
       <c r="C53" s="4" t="s">
@@ -3065,7 +3073,7 @@
       <c r="A54" s="32">
         <v>53</v>
       </c>
-      <c r="B54" s="43"/>
+      <c r="B54" s="48"/>
       <c r="C54" s="4" t="s">
         <v>28</v>
       </c>
@@ -3091,7 +3099,7 @@
       <c r="A55" s="32">
         <v>54</v>
       </c>
-      <c r="B55" s="43" t="s">
+      <c r="B55" s="48" t="s">
         <v>29</v>
       </c>
       <c r="C55" s="4" t="s">
@@ -3119,7 +3127,7 @@
       <c r="A56" s="32">
         <v>55</v>
       </c>
-      <c r="B56" s="43"/>
+      <c r="B56" s="48"/>
       <c r="C56" s="4" t="s">
         <v>62</v>
       </c>
@@ -3145,7 +3153,7 @@
       <c r="A57" s="32">
         <v>56</v>
       </c>
-      <c r="B57" s="43"/>
+      <c r="B57" s="48"/>
       <c r="C57" s="4" t="s">
         <v>63</v>
       </c>
@@ -3171,7 +3179,7 @@
       <c r="A58" s="32">
         <v>57</v>
       </c>
-      <c r="B58" s="43"/>
+      <c r="B58" s="48"/>
       <c r="C58" s="4" t="s">
         <v>72</v>
       </c>
@@ -3195,7 +3203,7 @@
     </row>
     <row r="59" spans="1:10" s="28" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A59" s="32"/>
-      <c r="B59" s="43"/>
+      <c r="B59" s="48"/>
       <c r="C59" s="4" t="s">
         <v>198</v>
       </c>
@@ -3215,7 +3223,7 @@
       <c r="A60" s="32">
         <v>58</v>
       </c>
-      <c r="B60" s="43"/>
+      <c r="B60" s="48"/>
       <c r="C60" s="4" t="s">
         <v>61</v>
       </c>
@@ -3241,7 +3249,7 @@
       <c r="A61" s="32">
         <v>59</v>
       </c>
-      <c r="B61" s="43" t="s">
+      <c r="B61" s="48" t="s">
         <v>31</v>
       </c>
       <c r="C61" s="4" t="s">
@@ -3267,7 +3275,7 @@
     </row>
     <row r="62" spans="1:10" s="28" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="32"/>
-      <c r="B62" s="43"/>
+      <c r="B62" s="48"/>
       <c r="C62" s="4" t="s">
         <v>194</v>
       </c>
@@ -3287,7 +3295,7 @@
       <c r="A63" s="32">
         <v>60</v>
       </c>
-      <c r="B63" s="43"/>
+      <c r="B63" s="48"/>
       <c r="C63" s="4" t="s">
         <v>64</v>
       </c>
@@ -3313,7 +3321,7 @@
       <c r="A64" s="32">
         <v>61</v>
       </c>
-      <c r="B64" s="47" t="s">
+      <c r="B64" s="45" t="s">
         <v>33</v>
       </c>
       <c r="C64" s="4" t="s">
@@ -3341,7 +3349,7 @@
       <c r="A65" s="32">
         <v>62</v>
       </c>
-      <c r="B65" s="48"/>
+      <c r="B65" s="46"/>
       <c r="C65" s="4" t="s">
         <v>35</v>
       </c>
@@ -3365,7 +3373,7 @@
     </row>
     <row r="66" spans="1:10" s="28" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="32"/>
-      <c r="B66" s="48"/>
+      <c r="B66" s="46"/>
       <c r="C66" s="4" t="s">
         <v>196</v>
       </c>
@@ -3383,7 +3391,7 @@
     </row>
     <row r="67" spans="1:10" s="28" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="32"/>
-      <c r="B67" s="48"/>
+      <c r="B67" s="46"/>
       <c r="C67" s="4"/>
       <c r="D67" s="12"/>
       <c r="E67" s="14"/>
@@ -3395,7 +3403,7 @@
     </row>
     <row r="68" spans="1:10" s="28" customFormat="1" ht="54" x14ac:dyDescent="0.15">
       <c r="A68" s="32"/>
-      <c r="B68" s="48"/>
+      <c r="B68" s="46"/>
       <c r="C68" s="4" t="s">
         <v>195</v>
       </c>
@@ -3413,7 +3421,7 @@
     </row>
     <row r="69" spans="1:10" s="28" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A69" s="32"/>
-      <c r="B69" s="48"/>
+      <c r="B69" s="46"/>
       <c r="C69" s="4" t="s">
         <v>197</v>
       </c>
@@ -3433,7 +3441,7 @@
       <c r="A70" s="32">
         <v>63</v>
       </c>
-      <c r="B70" s="48"/>
+      <c r="B70" s="46"/>
       <c r="C70" s="4" t="s">
         <v>155</v>
       </c>
@@ -3453,7 +3461,7 @@
       <c r="A71" s="32">
         <v>64</v>
       </c>
-      <c r="B71" s="48"/>
+      <c r="B71" s="46"/>
       <c r="C71" s="4" t="s">
         <v>36</v>
       </c>
@@ -3475,7 +3483,7 @@
       <c r="A72" s="32">
         <v>65</v>
       </c>
-      <c r="B72" s="49"/>
+      <c r="B72" s="47"/>
       <c r="C72" s="4" t="s">
         <v>168</v>
       </c>
@@ -3495,7 +3503,7 @@
       <c r="A73" s="32">
         <v>66</v>
       </c>
-      <c r="B73" s="43" t="s">
+      <c r="B73" s="48" t="s">
         <v>209</v>
       </c>
       <c r="C73" s="4" t="s">
@@ -3523,7 +3531,7 @@
       <c r="A74" s="32">
         <v>67</v>
       </c>
-      <c r="B74" s="43"/>
+      <c r="B74" s="48"/>
       <c r="C74" s="4" t="s">
         <v>105</v>
       </c>
@@ -3549,7 +3557,7 @@
       <c r="A75" s="32">
         <v>68</v>
       </c>
-      <c r="B75" s="43"/>
+      <c r="B75" s="48"/>
       <c r="C75" s="4" t="s">
         <v>210</v>
       </c>
@@ -3567,7 +3575,7 @@
     </row>
     <row r="76" spans="1:10" s="28" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="32"/>
-      <c r="B76" s="43"/>
+      <c r="B76" s="48"/>
       <c r="C76" s="4" t="s">
         <v>212</v>
       </c>
@@ -3583,7 +3591,7 @@
       <c r="A77" s="32">
         <v>69</v>
       </c>
-      <c r="B77" s="43"/>
+      <c r="B77" s="48"/>
       <c r="C77" s="4" t="s">
         <v>151</v>
       </c>
@@ -3601,7 +3609,7 @@
     </row>
     <row r="78" spans="1:10" s="28" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A78" s="32"/>
-      <c r="B78" s="43"/>
+      <c r="B78" s="48"/>
       <c r="C78" s="4" t="s">
         <v>211</v>
       </c>
@@ -3621,7 +3629,7 @@
       <c r="A79" s="32">
         <v>70</v>
       </c>
-      <c r="B79" s="43"/>
+      <c r="B79" s="48"/>
       <c r="C79" s="4" t="s">
         <v>37</v>
       </c>
@@ -3647,7 +3655,7 @@
       <c r="A80" s="32">
         <v>71</v>
       </c>
-      <c r="B80" s="43" t="s">
+      <c r="B80" s="48" t="s">
         <v>39</v>
       </c>
       <c r="C80" s="4" t="s">
@@ -3675,7 +3683,7 @@
     </row>
     <row r="81" spans="1:10" s="28" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A81" s="32"/>
-      <c r="B81" s="43"/>
+      <c r="B81" s="48"/>
       <c r="C81" s="4" t="s">
         <v>217</v>
       </c>
@@ -3693,7 +3701,7 @@
     </row>
     <row r="82" spans="1:10" s="28" customFormat="1" ht="25.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="32"/>
-      <c r="B82" s="43"/>
+      <c r="B82" s="48"/>
       <c r="C82" s="4" t="s">
         <v>216</v>
       </c>
@@ -3713,7 +3721,7 @@
       <c r="A83" s="32">
         <v>72</v>
       </c>
-      <c r="B83" s="43"/>
+      <c r="B83" s="48"/>
       <c r="C83" s="4" t="s">
         <v>105</v>
       </c>
@@ -3739,7 +3747,7 @@
       <c r="A84" s="32">
         <v>73</v>
       </c>
-      <c r="B84" s="43"/>
+      <c r="B84" s="48"/>
       <c r="C84" s="4" t="s">
         <v>37</v>
       </c>
@@ -3765,7 +3773,7 @@
       <c r="A85" s="32">
         <v>74</v>
       </c>
-      <c r="B85" s="43" t="s">
+      <c r="B85" s="48" t="s">
         <v>41</v>
       </c>
       <c r="C85" s="4" t="s">
@@ -3791,7 +3799,7 @@
     </row>
     <row r="86" spans="1:10" s="28" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A86" s="32"/>
-      <c r="B86" s="43"/>
+      <c r="B86" s="48"/>
       <c r="C86" s="4" t="s">
         <v>218</v>
       </c>
@@ -3809,7 +3817,7 @@
     </row>
     <row r="87" spans="1:10" s="28" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A87" s="32"/>
-      <c r="B87" s="43"/>
+      <c r="B87" s="48"/>
       <c r="C87" s="4" t="s">
         <v>219</v>
       </c>
@@ -3829,7 +3837,7 @@
       <c r="A88" s="32">
         <v>75</v>
       </c>
-      <c r="B88" s="43"/>
+      <c r="B88" s="48"/>
       <c r="C88" s="4" t="s">
         <v>105</v>
       </c>
@@ -3855,7 +3863,7 @@
       <c r="A89" s="32">
         <v>76</v>
       </c>
-      <c r="B89" s="43"/>
+      <c r="B89" s="48"/>
       <c r="C89" s="4" t="s">
         <v>37</v>
       </c>
@@ -3877,11 +3885,11 @@
       </c>
       <c r="J89" s="12"/>
     </row>
-    <row r="90" spans="1:10" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="32">
         <v>77</v>
       </c>
-      <c r="B90" s="43" t="s">
+      <c r="B90" s="48" t="s">
         <v>43</v>
       </c>
       <c r="C90" s="4" t="s">
@@ -3901,7 +3909,7 @@
     </row>
     <row r="91" spans="1:10" s="28" customFormat="1" ht="28.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="32"/>
-      <c r="B91" s="43"/>
+      <c r="B91" s="48"/>
       <c r="C91" s="4" t="s">
         <v>223</v>
       </c>
@@ -3927,7 +3935,7 @@
       <c r="A92" s="32">
         <v>78</v>
       </c>
-      <c r="B92" s="43"/>
+      <c r="B92" s="48"/>
       <c r="C92" s="4" t="s">
         <v>126</v>
       </c>
@@ -3949,9 +3957,9 @@
       </c>
       <c r="J92" s="12"/>
     </row>
-    <row r="93" spans="1:10" s="28" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:10" s="28" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="32"/>
-      <c r="B93" s="43"/>
+      <c r="B93" s="48"/>
       <c r="C93" s="4" t="s">
         <v>225</v>
       </c>
@@ -3969,7 +3977,7 @@
     </row>
     <row r="94" spans="1:10" s="28" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="32"/>
-      <c r="B94" s="43"/>
+      <c r="B94" s="48"/>
       <c r="C94" s="4" t="s">
         <v>224</v>
       </c>
@@ -3993,15 +4001,15 @@
     </row>
     <row r="95" spans="1:10" s="28" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="32"/>
-      <c r="B95" s="43"/>
+      <c r="B95" s="48"/>
       <c r="C95" s="4" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="D95" s="12" t="s">
-        <v>230</v>
+        <v>10</v>
       </c>
       <c r="E95" s="14">
-        <v>42893</v>
+        <v>42894</v>
       </c>
       <c r="F95" s="12"/>
       <c r="G95" s="12"/>
@@ -4011,9 +4019,9 @@
     </row>
     <row r="96" spans="1:10" s="28" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="32"/>
-      <c r="B96" s="43"/>
+      <c r="B96" s="48"/>
       <c r="C96" s="4" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D96" s="12" t="s">
         <v>230</v>
@@ -4027,29 +4035,29 @@
       <c r="I96" s="12"/>
       <c r="J96" s="12"/>
     </row>
-    <row r="97" spans="1:10" s="28" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:10" s="28" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="32"/>
-      <c r="B97" s="43"/>
+      <c r="B97" s="48"/>
       <c r="C97" s="4" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="D97" s="12" t="s">
-        <v>10</v>
+        <v>230</v>
       </c>
       <c r="E97" s="14">
         <v>42893</v>
       </c>
       <c r="F97" s="12"/>
       <c r="G97" s="12"/>
-      <c r="H97" s="12"/>
+      <c r="H97" s="14"/>
       <c r="I97" s="12"/>
       <c r="J97" s="12"/>
     </row>
-    <row r="98" spans="1:10" s="28" customFormat="1" ht="25.9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:10" s="28" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A98" s="32"/>
-      <c r="B98" s="43"/>
+      <c r="B98" s="48"/>
       <c r="C98" s="4" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D98" s="12" t="s">
         <v>10</v>
@@ -4058,46 +4066,42 @@
         <v>42893</v>
       </c>
       <c r="F98" s="12"/>
-      <c r="G98" s="12" t="s">
+      <c r="G98" s="12"/>
+      <c r="H98" s="12"/>
+      <c r="I98" s="12"/>
+      <c r="J98" s="12"/>
+    </row>
+    <row r="99" spans="1:10" s="28" customFormat="1" ht="25.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A99" s="32"/>
+      <c r="B99" s="48"/>
+      <c r="C99" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="D99" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E99" s="14">
+        <v>42893</v>
+      </c>
+      <c r="F99" s="12"/>
+      <c r="G99" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="H98" s="14">
+      <c r="H99" s="14">
         <v>42893</v>
       </c>
-      <c r="I98" s="12" t="s">
+      <c r="I99" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="J98" s="12"/>
-    </row>
-    <row r="99" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="32">
+      <c r="J99" s="12"/>
+    </row>
+    <row r="100" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A100" s="32">
         <v>79</v>
       </c>
-      <c r="B99" s="43"/>
-      <c r="C99" s="4" t="s">
+      <c r="B100" s="48"/>
+      <c r="C100" s="4" t="s">
         <v>45</v>
-      </c>
-      <c r="D99" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E99" s="14">
-        <v>42826</v>
-      </c>
-      <c r="F99" s="12"/>
-      <c r="G99" s="12"/>
-      <c r="H99" s="12"/>
-      <c r="I99" s="12"/>
-      <c r="J99" s="12"/>
-    </row>
-    <row r="100" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="32">
-        <v>80</v>
-      </c>
-      <c r="B100" s="43" t="s">
-        <v>44</v>
-      </c>
-      <c r="C100" s="4" t="s">
-        <v>47</v>
       </c>
       <c r="D100" s="12" t="s">
         <v>10</v>
@@ -4106,43 +4110,51 @@
         <v>42826</v>
       </c>
       <c r="F100" s="12"/>
-      <c r="G100" s="12" t="s">
+      <c r="G100" s="12"/>
+      <c r="H100" s="12"/>
+      <c r="I100" s="12"/>
+      <c r="J100" s="12"/>
+    </row>
+    <row r="101" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A101" s="32">
+        <v>80</v>
+      </c>
+      <c r="B101" s="48" t="s">
+        <v>44</v>
+      </c>
+      <c r="C101" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D101" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E101" s="14">
+        <v>42826</v>
+      </c>
+      <c r="F101" s="12"/>
+      <c r="G101" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="H100" s="14">
+      <c r="H101" s="14">
         <v>42832</v>
       </c>
-      <c r="I100" s="12" t="s">
+      <c r="I101" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="J100" s="12"/>
-    </row>
-    <row r="101" spans="1:10" s="28" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="32"/>
-      <c r="B101" s="43"/>
-      <c r="C101" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="D101" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E101" s="14">
-        <v>42893</v>
-      </c>
-      <c r="F101" s="12"/>
-      <c r="G101" s="12"/>
-      <c r="H101" s="14"/>
-      <c r="I101" s="12"/>
       <c r="J101" s="12"/>
     </row>
     <row r="102" spans="1:10" s="28" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="32"/>
-      <c r="B102" s="43"/>
-      <c r="C102" s="42" t="s">
-        <v>232</v>
-      </c>
-      <c r="D102" s="51"/>
-      <c r="E102" s="52"/>
+      <c r="B102" s="48"/>
+      <c r="C102" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="D102" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E102" s="14">
+        <v>42893</v>
+      </c>
       <c r="F102" s="12"/>
       <c r="G102" s="12"/>
       <c r="H102" s="14"/>
@@ -4151,69 +4163,51 @@
     </row>
     <row r="103" spans="1:10" s="28" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="32"/>
-      <c r="B103" s="43"/>
+      <c r="B103" s="48"/>
       <c r="C103" s="4" t="s">
-        <v>220</v>
+        <v>233</v>
       </c>
       <c r="D103" s="12" t="s">
         <v>10</v>
       </c>
       <c r="E103" s="14">
-        <v>42893</v>
+        <v>42894</v>
       </c>
       <c r="F103" s="12"/>
-      <c r="G103" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="H103" s="14">
-        <v>42893</v>
-      </c>
-      <c r="I103" s="12" t="s">
-        <v>76</v>
-      </c>
+      <c r="G103" s="12"/>
+      <c r="H103" s="14"/>
+      <c r="I103" s="12"/>
       <c r="J103" s="12"/>
     </row>
     <row r="104" spans="1:10" s="28" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="32"/>
-      <c r="B104" s="43"/>
-      <c r="C104" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="D104" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E104" s="14">
+      <c r="B104" s="48"/>
+      <c r="C104" s="42" t="s">
+        <v>232</v>
+      </c>
+      <c r="D104" s="43"/>
+      <c r="E104" s="44"/>
+      <c r="F104" s="12"/>
+      <c r="G104" s="12"/>
+      <c r="H104" s="14"/>
+      <c r="I104" s="12"/>
+      <c r="J104" s="12"/>
+    </row>
+    <row r="105" spans="1:10" s="28" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A105" s="32"/>
+      <c r="B105" s="48"/>
+      <c r="C105" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="D105" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E105" s="14">
         <v>42893</v>
-      </c>
-      <c r="F104" s="12"/>
-      <c r="G104" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="H104" s="14">
-        <v>42893</v>
-      </c>
-      <c r="I104" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="J104" s="12"/>
-    </row>
-    <row r="105" spans="1:10" ht="27" x14ac:dyDescent="0.15">
-      <c r="A105" s="32">
-        <v>81</v>
-      </c>
-      <c r="B105" s="43"/>
-      <c r="C105" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="D105" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E105" s="14">
-        <v>42880</v>
       </c>
       <c r="F105" s="12"/>
       <c r="G105" s="12" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="H105" s="14">
         <v>42893</v>
@@ -4223,159 +4217,169 @@
       </c>
       <c r="J105" s="12"/>
     </row>
-    <row r="106" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A106" s="32">
-        <v>82</v>
-      </c>
-      <c r="B106" s="47" t="s">
-        <v>65</v>
-      </c>
+    <row r="106" spans="1:10" s="28" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A106" s="32"/>
+      <c r="B106" s="48"/>
       <c r="C106" s="4" t="s">
-        <v>66</v>
+        <v>227</v>
       </c>
       <c r="D106" s="12" t="s">
         <v>10</v>
       </c>
       <c r="E106" s="14">
-        <v>42830</v>
+        <v>42893</v>
       </c>
       <c r="F106" s="12"/>
       <c r="G106" s="12" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="H106" s="14">
-        <v>42830</v>
+        <v>42893</v>
       </c>
       <c r="I106" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="J106" s="12" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="107" spans="1:10" s="28" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="32"/>
+      <c r="J106" s="12"/>
+    </row>
+    <row r="107" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+      <c r="A107" s="32">
+        <v>81</v>
+      </c>
       <c r="B107" s="48"/>
       <c r="C107" s="4" t="s">
-        <v>187</v>
+        <v>136</v>
       </c>
       <c r="D107" s="12" t="s">
         <v>10</v>
       </c>
       <c r="E107" s="14">
-        <v>42892</v>
+        <v>42880</v>
       </c>
       <c r="F107" s="12"/>
       <c r="G107" s="12" t="s">
         <v>78</v>
       </c>
       <c r="H107" s="14">
-        <v>42892</v>
+        <v>42893</v>
       </c>
       <c r="I107" s="12" t="s">
         <v>76</v>
       </c>
       <c r="J107" s="12"/>
     </row>
-    <row r="108" spans="1:10" s="28" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A108" s="32"/>
-      <c r="B108" s="49"/>
+    <row r="108" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A108" s="32">
+        <v>82</v>
+      </c>
+      <c r="B108" s="45" t="s">
+        <v>65</v>
+      </c>
       <c r="C108" s="4" t="s">
-        <v>186</v>
+        <v>66</v>
       </c>
       <c r="D108" s="12" t="s">
         <v>10</v>
       </c>
       <c r="E108" s="14">
-        <v>42892</v>
+        <v>42830</v>
       </c>
       <c r="F108" s="12"/>
       <c r="G108" s="12" t="s">
         <v>78</v>
       </c>
       <c r="H108" s="14">
-        <v>42892</v>
+        <v>42830</v>
       </c>
       <c r="I108" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="J108" s="12"/>
-    </row>
-    <row r="109" spans="1:10" s="20" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A109" s="32">
-        <v>83</v>
-      </c>
-      <c r="B109" s="50" t="s">
-        <v>67</v>
-      </c>
-      <c r="C109" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="D109" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E109" s="19">
-        <v>42830</v>
-      </c>
-      <c r="F109" s="9"/>
-      <c r="G109" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="H109" s="19">
-        <v>42831</v>
-      </c>
-      <c r="I109" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="J109" s="9"/>
-    </row>
-    <row r="110" spans="1:10" s="20" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A110" s="32">
-        <v>84</v>
-      </c>
-      <c r="B110" s="50"/>
-      <c r="C110" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="D110" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E110" s="19">
-        <v>42857</v>
-      </c>
-      <c r="F110" s="9"/>
-      <c r="G110" s="9"/>
-      <c r="H110" s="19"/>
-      <c r="I110" s="9"/>
-      <c r="J110" s="9"/>
+      <c r="J108" s="12" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" s="28" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A109" s="32"/>
+      <c r="B109" s="46"/>
+      <c r="C109" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="D109" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E109" s="14">
+        <v>42892</v>
+      </c>
+      <c r="F109" s="12"/>
+      <c r="G109" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="H109" s="14">
+        <v>42892</v>
+      </c>
+      <c r="I109" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="J109" s="12"/>
+    </row>
+    <row r="110" spans="1:10" s="28" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A110" s="32"/>
+      <c r="B110" s="47"/>
+      <c r="C110" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="D110" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E110" s="14">
+        <v>42892</v>
+      </c>
+      <c r="F110" s="12"/>
+      <c r="G110" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="H110" s="14">
+        <v>42892</v>
+      </c>
+      <c r="I110" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="J110" s="12"/>
     </row>
     <row r="111" spans="1:10" s="20" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="32">
-        <v>85</v>
-      </c>
-      <c r="B111" s="50"/>
+        <v>83</v>
+      </c>
+      <c r="B111" s="49" t="s">
+        <v>67</v>
+      </c>
       <c r="C111" s="8" t="s">
-        <v>190</v>
+        <v>68</v>
       </c>
       <c r="D111" s="9" t="s">
         <v>10</v>
       </c>
       <c r="E111" s="19">
-        <v>42857</v>
+        <v>42830</v>
       </c>
       <c r="F111" s="9"/>
-      <c r="G111" s="9"/>
-      <c r="H111" s="19"/>
-      <c r="I111" s="9"/>
+      <c r="G111" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="H111" s="19">
+        <v>42831</v>
+      </c>
+      <c r="I111" s="9" t="s">
+        <v>70</v>
+      </c>
       <c r="J111" s="9"/>
     </row>
     <row r="112" spans="1:10" s="20" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="32">
-        <v>86</v>
-      </c>
-      <c r="B112" s="50"/>
+        <v>84</v>
+      </c>
+      <c r="B112" s="49"/>
       <c r="C112" s="8" t="s">
-        <v>189</v>
+        <v>95</v>
       </c>
       <c r="D112" s="9" t="s">
         <v>10</v>
@@ -4390,16 +4394,18 @@
       <c r="J112" s="9"/>
     </row>
     <row r="113" spans="1:10" s="20" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A113" s="32"/>
-      <c r="B113" s="50"/>
+      <c r="A113" s="32">
+        <v>85</v>
+      </c>
+      <c r="B113" s="49"/>
       <c r="C113" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="D113" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E113" s="14">
-        <v>42892</v>
+        <v>190</v>
+      </c>
+      <c r="D113" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E113" s="19">
+        <v>42857</v>
       </c>
       <c r="F113" s="9"/>
       <c r="G113" s="9"/>
@@ -4408,16 +4414,18 @@
       <c r="J113" s="9"/>
     </row>
     <row r="114" spans="1:10" s="20" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A114" s="32"/>
-      <c r="B114" s="50"/>
+      <c r="A114" s="32">
+        <v>86</v>
+      </c>
+      <c r="B114" s="49"/>
       <c r="C114" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="D114" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E114" s="14">
-        <v>42892</v>
+        <v>189</v>
+      </c>
+      <c r="D114" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E114" s="19">
+        <v>42857</v>
       </c>
       <c r="F114" s="9"/>
       <c r="G114" s="9"/>
@@ -4427,9 +4435,9 @@
     </row>
     <row r="115" spans="1:10" s="20" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A115" s="32"/>
-      <c r="B115" s="50"/>
+      <c r="B115" s="49"/>
       <c r="C115" s="8" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D115" s="12" t="s">
         <v>10</v>
@@ -4445,9 +4453,9 @@
     </row>
     <row r="116" spans="1:10" s="20" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A116" s="32"/>
-      <c r="B116" s="50"/>
+      <c r="B116" s="49"/>
       <c r="C116" s="8" t="s">
-        <v>215</v>
+        <v>192</v>
       </c>
       <c r="D116" s="12" t="s">
         <v>10</v>
@@ -4461,149 +4469,149 @@
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
     </row>
-    <row r="117" spans="1:10" s="20" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A117" s="32">
-        <v>87</v>
-      </c>
-      <c r="B117" s="50"/>
+    <row r="117" spans="1:10" s="20" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A117" s="32"/>
+      <c r="B117" s="49"/>
       <c r="C117" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="D117" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E117" s="19">
-        <v>42826</v>
+        <v>193</v>
+      </c>
+      <c r="D117" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E117" s="14">
+        <v>42892</v>
       </c>
       <c r="F117" s="9"/>
       <c r="G117" s="9"/>
-      <c r="H117" s="9"/>
+      <c r="H117" s="19"/>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
     </row>
-    <row r="118" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A118" s="32">
-        <v>88</v>
-      </c>
-      <c r="B118" s="43" t="s">
+    <row r="118" spans="1:10" s="20" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A118" s="32"/>
+      <c r="B118" s="49"/>
+      <c r="C118" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="D118" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E118" s="14">
+        <v>42892</v>
+      </c>
+      <c r="F118" s="9"/>
+      <c r="G118" s="9"/>
+      <c r="H118" s="19"/>
+      <c r="I118" s="9"/>
+      <c r="J118" s="9"/>
+    </row>
+    <row r="119" spans="1:10" s="20" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A119" s="32">
         <v>87</v>
       </c>
-      <c r="C118" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D118" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E118" s="14">
-        <v>42837</v>
-      </c>
-      <c r="F118" s="12"/>
-      <c r="G118" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="H118" s="14">
-        <v>42839</v>
-      </c>
-      <c r="I118" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="J118" s="12"/>
-    </row>
-    <row r="119" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A119" s="32">
-        <v>89</v>
-      </c>
-      <c r="B119" s="43"/>
-      <c r="C119" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="D119" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E119" s="14">
-        <v>42857</v>
-      </c>
-      <c r="F119" s="12"/>
-      <c r="G119" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="H119" s="14">
-        <v>42882</v>
-      </c>
-      <c r="I119" s="12" t="s">
-        <v>145</v>
-      </c>
-      <c r="J119" s="12"/>
+      <c r="B119" s="49"/>
+      <c r="C119" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="D119" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E119" s="19">
+        <v>42826</v>
+      </c>
+      <c r="F119" s="9"/>
+      <c r="G119" s="9"/>
+      <c r="H119" s="9"/>
+      <c r="I119" s="9"/>
+      <c r="J119" s="9"/>
     </row>
     <row r="120" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A120" s="32">
-        <v>90</v>
-      </c>
-      <c r="B120" s="47" t="s">
-        <v>97</v>
+        <v>88</v>
+      </c>
+      <c r="B120" s="48" t="s">
+        <v>87</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="D120" s="12" t="s">
         <v>10</v>
       </c>
       <c r="E120" s="14">
-        <v>42857</v>
+        <v>42837</v>
       </c>
       <c r="F120" s="12"/>
       <c r="G120" s="12" t="s">
-        <v>102</v>
+        <v>56</v>
       </c>
       <c r="H120" s="14">
-        <v>42857</v>
+        <v>42839</v>
       </c>
       <c r="I120" s="12" t="s">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="J120" s="12"/>
     </row>
-    <row r="121" spans="1:10" s="28" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A121" s="32"/>
+    <row r="121" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A121" s="32">
+        <v>89</v>
+      </c>
       <c r="B121" s="48"/>
       <c r="C121" s="4" t="s">
-        <v>208</v>
+        <v>93</v>
       </c>
       <c r="D121" s="12" t="s">
         <v>10</v>
       </c>
       <c r="E121" s="14">
-        <v>42892</v>
+        <v>42857</v>
       </c>
       <c r="F121" s="12"/>
-      <c r="G121" s="12"/>
-      <c r="H121" s="14"/>
-      <c r="I121" s="12"/>
+      <c r="G121" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="H121" s="14">
+        <v>42882</v>
+      </c>
+      <c r="I121" s="12" t="s">
+        <v>145</v>
+      </c>
       <c r="J121" s="12"/>
     </row>
-    <row r="122" spans="1:10" s="28" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A122" s="32"/>
-      <c r="B122" s="48"/>
+    <row r="122" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A122" s="32">
+        <v>90</v>
+      </c>
+      <c r="B122" s="45" t="s">
+        <v>97</v>
+      </c>
       <c r="C122" s="4" t="s">
-        <v>202</v>
+        <v>98</v>
       </c>
       <c r="D122" s="12" t="s">
         <v>10</v>
       </c>
       <c r="E122" s="14">
-        <v>42892</v>
+        <v>42857</v>
       </c>
       <c r="F122" s="12"/>
-      <c r="G122" s="12"/>
-      <c r="H122" s="14"/>
-      <c r="I122" s="12"/>
+      <c r="G122" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="H122" s="14">
+        <v>42857</v>
+      </c>
+      <c r="I122" s="12" t="s">
+        <v>76</v>
+      </c>
       <c r="J122" s="12"/>
     </row>
     <row r="123" spans="1:10" s="28" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A123" s="32"/>
-      <c r="B123" s="48"/>
+      <c r="B123" s="46"/>
       <c r="C123" s="4" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="D123" s="12" t="s">
         <v>10</v>
@@ -4617,11 +4625,11 @@
       <c r="I123" s="12"/>
       <c r="J123" s="12"/>
     </row>
-    <row r="124" spans="1:10" s="28" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:10" s="28" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A124" s="32"/>
-      <c r="B124" s="48"/>
+      <c r="B124" s="46"/>
       <c r="C124" s="4" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="D124" s="12" t="s">
         <v>10</v>
@@ -4635,29 +4643,31 @@
       <c r="I124" s="12"/>
       <c r="J124" s="12"/>
     </row>
-    <row r="125" spans="1:10" s="28" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:10" s="28" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A125" s="32"/>
-      <c r="B125" s="48"/>
+      <c r="B125" s="46"/>
       <c r="C125" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="D125" s="12"/>
-      <c r="E125" s="14"/>
+        <v>203</v>
+      </c>
+      <c r="D125" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E125" s="14">
+        <v>42892</v>
+      </c>
       <c r="F125" s="12"/>
       <c r="G125" s="12"/>
       <c r="H125" s="14"/>
       <c r="I125" s="12"/>
       <c r="J125" s="12"/>
     </row>
-    <row r="126" spans="1:10" ht="27" x14ac:dyDescent="0.15">
-      <c r="A126" s="32">
-        <v>91</v>
-      </c>
-      <c r="B126" s="49"/>
+    <row r="126" spans="1:10" s="28" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A126" s="32"/>
+      <c r="B126" s="46"/>
       <c r="C126" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="D126" s="24" t="s">
+        <v>207</v>
+      </c>
+      <c r="D126" s="12" t="s">
         <v>10</v>
       </c>
       <c r="E126" s="14">
@@ -4669,67 +4679,49 @@
       <c r="I126" s="12"/>
       <c r="J126" s="12"/>
     </row>
-    <row r="127" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A127" s="32">
-        <v>92</v>
-      </c>
-      <c r="B127" s="43" t="s">
-        <v>99</v>
-      </c>
+    <row r="127" spans="1:10" s="28" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A127" s="32"/>
+      <c r="B127" s="46"/>
       <c r="C127" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="D127" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E127" s="14">
-        <v>42857</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="D127" s="12"/>
+      <c r="E127" s="14"/>
       <c r="F127" s="12"/>
-      <c r="G127" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="H127" s="14">
-        <v>42857</v>
-      </c>
-      <c r="I127" s="12" t="s">
-        <v>76</v>
-      </c>
+      <c r="G127" s="12"/>
+      <c r="H127" s="14"/>
+      <c r="I127" s="12"/>
       <c r="J127" s="12"/>
     </row>
-    <row r="128" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A128" s="32">
-        <v>93</v>
-      </c>
-      <c r="B128" s="43"/>
+        <v>91</v>
+      </c>
+      <c r="B128" s="47"/>
       <c r="C128" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="D128" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="D128" s="24" t="s">
         <v>10</v>
       </c>
       <c r="E128" s="14">
-        <v>42857</v>
+        <v>42892</v>
       </c>
       <c r="F128" s="12"/>
-      <c r="G128" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="H128" s="14">
-        <v>42857</v>
-      </c>
-      <c r="I128" s="12" t="s">
-        <v>76</v>
-      </c>
+      <c r="G128" s="12"/>
+      <c r="H128" s="14"/>
+      <c r="I128" s="12"/>
       <c r="J128" s="12"/>
     </row>
     <row r="129" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A129" s="32">
-        <v>94</v>
-      </c>
-      <c r="B129" s="43"/>
+        <v>92</v>
+      </c>
+      <c r="B129" s="48" t="s">
+        <v>99</v>
+      </c>
       <c r="C129" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D129" s="12" t="s">
         <v>10</v>
@@ -4749,186 +4741,184 @@
       </c>
       <c r="J129" s="12"/>
     </row>
-    <row r="130" spans="1:10" s="28" customFormat="1" ht="40.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A130" s="32"/>
-      <c r="B130" s="41" t="s">
+    <row r="130" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A130" s="32">
+        <v>93</v>
+      </c>
+      <c r="B130" s="48"/>
+      <c r="C130" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D130" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E130" s="14">
+        <v>42857</v>
+      </c>
+      <c r="F130" s="12"/>
+      <c r="G130" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="H130" s="14">
+        <v>42857</v>
+      </c>
+      <c r="I130" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="J130" s="12"/>
+    </row>
+    <row r="131" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A131" s="32">
+        <v>94</v>
+      </c>
+      <c r="B131" s="48"/>
+      <c r="C131" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D131" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E131" s="14">
+        <v>42857</v>
+      </c>
+      <c r="F131" s="12"/>
+      <c r="G131" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="H131" s="14">
+        <v>42857</v>
+      </c>
+      <c r="I131" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="J131" s="12"/>
+    </row>
+    <row r="132" spans="1:10" s="28" customFormat="1" ht="40.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A132" s="32"/>
+      <c r="B132" s="41" t="s">
         <v>201</v>
       </c>
-      <c r="C130" s="4" t="s">
+      <c r="C132" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="D130" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E130" s="14">
-        <v>42892</v>
-      </c>
-      <c r="F130" s="12"/>
-      <c r="G130" s="12"/>
-      <c r="H130" s="14"/>
-      <c r="I130" s="12"/>
-      <c r="J130" s="12"/>
-    </row>
-    <row r="131" spans="1:10" ht="27" x14ac:dyDescent="0.15">
-      <c r="A131" s="32">
-        <v>95</v>
-      </c>
-      <c r="B131" s="47" t="s">
-        <v>111</v>
-      </c>
-      <c r="C131" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="D131" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E131" s="14">
-        <v>42863</v>
-      </c>
-      <c r="F131" s="12"/>
-      <c r="G131" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="H131" s="15">
-        <v>42881</v>
-      </c>
-      <c r="I131" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="J131" s="12"/>
-    </row>
-    <row r="132" spans="1:10" s="28" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A132" s="32"/>
-      <c r="B132" s="48"/>
-      <c r="C132" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="D132" s="24" t="s">
+      <c r="D132" s="12" t="s">
         <v>10</v>
       </c>
       <c r="E132" s="14">
         <v>42892</v>
       </c>
       <c r="F132" s="12"/>
-      <c r="G132" s="29"/>
-      <c r="H132" s="33"/>
+      <c r="G132" s="12"/>
+      <c r="H132" s="14"/>
       <c r="I132" s="12"/>
       <c r="J132" s="12"/>
     </row>
     <row r="133" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A133" s="32">
-        <v>96</v>
-      </c>
-      <c r="B133" s="48"/>
+        <v>95</v>
+      </c>
+      <c r="B133" s="45" t="s">
+        <v>111</v>
+      </c>
       <c r="C133" s="4" t="s">
-        <v>213</v>
+        <v>112</v>
       </c>
       <c r="D133" s="12" t="s">
         <v>10</v>
       </c>
       <c r="E133" s="14">
-        <v>42886</v>
+        <v>42863</v>
       </c>
       <c r="F133" s="12"/>
-      <c r="G133" s="7"/>
-      <c r="H133" s="15"/>
-      <c r="I133" s="12"/>
+      <c r="G133" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H133" s="15">
+        <v>42881</v>
+      </c>
+      <c r="I133" s="12" t="s">
+        <v>147</v>
+      </c>
       <c r="J133" s="12"/>
     </row>
-    <row r="134" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A134" s="32">
-        <v>97</v>
-      </c>
-      <c r="B134" s="48"/>
+    <row r="134" spans="1:10" s="28" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A134" s="32"/>
+      <c r="B134" s="46"/>
       <c r="C134" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="D134" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="D134" s="24" t="s">
         <v>10</v>
       </c>
       <c r="E134" s="14">
-        <v>42886</v>
+        <v>42892</v>
       </c>
       <c r="F134" s="12"/>
-      <c r="G134" s="7"/>
-      <c r="H134" s="15"/>
+      <c r="G134" s="29"/>
+      <c r="H134" s="33"/>
       <c r="I134" s="12"/>
       <c r="J134" s="12"/>
     </row>
-    <row r="135" spans="1:10" s="28" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A135" s="44" t="s">
+    <row r="135" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+      <c r="A135" s="32">
+        <v>96</v>
+      </c>
+      <c r="B135" s="46"/>
+      <c r="C135" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="D135" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E135" s="14">
+        <v>42886</v>
+      </c>
+      <c r="F135" s="12"/>
+      <c r="G135" s="7"/>
+      <c r="H135" s="15"/>
+      <c r="I135" s="12"/>
+      <c r="J135" s="12"/>
+    </row>
+    <row r="136" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A136" s="32">
+        <v>97</v>
+      </c>
+      <c r="B136" s="46"/>
+      <c r="C136" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="D136" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E136" s="14">
+        <v>42886</v>
+      </c>
+      <c r="F136" s="12"/>
+      <c r="G136" s="7"/>
+      <c r="H136" s="15"/>
+      <c r="I136" s="12"/>
+      <c r="J136" s="12"/>
+    </row>
+    <row r="137" spans="1:10" s="28" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A137" s="50" t="s">
         <v>199</v>
       </c>
-      <c r="B135" s="45"/>
-      <c r="C135" s="45"/>
-      <c r="D135" s="45"/>
-      <c r="E135" s="45"/>
-      <c r="F135" s="45"/>
-      <c r="G135" s="45"/>
-      <c r="H135" s="45"/>
-      <c r="I135" s="45"/>
-      <c r="J135" s="46"/>
-    </row>
-    <row r="136" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A136" s="32">
-        <v>98</v>
-      </c>
-      <c r="B136" s="43" t="s">
-        <v>113</v>
-      </c>
-      <c r="C136" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="D136" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E136" s="14">
-        <v>42863</v>
-      </c>
-      <c r="F136" s="12"/>
-      <c r="G136" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="H136" s="14">
-        <v>42141</v>
-      </c>
-      <c r="I136" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="J136" s="12"/>
-    </row>
-    <row r="137" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A137" s="32">
-        <v>99</v>
-      </c>
-      <c r="B137" s="43"/>
-      <c r="C137" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="D137" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E137" s="14">
-        <v>42863</v>
-      </c>
-      <c r="F137" s="12"/>
-      <c r="G137" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="H137" s="14">
-        <v>42141</v>
-      </c>
-      <c r="I137" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="J137" s="12"/>
+      <c r="B137" s="51"/>
+      <c r="C137" s="51"/>
+      <c r="D137" s="51"/>
+      <c r="E137" s="51"/>
+      <c r="F137" s="51"/>
+      <c r="G137" s="51"/>
+      <c r="H137" s="51"/>
+      <c r="I137" s="51"/>
+      <c r="J137" s="52"/>
     </row>
     <row r="138" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A138" s="32">
-        <v>100</v>
-      </c>
-      <c r="B138" s="43" t="s">
-        <v>114</v>
+        <v>98</v>
+      </c>
+      <c r="B138" s="48" t="s">
+        <v>113</v>
       </c>
       <c r="C138" s="4" t="s">
         <v>115</v>
@@ -4947,17 +4937,17 @@
         <v>42141</v>
       </c>
       <c r="I138" s="12" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="J138" s="12"/>
     </row>
     <row r="139" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A139" s="32">
-        <v>101</v>
-      </c>
-      <c r="B139" s="43"/>
+        <v>99</v>
+      </c>
+      <c r="B139" s="48"/>
       <c r="C139" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D139" s="12" t="s">
         <v>10</v>
@@ -4977,15 +4967,15 @@
       </c>
       <c r="J139" s="12"/>
     </row>
-    <row r="140" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A140" s="32">
-        <v>102</v>
-      </c>
-      <c r="B140" s="47" t="s">
-        <v>118</v>
+        <v>100</v>
+      </c>
+      <c r="B140" s="48" t="s">
+        <v>114</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="D140" s="12" t="s">
         <v>10</v>
@@ -4994,106 +4984,106 @@
         <v>42863</v>
       </c>
       <c r="F140" s="12"/>
-      <c r="G140" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="H140" s="15">
-        <v>42882</v>
+      <c r="G140" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="H140" s="14">
+        <v>42141</v>
       </c>
       <c r="I140" s="12" t="s">
         <v>124</v>
       </c>
       <c r="J140" s="12"/>
     </row>
-    <row r="141" spans="1:10" s="26" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A141" s="32">
+        <v>101</v>
+      </c>
+      <c r="B141" s="48"/>
+      <c r="C141" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D141" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E141" s="14">
+        <v>42863</v>
+      </c>
+      <c r="F141" s="12"/>
+      <c r="G141" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="H141" s="14">
+        <v>42141</v>
+      </c>
+      <c r="I141" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="J141" s="12"/>
+    </row>
+    <row r="142" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A142" s="32">
+        <v>102</v>
+      </c>
+      <c r="B142" s="45" t="s">
+        <v>118</v>
+      </c>
+      <c r="C142" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="D142" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E142" s="14">
+        <v>42863</v>
+      </c>
+      <c r="F142" s="12"/>
+      <c r="G142" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H142" s="15">
+        <v>42882</v>
+      </c>
+      <c r="I142" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="J142" s="12"/>
+    </row>
+    <row r="143" spans="1:10" s="26" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A143" s="32">
         <v>103</v>
       </c>
-      <c r="B141" s="49"/>
-      <c r="C141" s="4" t="s">
+      <c r="B143" s="47"/>
+      <c r="C143" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="D141" s="24" t="s">
+      <c r="D143" s="24" t="s">
         <v>170</v>
       </c>
-      <c r="E141" s="25">
+      <c r="E143" s="25">
         <v>42887</v>
       </c>
-      <c r="F141" s="12"/>
-      <c r="G141" s="24"/>
-      <c r="H141" s="27"/>
-      <c r="I141" s="11"/>
-      <c r="J141" s="11"/>
-    </row>
-    <row r="142" spans="1:10" ht="42" x14ac:dyDescent="0.15">
-      <c r="A142" s="32">
+      <c r="F143" s="12"/>
+      <c r="G143" s="24"/>
+      <c r="H143" s="27"/>
+      <c r="I143" s="11"/>
+      <c r="J143" s="11"/>
+    </row>
+    <row r="144" spans="1:10" ht="42" x14ac:dyDescent="0.15">
+      <c r="A144" s="32">
         <v>104</v>
       </c>
-      <c r="B142" s="22" t="s">
+      <c r="B144" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="C142" s="4" t="s">
+      <c r="C144" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="D142" s="12" t="s">
+      <c r="D144" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="E142" s="14">
+      <c r="E144" s="14">
         <v>42864</v>
-      </c>
-      <c r="F142" s="12"/>
-      <c r="G142" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="H142" s="14">
-        <v>42151</v>
-      </c>
-      <c r="I142" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="J142" s="12"/>
-    </row>
-    <row r="143" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A143" s="32">
-        <v>105</v>
-      </c>
-      <c r="B143" s="47" t="s">
-        <v>132</v>
-      </c>
-      <c r="C143" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="D143" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="E143" s="14">
-        <v>42880</v>
-      </c>
-      <c r="F143" s="12"/>
-      <c r="G143" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="H143" s="14">
-        <v>42151</v>
-      </c>
-      <c r="I143" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="J143" s="12"/>
-    </row>
-    <row r="144" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A144" s="32">
-        <v>106</v>
-      </c>
-      <c r="B144" s="48"/>
-      <c r="C144" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="D144" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="E144" s="14">
-        <v>42880</v>
       </c>
       <c r="F144" s="12"/>
       <c r="G144" s="12" t="s">
@@ -5103,17 +5093,19 @@
         <v>42151</v>
       </c>
       <c r="I144" s="12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J144" s="12"/>
     </row>
-    <row r="145" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A145" s="32">
-        <v>107</v>
-      </c>
-      <c r="B145" s="49"/>
+        <v>105</v>
+      </c>
+      <c r="B145" s="45" t="s">
+        <v>132</v>
+      </c>
       <c r="C145" s="4" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="D145" s="12" t="s">
         <v>134</v>
@@ -5133,68 +5125,96 @@
       </c>
       <c r="J145" s="12"/>
     </row>
-    <row r="146" spans="1:10" s="26" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A146" s="32">
-        <v>108</v>
-      </c>
-      <c r="B146" s="11" t="s">
-        <v>173</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="B146" s="46"/>
       <c r="C146" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="D146" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="E146" s="25">
-        <v>42888</v>
+        <v>135</v>
+      </c>
+      <c r="D146" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="E146" s="14">
+        <v>42880</v>
       </c>
       <c r="F146" s="12"/>
-      <c r="G146" s="11"/>
-      <c r="H146" s="11"/>
-      <c r="I146" s="11"/>
-      <c r="J146" s="11"/>
+      <c r="G146" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="H146" s="14">
+        <v>42151</v>
+      </c>
+      <c r="I146" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="J146" s="12"/>
     </row>
     <row r="147" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A147" s="32">
+        <v>107</v>
+      </c>
+      <c r="B147" s="47"/>
+      <c r="C147" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="D147" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="E147" s="14">
+        <v>42880</v>
+      </c>
+      <c r="F147" s="12"/>
+      <c r="G147" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="H147" s="14">
+        <v>42151</v>
+      </c>
+      <c r="I147" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="J147" s="12"/>
+    </row>
+    <row r="148" spans="1:10" s="26" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A148" s="32">
+        <v>108</v>
+      </c>
+      <c r="B148" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="C148" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="D148" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E148" s="25">
+        <v>42888</v>
+      </c>
+      <c r="F148" s="12"/>
+      <c r="G148" s="11"/>
+      <c r="H148" s="11"/>
+      <c r="I148" s="11"/>
+      <c r="J148" s="11"/>
+    </row>
+    <row r="149" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+      <c r="A149" s="32">
         <v>109</v>
       </c>
-      <c r="B147" s="31" t="s">
+      <c r="B149" s="31" t="s">
         <v>200</v>
       </c>
-      <c r="C147" s="4" t="s">
+      <c r="C149" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="D147" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="E147" s="25">
+      <c r="D149" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E149" s="25">
         <v>42888</v>
       </c>
-      <c r="F147" s="12"/>
-      <c r="G147" s="12"/>
-      <c r="H147" s="12"/>
-      <c r="I147" s="12"/>
-      <c r="J147" s="12"/>
-    </row>
-    <row r="148" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A148" s="12"/>
-      <c r="B148" s="22"/>
-      <c r="C148" s="4"/>
-      <c r="D148" s="12"/>
-      <c r="E148" s="12"/>
-      <c r="F148" s="12"/>
-      <c r="G148" s="12"/>
-      <c r="H148" s="12"/>
-      <c r="I148" s="12"/>
-      <c r="J148" s="12"/>
-    </row>
-    <row r="149" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A149" s="12"/>
-      <c r="B149" s="22"/>
-      <c r="C149" s="4"/>
-      <c r="D149" s="12"/>
-      <c r="E149" s="12"/>
       <c r="F149" s="12"/>
       <c r="G149" s="12"/>
       <c r="H149" s="12"/>
@@ -6857,32 +6877,56 @@
       <c r="I287" s="12"/>
       <c r="J287" s="12"/>
     </row>
+    <row r="288" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A288" s="12"/>
+      <c r="B288" s="22"/>
+      <c r="C288" s="4"/>
+      <c r="D288" s="12"/>
+      <c r="E288" s="12"/>
+      <c r="F288" s="12"/>
+      <c r="G288" s="12"/>
+      <c r="H288" s="12"/>
+      <c r="I288" s="12"/>
+      <c r="J288" s="12"/>
+    </row>
+    <row r="289" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A289" s="12"/>
+      <c r="B289" s="22"/>
+      <c r="C289" s="4"/>
+      <c r="D289" s="12"/>
+      <c r="E289" s="12"/>
+      <c r="F289" s="12"/>
+      <c r="G289" s="12"/>
+      <c r="H289" s="12"/>
+      <c r="I289" s="12"/>
+      <c r="J289" s="12"/>
+    </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="B55:B60"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="B138:B139"/>
+    <mergeCell ref="B38:B47"/>
+    <mergeCell ref="B48:B52"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="A137:J137"/>
+    <mergeCell ref="B108:B110"/>
     <mergeCell ref="B29:B37"/>
     <mergeCell ref="B64:B72"/>
     <mergeCell ref="B2:B28"/>
-    <mergeCell ref="B120:B126"/>
-    <mergeCell ref="B143:B145"/>
+    <mergeCell ref="B122:B128"/>
+    <mergeCell ref="B145:B147"/>
     <mergeCell ref="B73:B79"/>
     <mergeCell ref="B80:B84"/>
     <mergeCell ref="B85:B89"/>
-    <mergeCell ref="B90:B99"/>
-    <mergeCell ref="B138:B139"/>
-    <mergeCell ref="B100:B105"/>
-    <mergeCell ref="B109:B117"/>
-    <mergeCell ref="B118:B119"/>
-    <mergeCell ref="B127:B129"/>
-    <mergeCell ref="B131:B134"/>
+    <mergeCell ref="B90:B100"/>
     <mergeCell ref="B140:B141"/>
-    <mergeCell ref="B55:B60"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="B136:B137"/>
-    <mergeCell ref="B38:B47"/>
-    <mergeCell ref="B48:B52"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="A135:J135"/>
-    <mergeCell ref="B106:B108"/>
+    <mergeCell ref="B101:B107"/>
+    <mergeCell ref="B111:B119"/>
+    <mergeCell ref="B120:B121"/>
+    <mergeCell ref="B129:B131"/>
+    <mergeCell ref="B133:B136"/>
+    <mergeCell ref="B142:B143"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I44">

--- a/ProjectManagement/文档/问题点一览.xlsx
+++ b/ProjectManagement/文档/问题点一览.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="236">
   <si>
     <t>NO</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -945,6 +945,10 @@
   </si>
   <si>
     <t>添加问题时，保存时出错，提示“未将对象设置到实例”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>干系人里有3个人，在这里显示3行，但只有一行能正常显示出来，其它两行名称为空。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1634,10 +1638,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K289"/>
+  <dimension ref="A1:K290"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="F95" sqref="F95"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="E72" sqref="E72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="22.15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3457,167 +3461,167 @@
       <c r="I70" s="12"/>
       <c r="J70" s="12"/>
     </row>
-    <row r="71" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="32">
-        <v>64</v>
-      </c>
+    <row r="71" spans="1:10" s="28" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A71" s="32"/>
       <c r="B71" s="46"/>
       <c r="C71" s="4" t="s">
-        <v>36</v>
+        <v>235</v>
       </c>
       <c r="D71" s="12" t="s">
         <v>10</v>
       </c>
       <c r="E71" s="14">
-        <v>42825</v>
+        <v>42894</v>
       </c>
       <c r="F71" s="12"/>
       <c r="G71" s="12"/>
-      <c r="H71" s="12"/>
+      <c r="H71" s="14"/>
       <c r="I71" s="12"/>
-      <c r="J71" s="12" t="s">
+      <c r="J71" s="12"/>
+    </row>
+    <row r="72" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A72" s="32">
+        <v>64</v>
+      </c>
+      <c r="B72" s="46"/>
+      <c r="C72" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D72" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E72" s="14">
+        <v>42825</v>
+      </c>
+      <c r="F72" s="12"/>
+      <c r="G72" s="12"/>
+      <c r="H72" s="12"/>
+      <c r="I72" s="12"/>
+      <c r="J72" s="12" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="72" spans="1:10" s="26" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A72" s="32">
+    <row r="73" spans="1:10" s="26" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A73" s="32">
         <v>65</v>
       </c>
-      <c r="B72" s="47"/>
-      <c r="C72" s="4" t="s">
+      <c r="B73" s="47"/>
+      <c r="C73" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="D72" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="E72" s="25">
+      <c r="D73" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E73" s="25">
         <v>42887</v>
       </c>
-      <c r="F72" s="12"/>
-      <c r="G72" s="11"/>
-      <c r="H72" s="2"/>
-      <c r="I72" s="11"/>
-      <c r="J72" s="11"/>
-    </row>
-    <row r="73" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A73" s="32">
+      <c r="F73" s="12"/>
+      <c r="G73" s="11"/>
+      <c r="H73" s="2"/>
+      <c r="I73" s="11"/>
+      <c r="J73" s="11"/>
+    </row>
+    <row r="74" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A74" s="32">
         <v>66</v>
       </c>
-      <c r="B73" s="48" t="s">
+      <c r="B74" s="48" t="s">
         <v>209</v>
       </c>
-      <c r="C73" s="4" t="s">
+      <c r="C74" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D73" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E73" s="14">
+      <c r="D74" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E74" s="14">
         <v>42826</v>
-      </c>
-      <c r="F73" s="12"/>
-      <c r="G73" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="H73" s="14">
-        <v>42831</v>
-      </c>
-      <c r="I73" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="J73" s="12"/>
-    </row>
-    <row r="74" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="32">
-        <v>67</v>
-      </c>
-      <c r="B74" s="48"/>
-      <c r="C74" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="D74" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E74" s="14">
-        <v>42863</v>
       </c>
       <c r="F74" s="12"/>
       <c r="G74" s="12" t="s">
         <v>75</v>
       </c>
       <c r="H74" s="14">
-        <v>42864</v>
+        <v>42831</v>
       </c>
       <c r="I74" s="12" t="s">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="J74" s="12"/>
     </row>
     <row r="75" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="32">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B75" s="48"/>
       <c r="C75" s="4" t="s">
-        <v>210</v>
+        <v>105</v>
       </c>
       <c r="D75" s="12" t="s">
         <v>10</v>
       </c>
       <c r="E75" s="14">
-        <v>42886</v>
+        <v>42863</v>
       </c>
       <c r="F75" s="12"/>
-      <c r="G75" s="12"/>
-      <c r="H75" s="14"/>
-      <c r="I75" s="12"/>
+      <c r="G75" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="H75" s="14">
+        <v>42864</v>
+      </c>
+      <c r="I75" s="12" t="s">
+        <v>50</v>
+      </c>
       <c r="J75" s="12"/>
     </row>
-    <row r="76" spans="1:10" s="28" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="32"/>
+    <row r="76" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A76" s="32">
+        <v>68</v>
+      </c>
       <c r="B76" s="48"/>
       <c r="C76" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="D76" s="12"/>
-      <c r="E76" s="14"/>
+        <v>210</v>
+      </c>
+      <c r="D76" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E76" s="14">
+        <v>42886</v>
+      </c>
       <c r="F76" s="12"/>
       <c r="G76" s="12"/>
       <c r="H76" s="14"/>
       <c r="I76" s="12"/>
       <c r="J76" s="12"/>
     </row>
-    <row r="77" spans="1:10" ht="27" x14ac:dyDescent="0.15">
-      <c r="A77" s="32">
-        <v>69</v>
-      </c>
+    <row r="77" spans="1:10" s="28" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A77" s="32"/>
       <c r="B77" s="48"/>
       <c r="C77" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="D77" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E77" s="14">
-        <v>42886</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="D77" s="12"/>
+      <c r="E77" s="14"/>
       <c r="F77" s="12"/>
       <c r="G77" s="12"/>
       <c r="H77" s="14"/>
       <c r="I77" s="12"/>
       <c r="J77" s="12"/>
     </row>
-    <row r="78" spans="1:10" s="28" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A78" s="32"/>
+    <row r="78" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+      <c r="A78" s="32">
+        <v>69</v>
+      </c>
       <c r="B78" s="48"/>
       <c r="C78" s="4" t="s">
-        <v>211</v>
+        <v>151</v>
       </c>
       <c r="D78" s="12" t="s">
         <v>10</v>
       </c>
       <c r="E78" s="14">
-        <v>42892</v>
+        <v>42886</v>
       </c>
       <c r="F78" s="12"/>
       <c r="G78" s="12"/>
@@ -3625,41 +3629,31 @@
       <c r="I78" s="12"/>
       <c r="J78" s="12"/>
     </row>
-    <row r="79" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="32">
-        <v>70</v>
-      </c>
+    <row r="79" spans="1:10" s="28" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A79" s="32"/>
       <c r="B79" s="48"/>
       <c r="C79" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="D79" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E79" s="14">
+        <v>42892</v>
+      </c>
+      <c r="F79" s="12"/>
+      <c r="G79" s="12"/>
+      <c r="H79" s="14"/>
+      <c r="I79" s="12"/>
+      <c r="J79" s="12"/>
+    </row>
+    <row r="80" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A80" s="32">
+        <v>70</v>
+      </c>
+      <c r="B80" s="48"/>
+      <c r="C80" s="4" t="s">
         <v>37</v>
-      </c>
-      <c r="D79" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E79" s="14">
-        <v>42826</v>
-      </c>
-      <c r="F79" s="12"/>
-      <c r="G79" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="H79" s="14">
-        <v>42831</v>
-      </c>
-      <c r="I79" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="J79" s="12"/>
-    </row>
-    <row r="80" spans="1:10" ht="27" x14ac:dyDescent="0.15">
-      <c r="A80" s="32">
-        <v>71</v>
-      </c>
-      <c r="B80" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="C80" s="4" t="s">
-        <v>40</v>
       </c>
       <c r="D80" s="12" t="s">
         <v>10</v>
@@ -3675,35 +3669,45 @@
         <v>42831</v>
       </c>
       <c r="I80" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="J80" s="12"/>
+    </row>
+    <row r="81" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+      <c r="A81" s="32">
+        <v>71</v>
+      </c>
+      <c r="B81" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D81" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E81" s="14">
+        <v>42826</v>
+      </c>
+      <c r="F81" s="12"/>
+      <c r="G81" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="H81" s="14">
+        <v>42831</v>
+      </c>
+      <c r="I81" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="J80" s="12" t="s">
+      <c r="J81" s="12" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="81" spans="1:10" s="28" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A81" s="32"/>
-      <c r="B81" s="48"/>
-      <c r="C81" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="D81" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E81" s="14">
-        <v>42892</v>
-      </c>
-      <c r="F81" s="12"/>
-      <c r="G81" s="12"/>
-      <c r="H81" s="14"/>
-      <c r="I81" s="12"/>
-      <c r="J81" s="12"/>
-    </row>
-    <row r="82" spans="1:10" s="28" customFormat="1" ht="25.9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:10" s="28" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A82" s="32"/>
       <c r="B82" s="48"/>
       <c r="C82" s="4" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D82" s="12" t="s">
         <v>10</v>
@@ -3717,67 +3721,57 @@
       <c r="I82" s="12"/>
       <c r="J82" s="12"/>
     </row>
-    <row r="83" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="32">
-        <v>72</v>
-      </c>
+    <row r="83" spans="1:10" s="28" customFormat="1" ht="25.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A83" s="32"/>
       <c r="B83" s="48"/>
       <c r="C83" s="4" t="s">
-        <v>105</v>
+        <v>216</v>
       </c>
       <c r="D83" s="12" t="s">
         <v>10</v>
       </c>
       <c r="E83" s="14">
-        <v>42863</v>
+        <v>42892</v>
       </c>
       <c r="F83" s="12"/>
-      <c r="G83" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="H83" s="14">
-        <v>42864</v>
-      </c>
-      <c r="I83" s="12" t="s">
-        <v>130</v>
-      </c>
+      <c r="G83" s="12"/>
+      <c r="H83" s="14"/>
+      <c r="I83" s="12"/>
       <c r="J83" s="12"/>
     </row>
     <row r="84" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="32">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B84" s="48"/>
       <c r="C84" s="4" t="s">
-        <v>37</v>
+        <v>105</v>
       </c>
       <c r="D84" s="12" t="s">
         <v>10</v>
       </c>
       <c r="E84" s="14">
-        <v>42826</v>
+        <v>42863</v>
       </c>
       <c r="F84" s="12"/>
       <c r="G84" s="12" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H84" s="14">
-        <v>42831</v>
+        <v>42864</v>
       </c>
       <c r="I84" s="12" t="s">
-        <v>76</v>
+        <v>130</v>
       </c>
       <c r="J84" s="12"/>
     </row>
-    <row r="85" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="32">
-        <v>74</v>
-      </c>
-      <c r="B85" s="48" t="s">
-        <v>41</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="B85" s="48"/>
       <c r="C85" s="4" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D85" s="12" t="s">
         <v>10</v>
@@ -3787,39 +3781,49 @@
       </c>
       <c r="F85" s="12"/>
       <c r="G85" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="H85" s="14">
+        <v>42831</v>
+      </c>
+      <c r="I85" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="J85" s="12"/>
+    </row>
+    <row r="86" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+      <c r="A86" s="32">
+        <v>74</v>
+      </c>
+      <c r="B86" s="48" t="s">
+        <v>41</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D86" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E86" s="14">
+        <v>42826</v>
+      </c>
+      <c r="F86" s="12"/>
+      <c r="G86" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="H85" s="14">
+      <c r="H86" s="14">
         <v>42830</v>
       </c>
-      <c r="I85" s="12" t="s">
+      <c r="I86" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="J85" s="12"/>
-    </row>
-    <row r="86" spans="1:10" s="28" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A86" s="32"/>
-      <c r="B86" s="48"/>
-      <c r="C86" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="D86" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E86" s="14">
-        <v>42892</v>
-      </c>
-      <c r="F86" s="12"/>
-      <c r="G86" s="12"/>
-      <c r="H86" s="14"/>
-      <c r="I86" s="12"/>
       <c r="J86" s="12"/>
     </row>
     <row r="87" spans="1:10" s="28" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A87" s="32"/>
       <c r="B87" s="48"/>
       <c r="C87" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D87" s="12" t="s">
         <v>10</v>
@@ -3833,67 +3837,57 @@
       <c r="I87" s="12"/>
       <c r="J87" s="12"/>
     </row>
-    <row r="88" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="32">
-        <v>75</v>
-      </c>
+    <row r="88" spans="1:10" s="28" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A88" s="32"/>
       <c r="B88" s="48"/>
       <c r="C88" s="4" t="s">
-        <v>105</v>
+        <v>219</v>
       </c>
       <c r="D88" s="12" t="s">
         <v>10</v>
       </c>
       <c r="E88" s="14">
-        <v>42863</v>
+        <v>42892</v>
       </c>
       <c r="F88" s="12"/>
-      <c r="G88" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="H88" s="14">
-        <v>42864</v>
-      </c>
-      <c r="I88" s="12" t="s">
-        <v>50</v>
-      </c>
+      <c r="G88" s="12"/>
+      <c r="H88" s="14"/>
+      <c r="I88" s="12"/>
       <c r="J88" s="12"/>
     </row>
     <row r="89" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="32">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B89" s="48"/>
       <c r="C89" s="4" t="s">
-        <v>37</v>
+        <v>105</v>
       </c>
       <c r="D89" s="12" t="s">
         <v>10</v>
       </c>
       <c r="E89" s="14">
-        <v>42826</v>
+        <v>42863</v>
       </c>
       <c r="F89" s="12"/>
       <c r="G89" s="12" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="H89" s="14">
-        <v>42830</v>
+        <v>42864</v>
       </c>
       <c r="I89" s="12" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="J89" s="12"/>
     </row>
-    <row r="90" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="32">
-        <v>77</v>
-      </c>
-      <c r="B90" s="48" t="s">
-        <v>43</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="B90" s="48"/>
       <c r="C90" s="4" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="D90" s="12" t="s">
         <v>10</v>
@@ -3902,48 +3896,50 @@
         <v>42826</v>
       </c>
       <c r="F90" s="12"/>
-      <c r="G90" s="12"/>
-      <c r="H90" s="12"/>
-      <c r="I90" s="12"/>
+      <c r="G90" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="H90" s="14">
+        <v>42830</v>
+      </c>
+      <c r="I90" s="12" t="s">
+        <v>70</v>
+      </c>
       <c r="J90" s="12"/>
     </row>
-    <row r="91" spans="1:10" s="28" customFormat="1" ht="28.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="32"/>
-      <c r="B91" s="48"/>
+    <row r="91" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A91" s="32">
+        <v>77</v>
+      </c>
+      <c r="B91" s="48" t="s">
+        <v>43</v>
+      </c>
       <c r="C91" s="4" t="s">
-        <v>223</v>
+        <v>46</v>
       </c>
       <c r="D91" s="12" t="s">
         <v>10</v>
       </c>
       <c r="E91" s="14">
-        <v>42893</v>
+        <v>42826</v>
       </c>
       <c r="F91" s="12"/>
-      <c r="G91" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="H91" s="14">
-        <v>42893</v>
-      </c>
-      <c r="I91" s="12" t="s">
-        <v>76</v>
-      </c>
+      <c r="G91" s="12"/>
+      <c r="H91" s="12"/>
+      <c r="I91" s="12"/>
       <c r="J91" s="12"/>
     </row>
-    <row r="92" spans="1:10" ht="27" x14ac:dyDescent="0.15">
-      <c r="A92" s="32">
-        <v>78</v>
-      </c>
+    <row r="92" spans="1:10" s="28" customFormat="1" ht="28.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A92" s="32"/>
       <c r="B92" s="48"/>
       <c r="C92" s="4" t="s">
-        <v>126</v>
+        <v>223</v>
       </c>
       <c r="D92" s="12" t="s">
         <v>10</v>
       </c>
       <c r="E92" s="14">
-        <v>42880</v>
+        <v>42893</v>
       </c>
       <c r="F92" s="12"/>
       <c r="G92" s="12" t="s">
@@ -3957,29 +3953,37 @@
       </c>
       <c r="J92" s="12"/>
     </row>
-    <row r="93" spans="1:10" s="28" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="32"/>
+    <row r="93" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+      <c r="A93" s="32">
+        <v>78</v>
+      </c>
       <c r="B93" s="48"/>
       <c r="C93" s="4" t="s">
-        <v>225</v>
+        <v>126</v>
       </c>
       <c r="D93" s="12" t="s">
         <v>10</v>
       </c>
       <c r="E93" s="14">
+        <v>42880</v>
+      </c>
+      <c r="F93" s="12"/>
+      <c r="G93" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="H93" s="14">
         <v>42893</v>
       </c>
-      <c r="F93" s="12"/>
-      <c r="G93" s="12"/>
-      <c r="H93" s="12"/>
-      <c r="I93" s="12"/>
+      <c r="I93" s="12" t="s">
+        <v>76</v>
+      </c>
       <c r="J93" s="12"/>
     </row>
-    <row r="94" spans="1:10" s="28" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:10" s="28" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="32"/>
       <c r="B94" s="48"/>
       <c r="C94" s="4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D94" s="12" t="s">
         <v>10</v>
@@ -3988,46 +3992,46 @@
         <v>42893</v>
       </c>
       <c r="F94" s="12"/>
-      <c r="G94" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="H94" s="14">
-        <v>42893</v>
-      </c>
-      <c r="I94" s="12" t="s">
-        <v>76</v>
-      </c>
+      <c r="G94" s="12"/>
+      <c r="H94" s="12"/>
+      <c r="I94" s="12"/>
       <c r="J94" s="12"/>
     </row>
     <row r="95" spans="1:10" s="28" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="32"/>
       <c r="B95" s="48"/>
       <c r="C95" s="4" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="D95" s="12" t="s">
         <v>10</v>
       </c>
       <c r="E95" s="14">
-        <v>42894</v>
+        <v>42893</v>
       </c>
       <c r="F95" s="12"/>
-      <c r="G95" s="12"/>
-      <c r="H95" s="14"/>
-      <c r="I95" s="12"/>
+      <c r="G95" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="H95" s="14">
+        <v>42893</v>
+      </c>
+      <c r="I95" s="12" t="s">
+        <v>76</v>
+      </c>
       <c r="J95" s="12"/>
     </row>
     <row r="96" spans="1:10" s="28" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="32"/>
       <c r="B96" s="48"/>
       <c r="C96" s="4" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="D96" s="12" t="s">
-        <v>230</v>
+        <v>10</v>
       </c>
       <c r="E96" s="14">
-        <v>42893</v>
+        <v>42894</v>
       </c>
       <c r="F96" s="12"/>
       <c r="G96" s="12"/>
@@ -4039,7 +4043,7 @@
       <c r="A97" s="32"/>
       <c r="B97" s="48"/>
       <c r="C97" s="4" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D97" s="12" t="s">
         <v>230</v>
@@ -4053,29 +4057,29 @@
       <c r="I97" s="12"/>
       <c r="J97" s="12"/>
     </row>
-    <row r="98" spans="1:10" s="28" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:10" s="28" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="32"/>
       <c r="B98" s="48"/>
       <c r="C98" s="4" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="D98" s="12" t="s">
-        <v>10</v>
+        <v>230</v>
       </c>
       <c r="E98" s="14">
         <v>42893</v>
       </c>
       <c r="F98" s="12"/>
       <c r="G98" s="12"/>
-      <c r="H98" s="12"/>
+      <c r="H98" s="14"/>
       <c r="I98" s="12"/>
       <c r="J98" s="12"/>
     </row>
-    <row r="99" spans="1:10" s="28" customFormat="1" ht="25.9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:10" s="28" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A99" s="32"/>
       <c r="B99" s="48"/>
       <c r="C99" s="4" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D99" s="12" t="s">
         <v>10</v>
@@ -4084,46 +4088,42 @@
         <v>42893</v>
       </c>
       <c r="F99" s="12"/>
-      <c r="G99" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="H99" s="14">
-        <v>42893</v>
-      </c>
-      <c r="I99" s="12" t="s">
-        <v>76</v>
-      </c>
+      <c r="G99" s="12"/>
+      <c r="H99" s="12"/>
+      <c r="I99" s="12"/>
       <c r="J99" s="12"/>
     </row>
-    <row r="100" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="32">
-        <v>79</v>
-      </c>
+    <row r="100" spans="1:10" s="28" customFormat="1" ht="25.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A100" s="32"/>
       <c r="B100" s="48"/>
       <c r="C100" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="D100" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E100" s="14">
+        <v>42893</v>
+      </c>
+      <c r="F100" s="12"/>
+      <c r="G100" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="H100" s="14">
+        <v>42893</v>
+      </c>
+      <c r="I100" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="J100" s="12"/>
+    </row>
+    <row r="101" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A101" s="32">
+        <v>79</v>
+      </c>
+      <c r="B101" s="48"/>
+      <c r="C101" s="4" t="s">
         <v>45</v>
-      </c>
-      <c r="D100" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E100" s="14">
-        <v>42826</v>
-      </c>
-      <c r="F100" s="12"/>
-      <c r="G100" s="12"/>
-      <c r="H100" s="12"/>
-      <c r="I100" s="12"/>
-      <c r="J100" s="12"/>
-    </row>
-    <row r="101" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="32">
-        <v>80</v>
-      </c>
-      <c r="B101" s="48" t="s">
-        <v>44</v>
-      </c>
-      <c r="C101" s="4" t="s">
-        <v>47</v>
       </c>
       <c r="D101" s="12" t="s">
         <v>10</v>
@@ -4132,46 +4132,50 @@
         <v>42826</v>
       </c>
       <c r="F101" s="12"/>
-      <c r="G101" s="12" t="s">
+      <c r="G101" s="12"/>
+      <c r="H101" s="12"/>
+      <c r="I101" s="12"/>
+      <c r="J101" s="12"/>
+    </row>
+    <row r="102" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A102" s="32">
+        <v>80</v>
+      </c>
+      <c r="B102" s="48" t="s">
+        <v>44</v>
+      </c>
+      <c r="C102" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D102" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E102" s="14">
+        <v>42826</v>
+      </c>
+      <c r="F102" s="12"/>
+      <c r="G102" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="H101" s="14">
+      <c r="H102" s="14">
         <v>42832</v>
       </c>
-      <c r="I101" s="12" t="s">
+      <c r="I102" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="J101" s="12"/>
-    </row>
-    <row r="102" spans="1:10" s="28" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="32"/>
-      <c r="B102" s="48"/>
-      <c r="C102" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="D102" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E102" s="14">
-        <v>42893</v>
-      </c>
-      <c r="F102" s="12"/>
-      <c r="G102" s="12"/>
-      <c r="H102" s="14"/>
-      <c r="I102" s="12"/>
       <c r="J102" s="12"/>
     </row>
     <row r="103" spans="1:10" s="28" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="32"/>
       <c r="B103" s="48"/>
       <c r="C103" s="4" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="D103" s="12" t="s">
         <v>10</v>
       </c>
       <c r="E103" s="14">
-        <v>42894</v>
+        <v>42893</v>
       </c>
       <c r="F103" s="12"/>
       <c r="G103" s="12"/>
@@ -4182,11 +4186,15 @@
     <row r="104" spans="1:10" s="28" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="32"/>
       <c r="B104" s="48"/>
-      <c r="C104" s="42" t="s">
-        <v>232</v>
-      </c>
-      <c r="D104" s="43"/>
-      <c r="E104" s="44"/>
+      <c r="C104" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="D104" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E104" s="14">
+        <v>42894</v>
+      </c>
       <c r="F104" s="12"/>
       <c r="G104" s="12"/>
       <c r="H104" s="14"/>
@@ -4196,32 +4204,22 @@
     <row r="105" spans="1:10" s="28" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="32"/>
       <c r="B105" s="48"/>
-      <c r="C105" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="D105" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E105" s="14">
-        <v>42893</v>
-      </c>
+      <c r="C105" s="42" t="s">
+        <v>232</v>
+      </c>
+      <c r="D105" s="43"/>
+      <c r="E105" s="44"/>
       <c r="F105" s="12"/>
-      <c r="G105" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="H105" s="14">
-        <v>42893</v>
-      </c>
-      <c r="I105" s="12" t="s">
-        <v>76</v>
-      </c>
+      <c r="G105" s="12"/>
+      <c r="H105" s="14"/>
+      <c r="I105" s="12"/>
       <c r="J105" s="12"/>
     </row>
     <row r="106" spans="1:10" s="28" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="32"/>
       <c r="B106" s="48"/>
       <c r="C106" s="4" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="D106" s="12" t="s">
         <v>10</v>
@@ -4241,23 +4239,21 @@
       </c>
       <c r="J106" s="12"/>
     </row>
-    <row r="107" spans="1:10" ht="27" x14ac:dyDescent="0.15">
-      <c r="A107" s="32">
-        <v>81</v>
-      </c>
+    <row r="107" spans="1:10" s="28" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A107" s="32"/>
       <c r="B107" s="48"/>
       <c r="C107" s="4" t="s">
-        <v>136</v>
+        <v>227</v>
       </c>
       <c r="D107" s="12" t="s">
         <v>10</v>
       </c>
       <c r="E107" s="14">
-        <v>42880</v>
+        <v>42893</v>
       </c>
       <c r="F107" s="12"/>
       <c r="G107" s="12" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="H107" s="14">
         <v>42893</v>
@@ -4267,65 +4263,67 @@
       </c>
       <c r="J107" s="12"/>
     </row>
-    <row r="108" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A108" s="32">
-        <v>82</v>
-      </c>
-      <c r="B108" s="45" t="s">
-        <v>65</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="B108" s="48"/>
       <c r="C108" s="4" t="s">
-        <v>66</v>
+        <v>136</v>
       </c>
       <c r="D108" s="12" t="s">
         <v>10</v>
       </c>
       <c r="E108" s="14">
-        <v>42830</v>
+        <v>42880</v>
       </c>
       <c r="F108" s="12"/>
       <c r="G108" s="12" t="s">
         <v>78</v>
       </c>
       <c r="H108" s="14">
-        <v>42830</v>
+        <v>42893</v>
       </c>
       <c r="I108" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="J108" s="12" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="109" spans="1:10" s="28" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A109" s="32"/>
-      <c r="B109" s="46"/>
+      <c r="J108" s="12"/>
+    </row>
+    <row r="109" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A109" s="32">
+        <v>82</v>
+      </c>
+      <c r="B109" s="45" t="s">
+        <v>65</v>
+      </c>
       <c r="C109" s="4" t="s">
-        <v>187</v>
+        <v>66</v>
       </c>
       <c r="D109" s="12" t="s">
         <v>10</v>
       </c>
       <c r="E109" s="14">
-        <v>42892</v>
+        <v>42830</v>
       </c>
       <c r="F109" s="12"/>
       <c r="G109" s="12" t="s">
         <v>78</v>
       </c>
       <c r="H109" s="14">
-        <v>42892</v>
+        <v>42830</v>
       </c>
       <c r="I109" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="J109" s="12"/>
+      <c r="J109" s="12" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="110" spans="1:10" s="28" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A110" s="32"/>
-      <c r="B110" s="47"/>
+      <c r="B110" s="46"/>
       <c r="C110" s="4" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D110" s="12" t="s">
         <v>10</v>
@@ -4345,61 +4343,65 @@
       </c>
       <c r="J110" s="12"/>
     </row>
-    <row r="111" spans="1:10" s="20" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A111" s="32">
-        <v>83</v>
-      </c>
-      <c r="B111" s="49" t="s">
-        <v>67</v>
-      </c>
-      <c r="C111" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="D111" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E111" s="19">
-        <v>42830</v>
-      </c>
-      <c r="F111" s="9"/>
-      <c r="G111" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="H111" s="19">
-        <v>42831</v>
-      </c>
-      <c r="I111" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="J111" s="9"/>
+    <row r="111" spans="1:10" s="28" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A111" s="32"/>
+      <c r="B111" s="47"/>
+      <c r="C111" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="D111" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E111" s="14">
+        <v>42892</v>
+      </c>
+      <c r="F111" s="12"/>
+      <c r="G111" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="H111" s="14">
+        <v>42892</v>
+      </c>
+      <c r="I111" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="J111" s="12"/>
     </row>
     <row r="112" spans="1:10" s="20" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="32">
-        <v>84</v>
-      </c>
-      <c r="B112" s="49"/>
+        <v>83</v>
+      </c>
+      <c r="B112" s="49" t="s">
+        <v>67</v>
+      </c>
       <c r="C112" s="8" t="s">
-        <v>95</v>
+        <v>68</v>
       </c>
       <c r="D112" s="9" t="s">
         <v>10</v>
       </c>
       <c r="E112" s="19">
-        <v>42857</v>
+        <v>42830</v>
       </c>
       <c r="F112" s="9"/>
-      <c r="G112" s="9"/>
-      <c r="H112" s="19"/>
-      <c r="I112" s="9"/>
+      <c r="G112" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="H112" s="19">
+        <v>42831</v>
+      </c>
+      <c r="I112" s="9" t="s">
+        <v>70</v>
+      </c>
       <c r="J112" s="9"/>
     </row>
     <row r="113" spans="1:10" s="20" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A113" s="32">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B113" s="49"/>
       <c r="C113" s="8" t="s">
-        <v>190</v>
+        <v>95</v>
       </c>
       <c r="D113" s="9" t="s">
         <v>10</v>
@@ -4415,11 +4417,11 @@
     </row>
     <row r="114" spans="1:10" s="20" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" s="32">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B114" s="49"/>
       <c r="C114" s="8" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D114" s="9" t="s">
         <v>10</v>
@@ -4434,16 +4436,18 @@
       <c r="J114" s="9"/>
     </row>
     <row r="115" spans="1:10" s="20" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A115" s="32"/>
+      <c r="A115" s="32">
+        <v>86</v>
+      </c>
       <c r="B115" s="49"/>
       <c r="C115" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="D115" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E115" s="14">
-        <v>42892</v>
+        <v>189</v>
+      </c>
+      <c r="D115" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E115" s="19">
+        <v>42857</v>
       </c>
       <c r="F115" s="9"/>
       <c r="G115" s="9"/>
@@ -4455,7 +4459,7 @@
       <c r="A116" s="32"/>
       <c r="B116" s="49"/>
       <c r="C116" s="8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D116" s="12" t="s">
         <v>10</v>
@@ -4473,7 +4477,7 @@
       <c r="A117" s="32"/>
       <c r="B117" s="49"/>
       <c r="C117" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D117" s="12" t="s">
         <v>10</v>
@@ -4491,7 +4495,7 @@
       <c r="A118" s="32"/>
       <c r="B118" s="49"/>
       <c r="C118" s="8" t="s">
-        <v>215</v>
+        <v>193</v>
       </c>
       <c r="D118" s="12" t="s">
         <v>10</v>
@@ -4505,89 +4509,79 @@
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
     </row>
-    <row r="119" spans="1:10" s="20" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A119" s="32">
-        <v>87</v>
-      </c>
+    <row r="119" spans="1:10" s="20" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A119" s="32"/>
       <c r="B119" s="49"/>
       <c r="C119" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="D119" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E119" s="19">
-        <v>42826</v>
+        <v>215</v>
+      </c>
+      <c r="D119" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E119" s="14">
+        <v>42892</v>
       </c>
       <c r="F119" s="9"/>
       <c r="G119" s="9"/>
-      <c r="H119" s="9"/>
+      <c r="H119" s="19"/>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
     </row>
-    <row r="120" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:10" s="20" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A120" s="32">
-        <v>88</v>
-      </c>
-      <c r="B120" s="48" t="s">
         <v>87</v>
       </c>
-      <c r="C120" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D120" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E120" s="14">
-        <v>42837</v>
-      </c>
-      <c r="F120" s="12"/>
-      <c r="G120" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="H120" s="14">
-        <v>42839</v>
-      </c>
-      <c r="I120" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="J120" s="12"/>
+      <c r="B120" s="49"/>
+      <c r="C120" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="D120" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E120" s="19">
+        <v>42826</v>
+      </c>
+      <c r="F120" s="9"/>
+      <c r="G120" s="9"/>
+      <c r="H120" s="9"/>
+      <c r="I120" s="9"/>
+      <c r="J120" s="9"/>
     </row>
     <row r="121" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A121" s="32">
-        <v>89</v>
-      </c>
-      <c r="B121" s="48"/>
+        <v>88</v>
+      </c>
+      <c r="B121" s="48" t="s">
+        <v>87</v>
+      </c>
       <c r="C121" s="4" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D121" s="12" t="s">
         <v>10</v>
       </c>
       <c r="E121" s="14">
-        <v>42857</v>
+        <v>42837</v>
       </c>
       <c r="F121" s="12"/>
       <c r="G121" s="12" t="s">
-        <v>144</v>
+        <v>56</v>
       </c>
       <c r="H121" s="14">
-        <v>42882</v>
+        <v>42839</v>
       </c>
       <c r="I121" s="12" t="s">
-        <v>145</v>
+        <v>50</v>
       </c>
       <c r="J121" s="12"/>
     </row>
     <row r="122" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A122" s="32">
-        <v>90</v>
-      </c>
-      <c r="B122" s="45" t="s">
-        <v>97</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="B122" s="48"/>
       <c r="C122" s="4" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D122" s="12" t="s">
         <v>10</v>
@@ -4597,39 +4591,49 @@
       </c>
       <c r="F122" s="12"/>
       <c r="G122" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="H122" s="14">
+        <v>42882</v>
+      </c>
+      <c r="I122" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="J122" s="12"/>
+    </row>
+    <row r="123" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A123" s="32">
+        <v>90</v>
+      </c>
+      <c r="B123" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="C123" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D123" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E123" s="14">
+        <v>42857</v>
+      </c>
+      <c r="F123" s="12"/>
+      <c r="G123" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="H122" s="14">
+      <c r="H123" s="14">
         <v>42857</v>
       </c>
-      <c r="I122" s="12" t="s">
+      <c r="I123" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="J122" s="12"/>
-    </row>
-    <row r="123" spans="1:10" s="28" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A123" s="32"/>
-      <c r="B123" s="46"/>
-      <c r="C123" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="D123" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E123" s="14">
-        <v>42892</v>
-      </c>
-      <c r="F123" s="12"/>
-      <c r="G123" s="12"/>
-      <c r="H123" s="14"/>
-      <c r="I123" s="12"/>
       <c r="J123" s="12"/>
     </row>
     <row r="124" spans="1:10" s="28" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A124" s="32"/>
       <c r="B124" s="46"/>
       <c r="C124" s="4" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="D124" s="12" t="s">
         <v>10</v>
@@ -4647,7 +4651,7 @@
       <c r="A125" s="32"/>
       <c r="B125" s="46"/>
       <c r="C125" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D125" s="12" t="s">
         <v>10</v>
@@ -4661,11 +4665,11 @@
       <c r="I125" s="12"/>
       <c r="J125" s="12"/>
     </row>
-    <row r="126" spans="1:10" s="28" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:10" s="28" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A126" s="32"/>
       <c r="B126" s="46"/>
       <c r="C126" s="4" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D126" s="12" t="s">
         <v>10</v>
@@ -4679,75 +4683,67 @@
       <c r="I126" s="12"/>
       <c r="J126" s="12"/>
     </row>
-    <row r="127" spans="1:10" s="28" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:10" s="28" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A127" s="32"/>
       <c r="B127" s="46"/>
       <c r="C127" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="D127" s="12"/>
-      <c r="E127" s="14"/>
+        <v>207</v>
+      </c>
+      <c r="D127" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E127" s="14">
+        <v>42892</v>
+      </c>
       <c r="F127" s="12"/>
       <c r="G127" s="12"/>
       <c r="H127" s="14"/>
       <c r="I127" s="12"/>
       <c r="J127" s="12"/>
     </row>
-    <row r="128" spans="1:10" ht="27" x14ac:dyDescent="0.15">
-      <c r="A128" s="32">
-        <v>91</v>
-      </c>
-      <c r="B128" s="47"/>
+    <row r="128" spans="1:10" s="28" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A128" s="32"/>
+      <c r="B128" s="46"/>
       <c r="C128" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="D128" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="E128" s="14">
-        <v>42892</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="D128" s="12"/>
+      <c r="E128" s="14"/>
       <c r="F128" s="12"/>
       <c r="G128" s="12"/>
       <c r="H128" s="14"/>
       <c r="I128" s="12"/>
       <c r="J128" s="12"/>
     </row>
-    <row r="129" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A129" s="32">
-        <v>92</v>
-      </c>
-      <c r="B129" s="48" t="s">
-        <v>99</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="B129" s="47"/>
       <c r="C129" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="D129" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="D129" s="24" t="s">
         <v>10</v>
       </c>
       <c r="E129" s="14">
-        <v>42857</v>
+        <v>42892</v>
       </c>
       <c r="F129" s="12"/>
-      <c r="G129" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="H129" s="14">
-        <v>42857</v>
-      </c>
-      <c r="I129" s="12" t="s">
-        <v>76</v>
-      </c>
+      <c r="G129" s="12"/>
+      <c r="H129" s="14"/>
+      <c r="I129" s="12"/>
       <c r="J129" s="12"/>
     </row>
     <row r="130" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A130" s="32">
-        <v>93</v>
-      </c>
-      <c r="B130" s="48"/>
+        <v>92</v>
+      </c>
+      <c r="B130" s="48" t="s">
+        <v>99</v>
+      </c>
       <c r="C130" s="4" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D130" s="12" t="s">
         <v>10</v>
@@ -4769,11 +4765,11 @@
     </row>
     <row r="131" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A131" s="32">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B131" s="48"/>
       <c r="C131" s="4" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D131" s="12" t="s">
         <v>10</v>
@@ -4793,99 +4789,105 @@
       </c>
       <c r="J131" s="12"/>
     </row>
-    <row r="132" spans="1:10" s="28" customFormat="1" ht="40.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A132" s="32"/>
-      <c r="B132" s="41" t="s">
+    <row r="132" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A132" s="32">
+        <v>94</v>
+      </c>
+      <c r="B132" s="48"/>
+      <c r="C132" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D132" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E132" s="14">
+        <v>42857</v>
+      </c>
+      <c r="F132" s="12"/>
+      <c r="G132" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="H132" s="14">
+        <v>42857</v>
+      </c>
+      <c r="I132" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="J132" s="12"/>
+    </row>
+    <row r="133" spans="1:10" s="28" customFormat="1" ht="40.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A133" s="32"/>
+      <c r="B133" s="41" t="s">
         <v>201</v>
       </c>
-      <c r="C132" s="4" t="s">
+      <c r="C133" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="D132" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E132" s="14">
+      <c r="D133" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E133" s="14">
         <v>42892</v>
       </c>
-      <c r="F132" s="12"/>
-      <c r="G132" s="12"/>
-      <c r="H132" s="14"/>
-      <c r="I132" s="12"/>
-      <c r="J132" s="12"/>
-    </row>
-    <row r="133" spans="1:10" ht="27" x14ac:dyDescent="0.15">
-      <c r="A133" s="32">
+      <c r="F133" s="12"/>
+      <c r="G133" s="12"/>
+      <c r="H133" s="14"/>
+      <c r="I133" s="12"/>
+      <c r="J133" s="12"/>
+    </row>
+    <row r="134" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+      <c r="A134" s="32">
         <v>95</v>
       </c>
-      <c r="B133" s="45" t="s">
+      <c r="B134" s="45" t="s">
         <v>111</v>
       </c>
-      <c r="C133" s="4" t="s">
+      <c r="C134" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="D133" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E133" s="14">
+      <c r="D134" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E134" s="14">
         <v>42863</v>
       </c>
-      <c r="F133" s="12"/>
-      <c r="G133" s="7" t="s">
+      <c r="F134" s="12"/>
+      <c r="G134" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="H133" s="15">
+      <c r="H134" s="15">
         <v>42881</v>
       </c>
-      <c r="I133" s="12" t="s">
+      <c r="I134" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="J133" s="12"/>
-    </row>
-    <row r="134" spans="1:10" s="28" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A134" s="32"/>
-      <c r="B134" s="46"/>
-      <c r="C134" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="D134" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="E134" s="14">
-        <v>42892</v>
-      </c>
-      <c r="F134" s="12"/>
-      <c r="G134" s="29"/>
-      <c r="H134" s="33"/>
-      <c r="I134" s="12"/>
       <c r="J134" s="12"/>
     </row>
-    <row r="135" spans="1:10" ht="27" x14ac:dyDescent="0.15">
-      <c r="A135" s="32">
-        <v>96</v>
-      </c>
+    <row r="135" spans="1:10" s="28" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A135" s="32"/>
       <c r="B135" s="46"/>
       <c r="C135" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="D135" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="D135" s="24" t="s">
         <v>10</v>
       </c>
       <c r="E135" s="14">
-        <v>42886</v>
+        <v>42892</v>
       </c>
       <c r="F135" s="12"/>
-      <c r="G135" s="7"/>
-      <c r="H135" s="15"/>
+      <c r="G135" s="29"/>
+      <c r="H135" s="33"/>
       <c r="I135" s="12"/>
       <c r="J135" s="12"/>
     </row>
-    <row r="136" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A136" s="32">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B136" s="46"/>
       <c r="C136" s="4" t="s">
-        <v>150</v>
+        <v>213</v>
       </c>
       <c r="D136" s="12" t="s">
         <v>10</v>
@@ -4899,55 +4901,49 @@
       <c r="I136" s="12"/>
       <c r="J136" s="12"/>
     </row>
-    <row r="137" spans="1:10" s="28" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A137" s="50" t="s">
+    <row r="137" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A137" s="32">
+        <v>97</v>
+      </c>
+      <c r="B137" s="46"/>
+      <c r="C137" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="D137" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E137" s="14">
+        <v>42886</v>
+      </c>
+      <c r="F137" s="12"/>
+      <c r="G137" s="7"/>
+      <c r="H137" s="15"/>
+      <c r="I137" s="12"/>
+      <c r="J137" s="12"/>
+    </row>
+    <row r="138" spans="1:10" s="28" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A138" s="50" t="s">
         <v>199</v>
       </c>
-      <c r="B137" s="51"/>
-      <c r="C137" s="51"/>
-      <c r="D137" s="51"/>
-      <c r="E137" s="51"/>
-      <c r="F137" s="51"/>
-      <c r="G137" s="51"/>
-      <c r="H137" s="51"/>
-      <c r="I137" s="51"/>
-      <c r="J137" s="52"/>
-    </row>
-    <row r="138" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A138" s="32">
+      <c r="B138" s="51"/>
+      <c r="C138" s="51"/>
+      <c r="D138" s="51"/>
+      <c r="E138" s="51"/>
+      <c r="F138" s="51"/>
+      <c r="G138" s="51"/>
+      <c r="H138" s="51"/>
+      <c r="I138" s="51"/>
+      <c r="J138" s="52"/>
+    </row>
+    <row r="139" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A139" s="32">
         <v>98</v>
       </c>
-      <c r="B138" s="48" t="s">
+      <c r="B139" s="48" t="s">
         <v>113</v>
       </c>
-      <c r="C138" s="4" t="s">
+      <c r="C139" s="4" t="s">
         <v>115</v>
-      </c>
-      <c r="D138" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E138" s="14">
-        <v>42863</v>
-      </c>
-      <c r="F138" s="12"/>
-      <c r="G138" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="H138" s="14">
-        <v>42141</v>
-      </c>
-      <c r="I138" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="J138" s="12"/>
-    </row>
-    <row r="139" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A139" s="32">
-        <v>99</v>
-      </c>
-      <c r="B139" s="48"/>
-      <c r="C139" s="4" t="s">
-        <v>116</v>
       </c>
       <c r="D139" s="12" t="s">
         <v>10</v>
@@ -4963,19 +4959,17 @@
         <v>42141</v>
       </c>
       <c r="I139" s="12" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="J139" s="12"/>
     </row>
-    <row r="140" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A140" s="32">
-        <v>100</v>
-      </c>
-      <c r="B140" s="48" t="s">
-        <v>114</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="B140" s="48"/>
       <c r="C140" s="4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D140" s="12" t="s">
         <v>10</v>
@@ -4995,13 +4989,15 @@
       </c>
       <c r="J140" s="12"/>
     </row>
-    <row r="141" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A141" s="32">
-        <v>101</v>
-      </c>
-      <c r="B141" s="48"/>
+        <v>100</v>
+      </c>
+      <c r="B141" s="48" t="s">
+        <v>114</v>
+      </c>
       <c r="C141" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D141" s="12" t="s">
         <v>10</v>
@@ -5021,15 +5017,13 @@
       </c>
       <c r="J141" s="12"/>
     </row>
-    <row r="142" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A142" s="32">
-        <v>102</v>
-      </c>
-      <c r="B142" s="45" t="s">
-        <v>118</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="B142" s="48"/>
       <c r="C142" s="4" t="s">
-        <v>140</v>
+        <v>117</v>
       </c>
       <c r="D142" s="12" t="s">
         <v>10</v>
@@ -5038,80 +5032,80 @@
         <v>42863</v>
       </c>
       <c r="F142" s="12"/>
-      <c r="G142" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="H142" s="15">
-        <v>42882</v>
+      <c r="G142" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="H142" s="14">
+        <v>42141</v>
       </c>
       <c r="I142" s="12" t="s">
         <v>124</v>
       </c>
       <c r="J142" s="12"/>
     </row>
-    <row r="143" spans="1:10" s="26" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A143" s="32">
+        <v>102</v>
+      </c>
+      <c r="B143" s="45" t="s">
+        <v>118</v>
+      </c>
+      <c r="C143" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="D143" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E143" s="14">
+        <v>42863</v>
+      </c>
+      <c r="F143" s="12"/>
+      <c r="G143" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H143" s="15">
+        <v>42882</v>
+      </c>
+      <c r="I143" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="J143" s="12"/>
+    </row>
+    <row r="144" spans="1:10" s="26" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A144" s="32">
         <v>103</v>
       </c>
-      <c r="B143" s="47"/>
-      <c r="C143" s="4" t="s">
+      <c r="B144" s="47"/>
+      <c r="C144" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="D143" s="24" t="s">
+      <c r="D144" s="24" t="s">
         <v>170</v>
       </c>
-      <c r="E143" s="25">
+      <c r="E144" s="25">
         <v>42887</v>
       </c>
-      <c r="F143" s="12"/>
-      <c r="G143" s="24"/>
-      <c r="H143" s="27"/>
-      <c r="I143" s="11"/>
-      <c r="J143" s="11"/>
-    </row>
-    <row r="144" spans="1:10" ht="42" x14ac:dyDescent="0.15">
-      <c r="A144" s="32">
+      <c r="F144" s="12"/>
+      <c r="G144" s="24"/>
+      <c r="H144" s="27"/>
+      <c r="I144" s="11"/>
+      <c r="J144" s="11"/>
+    </row>
+    <row r="145" spans="1:10" ht="42" x14ac:dyDescent="0.15">
+      <c r="A145" s="32">
         <v>104</v>
       </c>
-      <c r="B144" s="22" t="s">
+      <c r="B145" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="C144" s="4" t="s">
+      <c r="C145" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="D144" s="12" t="s">
+      <c r="D145" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="E144" s="14">
+      <c r="E145" s="14">
         <v>42864</v>
-      </c>
-      <c r="F144" s="12"/>
-      <c r="G144" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="H144" s="14">
-        <v>42151</v>
-      </c>
-      <c r="I144" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="J144" s="12"/>
-    </row>
-    <row r="145" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A145" s="32">
-        <v>105</v>
-      </c>
-      <c r="B145" s="45" t="s">
-        <v>132</v>
-      </c>
-      <c r="C145" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="D145" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="E145" s="14">
-        <v>42880</v>
       </c>
       <c r="F145" s="12"/>
       <c r="G145" s="12" t="s">
@@ -5121,17 +5115,19 @@
         <v>42151</v>
       </c>
       <c r="I145" s="12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J145" s="12"/>
     </row>
     <row r="146" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A146" s="32">
-        <v>106</v>
-      </c>
-      <c r="B146" s="46"/>
+        <v>105</v>
+      </c>
+      <c r="B146" s="45" t="s">
+        <v>132</v>
+      </c>
       <c r="C146" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D146" s="12" t="s">
         <v>134</v>
@@ -5151,13 +5147,13 @@
       </c>
       <c r="J146" s="12"/>
     </row>
-    <row r="147" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A147" s="32">
-        <v>107</v>
-      </c>
-      <c r="B147" s="47"/>
+        <v>106</v>
+      </c>
+      <c r="B147" s="46"/>
       <c r="C147" s="4" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D147" s="12" t="s">
         <v>134</v>
@@ -5177,37 +5173,41 @@
       </c>
       <c r="J147" s="12"/>
     </row>
-    <row r="148" spans="1:10" s="26" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A148" s="32">
+        <v>107</v>
+      </c>
+      <c r="B148" s="47"/>
+      <c r="C148" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="D148" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="E148" s="14">
+        <v>42880</v>
+      </c>
+      <c r="F148" s="12"/>
+      <c r="G148" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="H148" s="14">
+        <v>42151</v>
+      </c>
+      <c r="I148" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="J148" s="12"/>
+    </row>
+    <row r="149" spans="1:10" s="26" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A149" s="32">
         <v>108</v>
       </c>
-      <c r="B148" s="11" t="s">
+      <c r="B149" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="C148" s="4" t="s">
+      <c r="C149" s="4" t="s">
         <v>174</v>
-      </c>
-      <c r="D148" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="E148" s="25">
-        <v>42888</v>
-      </c>
-      <c r="F148" s="12"/>
-      <c r="G148" s="11"/>
-      <c r="H148" s="11"/>
-      <c r="I148" s="11"/>
-      <c r="J148" s="11"/>
-    </row>
-    <row r="149" spans="1:10" ht="27" x14ac:dyDescent="0.15">
-      <c r="A149" s="32">
-        <v>109</v>
-      </c>
-      <c r="B149" s="31" t="s">
-        <v>200</v>
-      </c>
-      <c r="C149" s="4" t="s">
-        <v>175</v>
       </c>
       <c r="D149" s="24" t="s">
         <v>10</v>
@@ -5216,17 +5216,27 @@
         <v>42888</v>
       </c>
       <c r="F149" s="12"/>
-      <c r="G149" s="12"/>
-      <c r="H149" s="12"/>
-      <c r="I149" s="12"/>
-      <c r="J149" s="12"/>
-    </row>
-    <row r="150" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A150" s="12"/>
-      <c r="B150" s="22"/>
-      <c r="C150" s="4"/>
-      <c r="D150" s="12"/>
-      <c r="E150" s="12"/>
+      <c r="G149" s="11"/>
+      <c r="H149" s="11"/>
+      <c r="I149" s="11"/>
+      <c r="J149" s="11"/>
+    </row>
+    <row r="150" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+      <c r="A150" s="32">
+        <v>109</v>
+      </c>
+      <c r="B150" s="31" t="s">
+        <v>200</v>
+      </c>
+      <c r="C150" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="D150" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E150" s="25">
+        <v>42888</v>
+      </c>
       <c r="F150" s="12"/>
       <c r="G150" s="12"/>
       <c r="H150" s="12"/>
@@ -6901,32 +6911,44 @@
       <c r="I289" s="12"/>
       <c r="J289" s="12"/>
     </row>
+    <row r="290" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A290" s="12"/>
+      <c r="B290" s="22"/>
+      <c r="C290" s="4"/>
+      <c r="D290" s="12"/>
+      <c r="E290" s="12"/>
+      <c r="F290" s="12"/>
+      <c r="G290" s="12"/>
+      <c r="H290" s="12"/>
+      <c r="I290" s="12"/>
+      <c r="J290" s="12"/>
+    </row>
   </sheetData>
   <mergeCells count="24">
     <mergeCell ref="B55:B60"/>
     <mergeCell ref="B61:B63"/>
-    <mergeCell ref="B138:B139"/>
+    <mergeCell ref="B139:B140"/>
     <mergeCell ref="B38:B47"/>
     <mergeCell ref="B48:B52"/>
     <mergeCell ref="B53:B54"/>
-    <mergeCell ref="A137:J137"/>
-    <mergeCell ref="B108:B110"/>
+    <mergeCell ref="A138:J138"/>
+    <mergeCell ref="B109:B111"/>
     <mergeCell ref="B29:B37"/>
-    <mergeCell ref="B64:B72"/>
+    <mergeCell ref="B64:B73"/>
     <mergeCell ref="B2:B28"/>
-    <mergeCell ref="B122:B128"/>
-    <mergeCell ref="B145:B147"/>
-    <mergeCell ref="B73:B79"/>
-    <mergeCell ref="B80:B84"/>
-    <mergeCell ref="B85:B89"/>
-    <mergeCell ref="B90:B100"/>
-    <mergeCell ref="B140:B141"/>
-    <mergeCell ref="B101:B107"/>
-    <mergeCell ref="B111:B119"/>
-    <mergeCell ref="B120:B121"/>
-    <mergeCell ref="B129:B131"/>
-    <mergeCell ref="B133:B136"/>
-    <mergeCell ref="B142:B143"/>
+    <mergeCell ref="B123:B129"/>
+    <mergeCell ref="B146:B148"/>
+    <mergeCell ref="B74:B80"/>
+    <mergeCell ref="B81:B85"/>
+    <mergeCell ref="B86:B90"/>
+    <mergeCell ref="B91:B101"/>
+    <mergeCell ref="B141:B142"/>
+    <mergeCell ref="B102:B108"/>
+    <mergeCell ref="B112:B120"/>
+    <mergeCell ref="B121:B122"/>
+    <mergeCell ref="B130:B132"/>
+    <mergeCell ref="B134:B137"/>
+    <mergeCell ref="B143:B144"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I44">

--- a/ProjectManagement/文档/问题点一览.xlsx
+++ b/ProjectManagement/文档/问题点一览.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="238">
   <si>
     <t>NO</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -949,6 +949,14 @@
   </si>
   <si>
     <t>干系人里有3个人，在这里显示3行，但只有一行能正常显示出来，其它两行名称为空。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上面的按条件生成计划后，与生成的内容不符。另外，如何清除查询条件？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>近期工作和问题，点击处理时，仅弹出页面，并没有在页面里加载对应的内容。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1249,19 +1257,7 @@
     <xf numFmtId="14" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1272,6 +1268,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1638,10 +1646,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K290"/>
+  <dimension ref="A1:K292"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="E72" sqref="E72"/>
+    <sheetView tabSelected="1" topLeftCell="A129" workbookViewId="0">
+      <selection activeCell="F137" sqref="F137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="22.15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1696,7 +1704,7 @@
       <c r="A2" s="13">
         <v>1</v>
       </c>
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="49" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -1724,7 +1732,7 @@
       <c r="A3" s="13">
         <v>2</v>
       </c>
-      <c r="B3" s="46"/>
+      <c r="B3" s="50"/>
       <c r="C3" s="4" t="s">
         <v>51</v>
       </c>
@@ -1750,7 +1758,7 @@
       <c r="A4" s="13">
         <v>3</v>
       </c>
-      <c r="B4" s="46"/>
+      <c r="B4" s="50"/>
       <c r="C4" s="4" t="s">
         <v>52</v>
       </c>
@@ -1776,7 +1784,7 @@
       <c r="A5" s="13">
         <v>4</v>
       </c>
-      <c r="B5" s="46"/>
+      <c r="B5" s="50"/>
       <c r="C5" s="4" t="s">
         <v>13</v>
       </c>
@@ -1802,7 +1810,7 @@
       <c r="A6" s="13">
         <v>5</v>
       </c>
-      <c r="B6" s="46"/>
+      <c r="B6" s="50"/>
       <c r="C6" s="4" t="s">
         <v>53</v>
       </c>
@@ -1828,7 +1836,7 @@
       <c r="A7" s="13">
         <v>6</v>
       </c>
-      <c r="B7" s="46"/>
+      <c r="B7" s="50"/>
       <c r="C7" s="4" t="s">
         <v>16</v>
       </c>
@@ -1854,7 +1862,7 @@
       <c r="A8" s="13">
         <v>7</v>
       </c>
-      <c r="B8" s="46"/>
+      <c r="B8" s="50"/>
       <c r="C8" s="4" t="s">
         <v>14</v>
       </c>
@@ -1880,7 +1888,7 @@
       <c r="A9" s="13">
         <v>8</v>
       </c>
-      <c r="B9" s="46"/>
+      <c r="B9" s="50"/>
       <c r="C9" s="4" t="s">
         <v>17</v>
       </c>
@@ -1906,7 +1914,7 @@
       <c r="A10" s="13">
         <v>9</v>
       </c>
-      <c r="B10" s="46"/>
+      <c r="B10" s="50"/>
       <c r="C10" s="6" t="s">
         <v>163</v>
       </c>
@@ -1939,7 +1947,7 @@
       <c r="A11" s="13">
         <v>10</v>
       </c>
-      <c r="B11" s="46"/>
+      <c r="B11" s="50"/>
       <c r="C11" s="4" t="s">
         <v>48</v>
       </c>
@@ -1965,7 +1973,7 @@
       <c r="A12" s="13">
         <v>11</v>
       </c>
-      <c r="B12" s="46"/>
+      <c r="B12" s="50"/>
       <c r="C12" s="4" t="s">
         <v>107</v>
       </c>
@@ -1991,7 +1999,7 @@
       <c r="A13" s="13">
         <v>12</v>
       </c>
-      <c r="B13" s="46"/>
+      <c r="B13" s="50"/>
       <c r="C13" s="4" t="s">
         <v>110</v>
       </c>
@@ -2017,7 +2025,7 @@
       <c r="A14" s="13">
         <v>13</v>
       </c>
-      <c r="B14" s="46"/>
+      <c r="B14" s="50"/>
       <c r="C14" s="4" t="s">
         <v>109</v>
       </c>
@@ -2043,7 +2051,7 @@
       <c r="A15" s="13">
         <v>14</v>
       </c>
-      <c r="B15" s="46"/>
+      <c r="B15" s="50"/>
       <c r="C15" s="6" t="s">
         <v>138</v>
       </c>
@@ -2069,7 +2077,7 @@
       <c r="A16" s="13">
         <v>15</v>
       </c>
-      <c r="B16" s="46"/>
+      <c r="B16" s="50"/>
       <c r="C16" s="6" t="s">
         <v>156</v>
       </c>
@@ -2098,7 +2106,7 @@
       <c r="A17" s="13">
         <v>16</v>
       </c>
-      <c r="B17" s="46"/>
+      <c r="B17" s="50"/>
       <c r="C17" s="6" t="s">
         <v>159</v>
       </c>
@@ -2124,7 +2132,7 @@
       <c r="A18" s="13">
         <v>17</v>
       </c>
-      <c r="B18" s="46"/>
+      <c r="B18" s="50"/>
       <c r="C18" s="10" t="s">
         <v>148</v>
       </c>
@@ -2151,7 +2159,7 @@
       <c r="A19" s="32">
         <v>18</v>
       </c>
-      <c r="B19" s="46"/>
+      <c r="B19" s="50"/>
       <c r="C19" s="10" t="s">
         <v>157</v>
       </c>
@@ -2178,7 +2186,7 @@
       <c r="A20" s="32">
         <v>19</v>
       </c>
-      <c r="B20" s="46"/>
+      <c r="B20" s="50"/>
       <c r="C20" s="10" t="s">
         <v>153</v>
       </c>
@@ -2205,7 +2213,7 @@
       <c r="A21" s="32">
         <v>20</v>
       </c>
-      <c r="B21" s="46"/>
+      <c r="B21" s="50"/>
       <c r="C21" s="37" t="s">
         <v>171</v>
       </c>
@@ -2232,7 +2240,7 @@
       <c r="A22" s="32">
         <v>21</v>
       </c>
-      <c r="B22" s="46"/>
+      <c r="B22" s="50"/>
       <c r="C22" s="40" t="s">
         <v>184</v>
       </c>
@@ -2259,7 +2267,7 @@
       <c r="A23" s="32">
         <v>22</v>
       </c>
-      <c r="B23" s="46"/>
+      <c r="B23" s="50"/>
       <c r="C23" s="40" t="s">
         <v>185</v>
       </c>
@@ -2286,7 +2294,7 @@
       <c r="A24" s="32">
         <v>23</v>
       </c>
-      <c r="B24" s="46"/>
+      <c r="B24" s="50"/>
       <c r="C24" s="10" t="s">
         <v>154</v>
       </c>
@@ -2313,7 +2321,7 @@
       <c r="A25" s="32">
         <v>24</v>
       </c>
-      <c r="B25" s="46"/>
+      <c r="B25" s="50"/>
       <c r="C25" s="30" t="s">
         <v>176</v>
       </c>
@@ -2340,7 +2348,7 @@
       <c r="A26" s="32">
         <v>25</v>
       </c>
-      <c r="B26" s="46"/>
+      <c r="B26" s="50"/>
       <c r="C26" s="6" t="s">
         <v>177</v>
       </c>
@@ -2367,7 +2375,7 @@
       <c r="A27" s="32">
         <v>26</v>
       </c>
-      <c r="B27" s="46"/>
+      <c r="B27" s="50"/>
       <c r="C27" s="6" t="s">
         <v>180</v>
       </c>
@@ -2393,7 +2401,7 @@
       <c r="A28" s="32">
         <v>27</v>
       </c>
-      <c r="B28" s="47"/>
+      <c r="B28" s="51"/>
       <c r="C28" s="6" t="s">
         <v>181</v>
       </c>
@@ -2419,7 +2427,7 @@
       <c r="A29" s="32">
         <v>28</v>
       </c>
-      <c r="B29" s="45" t="s">
+      <c r="B29" s="49" t="s">
         <v>12</v>
       </c>
       <c r="C29" s="4" t="s">
@@ -2447,7 +2455,7 @@
       <c r="A30" s="32">
         <v>29</v>
       </c>
-      <c r="B30" s="46"/>
+      <c r="B30" s="50"/>
       <c r="C30" s="4" t="s">
         <v>17</v>
       </c>
@@ -2473,7 +2481,7 @@
       <c r="A31" s="32">
         <v>30</v>
       </c>
-      <c r="B31" s="46"/>
+      <c r="B31" s="50"/>
       <c r="C31" s="4" t="s">
         <v>18</v>
       </c>
@@ -2499,7 +2507,7 @@
       <c r="A32" s="32">
         <v>31</v>
       </c>
-      <c r="B32" s="46"/>
+      <c r="B32" s="50"/>
       <c r="C32" s="4" t="s">
         <v>106</v>
       </c>
@@ -2525,7 +2533,7 @@
       <c r="A33" s="32">
         <v>32</v>
       </c>
-      <c r="B33" s="46"/>
+      <c r="B33" s="50"/>
       <c r="C33" s="4" t="s">
         <v>55</v>
       </c>
@@ -2551,7 +2559,7 @@
       <c r="A34" s="32">
         <v>33</v>
       </c>
-      <c r="B34" s="46"/>
+      <c r="B34" s="50"/>
       <c r="C34" s="4" t="s">
         <v>164</v>
       </c>
@@ -2577,7 +2585,7 @@
       <c r="A35" s="32">
         <v>34</v>
       </c>
-      <c r="B35" s="46"/>
+      <c r="B35" s="50"/>
       <c r="C35" s="4" t="s">
         <v>179</v>
       </c>
@@ -2603,7 +2611,7 @@
       <c r="A36" s="32">
         <v>35</v>
       </c>
-      <c r="B36" s="46"/>
+      <c r="B36" s="50"/>
       <c r="C36" s="4" t="s">
         <v>166</v>
       </c>
@@ -2629,7 +2637,7 @@
       <c r="A37" s="32">
         <v>36</v>
       </c>
-      <c r="B37" s="47"/>
+      <c r="B37" s="51"/>
       <c r="C37" s="4" t="s">
         <v>165</v>
       </c>
@@ -2649,7 +2657,7 @@
       <c r="A38" s="32">
         <v>37</v>
       </c>
-      <c r="B38" s="48" t="s">
+      <c r="B38" s="45" t="s">
         <v>19</v>
       </c>
       <c r="C38" s="4" t="s">
@@ -2679,7 +2687,7 @@
       <c r="A39" s="32">
         <v>38</v>
       </c>
-      <c r="B39" s="48"/>
+      <c r="B39" s="45"/>
       <c r="C39" s="4" t="s">
         <v>21</v>
       </c>
@@ -2705,7 +2713,7 @@
       <c r="A40" s="32">
         <v>39</v>
       </c>
-      <c r="B40" s="48"/>
+      <c r="B40" s="45"/>
       <c r="C40" s="4" t="s">
         <v>71</v>
       </c>
@@ -2731,7 +2739,7 @@
       <c r="A41" s="32">
         <v>40</v>
       </c>
-      <c r="B41" s="48"/>
+      <c r="B41" s="45"/>
       <c r="C41" s="4" t="s">
         <v>90</v>
       </c>
@@ -2757,7 +2765,7 @@
       <c r="A42" s="32">
         <v>41</v>
       </c>
-      <c r="B42" s="48"/>
+      <c r="B42" s="45"/>
       <c r="C42" s="4" t="s">
         <v>89</v>
       </c>
@@ -2783,7 +2791,7 @@
       <c r="A43" s="32">
         <v>42</v>
       </c>
-      <c r="B43" s="48"/>
+      <c r="B43" s="45"/>
       <c r="C43" s="4" t="s">
         <v>94</v>
       </c>
@@ -2809,7 +2817,7 @@
       <c r="A44" s="32">
         <v>43</v>
       </c>
-      <c r="B44" s="48"/>
+      <c r="B44" s="45"/>
       <c r="C44" s="4" t="s">
         <v>96</v>
       </c>
@@ -2835,7 +2843,7 @@
       <c r="A45" s="32">
         <v>44</v>
       </c>
-      <c r="B45" s="48"/>
+      <c r="B45" s="45"/>
       <c r="C45" s="4" t="s">
         <v>152</v>
       </c>
@@ -2863,7 +2871,7 @@
       <c r="A46" s="32">
         <v>45</v>
       </c>
-      <c r="B46" s="48"/>
+      <c r="B46" s="45"/>
       <c r="C46" s="6" t="s">
         <v>137</v>
       </c>
@@ -2889,7 +2897,7 @@
       <c r="A47" s="32">
         <v>46</v>
       </c>
-      <c r="B47" s="48"/>
+      <c r="B47" s="45"/>
       <c r="C47" s="4" t="s">
         <v>22</v>
       </c>
@@ -2915,7 +2923,7 @@
       <c r="A48" s="32">
         <v>47</v>
       </c>
-      <c r="B48" s="48" t="s">
+      <c r="B48" s="45" t="s">
         <v>23</v>
       </c>
       <c r="C48" s="4" t="s">
@@ -2943,7 +2951,7 @@
       <c r="A49" s="32">
         <v>48</v>
       </c>
-      <c r="B49" s="48"/>
+      <c r="B49" s="45"/>
       <c r="C49" s="4" t="s">
         <v>92</v>
       </c>
@@ -2971,7 +2979,7 @@
       <c r="A50" s="32">
         <v>49</v>
       </c>
-      <c r="B50" s="48"/>
+      <c r="B50" s="45"/>
       <c r="C50" s="6" t="s">
         <v>91</v>
       </c>
@@ -2997,7 +3005,7 @@
       <c r="A51" s="32">
         <v>50</v>
       </c>
-      <c r="B51" s="48"/>
+      <c r="B51" s="45"/>
       <c r="C51" s="6" t="s">
         <v>149</v>
       </c>
@@ -3023,7 +3031,7 @@
       <c r="A52" s="32">
         <v>51</v>
       </c>
-      <c r="B52" s="48"/>
+      <c r="B52" s="45"/>
       <c r="C52" s="4" t="s">
         <v>25</v>
       </c>
@@ -3049,7 +3057,7 @@
       <c r="A53" s="32">
         <v>52</v>
       </c>
-      <c r="B53" s="48" t="s">
+      <c r="B53" s="45" t="s">
         <v>26</v>
       </c>
       <c r="C53" s="4" t="s">
@@ -3077,7 +3085,7 @@
       <c r="A54" s="32">
         <v>53</v>
       </c>
-      <c r="B54" s="48"/>
+      <c r="B54" s="45"/>
       <c r="C54" s="4" t="s">
         <v>28</v>
       </c>
@@ -3103,7 +3111,7 @@
       <c r="A55" s="32">
         <v>54</v>
       </c>
-      <c r="B55" s="48" t="s">
+      <c r="B55" s="45" t="s">
         <v>29</v>
       </c>
       <c r="C55" s="4" t="s">
@@ -3131,7 +3139,7 @@
       <c r="A56" s="32">
         <v>55</v>
       </c>
-      <c r="B56" s="48"/>
+      <c r="B56" s="45"/>
       <c r="C56" s="4" t="s">
         <v>62</v>
       </c>
@@ -3157,7 +3165,7 @@
       <c r="A57" s="32">
         <v>56</v>
       </c>
-      <c r="B57" s="48"/>
+      <c r="B57" s="45"/>
       <c r="C57" s="4" t="s">
         <v>63</v>
       </c>
@@ -3183,7 +3191,7 @@
       <c r="A58" s="32">
         <v>57</v>
       </c>
-      <c r="B58" s="48"/>
+      <c r="B58" s="45"/>
       <c r="C58" s="4" t="s">
         <v>72</v>
       </c>
@@ -3207,7 +3215,7 @@
     </row>
     <row r="59" spans="1:10" s="28" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A59" s="32"/>
-      <c r="B59" s="48"/>
+      <c r="B59" s="45"/>
       <c r="C59" s="4" t="s">
         <v>198</v>
       </c>
@@ -3227,7 +3235,7 @@
       <c r="A60" s="32">
         <v>58</v>
       </c>
-      <c r="B60" s="48"/>
+      <c r="B60" s="45"/>
       <c r="C60" s="4" t="s">
         <v>61</v>
       </c>
@@ -3253,7 +3261,7 @@
       <c r="A61" s="32">
         <v>59</v>
       </c>
-      <c r="B61" s="48" t="s">
+      <c r="B61" s="45" t="s">
         <v>31</v>
       </c>
       <c r="C61" s="4" t="s">
@@ -3279,7 +3287,7 @@
     </row>
     <row r="62" spans="1:10" s="28" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="32"/>
-      <c r="B62" s="48"/>
+      <c r="B62" s="45"/>
       <c r="C62" s="4" t="s">
         <v>194</v>
       </c>
@@ -3299,7 +3307,7 @@
       <c r="A63" s="32">
         <v>60</v>
       </c>
-      <c r="B63" s="48"/>
+      <c r="B63" s="45"/>
       <c r="C63" s="4" t="s">
         <v>64</v>
       </c>
@@ -3325,7 +3333,7 @@
       <c r="A64" s="32">
         <v>61</v>
       </c>
-      <c r="B64" s="45" t="s">
+      <c r="B64" s="49" t="s">
         <v>33</v>
       </c>
       <c r="C64" s="4" t="s">
@@ -3353,7 +3361,7 @@
       <c r="A65" s="32">
         <v>62</v>
       </c>
-      <c r="B65" s="46"/>
+      <c r="B65" s="50"/>
       <c r="C65" s="4" t="s">
         <v>35</v>
       </c>
@@ -3377,7 +3385,7 @@
     </row>
     <row r="66" spans="1:10" s="28" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="32"/>
-      <c r="B66" s="46"/>
+      <c r="B66" s="50"/>
       <c r="C66" s="4" t="s">
         <v>196</v>
       </c>
@@ -3395,7 +3403,7 @@
     </row>
     <row r="67" spans="1:10" s="28" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="32"/>
-      <c r="B67" s="46"/>
+      <c r="B67" s="50"/>
       <c r="C67" s="4"/>
       <c r="D67" s="12"/>
       <c r="E67" s="14"/>
@@ -3407,7 +3415,7 @@
     </row>
     <row r="68" spans="1:10" s="28" customFormat="1" ht="54" x14ac:dyDescent="0.15">
       <c r="A68" s="32"/>
-      <c r="B68" s="46"/>
+      <c r="B68" s="50"/>
       <c r="C68" s="4" t="s">
         <v>195</v>
       </c>
@@ -3425,7 +3433,7 @@
     </row>
     <row r="69" spans="1:10" s="28" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A69" s="32"/>
-      <c r="B69" s="46"/>
+      <c r="B69" s="50"/>
       <c r="C69" s="4" t="s">
         <v>197</v>
       </c>
@@ -3445,7 +3453,7 @@
       <c r="A70" s="32">
         <v>63</v>
       </c>
-      <c r="B70" s="46"/>
+      <c r="B70" s="50"/>
       <c r="C70" s="4" t="s">
         <v>155</v>
       </c>
@@ -3463,7 +3471,7 @@
     </row>
     <row r="71" spans="1:10" s="28" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A71" s="32"/>
-      <c r="B71" s="46"/>
+      <c r="B71" s="50"/>
       <c r="C71" s="4" t="s">
         <v>235</v>
       </c>
@@ -3483,7 +3491,7 @@
       <c r="A72" s="32">
         <v>64</v>
       </c>
-      <c r="B72" s="46"/>
+      <c r="B72" s="50"/>
       <c r="C72" s="4" t="s">
         <v>36</v>
       </c>
@@ -3505,7 +3513,7 @@
       <c r="A73" s="32">
         <v>65</v>
       </c>
-      <c r="B73" s="47"/>
+      <c r="B73" s="51"/>
       <c r="C73" s="4" t="s">
         <v>168</v>
       </c>
@@ -3525,7 +3533,7 @@
       <c r="A74" s="32">
         <v>66</v>
       </c>
-      <c r="B74" s="48" t="s">
+      <c r="B74" s="45" t="s">
         <v>209</v>
       </c>
       <c r="C74" s="4" t="s">
@@ -3553,7 +3561,7 @@
       <c r="A75" s="32">
         <v>67</v>
       </c>
-      <c r="B75" s="48"/>
+      <c r="B75" s="45"/>
       <c r="C75" s="4" t="s">
         <v>105</v>
       </c>
@@ -3579,7 +3587,7 @@
       <c r="A76" s="32">
         <v>68</v>
       </c>
-      <c r="B76" s="48"/>
+      <c r="B76" s="45"/>
       <c r="C76" s="4" t="s">
         <v>210</v>
       </c>
@@ -3597,7 +3605,7 @@
     </row>
     <row r="77" spans="1:10" s="28" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="32"/>
-      <c r="B77" s="48"/>
+      <c r="B77" s="45"/>
       <c r="C77" s="4" t="s">
         <v>212</v>
       </c>
@@ -3613,7 +3621,7 @@
       <c r="A78" s="32">
         <v>69</v>
       </c>
-      <c r="B78" s="48"/>
+      <c r="B78" s="45"/>
       <c r="C78" s="4" t="s">
         <v>151</v>
       </c>
@@ -3631,7 +3639,7 @@
     </row>
     <row r="79" spans="1:10" s="28" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A79" s="32"/>
-      <c r="B79" s="48"/>
+      <c r="B79" s="45"/>
       <c r="C79" s="4" t="s">
         <v>211</v>
       </c>
@@ -3651,7 +3659,7 @@
       <c r="A80" s="32">
         <v>70</v>
       </c>
-      <c r="B80" s="48"/>
+      <c r="B80" s="45"/>
       <c r="C80" s="4" t="s">
         <v>37</v>
       </c>
@@ -3677,7 +3685,7 @@
       <c r="A81" s="32">
         <v>71</v>
       </c>
-      <c r="B81" s="48" t="s">
+      <c r="B81" s="45" t="s">
         <v>39</v>
       </c>
       <c r="C81" s="4" t="s">
@@ -3705,7 +3713,7 @@
     </row>
     <row r="82" spans="1:10" s="28" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A82" s="32"/>
-      <c r="B82" s="48"/>
+      <c r="B82" s="45"/>
       <c r="C82" s="4" t="s">
         <v>217</v>
       </c>
@@ -3723,7 +3731,7 @@
     </row>
     <row r="83" spans="1:10" s="28" customFormat="1" ht="25.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="32"/>
-      <c r="B83" s="48"/>
+      <c r="B83" s="45"/>
       <c r="C83" s="4" t="s">
         <v>216</v>
       </c>
@@ -3743,7 +3751,7 @@
       <c r="A84" s="32">
         <v>72</v>
       </c>
-      <c r="B84" s="48"/>
+      <c r="B84" s="45"/>
       <c r="C84" s="4" t="s">
         <v>105</v>
       </c>
@@ -3769,7 +3777,7 @@
       <c r="A85" s="32">
         <v>73</v>
       </c>
-      <c r="B85" s="48"/>
+      <c r="B85" s="45"/>
       <c r="C85" s="4" t="s">
         <v>37</v>
       </c>
@@ -3795,7 +3803,7 @@
       <c r="A86" s="32">
         <v>74</v>
       </c>
-      <c r="B86" s="48" t="s">
+      <c r="B86" s="45" t="s">
         <v>41</v>
       </c>
       <c r="C86" s="4" t="s">
@@ -3821,7 +3829,7 @@
     </row>
     <row r="87" spans="1:10" s="28" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A87" s="32"/>
-      <c r="B87" s="48"/>
+      <c r="B87" s="45"/>
       <c r="C87" s="4" t="s">
         <v>218</v>
       </c>
@@ -3839,7 +3847,7 @@
     </row>
     <row r="88" spans="1:10" s="28" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A88" s="32"/>
-      <c r="B88" s="48"/>
+      <c r="B88" s="45"/>
       <c r="C88" s="4" t="s">
         <v>219</v>
       </c>
@@ -3859,7 +3867,7 @@
       <c r="A89" s="32">
         <v>75</v>
       </c>
-      <c r="B89" s="48"/>
+      <c r="B89" s="45"/>
       <c r="C89" s="4" t="s">
         <v>105</v>
       </c>
@@ -3885,7 +3893,7 @@
       <c r="A90" s="32">
         <v>76</v>
       </c>
-      <c r="B90" s="48"/>
+      <c r="B90" s="45"/>
       <c r="C90" s="4" t="s">
         <v>37</v>
       </c>
@@ -3911,7 +3919,7 @@
       <c r="A91" s="32">
         <v>77</v>
       </c>
-      <c r="B91" s="48" t="s">
+      <c r="B91" s="45" t="s">
         <v>43</v>
       </c>
       <c r="C91" s="4" t="s">
@@ -3931,7 +3939,7 @@
     </row>
     <row r="92" spans="1:10" s="28" customFormat="1" ht="28.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="32"/>
-      <c r="B92" s="48"/>
+      <c r="B92" s="45"/>
       <c r="C92" s="4" t="s">
         <v>223</v>
       </c>
@@ -3957,7 +3965,7 @@
       <c r="A93" s="32">
         <v>78</v>
       </c>
-      <c r="B93" s="48"/>
+      <c r="B93" s="45"/>
       <c r="C93" s="4" t="s">
         <v>126</v>
       </c>
@@ -3981,7 +3989,7 @@
     </row>
     <row r="94" spans="1:10" s="28" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="32"/>
-      <c r="B94" s="48"/>
+      <c r="B94" s="45"/>
       <c r="C94" s="4" t="s">
         <v>225</v>
       </c>
@@ -3999,7 +4007,7 @@
     </row>
     <row r="95" spans="1:10" s="28" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="32"/>
-      <c r="B95" s="48"/>
+      <c r="B95" s="45"/>
       <c r="C95" s="4" t="s">
         <v>224</v>
       </c>
@@ -4023,7 +4031,7 @@
     </row>
     <row r="96" spans="1:10" s="28" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="32"/>
-      <c r="B96" s="48"/>
+      <c r="B96" s="45"/>
       <c r="C96" s="4" t="s">
         <v>234</v>
       </c>
@@ -4041,7 +4049,7 @@
     </row>
     <row r="97" spans="1:10" s="28" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="32"/>
-      <c r="B97" s="48"/>
+      <c r="B97" s="45"/>
       <c r="C97" s="4" t="s">
         <v>229</v>
       </c>
@@ -4059,7 +4067,7 @@
     </row>
     <row r="98" spans="1:10" s="28" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="32"/>
-      <c r="B98" s="48"/>
+      <c r="B98" s="45"/>
       <c r="C98" s="4" t="s">
         <v>231</v>
       </c>
@@ -4077,7 +4085,7 @@
     </row>
     <row r="99" spans="1:10" s="28" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A99" s="32"/>
-      <c r="B99" s="48"/>
+      <c r="B99" s="45"/>
       <c r="C99" s="4" t="s">
         <v>222</v>
       </c>
@@ -4095,7 +4103,7 @@
     </row>
     <row r="100" spans="1:10" s="28" customFormat="1" ht="25.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="32"/>
-      <c r="B100" s="48"/>
+      <c r="B100" s="45"/>
       <c r="C100" s="4" t="s">
         <v>221</v>
       </c>
@@ -4121,7 +4129,7 @@
       <c r="A101" s="32">
         <v>79</v>
       </c>
-      <c r="B101" s="48"/>
+      <c r="B101" s="45"/>
       <c r="C101" s="4" t="s">
         <v>45</v>
       </c>
@@ -4141,7 +4149,7 @@
       <c r="A102" s="32">
         <v>80</v>
       </c>
-      <c r="B102" s="48" t="s">
+      <c r="B102" s="45" t="s">
         <v>44</v>
       </c>
       <c r="C102" s="4" t="s">
@@ -4167,7 +4175,7 @@
     </row>
     <row r="103" spans="1:10" s="28" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="32"/>
-      <c r="B103" s="48"/>
+      <c r="B103" s="45"/>
       <c r="C103" s="4" t="s">
         <v>228</v>
       </c>
@@ -4185,7 +4193,7 @@
     </row>
     <row r="104" spans="1:10" s="28" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="32"/>
-      <c r="B104" s="48"/>
+      <c r="B104" s="45"/>
       <c r="C104" s="4" t="s">
         <v>233</v>
       </c>
@@ -4203,7 +4211,7 @@
     </row>
     <row r="105" spans="1:10" s="28" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="32"/>
-      <c r="B105" s="48"/>
+      <c r="B105" s="45"/>
       <c r="C105" s="42" t="s">
         <v>232</v>
       </c>
@@ -4217,7 +4225,7 @@
     </row>
     <row r="106" spans="1:10" s="28" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="32"/>
-      <c r="B106" s="48"/>
+      <c r="B106" s="45"/>
       <c r="C106" s="4" t="s">
         <v>220</v>
       </c>
@@ -4241,7 +4249,7 @@
     </row>
     <row r="107" spans="1:10" s="28" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="32"/>
-      <c r="B107" s="48"/>
+      <c r="B107" s="45"/>
       <c r="C107" s="4" t="s">
         <v>227</v>
       </c>
@@ -4267,7 +4275,7 @@
       <c r="A108" s="32">
         <v>81</v>
       </c>
-      <c r="B108" s="48"/>
+      <c r="B108" s="45"/>
       <c r="C108" s="4" t="s">
         <v>136</v>
       </c>
@@ -4293,7 +4301,7 @@
       <c r="A109" s="32">
         <v>82</v>
       </c>
-      <c r="B109" s="45" t="s">
+      <c r="B109" s="49" t="s">
         <v>65</v>
       </c>
       <c r="C109" s="4" t="s">
@@ -4321,7 +4329,7 @@
     </row>
     <row r="110" spans="1:10" s="28" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A110" s="32"/>
-      <c r="B110" s="46"/>
+      <c r="B110" s="50"/>
       <c r="C110" s="4" t="s">
         <v>187</v>
       </c>
@@ -4345,7 +4353,7 @@
     </row>
     <row r="111" spans="1:10" s="28" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="32"/>
-      <c r="B111" s="47"/>
+      <c r="B111" s="51"/>
       <c r="C111" s="4" t="s">
         <v>186</v>
       </c>
@@ -4371,7 +4379,7 @@
       <c r="A112" s="32">
         <v>83</v>
       </c>
-      <c r="B112" s="49" t="s">
+      <c r="B112" s="52" t="s">
         <v>67</v>
       </c>
       <c r="C112" s="8" t="s">
@@ -4399,7 +4407,7 @@
       <c r="A113" s="32">
         <v>84</v>
       </c>
-      <c r="B113" s="49"/>
+      <c r="B113" s="52"/>
       <c r="C113" s="8" t="s">
         <v>95</v>
       </c>
@@ -4419,7 +4427,7 @@
       <c r="A114" s="32">
         <v>85</v>
       </c>
-      <c r="B114" s="49"/>
+      <c r="B114" s="52"/>
       <c r="C114" s="8" t="s">
         <v>190</v>
       </c>
@@ -4439,7 +4447,7 @@
       <c r="A115" s="32">
         <v>86</v>
       </c>
-      <c r="B115" s="49"/>
+      <c r="B115" s="52"/>
       <c r="C115" s="8" t="s">
         <v>189</v>
       </c>
@@ -4457,7 +4465,7 @@
     </row>
     <row r="116" spans="1:10" s="20" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A116" s="32"/>
-      <c r="B116" s="49"/>
+      <c r="B116" s="52"/>
       <c r="C116" s="8" t="s">
         <v>191</v>
       </c>
@@ -4475,7 +4483,7 @@
     </row>
     <row r="117" spans="1:10" s="20" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A117" s="32"/>
-      <c r="B117" s="49"/>
+      <c r="B117" s="52"/>
       <c r="C117" s="8" t="s">
         <v>192</v>
       </c>
@@ -4493,7 +4501,7 @@
     </row>
     <row r="118" spans="1:10" s="20" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A118" s="32"/>
-      <c r="B118" s="49"/>
+      <c r="B118" s="52"/>
       <c r="C118" s="8" t="s">
         <v>193</v>
       </c>
@@ -4511,7 +4519,7 @@
     </row>
     <row r="119" spans="1:10" s="20" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A119" s="32"/>
-      <c r="B119" s="49"/>
+      <c r="B119" s="52"/>
       <c r="C119" s="8" t="s">
         <v>215</v>
       </c>
@@ -4531,7 +4539,7 @@
       <c r="A120" s="32">
         <v>87</v>
       </c>
-      <c r="B120" s="49"/>
+      <c r="B120" s="52"/>
       <c r="C120" s="8" t="s">
         <v>188</v>
       </c>
@@ -4551,7 +4559,7 @@
       <c r="A121" s="32">
         <v>88</v>
       </c>
-      <c r="B121" s="48" t="s">
+      <c r="B121" s="45" t="s">
         <v>87</v>
       </c>
       <c r="C121" s="4" t="s">
@@ -4579,7 +4587,7 @@
       <c r="A122" s="32">
         <v>89</v>
       </c>
-      <c r="B122" s="48"/>
+      <c r="B122" s="45"/>
       <c r="C122" s="4" t="s">
         <v>93</v>
       </c>
@@ -4605,7 +4613,7 @@
       <c r="A123" s="32">
         <v>90</v>
       </c>
-      <c r="B123" s="45" t="s">
+      <c r="B123" s="49" t="s">
         <v>97</v>
       </c>
       <c r="C123" s="4" t="s">
@@ -4631,7 +4639,7 @@
     </row>
     <row r="124" spans="1:10" s="28" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A124" s="32"/>
-      <c r="B124" s="46"/>
+      <c r="B124" s="50"/>
       <c r="C124" s="4" t="s">
         <v>208</v>
       </c>
@@ -4649,7 +4657,7 @@
     </row>
     <row r="125" spans="1:10" s="28" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A125" s="32"/>
-      <c r="B125" s="46"/>
+      <c r="B125" s="50"/>
       <c r="C125" s="4" t="s">
         <v>202</v>
       </c>
@@ -4667,7 +4675,7 @@
     </row>
     <row r="126" spans="1:10" s="28" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A126" s="32"/>
-      <c r="B126" s="46"/>
+      <c r="B126" s="50"/>
       <c r="C126" s="4" t="s">
         <v>203</v>
       </c>
@@ -4685,7 +4693,7 @@
     </row>
     <row r="127" spans="1:10" s="28" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A127" s="32"/>
-      <c r="B127" s="46"/>
+      <c r="B127" s="50"/>
       <c r="C127" s="4" t="s">
         <v>207</v>
       </c>
@@ -4703,7 +4711,7 @@
     </row>
     <row r="128" spans="1:10" s="28" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A128" s="32"/>
-      <c r="B128" s="46"/>
+      <c r="B128" s="50"/>
       <c r="C128" s="4" t="s">
         <v>206</v>
       </c>
@@ -4719,7 +4727,7 @@
       <c r="A129" s="32">
         <v>91</v>
       </c>
-      <c r="B129" s="47"/>
+      <c r="B129" s="51"/>
       <c r="C129" s="4" t="s">
         <v>205</v>
       </c>
@@ -4739,7 +4747,7 @@
       <c r="A130" s="32">
         <v>92</v>
       </c>
-      <c r="B130" s="48" t="s">
+      <c r="B130" s="45" t="s">
         <v>99</v>
       </c>
       <c r="C130" s="4" t="s">
@@ -4767,7 +4775,7 @@
       <c r="A131" s="32">
         <v>93</v>
       </c>
-      <c r="B131" s="48"/>
+      <c r="B131" s="45"/>
       <c r="C131" s="4" t="s">
         <v>104</v>
       </c>
@@ -4793,7 +4801,7 @@
       <c r="A132" s="32">
         <v>94</v>
       </c>
-      <c r="B132" s="48"/>
+      <c r="B132" s="45"/>
       <c r="C132" s="4" t="s">
         <v>101</v>
       </c>
@@ -4839,7 +4847,7 @@
       <c r="A134" s="32">
         <v>95</v>
       </c>
-      <c r="B134" s="45" t="s">
+      <c r="B134" s="49" t="s">
         <v>111</v>
       </c>
       <c r="C134" s="4" t="s">
@@ -4865,7 +4873,7 @@
     </row>
     <row r="135" spans="1:10" s="28" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A135" s="32"/>
-      <c r="B135" s="46"/>
+      <c r="B135" s="50"/>
       <c r="C135" s="4" t="s">
         <v>214</v>
       </c>
@@ -4885,7 +4893,7 @@
       <c r="A136" s="32">
         <v>96</v>
       </c>
-      <c r="B136" s="46"/>
+      <c r="B136" s="50"/>
       <c r="C136" s="4" t="s">
         <v>213</v>
       </c>
@@ -4901,75 +4909,67 @@
       <c r="I136" s="12"/>
       <c r="J136" s="12"/>
     </row>
-    <row r="137" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A137" s="32">
-        <v>97</v>
-      </c>
-      <c r="B137" s="46"/>
+    <row r="137" spans="1:10" s="28" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A137" s="32"/>
+      <c r="B137" s="50"/>
       <c r="C137" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="D137" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="D137" s="24" t="s">
         <v>10</v>
       </c>
       <c r="E137" s="14">
-        <v>42886</v>
+        <v>42894</v>
       </c>
       <c r="F137" s="12"/>
-      <c r="G137" s="7"/>
-      <c r="H137" s="15"/>
+      <c r="G137" s="29"/>
+      <c r="H137" s="33"/>
       <c r="I137" s="12"/>
       <c r="J137" s="12"/>
     </row>
-    <row r="138" spans="1:10" s="28" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A138" s="50" t="s">
+    <row r="138" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A138" s="32">
+        <v>97</v>
+      </c>
+      <c r="B138" s="50"/>
+      <c r="C138" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="D138" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E138" s="14">
+        <v>42886</v>
+      </c>
+      <c r="F138" s="12"/>
+      <c r="G138" s="7"/>
+      <c r="H138" s="15"/>
+      <c r="I138" s="12"/>
+      <c r="J138" s="12"/>
+    </row>
+    <row r="139" spans="1:10" s="28" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A139" s="46" t="s">
         <v>199</v>
       </c>
-      <c r="B138" s="51"/>
-      <c r="C138" s="51"/>
-      <c r="D138" s="51"/>
-      <c r="E138" s="51"/>
-      <c r="F138" s="51"/>
-      <c r="G138" s="51"/>
-      <c r="H138" s="51"/>
-      <c r="I138" s="51"/>
-      <c r="J138" s="52"/>
-    </row>
-    <row r="139" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A139" s="32">
+      <c r="B139" s="47"/>
+      <c r="C139" s="47"/>
+      <c r="D139" s="47"/>
+      <c r="E139" s="47"/>
+      <c r="F139" s="47"/>
+      <c r="G139" s="47"/>
+      <c r="H139" s="47"/>
+      <c r="I139" s="47"/>
+      <c r="J139" s="48"/>
+    </row>
+    <row r="140" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A140" s="32">
         <v>98</v>
       </c>
-      <c r="B139" s="48" t="s">
+      <c r="B140" s="45" t="s">
         <v>113</v>
       </c>
-      <c r="C139" s="4" t="s">
+      <c r="C140" s="4" t="s">
         <v>115</v>
-      </c>
-      <c r="D139" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E139" s="14">
-        <v>42863</v>
-      </c>
-      <c r="F139" s="12"/>
-      <c r="G139" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="H139" s="14">
-        <v>42141</v>
-      </c>
-      <c r="I139" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="J139" s="12"/>
-    </row>
-    <row r="140" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A140" s="32">
-        <v>99</v>
-      </c>
-      <c r="B140" s="48"/>
-      <c r="C140" s="4" t="s">
-        <v>116</v>
       </c>
       <c r="D140" s="12" t="s">
         <v>10</v>
@@ -4985,19 +4985,17 @@
         <v>42141</v>
       </c>
       <c r="I140" s="12" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="J140" s="12"/>
     </row>
-    <row r="141" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A141" s="32">
-        <v>100</v>
-      </c>
-      <c r="B141" s="48" t="s">
-        <v>114</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="B141" s="45"/>
       <c r="C141" s="4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D141" s="12" t="s">
         <v>10</v>
@@ -5017,13 +5015,15 @@
       </c>
       <c r="J141" s="12"/>
     </row>
-    <row r="142" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A142" s="32">
-        <v>101</v>
-      </c>
-      <c r="B142" s="48"/>
+        <v>100</v>
+      </c>
+      <c r="B142" s="45" t="s">
+        <v>114</v>
+      </c>
       <c r="C142" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D142" s="12" t="s">
         <v>10</v>
@@ -5043,15 +5043,13 @@
       </c>
       <c r="J142" s="12"/>
     </row>
-    <row r="143" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A143" s="32">
-        <v>102</v>
-      </c>
-      <c r="B143" s="45" t="s">
-        <v>118</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="B143" s="45"/>
       <c r="C143" s="4" t="s">
-        <v>140</v>
+        <v>117</v>
       </c>
       <c r="D143" s="12" t="s">
         <v>10</v>
@@ -5060,80 +5058,80 @@
         <v>42863</v>
       </c>
       <c r="F143" s="12"/>
-      <c r="G143" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="H143" s="15">
-        <v>42882</v>
+      <c r="G143" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="H143" s="14">
+        <v>42141</v>
       </c>
       <c r="I143" s="12" t="s">
         <v>124</v>
       </c>
       <c r="J143" s="12"/>
     </row>
-    <row r="144" spans="1:10" s="26" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A144" s="32">
+        <v>102</v>
+      </c>
+      <c r="B144" s="49" t="s">
+        <v>118</v>
+      </c>
+      <c r="C144" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="D144" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E144" s="14">
+        <v>42863</v>
+      </c>
+      <c r="F144" s="12"/>
+      <c r="G144" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H144" s="15">
+        <v>42882</v>
+      </c>
+      <c r="I144" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="J144" s="12"/>
+    </row>
+    <row r="145" spans="1:10" s="26" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A145" s="32">
         <v>103</v>
       </c>
-      <c r="B144" s="47"/>
-      <c r="C144" s="4" t="s">
+      <c r="B145" s="51"/>
+      <c r="C145" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="D144" s="24" t="s">
+      <c r="D145" s="24" t="s">
         <v>170</v>
       </c>
-      <c r="E144" s="25">
+      <c r="E145" s="25">
         <v>42887</v>
       </c>
-      <c r="F144" s="12"/>
-      <c r="G144" s="24"/>
-      <c r="H144" s="27"/>
-      <c r="I144" s="11"/>
-      <c r="J144" s="11"/>
-    </row>
-    <row r="145" spans="1:10" ht="42" x14ac:dyDescent="0.15">
-      <c r="A145" s="32">
+      <c r="F145" s="12"/>
+      <c r="G145" s="24"/>
+      <c r="H145" s="27"/>
+      <c r="I145" s="11"/>
+      <c r="J145" s="11"/>
+    </row>
+    <row r="146" spans="1:10" ht="42" x14ac:dyDescent="0.15">
+      <c r="A146" s="32">
         <v>104</v>
       </c>
-      <c r="B145" s="22" t="s">
+      <c r="B146" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="C145" s="4" t="s">
+      <c r="C146" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="D145" s="12" t="s">
+      <c r="D146" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="E145" s="14">
+      <c r="E146" s="14">
         <v>42864</v>
-      </c>
-      <c r="F145" s="12"/>
-      <c r="G145" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="H145" s="14">
-        <v>42151</v>
-      </c>
-      <c r="I145" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="J145" s="12"/>
-    </row>
-    <row r="146" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A146" s="32">
-        <v>105</v>
-      </c>
-      <c r="B146" s="45" t="s">
-        <v>132</v>
-      </c>
-      <c r="C146" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="D146" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="E146" s="14">
-        <v>42880</v>
       </c>
       <c r="F146" s="12"/>
       <c r="G146" s="12" t="s">
@@ -5143,17 +5141,19 @@
         <v>42151</v>
       </c>
       <c r="I146" s="12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J146" s="12"/>
     </row>
     <row r="147" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A147" s="32">
-        <v>106</v>
-      </c>
-      <c r="B147" s="46"/>
+        <v>105</v>
+      </c>
+      <c r="B147" s="49" t="s">
+        <v>132</v>
+      </c>
       <c r="C147" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D147" s="12" t="s">
         <v>134</v>
@@ -5173,94 +5173,114 @@
       </c>
       <c r="J147" s="12"/>
     </row>
-    <row r="148" spans="1:10" ht="27" x14ac:dyDescent="0.15">
-      <c r="A148" s="32">
-        <v>107</v>
-      </c>
-      <c r="B148" s="47"/>
+    <row r="148" spans="1:10" s="28" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A148" s="32"/>
+      <c r="B148" s="50"/>
       <c r="C148" s="4" t="s">
-        <v>139</v>
+        <v>236</v>
       </c>
       <c r="D148" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E148" s="14">
+        <v>42894</v>
+      </c>
+      <c r="F148" s="12"/>
+      <c r="G148" s="12"/>
+      <c r="H148" s="14"/>
+      <c r="I148" s="12"/>
+      <c r="J148" s="12"/>
+    </row>
+    <row r="149" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A149" s="32">
+        <v>106</v>
+      </c>
+      <c r="B149" s="50"/>
+      <c r="C149" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="D149" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="E148" s="14">
+      <c r="E149" s="14">
         <v>42880</v>
       </c>
-      <c r="F148" s="12"/>
-      <c r="G148" s="12" t="s">
+      <c r="F149" s="12"/>
+      <c r="G149" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="H148" s="14">
+      <c r="H149" s="14">
         <v>42151</v>
       </c>
-      <c r="I148" s="12" t="s">
+      <c r="I149" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="J148" s="12"/>
-    </row>
-    <row r="149" spans="1:10" s="26" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A149" s="32">
-        <v>108</v>
-      </c>
-      <c r="B149" s="11" t="s">
-        <v>173</v>
-      </c>
-      <c r="C149" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="D149" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="E149" s="25">
-        <v>42888</v>
-      </c>
-      <c r="F149" s="12"/>
-      <c r="G149" s="11"/>
-      <c r="H149" s="11"/>
-      <c r="I149" s="11"/>
-      <c r="J149" s="11"/>
+      <c r="J149" s="12"/>
     </row>
     <row r="150" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A150" s="32">
+        <v>107</v>
+      </c>
+      <c r="B150" s="51"/>
+      <c r="C150" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="D150" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="E150" s="14">
+        <v>42880</v>
+      </c>
+      <c r="F150" s="12"/>
+      <c r="G150" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="H150" s="14">
+        <v>42151</v>
+      </c>
+      <c r="I150" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="J150" s="12"/>
+    </row>
+    <row r="151" spans="1:10" s="26" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A151" s="32">
+        <v>108</v>
+      </c>
+      <c r="B151" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="C151" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="D151" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E151" s="25">
+        <v>42888</v>
+      </c>
+      <c r="F151" s="12"/>
+      <c r="G151" s="11"/>
+      <c r="H151" s="11"/>
+      <c r="I151" s="11"/>
+      <c r="J151" s="11"/>
+    </row>
+    <row r="152" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+      <c r="A152" s="32">
         <v>109</v>
       </c>
-      <c r="B150" s="31" t="s">
+      <c r="B152" s="31" t="s">
         <v>200</v>
       </c>
-      <c r="C150" s="4" t="s">
+      <c r="C152" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="D150" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="E150" s="25">
+      <c r="D152" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E152" s="25">
         <v>42888</v>
       </c>
-      <c r="F150" s="12"/>
-      <c r="G150" s="12"/>
-      <c r="H150" s="12"/>
-      <c r="I150" s="12"/>
-      <c r="J150" s="12"/>
-    </row>
-    <row r="151" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A151" s="12"/>
-      <c r="B151" s="22"/>
-      <c r="C151" s="4"/>
-      <c r="D151" s="12"/>
-      <c r="E151" s="12"/>
-      <c r="F151" s="12"/>
-      <c r="G151" s="12"/>
-      <c r="H151" s="12"/>
-      <c r="I151" s="12"/>
-      <c r="J151" s="12"/>
-    </row>
-    <row r="152" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A152" s="12"/>
-      <c r="B152" s="22"/>
-      <c r="C152" s="4"/>
-      <c r="D152" s="12"/>
-      <c r="E152" s="12"/>
       <c r="F152" s="12"/>
       <c r="G152" s="12"/>
       <c r="H152" s="12"/>
@@ -6923,32 +6943,56 @@
       <c r="I290" s="12"/>
       <c r="J290" s="12"/>
     </row>
+    <row r="291" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A291" s="12"/>
+      <c r="B291" s="22"/>
+      <c r="C291" s="4"/>
+      <c r="D291" s="12"/>
+      <c r="E291" s="12"/>
+      <c r="F291" s="12"/>
+      <c r="G291" s="12"/>
+      <c r="H291" s="12"/>
+      <c r="I291" s="12"/>
+      <c r="J291" s="12"/>
+    </row>
+    <row r="292" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A292" s="12"/>
+      <c r="B292" s="22"/>
+      <c r="C292" s="4"/>
+      <c r="D292" s="12"/>
+      <c r="E292" s="12"/>
+      <c r="F292" s="12"/>
+      <c r="G292" s="12"/>
+      <c r="H292" s="12"/>
+      <c r="I292" s="12"/>
+      <c r="J292" s="12"/>
+    </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B55:B60"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="B139:B140"/>
-    <mergeCell ref="B38:B47"/>
-    <mergeCell ref="B48:B52"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="A138:J138"/>
-    <mergeCell ref="B109:B111"/>
     <mergeCell ref="B29:B37"/>
     <mergeCell ref="B64:B73"/>
     <mergeCell ref="B2:B28"/>
     <mergeCell ref="B123:B129"/>
-    <mergeCell ref="B146:B148"/>
+    <mergeCell ref="B147:B150"/>
     <mergeCell ref="B74:B80"/>
     <mergeCell ref="B81:B85"/>
     <mergeCell ref="B86:B90"/>
     <mergeCell ref="B91:B101"/>
-    <mergeCell ref="B141:B142"/>
+    <mergeCell ref="B142:B143"/>
     <mergeCell ref="B102:B108"/>
     <mergeCell ref="B112:B120"/>
     <mergeCell ref="B121:B122"/>
     <mergeCell ref="B130:B132"/>
-    <mergeCell ref="B134:B137"/>
-    <mergeCell ref="B143:B144"/>
+    <mergeCell ref="B134:B138"/>
+    <mergeCell ref="B144:B145"/>
+    <mergeCell ref="B55:B60"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="B140:B141"/>
+    <mergeCell ref="B38:B47"/>
+    <mergeCell ref="B48:B52"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="A139:J139"/>
+    <mergeCell ref="B109:B111"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I44">

--- a/ProjectManagement/文档/问题点一览.xlsx
+++ b/ProjectManagement/文档/问题点一览.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8025"/>
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="233">
   <si>
     <t>NO</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -577,10 +577,6 @@
   </si>
   <si>
     <t>朱冠军</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>进行中</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -937,14 +933,18 @@
   </si>
   <si>
     <t>这里是测试github是多人协作。这里再更新一些。仅仅是测试拉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编号和个人总工作量占比暂未统计</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1231,16 +1231,10 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1252,13 +1246,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1382,7 +1382,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1414,10 +1414,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1449,7 +1448,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1625,14 +1623,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K287"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="C104" sqref="C104"/>
+    <sheetView tabSelected="1" topLeftCell="D132" workbookViewId="0">
+      <selection activeCell="H142" sqref="H142"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="22.15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="22.15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="4" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.875" style="23" customWidth="1"/>
@@ -1648,7 +1646,7 @@
     <col min="12" max="16384" width="8.875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" ht="22.15" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1680,11 +1678,11 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" ht="22.15" customHeight="1">
       <c r="A2" s="13">
         <v>1</v>
       </c>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="45" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -1698,7 +1696,7 @@
       </c>
       <c r="F2" s="12"/>
       <c r="G2" s="12" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H2" s="14">
         <v>42826</v>
@@ -1708,11 +1706,11 @@
       </c>
       <c r="J2" s="12"/>
     </row>
-    <row r="3" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" ht="27">
       <c r="A3" s="13">
         <v>2</v>
       </c>
-      <c r="B3" s="48"/>
+      <c r="B3" s="46"/>
       <c r="C3" s="4" t="s">
         <v>51</v>
       </c>
@@ -1734,11 +1732,11 @@
       </c>
       <c r="J3" s="12"/>
     </row>
-    <row r="4" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" ht="27">
       <c r="A4" s="13">
         <v>3</v>
       </c>
-      <c r="B4" s="48"/>
+      <c r="B4" s="46"/>
       <c r="C4" s="4" t="s">
         <v>52</v>
       </c>
@@ -1760,11 +1758,11 @@
       </c>
       <c r="J4" s="12"/>
     </row>
-    <row r="5" spans="1:11" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" ht="22.15" customHeight="1">
       <c r="A5" s="13">
         <v>4</v>
       </c>
-      <c r="B5" s="48"/>
+      <c r="B5" s="46"/>
       <c r="C5" s="4" t="s">
         <v>13</v>
       </c>
@@ -1786,11 +1784,11 @@
       </c>
       <c r="J5" s="12"/>
     </row>
-    <row r="6" spans="1:11" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11" ht="22.15" customHeight="1">
       <c r="A6" s="13">
         <v>5</v>
       </c>
-      <c r="B6" s="48"/>
+      <c r="B6" s="46"/>
       <c r="C6" s="4" t="s">
         <v>53</v>
       </c>
@@ -1812,11 +1810,11 @@
       </c>
       <c r="J6" s="12"/>
     </row>
-    <row r="7" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11" ht="27">
       <c r="A7" s="13">
         <v>6</v>
       </c>
-      <c r="B7" s="48"/>
+      <c r="B7" s="46"/>
       <c r="C7" s="4" t="s">
         <v>16</v>
       </c>
@@ -1838,11 +1836,11 @@
       </c>
       <c r="J7" s="12"/>
     </row>
-    <row r="8" spans="1:11" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11" ht="22.15" customHeight="1">
       <c r="A8" s="13">
         <v>7</v>
       </c>
-      <c r="B8" s="48"/>
+      <c r="B8" s="46"/>
       <c r="C8" s="4" t="s">
         <v>14</v>
       </c>
@@ -1864,11 +1862,11 @@
       </c>
       <c r="J8" s="12"/>
     </row>
-    <row r="9" spans="1:11" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:11" ht="22.15" customHeight="1">
       <c r="A9" s="13">
         <v>8</v>
       </c>
-      <c r="B9" s="48"/>
+      <c r="B9" s="46"/>
       <c r="C9" s="4" t="s">
         <v>17</v>
       </c>
@@ -1890,13 +1888,13 @@
       </c>
       <c r="J9" s="12"/>
     </row>
-    <row r="10" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11" ht="27">
       <c r="A10" s="13">
         <v>9</v>
       </c>
-      <c r="B10" s="48"/>
+      <c r="B10" s="46"/>
       <c r="C10" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>10</v>
@@ -1923,11 +1921,11 @@
         <v>108</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11" ht="22.15" customHeight="1">
       <c r="A11" s="13">
         <v>10</v>
       </c>
-      <c r="B11" s="48"/>
+      <c r="B11" s="46"/>
       <c r="C11" s="4" t="s">
         <v>48</v>
       </c>
@@ -1949,11 +1947,11 @@
       </c>
       <c r="J11" s="12"/>
     </row>
-    <row r="12" spans="1:11" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:11" ht="22.15" customHeight="1">
       <c r="A12" s="13">
         <v>11</v>
       </c>
-      <c r="B12" s="48"/>
+      <c r="B12" s="46"/>
       <c r="C12" s="4" t="s">
         <v>107</v>
       </c>
@@ -1975,11 +1973,11 @@
       </c>
       <c r="J12" s="12"/>
     </row>
-    <row r="13" spans="1:11" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:11" ht="22.15" customHeight="1">
       <c r="A13" s="13">
         <v>12</v>
       </c>
-      <c r="B13" s="48"/>
+      <c r="B13" s="46"/>
       <c r="C13" s="4" t="s">
         <v>110</v>
       </c>
@@ -2001,11 +1999,11 @@
       </c>
       <c r="J13" s="12"/>
     </row>
-    <row r="14" spans="1:11" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:11" ht="22.15" customHeight="1">
       <c r="A14" s="13">
         <v>13</v>
       </c>
-      <c r="B14" s="48"/>
+      <c r="B14" s="46"/>
       <c r="C14" s="4" t="s">
         <v>109</v>
       </c>
@@ -2027,11 +2025,11 @@
       </c>
       <c r="J14" s="12"/>
     </row>
-    <row r="15" spans="1:11" s="16" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:11" s="16" customFormat="1" ht="27">
       <c r="A15" s="13">
         <v>14</v>
       </c>
-      <c r="B15" s="48"/>
+      <c r="B15" s="46"/>
       <c r="C15" s="6" t="s">
         <v>138</v>
       </c>
@@ -2053,13 +2051,13 @@
       </c>
       <c r="J15" s="7"/>
     </row>
-    <row r="16" spans="1:11" s="16" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:11" s="16" customFormat="1" ht="40.5">
       <c r="A16" s="13">
         <v>15</v>
       </c>
-      <c r="B16" s="48"/>
+      <c r="B16" s="46"/>
       <c r="C16" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D16" s="7" t="s">
         <v>10</v>
@@ -2082,13 +2080,13 @@
         <v>125</v>
       </c>
     </row>
-    <row r="17" spans="1:11" s="16" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:11" s="16" customFormat="1" ht="27">
       <c r="A17" s="13">
         <v>16</v>
       </c>
-      <c r="B17" s="48"/>
+      <c r="B17" s="46"/>
       <c r="C17" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D17" s="7" t="s">
         <v>10</v>
@@ -2108,13 +2106,13 @@
       </c>
       <c r="J17" s="7"/>
     </row>
-    <row r="18" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:11" ht="27">
       <c r="A18" s="13">
         <v>17</v>
       </c>
-      <c r="B18" s="48"/>
+      <c r="B18" s="46"/>
       <c r="C18" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D18" s="7" t="s">
         <v>10</v>
@@ -2135,13 +2133,13 @@
       <c r="J18" s="18"/>
       <c r="K18" s="16"/>
     </row>
-    <row r="19" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:11" ht="18" customHeight="1">
       <c r="A19" s="32">
         <v>18</v>
       </c>
-      <c r="B19" s="48"/>
+      <c r="B19" s="46"/>
       <c r="C19" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>10</v>
@@ -2162,13 +2160,13 @@
       <c r="J19" s="18"/>
       <c r="K19" s="16"/>
     </row>
-    <row r="20" spans="1:11" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:11" ht="22.15" customHeight="1">
       <c r="A20" s="32">
         <v>19</v>
       </c>
-      <c r="B20" s="48"/>
+      <c r="B20" s="46"/>
       <c r="C20" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D20" s="7" t="s">
         <v>10</v>
@@ -2178,7 +2176,7 @@
       </c>
       <c r="F20" s="18"/>
       <c r="G20" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H20" s="15">
         <v>42887</v>
@@ -2189,23 +2187,23 @@
       <c r="J20" s="18"/>
       <c r="K20" s="16"/>
     </row>
-    <row r="21" spans="1:11" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:11" ht="13.5">
       <c r="A21" s="32">
         <v>20</v>
       </c>
-      <c r="B21" s="48"/>
+      <c r="B21" s="46"/>
       <c r="C21" s="37" t="s">
+        <v>170</v>
+      </c>
+      <c r="D21" s="38" t="s">
         <v>171</v>
-      </c>
-      <c r="D21" s="38" t="s">
-        <v>172</v>
       </c>
       <c r="E21" s="39">
         <v>42887</v>
       </c>
       <c r="F21" s="18"/>
       <c r="G21" s="29" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H21" s="33">
         <v>42888</v>
@@ -2216,16 +2214,16 @@
       <c r="J21" s="18"/>
       <c r="K21" s="16"/>
     </row>
-    <row r="22" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:11" ht="27">
       <c r="A22" s="32">
         <v>21</v>
       </c>
-      <c r="B22" s="48"/>
+      <c r="B22" s="46"/>
       <c r="C22" s="40" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D22" s="38" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E22" s="39">
         <v>42887</v>
@@ -2243,23 +2241,23 @@
       <c r="J22" s="18"/>
       <c r="K22" s="16"/>
     </row>
-    <row r="23" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:11" ht="27">
       <c r="A23" s="32">
         <v>22</v>
       </c>
-      <c r="B23" s="48"/>
+      <c r="B23" s="46"/>
       <c r="C23" s="40" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D23" s="38" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E23" s="39">
         <v>42887</v>
       </c>
       <c r="F23" s="18"/>
       <c r="G23" s="29" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H23" s="33">
         <v>42893</v>
@@ -2270,13 +2268,13 @@
       <c r="J23" s="18"/>
       <c r="K23" s="16"/>
     </row>
-    <row r="24" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:11" ht="27">
       <c r="A24" s="32">
         <v>23</v>
       </c>
-      <c r="B24" s="48"/>
+      <c r="B24" s="46"/>
       <c r="C24" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D24" s="7" t="s">
         <v>10</v>
@@ -2297,13 +2295,13 @@
       <c r="J24" s="18"/>
       <c r="K24" s="16"/>
     </row>
-    <row r="25" spans="1:11" s="28" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:11" s="28" customFormat="1" ht="40.5">
       <c r="A25" s="32">
         <v>24</v>
       </c>
-      <c r="B25" s="48"/>
+      <c r="B25" s="46"/>
       <c r="C25" s="30" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D25" s="29" t="s">
         <v>10</v>
@@ -2313,7 +2311,7 @@
       </c>
       <c r="F25" s="36"/>
       <c r="G25" s="29" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H25" s="33">
         <v>42888</v>
@@ -2324,13 +2322,13 @@
       <c r="J25" s="36"/>
       <c r="K25" s="34"/>
     </row>
-    <row r="26" spans="1:11" s="28" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:11" s="28" customFormat="1" ht="27">
       <c r="A26" s="32">
         <v>25</v>
       </c>
-      <c r="B26" s="48"/>
+      <c r="B26" s="46"/>
       <c r="C26" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D26" s="29" t="s">
         <v>56</v>
@@ -2340,7 +2338,7 @@
       </c>
       <c r="F26" s="29"/>
       <c r="G26" s="29" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H26" s="33">
         <v>42888</v>
@@ -2351,13 +2349,13 @@
       <c r="J26" s="36"/>
       <c r="K26" s="34"/>
     </row>
-    <row r="27" spans="1:11" s="34" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:11" s="34" customFormat="1" ht="13.5">
       <c r="A27" s="32">
         <v>26</v>
       </c>
-      <c r="B27" s="48"/>
+      <c r="B27" s="46"/>
       <c r="C27" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D27" s="29" t="s">
         <v>10</v>
@@ -2377,13 +2375,13 @@
       </c>
       <c r="J27" s="29"/>
     </row>
-    <row r="28" spans="1:11" s="34" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:11" s="34" customFormat="1" ht="13.5">
       <c r="A28" s="32">
         <v>27</v>
       </c>
-      <c r="B28" s="49"/>
+      <c r="B28" s="47"/>
       <c r="C28" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D28" s="29" t="s">
         <v>10</v>
@@ -2403,11 +2401,11 @@
       </c>
       <c r="J28" s="29"/>
     </row>
-    <row r="29" spans="1:11" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:11" ht="22.15" customHeight="1">
       <c r="A29" s="32">
         <v>28</v>
       </c>
-      <c r="B29" s="47" t="s">
+      <c r="B29" s="45" t="s">
         <v>12</v>
       </c>
       <c r="C29" s="4" t="s">
@@ -2431,11 +2429,11 @@
       </c>
       <c r="J29" s="12"/>
     </row>
-    <row r="30" spans="1:11" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:11" ht="22.15" customHeight="1">
       <c r="A30" s="32">
         <v>29</v>
       </c>
-      <c r="B30" s="48"/>
+      <c r="B30" s="46"/>
       <c r="C30" s="4" t="s">
         <v>17</v>
       </c>
@@ -2457,11 +2455,11 @@
       </c>
       <c r="J30" s="12"/>
     </row>
-    <row r="31" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:11" ht="27">
       <c r="A31" s="32">
         <v>30</v>
       </c>
-      <c r="B31" s="48"/>
+      <c r="B31" s="46"/>
       <c r="C31" s="4" t="s">
         <v>18</v>
       </c>
@@ -2483,11 +2481,11 @@
       </c>
       <c r="J31" s="12"/>
     </row>
-    <row r="32" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:11" ht="19.5" customHeight="1">
       <c r="A32" s="32">
         <v>31</v>
       </c>
-      <c r="B32" s="48"/>
+      <c r="B32" s="46"/>
       <c r="C32" s="4" t="s">
         <v>106</v>
       </c>
@@ -2509,11 +2507,11 @@
       </c>
       <c r="J32" s="12"/>
     </row>
-    <row r="33" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:10" ht="27">
       <c r="A33" s="32">
         <v>32</v>
       </c>
-      <c r="B33" s="48"/>
+      <c r="B33" s="46"/>
       <c r="C33" s="4" t="s">
         <v>55</v>
       </c>
@@ -2535,13 +2533,13 @@
       </c>
       <c r="J33" s="12"/>
     </row>
-    <row r="34" spans="1:10" s="26" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:10" s="26" customFormat="1" ht="13.5">
       <c r="A34" s="32">
         <v>33</v>
       </c>
-      <c r="B34" s="48"/>
+      <c r="B34" s="46"/>
       <c r="C34" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D34" s="24" t="s">
         <v>10</v>
@@ -2551,7 +2549,7 @@
       </c>
       <c r="F34" s="12"/>
       <c r="G34" s="29" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H34" s="33">
         <v>42888</v>
@@ -2561,13 +2559,13 @@
       </c>
       <c r="J34" s="11"/>
     </row>
-    <row r="35" spans="1:10" s="26" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:10" s="26" customFormat="1" ht="40.5">
       <c r="A35" s="32">
         <v>34</v>
       </c>
-      <c r="B35" s="48"/>
+      <c r="B35" s="46"/>
       <c r="C35" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D35" s="24" t="s">
         <v>10</v>
@@ -2587,13 +2585,13 @@
       </c>
       <c r="J35" s="11"/>
     </row>
-    <row r="36" spans="1:10" s="26" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:10" s="26" customFormat="1" ht="27">
       <c r="A36" s="32">
         <v>35</v>
       </c>
-      <c r="B36" s="48"/>
+      <c r="B36" s="46"/>
       <c r="C36" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D36" s="24" t="s">
         <v>10</v>
@@ -2603,7 +2601,7 @@
       </c>
       <c r="F36" s="12"/>
       <c r="G36" s="29" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H36" s="33">
         <v>42888</v>
@@ -2613,16 +2611,16 @@
       </c>
       <c r="J36" s="11"/>
     </row>
-    <row r="37" spans="1:10" s="26" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:10" s="26" customFormat="1" ht="27">
       <c r="A37" s="32">
         <v>36</v>
       </c>
-      <c r="B37" s="49"/>
+      <c r="B37" s="47"/>
       <c r="C37" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D37" s="24" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E37" s="25">
         <v>42887</v>
@@ -2633,11 +2631,11 @@
       <c r="I37" s="11"/>
       <c r="J37" s="11"/>
     </row>
-    <row r="38" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:10" ht="40.5">
       <c r="A38" s="32">
         <v>37</v>
       </c>
-      <c r="B38" s="43" t="s">
+      <c r="B38" s="48" t="s">
         <v>19</v>
       </c>
       <c r="C38" s="4" t="s">
@@ -2663,11 +2661,11 @@
         <v>60</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:10" ht="27">
       <c r="A39" s="32">
         <v>38</v>
       </c>
-      <c r="B39" s="43"/>
+      <c r="B39" s="48"/>
       <c r="C39" s="4" t="s">
         <v>21</v>
       </c>
@@ -2689,11 +2687,11 @@
       </c>
       <c r="J39" s="12"/>
     </row>
-    <row r="40" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:10" ht="27">
       <c r="A40" s="32">
         <v>39</v>
       </c>
-      <c r="B40" s="43"/>
+      <c r="B40" s="48"/>
       <c r="C40" s="4" t="s">
         <v>71</v>
       </c>
@@ -2715,11 +2713,11 @@
       </c>
       <c r="J40" s="12"/>
     </row>
-    <row r="41" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:10" ht="22.15" customHeight="1">
       <c r="A41" s="32">
         <v>40</v>
       </c>
-      <c r="B41" s="43"/>
+      <c r="B41" s="48"/>
       <c r="C41" s="4" t="s">
         <v>90</v>
       </c>
@@ -2741,11 +2739,11 @@
       </c>
       <c r="J41" s="12"/>
     </row>
-    <row r="42" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:10" ht="27">
       <c r="A42" s="32">
         <v>41</v>
       </c>
-      <c r="B42" s="43"/>
+      <c r="B42" s="48"/>
       <c r="C42" s="4" t="s">
         <v>89</v>
       </c>
@@ -2767,11 +2765,11 @@
       </c>
       <c r="J42" s="12"/>
     </row>
-    <row r="43" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:10" ht="22.15" customHeight="1">
       <c r="A43" s="32">
         <v>42</v>
       </c>
-      <c r="B43" s="43"/>
+      <c r="B43" s="48"/>
       <c r="C43" s="4" t="s">
         <v>94</v>
       </c>
@@ -2793,11 +2791,11 @@
       </c>
       <c r="J43" s="12"/>
     </row>
-    <row r="44" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:10" ht="27">
       <c r="A44" s="32">
         <v>43</v>
       </c>
-      <c r="B44" s="43"/>
+      <c r="B44" s="48"/>
       <c r="C44" s="4" t="s">
         <v>96</v>
       </c>
@@ -2819,13 +2817,13 @@
       </c>
       <c r="J44" s="12"/>
     </row>
-    <row r="45" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:10" ht="27">
       <c r="A45" s="32">
         <v>44</v>
       </c>
-      <c r="B45" s="43"/>
+      <c r="B45" s="48"/>
       <c r="C45" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D45" s="12" t="s">
         <v>10</v>
@@ -2834,7 +2832,7 @@
         <v>42886</v>
       </c>
       <c r="F45" s="12" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G45" s="11" t="s">
         <v>49</v>
@@ -2843,15 +2841,15 @@
         <v>42887</v>
       </c>
       <c r="I45" s="11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J45" s="12"/>
     </row>
-    <row r="46" spans="1:10" s="16" customFormat="1" ht="54" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:10" s="16" customFormat="1" ht="54">
       <c r="A46" s="32">
         <v>45</v>
       </c>
-      <c r="B46" s="43"/>
+      <c r="B46" s="48"/>
       <c r="C46" s="6" t="s">
         <v>137</v>
       </c>
@@ -2873,11 +2871,11 @@
       </c>
       <c r="J46" s="7"/>
     </row>
-    <row r="47" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:10" ht="22.15" customHeight="1">
       <c r="A47" s="32">
         <v>46</v>
       </c>
-      <c r="B47" s="43"/>
+      <c r="B47" s="48"/>
       <c r="C47" s="4" t="s">
         <v>22</v>
       </c>
@@ -2899,11 +2897,11 @@
       </c>
       <c r="J47" s="12"/>
     </row>
-    <row r="48" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:10" ht="22.15" customHeight="1">
       <c r="A48" s="32">
         <v>47</v>
       </c>
-      <c r="B48" s="43" t="s">
+      <c r="B48" s="48" t="s">
         <v>23</v>
       </c>
       <c r="C48" s="4" t="s">
@@ -2927,11 +2925,11 @@
       </c>
       <c r="J48" s="12"/>
     </row>
-    <row r="49" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:10" ht="27">
       <c r="A49" s="32">
         <v>48</v>
       </c>
-      <c r="B49" s="43"/>
+      <c r="B49" s="48"/>
       <c r="C49" s="4" t="s">
         <v>92</v>
       </c>
@@ -2955,11 +2953,11 @@
       </c>
       <c r="J49" s="12"/>
     </row>
-    <row r="50" spans="1:10" s="16" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:10" s="16" customFormat="1" ht="22.15" customHeight="1">
       <c r="A50" s="32">
         <v>49</v>
       </c>
-      <c r="B50" s="43"/>
+      <c r="B50" s="48"/>
       <c r="C50" s="6" t="s">
         <v>91</v>
       </c>
@@ -2981,13 +2979,13 @@
       </c>
       <c r="J50" s="7"/>
     </row>
-    <row r="51" spans="1:10" s="16" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:10" s="16" customFormat="1" ht="22.15" customHeight="1">
       <c r="A51" s="32">
         <v>50</v>
       </c>
-      <c r="B51" s="43"/>
+      <c r="B51" s="48"/>
       <c r="C51" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D51" s="7" t="s">
         <v>10</v>
@@ -2997,7 +2995,7 @@
       </c>
       <c r="F51" s="7"/>
       <c r="G51" s="11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H51" s="2">
         <v>42887</v>
@@ -3007,11 +3005,11 @@
       </c>
       <c r="J51" s="7"/>
     </row>
-    <row r="52" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:10" ht="22.15" customHeight="1">
       <c r="A52" s="32">
         <v>51</v>
       </c>
-      <c r="B52" s="43"/>
+      <c r="B52" s="48"/>
       <c r="C52" s="4" t="s">
         <v>25</v>
       </c>
@@ -3033,11 +3031,11 @@
       </c>
       <c r="J52" s="12"/>
     </row>
-    <row r="53" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:10" ht="22.15" customHeight="1">
       <c r="A53" s="32">
         <v>52</v>
       </c>
-      <c r="B53" s="43" t="s">
+      <c r="B53" s="48" t="s">
         <v>26</v>
       </c>
       <c r="C53" s="4" t="s">
@@ -3061,11 +3059,11 @@
       </c>
       <c r="J53" s="12"/>
     </row>
-    <row r="54" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:10" ht="22.15" customHeight="1">
       <c r="A54" s="32">
         <v>53</v>
       </c>
-      <c r="B54" s="43"/>
+      <c r="B54" s="48"/>
       <c r="C54" s="4" t="s">
         <v>28</v>
       </c>
@@ -3087,11 +3085,11 @@
       </c>
       <c r="J54" s="12"/>
     </row>
-    <row r="55" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:10" ht="22.15" customHeight="1">
       <c r="A55" s="32">
         <v>54</v>
       </c>
-      <c r="B55" s="43" t="s">
+      <c r="B55" s="48" t="s">
         <v>29</v>
       </c>
       <c r="C55" s="4" t="s">
@@ -3115,11 +3113,11 @@
       </c>
       <c r="J55" s="12"/>
     </row>
-    <row r="56" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:10" ht="27">
       <c r="A56" s="32">
         <v>55</v>
       </c>
-      <c r="B56" s="43"/>
+      <c r="B56" s="48"/>
       <c r="C56" s="4" t="s">
         <v>62</v>
       </c>
@@ -3141,11 +3139,11 @@
       </c>
       <c r="J56" s="12"/>
     </row>
-    <row r="57" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:10" ht="22.15" customHeight="1">
       <c r="A57" s="32">
         <v>56</v>
       </c>
-      <c r="B57" s="43"/>
+      <c r="B57" s="48"/>
       <c r="C57" s="4" t="s">
         <v>63</v>
       </c>
@@ -3167,11 +3165,11 @@
       </c>
       <c r="J57" s="12"/>
     </row>
-    <row r="58" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:10" ht="22.15" customHeight="1">
       <c r="A58" s="32">
         <v>57</v>
       </c>
-      <c r="B58" s="43"/>
+      <c r="B58" s="48"/>
       <c r="C58" s="4" t="s">
         <v>72</v>
       </c>
@@ -3193,11 +3191,11 @@
       </c>
       <c r="J58" s="12"/>
     </row>
-    <row r="59" spans="1:10" s="28" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:10" s="28" customFormat="1" ht="40.5">
       <c r="A59" s="32"/>
-      <c r="B59" s="43"/>
+      <c r="B59" s="48"/>
       <c r="C59" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D59" s="12" t="s">
         <v>10</v>
@@ -3211,11 +3209,11 @@
       <c r="I59" s="12"/>
       <c r="J59" s="12"/>
     </row>
-    <row r="60" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:10" ht="22.15" customHeight="1">
       <c r="A60" s="32">
         <v>58</v>
       </c>
-      <c r="B60" s="43"/>
+      <c r="B60" s="48"/>
       <c r="C60" s="4" t="s">
         <v>61</v>
       </c>
@@ -3237,11 +3235,11 @@
       </c>
       <c r="J60" s="12"/>
     </row>
-    <row r="61" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:10" ht="22.15" customHeight="1">
       <c r="A61" s="32">
         <v>59</v>
       </c>
-      <c r="B61" s="43" t="s">
+      <c r="B61" s="48" t="s">
         <v>31</v>
       </c>
       <c r="C61" s="4" t="s">
@@ -3265,11 +3263,11 @@
       </c>
       <c r="J61" s="12"/>
     </row>
-    <row r="62" spans="1:10" s="28" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:10" s="28" customFormat="1" ht="22.15" customHeight="1">
       <c r="A62" s="32"/>
-      <c r="B62" s="43"/>
+      <c r="B62" s="48"/>
       <c r="C62" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D62" s="12" t="s">
         <v>10</v>
@@ -3283,11 +3281,11 @@
       <c r="I62" s="12"/>
       <c r="J62" s="12"/>
     </row>
-    <row r="63" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:10" ht="22.15" customHeight="1">
       <c r="A63" s="32">
         <v>60</v>
       </c>
-      <c r="B63" s="43"/>
+      <c r="B63" s="48"/>
       <c r="C63" s="4" t="s">
         <v>64</v>
       </c>
@@ -3309,11 +3307,11 @@
       </c>
       <c r="J63" s="12"/>
     </row>
-    <row r="64" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:10" ht="22.15" customHeight="1">
       <c r="A64" s="32">
         <v>61</v>
       </c>
-      <c r="B64" s="47" t="s">
+      <c r="B64" s="45" t="s">
         <v>33</v>
       </c>
       <c r="C64" s="4" t="s">
@@ -3337,11 +3335,11 @@
       </c>
       <c r="J64" s="12"/>
     </row>
-    <row r="65" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:10" ht="22.15" customHeight="1">
       <c r="A65" s="32">
         <v>62</v>
       </c>
-      <c r="B65" s="48"/>
+      <c r="B65" s="46"/>
       <c r="C65" s="4" t="s">
         <v>35</v>
       </c>
@@ -3363,11 +3361,11 @@
       </c>
       <c r="J65" s="12"/>
     </row>
-    <row r="66" spans="1:10" s="28" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:10" s="28" customFormat="1" ht="22.15" customHeight="1">
       <c r="A66" s="32"/>
-      <c r="B66" s="48"/>
+      <c r="B66" s="46"/>
       <c r="C66" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D66" s="12" t="s">
         <v>10</v>
@@ -3381,9 +3379,9 @@
       <c r="I66" s="12"/>
       <c r="J66" s="12"/>
     </row>
-    <row r="67" spans="1:10" s="28" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:10" s="28" customFormat="1" ht="22.15" customHeight="1">
       <c r="A67" s="32"/>
-      <c r="B67" s="48"/>
+      <c r="B67" s="46"/>
       <c r="C67" s="4"/>
       <c r="D67" s="12"/>
       <c r="E67" s="14"/>
@@ -3393,11 +3391,11 @@
       <c r="I67" s="12"/>
       <c r="J67" s="12"/>
     </row>
-    <row r="68" spans="1:10" s="28" customFormat="1" ht="54" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:10" s="28" customFormat="1" ht="54">
       <c r="A68" s="32"/>
-      <c r="B68" s="48"/>
+      <c r="B68" s="46"/>
       <c r="C68" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D68" s="12" t="s">
         <v>10</v>
@@ -3411,11 +3409,11 @@
       <c r="I68" s="12"/>
       <c r="J68" s="12"/>
     </row>
-    <row r="69" spans="1:10" s="28" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:10" s="28" customFormat="1" ht="13.5">
       <c r="A69" s="32"/>
-      <c r="B69" s="48"/>
+      <c r="B69" s="46"/>
       <c r="C69" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D69" s="12" t="s">
         <v>10</v>
@@ -3429,13 +3427,13 @@
       <c r="I69" s="12"/>
       <c r="J69" s="12"/>
     </row>
-    <row r="70" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:10" ht="27">
       <c r="A70" s="32">
         <v>63</v>
       </c>
-      <c r="B70" s="48"/>
+      <c r="B70" s="46"/>
       <c r="C70" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D70" s="7" t="s">
         <v>10</v>
@@ -3449,11 +3447,11 @@
       <c r="I70" s="12"/>
       <c r="J70" s="12"/>
     </row>
-    <row r="71" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:10" ht="22.15" customHeight="1">
       <c r="A71" s="32">
         <v>64</v>
       </c>
-      <c r="B71" s="48"/>
+      <c r="B71" s="46"/>
       <c r="C71" s="4" t="s">
         <v>36</v>
       </c>
@@ -3471,13 +3469,13 @@
         <v>85</v>
       </c>
     </row>
-    <row r="72" spans="1:10" s="26" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:10" s="26" customFormat="1" ht="27">
       <c r="A72" s="32">
         <v>65</v>
       </c>
-      <c r="B72" s="49"/>
+      <c r="B72" s="47"/>
       <c r="C72" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D72" s="24" t="s">
         <v>10</v>
@@ -3491,12 +3489,12 @@
       <c r="I72" s="11"/>
       <c r="J72" s="11"/>
     </row>
-    <row r="73" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:10" ht="40.5">
       <c r="A73" s="32">
         <v>66</v>
       </c>
-      <c r="B73" s="43" t="s">
-        <v>209</v>
+      <c r="B73" s="48" t="s">
+        <v>208</v>
       </c>
       <c r="C73" s="4" t="s">
         <v>38</v>
@@ -3519,11 +3517,11 @@
       </c>
       <c r="J73" s="12"/>
     </row>
-    <row r="74" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:10" ht="22.15" customHeight="1">
       <c r="A74" s="32">
         <v>67</v>
       </c>
-      <c r="B74" s="43"/>
+      <c r="B74" s="48"/>
       <c r="C74" s="4" t="s">
         <v>105</v>
       </c>
@@ -3545,13 +3543,13 @@
       </c>
       <c r="J74" s="12"/>
     </row>
-    <row r="75" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:10" ht="22.15" customHeight="1">
       <c r="A75" s="32">
         <v>68</v>
       </c>
-      <c r="B75" s="43"/>
+      <c r="B75" s="48"/>
       <c r="C75" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D75" s="12" t="s">
         <v>10</v>
@@ -3565,11 +3563,11 @@
       <c r="I75" s="12"/>
       <c r="J75" s="12"/>
     </row>
-    <row r="76" spans="1:10" s="28" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:10" s="28" customFormat="1" ht="22.15" customHeight="1">
       <c r="A76" s="32"/>
-      <c r="B76" s="43"/>
+      <c r="B76" s="48"/>
       <c r="C76" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D76" s="12"/>
       <c r="E76" s="14"/>
@@ -3579,13 +3577,13 @@
       <c r="I76" s="12"/>
       <c r="J76" s="12"/>
     </row>
-    <row r="77" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:10" ht="27">
       <c r="A77" s="32">
         <v>69</v>
       </c>
-      <c r="B77" s="43"/>
+      <c r="B77" s="48"/>
       <c r="C77" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D77" s="12" t="s">
         <v>10</v>
@@ -3599,11 +3597,11 @@
       <c r="I77" s="12"/>
       <c r="J77" s="12"/>
     </row>
-    <row r="78" spans="1:10" s="28" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:10" s="28" customFormat="1" ht="40.5">
       <c r="A78" s="32"/>
-      <c r="B78" s="43"/>
+      <c r="B78" s="48"/>
       <c r="C78" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D78" s="12" t="s">
         <v>10</v>
@@ -3617,11 +3615,11 @@
       <c r="I78" s="12"/>
       <c r="J78" s="12"/>
     </row>
-    <row r="79" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:10" ht="22.15" customHeight="1">
       <c r="A79" s="32">
         <v>70</v>
       </c>
-      <c r="B79" s="43"/>
+      <c r="B79" s="48"/>
       <c r="C79" s="4" t="s">
         <v>37</v>
       </c>
@@ -3643,11 +3641,11 @@
       </c>
       <c r="J79" s="12"/>
     </row>
-    <row r="80" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:10" ht="27">
       <c r="A80" s="32">
         <v>71</v>
       </c>
-      <c r="B80" s="43" t="s">
+      <c r="B80" s="48" t="s">
         <v>39</v>
       </c>
       <c r="C80" s="4" t="s">
@@ -3673,11 +3671,11 @@
         <v>85</v>
       </c>
     </row>
-    <row r="81" spans="1:10" s="28" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:10" s="28" customFormat="1" ht="13.5">
       <c r="A81" s="32"/>
-      <c r="B81" s="43"/>
+      <c r="B81" s="48"/>
       <c r="C81" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D81" s="12" t="s">
         <v>10</v>
@@ -3691,11 +3689,11 @@
       <c r="I81" s="12"/>
       <c r="J81" s="12"/>
     </row>
-    <row r="82" spans="1:10" s="28" customFormat="1" ht="25.9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:10" s="28" customFormat="1" ht="25.9" customHeight="1">
       <c r="A82" s="32"/>
-      <c r="B82" s="43"/>
+      <c r="B82" s="48"/>
       <c r="C82" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D82" s="12" t="s">
         <v>10</v>
@@ -3709,11 +3707,11 @@
       <c r="I82" s="12"/>
       <c r="J82" s="12"/>
     </row>
-    <row r="83" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:10" ht="22.15" customHeight="1">
       <c r="A83" s="32">
         <v>72</v>
       </c>
-      <c r="B83" s="43"/>
+      <c r="B83" s="48"/>
       <c r="C83" s="4" t="s">
         <v>105</v>
       </c>
@@ -3735,11 +3733,11 @@
       </c>
       <c r="J83" s="12"/>
     </row>
-    <row r="84" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:10" ht="22.15" customHeight="1">
       <c r="A84" s="32">
         <v>73</v>
       </c>
-      <c r="B84" s="43"/>
+      <c r="B84" s="48"/>
       <c r="C84" s="4" t="s">
         <v>37</v>
       </c>
@@ -3761,11 +3759,11 @@
       </c>
       <c r="J84" s="12"/>
     </row>
-    <row r="85" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:10" ht="27">
       <c r="A85" s="32">
         <v>74</v>
       </c>
-      <c r="B85" s="43" t="s">
+      <c r="B85" s="48" t="s">
         <v>41</v>
       </c>
       <c r="C85" s="4" t="s">
@@ -3789,11 +3787,11 @@
       </c>
       <c r="J85" s="12"/>
     </row>
-    <row r="86" spans="1:10" s="28" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:10" s="28" customFormat="1" ht="13.5">
       <c r="A86" s="32"/>
-      <c r="B86" s="43"/>
+      <c r="B86" s="48"/>
       <c r="C86" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D86" s="12" t="s">
         <v>10</v>
@@ -3807,11 +3805,11 @@
       <c r="I86" s="12"/>
       <c r="J86" s="12"/>
     </row>
-    <row r="87" spans="1:10" s="28" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:10" s="28" customFormat="1" ht="13.5">
       <c r="A87" s="32"/>
-      <c r="B87" s="43"/>
+      <c r="B87" s="48"/>
       <c r="C87" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D87" s="12" t="s">
         <v>10</v>
@@ -3825,11 +3823,11 @@
       <c r="I87" s="12"/>
       <c r="J87" s="12"/>
     </row>
-    <row r="88" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:10" ht="22.15" customHeight="1">
       <c r="A88" s="32">
         <v>75</v>
       </c>
-      <c r="B88" s="43"/>
+      <c r="B88" s="48"/>
       <c r="C88" s="4" t="s">
         <v>105</v>
       </c>
@@ -3851,11 +3849,11 @@
       </c>
       <c r="J88" s="12"/>
     </row>
-    <row r="89" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:10" ht="22.15" customHeight="1">
       <c r="A89" s="32">
         <v>76</v>
       </c>
-      <c r="B89" s="43"/>
+      <c r="B89" s="48"/>
       <c r="C89" s="4" t="s">
         <v>37</v>
       </c>
@@ -3877,11 +3875,11 @@
       </c>
       <c r="J89" s="12"/>
     </row>
-    <row r="90" spans="1:10" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:10" ht="13.5">
       <c r="A90" s="32">
         <v>77</v>
       </c>
-      <c r="B90" s="43" t="s">
+      <c r="B90" s="48" t="s">
         <v>43</v>
       </c>
       <c r="C90" s="4" t="s">
@@ -3899,11 +3897,11 @@
       <c r="I90" s="12"/>
       <c r="J90" s="12"/>
     </row>
-    <row r="91" spans="1:10" s="28" customFormat="1" ht="28.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:10" s="28" customFormat="1" ht="28.15" customHeight="1">
       <c r="A91" s="32"/>
-      <c r="B91" s="43"/>
+      <c r="B91" s="48"/>
       <c r="C91" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D91" s="12" t="s">
         <v>10</v>
@@ -3923,11 +3921,11 @@
       </c>
       <c r="J91" s="12"/>
     </row>
-    <row r="92" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:10" ht="27">
       <c r="A92" s="32">
         <v>78</v>
       </c>
-      <c r="B92" s="43"/>
+      <c r="B92" s="48"/>
       <c r="C92" s="4" t="s">
         <v>126</v>
       </c>
@@ -3949,11 +3947,11 @@
       </c>
       <c r="J92" s="12"/>
     </row>
-    <row r="93" spans="1:10" s="28" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:10" s="28" customFormat="1" ht="13.5">
       <c r="A93" s="32"/>
-      <c r="B93" s="43"/>
+      <c r="B93" s="48"/>
       <c r="C93" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D93" s="12" t="s">
         <v>10</v>
@@ -3967,11 +3965,11 @@
       <c r="I93" s="12"/>
       <c r="J93" s="12"/>
     </row>
-    <row r="94" spans="1:10" s="28" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:10" s="28" customFormat="1" ht="24.6" customHeight="1">
       <c r="A94" s="32"/>
-      <c r="B94" s="43"/>
+      <c r="B94" s="48"/>
       <c r="C94" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D94" s="12" t="s">
         <v>10</v>
@@ -3991,14 +3989,14 @@
       </c>
       <c r="J94" s="12"/>
     </row>
-    <row r="95" spans="1:10" s="28" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:10" s="28" customFormat="1" ht="24.6" customHeight="1">
       <c r="A95" s="32"/>
-      <c r="B95" s="43"/>
+      <c r="B95" s="48"/>
       <c r="C95" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="D95" s="12" t="s">
         <v>229</v>
-      </c>
-      <c r="D95" s="12" t="s">
-        <v>230</v>
       </c>
       <c r="E95" s="14">
         <v>42893</v>
@@ -4009,14 +4007,14 @@
       <c r="I95" s="12"/>
       <c r="J95" s="12"/>
     </row>
-    <row r="96" spans="1:10" s="28" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:10" s="28" customFormat="1" ht="24.6" customHeight="1">
       <c r="A96" s="32"/>
-      <c r="B96" s="43"/>
+      <c r="B96" s="48"/>
       <c r="C96" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D96" s="12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E96" s="14">
         <v>42893</v>
@@ -4027,11 +4025,11 @@
       <c r="I96" s="12"/>
       <c r="J96" s="12"/>
     </row>
-    <row r="97" spans="1:10" s="28" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:10" s="28" customFormat="1" ht="27">
       <c r="A97" s="32"/>
-      <c r="B97" s="43"/>
+      <c r="B97" s="48"/>
       <c r="C97" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D97" s="12" t="s">
         <v>10</v>
@@ -4045,11 +4043,11 @@
       <c r="I97" s="12"/>
       <c r="J97" s="12"/>
     </row>
-    <row r="98" spans="1:10" s="28" customFormat="1" ht="25.9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:10" s="28" customFormat="1" ht="25.9" customHeight="1">
       <c r="A98" s="32"/>
-      <c r="B98" s="43"/>
+      <c r="B98" s="48"/>
       <c r="C98" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D98" s="12" t="s">
         <v>10</v>
@@ -4069,11 +4067,11 @@
       </c>
       <c r="J98" s="12"/>
     </row>
-    <row r="99" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:10" ht="22.15" customHeight="1">
       <c r="A99" s="32">
         <v>79</v>
       </c>
-      <c r="B99" s="43"/>
+      <c r="B99" s="48"/>
       <c r="C99" s="4" t="s">
         <v>45</v>
       </c>
@@ -4089,11 +4087,11 @@
       <c r="I99" s="12"/>
       <c r="J99" s="12"/>
     </row>
-    <row r="100" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:10" ht="27.75" customHeight="1">
       <c r="A100" s="32">
         <v>80</v>
       </c>
-      <c r="B100" s="43" t="s">
+      <c r="B100" s="48" t="s">
         <v>44</v>
       </c>
       <c r="C100" s="4" t="s">
@@ -4117,11 +4115,11 @@
       </c>
       <c r="J100" s="12"/>
     </row>
-    <row r="101" spans="1:10" s="28" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:10" s="28" customFormat="1" ht="27.75" customHeight="1">
       <c r="A101" s="32"/>
-      <c r="B101" s="43"/>
+      <c r="B101" s="48"/>
       <c r="C101" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D101" s="12" t="s">
         <v>10</v>
@@ -4135,25 +4133,25 @@
       <c r="I101" s="12"/>
       <c r="J101" s="12"/>
     </row>
-    <row r="102" spans="1:10" s="28" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:10" s="28" customFormat="1" ht="27.75" customHeight="1">
       <c r="A102" s="32"/>
-      <c r="B102" s="43"/>
+      <c r="B102" s="48"/>
       <c r="C102" s="42" t="s">
-        <v>232</v>
-      </c>
-      <c r="D102" s="51"/>
-      <c r="E102" s="52"/>
+        <v>231</v>
+      </c>
+      <c r="D102" s="43"/>
+      <c r="E102" s="44"/>
       <c r="F102" s="12"/>
       <c r="G102" s="12"/>
       <c r="H102" s="14"/>
       <c r="I102" s="12"/>
       <c r="J102" s="12"/>
     </row>
-    <row r="103" spans="1:10" s="28" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:10" s="28" customFormat="1" ht="27.75" customHeight="1">
       <c r="A103" s="32"/>
-      <c r="B103" s="43"/>
+      <c r="B103" s="48"/>
       <c r="C103" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D103" s="12" t="s">
         <v>10</v>
@@ -4173,11 +4171,11 @@
       </c>
       <c r="J103" s="12"/>
     </row>
-    <row r="104" spans="1:10" s="28" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:10" s="28" customFormat="1" ht="27.75" customHeight="1">
       <c r="A104" s="32"/>
-      <c r="B104" s="43"/>
+      <c r="B104" s="48"/>
       <c r="C104" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D104" s="12" t="s">
         <v>10</v>
@@ -4197,11 +4195,11 @@
       </c>
       <c r="J104" s="12"/>
     </row>
-    <row r="105" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:10" ht="27">
       <c r="A105" s="32">
         <v>81</v>
       </c>
-      <c r="B105" s="43"/>
+      <c r="B105" s="48"/>
       <c r="C105" s="4" t="s">
         <v>136</v>
       </c>
@@ -4223,11 +4221,11 @@
       </c>
       <c r="J105" s="12"/>
     </row>
-    <row r="106" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:10" ht="37.5" customHeight="1">
       <c r="A106" s="32">
         <v>82</v>
       </c>
-      <c r="B106" s="47" t="s">
+      <c r="B106" s="45" t="s">
         <v>65</v>
       </c>
       <c r="C106" s="4" t="s">
@@ -4253,11 +4251,11 @@
         <v>79</v>
       </c>
     </row>
-    <row r="107" spans="1:10" s="28" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:10" s="28" customFormat="1" ht="20.45" customHeight="1">
       <c r="A107" s="32"/>
-      <c r="B107" s="48"/>
+      <c r="B107" s="46"/>
       <c r="C107" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D107" s="12" t="s">
         <v>10</v>
@@ -4277,11 +4275,11 @@
       </c>
       <c r="J107" s="12"/>
     </row>
-    <row r="108" spans="1:10" s="28" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:10" s="28" customFormat="1" ht="20.45" customHeight="1">
       <c r="A108" s="32"/>
-      <c r="B108" s="49"/>
+      <c r="B108" s="47"/>
       <c r="C108" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D108" s="12" t="s">
         <v>10</v>
@@ -4301,11 +4299,11 @@
       </c>
       <c r="J108" s="12"/>
     </row>
-    <row r="109" spans="1:10" s="20" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:10" s="20" customFormat="1" ht="22.15" customHeight="1">
       <c r="A109" s="32">
         <v>83</v>
       </c>
-      <c r="B109" s="50" t="s">
+      <c r="B109" s="49" t="s">
         <v>67</v>
       </c>
       <c r="C109" s="8" t="s">
@@ -4329,11 +4327,11 @@
       </c>
       <c r="J109" s="9"/>
     </row>
-    <row r="110" spans="1:10" s="20" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:10" s="20" customFormat="1" ht="22.15" customHeight="1">
       <c r="A110" s="32">
         <v>84</v>
       </c>
-      <c r="B110" s="50"/>
+      <c r="B110" s="49"/>
       <c r="C110" s="8" t="s">
         <v>95</v>
       </c>
@@ -4349,13 +4347,13 @@
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
     </row>
-    <row r="111" spans="1:10" s="20" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:10" s="20" customFormat="1" ht="22.15" customHeight="1">
       <c r="A111" s="32">
         <v>85</v>
       </c>
-      <c r="B111" s="50"/>
+      <c r="B111" s="49"/>
       <c r="C111" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D111" s="9" t="s">
         <v>10</v>
@@ -4369,13 +4367,13 @@
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
     </row>
-    <row r="112" spans="1:10" s="20" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:10" s="20" customFormat="1" ht="22.15" customHeight="1">
       <c r="A112" s="32">
         <v>86</v>
       </c>
-      <c r="B112" s="50"/>
+      <c r="B112" s="49"/>
       <c r="C112" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D112" s="9" t="s">
         <v>10</v>
@@ -4389,11 +4387,11 @@
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
     </row>
-    <row r="113" spans="1:10" s="20" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:10" s="20" customFormat="1" ht="22.15" customHeight="1">
       <c r="A113" s="32"/>
-      <c r="B113" s="50"/>
+      <c r="B113" s="49"/>
       <c r="C113" s="8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D113" s="12" t="s">
         <v>10</v>
@@ -4407,11 +4405,11 @@
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
     </row>
-    <row r="114" spans="1:10" s="20" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:10" s="20" customFormat="1" ht="22.15" customHeight="1">
       <c r="A114" s="32"/>
-      <c r="B114" s="50"/>
+      <c r="B114" s="49"/>
       <c r="C114" s="8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D114" s="12" t="s">
         <v>10</v>
@@ -4425,11 +4423,11 @@
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
     </row>
-    <row r="115" spans="1:10" s="20" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:10" s="20" customFormat="1" ht="22.15" customHeight="1">
       <c r="A115" s="32"/>
-      <c r="B115" s="50"/>
+      <c r="B115" s="49"/>
       <c r="C115" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D115" s="12" t="s">
         <v>10</v>
@@ -4443,11 +4441,11 @@
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
     </row>
-    <row r="116" spans="1:10" s="20" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:10" s="20" customFormat="1" ht="22.15" customHeight="1">
       <c r="A116" s="32"/>
-      <c r="B116" s="50"/>
+      <c r="B116" s="49"/>
       <c r="C116" s="8" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D116" s="12" t="s">
         <v>10</v>
@@ -4461,13 +4459,13 @@
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
     </row>
-    <row r="117" spans="1:10" s="20" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:10" s="20" customFormat="1" ht="27">
       <c r="A117" s="32">
         <v>87</v>
       </c>
-      <c r="B117" s="50"/>
+      <c r="B117" s="49"/>
       <c r="C117" s="8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D117" s="9" t="s">
         <v>10</v>
@@ -4481,11 +4479,11 @@
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
     </row>
-    <row r="118" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:10" ht="22.15" customHeight="1">
       <c r="A118" s="32">
         <v>88</v>
       </c>
-      <c r="B118" s="43" t="s">
+      <c r="B118" s="48" t="s">
         <v>87</v>
       </c>
       <c r="C118" s="4" t="s">
@@ -4509,11 +4507,11 @@
       </c>
       <c r="J118" s="12"/>
     </row>
-    <row r="119" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:10" ht="22.15" customHeight="1">
       <c r="A119" s="32">
         <v>89</v>
       </c>
-      <c r="B119" s="43"/>
+      <c r="B119" s="48"/>
       <c r="C119" s="4" t="s">
         <v>93</v>
       </c>
@@ -4525,21 +4523,21 @@
       </c>
       <c r="F119" s="12"/>
       <c r="G119" s="12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H119" s="14">
         <v>42882</v>
       </c>
       <c r="I119" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J119" s="12"/>
     </row>
-    <row r="120" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:10" ht="22.15" customHeight="1">
       <c r="A120" s="32">
         <v>90</v>
       </c>
-      <c r="B120" s="47" t="s">
+      <c r="B120" s="45" t="s">
         <v>97</v>
       </c>
       <c r="C120" s="4" t="s">
@@ -4563,11 +4561,11 @@
       </c>
       <c r="J120" s="12"/>
     </row>
-    <row r="121" spans="1:10" s="28" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:10" s="28" customFormat="1" ht="22.15" customHeight="1">
       <c r="A121" s="32"/>
-      <c r="B121" s="48"/>
+      <c r="B121" s="46"/>
       <c r="C121" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D121" s="12" t="s">
         <v>10</v>
@@ -4581,11 +4579,11 @@
       <c r="I121" s="12"/>
       <c r="J121" s="12"/>
     </row>
-    <row r="122" spans="1:10" s="28" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:10" s="28" customFormat="1" ht="22.15" customHeight="1">
       <c r="A122" s="32"/>
-      <c r="B122" s="48"/>
+      <c r="B122" s="46"/>
       <c r="C122" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D122" s="12" t="s">
         <v>10</v>
@@ -4599,11 +4597,11 @@
       <c r="I122" s="12"/>
       <c r="J122" s="12"/>
     </row>
-    <row r="123" spans="1:10" s="28" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:10" s="28" customFormat="1" ht="22.15" customHeight="1">
       <c r="A123" s="32"/>
-      <c r="B123" s="48"/>
+      <c r="B123" s="46"/>
       <c r="C123" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D123" s="12" t="s">
         <v>10</v>
@@ -4617,11 +4615,11 @@
       <c r="I123" s="12"/>
       <c r="J123" s="12"/>
     </row>
-    <row r="124" spans="1:10" s="28" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:10" s="28" customFormat="1" ht="27">
       <c r="A124" s="32"/>
-      <c r="B124" s="48"/>
+      <c r="B124" s="46"/>
       <c r="C124" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D124" s="12" t="s">
         <v>10</v>
@@ -4635,11 +4633,11 @@
       <c r="I124" s="12"/>
       <c r="J124" s="12"/>
     </row>
-    <row r="125" spans="1:10" s="28" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:10" s="28" customFormat="1" ht="29.45" customHeight="1">
       <c r="A125" s="32"/>
-      <c r="B125" s="48"/>
+      <c r="B125" s="46"/>
       <c r="C125" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D125" s="12"/>
       <c r="E125" s="14"/>
@@ -4649,13 +4647,13 @@
       <c r="I125" s="12"/>
       <c r="J125" s="12"/>
     </row>
-    <row r="126" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:10" ht="27">
       <c r="A126" s="32">
         <v>91</v>
       </c>
-      <c r="B126" s="49"/>
+      <c r="B126" s="47"/>
       <c r="C126" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D126" s="24" t="s">
         <v>10</v>
@@ -4669,11 +4667,11 @@
       <c r="I126" s="12"/>
       <c r="J126" s="12"/>
     </row>
-    <row r="127" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:10" ht="22.15" customHeight="1">
       <c r="A127" s="32">
         <v>92</v>
       </c>
-      <c r="B127" s="43" t="s">
+      <c r="B127" s="48" t="s">
         <v>99</v>
       </c>
       <c r="C127" s="4" t="s">
@@ -4697,11 +4695,11 @@
       </c>
       <c r="J127" s="12"/>
     </row>
-    <row r="128" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:10" ht="22.15" customHeight="1">
       <c r="A128" s="32">
         <v>93</v>
       </c>
-      <c r="B128" s="43"/>
+      <c r="B128" s="48"/>
       <c r="C128" s="4" t="s">
         <v>104</v>
       </c>
@@ -4723,11 +4721,11 @@
       </c>
       <c r="J128" s="12"/>
     </row>
-    <row r="129" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:10" ht="22.15" customHeight="1">
       <c r="A129" s="32">
         <v>94</v>
       </c>
-      <c r="B129" s="43"/>
+      <c r="B129" s="48"/>
       <c r="C129" s="4" t="s">
         <v>101</v>
       </c>
@@ -4749,13 +4747,13 @@
       </c>
       <c r="J129" s="12"/>
     </row>
-    <row r="130" spans="1:10" s="28" customFormat="1" ht="40.9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:10" s="28" customFormat="1" ht="40.9" customHeight="1">
       <c r="A130" s="32"/>
       <c r="B130" s="41" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D130" s="12" t="s">
         <v>10</v>
@@ -4769,11 +4767,11 @@
       <c r="I130" s="12"/>
       <c r="J130" s="12"/>
     </row>
-    <row r="131" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:10" ht="27">
       <c r="A131" s="32">
         <v>95</v>
       </c>
-      <c r="B131" s="47" t="s">
+      <c r="B131" s="45" t="s">
         <v>111</v>
       </c>
       <c r="C131" s="4" t="s">
@@ -4793,15 +4791,15 @@
         <v>42881</v>
       </c>
       <c r="I131" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J131" s="12"/>
     </row>
-    <row r="132" spans="1:10" s="28" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:10" s="28" customFormat="1" ht="13.5">
       <c r="A132" s="32"/>
-      <c r="B132" s="48"/>
+      <c r="B132" s="46"/>
       <c r="C132" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D132" s="24" t="s">
         <v>10</v>
@@ -4815,13 +4813,13 @@
       <c r="I132" s="12"/>
       <c r="J132" s="12"/>
     </row>
-    <row r="133" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:10" ht="27">
       <c r="A133" s="32">
         <v>96</v>
       </c>
-      <c r="B133" s="48"/>
+      <c r="B133" s="46"/>
       <c r="C133" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D133" s="12" t="s">
         <v>10</v>
@@ -4835,13 +4833,13 @@
       <c r="I133" s="12"/>
       <c r="J133" s="12"/>
     </row>
-    <row r="134" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:10" ht="22.15" customHeight="1">
       <c r="A134" s="32">
         <v>97</v>
       </c>
-      <c r="B134" s="48"/>
+      <c r="B134" s="46"/>
       <c r="C134" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D134" s="12" t="s">
         <v>10</v>
@@ -4855,25 +4853,25 @@
       <c r="I134" s="12"/>
       <c r="J134" s="12"/>
     </row>
-    <row r="135" spans="1:10" s="28" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A135" s="44" t="s">
-        <v>199</v>
-      </c>
-      <c r="B135" s="45"/>
-      <c r="C135" s="45"/>
-      <c r="D135" s="45"/>
-      <c r="E135" s="45"/>
-      <c r="F135" s="45"/>
-      <c r="G135" s="45"/>
-      <c r="H135" s="45"/>
-      <c r="I135" s="45"/>
-      <c r="J135" s="46"/>
-    </row>
-    <row r="136" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:10" s="28" customFormat="1" ht="22.15" customHeight="1">
+      <c r="A135" s="50" t="s">
+        <v>198</v>
+      </c>
+      <c r="B135" s="51"/>
+      <c r="C135" s="51"/>
+      <c r="D135" s="51"/>
+      <c r="E135" s="51"/>
+      <c r="F135" s="51"/>
+      <c r="G135" s="51"/>
+      <c r="H135" s="51"/>
+      <c r="I135" s="51"/>
+      <c r="J135" s="52"/>
+    </row>
+    <row r="136" spans="1:10" ht="40.5">
       <c r="A136" s="32">
         <v>98</v>
       </c>
-      <c r="B136" s="43" t="s">
+      <c r="B136" s="48" t="s">
         <v>113</v>
       </c>
       <c r="C136" s="4" t="s">
@@ -4893,15 +4891,15 @@
         <v>42141</v>
       </c>
       <c r="I136" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J136" s="12"/>
     </row>
-    <row r="137" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:10" ht="22.15" customHeight="1">
       <c r="A137" s="32">
         <v>99</v>
       </c>
-      <c r="B137" s="43"/>
+      <c r="B137" s="48"/>
       <c r="C137" s="4" t="s">
         <v>116</v>
       </c>
@@ -4923,11 +4921,11 @@
       </c>
       <c r="J137" s="12"/>
     </row>
-    <row r="138" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:10" ht="40.5">
       <c r="A138" s="32">
         <v>100</v>
       </c>
-      <c r="B138" s="43" t="s">
+      <c r="B138" s="48" t="s">
         <v>114</v>
       </c>
       <c r="C138" s="4" t="s">
@@ -4951,11 +4949,11 @@
       </c>
       <c r="J138" s="12"/>
     </row>
-    <row r="139" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:10" ht="22.15" customHeight="1">
       <c r="A139" s="32">
         <v>101</v>
       </c>
-      <c r="B139" s="43"/>
+      <c r="B139" s="48"/>
       <c r="C139" s="4" t="s">
         <v>117</v>
       </c>
@@ -4977,11 +4975,11 @@
       </c>
       <c r="J139" s="12"/>
     </row>
-    <row r="140" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:10" ht="41.25" customHeight="1">
       <c r="A140" s="32">
         <v>102</v>
       </c>
-      <c r="B140" s="47" t="s">
+      <c r="B140" s="45" t="s">
         <v>118</v>
       </c>
       <c r="C140" s="4" t="s">
@@ -5005,16 +5003,16 @@
       </c>
       <c r="J140" s="12"/>
     </row>
-    <row r="141" spans="1:10" s="26" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:10" s="26" customFormat="1" ht="27">
       <c r="A141" s="32">
         <v>103</v>
       </c>
-      <c r="B141" s="49"/>
+      <c r="B141" s="47"/>
       <c r="C141" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="D141" s="24" t="s">
         <v>169</v>
-      </c>
-      <c r="D141" s="24" t="s">
-        <v>170</v>
       </c>
       <c r="E141" s="25">
         <v>42887</v>
@@ -5025,7 +5023,7 @@
       <c r="I141" s="11"/>
       <c r="J141" s="11"/>
     </row>
-    <row r="142" spans="1:10" ht="42" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:10" ht="42">
       <c r="A142" s="32">
         <v>104</v>
       </c>
@@ -5046,18 +5044,20 @@
         <v>141</v>
       </c>
       <c r="H142" s="14">
-        <v>42151</v>
+        <v>42156</v>
       </c>
       <c r="I142" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="J142" s="12"/>
-    </row>
-    <row r="143" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>124</v>
+      </c>
+      <c r="J142" s="12" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" ht="22.15" customHeight="1">
       <c r="A143" s="32">
         <v>105</v>
       </c>
-      <c r="B143" s="47" t="s">
+      <c r="B143" s="45" t="s">
         <v>132</v>
       </c>
       <c r="C143" s="4" t="s">
@@ -5077,15 +5077,15 @@
         <v>42151</v>
       </c>
       <c r="I143" s="12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J143" s="12"/>
     </row>
-    <row r="144" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:10" ht="22.15" customHeight="1">
       <c r="A144" s="32">
         <v>106</v>
       </c>
-      <c r="B144" s="48"/>
+      <c r="B144" s="46"/>
       <c r="C144" s="4" t="s">
         <v>135</v>
       </c>
@@ -5103,15 +5103,15 @@
         <v>42151</v>
       </c>
       <c r="I144" s="12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J144" s="12"/>
     </row>
-    <row r="145" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:10" ht="27">
       <c r="A145" s="32">
         <v>107</v>
       </c>
-      <c r="B145" s="49"/>
+      <c r="B145" s="47"/>
       <c r="C145" s="4" t="s">
         <v>139</v>
       </c>
@@ -5129,19 +5129,19 @@
         <v>42151</v>
       </c>
       <c r="I145" s="12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J145" s="12"/>
     </row>
-    <row r="146" spans="1:10" s="26" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:10" s="26" customFormat="1" ht="27">
       <c r="A146" s="32">
         <v>108</v>
       </c>
       <c r="B146" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="C146" s="4" t="s">
         <v>173</v>
-      </c>
-      <c r="C146" s="4" t="s">
-        <v>174</v>
       </c>
       <c r="D146" s="24" t="s">
         <v>10</v>
@@ -5155,15 +5155,15 @@
       <c r="I146" s="11"/>
       <c r="J146" s="11"/>
     </row>
-    <row r="147" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:10" ht="27">
       <c r="A147" s="32">
         <v>109</v>
       </c>
       <c r="B147" s="31" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D147" s="24" t="s">
         <v>10</v>
@@ -5177,7 +5177,7 @@
       <c r="I147" s="12"/>
       <c r="J147" s="12"/>
     </row>
-    <row r="148" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:10" ht="22.15" customHeight="1">
       <c r="A148" s="12"/>
       <c r="B148" s="22"/>
       <c r="C148" s="4"/>
@@ -5189,7 +5189,7 @@
       <c r="I148" s="12"/>
       <c r="J148" s="12"/>
     </row>
-    <row r="149" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:10" ht="22.15" customHeight="1">
       <c r="A149" s="12"/>
       <c r="B149" s="22"/>
       <c r="C149" s="4"/>
@@ -5201,7 +5201,7 @@
       <c r="I149" s="12"/>
       <c r="J149" s="12"/>
     </row>
-    <row r="150" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:10" ht="22.15" customHeight="1">
       <c r="A150" s="12"/>
       <c r="B150" s="22"/>
       <c r="C150" s="4"/>
@@ -5213,7 +5213,7 @@
       <c r="I150" s="12"/>
       <c r="J150" s="12"/>
     </row>
-    <row r="151" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:10" ht="22.15" customHeight="1">
       <c r="A151" s="12"/>
       <c r="B151" s="22"/>
       <c r="C151" s="4"/>
@@ -5225,7 +5225,7 @@
       <c r="I151" s="12"/>
       <c r="J151" s="12"/>
     </row>
-    <row r="152" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:10" ht="22.15" customHeight="1">
       <c r="A152" s="12"/>
       <c r="B152" s="22"/>
       <c r="C152" s="4"/>
@@ -5237,7 +5237,7 @@
       <c r="I152" s="12"/>
       <c r="J152" s="12"/>
     </row>
-    <row r="153" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:10" ht="22.15" customHeight="1">
       <c r="A153" s="12"/>
       <c r="B153" s="22"/>
       <c r="C153" s="4"/>
@@ -5249,7 +5249,7 @@
       <c r="I153" s="12"/>
       <c r="J153" s="12"/>
     </row>
-    <row r="154" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:10" ht="22.15" customHeight="1">
       <c r="A154" s="12"/>
       <c r="B154" s="22"/>
       <c r="C154" s="4"/>
@@ -5261,7 +5261,7 @@
       <c r="I154" s="12"/>
       <c r="J154" s="12"/>
     </row>
-    <row r="155" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:10" ht="22.15" customHeight="1">
       <c r="A155" s="12"/>
       <c r="B155" s="22"/>
       <c r="C155" s="4"/>
@@ -5273,7 +5273,7 @@
       <c r="I155" s="12"/>
       <c r="J155" s="12"/>
     </row>
-    <row r="156" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:10" ht="22.15" customHeight="1">
       <c r="A156" s="12"/>
       <c r="B156" s="22"/>
       <c r="C156" s="4"/>
@@ -5285,7 +5285,7 @@
       <c r="I156" s="12"/>
       <c r="J156" s="12"/>
     </row>
-    <row r="157" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:10" ht="22.15" customHeight="1">
       <c r="A157" s="12"/>
       <c r="B157" s="22"/>
       <c r="C157" s="4"/>
@@ -5297,7 +5297,7 @@
       <c r="I157" s="12"/>
       <c r="J157" s="12"/>
     </row>
-    <row r="158" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:10" ht="22.15" customHeight="1">
       <c r="A158" s="12"/>
       <c r="B158" s="22"/>
       <c r="C158" s="4"/>
@@ -5309,7 +5309,7 @@
       <c r="I158" s="12"/>
       <c r="J158" s="12"/>
     </row>
-    <row r="159" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:10" ht="22.15" customHeight="1">
       <c r="A159" s="12"/>
       <c r="B159" s="22"/>
       <c r="C159" s="4"/>
@@ -5321,7 +5321,7 @@
       <c r="I159" s="12"/>
       <c r="J159" s="12"/>
     </row>
-    <row r="160" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:10" ht="22.15" customHeight="1">
       <c r="A160" s="12"/>
       <c r="B160" s="22"/>
       <c r="C160" s="4"/>
@@ -5333,7 +5333,7 @@
       <c r="I160" s="12"/>
       <c r="J160" s="12"/>
     </row>
-    <row r="161" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:10" ht="22.15" customHeight="1">
       <c r="A161" s="12"/>
       <c r="B161" s="22"/>
       <c r="C161" s="4"/>
@@ -5345,7 +5345,7 @@
       <c r="I161" s="12"/>
       <c r="J161" s="12"/>
     </row>
-    <row r="162" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:10" ht="22.15" customHeight="1">
       <c r="A162" s="12"/>
       <c r="B162" s="22"/>
       <c r="C162" s="4"/>
@@ -5357,7 +5357,7 @@
       <c r="I162" s="12"/>
       <c r="J162" s="12"/>
     </row>
-    <row r="163" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:10" ht="22.15" customHeight="1">
       <c r="A163" s="12"/>
       <c r="B163" s="22"/>
       <c r="C163" s="4"/>
@@ -5369,7 +5369,7 @@
       <c r="I163" s="12"/>
       <c r="J163" s="12"/>
     </row>
-    <row r="164" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:10" ht="22.15" customHeight="1">
       <c r="A164" s="12"/>
       <c r="B164" s="22"/>
       <c r="C164" s="4"/>
@@ -5381,7 +5381,7 @@
       <c r="I164" s="12"/>
       <c r="J164" s="12"/>
     </row>
-    <row r="165" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:10" ht="22.15" customHeight="1">
       <c r="A165" s="12"/>
       <c r="B165" s="22"/>
       <c r="C165" s="4"/>
@@ -5393,7 +5393,7 @@
       <c r="I165" s="12"/>
       <c r="J165" s="12"/>
     </row>
-    <row r="166" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:10" ht="22.15" customHeight="1">
       <c r="A166" s="12"/>
       <c r="B166" s="22"/>
       <c r="C166" s="4"/>
@@ -5405,7 +5405,7 @@
       <c r="I166" s="12"/>
       <c r="J166" s="12"/>
     </row>
-    <row r="167" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:10" ht="22.15" customHeight="1">
       <c r="A167" s="12"/>
       <c r="B167" s="22"/>
       <c r="C167" s="4"/>
@@ -5417,7 +5417,7 @@
       <c r="I167" s="12"/>
       <c r="J167" s="12"/>
     </row>
-    <row r="168" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:10" ht="22.15" customHeight="1">
       <c r="A168" s="12"/>
       <c r="B168" s="22"/>
       <c r="C168" s="4"/>
@@ -5429,7 +5429,7 @@
       <c r="I168" s="12"/>
       <c r="J168" s="12"/>
     </row>
-    <row r="169" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:10" ht="22.15" customHeight="1">
       <c r="A169" s="12"/>
       <c r="B169" s="22"/>
       <c r="C169" s="4"/>
@@ -5441,7 +5441,7 @@
       <c r="I169" s="12"/>
       <c r="J169" s="12"/>
     </row>
-    <row r="170" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:10" ht="22.15" customHeight="1">
       <c r="A170" s="12"/>
       <c r="B170" s="22"/>
       <c r="C170" s="4"/>
@@ -5453,7 +5453,7 @@
       <c r="I170" s="12"/>
       <c r="J170" s="12"/>
     </row>
-    <row r="171" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:10" ht="22.15" customHeight="1">
       <c r="A171" s="12"/>
       <c r="B171" s="22"/>
       <c r="C171" s="4"/>
@@ -5465,7 +5465,7 @@
       <c r="I171" s="12"/>
       <c r="J171" s="12"/>
     </row>
-    <row r="172" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:10" ht="22.15" customHeight="1">
       <c r="A172" s="12"/>
       <c r="B172" s="22"/>
       <c r="C172" s="4"/>
@@ -5477,7 +5477,7 @@
       <c r="I172" s="12"/>
       <c r="J172" s="12"/>
     </row>
-    <row r="173" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:10" ht="22.15" customHeight="1">
       <c r="A173" s="12"/>
       <c r="B173" s="22"/>
       <c r="C173" s="4"/>
@@ -5489,7 +5489,7 @@
       <c r="I173" s="12"/>
       <c r="J173" s="12"/>
     </row>
-    <row r="174" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:10" ht="22.15" customHeight="1">
       <c r="A174" s="12"/>
       <c r="B174" s="22"/>
       <c r="C174" s="4"/>
@@ -5501,7 +5501,7 @@
       <c r="I174" s="12"/>
       <c r="J174" s="12"/>
     </row>
-    <row r="175" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:10" ht="22.15" customHeight="1">
       <c r="A175" s="12"/>
       <c r="B175" s="22"/>
       <c r="C175" s="4"/>
@@ -5513,7 +5513,7 @@
       <c r="I175" s="12"/>
       <c r="J175" s="12"/>
     </row>
-    <row r="176" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:10" ht="22.15" customHeight="1">
       <c r="A176" s="12"/>
       <c r="B176" s="22"/>
       <c r="C176" s="4"/>
@@ -5525,7 +5525,7 @@
       <c r="I176" s="12"/>
       <c r="J176" s="12"/>
     </row>
-    <row r="177" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:10" ht="22.15" customHeight="1">
       <c r="A177" s="12"/>
       <c r="B177" s="22"/>
       <c r="C177" s="4"/>
@@ -5537,7 +5537,7 @@
       <c r="I177" s="12"/>
       <c r="J177" s="12"/>
     </row>
-    <row r="178" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:10" ht="22.15" customHeight="1">
       <c r="A178" s="12"/>
       <c r="B178" s="22"/>
       <c r="C178" s="4"/>
@@ -5549,7 +5549,7 @@
       <c r="I178" s="12"/>
       <c r="J178" s="12"/>
     </row>
-    <row r="179" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:10" ht="22.15" customHeight="1">
       <c r="A179" s="12"/>
       <c r="B179" s="22"/>
       <c r="C179" s="4"/>
@@ -5561,7 +5561,7 @@
       <c r="I179" s="12"/>
       <c r="J179" s="12"/>
     </row>
-    <row r="180" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:10" ht="22.15" customHeight="1">
       <c r="A180" s="12"/>
       <c r="B180" s="22"/>
       <c r="C180" s="4"/>
@@ -5573,7 +5573,7 @@
       <c r="I180" s="12"/>
       <c r="J180" s="12"/>
     </row>
-    <row r="181" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:10" ht="22.15" customHeight="1">
       <c r="A181" s="12"/>
       <c r="B181" s="22"/>
       <c r="C181" s="4"/>
@@ -5585,7 +5585,7 @@
       <c r="I181" s="12"/>
       <c r="J181" s="12"/>
     </row>
-    <row r="182" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:10" ht="22.15" customHeight="1">
       <c r="A182" s="12"/>
       <c r="B182" s="22"/>
       <c r="C182" s="4"/>
@@ -5597,7 +5597,7 @@
       <c r="I182" s="12"/>
       <c r="J182" s="12"/>
     </row>
-    <row r="183" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:10" ht="22.15" customHeight="1">
       <c r="A183" s="12"/>
       <c r="B183" s="22"/>
       <c r="C183" s="4"/>
@@ -5609,7 +5609,7 @@
       <c r="I183" s="12"/>
       <c r="J183" s="12"/>
     </row>
-    <row r="184" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:10" ht="22.15" customHeight="1">
       <c r="A184" s="12"/>
       <c r="B184" s="22"/>
       <c r="C184" s="4"/>
@@ -5621,7 +5621,7 @@
       <c r="I184" s="12"/>
       <c r="J184" s="12"/>
     </row>
-    <row r="185" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:10" ht="22.15" customHeight="1">
       <c r="A185" s="12"/>
       <c r="B185" s="22"/>
       <c r="C185" s="4"/>
@@ -5633,7 +5633,7 @@
       <c r="I185" s="12"/>
       <c r="J185" s="12"/>
     </row>
-    <row r="186" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:10" ht="22.15" customHeight="1">
       <c r="A186" s="12"/>
       <c r="B186" s="22"/>
       <c r="C186" s="4"/>
@@ -5645,7 +5645,7 @@
       <c r="I186" s="12"/>
       <c r="J186" s="12"/>
     </row>
-    <row r="187" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:10" ht="22.15" customHeight="1">
       <c r="A187" s="12"/>
       <c r="B187" s="22"/>
       <c r="C187" s="4"/>
@@ -5657,7 +5657,7 @@
       <c r="I187" s="12"/>
       <c r="J187" s="12"/>
     </row>
-    <row r="188" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:10" ht="22.15" customHeight="1">
       <c r="A188" s="12"/>
       <c r="B188" s="22"/>
       <c r="C188" s="4"/>
@@ -5669,7 +5669,7 @@
       <c r="I188" s="12"/>
       <c r="J188" s="12"/>
     </row>
-    <row r="189" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:10" ht="22.15" customHeight="1">
       <c r="A189" s="12"/>
       <c r="B189" s="22"/>
       <c r="C189" s="4"/>
@@ -5681,7 +5681,7 @@
       <c r="I189" s="12"/>
       <c r="J189" s="12"/>
     </row>
-    <row r="190" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:10" ht="22.15" customHeight="1">
       <c r="A190" s="12"/>
       <c r="B190" s="22"/>
       <c r="C190" s="4"/>
@@ -5693,7 +5693,7 @@
       <c r="I190" s="12"/>
       <c r="J190" s="12"/>
     </row>
-    <row r="191" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:10" ht="22.15" customHeight="1">
       <c r="A191" s="12"/>
       <c r="B191" s="22"/>
       <c r="C191" s="4"/>
@@ -5705,7 +5705,7 @@
       <c r="I191" s="12"/>
       <c r="J191" s="12"/>
     </row>
-    <row r="192" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:10" ht="22.15" customHeight="1">
       <c r="A192" s="12"/>
       <c r="B192" s="22"/>
       <c r="C192" s="4"/>
@@ -5717,7 +5717,7 @@
       <c r="I192" s="12"/>
       <c r="J192" s="12"/>
     </row>
-    <row r="193" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:10" ht="22.15" customHeight="1">
       <c r="A193" s="12"/>
       <c r="B193" s="22"/>
       <c r="C193" s="4"/>
@@ -5729,7 +5729,7 @@
       <c r="I193" s="12"/>
       <c r="J193" s="12"/>
     </row>
-    <row r="194" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:10" ht="22.15" customHeight="1">
       <c r="A194" s="12"/>
       <c r="B194" s="22"/>
       <c r="C194" s="4"/>
@@ -5741,7 +5741,7 @@
       <c r="I194" s="12"/>
       <c r="J194" s="12"/>
     </row>
-    <row r="195" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:10" ht="22.15" customHeight="1">
       <c r="A195" s="12"/>
       <c r="B195" s="22"/>
       <c r="C195" s="4"/>
@@ -5753,7 +5753,7 @@
       <c r="I195" s="12"/>
       <c r="J195" s="12"/>
     </row>
-    <row r="196" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:10" ht="22.15" customHeight="1">
       <c r="A196" s="12"/>
       <c r="B196" s="22"/>
       <c r="C196" s="4"/>
@@ -5765,7 +5765,7 @@
       <c r="I196" s="12"/>
       <c r="J196" s="12"/>
     </row>
-    <row r="197" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:10" ht="22.15" customHeight="1">
       <c r="A197" s="12"/>
       <c r="B197" s="22"/>
       <c r="C197" s="4"/>
@@ -5777,7 +5777,7 @@
       <c r="I197" s="12"/>
       <c r="J197" s="12"/>
     </row>
-    <row r="198" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:10" ht="22.15" customHeight="1">
       <c r="A198" s="12"/>
       <c r="B198" s="22"/>
       <c r="C198" s="4"/>
@@ -5789,7 +5789,7 @@
       <c r="I198" s="12"/>
       <c r="J198" s="12"/>
     </row>
-    <row r="199" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:10" ht="22.15" customHeight="1">
       <c r="A199" s="12"/>
       <c r="B199" s="22"/>
       <c r="C199" s="4"/>
@@ -5801,7 +5801,7 @@
       <c r="I199" s="12"/>
       <c r="J199" s="12"/>
     </row>
-    <row r="200" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:10" ht="22.15" customHeight="1">
       <c r="A200" s="12"/>
       <c r="B200" s="22"/>
       <c r="C200" s="4"/>
@@ -5813,7 +5813,7 @@
       <c r="I200" s="12"/>
       <c r="J200" s="12"/>
     </row>
-    <row r="201" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:10" ht="22.15" customHeight="1">
       <c r="A201" s="12"/>
       <c r="B201" s="22"/>
       <c r="C201" s="4"/>
@@ -5825,7 +5825,7 @@
       <c r="I201" s="12"/>
       <c r="J201" s="12"/>
     </row>
-    <row r="202" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:10" ht="22.15" customHeight="1">
       <c r="A202" s="12"/>
       <c r="B202" s="22"/>
       <c r="C202" s="4"/>
@@ -5837,7 +5837,7 @@
       <c r="I202" s="12"/>
       <c r="J202" s="12"/>
     </row>
-    <row r="203" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:10" ht="22.15" customHeight="1">
       <c r="A203" s="12"/>
       <c r="B203" s="22"/>
       <c r="C203" s="4"/>
@@ -5849,7 +5849,7 @@
       <c r="I203" s="12"/>
       <c r="J203" s="12"/>
     </row>
-    <row r="204" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:10" ht="22.15" customHeight="1">
       <c r="A204" s="12"/>
       <c r="B204" s="22"/>
       <c r="C204" s="4"/>
@@ -5861,7 +5861,7 @@
       <c r="I204" s="12"/>
       <c r="J204" s="12"/>
     </row>
-    <row r="205" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:10" ht="22.15" customHeight="1">
       <c r="A205" s="12"/>
       <c r="B205" s="22"/>
       <c r="C205" s="4"/>
@@ -5873,7 +5873,7 @@
       <c r="I205" s="12"/>
       <c r="J205" s="12"/>
     </row>
-    <row r="206" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:10" ht="22.15" customHeight="1">
       <c r="A206" s="12"/>
       <c r="B206" s="22"/>
       <c r="C206" s="4"/>
@@ -5885,7 +5885,7 @@
       <c r="I206" s="12"/>
       <c r="J206" s="12"/>
     </row>
-    <row r="207" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:10" ht="22.15" customHeight="1">
       <c r="A207" s="12"/>
       <c r="B207" s="22"/>
       <c r="C207" s="4"/>
@@ -5897,7 +5897,7 @@
       <c r="I207" s="12"/>
       <c r="J207" s="12"/>
     </row>
-    <row r="208" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:10" ht="22.15" customHeight="1">
       <c r="A208" s="12"/>
       <c r="B208" s="22"/>
       <c r="C208" s="4"/>
@@ -5909,7 +5909,7 @@
       <c r="I208" s="12"/>
       <c r="J208" s="12"/>
     </row>
-    <row r="209" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:10" ht="22.15" customHeight="1">
       <c r="A209" s="12"/>
       <c r="B209" s="22"/>
       <c r="C209" s="4"/>
@@ -5921,7 +5921,7 @@
       <c r="I209" s="12"/>
       <c r="J209" s="12"/>
     </row>
-    <row r="210" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:10" ht="22.15" customHeight="1">
       <c r="A210" s="12"/>
       <c r="B210" s="22"/>
       <c r="C210" s="4"/>
@@ -5933,7 +5933,7 @@
       <c r="I210" s="12"/>
       <c r="J210" s="12"/>
     </row>
-    <row r="211" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:10" ht="22.15" customHeight="1">
       <c r="A211" s="12"/>
       <c r="B211" s="22"/>
       <c r="C211" s="4"/>
@@ -5945,7 +5945,7 @@
       <c r="I211" s="12"/>
       <c r="J211" s="12"/>
     </row>
-    <row r="212" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:10" ht="22.15" customHeight="1">
       <c r="A212" s="12"/>
       <c r="B212" s="22"/>
       <c r="C212" s="4"/>
@@ -5957,7 +5957,7 @@
       <c r="I212" s="12"/>
       <c r="J212" s="12"/>
     </row>
-    <row r="213" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:10" ht="22.15" customHeight="1">
       <c r="A213" s="12"/>
       <c r="B213" s="22"/>
       <c r="C213" s="4"/>
@@ -5969,7 +5969,7 @@
       <c r="I213" s="12"/>
       <c r="J213" s="12"/>
     </row>
-    <row r="214" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:10" ht="22.15" customHeight="1">
       <c r="A214" s="12"/>
       <c r="B214" s="22"/>
       <c r="C214" s="4"/>
@@ -5981,7 +5981,7 @@
       <c r="I214" s="12"/>
       <c r="J214" s="12"/>
     </row>
-    <row r="215" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:10" ht="22.15" customHeight="1">
       <c r="A215" s="12"/>
       <c r="B215" s="22"/>
       <c r="C215" s="4"/>
@@ -5993,7 +5993,7 @@
       <c r="I215" s="12"/>
       <c r="J215" s="12"/>
     </row>
-    <row r="216" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:10" ht="22.15" customHeight="1">
       <c r="A216" s="12"/>
       <c r="B216" s="22"/>
       <c r="C216" s="4"/>
@@ -6005,7 +6005,7 @@
       <c r="I216" s="12"/>
       <c r="J216" s="12"/>
     </row>
-    <row r="217" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:10" ht="22.15" customHeight="1">
       <c r="A217" s="12"/>
       <c r="B217" s="22"/>
       <c r="C217" s="4"/>
@@ -6017,7 +6017,7 @@
       <c r="I217" s="12"/>
       <c r="J217" s="12"/>
     </row>
-    <row r="218" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:10" ht="22.15" customHeight="1">
       <c r="A218" s="12"/>
       <c r="B218" s="22"/>
       <c r="C218" s="4"/>
@@ -6029,7 +6029,7 @@
       <c r="I218" s="12"/>
       <c r="J218" s="12"/>
     </row>
-    <row r="219" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:10" ht="22.15" customHeight="1">
       <c r="A219" s="12"/>
       <c r="B219" s="22"/>
       <c r="C219" s="4"/>
@@ -6041,7 +6041,7 @@
       <c r="I219" s="12"/>
       <c r="J219" s="12"/>
     </row>
-    <row r="220" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:10" ht="22.15" customHeight="1">
       <c r="A220" s="12"/>
       <c r="B220" s="22"/>
       <c r="C220" s="4"/>
@@ -6053,7 +6053,7 @@
       <c r="I220" s="12"/>
       <c r="J220" s="12"/>
     </row>
-    <row r="221" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:10" ht="22.15" customHeight="1">
       <c r="A221" s="12"/>
       <c r="B221" s="22"/>
       <c r="C221" s="4"/>
@@ -6065,7 +6065,7 @@
       <c r="I221" s="12"/>
       <c r="J221" s="12"/>
     </row>
-    <row r="222" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="222" spans="1:10" ht="22.15" customHeight="1">
       <c r="A222" s="12"/>
       <c r="B222" s="22"/>
       <c r="C222" s="4"/>
@@ -6077,7 +6077,7 @@
       <c r="I222" s="12"/>
       <c r="J222" s="12"/>
     </row>
-    <row r="223" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:10" ht="22.15" customHeight="1">
       <c r="A223" s="12"/>
       <c r="B223" s="22"/>
       <c r="C223" s="4"/>
@@ -6089,7 +6089,7 @@
       <c r="I223" s="12"/>
       <c r="J223" s="12"/>
     </row>
-    <row r="224" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:10" ht="22.15" customHeight="1">
       <c r="A224" s="12"/>
       <c r="B224" s="22"/>
       <c r="C224" s="4"/>
@@ -6101,7 +6101,7 @@
       <c r="I224" s="12"/>
       <c r="J224" s="12"/>
     </row>
-    <row r="225" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="225" spans="1:10" ht="22.15" customHeight="1">
       <c r="A225" s="12"/>
       <c r="B225" s="22"/>
       <c r="C225" s="4"/>
@@ -6113,7 +6113,7 @@
       <c r="I225" s="12"/>
       <c r="J225" s="12"/>
     </row>
-    <row r="226" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="226" spans="1:10" ht="22.15" customHeight="1">
       <c r="A226" s="12"/>
       <c r="B226" s="22"/>
       <c r="C226" s="4"/>
@@ -6125,7 +6125,7 @@
       <c r="I226" s="12"/>
       <c r="J226" s="12"/>
     </row>
-    <row r="227" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="227" spans="1:10" ht="22.15" customHeight="1">
       <c r="A227" s="12"/>
       <c r="B227" s="22"/>
       <c r="C227" s="4"/>
@@ -6137,7 +6137,7 @@
       <c r="I227" s="12"/>
       <c r="J227" s="12"/>
     </row>
-    <row r="228" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="228" spans="1:10" ht="22.15" customHeight="1">
       <c r="A228" s="12"/>
       <c r="B228" s="22"/>
       <c r="C228" s="4"/>
@@ -6149,7 +6149,7 @@
       <c r="I228" s="12"/>
       <c r="J228" s="12"/>
     </row>
-    <row r="229" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="229" spans="1:10" ht="22.15" customHeight="1">
       <c r="A229" s="12"/>
       <c r="B229" s="22"/>
       <c r="C229" s="4"/>
@@ -6161,7 +6161,7 @@
       <c r="I229" s="12"/>
       <c r="J229" s="12"/>
     </row>
-    <row r="230" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="230" spans="1:10" ht="22.15" customHeight="1">
       <c r="A230" s="12"/>
       <c r="B230" s="22"/>
       <c r="C230" s="4"/>
@@ -6173,7 +6173,7 @@
       <c r="I230" s="12"/>
       <c r="J230" s="12"/>
     </row>
-    <row r="231" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="231" spans="1:10" ht="22.15" customHeight="1">
       <c r="A231" s="12"/>
       <c r="B231" s="22"/>
       <c r="C231" s="4"/>
@@ -6185,7 +6185,7 @@
       <c r="I231" s="12"/>
       <c r="J231" s="12"/>
     </row>
-    <row r="232" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="232" spans="1:10" ht="22.15" customHeight="1">
       <c r="A232" s="12"/>
       <c r="B232" s="22"/>
       <c r="C232" s="4"/>
@@ -6197,7 +6197,7 @@
       <c r="I232" s="12"/>
       <c r="J232" s="12"/>
     </row>
-    <row r="233" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="233" spans="1:10" ht="22.15" customHeight="1">
       <c r="A233" s="12"/>
       <c r="B233" s="22"/>
       <c r="C233" s="4"/>
@@ -6209,7 +6209,7 @@
       <c r="I233" s="12"/>
       <c r="J233" s="12"/>
     </row>
-    <row r="234" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="234" spans="1:10" ht="22.15" customHeight="1">
       <c r="A234" s="12"/>
       <c r="B234" s="22"/>
       <c r="C234" s="4"/>
@@ -6221,7 +6221,7 @@
       <c r="I234" s="12"/>
       <c r="J234" s="12"/>
     </row>
-    <row r="235" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:10" ht="22.15" customHeight="1">
       <c r="A235" s="12"/>
       <c r="B235" s="22"/>
       <c r="C235" s="4"/>
@@ -6233,7 +6233,7 @@
       <c r="I235" s="12"/>
       <c r="J235" s="12"/>
     </row>
-    <row r="236" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="236" spans="1:10" ht="22.15" customHeight="1">
       <c r="A236" s="12"/>
       <c r="B236" s="22"/>
       <c r="C236" s="4"/>
@@ -6245,7 +6245,7 @@
       <c r="I236" s="12"/>
       <c r="J236" s="12"/>
     </row>
-    <row r="237" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="237" spans="1:10" ht="22.15" customHeight="1">
       <c r="A237" s="12"/>
       <c r="B237" s="22"/>
       <c r="C237" s="4"/>
@@ -6257,7 +6257,7 @@
       <c r="I237" s="12"/>
       <c r="J237" s="12"/>
     </row>
-    <row r="238" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:10" ht="22.15" customHeight="1">
       <c r="A238" s="12"/>
       <c r="B238" s="22"/>
       <c r="C238" s="4"/>
@@ -6269,7 +6269,7 @@
       <c r="I238" s="12"/>
       <c r="J238" s="12"/>
     </row>
-    <row r="239" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="239" spans="1:10" ht="22.15" customHeight="1">
       <c r="A239" s="12"/>
       <c r="B239" s="22"/>
       <c r="C239" s="4"/>
@@ -6281,7 +6281,7 @@
       <c r="I239" s="12"/>
       <c r="J239" s="12"/>
     </row>
-    <row r="240" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="240" spans="1:10" ht="22.15" customHeight="1">
       <c r="A240" s="12"/>
       <c r="B240" s="22"/>
       <c r="C240" s="4"/>
@@ -6293,7 +6293,7 @@
       <c r="I240" s="12"/>
       <c r="J240" s="12"/>
     </row>
-    <row r="241" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:10" ht="22.15" customHeight="1">
       <c r="A241" s="12"/>
       <c r="B241" s="22"/>
       <c r="C241" s="4"/>
@@ -6305,7 +6305,7 @@
       <c r="I241" s="12"/>
       <c r="J241" s="12"/>
     </row>
-    <row r="242" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="242" spans="1:10" ht="22.15" customHeight="1">
       <c r="A242" s="12"/>
       <c r="B242" s="22"/>
       <c r="C242" s="4"/>
@@ -6317,7 +6317,7 @@
       <c r="I242" s="12"/>
       <c r="J242" s="12"/>
     </row>
-    <row r="243" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="243" spans="1:10" ht="22.15" customHeight="1">
       <c r="A243" s="12"/>
       <c r="B243" s="22"/>
       <c r="C243" s="4"/>
@@ -6329,7 +6329,7 @@
       <c r="I243" s="12"/>
       <c r="J243" s="12"/>
     </row>
-    <row r="244" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="244" spans="1:10" ht="22.15" customHeight="1">
       <c r="A244" s="12"/>
       <c r="B244" s="22"/>
       <c r="C244" s="4"/>
@@ -6341,7 +6341,7 @@
       <c r="I244" s="12"/>
       <c r="J244" s="12"/>
     </row>
-    <row r="245" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="245" spans="1:10" ht="22.15" customHeight="1">
       <c r="A245" s="12"/>
       <c r="B245" s="22"/>
       <c r="C245" s="4"/>
@@ -6353,7 +6353,7 @@
       <c r="I245" s="12"/>
       <c r="J245" s="12"/>
     </row>
-    <row r="246" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="246" spans="1:10" ht="22.15" customHeight="1">
       <c r="A246" s="12"/>
       <c r="B246" s="22"/>
       <c r="C246" s="4"/>
@@ -6365,7 +6365,7 @@
       <c r="I246" s="12"/>
       <c r="J246" s="12"/>
     </row>
-    <row r="247" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="247" spans="1:10" ht="22.15" customHeight="1">
       <c r="A247" s="12"/>
       <c r="B247" s="22"/>
       <c r="C247" s="4"/>
@@ -6377,7 +6377,7 @@
       <c r="I247" s="12"/>
       <c r="J247" s="12"/>
     </row>
-    <row r="248" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="248" spans="1:10" ht="22.15" customHeight="1">
       <c r="A248" s="12"/>
       <c r="B248" s="22"/>
       <c r="C248" s="4"/>
@@ -6389,7 +6389,7 @@
       <c r="I248" s="12"/>
       <c r="J248" s="12"/>
     </row>
-    <row r="249" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="249" spans="1:10" ht="22.15" customHeight="1">
       <c r="A249" s="12"/>
       <c r="B249" s="22"/>
       <c r="C249" s="4"/>
@@ -6401,7 +6401,7 @@
       <c r="I249" s="12"/>
       <c r="J249" s="12"/>
     </row>
-    <row r="250" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="250" spans="1:10" ht="22.15" customHeight="1">
       <c r="A250" s="12"/>
       <c r="B250" s="22"/>
       <c r="C250" s="4"/>
@@ -6413,7 +6413,7 @@
       <c r="I250" s="12"/>
       <c r="J250" s="12"/>
     </row>
-    <row r="251" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="251" spans="1:10" ht="22.15" customHeight="1">
       <c r="A251" s="12"/>
       <c r="B251" s="22"/>
       <c r="C251" s="4"/>
@@ -6425,7 +6425,7 @@
       <c r="I251" s="12"/>
       <c r="J251" s="12"/>
     </row>
-    <row r="252" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="252" spans="1:10" ht="22.15" customHeight="1">
       <c r="A252" s="12"/>
       <c r="B252" s="22"/>
       <c r="C252" s="4"/>
@@ -6437,7 +6437,7 @@
       <c r="I252" s="12"/>
       <c r="J252" s="12"/>
     </row>
-    <row r="253" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="253" spans="1:10" ht="22.15" customHeight="1">
       <c r="A253" s="12"/>
       <c r="B253" s="22"/>
       <c r="C253" s="4"/>
@@ -6449,7 +6449,7 @@
       <c r="I253" s="12"/>
       <c r="J253" s="12"/>
     </row>
-    <row r="254" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="254" spans="1:10" ht="22.15" customHeight="1">
       <c r="A254" s="12"/>
       <c r="B254" s="22"/>
       <c r="C254" s="4"/>
@@ -6461,7 +6461,7 @@
       <c r="I254" s="12"/>
       <c r="J254" s="12"/>
     </row>
-    <row r="255" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="255" spans="1:10" ht="22.15" customHeight="1">
       <c r="A255" s="12"/>
       <c r="B255" s="22"/>
       <c r="C255" s="4"/>
@@ -6473,7 +6473,7 @@
       <c r="I255" s="12"/>
       <c r="J255" s="12"/>
     </row>
-    <row r="256" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="256" spans="1:10" ht="22.15" customHeight="1">
       <c r="A256" s="12"/>
       <c r="B256" s="22"/>
       <c r="C256" s="4"/>
@@ -6485,7 +6485,7 @@
       <c r="I256" s="12"/>
       <c r="J256" s="12"/>
     </row>
-    <row r="257" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="257" spans="1:10" ht="22.15" customHeight="1">
       <c r="A257" s="12"/>
       <c r="B257" s="22"/>
       <c r="C257" s="4"/>
@@ -6497,7 +6497,7 @@
       <c r="I257" s="12"/>
       <c r="J257" s="12"/>
     </row>
-    <row r="258" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="258" spans="1:10" ht="22.15" customHeight="1">
       <c r="A258" s="12"/>
       <c r="B258" s="22"/>
       <c r="C258" s="4"/>
@@ -6509,7 +6509,7 @@
       <c r="I258" s="12"/>
       <c r="J258" s="12"/>
     </row>
-    <row r="259" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="259" spans="1:10" ht="22.15" customHeight="1">
       <c r="A259" s="12"/>
       <c r="B259" s="22"/>
       <c r="C259" s="4"/>
@@ -6521,7 +6521,7 @@
       <c r="I259" s="12"/>
       <c r="J259" s="12"/>
     </row>
-    <row r="260" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="260" spans="1:10" ht="22.15" customHeight="1">
       <c r="A260" s="12"/>
       <c r="B260" s="22"/>
       <c r="C260" s="4"/>
@@ -6533,7 +6533,7 @@
       <c r="I260" s="12"/>
       <c r="J260" s="12"/>
     </row>
-    <row r="261" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="261" spans="1:10" ht="22.15" customHeight="1">
       <c r="A261" s="12"/>
       <c r="B261" s="22"/>
       <c r="C261" s="4"/>
@@ -6545,7 +6545,7 @@
       <c r="I261" s="12"/>
       <c r="J261" s="12"/>
     </row>
-    <row r="262" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="262" spans="1:10" ht="22.15" customHeight="1">
       <c r="A262" s="12"/>
       <c r="B262" s="22"/>
       <c r="C262" s="4"/>
@@ -6557,7 +6557,7 @@
       <c r="I262" s="12"/>
       <c r="J262" s="12"/>
     </row>
-    <row r="263" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="263" spans="1:10" ht="22.15" customHeight="1">
       <c r="A263" s="12"/>
       <c r="B263" s="22"/>
       <c r="C263" s="4"/>
@@ -6569,7 +6569,7 @@
       <c r="I263" s="12"/>
       <c r="J263" s="12"/>
     </row>
-    <row r="264" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="264" spans="1:10" ht="22.15" customHeight="1">
       <c r="A264" s="12"/>
       <c r="B264" s="22"/>
       <c r="C264" s="4"/>
@@ -6581,7 +6581,7 @@
       <c r="I264" s="12"/>
       <c r="J264" s="12"/>
     </row>
-    <row r="265" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="265" spans="1:10" ht="22.15" customHeight="1">
       <c r="A265" s="12"/>
       <c r="B265" s="22"/>
       <c r="C265" s="4"/>
@@ -6593,7 +6593,7 @@
       <c r="I265" s="12"/>
       <c r="J265" s="12"/>
     </row>
-    <row r="266" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="266" spans="1:10" ht="22.15" customHeight="1">
       <c r="A266" s="12"/>
       <c r="B266" s="22"/>
       <c r="C266" s="4"/>
@@ -6605,7 +6605,7 @@
       <c r="I266" s="12"/>
       <c r="J266" s="12"/>
     </row>
-    <row r="267" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="267" spans="1:10" ht="22.15" customHeight="1">
       <c r="A267" s="12"/>
       <c r="B267" s="22"/>
       <c r="C267" s="4"/>
@@ -6617,7 +6617,7 @@
       <c r="I267" s="12"/>
       <c r="J267" s="12"/>
     </row>
-    <row r="268" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="268" spans="1:10" ht="22.15" customHeight="1">
       <c r="A268" s="12"/>
       <c r="B268" s="22"/>
       <c r="C268" s="4"/>
@@ -6629,7 +6629,7 @@
       <c r="I268" s="12"/>
       <c r="J268" s="12"/>
     </row>
-    <row r="269" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="269" spans="1:10" ht="22.15" customHeight="1">
       <c r="A269" s="12"/>
       <c r="B269" s="22"/>
       <c r="C269" s="4"/>
@@ -6641,7 +6641,7 @@
       <c r="I269" s="12"/>
       <c r="J269" s="12"/>
     </row>
-    <row r="270" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="270" spans="1:10" ht="22.15" customHeight="1">
       <c r="A270" s="12"/>
       <c r="B270" s="22"/>
       <c r="C270" s="4"/>
@@ -6653,7 +6653,7 @@
       <c r="I270" s="12"/>
       <c r="J270" s="12"/>
     </row>
-    <row r="271" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="271" spans="1:10" ht="22.15" customHeight="1">
       <c r="A271" s="12"/>
       <c r="B271" s="22"/>
       <c r="C271" s="4"/>
@@ -6665,7 +6665,7 @@
       <c r="I271" s="12"/>
       <c r="J271" s="12"/>
     </row>
-    <row r="272" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="272" spans="1:10" ht="22.15" customHeight="1">
       <c r="A272" s="12"/>
       <c r="B272" s="22"/>
       <c r="C272" s="4"/>
@@ -6677,7 +6677,7 @@
       <c r="I272" s="12"/>
       <c r="J272" s="12"/>
     </row>
-    <row r="273" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="273" spans="1:10" ht="22.15" customHeight="1">
       <c r="A273" s="12"/>
       <c r="B273" s="22"/>
       <c r="C273" s="4"/>
@@ -6689,7 +6689,7 @@
       <c r="I273" s="12"/>
       <c r="J273" s="12"/>
     </row>
-    <row r="274" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="274" spans="1:10" ht="22.15" customHeight="1">
       <c r="A274" s="12"/>
       <c r="B274" s="22"/>
       <c r="C274" s="4"/>
@@ -6701,7 +6701,7 @@
       <c r="I274" s="12"/>
       <c r="J274" s="12"/>
     </row>
-    <row r="275" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="275" spans="1:10" ht="22.15" customHeight="1">
       <c r="A275" s="12"/>
       <c r="B275" s="22"/>
       <c r="C275" s="4"/>
@@ -6713,7 +6713,7 @@
       <c r="I275" s="12"/>
       <c r="J275" s="12"/>
     </row>
-    <row r="276" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="276" spans="1:10" ht="22.15" customHeight="1">
       <c r="A276" s="12"/>
       <c r="B276" s="22"/>
       <c r="C276" s="4"/>
@@ -6725,7 +6725,7 @@
       <c r="I276" s="12"/>
       <c r="J276" s="12"/>
     </row>
-    <row r="277" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="277" spans="1:10" ht="22.15" customHeight="1">
       <c r="A277" s="12"/>
       <c r="B277" s="22"/>
       <c r="C277" s="4"/>
@@ -6737,7 +6737,7 @@
       <c r="I277" s="12"/>
       <c r="J277" s="12"/>
     </row>
-    <row r="278" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="278" spans="1:10" ht="22.15" customHeight="1">
       <c r="A278" s="12"/>
       <c r="B278" s="22"/>
       <c r="C278" s="4"/>
@@ -6749,7 +6749,7 @@
       <c r="I278" s="12"/>
       <c r="J278" s="12"/>
     </row>
-    <row r="279" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="279" spans="1:10" ht="22.15" customHeight="1">
       <c r="A279" s="12"/>
       <c r="B279" s="22"/>
       <c r="C279" s="4"/>
@@ -6761,7 +6761,7 @@
       <c r="I279" s="12"/>
       <c r="J279" s="12"/>
     </row>
-    <row r="280" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="280" spans="1:10" ht="22.15" customHeight="1">
       <c r="A280" s="12"/>
       <c r="B280" s="22"/>
       <c r="C280" s="4"/>
@@ -6773,7 +6773,7 @@
       <c r="I280" s="12"/>
       <c r="J280" s="12"/>
     </row>
-    <row r="281" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="281" spans="1:10" ht="22.15" customHeight="1">
       <c r="A281" s="12"/>
       <c r="B281" s="22"/>
       <c r="C281" s="4"/>
@@ -6785,7 +6785,7 @@
       <c r="I281" s="12"/>
       <c r="J281" s="12"/>
     </row>
-    <row r="282" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="282" spans="1:10" ht="22.15" customHeight="1">
       <c r="A282" s="12"/>
       <c r="B282" s="22"/>
       <c r="C282" s="4"/>
@@ -6797,7 +6797,7 @@
       <c r="I282" s="12"/>
       <c r="J282" s="12"/>
     </row>
-    <row r="283" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="283" spans="1:10" ht="22.15" customHeight="1">
       <c r="A283" s="12"/>
       <c r="B283" s="22"/>
       <c r="C283" s="4"/>
@@ -6809,7 +6809,7 @@
       <c r="I283" s="12"/>
       <c r="J283" s="12"/>
     </row>
-    <row r="284" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="284" spans="1:10" ht="22.15" customHeight="1">
       <c r="A284" s="12"/>
       <c r="B284" s="22"/>
       <c r="C284" s="4"/>
@@ -6821,7 +6821,7 @@
       <c r="I284" s="12"/>
       <c r="J284" s="12"/>
     </row>
-    <row r="285" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="285" spans="1:10" ht="22.15" customHeight="1">
       <c r="A285" s="12"/>
       <c r="B285" s="22"/>
       <c r="C285" s="4"/>
@@ -6833,7 +6833,7 @@
       <c r="I285" s="12"/>
       <c r="J285" s="12"/>
     </row>
-    <row r="286" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="286" spans="1:10" ht="22.15" customHeight="1">
       <c r="A286" s="12"/>
       <c r="B286" s="22"/>
       <c r="C286" s="4"/>
@@ -6845,7 +6845,7 @@
       <c r="I286" s="12"/>
       <c r="J286" s="12"/>
     </row>
-    <row r="287" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="287" spans="1:10" ht="22.15" customHeight="1">
       <c r="A287" s="12"/>
       <c r="B287" s="22"/>
       <c r="C287" s="4"/>
@@ -6859,6 +6859,14 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="B55:B60"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="B136:B137"/>
+    <mergeCell ref="B38:B47"/>
+    <mergeCell ref="B48:B52"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="A135:J135"/>
+    <mergeCell ref="B106:B108"/>
     <mergeCell ref="B29:B37"/>
     <mergeCell ref="B64:B72"/>
     <mergeCell ref="B2:B28"/>
@@ -6875,44 +6883,36 @@
     <mergeCell ref="B127:B129"/>
     <mergeCell ref="B131:B134"/>
     <mergeCell ref="B140:B141"/>
-    <mergeCell ref="B55:B60"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="B136:B137"/>
-    <mergeCell ref="B38:B47"/>
-    <mergeCell ref="B48:B52"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="A135:J135"/>
-    <mergeCell ref="B106:B108"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I44">
     <cfRule type="timePeriod" dxfId="5" priority="6" timePeriod="lastMonth">
-      <formula>AND(MONTH(I44)=MONTH(EDATE(TODAY(),0-1)),YEAR(I44)=YEAR(EDATE(TODAY(),0-1)))</formula>
+      <formula>AND(MONTH(I44)=MONTH(TODAY())-1,OR(YEAR(I44)=YEAR(TODAY()),AND(MONTH(I44)=1,YEAR(I44)=YEAR(TODAY())-1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I49">
     <cfRule type="timePeriod" dxfId="4" priority="5" timePeriod="lastMonth">
-      <formula>AND(MONTH(I49)=MONTH(EDATE(TODAY(),0-1)),YEAR(I49)=YEAR(EDATE(TODAY(),0-1)))</formula>
+      <formula>AND(MONTH(I49)=MONTH(TODAY())-1,OR(YEAR(I49)=YEAR(TODAY()),AND(MONTH(I49)=1,YEAR(I49)=YEAR(TODAY())-1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I46">
     <cfRule type="timePeriod" dxfId="3" priority="4" timePeriod="lastMonth">
-      <formula>AND(MONTH(I46)=MONTH(EDATE(TODAY(),0-1)),YEAR(I46)=YEAR(EDATE(TODAY(),0-1)))</formula>
+      <formula>AND(MONTH(I46)=MONTH(TODAY())-1,OR(YEAR(I46)=YEAR(TODAY()),AND(MONTH(I46)=1,YEAR(I46)=YEAR(TODAY())-1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I50">
     <cfRule type="timePeriod" dxfId="2" priority="3" timePeriod="lastMonth">
-      <formula>AND(MONTH(I50)=MONTH(EDATE(TODAY(),0-1)),YEAR(I50)=YEAR(EDATE(TODAY(),0-1)))</formula>
+      <formula>AND(MONTH(I50)=MONTH(TODAY())-1,OR(YEAR(I50)=YEAR(TODAY()),AND(MONTH(I50)=1,YEAR(I50)=YEAR(TODAY())-1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I45">
     <cfRule type="timePeriod" dxfId="1" priority="2" timePeriod="lastMonth">
-      <formula>AND(MONTH(I45)=MONTH(EDATE(TODAY(),0-1)),YEAR(I45)=YEAR(EDATE(TODAY(),0-1)))</formula>
+      <formula>AND(MONTH(I45)=MONTH(TODAY())-1,OR(YEAR(I45)=YEAR(TODAY()),AND(MONTH(I45)=1,YEAR(I45)=YEAR(TODAY())-1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I51">
     <cfRule type="timePeriod" dxfId="0" priority="1" timePeriod="lastMonth">
-      <formula>AND(MONTH(I51)=MONTH(EDATE(TODAY(),0-1)),YEAR(I51)=YEAR(EDATE(TODAY(),0-1)))</formula>
+      <formula>AND(MONTH(I51)=MONTH(TODAY())-1,OR(YEAR(I51)=YEAR(TODAY()),AND(MONTH(I51)=1,YEAR(I51)=YEAR(TODAY())-1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ProjectManagement/文档/问题点一览.xlsx
+++ b/ProjectManagement/文档/问题点一览.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="239">
   <si>
     <t>NO</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -957,6 +957,10 @@
   </si>
   <si>
     <t>近期工作和问题，点击处理时，仅弹出页面，并没有在页面里加载对应的内容。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>程梦佳</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1257,7 +1261,19 @@
     <xf numFmtId="14" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1268,18 +1284,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1646,10 +1650,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K292"/>
+  <dimension ref="A1:K291"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A129" workbookViewId="0">
-      <selection activeCell="F137" sqref="F137"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="C67" sqref="C67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="22.15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1704,7 +1708,7 @@
       <c r="A2" s="13">
         <v>1</v>
       </c>
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="45" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -1732,7 +1736,7 @@
       <c r="A3" s="13">
         <v>2</v>
       </c>
-      <c r="B3" s="50"/>
+      <c r="B3" s="46"/>
       <c r="C3" s="4" t="s">
         <v>51</v>
       </c>
@@ -1758,7 +1762,7 @@
       <c r="A4" s="13">
         <v>3</v>
       </c>
-      <c r="B4" s="50"/>
+      <c r="B4" s="46"/>
       <c r="C4" s="4" t="s">
         <v>52</v>
       </c>
@@ -1784,7 +1788,7 @@
       <c r="A5" s="13">
         <v>4</v>
       </c>
-      <c r="B5" s="50"/>
+      <c r="B5" s="46"/>
       <c r="C5" s="4" t="s">
         <v>13</v>
       </c>
@@ -1810,7 +1814,7 @@
       <c r="A6" s="13">
         <v>5</v>
       </c>
-      <c r="B6" s="50"/>
+      <c r="B6" s="46"/>
       <c r="C6" s="4" t="s">
         <v>53</v>
       </c>
@@ -1836,7 +1840,7 @@
       <c r="A7" s="13">
         <v>6</v>
       </c>
-      <c r="B7" s="50"/>
+      <c r="B7" s="46"/>
       <c r="C7" s="4" t="s">
         <v>16</v>
       </c>
@@ -1862,7 +1866,7 @@
       <c r="A8" s="13">
         <v>7</v>
       </c>
-      <c r="B8" s="50"/>
+      <c r="B8" s="46"/>
       <c r="C8" s="4" t="s">
         <v>14</v>
       </c>
@@ -1888,7 +1892,7 @@
       <c r="A9" s="13">
         <v>8</v>
       </c>
-      <c r="B9" s="50"/>
+      <c r="B9" s="46"/>
       <c r="C9" s="4" t="s">
         <v>17</v>
       </c>
@@ -1914,7 +1918,7 @@
       <c r="A10" s="13">
         <v>9</v>
       </c>
-      <c r="B10" s="50"/>
+      <c r="B10" s="46"/>
       <c r="C10" s="6" t="s">
         <v>163</v>
       </c>
@@ -1947,7 +1951,7 @@
       <c r="A11" s="13">
         <v>10</v>
       </c>
-      <c r="B11" s="50"/>
+      <c r="B11" s="46"/>
       <c r="C11" s="4" t="s">
         <v>48</v>
       </c>
@@ -1973,7 +1977,7 @@
       <c r="A12" s="13">
         <v>11</v>
       </c>
-      <c r="B12" s="50"/>
+      <c r="B12" s="46"/>
       <c r="C12" s="4" t="s">
         <v>107</v>
       </c>
@@ -1999,7 +2003,7 @@
       <c r="A13" s="13">
         <v>12</v>
       </c>
-      <c r="B13" s="50"/>
+      <c r="B13" s="46"/>
       <c r="C13" s="4" t="s">
         <v>110</v>
       </c>
@@ -2025,7 +2029,7 @@
       <c r="A14" s="13">
         <v>13</v>
       </c>
-      <c r="B14" s="50"/>
+      <c r="B14" s="46"/>
       <c r="C14" s="4" t="s">
         <v>109</v>
       </c>
@@ -2051,7 +2055,7 @@
       <c r="A15" s="13">
         <v>14</v>
       </c>
-      <c r="B15" s="50"/>
+      <c r="B15" s="46"/>
       <c r="C15" s="6" t="s">
         <v>138</v>
       </c>
@@ -2077,7 +2081,7 @@
       <c r="A16" s="13">
         <v>15</v>
       </c>
-      <c r="B16" s="50"/>
+      <c r="B16" s="46"/>
       <c r="C16" s="6" t="s">
         <v>156</v>
       </c>
@@ -2106,7 +2110,7 @@
       <c r="A17" s="13">
         <v>16</v>
       </c>
-      <c r="B17" s="50"/>
+      <c r="B17" s="46"/>
       <c r="C17" s="6" t="s">
         <v>159</v>
       </c>
@@ -2132,7 +2136,7 @@
       <c r="A18" s="13">
         <v>17</v>
       </c>
-      <c r="B18" s="50"/>
+      <c r="B18" s="46"/>
       <c r="C18" s="10" t="s">
         <v>148</v>
       </c>
@@ -2159,7 +2163,7 @@
       <c r="A19" s="32">
         <v>18</v>
       </c>
-      <c r="B19" s="50"/>
+      <c r="B19" s="46"/>
       <c r="C19" s="10" t="s">
         <v>157</v>
       </c>
@@ -2186,7 +2190,7 @@
       <c r="A20" s="32">
         <v>19</v>
       </c>
-      <c r="B20" s="50"/>
+      <c r="B20" s="46"/>
       <c r="C20" s="10" t="s">
         <v>153</v>
       </c>
@@ -2213,7 +2217,7 @@
       <c r="A21" s="32">
         <v>20</v>
       </c>
-      <c r="B21" s="50"/>
+      <c r="B21" s="46"/>
       <c r="C21" s="37" t="s">
         <v>171</v>
       </c>
@@ -2240,7 +2244,7 @@
       <c r="A22" s="32">
         <v>21</v>
       </c>
-      <c r="B22" s="50"/>
+      <c r="B22" s="46"/>
       <c r="C22" s="40" t="s">
         <v>184</v>
       </c>
@@ -2267,7 +2271,7 @@
       <c r="A23" s="32">
         <v>22</v>
       </c>
-      <c r="B23" s="50"/>
+      <c r="B23" s="46"/>
       <c r="C23" s="40" t="s">
         <v>185</v>
       </c>
@@ -2294,7 +2298,7 @@
       <c r="A24" s="32">
         <v>23</v>
       </c>
-      <c r="B24" s="50"/>
+      <c r="B24" s="46"/>
       <c r="C24" s="10" t="s">
         <v>154</v>
       </c>
@@ -2321,7 +2325,7 @@
       <c r="A25" s="32">
         <v>24</v>
       </c>
-      <c r="B25" s="50"/>
+      <c r="B25" s="46"/>
       <c r="C25" s="30" t="s">
         <v>176</v>
       </c>
@@ -2348,7 +2352,7 @@
       <c r="A26" s="32">
         <v>25</v>
       </c>
-      <c r="B26" s="50"/>
+      <c r="B26" s="46"/>
       <c r="C26" s="6" t="s">
         <v>177</v>
       </c>
@@ -2375,7 +2379,7 @@
       <c r="A27" s="32">
         <v>26</v>
       </c>
-      <c r="B27" s="50"/>
+      <c r="B27" s="46"/>
       <c r="C27" s="6" t="s">
         <v>180</v>
       </c>
@@ -2401,7 +2405,7 @@
       <c r="A28" s="32">
         <v>27</v>
       </c>
-      <c r="B28" s="51"/>
+      <c r="B28" s="47"/>
       <c r="C28" s="6" t="s">
         <v>181</v>
       </c>
@@ -2427,7 +2431,7 @@
       <c r="A29" s="32">
         <v>28</v>
       </c>
-      <c r="B29" s="49" t="s">
+      <c r="B29" s="45" t="s">
         <v>12</v>
       </c>
       <c r="C29" s="4" t="s">
@@ -2455,7 +2459,7 @@
       <c r="A30" s="32">
         <v>29</v>
       </c>
-      <c r="B30" s="50"/>
+      <c r="B30" s="46"/>
       <c r="C30" s="4" t="s">
         <v>17</v>
       </c>
@@ -2481,7 +2485,7 @@
       <c r="A31" s="32">
         <v>30</v>
       </c>
-      <c r="B31" s="50"/>
+      <c r="B31" s="46"/>
       <c r="C31" s="4" t="s">
         <v>18</v>
       </c>
@@ -2507,7 +2511,7 @@
       <c r="A32" s="32">
         <v>31</v>
       </c>
-      <c r="B32" s="50"/>
+      <c r="B32" s="46"/>
       <c r="C32" s="4" t="s">
         <v>106</v>
       </c>
@@ -2533,7 +2537,7 @@
       <c r="A33" s="32">
         <v>32</v>
       </c>
-      <c r="B33" s="50"/>
+      <c r="B33" s="46"/>
       <c r="C33" s="4" t="s">
         <v>55</v>
       </c>
@@ -2559,7 +2563,7 @@
       <c r="A34" s="32">
         <v>33</v>
       </c>
-      <c r="B34" s="50"/>
+      <c r="B34" s="46"/>
       <c r="C34" s="4" t="s">
         <v>164</v>
       </c>
@@ -2585,7 +2589,7 @@
       <c r="A35" s="32">
         <v>34</v>
       </c>
-      <c r="B35" s="50"/>
+      <c r="B35" s="46"/>
       <c r="C35" s="4" t="s">
         <v>179</v>
       </c>
@@ -2611,7 +2615,7 @@
       <c r="A36" s="32">
         <v>35</v>
       </c>
-      <c r="B36" s="50"/>
+      <c r="B36" s="46"/>
       <c r="C36" s="4" t="s">
         <v>166</v>
       </c>
@@ -2637,7 +2641,7 @@
       <c r="A37" s="32">
         <v>36</v>
       </c>
-      <c r="B37" s="51"/>
+      <c r="B37" s="47"/>
       <c r="C37" s="4" t="s">
         <v>165</v>
       </c>
@@ -2657,7 +2661,7 @@
       <c r="A38" s="32">
         <v>37</v>
       </c>
-      <c r="B38" s="45" t="s">
+      <c r="B38" s="48" t="s">
         <v>19</v>
       </c>
       <c r="C38" s="4" t="s">
@@ -2687,7 +2691,7 @@
       <c r="A39" s="32">
         <v>38</v>
       </c>
-      <c r="B39" s="45"/>
+      <c r="B39" s="48"/>
       <c r="C39" s="4" t="s">
         <v>21</v>
       </c>
@@ -2713,7 +2717,7 @@
       <c r="A40" s="32">
         <v>39</v>
       </c>
-      <c r="B40" s="45"/>
+      <c r="B40" s="48"/>
       <c r="C40" s="4" t="s">
         <v>71</v>
       </c>
@@ -2739,7 +2743,7 @@
       <c r="A41" s="32">
         <v>40</v>
       </c>
-      <c r="B41" s="45"/>
+      <c r="B41" s="48"/>
       <c r="C41" s="4" t="s">
         <v>90</v>
       </c>
@@ -2765,7 +2769,7 @@
       <c r="A42" s="32">
         <v>41</v>
       </c>
-      <c r="B42" s="45"/>
+      <c r="B42" s="48"/>
       <c r="C42" s="4" t="s">
         <v>89</v>
       </c>
@@ -2791,7 +2795,7 @@
       <c r="A43" s="32">
         <v>42</v>
       </c>
-      <c r="B43" s="45"/>
+      <c r="B43" s="48"/>
       <c r="C43" s="4" t="s">
         <v>94</v>
       </c>
@@ -2817,7 +2821,7 @@
       <c r="A44" s="32">
         <v>43</v>
       </c>
-      <c r="B44" s="45"/>
+      <c r="B44" s="48"/>
       <c r="C44" s="4" t="s">
         <v>96</v>
       </c>
@@ -2843,7 +2847,7 @@
       <c r="A45" s="32">
         <v>44</v>
       </c>
-      <c r="B45" s="45"/>
+      <c r="B45" s="48"/>
       <c r="C45" s="4" t="s">
         <v>152</v>
       </c>
@@ -2871,7 +2875,7 @@
       <c r="A46" s="32">
         <v>45</v>
       </c>
-      <c r="B46" s="45"/>
+      <c r="B46" s="48"/>
       <c r="C46" s="6" t="s">
         <v>137</v>
       </c>
@@ -2897,7 +2901,7 @@
       <c r="A47" s="32">
         <v>46</v>
       </c>
-      <c r="B47" s="45"/>
+      <c r="B47" s="48"/>
       <c r="C47" s="4" t="s">
         <v>22</v>
       </c>
@@ -2923,7 +2927,7 @@
       <c r="A48" s="32">
         <v>47</v>
       </c>
-      <c r="B48" s="45" t="s">
+      <c r="B48" s="48" t="s">
         <v>23</v>
       </c>
       <c r="C48" s="4" t="s">
@@ -2951,7 +2955,7 @@
       <c r="A49" s="32">
         <v>48</v>
       </c>
-      <c r="B49" s="45"/>
+      <c r="B49" s="48"/>
       <c r="C49" s="4" t="s">
         <v>92</v>
       </c>
@@ -2979,7 +2983,7 @@
       <c r="A50" s="32">
         <v>49</v>
       </c>
-      <c r="B50" s="45"/>
+      <c r="B50" s="48"/>
       <c r="C50" s="6" t="s">
         <v>91</v>
       </c>
@@ -3005,7 +3009,7 @@
       <c r="A51" s="32">
         <v>50</v>
       </c>
-      <c r="B51" s="45"/>
+      <c r="B51" s="48"/>
       <c r="C51" s="6" t="s">
         <v>149</v>
       </c>
@@ -3031,7 +3035,7 @@
       <c r="A52" s="32">
         <v>51</v>
       </c>
-      <c r="B52" s="45"/>
+      <c r="B52" s="48"/>
       <c r="C52" s="4" t="s">
         <v>25</v>
       </c>
@@ -3057,7 +3061,7 @@
       <c r="A53" s="32">
         <v>52</v>
       </c>
-      <c r="B53" s="45" t="s">
+      <c r="B53" s="48" t="s">
         <v>26</v>
       </c>
       <c r="C53" s="4" t="s">
@@ -3085,7 +3089,7 @@
       <c r="A54" s="32">
         <v>53</v>
       </c>
-      <c r="B54" s="45"/>
+      <c r="B54" s="48"/>
       <c r="C54" s="4" t="s">
         <v>28</v>
       </c>
@@ -3111,7 +3115,7 @@
       <c r="A55" s="32">
         <v>54</v>
       </c>
-      <c r="B55" s="45" t="s">
+      <c r="B55" s="48" t="s">
         <v>29</v>
       </c>
       <c r="C55" s="4" t="s">
@@ -3139,7 +3143,7 @@
       <c r="A56" s="32">
         <v>55</v>
       </c>
-      <c r="B56" s="45"/>
+      <c r="B56" s="48"/>
       <c r="C56" s="4" t="s">
         <v>62</v>
       </c>
@@ -3165,7 +3169,7 @@
       <c r="A57" s="32">
         <v>56</v>
       </c>
-      <c r="B57" s="45"/>
+      <c r="B57" s="48"/>
       <c r="C57" s="4" t="s">
         <v>63</v>
       </c>
@@ -3191,7 +3195,7 @@
       <c r="A58" s="32">
         <v>57</v>
       </c>
-      <c r="B58" s="45"/>
+      <c r="B58" s="48"/>
       <c r="C58" s="4" t="s">
         <v>72</v>
       </c>
@@ -3215,7 +3219,7 @@
     </row>
     <row r="59" spans="1:10" s="28" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A59" s="32"/>
-      <c r="B59" s="45"/>
+      <c r="B59" s="48"/>
       <c r="C59" s="4" t="s">
         <v>198</v>
       </c>
@@ -3235,7 +3239,7 @@
       <c r="A60" s="32">
         <v>58</v>
       </c>
-      <c r="B60" s="45"/>
+      <c r="B60" s="48"/>
       <c r="C60" s="4" t="s">
         <v>61</v>
       </c>
@@ -3261,7 +3265,7 @@
       <c r="A61" s="32">
         <v>59</v>
       </c>
-      <c r="B61" s="45" t="s">
+      <c r="B61" s="48" t="s">
         <v>31</v>
       </c>
       <c r="C61" s="4" t="s">
@@ -3287,7 +3291,7 @@
     </row>
     <row r="62" spans="1:10" s="28" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="32"/>
-      <c r="B62" s="45"/>
+      <c r="B62" s="48"/>
       <c r="C62" s="4" t="s">
         <v>194</v>
       </c>
@@ -3307,7 +3311,7 @@
       <c r="A63" s="32">
         <v>60</v>
       </c>
-      <c r="B63" s="45"/>
+      <c r="B63" s="48"/>
       <c r="C63" s="4" t="s">
         <v>64</v>
       </c>
@@ -3333,7 +3337,7 @@
       <c r="A64" s="32">
         <v>61</v>
       </c>
-      <c r="B64" s="49" t="s">
+      <c r="B64" s="45" t="s">
         <v>33</v>
       </c>
       <c r="C64" s="4" t="s">
@@ -3361,7 +3365,7 @@
       <c r="A65" s="32">
         <v>62</v>
       </c>
-      <c r="B65" s="50"/>
+      <c r="B65" s="46"/>
       <c r="C65" s="4" t="s">
         <v>35</v>
       </c>
@@ -3385,7 +3389,7 @@
     </row>
     <row r="66" spans="1:10" s="28" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="32"/>
-      <c r="B66" s="50"/>
+      <c r="B66" s="46"/>
       <c r="C66" s="4" t="s">
         <v>196</v>
       </c>
@@ -3401,23 +3405,29 @@
       <c r="I66" s="12"/>
       <c r="J66" s="12"/>
     </row>
-    <row r="67" spans="1:10" s="28" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:10" s="28" customFormat="1" ht="54" x14ac:dyDescent="0.15">
       <c r="A67" s="32"/>
-      <c r="B67" s="50"/>
-      <c r="C67" s="4"/>
-      <c r="D67" s="12"/>
-      <c r="E67" s="14"/>
+      <c r="B67" s="46"/>
+      <c r="C67" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="D67" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E67" s="14">
+        <v>42892</v>
+      </c>
       <c r="F67" s="12"/>
       <c r="G67" s="12"/>
       <c r="H67" s="14"/>
       <c r="I67" s="12"/>
       <c r="J67" s="12"/>
     </row>
-    <row r="68" spans="1:10" s="28" customFormat="1" ht="54" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:10" s="28" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A68" s="32"/>
-      <c r="B68" s="50"/>
+      <c r="B68" s="46"/>
       <c r="C68" s="4" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D68" s="12" t="s">
         <v>10</v>
@@ -3431,17 +3441,19 @@
       <c r="I68" s="12"/>
       <c r="J68" s="12"/>
     </row>
-    <row r="69" spans="1:10" s="28" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A69" s="32"/>
-      <c r="B69" s="50"/>
+    <row r="69" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+      <c r="A69" s="32">
+        <v>63</v>
+      </c>
+      <c r="B69" s="46"/>
       <c r="C69" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="D69" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E69" s="14">
-        <v>42892</v>
+        <v>155</v>
+      </c>
+      <c r="D69" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E69" s="17">
+        <v>42887</v>
       </c>
       <c r="F69" s="12"/>
       <c r="G69" s="12"/>
@@ -3449,19 +3461,17 @@
       <c r="I69" s="12"/>
       <c r="J69" s="12"/>
     </row>
-    <row r="70" spans="1:10" ht="27" x14ac:dyDescent="0.15">
-      <c r="A70" s="32">
-        <v>63</v>
-      </c>
-      <c r="B70" s="50"/>
+    <row r="70" spans="1:10" s="28" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A70" s="32"/>
+      <c r="B70" s="46"/>
       <c r="C70" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="D70" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E70" s="17">
-        <v>42887</v>
+        <v>235</v>
+      </c>
+      <c r="D70" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E70" s="14">
+        <v>42894</v>
       </c>
       <c r="F70" s="12"/>
       <c r="G70" s="12"/>
@@ -3469,167 +3479,167 @@
       <c r="I70" s="12"/>
       <c r="J70" s="12"/>
     </row>
-    <row r="71" spans="1:10" s="28" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A71" s="32"/>
-      <c r="B71" s="50"/>
+    <row r="71" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A71" s="32">
+        <v>64</v>
+      </c>
+      <c r="B71" s="46"/>
       <c r="C71" s="4" t="s">
-        <v>235</v>
+        <v>36</v>
       </c>
       <c r="D71" s="12" t="s">
         <v>10</v>
       </c>
       <c r="E71" s="14">
-        <v>42894</v>
+        <v>42825</v>
       </c>
       <c r="F71" s="12"/>
       <c r="G71" s="12"/>
-      <c r="H71" s="14"/>
+      <c r="H71" s="12"/>
       <c r="I71" s="12"/>
-      <c r="J71" s="12"/>
-    </row>
-    <row r="72" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J71" s="12" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" s="26" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A72" s="32">
-        <v>64</v>
-      </c>
-      <c r="B72" s="50"/>
+        <v>65</v>
+      </c>
+      <c r="B72" s="47"/>
       <c r="C72" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D72" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E72" s="14">
-        <v>42825</v>
+        <v>168</v>
+      </c>
+      <c r="D72" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E72" s="25">
+        <v>42887</v>
       </c>
       <c r="F72" s="12"/>
-      <c r="G72" s="12"/>
-      <c r="H72" s="12"/>
-      <c r="I72" s="12"/>
-      <c r="J72" s="12" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" s="26" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="G72" s="11"/>
+      <c r="H72" s="2"/>
+      <c r="I72" s="11"/>
+      <c r="J72" s="11"/>
+    </row>
+    <row r="73" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A73" s="32">
-        <v>65</v>
-      </c>
-      <c r="B73" s="51"/>
+        <v>66</v>
+      </c>
+      <c r="B73" s="48" t="s">
+        <v>209</v>
+      </c>
       <c r="C73" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="D73" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="E73" s="25">
-        <v>42887</v>
+        <v>38</v>
+      </c>
+      <c r="D73" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E73" s="14">
+        <v>42826</v>
       </c>
       <c r="F73" s="12"/>
-      <c r="G73" s="11"/>
-      <c r="H73" s="2"/>
-      <c r="I73" s="11"/>
-      <c r="J73" s="11"/>
-    </row>
-    <row r="74" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="G73" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="H73" s="14">
+        <v>42831</v>
+      </c>
+      <c r="I73" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="J73" s="12"/>
+    </row>
+    <row r="74" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="32">
-        <v>66</v>
-      </c>
-      <c r="B74" s="45" t="s">
-        <v>209</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="B74" s="48"/>
       <c r="C74" s="4" t="s">
-        <v>38</v>
+        <v>105</v>
       </c>
       <c r="D74" s="12" t="s">
         <v>10</v>
       </c>
       <c r="E74" s="14">
-        <v>42826</v>
+        <v>42863</v>
       </c>
       <c r="F74" s="12"/>
       <c r="G74" s="12" t="s">
         <v>75</v>
       </c>
       <c r="H74" s="14">
-        <v>42831</v>
+        <v>42864</v>
       </c>
       <c r="I74" s="12" t="s">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="J74" s="12"/>
     </row>
     <row r="75" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="32">
-        <v>67</v>
-      </c>
-      <c r="B75" s="45"/>
+        <v>68</v>
+      </c>
+      <c r="B75" s="48"/>
       <c r="C75" s="4" t="s">
-        <v>105</v>
+        <v>210</v>
       </c>
       <c r="D75" s="12" t="s">
         <v>10</v>
       </c>
       <c r="E75" s="14">
-        <v>42863</v>
+        <v>42886</v>
       </c>
       <c r="F75" s="12"/>
-      <c r="G75" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="H75" s="14">
-        <v>42864</v>
-      </c>
-      <c r="I75" s="12" t="s">
-        <v>50</v>
-      </c>
+      <c r="G75" s="12"/>
+      <c r="H75" s="14"/>
+      <c r="I75" s="12"/>
       <c r="J75" s="12"/>
     </row>
-    <row r="76" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="32">
-        <v>68</v>
-      </c>
-      <c r="B76" s="45"/>
+    <row r="76" spans="1:10" s="28" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A76" s="32"/>
+      <c r="B76" s="48"/>
       <c r="C76" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="D76" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E76" s="14">
-        <v>42886</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="D76" s="12"/>
+      <c r="E76" s="14"/>
       <c r="F76" s="12"/>
       <c r="G76" s="12"/>
       <c r="H76" s="14"/>
       <c r="I76" s="12"/>
       <c r="J76" s="12"/>
     </row>
-    <row r="77" spans="1:10" s="28" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="32"/>
-      <c r="B77" s="45"/>
+    <row r="77" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+      <c r="A77" s="32">
+        <v>69</v>
+      </c>
+      <c r="B77" s="48"/>
       <c r="C77" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="D77" s="12"/>
-      <c r="E77" s="14"/>
+        <v>151</v>
+      </c>
+      <c r="D77" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E77" s="14">
+        <v>42886</v>
+      </c>
       <c r="F77" s="12"/>
       <c r="G77" s="12"/>
       <c r="H77" s="14"/>
       <c r="I77" s="12"/>
       <c r="J77" s="12"/>
     </row>
-    <row r="78" spans="1:10" ht="27" x14ac:dyDescent="0.15">
-      <c r="A78" s="32">
-        <v>69</v>
-      </c>
-      <c r="B78" s="45"/>
+    <row r="78" spans="1:10" s="28" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A78" s="32"/>
+      <c r="B78" s="48"/>
       <c r="C78" s="4" t="s">
-        <v>151</v>
+        <v>211</v>
       </c>
       <c r="D78" s="12" t="s">
         <v>10</v>
       </c>
       <c r="E78" s="14">
-        <v>42886</v>
+        <v>42892</v>
       </c>
       <c r="F78" s="12"/>
       <c r="G78" s="12"/>
@@ -3637,31 +3647,41 @@
       <c r="I78" s="12"/>
       <c r="J78" s="12"/>
     </row>
-    <row r="79" spans="1:10" s="28" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A79" s="32"/>
-      <c r="B79" s="45"/>
+    <row r="79" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A79" s="32">
+        <v>70</v>
+      </c>
+      <c r="B79" s="48"/>
       <c r="C79" s="4" t="s">
-        <v>211</v>
+        <v>37</v>
       </c>
       <c r="D79" s="12" t="s">
         <v>10</v>
       </c>
       <c r="E79" s="14">
-        <v>42892</v>
+        <v>42826</v>
       </c>
       <c r="F79" s="12"/>
-      <c r="G79" s="12"/>
-      <c r="H79" s="14"/>
-      <c r="I79" s="12"/>
+      <c r="G79" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="H79" s="14">
+        <v>42831</v>
+      </c>
+      <c r="I79" s="12" t="s">
+        <v>77</v>
+      </c>
       <c r="J79" s="12"/>
     </row>
-    <row r="80" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A80" s="32">
-        <v>70</v>
-      </c>
-      <c r="B80" s="45"/>
+        <v>71</v>
+      </c>
+      <c r="B80" s="48" t="s">
+        <v>39</v>
+      </c>
       <c r="C80" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D80" s="12" t="s">
         <v>10</v>
@@ -3677,45 +3697,35 @@
         <v>42831</v>
       </c>
       <c r="I80" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="J80" s="12"/>
-    </row>
-    <row r="81" spans="1:10" ht="27" x14ac:dyDescent="0.15">
-      <c r="A81" s="32">
-        <v>71</v>
-      </c>
-      <c r="B81" s="45" t="s">
-        <v>39</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="J80" s="12" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" s="28" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A81" s="32"/>
+      <c r="B81" s="48"/>
       <c r="C81" s="4" t="s">
-        <v>40</v>
+        <v>217</v>
       </c>
       <c r="D81" s="12" t="s">
         <v>10</v>
       </c>
       <c r="E81" s="14">
-        <v>42826</v>
+        <v>42892</v>
       </c>
       <c r="F81" s="12"/>
-      <c r="G81" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="H81" s="14">
-        <v>42831</v>
-      </c>
-      <c r="I81" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="J81" s="12" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" s="28" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="G81" s="12"/>
+      <c r="H81" s="14"/>
+      <c r="I81" s="12"/>
+      <c r="J81" s="12"/>
+    </row>
+    <row r="82" spans="1:10" s="28" customFormat="1" ht="25.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="32"/>
-      <c r="B82" s="45"/>
+      <c r="B82" s="48"/>
       <c r="C82" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D82" s="12" t="s">
         <v>10</v>
@@ -3729,57 +3739,67 @@
       <c r="I82" s="12"/>
       <c r="J82" s="12"/>
     </row>
-    <row r="83" spans="1:10" s="28" customFormat="1" ht="25.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="32"/>
-      <c r="B83" s="45"/>
+    <row r="83" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A83" s="32">
+        <v>72</v>
+      </c>
+      <c r="B83" s="48"/>
       <c r="C83" s="4" t="s">
-        <v>216</v>
+        <v>105</v>
       </c>
       <c r="D83" s="12" t="s">
         <v>10</v>
       </c>
       <c r="E83" s="14">
-        <v>42892</v>
+        <v>42863</v>
       </c>
       <c r="F83" s="12"/>
-      <c r="G83" s="12"/>
-      <c r="H83" s="14"/>
-      <c r="I83" s="12"/>
+      <c r="G83" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="H83" s="14">
+        <v>42864</v>
+      </c>
+      <c r="I83" s="12" t="s">
+        <v>130</v>
+      </c>
       <c r="J83" s="12"/>
     </row>
     <row r="84" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="32">
-        <v>72</v>
-      </c>
-      <c r="B84" s="45"/>
+        <v>73</v>
+      </c>
+      <c r="B84" s="48"/>
       <c r="C84" s="4" t="s">
-        <v>105</v>
+        <v>37</v>
       </c>
       <c r="D84" s="12" t="s">
         <v>10</v>
       </c>
       <c r="E84" s="14">
-        <v>42863</v>
+        <v>42826</v>
       </c>
       <c r="F84" s="12"/>
       <c r="G84" s="12" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="H84" s="14">
-        <v>42864</v>
+        <v>42831</v>
       </c>
       <c r="I84" s="12" t="s">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="J84" s="12"/>
     </row>
-    <row r="85" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A85" s="32">
-        <v>73</v>
-      </c>
-      <c r="B85" s="45"/>
+        <v>74</v>
+      </c>
+      <c r="B85" s="48" t="s">
+        <v>41</v>
+      </c>
       <c r="C85" s="4" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D85" s="12" t="s">
         <v>10</v>
@@ -3789,49 +3809,39 @@
       </c>
       <c r="F85" s="12"/>
       <c r="G85" s="12" t="s">
-        <v>131</v>
+        <v>73</v>
       </c>
       <c r="H85" s="14">
-        <v>42831</v>
+        <v>42830</v>
       </c>
       <c r="I85" s="12" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="J85" s="12"/>
     </row>
-    <row r="86" spans="1:10" ht="27" x14ac:dyDescent="0.15">
-      <c r="A86" s="32">
-        <v>74</v>
-      </c>
-      <c r="B86" s="45" t="s">
-        <v>41</v>
-      </c>
+    <row r="86" spans="1:10" s="28" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A86" s="32"/>
+      <c r="B86" s="48"/>
       <c r="C86" s="4" t="s">
-        <v>42</v>
+        <v>218</v>
       </c>
       <c r="D86" s="12" t="s">
         <v>10</v>
       </c>
       <c r="E86" s="14">
-        <v>42826</v>
+        <v>42892</v>
       </c>
       <c r="F86" s="12"/>
-      <c r="G86" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="H86" s="14">
-        <v>42830</v>
-      </c>
-      <c r="I86" s="12" t="s">
-        <v>70</v>
-      </c>
+      <c r="G86" s="12"/>
+      <c r="H86" s="14"/>
+      <c r="I86" s="12"/>
       <c r="J86" s="12"/>
     </row>
     <row r="87" spans="1:10" s="28" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A87" s="32"/>
-      <c r="B87" s="45"/>
+      <c r="B87" s="48"/>
       <c r="C87" s="4" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D87" s="12" t="s">
         <v>10</v>
@@ -3845,57 +3855,67 @@
       <c r="I87" s="12"/>
       <c r="J87" s="12"/>
     </row>
-    <row r="88" spans="1:10" s="28" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A88" s="32"/>
-      <c r="B88" s="45"/>
+    <row r="88" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A88" s="32">
+        <v>75</v>
+      </c>
+      <c r="B88" s="48"/>
       <c r="C88" s="4" t="s">
-        <v>219</v>
+        <v>105</v>
       </c>
       <c r="D88" s="12" t="s">
         <v>10</v>
       </c>
       <c r="E88" s="14">
-        <v>42892</v>
+        <v>42863</v>
       </c>
       <c r="F88" s="12"/>
-      <c r="G88" s="12"/>
-      <c r="H88" s="14"/>
-      <c r="I88" s="12"/>
+      <c r="G88" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="H88" s="14">
+        <v>42864</v>
+      </c>
+      <c r="I88" s="12" t="s">
+        <v>50</v>
+      </c>
       <c r="J88" s="12"/>
     </row>
     <row r="89" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="32">
-        <v>75</v>
-      </c>
-      <c r="B89" s="45"/>
+        <v>76</v>
+      </c>
+      <c r="B89" s="48"/>
       <c r="C89" s="4" t="s">
-        <v>105</v>
+        <v>37</v>
       </c>
       <c r="D89" s="12" t="s">
         <v>10</v>
       </c>
       <c r="E89" s="14">
-        <v>42863</v>
+        <v>42826</v>
       </c>
       <c r="F89" s="12"/>
       <c r="G89" s="12" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="H89" s="14">
-        <v>42864</v>
+        <v>42830</v>
       </c>
       <c r="I89" s="12" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="J89" s="12"/>
     </row>
-    <row r="90" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="32">
-        <v>76</v>
-      </c>
-      <c r="B90" s="45"/>
+        <v>77</v>
+      </c>
+      <c r="B90" s="48" t="s">
+        <v>43</v>
+      </c>
       <c r="C90" s="4" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="D90" s="12" t="s">
         <v>10</v>
@@ -3904,50 +3924,48 @@
         <v>42826</v>
       </c>
       <c r="F90" s="12"/>
-      <c r="G90" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="H90" s="14">
-        <v>42830</v>
-      </c>
-      <c r="I90" s="12" t="s">
-        <v>70</v>
-      </c>
+      <c r="G90" s="12"/>
+      <c r="H90" s="12"/>
+      <c r="I90" s="12"/>
       <c r="J90" s="12"/>
     </row>
-    <row r="91" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="32">
-        <v>77</v>
-      </c>
-      <c r="B91" s="45" t="s">
-        <v>43</v>
-      </c>
+    <row r="91" spans="1:10" s="28" customFormat="1" ht="28.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A91" s="32"/>
+      <c r="B91" s="48"/>
       <c r="C91" s="4" t="s">
-        <v>46</v>
+        <v>223</v>
       </c>
       <c r="D91" s="12" t="s">
         <v>10</v>
       </c>
       <c r="E91" s="14">
-        <v>42826</v>
+        <v>42893</v>
       </c>
       <c r="F91" s="12"/>
-      <c r="G91" s="12"/>
-      <c r="H91" s="12"/>
-      <c r="I91" s="12"/>
+      <c r="G91" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="H91" s="14">
+        <v>42893</v>
+      </c>
+      <c r="I91" s="12" t="s">
+        <v>76</v>
+      </c>
       <c r="J91" s="12"/>
     </row>
-    <row r="92" spans="1:10" s="28" customFormat="1" ht="28.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="32"/>
-      <c r="B92" s="45"/>
+    <row r="92" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+      <c r="A92" s="32">
+        <v>78</v>
+      </c>
+      <c r="B92" s="48"/>
       <c r="C92" s="4" t="s">
-        <v>223</v>
+        <v>126</v>
       </c>
       <c r="D92" s="12" t="s">
         <v>10</v>
       </c>
       <c r="E92" s="14">
-        <v>42893</v>
+        <v>42880</v>
       </c>
       <c r="F92" s="12"/>
       <c r="G92" s="12" t="s">
@@ -3961,37 +3979,29 @@
       </c>
       <c r="J92" s="12"/>
     </row>
-    <row r="93" spans="1:10" ht="27" x14ac:dyDescent="0.15">
-      <c r="A93" s="32">
-        <v>78</v>
-      </c>
-      <c r="B93" s="45"/>
+    <row r="93" spans="1:10" s="28" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A93" s="32"/>
+      <c r="B93" s="48"/>
       <c r="C93" s="4" t="s">
-        <v>126</v>
+        <v>225</v>
       </c>
       <c r="D93" s="12" t="s">
         <v>10</v>
       </c>
       <c r="E93" s="14">
-        <v>42880</v>
+        <v>42893</v>
       </c>
       <c r="F93" s="12"/>
-      <c r="G93" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="H93" s="14">
-        <v>42893</v>
-      </c>
-      <c r="I93" s="12" t="s">
-        <v>76</v>
-      </c>
+      <c r="G93" s="12"/>
+      <c r="H93" s="12"/>
+      <c r="I93" s="12"/>
       <c r="J93" s="12"/>
     </row>
-    <row r="94" spans="1:10" s="28" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:10" s="28" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="32"/>
-      <c r="B94" s="45"/>
+      <c r="B94" s="48"/>
       <c r="C94" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D94" s="12" t="s">
         <v>10</v>
@@ -4000,46 +4010,46 @@
         <v>42893</v>
       </c>
       <c r="F94" s="12"/>
-      <c r="G94" s="12"/>
-      <c r="H94" s="12"/>
-      <c r="I94" s="12"/>
+      <c r="G94" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="H94" s="14">
+        <v>42893</v>
+      </c>
+      <c r="I94" s="12" t="s">
+        <v>76</v>
+      </c>
       <c r="J94" s="12"/>
     </row>
     <row r="95" spans="1:10" s="28" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="32"/>
-      <c r="B95" s="45"/>
+      <c r="B95" s="48"/>
       <c r="C95" s="4" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="D95" s="12" t="s">
         <v>10</v>
       </c>
       <c r="E95" s="14">
-        <v>42893</v>
+        <v>42894</v>
       </c>
       <c r="F95" s="12"/>
-      <c r="G95" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="H95" s="14">
-        <v>42893</v>
-      </c>
-      <c r="I95" s="12" t="s">
-        <v>76</v>
-      </c>
+      <c r="G95" s="12"/>
+      <c r="H95" s="14"/>
+      <c r="I95" s="12"/>
       <c r="J95" s="12"/>
     </row>
     <row r="96" spans="1:10" s="28" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="32"/>
-      <c r="B96" s="45"/>
+      <c r="B96" s="48"/>
       <c r="C96" s="4" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="D96" s="12" t="s">
-        <v>10</v>
+        <v>230</v>
       </c>
       <c r="E96" s="14">
-        <v>42894</v>
+        <v>42893</v>
       </c>
       <c r="F96" s="12"/>
       <c r="G96" s="12"/>
@@ -4049,9 +4059,9 @@
     </row>
     <row r="97" spans="1:10" s="28" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="32"/>
-      <c r="B97" s="45"/>
+      <c r="B97" s="48"/>
       <c r="C97" s="4" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D97" s="12" t="s">
         <v>230</v>
@@ -4065,29 +4075,29 @@
       <c r="I97" s="12"/>
       <c r="J97" s="12"/>
     </row>
-    <row r="98" spans="1:10" s="28" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:10" s="28" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A98" s="32"/>
-      <c r="B98" s="45"/>
+      <c r="B98" s="48"/>
       <c r="C98" s="4" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="D98" s="12" t="s">
-        <v>230</v>
+        <v>10</v>
       </c>
       <c r="E98" s="14">
         <v>42893</v>
       </c>
       <c r="F98" s="12"/>
       <c r="G98" s="12"/>
-      <c r="H98" s="14"/>
+      <c r="H98" s="12"/>
       <c r="I98" s="12"/>
       <c r="J98" s="12"/>
     </row>
-    <row r="99" spans="1:10" s="28" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:10" s="28" customFormat="1" ht="25.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="32"/>
-      <c r="B99" s="45"/>
+      <c r="B99" s="48"/>
       <c r="C99" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D99" s="12" t="s">
         <v>10</v>
@@ -4096,42 +4106,46 @@
         <v>42893</v>
       </c>
       <c r="F99" s="12"/>
-      <c r="G99" s="12"/>
-      <c r="H99" s="12"/>
-      <c r="I99" s="12"/>
+      <c r="G99" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="H99" s="14">
+        <v>42893</v>
+      </c>
+      <c r="I99" s="12" t="s">
+        <v>76</v>
+      </c>
       <c r="J99" s="12"/>
     </row>
-    <row r="100" spans="1:10" s="28" customFormat="1" ht="25.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="32"/>
-      <c r="B100" s="45"/>
+    <row r="100" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A100" s="32">
+        <v>79</v>
+      </c>
+      <c r="B100" s="48"/>
       <c r="C100" s="4" t="s">
-        <v>221</v>
+        <v>45</v>
       </c>
       <c r="D100" s="12" t="s">
         <v>10</v>
       </c>
       <c r="E100" s="14">
-        <v>42893</v>
+        <v>42826</v>
       </c>
       <c r="F100" s="12"/>
-      <c r="G100" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="H100" s="14">
-        <v>42893</v>
-      </c>
-      <c r="I100" s="12" t="s">
-        <v>76</v>
-      </c>
+      <c r="G100" s="12"/>
+      <c r="H100" s="12"/>
+      <c r="I100" s="12"/>
       <c r="J100" s="12"/>
     </row>
-    <row r="101" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="32">
-        <v>79</v>
-      </c>
-      <c r="B101" s="45"/>
+        <v>80</v>
+      </c>
+      <c r="B101" s="48" t="s">
+        <v>44</v>
+      </c>
       <c r="C101" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D101" s="12" t="s">
         <v>10</v>
@@ -4140,69 +4154,73 @@
         <v>42826</v>
       </c>
       <c r="F101" s="12"/>
-      <c r="G101" s="12"/>
-      <c r="H101" s="12"/>
-      <c r="I101" s="12"/>
+      <c r="G101" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="H101" s="14">
+        <v>42832</v>
+      </c>
+      <c r="I101" s="12" t="s">
+        <v>70</v>
+      </c>
       <c r="J101" s="12"/>
     </row>
-    <row r="102" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="32">
-        <v>80</v>
-      </c>
-      <c r="B102" s="45" t="s">
-        <v>44</v>
-      </c>
+    <row r="102" spans="1:10" s="28" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A102" s="32"/>
+      <c r="B102" s="48"/>
       <c r="C102" s="4" t="s">
-        <v>47</v>
+        <v>228</v>
       </c>
       <c r="D102" s="12" t="s">
         <v>10</v>
       </c>
       <c r="E102" s="14">
-        <v>42826</v>
+        <v>42893</v>
       </c>
       <c r="F102" s="12"/>
       <c r="G102" s="12" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H102" s="14">
-        <v>42832</v>
+        <v>42895</v>
       </c>
       <c r="I102" s="12" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="J102" s="12"/>
     </row>
     <row r="103" spans="1:10" s="28" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="32"/>
-      <c r="B103" s="45"/>
+      <c r="B103" s="48"/>
       <c r="C103" s="4" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="D103" s="12" t="s">
         <v>10</v>
       </c>
       <c r="E103" s="14">
-        <v>42893</v>
+        <v>42894</v>
       </c>
       <c r="F103" s="12"/>
-      <c r="G103" s="12"/>
-      <c r="H103" s="14"/>
-      <c r="I103" s="12"/>
+      <c r="G103" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="H103" s="14">
+        <v>42895</v>
+      </c>
+      <c r="I103" s="12" t="s">
+        <v>50</v>
+      </c>
       <c r="J103" s="12"/>
     </row>
     <row r="104" spans="1:10" s="28" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="32"/>
-      <c r="B104" s="45"/>
-      <c r="C104" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="D104" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E104" s="14">
-        <v>42894</v>
-      </c>
+      <c r="B104" s="48"/>
+      <c r="C104" s="42" t="s">
+        <v>232</v>
+      </c>
+      <c r="D104" s="43"/>
+      <c r="E104" s="44"/>
       <c r="F104" s="12"/>
       <c r="G104" s="12"/>
       <c r="H104" s="14"/>
@@ -4211,23 +4229,33 @@
     </row>
     <row r="105" spans="1:10" s="28" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="32"/>
-      <c r="B105" s="45"/>
-      <c r="C105" s="42" t="s">
-        <v>232</v>
-      </c>
-      <c r="D105" s="43"/>
-      <c r="E105" s="44"/>
+      <c r="B105" s="48"/>
+      <c r="C105" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="D105" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E105" s="14">
+        <v>42893</v>
+      </c>
       <c r="F105" s="12"/>
-      <c r="G105" s="12"/>
-      <c r="H105" s="14"/>
-      <c r="I105" s="12"/>
+      <c r="G105" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="H105" s="14">
+        <v>42893</v>
+      </c>
+      <c r="I105" s="12" t="s">
+        <v>76</v>
+      </c>
       <c r="J105" s="12"/>
     </row>
     <row r="106" spans="1:10" s="28" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="32"/>
-      <c r="B106" s="45"/>
+      <c r="B106" s="48"/>
       <c r="C106" s="4" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="D106" s="12" t="s">
         <v>10</v>
@@ -4247,21 +4275,23 @@
       </c>
       <c r="J106" s="12"/>
     </row>
-    <row r="107" spans="1:10" s="28" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="32"/>
-      <c r="B107" s="45"/>
+    <row r="107" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+      <c r="A107" s="32">
+        <v>81</v>
+      </c>
+      <c r="B107" s="48"/>
       <c r="C107" s="4" t="s">
-        <v>227</v>
+        <v>136</v>
       </c>
       <c r="D107" s="12" t="s">
         <v>10</v>
       </c>
       <c r="E107" s="14">
-        <v>42893</v>
+        <v>42880</v>
       </c>
       <c r="F107" s="12"/>
       <c r="G107" s="12" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="H107" s="14">
         <v>42893</v>
@@ -4271,67 +4301,65 @@
       </c>
       <c r="J107" s="12"/>
     </row>
-    <row r="108" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="32">
-        <v>81</v>
-      </c>
-      <c r="B108" s="45"/>
+        <v>82</v>
+      </c>
+      <c r="B108" s="45" t="s">
+        <v>65</v>
+      </c>
       <c r="C108" s="4" t="s">
-        <v>136</v>
+        <v>66</v>
       </c>
       <c r="D108" s="12" t="s">
         <v>10</v>
       </c>
       <c r="E108" s="14">
-        <v>42880</v>
+        <v>42830</v>
       </c>
       <c r="F108" s="12"/>
       <c r="G108" s="12" t="s">
         <v>78</v>
       </c>
       <c r="H108" s="14">
-        <v>42893</v>
+        <v>42830</v>
       </c>
       <c r="I108" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="J108" s="12"/>
-    </row>
-    <row r="109" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A109" s="32">
-        <v>82</v>
-      </c>
-      <c r="B109" s="49" t="s">
-        <v>65</v>
-      </c>
+      <c r="J108" s="12" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" s="28" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A109" s="32"/>
+      <c r="B109" s="46"/>
       <c r="C109" s="4" t="s">
-        <v>66</v>
+        <v>187</v>
       </c>
       <c r="D109" s="12" t="s">
         <v>10</v>
       </c>
       <c r="E109" s="14">
-        <v>42830</v>
+        <v>42892</v>
       </c>
       <c r="F109" s="12"/>
       <c r="G109" s="12" t="s">
         <v>78</v>
       </c>
       <c r="H109" s="14">
-        <v>42830</v>
+        <v>42892</v>
       </c>
       <c r="I109" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="J109" s="12" t="s">
-        <v>79</v>
-      </c>
+      <c r="J109" s="12"/>
     </row>
     <row r="110" spans="1:10" s="28" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A110" s="32"/>
-      <c r="B110" s="50"/>
+      <c r="B110" s="47"/>
       <c r="C110" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D110" s="12" t="s">
         <v>10</v>
@@ -4351,65 +4379,61 @@
       </c>
       <c r="J110" s="12"/>
     </row>
-    <row r="111" spans="1:10" s="28" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A111" s="32"/>
-      <c r="B111" s="51"/>
-      <c r="C111" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="D111" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E111" s="14">
-        <v>42892</v>
-      </c>
-      <c r="F111" s="12"/>
-      <c r="G111" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="H111" s="14">
-        <v>42892</v>
-      </c>
-      <c r="I111" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="J111" s="12"/>
+    <row r="111" spans="1:10" s="20" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A111" s="32">
+        <v>83</v>
+      </c>
+      <c r="B111" s="49" t="s">
+        <v>67</v>
+      </c>
+      <c r="C111" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D111" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E111" s="19">
+        <v>42830</v>
+      </c>
+      <c r="F111" s="9"/>
+      <c r="G111" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="H111" s="19">
+        <v>42831</v>
+      </c>
+      <c r="I111" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="J111" s="9"/>
     </row>
     <row r="112" spans="1:10" s="20" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="32">
-        <v>83</v>
-      </c>
-      <c r="B112" s="52" t="s">
-        <v>67</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="B112" s="49"/>
       <c r="C112" s="8" t="s">
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="D112" s="9" t="s">
         <v>10</v>
       </c>
       <c r="E112" s="19">
-        <v>42830</v>
+        <v>42857</v>
       </c>
       <c r="F112" s="9"/>
-      <c r="G112" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="H112" s="19">
-        <v>42831</v>
-      </c>
-      <c r="I112" s="9" t="s">
-        <v>70</v>
-      </c>
+      <c r="G112" s="9"/>
+      <c r="H112" s="19"/>
+      <c r="I112" s="9"/>
       <c r="J112" s="9"/>
     </row>
     <row r="113" spans="1:10" s="20" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A113" s="32">
-        <v>84</v>
-      </c>
-      <c r="B113" s="52"/>
+        <v>85</v>
+      </c>
+      <c r="B113" s="49"/>
       <c r="C113" s="8" t="s">
-        <v>95</v>
+        <v>190</v>
       </c>
       <c r="D113" s="9" t="s">
         <v>10</v>
@@ -4425,11 +4449,11 @@
     </row>
     <row r="114" spans="1:10" s="20" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" s="32">
-        <v>85</v>
-      </c>
-      <c r="B114" s="52"/>
+        <v>86</v>
+      </c>
+      <c r="B114" s="49"/>
       <c r="C114" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D114" s="9" t="s">
         <v>10</v>
@@ -4444,18 +4468,16 @@
       <c r="J114" s="9"/>
     </row>
     <row r="115" spans="1:10" s="20" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A115" s="32">
-        <v>86</v>
-      </c>
-      <c r="B115" s="52"/>
+      <c r="A115" s="32"/>
+      <c r="B115" s="49"/>
       <c r="C115" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="D115" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E115" s="19">
-        <v>42857</v>
+        <v>191</v>
+      </c>
+      <c r="D115" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E115" s="14">
+        <v>42892</v>
       </c>
       <c r="F115" s="9"/>
       <c r="G115" s="9"/>
@@ -4465,9 +4487,9 @@
     </row>
     <row r="116" spans="1:10" s="20" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A116" s="32"/>
-      <c r="B116" s="52"/>
+      <c r="B116" s="49"/>
       <c r="C116" s="8" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D116" s="12" t="s">
         <v>10</v>
@@ -4483,9 +4505,9 @@
     </row>
     <row r="117" spans="1:10" s="20" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A117" s="32"/>
-      <c r="B117" s="52"/>
+      <c r="B117" s="49"/>
       <c r="C117" s="8" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D117" s="12" t="s">
         <v>10</v>
@@ -4501,9 +4523,9 @@
     </row>
     <row r="118" spans="1:10" s="20" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A118" s="32"/>
-      <c r="B118" s="52"/>
+      <c r="B118" s="49"/>
       <c r="C118" s="8" t="s">
-        <v>193</v>
+        <v>215</v>
       </c>
       <c r="D118" s="12" t="s">
         <v>10</v>
@@ -4517,79 +4539,89 @@
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
     </row>
-    <row r="119" spans="1:10" s="20" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A119" s="32"/>
-      <c r="B119" s="52"/>
+    <row r="119" spans="1:10" s="20" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A119" s="32">
+        <v>87</v>
+      </c>
+      <c r="B119" s="49"/>
       <c r="C119" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="D119" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E119" s="14">
-        <v>42892</v>
+        <v>188</v>
+      </c>
+      <c r="D119" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E119" s="19">
+        <v>42826</v>
       </c>
       <c r="F119" s="9"/>
       <c r="G119" s="9"/>
-      <c r="H119" s="19"/>
+      <c r="H119" s="9"/>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
     </row>
-    <row r="120" spans="1:10" s="20" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A120" s="32">
+        <v>88</v>
+      </c>
+      <c r="B120" s="48" t="s">
         <v>87</v>
       </c>
-      <c r="B120" s="52"/>
-      <c r="C120" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="D120" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E120" s="19">
-        <v>42826</v>
-      </c>
-      <c r="F120" s="9"/>
-      <c r="G120" s="9"/>
-      <c r="H120" s="9"/>
-      <c r="I120" s="9"/>
-      <c r="J120" s="9"/>
+      <c r="C120" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D120" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E120" s="14">
+        <v>42837</v>
+      </c>
+      <c r="F120" s="12"/>
+      <c r="G120" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="H120" s="14">
+        <v>42839</v>
+      </c>
+      <c r="I120" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="J120" s="12"/>
     </row>
     <row r="121" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A121" s="32">
-        <v>88</v>
-      </c>
-      <c r="B121" s="45" t="s">
-        <v>87</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="B121" s="48"/>
       <c r="C121" s="4" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="D121" s="12" t="s">
         <v>10</v>
       </c>
       <c r="E121" s="14">
-        <v>42837</v>
+        <v>42857</v>
       </c>
       <c r="F121" s="12"/>
       <c r="G121" s="12" t="s">
-        <v>56</v>
+        <v>144</v>
       </c>
       <c r="H121" s="14">
-        <v>42839</v>
+        <v>42882</v>
       </c>
       <c r="I121" s="12" t="s">
-        <v>50</v>
+        <v>145</v>
       </c>
       <c r="J121" s="12"/>
     </row>
     <row r="122" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A122" s="32">
-        <v>89</v>
-      </c>
-      <c r="B122" s="45"/>
+        <v>90</v>
+      </c>
+      <c r="B122" s="45" t="s">
+        <v>97</v>
+      </c>
       <c r="C122" s="4" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="D122" s="12" t="s">
         <v>10</v>
@@ -4599,49 +4631,39 @@
       </c>
       <c r="F122" s="12"/>
       <c r="G122" s="12" t="s">
-        <v>144</v>
+        <v>102</v>
       </c>
       <c r="H122" s="14">
-        <v>42882</v>
+        <v>42857</v>
       </c>
       <c r="I122" s="12" t="s">
-        <v>145</v>
+        <v>76</v>
       </c>
       <c r="J122" s="12"/>
     </row>
-    <row r="123" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A123" s="32">
-        <v>90</v>
-      </c>
-      <c r="B123" s="49" t="s">
-        <v>97</v>
-      </c>
+    <row r="123" spans="1:10" s="28" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A123" s="32"/>
+      <c r="B123" s="46"/>
       <c r="C123" s="4" t="s">
-        <v>98</v>
+        <v>208</v>
       </c>
       <c r="D123" s="12" t="s">
         <v>10</v>
       </c>
       <c r="E123" s="14">
-        <v>42857</v>
+        <v>42892</v>
       </c>
       <c r="F123" s="12"/>
-      <c r="G123" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="H123" s="14">
-        <v>42857</v>
-      </c>
-      <c r="I123" s="12" t="s">
-        <v>76</v>
-      </c>
+      <c r="G123" s="12"/>
+      <c r="H123" s="14"/>
+      <c r="I123" s="12"/>
       <c r="J123" s="12"/>
     </row>
     <row r="124" spans="1:10" s="28" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A124" s="32"/>
-      <c r="B124" s="50"/>
+      <c r="B124" s="46"/>
       <c r="C124" s="4" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="D124" s="12" t="s">
         <v>10</v>
@@ -4657,9 +4679,9 @@
     </row>
     <row r="125" spans="1:10" s="28" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A125" s="32"/>
-      <c r="B125" s="50"/>
+      <c r="B125" s="46"/>
       <c r="C125" s="4" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D125" s="12" t="s">
         <v>10</v>
@@ -4673,11 +4695,11 @@
       <c r="I125" s="12"/>
       <c r="J125" s="12"/>
     </row>
-    <row r="126" spans="1:10" s="28" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:10" s="28" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A126" s="32"/>
-      <c r="B126" s="50"/>
+      <c r="B126" s="46"/>
       <c r="C126" s="4" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="D126" s="12" t="s">
         <v>10</v>
@@ -4691,67 +4713,75 @@
       <c r="I126" s="12"/>
       <c r="J126" s="12"/>
     </row>
-    <row r="127" spans="1:10" s="28" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:10" s="28" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A127" s="32"/>
-      <c r="B127" s="50"/>
+      <c r="B127" s="46"/>
       <c r="C127" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="D127" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E127" s="14">
-        <v>42892</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="D127" s="12"/>
+      <c r="E127" s="14"/>
       <c r="F127" s="12"/>
       <c r="G127" s="12"/>
       <c r="H127" s="14"/>
       <c r="I127" s="12"/>
       <c r="J127" s="12"/>
     </row>
-    <row r="128" spans="1:10" s="28" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A128" s="32"/>
-      <c r="B128" s="50"/>
+    <row r="128" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+      <c r="A128" s="32">
+        <v>91</v>
+      </c>
+      <c r="B128" s="47"/>
       <c r="C128" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="D128" s="12"/>
-      <c r="E128" s="14"/>
+        <v>205</v>
+      </c>
+      <c r="D128" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E128" s="14">
+        <v>42892</v>
+      </c>
       <c r="F128" s="12"/>
       <c r="G128" s="12"/>
       <c r="H128" s="14"/>
       <c r="I128" s="12"/>
       <c r="J128" s="12"/>
     </row>
-    <row r="129" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A129" s="32">
-        <v>91</v>
-      </c>
-      <c r="B129" s="51"/>
+        <v>92</v>
+      </c>
+      <c r="B129" s="48" t="s">
+        <v>99</v>
+      </c>
       <c r="C129" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="D129" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="D129" s="12" t="s">
         <v>10</v>
       </c>
       <c r="E129" s="14">
-        <v>42892</v>
+        <v>42857</v>
       </c>
       <c r="F129" s="12"/>
-      <c r="G129" s="12"/>
-      <c r="H129" s="14"/>
-      <c r="I129" s="12"/>
+      <c r="G129" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="H129" s="14">
+        <v>42857</v>
+      </c>
+      <c r="I129" s="12" t="s">
+        <v>76</v>
+      </c>
       <c r="J129" s="12"/>
     </row>
     <row r="130" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A130" s="32">
-        <v>92</v>
-      </c>
-      <c r="B130" s="45" t="s">
-        <v>99</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="B130" s="48"/>
       <c r="C130" s="4" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="D130" s="12" t="s">
         <v>10</v>
@@ -4773,11 +4803,11 @@
     </row>
     <row r="131" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A131" s="32">
-        <v>93</v>
-      </c>
-      <c r="B131" s="45"/>
+        <v>94</v>
+      </c>
+      <c r="B131" s="48"/>
       <c r="C131" s="4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D131" s="12" t="s">
         <v>10</v>
@@ -4797,179 +4827,179 @@
       </c>
       <c r="J131" s="12"/>
     </row>
-    <row r="132" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A132" s="32">
-        <v>94</v>
-      </c>
-      <c r="B132" s="45"/>
+    <row r="132" spans="1:10" s="28" customFormat="1" ht="40.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A132" s="32"/>
+      <c r="B132" s="41" t="s">
+        <v>201</v>
+      </c>
       <c r="C132" s="4" t="s">
-        <v>101</v>
+        <v>204</v>
       </c>
       <c r="D132" s="12" t="s">
         <v>10</v>
       </c>
       <c r="E132" s="14">
-        <v>42857</v>
+        <v>42892</v>
       </c>
       <c r="F132" s="12"/>
-      <c r="G132" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="H132" s="14">
-        <v>42857</v>
-      </c>
-      <c r="I132" s="12" t="s">
-        <v>76</v>
-      </c>
+      <c r="G132" s="12"/>
+      <c r="H132" s="14"/>
+      <c r="I132" s="12"/>
       <c r="J132" s="12"/>
     </row>
-    <row r="133" spans="1:10" s="28" customFormat="1" ht="40.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A133" s="32"/>
-      <c r="B133" s="41" t="s">
-        <v>201</v>
+    <row r="133" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+      <c r="A133" s="32">
+        <v>95</v>
+      </c>
+      <c r="B133" s="45" t="s">
+        <v>111</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>204</v>
+        <v>112</v>
       </c>
       <c r="D133" s="12" t="s">
         <v>10</v>
       </c>
       <c r="E133" s="14">
+        <v>42863</v>
+      </c>
+      <c r="F133" s="12"/>
+      <c r="G133" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H133" s="15">
+        <v>42881</v>
+      </c>
+      <c r="I133" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="J133" s="12"/>
+    </row>
+    <row r="134" spans="1:10" s="28" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A134" s="32"/>
+      <c r="B134" s="46"/>
+      <c r="C134" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="D134" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E134" s="14">
         <v>42892</v>
       </c>
-      <c r="F133" s="12"/>
-      <c r="G133" s="12"/>
-      <c r="H133" s="14"/>
-      <c r="I133" s="12"/>
-      <c r="J133" s="12"/>
-    </row>
-    <row r="134" spans="1:10" ht="27" x14ac:dyDescent="0.15">
-      <c r="A134" s="32">
-        <v>95</v>
-      </c>
-      <c r="B134" s="49" t="s">
-        <v>111</v>
-      </c>
-      <c r="C134" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="D134" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E134" s="14">
-        <v>42863</v>
-      </c>
       <c r="F134" s="12"/>
-      <c r="G134" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="H134" s="15">
-        <v>42881</v>
-      </c>
-      <c r="I134" s="12" t="s">
-        <v>147</v>
-      </c>
+      <c r="G134" s="29"/>
+      <c r="H134" s="33"/>
+      <c r="I134" s="12"/>
       <c r="J134" s="12"/>
     </row>
-    <row r="135" spans="1:10" s="28" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A135" s="32"/>
-      <c r="B135" s="50"/>
+    <row r="135" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+      <c r="A135" s="32">
+        <v>96</v>
+      </c>
+      <c r="B135" s="46"/>
       <c r="C135" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="D135" s="24" t="s">
+        <v>213</v>
+      </c>
+      <c r="D135" s="12" t="s">
         <v>10</v>
       </c>
       <c r="E135" s="14">
-        <v>42892</v>
+        <v>42886</v>
       </c>
       <c r="F135" s="12"/>
-      <c r="G135" s="29"/>
-      <c r="H135" s="33"/>
+      <c r="G135" s="7"/>
+      <c r="H135" s="15"/>
       <c r="I135" s="12"/>
       <c r="J135" s="12"/>
     </row>
-    <row r="136" spans="1:10" ht="27" x14ac:dyDescent="0.15">
-      <c r="A136" s="32">
-        <v>96</v>
-      </c>
-      <c r="B136" s="50"/>
+    <row r="136" spans="1:10" s="28" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A136" s="32"/>
+      <c r="B136" s="46"/>
       <c r="C136" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="D136" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="D136" s="24" t="s">
         <v>10</v>
       </c>
       <c r="E136" s="14">
-        <v>42886</v>
+        <v>42894</v>
       </c>
       <c r="F136" s="12"/>
-      <c r="G136" s="7"/>
-      <c r="H136" s="15"/>
+      <c r="G136" s="29"/>
+      <c r="H136" s="33"/>
       <c r="I136" s="12"/>
       <c r="J136" s="12"/>
     </row>
-    <row r="137" spans="1:10" s="28" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A137" s="32"/>
-      <c r="B137" s="50"/>
+    <row r="137" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A137" s="32">
+        <v>97</v>
+      </c>
+      <c r="B137" s="46"/>
       <c r="C137" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="D137" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="D137" s="12" t="s">
         <v>10</v>
       </c>
       <c r="E137" s="14">
-        <v>42894</v>
+        <v>42886</v>
       </c>
       <c r="F137" s="12"/>
-      <c r="G137" s="29"/>
-      <c r="H137" s="33"/>
+      <c r="G137" s="7"/>
+      <c r="H137" s="15"/>
       <c r="I137" s="12"/>
       <c r="J137" s="12"/>
     </row>
-    <row r="138" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A138" s="32">
-        <v>97</v>
-      </c>
-      <c r="B138" s="50"/>
-      <c r="C138" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="D138" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E138" s="14">
-        <v>42886</v>
-      </c>
-      <c r="F138" s="12"/>
-      <c r="G138" s="7"/>
-      <c r="H138" s="15"/>
-      <c r="I138" s="12"/>
-      <c r="J138" s="12"/>
-    </row>
-    <row r="139" spans="1:10" s="28" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A139" s="46" t="s">
+    <row r="138" spans="1:10" s="28" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A138" s="50" t="s">
         <v>199</v>
       </c>
-      <c r="B139" s="47"/>
-      <c r="C139" s="47"/>
-      <c r="D139" s="47"/>
-      <c r="E139" s="47"/>
-      <c r="F139" s="47"/>
-      <c r="G139" s="47"/>
-      <c r="H139" s="47"/>
-      <c r="I139" s="47"/>
-      <c r="J139" s="48"/>
-    </row>
-    <row r="140" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="B138" s="51"/>
+      <c r="C138" s="51"/>
+      <c r="D138" s="51"/>
+      <c r="E138" s="51"/>
+      <c r="F138" s="51"/>
+      <c r="G138" s="51"/>
+      <c r="H138" s="51"/>
+      <c r="I138" s="51"/>
+      <c r="J138" s="52"/>
+    </row>
+    <row r="139" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A139" s="32">
+        <v>98</v>
+      </c>
+      <c r="B139" s="48" t="s">
+        <v>113</v>
+      </c>
+      <c r="C139" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D139" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E139" s="14">
+        <v>42863</v>
+      </c>
+      <c r="F139" s="12"/>
+      <c r="G139" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="H139" s="14">
+        <v>42141</v>
+      </c>
+      <c r="I139" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="J139" s="12"/>
+    </row>
+    <row r="140" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A140" s="32">
-        <v>98</v>
-      </c>
-      <c r="B140" s="45" t="s">
-        <v>113</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="B140" s="48"/>
       <c r="C140" s="4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D140" s="12" t="s">
         <v>10</v>
@@ -4985,17 +5015,19 @@
         <v>42141</v>
       </c>
       <c r="I140" s="12" t="s">
-        <v>146</v>
+        <v>124</v>
       </c>
       <c r="J140" s="12"/>
     </row>
-    <row r="141" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A141" s="32">
-        <v>99</v>
-      </c>
-      <c r="B141" s="45"/>
+        <v>100</v>
+      </c>
+      <c r="B141" s="48" t="s">
+        <v>114</v>
+      </c>
       <c r="C141" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D141" s="12" t="s">
         <v>10</v>
@@ -5015,15 +5047,13 @@
       </c>
       <c r="J141" s="12"/>
     </row>
-    <row r="142" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A142" s="32">
-        <v>100</v>
-      </c>
-      <c r="B142" s="45" t="s">
-        <v>114</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="B142" s="48"/>
       <c r="C142" s="4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D142" s="12" t="s">
         <v>10</v>
@@ -5043,13 +5073,15 @@
       </c>
       <c r="J142" s="12"/>
     </row>
-    <row r="143" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A143" s="32">
-        <v>101</v>
-      </c>
-      <c r="B143" s="45"/>
+        <v>102</v>
+      </c>
+      <c r="B143" s="45" t="s">
+        <v>118</v>
+      </c>
       <c r="C143" s="4" t="s">
-        <v>117</v>
+        <v>140</v>
       </c>
       <c r="D143" s="12" t="s">
         <v>10</v>
@@ -5058,80 +5090,80 @@
         <v>42863</v>
       </c>
       <c r="F143" s="12"/>
-      <c r="G143" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="H143" s="14">
-        <v>42141</v>
+      <c r="G143" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H143" s="15">
+        <v>42882</v>
       </c>
       <c r="I143" s="12" t="s">
         <v>124</v>
       </c>
       <c r="J143" s="12"/>
     </row>
-    <row r="144" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:10" s="26" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A144" s="32">
-        <v>102</v>
-      </c>
-      <c r="B144" s="49" t="s">
-        <v>118</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="B144" s="47"/>
       <c r="C144" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="D144" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E144" s="14">
-        <v>42863</v>
+        <v>169</v>
+      </c>
+      <c r="D144" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="E144" s="25">
+        <v>42887</v>
       </c>
       <c r="F144" s="12"/>
-      <c r="G144" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="H144" s="15">
-        <v>42882</v>
-      </c>
-      <c r="I144" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="J144" s="12"/>
-    </row>
-    <row r="145" spans="1:10" s="26" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="G144" s="24"/>
+      <c r="H144" s="27"/>
+      <c r="I144" s="11"/>
+      <c r="J144" s="11"/>
+    </row>
+    <row r="145" spans="1:10" ht="41.25" x14ac:dyDescent="0.15">
       <c r="A145" s="32">
-        <v>103</v>
-      </c>
-      <c r="B145" s="51"/>
+        <v>104</v>
+      </c>
+      <c r="B145" s="22" t="s">
+        <v>122</v>
+      </c>
       <c r="C145" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="D145" s="24" t="s">
-        <v>170</v>
-      </c>
-      <c r="E145" s="25">
-        <v>42887</v>
+        <v>121</v>
+      </c>
+      <c r="D145" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="E145" s="14">
+        <v>42864</v>
       </c>
       <c r="F145" s="12"/>
-      <c r="G145" s="24"/>
-      <c r="H145" s="27"/>
-      <c r="I145" s="11"/>
-      <c r="J145" s="11"/>
-    </row>
-    <row r="146" spans="1:10" ht="42" x14ac:dyDescent="0.15">
+      <c r="G145" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="H145" s="14">
+        <v>42151</v>
+      </c>
+      <c r="I145" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="J145" s="12"/>
+    </row>
+    <row r="146" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A146" s="32">
-        <v>104</v>
-      </c>
-      <c r="B146" s="22" t="s">
-        <v>122</v>
+        <v>105</v>
+      </c>
+      <c r="B146" s="45" t="s">
+        <v>132</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="D146" s="12" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="E146" s="14">
-        <v>42864</v>
+        <v>42880</v>
       </c>
       <c r="F146" s="12"/>
       <c r="G146" s="12" t="s">
@@ -5141,63 +5173,61 @@
         <v>42151</v>
       </c>
       <c r="I146" s="12" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="J146" s="12"/>
     </row>
-    <row r="147" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A147" s="32">
-        <v>105</v>
-      </c>
-      <c r="B147" s="49" t="s">
-        <v>132</v>
-      </c>
+    <row r="147" spans="1:10" s="28" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A147" s="32"/>
+      <c r="B147" s="46"/>
       <c r="C147" s="4" t="s">
-        <v>133</v>
+        <v>236</v>
       </c>
       <c r="D147" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E147" s="14">
+        <v>42894</v>
+      </c>
+      <c r="F147" s="12"/>
+      <c r="G147" s="12"/>
+      <c r="H147" s="14"/>
+      <c r="I147" s="12"/>
+      <c r="J147" s="12"/>
+    </row>
+    <row r="148" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A148" s="32">
+        <v>106</v>
+      </c>
+      <c r="B148" s="46"/>
+      <c r="C148" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="D148" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="E147" s="14">
+      <c r="E148" s="14">
         <v>42880</v>
       </c>
-      <c r="F147" s="12"/>
-      <c r="G147" s="12" t="s">
+      <c r="F148" s="12"/>
+      <c r="G148" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="H147" s="14">
+      <c r="H148" s="14">
         <v>42151</v>
       </c>
-      <c r="I147" s="12" t="s">
+      <c r="I148" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="J147" s="12"/>
-    </row>
-    <row r="148" spans="1:10" s="28" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A148" s="32"/>
-      <c r="B148" s="50"/>
-      <c r="C148" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="D148" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E148" s="14">
-        <v>42894</v>
-      </c>
-      <c r="F148" s="12"/>
-      <c r="G148" s="12"/>
-      <c r="H148" s="14"/>
-      <c r="I148" s="12"/>
       <c r="J148" s="12"/>
     </row>
-    <row r="149" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A149" s="32">
-        <v>106</v>
-      </c>
-      <c r="B149" s="50"/>
+        <v>107</v>
+      </c>
+      <c r="B149" s="47"/>
       <c r="C149" s="4" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="D149" s="12" t="s">
         <v>134</v>
@@ -5217,41 +5247,37 @@
       </c>
       <c r="J149" s="12"/>
     </row>
-    <row r="150" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:10" s="26" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A150" s="32">
-        <v>107</v>
-      </c>
-      <c r="B150" s="51"/>
+        <v>108</v>
+      </c>
+      <c r="B150" s="11" t="s">
+        <v>173</v>
+      </c>
       <c r="C150" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="D150" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="E150" s="14">
-        <v>42880</v>
+        <v>174</v>
+      </c>
+      <c r="D150" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E150" s="25">
+        <v>42888</v>
       </c>
       <c r="F150" s="12"/>
-      <c r="G150" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="H150" s="14">
-        <v>42151</v>
-      </c>
-      <c r="I150" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="J150" s="12"/>
-    </row>
-    <row r="151" spans="1:10" s="26" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="G150" s="11"/>
+      <c r="H150" s="11"/>
+      <c r="I150" s="11"/>
+      <c r="J150" s="11"/>
+    </row>
+    <row r="151" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A151" s="32">
-        <v>108</v>
-      </c>
-      <c r="B151" s="11" t="s">
-        <v>173</v>
+        <v>109</v>
+      </c>
+      <c r="B151" s="31" t="s">
+        <v>200</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D151" s="24" t="s">
         <v>10</v>
@@ -5260,27 +5286,17 @@
         <v>42888</v>
       </c>
       <c r="F151" s="12"/>
-      <c r="G151" s="11"/>
-      <c r="H151" s="11"/>
-      <c r="I151" s="11"/>
-      <c r="J151" s="11"/>
-    </row>
-    <row r="152" spans="1:10" ht="27" x14ac:dyDescent="0.15">
-      <c r="A152" s="32">
-        <v>109</v>
-      </c>
-      <c r="B152" s="31" t="s">
-        <v>200</v>
-      </c>
-      <c r="C152" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="D152" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="E152" s="25">
-        <v>42888</v>
-      </c>
+      <c r="G151" s="12"/>
+      <c r="H151" s="12"/>
+      <c r="I151" s="12"/>
+      <c r="J151" s="12"/>
+    </row>
+    <row r="152" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A152" s="12"/>
+      <c r="B152" s="22"/>
+      <c r="C152" s="4"/>
+      <c r="D152" s="12"/>
+      <c r="E152" s="12"/>
       <c r="F152" s="12"/>
       <c r="G152" s="12"/>
       <c r="H152" s="12"/>
@@ -6955,44 +6971,32 @@
       <c r="I291" s="12"/>
       <c r="J291" s="12"/>
     </row>
-    <row r="292" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A292" s="12"/>
-      <c r="B292" s="22"/>
-      <c r="C292" s="4"/>
-      <c r="D292" s="12"/>
-      <c r="E292" s="12"/>
-      <c r="F292" s="12"/>
-      <c r="G292" s="12"/>
-      <c r="H292" s="12"/>
-      <c r="I292" s="12"/>
-      <c r="J292" s="12"/>
-    </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B29:B37"/>
-    <mergeCell ref="B64:B73"/>
-    <mergeCell ref="B2:B28"/>
-    <mergeCell ref="B123:B129"/>
-    <mergeCell ref="B147:B150"/>
-    <mergeCell ref="B74:B80"/>
-    <mergeCell ref="B81:B85"/>
-    <mergeCell ref="B86:B90"/>
-    <mergeCell ref="B91:B101"/>
-    <mergeCell ref="B142:B143"/>
-    <mergeCell ref="B102:B108"/>
-    <mergeCell ref="B112:B120"/>
-    <mergeCell ref="B121:B122"/>
-    <mergeCell ref="B130:B132"/>
-    <mergeCell ref="B134:B138"/>
-    <mergeCell ref="B144:B145"/>
     <mergeCell ref="B55:B60"/>
     <mergeCell ref="B61:B63"/>
-    <mergeCell ref="B140:B141"/>
+    <mergeCell ref="B139:B140"/>
     <mergeCell ref="B38:B47"/>
     <mergeCell ref="B48:B52"/>
     <mergeCell ref="B53:B54"/>
-    <mergeCell ref="A139:J139"/>
-    <mergeCell ref="B109:B111"/>
+    <mergeCell ref="A138:J138"/>
+    <mergeCell ref="B108:B110"/>
+    <mergeCell ref="B29:B37"/>
+    <mergeCell ref="B64:B72"/>
+    <mergeCell ref="B2:B28"/>
+    <mergeCell ref="B122:B128"/>
+    <mergeCell ref="B146:B149"/>
+    <mergeCell ref="B73:B79"/>
+    <mergeCell ref="B80:B84"/>
+    <mergeCell ref="B85:B89"/>
+    <mergeCell ref="B90:B100"/>
+    <mergeCell ref="B141:B142"/>
+    <mergeCell ref="B101:B107"/>
+    <mergeCell ref="B111:B119"/>
+    <mergeCell ref="B120:B121"/>
+    <mergeCell ref="B129:B131"/>
+    <mergeCell ref="B133:B137"/>
+    <mergeCell ref="B143:B144"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I44">

--- a/ProjectManagement/文档/问题点一览.xlsx
+++ b/ProjectManagement/文档/问题点一览.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8025"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8030"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="243">
   <si>
     <t>NO</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -961,6 +961,22 @@
   </si>
   <si>
     <t>程梦佳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>程梦佳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按创建时间升序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>程梦佳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发现已修改</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1127,7 +1143,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1207,9 +1223,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1261,19 +1274,7 @@
     <xf numFmtId="14" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1284,6 +1285,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1652,27 +1665,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K291"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="C67" sqref="C67"/>
+    <sheetView tabSelected="1" topLeftCell="A128" workbookViewId="0">
+      <selection activeCell="C132" sqref="C132"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="22.15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="22.15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.875" style="23" customWidth="1"/>
+    <col min="2" max="2" width="12.90625" style="23" customWidth="1"/>
     <col min="3" max="3" width="58" style="5" customWidth="1"/>
-    <col min="4" max="4" width="8.875" style="3"/>
-    <col min="5" max="5" width="10.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.90625" style="3"/>
+    <col min="5" max="5" width="10.453125" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="30" style="3" customWidth="1"/>
-    <col min="7" max="7" width="8.875" style="3"/>
-    <col min="8" max="8" width="11.375" style="3" customWidth="1"/>
-    <col min="9" max="9" width="8.875" style="3"/>
-    <col min="10" max="10" width="30.75" style="3" customWidth="1"/>
-    <col min="11" max="11" width="16.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.875" style="3"/>
+    <col min="7" max="7" width="8.90625" style="3"/>
+    <col min="8" max="8" width="11.36328125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="8.90625" style="3"/>
+    <col min="10" max="10" width="30.7265625" style="3" customWidth="1"/>
+    <col min="11" max="11" width="16.08984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.90625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1704,11 +1717,11 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13">
         <v>1</v>
       </c>
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="48" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -1732,11 +1745,11 @@
       </c>
       <c r="J2" s="12"/>
     </row>
-    <row r="3" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" ht="28" x14ac:dyDescent="0.25">
       <c r="A3" s="13">
         <v>2</v>
       </c>
-      <c r="B3" s="46"/>
+      <c r="B3" s="49"/>
       <c r="C3" s="4" t="s">
         <v>51</v>
       </c>
@@ -1758,11 +1771,11 @@
       </c>
       <c r="J3" s="12"/>
     </row>
-    <row r="4" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" ht="28" x14ac:dyDescent="0.25">
       <c r="A4" s="13">
         <v>3</v>
       </c>
-      <c r="B4" s="46"/>
+      <c r="B4" s="49"/>
       <c r="C4" s="4" t="s">
         <v>52</v>
       </c>
@@ -1784,11 +1797,11 @@
       </c>
       <c r="J4" s="12"/>
     </row>
-    <row r="5" spans="1:11" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="13">
         <v>4</v>
       </c>
-      <c r="B5" s="46"/>
+      <c r="B5" s="49"/>
       <c r="C5" s="4" t="s">
         <v>13</v>
       </c>
@@ -1810,11 +1823,11 @@
       </c>
       <c r="J5" s="12"/>
     </row>
-    <row r="6" spans="1:11" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
         <v>5</v>
       </c>
-      <c r="B6" s="46"/>
+      <c r="B6" s="49"/>
       <c r="C6" s="4" t="s">
         <v>53</v>
       </c>
@@ -1836,11 +1849,11 @@
       </c>
       <c r="J6" s="12"/>
     </row>
-    <row r="7" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11" ht="28" x14ac:dyDescent="0.25">
       <c r="A7" s="13">
         <v>6</v>
       </c>
-      <c r="B7" s="46"/>
+      <c r="B7" s="49"/>
       <c r="C7" s="4" t="s">
         <v>16</v>
       </c>
@@ -1862,11 +1875,11 @@
       </c>
       <c r="J7" s="12"/>
     </row>
-    <row r="8" spans="1:11" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="13">
         <v>7</v>
       </c>
-      <c r="B8" s="46"/>
+      <c r="B8" s="49"/>
       <c r="C8" s="4" t="s">
         <v>14</v>
       </c>
@@ -1888,11 +1901,11 @@
       </c>
       <c r="J8" s="12"/>
     </row>
-    <row r="9" spans="1:11" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:11" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="13">
         <v>8</v>
       </c>
-      <c r="B9" s="46"/>
+      <c r="B9" s="49"/>
       <c r="C9" s="4" t="s">
         <v>17</v>
       </c>
@@ -1914,11 +1927,11 @@
       </c>
       <c r="J9" s="12"/>
     </row>
-    <row r="10" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11" ht="28" x14ac:dyDescent="0.25">
       <c r="A10" s="13">
         <v>9</v>
       </c>
-      <c r="B10" s="46"/>
+      <c r="B10" s="49"/>
       <c r="C10" s="6" t="s">
         <v>163</v>
       </c>
@@ -1947,11 +1960,11 @@
         <v>108</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="13">
         <v>10</v>
       </c>
-      <c r="B11" s="46"/>
+      <c r="B11" s="49"/>
       <c r="C11" s="4" t="s">
         <v>48</v>
       </c>
@@ -1973,11 +1986,11 @@
       </c>
       <c r="J11" s="12"/>
     </row>
-    <row r="12" spans="1:11" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:11" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="13">
         <v>11</v>
       </c>
-      <c r="B12" s="46"/>
+      <c r="B12" s="49"/>
       <c r="C12" s="4" t="s">
         <v>107</v>
       </c>
@@ -1999,11 +2012,11 @@
       </c>
       <c r="J12" s="12"/>
     </row>
-    <row r="13" spans="1:11" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:11" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="13">
         <v>12</v>
       </c>
-      <c r="B13" s="46"/>
+      <c r="B13" s="49"/>
       <c r="C13" s="4" t="s">
         <v>110</v>
       </c>
@@ -2025,11 +2038,11 @@
       </c>
       <c r="J13" s="12"/>
     </row>
-    <row r="14" spans="1:11" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:11" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="13">
         <v>13</v>
       </c>
-      <c r="B14" s="46"/>
+      <c r="B14" s="49"/>
       <c r="C14" s="4" t="s">
         <v>109</v>
       </c>
@@ -2051,11 +2064,11 @@
       </c>
       <c r="J14" s="12"/>
     </row>
-    <row r="15" spans="1:11" s="16" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:11" s="16" customFormat="1" ht="28" x14ac:dyDescent="0.25">
       <c r="A15" s="13">
         <v>14</v>
       </c>
-      <c r="B15" s="46"/>
+      <c r="B15" s="49"/>
       <c r="C15" s="6" t="s">
         <v>138</v>
       </c>
@@ -2077,11 +2090,11 @@
       </c>
       <c r="J15" s="7"/>
     </row>
-    <row r="16" spans="1:11" s="16" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:11" s="16" customFormat="1" ht="42" x14ac:dyDescent="0.25">
       <c r="A16" s="13">
         <v>15</v>
       </c>
-      <c r="B16" s="46"/>
+      <c r="B16" s="49"/>
       <c r="C16" s="6" t="s">
         <v>156</v>
       </c>
@@ -2106,11 +2119,11 @@
         <v>125</v>
       </c>
     </row>
-    <row r="17" spans="1:11" s="16" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:11" s="16" customFormat="1" ht="28" x14ac:dyDescent="0.25">
       <c r="A17" s="13">
         <v>16</v>
       </c>
-      <c r="B17" s="46"/>
+      <c r="B17" s="49"/>
       <c r="C17" s="6" t="s">
         <v>159</v>
       </c>
@@ -2132,11 +2145,11 @@
       </c>
       <c r="J17" s="7"/>
     </row>
-    <row r="18" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:11" ht="42" x14ac:dyDescent="0.25">
       <c r="A18" s="13">
         <v>17</v>
       </c>
-      <c r="B18" s="46"/>
+      <c r="B18" s="49"/>
       <c r="C18" s="10" t="s">
         <v>148</v>
       </c>
@@ -2159,11 +2172,11 @@
       <c r="J18" s="18"/>
       <c r="K18" s="16"/>
     </row>
-    <row r="19" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="32">
+    <row r="19" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="31">
         <v>18</v>
       </c>
-      <c r="B19" s="46"/>
+      <c r="B19" s="49"/>
       <c r="C19" s="10" t="s">
         <v>157</v>
       </c>
@@ -2186,11 +2199,11 @@
       <c r="J19" s="18"/>
       <c r="K19" s="16"/>
     </row>
-    <row r="20" spans="1:11" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="32">
+    <row r="20" spans="1:11" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="31">
         <v>19</v>
       </c>
-      <c r="B20" s="46"/>
+      <c r="B20" s="49"/>
       <c r="C20" s="10" t="s">
         <v>153</v>
       </c>
@@ -2213,92 +2226,92 @@
       <c r="J20" s="18"/>
       <c r="K20" s="16"/>
     </row>
-    <row r="21" spans="1:11" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A21" s="32">
+    <row r="21" spans="1:11" ht="14" x14ac:dyDescent="0.25">
+      <c r="A21" s="31">
         <v>20</v>
       </c>
-      <c r="B21" s="46"/>
-      <c r="C21" s="37" t="s">
+      <c r="B21" s="49"/>
+      <c r="C21" s="36" t="s">
         <v>171</v>
       </c>
-      <c r="D21" s="38" t="s">
+      <c r="D21" s="37" t="s">
         <v>172</v>
       </c>
-      <c r="E21" s="39">
+      <c r="E21" s="38">
         <v>42887</v>
       </c>
       <c r="F21" s="18"/>
-      <c r="G21" s="29" t="s">
+      <c r="G21" s="28" t="s">
         <v>178</v>
       </c>
-      <c r="H21" s="33">
+      <c r="H21" s="32">
         <v>42888</v>
       </c>
-      <c r="I21" s="29" t="s">
+      <c r="I21" s="28" t="s">
         <v>50</v>
       </c>
       <c r="J21" s="18"/>
       <c r="K21" s="16"/>
     </row>
-    <row r="22" spans="1:11" ht="27" x14ac:dyDescent="0.15">
-      <c r="A22" s="32">
+    <row r="22" spans="1:11" ht="28" x14ac:dyDescent="0.25">
+      <c r="A22" s="31">
         <v>21</v>
       </c>
-      <c r="B22" s="46"/>
-      <c r="C22" s="40" t="s">
+      <c r="B22" s="49"/>
+      <c r="C22" s="39" t="s">
         <v>184</v>
       </c>
-      <c r="D22" s="38" t="s">
+      <c r="D22" s="37" t="s">
         <v>172</v>
       </c>
-      <c r="E22" s="39">
+      <c r="E22" s="38">
         <v>42887</v>
       </c>
       <c r="F22" s="18"/>
-      <c r="G22" s="29" t="s">
+      <c r="G22" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="H22" s="33">
+      <c r="H22" s="32">
         <v>42891</v>
       </c>
-      <c r="I22" s="29" t="s">
+      <c r="I22" s="28" t="s">
         <v>50</v>
       </c>
       <c r="J22" s="18"/>
       <c r="K22" s="16"/>
     </row>
-    <row r="23" spans="1:11" ht="27" x14ac:dyDescent="0.15">
-      <c r="A23" s="32">
+    <row r="23" spans="1:11" ht="28" x14ac:dyDescent="0.25">
+      <c r="A23" s="31">
         <v>22</v>
       </c>
-      <c r="B23" s="46"/>
-      <c r="C23" s="40" t="s">
+      <c r="B23" s="49"/>
+      <c r="C23" s="39" t="s">
         <v>185</v>
       </c>
-      <c r="D23" s="38" t="s">
+      <c r="D23" s="37" t="s">
         <v>172</v>
       </c>
-      <c r="E23" s="39">
+      <c r="E23" s="38">
         <v>42887</v>
       </c>
       <c r="F23" s="18"/>
-      <c r="G23" s="29" t="s">
+      <c r="G23" s="28" t="s">
         <v>226</v>
       </c>
-      <c r="H23" s="33">
+      <c r="H23" s="32">
         <v>42893</v>
       </c>
-      <c r="I23" s="29" t="s">
+      <c r="I23" s="28" t="s">
         <v>50</v>
       </c>
       <c r="J23" s="18"/>
       <c r="K23" s="16"/>
     </row>
-    <row r="24" spans="1:11" ht="27" x14ac:dyDescent="0.15">
-      <c r="A24" s="32">
+    <row r="24" spans="1:11" ht="28" x14ac:dyDescent="0.25">
+      <c r="A24" s="31">
         <v>23</v>
       </c>
-      <c r="B24" s="46"/>
+      <c r="B24" s="49"/>
       <c r="C24" s="10" t="s">
         <v>154</v>
       </c>
@@ -2321,117 +2334,117 @@
       <c r="J24" s="18"/>
       <c r="K24" s="16"/>
     </row>
-    <row r="25" spans="1:11" s="28" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A25" s="32">
+    <row r="25" spans="1:11" s="27" customFormat="1" ht="42" x14ac:dyDescent="0.25">
+      <c r="A25" s="31">
         <v>24</v>
       </c>
-      <c r="B25" s="46"/>
-      <c r="C25" s="30" t="s">
+      <c r="B25" s="49"/>
+      <c r="C25" s="29" t="s">
         <v>176</v>
       </c>
-      <c r="D25" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="E25" s="35">
+      <c r="D25" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="34">
         <v>42888</v>
       </c>
-      <c r="F25" s="36"/>
-      <c r="G25" s="29" t="s">
+      <c r="F25" s="35"/>
+      <c r="G25" s="28" t="s">
         <v>178</v>
       </c>
-      <c r="H25" s="33">
+      <c r="H25" s="32">
         <v>42888</v>
       </c>
-      <c r="I25" s="29" t="s">
+      <c r="I25" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="J25" s="36"/>
-      <c r="K25" s="34"/>
-    </row>
-    <row r="26" spans="1:11" s="28" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A26" s="32">
+      <c r="J25" s="35"/>
+      <c r="K25" s="33"/>
+    </row>
+    <row r="26" spans="1:11" s="27" customFormat="1" ht="28" x14ac:dyDescent="0.25">
+      <c r="A26" s="31">
         <v>25</v>
       </c>
-      <c r="B26" s="46"/>
+      <c r="B26" s="49"/>
       <c r="C26" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="D26" s="29" t="s">
+      <c r="D26" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="E26" s="33">
+      <c r="E26" s="32">
         <v>42887</v>
       </c>
-      <c r="F26" s="29"/>
-      <c r="G26" s="29" t="s">
+      <c r="F26" s="28"/>
+      <c r="G26" s="28" t="s">
         <v>182</v>
       </c>
-      <c r="H26" s="33">
+      <c r="H26" s="32">
         <v>42888</v>
       </c>
-      <c r="I26" s="29" t="s">
+      <c r="I26" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="J26" s="36"/>
-      <c r="K26" s="34"/>
-    </row>
-    <row r="27" spans="1:11" s="34" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A27" s="32">
+      <c r="J26" s="35"/>
+      <c r="K26" s="33"/>
+    </row>
+    <row r="27" spans="1:11" s="33" customFormat="1" ht="14" x14ac:dyDescent="0.25">
+      <c r="A27" s="31">
         <v>26</v>
       </c>
-      <c r="B27" s="46"/>
+      <c r="B27" s="49"/>
       <c r="C27" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="D27" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="E27" s="33">
+      <c r="D27" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" s="32">
         <v>42891</v>
       </c>
-      <c r="F27" s="29"/>
-      <c r="G27" s="29" t="s">
+      <c r="F27" s="28"/>
+      <c r="G27" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="H27" s="33">
+      <c r="H27" s="32">
         <v>42891</v>
       </c>
-      <c r="I27" s="29" t="s">
+      <c r="I27" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="J27" s="29"/>
-    </row>
-    <row r="28" spans="1:11" s="34" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A28" s="32">
+      <c r="J27" s="28"/>
+    </row>
+    <row r="28" spans="1:11" s="33" customFormat="1" ht="14" x14ac:dyDescent="0.25">
+      <c r="A28" s="31">
         <v>27</v>
       </c>
-      <c r="B28" s="47"/>
+      <c r="B28" s="50"/>
       <c r="C28" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="D28" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="E28" s="33">
+      <c r="D28" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" s="32">
         <v>42891</v>
       </c>
-      <c r="F28" s="29"/>
-      <c r="G28" s="29" t="s">
+      <c r="F28" s="28"/>
+      <c r="G28" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="H28" s="33">
+      <c r="H28" s="32">
         <v>42891</v>
       </c>
-      <c r="I28" s="29" t="s">
+      <c r="I28" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="J28" s="29"/>
-    </row>
-    <row r="29" spans="1:11" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="32">
+      <c r="J28" s="28"/>
+    </row>
+    <row r="29" spans="1:11" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="31">
         <v>28</v>
       </c>
-      <c r="B29" s="45" t="s">
+      <c r="B29" s="48" t="s">
         <v>12</v>
       </c>
       <c r="C29" s="4" t="s">
@@ -2455,11 +2468,11 @@
       </c>
       <c r="J29" s="12"/>
     </row>
-    <row r="30" spans="1:11" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="32">
+    <row r="30" spans="1:11" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="31">
         <v>29</v>
       </c>
-      <c r="B30" s="46"/>
+      <c r="B30" s="49"/>
       <c r="C30" s="4" t="s">
         <v>17</v>
       </c>
@@ -2481,11 +2494,11 @@
       </c>
       <c r="J30" s="12"/>
     </row>
-    <row r="31" spans="1:11" ht="27" x14ac:dyDescent="0.15">
-      <c r="A31" s="32">
+    <row r="31" spans="1:11" ht="28" x14ac:dyDescent="0.25">
+      <c r="A31" s="31">
         <v>30</v>
       </c>
-      <c r="B31" s="46"/>
+      <c r="B31" s="49"/>
       <c r="C31" s="4" t="s">
         <v>18</v>
       </c>
@@ -2507,11 +2520,11 @@
       </c>
       <c r="J31" s="12"/>
     </row>
-    <row r="32" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="32">
+    <row r="32" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="31">
         <v>31</v>
       </c>
-      <c r="B32" s="46"/>
+      <c r="B32" s="49"/>
       <c r="C32" s="4" t="s">
         <v>106</v>
       </c>
@@ -2533,11 +2546,11 @@
       </c>
       <c r="J32" s="12"/>
     </row>
-    <row r="33" spans="1:10" ht="27" x14ac:dyDescent="0.15">
-      <c r="A33" s="32">
+    <row r="33" spans="1:10" ht="28" x14ac:dyDescent="0.25">
+      <c r="A33" s="31">
         <v>32</v>
       </c>
-      <c r="B33" s="46"/>
+      <c r="B33" s="49"/>
       <c r="C33" s="4" t="s">
         <v>55</v>
       </c>
@@ -2559,11 +2572,11 @@
       </c>
       <c r="J33" s="12"/>
     </row>
-    <row r="34" spans="1:10" s="26" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A34" s="32">
+    <row r="34" spans="1:10" s="26" customFormat="1" ht="14" x14ac:dyDescent="0.25">
+      <c r="A34" s="31">
         <v>33</v>
       </c>
-      <c r="B34" s="46"/>
+      <c r="B34" s="49"/>
       <c r="C34" s="4" t="s">
         <v>164</v>
       </c>
@@ -2574,22 +2587,22 @@
         <v>42887</v>
       </c>
       <c r="F34" s="12"/>
-      <c r="G34" s="29" t="s">
+      <c r="G34" s="28" t="s">
         <v>178</v>
       </c>
-      <c r="H34" s="33">
+      <c r="H34" s="32">
         <v>42888</v>
       </c>
-      <c r="I34" s="29" t="s">
+      <c r="I34" s="28" t="s">
         <v>50</v>
       </c>
       <c r="J34" s="11"/>
     </row>
-    <row r="35" spans="1:10" s="26" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A35" s="32">
+    <row r="35" spans="1:10" s="26" customFormat="1" ht="42" x14ac:dyDescent="0.25">
+      <c r="A35" s="31">
         <v>34</v>
       </c>
-      <c r="B35" s="46"/>
+      <c r="B35" s="49"/>
       <c r="C35" s="4" t="s">
         <v>179</v>
       </c>
@@ -2600,22 +2613,22 @@
         <v>42887</v>
       </c>
       <c r="F35" s="12"/>
-      <c r="G35" s="29" t="s">
+      <c r="G35" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="H35" s="33">
+      <c r="H35" s="32">
         <v>42891</v>
       </c>
-      <c r="I35" s="29" t="s">
+      <c r="I35" s="28" t="s">
         <v>50</v>
       </c>
       <c r="J35" s="11"/>
     </row>
-    <row r="36" spans="1:10" s="26" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A36" s="32">
+    <row r="36" spans="1:10" s="26" customFormat="1" ht="28" x14ac:dyDescent="0.25">
+      <c r="A36" s="31">
         <v>35</v>
       </c>
-      <c r="B36" s="46"/>
+      <c r="B36" s="49"/>
       <c r="C36" s="4" t="s">
         <v>166</v>
       </c>
@@ -2626,22 +2639,22 @@
         <v>42887</v>
       </c>
       <c r="F36" s="12"/>
-      <c r="G36" s="29" t="s">
+      <c r="G36" s="28" t="s">
         <v>178</v>
       </c>
-      <c r="H36" s="33">
+      <c r="H36" s="32">
         <v>42888</v>
       </c>
-      <c r="I36" s="29" t="s">
+      <c r="I36" s="28" t="s">
         <v>50</v>
       </c>
       <c r="J36" s="11"/>
     </row>
-    <row r="37" spans="1:10" s="26" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A37" s="32">
+    <row r="37" spans="1:10" s="26" customFormat="1" ht="28" x14ac:dyDescent="0.25">
+      <c r="A37" s="31">
         <v>36</v>
       </c>
-      <c r="B37" s="47"/>
+      <c r="B37" s="50"/>
       <c r="C37" s="4" t="s">
         <v>165</v>
       </c>
@@ -2657,11 +2670,11 @@
       <c r="I37" s="11"/>
       <c r="J37" s="11"/>
     </row>
-    <row r="38" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A38" s="32">
+    <row r="38" spans="1:10" ht="42" x14ac:dyDescent="0.25">
+      <c r="A38" s="31">
         <v>37</v>
       </c>
-      <c r="B38" s="48" t="s">
+      <c r="B38" s="44" t="s">
         <v>19</v>
       </c>
       <c r="C38" s="4" t="s">
@@ -2687,11 +2700,11 @@
         <v>60</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="27" x14ac:dyDescent="0.15">
-      <c r="A39" s="32">
+    <row r="39" spans="1:10" ht="28" x14ac:dyDescent="0.25">
+      <c r="A39" s="31">
         <v>38</v>
       </c>
-      <c r="B39" s="48"/>
+      <c r="B39" s="44"/>
       <c r="C39" s="4" t="s">
         <v>21</v>
       </c>
@@ -2713,11 +2726,11 @@
       </c>
       <c r="J39" s="12"/>
     </row>
-    <row r="40" spans="1:10" ht="27" x14ac:dyDescent="0.15">
-      <c r="A40" s="32">
+    <row r="40" spans="1:10" ht="28" x14ac:dyDescent="0.25">
+      <c r="A40" s="31">
         <v>39</v>
       </c>
-      <c r="B40" s="48"/>
+      <c r="B40" s="44"/>
       <c r="C40" s="4" t="s">
         <v>71</v>
       </c>
@@ -2739,11 +2752,11 @@
       </c>
       <c r="J40" s="12"/>
     </row>
-    <row r="41" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="32">
+    <row r="41" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="31">
         <v>40</v>
       </c>
-      <c r="B41" s="48"/>
+      <c r="B41" s="44"/>
       <c r="C41" s="4" t="s">
         <v>90</v>
       </c>
@@ -2765,11 +2778,11 @@
       </c>
       <c r="J41" s="12"/>
     </row>
-    <row r="42" spans="1:10" ht="27" x14ac:dyDescent="0.15">
-      <c r="A42" s="32">
+    <row r="42" spans="1:10" ht="28" x14ac:dyDescent="0.25">
+      <c r="A42" s="31">
         <v>41</v>
       </c>
-      <c r="B42" s="48"/>
+      <c r="B42" s="44"/>
       <c r="C42" s="4" t="s">
         <v>89</v>
       </c>
@@ -2791,11 +2804,11 @@
       </c>
       <c r="J42" s="12"/>
     </row>
-    <row r="43" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="32">
+    <row r="43" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="31">
         <v>42</v>
       </c>
-      <c r="B43" s="48"/>
+      <c r="B43" s="44"/>
       <c r="C43" s="4" t="s">
         <v>94</v>
       </c>
@@ -2817,11 +2830,11 @@
       </c>
       <c r="J43" s="12"/>
     </row>
-    <row r="44" spans="1:10" ht="27" x14ac:dyDescent="0.15">
-      <c r="A44" s="32">
+    <row r="44" spans="1:10" ht="28" x14ac:dyDescent="0.25">
+      <c r="A44" s="31">
         <v>43</v>
       </c>
-      <c r="B44" s="48"/>
+      <c r="B44" s="44"/>
       <c r="C44" s="4" t="s">
         <v>96</v>
       </c>
@@ -2843,11 +2856,11 @@
       </c>
       <c r="J44" s="12"/>
     </row>
-    <row r="45" spans="1:10" ht="27" x14ac:dyDescent="0.15">
-      <c r="A45" s="32">
+    <row r="45" spans="1:10" ht="28" x14ac:dyDescent="0.25">
+      <c r="A45" s="31">
         <v>44</v>
       </c>
-      <c r="B45" s="48"/>
+      <c r="B45" s="44"/>
       <c r="C45" s="4" t="s">
         <v>152</v>
       </c>
@@ -2871,11 +2884,11 @@
       </c>
       <c r="J45" s="12"/>
     </row>
-    <row r="46" spans="1:10" s="16" customFormat="1" ht="54" x14ac:dyDescent="0.15">
-      <c r="A46" s="32">
+    <row r="46" spans="1:10" s="16" customFormat="1" ht="56" x14ac:dyDescent="0.25">
+      <c r="A46" s="31">
         <v>45</v>
       </c>
-      <c r="B46" s="48"/>
+      <c r="B46" s="44"/>
       <c r="C46" s="6" t="s">
         <v>137</v>
       </c>
@@ -2897,11 +2910,11 @@
       </c>
       <c r="J46" s="7"/>
     </row>
-    <row r="47" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="32">
+    <row r="47" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="31">
         <v>46</v>
       </c>
-      <c r="B47" s="48"/>
+      <c r="B47" s="44"/>
       <c r="C47" s="4" t="s">
         <v>22</v>
       </c>
@@ -2923,11 +2936,11 @@
       </c>
       <c r="J47" s="12"/>
     </row>
-    <row r="48" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="32">
+    <row r="48" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="31">
         <v>47</v>
       </c>
-      <c r="B48" s="48" t="s">
+      <c r="B48" s="44" t="s">
         <v>23</v>
       </c>
       <c r="C48" s="4" t="s">
@@ -2951,11 +2964,11 @@
       </c>
       <c r="J48" s="12"/>
     </row>
-    <row r="49" spans="1:10" ht="27" x14ac:dyDescent="0.15">
-      <c r="A49" s="32">
+    <row r="49" spans="1:10" ht="28" x14ac:dyDescent="0.25">
+      <c r="A49" s="31">
         <v>48</v>
       </c>
-      <c r="B49" s="48"/>
+      <c r="B49" s="44"/>
       <c r="C49" s="4" t="s">
         <v>92</v>
       </c>
@@ -2979,11 +2992,11 @@
       </c>
       <c r="J49" s="12"/>
     </row>
-    <row r="50" spans="1:10" s="16" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="32">
+    <row r="50" spans="1:10" s="16" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="31">
         <v>49</v>
       </c>
-      <c r="B50" s="48"/>
+      <c r="B50" s="44"/>
       <c r="C50" s="6" t="s">
         <v>91</v>
       </c>
@@ -3005,11 +3018,11 @@
       </c>
       <c r="J50" s="7"/>
     </row>
-    <row r="51" spans="1:10" s="16" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="32">
+    <row r="51" spans="1:10" s="16" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="31">
         <v>50</v>
       </c>
-      <c r="B51" s="48"/>
+      <c r="B51" s="44"/>
       <c r="C51" s="6" t="s">
         <v>149</v>
       </c>
@@ -3031,11 +3044,11 @@
       </c>
       <c r="J51" s="7"/>
     </row>
-    <row r="52" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="32">
+    <row r="52" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="31">
         <v>51</v>
       </c>
-      <c r="B52" s="48"/>
+      <c r="B52" s="44"/>
       <c r="C52" s="4" t="s">
         <v>25</v>
       </c>
@@ -3057,11 +3070,11 @@
       </c>
       <c r="J52" s="12"/>
     </row>
-    <row r="53" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="32">
+    <row r="53" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="31">
         <v>52</v>
       </c>
-      <c r="B53" s="48" t="s">
+      <c r="B53" s="44" t="s">
         <v>26</v>
       </c>
       <c r="C53" s="4" t="s">
@@ -3085,11 +3098,11 @@
       </c>
       <c r="J53" s="12"/>
     </row>
-    <row r="54" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="32">
+    <row r="54" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="31">
         <v>53</v>
       </c>
-      <c r="B54" s="48"/>
+      <c r="B54" s="44"/>
       <c r="C54" s="4" t="s">
         <v>28</v>
       </c>
@@ -3111,11 +3124,11 @@
       </c>
       <c r="J54" s="12"/>
     </row>
-    <row r="55" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="32">
+    <row r="55" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="31">
         <v>54</v>
       </c>
-      <c r="B55" s="48" t="s">
+      <c r="B55" s="44" t="s">
         <v>29</v>
       </c>
       <c r="C55" s="4" t="s">
@@ -3139,11 +3152,11 @@
       </c>
       <c r="J55" s="12"/>
     </row>
-    <row r="56" spans="1:10" ht="27" x14ac:dyDescent="0.15">
-      <c r="A56" s="32">
+    <row r="56" spans="1:10" ht="28" x14ac:dyDescent="0.25">
+      <c r="A56" s="31">
         <v>55</v>
       </c>
-      <c r="B56" s="48"/>
+      <c r="B56" s="44"/>
       <c r="C56" s="4" t="s">
         <v>62</v>
       </c>
@@ -3165,11 +3178,11 @@
       </c>
       <c r="J56" s="12"/>
     </row>
-    <row r="57" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="32">
+    <row r="57" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="31">
         <v>56</v>
       </c>
-      <c r="B57" s="48"/>
+      <c r="B57" s="44"/>
       <c r="C57" s="4" t="s">
         <v>63</v>
       </c>
@@ -3191,11 +3204,11 @@
       </c>
       <c r="J57" s="12"/>
     </row>
-    <row r="58" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="32">
+    <row r="58" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="31">
         <v>57</v>
       </c>
-      <c r="B58" s="48"/>
+      <c r="B58" s="44"/>
       <c r="C58" s="4" t="s">
         <v>72</v>
       </c>
@@ -3217,9 +3230,9 @@
       </c>
       <c r="J58" s="12"/>
     </row>
-    <row r="59" spans="1:10" s="28" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A59" s="32"/>
-      <c r="B59" s="48"/>
+    <row r="59" spans="1:10" s="27" customFormat="1" ht="42" x14ac:dyDescent="0.25">
+      <c r="A59" s="31"/>
+      <c r="B59" s="44"/>
       <c r="C59" s="4" t="s">
         <v>198</v>
       </c>
@@ -3235,11 +3248,11 @@
       <c r="I59" s="12"/>
       <c r="J59" s="12"/>
     </row>
-    <row r="60" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="32">
+    <row r="60" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="31">
         <v>58</v>
       </c>
-      <c r="B60" s="48"/>
+      <c r="B60" s="44"/>
       <c r="C60" s="4" t="s">
         <v>61</v>
       </c>
@@ -3261,11 +3274,11 @@
       </c>
       <c r="J60" s="12"/>
     </row>
-    <row r="61" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="32">
+    <row r="61" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="31">
         <v>59</v>
       </c>
-      <c r="B61" s="48" t="s">
+      <c r="B61" s="44" t="s">
         <v>31</v>
       </c>
       <c r="C61" s="4" t="s">
@@ -3289,9 +3302,9 @@
       </c>
       <c r="J61" s="12"/>
     </row>
-    <row r="62" spans="1:10" s="28" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="32"/>
-      <c r="B62" s="48"/>
+    <row r="62" spans="1:10" s="27" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="31"/>
+      <c r="B62" s="44"/>
       <c r="C62" s="4" t="s">
         <v>194</v>
       </c>
@@ -3307,11 +3320,11 @@
       <c r="I62" s="12"/>
       <c r="J62" s="12"/>
     </row>
-    <row r="63" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="32">
+    <row r="63" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="31">
         <v>60</v>
       </c>
-      <c r="B63" s="48"/>
+      <c r="B63" s="44"/>
       <c r="C63" s="4" t="s">
         <v>64</v>
       </c>
@@ -3333,11 +3346,11 @@
       </c>
       <c r="J63" s="12"/>
     </row>
-    <row r="64" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="32">
+    <row r="64" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="31">
         <v>61</v>
       </c>
-      <c r="B64" s="45" t="s">
+      <c r="B64" s="48" t="s">
         <v>33</v>
       </c>
       <c r="C64" s="4" t="s">
@@ -3361,11 +3374,11 @@
       </c>
       <c r="J64" s="12"/>
     </row>
-    <row r="65" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="32">
+    <row r="65" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="31">
         <v>62</v>
       </c>
-      <c r="B65" s="46"/>
+      <c r="B65" s="49"/>
       <c r="C65" s="4" t="s">
         <v>35</v>
       </c>
@@ -3387,9 +3400,9 @@
       </c>
       <c r="J65" s="12"/>
     </row>
-    <row r="66" spans="1:10" s="28" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="32"/>
-      <c r="B66" s="46"/>
+    <row r="66" spans="1:10" s="27" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="31"/>
+      <c r="B66" s="49"/>
       <c r="C66" s="4" t="s">
         <v>196</v>
       </c>
@@ -3405,9 +3418,9 @@
       <c r="I66" s="12"/>
       <c r="J66" s="12"/>
     </row>
-    <row r="67" spans="1:10" s="28" customFormat="1" ht="54" x14ac:dyDescent="0.15">
-      <c r="A67" s="32"/>
-      <c r="B67" s="46"/>
+    <row r="67" spans="1:10" s="27" customFormat="1" ht="56" x14ac:dyDescent="0.25">
+      <c r="A67" s="31"/>
+      <c r="B67" s="49"/>
       <c r="C67" s="4" t="s">
         <v>195</v>
       </c>
@@ -3423,9 +3436,9 @@
       <c r="I67" s="12"/>
       <c r="J67" s="12"/>
     </row>
-    <row r="68" spans="1:10" s="28" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A68" s="32"/>
-      <c r="B68" s="46"/>
+    <row r="68" spans="1:10" s="27" customFormat="1" ht="14" x14ac:dyDescent="0.25">
+      <c r="A68" s="31"/>
+      <c r="B68" s="49"/>
       <c r="C68" s="4" t="s">
         <v>197</v>
       </c>
@@ -3441,11 +3454,11 @@
       <c r="I68" s="12"/>
       <c r="J68" s="12"/>
     </row>
-    <row r="69" spans="1:10" ht="27" x14ac:dyDescent="0.15">
-      <c r="A69" s="32">
+    <row r="69" spans="1:10" ht="28" x14ac:dyDescent="0.25">
+      <c r="A69" s="31">
         <v>63</v>
       </c>
-      <c r="B69" s="46"/>
+      <c r="B69" s="49"/>
       <c r="C69" s="4" t="s">
         <v>155</v>
       </c>
@@ -3461,9 +3474,9 @@
       <c r="I69" s="12"/>
       <c r="J69" s="12"/>
     </row>
-    <row r="70" spans="1:10" s="28" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A70" s="32"/>
-      <c r="B70" s="46"/>
+    <row r="70" spans="1:10" s="27" customFormat="1" ht="28" x14ac:dyDescent="0.25">
+      <c r="A70" s="31"/>
+      <c r="B70" s="49"/>
       <c r="C70" s="4" t="s">
         <v>235</v>
       </c>
@@ -3479,11 +3492,11 @@
       <c r="I70" s="12"/>
       <c r="J70" s="12"/>
     </row>
-    <row r="71" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="32">
+    <row r="71" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="31">
         <v>64</v>
       </c>
-      <c r="B71" s="46"/>
+      <c r="B71" s="49"/>
       <c r="C71" s="4" t="s">
         <v>36</v>
       </c>
@@ -3501,11 +3514,11 @@
         <v>85</v>
       </c>
     </row>
-    <row r="72" spans="1:10" s="26" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A72" s="32">
+    <row r="72" spans="1:10" s="26" customFormat="1" ht="28" x14ac:dyDescent="0.25">
+      <c r="A72" s="31">
         <v>65</v>
       </c>
-      <c r="B72" s="47"/>
+      <c r="B72" s="50"/>
       <c r="C72" s="4" t="s">
         <v>168</v>
       </c>
@@ -3521,11 +3534,11 @@
       <c r="I72" s="11"/>
       <c r="J72" s="11"/>
     </row>
-    <row r="73" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A73" s="32">
+    <row r="73" spans="1:10" ht="42" x14ac:dyDescent="0.25">
+      <c r="A73" s="31">
         <v>66</v>
       </c>
-      <c r="B73" s="48" t="s">
+      <c r="B73" s="44" t="s">
         <v>209</v>
       </c>
       <c r="C73" s="4" t="s">
@@ -3549,11 +3562,11 @@
       </c>
       <c r="J73" s="12"/>
     </row>
-    <row r="74" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="32">
+    <row r="74" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="31">
         <v>67</v>
       </c>
-      <c r="B74" s="48"/>
+      <c r="B74" s="44"/>
       <c r="C74" s="4" t="s">
         <v>105</v>
       </c>
@@ -3575,11 +3588,11 @@
       </c>
       <c r="J74" s="12"/>
     </row>
-    <row r="75" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="32">
+    <row r="75" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="31">
         <v>68</v>
       </c>
-      <c r="B75" s="48"/>
+      <c r="B75" s="44"/>
       <c r="C75" s="4" t="s">
         <v>210</v>
       </c>
@@ -3595,9 +3608,9 @@
       <c r="I75" s="12"/>
       <c r="J75" s="12"/>
     </row>
-    <row r="76" spans="1:10" s="28" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="32"/>
-      <c r="B76" s="48"/>
+    <row r="76" spans="1:10" s="27" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="31"/>
+      <c r="B76" s="44"/>
       <c r="C76" s="4" t="s">
         <v>212</v>
       </c>
@@ -3609,11 +3622,11 @@
       <c r="I76" s="12"/>
       <c r="J76" s="12"/>
     </row>
-    <row r="77" spans="1:10" ht="27" x14ac:dyDescent="0.15">
-      <c r="A77" s="32">
+    <row r="77" spans="1:10" ht="28" x14ac:dyDescent="0.25">
+      <c r="A77" s="31">
         <v>69</v>
       </c>
-      <c r="B77" s="48"/>
+      <c r="B77" s="44"/>
       <c r="C77" s="4" t="s">
         <v>151</v>
       </c>
@@ -3629,9 +3642,9 @@
       <c r="I77" s="12"/>
       <c r="J77" s="12"/>
     </row>
-    <row r="78" spans="1:10" s="28" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A78" s="32"/>
-      <c r="B78" s="48"/>
+    <row r="78" spans="1:10" s="27" customFormat="1" ht="42" x14ac:dyDescent="0.25">
+      <c r="A78" s="31"/>
+      <c r="B78" s="44"/>
       <c r="C78" s="4" t="s">
         <v>211</v>
       </c>
@@ -3647,11 +3660,11 @@
       <c r="I78" s="12"/>
       <c r="J78" s="12"/>
     </row>
-    <row r="79" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="32">
+    <row r="79" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="31">
         <v>70</v>
       </c>
-      <c r="B79" s="48"/>
+      <c r="B79" s="44"/>
       <c r="C79" s="4" t="s">
         <v>37</v>
       </c>
@@ -3673,11 +3686,11 @@
       </c>
       <c r="J79" s="12"/>
     </row>
-    <row r="80" spans="1:10" ht="27" x14ac:dyDescent="0.15">
-      <c r="A80" s="32">
+    <row r="80" spans="1:10" ht="28" x14ac:dyDescent="0.25">
+      <c r="A80" s="31">
         <v>71</v>
       </c>
-      <c r="B80" s="48" t="s">
+      <c r="B80" s="44" t="s">
         <v>39</v>
       </c>
       <c r="C80" s="4" t="s">
@@ -3703,9 +3716,9 @@
         <v>85</v>
       </c>
     </row>
-    <row r="81" spans="1:10" s="28" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A81" s="32"/>
-      <c r="B81" s="48"/>
+    <row r="81" spans="1:10" s="27" customFormat="1" ht="14" x14ac:dyDescent="0.25">
+      <c r="A81" s="31"/>
+      <c r="B81" s="44"/>
       <c r="C81" s="4" t="s">
         <v>217</v>
       </c>
@@ -3716,14 +3729,20 @@
         <v>42892</v>
       </c>
       <c r="F81" s="12"/>
-      <c r="G81" s="12"/>
-      <c r="H81" s="14"/>
-      <c r="I81" s="12"/>
+      <c r="G81" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="H81" s="14">
+        <v>42895</v>
+      </c>
+      <c r="I81" s="12" t="s">
+        <v>50</v>
+      </c>
       <c r="J81" s="12"/>
     </row>
-    <row r="82" spans="1:10" s="28" customFormat="1" ht="25.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="32"/>
-      <c r="B82" s="48"/>
+    <row r="82" spans="1:10" s="27" customFormat="1" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="31"/>
+      <c r="B82" s="44"/>
       <c r="C82" s="4" t="s">
         <v>216</v>
       </c>
@@ -3733,17 +3752,25 @@
       <c r="E82" s="14">
         <v>42892</v>
       </c>
-      <c r="F82" s="12"/>
-      <c r="G82" s="12"/>
-      <c r="H82" s="14"/>
-      <c r="I82" s="12"/>
+      <c r="F82" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="G82" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="H82" s="14">
+        <v>42895</v>
+      </c>
+      <c r="I82" s="12" t="s">
+        <v>50</v>
+      </c>
       <c r="J82" s="12"/>
     </row>
-    <row r="83" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="32">
+    <row r="83" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="31">
         <v>72</v>
       </c>
-      <c r="B83" s="48"/>
+      <c r="B83" s="44"/>
       <c r="C83" s="4" t="s">
         <v>105</v>
       </c>
@@ -3765,11 +3792,11 @@
       </c>
       <c r="J83" s="12"/>
     </row>
-    <row r="84" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="32">
+    <row r="84" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="31">
         <v>73</v>
       </c>
-      <c r="B84" s="48"/>
+      <c r="B84" s="44"/>
       <c r="C84" s="4" t="s">
         <v>37</v>
       </c>
@@ -3791,11 +3818,11 @@
       </c>
       <c r="J84" s="12"/>
     </row>
-    <row r="85" spans="1:10" ht="27" x14ac:dyDescent="0.15">
-      <c r="A85" s="32">
+    <row r="85" spans="1:10" ht="28" x14ac:dyDescent="0.25">
+      <c r="A85" s="31">
         <v>74</v>
       </c>
-      <c r="B85" s="48" t="s">
+      <c r="B85" s="44" t="s">
         <v>41</v>
       </c>
       <c r="C85" s="4" t="s">
@@ -3819,9 +3846,9 @@
       </c>
       <c r="J85" s="12"/>
     </row>
-    <row r="86" spans="1:10" s="28" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A86" s="32"/>
-      <c r="B86" s="48"/>
+    <row r="86" spans="1:10" s="27" customFormat="1" ht="14" x14ac:dyDescent="0.25">
+      <c r="A86" s="31"/>
+      <c r="B86" s="44"/>
       <c r="C86" s="4" t="s">
         <v>218</v>
       </c>
@@ -3832,14 +3859,20 @@
         <v>42892</v>
       </c>
       <c r="F86" s="12"/>
-      <c r="G86" s="12"/>
-      <c r="H86" s="14"/>
-      <c r="I86" s="12"/>
+      <c r="G86" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="H86" s="14">
+        <v>42895</v>
+      </c>
+      <c r="I86" s="12" t="s">
+        <v>50</v>
+      </c>
       <c r="J86" s="12"/>
     </row>
-    <row r="87" spans="1:10" s="28" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A87" s="32"/>
-      <c r="B87" s="48"/>
+    <row r="87" spans="1:10" s="27" customFormat="1" ht="28" x14ac:dyDescent="0.25">
+      <c r="A87" s="31"/>
+      <c r="B87" s="44"/>
       <c r="C87" s="4" t="s">
         <v>219</v>
       </c>
@@ -3850,16 +3883,22 @@
         <v>42892</v>
       </c>
       <c r="F87" s="12"/>
-      <c r="G87" s="12"/>
-      <c r="H87" s="14"/>
-      <c r="I87" s="12"/>
+      <c r="G87" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="H87" s="14">
+        <v>42895</v>
+      </c>
+      <c r="I87" s="12" t="s">
+        <v>50</v>
+      </c>
       <c r="J87" s="12"/>
     </row>
-    <row r="88" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="32">
+    <row r="88" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="31">
         <v>75</v>
       </c>
-      <c r="B88" s="48"/>
+      <c r="B88" s="44"/>
       <c r="C88" s="4" t="s">
         <v>105</v>
       </c>
@@ -3881,11 +3920,11 @@
       </c>
       <c r="J88" s="12"/>
     </row>
-    <row r="89" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="32">
+    <row r="89" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="31">
         <v>76</v>
       </c>
-      <c r="B89" s="48"/>
+      <c r="B89" s="44"/>
       <c r="C89" s="4" t="s">
         <v>37</v>
       </c>
@@ -3907,11 +3946,11 @@
       </c>
       <c r="J89" s="12"/>
     </row>
-    <row r="90" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A90" s="32">
+    <row r="90" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="31">
         <v>77</v>
       </c>
-      <c r="B90" s="48" t="s">
+      <c r="B90" s="44" t="s">
         <v>43</v>
       </c>
       <c r="C90" s="4" t="s">
@@ -3929,9 +3968,9 @@
       <c r="I90" s="12"/>
       <c r="J90" s="12"/>
     </row>
-    <row r="91" spans="1:10" s="28" customFormat="1" ht="28.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="32"/>
-      <c r="B91" s="48"/>
+    <row r="91" spans="1:10" s="27" customFormat="1" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="31"/>
+      <c r="B91" s="44"/>
       <c r="C91" s="4" t="s">
         <v>223</v>
       </c>
@@ -3953,11 +3992,11 @@
       </c>
       <c r="J91" s="12"/>
     </row>
-    <row r="92" spans="1:10" ht="27" x14ac:dyDescent="0.15">
-      <c r="A92" s="32">
+    <row r="92" spans="1:10" ht="28" x14ac:dyDescent="0.25">
+      <c r="A92" s="31">
         <v>78</v>
       </c>
-      <c r="B92" s="48"/>
+      <c r="B92" s="44"/>
       <c r="C92" s="4" t="s">
         <v>126</v>
       </c>
@@ -3979,9 +4018,9 @@
       </c>
       <c r="J92" s="12"/>
     </row>
-    <row r="93" spans="1:10" s="28" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="32"/>
-      <c r="B93" s="48"/>
+    <row r="93" spans="1:10" s="27" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="31"/>
+      <c r="B93" s="44"/>
       <c r="C93" s="4" t="s">
         <v>225</v>
       </c>
@@ -3997,9 +4036,9 @@
       <c r="I93" s="12"/>
       <c r="J93" s="12"/>
     </row>
-    <row r="94" spans="1:10" s="28" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A94" s="32"/>
-      <c r="B94" s="48"/>
+    <row r="94" spans="1:10" s="27" customFormat="1" ht="24.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="31"/>
+      <c r="B94" s="44"/>
       <c r="C94" s="4" t="s">
         <v>224</v>
       </c>
@@ -4021,9 +4060,9 @@
       </c>
       <c r="J94" s="12"/>
     </row>
-    <row r="95" spans="1:10" s="28" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="32"/>
-      <c r="B95" s="48"/>
+    <row r="95" spans="1:10" s="27" customFormat="1" ht="24.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="31"/>
+      <c r="B95" s="44"/>
       <c r="C95" s="4" t="s">
         <v>234</v>
       </c>
@@ -4034,14 +4073,20 @@
         <v>42894</v>
       </c>
       <c r="F95" s="12"/>
-      <c r="G95" s="12"/>
-      <c r="H95" s="14"/>
-      <c r="I95" s="12"/>
+      <c r="G95" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="H95" s="14">
+        <v>42895</v>
+      </c>
+      <c r="I95" s="12" t="s">
+        <v>76</v>
+      </c>
       <c r="J95" s="12"/>
     </row>
-    <row r="96" spans="1:10" s="28" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A96" s="32"/>
-      <c r="B96" s="48"/>
+    <row r="96" spans="1:10" s="27" customFormat="1" ht="24.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="31"/>
+      <c r="B96" s="44"/>
       <c r="C96" s="4" t="s">
         <v>229</v>
       </c>
@@ -4052,14 +4097,20 @@
         <v>42893</v>
       </c>
       <c r="F96" s="12"/>
-      <c r="G96" s="12"/>
-      <c r="H96" s="14"/>
-      <c r="I96" s="12"/>
+      <c r="G96" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="H96" s="14">
+        <v>42895</v>
+      </c>
+      <c r="I96" s="12" t="s">
+        <v>50</v>
+      </c>
       <c r="J96" s="12"/>
     </row>
-    <row r="97" spans="1:10" s="28" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="32"/>
-      <c r="B97" s="48"/>
+    <row r="97" spans="1:10" s="27" customFormat="1" ht="24.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="31"/>
+      <c r="B97" s="44"/>
       <c r="C97" s="4" t="s">
         <v>231</v>
       </c>
@@ -4070,14 +4121,20 @@
         <v>42893</v>
       </c>
       <c r="F97" s="12"/>
-      <c r="G97" s="12"/>
-      <c r="H97" s="14"/>
-      <c r="I97" s="12"/>
+      <c r="G97" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="H97" s="14">
+        <v>42895</v>
+      </c>
+      <c r="I97" s="12" t="s">
+        <v>76</v>
+      </c>
       <c r="J97" s="12"/>
     </row>
-    <row r="98" spans="1:10" s="28" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A98" s="32"/>
-      <c r="B98" s="48"/>
+    <row r="98" spans="1:10" s="27" customFormat="1" ht="28" x14ac:dyDescent="0.25">
+      <c r="A98" s="31"/>
+      <c r="B98" s="44"/>
       <c r="C98" s="4" t="s">
         <v>222</v>
       </c>
@@ -4088,14 +4145,20 @@
         <v>42893</v>
       </c>
       <c r="F98" s="12"/>
-      <c r="G98" s="12"/>
-      <c r="H98" s="12"/>
-      <c r="I98" s="12"/>
+      <c r="G98" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="H98" s="14">
+        <v>42895</v>
+      </c>
+      <c r="I98" s="12" t="s">
+        <v>76</v>
+      </c>
       <c r="J98" s="12"/>
     </row>
-    <row r="99" spans="1:10" s="28" customFormat="1" ht="25.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="32"/>
-      <c r="B99" s="48"/>
+    <row r="99" spans="1:10" s="27" customFormat="1" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="31"/>
+      <c r="B99" s="44"/>
       <c r="C99" s="4" t="s">
         <v>221</v>
       </c>
@@ -4117,11 +4180,11 @@
       </c>
       <c r="J99" s="12"/>
     </row>
-    <row r="100" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="32">
+    <row r="100" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="31">
         <v>79</v>
       </c>
-      <c r="B100" s="48"/>
+      <c r="B100" s="44"/>
       <c r="C100" s="4" t="s">
         <v>45</v>
       </c>
@@ -4137,11 +4200,11 @@
       <c r="I100" s="12"/>
       <c r="J100" s="12"/>
     </row>
-    <row r="101" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="32">
+    <row r="101" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="31">
         <v>80</v>
       </c>
-      <c r="B101" s="48" t="s">
+      <c r="B101" s="44" t="s">
         <v>44</v>
       </c>
       <c r="C101" s="4" t="s">
@@ -4165,9 +4228,9 @@
       </c>
       <c r="J101" s="12"/>
     </row>
-    <row r="102" spans="1:10" s="28" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="32"/>
-      <c r="B102" s="48"/>
+    <row r="102" spans="1:10" s="27" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="31"/>
+      <c r="B102" s="44"/>
       <c r="C102" s="4" t="s">
         <v>228</v>
       </c>
@@ -4189,9 +4252,9 @@
       </c>
       <c r="J102" s="12"/>
     </row>
-    <row r="103" spans="1:10" s="28" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A103" s="32"/>
-      <c r="B103" s="48"/>
+    <row r="103" spans="1:10" s="27" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="31"/>
+      <c r="B103" s="44"/>
       <c r="C103" s="4" t="s">
         <v>233</v>
       </c>
@@ -4213,23 +4276,23 @@
       </c>
       <c r="J103" s="12"/>
     </row>
-    <row r="104" spans="1:10" s="28" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A104" s="32"/>
-      <c r="B104" s="48"/>
-      <c r="C104" s="42" t="s">
+    <row r="104" spans="1:10" s="27" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="31"/>
+      <c r="B104" s="44"/>
+      <c r="C104" s="41" t="s">
         <v>232</v>
       </c>
-      <c r="D104" s="43"/>
-      <c r="E104" s="44"/>
+      <c r="D104" s="42"/>
+      <c r="E104" s="43"/>
       <c r="F104" s="12"/>
       <c r="G104" s="12"/>
       <c r="H104" s="14"/>
       <c r="I104" s="12"/>
       <c r="J104" s="12"/>
     </row>
-    <row r="105" spans="1:10" s="28" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="32"/>
-      <c r="B105" s="48"/>
+    <row r="105" spans="1:10" s="27" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="31"/>
+      <c r="B105" s="44"/>
       <c r="C105" s="4" t="s">
         <v>220</v>
       </c>
@@ -4251,9 +4314,9 @@
       </c>
       <c r="J105" s="12"/>
     </row>
-    <row r="106" spans="1:10" s="28" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A106" s="32"/>
-      <c r="B106" s="48"/>
+    <row r="106" spans="1:10" s="27" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="31"/>
+      <c r="B106" s="44"/>
       <c r="C106" s="4" t="s">
         <v>227</v>
       </c>
@@ -4275,11 +4338,11 @@
       </c>
       <c r="J106" s="12"/>
     </row>
-    <row r="107" spans="1:10" ht="27" x14ac:dyDescent="0.15">
-      <c r="A107" s="32">
+    <row r="107" spans="1:10" ht="28" x14ac:dyDescent="0.25">
+      <c r="A107" s="31">
         <v>81</v>
       </c>
-      <c r="B107" s="48"/>
+      <c r="B107" s="44"/>
       <c r="C107" s="4" t="s">
         <v>136</v>
       </c>
@@ -4301,11 +4364,11 @@
       </c>
       <c r="J107" s="12"/>
     </row>
-    <row r="108" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A108" s="32">
+    <row r="108" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="31">
         <v>82</v>
       </c>
-      <c r="B108" s="45" t="s">
+      <c r="B108" s="48" t="s">
         <v>65</v>
       </c>
       <c r="C108" s="4" t="s">
@@ -4331,9 +4394,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="109" spans="1:10" s="28" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A109" s="32"/>
-      <c r="B109" s="46"/>
+    <row r="109" spans="1:10" s="27" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="31"/>
+      <c r="B109" s="49"/>
       <c r="C109" s="4" t="s">
         <v>187</v>
       </c>
@@ -4355,9 +4418,9 @@
       </c>
       <c r="J109" s="12"/>
     </row>
-    <row r="110" spans="1:10" s="28" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A110" s="32"/>
-      <c r="B110" s="47"/>
+    <row r="110" spans="1:10" s="27" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="31"/>
+      <c r="B110" s="50"/>
       <c r="C110" s="4" t="s">
         <v>186</v>
       </c>
@@ -4379,11 +4442,11 @@
       </c>
       <c r="J110" s="12"/>
     </row>
-    <row r="111" spans="1:10" s="20" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A111" s="32">
+    <row r="111" spans="1:10" s="20" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="31">
         <v>83</v>
       </c>
-      <c r="B111" s="49" t="s">
+      <c r="B111" s="51" t="s">
         <v>67</v>
       </c>
       <c r="C111" s="8" t="s">
@@ -4407,11 +4470,11 @@
       </c>
       <c r="J111" s="9"/>
     </row>
-    <row r="112" spans="1:10" s="20" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A112" s="32">
+    <row r="112" spans="1:10" s="20" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="31">
         <v>84</v>
       </c>
-      <c r="B112" s="49"/>
+      <c r="B112" s="51"/>
       <c r="C112" s="8" t="s">
         <v>95</v>
       </c>
@@ -4427,11 +4490,11 @@
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
     </row>
-    <row r="113" spans="1:10" s="20" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A113" s="32">
+    <row r="113" spans="1:10" s="20" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="31">
         <v>85</v>
       </c>
-      <c r="B113" s="49"/>
+      <c r="B113" s="51"/>
       <c r="C113" s="8" t="s">
         <v>190</v>
       </c>
@@ -4447,11 +4510,11 @@
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
     </row>
-    <row r="114" spans="1:10" s="20" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A114" s="32">
+    <row r="114" spans="1:10" s="20" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="31">
         <v>86</v>
       </c>
-      <c r="B114" s="49"/>
+      <c r="B114" s="51"/>
       <c r="C114" s="8" t="s">
         <v>189</v>
       </c>
@@ -4467,9 +4530,9 @@
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
     </row>
-    <row r="115" spans="1:10" s="20" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A115" s="32"/>
-      <c r="B115" s="49"/>
+    <row r="115" spans="1:10" s="20" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="31"/>
+      <c r="B115" s="51"/>
       <c r="C115" s="8" t="s">
         <v>191</v>
       </c>
@@ -4485,9 +4548,9 @@
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
     </row>
-    <row r="116" spans="1:10" s="20" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A116" s="32"/>
-      <c r="B116" s="49"/>
+    <row r="116" spans="1:10" s="20" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="31"/>
+      <c r="B116" s="51"/>
       <c r="C116" s="8" t="s">
         <v>192</v>
       </c>
@@ -4503,9 +4566,9 @@
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
     </row>
-    <row r="117" spans="1:10" s="20" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A117" s="32"/>
-      <c r="B117" s="49"/>
+    <row r="117" spans="1:10" s="20" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="31"/>
+      <c r="B117" s="51"/>
       <c r="C117" s="8" t="s">
         <v>193</v>
       </c>
@@ -4521,9 +4584,9 @@
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
     </row>
-    <row r="118" spans="1:10" s="20" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A118" s="32"/>
-      <c r="B118" s="49"/>
+    <row r="118" spans="1:10" s="20" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="31"/>
+      <c r="B118" s="51"/>
       <c r="C118" s="8" t="s">
         <v>215</v>
       </c>
@@ -4539,11 +4602,11 @@
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
     </row>
-    <row r="119" spans="1:10" s="20" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A119" s="32">
+    <row r="119" spans="1:10" s="20" customFormat="1" ht="28" x14ac:dyDescent="0.25">
+      <c r="A119" s="31">
         <v>87</v>
       </c>
-      <c r="B119" s="49"/>
+      <c r="B119" s="51"/>
       <c r="C119" s="8" t="s">
         <v>188</v>
       </c>
@@ -4559,11 +4622,11 @@
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
     </row>
-    <row r="120" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A120" s="32">
+    <row r="120" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="31">
         <v>88</v>
       </c>
-      <c r="B120" s="48" t="s">
+      <c r="B120" s="44" t="s">
         <v>87</v>
       </c>
       <c r="C120" s="4" t="s">
@@ -4587,11 +4650,11 @@
       </c>
       <c r="J120" s="12"/>
     </row>
-    <row r="121" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A121" s="32">
+    <row r="121" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="31">
         <v>89</v>
       </c>
-      <c r="B121" s="48"/>
+      <c r="B121" s="44"/>
       <c r="C121" s="4" t="s">
         <v>93</v>
       </c>
@@ -4613,11 +4676,11 @@
       </c>
       <c r="J121" s="12"/>
     </row>
-    <row r="122" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A122" s="32">
+    <row r="122" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="31">
         <v>90</v>
       </c>
-      <c r="B122" s="45" t="s">
+      <c r="B122" s="48" t="s">
         <v>97</v>
       </c>
       <c r="C122" s="4" t="s">
@@ -4641,9 +4704,9 @@
       </c>
       <c r="J122" s="12"/>
     </row>
-    <row r="123" spans="1:10" s="28" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A123" s="32"/>
-      <c r="B123" s="46"/>
+    <row r="123" spans="1:10" s="27" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="31"/>
+      <c r="B123" s="49"/>
       <c r="C123" s="4" t="s">
         <v>208</v>
       </c>
@@ -4659,9 +4722,9 @@
       <c r="I123" s="12"/>
       <c r="J123" s="12"/>
     </row>
-    <row r="124" spans="1:10" s="28" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A124" s="32"/>
-      <c r="B124" s="46"/>
+    <row r="124" spans="1:10" s="27" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="31"/>
+      <c r="B124" s="49"/>
       <c r="C124" s="4" t="s">
         <v>202</v>
       </c>
@@ -4677,9 +4740,9 @@
       <c r="I124" s="12"/>
       <c r="J124" s="12"/>
     </row>
-    <row r="125" spans="1:10" s="28" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A125" s="32"/>
-      <c r="B125" s="46"/>
+    <row r="125" spans="1:10" s="27" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="31"/>
+      <c r="B125" s="49"/>
       <c r="C125" s="4" t="s">
         <v>203</v>
       </c>
@@ -4695,9 +4758,9 @@
       <c r="I125" s="12"/>
       <c r="J125" s="12"/>
     </row>
-    <row r="126" spans="1:10" s="28" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A126" s="32"/>
-      <c r="B126" s="46"/>
+    <row r="126" spans="1:10" s="27" customFormat="1" ht="28" x14ac:dyDescent="0.25">
+      <c r="A126" s="31"/>
+      <c r="B126" s="49"/>
       <c r="C126" s="4" t="s">
         <v>207</v>
       </c>
@@ -4713,9 +4776,9 @@
       <c r="I126" s="12"/>
       <c r="J126" s="12"/>
     </row>
-    <row r="127" spans="1:10" s="28" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A127" s="32"/>
-      <c r="B127" s="46"/>
+    <row r="127" spans="1:10" s="27" customFormat="1" ht="29.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="31"/>
+      <c r="B127" s="49"/>
       <c r="C127" s="4" t="s">
         <v>206</v>
       </c>
@@ -4727,11 +4790,11 @@
       <c r="I127" s="12"/>
       <c r="J127" s="12"/>
     </row>
-    <row r="128" spans="1:10" ht="27" x14ac:dyDescent="0.15">
-      <c r="A128" s="32">
+    <row r="128" spans="1:10" ht="28" x14ac:dyDescent="0.25">
+      <c r="A128" s="31">
         <v>91</v>
       </c>
-      <c r="B128" s="47"/>
+      <c r="B128" s="50"/>
       <c r="C128" s="4" t="s">
         <v>205</v>
       </c>
@@ -4747,11 +4810,11 @@
       <c r="I128" s="12"/>
       <c r="J128" s="12"/>
     </row>
-    <row r="129" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A129" s="32">
+    <row r="129" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="31">
         <v>92</v>
       </c>
-      <c r="B129" s="48" t="s">
+      <c r="B129" s="44" t="s">
         <v>99</v>
       </c>
       <c r="C129" s="4" t="s">
@@ -4775,11 +4838,11 @@
       </c>
       <c r="J129" s="12"/>
     </row>
-    <row r="130" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A130" s="32">
+    <row r="130" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="31">
         <v>93</v>
       </c>
-      <c r="B130" s="48"/>
+      <c r="B130" s="44"/>
       <c r="C130" s="4" t="s">
         <v>104</v>
       </c>
@@ -4801,11 +4864,11 @@
       </c>
       <c r="J130" s="12"/>
     </row>
-    <row r="131" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A131" s="32">
+    <row r="131" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="31">
         <v>94</v>
       </c>
-      <c r="B131" s="48"/>
+      <c r="B131" s="44"/>
       <c r="C131" s="4" t="s">
         <v>101</v>
       </c>
@@ -4827,9 +4890,9 @@
       </c>
       <c r="J131" s="12"/>
     </row>
-    <row r="132" spans="1:10" s="28" customFormat="1" ht="40.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A132" s="32"/>
-      <c r="B132" s="41" t="s">
+    <row r="132" spans="1:10" s="27" customFormat="1" ht="40.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="31"/>
+      <c r="B132" s="40" t="s">
         <v>201</v>
       </c>
       <c r="C132" s="4" t="s">
@@ -4847,11 +4910,11 @@
       <c r="I132" s="12"/>
       <c r="J132" s="12"/>
     </row>
-    <row r="133" spans="1:10" ht="27" x14ac:dyDescent="0.15">
-      <c r="A133" s="32">
+    <row r="133" spans="1:10" ht="28" x14ac:dyDescent="0.25">
+      <c r="A133" s="31">
         <v>95</v>
       </c>
-      <c r="B133" s="45" t="s">
+      <c r="B133" s="48" t="s">
         <v>111</v>
       </c>
       <c r="C133" s="4" t="s">
@@ -4875,9 +4938,9 @@
       </c>
       <c r="J133" s="12"/>
     </row>
-    <row r="134" spans="1:10" s="28" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A134" s="32"/>
-      <c r="B134" s="46"/>
+    <row r="134" spans="1:10" s="27" customFormat="1" ht="28" x14ac:dyDescent="0.25">
+      <c r="A134" s="31"/>
+      <c r="B134" s="49"/>
       <c r="C134" s="4" t="s">
         <v>214</v>
       </c>
@@ -4888,16 +4951,22 @@
         <v>42892</v>
       </c>
       <c r="F134" s="12"/>
-      <c r="G134" s="29"/>
-      <c r="H134" s="33"/>
-      <c r="I134" s="12"/>
+      <c r="G134" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="H134" s="32">
+        <v>42898</v>
+      </c>
+      <c r="I134" s="12" t="s">
+        <v>242</v>
+      </c>
       <c r="J134" s="12"/>
     </row>
-    <row r="135" spans="1:10" ht="27" x14ac:dyDescent="0.15">
-      <c r="A135" s="32">
+    <row r="135" spans="1:10" ht="28" x14ac:dyDescent="0.25">
+      <c r="A135" s="31">
         <v>96</v>
       </c>
-      <c r="B135" s="46"/>
+      <c r="B135" s="49"/>
       <c r="C135" s="4" t="s">
         <v>213</v>
       </c>
@@ -4908,14 +4977,20 @@
         <v>42886</v>
       </c>
       <c r="F135" s="12"/>
-      <c r="G135" s="7"/>
-      <c r="H135" s="15"/>
-      <c r="I135" s="12"/>
+      <c r="G135" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="H135" s="32">
+        <v>42898</v>
+      </c>
+      <c r="I135" s="12" t="s">
+        <v>124</v>
+      </c>
       <c r="J135" s="12"/>
     </row>
-    <row r="136" spans="1:10" s="28" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A136" s="32"/>
-      <c r="B136" s="46"/>
+    <row r="136" spans="1:10" s="27" customFormat="1" ht="28" x14ac:dyDescent="0.25">
+      <c r="A136" s="31"/>
+      <c r="B136" s="49"/>
       <c r="C136" s="4" t="s">
         <v>237</v>
       </c>
@@ -4926,16 +5001,22 @@
         <v>42894</v>
       </c>
       <c r="F136" s="12"/>
-      <c r="G136" s="29"/>
-      <c r="H136" s="33"/>
-      <c r="I136" s="12"/>
+      <c r="G136" s="28" t="s">
+        <v>241</v>
+      </c>
+      <c r="H136" s="32">
+        <v>42895</v>
+      </c>
+      <c r="I136" s="12" t="s">
+        <v>124</v>
+      </c>
       <c r="J136" s="12"/>
     </row>
-    <row r="137" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A137" s="32">
+    <row r="137" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="31">
         <v>97</v>
       </c>
-      <c r="B137" s="46"/>
+      <c r="B137" s="49"/>
       <c r="C137" s="4" t="s">
         <v>150</v>
       </c>
@@ -4946,30 +5027,36 @@
         <v>42886</v>
       </c>
       <c r="F137" s="12"/>
-      <c r="G137" s="7"/>
-      <c r="H137" s="15"/>
-      <c r="I137" s="12"/>
+      <c r="G137" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="H137" s="32">
+        <v>42895</v>
+      </c>
+      <c r="I137" s="12" t="s">
+        <v>124</v>
+      </c>
       <c r="J137" s="12"/>
     </row>
-    <row r="138" spans="1:10" s="28" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A138" s="50" t="s">
+    <row r="138" spans="1:10" s="27" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="45" t="s">
         <v>199</v>
       </c>
-      <c r="B138" s="51"/>
-      <c r="C138" s="51"/>
-      <c r="D138" s="51"/>
-      <c r="E138" s="51"/>
-      <c r="F138" s="51"/>
-      <c r="G138" s="51"/>
-      <c r="H138" s="51"/>
-      <c r="I138" s="51"/>
-      <c r="J138" s="52"/>
-    </row>
-    <row r="139" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A139" s="32">
+      <c r="B138" s="46"/>
+      <c r="C138" s="46"/>
+      <c r="D138" s="46"/>
+      <c r="E138" s="46"/>
+      <c r="F138" s="46"/>
+      <c r="G138" s="46"/>
+      <c r="H138" s="46"/>
+      <c r="I138" s="46"/>
+      <c r="J138" s="47"/>
+    </row>
+    <row r="139" spans="1:10" ht="42" x14ac:dyDescent="0.25">
+      <c r="A139" s="31">
         <v>98</v>
       </c>
-      <c r="B139" s="48" t="s">
+      <c r="B139" s="44" t="s">
         <v>113</v>
       </c>
       <c r="C139" s="4" t="s">
@@ -4993,11 +5080,11 @@
       </c>
       <c r="J139" s="12"/>
     </row>
-    <row r="140" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A140" s="32">
+    <row r="140" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="31">
         <v>99</v>
       </c>
-      <c r="B140" s="48"/>
+      <c r="B140" s="44"/>
       <c r="C140" s="4" t="s">
         <v>116</v>
       </c>
@@ -5019,11 +5106,11 @@
       </c>
       <c r="J140" s="12"/>
     </row>
-    <row r="141" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A141" s="32">
+    <row r="141" spans="1:10" ht="42" x14ac:dyDescent="0.25">
+      <c r="A141" s="31">
         <v>100</v>
       </c>
-      <c r="B141" s="48" t="s">
+      <c r="B141" s="44" t="s">
         <v>114</v>
       </c>
       <c r="C141" s="4" t="s">
@@ -5047,11 +5134,11 @@
       </c>
       <c r="J141" s="12"/>
     </row>
-    <row r="142" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A142" s="32">
+    <row r="142" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="31">
         <v>101</v>
       </c>
-      <c r="B142" s="48"/>
+      <c r="B142" s="44"/>
       <c r="C142" s="4" t="s">
         <v>117</v>
       </c>
@@ -5073,11 +5160,11 @@
       </c>
       <c r="J142" s="12"/>
     </row>
-    <row r="143" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A143" s="32">
+    <row r="143" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="31">
         <v>102</v>
       </c>
-      <c r="B143" s="45" t="s">
+      <c r="B143" s="48" t="s">
         <v>118</v>
       </c>
       <c r="C143" s="4" t="s">
@@ -5101,11 +5188,11 @@
       </c>
       <c r="J143" s="12"/>
     </row>
-    <row r="144" spans="1:10" s="26" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A144" s="32">
+    <row r="144" spans="1:10" s="26" customFormat="1" ht="28" x14ac:dyDescent="0.25">
+      <c r="A144" s="31">
         <v>103</v>
       </c>
-      <c r="B144" s="47"/>
+      <c r="B144" s="50"/>
       <c r="C144" s="4" t="s">
         <v>169</v>
       </c>
@@ -5116,13 +5203,19 @@
         <v>42887</v>
       </c>
       <c r="F144" s="12"/>
-      <c r="G144" s="24"/>
-      <c r="H144" s="27"/>
-      <c r="I144" s="11"/>
+      <c r="G144" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="H144" s="32">
+        <v>42898</v>
+      </c>
+      <c r="I144" s="12" t="s">
+        <v>124</v>
+      </c>
       <c r="J144" s="11"/>
     </row>
-    <row r="145" spans="1:10" ht="41.25" x14ac:dyDescent="0.15">
-      <c r="A145" s="32">
+    <row r="145" spans="1:10" ht="42" x14ac:dyDescent="0.25">
+      <c r="A145" s="31">
         <v>104</v>
       </c>
       <c r="B145" s="22" t="s">
@@ -5149,11 +5242,11 @@
       </c>
       <c r="J145" s="12"/>
     </row>
-    <row r="146" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A146" s="32">
+    <row r="146" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="31">
         <v>105</v>
       </c>
-      <c r="B146" s="45" t="s">
+      <c r="B146" s="48" t="s">
         <v>132</v>
       </c>
       <c r="C146" s="4" t="s">
@@ -5177,9 +5270,9 @@
       </c>
       <c r="J146" s="12"/>
     </row>
-    <row r="147" spans="1:10" s="28" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A147" s="32"/>
-      <c r="B147" s="46"/>
+    <row r="147" spans="1:10" s="27" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="31"/>
+      <c r="B147" s="49"/>
       <c r="C147" s="4" t="s">
         <v>236</v>
       </c>
@@ -5195,11 +5288,11 @@
       <c r="I147" s="12"/>
       <c r="J147" s="12"/>
     </row>
-    <row r="148" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A148" s="32">
+    <row r="148" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="31">
         <v>106</v>
       </c>
-      <c r="B148" s="46"/>
+      <c r="B148" s="49"/>
       <c r="C148" s="4" t="s">
         <v>135</v>
       </c>
@@ -5221,11 +5314,11 @@
       </c>
       <c r="J148" s="12"/>
     </row>
-    <row r="149" spans="1:10" ht="27" x14ac:dyDescent="0.15">
-      <c r="A149" s="32">
+    <row r="149" spans="1:10" ht="28" x14ac:dyDescent="0.25">
+      <c r="A149" s="31">
         <v>107</v>
       </c>
-      <c r="B149" s="47"/>
+      <c r="B149" s="50"/>
       <c r="C149" s="4" t="s">
         <v>139</v>
       </c>
@@ -5247,8 +5340,8 @@
       </c>
       <c r="J149" s="12"/>
     </row>
-    <row r="150" spans="1:10" s="26" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A150" s="32">
+    <row r="150" spans="1:10" s="26" customFormat="1" ht="28" x14ac:dyDescent="0.25">
+      <c r="A150" s="31">
         <v>108</v>
       </c>
       <c r="B150" s="11" t="s">
@@ -5269,11 +5362,11 @@
       <c r="I150" s="11"/>
       <c r="J150" s="11"/>
     </row>
-    <row r="151" spans="1:10" ht="27" x14ac:dyDescent="0.15">
-      <c r="A151" s="32">
+    <row r="151" spans="1:10" ht="28" x14ac:dyDescent="0.25">
+      <c r="A151" s="31">
         <v>109</v>
       </c>
-      <c r="B151" s="31" t="s">
+      <c r="B151" s="30" t="s">
         <v>200</v>
       </c>
       <c r="C151" s="4" t="s">
@@ -5291,7 +5384,7 @@
       <c r="I151" s="12"/>
       <c r="J151" s="12"/>
     </row>
-    <row r="152" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="12"/>
       <c r="B152" s="22"/>
       <c r="C152" s="4"/>
@@ -5303,7 +5396,7 @@
       <c r="I152" s="12"/>
       <c r="J152" s="12"/>
     </row>
-    <row r="153" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="12"/>
       <c r="B153" s="22"/>
       <c r="C153" s="4"/>
@@ -5315,7 +5408,7 @@
       <c r="I153" s="12"/>
       <c r="J153" s="12"/>
     </row>
-    <row r="154" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="12"/>
       <c r="B154" s="22"/>
       <c r="C154" s="4"/>
@@ -5327,7 +5420,7 @@
       <c r="I154" s="12"/>
       <c r="J154" s="12"/>
     </row>
-    <row r="155" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="12"/>
       <c r="B155" s="22"/>
       <c r="C155" s="4"/>
@@ -5339,7 +5432,7 @@
       <c r="I155" s="12"/>
       <c r="J155" s="12"/>
     </row>
-    <row r="156" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="12"/>
       <c r="B156" s="22"/>
       <c r="C156" s="4"/>
@@ -5351,7 +5444,7 @@
       <c r="I156" s="12"/>
       <c r="J156" s="12"/>
     </row>
-    <row r="157" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="12"/>
       <c r="B157" s="22"/>
       <c r="C157" s="4"/>
@@ -5363,7 +5456,7 @@
       <c r="I157" s="12"/>
       <c r="J157" s="12"/>
     </row>
-    <row r="158" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="12"/>
       <c r="B158" s="22"/>
       <c r="C158" s="4"/>
@@ -5375,7 +5468,7 @@
       <c r="I158" s="12"/>
       <c r="J158" s="12"/>
     </row>
-    <row r="159" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="12"/>
       <c r="B159" s="22"/>
       <c r="C159" s="4"/>
@@ -5387,7 +5480,7 @@
       <c r="I159" s="12"/>
       <c r="J159" s="12"/>
     </row>
-    <row r="160" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="12"/>
       <c r="B160" s="22"/>
       <c r="C160" s="4"/>
@@ -5399,7 +5492,7 @@
       <c r="I160" s="12"/>
       <c r="J160" s="12"/>
     </row>
-    <row r="161" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="12"/>
       <c r="B161" s="22"/>
       <c r="C161" s="4"/>
@@ -5411,7 +5504,7 @@
       <c r="I161" s="12"/>
       <c r="J161" s="12"/>
     </row>
-    <row r="162" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="12"/>
       <c r="B162" s="22"/>
       <c r="C162" s="4"/>
@@ -5423,7 +5516,7 @@
       <c r="I162" s="12"/>
       <c r="J162" s="12"/>
     </row>
-    <row r="163" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="12"/>
       <c r="B163" s="22"/>
       <c r="C163" s="4"/>
@@ -5435,7 +5528,7 @@
       <c r="I163" s="12"/>
       <c r="J163" s="12"/>
     </row>
-    <row r="164" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="12"/>
       <c r="B164" s="22"/>
       <c r="C164" s="4"/>
@@ -5447,7 +5540,7 @@
       <c r="I164" s="12"/>
       <c r="J164" s="12"/>
     </row>
-    <row r="165" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="12"/>
       <c r="B165" s="22"/>
       <c r="C165" s="4"/>
@@ -5459,7 +5552,7 @@
       <c r="I165" s="12"/>
       <c r="J165" s="12"/>
     </row>
-    <row r="166" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="12"/>
       <c r="B166" s="22"/>
       <c r="C166" s="4"/>
@@ -5471,7 +5564,7 @@
       <c r="I166" s="12"/>
       <c r="J166" s="12"/>
     </row>
-    <row r="167" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="12"/>
       <c r="B167" s="22"/>
       <c r="C167" s="4"/>
@@ -5483,7 +5576,7 @@
       <c r="I167" s="12"/>
       <c r="J167" s="12"/>
     </row>
-    <row r="168" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="12"/>
       <c r="B168" s="22"/>
       <c r="C168" s="4"/>
@@ -5495,7 +5588,7 @@
       <c r="I168" s="12"/>
       <c r="J168" s="12"/>
     </row>
-    <row r="169" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="12"/>
       <c r="B169" s="22"/>
       <c r="C169" s="4"/>
@@ -5507,7 +5600,7 @@
       <c r="I169" s="12"/>
       <c r="J169" s="12"/>
     </row>
-    <row r="170" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="12"/>
       <c r="B170" s="22"/>
       <c r="C170" s="4"/>
@@ -5519,7 +5612,7 @@
       <c r="I170" s="12"/>
       <c r="J170" s="12"/>
     </row>
-    <row r="171" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="12"/>
       <c r="B171" s="22"/>
       <c r="C171" s="4"/>
@@ -5531,7 +5624,7 @@
       <c r="I171" s="12"/>
       <c r="J171" s="12"/>
     </row>
-    <row r="172" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="12"/>
       <c r="B172" s="22"/>
       <c r="C172" s="4"/>
@@ -5543,7 +5636,7 @@
       <c r="I172" s="12"/>
       <c r="J172" s="12"/>
     </row>
-    <row r="173" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="12"/>
       <c r="B173" s="22"/>
       <c r="C173" s="4"/>
@@ -5555,7 +5648,7 @@
       <c r="I173" s="12"/>
       <c r="J173" s="12"/>
     </row>
-    <row r="174" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="12"/>
       <c r="B174" s="22"/>
       <c r="C174" s="4"/>
@@ -5567,7 +5660,7 @@
       <c r="I174" s="12"/>
       <c r="J174" s="12"/>
     </row>
-    <row r="175" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="12"/>
       <c r="B175" s="22"/>
       <c r="C175" s="4"/>
@@ -5579,7 +5672,7 @@
       <c r="I175" s="12"/>
       <c r="J175" s="12"/>
     </row>
-    <row r="176" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="12"/>
       <c r="B176" s="22"/>
       <c r="C176" s="4"/>
@@ -5591,7 +5684,7 @@
       <c r="I176" s="12"/>
       <c r="J176" s="12"/>
     </row>
-    <row r="177" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="12"/>
       <c r="B177" s="22"/>
       <c r="C177" s="4"/>
@@ -5603,7 +5696,7 @@
       <c r="I177" s="12"/>
       <c r="J177" s="12"/>
     </row>
-    <row r="178" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="12"/>
       <c r="B178" s="22"/>
       <c r="C178" s="4"/>
@@ -5615,7 +5708,7 @@
       <c r="I178" s="12"/>
       <c r="J178" s="12"/>
     </row>
-    <row r="179" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="12"/>
       <c r="B179" s="22"/>
       <c r="C179" s="4"/>
@@ -5627,7 +5720,7 @@
       <c r="I179" s="12"/>
       <c r="J179" s="12"/>
     </row>
-    <row r="180" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="12"/>
       <c r="B180" s="22"/>
       <c r="C180" s="4"/>
@@ -5639,7 +5732,7 @@
       <c r="I180" s="12"/>
       <c r="J180" s="12"/>
     </row>
-    <row r="181" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="12"/>
       <c r="B181" s="22"/>
       <c r="C181" s="4"/>
@@ -5651,7 +5744,7 @@
       <c r="I181" s="12"/>
       <c r="J181" s="12"/>
     </row>
-    <row r="182" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="12"/>
       <c r="B182" s="22"/>
       <c r="C182" s="4"/>
@@ -5663,7 +5756,7 @@
       <c r="I182" s="12"/>
       <c r="J182" s="12"/>
     </row>
-    <row r="183" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="12"/>
       <c r="B183" s="22"/>
       <c r="C183" s="4"/>
@@ -5675,7 +5768,7 @@
       <c r="I183" s="12"/>
       <c r="J183" s="12"/>
     </row>
-    <row r="184" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="12"/>
       <c r="B184" s="22"/>
       <c r="C184" s="4"/>
@@ -5687,7 +5780,7 @@
       <c r="I184" s="12"/>
       <c r="J184" s="12"/>
     </row>
-    <row r="185" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="12"/>
       <c r="B185" s="22"/>
       <c r="C185" s="4"/>
@@ -5699,7 +5792,7 @@
       <c r="I185" s="12"/>
       <c r="J185" s="12"/>
     </row>
-    <row r="186" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="12"/>
       <c r="B186" s="22"/>
       <c r="C186" s="4"/>
@@ -5711,7 +5804,7 @@
       <c r="I186" s="12"/>
       <c r="J186" s="12"/>
     </row>
-    <row r="187" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="12"/>
       <c r="B187" s="22"/>
       <c r="C187" s="4"/>
@@ -5723,7 +5816,7 @@
       <c r="I187" s="12"/>
       <c r="J187" s="12"/>
     </row>
-    <row r="188" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="12"/>
       <c r="B188" s="22"/>
       <c r="C188" s="4"/>
@@ -5735,7 +5828,7 @@
       <c r="I188" s="12"/>
       <c r="J188" s="12"/>
     </row>
-    <row r="189" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="12"/>
       <c r="B189" s="22"/>
       <c r="C189" s="4"/>
@@ -5747,7 +5840,7 @@
       <c r="I189" s="12"/>
       <c r="J189" s="12"/>
     </row>
-    <row r="190" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="12"/>
       <c r="B190" s="22"/>
       <c r="C190" s="4"/>
@@ -5759,7 +5852,7 @@
       <c r="I190" s="12"/>
       <c r="J190" s="12"/>
     </row>
-    <row r="191" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="12"/>
       <c r="B191" s="22"/>
       <c r="C191" s="4"/>
@@ -5771,7 +5864,7 @@
       <c r="I191" s="12"/>
       <c r="J191" s="12"/>
     </row>
-    <row r="192" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="12"/>
       <c r="B192" s="22"/>
       <c r="C192" s="4"/>
@@ -5783,7 +5876,7 @@
       <c r="I192" s="12"/>
       <c r="J192" s="12"/>
     </row>
-    <row r="193" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="12"/>
       <c r="B193" s="22"/>
       <c r="C193" s="4"/>
@@ -5795,7 +5888,7 @@
       <c r="I193" s="12"/>
       <c r="J193" s="12"/>
     </row>
-    <row r="194" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="12"/>
       <c r="B194" s="22"/>
       <c r="C194" s="4"/>
@@ -5807,7 +5900,7 @@
       <c r="I194" s="12"/>
       <c r="J194" s="12"/>
     </row>
-    <row r="195" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="12"/>
       <c r="B195" s="22"/>
       <c r="C195" s="4"/>
@@ -5819,7 +5912,7 @@
       <c r="I195" s="12"/>
       <c r="J195" s="12"/>
     </row>
-    <row r="196" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="12"/>
       <c r="B196" s="22"/>
       <c r="C196" s="4"/>
@@ -5831,7 +5924,7 @@
       <c r="I196" s="12"/>
       <c r="J196" s="12"/>
     </row>
-    <row r="197" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="12"/>
       <c r="B197" s="22"/>
       <c r="C197" s="4"/>
@@ -5843,7 +5936,7 @@
       <c r="I197" s="12"/>
       <c r="J197" s="12"/>
     </row>
-    <row r="198" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="12"/>
       <c r="B198" s="22"/>
       <c r="C198" s="4"/>
@@ -5855,7 +5948,7 @@
       <c r="I198" s="12"/>
       <c r="J198" s="12"/>
     </row>
-    <row r="199" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="12"/>
       <c r="B199" s="22"/>
       <c r="C199" s="4"/>
@@ -5867,7 +5960,7 @@
       <c r="I199" s="12"/>
       <c r="J199" s="12"/>
     </row>
-    <row r="200" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="12"/>
       <c r="B200" s="22"/>
       <c r="C200" s="4"/>
@@ -5879,7 +5972,7 @@
       <c r="I200" s="12"/>
       <c r="J200" s="12"/>
     </row>
-    <row r="201" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="12"/>
       <c r="B201" s="22"/>
       <c r="C201" s="4"/>
@@ -5891,7 +5984,7 @@
       <c r="I201" s="12"/>
       <c r="J201" s="12"/>
     </row>
-    <row r="202" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="12"/>
       <c r="B202" s="22"/>
       <c r="C202" s="4"/>
@@ -5903,7 +5996,7 @@
       <c r="I202" s="12"/>
       <c r="J202" s="12"/>
     </row>
-    <row r="203" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="12"/>
       <c r="B203" s="22"/>
       <c r="C203" s="4"/>
@@ -5915,7 +6008,7 @@
       <c r="I203" s="12"/>
       <c r="J203" s="12"/>
     </row>
-    <row r="204" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="12"/>
       <c r="B204" s="22"/>
       <c r="C204" s="4"/>
@@ -5927,7 +6020,7 @@
       <c r="I204" s="12"/>
       <c r="J204" s="12"/>
     </row>
-    <row r="205" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="12"/>
       <c r="B205" s="22"/>
       <c r="C205" s="4"/>
@@ -5939,7 +6032,7 @@
       <c r="I205" s="12"/>
       <c r="J205" s="12"/>
     </row>
-    <row r="206" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="12"/>
       <c r="B206" s="22"/>
       <c r="C206" s="4"/>
@@ -5951,7 +6044,7 @@
       <c r="I206" s="12"/>
       <c r="J206" s="12"/>
     </row>
-    <row r="207" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="12"/>
       <c r="B207" s="22"/>
       <c r="C207" s="4"/>
@@ -5963,7 +6056,7 @@
       <c r="I207" s="12"/>
       <c r="J207" s="12"/>
     </row>
-    <row r="208" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="12"/>
       <c r="B208" s="22"/>
       <c r="C208" s="4"/>
@@ -5975,7 +6068,7 @@
       <c r="I208" s="12"/>
       <c r="J208" s="12"/>
     </row>
-    <row r="209" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="12"/>
       <c r="B209" s="22"/>
       <c r="C209" s="4"/>
@@ -5987,7 +6080,7 @@
       <c r="I209" s="12"/>
       <c r="J209" s="12"/>
     </row>
-    <row r="210" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="12"/>
       <c r="B210" s="22"/>
       <c r="C210" s="4"/>
@@ -5999,7 +6092,7 @@
       <c r="I210" s="12"/>
       <c r="J210" s="12"/>
     </row>
-    <row r="211" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="12"/>
       <c r="B211" s="22"/>
       <c r="C211" s="4"/>
@@ -6011,7 +6104,7 @@
       <c r="I211" s="12"/>
       <c r="J211" s="12"/>
     </row>
-    <row r="212" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="12"/>
       <c r="B212" s="22"/>
       <c r="C212" s="4"/>
@@ -6023,7 +6116,7 @@
       <c r="I212" s="12"/>
       <c r="J212" s="12"/>
     </row>
-    <row r="213" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="12"/>
       <c r="B213" s="22"/>
       <c r="C213" s="4"/>
@@ -6035,7 +6128,7 @@
       <c r="I213" s="12"/>
       <c r="J213" s="12"/>
     </row>
-    <row r="214" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="12"/>
       <c r="B214" s="22"/>
       <c r="C214" s="4"/>
@@ -6047,7 +6140,7 @@
       <c r="I214" s="12"/>
       <c r="J214" s="12"/>
     </row>
-    <row r="215" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="12"/>
       <c r="B215" s="22"/>
       <c r="C215" s="4"/>
@@ -6059,7 +6152,7 @@
       <c r="I215" s="12"/>
       <c r="J215" s="12"/>
     </row>
-    <row r="216" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="12"/>
       <c r="B216" s="22"/>
       <c r="C216" s="4"/>
@@ -6071,7 +6164,7 @@
       <c r="I216" s="12"/>
       <c r="J216" s="12"/>
     </row>
-    <row r="217" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="12"/>
       <c r="B217" s="22"/>
       <c r="C217" s="4"/>
@@ -6083,7 +6176,7 @@
       <c r="I217" s="12"/>
       <c r="J217" s="12"/>
     </row>
-    <row r="218" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="12"/>
       <c r="B218" s="22"/>
       <c r="C218" s="4"/>
@@ -6095,7 +6188,7 @@
       <c r="I218" s="12"/>
       <c r="J218" s="12"/>
     </row>
-    <row r="219" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="12"/>
       <c r="B219" s="22"/>
       <c r="C219" s="4"/>
@@ -6107,7 +6200,7 @@
       <c r="I219" s="12"/>
       <c r="J219" s="12"/>
     </row>
-    <row r="220" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="12"/>
       <c r="B220" s="22"/>
       <c r="C220" s="4"/>
@@ -6119,7 +6212,7 @@
       <c r="I220" s="12"/>
       <c r="J220" s="12"/>
     </row>
-    <row r="221" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="12"/>
       <c r="B221" s="22"/>
       <c r="C221" s="4"/>
@@ -6131,7 +6224,7 @@
       <c r="I221" s="12"/>
       <c r="J221" s="12"/>
     </row>
-    <row r="222" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="222" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="12"/>
       <c r="B222" s="22"/>
       <c r="C222" s="4"/>
@@ -6143,7 +6236,7 @@
       <c r="I222" s="12"/>
       <c r="J222" s="12"/>
     </row>
-    <row r="223" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="12"/>
       <c r="B223" s="22"/>
       <c r="C223" s="4"/>
@@ -6155,7 +6248,7 @@
       <c r="I223" s="12"/>
       <c r="J223" s="12"/>
     </row>
-    <row r="224" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="12"/>
       <c r="B224" s="22"/>
       <c r="C224" s="4"/>
@@ -6167,7 +6260,7 @@
       <c r="I224" s="12"/>
       <c r="J224" s="12"/>
     </row>
-    <row r="225" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="225" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="12"/>
       <c r="B225" s="22"/>
       <c r="C225" s="4"/>
@@ -6179,7 +6272,7 @@
       <c r="I225" s="12"/>
       <c r="J225" s="12"/>
     </row>
-    <row r="226" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="226" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="12"/>
       <c r="B226" s="22"/>
       <c r="C226" s="4"/>
@@ -6191,7 +6284,7 @@
       <c r="I226" s="12"/>
       <c r="J226" s="12"/>
     </row>
-    <row r="227" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="227" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="12"/>
       <c r="B227" s="22"/>
       <c r="C227" s="4"/>
@@ -6203,7 +6296,7 @@
       <c r="I227" s="12"/>
       <c r="J227" s="12"/>
     </row>
-    <row r="228" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="228" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="12"/>
       <c r="B228" s="22"/>
       <c r="C228" s="4"/>
@@ -6215,7 +6308,7 @@
       <c r="I228" s="12"/>
       <c r="J228" s="12"/>
     </row>
-    <row r="229" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="229" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="12"/>
       <c r="B229" s="22"/>
       <c r="C229" s="4"/>
@@ -6227,7 +6320,7 @@
       <c r="I229" s="12"/>
       <c r="J229" s="12"/>
     </row>
-    <row r="230" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="230" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="12"/>
       <c r="B230" s="22"/>
       <c r="C230" s="4"/>
@@ -6239,7 +6332,7 @@
       <c r="I230" s="12"/>
       <c r="J230" s="12"/>
     </row>
-    <row r="231" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="231" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="12"/>
       <c r="B231" s="22"/>
       <c r="C231" s="4"/>
@@ -6251,7 +6344,7 @@
       <c r="I231" s="12"/>
       <c r="J231" s="12"/>
     </row>
-    <row r="232" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="232" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="12"/>
       <c r="B232" s="22"/>
       <c r="C232" s="4"/>
@@ -6263,7 +6356,7 @@
       <c r="I232" s="12"/>
       <c r="J232" s="12"/>
     </row>
-    <row r="233" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="233" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="12"/>
       <c r="B233" s="22"/>
       <c r="C233" s="4"/>
@@ -6275,7 +6368,7 @@
       <c r="I233" s="12"/>
       <c r="J233" s="12"/>
     </row>
-    <row r="234" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="234" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="12"/>
       <c r="B234" s="22"/>
       <c r="C234" s="4"/>
@@ -6287,7 +6380,7 @@
       <c r="I234" s="12"/>
       <c r="J234" s="12"/>
     </row>
-    <row r="235" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="12"/>
       <c r="B235" s="22"/>
       <c r="C235" s="4"/>
@@ -6299,7 +6392,7 @@
       <c r="I235" s="12"/>
       <c r="J235" s="12"/>
     </row>
-    <row r="236" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="236" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="12"/>
       <c r="B236" s="22"/>
       <c r="C236" s="4"/>
@@ -6311,7 +6404,7 @@
       <c r="I236" s="12"/>
       <c r="J236" s="12"/>
     </row>
-    <row r="237" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="237" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="12"/>
       <c r="B237" s="22"/>
       <c r="C237" s="4"/>
@@ -6323,7 +6416,7 @@
       <c r="I237" s="12"/>
       <c r="J237" s="12"/>
     </row>
-    <row r="238" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="12"/>
       <c r="B238" s="22"/>
       <c r="C238" s="4"/>
@@ -6335,7 +6428,7 @@
       <c r="I238" s="12"/>
       <c r="J238" s="12"/>
     </row>
-    <row r="239" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="239" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="12"/>
       <c r="B239" s="22"/>
       <c r="C239" s="4"/>
@@ -6347,7 +6440,7 @@
       <c r="I239" s="12"/>
       <c r="J239" s="12"/>
     </row>
-    <row r="240" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="240" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="12"/>
       <c r="B240" s="22"/>
       <c r="C240" s="4"/>
@@ -6359,7 +6452,7 @@
       <c r="I240" s="12"/>
       <c r="J240" s="12"/>
     </row>
-    <row r="241" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="12"/>
       <c r="B241" s="22"/>
       <c r="C241" s="4"/>
@@ -6371,7 +6464,7 @@
       <c r="I241" s="12"/>
       <c r="J241" s="12"/>
     </row>
-    <row r="242" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="242" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="12"/>
       <c r="B242" s="22"/>
       <c r="C242" s="4"/>
@@ -6383,7 +6476,7 @@
       <c r="I242" s="12"/>
       <c r="J242" s="12"/>
     </row>
-    <row r="243" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="243" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="12"/>
       <c r="B243" s="22"/>
       <c r="C243" s="4"/>
@@ -6395,7 +6488,7 @@
       <c r="I243" s="12"/>
       <c r="J243" s="12"/>
     </row>
-    <row r="244" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="244" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="12"/>
       <c r="B244" s="22"/>
       <c r="C244" s="4"/>
@@ -6407,7 +6500,7 @@
       <c r="I244" s="12"/>
       <c r="J244" s="12"/>
     </row>
-    <row r="245" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="245" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="12"/>
       <c r="B245" s="22"/>
       <c r="C245" s="4"/>
@@ -6419,7 +6512,7 @@
       <c r="I245" s="12"/>
       <c r="J245" s="12"/>
     </row>
-    <row r="246" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="246" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="12"/>
       <c r="B246" s="22"/>
       <c r="C246" s="4"/>
@@ -6431,7 +6524,7 @@
       <c r="I246" s="12"/>
       <c r="J246" s="12"/>
     </row>
-    <row r="247" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="247" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="12"/>
       <c r="B247" s="22"/>
       <c r="C247" s="4"/>
@@ -6443,7 +6536,7 @@
       <c r="I247" s="12"/>
       <c r="J247" s="12"/>
     </row>
-    <row r="248" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="248" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="12"/>
       <c r="B248" s="22"/>
       <c r="C248" s="4"/>
@@ -6455,7 +6548,7 @@
       <c r="I248" s="12"/>
       <c r="J248" s="12"/>
     </row>
-    <row r="249" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="249" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="12"/>
       <c r="B249" s="22"/>
       <c r="C249" s="4"/>
@@ -6467,7 +6560,7 @@
       <c r="I249" s="12"/>
       <c r="J249" s="12"/>
     </row>
-    <row r="250" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="250" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="12"/>
       <c r="B250" s="22"/>
       <c r="C250" s="4"/>
@@ -6479,7 +6572,7 @@
       <c r="I250" s="12"/>
       <c r="J250" s="12"/>
     </row>
-    <row r="251" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="251" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="12"/>
       <c r="B251" s="22"/>
       <c r="C251" s="4"/>
@@ -6491,7 +6584,7 @@
       <c r="I251" s="12"/>
       <c r="J251" s="12"/>
     </row>
-    <row r="252" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="252" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="12"/>
       <c r="B252" s="22"/>
       <c r="C252" s="4"/>
@@ -6503,7 +6596,7 @@
       <c r="I252" s="12"/>
       <c r="J252" s="12"/>
     </row>
-    <row r="253" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="253" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="12"/>
       <c r="B253" s="22"/>
       <c r="C253" s="4"/>
@@ -6515,7 +6608,7 @@
       <c r="I253" s="12"/>
       <c r="J253" s="12"/>
     </row>
-    <row r="254" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="254" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="12"/>
       <c r="B254" s="22"/>
       <c r="C254" s="4"/>
@@ -6527,7 +6620,7 @@
       <c r="I254" s="12"/>
       <c r="J254" s="12"/>
     </row>
-    <row r="255" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="255" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="12"/>
       <c r="B255" s="22"/>
       <c r="C255" s="4"/>
@@ -6539,7 +6632,7 @@
       <c r="I255" s="12"/>
       <c r="J255" s="12"/>
     </row>
-    <row r="256" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="256" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="12"/>
       <c r="B256" s="22"/>
       <c r="C256" s="4"/>
@@ -6551,7 +6644,7 @@
       <c r="I256" s="12"/>
       <c r="J256" s="12"/>
     </row>
-    <row r="257" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="257" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="12"/>
       <c r="B257" s="22"/>
       <c r="C257" s="4"/>
@@ -6563,7 +6656,7 @@
       <c r="I257" s="12"/>
       <c r="J257" s="12"/>
     </row>
-    <row r="258" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="258" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="12"/>
       <c r="B258" s="22"/>
       <c r="C258" s="4"/>
@@ -6575,7 +6668,7 @@
       <c r="I258" s="12"/>
       <c r="J258" s="12"/>
     </row>
-    <row r="259" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="259" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="12"/>
       <c r="B259" s="22"/>
       <c r="C259" s="4"/>
@@ -6587,7 +6680,7 @@
       <c r="I259" s="12"/>
       <c r="J259" s="12"/>
     </row>
-    <row r="260" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="260" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="12"/>
       <c r="B260" s="22"/>
       <c r="C260" s="4"/>
@@ -6599,7 +6692,7 @@
       <c r="I260" s="12"/>
       <c r="J260" s="12"/>
     </row>
-    <row r="261" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="261" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="12"/>
       <c r="B261" s="22"/>
       <c r="C261" s="4"/>
@@ -6611,7 +6704,7 @@
       <c r="I261" s="12"/>
       <c r="J261" s="12"/>
     </row>
-    <row r="262" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="262" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="12"/>
       <c r="B262" s="22"/>
       <c r="C262" s="4"/>
@@ -6623,7 +6716,7 @@
       <c r="I262" s="12"/>
       <c r="J262" s="12"/>
     </row>
-    <row r="263" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="263" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="12"/>
       <c r="B263" s="22"/>
       <c r="C263" s="4"/>
@@ -6635,7 +6728,7 @@
       <c r="I263" s="12"/>
       <c r="J263" s="12"/>
     </row>
-    <row r="264" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="264" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="12"/>
       <c r="B264" s="22"/>
       <c r="C264" s="4"/>
@@ -6647,7 +6740,7 @@
       <c r="I264" s="12"/>
       <c r="J264" s="12"/>
     </row>
-    <row r="265" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="265" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="12"/>
       <c r="B265" s="22"/>
       <c r="C265" s="4"/>
@@ -6659,7 +6752,7 @@
       <c r="I265" s="12"/>
       <c r="J265" s="12"/>
     </row>
-    <row r="266" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="266" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="12"/>
       <c r="B266" s="22"/>
       <c r="C266" s="4"/>
@@ -6671,7 +6764,7 @@
       <c r="I266" s="12"/>
       <c r="J266" s="12"/>
     </row>
-    <row r="267" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="267" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="12"/>
       <c r="B267" s="22"/>
       <c r="C267" s="4"/>
@@ -6683,7 +6776,7 @@
       <c r="I267" s="12"/>
       <c r="J267" s="12"/>
     </row>
-    <row r="268" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="268" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="12"/>
       <c r="B268" s="22"/>
       <c r="C268" s="4"/>
@@ -6695,7 +6788,7 @@
       <c r="I268" s="12"/>
       <c r="J268" s="12"/>
     </row>
-    <row r="269" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="269" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="12"/>
       <c r="B269" s="22"/>
       <c r="C269" s="4"/>
@@ -6707,7 +6800,7 @@
       <c r="I269" s="12"/>
       <c r="J269" s="12"/>
     </row>
-    <row r="270" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="270" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="12"/>
       <c r="B270" s="22"/>
       <c r="C270" s="4"/>
@@ -6719,7 +6812,7 @@
       <c r="I270" s="12"/>
       <c r="J270" s="12"/>
     </row>
-    <row r="271" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="271" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="12"/>
       <c r="B271" s="22"/>
       <c r="C271" s="4"/>
@@ -6731,7 +6824,7 @@
       <c r="I271" s="12"/>
       <c r="J271" s="12"/>
     </row>
-    <row r="272" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="272" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="12"/>
       <c r="B272" s="22"/>
       <c r="C272" s="4"/>
@@ -6743,7 +6836,7 @@
       <c r="I272" s="12"/>
       <c r="J272" s="12"/>
     </row>
-    <row r="273" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="273" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="12"/>
       <c r="B273" s="22"/>
       <c r="C273" s="4"/>
@@ -6755,7 +6848,7 @@
       <c r="I273" s="12"/>
       <c r="J273" s="12"/>
     </row>
-    <row r="274" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="274" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="12"/>
       <c r="B274" s="22"/>
       <c r="C274" s="4"/>
@@ -6767,7 +6860,7 @@
       <c r="I274" s="12"/>
       <c r="J274" s="12"/>
     </row>
-    <row r="275" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="275" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="12"/>
       <c r="B275" s="22"/>
       <c r="C275" s="4"/>
@@ -6779,7 +6872,7 @@
       <c r="I275" s="12"/>
       <c r="J275" s="12"/>
     </row>
-    <row r="276" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="276" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="12"/>
       <c r="B276" s="22"/>
       <c r="C276" s="4"/>
@@ -6791,7 +6884,7 @@
       <c r="I276" s="12"/>
       <c r="J276" s="12"/>
     </row>
-    <row r="277" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="277" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="12"/>
       <c r="B277" s="22"/>
       <c r="C277" s="4"/>
@@ -6803,7 +6896,7 @@
       <c r="I277" s="12"/>
       <c r="J277" s="12"/>
     </row>
-    <row r="278" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="278" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="12"/>
       <c r="B278" s="22"/>
       <c r="C278" s="4"/>
@@ -6815,7 +6908,7 @@
       <c r="I278" s="12"/>
       <c r="J278" s="12"/>
     </row>
-    <row r="279" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="279" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="12"/>
       <c r="B279" s="22"/>
       <c r="C279" s="4"/>
@@ -6827,7 +6920,7 @@
       <c r="I279" s="12"/>
       <c r="J279" s="12"/>
     </row>
-    <row r="280" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="280" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" s="12"/>
       <c r="B280" s="22"/>
       <c r="C280" s="4"/>
@@ -6839,7 +6932,7 @@
       <c r="I280" s="12"/>
       <c r="J280" s="12"/>
     </row>
-    <row r="281" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="281" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" s="12"/>
       <c r="B281" s="22"/>
       <c r="C281" s="4"/>
@@ -6851,7 +6944,7 @@
       <c r="I281" s="12"/>
       <c r="J281" s="12"/>
     </row>
-    <row r="282" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="282" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" s="12"/>
       <c r="B282" s="22"/>
       <c r="C282" s="4"/>
@@ -6863,7 +6956,7 @@
       <c r="I282" s="12"/>
       <c r="J282" s="12"/>
     </row>
-    <row r="283" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="283" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="12"/>
       <c r="B283" s="22"/>
       <c r="C283" s="4"/>
@@ -6875,7 +6968,7 @@
       <c r="I283" s="12"/>
       <c r="J283" s="12"/>
     </row>
-    <row r="284" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="284" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="12"/>
       <c r="B284" s="22"/>
       <c r="C284" s="4"/>
@@ -6887,7 +6980,7 @@
       <c r="I284" s="12"/>
       <c r="J284" s="12"/>
     </row>
-    <row r="285" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="285" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" s="12"/>
       <c r="B285" s="22"/>
       <c r="C285" s="4"/>
@@ -6899,7 +6992,7 @@
       <c r="I285" s="12"/>
       <c r="J285" s="12"/>
     </row>
-    <row r="286" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="286" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A286" s="12"/>
       <c r="B286" s="22"/>
       <c r="C286" s="4"/>
@@ -6911,7 +7004,7 @@
       <c r="I286" s="12"/>
       <c r="J286" s="12"/>
     </row>
-    <row r="287" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="287" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" s="12"/>
       <c r="B287" s="22"/>
       <c r="C287" s="4"/>
@@ -6923,7 +7016,7 @@
       <c r="I287" s="12"/>
       <c r="J287" s="12"/>
     </row>
-    <row r="288" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="288" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" s="12"/>
       <c r="B288" s="22"/>
       <c r="C288" s="4"/>
@@ -6935,7 +7028,7 @@
       <c r="I288" s="12"/>
       <c r="J288" s="12"/>
     </row>
-    <row r="289" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="289" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" s="12"/>
       <c r="B289" s="22"/>
       <c r="C289" s="4"/>
@@ -6947,7 +7040,7 @@
       <c r="I289" s="12"/>
       <c r="J289" s="12"/>
     </row>
-    <row r="290" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="290" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A290" s="12"/>
       <c r="B290" s="22"/>
       <c r="C290" s="4"/>
@@ -6959,7 +7052,7 @@
       <c r="I290" s="12"/>
       <c r="J290" s="12"/>
     </row>
-    <row r="291" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="291" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" s="12"/>
       <c r="B291" s="22"/>
       <c r="C291" s="4"/>
@@ -6973,14 +7066,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B55:B60"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="B139:B140"/>
-    <mergeCell ref="B38:B47"/>
-    <mergeCell ref="B48:B52"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="A138:J138"/>
-    <mergeCell ref="B108:B110"/>
     <mergeCell ref="B29:B37"/>
     <mergeCell ref="B64:B72"/>
     <mergeCell ref="B2:B28"/>
@@ -6997,6 +7082,14 @@
     <mergeCell ref="B129:B131"/>
     <mergeCell ref="B133:B137"/>
     <mergeCell ref="B143:B144"/>
+    <mergeCell ref="B55:B60"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="B139:B140"/>
+    <mergeCell ref="B38:B47"/>
+    <mergeCell ref="B48:B52"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="A138:J138"/>
+    <mergeCell ref="B108:B110"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I44">

--- a/ProjectManagement/文档/问题点一览.xlsx
+++ b/ProjectManagement/文档/问题点一览.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8025"/>
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="240">
   <si>
     <t>NO</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -577,10 +577,6 @@
   </si>
   <si>
     <t>朱冠军</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>进行中</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -961,14 +957,22 @@
   </si>
   <si>
     <t>程梦佳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>朱冠军</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1261,19 +1265,7 @@
     <xf numFmtId="14" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1284,6 +1276,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1406,7 +1410,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1438,10 +1442,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1473,7 +1476,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1649,14 +1651,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K291"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="C67" sqref="C67"/>
+    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
+      <selection activeCell="I145" sqref="I145"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="22.15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="22.15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="4" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.875" style="23" customWidth="1"/>
@@ -1672,7 +1674,7 @@
     <col min="12" max="16384" width="8.875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" ht="22.15" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1704,11 +1706,11 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" ht="22.15" customHeight="1">
       <c r="A2" s="13">
         <v>1</v>
       </c>
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="49" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -1722,7 +1724,7 @@
       </c>
       <c r="F2" s="12"/>
       <c r="G2" s="12" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H2" s="14">
         <v>42826</v>
@@ -1732,11 +1734,11 @@
       </c>
       <c r="J2" s="12"/>
     </row>
-    <row r="3" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" ht="27">
       <c r="A3" s="13">
         <v>2</v>
       </c>
-      <c r="B3" s="46"/>
+      <c r="B3" s="50"/>
       <c r="C3" s="4" t="s">
         <v>51</v>
       </c>
@@ -1758,11 +1760,11 @@
       </c>
       <c r="J3" s="12"/>
     </row>
-    <row r="4" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" ht="27">
       <c r="A4" s="13">
         <v>3</v>
       </c>
-      <c r="B4" s="46"/>
+      <c r="B4" s="50"/>
       <c r="C4" s="4" t="s">
         <v>52</v>
       </c>
@@ -1784,11 +1786,11 @@
       </c>
       <c r="J4" s="12"/>
     </row>
-    <row r="5" spans="1:11" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" ht="22.15" customHeight="1">
       <c r="A5" s="13">
         <v>4</v>
       </c>
-      <c r="B5" s="46"/>
+      <c r="B5" s="50"/>
       <c r="C5" s="4" t="s">
         <v>13</v>
       </c>
@@ -1810,11 +1812,11 @@
       </c>
       <c r="J5" s="12"/>
     </row>
-    <row r="6" spans="1:11" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11" ht="22.15" customHeight="1">
       <c r="A6" s="13">
         <v>5</v>
       </c>
-      <c r="B6" s="46"/>
+      <c r="B6" s="50"/>
       <c r="C6" s="4" t="s">
         <v>53</v>
       </c>
@@ -1836,11 +1838,11 @@
       </c>
       <c r="J6" s="12"/>
     </row>
-    <row r="7" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11" ht="27">
       <c r="A7" s="13">
         <v>6</v>
       </c>
-      <c r="B7" s="46"/>
+      <c r="B7" s="50"/>
       <c r="C7" s="4" t="s">
         <v>16</v>
       </c>
@@ -1862,11 +1864,11 @@
       </c>
       <c r="J7" s="12"/>
     </row>
-    <row r="8" spans="1:11" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11" ht="22.15" customHeight="1">
       <c r="A8" s="13">
         <v>7</v>
       </c>
-      <c r="B8" s="46"/>
+      <c r="B8" s="50"/>
       <c r="C8" s="4" t="s">
         <v>14</v>
       </c>
@@ -1888,11 +1890,11 @@
       </c>
       <c r="J8" s="12"/>
     </row>
-    <row r="9" spans="1:11" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:11" ht="22.15" customHeight="1">
       <c r="A9" s="13">
         <v>8</v>
       </c>
-      <c r="B9" s="46"/>
+      <c r="B9" s="50"/>
       <c r="C9" s="4" t="s">
         <v>17</v>
       </c>
@@ -1914,13 +1916,13 @@
       </c>
       <c r="J9" s="12"/>
     </row>
-    <row r="10" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11" ht="27">
       <c r="A10" s="13">
         <v>9</v>
       </c>
-      <c r="B10" s="46"/>
+      <c r="B10" s="50"/>
       <c r="C10" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>10</v>
@@ -1947,11 +1949,11 @@
         <v>108</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11" ht="22.15" customHeight="1">
       <c r="A11" s="13">
         <v>10</v>
       </c>
-      <c r="B11" s="46"/>
+      <c r="B11" s="50"/>
       <c r="C11" s="4" t="s">
         <v>48</v>
       </c>
@@ -1973,11 +1975,11 @@
       </c>
       <c r="J11" s="12"/>
     </row>
-    <row r="12" spans="1:11" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:11" ht="22.15" customHeight="1">
       <c r="A12" s="13">
         <v>11</v>
       </c>
-      <c r="B12" s="46"/>
+      <c r="B12" s="50"/>
       <c r="C12" s="4" t="s">
         <v>107</v>
       </c>
@@ -1999,11 +2001,11 @@
       </c>
       <c r="J12" s="12"/>
     </row>
-    <row r="13" spans="1:11" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:11" ht="22.15" customHeight="1">
       <c r="A13" s="13">
         <v>12</v>
       </c>
-      <c r="B13" s="46"/>
+      <c r="B13" s="50"/>
       <c r="C13" s="4" t="s">
         <v>110</v>
       </c>
@@ -2025,11 +2027,11 @@
       </c>
       <c r="J13" s="12"/>
     </row>
-    <row r="14" spans="1:11" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:11" ht="22.15" customHeight="1">
       <c r="A14" s="13">
         <v>13</v>
       </c>
-      <c r="B14" s="46"/>
+      <c r="B14" s="50"/>
       <c r="C14" s="4" t="s">
         <v>109</v>
       </c>
@@ -2051,11 +2053,11 @@
       </c>
       <c r="J14" s="12"/>
     </row>
-    <row r="15" spans="1:11" s="16" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:11" s="16" customFormat="1" ht="27">
       <c r="A15" s="13">
         <v>14</v>
       </c>
-      <c r="B15" s="46"/>
+      <c r="B15" s="50"/>
       <c r="C15" s="6" t="s">
         <v>138</v>
       </c>
@@ -2077,13 +2079,13 @@
       </c>
       <c r="J15" s="7"/>
     </row>
-    <row r="16" spans="1:11" s="16" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:11" s="16" customFormat="1" ht="40.5">
       <c r="A16" s="13">
         <v>15</v>
       </c>
-      <c r="B16" s="46"/>
+      <c r="B16" s="50"/>
       <c r="C16" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D16" s="7" t="s">
         <v>10</v>
@@ -2106,13 +2108,13 @@
         <v>125</v>
       </c>
     </row>
-    <row r="17" spans="1:11" s="16" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:11" s="16" customFormat="1" ht="27">
       <c r="A17" s="13">
         <v>16</v>
       </c>
-      <c r="B17" s="46"/>
+      <c r="B17" s="50"/>
       <c r="C17" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D17" s="7" t="s">
         <v>10</v>
@@ -2132,13 +2134,13 @@
       </c>
       <c r="J17" s="7"/>
     </row>
-    <row r="18" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:11" ht="27">
       <c r="A18" s="13">
         <v>17</v>
       </c>
-      <c r="B18" s="46"/>
+      <c r="B18" s="50"/>
       <c r="C18" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D18" s="7" t="s">
         <v>10</v>
@@ -2159,13 +2161,13 @@
       <c r="J18" s="18"/>
       <c r="K18" s="16"/>
     </row>
-    <row r="19" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:11" ht="18" customHeight="1">
       <c r="A19" s="32">
         <v>18</v>
       </c>
-      <c r="B19" s="46"/>
+      <c r="B19" s="50"/>
       <c r="C19" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>10</v>
@@ -2186,13 +2188,13 @@
       <c r="J19" s="18"/>
       <c r="K19" s="16"/>
     </row>
-    <row r="20" spans="1:11" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:11" ht="22.15" customHeight="1">
       <c r="A20" s="32">
         <v>19</v>
       </c>
-      <c r="B20" s="46"/>
+      <c r="B20" s="50"/>
       <c r="C20" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D20" s="7" t="s">
         <v>10</v>
@@ -2202,7 +2204,7 @@
       </c>
       <c r="F20" s="18"/>
       <c r="G20" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H20" s="15">
         <v>42887</v>
@@ -2213,23 +2215,23 @@
       <c r="J20" s="18"/>
       <c r="K20" s="16"/>
     </row>
-    <row r="21" spans="1:11" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:11" ht="13.5">
       <c r="A21" s="32">
         <v>20</v>
       </c>
-      <c r="B21" s="46"/>
+      <c r="B21" s="50"/>
       <c r="C21" s="37" t="s">
+        <v>170</v>
+      </c>
+      <c r="D21" s="38" t="s">
         <v>171</v>
-      </c>
-      <c r="D21" s="38" t="s">
-        <v>172</v>
       </c>
       <c r="E21" s="39">
         <v>42887</v>
       </c>
       <c r="F21" s="18"/>
       <c r="G21" s="29" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H21" s="33">
         <v>42888</v>
@@ -2240,16 +2242,16 @@
       <c r="J21" s="18"/>
       <c r="K21" s="16"/>
     </row>
-    <row r="22" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:11" ht="27">
       <c r="A22" s="32">
         <v>21</v>
       </c>
-      <c r="B22" s="46"/>
+      <c r="B22" s="50"/>
       <c r="C22" s="40" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D22" s="38" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E22" s="39">
         <v>42887</v>
@@ -2267,23 +2269,23 @@
       <c r="J22" s="18"/>
       <c r="K22" s="16"/>
     </row>
-    <row r="23" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:11" ht="27">
       <c r="A23" s="32">
         <v>22</v>
       </c>
-      <c r="B23" s="46"/>
+      <c r="B23" s="50"/>
       <c r="C23" s="40" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D23" s="38" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E23" s="39">
         <v>42887</v>
       </c>
       <c r="F23" s="18"/>
       <c r="G23" s="29" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H23" s="33">
         <v>42893</v>
@@ -2294,13 +2296,13 @@
       <c r="J23" s="18"/>
       <c r="K23" s="16"/>
     </row>
-    <row r="24" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:11" ht="27">
       <c r="A24" s="32">
         <v>23</v>
       </c>
-      <c r="B24" s="46"/>
+      <c r="B24" s="50"/>
       <c r="C24" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D24" s="7" t="s">
         <v>10</v>
@@ -2321,13 +2323,13 @@
       <c r="J24" s="18"/>
       <c r="K24" s="16"/>
     </row>
-    <row r="25" spans="1:11" s="28" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:11" s="28" customFormat="1" ht="40.5">
       <c r="A25" s="32">
         <v>24</v>
       </c>
-      <c r="B25" s="46"/>
+      <c r="B25" s="50"/>
       <c r="C25" s="30" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D25" s="29" t="s">
         <v>10</v>
@@ -2337,7 +2339,7 @@
       </c>
       <c r="F25" s="36"/>
       <c r="G25" s="29" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H25" s="33">
         <v>42888</v>
@@ -2348,13 +2350,13 @@
       <c r="J25" s="36"/>
       <c r="K25" s="34"/>
     </row>
-    <row r="26" spans="1:11" s="28" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:11" s="28" customFormat="1" ht="27">
       <c r="A26" s="32">
         <v>25</v>
       </c>
-      <c r="B26" s="46"/>
+      <c r="B26" s="50"/>
       <c r="C26" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D26" s="29" t="s">
         <v>56</v>
@@ -2364,7 +2366,7 @@
       </c>
       <c r="F26" s="29"/>
       <c r="G26" s="29" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H26" s="33">
         <v>42888</v>
@@ -2375,13 +2377,13 @@
       <c r="J26" s="36"/>
       <c r="K26" s="34"/>
     </row>
-    <row r="27" spans="1:11" s="34" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:11" s="34" customFormat="1" ht="13.5">
       <c r="A27" s="32">
         <v>26</v>
       </c>
-      <c r="B27" s="46"/>
+      <c r="B27" s="50"/>
       <c r="C27" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D27" s="29" t="s">
         <v>10</v>
@@ -2401,13 +2403,13 @@
       </c>
       <c r="J27" s="29"/>
     </row>
-    <row r="28" spans="1:11" s="34" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:11" s="34" customFormat="1" ht="13.5">
       <c r="A28" s="32">
         <v>27</v>
       </c>
-      <c r="B28" s="47"/>
+      <c r="B28" s="51"/>
       <c r="C28" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D28" s="29" t="s">
         <v>10</v>
@@ -2427,11 +2429,11 @@
       </c>
       <c r="J28" s="29"/>
     </row>
-    <row r="29" spans="1:11" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:11" ht="22.15" customHeight="1">
       <c r="A29" s="32">
         <v>28</v>
       </c>
-      <c r="B29" s="45" t="s">
+      <c r="B29" s="49" t="s">
         <v>12</v>
       </c>
       <c r="C29" s="4" t="s">
@@ -2455,11 +2457,11 @@
       </c>
       <c r="J29" s="12"/>
     </row>
-    <row r="30" spans="1:11" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:11" ht="22.15" customHeight="1">
       <c r="A30" s="32">
         <v>29</v>
       </c>
-      <c r="B30" s="46"/>
+      <c r="B30" s="50"/>
       <c r="C30" s="4" t="s">
         <v>17</v>
       </c>
@@ -2481,11 +2483,11 @@
       </c>
       <c r="J30" s="12"/>
     </row>
-    <row r="31" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:11" ht="27">
       <c r="A31" s="32">
         <v>30</v>
       </c>
-      <c r="B31" s="46"/>
+      <c r="B31" s="50"/>
       <c r="C31" s="4" t="s">
         <v>18</v>
       </c>
@@ -2507,11 +2509,11 @@
       </c>
       <c r="J31" s="12"/>
     </row>
-    <row r="32" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:11" ht="19.5" customHeight="1">
       <c r="A32" s="32">
         <v>31</v>
       </c>
-      <c r="B32" s="46"/>
+      <c r="B32" s="50"/>
       <c r="C32" s="4" t="s">
         <v>106</v>
       </c>
@@ -2533,11 +2535,11 @@
       </c>
       <c r="J32" s="12"/>
     </row>
-    <row r="33" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:10" ht="27">
       <c r="A33" s="32">
         <v>32</v>
       </c>
-      <c r="B33" s="46"/>
+      <c r="B33" s="50"/>
       <c r="C33" s="4" t="s">
         <v>55</v>
       </c>
@@ -2559,13 +2561,13 @@
       </c>
       <c r="J33" s="12"/>
     </row>
-    <row r="34" spans="1:10" s="26" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:10" s="26" customFormat="1" ht="13.5">
       <c r="A34" s="32">
         <v>33</v>
       </c>
-      <c r="B34" s="46"/>
+      <c r="B34" s="50"/>
       <c r="C34" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D34" s="24" t="s">
         <v>10</v>
@@ -2575,7 +2577,7 @@
       </c>
       <c r="F34" s="12"/>
       <c r="G34" s="29" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H34" s="33">
         <v>42888</v>
@@ -2585,13 +2587,13 @@
       </c>
       <c r="J34" s="11"/>
     </row>
-    <row r="35" spans="1:10" s="26" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:10" s="26" customFormat="1" ht="40.5">
       <c r="A35" s="32">
         <v>34</v>
       </c>
-      <c r="B35" s="46"/>
+      <c r="B35" s="50"/>
       <c r="C35" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D35" s="24" t="s">
         <v>10</v>
@@ -2611,13 +2613,13 @@
       </c>
       <c r="J35" s="11"/>
     </row>
-    <row r="36" spans="1:10" s="26" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:10" s="26" customFormat="1" ht="27">
       <c r="A36" s="32">
         <v>35</v>
       </c>
-      <c r="B36" s="46"/>
+      <c r="B36" s="50"/>
       <c r="C36" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D36" s="24" t="s">
         <v>10</v>
@@ -2627,7 +2629,7 @@
       </c>
       <c r="F36" s="12"/>
       <c r="G36" s="29" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H36" s="33">
         <v>42888</v>
@@ -2637,16 +2639,16 @@
       </c>
       <c r="J36" s="11"/>
     </row>
-    <row r="37" spans="1:10" s="26" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:10" s="26" customFormat="1" ht="27">
       <c r="A37" s="32">
         <v>36</v>
       </c>
-      <c r="B37" s="47"/>
+      <c r="B37" s="51"/>
       <c r="C37" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D37" s="24" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E37" s="25">
         <v>42887</v>
@@ -2657,11 +2659,11 @@
       <c r="I37" s="11"/>
       <c r="J37" s="11"/>
     </row>
-    <row r="38" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:10" ht="40.5">
       <c r="A38" s="32">
         <v>37</v>
       </c>
-      <c r="B38" s="48" t="s">
+      <c r="B38" s="45" t="s">
         <v>19</v>
       </c>
       <c r="C38" s="4" t="s">
@@ -2687,11 +2689,11 @@
         <v>60</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:10" ht="27">
       <c r="A39" s="32">
         <v>38</v>
       </c>
-      <c r="B39" s="48"/>
+      <c r="B39" s="45"/>
       <c r="C39" s="4" t="s">
         <v>21</v>
       </c>
@@ -2713,11 +2715,11 @@
       </c>
       <c r="J39" s="12"/>
     </row>
-    <row r="40" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:10" ht="27">
       <c r="A40" s="32">
         <v>39</v>
       </c>
-      <c r="B40" s="48"/>
+      <c r="B40" s="45"/>
       <c r="C40" s="4" t="s">
         <v>71</v>
       </c>
@@ -2739,11 +2741,11 @@
       </c>
       <c r="J40" s="12"/>
     </row>
-    <row r="41" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:10" ht="22.15" customHeight="1">
       <c r="A41" s="32">
         <v>40</v>
       </c>
-      <c r="B41" s="48"/>
+      <c r="B41" s="45"/>
       <c r="C41" s="4" t="s">
         <v>90</v>
       </c>
@@ -2765,11 +2767,11 @@
       </c>
       <c r="J41" s="12"/>
     </row>
-    <row r="42" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:10" ht="27">
       <c r="A42" s="32">
         <v>41</v>
       </c>
-      <c r="B42" s="48"/>
+      <c r="B42" s="45"/>
       <c r="C42" s="4" t="s">
         <v>89</v>
       </c>
@@ -2791,11 +2793,11 @@
       </c>
       <c r="J42" s="12"/>
     </row>
-    <row r="43" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:10" ht="22.15" customHeight="1">
       <c r="A43" s="32">
         <v>42</v>
       </c>
-      <c r="B43" s="48"/>
+      <c r="B43" s="45"/>
       <c r="C43" s="4" t="s">
         <v>94</v>
       </c>
@@ -2817,11 +2819,11 @@
       </c>
       <c r="J43" s="12"/>
     </row>
-    <row r="44" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:10" ht="27">
       <c r="A44" s="32">
         <v>43</v>
       </c>
-      <c r="B44" s="48"/>
+      <c r="B44" s="45"/>
       <c r="C44" s="4" t="s">
         <v>96</v>
       </c>
@@ -2843,13 +2845,13 @@
       </c>
       <c r="J44" s="12"/>
     </row>
-    <row r="45" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:10" ht="27">
       <c r="A45" s="32">
         <v>44</v>
       </c>
-      <c r="B45" s="48"/>
+      <c r="B45" s="45"/>
       <c r="C45" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D45" s="12" t="s">
         <v>10</v>
@@ -2858,7 +2860,7 @@
         <v>42886</v>
       </c>
       <c r="F45" s="12" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G45" s="11" t="s">
         <v>49</v>
@@ -2867,15 +2869,15 @@
         <v>42887</v>
       </c>
       <c r="I45" s="11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J45" s="12"/>
     </row>
-    <row r="46" spans="1:10" s="16" customFormat="1" ht="54" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:10" s="16" customFormat="1" ht="54">
       <c r="A46" s="32">
         <v>45</v>
       </c>
-      <c r="B46" s="48"/>
+      <c r="B46" s="45"/>
       <c r="C46" s="6" t="s">
         <v>137</v>
       </c>
@@ -2897,11 +2899,11 @@
       </c>
       <c r="J46" s="7"/>
     </row>
-    <row r="47" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:10" ht="22.15" customHeight="1">
       <c r="A47" s="32">
         <v>46</v>
       </c>
-      <c r="B47" s="48"/>
+      <c r="B47" s="45"/>
       <c r="C47" s="4" t="s">
         <v>22</v>
       </c>
@@ -2923,11 +2925,11 @@
       </c>
       <c r="J47" s="12"/>
     </row>
-    <row r="48" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:10" ht="22.15" customHeight="1">
       <c r="A48" s="32">
         <v>47</v>
       </c>
-      <c r="B48" s="48" t="s">
+      <c r="B48" s="45" t="s">
         <v>23</v>
       </c>
       <c r="C48" s="4" t="s">
@@ -2951,11 +2953,11 @@
       </c>
       <c r="J48" s="12"/>
     </row>
-    <row r="49" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:10" ht="27">
       <c r="A49" s="32">
         <v>48</v>
       </c>
-      <c r="B49" s="48"/>
+      <c r="B49" s="45"/>
       <c r="C49" s="4" t="s">
         <v>92</v>
       </c>
@@ -2979,11 +2981,11 @@
       </c>
       <c r="J49" s="12"/>
     </row>
-    <row r="50" spans="1:10" s="16" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:10" s="16" customFormat="1" ht="22.15" customHeight="1">
       <c r="A50" s="32">
         <v>49</v>
       </c>
-      <c r="B50" s="48"/>
+      <c r="B50" s="45"/>
       <c r="C50" s="6" t="s">
         <v>91</v>
       </c>
@@ -3005,13 +3007,13 @@
       </c>
       <c r="J50" s="7"/>
     </row>
-    <row r="51" spans="1:10" s="16" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:10" s="16" customFormat="1" ht="22.15" customHeight="1">
       <c r="A51" s="32">
         <v>50</v>
       </c>
-      <c r="B51" s="48"/>
+      <c r="B51" s="45"/>
       <c r="C51" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D51" s="7" t="s">
         <v>10</v>
@@ -3021,7 +3023,7 @@
       </c>
       <c r="F51" s="7"/>
       <c r="G51" s="11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H51" s="2">
         <v>42887</v>
@@ -3031,11 +3033,11 @@
       </c>
       <c r="J51" s="7"/>
     </row>
-    <row r="52" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:10" ht="22.15" customHeight="1">
       <c r="A52" s="32">
         <v>51</v>
       </c>
-      <c r="B52" s="48"/>
+      <c r="B52" s="45"/>
       <c r="C52" s="4" t="s">
         <v>25</v>
       </c>
@@ -3057,11 +3059,11 @@
       </c>
       <c r="J52" s="12"/>
     </row>
-    <row r="53" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:10" ht="22.15" customHeight="1">
       <c r="A53" s="32">
         <v>52</v>
       </c>
-      <c r="B53" s="48" t="s">
+      <c r="B53" s="45" t="s">
         <v>26</v>
       </c>
       <c r="C53" s="4" t="s">
@@ -3085,11 +3087,11 @@
       </c>
       <c r="J53" s="12"/>
     </row>
-    <row r="54" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:10" ht="22.15" customHeight="1">
       <c r="A54" s="32">
         <v>53</v>
       </c>
-      <c r="B54" s="48"/>
+      <c r="B54" s="45"/>
       <c r="C54" s="4" t="s">
         <v>28</v>
       </c>
@@ -3111,11 +3113,11 @@
       </c>
       <c r="J54" s="12"/>
     </row>
-    <row r="55" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:10" ht="22.15" customHeight="1">
       <c r="A55" s="32">
         <v>54</v>
       </c>
-      <c r="B55" s="48" t="s">
+      <c r="B55" s="45" t="s">
         <v>29</v>
       </c>
       <c r="C55" s="4" t="s">
@@ -3139,11 +3141,11 @@
       </c>
       <c r="J55" s="12"/>
     </row>
-    <row r="56" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:10" ht="27">
       <c r="A56" s="32">
         <v>55</v>
       </c>
-      <c r="B56" s="48"/>
+      <c r="B56" s="45"/>
       <c r="C56" s="4" t="s">
         <v>62</v>
       </c>
@@ -3165,11 +3167,11 @@
       </c>
       <c r="J56" s="12"/>
     </row>
-    <row r="57" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:10" ht="22.15" customHeight="1">
       <c r="A57" s="32">
         <v>56</v>
       </c>
-      <c r="B57" s="48"/>
+      <c r="B57" s="45"/>
       <c r="C57" s="4" t="s">
         <v>63</v>
       </c>
@@ -3191,11 +3193,11 @@
       </c>
       <c r="J57" s="12"/>
     </row>
-    <row r="58" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:10" ht="22.15" customHeight="1">
       <c r="A58" s="32">
         <v>57</v>
       </c>
-      <c r="B58" s="48"/>
+      <c r="B58" s="45"/>
       <c r="C58" s="4" t="s">
         <v>72</v>
       </c>
@@ -3217,11 +3219,11 @@
       </c>
       <c r="J58" s="12"/>
     </row>
-    <row r="59" spans="1:10" s="28" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:10" s="28" customFormat="1" ht="40.5">
       <c r="A59" s="32"/>
-      <c r="B59" s="48"/>
+      <c r="B59" s="45"/>
       <c r="C59" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D59" s="12" t="s">
         <v>10</v>
@@ -3235,11 +3237,11 @@
       <c r="I59" s="12"/>
       <c r="J59" s="12"/>
     </row>
-    <row r="60" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:10" ht="22.15" customHeight="1">
       <c r="A60" s="32">
         <v>58</v>
       </c>
-      <c r="B60" s="48"/>
+      <c r="B60" s="45"/>
       <c r="C60" s="4" t="s">
         <v>61</v>
       </c>
@@ -3261,11 +3263,11 @@
       </c>
       <c r="J60" s="12"/>
     </row>
-    <row r="61" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:10" ht="22.15" customHeight="1">
       <c r="A61" s="32">
         <v>59</v>
       </c>
-      <c r="B61" s="48" t="s">
+      <c r="B61" s="45" t="s">
         <v>31</v>
       </c>
       <c r="C61" s="4" t="s">
@@ -3289,11 +3291,11 @@
       </c>
       <c r="J61" s="12"/>
     </row>
-    <row r="62" spans="1:10" s="28" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:10" s="28" customFormat="1" ht="22.15" customHeight="1">
       <c r="A62" s="32"/>
-      <c r="B62" s="48"/>
+      <c r="B62" s="45"/>
       <c r="C62" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D62" s="12" t="s">
         <v>10</v>
@@ -3307,11 +3309,11 @@
       <c r="I62" s="12"/>
       <c r="J62" s="12"/>
     </row>
-    <row r="63" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:10" ht="22.15" customHeight="1">
       <c r="A63" s="32">
         <v>60</v>
       </c>
-      <c r="B63" s="48"/>
+      <c r="B63" s="45"/>
       <c r="C63" s="4" t="s">
         <v>64</v>
       </c>
@@ -3333,11 +3335,11 @@
       </c>
       <c r="J63" s="12"/>
     </row>
-    <row r="64" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:10" ht="22.15" customHeight="1">
       <c r="A64" s="32">
         <v>61</v>
       </c>
-      <c r="B64" s="45" t="s">
+      <c r="B64" s="49" t="s">
         <v>33</v>
       </c>
       <c r="C64" s="4" t="s">
@@ -3361,11 +3363,11 @@
       </c>
       <c r="J64" s="12"/>
     </row>
-    <row r="65" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:10" ht="22.15" customHeight="1">
       <c r="A65" s="32">
         <v>62</v>
       </c>
-      <c r="B65" s="46"/>
+      <c r="B65" s="50"/>
       <c r="C65" s="4" t="s">
         <v>35</v>
       </c>
@@ -3387,11 +3389,11 @@
       </c>
       <c r="J65" s="12"/>
     </row>
-    <row r="66" spans="1:10" s="28" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:10" s="28" customFormat="1" ht="22.15" customHeight="1">
       <c r="A66" s="32"/>
-      <c r="B66" s="46"/>
+      <c r="B66" s="50"/>
       <c r="C66" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D66" s="12" t="s">
         <v>10</v>
@@ -3405,11 +3407,11 @@
       <c r="I66" s="12"/>
       <c r="J66" s="12"/>
     </row>
-    <row r="67" spans="1:10" s="28" customFormat="1" ht="54" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:10" s="28" customFormat="1" ht="54">
       <c r="A67" s="32"/>
-      <c r="B67" s="46"/>
+      <c r="B67" s="50"/>
       <c r="C67" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D67" s="12" t="s">
         <v>10</v>
@@ -3423,11 +3425,11 @@
       <c r="I67" s="12"/>
       <c r="J67" s="12"/>
     </row>
-    <row r="68" spans="1:10" s="28" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:10" s="28" customFormat="1" ht="13.5">
       <c r="A68" s="32"/>
-      <c r="B68" s="46"/>
+      <c r="B68" s="50"/>
       <c r="C68" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D68" s="12" t="s">
         <v>10</v>
@@ -3441,13 +3443,13 @@
       <c r="I68" s="12"/>
       <c r="J68" s="12"/>
     </row>
-    <row r="69" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:10" ht="27">
       <c r="A69" s="32">
         <v>63</v>
       </c>
-      <c r="B69" s="46"/>
+      <c r="B69" s="50"/>
       <c r="C69" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D69" s="7" t="s">
         <v>10</v>
@@ -3461,11 +3463,11 @@
       <c r="I69" s="12"/>
       <c r="J69" s="12"/>
     </row>
-    <row r="70" spans="1:10" s="28" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:10" s="28" customFormat="1" ht="27">
       <c r="A70" s="32"/>
-      <c r="B70" s="46"/>
+      <c r="B70" s="50"/>
       <c r="C70" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D70" s="12" t="s">
         <v>10</v>
@@ -3479,11 +3481,11 @@
       <c r="I70" s="12"/>
       <c r="J70" s="12"/>
     </row>
-    <row r="71" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:10" ht="22.15" customHeight="1">
       <c r="A71" s="32">
         <v>64</v>
       </c>
-      <c r="B71" s="46"/>
+      <c r="B71" s="50"/>
       <c r="C71" s="4" t="s">
         <v>36</v>
       </c>
@@ -3501,13 +3503,13 @@
         <v>85</v>
       </c>
     </row>
-    <row r="72" spans="1:10" s="26" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:10" s="26" customFormat="1" ht="27">
       <c r="A72" s="32">
         <v>65</v>
       </c>
-      <c r="B72" s="47"/>
+      <c r="B72" s="51"/>
       <c r="C72" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D72" s="24" t="s">
         <v>10</v>
@@ -3521,12 +3523,12 @@
       <c r="I72" s="11"/>
       <c r="J72" s="11"/>
     </row>
-    <row r="73" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:10" ht="40.5">
       <c r="A73" s="32">
         <v>66</v>
       </c>
-      <c r="B73" s="48" t="s">
-        <v>209</v>
+      <c r="B73" s="45" t="s">
+        <v>208</v>
       </c>
       <c r="C73" s="4" t="s">
         <v>38</v>
@@ -3549,11 +3551,11 @@
       </c>
       <c r="J73" s="12"/>
     </row>
-    <row r="74" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:10" ht="22.15" customHeight="1">
       <c r="A74" s="32">
         <v>67</v>
       </c>
-      <c r="B74" s="48"/>
+      <c r="B74" s="45"/>
       <c r="C74" s="4" t="s">
         <v>105</v>
       </c>
@@ -3575,13 +3577,13 @@
       </c>
       <c r="J74" s="12"/>
     </row>
-    <row r="75" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:10" ht="22.15" customHeight="1">
       <c r="A75" s="32">
         <v>68</v>
       </c>
-      <c r="B75" s="48"/>
+      <c r="B75" s="45"/>
       <c r="C75" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D75" s="12" t="s">
         <v>10</v>
@@ -3595,11 +3597,11 @@
       <c r="I75" s="12"/>
       <c r="J75" s="12"/>
     </row>
-    <row r="76" spans="1:10" s="28" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:10" s="28" customFormat="1" ht="22.15" customHeight="1">
       <c r="A76" s="32"/>
-      <c r="B76" s="48"/>
+      <c r="B76" s="45"/>
       <c r="C76" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D76" s="12"/>
       <c r="E76" s="14"/>
@@ -3609,13 +3611,13 @@
       <c r="I76" s="12"/>
       <c r="J76" s="12"/>
     </row>
-    <row r="77" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:10" ht="27">
       <c r="A77" s="32">
         <v>69</v>
       </c>
-      <c r="B77" s="48"/>
+      <c r="B77" s="45"/>
       <c r="C77" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D77" s="12" t="s">
         <v>10</v>
@@ -3629,11 +3631,11 @@
       <c r="I77" s="12"/>
       <c r="J77" s="12"/>
     </row>
-    <row r="78" spans="1:10" s="28" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:10" s="28" customFormat="1" ht="40.5">
       <c r="A78" s="32"/>
-      <c r="B78" s="48"/>
+      <c r="B78" s="45"/>
       <c r="C78" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D78" s="12" t="s">
         <v>10</v>
@@ -3647,11 +3649,11 @@
       <c r="I78" s="12"/>
       <c r="J78" s="12"/>
     </row>
-    <row r="79" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:10" ht="22.15" customHeight="1">
       <c r="A79" s="32">
         <v>70</v>
       </c>
-      <c r="B79" s="48"/>
+      <c r="B79" s="45"/>
       <c r="C79" s="4" t="s">
         <v>37</v>
       </c>
@@ -3673,11 +3675,11 @@
       </c>
       <c r="J79" s="12"/>
     </row>
-    <row r="80" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:10" ht="27">
       <c r="A80" s="32">
         <v>71</v>
       </c>
-      <c r="B80" s="48" t="s">
+      <c r="B80" s="45" t="s">
         <v>39</v>
       </c>
       <c r="C80" s="4" t="s">
@@ -3703,11 +3705,11 @@
         <v>85</v>
       </c>
     </row>
-    <row r="81" spans="1:10" s="28" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:10" s="28" customFormat="1" ht="13.5">
       <c r="A81" s="32"/>
-      <c r="B81" s="48"/>
+      <c r="B81" s="45"/>
       <c r="C81" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D81" s="12" t="s">
         <v>10</v>
@@ -3721,11 +3723,11 @@
       <c r="I81" s="12"/>
       <c r="J81" s="12"/>
     </row>
-    <row r="82" spans="1:10" s="28" customFormat="1" ht="25.9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:10" s="28" customFormat="1" ht="25.9" customHeight="1">
       <c r="A82" s="32"/>
-      <c r="B82" s="48"/>
+      <c r="B82" s="45"/>
       <c r="C82" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D82" s="12" t="s">
         <v>10</v>
@@ -3739,11 +3741,11 @@
       <c r="I82" s="12"/>
       <c r="J82" s="12"/>
     </row>
-    <row r="83" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:10" ht="22.15" customHeight="1">
       <c r="A83" s="32">
         <v>72</v>
       </c>
-      <c r="B83" s="48"/>
+      <c r="B83" s="45"/>
       <c r="C83" s="4" t="s">
         <v>105</v>
       </c>
@@ -3765,11 +3767,11 @@
       </c>
       <c r="J83" s="12"/>
     </row>
-    <row r="84" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:10" ht="22.15" customHeight="1">
       <c r="A84" s="32">
         <v>73</v>
       </c>
-      <c r="B84" s="48"/>
+      <c r="B84" s="45"/>
       <c r="C84" s="4" t="s">
         <v>37</v>
       </c>
@@ -3791,11 +3793,11 @@
       </c>
       <c r="J84" s="12"/>
     </row>
-    <row r="85" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:10" ht="27">
       <c r="A85" s="32">
         <v>74</v>
       </c>
-      <c r="B85" s="48" t="s">
+      <c r="B85" s="45" t="s">
         <v>41</v>
       </c>
       <c r="C85" s="4" t="s">
@@ -3819,11 +3821,11 @@
       </c>
       <c r="J85" s="12"/>
     </row>
-    <row r="86" spans="1:10" s="28" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:10" s="28" customFormat="1" ht="13.5">
       <c r="A86" s="32"/>
-      <c r="B86" s="48"/>
+      <c r="B86" s="45"/>
       <c r="C86" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D86" s="12" t="s">
         <v>10</v>
@@ -3837,11 +3839,11 @@
       <c r="I86" s="12"/>
       <c r="J86" s="12"/>
     </row>
-    <row r="87" spans="1:10" s="28" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:10" s="28" customFormat="1" ht="13.5">
       <c r="A87" s="32"/>
-      <c r="B87" s="48"/>
+      <c r="B87" s="45"/>
       <c r="C87" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D87" s="12" t="s">
         <v>10</v>
@@ -3855,11 +3857,11 @@
       <c r="I87" s="12"/>
       <c r="J87" s="12"/>
     </row>
-    <row r="88" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:10" ht="22.15" customHeight="1">
       <c r="A88" s="32">
         <v>75</v>
       </c>
-      <c r="B88" s="48"/>
+      <c r="B88" s="45"/>
       <c r="C88" s="4" t="s">
         <v>105</v>
       </c>
@@ -3881,11 +3883,11 @@
       </c>
       <c r="J88" s="12"/>
     </row>
-    <row r="89" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:10" ht="22.15" customHeight="1">
       <c r="A89" s="32">
         <v>76</v>
       </c>
-      <c r="B89" s="48"/>
+      <c r="B89" s="45"/>
       <c r="C89" s="4" t="s">
         <v>37</v>
       </c>
@@ -3907,11 +3909,11 @@
       </c>
       <c r="J89" s="12"/>
     </row>
-    <row r="90" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:10" ht="29.25" customHeight="1">
       <c r="A90" s="32">
         <v>77</v>
       </c>
-      <c r="B90" s="48" t="s">
+      <c r="B90" s="45" t="s">
         <v>43</v>
       </c>
       <c r="C90" s="4" t="s">
@@ -3929,11 +3931,11 @@
       <c r="I90" s="12"/>
       <c r="J90" s="12"/>
     </row>
-    <row r="91" spans="1:10" s="28" customFormat="1" ht="28.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:10" s="28" customFormat="1" ht="28.15" customHeight="1">
       <c r="A91" s="32"/>
-      <c r="B91" s="48"/>
+      <c r="B91" s="45"/>
       <c r="C91" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D91" s="12" t="s">
         <v>10</v>
@@ -3953,11 +3955,11 @@
       </c>
       <c r="J91" s="12"/>
     </row>
-    <row r="92" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:10" ht="27">
       <c r="A92" s="32">
         <v>78</v>
       </c>
-      <c r="B92" s="48"/>
+      <c r="B92" s="45"/>
       <c r="C92" s="4" t="s">
         <v>126</v>
       </c>
@@ -3979,11 +3981,11 @@
       </c>
       <c r="J92" s="12"/>
     </row>
-    <row r="93" spans="1:10" s="28" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:10" s="28" customFormat="1" ht="27" customHeight="1">
       <c r="A93" s="32"/>
-      <c r="B93" s="48"/>
+      <c r="B93" s="45"/>
       <c r="C93" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D93" s="12" t="s">
         <v>10</v>
@@ -3997,11 +3999,11 @@
       <c r="I93" s="12"/>
       <c r="J93" s="12"/>
     </row>
-    <row r="94" spans="1:10" s="28" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:10" s="28" customFormat="1" ht="24.6" customHeight="1">
       <c r="A94" s="32"/>
-      <c r="B94" s="48"/>
+      <c r="B94" s="45"/>
       <c r="C94" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D94" s="12" t="s">
         <v>10</v>
@@ -4021,11 +4023,11 @@
       </c>
       <c r="J94" s="12"/>
     </row>
-    <row r="95" spans="1:10" s="28" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:10" s="28" customFormat="1" ht="24.6" customHeight="1">
       <c r="A95" s="32"/>
-      <c r="B95" s="48"/>
+      <c r="B95" s="45"/>
       <c r="C95" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D95" s="12" t="s">
         <v>10</v>
@@ -4039,14 +4041,14 @@
       <c r="I95" s="12"/>
       <c r="J95" s="12"/>
     </row>
-    <row r="96" spans="1:10" s="28" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:10" s="28" customFormat="1" ht="24.6" customHeight="1">
       <c r="A96" s="32"/>
-      <c r="B96" s="48"/>
+      <c r="B96" s="45"/>
       <c r="C96" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="D96" s="12" t="s">
         <v>229</v>
-      </c>
-      <c r="D96" s="12" t="s">
-        <v>230</v>
       </c>
       <c r="E96" s="14">
         <v>42893</v>
@@ -4057,14 +4059,14 @@
       <c r="I96" s="12"/>
       <c r="J96" s="12"/>
     </row>
-    <row r="97" spans="1:10" s="28" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:10" s="28" customFormat="1" ht="24.6" customHeight="1">
       <c r="A97" s="32"/>
-      <c r="B97" s="48"/>
+      <c r="B97" s="45"/>
       <c r="C97" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D97" s="12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E97" s="14">
         <v>42893</v>
@@ -4075,11 +4077,11 @@
       <c r="I97" s="12"/>
       <c r="J97" s="12"/>
     </row>
-    <row r="98" spans="1:10" s="28" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:10" s="28" customFormat="1" ht="27">
       <c r="A98" s="32"/>
-      <c r="B98" s="48"/>
+      <c r="B98" s="45"/>
       <c r="C98" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D98" s="12" t="s">
         <v>10</v>
@@ -4093,11 +4095,11 @@
       <c r="I98" s="12"/>
       <c r="J98" s="12"/>
     </row>
-    <row r="99" spans="1:10" s="28" customFormat="1" ht="25.9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:10" s="28" customFormat="1" ht="25.9" customHeight="1">
       <c r="A99" s="32"/>
-      <c r="B99" s="48"/>
+      <c r="B99" s="45"/>
       <c r="C99" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D99" s="12" t="s">
         <v>10</v>
@@ -4117,11 +4119,11 @@
       </c>
       <c r="J99" s="12"/>
     </row>
-    <row r="100" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:10" ht="22.15" customHeight="1">
       <c r="A100" s="32">
         <v>79</v>
       </c>
-      <c r="B100" s="48"/>
+      <c r="B100" s="45"/>
       <c r="C100" s="4" t="s">
         <v>45</v>
       </c>
@@ -4137,11 +4139,11 @@
       <c r="I100" s="12"/>
       <c r="J100" s="12"/>
     </row>
-    <row r="101" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:10" ht="27.75" customHeight="1">
       <c r="A101" s="32">
         <v>80</v>
       </c>
-      <c r="B101" s="48" t="s">
+      <c r="B101" s="45" t="s">
         <v>44</v>
       </c>
       <c r="C101" s="4" t="s">
@@ -4165,11 +4167,11 @@
       </c>
       <c r="J101" s="12"/>
     </row>
-    <row r="102" spans="1:10" s="28" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:10" s="28" customFormat="1" ht="27.75" customHeight="1">
       <c r="A102" s="32"/>
-      <c r="B102" s="48"/>
+      <c r="B102" s="45"/>
       <c r="C102" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D102" s="12" t="s">
         <v>10</v>
@@ -4189,11 +4191,11 @@
       </c>
       <c r="J102" s="12"/>
     </row>
-    <row r="103" spans="1:10" s="28" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:10" s="28" customFormat="1" ht="27.75" customHeight="1">
       <c r="A103" s="32"/>
-      <c r="B103" s="48"/>
+      <c r="B103" s="45"/>
       <c r="C103" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D103" s="12" t="s">
         <v>10</v>
@@ -4203,7 +4205,7 @@
       </c>
       <c r="F103" s="12"/>
       <c r="G103" s="12" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H103" s="14">
         <v>42895</v>
@@ -4213,11 +4215,11 @@
       </c>
       <c r="J103" s="12"/>
     </row>
-    <row r="104" spans="1:10" s="28" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:10" s="28" customFormat="1" ht="27.75" customHeight="1">
       <c r="A104" s="32"/>
-      <c r="B104" s="48"/>
+      <c r="B104" s="45"/>
       <c r="C104" s="42" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D104" s="43"/>
       <c r="E104" s="44"/>
@@ -4227,11 +4229,11 @@
       <c r="I104" s="12"/>
       <c r="J104" s="12"/>
     </row>
-    <row r="105" spans="1:10" s="28" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:10" s="28" customFormat="1" ht="27.75" customHeight="1">
       <c r="A105" s="32"/>
-      <c r="B105" s="48"/>
+      <c r="B105" s="45"/>
       <c r="C105" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D105" s="12" t="s">
         <v>10</v>
@@ -4251,11 +4253,11 @@
       </c>
       <c r="J105" s="12"/>
     </row>
-    <row r="106" spans="1:10" s="28" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:10" s="28" customFormat="1" ht="27.75" customHeight="1">
       <c r="A106" s="32"/>
-      <c r="B106" s="48"/>
+      <c r="B106" s="45"/>
       <c r="C106" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D106" s="12" t="s">
         <v>10</v>
@@ -4275,11 +4277,11 @@
       </c>
       <c r="J106" s="12"/>
     </row>
-    <row r="107" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:10" ht="27">
       <c r="A107" s="32">
         <v>81</v>
       </c>
-      <c r="B107" s="48"/>
+      <c r="B107" s="45"/>
       <c r="C107" s="4" t="s">
         <v>136</v>
       </c>
@@ -4301,11 +4303,11 @@
       </c>
       <c r="J107" s="12"/>
     </row>
-    <row r="108" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:10" ht="37.5" customHeight="1">
       <c r="A108" s="32">
         <v>82</v>
       </c>
-      <c r="B108" s="45" t="s">
+      <c r="B108" s="49" t="s">
         <v>65</v>
       </c>
       <c r="C108" s="4" t="s">
@@ -4331,11 +4333,11 @@
         <v>79</v>
       </c>
     </row>
-    <row r="109" spans="1:10" s="28" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:10" s="28" customFormat="1" ht="20.45" customHeight="1">
       <c r="A109" s="32"/>
-      <c r="B109" s="46"/>
+      <c r="B109" s="50"/>
       <c r="C109" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D109" s="12" t="s">
         <v>10</v>
@@ -4355,11 +4357,11 @@
       </c>
       <c r="J109" s="12"/>
     </row>
-    <row r="110" spans="1:10" s="28" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:10" s="28" customFormat="1" ht="20.45" customHeight="1">
       <c r="A110" s="32"/>
-      <c r="B110" s="47"/>
+      <c r="B110" s="51"/>
       <c r="C110" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D110" s="12" t="s">
         <v>10</v>
@@ -4379,11 +4381,11 @@
       </c>
       <c r="J110" s="12"/>
     </row>
-    <row r="111" spans="1:10" s="20" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:10" s="20" customFormat="1" ht="22.15" customHeight="1">
       <c r="A111" s="32">
         <v>83</v>
       </c>
-      <c r="B111" s="49" t="s">
+      <c r="B111" s="52" t="s">
         <v>67</v>
       </c>
       <c r="C111" s="8" t="s">
@@ -4407,11 +4409,11 @@
       </c>
       <c r="J111" s="9"/>
     </row>
-    <row r="112" spans="1:10" s="20" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:10" s="20" customFormat="1" ht="22.15" customHeight="1">
       <c r="A112" s="32">
         <v>84</v>
       </c>
-      <c r="B112" s="49"/>
+      <c r="B112" s="52"/>
       <c r="C112" s="8" t="s">
         <v>95</v>
       </c>
@@ -4427,13 +4429,13 @@
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
     </row>
-    <row r="113" spans="1:10" s="20" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:10" s="20" customFormat="1" ht="22.15" customHeight="1">
       <c r="A113" s="32">
         <v>85</v>
       </c>
-      <c r="B113" s="49"/>
+      <c r="B113" s="52"/>
       <c r="C113" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D113" s="9" t="s">
         <v>10</v>
@@ -4447,13 +4449,13 @@
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
     </row>
-    <row r="114" spans="1:10" s="20" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:10" s="20" customFormat="1" ht="22.15" customHeight="1">
       <c r="A114" s="32">
         <v>86</v>
       </c>
-      <c r="B114" s="49"/>
+      <c r="B114" s="52"/>
       <c r="C114" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D114" s="9" t="s">
         <v>10</v>
@@ -4467,11 +4469,11 @@
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
     </row>
-    <row r="115" spans="1:10" s="20" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:10" s="20" customFormat="1" ht="22.15" customHeight="1">
       <c r="A115" s="32"/>
-      <c r="B115" s="49"/>
+      <c r="B115" s="52"/>
       <c r="C115" s="8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D115" s="12" t="s">
         <v>10</v>
@@ -4485,11 +4487,11 @@
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
     </row>
-    <row r="116" spans="1:10" s="20" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:10" s="20" customFormat="1" ht="22.15" customHeight="1">
       <c r="A116" s="32"/>
-      <c r="B116" s="49"/>
+      <c r="B116" s="52"/>
       <c r="C116" s="8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D116" s="12" t="s">
         <v>10</v>
@@ -4503,11 +4505,11 @@
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
     </row>
-    <row r="117" spans="1:10" s="20" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:10" s="20" customFormat="1" ht="22.15" customHeight="1">
       <c r="A117" s="32"/>
-      <c r="B117" s="49"/>
+      <c r="B117" s="52"/>
       <c r="C117" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D117" s="12" t="s">
         <v>10</v>
@@ -4521,11 +4523,11 @@
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
     </row>
-    <row r="118" spans="1:10" s="20" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:10" s="20" customFormat="1" ht="22.15" customHeight="1">
       <c r="A118" s="32"/>
-      <c r="B118" s="49"/>
+      <c r="B118" s="52"/>
       <c r="C118" s="8" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D118" s="12" t="s">
         <v>10</v>
@@ -4539,13 +4541,13 @@
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
     </row>
-    <row r="119" spans="1:10" s="20" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:10" s="20" customFormat="1" ht="27">
       <c r="A119" s="32">
         <v>87</v>
       </c>
-      <c r="B119" s="49"/>
+      <c r="B119" s="52"/>
       <c r="C119" s="8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D119" s="9" t="s">
         <v>10</v>
@@ -4559,11 +4561,11 @@
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
     </row>
-    <row r="120" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:10" ht="22.15" customHeight="1">
       <c r="A120" s="32">
         <v>88</v>
       </c>
-      <c r="B120" s="48" t="s">
+      <c r="B120" s="45" t="s">
         <v>87</v>
       </c>
       <c r="C120" s="4" t="s">
@@ -4587,11 +4589,11 @@
       </c>
       <c r="J120" s="12"/>
     </row>
-    <row r="121" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:10" ht="22.15" customHeight="1">
       <c r="A121" s="32">
         <v>89</v>
       </c>
-      <c r="B121" s="48"/>
+      <c r="B121" s="45"/>
       <c r="C121" s="4" t="s">
         <v>93</v>
       </c>
@@ -4603,21 +4605,21 @@
       </c>
       <c r="F121" s="12"/>
       <c r="G121" s="12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H121" s="14">
         <v>42882</v>
       </c>
       <c r="I121" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J121" s="12"/>
     </row>
-    <row r="122" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:10" ht="22.15" customHeight="1">
       <c r="A122" s="32">
         <v>90</v>
       </c>
-      <c r="B122" s="45" t="s">
+      <c r="B122" s="49" t="s">
         <v>97</v>
       </c>
       <c r="C122" s="4" t="s">
@@ -4641,11 +4643,11 @@
       </c>
       <c r="J122" s="12"/>
     </row>
-    <row r="123" spans="1:10" s="28" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:10" s="28" customFormat="1" ht="22.15" customHeight="1">
       <c r="A123" s="32"/>
-      <c r="B123" s="46"/>
+      <c r="B123" s="50"/>
       <c r="C123" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D123" s="12" t="s">
         <v>10</v>
@@ -4659,11 +4661,11 @@
       <c r="I123" s="12"/>
       <c r="J123" s="12"/>
     </row>
-    <row r="124" spans="1:10" s="28" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:10" s="28" customFormat="1" ht="22.15" customHeight="1">
       <c r="A124" s="32"/>
-      <c r="B124" s="46"/>
+      <c r="B124" s="50"/>
       <c r="C124" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D124" s="12" t="s">
         <v>10</v>
@@ -4677,11 +4679,11 @@
       <c r="I124" s="12"/>
       <c r="J124" s="12"/>
     </row>
-    <row r="125" spans="1:10" s="28" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:10" s="28" customFormat="1" ht="22.15" customHeight="1">
       <c r="A125" s="32"/>
-      <c r="B125" s="46"/>
+      <c r="B125" s="50"/>
       <c r="C125" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D125" s="12" t="s">
         <v>10</v>
@@ -4695,11 +4697,11 @@
       <c r="I125" s="12"/>
       <c r="J125" s="12"/>
     </row>
-    <row r="126" spans="1:10" s="28" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:10" s="28" customFormat="1" ht="27">
       <c r="A126" s="32"/>
-      <c r="B126" s="46"/>
+      <c r="B126" s="50"/>
       <c r="C126" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D126" s="12" t="s">
         <v>10</v>
@@ -4713,11 +4715,11 @@
       <c r="I126" s="12"/>
       <c r="J126" s="12"/>
     </row>
-    <row r="127" spans="1:10" s="28" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:10" s="28" customFormat="1" ht="29.45" customHeight="1">
       <c r="A127" s="32"/>
-      <c r="B127" s="46"/>
+      <c r="B127" s="50"/>
       <c r="C127" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D127" s="12"/>
       <c r="E127" s="14"/>
@@ -4727,13 +4729,13 @@
       <c r="I127" s="12"/>
       <c r="J127" s="12"/>
     </row>
-    <row r="128" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:10" ht="27">
       <c r="A128" s="32">
         <v>91</v>
       </c>
-      <c r="B128" s="47"/>
+      <c r="B128" s="51"/>
       <c r="C128" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D128" s="24" t="s">
         <v>10</v>
@@ -4747,11 +4749,11 @@
       <c r="I128" s="12"/>
       <c r="J128" s="12"/>
     </row>
-    <row r="129" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:10" ht="22.15" customHeight="1">
       <c r="A129" s="32">
         <v>92</v>
       </c>
-      <c r="B129" s="48" t="s">
+      <c r="B129" s="45" t="s">
         <v>99</v>
       </c>
       <c r="C129" s="4" t="s">
@@ -4775,11 +4777,11 @@
       </c>
       <c r="J129" s="12"/>
     </row>
-    <row r="130" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:10" ht="22.15" customHeight="1">
       <c r="A130" s="32">
         <v>93</v>
       </c>
-      <c r="B130" s="48"/>
+      <c r="B130" s="45"/>
       <c r="C130" s="4" t="s">
         <v>104</v>
       </c>
@@ -4801,11 +4803,11 @@
       </c>
       <c r="J130" s="12"/>
     </row>
-    <row r="131" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:10" ht="22.15" customHeight="1">
       <c r="A131" s="32">
         <v>94</v>
       </c>
-      <c r="B131" s="48"/>
+      <c r="B131" s="45"/>
       <c r="C131" s="4" t="s">
         <v>101</v>
       </c>
@@ -4827,13 +4829,13 @@
       </c>
       <c r="J131" s="12"/>
     </row>
-    <row r="132" spans="1:10" s="28" customFormat="1" ht="40.9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:10" s="28" customFormat="1" ht="40.9" customHeight="1">
       <c r="A132" s="32"/>
       <c r="B132" s="41" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D132" s="12" t="s">
         <v>10</v>
@@ -4847,11 +4849,11 @@
       <c r="I132" s="12"/>
       <c r="J132" s="12"/>
     </row>
-    <row r="133" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:10" ht="27">
       <c r="A133" s="32">
         <v>95</v>
       </c>
-      <c r="B133" s="45" t="s">
+      <c r="B133" s="49" t="s">
         <v>111</v>
       </c>
       <c r="C133" s="4" t="s">
@@ -4871,15 +4873,15 @@
         <v>42881</v>
       </c>
       <c r="I133" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J133" s="12"/>
     </row>
-    <row r="134" spans="1:10" s="28" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:10" s="28" customFormat="1" ht="13.5">
       <c r="A134" s="32"/>
-      <c r="B134" s="46"/>
+      <c r="B134" s="50"/>
       <c r="C134" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D134" s="24" t="s">
         <v>10</v>
@@ -4893,13 +4895,13 @@
       <c r="I134" s="12"/>
       <c r="J134" s="12"/>
     </row>
-    <row r="135" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:10" ht="27">
       <c r="A135" s="32">
         <v>96</v>
       </c>
-      <c r="B135" s="46"/>
+      <c r="B135" s="50"/>
       <c r="C135" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D135" s="12" t="s">
         <v>10</v>
@@ -4913,11 +4915,11 @@
       <c r="I135" s="12"/>
       <c r="J135" s="12"/>
     </row>
-    <row r="136" spans="1:10" s="28" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:10" s="28" customFormat="1" ht="27">
       <c r="A136" s="32"/>
-      <c r="B136" s="46"/>
+      <c r="B136" s="50"/>
       <c r="C136" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D136" s="24" t="s">
         <v>10</v>
@@ -4931,13 +4933,13 @@
       <c r="I136" s="12"/>
       <c r="J136" s="12"/>
     </row>
-    <row r="137" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:10" ht="22.15" customHeight="1">
       <c r="A137" s="32">
         <v>97</v>
       </c>
-      <c r="B137" s="46"/>
+      <c r="B137" s="50"/>
       <c r="C137" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D137" s="12" t="s">
         <v>10</v>
@@ -4951,25 +4953,25 @@
       <c r="I137" s="12"/>
       <c r="J137" s="12"/>
     </row>
-    <row r="138" spans="1:10" s="28" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A138" s="50" t="s">
-        <v>199</v>
-      </c>
-      <c r="B138" s="51"/>
-      <c r="C138" s="51"/>
-      <c r="D138" s="51"/>
-      <c r="E138" s="51"/>
-      <c r="F138" s="51"/>
-      <c r="G138" s="51"/>
-      <c r="H138" s="51"/>
-      <c r="I138" s="51"/>
-      <c r="J138" s="52"/>
-    </row>
-    <row r="139" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:10" s="28" customFormat="1" ht="22.15" customHeight="1">
+      <c r="A138" s="46" t="s">
+        <v>198</v>
+      </c>
+      <c r="B138" s="47"/>
+      <c r="C138" s="47"/>
+      <c r="D138" s="47"/>
+      <c r="E138" s="47"/>
+      <c r="F138" s="47"/>
+      <c r="G138" s="47"/>
+      <c r="H138" s="47"/>
+      <c r="I138" s="47"/>
+      <c r="J138" s="48"/>
+    </row>
+    <row r="139" spans="1:10" ht="40.5">
       <c r="A139" s="32">
         <v>98</v>
       </c>
-      <c r="B139" s="48" t="s">
+      <c r="B139" s="45" t="s">
         <v>113</v>
       </c>
       <c r="C139" s="4" t="s">
@@ -4989,15 +4991,15 @@
         <v>42141</v>
       </c>
       <c r="I139" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J139" s="12"/>
     </row>
-    <row r="140" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:10" ht="22.15" customHeight="1">
       <c r="A140" s="32">
         <v>99</v>
       </c>
-      <c r="B140" s="48"/>
+      <c r="B140" s="45"/>
       <c r="C140" s="4" t="s">
         <v>116</v>
       </c>
@@ -5019,11 +5021,11 @@
       </c>
       <c r="J140" s="12"/>
     </row>
-    <row r="141" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:10" ht="40.5">
       <c r="A141" s="32">
         <v>100</v>
       </c>
-      <c r="B141" s="48" t="s">
+      <c r="B141" s="45" t="s">
         <v>114</v>
       </c>
       <c r="C141" s="4" t="s">
@@ -5047,11 +5049,11 @@
       </c>
       <c r="J141" s="12"/>
     </row>
-    <row r="142" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:10" ht="22.15" customHeight="1">
       <c r="A142" s="32">
         <v>101</v>
       </c>
-      <c r="B142" s="48"/>
+      <c r="B142" s="45"/>
       <c r="C142" s="4" t="s">
         <v>117</v>
       </c>
@@ -5073,11 +5075,11 @@
       </c>
       <c r="J142" s="12"/>
     </row>
-    <row r="143" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:10" ht="41.25" customHeight="1">
       <c r="A143" s="32">
         <v>102</v>
       </c>
-      <c r="B143" s="45" t="s">
+      <c r="B143" s="49" t="s">
         <v>118</v>
       </c>
       <c r="C143" s="4" t="s">
@@ -5101,16 +5103,16 @@
       </c>
       <c r="J143" s="12"/>
     </row>
-    <row r="144" spans="1:10" s="26" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:10" s="26" customFormat="1" ht="27">
       <c r="A144" s="32">
         <v>103</v>
       </c>
-      <c r="B144" s="47"/>
+      <c r="B144" s="51"/>
       <c r="C144" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="D144" s="24" t="s">
         <v>169</v>
-      </c>
-      <c r="D144" s="24" t="s">
-        <v>170</v>
       </c>
       <c r="E144" s="25">
         <v>42887</v>
@@ -5121,7 +5123,7 @@
       <c r="I144" s="11"/>
       <c r="J144" s="11"/>
     </row>
-    <row r="145" spans="1:10" ht="41.25" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:10" ht="42">
       <c r="A145" s="32">
         <v>104</v>
       </c>
@@ -5145,15 +5147,15 @@
         <v>42151</v>
       </c>
       <c r="I145" s="12" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="J145" s="12"/>
     </row>
-    <row r="146" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:10" ht="22.15" customHeight="1">
       <c r="A146" s="32">
         <v>105</v>
       </c>
-      <c r="B146" s="45" t="s">
+      <c r="B146" s="49" t="s">
         <v>132</v>
       </c>
       <c r="C146" s="4" t="s">
@@ -5173,15 +5175,15 @@
         <v>42151</v>
       </c>
       <c r="I146" s="12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J146" s="12"/>
     </row>
-    <row r="147" spans="1:10" s="28" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:10" s="28" customFormat="1" ht="22.15" customHeight="1">
       <c r="A147" s="32"/>
-      <c r="B147" s="46"/>
+      <c r="B147" s="50"/>
       <c r="C147" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D147" s="12" t="s">
         <v>10</v>
@@ -5190,16 +5192,22 @@
         <v>42894</v>
       </c>
       <c r="F147" s="12"/>
-      <c r="G147" s="12"/>
-      <c r="H147" s="14"/>
-      <c r="I147" s="12"/>
+      <c r="G147" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="H147" s="14">
+        <v>42167</v>
+      </c>
+      <c r="I147" s="12" t="s">
+        <v>239</v>
+      </c>
       <c r="J147" s="12"/>
     </row>
-    <row r="148" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:10" ht="22.15" customHeight="1">
       <c r="A148" s="32">
         <v>106</v>
       </c>
-      <c r="B148" s="46"/>
+      <c r="B148" s="50"/>
       <c r="C148" s="4" t="s">
         <v>135</v>
       </c>
@@ -5217,15 +5225,15 @@
         <v>42151</v>
       </c>
       <c r="I148" s="12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J148" s="12"/>
     </row>
-    <row r="149" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:10" ht="27">
       <c r="A149" s="32">
         <v>107</v>
       </c>
-      <c r="B149" s="47"/>
+      <c r="B149" s="51"/>
       <c r="C149" s="4" t="s">
         <v>139</v>
       </c>
@@ -5243,19 +5251,19 @@
         <v>42151</v>
       </c>
       <c r="I149" s="12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J149" s="12"/>
     </row>
-    <row r="150" spans="1:10" s="26" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:10" s="26" customFormat="1" ht="27">
       <c r="A150" s="32">
         <v>108</v>
       </c>
       <c r="B150" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="C150" s="4" t="s">
         <v>173</v>
-      </c>
-      <c r="C150" s="4" t="s">
-        <v>174</v>
       </c>
       <c r="D150" s="24" t="s">
         <v>10</v>
@@ -5269,15 +5277,15 @@
       <c r="I150" s="11"/>
       <c r="J150" s="11"/>
     </row>
-    <row r="151" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:10" ht="27">
       <c r="A151" s="32">
         <v>109</v>
       </c>
       <c r="B151" s="31" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D151" s="24" t="s">
         <v>10</v>
@@ -5291,7 +5299,7 @@
       <c r="I151" s="12"/>
       <c r="J151" s="12"/>
     </row>
-    <row r="152" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:10" ht="22.15" customHeight="1">
       <c r="A152" s="12"/>
       <c r="B152" s="22"/>
       <c r="C152" s="4"/>
@@ -5303,7 +5311,7 @@
       <c r="I152" s="12"/>
       <c r="J152" s="12"/>
     </row>
-    <row r="153" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:10" ht="22.15" customHeight="1">
       <c r="A153" s="12"/>
       <c r="B153" s="22"/>
       <c r="C153" s="4"/>
@@ -5315,7 +5323,7 @@
       <c r="I153" s="12"/>
       <c r="J153" s="12"/>
     </row>
-    <row r="154" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:10" ht="22.15" customHeight="1">
       <c r="A154" s="12"/>
       <c r="B154" s="22"/>
       <c r="C154" s="4"/>
@@ -5327,7 +5335,7 @@
       <c r="I154" s="12"/>
       <c r="J154" s="12"/>
     </row>
-    <row r="155" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:10" ht="22.15" customHeight="1">
       <c r="A155" s="12"/>
       <c r="B155" s="22"/>
       <c r="C155" s="4"/>
@@ -5339,7 +5347,7 @@
       <c r="I155" s="12"/>
       <c r="J155" s="12"/>
     </row>
-    <row r="156" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:10" ht="22.15" customHeight="1">
       <c r="A156" s="12"/>
       <c r="B156" s="22"/>
       <c r="C156" s="4"/>
@@ -5351,7 +5359,7 @@
       <c r="I156" s="12"/>
       <c r="J156" s="12"/>
     </row>
-    <row r="157" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:10" ht="22.15" customHeight="1">
       <c r="A157" s="12"/>
       <c r="B157" s="22"/>
       <c r="C157" s="4"/>
@@ -5363,7 +5371,7 @@
       <c r="I157" s="12"/>
       <c r="J157" s="12"/>
     </row>
-    <row r="158" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:10" ht="22.15" customHeight="1">
       <c r="A158" s="12"/>
       <c r="B158" s="22"/>
       <c r="C158" s="4"/>
@@ -5375,7 +5383,7 @@
       <c r="I158" s="12"/>
       <c r="J158" s="12"/>
     </row>
-    <row r="159" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:10" ht="22.15" customHeight="1">
       <c r="A159" s="12"/>
       <c r="B159" s="22"/>
       <c r="C159" s="4"/>
@@ -5387,7 +5395,7 @@
       <c r="I159" s="12"/>
       <c r="J159" s="12"/>
     </row>
-    <row r="160" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:10" ht="22.15" customHeight="1">
       <c r="A160" s="12"/>
       <c r="B160" s="22"/>
       <c r="C160" s="4"/>
@@ -5399,7 +5407,7 @@
       <c r="I160" s="12"/>
       <c r="J160" s="12"/>
     </row>
-    <row r="161" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:10" ht="22.15" customHeight="1">
       <c r="A161" s="12"/>
       <c r="B161" s="22"/>
       <c r="C161" s="4"/>
@@ -5411,7 +5419,7 @@
       <c r="I161" s="12"/>
       <c r="J161" s="12"/>
     </row>
-    <row r="162" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:10" ht="22.15" customHeight="1">
       <c r="A162" s="12"/>
       <c r="B162" s="22"/>
       <c r="C162" s="4"/>
@@ -5423,7 +5431,7 @@
       <c r="I162" s="12"/>
       <c r="J162" s="12"/>
     </row>
-    <row r="163" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:10" ht="22.15" customHeight="1">
       <c r="A163" s="12"/>
       <c r="B163" s="22"/>
       <c r="C163" s="4"/>
@@ -5435,7 +5443,7 @@
       <c r="I163" s="12"/>
       <c r="J163" s="12"/>
     </row>
-    <row r="164" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:10" ht="22.15" customHeight="1">
       <c r="A164" s="12"/>
       <c r="B164" s="22"/>
       <c r="C164" s="4"/>
@@ -5447,7 +5455,7 @@
       <c r="I164" s="12"/>
       <c r="J164" s="12"/>
     </row>
-    <row r="165" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:10" ht="22.15" customHeight="1">
       <c r="A165" s="12"/>
       <c r="B165" s="22"/>
       <c r="C165" s="4"/>
@@ -5459,7 +5467,7 @@
       <c r="I165" s="12"/>
       <c r="J165" s="12"/>
     </row>
-    <row r="166" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:10" ht="22.15" customHeight="1">
       <c r="A166" s="12"/>
       <c r="B166" s="22"/>
       <c r="C166" s="4"/>
@@ -5471,7 +5479,7 @@
       <c r="I166" s="12"/>
       <c r="J166" s="12"/>
     </row>
-    <row r="167" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:10" ht="22.15" customHeight="1">
       <c r="A167" s="12"/>
       <c r="B167" s="22"/>
       <c r="C167" s="4"/>
@@ -5483,7 +5491,7 @@
       <c r="I167" s="12"/>
       <c r="J167" s="12"/>
     </row>
-    <row r="168" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:10" ht="22.15" customHeight="1">
       <c r="A168" s="12"/>
       <c r="B168" s="22"/>
       <c r="C168" s="4"/>
@@ -5495,7 +5503,7 @@
       <c r="I168" s="12"/>
       <c r="J168" s="12"/>
     </row>
-    <row r="169" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:10" ht="22.15" customHeight="1">
       <c r="A169" s="12"/>
       <c r="B169" s="22"/>
       <c r="C169" s="4"/>
@@ -5507,7 +5515,7 @@
       <c r="I169" s="12"/>
       <c r="J169" s="12"/>
     </row>
-    <row r="170" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:10" ht="22.15" customHeight="1">
       <c r="A170" s="12"/>
       <c r="B170" s="22"/>
       <c r="C170" s="4"/>
@@ -5519,7 +5527,7 @@
       <c r="I170" s="12"/>
       <c r="J170" s="12"/>
     </row>
-    <row r="171" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:10" ht="22.15" customHeight="1">
       <c r="A171" s="12"/>
       <c r="B171" s="22"/>
       <c r="C171" s="4"/>
@@ -5531,7 +5539,7 @@
       <c r="I171" s="12"/>
       <c r="J171" s="12"/>
     </row>
-    <row r="172" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:10" ht="22.15" customHeight="1">
       <c r="A172" s="12"/>
       <c r="B172" s="22"/>
       <c r="C172" s="4"/>
@@ -5543,7 +5551,7 @@
       <c r="I172" s="12"/>
       <c r="J172" s="12"/>
     </row>
-    <row r="173" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:10" ht="22.15" customHeight="1">
       <c r="A173" s="12"/>
       <c r="B173" s="22"/>
       <c r="C173" s="4"/>
@@ -5555,7 +5563,7 @@
       <c r="I173" s="12"/>
       <c r="J173" s="12"/>
     </row>
-    <row r="174" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:10" ht="22.15" customHeight="1">
       <c r="A174" s="12"/>
       <c r="B174" s="22"/>
       <c r="C174" s="4"/>
@@ -5567,7 +5575,7 @@
       <c r="I174" s="12"/>
       <c r="J174" s="12"/>
     </row>
-    <row r="175" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:10" ht="22.15" customHeight="1">
       <c r="A175" s="12"/>
       <c r="B175" s="22"/>
       <c r="C175" s="4"/>
@@ -5579,7 +5587,7 @@
       <c r="I175" s="12"/>
       <c r="J175" s="12"/>
     </row>
-    <row r="176" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:10" ht="22.15" customHeight="1">
       <c r="A176" s="12"/>
       <c r="B176" s="22"/>
       <c r="C176" s="4"/>
@@ -5591,7 +5599,7 @@
       <c r="I176" s="12"/>
       <c r="J176" s="12"/>
     </row>
-    <row r="177" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:10" ht="22.15" customHeight="1">
       <c r="A177" s="12"/>
       <c r="B177" s="22"/>
       <c r="C177" s="4"/>
@@ -5603,7 +5611,7 @@
       <c r="I177" s="12"/>
       <c r="J177" s="12"/>
     </row>
-    <row r="178" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:10" ht="22.15" customHeight="1">
       <c r="A178" s="12"/>
       <c r="B178" s="22"/>
       <c r="C178" s="4"/>
@@ -5615,7 +5623,7 @@
       <c r="I178" s="12"/>
       <c r="J178" s="12"/>
     </row>
-    <row r="179" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:10" ht="22.15" customHeight="1">
       <c r="A179" s="12"/>
       <c r="B179" s="22"/>
       <c r="C179" s="4"/>
@@ -5627,7 +5635,7 @@
       <c r="I179" s="12"/>
       <c r="J179" s="12"/>
     </row>
-    <row r="180" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:10" ht="22.15" customHeight="1">
       <c r="A180" s="12"/>
       <c r="B180" s="22"/>
       <c r="C180" s="4"/>
@@ -5639,7 +5647,7 @@
       <c r="I180" s="12"/>
       <c r="J180" s="12"/>
     </row>
-    <row r="181" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:10" ht="22.15" customHeight="1">
       <c r="A181" s="12"/>
       <c r="B181" s="22"/>
       <c r="C181" s="4"/>
@@ -5651,7 +5659,7 @@
       <c r="I181" s="12"/>
       <c r="J181" s="12"/>
     </row>
-    <row r="182" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:10" ht="22.15" customHeight="1">
       <c r="A182" s="12"/>
       <c r="B182" s="22"/>
       <c r="C182" s="4"/>
@@ -5663,7 +5671,7 @@
       <c r="I182" s="12"/>
       <c r="J182" s="12"/>
     </row>
-    <row r="183" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:10" ht="22.15" customHeight="1">
       <c r="A183" s="12"/>
       <c r="B183" s="22"/>
       <c r="C183" s="4"/>
@@ -5675,7 +5683,7 @@
       <c r="I183" s="12"/>
       <c r="J183" s="12"/>
     </row>
-    <row r="184" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:10" ht="22.15" customHeight="1">
       <c r="A184" s="12"/>
       <c r="B184" s="22"/>
       <c r="C184" s="4"/>
@@ -5687,7 +5695,7 @@
       <c r="I184" s="12"/>
       <c r="J184" s="12"/>
     </row>
-    <row r="185" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:10" ht="22.15" customHeight="1">
       <c r="A185" s="12"/>
       <c r="B185" s="22"/>
       <c r="C185" s="4"/>
@@ -5699,7 +5707,7 @@
       <c r="I185" s="12"/>
       <c r="J185" s="12"/>
     </row>
-    <row r="186" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:10" ht="22.15" customHeight="1">
       <c r="A186" s="12"/>
       <c r="B186" s="22"/>
       <c r="C186" s="4"/>
@@ -5711,7 +5719,7 @@
       <c r="I186" s="12"/>
       <c r="J186" s="12"/>
     </row>
-    <row r="187" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:10" ht="22.15" customHeight="1">
       <c r="A187" s="12"/>
       <c r="B187" s="22"/>
       <c r="C187" s="4"/>
@@ -5723,7 +5731,7 @@
       <c r="I187" s="12"/>
       <c r="J187" s="12"/>
     </row>
-    <row r="188" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:10" ht="22.15" customHeight="1">
       <c r="A188" s="12"/>
       <c r="B188" s="22"/>
       <c r="C188" s="4"/>
@@ -5735,7 +5743,7 @@
       <c r="I188" s="12"/>
       <c r="J188" s="12"/>
     </row>
-    <row r="189" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:10" ht="22.15" customHeight="1">
       <c r="A189" s="12"/>
       <c r="B189" s="22"/>
       <c r="C189" s="4"/>
@@ -5747,7 +5755,7 @@
       <c r="I189" s="12"/>
       <c r="J189" s="12"/>
     </row>
-    <row r="190" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:10" ht="22.15" customHeight="1">
       <c r="A190" s="12"/>
       <c r="B190" s="22"/>
       <c r="C190" s="4"/>
@@ -5759,7 +5767,7 @@
       <c r="I190" s="12"/>
       <c r="J190" s="12"/>
     </row>
-    <row r="191" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:10" ht="22.15" customHeight="1">
       <c r="A191" s="12"/>
       <c r="B191" s="22"/>
       <c r="C191" s="4"/>
@@ -5771,7 +5779,7 @@
       <c r="I191" s="12"/>
       <c r="J191" s="12"/>
     </row>
-    <row r="192" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:10" ht="22.15" customHeight="1">
       <c r="A192" s="12"/>
       <c r="B192" s="22"/>
       <c r="C192" s="4"/>
@@ -5783,7 +5791,7 @@
       <c r="I192" s="12"/>
       <c r="J192" s="12"/>
     </row>
-    <row r="193" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:10" ht="22.15" customHeight="1">
       <c r="A193" s="12"/>
       <c r="B193" s="22"/>
       <c r="C193" s="4"/>
@@ -5795,7 +5803,7 @@
       <c r="I193" s="12"/>
       <c r="J193" s="12"/>
     </row>
-    <row r="194" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:10" ht="22.15" customHeight="1">
       <c r="A194" s="12"/>
       <c r="B194" s="22"/>
       <c r="C194" s="4"/>
@@ -5807,7 +5815,7 @@
       <c r="I194" s="12"/>
       <c r="J194" s="12"/>
     </row>
-    <row r="195" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:10" ht="22.15" customHeight="1">
       <c r="A195" s="12"/>
       <c r="B195" s="22"/>
       <c r="C195" s="4"/>
@@ -5819,7 +5827,7 @@
       <c r="I195" s="12"/>
       <c r="J195" s="12"/>
     </row>
-    <row r="196" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:10" ht="22.15" customHeight="1">
       <c r="A196" s="12"/>
       <c r="B196" s="22"/>
       <c r="C196" s="4"/>
@@ -5831,7 +5839,7 @@
       <c r="I196" s="12"/>
       <c r="J196" s="12"/>
     </row>
-    <row r="197" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:10" ht="22.15" customHeight="1">
       <c r="A197" s="12"/>
       <c r="B197" s="22"/>
       <c r="C197" s="4"/>
@@ -5843,7 +5851,7 @@
       <c r="I197" s="12"/>
       <c r="J197" s="12"/>
     </row>
-    <row r="198" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:10" ht="22.15" customHeight="1">
       <c r="A198" s="12"/>
       <c r="B198" s="22"/>
       <c r="C198" s="4"/>
@@ -5855,7 +5863,7 @@
       <c r="I198" s="12"/>
       <c r="J198" s="12"/>
     </row>
-    <row r="199" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:10" ht="22.15" customHeight="1">
       <c r="A199" s="12"/>
       <c r="B199" s="22"/>
       <c r="C199" s="4"/>
@@ -5867,7 +5875,7 @@
       <c r="I199" s="12"/>
       <c r="J199" s="12"/>
     </row>
-    <row r="200" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:10" ht="22.15" customHeight="1">
       <c r="A200" s="12"/>
       <c r="B200" s="22"/>
       <c r="C200" s="4"/>
@@ -5879,7 +5887,7 @@
       <c r="I200" s="12"/>
       <c r="J200" s="12"/>
     </row>
-    <row r="201" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:10" ht="22.15" customHeight="1">
       <c r="A201" s="12"/>
       <c r="B201" s="22"/>
       <c r="C201" s="4"/>
@@ -5891,7 +5899,7 @@
       <c r="I201" s="12"/>
       <c r="J201" s="12"/>
     </row>
-    <row r="202" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:10" ht="22.15" customHeight="1">
       <c r="A202" s="12"/>
       <c r="B202" s="22"/>
       <c r="C202" s="4"/>
@@ -5903,7 +5911,7 @@
       <c r="I202" s="12"/>
       <c r="J202" s="12"/>
     </row>
-    <row r="203" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:10" ht="22.15" customHeight="1">
       <c r="A203" s="12"/>
       <c r="B203" s="22"/>
       <c r="C203" s="4"/>
@@ -5915,7 +5923,7 @@
       <c r="I203" s="12"/>
       <c r="J203" s="12"/>
     </row>
-    <row r="204" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:10" ht="22.15" customHeight="1">
       <c r="A204" s="12"/>
       <c r="B204" s="22"/>
       <c r="C204" s="4"/>
@@ -5927,7 +5935,7 @@
       <c r="I204" s="12"/>
       <c r="J204" s="12"/>
     </row>
-    <row r="205" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:10" ht="22.15" customHeight="1">
       <c r="A205" s="12"/>
       <c r="B205" s="22"/>
       <c r="C205" s="4"/>
@@ -5939,7 +5947,7 @@
       <c r="I205" s="12"/>
       <c r="J205" s="12"/>
     </row>
-    <row r="206" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:10" ht="22.15" customHeight="1">
       <c r="A206" s="12"/>
       <c r="B206" s="22"/>
       <c r="C206" s="4"/>
@@ -5951,7 +5959,7 @@
       <c r="I206" s="12"/>
       <c r="J206" s="12"/>
     </row>
-    <row r="207" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:10" ht="22.15" customHeight="1">
       <c r="A207" s="12"/>
       <c r="B207" s="22"/>
       <c r="C207" s="4"/>
@@ -5963,7 +5971,7 @@
       <c r="I207" s="12"/>
       <c r="J207" s="12"/>
     </row>
-    <row r="208" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:10" ht="22.15" customHeight="1">
       <c r="A208" s="12"/>
       <c r="B208" s="22"/>
       <c r="C208" s="4"/>
@@ -5975,7 +5983,7 @@
       <c r="I208" s="12"/>
       <c r="J208" s="12"/>
     </row>
-    <row r="209" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:10" ht="22.15" customHeight="1">
       <c r="A209" s="12"/>
       <c r="B209" s="22"/>
       <c r="C209" s="4"/>
@@ -5987,7 +5995,7 @@
       <c r="I209" s="12"/>
       <c r="J209" s="12"/>
     </row>
-    <row r="210" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:10" ht="22.15" customHeight="1">
       <c r="A210" s="12"/>
       <c r="B210" s="22"/>
       <c r="C210" s="4"/>
@@ -5999,7 +6007,7 @@
       <c r="I210" s="12"/>
       <c r="J210" s="12"/>
     </row>
-    <row r="211" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:10" ht="22.15" customHeight="1">
       <c r="A211" s="12"/>
       <c r="B211" s="22"/>
       <c r="C211" s="4"/>
@@ -6011,7 +6019,7 @@
       <c r="I211" s="12"/>
       <c r="J211" s="12"/>
     </row>
-    <row r="212" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:10" ht="22.15" customHeight="1">
       <c r="A212" s="12"/>
       <c r="B212" s="22"/>
       <c r="C212" s="4"/>
@@ -6023,7 +6031,7 @@
       <c r="I212" s="12"/>
       <c r="J212" s="12"/>
     </row>
-    <row r="213" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:10" ht="22.15" customHeight="1">
       <c r="A213" s="12"/>
       <c r="B213" s="22"/>
       <c r="C213" s="4"/>
@@ -6035,7 +6043,7 @@
       <c r="I213" s="12"/>
       <c r="J213" s="12"/>
     </row>
-    <row r="214" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:10" ht="22.15" customHeight="1">
       <c r="A214" s="12"/>
       <c r="B214" s="22"/>
       <c r="C214" s="4"/>
@@ -6047,7 +6055,7 @@
       <c r="I214" s="12"/>
       <c r="J214" s="12"/>
     </row>
-    <row r="215" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:10" ht="22.15" customHeight="1">
       <c r="A215" s="12"/>
       <c r="B215" s="22"/>
       <c r="C215" s="4"/>
@@ -6059,7 +6067,7 @@
       <c r="I215" s="12"/>
       <c r="J215" s="12"/>
     </row>
-    <row r="216" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:10" ht="22.15" customHeight="1">
       <c r="A216" s="12"/>
       <c r="B216" s="22"/>
       <c r="C216" s="4"/>
@@ -6071,7 +6079,7 @@
       <c r="I216" s="12"/>
       <c r="J216" s="12"/>
     </row>
-    <row r="217" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:10" ht="22.15" customHeight="1">
       <c r="A217" s="12"/>
       <c r="B217" s="22"/>
       <c r="C217" s="4"/>
@@ -6083,7 +6091,7 @@
       <c r="I217" s="12"/>
       <c r="J217" s="12"/>
     </row>
-    <row r="218" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:10" ht="22.15" customHeight="1">
       <c r="A218" s="12"/>
       <c r="B218" s="22"/>
       <c r="C218" s="4"/>
@@ -6095,7 +6103,7 @@
       <c r="I218" s="12"/>
       <c r="J218" s="12"/>
     </row>
-    <row r="219" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:10" ht="22.15" customHeight="1">
       <c r="A219" s="12"/>
       <c r="B219" s="22"/>
       <c r="C219" s="4"/>
@@ -6107,7 +6115,7 @@
       <c r="I219" s="12"/>
       <c r="J219" s="12"/>
     </row>
-    <row r="220" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:10" ht="22.15" customHeight="1">
       <c r="A220" s="12"/>
       <c r="B220" s="22"/>
       <c r="C220" s="4"/>
@@ -6119,7 +6127,7 @@
       <c r="I220" s="12"/>
       <c r="J220" s="12"/>
     </row>
-    <row r="221" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:10" ht="22.15" customHeight="1">
       <c r="A221" s="12"/>
       <c r="B221" s="22"/>
       <c r="C221" s="4"/>
@@ -6131,7 +6139,7 @@
       <c r="I221" s="12"/>
       <c r="J221" s="12"/>
     </row>
-    <row r="222" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="222" spans="1:10" ht="22.15" customHeight="1">
       <c r="A222" s="12"/>
       <c r="B222" s="22"/>
       <c r="C222" s="4"/>
@@ -6143,7 +6151,7 @@
       <c r="I222" s="12"/>
       <c r="J222" s="12"/>
     </row>
-    <row r="223" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:10" ht="22.15" customHeight="1">
       <c r="A223" s="12"/>
       <c r="B223" s="22"/>
       <c r="C223" s="4"/>
@@ -6155,7 +6163,7 @@
       <c r="I223" s="12"/>
       <c r="J223" s="12"/>
     </row>
-    <row r="224" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:10" ht="22.15" customHeight="1">
       <c r="A224" s="12"/>
       <c r="B224" s="22"/>
       <c r="C224" s="4"/>
@@ -6167,7 +6175,7 @@
       <c r="I224" s="12"/>
       <c r="J224" s="12"/>
     </row>
-    <row r="225" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="225" spans="1:10" ht="22.15" customHeight="1">
       <c r="A225" s="12"/>
       <c r="B225" s="22"/>
       <c r="C225" s="4"/>
@@ -6179,7 +6187,7 @@
       <c r="I225" s="12"/>
       <c r="J225" s="12"/>
     </row>
-    <row r="226" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="226" spans="1:10" ht="22.15" customHeight="1">
       <c r="A226" s="12"/>
       <c r="B226" s="22"/>
       <c r="C226" s="4"/>
@@ -6191,7 +6199,7 @@
       <c r="I226" s="12"/>
       <c r="J226" s="12"/>
     </row>
-    <row r="227" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="227" spans="1:10" ht="22.15" customHeight="1">
       <c r="A227" s="12"/>
       <c r="B227" s="22"/>
       <c r="C227" s="4"/>
@@ -6203,7 +6211,7 @@
       <c r="I227" s="12"/>
       <c r="J227" s="12"/>
     </row>
-    <row r="228" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="228" spans="1:10" ht="22.15" customHeight="1">
       <c r="A228" s="12"/>
       <c r="B228" s="22"/>
       <c r="C228" s="4"/>
@@ -6215,7 +6223,7 @@
       <c r="I228" s="12"/>
       <c r="J228" s="12"/>
     </row>
-    <row r="229" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="229" spans="1:10" ht="22.15" customHeight="1">
       <c r="A229" s="12"/>
       <c r="B229" s="22"/>
       <c r="C229" s="4"/>
@@ -6227,7 +6235,7 @@
       <c r="I229" s="12"/>
       <c r="J229" s="12"/>
     </row>
-    <row r="230" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="230" spans="1:10" ht="22.15" customHeight="1">
       <c r="A230" s="12"/>
       <c r="B230" s="22"/>
       <c r="C230" s="4"/>
@@ -6239,7 +6247,7 @@
       <c r="I230" s="12"/>
       <c r="J230" s="12"/>
     </row>
-    <row r="231" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="231" spans="1:10" ht="22.15" customHeight="1">
       <c r="A231" s="12"/>
       <c r="B231" s="22"/>
       <c r="C231" s="4"/>
@@ -6251,7 +6259,7 @@
       <c r="I231" s="12"/>
       <c r="J231" s="12"/>
     </row>
-    <row r="232" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="232" spans="1:10" ht="22.15" customHeight="1">
       <c r="A232" s="12"/>
       <c r="B232" s="22"/>
       <c r="C232" s="4"/>
@@ -6263,7 +6271,7 @@
       <c r="I232" s="12"/>
       <c r="J232" s="12"/>
     </row>
-    <row r="233" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="233" spans="1:10" ht="22.15" customHeight="1">
       <c r="A233" s="12"/>
       <c r="B233" s="22"/>
       <c r="C233" s="4"/>
@@ -6275,7 +6283,7 @@
       <c r="I233" s="12"/>
       <c r="J233" s="12"/>
     </row>
-    <row r="234" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="234" spans="1:10" ht="22.15" customHeight="1">
       <c r="A234" s="12"/>
       <c r="B234" s="22"/>
       <c r="C234" s="4"/>
@@ -6287,7 +6295,7 @@
       <c r="I234" s="12"/>
       <c r="J234" s="12"/>
     </row>
-    <row r="235" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:10" ht="22.15" customHeight="1">
       <c r="A235" s="12"/>
       <c r="B235" s="22"/>
       <c r="C235" s="4"/>
@@ -6299,7 +6307,7 @@
       <c r="I235" s="12"/>
       <c r="J235" s="12"/>
     </row>
-    <row r="236" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="236" spans="1:10" ht="22.15" customHeight="1">
       <c r="A236" s="12"/>
       <c r="B236" s="22"/>
       <c r="C236" s="4"/>
@@ -6311,7 +6319,7 @@
       <c r="I236" s="12"/>
       <c r="J236" s="12"/>
     </row>
-    <row r="237" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="237" spans="1:10" ht="22.15" customHeight="1">
       <c r="A237" s="12"/>
       <c r="B237" s="22"/>
       <c r="C237" s="4"/>
@@ -6323,7 +6331,7 @@
       <c r="I237" s="12"/>
       <c r="J237" s="12"/>
     </row>
-    <row r="238" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:10" ht="22.15" customHeight="1">
       <c r="A238" s="12"/>
       <c r="B238" s="22"/>
       <c r="C238" s="4"/>
@@ -6335,7 +6343,7 @@
       <c r="I238" s="12"/>
       <c r="J238" s="12"/>
     </row>
-    <row r="239" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="239" spans="1:10" ht="22.15" customHeight="1">
       <c r="A239" s="12"/>
       <c r="B239" s="22"/>
       <c r="C239" s="4"/>
@@ -6347,7 +6355,7 @@
       <c r="I239" s="12"/>
       <c r="J239" s="12"/>
     </row>
-    <row r="240" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="240" spans="1:10" ht="22.15" customHeight="1">
       <c r="A240" s="12"/>
       <c r="B240" s="22"/>
       <c r="C240" s="4"/>
@@ -6359,7 +6367,7 @@
       <c r="I240" s="12"/>
       <c r="J240" s="12"/>
     </row>
-    <row r="241" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:10" ht="22.15" customHeight="1">
       <c r="A241" s="12"/>
       <c r="B241" s="22"/>
       <c r="C241" s="4"/>
@@ -6371,7 +6379,7 @@
       <c r="I241" s="12"/>
       <c r="J241" s="12"/>
     </row>
-    <row r="242" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="242" spans="1:10" ht="22.15" customHeight="1">
       <c r="A242" s="12"/>
       <c r="B242" s="22"/>
       <c r="C242" s="4"/>
@@ -6383,7 +6391,7 @@
       <c r="I242" s="12"/>
       <c r="J242" s="12"/>
     </row>
-    <row r="243" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="243" spans="1:10" ht="22.15" customHeight="1">
       <c r="A243" s="12"/>
       <c r="B243" s="22"/>
       <c r="C243" s="4"/>
@@ -6395,7 +6403,7 @@
       <c r="I243" s="12"/>
       <c r="J243" s="12"/>
     </row>
-    <row r="244" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="244" spans="1:10" ht="22.15" customHeight="1">
       <c r="A244" s="12"/>
       <c r="B244" s="22"/>
       <c r="C244" s="4"/>
@@ -6407,7 +6415,7 @@
       <c r="I244" s="12"/>
       <c r="J244" s="12"/>
     </row>
-    <row r="245" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="245" spans="1:10" ht="22.15" customHeight="1">
       <c r="A245" s="12"/>
       <c r="B245" s="22"/>
       <c r="C245" s="4"/>
@@ -6419,7 +6427,7 @@
       <c r="I245" s="12"/>
       <c r="J245" s="12"/>
     </row>
-    <row r="246" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="246" spans="1:10" ht="22.15" customHeight="1">
       <c r="A246" s="12"/>
       <c r="B246" s="22"/>
       <c r="C246" s="4"/>
@@ -6431,7 +6439,7 @@
       <c r="I246" s="12"/>
       <c r="J246" s="12"/>
     </row>
-    <row r="247" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="247" spans="1:10" ht="22.15" customHeight="1">
       <c r="A247" s="12"/>
       <c r="B247" s="22"/>
       <c r="C247" s="4"/>
@@ -6443,7 +6451,7 @@
       <c r="I247" s="12"/>
       <c r="J247" s="12"/>
     </row>
-    <row r="248" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="248" spans="1:10" ht="22.15" customHeight="1">
       <c r="A248" s="12"/>
       <c r="B248" s="22"/>
       <c r="C248" s="4"/>
@@ -6455,7 +6463,7 @@
       <c r="I248" s="12"/>
       <c r="J248" s="12"/>
     </row>
-    <row r="249" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="249" spans="1:10" ht="22.15" customHeight="1">
       <c r="A249" s="12"/>
       <c r="B249" s="22"/>
       <c r="C249" s="4"/>
@@ -6467,7 +6475,7 @@
       <c r="I249" s="12"/>
       <c r="J249" s="12"/>
     </row>
-    <row r="250" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="250" spans="1:10" ht="22.15" customHeight="1">
       <c r="A250" s="12"/>
       <c r="B250" s="22"/>
       <c r="C250" s="4"/>
@@ -6479,7 +6487,7 @@
       <c r="I250" s="12"/>
       <c r="J250" s="12"/>
     </row>
-    <row r="251" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="251" spans="1:10" ht="22.15" customHeight="1">
       <c r="A251" s="12"/>
       <c r="B251" s="22"/>
       <c r="C251" s="4"/>
@@ -6491,7 +6499,7 @@
       <c r="I251" s="12"/>
       <c r="J251" s="12"/>
     </row>
-    <row r="252" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="252" spans="1:10" ht="22.15" customHeight="1">
       <c r="A252" s="12"/>
       <c r="B252" s="22"/>
       <c r="C252" s="4"/>
@@ -6503,7 +6511,7 @@
       <c r="I252" s="12"/>
       <c r="J252" s="12"/>
     </row>
-    <row r="253" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="253" spans="1:10" ht="22.15" customHeight="1">
       <c r="A253" s="12"/>
       <c r="B253" s="22"/>
       <c r="C253" s="4"/>
@@ -6515,7 +6523,7 @@
       <c r="I253" s="12"/>
       <c r="J253" s="12"/>
     </row>
-    <row r="254" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="254" spans="1:10" ht="22.15" customHeight="1">
       <c r="A254" s="12"/>
       <c r="B254" s="22"/>
       <c r="C254" s="4"/>
@@ -6527,7 +6535,7 @@
       <c r="I254" s="12"/>
       <c r="J254" s="12"/>
     </row>
-    <row r="255" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="255" spans="1:10" ht="22.15" customHeight="1">
       <c r="A255" s="12"/>
       <c r="B255" s="22"/>
       <c r="C255" s="4"/>
@@ -6539,7 +6547,7 @@
       <c r="I255" s="12"/>
       <c r="J255" s="12"/>
     </row>
-    <row r="256" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="256" spans="1:10" ht="22.15" customHeight="1">
       <c r="A256" s="12"/>
       <c r="B256" s="22"/>
       <c r="C256" s="4"/>
@@ -6551,7 +6559,7 @@
       <c r="I256" s="12"/>
       <c r="J256" s="12"/>
     </row>
-    <row r="257" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="257" spans="1:10" ht="22.15" customHeight="1">
       <c r="A257" s="12"/>
       <c r="B257" s="22"/>
       <c r="C257" s="4"/>
@@ -6563,7 +6571,7 @@
       <c r="I257" s="12"/>
       <c r="J257" s="12"/>
     </row>
-    <row r="258" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="258" spans="1:10" ht="22.15" customHeight="1">
       <c r="A258" s="12"/>
       <c r="B258" s="22"/>
       <c r="C258" s="4"/>
@@ -6575,7 +6583,7 @@
       <c r="I258" s="12"/>
       <c r="J258" s="12"/>
     </row>
-    <row r="259" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="259" spans="1:10" ht="22.15" customHeight="1">
       <c r="A259" s="12"/>
       <c r="B259" s="22"/>
       <c r="C259" s="4"/>
@@ -6587,7 +6595,7 @@
       <c r="I259" s="12"/>
       <c r="J259" s="12"/>
     </row>
-    <row r="260" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="260" spans="1:10" ht="22.15" customHeight="1">
       <c r="A260" s="12"/>
       <c r="B260" s="22"/>
       <c r="C260" s="4"/>
@@ -6599,7 +6607,7 @@
       <c r="I260" s="12"/>
       <c r="J260" s="12"/>
     </row>
-    <row r="261" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="261" spans="1:10" ht="22.15" customHeight="1">
       <c r="A261" s="12"/>
       <c r="B261" s="22"/>
       <c r="C261" s="4"/>
@@ -6611,7 +6619,7 @@
       <c r="I261" s="12"/>
       <c r="J261" s="12"/>
     </row>
-    <row r="262" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="262" spans="1:10" ht="22.15" customHeight="1">
       <c r="A262" s="12"/>
       <c r="B262" s="22"/>
       <c r="C262" s="4"/>
@@ -6623,7 +6631,7 @@
       <c r="I262" s="12"/>
       <c r="J262" s="12"/>
     </row>
-    <row r="263" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="263" spans="1:10" ht="22.15" customHeight="1">
       <c r="A263" s="12"/>
       <c r="B263" s="22"/>
       <c r="C263" s="4"/>
@@ -6635,7 +6643,7 @@
       <c r="I263" s="12"/>
       <c r="J263" s="12"/>
     </row>
-    <row r="264" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="264" spans="1:10" ht="22.15" customHeight="1">
       <c r="A264" s="12"/>
       <c r="B264" s="22"/>
       <c r="C264" s="4"/>
@@ -6647,7 +6655,7 @@
       <c r="I264" s="12"/>
       <c r="J264" s="12"/>
     </row>
-    <row r="265" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="265" spans="1:10" ht="22.15" customHeight="1">
       <c r="A265" s="12"/>
       <c r="B265" s="22"/>
       <c r="C265" s="4"/>
@@ -6659,7 +6667,7 @@
       <c r="I265" s="12"/>
       <c r="J265" s="12"/>
     </row>
-    <row r="266" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="266" spans="1:10" ht="22.15" customHeight="1">
       <c r="A266" s="12"/>
       <c r="B266" s="22"/>
       <c r="C266" s="4"/>
@@ -6671,7 +6679,7 @@
       <c r="I266" s="12"/>
       <c r="J266" s="12"/>
     </row>
-    <row r="267" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="267" spans="1:10" ht="22.15" customHeight="1">
       <c r="A267" s="12"/>
       <c r="B267" s="22"/>
       <c r="C267" s="4"/>
@@ -6683,7 +6691,7 @@
       <c r="I267" s="12"/>
       <c r="J267" s="12"/>
     </row>
-    <row r="268" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="268" spans="1:10" ht="22.15" customHeight="1">
       <c r="A268" s="12"/>
       <c r="B268" s="22"/>
       <c r="C268" s="4"/>
@@ -6695,7 +6703,7 @@
       <c r="I268" s="12"/>
       <c r="J268" s="12"/>
     </row>
-    <row r="269" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="269" spans="1:10" ht="22.15" customHeight="1">
       <c r="A269" s="12"/>
       <c r="B269" s="22"/>
       <c r="C269" s="4"/>
@@ -6707,7 +6715,7 @@
       <c r="I269" s="12"/>
       <c r="J269" s="12"/>
     </row>
-    <row r="270" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="270" spans="1:10" ht="22.15" customHeight="1">
       <c r="A270" s="12"/>
       <c r="B270" s="22"/>
       <c r="C270" s="4"/>
@@ -6719,7 +6727,7 @@
       <c r="I270" s="12"/>
       <c r="J270" s="12"/>
     </row>
-    <row r="271" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="271" spans="1:10" ht="22.15" customHeight="1">
       <c r="A271" s="12"/>
       <c r="B271" s="22"/>
       <c r="C271" s="4"/>
@@ -6731,7 +6739,7 @@
       <c r="I271" s="12"/>
       <c r="J271" s="12"/>
     </row>
-    <row r="272" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="272" spans="1:10" ht="22.15" customHeight="1">
       <c r="A272" s="12"/>
       <c r="B272" s="22"/>
       <c r="C272" s="4"/>
@@ -6743,7 +6751,7 @@
       <c r="I272" s="12"/>
       <c r="J272" s="12"/>
     </row>
-    <row r="273" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="273" spans="1:10" ht="22.15" customHeight="1">
       <c r="A273" s="12"/>
       <c r="B273" s="22"/>
       <c r="C273" s="4"/>
@@ -6755,7 +6763,7 @@
       <c r="I273" s="12"/>
       <c r="J273" s="12"/>
     </row>
-    <row r="274" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="274" spans="1:10" ht="22.15" customHeight="1">
       <c r="A274" s="12"/>
       <c r="B274" s="22"/>
       <c r="C274" s="4"/>
@@ -6767,7 +6775,7 @@
       <c r="I274" s="12"/>
       <c r="J274" s="12"/>
     </row>
-    <row r="275" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="275" spans="1:10" ht="22.15" customHeight="1">
       <c r="A275" s="12"/>
       <c r="B275" s="22"/>
       <c r="C275" s="4"/>
@@ -6779,7 +6787,7 @@
       <c r="I275" s="12"/>
       <c r="J275" s="12"/>
     </row>
-    <row r="276" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="276" spans="1:10" ht="22.15" customHeight="1">
       <c r="A276" s="12"/>
       <c r="B276" s="22"/>
       <c r="C276" s="4"/>
@@ -6791,7 +6799,7 @@
       <c r="I276" s="12"/>
       <c r="J276" s="12"/>
     </row>
-    <row r="277" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="277" spans="1:10" ht="22.15" customHeight="1">
       <c r="A277" s="12"/>
       <c r="B277" s="22"/>
       <c r="C277" s="4"/>
@@ -6803,7 +6811,7 @@
       <c r="I277" s="12"/>
       <c r="J277" s="12"/>
     </row>
-    <row r="278" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="278" spans="1:10" ht="22.15" customHeight="1">
       <c r="A278" s="12"/>
       <c r="B278" s="22"/>
       <c r="C278" s="4"/>
@@ -6815,7 +6823,7 @@
       <c r="I278" s="12"/>
       <c r="J278" s="12"/>
     </row>
-    <row r="279" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="279" spans="1:10" ht="22.15" customHeight="1">
       <c r="A279" s="12"/>
       <c r="B279" s="22"/>
       <c r="C279" s="4"/>
@@ -6827,7 +6835,7 @@
       <c r="I279" s="12"/>
       <c r="J279" s="12"/>
     </row>
-    <row r="280" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="280" spans="1:10" ht="22.15" customHeight="1">
       <c r="A280" s="12"/>
       <c r="B280" s="22"/>
       <c r="C280" s="4"/>
@@ -6839,7 +6847,7 @@
       <c r="I280" s="12"/>
       <c r="J280" s="12"/>
     </row>
-    <row r="281" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="281" spans="1:10" ht="22.15" customHeight="1">
       <c r="A281" s="12"/>
       <c r="B281" s="22"/>
       <c r="C281" s="4"/>
@@ -6851,7 +6859,7 @@
       <c r="I281" s="12"/>
       <c r="J281" s="12"/>
     </row>
-    <row r="282" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="282" spans="1:10" ht="22.15" customHeight="1">
       <c r="A282" s="12"/>
       <c r="B282" s="22"/>
       <c r="C282" s="4"/>
@@ -6863,7 +6871,7 @@
       <c r="I282" s="12"/>
       <c r="J282" s="12"/>
     </row>
-    <row r="283" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="283" spans="1:10" ht="22.15" customHeight="1">
       <c r="A283" s="12"/>
       <c r="B283" s="22"/>
       <c r="C283" s="4"/>
@@ -6875,7 +6883,7 @@
       <c r="I283" s="12"/>
       <c r="J283" s="12"/>
     </row>
-    <row r="284" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="284" spans="1:10" ht="22.15" customHeight="1">
       <c r="A284" s="12"/>
       <c r="B284" s="22"/>
       <c r="C284" s="4"/>
@@ -6887,7 +6895,7 @@
       <c r="I284" s="12"/>
       <c r="J284" s="12"/>
     </row>
-    <row r="285" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="285" spans="1:10" ht="22.15" customHeight="1">
       <c r="A285" s="12"/>
       <c r="B285" s="22"/>
       <c r="C285" s="4"/>
@@ -6899,7 +6907,7 @@
       <c r="I285" s="12"/>
       <c r="J285" s="12"/>
     </row>
-    <row r="286" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="286" spans="1:10" ht="22.15" customHeight="1">
       <c r="A286" s="12"/>
       <c r="B286" s="22"/>
       <c r="C286" s="4"/>
@@ -6911,7 +6919,7 @@
       <c r="I286" s="12"/>
       <c r="J286" s="12"/>
     </row>
-    <row r="287" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="287" spans="1:10" ht="22.15" customHeight="1">
       <c r="A287" s="12"/>
       <c r="B287" s="22"/>
       <c r="C287" s="4"/>
@@ -6923,7 +6931,7 @@
       <c r="I287" s="12"/>
       <c r="J287" s="12"/>
     </row>
-    <row r="288" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="288" spans="1:10" ht="22.15" customHeight="1">
       <c r="A288" s="12"/>
       <c r="B288" s="22"/>
       <c r="C288" s="4"/>
@@ -6935,7 +6943,7 @@
       <c r="I288" s="12"/>
       <c r="J288" s="12"/>
     </row>
-    <row r="289" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="289" spans="1:10" ht="22.15" customHeight="1">
       <c r="A289" s="12"/>
       <c r="B289" s="22"/>
       <c r="C289" s="4"/>
@@ -6947,7 +6955,7 @@
       <c r="I289" s="12"/>
       <c r="J289" s="12"/>
     </row>
-    <row r="290" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="290" spans="1:10" ht="22.15" customHeight="1">
       <c r="A290" s="12"/>
       <c r="B290" s="22"/>
       <c r="C290" s="4"/>
@@ -6959,7 +6967,7 @@
       <c r="I290" s="12"/>
       <c r="J290" s="12"/>
     </row>
-    <row r="291" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="291" spans="1:10" ht="22.15" customHeight="1">
       <c r="A291" s="12"/>
       <c r="B291" s="22"/>
       <c r="C291" s="4"/>
@@ -6973,14 +6981,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B55:B60"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="B139:B140"/>
-    <mergeCell ref="B38:B47"/>
-    <mergeCell ref="B48:B52"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="A138:J138"/>
-    <mergeCell ref="B108:B110"/>
     <mergeCell ref="B29:B37"/>
     <mergeCell ref="B64:B72"/>
     <mergeCell ref="B2:B28"/>
@@ -6997,36 +6997,44 @@
     <mergeCell ref="B129:B131"/>
     <mergeCell ref="B133:B137"/>
     <mergeCell ref="B143:B144"/>
+    <mergeCell ref="B55:B60"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="B139:B140"/>
+    <mergeCell ref="B38:B47"/>
+    <mergeCell ref="B48:B52"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="A138:J138"/>
+    <mergeCell ref="B108:B110"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I44">
     <cfRule type="timePeriod" dxfId="5" priority="6" timePeriod="lastMonth">
-      <formula>AND(MONTH(I44)=MONTH(EDATE(TODAY(),0-1)),YEAR(I44)=YEAR(EDATE(TODAY(),0-1)))</formula>
+      <formula>AND(MONTH(I44)=MONTH(TODAY())-1,OR(YEAR(I44)=YEAR(TODAY()),AND(MONTH(I44)=1,YEAR(I44)=YEAR(TODAY())-1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I49">
     <cfRule type="timePeriod" dxfId="4" priority="5" timePeriod="lastMonth">
-      <formula>AND(MONTH(I49)=MONTH(EDATE(TODAY(),0-1)),YEAR(I49)=YEAR(EDATE(TODAY(),0-1)))</formula>
+      <formula>AND(MONTH(I49)=MONTH(TODAY())-1,OR(YEAR(I49)=YEAR(TODAY()),AND(MONTH(I49)=1,YEAR(I49)=YEAR(TODAY())-1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I46">
     <cfRule type="timePeriod" dxfId="3" priority="4" timePeriod="lastMonth">
-      <formula>AND(MONTH(I46)=MONTH(EDATE(TODAY(),0-1)),YEAR(I46)=YEAR(EDATE(TODAY(),0-1)))</formula>
+      <formula>AND(MONTH(I46)=MONTH(TODAY())-1,OR(YEAR(I46)=YEAR(TODAY()),AND(MONTH(I46)=1,YEAR(I46)=YEAR(TODAY())-1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I50">
     <cfRule type="timePeriod" dxfId="2" priority="3" timePeriod="lastMonth">
-      <formula>AND(MONTH(I50)=MONTH(EDATE(TODAY(),0-1)),YEAR(I50)=YEAR(EDATE(TODAY(),0-1)))</formula>
+      <formula>AND(MONTH(I50)=MONTH(TODAY())-1,OR(YEAR(I50)=YEAR(TODAY()),AND(MONTH(I50)=1,YEAR(I50)=YEAR(TODAY())-1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I45">
     <cfRule type="timePeriod" dxfId="1" priority="2" timePeriod="lastMonth">
-      <formula>AND(MONTH(I45)=MONTH(EDATE(TODAY(),0-1)),YEAR(I45)=YEAR(EDATE(TODAY(),0-1)))</formula>
+      <formula>AND(MONTH(I45)=MONTH(TODAY())-1,OR(YEAR(I45)=YEAR(TODAY()),AND(MONTH(I45)=1,YEAR(I45)=YEAR(TODAY())-1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I51">
     <cfRule type="timePeriod" dxfId="0" priority="1" timePeriod="lastMonth">
-      <formula>AND(MONTH(I51)=MONTH(EDATE(TODAY(),0-1)),YEAR(I51)=YEAR(EDATE(TODAY(),0-1)))</formula>
+      <formula>AND(MONTH(I51)=MONTH(TODAY())-1,OR(YEAR(I51)=YEAR(TODAY()),AND(MONTH(I51)=1,YEAR(I51)=YEAR(TODAY())-1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ProjectManagement/文档/问题点一览.xlsx
+++ b/ProjectManagement/文档/问题点一览.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="244">
   <si>
     <t>NO</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -977,6 +977,10 @@
   </si>
   <si>
     <t>发现已修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不太理解</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1665,8 +1669,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K291"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A128" workbookViewId="0">
-      <selection activeCell="C132" sqref="C132"/>
+    <sheetView tabSelected="1" topLeftCell="A110" workbookViewId="0">
+      <selection activeCell="F128" sqref="F128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="22.15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4717,9 +4721,15 @@
         <v>42892</v>
       </c>
       <c r="F123" s="12"/>
-      <c r="G123" s="12"/>
-      <c r="H123" s="14"/>
-      <c r="I123" s="12"/>
+      <c r="G123" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="H123" s="32">
+        <v>42898</v>
+      </c>
+      <c r="I123" s="12" t="s">
+        <v>124</v>
+      </c>
       <c r="J123" s="12"/>
     </row>
     <row r="124" spans="1:10" s="27" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4735,9 +4745,15 @@
         <v>42892</v>
       </c>
       <c r="F124" s="12"/>
-      <c r="G124" s="12"/>
-      <c r="H124" s="14"/>
-      <c r="I124" s="12"/>
+      <c r="G124" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="H124" s="32">
+        <v>42898</v>
+      </c>
+      <c r="I124" s="12" t="s">
+        <v>124</v>
+      </c>
       <c r="J124" s="12"/>
     </row>
     <row r="125" spans="1:10" s="27" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4753,9 +4769,15 @@
         <v>42892</v>
       </c>
       <c r="F125" s="12"/>
-      <c r="G125" s="12"/>
-      <c r="H125" s="14"/>
-      <c r="I125" s="12"/>
+      <c r="G125" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="H125" s="32">
+        <v>42898</v>
+      </c>
+      <c r="I125" s="12" t="s">
+        <v>124</v>
+      </c>
       <c r="J125" s="12"/>
     </row>
     <row r="126" spans="1:10" s="27" customFormat="1" ht="28" x14ac:dyDescent="0.25">
@@ -4770,9 +4792,11 @@
       <c r="E126" s="14">
         <v>42892</v>
       </c>
-      <c r="F126" s="12"/>
-      <c r="G126" s="12"/>
-      <c r="H126" s="14"/>
+      <c r="F126" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="G126" s="28"/>
+      <c r="H126" s="32"/>
       <c r="I126" s="12"/>
       <c r="J126" s="12"/>
     </row>
@@ -4785,9 +4809,15 @@
       <c r="D127" s="12"/>
       <c r="E127" s="14"/>
       <c r="F127" s="12"/>
-      <c r="G127" s="12"/>
-      <c r="H127" s="14"/>
-      <c r="I127" s="12"/>
+      <c r="G127" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="H127" s="32">
+        <v>42898</v>
+      </c>
+      <c r="I127" s="12" t="s">
+        <v>124</v>
+      </c>
       <c r="J127" s="12"/>
     </row>
     <row r="128" spans="1:10" ht="28" x14ac:dyDescent="0.25">
@@ -4805,9 +4835,15 @@
         <v>42892</v>
       </c>
       <c r="F128" s="12"/>
-      <c r="G128" s="12"/>
-      <c r="H128" s="14"/>
-      <c r="I128" s="12"/>
+      <c r="G128" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="H128" s="32">
+        <v>42898</v>
+      </c>
+      <c r="I128" s="12" t="s">
+        <v>124</v>
+      </c>
       <c r="J128" s="12"/>
     </row>
     <row r="129" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4905,9 +4941,15 @@
         <v>42892</v>
       </c>
       <c r="F132" s="12"/>
-      <c r="G132" s="12"/>
-      <c r="H132" s="14"/>
-      <c r="I132" s="12"/>
+      <c r="G132" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="H132" s="32">
+        <v>42898</v>
+      </c>
+      <c r="I132" s="12" t="s">
+        <v>124</v>
+      </c>
       <c r="J132" s="12"/>
     </row>
     <row r="133" spans="1:10" ht="28" x14ac:dyDescent="0.25">
@@ -5214,7 +5256,7 @@
       </c>
       <c r="J144" s="11"/>
     </row>
-    <row r="145" spans="1:10" ht="42" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:10" ht="42.5" x14ac:dyDescent="0.25">
       <c r="A145" s="31">
         <v>104</v>
       </c>

--- a/ProjectManagement/文档/问题点一览.xlsx
+++ b/ProjectManagement/文档/问题点一览.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="240">
   <si>
     <t>NO</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -624,10 +624,6 @@
   </si>
   <si>
     <t>交付物添加时，开始时间修改后，结束时间自动和开始时间一至，工作量应为1天。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如果干系人公司名称为空的话，在干系人清单里没有显示出来这个人，应该把人名显示出来，公司名称为空</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -965,6 +961,10 @@
   </si>
   <si>
     <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已修改</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1293,57 +1293,7 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1652,10 +1602,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K291"/>
+  <dimension ref="A1:K290"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
-      <selection activeCell="I145" sqref="I145"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="I67" sqref="I67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="22.15" customHeight="1"/>
@@ -1724,7 +1674,7 @@
       </c>
       <c r="F2" s="12"/>
       <c r="G2" s="12" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H2" s="14">
         <v>42826</v>
@@ -1922,7 +1872,7 @@
       </c>
       <c r="B10" s="50"/>
       <c r="C10" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>10</v>
@@ -2085,7 +2035,7 @@
       </c>
       <c r="B16" s="50"/>
       <c r="C16" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D16" s="7" t="s">
         <v>10</v>
@@ -2114,7 +2064,7 @@
       </c>
       <c r="B17" s="50"/>
       <c r="C17" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D17" s="7" t="s">
         <v>10</v>
@@ -2167,7 +2117,7 @@
       </c>
       <c r="B19" s="50"/>
       <c r="C19" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>10</v>
@@ -2204,7 +2154,7 @@
       </c>
       <c r="F20" s="18"/>
       <c r="G20" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H20" s="15">
         <v>42887</v>
@@ -2221,17 +2171,17 @@
       </c>
       <c r="B21" s="50"/>
       <c r="C21" s="37" t="s">
+        <v>169</v>
+      </c>
+      <c r="D21" s="38" t="s">
         <v>170</v>
-      </c>
-      <c r="D21" s="38" t="s">
-        <v>171</v>
       </c>
       <c r="E21" s="39">
         <v>42887</v>
       </c>
       <c r="F21" s="18"/>
       <c r="G21" s="29" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H21" s="33">
         <v>42888</v>
@@ -2248,10 +2198,10 @@
       </c>
       <c r="B22" s="50"/>
       <c r="C22" s="40" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D22" s="38" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E22" s="39">
         <v>42887</v>
@@ -2275,17 +2225,17 @@
       </c>
       <c r="B23" s="50"/>
       <c r="C23" s="40" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D23" s="38" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E23" s="39">
         <v>42887</v>
       </c>
       <c r="F23" s="18"/>
       <c r="G23" s="29" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H23" s="33">
         <v>42893</v>
@@ -2329,7 +2279,7 @@
       </c>
       <c r="B25" s="50"/>
       <c r="C25" s="30" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D25" s="29" t="s">
         <v>10</v>
@@ -2339,7 +2289,7 @@
       </c>
       <c r="F25" s="36"/>
       <c r="G25" s="29" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H25" s="33">
         <v>42888</v>
@@ -2356,7 +2306,7 @@
       </c>
       <c r="B26" s="50"/>
       <c r="C26" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D26" s="29" t="s">
         <v>56</v>
@@ -2366,7 +2316,7 @@
       </c>
       <c r="F26" s="29"/>
       <c r="G26" s="29" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H26" s="33">
         <v>42888</v>
@@ -2383,7 +2333,7 @@
       </c>
       <c r="B27" s="50"/>
       <c r="C27" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D27" s="29" t="s">
         <v>10</v>
@@ -2409,7 +2359,7 @@
       </c>
       <c r="B28" s="51"/>
       <c r="C28" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D28" s="29" t="s">
         <v>10</v>
@@ -2567,7 +2517,7 @@
       </c>
       <c r="B34" s="50"/>
       <c r="C34" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D34" s="24" t="s">
         <v>10</v>
@@ -2577,7 +2527,7 @@
       </c>
       <c r="F34" s="12"/>
       <c r="G34" s="29" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H34" s="33">
         <v>42888</v>
@@ -2593,7 +2543,7 @@
       </c>
       <c r="B35" s="50"/>
       <c r="C35" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D35" s="24" t="s">
         <v>10</v>
@@ -2619,7 +2569,7 @@
       </c>
       <c r="B36" s="50"/>
       <c r="C36" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D36" s="24" t="s">
         <v>10</v>
@@ -2629,7 +2579,7 @@
       </c>
       <c r="F36" s="12"/>
       <c r="G36" s="29" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H36" s="33">
         <v>42888</v>
@@ -2645,10 +2595,10 @@
       </c>
       <c r="B37" s="51"/>
       <c r="C37" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D37" s="24" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E37" s="25">
         <v>42887</v>
@@ -2860,7 +2810,7 @@
         <v>42886</v>
       </c>
       <c r="F45" s="12" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G45" s="11" t="s">
         <v>49</v>
@@ -2869,7 +2819,7 @@
         <v>42887</v>
       </c>
       <c r="I45" s="11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J45" s="12"/>
     </row>
@@ -3023,7 +2973,7 @@
       </c>
       <c r="F51" s="7"/>
       <c r="G51" s="11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H51" s="2">
         <v>42887</v>
@@ -3223,7 +3173,7 @@
       <c r="A59" s="32"/>
       <c r="B59" s="45"/>
       <c r="C59" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D59" s="12" t="s">
         <v>10</v>
@@ -3295,7 +3245,7 @@
       <c r="A62" s="32"/>
       <c r="B62" s="45"/>
       <c r="C62" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D62" s="12" t="s">
         <v>10</v>
@@ -3393,7 +3343,7 @@
       <c r="A66" s="32"/>
       <c r="B66" s="50"/>
       <c r="C66" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D66" s="12" t="s">
         <v>10</v>
@@ -3411,7 +3361,7 @@
       <c r="A67" s="32"/>
       <c r="B67" s="50"/>
       <c r="C67" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D67" s="12" t="s">
         <v>10</v>
@@ -3420,16 +3370,22 @@
         <v>42892</v>
       </c>
       <c r="F67" s="12"/>
-      <c r="G67" s="12"/>
-      <c r="H67" s="14"/>
-      <c r="I67" s="12"/>
+      <c r="G67" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="H67" s="14">
+        <v>42898</v>
+      </c>
+      <c r="I67" s="12" t="s">
+        <v>239</v>
+      </c>
       <c r="J67" s="12"/>
     </row>
     <row r="68" spans="1:10" s="28" customFormat="1" ht="13.5">
       <c r="A68" s="32"/>
       <c r="B68" s="50"/>
       <c r="C68" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D68" s="12" t="s">
         <v>10</v>
@@ -3443,187 +3399,203 @@
       <c r="I68" s="12"/>
       <c r="J68" s="12"/>
     </row>
-    <row r="69" spans="1:10" ht="27">
-      <c r="A69" s="32">
-        <v>63</v>
-      </c>
+    <row r="69" spans="1:10" s="28" customFormat="1" ht="27">
+      <c r="A69" s="32"/>
       <c r="B69" s="50"/>
       <c r="C69" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="D69" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E69" s="17">
-        <v>42887</v>
+        <v>233</v>
+      </c>
+      <c r="D69" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E69" s="14">
+        <v>42894</v>
       </c>
       <c r="F69" s="12"/>
-      <c r="G69" s="12"/>
-      <c r="H69" s="14"/>
-      <c r="I69" s="12"/>
+      <c r="G69" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="H69" s="14">
+        <v>42898</v>
+      </c>
+      <c r="I69" s="12" t="s">
+        <v>239</v>
+      </c>
       <c r="J69" s="12"/>
     </row>
-    <row r="70" spans="1:10" s="28" customFormat="1" ht="27">
-      <c r="A70" s="32"/>
+    <row r="70" spans="1:10" ht="22.15" customHeight="1">
+      <c r="A70" s="32">
+        <v>64</v>
+      </c>
       <c r="B70" s="50"/>
       <c r="C70" s="4" t="s">
-        <v>234</v>
+        <v>36</v>
       </c>
       <c r="D70" s="12" t="s">
         <v>10</v>
       </c>
       <c r="E70" s="14">
-        <v>42894</v>
+        <v>42825</v>
       </c>
       <c r="F70" s="12"/>
-      <c r="G70" s="12"/>
-      <c r="H70" s="14"/>
-      <c r="I70" s="12"/>
-      <c r="J70" s="12"/>
-    </row>
-    <row r="71" spans="1:10" ht="22.15" customHeight="1">
+      <c r="G70" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="H70" s="14">
+        <v>42898</v>
+      </c>
+      <c r="I70" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="J70" s="12" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" s="26" customFormat="1" ht="27">
       <c r="A71" s="32">
-        <v>64</v>
-      </c>
-      <c r="B71" s="50"/>
+        <v>65</v>
+      </c>
+      <c r="B71" s="51"/>
       <c r="C71" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D71" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E71" s="14">
-        <v>42825</v>
+        <v>166</v>
+      </c>
+      <c r="D71" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E71" s="25">
+        <v>42887</v>
       </c>
       <c r="F71" s="12"/>
-      <c r="G71" s="12"/>
-      <c r="H71" s="12"/>
-      <c r="I71" s="12"/>
-      <c r="J71" s="12" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" s="26" customFormat="1" ht="27">
+      <c r="G71" s="31" t="s">
+        <v>237</v>
+      </c>
+      <c r="H71" s="2">
+        <v>42898</v>
+      </c>
+      <c r="I71" s="31" t="s">
+        <v>239</v>
+      </c>
+      <c r="J71" s="11"/>
+    </row>
+    <row r="72" spans="1:10" ht="40.5">
       <c r="A72" s="32">
-        <v>65</v>
-      </c>
-      <c r="B72" s="51"/>
+        <v>66</v>
+      </c>
+      <c r="B72" s="45" t="s">
+        <v>207</v>
+      </c>
       <c r="C72" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="D72" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="E72" s="25">
-        <v>42887</v>
+        <v>38</v>
+      </c>
+      <c r="D72" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E72" s="14">
+        <v>42826</v>
       </c>
       <c r="F72" s="12"/>
-      <c r="G72" s="11"/>
-      <c r="H72" s="2"/>
-      <c r="I72" s="11"/>
-      <c r="J72" s="11"/>
-    </row>
-    <row r="73" spans="1:10" ht="40.5">
+      <c r="G72" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="H72" s="14">
+        <v>42831</v>
+      </c>
+      <c r="I72" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="J72" s="12"/>
+    </row>
+    <row r="73" spans="1:10" ht="22.15" customHeight="1">
       <c r="A73" s="32">
-        <v>66</v>
-      </c>
-      <c r="B73" s="45" t="s">
-        <v>208</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="B73" s="45"/>
       <c r="C73" s="4" t="s">
-        <v>38</v>
+        <v>105</v>
       </c>
       <c r="D73" s="12" t="s">
         <v>10</v>
       </c>
       <c r="E73" s="14">
-        <v>42826</v>
+        <v>42863</v>
       </c>
       <c r="F73" s="12"/>
       <c r="G73" s="12" t="s">
         <v>75</v>
       </c>
       <c r="H73" s="14">
-        <v>42831</v>
+        <v>42864</v>
       </c>
       <c r="I73" s="12" t="s">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="J73" s="12"/>
     </row>
     <row r="74" spans="1:10" ht="22.15" customHeight="1">
       <c r="A74" s="32">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B74" s="45"/>
       <c r="C74" s="4" t="s">
-        <v>105</v>
+        <v>208</v>
       </c>
       <c r="D74" s="12" t="s">
         <v>10</v>
       </c>
       <c r="E74" s="14">
-        <v>42863</v>
+        <v>42886</v>
       </c>
       <c r="F74" s="12"/>
-      <c r="G74" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="H74" s="14">
-        <v>42864</v>
-      </c>
-      <c r="I74" s="12" t="s">
-        <v>50</v>
-      </c>
+      <c r="G74" s="12"/>
+      <c r="H74" s="14"/>
+      <c r="I74" s="12"/>
       <c r="J74" s="12"/>
     </row>
-    <row r="75" spans="1:10" ht="22.15" customHeight="1">
-      <c r="A75" s="32">
-        <v>68</v>
-      </c>
+    <row r="75" spans="1:10" s="28" customFormat="1" ht="22.15" customHeight="1">
+      <c r="A75" s="32"/>
       <c r="B75" s="45"/>
       <c r="C75" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="D75" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E75" s="14">
-        <v>42886</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="D75" s="12"/>
+      <c r="E75" s="14"/>
       <c r="F75" s="12"/>
       <c r="G75" s="12"/>
       <c r="H75" s="14"/>
       <c r="I75" s="12"/>
       <c r="J75" s="12"/>
     </row>
-    <row r="76" spans="1:10" s="28" customFormat="1" ht="22.15" customHeight="1">
-      <c r="A76" s="32"/>
+    <row r="76" spans="1:10" ht="27">
+      <c r="A76" s="32">
+        <v>69</v>
+      </c>
       <c r="B76" s="45"/>
       <c r="C76" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="D76" s="12"/>
-      <c r="E76" s="14"/>
+        <v>150</v>
+      </c>
+      <c r="D76" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E76" s="14">
+        <v>42886</v>
+      </c>
       <c r="F76" s="12"/>
       <c r="G76" s="12"/>
       <c r="H76" s="14"/>
       <c r="I76" s="12"/>
       <c r="J76" s="12"/>
     </row>
-    <row r="77" spans="1:10" ht="27">
-      <c r="A77" s="32">
-        <v>69</v>
-      </c>
+    <row r="77" spans="1:10" s="28" customFormat="1" ht="40.5">
+      <c r="A77" s="32"/>
       <c r="B77" s="45"/>
       <c r="C77" s="4" t="s">
-        <v>150</v>
+        <v>209</v>
       </c>
       <c r="D77" s="12" t="s">
         <v>10</v>
       </c>
       <c r="E77" s="14">
-        <v>42886</v>
+        <v>42892</v>
       </c>
       <c r="F77" s="12"/>
       <c r="G77" s="12"/>
@@ -3631,31 +3603,41 @@
       <c r="I77" s="12"/>
       <c r="J77" s="12"/>
     </row>
-    <row r="78" spans="1:10" s="28" customFormat="1" ht="40.5">
-      <c r="A78" s="32"/>
+    <row r="78" spans="1:10" ht="22.15" customHeight="1">
+      <c r="A78" s="32">
+        <v>70</v>
+      </c>
       <c r="B78" s="45"/>
       <c r="C78" s="4" t="s">
-        <v>210</v>
+        <v>37</v>
       </c>
       <c r="D78" s="12" t="s">
         <v>10</v>
       </c>
       <c r="E78" s="14">
-        <v>42892</v>
+        <v>42826</v>
       </c>
       <c r="F78" s="12"/>
-      <c r="G78" s="12"/>
-      <c r="H78" s="14"/>
-      <c r="I78" s="12"/>
+      <c r="G78" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="H78" s="14">
+        <v>42831</v>
+      </c>
+      <c r="I78" s="12" t="s">
+        <v>77</v>
+      </c>
       <c r="J78" s="12"/>
     </row>
-    <row r="79" spans="1:10" ht="22.15" customHeight="1">
+    <row r="79" spans="1:10" ht="27">
       <c r="A79" s="32">
-        <v>70</v>
-      </c>
-      <c r="B79" s="45"/>
+        <v>71</v>
+      </c>
+      <c r="B79" s="45" t="s">
+        <v>39</v>
+      </c>
       <c r="C79" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D79" s="12" t="s">
         <v>10</v>
@@ -3671,45 +3653,35 @@
         <v>42831</v>
       </c>
       <c r="I79" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="J79" s="12"/>
-    </row>
-    <row r="80" spans="1:10" ht="27">
-      <c r="A80" s="32">
-        <v>71</v>
-      </c>
-      <c r="B80" s="45" t="s">
-        <v>39</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="J79" s="12" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" s="28" customFormat="1" ht="13.5">
+      <c r="A80" s="32"/>
+      <c r="B80" s="45"/>
       <c r="C80" s="4" t="s">
-        <v>40</v>
+        <v>215</v>
       </c>
       <c r="D80" s="12" t="s">
         <v>10</v>
       </c>
       <c r="E80" s="14">
-        <v>42826</v>
+        <v>42892</v>
       </c>
       <c r="F80" s="12"/>
-      <c r="G80" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="H80" s="14">
-        <v>42831</v>
-      </c>
-      <c r="I80" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="J80" s="12" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" s="28" customFormat="1" ht="13.5">
+      <c r="G80" s="12"/>
+      <c r="H80" s="14"/>
+      <c r="I80" s="12"/>
+      <c r="J80" s="12"/>
+    </row>
+    <row r="81" spans="1:10" s="28" customFormat="1" ht="25.9" customHeight="1">
       <c r="A81" s="32"/>
       <c r="B81" s="45"/>
       <c r="C81" s="4" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D81" s="12" t="s">
         <v>10</v>
@@ -3723,57 +3695,67 @@
       <c r="I81" s="12"/>
       <c r="J81" s="12"/>
     </row>
-    <row r="82" spans="1:10" s="28" customFormat="1" ht="25.9" customHeight="1">
-      <c r="A82" s="32"/>
+    <row r="82" spans="1:10" ht="22.15" customHeight="1">
+      <c r="A82" s="32">
+        <v>72</v>
+      </c>
       <c r="B82" s="45"/>
       <c r="C82" s="4" t="s">
-        <v>215</v>
+        <v>105</v>
       </c>
       <c r="D82" s="12" t="s">
         <v>10</v>
       </c>
       <c r="E82" s="14">
-        <v>42892</v>
+        <v>42863</v>
       </c>
       <c r="F82" s="12"/>
-      <c r="G82" s="12"/>
-      <c r="H82" s="14"/>
-      <c r="I82" s="12"/>
+      <c r="G82" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="H82" s="14">
+        <v>42864</v>
+      </c>
+      <c r="I82" s="12" t="s">
+        <v>130</v>
+      </c>
       <c r="J82" s="12"/>
     </row>
     <row r="83" spans="1:10" ht="22.15" customHeight="1">
       <c r="A83" s="32">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B83" s="45"/>
       <c r="C83" s="4" t="s">
-        <v>105</v>
+        <v>37</v>
       </c>
       <c r="D83" s="12" t="s">
         <v>10</v>
       </c>
       <c r="E83" s="14">
-        <v>42863</v>
+        <v>42826</v>
       </c>
       <c r="F83" s="12"/>
       <c r="G83" s="12" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="H83" s="14">
-        <v>42864</v>
+        <v>42831</v>
       </c>
       <c r="I83" s="12" t="s">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="J83" s="12"/>
     </row>
-    <row r="84" spans="1:10" ht="22.15" customHeight="1">
+    <row r="84" spans="1:10" ht="27">
       <c r="A84" s="32">
-        <v>73</v>
-      </c>
-      <c r="B84" s="45"/>
+        <v>74</v>
+      </c>
+      <c r="B84" s="45" t="s">
+        <v>41</v>
+      </c>
       <c r="C84" s="4" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D84" s="12" t="s">
         <v>10</v>
@@ -3783,42 +3765,32 @@
       </c>
       <c r="F84" s="12"/>
       <c r="G84" s="12" t="s">
-        <v>131</v>
+        <v>73</v>
       </c>
       <c r="H84" s="14">
-        <v>42831</v>
+        <v>42830</v>
       </c>
       <c r="I84" s="12" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="J84" s="12"/>
     </row>
-    <row r="85" spans="1:10" ht="27">
-      <c r="A85" s="32">
-        <v>74</v>
-      </c>
-      <c r="B85" s="45" t="s">
-        <v>41</v>
-      </c>
+    <row r="85" spans="1:10" s="28" customFormat="1" ht="13.5">
+      <c r="A85" s="32"/>
+      <c r="B85" s="45"/>
       <c r="C85" s="4" t="s">
-        <v>42</v>
+        <v>216</v>
       </c>
       <c r="D85" s="12" t="s">
         <v>10</v>
       </c>
       <c r="E85" s="14">
-        <v>42826</v>
+        <v>42892</v>
       </c>
       <c r="F85" s="12"/>
-      <c r="G85" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="H85" s="14">
-        <v>42830</v>
-      </c>
-      <c r="I85" s="12" t="s">
-        <v>70</v>
-      </c>
+      <c r="G85" s="12"/>
+      <c r="H85" s="14"/>
+      <c r="I85" s="12"/>
       <c r="J85" s="12"/>
     </row>
     <row r="86" spans="1:10" s="28" customFormat="1" ht="13.5">
@@ -3839,57 +3811,67 @@
       <c r="I86" s="12"/>
       <c r="J86" s="12"/>
     </row>
-    <row r="87" spans="1:10" s="28" customFormat="1" ht="13.5">
-      <c r="A87" s="32"/>
+    <row r="87" spans="1:10" ht="22.15" customHeight="1">
+      <c r="A87" s="32">
+        <v>75</v>
+      </c>
       <c r="B87" s="45"/>
       <c r="C87" s="4" t="s">
-        <v>218</v>
+        <v>105</v>
       </c>
       <c r="D87" s="12" t="s">
         <v>10</v>
       </c>
       <c r="E87" s="14">
-        <v>42892</v>
+        <v>42863</v>
       </c>
       <c r="F87" s="12"/>
-      <c r="G87" s="12"/>
-      <c r="H87" s="14"/>
-      <c r="I87" s="12"/>
+      <c r="G87" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="H87" s="14">
+        <v>42864</v>
+      </c>
+      <c r="I87" s="12" t="s">
+        <v>50</v>
+      </c>
       <c r="J87" s="12"/>
     </row>
     <row r="88" spans="1:10" ht="22.15" customHeight="1">
       <c r="A88" s="32">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B88" s="45"/>
       <c r="C88" s="4" t="s">
-        <v>105</v>
+        <v>37</v>
       </c>
       <c r="D88" s="12" t="s">
         <v>10</v>
       </c>
       <c r="E88" s="14">
-        <v>42863</v>
+        <v>42826</v>
       </c>
       <c r="F88" s="12"/>
       <c r="G88" s="12" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="H88" s="14">
-        <v>42864</v>
+        <v>42830</v>
       </c>
       <c r="I88" s="12" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="J88" s="12"/>
     </row>
-    <row r="89" spans="1:10" ht="22.15" customHeight="1">
+    <row r="89" spans="1:10" ht="29.25" customHeight="1">
       <c r="A89" s="32">
-        <v>76</v>
-      </c>
-      <c r="B89" s="45"/>
+        <v>77</v>
+      </c>
+      <c r="B89" s="45" t="s">
+        <v>43</v>
+      </c>
       <c r="C89" s="4" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="D89" s="12" t="s">
         <v>10</v>
@@ -3898,50 +3880,48 @@
         <v>42826</v>
       </c>
       <c r="F89" s="12"/>
-      <c r="G89" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="H89" s="14">
-        <v>42830</v>
-      </c>
-      <c r="I89" s="12" t="s">
-        <v>70</v>
-      </c>
+      <c r="G89" s="12"/>
+      <c r="H89" s="12"/>
+      <c r="I89" s="12"/>
       <c r="J89" s="12"/>
     </row>
-    <row r="90" spans="1:10" ht="29.25" customHeight="1">
-      <c r="A90" s="32">
-        <v>77</v>
-      </c>
-      <c r="B90" s="45" t="s">
-        <v>43</v>
-      </c>
+    <row r="90" spans="1:10" s="28" customFormat="1" ht="28.15" customHeight="1">
+      <c r="A90" s="32"/>
+      <c r="B90" s="45"/>
       <c r="C90" s="4" t="s">
-        <v>46</v>
+        <v>221</v>
       </c>
       <c r="D90" s="12" t="s">
         <v>10</v>
       </c>
       <c r="E90" s="14">
-        <v>42826</v>
+        <v>42893</v>
       </c>
       <c r="F90" s="12"/>
-      <c r="G90" s="12"/>
-      <c r="H90" s="12"/>
-      <c r="I90" s="12"/>
+      <c r="G90" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="H90" s="14">
+        <v>42893</v>
+      </c>
+      <c r="I90" s="12" t="s">
+        <v>76</v>
+      </c>
       <c r="J90" s="12"/>
     </row>
-    <row r="91" spans="1:10" s="28" customFormat="1" ht="28.15" customHeight="1">
-      <c r="A91" s="32"/>
+    <row r="91" spans="1:10" ht="27">
+      <c r="A91" s="32">
+        <v>78</v>
+      </c>
       <c r="B91" s="45"/>
       <c r="C91" s="4" t="s">
-        <v>222</v>
+        <v>126</v>
       </c>
       <c r="D91" s="12" t="s">
         <v>10</v>
       </c>
       <c r="E91" s="14">
-        <v>42893</v>
+        <v>42880</v>
       </c>
       <c r="F91" s="12"/>
       <c r="G91" s="12" t="s">
@@ -3955,37 +3935,29 @@
       </c>
       <c r="J91" s="12"/>
     </row>
-    <row r="92" spans="1:10" ht="27">
-      <c r="A92" s="32">
-        <v>78</v>
-      </c>
+    <row r="92" spans="1:10" s="28" customFormat="1" ht="27" customHeight="1">
+      <c r="A92" s="32"/>
       <c r="B92" s="45"/>
       <c r="C92" s="4" t="s">
-        <v>126</v>
+        <v>223</v>
       </c>
       <c r="D92" s="12" t="s">
         <v>10</v>
       </c>
       <c r="E92" s="14">
-        <v>42880</v>
+        <v>42893</v>
       </c>
       <c r="F92" s="12"/>
-      <c r="G92" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="H92" s="14">
-        <v>42893</v>
-      </c>
-      <c r="I92" s="12" t="s">
-        <v>76</v>
-      </c>
+      <c r="G92" s="12"/>
+      <c r="H92" s="12"/>
+      <c r="I92" s="12"/>
       <c r="J92" s="12"/>
     </row>
-    <row r="93" spans="1:10" s="28" customFormat="1" ht="27" customHeight="1">
+    <row r="93" spans="1:10" s="28" customFormat="1" ht="24.6" customHeight="1">
       <c r="A93" s="32"/>
       <c r="B93" s="45"/>
       <c r="C93" s="4" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D93" s="12" t="s">
         <v>10</v>
@@ -3994,46 +3966,46 @@
         <v>42893</v>
       </c>
       <c r="F93" s="12"/>
-      <c r="G93" s="12"/>
-      <c r="H93" s="12"/>
-      <c r="I93" s="12"/>
+      <c r="G93" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="H93" s="14">
+        <v>42893</v>
+      </c>
+      <c r="I93" s="12" t="s">
+        <v>76</v>
+      </c>
       <c r="J93" s="12"/>
     </row>
     <row r="94" spans="1:10" s="28" customFormat="1" ht="24.6" customHeight="1">
       <c r="A94" s="32"/>
       <c r="B94" s="45"/>
       <c r="C94" s="4" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="D94" s="12" t="s">
         <v>10</v>
       </c>
       <c r="E94" s="14">
-        <v>42893</v>
+        <v>42894</v>
       </c>
       <c r="F94" s="12"/>
-      <c r="G94" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="H94" s="14">
-        <v>42893</v>
-      </c>
-      <c r="I94" s="12" t="s">
-        <v>76</v>
-      </c>
+      <c r="G94" s="12"/>
+      <c r="H94" s="14"/>
+      <c r="I94" s="12"/>
       <c r="J94" s="12"/>
     </row>
     <row r="95" spans="1:10" s="28" customFormat="1" ht="24.6" customHeight="1">
       <c r="A95" s="32"/>
       <c r="B95" s="45"/>
       <c r="C95" s="4" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="D95" s="12" t="s">
-        <v>10</v>
+        <v>228</v>
       </c>
       <c r="E95" s="14">
-        <v>42894</v>
+        <v>42893</v>
       </c>
       <c r="F95" s="12"/>
       <c r="G95" s="12"/>
@@ -4045,10 +4017,10 @@
       <c r="A96" s="32"/>
       <c r="B96" s="45"/>
       <c r="C96" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="D96" s="12" t="s">
         <v>228</v>
-      </c>
-      <c r="D96" s="12" t="s">
-        <v>229</v>
       </c>
       <c r="E96" s="14">
         <v>42893</v>
@@ -4059,29 +4031,29 @@
       <c r="I96" s="12"/>
       <c r="J96" s="12"/>
     </row>
-    <row r="97" spans="1:10" s="28" customFormat="1" ht="24.6" customHeight="1">
+    <row r="97" spans="1:10" s="28" customFormat="1" ht="27">
       <c r="A97" s="32"/>
       <c r="B97" s="45"/>
       <c r="C97" s="4" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="D97" s="12" t="s">
-        <v>229</v>
+        <v>10</v>
       </c>
       <c r="E97" s="14">
         <v>42893</v>
       </c>
       <c r="F97" s="12"/>
       <c r="G97" s="12"/>
-      <c r="H97" s="14"/>
+      <c r="H97" s="12"/>
       <c r="I97" s="12"/>
       <c r="J97" s="12"/>
     </row>
-    <row r="98" spans="1:10" s="28" customFormat="1" ht="27">
+    <row r="98" spans="1:10" s="28" customFormat="1" ht="25.9" customHeight="1">
       <c r="A98" s="32"/>
       <c r="B98" s="45"/>
       <c r="C98" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D98" s="12" t="s">
         <v>10</v>
@@ -4090,42 +4062,46 @@
         <v>42893</v>
       </c>
       <c r="F98" s="12"/>
-      <c r="G98" s="12"/>
-      <c r="H98" s="12"/>
-      <c r="I98" s="12"/>
+      <c r="G98" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="H98" s="14">
+        <v>42893</v>
+      </c>
+      <c r="I98" s="12" t="s">
+        <v>76</v>
+      </c>
       <c r="J98" s="12"/>
     </row>
-    <row r="99" spans="1:10" s="28" customFormat="1" ht="25.9" customHeight="1">
-      <c r="A99" s="32"/>
+    <row r="99" spans="1:10" ht="22.15" customHeight="1">
+      <c r="A99" s="32">
+        <v>79</v>
+      </c>
       <c r="B99" s="45"/>
       <c r="C99" s="4" t="s">
-        <v>220</v>
+        <v>45</v>
       </c>
       <c r="D99" s="12" t="s">
         <v>10</v>
       </c>
       <c r="E99" s="14">
-        <v>42893</v>
+        <v>42826</v>
       </c>
       <c r="F99" s="12"/>
-      <c r="G99" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="H99" s="14">
-        <v>42893</v>
-      </c>
-      <c r="I99" s="12" t="s">
-        <v>76</v>
-      </c>
+      <c r="G99" s="12"/>
+      <c r="H99" s="12"/>
+      <c r="I99" s="12"/>
       <c r="J99" s="12"/>
     </row>
-    <row r="100" spans="1:10" ht="22.15" customHeight="1">
+    <row r="100" spans="1:10" ht="27.75" customHeight="1">
       <c r="A100" s="32">
-        <v>79</v>
-      </c>
-      <c r="B100" s="45"/>
+        <v>80</v>
+      </c>
+      <c r="B100" s="45" t="s">
+        <v>44</v>
+      </c>
       <c r="C100" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D100" s="12" t="s">
         <v>10</v>
@@ -4134,36 +4110,38 @@
         <v>42826</v>
       </c>
       <c r="F100" s="12"/>
-      <c r="G100" s="12"/>
-      <c r="H100" s="12"/>
-      <c r="I100" s="12"/>
+      <c r="G100" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="H100" s="14">
+        <v>42832</v>
+      </c>
+      <c r="I100" s="12" t="s">
+        <v>70</v>
+      </c>
       <c r="J100" s="12"/>
     </row>
-    <row r="101" spans="1:10" ht="27.75" customHeight="1">
-      <c r="A101" s="32">
-        <v>80</v>
-      </c>
-      <c r="B101" s="45" t="s">
-        <v>44</v>
-      </c>
+    <row r="101" spans="1:10" s="28" customFormat="1" ht="27.75" customHeight="1">
+      <c r="A101" s="32"/>
+      <c r="B101" s="45"/>
       <c r="C101" s="4" t="s">
-        <v>47</v>
+        <v>226</v>
       </c>
       <c r="D101" s="12" t="s">
         <v>10</v>
       </c>
       <c r="E101" s="14">
-        <v>42826</v>
+        <v>42893</v>
       </c>
       <c r="F101" s="12"/>
       <c r="G101" s="12" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H101" s="14">
-        <v>42832</v>
+        <v>42895</v>
       </c>
       <c r="I101" s="12" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="J101" s="12"/>
     </row>
@@ -4171,69 +4149,69 @@
       <c r="A102" s="32"/>
       <c r="B102" s="45"/>
       <c r="C102" s="4" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="D102" s="12" t="s">
         <v>10</v>
       </c>
       <c r="E102" s="14">
-        <v>42893</v>
+        <v>42894</v>
       </c>
       <c r="F102" s="12"/>
       <c r="G102" s="12" t="s">
-        <v>78</v>
+        <v>236</v>
       </c>
       <c r="H102" s="14">
         <v>42895</v>
       </c>
       <c r="I102" s="12" t="s">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="J102" s="12"/>
     </row>
     <row r="103" spans="1:10" s="28" customFormat="1" ht="27.75" customHeight="1">
       <c r="A103" s="32"/>
       <c r="B103" s="45"/>
-      <c r="C103" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="D103" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E103" s="14">
-        <v>42894</v>
-      </c>
+      <c r="C103" s="42" t="s">
+        <v>230</v>
+      </c>
+      <c r="D103" s="43"/>
+      <c r="E103" s="44"/>
       <c r="F103" s="12"/>
-      <c r="G103" s="12" t="s">
-        <v>237</v>
-      </c>
-      <c r="H103" s="14">
-        <v>42895</v>
-      </c>
-      <c r="I103" s="12" t="s">
-        <v>50</v>
-      </c>
+      <c r="G103" s="12"/>
+      <c r="H103" s="14"/>
+      <c r="I103" s="12"/>
       <c r="J103" s="12"/>
     </row>
     <row r="104" spans="1:10" s="28" customFormat="1" ht="27.75" customHeight="1">
       <c r="A104" s="32"/>
       <c r="B104" s="45"/>
-      <c r="C104" s="42" t="s">
-        <v>231</v>
-      </c>
-      <c r="D104" s="43"/>
-      <c r="E104" s="44"/>
+      <c r="C104" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="D104" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E104" s="14">
+        <v>42893</v>
+      </c>
       <c r="F104" s="12"/>
-      <c r="G104" s="12"/>
-      <c r="H104" s="14"/>
-      <c r="I104" s="12"/>
+      <c r="G104" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="H104" s="14">
+        <v>42893</v>
+      </c>
+      <c r="I104" s="12" t="s">
+        <v>76</v>
+      </c>
       <c r="J104" s="12"/>
     </row>
     <row r="105" spans="1:10" s="28" customFormat="1" ht="27.75" customHeight="1">
       <c r="A105" s="32"/>
       <c r="B105" s="45"/>
       <c r="C105" s="4" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="D105" s="12" t="s">
         <v>10</v>
@@ -4253,21 +4231,23 @@
       </c>
       <c r="J105" s="12"/>
     </row>
-    <row r="106" spans="1:10" s="28" customFormat="1" ht="27.75" customHeight="1">
-      <c r="A106" s="32"/>
+    <row r="106" spans="1:10" ht="27">
+      <c r="A106" s="32">
+        <v>81</v>
+      </c>
       <c r="B106" s="45"/>
       <c r="C106" s="4" t="s">
-        <v>226</v>
+        <v>136</v>
       </c>
       <c r="D106" s="12" t="s">
         <v>10</v>
       </c>
       <c r="E106" s="14">
-        <v>42893</v>
+        <v>42880</v>
       </c>
       <c r="F106" s="12"/>
       <c r="G106" s="12" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="H106" s="14">
         <v>42893</v>
@@ -4277,67 +4257,65 @@
       </c>
       <c r="J106" s="12"/>
     </row>
-    <row r="107" spans="1:10" ht="27">
+    <row r="107" spans="1:10" ht="37.5" customHeight="1">
       <c r="A107" s="32">
-        <v>81</v>
-      </c>
-      <c r="B107" s="45"/>
+        <v>82</v>
+      </c>
+      <c r="B107" s="49" t="s">
+        <v>65</v>
+      </c>
       <c r="C107" s="4" t="s">
-        <v>136</v>
+        <v>66</v>
       </c>
       <c r="D107" s="12" t="s">
         <v>10</v>
       </c>
       <c r="E107" s="14">
-        <v>42880</v>
+        <v>42830</v>
       </c>
       <c r="F107" s="12"/>
       <c r="G107" s="12" t="s">
         <v>78</v>
       </c>
       <c r="H107" s="14">
-        <v>42893</v>
+        <v>42830</v>
       </c>
       <c r="I107" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="J107" s="12"/>
-    </row>
-    <row r="108" spans="1:10" ht="37.5" customHeight="1">
-      <c r="A108" s="32">
-        <v>82</v>
-      </c>
-      <c r="B108" s="49" t="s">
-        <v>65</v>
-      </c>
+      <c r="J107" s="12" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" s="28" customFormat="1" ht="20.45" customHeight="1">
+      <c r="A108" s="32"/>
+      <c r="B108" s="50"/>
       <c r="C108" s="4" t="s">
-        <v>66</v>
+        <v>185</v>
       </c>
       <c r="D108" s="12" t="s">
         <v>10</v>
       </c>
       <c r="E108" s="14">
-        <v>42830</v>
+        <v>42892</v>
       </c>
       <c r="F108" s="12"/>
       <c r="G108" s="12" t="s">
         <v>78</v>
       </c>
       <c r="H108" s="14">
-        <v>42830</v>
+        <v>42892</v>
       </c>
       <c r="I108" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="J108" s="12" t="s">
-        <v>79</v>
-      </c>
+      <c r="J108" s="12"/>
     </row>
     <row r="109" spans="1:10" s="28" customFormat="1" ht="20.45" customHeight="1">
       <c r="A109" s="32"/>
-      <c r="B109" s="50"/>
+      <c r="B109" s="51"/>
       <c r="C109" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D109" s="12" t="s">
         <v>10</v>
@@ -4357,65 +4335,61 @@
       </c>
       <c r="J109" s="12"/>
     </row>
-    <row r="110" spans="1:10" s="28" customFormat="1" ht="20.45" customHeight="1">
-      <c r="A110" s="32"/>
-      <c r="B110" s="51"/>
-      <c r="C110" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="D110" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E110" s="14">
-        <v>42892</v>
-      </c>
-      <c r="F110" s="12"/>
-      <c r="G110" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="H110" s="14">
-        <v>42892</v>
-      </c>
-      <c r="I110" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="J110" s="12"/>
+    <row r="110" spans="1:10" s="20" customFormat="1" ht="22.15" customHeight="1">
+      <c r="A110" s="32">
+        <v>83</v>
+      </c>
+      <c r="B110" s="52" t="s">
+        <v>67</v>
+      </c>
+      <c r="C110" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D110" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E110" s="19">
+        <v>42830</v>
+      </c>
+      <c r="F110" s="9"/>
+      <c r="G110" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="H110" s="19">
+        <v>42831</v>
+      </c>
+      <c r="I110" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="J110" s="9"/>
     </row>
     <row r="111" spans="1:10" s="20" customFormat="1" ht="22.15" customHeight="1">
       <c r="A111" s="32">
-        <v>83</v>
-      </c>
-      <c r="B111" s="52" t="s">
-        <v>67</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="B111" s="52"/>
       <c r="C111" s="8" t="s">
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="D111" s="9" t="s">
         <v>10</v>
       </c>
       <c r="E111" s="19">
-        <v>42830</v>
+        <v>42857</v>
       </c>
       <c r="F111" s="9"/>
-      <c r="G111" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="H111" s="19">
-        <v>42831</v>
-      </c>
-      <c r="I111" s="9" t="s">
-        <v>70</v>
-      </c>
+      <c r="G111" s="9"/>
+      <c r="H111" s="19"/>
+      <c r="I111" s="9"/>
       <c r="J111" s="9"/>
     </row>
     <row r="112" spans="1:10" s="20" customFormat="1" ht="22.15" customHeight="1">
       <c r="A112" s="32">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B112" s="52"/>
       <c r="C112" s="8" t="s">
-        <v>95</v>
+        <v>188</v>
       </c>
       <c r="D112" s="9" t="s">
         <v>10</v>
@@ -4431,11 +4405,11 @@
     </row>
     <row r="113" spans="1:10" s="20" customFormat="1" ht="22.15" customHeight="1">
       <c r="A113" s="32">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B113" s="52"/>
       <c r="C113" s="8" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D113" s="9" t="s">
         <v>10</v>
@@ -4450,18 +4424,16 @@
       <c r="J113" s="9"/>
     </row>
     <row r="114" spans="1:10" s="20" customFormat="1" ht="22.15" customHeight="1">
-      <c r="A114" s="32">
-        <v>86</v>
-      </c>
+      <c r="A114" s="32"/>
       <c r="B114" s="52"/>
       <c r="C114" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="D114" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E114" s="19">
-        <v>42857</v>
+        <v>189</v>
+      </c>
+      <c r="D114" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E114" s="14">
+        <v>42892</v>
       </c>
       <c r="F114" s="9"/>
       <c r="G114" s="9"/>
@@ -4509,7 +4481,7 @@
       <c r="A117" s="32"/>
       <c r="B117" s="52"/>
       <c r="C117" s="8" t="s">
-        <v>192</v>
+        <v>213</v>
       </c>
       <c r="D117" s="12" t="s">
         <v>10</v>
@@ -4523,79 +4495,89 @@
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
     </row>
-    <row r="118" spans="1:10" s="20" customFormat="1" ht="22.15" customHeight="1">
-      <c r="A118" s="32"/>
+    <row r="118" spans="1:10" s="20" customFormat="1" ht="27">
+      <c r="A118" s="32">
+        <v>87</v>
+      </c>
       <c r="B118" s="52"/>
       <c r="C118" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="D118" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E118" s="14">
-        <v>42892</v>
+        <v>186</v>
+      </c>
+      <c r="D118" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E118" s="19">
+        <v>42826</v>
       </c>
       <c r="F118" s="9"/>
       <c r="G118" s="9"/>
-      <c r="H118" s="19"/>
+      <c r="H118" s="9"/>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
     </row>
-    <row r="119" spans="1:10" s="20" customFormat="1" ht="27">
+    <row r="119" spans="1:10" ht="22.15" customHeight="1">
       <c r="A119" s="32">
+        <v>88</v>
+      </c>
+      <c r="B119" s="45" t="s">
         <v>87</v>
       </c>
-      <c r="B119" s="52"/>
-      <c r="C119" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="D119" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E119" s="19">
-        <v>42826</v>
-      </c>
-      <c r="F119" s="9"/>
-      <c r="G119" s="9"/>
-      <c r="H119" s="9"/>
-      <c r="I119" s="9"/>
-      <c r="J119" s="9"/>
+      <c r="C119" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D119" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E119" s="14">
+        <v>42837</v>
+      </c>
+      <c r="F119" s="12"/>
+      <c r="G119" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="H119" s="14">
+        <v>42839</v>
+      </c>
+      <c r="I119" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="J119" s="12"/>
     </row>
     <row r="120" spans="1:10" ht="22.15" customHeight="1">
       <c r="A120" s="32">
-        <v>88</v>
-      </c>
-      <c r="B120" s="45" t="s">
-        <v>87</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="B120" s="45"/>
       <c r="C120" s="4" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="D120" s="12" t="s">
         <v>10</v>
       </c>
       <c r="E120" s="14">
-        <v>42837</v>
+        <v>42857</v>
       </c>
       <c r="F120" s="12"/>
       <c r="G120" s="12" t="s">
-        <v>56</v>
+        <v>143</v>
       </c>
       <c r="H120" s="14">
-        <v>42839</v>
+        <v>42882</v>
       </c>
       <c r="I120" s="12" t="s">
-        <v>50</v>
+        <v>144</v>
       </c>
       <c r="J120" s="12"/>
     </row>
     <row r="121" spans="1:10" ht="22.15" customHeight="1">
       <c r="A121" s="32">
-        <v>89</v>
-      </c>
-      <c r="B121" s="45"/>
+        <v>90</v>
+      </c>
+      <c r="B121" s="49" t="s">
+        <v>97</v>
+      </c>
       <c r="C121" s="4" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="D121" s="12" t="s">
         <v>10</v>
@@ -4605,49 +4587,39 @@
       </c>
       <c r="F121" s="12"/>
       <c r="G121" s="12" t="s">
-        <v>143</v>
+        <v>102</v>
       </c>
       <c r="H121" s="14">
-        <v>42882</v>
+        <v>42857</v>
       </c>
       <c r="I121" s="12" t="s">
-        <v>144</v>
+        <v>76</v>
       </c>
       <c r="J121" s="12"/>
     </row>
-    <row r="122" spans="1:10" ht="22.15" customHeight="1">
-      <c r="A122" s="32">
-        <v>90</v>
-      </c>
-      <c r="B122" s="49" t="s">
-        <v>97</v>
-      </c>
+    <row r="122" spans="1:10" s="28" customFormat="1" ht="22.15" customHeight="1">
+      <c r="A122" s="32"/>
+      <c r="B122" s="50"/>
       <c r="C122" s="4" t="s">
-        <v>98</v>
+        <v>206</v>
       </c>
       <c r="D122" s="12" t="s">
         <v>10</v>
       </c>
       <c r="E122" s="14">
-        <v>42857</v>
+        <v>42892</v>
       </c>
       <c r="F122" s="12"/>
-      <c r="G122" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="H122" s="14">
-        <v>42857</v>
-      </c>
-      <c r="I122" s="12" t="s">
-        <v>76</v>
-      </c>
+      <c r="G122" s="12"/>
+      <c r="H122" s="14"/>
+      <c r="I122" s="12"/>
       <c r="J122" s="12"/>
     </row>
     <row r="123" spans="1:10" s="28" customFormat="1" ht="22.15" customHeight="1">
       <c r="A123" s="32"/>
       <c r="B123" s="50"/>
       <c r="C123" s="4" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="D123" s="12" t="s">
         <v>10</v>
@@ -4679,11 +4651,11 @@
       <c r="I124" s="12"/>
       <c r="J124" s="12"/>
     </row>
-    <row r="125" spans="1:10" s="28" customFormat="1" ht="22.15" customHeight="1">
+    <row r="125" spans="1:10" s="28" customFormat="1" ht="27">
       <c r="A125" s="32"/>
       <c r="B125" s="50"/>
       <c r="C125" s="4" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="D125" s="12" t="s">
         <v>10</v>
@@ -4697,67 +4669,75 @@
       <c r="I125" s="12"/>
       <c r="J125" s="12"/>
     </row>
-    <row r="126" spans="1:10" s="28" customFormat="1" ht="27">
+    <row r="126" spans="1:10" s="28" customFormat="1" ht="29.45" customHeight="1">
       <c r="A126" s="32"/>
       <c r="B126" s="50"/>
       <c r="C126" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="D126" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E126" s="14">
-        <v>42892</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="D126" s="12"/>
+      <c r="E126" s="14"/>
       <c r="F126" s="12"/>
       <c r="G126" s="12"/>
       <c r="H126" s="14"/>
       <c r="I126" s="12"/>
       <c r="J126" s="12"/>
     </row>
-    <row r="127" spans="1:10" s="28" customFormat="1" ht="29.45" customHeight="1">
-      <c r="A127" s="32"/>
-      <c r="B127" s="50"/>
+    <row r="127" spans="1:10" ht="27">
+      <c r="A127" s="32">
+        <v>91</v>
+      </c>
+      <c r="B127" s="51"/>
       <c r="C127" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="D127" s="12"/>
-      <c r="E127" s="14"/>
+        <v>203</v>
+      </c>
+      <c r="D127" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E127" s="14">
+        <v>42892</v>
+      </c>
       <c r="F127" s="12"/>
       <c r="G127" s="12"/>
       <c r="H127" s="14"/>
       <c r="I127" s="12"/>
       <c r="J127" s="12"/>
     </row>
-    <row r="128" spans="1:10" ht="27">
+    <row r="128" spans="1:10" ht="22.15" customHeight="1">
       <c r="A128" s="32">
-        <v>91</v>
-      </c>
-      <c r="B128" s="51"/>
+        <v>92</v>
+      </c>
+      <c r="B128" s="45" t="s">
+        <v>99</v>
+      </c>
       <c r="C128" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="D128" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="D128" s="12" t="s">
         <v>10</v>
       </c>
       <c r="E128" s="14">
-        <v>42892</v>
+        <v>42857</v>
       </c>
       <c r="F128" s="12"/>
-      <c r="G128" s="12"/>
-      <c r="H128" s="14"/>
-      <c r="I128" s="12"/>
+      <c r="G128" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="H128" s="14">
+        <v>42857</v>
+      </c>
+      <c r="I128" s="12" t="s">
+        <v>76</v>
+      </c>
       <c r="J128" s="12"/>
     </row>
     <row r="129" spans="1:10" ht="22.15" customHeight="1">
       <c r="A129" s="32">
-        <v>92</v>
-      </c>
-      <c r="B129" s="45" t="s">
-        <v>99</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="B129" s="45"/>
       <c r="C129" s="4" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="D129" s="12" t="s">
         <v>10</v>
@@ -4779,11 +4759,11 @@
     </row>
     <row r="130" spans="1:10" ht="22.15" customHeight="1">
       <c r="A130" s="32">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B130" s="45"/>
       <c r="C130" s="4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D130" s="12" t="s">
         <v>10</v>
@@ -4803,179 +4783,179 @@
       </c>
       <c r="J130" s="12"/>
     </row>
-    <row r="131" spans="1:10" ht="22.15" customHeight="1">
-      <c r="A131" s="32">
-        <v>94</v>
-      </c>
-      <c r="B131" s="45"/>
+    <row r="131" spans="1:10" s="28" customFormat="1" ht="40.9" customHeight="1">
+      <c r="A131" s="32"/>
+      <c r="B131" s="41" t="s">
+        <v>199</v>
+      </c>
       <c r="C131" s="4" t="s">
-        <v>101</v>
+        <v>202</v>
       </c>
       <c r="D131" s="12" t="s">
         <v>10</v>
       </c>
       <c r="E131" s="14">
-        <v>42857</v>
+        <v>42892</v>
       </c>
       <c r="F131" s="12"/>
-      <c r="G131" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="H131" s="14">
-        <v>42857</v>
-      </c>
-      <c r="I131" s="12" t="s">
-        <v>76</v>
-      </c>
+      <c r="G131" s="12"/>
+      <c r="H131" s="14"/>
+      <c r="I131" s="12"/>
       <c r="J131" s="12"/>
     </row>
-    <row r="132" spans="1:10" s="28" customFormat="1" ht="40.9" customHeight="1">
-      <c r="A132" s="32"/>
-      <c r="B132" s="41" t="s">
-        <v>200</v>
+    <row r="132" spans="1:10" ht="27">
+      <c r="A132" s="32">
+        <v>95</v>
+      </c>
+      <c r="B132" s="49" t="s">
+        <v>111</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>203</v>
+        <v>112</v>
       </c>
       <c r="D132" s="12" t="s">
         <v>10</v>
       </c>
       <c r="E132" s="14">
+        <v>42863</v>
+      </c>
+      <c r="F132" s="12"/>
+      <c r="G132" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H132" s="15">
+        <v>42881</v>
+      </c>
+      <c r="I132" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="J132" s="12"/>
+    </row>
+    <row r="133" spans="1:10" s="28" customFormat="1" ht="13.5">
+      <c r="A133" s="32"/>
+      <c r="B133" s="50"/>
+      <c r="C133" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="D133" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E133" s="14">
         <v>42892</v>
       </c>
-      <c r="F132" s="12"/>
-      <c r="G132" s="12"/>
-      <c r="H132" s="14"/>
-      <c r="I132" s="12"/>
-      <c r="J132" s="12"/>
-    </row>
-    <row r="133" spans="1:10" ht="27">
-      <c r="A133" s="32">
-        <v>95</v>
-      </c>
-      <c r="B133" s="49" t="s">
-        <v>111</v>
-      </c>
-      <c r="C133" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="D133" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E133" s="14">
-        <v>42863</v>
-      </c>
       <c r="F133" s="12"/>
-      <c r="G133" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="H133" s="15">
-        <v>42881</v>
-      </c>
-      <c r="I133" s="12" t="s">
-        <v>146</v>
-      </c>
+      <c r="G133" s="29"/>
+      <c r="H133" s="33"/>
+      <c r="I133" s="12"/>
       <c r="J133" s="12"/>
     </row>
-    <row r="134" spans="1:10" s="28" customFormat="1" ht="13.5">
-      <c r="A134" s="32"/>
+    <row r="134" spans="1:10" ht="27">
+      <c r="A134" s="32">
+        <v>96</v>
+      </c>
       <c r="B134" s="50"/>
       <c r="C134" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="D134" s="24" t="s">
+        <v>211</v>
+      </c>
+      <c r="D134" s="12" t="s">
         <v>10</v>
       </c>
       <c r="E134" s="14">
-        <v>42892</v>
+        <v>42886</v>
       </c>
       <c r="F134" s="12"/>
-      <c r="G134" s="29"/>
-      <c r="H134" s="33"/>
+      <c r="G134" s="7"/>
+      <c r="H134" s="15"/>
       <c r="I134" s="12"/>
       <c r="J134" s="12"/>
     </row>
-    <row r="135" spans="1:10" ht="27">
-      <c r="A135" s="32">
-        <v>96</v>
-      </c>
+    <row r="135" spans="1:10" s="28" customFormat="1" ht="27">
+      <c r="A135" s="32"/>
       <c r="B135" s="50"/>
       <c r="C135" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="D135" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="D135" s="24" t="s">
         <v>10</v>
       </c>
       <c r="E135" s="14">
-        <v>42886</v>
+        <v>42894</v>
       </c>
       <c r="F135" s="12"/>
-      <c r="G135" s="7"/>
-      <c r="H135" s="15"/>
+      <c r="G135" s="29"/>
+      <c r="H135" s="33"/>
       <c r="I135" s="12"/>
       <c r="J135" s="12"/>
     </row>
-    <row r="136" spans="1:10" s="28" customFormat="1" ht="27">
-      <c r="A136" s="32"/>
+    <row r="136" spans="1:10" ht="22.15" customHeight="1">
+      <c r="A136" s="32">
+        <v>97</v>
+      </c>
       <c r="B136" s="50"/>
       <c r="C136" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="D136" s="24" t="s">
+        <v>149</v>
+      </c>
+      <c r="D136" s="12" t="s">
         <v>10</v>
       </c>
       <c r="E136" s="14">
-        <v>42894</v>
+        <v>42886</v>
       </c>
       <c r="F136" s="12"/>
-      <c r="G136" s="29"/>
-      <c r="H136" s="33"/>
+      <c r="G136" s="7"/>
+      <c r="H136" s="15"/>
       <c r="I136" s="12"/>
       <c r="J136" s="12"/>
     </row>
-    <row r="137" spans="1:10" ht="22.15" customHeight="1">
-      <c r="A137" s="32">
-        <v>97</v>
-      </c>
-      <c r="B137" s="50"/>
-      <c r="C137" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="D137" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E137" s="14">
-        <v>42886</v>
-      </c>
-      <c r="F137" s="12"/>
-      <c r="G137" s="7"/>
-      <c r="H137" s="15"/>
-      <c r="I137" s="12"/>
-      <c r="J137" s="12"/>
-    </row>
-    <row r="138" spans="1:10" s="28" customFormat="1" ht="22.15" customHeight="1">
-      <c r="A138" s="46" t="s">
-        <v>198</v>
-      </c>
-      <c r="B138" s="47"/>
-      <c r="C138" s="47"/>
-      <c r="D138" s="47"/>
-      <c r="E138" s="47"/>
-      <c r="F138" s="47"/>
-      <c r="G138" s="47"/>
-      <c r="H138" s="47"/>
-      <c r="I138" s="47"/>
-      <c r="J138" s="48"/>
-    </row>
-    <row r="139" spans="1:10" ht="40.5">
+    <row r="137" spans="1:10" s="28" customFormat="1" ht="22.15" customHeight="1">
+      <c r="A137" s="46" t="s">
+        <v>197</v>
+      </c>
+      <c r="B137" s="47"/>
+      <c r="C137" s="47"/>
+      <c r="D137" s="47"/>
+      <c r="E137" s="47"/>
+      <c r="F137" s="47"/>
+      <c r="G137" s="47"/>
+      <c r="H137" s="47"/>
+      <c r="I137" s="47"/>
+      <c r="J137" s="48"/>
+    </row>
+    <row r="138" spans="1:10" ht="40.5">
+      <c r="A138" s="32">
+        <v>98</v>
+      </c>
+      <c r="B138" s="45" t="s">
+        <v>113</v>
+      </c>
+      <c r="C138" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D138" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E138" s="14">
+        <v>42863</v>
+      </c>
+      <c r="F138" s="12"/>
+      <c r="G138" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="H138" s="14">
+        <v>42141</v>
+      </c>
+      <c r="I138" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="J138" s="12"/>
+    </row>
+    <row r="139" spans="1:10" ht="22.15" customHeight="1">
       <c r="A139" s="32">
-        <v>98</v>
-      </c>
-      <c r="B139" s="45" t="s">
-        <v>113</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="B139" s="45"/>
       <c r="C139" s="4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D139" s="12" t="s">
         <v>10</v>
@@ -4991,17 +4971,19 @@
         <v>42141</v>
       </c>
       <c r="I139" s="12" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="J139" s="12"/>
     </row>
-    <row r="140" spans="1:10" ht="22.15" customHeight="1">
+    <row r="140" spans="1:10" ht="40.5">
       <c r="A140" s="32">
-        <v>99</v>
-      </c>
-      <c r="B140" s="45"/>
+        <v>100</v>
+      </c>
+      <c r="B140" s="45" t="s">
+        <v>114</v>
+      </c>
       <c r="C140" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D140" s="12" t="s">
         <v>10</v>
@@ -5021,15 +5003,13 @@
       </c>
       <c r="J140" s="12"/>
     </row>
-    <row r="141" spans="1:10" ht="40.5">
+    <row r="141" spans="1:10" ht="22.15" customHeight="1">
       <c r="A141" s="32">
-        <v>100</v>
-      </c>
-      <c r="B141" s="45" t="s">
-        <v>114</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="B141" s="45"/>
       <c r="C141" s="4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D141" s="12" t="s">
         <v>10</v>
@@ -5049,13 +5029,15 @@
       </c>
       <c r="J141" s="12"/>
     </row>
-    <row r="142" spans="1:10" ht="22.15" customHeight="1">
+    <row r="142" spans="1:10" ht="41.25" customHeight="1">
       <c r="A142" s="32">
-        <v>101</v>
-      </c>
-      <c r="B142" s="45"/>
+        <v>102</v>
+      </c>
+      <c r="B142" s="49" t="s">
+        <v>118</v>
+      </c>
       <c r="C142" s="4" t="s">
-        <v>117</v>
+        <v>140</v>
       </c>
       <c r="D142" s="12" t="s">
         <v>10</v>
@@ -5064,80 +5046,80 @@
         <v>42863</v>
       </c>
       <c r="F142" s="12"/>
-      <c r="G142" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="H142" s="14">
-        <v>42141</v>
+      <c r="G142" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H142" s="15">
+        <v>42882</v>
       </c>
       <c r="I142" s="12" t="s">
         <v>124</v>
       </c>
       <c r="J142" s="12"/>
     </row>
-    <row r="143" spans="1:10" ht="41.25" customHeight="1">
+    <row r="143" spans="1:10" s="26" customFormat="1" ht="27">
       <c r="A143" s="32">
-        <v>102</v>
-      </c>
-      <c r="B143" s="49" t="s">
-        <v>118</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="B143" s="51"/>
       <c r="C143" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="D143" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E143" s="14">
-        <v>42863</v>
+        <v>167</v>
+      </c>
+      <c r="D143" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="E143" s="25">
+        <v>42887</v>
       </c>
       <c r="F143" s="12"/>
-      <c r="G143" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="H143" s="15">
-        <v>42882</v>
-      </c>
-      <c r="I143" s="12" t="s">
+      <c r="G143" s="24"/>
+      <c r="H143" s="27"/>
+      <c r="I143" s="11"/>
+      <c r="J143" s="11"/>
+    </row>
+    <row r="144" spans="1:10" ht="42">
+      <c r="A144" s="32">
+        <v>104</v>
+      </c>
+      <c r="B144" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="C144" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="D144" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="E144" s="14">
+        <v>42864</v>
+      </c>
+      <c r="F144" s="12"/>
+      <c r="G144" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="H144" s="14">
+        <v>42151</v>
+      </c>
+      <c r="I144" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="J143" s="12"/>
-    </row>
-    <row r="144" spans="1:10" s="26" customFormat="1" ht="27">
-      <c r="A144" s="32">
-        <v>103</v>
-      </c>
-      <c r="B144" s="51"/>
-      <c r="C144" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="D144" s="24" t="s">
-        <v>169</v>
-      </c>
-      <c r="E144" s="25">
-        <v>42887</v>
-      </c>
-      <c r="F144" s="12"/>
-      <c r="G144" s="24"/>
-      <c r="H144" s="27"/>
-      <c r="I144" s="11"/>
-      <c r="J144" s="11"/>
-    </row>
-    <row r="145" spans="1:10" ht="42">
+      <c r="J144" s="12"/>
+    </row>
+    <row r="145" spans="1:10" ht="22.15" customHeight="1">
       <c r="A145" s="32">
-        <v>104</v>
-      </c>
-      <c r="B145" s="22" t="s">
-        <v>122</v>
+        <v>105</v>
+      </c>
+      <c r="B145" s="49" t="s">
+        <v>132</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="D145" s="12" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="E145" s="14">
-        <v>42864</v>
+        <v>42880</v>
       </c>
       <c r="F145" s="12"/>
       <c r="G145" s="12" t="s">
@@ -5147,69 +5129,67 @@
         <v>42151</v>
       </c>
       <c r="I145" s="12" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="J145" s="12"/>
     </row>
-    <row r="146" spans="1:10" ht="22.15" customHeight="1">
-      <c r="A146" s="32">
-        <v>105</v>
-      </c>
-      <c r="B146" s="49" t="s">
-        <v>132</v>
-      </c>
+    <row r="146" spans="1:10" s="28" customFormat="1" ht="22.15" customHeight="1">
+      <c r="A146" s="32"/>
+      <c r="B146" s="50"/>
       <c r="C146" s="4" t="s">
-        <v>133</v>
+        <v>234</v>
       </c>
       <c r="D146" s="12" t="s">
-        <v>134</v>
+        <v>10</v>
       </c>
       <c r="E146" s="14">
-        <v>42880</v>
+        <v>42894</v>
       </c>
       <c r="F146" s="12"/>
       <c r="G146" s="12" t="s">
-        <v>141</v>
+        <v>237</v>
       </c>
       <c r="H146" s="14">
-        <v>42151</v>
+        <v>42167</v>
       </c>
       <c r="I146" s="12" t="s">
-        <v>142</v>
+        <v>238</v>
       </c>
       <c r="J146" s="12"/>
     </row>
-    <row r="147" spans="1:10" s="28" customFormat="1" ht="22.15" customHeight="1">
-      <c r="A147" s="32"/>
+    <row r="147" spans="1:10" ht="22.15" customHeight="1">
+      <c r="A147" s="32">
+        <v>106</v>
+      </c>
       <c r="B147" s="50"/>
       <c r="C147" s="4" t="s">
-        <v>235</v>
+        <v>135</v>
       </c>
       <c r="D147" s="12" t="s">
-        <v>10</v>
+        <v>134</v>
       </c>
       <c r="E147" s="14">
-        <v>42894</v>
+        <v>42880</v>
       </c>
       <c r="F147" s="12"/>
       <c r="G147" s="12" t="s">
-        <v>238</v>
+        <v>141</v>
       </c>
       <c r="H147" s="14">
-        <v>42167</v>
+        <v>42151</v>
       </c>
       <c r="I147" s="12" t="s">
-        <v>239</v>
+        <v>142</v>
       </c>
       <c r="J147" s="12"/>
     </row>
-    <row r="148" spans="1:10" ht="22.15" customHeight="1">
+    <row r="148" spans="1:10" ht="27">
       <c r="A148" s="32">
-        <v>106</v>
-      </c>
-      <c r="B148" s="50"/>
+        <v>107</v>
+      </c>
+      <c r="B148" s="51"/>
       <c r="C148" s="4" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="D148" s="12" t="s">
         <v>134</v>
@@ -5229,38 +5209,34 @@
       </c>
       <c r="J148" s="12"/>
     </row>
-    <row r="149" spans="1:10" ht="27">
+    <row r="149" spans="1:10" s="26" customFormat="1" ht="27">
       <c r="A149" s="32">
-        <v>107</v>
-      </c>
-      <c r="B149" s="51"/>
+        <v>108</v>
+      </c>
+      <c r="B149" s="11" t="s">
+        <v>171</v>
+      </c>
       <c r="C149" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="D149" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="E149" s="14">
-        <v>42880</v>
+        <v>172</v>
+      </c>
+      <c r="D149" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E149" s="25">
+        <v>42888</v>
       </c>
       <c r="F149" s="12"/>
-      <c r="G149" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="H149" s="14">
-        <v>42151</v>
-      </c>
-      <c r="I149" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="J149" s="12"/>
-    </row>
-    <row r="150" spans="1:10" s="26" customFormat="1" ht="27">
+      <c r="G149" s="11"/>
+      <c r="H149" s="11"/>
+      <c r="I149" s="11"/>
+      <c r="J149" s="11"/>
+    </row>
+    <row r="150" spans="1:10" ht="27">
       <c r="A150" s="32">
-        <v>108</v>
-      </c>
-      <c r="B150" s="11" t="s">
-        <v>172</v>
+        <v>109</v>
+      </c>
+      <c r="B150" s="31" t="s">
+        <v>198</v>
       </c>
       <c r="C150" s="4" t="s">
         <v>173</v>
@@ -5272,27 +5248,17 @@
         <v>42888</v>
       </c>
       <c r="F150" s="12"/>
-      <c r="G150" s="11"/>
-      <c r="H150" s="11"/>
-      <c r="I150" s="11"/>
-      <c r="J150" s="11"/>
-    </row>
-    <row r="151" spans="1:10" ht="27">
-      <c r="A151" s="32">
-        <v>109</v>
-      </c>
-      <c r="B151" s="31" t="s">
-        <v>199</v>
-      </c>
-      <c r="C151" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="D151" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="E151" s="25">
-        <v>42888</v>
-      </c>
+      <c r="G150" s="12"/>
+      <c r="H150" s="12"/>
+      <c r="I150" s="12"/>
+      <c r="J150" s="12"/>
+    </row>
+    <row r="151" spans="1:10" ht="22.15" customHeight="1">
+      <c r="A151" s="12"/>
+      <c r="B151" s="22"/>
+      <c r="C151" s="4"/>
+      <c r="D151" s="12"/>
+      <c r="E151" s="12"/>
       <c r="F151" s="12"/>
       <c r="G151" s="12"/>
       <c r="H151" s="12"/>
@@ -6967,74 +6933,37 @@
       <c r="I290" s="12"/>
       <c r="J290" s="12"/>
     </row>
-    <row r="291" spans="1:10" ht="22.15" customHeight="1">
-      <c r="A291" s="12"/>
-      <c r="B291" s="22"/>
-      <c r="C291" s="4"/>
-      <c r="D291" s="12"/>
-      <c r="E291" s="12"/>
-      <c r="F291" s="12"/>
-      <c r="G291" s="12"/>
-      <c r="H291" s="12"/>
-      <c r="I291" s="12"/>
-      <c r="J291" s="12"/>
-    </row>
   </sheetData>
   <mergeCells count="24">
     <mergeCell ref="B29:B37"/>
-    <mergeCell ref="B64:B72"/>
+    <mergeCell ref="B64:B71"/>
     <mergeCell ref="B2:B28"/>
-    <mergeCell ref="B122:B128"/>
-    <mergeCell ref="B146:B149"/>
-    <mergeCell ref="B73:B79"/>
-    <mergeCell ref="B80:B84"/>
-    <mergeCell ref="B85:B89"/>
-    <mergeCell ref="B90:B100"/>
-    <mergeCell ref="B141:B142"/>
-    <mergeCell ref="B101:B107"/>
-    <mergeCell ref="B111:B119"/>
-    <mergeCell ref="B120:B121"/>
-    <mergeCell ref="B129:B131"/>
-    <mergeCell ref="B133:B137"/>
-    <mergeCell ref="B143:B144"/>
+    <mergeCell ref="B121:B127"/>
+    <mergeCell ref="B145:B148"/>
+    <mergeCell ref="B72:B78"/>
+    <mergeCell ref="B79:B83"/>
+    <mergeCell ref="B84:B88"/>
+    <mergeCell ref="B89:B99"/>
+    <mergeCell ref="B140:B141"/>
+    <mergeCell ref="B100:B106"/>
+    <mergeCell ref="B110:B118"/>
+    <mergeCell ref="B119:B120"/>
+    <mergeCell ref="B128:B130"/>
+    <mergeCell ref="B132:B136"/>
+    <mergeCell ref="B142:B143"/>
     <mergeCell ref="B55:B60"/>
     <mergeCell ref="B61:B63"/>
-    <mergeCell ref="B139:B140"/>
+    <mergeCell ref="B138:B139"/>
     <mergeCell ref="B38:B47"/>
     <mergeCell ref="B48:B52"/>
     <mergeCell ref="B53:B54"/>
-    <mergeCell ref="A138:J138"/>
-    <mergeCell ref="B108:B110"/>
+    <mergeCell ref="A137:J137"/>
+    <mergeCell ref="B107:B109"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="I44">
-    <cfRule type="timePeriod" dxfId="5" priority="6" timePeriod="lastMonth">
+  <conditionalFormatting sqref="I44:I46 I49:I51">
+    <cfRule type="timePeriod" dxfId="0" priority="6" timePeriod="lastMonth">
       <formula>AND(MONTH(I44)=MONTH(TODAY())-1,OR(YEAR(I44)=YEAR(TODAY()),AND(MONTH(I44)=1,YEAR(I44)=YEAR(TODAY())-1)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I49">
-    <cfRule type="timePeriod" dxfId="4" priority="5" timePeriod="lastMonth">
-      <formula>AND(MONTH(I49)=MONTH(TODAY())-1,OR(YEAR(I49)=YEAR(TODAY()),AND(MONTH(I49)=1,YEAR(I49)=YEAR(TODAY())-1)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I46">
-    <cfRule type="timePeriod" dxfId="3" priority="4" timePeriod="lastMonth">
-      <formula>AND(MONTH(I46)=MONTH(TODAY())-1,OR(YEAR(I46)=YEAR(TODAY()),AND(MONTH(I46)=1,YEAR(I46)=YEAR(TODAY())-1)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I50">
-    <cfRule type="timePeriod" dxfId="2" priority="3" timePeriod="lastMonth">
-      <formula>AND(MONTH(I50)=MONTH(TODAY())-1,OR(YEAR(I50)=YEAR(TODAY()),AND(MONTH(I50)=1,YEAR(I50)=YEAR(TODAY())-1)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I45">
-    <cfRule type="timePeriod" dxfId="1" priority="2" timePeriod="lastMonth">
-      <formula>AND(MONTH(I45)=MONTH(TODAY())-1,OR(YEAR(I45)=YEAR(TODAY()),AND(MONTH(I45)=1,YEAR(I45)=YEAR(TODAY())-1)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I51">
-    <cfRule type="timePeriod" dxfId="0" priority="1" timePeriod="lastMonth">
-      <formula>AND(MONTH(I51)=MONTH(TODAY())-1,OR(YEAR(I51)=YEAR(TODAY()),AND(MONTH(I51)=1,YEAR(I51)=YEAR(TODAY())-1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ProjectManagement/文档/问题点一览.xlsx
+++ b/ProjectManagement/文档/问题点一览.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="240">
   <si>
     <t>NO</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -608,10 +608,6 @@
   </si>
   <si>
     <t>“近期工作和问题”，双击时，弹出对应的编辑页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下面编辑部分的成本分配改为“预算分配”，不需要有默认值，并且此值需要手工输入</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -840,131 +836,148 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>成本分配改成预算分配，可用金额改为预算金额</t>
+    <t>预算分配为必填项，添加成功时不提示，错误时才提示。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在“项目预警信息”里，如果是交付物、日常工作和问题，双击时，直接弹出对应的编辑页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目成本改成项目预算，成本名称显示不正确。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收入管理-完成情况：1未开始，2进行中，3已完成，3已延期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按编号升序显示。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收入阶段是必填项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收款批次为必填项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收款金额改成文本框，并且根据收款比例和合同金额，自动算出来。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作量手动修改后，在保存后，还会自动按日期计算出工作量。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>列表可以整行选中，在切换时，不需要提示是否需要保存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只显示编号和问题名称两个字段，像左侧树一样，设置工作列表里的背景色。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关联结点默认全部展开</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在添加责任人窗口里，设置实际工作量默认和预计工作量一致。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风险按钮无法使用，每点击一次，会自动添加一条问题，完全不对。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>程梦佳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关联结点默认全部展开</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作列表里，只显示编号和工作名称两个字段。像左侧树一样，设置工作列表里的背景色。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最右侧的附件功能，都不能使用。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>liuxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新了问题的状态为已解决，然后在左侧树那里，突然出现多条同样的问题。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这里是测试github是多人协作。这里再更新一些。仅仅是测试拉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无法更新工作的状态，点击保存时没有反应。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加问题时，保存时出错，提示“未将对象设置到实例”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>干系人里有3个人，在这里显示3行，但只有一行能正常显示出来，其它两行名称为空。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上面的按条件生成计划后，与生成的内容不符。另外，如何清除查询条件？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>近期工作和问题，点击处理时，仅弹出页面，并没有在页面里加载对应的内容。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>程梦佳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>朱冠军</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下面编辑部分的成本分配改为“预算分配”，不需要有默认值，并且此值需要手工输入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>成本分配改成预算分配，可用金额改为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>预算金额</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>可用金额默认为合同金额中的可用金额，如合同金额是10，预算1在添加时，默为10，设置为3后，再添加预算2默认显示7。每次添加时，都需要判断一下多条预算的总值不能超过合同金额。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>预算分配为必填项，添加成功时不提示，错误时才提示。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在“项目预警信息”里，如果是交付物、日常工作和问题，双击时，直接弹出对应的编辑页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目成本改成项目预算，成本名称显示不正确。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>收入管理-完成情况：1未开始，2进行中，3已完成，3已延期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>按编号升序显示。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>收入阶段是必填项</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>收款批次为必填项</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>收款金额改成文本框，并且根据收款比例和合同金额，自动算出来。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工作量手动修改后，在保存后，还会自动按日期计算出工作量。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>列表可以整行选中，在切换时，不需要提示是否需要保存</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>只显示编号和问题名称两个字段，像左侧树一样，设置工作列表里的背景色。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关联结点默认全部展开</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在添加责任人窗口里，设置实际工作量默认和预计工作量一致。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>风险按钮无法使用，每点击一次，会自动添加一条问题，完全不对。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>程梦佳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关联结点默认全部展开</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工作列表里，只显示编号和工作名称两个字段。像左侧树一样，设置工作列表里的背景色。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最右侧的附件功能，都不能使用。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>liuxx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>更新了问题的状态为已解决，然后在左侧树那里，突然出现多条同样的问题。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>这里是测试github是多人协作。这里再更新一些。仅仅是测试拉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无法更新工作的状态，点击保存时没有反应。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加问题时，保存时出错，提示“未将对象设置到实例”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>干系人里有3个人，在这里显示3行，但只有一行能正常显示出来，其它两行名称为空。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上面的按条件生成计划后，与生成的内容不符。另外，如何清除查询条件？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>近期工作和问题，点击处理时，仅弹出页面，并没有在页面里加载对应的内容。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>程梦佳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>朱冠军</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已修改</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -972,7 +985,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1001,6 +1014,14 @@
       <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1604,8 +1625,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K290"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="I67" sqref="I67"/>
+    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="I126" sqref="I126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="22.15" customHeight="1"/>
@@ -1674,7 +1695,7 @@
       </c>
       <c r="F2" s="12"/>
       <c r="G2" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H2" s="14">
         <v>42826</v>
@@ -1872,7 +1893,7 @@
       </c>
       <c r="B10" s="50"/>
       <c r="C10" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>10</v>
@@ -2035,7 +2056,7 @@
       </c>
       <c r="B16" s="50"/>
       <c r="C16" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D16" s="7" t="s">
         <v>10</v>
@@ -2064,7 +2085,7 @@
       </c>
       <c r="B17" s="50"/>
       <c r="C17" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D17" s="7" t="s">
         <v>10</v>
@@ -2117,7 +2138,7 @@
       </c>
       <c r="B19" s="50"/>
       <c r="C19" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>10</v>
@@ -2144,7 +2165,7 @@
       </c>
       <c r="B20" s="50"/>
       <c r="C20" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D20" s="7" t="s">
         <v>10</v>
@@ -2154,7 +2175,7 @@
       </c>
       <c r="F20" s="18"/>
       <c r="G20" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H20" s="15">
         <v>42887</v>
@@ -2171,17 +2192,17 @@
       </c>
       <c r="B21" s="50"/>
       <c r="C21" s="37" t="s">
+        <v>168</v>
+      </c>
+      <c r="D21" s="38" t="s">
         <v>169</v>
-      </c>
-      <c r="D21" s="38" t="s">
-        <v>170</v>
       </c>
       <c r="E21" s="39">
         <v>42887</v>
       </c>
       <c r="F21" s="18"/>
       <c r="G21" s="29" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H21" s="33">
         <v>42888</v>
@@ -2198,10 +2219,10 @@
       </c>
       <c r="B22" s="50"/>
       <c r="C22" s="40" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D22" s="38" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E22" s="39">
         <v>42887</v>
@@ -2225,17 +2246,17 @@
       </c>
       <c r="B23" s="50"/>
       <c r="C23" s="40" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D23" s="38" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E23" s="39">
         <v>42887</v>
       </c>
       <c r="F23" s="18"/>
       <c r="G23" s="29" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H23" s="33">
         <v>42893</v>
@@ -2252,7 +2273,7 @@
       </c>
       <c r="B24" s="50"/>
       <c r="C24" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D24" s="7" t="s">
         <v>10</v>
@@ -2279,7 +2300,7 @@
       </c>
       <c r="B25" s="50"/>
       <c r="C25" s="30" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D25" s="29" t="s">
         <v>10</v>
@@ -2289,7 +2310,7 @@
       </c>
       <c r="F25" s="36"/>
       <c r="G25" s="29" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H25" s="33">
         <v>42888</v>
@@ -2306,7 +2327,7 @@
       </c>
       <c r="B26" s="50"/>
       <c r="C26" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D26" s="29" t="s">
         <v>56</v>
@@ -2316,7 +2337,7 @@
       </c>
       <c r="F26" s="29"/>
       <c r="G26" s="29" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H26" s="33">
         <v>42888</v>
@@ -2333,7 +2354,7 @@
       </c>
       <c r="B27" s="50"/>
       <c r="C27" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D27" s="29" t="s">
         <v>10</v>
@@ -2359,7 +2380,7 @@
       </c>
       <c r="B28" s="51"/>
       <c r="C28" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D28" s="29" t="s">
         <v>10</v>
@@ -2517,7 +2538,7 @@
       </c>
       <c r="B34" s="50"/>
       <c r="C34" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D34" s="24" t="s">
         <v>10</v>
@@ -2527,7 +2548,7 @@
       </c>
       <c r="F34" s="12"/>
       <c r="G34" s="29" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H34" s="33">
         <v>42888</v>
@@ -2543,7 +2564,7 @@
       </c>
       <c r="B35" s="50"/>
       <c r="C35" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D35" s="24" t="s">
         <v>10</v>
@@ -2569,7 +2590,7 @@
       </c>
       <c r="B36" s="50"/>
       <c r="C36" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D36" s="24" t="s">
         <v>10</v>
@@ -2579,7 +2600,7 @@
       </c>
       <c r="F36" s="12"/>
       <c r="G36" s="29" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H36" s="33">
         <v>42888</v>
@@ -2595,10 +2616,10 @@
       </c>
       <c r="B37" s="51"/>
       <c r="C37" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D37" s="24" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E37" s="25">
         <v>42887</v>
@@ -2801,7 +2822,7 @@
       </c>
       <c r="B45" s="45"/>
       <c r="C45" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D45" s="12" t="s">
         <v>10</v>
@@ -2810,7 +2831,7 @@
         <v>42886</v>
       </c>
       <c r="F45" s="12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G45" s="11" t="s">
         <v>49</v>
@@ -2819,7 +2840,7 @@
         <v>42887</v>
       </c>
       <c r="I45" s="11" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J45" s="12"/>
     </row>
@@ -2973,7 +2994,7 @@
       </c>
       <c r="F51" s="7"/>
       <c r="G51" s="11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H51" s="2">
         <v>42887</v>
@@ -3173,7 +3194,7 @@
       <c r="A59" s="32"/>
       <c r="B59" s="45"/>
       <c r="C59" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D59" s="12" t="s">
         <v>10</v>
@@ -3182,9 +3203,15 @@
         <v>42892</v>
       </c>
       <c r="F59" s="12"/>
-      <c r="G59" s="12"/>
-      <c r="H59" s="14"/>
-      <c r="I59" s="12"/>
+      <c r="G59" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="H59" s="14">
+        <v>42898</v>
+      </c>
+      <c r="I59" s="12" t="s">
+        <v>236</v>
+      </c>
       <c r="J59" s="12"/>
     </row>
     <row r="60" spans="1:10" ht="22.15" customHeight="1">
@@ -3245,7 +3272,7 @@
       <c r="A62" s="32"/>
       <c r="B62" s="45"/>
       <c r="C62" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D62" s="12" t="s">
         <v>10</v>
@@ -3254,9 +3281,15 @@
         <v>42892</v>
       </c>
       <c r="F62" s="12"/>
-      <c r="G62" s="12"/>
-      <c r="H62" s="14"/>
-      <c r="I62" s="12"/>
+      <c r="G62" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="H62" s="14">
+        <v>42898</v>
+      </c>
+      <c r="I62" s="12" t="s">
+        <v>236</v>
+      </c>
       <c r="J62" s="12"/>
     </row>
     <row r="63" spans="1:10" ht="22.15" customHeight="1">
@@ -3343,7 +3376,7 @@
       <c r="A66" s="32"/>
       <c r="B66" s="50"/>
       <c r="C66" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D66" s="12" t="s">
         <v>10</v>
@@ -3352,16 +3385,22 @@
         <v>42892</v>
       </c>
       <c r="F66" s="12"/>
-      <c r="G66" s="12"/>
-      <c r="H66" s="14"/>
-      <c r="I66" s="12"/>
+      <c r="G66" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="H66" s="14">
+        <v>42898</v>
+      </c>
+      <c r="I66" s="12" t="s">
+        <v>236</v>
+      </c>
       <c r="J66" s="12"/>
     </row>
     <row r="67" spans="1:10" s="28" customFormat="1" ht="54">
       <c r="A67" s="32"/>
       <c r="B67" s="50"/>
       <c r="C67" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D67" s="12" t="s">
         <v>10</v>
@@ -3371,13 +3410,13 @@
       </c>
       <c r="F67" s="12"/>
       <c r="G67" s="12" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="H67" s="14">
         <v>42898</v>
       </c>
       <c r="I67" s="12" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="J67" s="12"/>
     </row>
@@ -3385,7 +3424,7 @@
       <c r="A68" s="32"/>
       <c r="B68" s="50"/>
       <c r="C68" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D68" s="12" t="s">
         <v>10</v>
@@ -3394,16 +3433,22 @@
         <v>42892</v>
       </c>
       <c r="F68" s="12"/>
-      <c r="G68" s="12"/>
-      <c r="H68" s="14"/>
-      <c r="I68" s="12"/>
+      <c r="G68" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="H68" s="14">
+        <v>42898</v>
+      </c>
+      <c r="I68" s="12" t="s">
+        <v>236</v>
+      </c>
       <c r="J68" s="12"/>
     </row>
     <row r="69" spans="1:10" s="28" customFormat="1" ht="27">
       <c r="A69" s="32"/>
       <c r="B69" s="50"/>
       <c r="C69" s="4" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D69" s="12" t="s">
         <v>10</v>
@@ -3413,13 +3458,13 @@
       </c>
       <c r="F69" s="12"/>
       <c r="G69" s="12" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="H69" s="14">
         <v>42898</v>
       </c>
       <c r="I69" s="12" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="J69" s="12"/>
     </row>
@@ -3439,13 +3484,13 @@
       </c>
       <c r="F70" s="12"/>
       <c r="G70" s="12" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="H70" s="14">
         <v>42898</v>
       </c>
       <c r="I70" s="12" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="J70" s="12" t="s">
         <v>85</v>
@@ -3457,7 +3502,7 @@
       </c>
       <c r="B71" s="51"/>
       <c r="C71" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D71" s="24" t="s">
         <v>10</v>
@@ -3467,13 +3512,13 @@
       </c>
       <c r="F71" s="12"/>
       <c r="G71" s="31" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="H71" s="2">
         <v>42898</v>
       </c>
       <c r="I71" s="31" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="J71" s="11"/>
     </row>
@@ -3482,7 +3527,7 @@
         <v>66</v>
       </c>
       <c r="B72" s="45" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C72" s="4" t="s">
         <v>38</v>
@@ -3537,7 +3582,7 @@
       </c>
       <c r="B74" s="45"/>
       <c r="C74" s="4" t="s">
-        <v>208</v>
+        <v>238</v>
       </c>
       <c r="D74" s="12" t="s">
         <v>10</v>
@@ -3546,23 +3591,35 @@
         <v>42886</v>
       </c>
       <c r="F74" s="12"/>
-      <c r="G74" s="12"/>
-      <c r="H74" s="14"/>
-      <c r="I74" s="12"/>
+      <c r="G74" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="H74" s="14">
+        <v>42898</v>
+      </c>
+      <c r="I74" s="12" t="s">
+        <v>236</v>
+      </c>
       <c r="J74" s="12"/>
     </row>
     <row r="75" spans="1:10" s="28" customFormat="1" ht="22.15" customHeight="1">
       <c r="A75" s="32"/>
       <c r="B75" s="45"/>
       <c r="C75" s="4" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D75" s="12"/>
       <c r="E75" s="14"/>
       <c r="F75" s="12"/>
-      <c r="G75" s="12"/>
-      <c r="H75" s="14"/>
-      <c r="I75" s="12"/>
+      <c r="G75" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="H75" s="14">
+        <v>42898</v>
+      </c>
+      <c r="I75" s="12" t="s">
+        <v>236</v>
+      </c>
       <c r="J75" s="12"/>
     </row>
     <row r="76" spans="1:10" ht="27">
@@ -3571,7 +3628,7 @@
       </c>
       <c r="B76" s="45"/>
       <c r="C76" s="4" t="s">
-        <v>150</v>
+        <v>237</v>
       </c>
       <c r="D76" s="12" t="s">
         <v>10</v>
@@ -3580,16 +3637,22 @@
         <v>42886</v>
       </c>
       <c r="F76" s="12"/>
-      <c r="G76" s="12"/>
-      <c r="H76" s="14"/>
-      <c r="I76" s="12"/>
+      <c r="G76" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="H76" s="14">
+        <v>42898</v>
+      </c>
+      <c r="I76" s="12" t="s">
+        <v>236</v>
+      </c>
       <c r="J76" s="12"/>
     </row>
     <row r="77" spans="1:10" s="28" customFormat="1" ht="40.5">
       <c r="A77" s="32"/>
       <c r="B77" s="45"/>
       <c r="C77" s="4" t="s">
-        <v>209</v>
+        <v>239</v>
       </c>
       <c r="D77" s="12" t="s">
         <v>10</v>
@@ -3598,9 +3661,15 @@
         <v>42892</v>
       </c>
       <c r="F77" s="12"/>
-      <c r="G77" s="12"/>
-      <c r="H77" s="14"/>
-      <c r="I77" s="12"/>
+      <c r="G77" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="H77" s="14">
+        <v>42898</v>
+      </c>
+      <c r="I77" s="12" t="s">
+        <v>236</v>
+      </c>
       <c r="J77" s="12"/>
     </row>
     <row r="78" spans="1:10" ht="22.15" customHeight="1">
@@ -3663,7 +3732,7 @@
       <c r="A80" s="32"/>
       <c r="B80" s="45"/>
       <c r="C80" s="4" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D80" s="12" t="s">
         <v>10</v>
@@ -3672,16 +3741,22 @@
         <v>42892</v>
       </c>
       <c r="F80" s="12"/>
-      <c r="G80" s="12"/>
-      <c r="H80" s="14"/>
-      <c r="I80" s="12"/>
+      <c r="G80" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="H80" s="14">
+        <v>42898</v>
+      </c>
+      <c r="I80" s="12" t="s">
+        <v>236</v>
+      </c>
       <c r="J80" s="12"/>
     </row>
     <row r="81" spans="1:10" s="28" customFormat="1" ht="25.9" customHeight="1">
       <c r="A81" s="32"/>
       <c r="B81" s="45"/>
       <c r="C81" s="4" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D81" s="12" t="s">
         <v>10</v>
@@ -3690,9 +3765,15 @@
         <v>42892</v>
       </c>
       <c r="F81" s="12"/>
-      <c r="G81" s="12"/>
-      <c r="H81" s="14"/>
-      <c r="I81" s="12"/>
+      <c r="G81" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="H81" s="14">
+        <v>42898</v>
+      </c>
+      <c r="I81" s="12" t="s">
+        <v>236</v>
+      </c>
       <c r="J81" s="12"/>
     </row>
     <row r="82" spans="1:10" ht="22.15" customHeight="1">
@@ -3779,7 +3860,7 @@
       <c r="A85" s="32"/>
       <c r="B85" s="45"/>
       <c r="C85" s="4" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D85" s="12" t="s">
         <v>10</v>
@@ -3788,16 +3869,22 @@
         <v>42892</v>
       </c>
       <c r="F85" s="12"/>
-      <c r="G85" s="12"/>
-      <c r="H85" s="14"/>
-      <c r="I85" s="12"/>
+      <c r="G85" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="H85" s="14">
+        <v>42898</v>
+      </c>
+      <c r="I85" s="12" t="s">
+        <v>236</v>
+      </c>
       <c r="J85" s="12"/>
     </row>
     <row r="86" spans="1:10" s="28" customFormat="1" ht="13.5">
       <c r="A86" s="32"/>
       <c r="B86" s="45"/>
       <c r="C86" s="4" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D86" s="12" t="s">
         <v>10</v>
@@ -3806,9 +3893,15 @@
         <v>42892</v>
       </c>
       <c r="F86" s="12"/>
-      <c r="G86" s="12"/>
-      <c r="H86" s="14"/>
-      <c r="I86" s="12"/>
+      <c r="G86" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="H86" s="14">
+        <v>42898</v>
+      </c>
+      <c r="I86" s="12" t="s">
+        <v>236</v>
+      </c>
       <c r="J86" s="12"/>
     </row>
     <row r="87" spans="1:10" ht="22.15" customHeight="1">
@@ -3889,7 +3982,7 @@
       <c r="A90" s="32"/>
       <c r="B90" s="45"/>
       <c r="C90" s="4" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D90" s="12" t="s">
         <v>10</v>
@@ -3939,7 +4032,7 @@
       <c r="A92" s="32"/>
       <c r="B92" s="45"/>
       <c r="C92" s="4" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D92" s="12" t="s">
         <v>10</v>
@@ -3957,7 +4050,7 @@
       <c r="A93" s="32"/>
       <c r="B93" s="45"/>
       <c r="C93" s="4" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D93" s="12" t="s">
         <v>10</v>
@@ -3981,7 +4074,7 @@
       <c r="A94" s="32"/>
       <c r="B94" s="45"/>
       <c r="C94" s="4" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D94" s="12" t="s">
         <v>10</v>
@@ -3999,10 +4092,10 @@
       <c r="A95" s="32"/>
       <c r="B95" s="45"/>
       <c r="C95" s="4" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D95" s="12" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="E95" s="14">
         <v>42893</v>
@@ -4017,10 +4110,10 @@
       <c r="A96" s="32"/>
       <c r="B96" s="45"/>
       <c r="C96" s="4" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D96" s="12" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="E96" s="14">
         <v>42893</v>
@@ -4035,7 +4128,7 @@
       <c r="A97" s="32"/>
       <c r="B97" s="45"/>
       <c r="C97" s="4" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D97" s="12" t="s">
         <v>10</v>
@@ -4053,7 +4146,7 @@
       <c r="A98" s="32"/>
       <c r="B98" s="45"/>
       <c r="C98" s="4" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D98" s="12" t="s">
         <v>10</v>
@@ -4125,7 +4218,7 @@
       <c r="A101" s="32"/>
       <c r="B101" s="45"/>
       <c r="C101" s="4" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D101" s="12" t="s">
         <v>10</v>
@@ -4149,7 +4242,7 @@
       <c r="A102" s="32"/>
       <c r="B102" s="45"/>
       <c r="C102" s="4" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D102" s="12" t="s">
         <v>10</v>
@@ -4159,7 +4252,7 @@
       </c>
       <c r="F102" s="12"/>
       <c r="G102" s="12" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="H102" s="14">
         <v>42895</v>
@@ -4173,7 +4266,7 @@
       <c r="A103" s="32"/>
       <c r="B103" s="45"/>
       <c r="C103" s="42" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D103" s="43"/>
       <c r="E103" s="44"/>
@@ -4187,7 +4280,7 @@
       <c r="A104" s="32"/>
       <c r="B104" s="45"/>
       <c r="C104" s="4" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D104" s="12" t="s">
         <v>10</v>
@@ -4211,7 +4304,7 @@
       <c r="A105" s="32"/>
       <c r="B105" s="45"/>
       <c r="C105" s="4" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D105" s="12" t="s">
         <v>10</v>
@@ -4291,7 +4384,7 @@
       <c r="A108" s="32"/>
       <c r="B108" s="50"/>
       <c r="C108" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D108" s="12" t="s">
         <v>10</v>
@@ -4315,7 +4408,7 @@
       <c r="A109" s="32"/>
       <c r="B109" s="51"/>
       <c r="C109" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D109" s="12" t="s">
         <v>10</v>
@@ -4389,7 +4482,7 @@
       </c>
       <c r="B112" s="52"/>
       <c r="C112" s="8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D112" s="9" t="s">
         <v>10</v>
@@ -4409,7 +4502,7 @@
       </c>
       <c r="B113" s="52"/>
       <c r="C113" s="8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D113" s="9" t="s">
         <v>10</v>
@@ -4427,7 +4520,7 @@
       <c r="A114" s="32"/>
       <c r="B114" s="52"/>
       <c r="C114" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D114" s="12" t="s">
         <v>10</v>
@@ -4445,7 +4538,7 @@
       <c r="A115" s="32"/>
       <c r="B115" s="52"/>
       <c r="C115" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D115" s="12" t="s">
         <v>10</v>
@@ -4463,7 +4556,7 @@
       <c r="A116" s="32"/>
       <c r="B116" s="52"/>
       <c r="C116" s="8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D116" s="12" t="s">
         <v>10</v>
@@ -4481,7 +4574,7 @@
       <c r="A117" s="32"/>
       <c r="B117" s="52"/>
       <c r="C117" s="8" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D117" s="12" t="s">
         <v>10</v>
@@ -4501,7 +4594,7 @@
       </c>
       <c r="B118" s="52"/>
       <c r="C118" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D118" s="9" t="s">
         <v>10</v>
@@ -4601,7 +4694,7 @@
       <c r="A122" s="32"/>
       <c r="B122" s="50"/>
       <c r="C122" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D122" s="12" t="s">
         <v>10</v>
@@ -4610,16 +4703,22 @@
         <v>42892</v>
       </c>
       <c r="F122" s="12"/>
-      <c r="G122" s="12"/>
-      <c r="H122" s="14"/>
-      <c r="I122" s="12"/>
+      <c r="G122" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="H122" s="14">
+        <v>42898</v>
+      </c>
+      <c r="I122" s="12" t="s">
+        <v>236</v>
+      </c>
       <c r="J122" s="12"/>
     </row>
     <row r="123" spans="1:10" s="28" customFormat="1" ht="22.15" customHeight="1">
       <c r="A123" s="32"/>
       <c r="B123" s="50"/>
       <c r="C123" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D123" s="12" t="s">
         <v>10</v>
@@ -4637,7 +4736,7 @@
       <c r="A124" s="32"/>
       <c r="B124" s="50"/>
       <c r="C124" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D124" s="12" t="s">
         <v>10</v>
@@ -4646,16 +4745,22 @@
         <v>42892</v>
       </c>
       <c r="F124" s="12"/>
-      <c r="G124" s="12"/>
-      <c r="H124" s="14"/>
-      <c r="I124" s="12"/>
+      <c r="G124" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="H124" s="14">
+        <v>42898</v>
+      </c>
+      <c r="I124" s="12" t="s">
+        <v>236</v>
+      </c>
       <c r="J124" s="12"/>
     </row>
     <row r="125" spans="1:10" s="28" customFormat="1" ht="27">
       <c r="A125" s="32"/>
       <c r="B125" s="50"/>
       <c r="C125" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D125" s="12" t="s">
         <v>10</v>
@@ -4673,14 +4778,20 @@
       <c r="A126" s="32"/>
       <c r="B126" s="50"/>
       <c r="C126" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D126" s="12"/>
       <c r="E126" s="14"/>
       <c r="F126" s="12"/>
-      <c r="G126" s="12"/>
-      <c r="H126" s="14"/>
-      <c r="I126" s="12"/>
+      <c r="G126" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="H126" s="14">
+        <v>42898</v>
+      </c>
+      <c r="I126" s="12" t="s">
+        <v>236</v>
+      </c>
       <c r="J126" s="12"/>
     </row>
     <row r="127" spans="1:10" ht="27">
@@ -4689,7 +4800,7 @@
       </c>
       <c r="B127" s="51"/>
       <c r="C127" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D127" s="24" t="s">
         <v>10</v>
@@ -4786,10 +4897,10 @@
     <row r="131" spans="1:10" s="28" customFormat="1" ht="40.9" customHeight="1">
       <c r="A131" s="32"/>
       <c r="B131" s="41" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D131" s="12" t="s">
         <v>10</v>
@@ -4835,7 +4946,7 @@
       <c r="A133" s="32"/>
       <c r="B133" s="50"/>
       <c r="C133" s="4" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D133" s="24" t="s">
         <v>10</v>
@@ -4855,7 +4966,7 @@
       </c>
       <c r="B134" s="50"/>
       <c r="C134" s="4" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D134" s="12" t="s">
         <v>10</v>
@@ -4873,7 +4984,7 @@
       <c r="A135" s="32"/>
       <c r="B135" s="50"/>
       <c r="C135" s="4" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D135" s="24" t="s">
         <v>10</v>
@@ -4909,7 +5020,7 @@
     </row>
     <row r="137" spans="1:10" s="28" customFormat="1" ht="22.15" customHeight="1">
       <c r="A137" s="46" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B137" s="47"/>
       <c r="C137" s="47"/>
@@ -5063,10 +5174,10 @@
       </c>
       <c r="B143" s="51"/>
       <c r="C143" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="D143" s="24" t="s">
         <v>167</v>
-      </c>
-      <c r="D143" s="24" t="s">
-        <v>168</v>
       </c>
       <c r="E143" s="25">
         <v>42887</v>
@@ -5137,7 +5248,7 @@
       <c r="A146" s="32"/>
       <c r="B146" s="50"/>
       <c r="C146" s="4" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D146" s="12" t="s">
         <v>10</v>
@@ -5147,13 +5258,13 @@
       </c>
       <c r="F146" s="12"/>
       <c r="G146" s="12" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="H146" s="14">
         <v>42167</v>
       </c>
       <c r="I146" s="12" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="J146" s="12"/>
     </row>
@@ -5214,10 +5325,10 @@
         <v>108</v>
       </c>
       <c r="B149" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="C149" s="4" t="s">
         <v>171</v>
-      </c>
-      <c r="C149" s="4" t="s">
-        <v>172</v>
       </c>
       <c r="D149" s="24" t="s">
         <v>10</v>
@@ -5236,10 +5347,10 @@
         <v>109</v>
       </c>
       <c r="B150" s="31" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D150" s="24" t="s">
         <v>10</v>

--- a/ProjectManagement/文档/问题点一览.xlsx
+++ b/ProjectManagement/文档/问题点一览.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="242">
   <si>
     <t>NO</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -978,6 +978,14 @@
   </si>
   <si>
     <t>可用金额默认为合同金额中的可用金额，如合同金额是10，预算1在添加时，默为10，设置为3后，再添加预算2默认显示7。每次添加时，都需要判断一下多条预算的总值不能超过合同金额。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>朱冠军</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已修改</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1286,7 +1294,19 @@
     <xf numFmtId="14" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1297,18 +1317,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1625,8 +1633,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K290"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="I126" sqref="I126"/>
+    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="I127" sqref="I127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="22.15" customHeight="1"/>
@@ -1681,7 +1689,7 @@
       <c r="A2" s="13">
         <v>1</v>
       </c>
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="45" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -1709,7 +1717,7 @@
       <c r="A3" s="13">
         <v>2</v>
       </c>
-      <c r="B3" s="50"/>
+      <c r="B3" s="46"/>
       <c r="C3" s="4" t="s">
         <v>51</v>
       </c>
@@ -1735,7 +1743,7 @@
       <c r="A4" s="13">
         <v>3</v>
       </c>
-      <c r="B4" s="50"/>
+      <c r="B4" s="46"/>
       <c r="C4" s="4" t="s">
         <v>52</v>
       </c>
@@ -1761,7 +1769,7 @@
       <c r="A5" s="13">
         <v>4</v>
       </c>
-      <c r="B5" s="50"/>
+      <c r="B5" s="46"/>
       <c r="C5" s="4" t="s">
         <v>13</v>
       </c>
@@ -1787,7 +1795,7 @@
       <c r="A6" s="13">
         <v>5</v>
       </c>
-      <c r="B6" s="50"/>
+      <c r="B6" s="46"/>
       <c r="C6" s="4" t="s">
         <v>53</v>
       </c>
@@ -1813,7 +1821,7 @@
       <c r="A7" s="13">
         <v>6</v>
       </c>
-      <c r="B7" s="50"/>
+      <c r="B7" s="46"/>
       <c r="C7" s="4" t="s">
         <v>16</v>
       </c>
@@ -1839,7 +1847,7 @@
       <c r="A8" s="13">
         <v>7</v>
       </c>
-      <c r="B8" s="50"/>
+      <c r="B8" s="46"/>
       <c r="C8" s="4" t="s">
         <v>14</v>
       </c>
@@ -1865,7 +1873,7 @@
       <c r="A9" s="13">
         <v>8</v>
       </c>
-      <c r="B9" s="50"/>
+      <c r="B9" s="46"/>
       <c r="C9" s="4" t="s">
         <v>17</v>
       </c>
@@ -1891,7 +1899,7 @@
       <c r="A10" s="13">
         <v>9</v>
       </c>
-      <c r="B10" s="50"/>
+      <c r="B10" s="46"/>
       <c r="C10" s="6" t="s">
         <v>160</v>
       </c>
@@ -1924,7 +1932,7 @@
       <c r="A11" s="13">
         <v>10</v>
       </c>
-      <c r="B11" s="50"/>
+      <c r="B11" s="46"/>
       <c r="C11" s="4" t="s">
         <v>48</v>
       </c>
@@ -1950,7 +1958,7 @@
       <c r="A12" s="13">
         <v>11</v>
       </c>
-      <c r="B12" s="50"/>
+      <c r="B12" s="46"/>
       <c r="C12" s="4" t="s">
         <v>107</v>
       </c>
@@ -1976,7 +1984,7 @@
       <c r="A13" s="13">
         <v>12</v>
       </c>
-      <c r="B13" s="50"/>
+      <c r="B13" s="46"/>
       <c r="C13" s="4" t="s">
         <v>110</v>
       </c>
@@ -2002,7 +2010,7 @@
       <c r="A14" s="13">
         <v>13</v>
       </c>
-      <c r="B14" s="50"/>
+      <c r="B14" s="46"/>
       <c r="C14" s="4" t="s">
         <v>109</v>
       </c>
@@ -2028,7 +2036,7 @@
       <c r="A15" s="13">
         <v>14</v>
       </c>
-      <c r="B15" s="50"/>
+      <c r="B15" s="46"/>
       <c r="C15" s="6" t="s">
         <v>138</v>
       </c>
@@ -2054,7 +2062,7 @@
       <c r="A16" s="13">
         <v>15</v>
       </c>
-      <c r="B16" s="50"/>
+      <c r="B16" s="46"/>
       <c r="C16" s="6" t="s">
         <v>153</v>
       </c>
@@ -2083,7 +2091,7 @@
       <c r="A17" s="13">
         <v>16</v>
       </c>
-      <c r="B17" s="50"/>
+      <c r="B17" s="46"/>
       <c r="C17" s="6" t="s">
         <v>156</v>
       </c>
@@ -2109,7 +2117,7 @@
       <c r="A18" s="13">
         <v>17</v>
       </c>
-      <c r="B18" s="50"/>
+      <c r="B18" s="46"/>
       <c r="C18" s="10" t="s">
         <v>147</v>
       </c>
@@ -2136,7 +2144,7 @@
       <c r="A19" s="32">
         <v>18</v>
       </c>
-      <c r="B19" s="50"/>
+      <c r="B19" s="46"/>
       <c r="C19" s="10" t="s">
         <v>154</v>
       </c>
@@ -2163,7 +2171,7 @@
       <c r="A20" s="32">
         <v>19</v>
       </c>
-      <c r="B20" s="50"/>
+      <c r="B20" s="46"/>
       <c r="C20" s="10" t="s">
         <v>151</v>
       </c>
@@ -2190,7 +2198,7 @@
       <c r="A21" s="32">
         <v>20</v>
       </c>
-      <c r="B21" s="50"/>
+      <c r="B21" s="46"/>
       <c r="C21" s="37" t="s">
         <v>168</v>
       </c>
@@ -2217,7 +2225,7 @@
       <c r="A22" s="32">
         <v>21</v>
       </c>
-      <c r="B22" s="50"/>
+      <c r="B22" s="46"/>
       <c r="C22" s="40" t="s">
         <v>181</v>
       </c>
@@ -2244,7 +2252,7 @@
       <c r="A23" s="32">
         <v>22</v>
       </c>
-      <c r="B23" s="50"/>
+      <c r="B23" s="46"/>
       <c r="C23" s="40" t="s">
         <v>182</v>
       </c>
@@ -2271,7 +2279,7 @@
       <c r="A24" s="32">
         <v>23</v>
       </c>
-      <c r="B24" s="50"/>
+      <c r="B24" s="46"/>
       <c r="C24" s="10" t="s">
         <v>152</v>
       </c>
@@ -2298,7 +2306,7 @@
       <c r="A25" s="32">
         <v>24</v>
       </c>
-      <c r="B25" s="50"/>
+      <c r="B25" s="46"/>
       <c r="C25" s="30" t="s">
         <v>173</v>
       </c>
@@ -2325,7 +2333,7 @@
       <c r="A26" s="32">
         <v>25</v>
       </c>
-      <c r="B26" s="50"/>
+      <c r="B26" s="46"/>
       <c r="C26" s="6" t="s">
         <v>174</v>
       </c>
@@ -2352,7 +2360,7 @@
       <c r="A27" s="32">
         <v>26</v>
       </c>
-      <c r="B27" s="50"/>
+      <c r="B27" s="46"/>
       <c r="C27" s="6" t="s">
         <v>177</v>
       </c>
@@ -2378,7 +2386,7 @@
       <c r="A28" s="32">
         <v>27</v>
       </c>
-      <c r="B28" s="51"/>
+      <c r="B28" s="47"/>
       <c r="C28" s="6" t="s">
         <v>178</v>
       </c>
@@ -2404,7 +2412,7 @@
       <c r="A29" s="32">
         <v>28</v>
       </c>
-      <c r="B29" s="49" t="s">
+      <c r="B29" s="45" t="s">
         <v>12</v>
       </c>
       <c r="C29" s="4" t="s">
@@ -2432,7 +2440,7 @@
       <c r="A30" s="32">
         <v>29</v>
       </c>
-      <c r="B30" s="50"/>
+      <c r="B30" s="46"/>
       <c r="C30" s="4" t="s">
         <v>17</v>
       </c>
@@ -2458,7 +2466,7 @@
       <c r="A31" s="32">
         <v>30</v>
       </c>
-      <c r="B31" s="50"/>
+      <c r="B31" s="46"/>
       <c r="C31" s="4" t="s">
         <v>18</v>
       </c>
@@ -2484,7 +2492,7 @@
       <c r="A32" s="32">
         <v>31</v>
       </c>
-      <c r="B32" s="50"/>
+      <c r="B32" s="46"/>
       <c r="C32" s="4" t="s">
         <v>106</v>
       </c>
@@ -2510,7 +2518,7 @@
       <c r="A33" s="32">
         <v>32</v>
       </c>
-      <c r="B33" s="50"/>
+      <c r="B33" s="46"/>
       <c r="C33" s="4" t="s">
         <v>55</v>
       </c>
@@ -2536,7 +2544,7 @@
       <c r="A34" s="32">
         <v>33</v>
       </c>
-      <c r="B34" s="50"/>
+      <c r="B34" s="46"/>
       <c r="C34" s="4" t="s">
         <v>161</v>
       </c>
@@ -2562,7 +2570,7 @@
       <c r="A35" s="32">
         <v>34</v>
       </c>
-      <c r="B35" s="50"/>
+      <c r="B35" s="46"/>
       <c r="C35" s="4" t="s">
         <v>176</v>
       </c>
@@ -2588,7 +2596,7 @@
       <c r="A36" s="32">
         <v>35</v>
       </c>
-      <c r="B36" s="50"/>
+      <c r="B36" s="46"/>
       <c r="C36" s="4" t="s">
         <v>163</v>
       </c>
@@ -2614,7 +2622,7 @@
       <c r="A37" s="32">
         <v>36</v>
       </c>
-      <c r="B37" s="51"/>
+      <c r="B37" s="47"/>
       <c r="C37" s="4" t="s">
         <v>162</v>
       </c>
@@ -2634,7 +2642,7 @@
       <c r="A38" s="32">
         <v>37</v>
       </c>
-      <c r="B38" s="45" t="s">
+      <c r="B38" s="48" t="s">
         <v>19</v>
       </c>
       <c r="C38" s="4" t="s">
@@ -2664,7 +2672,7 @@
       <c r="A39" s="32">
         <v>38</v>
       </c>
-      <c r="B39" s="45"/>
+      <c r="B39" s="48"/>
       <c r="C39" s="4" t="s">
         <v>21</v>
       </c>
@@ -2690,7 +2698,7 @@
       <c r="A40" s="32">
         <v>39</v>
       </c>
-      <c r="B40" s="45"/>
+      <c r="B40" s="48"/>
       <c r="C40" s="4" t="s">
         <v>71</v>
       </c>
@@ -2716,7 +2724,7 @@
       <c r="A41" s="32">
         <v>40</v>
       </c>
-      <c r="B41" s="45"/>
+      <c r="B41" s="48"/>
       <c r="C41" s="4" t="s">
         <v>90</v>
       </c>
@@ -2742,7 +2750,7 @@
       <c r="A42" s="32">
         <v>41</v>
       </c>
-      <c r="B42" s="45"/>
+      <c r="B42" s="48"/>
       <c r="C42" s="4" t="s">
         <v>89</v>
       </c>
@@ -2768,7 +2776,7 @@
       <c r="A43" s="32">
         <v>42</v>
       </c>
-      <c r="B43" s="45"/>
+      <c r="B43" s="48"/>
       <c r="C43" s="4" t="s">
         <v>94</v>
       </c>
@@ -2794,7 +2802,7 @@
       <c r="A44" s="32">
         <v>43</v>
       </c>
-      <c r="B44" s="45"/>
+      <c r="B44" s="48"/>
       <c r="C44" s="4" t="s">
         <v>96</v>
       </c>
@@ -2820,7 +2828,7 @@
       <c r="A45" s="32">
         <v>44</v>
       </c>
-      <c r="B45" s="45"/>
+      <c r="B45" s="48"/>
       <c r="C45" s="4" t="s">
         <v>150</v>
       </c>
@@ -2848,7 +2856,7 @@
       <c r="A46" s="32">
         <v>45</v>
       </c>
-      <c r="B46" s="45"/>
+      <c r="B46" s="48"/>
       <c r="C46" s="6" t="s">
         <v>137</v>
       </c>
@@ -2874,7 +2882,7 @@
       <c r="A47" s="32">
         <v>46</v>
       </c>
-      <c r="B47" s="45"/>
+      <c r="B47" s="48"/>
       <c r="C47" s="4" t="s">
         <v>22</v>
       </c>
@@ -2900,7 +2908,7 @@
       <c r="A48" s="32">
         <v>47</v>
       </c>
-      <c r="B48" s="45" t="s">
+      <c r="B48" s="48" t="s">
         <v>23</v>
       </c>
       <c r="C48" s="4" t="s">
@@ -2928,7 +2936,7 @@
       <c r="A49" s="32">
         <v>48</v>
       </c>
-      <c r="B49" s="45"/>
+      <c r="B49" s="48"/>
       <c r="C49" s="4" t="s">
         <v>92</v>
       </c>
@@ -2956,7 +2964,7 @@
       <c r="A50" s="32">
         <v>49</v>
       </c>
-      <c r="B50" s="45"/>
+      <c r="B50" s="48"/>
       <c r="C50" s="6" t="s">
         <v>91</v>
       </c>
@@ -2982,7 +2990,7 @@
       <c r="A51" s="32">
         <v>50</v>
       </c>
-      <c r="B51" s="45"/>
+      <c r="B51" s="48"/>
       <c r="C51" s="6" t="s">
         <v>148</v>
       </c>
@@ -3008,7 +3016,7 @@
       <c r="A52" s="32">
         <v>51</v>
       </c>
-      <c r="B52" s="45"/>
+      <c r="B52" s="48"/>
       <c r="C52" s="4" t="s">
         <v>25</v>
       </c>
@@ -3034,7 +3042,7 @@
       <c r="A53" s="32">
         <v>52</v>
       </c>
-      <c r="B53" s="45" t="s">
+      <c r="B53" s="48" t="s">
         <v>26</v>
       </c>
       <c r="C53" s="4" t="s">
@@ -3062,7 +3070,7 @@
       <c r="A54" s="32">
         <v>53</v>
       </c>
-      <c r="B54" s="45"/>
+      <c r="B54" s="48"/>
       <c r="C54" s="4" t="s">
         <v>28</v>
       </c>
@@ -3088,7 +3096,7 @@
       <c r="A55" s="32">
         <v>54</v>
       </c>
-      <c r="B55" s="45" t="s">
+      <c r="B55" s="48" t="s">
         <v>29</v>
       </c>
       <c r="C55" s="4" t="s">
@@ -3116,7 +3124,7 @@
       <c r="A56" s="32">
         <v>55</v>
       </c>
-      <c r="B56" s="45"/>
+      <c r="B56" s="48"/>
       <c r="C56" s="4" t="s">
         <v>62</v>
       </c>
@@ -3142,7 +3150,7 @@
       <c r="A57" s="32">
         <v>56</v>
       </c>
-      <c r="B57" s="45"/>
+      <c r="B57" s="48"/>
       <c r="C57" s="4" t="s">
         <v>63</v>
       </c>
@@ -3168,7 +3176,7 @@
       <c r="A58" s="32">
         <v>57</v>
       </c>
-      <c r="B58" s="45"/>
+      <c r="B58" s="48"/>
       <c r="C58" s="4" t="s">
         <v>72</v>
       </c>
@@ -3192,7 +3200,7 @@
     </row>
     <row r="59" spans="1:10" s="28" customFormat="1" ht="40.5">
       <c r="A59" s="32"/>
-      <c r="B59" s="45"/>
+      <c r="B59" s="48"/>
       <c r="C59" s="4" t="s">
         <v>195</v>
       </c>
@@ -3218,7 +3226,7 @@
       <c r="A60" s="32">
         <v>58</v>
       </c>
-      <c r="B60" s="45"/>
+      <c r="B60" s="48"/>
       <c r="C60" s="4" t="s">
         <v>61</v>
       </c>
@@ -3244,7 +3252,7 @@
       <c r="A61" s="32">
         <v>59</v>
       </c>
-      <c r="B61" s="45" t="s">
+      <c r="B61" s="48" t="s">
         <v>31</v>
       </c>
       <c r="C61" s="4" t="s">
@@ -3270,7 +3278,7 @@
     </row>
     <row r="62" spans="1:10" s="28" customFormat="1" ht="22.15" customHeight="1">
       <c r="A62" s="32"/>
-      <c r="B62" s="45"/>
+      <c r="B62" s="48"/>
       <c r="C62" s="4" t="s">
         <v>191</v>
       </c>
@@ -3296,7 +3304,7 @@
       <c r="A63" s="32">
         <v>60</v>
       </c>
-      <c r="B63" s="45"/>
+      <c r="B63" s="48"/>
       <c r="C63" s="4" t="s">
         <v>64</v>
       </c>
@@ -3322,7 +3330,7 @@
       <c r="A64" s="32">
         <v>61</v>
       </c>
-      <c r="B64" s="49" t="s">
+      <c r="B64" s="45" t="s">
         <v>33</v>
       </c>
       <c r="C64" s="4" t="s">
@@ -3350,7 +3358,7 @@
       <c r="A65" s="32">
         <v>62</v>
       </c>
-      <c r="B65" s="50"/>
+      <c r="B65" s="46"/>
       <c r="C65" s="4" t="s">
         <v>35</v>
       </c>
@@ -3374,7 +3382,7 @@
     </row>
     <row r="66" spans="1:10" s="28" customFormat="1" ht="22.15" customHeight="1">
       <c r="A66" s="32"/>
-      <c r="B66" s="50"/>
+      <c r="B66" s="46"/>
       <c r="C66" s="4" t="s">
         <v>193</v>
       </c>
@@ -3398,7 +3406,7 @@
     </row>
     <row r="67" spans="1:10" s="28" customFormat="1" ht="54">
       <c r="A67" s="32"/>
-      <c r="B67" s="50"/>
+      <c r="B67" s="46"/>
       <c r="C67" s="4" t="s">
         <v>192</v>
       </c>
@@ -3422,7 +3430,7 @@
     </row>
     <row r="68" spans="1:10" s="28" customFormat="1" ht="13.5">
       <c r="A68" s="32"/>
-      <c r="B68" s="50"/>
+      <c r="B68" s="46"/>
       <c r="C68" s="4" t="s">
         <v>194</v>
       </c>
@@ -3446,7 +3454,7 @@
     </row>
     <row r="69" spans="1:10" s="28" customFormat="1" ht="27">
       <c r="A69" s="32"/>
-      <c r="B69" s="50"/>
+      <c r="B69" s="46"/>
       <c r="C69" s="4" t="s">
         <v>230</v>
       </c>
@@ -3472,7 +3480,7 @@
       <c r="A70" s="32">
         <v>64</v>
       </c>
-      <c r="B70" s="50"/>
+      <c r="B70" s="46"/>
       <c r="C70" s="4" t="s">
         <v>36</v>
       </c>
@@ -3500,7 +3508,7 @@
       <c r="A71" s="32">
         <v>65</v>
       </c>
-      <c r="B71" s="51"/>
+      <c r="B71" s="47"/>
       <c r="C71" s="4" t="s">
         <v>165</v>
       </c>
@@ -3526,7 +3534,7 @@
       <c r="A72" s="32">
         <v>66</v>
       </c>
-      <c r="B72" s="45" t="s">
+      <c r="B72" s="48" t="s">
         <v>206</v>
       </c>
       <c r="C72" s="4" t="s">
@@ -3554,7 +3562,7 @@
       <c r="A73" s="32">
         <v>67</v>
       </c>
-      <c r="B73" s="45"/>
+      <c r="B73" s="48"/>
       <c r="C73" s="4" t="s">
         <v>105</v>
       </c>
@@ -3580,7 +3588,7 @@
       <c r="A74" s="32">
         <v>68</v>
       </c>
-      <c r="B74" s="45"/>
+      <c r="B74" s="48"/>
       <c r="C74" s="4" t="s">
         <v>238</v>
       </c>
@@ -3604,7 +3612,7 @@
     </row>
     <row r="75" spans="1:10" s="28" customFormat="1" ht="22.15" customHeight="1">
       <c r="A75" s="32"/>
-      <c r="B75" s="45"/>
+      <c r="B75" s="48"/>
       <c r="C75" s="4" t="s">
         <v>207</v>
       </c>
@@ -3626,7 +3634,7 @@
       <c r="A76" s="32">
         <v>69</v>
       </c>
-      <c r="B76" s="45"/>
+      <c r="B76" s="48"/>
       <c r="C76" s="4" t="s">
         <v>237</v>
       </c>
@@ -3650,7 +3658,7 @@
     </row>
     <row r="77" spans="1:10" s="28" customFormat="1" ht="40.5">
       <c r="A77" s="32"/>
-      <c r="B77" s="45"/>
+      <c r="B77" s="48"/>
       <c r="C77" s="4" t="s">
         <v>239</v>
       </c>
@@ -3676,7 +3684,7 @@
       <c r="A78" s="32">
         <v>70</v>
       </c>
-      <c r="B78" s="45"/>
+      <c r="B78" s="48"/>
       <c r="C78" s="4" t="s">
         <v>37</v>
       </c>
@@ -3702,7 +3710,7 @@
       <c r="A79" s="32">
         <v>71</v>
       </c>
-      <c r="B79" s="45" t="s">
+      <c r="B79" s="48" t="s">
         <v>39</v>
       </c>
       <c r="C79" s="4" t="s">
@@ -3730,7 +3738,7 @@
     </row>
     <row r="80" spans="1:10" s="28" customFormat="1" ht="13.5">
       <c r="A80" s="32"/>
-      <c r="B80" s="45"/>
+      <c r="B80" s="48"/>
       <c r="C80" s="4" t="s">
         <v>212</v>
       </c>
@@ -3754,7 +3762,7 @@
     </row>
     <row r="81" spans="1:10" s="28" customFormat="1" ht="25.9" customHeight="1">
       <c r="A81" s="32"/>
-      <c r="B81" s="45"/>
+      <c r="B81" s="48"/>
       <c r="C81" s="4" t="s">
         <v>211</v>
       </c>
@@ -3780,7 +3788,7 @@
       <c r="A82" s="32">
         <v>72</v>
       </c>
-      <c r="B82" s="45"/>
+      <c r="B82" s="48"/>
       <c r="C82" s="4" t="s">
         <v>105</v>
       </c>
@@ -3806,7 +3814,7 @@
       <c r="A83" s="32">
         <v>73</v>
       </c>
-      <c r="B83" s="45"/>
+      <c r="B83" s="48"/>
       <c r="C83" s="4" t="s">
         <v>37</v>
       </c>
@@ -3832,7 +3840,7 @@
       <c r="A84" s="32">
         <v>74</v>
       </c>
-      <c r="B84" s="45" t="s">
+      <c r="B84" s="48" t="s">
         <v>41</v>
       </c>
       <c r="C84" s="4" t="s">
@@ -3858,7 +3866,7 @@
     </row>
     <row r="85" spans="1:10" s="28" customFormat="1" ht="13.5">
       <c r="A85" s="32"/>
-      <c r="B85" s="45"/>
+      <c r="B85" s="48"/>
       <c r="C85" s="4" t="s">
         <v>213</v>
       </c>
@@ -3882,7 +3890,7 @@
     </row>
     <row r="86" spans="1:10" s="28" customFormat="1" ht="13.5">
       <c r="A86" s="32"/>
-      <c r="B86" s="45"/>
+      <c r="B86" s="48"/>
       <c r="C86" s="4" t="s">
         <v>214</v>
       </c>
@@ -3908,7 +3916,7 @@
       <c r="A87" s="32">
         <v>75</v>
       </c>
-      <c r="B87" s="45"/>
+      <c r="B87" s="48"/>
       <c r="C87" s="4" t="s">
         <v>105</v>
       </c>
@@ -3934,7 +3942,7 @@
       <c r="A88" s="32">
         <v>76</v>
       </c>
-      <c r="B88" s="45"/>
+      <c r="B88" s="48"/>
       <c r="C88" s="4" t="s">
         <v>37</v>
       </c>
@@ -3960,7 +3968,7 @@
       <c r="A89" s="32">
         <v>77</v>
       </c>
-      <c r="B89" s="45" t="s">
+      <c r="B89" s="48" t="s">
         <v>43</v>
       </c>
       <c r="C89" s="4" t="s">
@@ -3980,7 +3988,7 @@
     </row>
     <row r="90" spans="1:10" s="28" customFormat="1" ht="28.15" customHeight="1">
       <c r="A90" s="32"/>
-      <c r="B90" s="45"/>
+      <c r="B90" s="48"/>
       <c r="C90" s="4" t="s">
         <v>218</v>
       </c>
@@ -4006,7 +4014,7 @@
       <c r="A91" s="32">
         <v>78</v>
       </c>
-      <c r="B91" s="45"/>
+      <c r="B91" s="48"/>
       <c r="C91" s="4" t="s">
         <v>126</v>
       </c>
@@ -4030,7 +4038,7 @@
     </row>
     <row r="92" spans="1:10" s="28" customFormat="1" ht="27" customHeight="1">
       <c r="A92" s="32"/>
-      <c r="B92" s="45"/>
+      <c r="B92" s="48"/>
       <c r="C92" s="4" t="s">
         <v>220</v>
       </c>
@@ -4048,7 +4056,7 @@
     </row>
     <row r="93" spans="1:10" s="28" customFormat="1" ht="24.6" customHeight="1">
       <c r="A93" s="32"/>
-      <c r="B93" s="45"/>
+      <c r="B93" s="48"/>
       <c r="C93" s="4" t="s">
         <v>219</v>
       </c>
@@ -4072,7 +4080,7 @@
     </row>
     <row r="94" spans="1:10" s="28" customFormat="1" ht="24.6" customHeight="1">
       <c r="A94" s="32"/>
-      <c r="B94" s="45"/>
+      <c r="B94" s="48"/>
       <c r="C94" s="4" t="s">
         <v>229</v>
       </c>
@@ -4090,7 +4098,7 @@
     </row>
     <row r="95" spans="1:10" s="28" customFormat="1" ht="24.6" customHeight="1">
       <c r="A95" s="32"/>
-      <c r="B95" s="45"/>
+      <c r="B95" s="48"/>
       <c r="C95" s="4" t="s">
         <v>224</v>
       </c>
@@ -4108,7 +4116,7 @@
     </row>
     <row r="96" spans="1:10" s="28" customFormat="1" ht="24.6" customHeight="1">
       <c r="A96" s="32"/>
-      <c r="B96" s="45"/>
+      <c r="B96" s="48"/>
       <c r="C96" s="4" t="s">
         <v>226</v>
       </c>
@@ -4126,7 +4134,7 @@
     </row>
     <row r="97" spans="1:10" s="28" customFormat="1" ht="27">
       <c r="A97" s="32"/>
-      <c r="B97" s="45"/>
+      <c r="B97" s="48"/>
       <c r="C97" s="4" t="s">
         <v>217</v>
       </c>
@@ -4144,7 +4152,7 @@
     </row>
     <row r="98" spans="1:10" s="28" customFormat="1" ht="25.9" customHeight="1">
       <c r="A98" s="32"/>
-      <c r="B98" s="45"/>
+      <c r="B98" s="48"/>
       <c r="C98" s="4" t="s">
         <v>216</v>
       </c>
@@ -4170,7 +4178,7 @@
       <c r="A99" s="32">
         <v>79</v>
       </c>
-      <c r="B99" s="45"/>
+      <c r="B99" s="48"/>
       <c r="C99" s="4" t="s">
         <v>45</v>
       </c>
@@ -4190,7 +4198,7 @@
       <c r="A100" s="32">
         <v>80</v>
       </c>
-      <c r="B100" s="45" t="s">
+      <c r="B100" s="48" t="s">
         <v>44</v>
       </c>
       <c r="C100" s="4" t="s">
@@ -4216,7 +4224,7 @@
     </row>
     <row r="101" spans="1:10" s="28" customFormat="1" ht="27.75" customHeight="1">
       <c r="A101" s="32"/>
-      <c r="B101" s="45"/>
+      <c r="B101" s="48"/>
       <c r="C101" s="4" t="s">
         <v>223</v>
       </c>
@@ -4240,7 +4248,7 @@
     </row>
     <row r="102" spans="1:10" s="28" customFormat="1" ht="27.75" customHeight="1">
       <c r="A102" s="32"/>
-      <c r="B102" s="45"/>
+      <c r="B102" s="48"/>
       <c r="C102" s="4" t="s">
         <v>228</v>
       </c>
@@ -4264,7 +4272,7 @@
     </row>
     <row r="103" spans="1:10" s="28" customFormat="1" ht="27.75" customHeight="1">
       <c r="A103" s="32"/>
-      <c r="B103" s="45"/>
+      <c r="B103" s="48"/>
       <c r="C103" s="42" t="s">
         <v>227</v>
       </c>
@@ -4278,7 +4286,7 @@
     </row>
     <row r="104" spans="1:10" s="28" customFormat="1" ht="27.75" customHeight="1">
       <c r="A104" s="32"/>
-      <c r="B104" s="45"/>
+      <c r="B104" s="48"/>
       <c r="C104" s="4" t="s">
         <v>215</v>
       </c>
@@ -4302,7 +4310,7 @@
     </row>
     <row r="105" spans="1:10" s="28" customFormat="1" ht="27.75" customHeight="1">
       <c r="A105" s="32"/>
-      <c r="B105" s="45"/>
+      <c r="B105" s="48"/>
       <c r="C105" s="4" t="s">
         <v>222</v>
       </c>
@@ -4328,7 +4336,7 @@
       <c r="A106" s="32">
         <v>81</v>
       </c>
-      <c r="B106" s="45"/>
+      <c r="B106" s="48"/>
       <c r="C106" s="4" t="s">
         <v>136</v>
       </c>
@@ -4354,7 +4362,7 @@
       <c r="A107" s="32">
         <v>82</v>
       </c>
-      <c r="B107" s="49" t="s">
+      <c r="B107" s="45" t="s">
         <v>65</v>
       </c>
       <c r="C107" s="4" t="s">
@@ -4382,7 +4390,7 @@
     </row>
     <row r="108" spans="1:10" s="28" customFormat="1" ht="20.45" customHeight="1">
       <c r="A108" s="32"/>
-      <c r="B108" s="50"/>
+      <c r="B108" s="46"/>
       <c r="C108" s="4" t="s">
         <v>184</v>
       </c>
@@ -4406,7 +4414,7 @@
     </row>
     <row r="109" spans="1:10" s="28" customFormat="1" ht="20.45" customHeight="1">
       <c r="A109" s="32"/>
-      <c r="B109" s="51"/>
+      <c r="B109" s="47"/>
       <c r="C109" s="4" t="s">
         <v>183</v>
       </c>
@@ -4432,7 +4440,7 @@
       <c r="A110" s="32">
         <v>83</v>
       </c>
-      <c r="B110" s="52" t="s">
+      <c r="B110" s="49" t="s">
         <v>67</v>
       </c>
       <c r="C110" s="8" t="s">
@@ -4460,7 +4468,7 @@
       <c r="A111" s="32">
         <v>84</v>
       </c>
-      <c r="B111" s="52"/>
+      <c r="B111" s="49"/>
       <c r="C111" s="8" t="s">
         <v>95</v>
       </c>
@@ -4480,7 +4488,7 @@
       <c r="A112" s="32">
         <v>85</v>
       </c>
-      <c r="B112" s="52"/>
+      <c r="B112" s="49"/>
       <c r="C112" s="8" t="s">
         <v>187</v>
       </c>
@@ -4500,7 +4508,7 @@
       <c r="A113" s="32">
         <v>86</v>
       </c>
-      <c r="B113" s="52"/>
+      <c r="B113" s="49"/>
       <c r="C113" s="8" t="s">
         <v>186</v>
       </c>
@@ -4518,7 +4526,7 @@
     </row>
     <row r="114" spans="1:10" s="20" customFormat="1" ht="22.15" customHeight="1">
       <c r="A114" s="32"/>
-      <c r="B114" s="52"/>
+      <c r="B114" s="49"/>
       <c r="C114" s="8" t="s">
         <v>188</v>
       </c>
@@ -4536,7 +4544,7 @@
     </row>
     <row r="115" spans="1:10" s="20" customFormat="1" ht="22.15" customHeight="1">
       <c r="A115" s="32"/>
-      <c r="B115" s="52"/>
+      <c r="B115" s="49"/>
       <c r="C115" s="8" t="s">
         <v>189</v>
       </c>
@@ -4554,7 +4562,7 @@
     </row>
     <row r="116" spans="1:10" s="20" customFormat="1" ht="22.15" customHeight="1">
       <c r="A116" s="32"/>
-      <c r="B116" s="52"/>
+      <c r="B116" s="49"/>
       <c r="C116" s="8" t="s">
         <v>190</v>
       </c>
@@ -4572,7 +4580,7 @@
     </row>
     <row r="117" spans="1:10" s="20" customFormat="1" ht="22.15" customHeight="1">
       <c r="A117" s="32"/>
-      <c r="B117" s="52"/>
+      <c r="B117" s="49"/>
       <c r="C117" s="8" t="s">
         <v>210</v>
       </c>
@@ -4592,7 +4600,7 @@
       <c r="A118" s="32">
         <v>87</v>
       </c>
-      <c r="B118" s="52"/>
+      <c r="B118" s="49"/>
       <c r="C118" s="8" t="s">
         <v>185</v>
       </c>
@@ -4612,7 +4620,7 @@
       <c r="A119" s="32">
         <v>88</v>
       </c>
-      <c r="B119" s="45" t="s">
+      <c r="B119" s="48" t="s">
         <v>87</v>
       </c>
       <c r="C119" s="4" t="s">
@@ -4640,7 +4648,7 @@
       <c r="A120" s="32">
         <v>89</v>
       </c>
-      <c r="B120" s="45"/>
+      <c r="B120" s="48"/>
       <c r="C120" s="4" t="s">
         <v>93</v>
       </c>
@@ -4666,7 +4674,7 @@
       <c r="A121" s="32">
         <v>90</v>
       </c>
-      <c r="B121" s="49" t="s">
+      <c r="B121" s="45" t="s">
         <v>97</v>
       </c>
       <c r="C121" s="4" t="s">
@@ -4692,7 +4700,7 @@
     </row>
     <row r="122" spans="1:10" s="28" customFormat="1" ht="22.15" customHeight="1">
       <c r="A122" s="32"/>
-      <c r="B122" s="50"/>
+      <c r="B122" s="46"/>
       <c r="C122" s="4" t="s">
         <v>205</v>
       </c>
@@ -4716,7 +4724,7 @@
     </row>
     <row r="123" spans="1:10" s="28" customFormat="1" ht="22.15" customHeight="1">
       <c r="A123" s="32"/>
-      <c r="B123" s="50"/>
+      <c r="B123" s="46"/>
       <c r="C123" s="4" t="s">
         <v>199</v>
       </c>
@@ -4734,7 +4742,7 @@
     </row>
     <row r="124" spans="1:10" s="28" customFormat="1" ht="22.15" customHeight="1">
       <c r="A124" s="32"/>
-      <c r="B124" s="50"/>
+      <c r="B124" s="46"/>
       <c r="C124" s="4" t="s">
         <v>200</v>
       </c>
@@ -4758,7 +4766,7 @@
     </row>
     <row r="125" spans="1:10" s="28" customFormat="1" ht="27">
       <c r="A125" s="32"/>
-      <c r="B125" s="50"/>
+      <c r="B125" s="46"/>
       <c r="C125" s="4" t="s">
         <v>204</v>
       </c>
@@ -4776,7 +4784,7 @@
     </row>
     <row r="126" spans="1:10" s="28" customFormat="1" ht="29.45" customHeight="1">
       <c r="A126" s="32"/>
-      <c r="B126" s="50"/>
+      <c r="B126" s="46"/>
       <c r="C126" s="4" t="s">
         <v>203</v>
       </c>
@@ -4798,7 +4806,7 @@
       <c r="A127" s="32">
         <v>91</v>
       </c>
-      <c r="B127" s="51"/>
+      <c r="B127" s="47"/>
       <c r="C127" s="4" t="s">
         <v>202</v>
       </c>
@@ -4809,16 +4817,22 @@
         <v>42892</v>
       </c>
       <c r="F127" s="12"/>
-      <c r="G127" s="12"/>
-      <c r="H127" s="14"/>
-      <c r="I127" s="12"/>
+      <c r="G127" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="H127" s="14">
+        <v>42898</v>
+      </c>
+      <c r="I127" s="12" t="s">
+        <v>241</v>
+      </c>
       <c r="J127" s="12"/>
     </row>
     <row r="128" spans="1:10" ht="22.15" customHeight="1">
       <c r="A128" s="32">
         <v>92</v>
       </c>
-      <c r="B128" s="45" t="s">
+      <c r="B128" s="48" t="s">
         <v>99</v>
       </c>
       <c r="C128" s="4" t="s">
@@ -4846,7 +4860,7 @@
       <c r="A129" s="32">
         <v>93</v>
       </c>
-      <c r="B129" s="45"/>
+      <c r="B129" s="48"/>
       <c r="C129" s="4" t="s">
         <v>104</v>
       </c>
@@ -4872,7 +4886,7 @@
       <c r="A130" s="32">
         <v>94</v>
       </c>
-      <c r="B130" s="45"/>
+      <c r="B130" s="48"/>
       <c r="C130" s="4" t="s">
         <v>101</v>
       </c>
@@ -4918,7 +4932,7 @@
       <c r="A132" s="32">
         <v>95</v>
       </c>
-      <c r="B132" s="49" t="s">
+      <c r="B132" s="45" t="s">
         <v>111</v>
       </c>
       <c r="C132" s="4" t="s">
@@ -4944,7 +4958,7 @@
     </row>
     <row r="133" spans="1:10" s="28" customFormat="1" ht="13.5">
       <c r="A133" s="32"/>
-      <c r="B133" s="50"/>
+      <c r="B133" s="46"/>
       <c r="C133" s="4" t="s">
         <v>209</v>
       </c>
@@ -4964,7 +4978,7 @@
       <c r="A134" s="32">
         <v>96</v>
       </c>
-      <c r="B134" s="50"/>
+      <c r="B134" s="46"/>
       <c r="C134" s="4" t="s">
         <v>208</v>
       </c>
@@ -4982,7 +4996,7 @@
     </row>
     <row r="135" spans="1:10" s="28" customFormat="1" ht="27">
       <c r="A135" s="32"/>
-      <c r="B135" s="50"/>
+      <c r="B135" s="46"/>
       <c r="C135" s="4" t="s">
         <v>232</v>
       </c>
@@ -5002,7 +5016,7 @@
       <c r="A136" s="32">
         <v>97</v>
       </c>
-      <c r="B136" s="50"/>
+      <c r="B136" s="46"/>
       <c r="C136" s="4" t="s">
         <v>149</v>
       </c>
@@ -5019,24 +5033,24 @@
       <c r="J136" s="12"/>
     </row>
     <row r="137" spans="1:10" s="28" customFormat="1" ht="22.15" customHeight="1">
-      <c r="A137" s="46" t="s">
+      <c r="A137" s="50" t="s">
         <v>196</v>
       </c>
-      <c r="B137" s="47"/>
-      <c r="C137" s="47"/>
-      <c r="D137" s="47"/>
-      <c r="E137" s="47"/>
-      <c r="F137" s="47"/>
-      <c r="G137" s="47"/>
-      <c r="H137" s="47"/>
-      <c r="I137" s="47"/>
-      <c r="J137" s="48"/>
+      <c r="B137" s="51"/>
+      <c r="C137" s="51"/>
+      <c r="D137" s="51"/>
+      <c r="E137" s="51"/>
+      <c r="F137" s="51"/>
+      <c r="G137" s="51"/>
+      <c r="H137" s="51"/>
+      <c r="I137" s="51"/>
+      <c r="J137" s="52"/>
     </row>
     <row r="138" spans="1:10" ht="40.5">
       <c r="A138" s="32">
         <v>98</v>
       </c>
-      <c r="B138" s="45" t="s">
+      <c r="B138" s="48" t="s">
         <v>113</v>
       </c>
       <c r="C138" s="4" t="s">
@@ -5064,7 +5078,7 @@
       <c r="A139" s="32">
         <v>99</v>
       </c>
-      <c r="B139" s="45"/>
+      <c r="B139" s="48"/>
       <c r="C139" s="4" t="s">
         <v>116</v>
       </c>
@@ -5090,7 +5104,7 @@
       <c r="A140" s="32">
         <v>100</v>
       </c>
-      <c r="B140" s="45" t="s">
+      <c r="B140" s="48" t="s">
         <v>114</v>
       </c>
       <c r="C140" s="4" t="s">
@@ -5118,7 +5132,7 @@
       <c r="A141" s="32">
         <v>101</v>
       </c>
-      <c r="B141" s="45"/>
+      <c r="B141" s="48"/>
       <c r="C141" s="4" t="s">
         <v>117</v>
       </c>
@@ -5144,7 +5158,7 @@
       <c r="A142" s="32">
         <v>102</v>
       </c>
-      <c r="B142" s="49" t="s">
+      <c r="B142" s="45" t="s">
         <v>118</v>
       </c>
       <c r="C142" s="4" t="s">
@@ -5172,7 +5186,7 @@
       <c r="A143" s="32">
         <v>103</v>
       </c>
-      <c r="B143" s="51"/>
+      <c r="B143" s="47"/>
       <c r="C143" s="4" t="s">
         <v>166</v>
       </c>
@@ -5220,7 +5234,7 @@
       <c r="A145" s="32">
         <v>105</v>
       </c>
-      <c r="B145" s="49" t="s">
+      <c r="B145" s="45" t="s">
         <v>132</v>
       </c>
       <c r="C145" s="4" t="s">
@@ -5246,7 +5260,7 @@
     </row>
     <row r="146" spans="1:10" s="28" customFormat="1" ht="22.15" customHeight="1">
       <c r="A146" s="32"/>
-      <c r="B146" s="50"/>
+      <c r="B146" s="46"/>
       <c r="C146" s="4" t="s">
         <v>231</v>
       </c>
@@ -5272,7 +5286,7 @@
       <c r="A147" s="32">
         <v>106</v>
       </c>
-      <c r="B147" s="50"/>
+      <c r="B147" s="46"/>
       <c r="C147" s="4" t="s">
         <v>135</v>
       </c>
@@ -5298,7 +5312,7 @@
       <c r="A148" s="32">
         <v>107</v>
       </c>
-      <c r="B148" s="51"/>
+      <c r="B148" s="47"/>
       <c r="C148" s="4" t="s">
         <v>139</v>
       </c>
@@ -7046,6 +7060,14 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="B55:B60"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="B138:B139"/>
+    <mergeCell ref="B38:B47"/>
+    <mergeCell ref="B48:B52"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="A137:J137"/>
+    <mergeCell ref="B107:B109"/>
     <mergeCell ref="B29:B37"/>
     <mergeCell ref="B64:B71"/>
     <mergeCell ref="B2:B28"/>
@@ -7062,14 +7084,6 @@
     <mergeCell ref="B128:B130"/>
     <mergeCell ref="B132:B136"/>
     <mergeCell ref="B142:B143"/>
-    <mergeCell ref="B55:B60"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="B138:B139"/>
-    <mergeCell ref="B38:B47"/>
-    <mergeCell ref="B48:B52"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="A137:J137"/>
-    <mergeCell ref="B107:B109"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I44:I46 I49:I51">

--- a/ProjectManagement/文档/问题点一览.xlsx
+++ b/ProjectManagement/文档/问题点一览.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8025"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="249">
   <si>
     <t>NO</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -784,10 +784,6 @@
     <t>项目经理，设置成绿色背景，其它人不用</t>
   </si>
   <si>
-    <t>干系人清单，名称列的格式改成：公司名-姓名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>添加背景颜色列，项目经理设置成绿色背景，其它人默认没有背景色，但可以自已设置。设置后，在沟通分析矩阵里的干系人清单也要对应显示出来。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -913,10 +909,6 @@
   </si>
   <si>
     <t>更新了问题的状态为已解决，然后在左侧树那里，突然出现多条同样的问题。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>这里是测试github是多人协作。这里再更新一些。仅仅是测试拉</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -980,12 +972,57 @@
     <t>可用金额默认为合同金额中的可用金额，如合同金额是10，预算1在添加时，默为10，设置为3后，再添加预算2默认显示7。每次添加时，都需要判断一下多条预算的总值不能超过合同金额。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>干系人清单，名称列的格式改成：公司名-姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这一条你理解错了。
+意思是：“沟通分析矩阵”左侧的“干系人清单”里，显示格式为“公司名-姓名”，而不是修改“干系人清单”这个页面的显示格式，还需要把此页面的内容还原。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目经理的背景色太深，参考交付物已完成的背景颜色即可。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加结点成功后，不需要弹出提示框，焦点重新设置在结点名称上。只有失败时才弱出。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加问题保存后，责任人列表里出现两条重复数据。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加日常工作，保存后，责任人列表里出现两条重复数据。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果添加的日常工作的开始日期和结束日期都为当天的话，在左侧的树那里不能正常显示颜色。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果添加的问题的开始日期和结束日期都为当天的话，在左侧的树那里不能正常显示颜色。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按F5刷新功能，好像不能使用。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导出的计划，显示的顺序有些乱，不是按照WBS的编号从小到大排序。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加清除查询条件的按钮，点击后清空所有条件。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1152,7 +1189,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1286,7 +1323,19 @@
     <xf numFmtId="14" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1298,17 +1347,11 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1381,7 +1424,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1413,9 +1456,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1447,6 +1491,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1622,14 +1667,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K290"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K304"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="I126" sqref="I126"/>
+    <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
+      <selection activeCell="D160" sqref="D160:E160"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="22.15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="22.15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.875" style="23" customWidth="1"/>
@@ -1645,7 +1690,7 @@
     <col min="12" max="16384" width="8.875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="22.15" customHeight="1">
+    <row r="1" spans="1:11" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1677,11 +1722,11 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="22.15" customHeight="1">
+    <row r="2" spans="1:11" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="13">
         <v>1</v>
       </c>
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="45" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -1705,11 +1750,11 @@
       </c>
       <c r="J2" s="12"/>
     </row>
-    <row r="3" spans="1:11" ht="27">
+    <row r="3" spans="1:11" ht="27" x14ac:dyDescent="0.15">
       <c r="A3" s="13">
         <v>2</v>
       </c>
-      <c r="B3" s="50"/>
+      <c r="B3" s="46"/>
       <c r="C3" s="4" t="s">
         <v>51</v>
       </c>
@@ -1731,11 +1776,11 @@
       </c>
       <c r="J3" s="12"/>
     </row>
-    <row r="4" spans="1:11" ht="27">
+    <row r="4" spans="1:11" ht="27" x14ac:dyDescent="0.15">
       <c r="A4" s="13">
         <v>3</v>
       </c>
-      <c r="B4" s="50"/>
+      <c r="B4" s="46"/>
       <c r="C4" s="4" t="s">
         <v>52</v>
       </c>
@@ -1757,11 +1802,11 @@
       </c>
       <c r="J4" s="12"/>
     </row>
-    <row r="5" spans="1:11" ht="22.15" customHeight="1">
+    <row r="5" spans="1:11" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="13">
         <v>4</v>
       </c>
-      <c r="B5" s="50"/>
+      <c r="B5" s="46"/>
       <c r="C5" s="4" t="s">
         <v>13</v>
       </c>
@@ -1783,11 +1828,11 @@
       </c>
       <c r="J5" s="12"/>
     </row>
-    <row r="6" spans="1:11" ht="22.15" customHeight="1">
+    <row r="6" spans="1:11" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="13">
         <v>5</v>
       </c>
-      <c r="B6" s="50"/>
+      <c r="B6" s="46"/>
       <c r="C6" s="4" t="s">
         <v>53</v>
       </c>
@@ -1809,11 +1854,11 @@
       </c>
       <c r="J6" s="12"/>
     </row>
-    <row r="7" spans="1:11" ht="27">
+    <row r="7" spans="1:11" ht="27" x14ac:dyDescent="0.15">
       <c r="A7" s="13">
         <v>6</v>
       </c>
-      <c r="B7" s="50"/>
+      <c r="B7" s="46"/>
       <c r="C7" s="4" t="s">
         <v>16</v>
       </c>
@@ -1835,11 +1880,11 @@
       </c>
       <c r="J7" s="12"/>
     </row>
-    <row r="8" spans="1:11" ht="22.15" customHeight="1">
+    <row r="8" spans="1:11" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="13">
         <v>7</v>
       </c>
-      <c r="B8" s="50"/>
+      <c r="B8" s="46"/>
       <c r="C8" s="4" t="s">
         <v>14</v>
       </c>
@@ -1861,11 +1906,11 @@
       </c>
       <c r="J8" s="12"/>
     </row>
-    <row r="9" spans="1:11" ht="22.15" customHeight="1">
+    <row r="9" spans="1:11" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="13">
         <v>8</v>
       </c>
-      <c r="B9" s="50"/>
+      <c r="B9" s="46"/>
       <c r="C9" s="4" t="s">
         <v>17</v>
       </c>
@@ -1887,11 +1932,11 @@
       </c>
       <c r="J9" s="12"/>
     </row>
-    <row r="10" spans="1:11" ht="27">
+    <row r="10" spans="1:11" ht="27" x14ac:dyDescent="0.15">
       <c r="A10" s="13">
         <v>9</v>
       </c>
-      <c r="B10" s="50"/>
+      <c r="B10" s="46"/>
       <c r="C10" s="6" t="s">
         <v>160</v>
       </c>
@@ -1920,11 +1965,11 @@
         <v>108</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="22.15" customHeight="1">
+    <row r="11" spans="1:11" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="13">
         <v>10</v>
       </c>
-      <c r="B11" s="50"/>
+      <c r="B11" s="46"/>
       <c r="C11" s="4" t="s">
         <v>48</v>
       </c>
@@ -1946,11 +1991,11 @@
       </c>
       <c r="J11" s="12"/>
     </row>
-    <row r="12" spans="1:11" ht="22.15" customHeight="1">
+    <row r="12" spans="1:11" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="13">
         <v>11</v>
       </c>
-      <c r="B12" s="50"/>
+      <c r="B12" s="46"/>
       <c r="C12" s="4" t="s">
         <v>107</v>
       </c>
@@ -1972,11 +2017,11 @@
       </c>
       <c r="J12" s="12"/>
     </row>
-    <row r="13" spans="1:11" ht="22.15" customHeight="1">
+    <row r="13" spans="1:11" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="13">
         <v>12</v>
       </c>
-      <c r="B13" s="50"/>
+      <c r="B13" s="46"/>
       <c r="C13" s="4" t="s">
         <v>110</v>
       </c>
@@ -1998,11 +2043,11 @@
       </c>
       <c r="J13" s="12"/>
     </row>
-    <row r="14" spans="1:11" ht="22.15" customHeight="1">
+    <row r="14" spans="1:11" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="13">
         <v>13</v>
       </c>
-      <c r="B14" s="50"/>
+      <c r="B14" s="46"/>
       <c r="C14" s="4" t="s">
         <v>109</v>
       </c>
@@ -2024,11 +2069,11 @@
       </c>
       <c r="J14" s="12"/>
     </row>
-    <row r="15" spans="1:11" s="16" customFormat="1" ht="27">
+    <row r="15" spans="1:11" s="16" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A15" s="13">
         <v>14</v>
       </c>
-      <c r="B15" s="50"/>
+      <c r="B15" s="46"/>
       <c r="C15" s="6" t="s">
         <v>138</v>
       </c>
@@ -2050,11 +2095,11 @@
       </c>
       <c r="J15" s="7"/>
     </row>
-    <row r="16" spans="1:11" s="16" customFormat="1" ht="40.5">
+    <row r="16" spans="1:11" s="16" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A16" s="13">
         <v>15</v>
       </c>
-      <c r="B16" s="50"/>
+      <c r="B16" s="46"/>
       <c r="C16" s="6" t="s">
         <v>153</v>
       </c>
@@ -2079,11 +2124,11 @@
         <v>125</v>
       </c>
     </row>
-    <row r="17" spans="1:11" s="16" customFormat="1" ht="27">
+    <row r="17" spans="1:11" s="16" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A17" s="13">
         <v>16</v>
       </c>
-      <c r="B17" s="50"/>
+      <c r="B17" s="46"/>
       <c r="C17" s="6" t="s">
         <v>156</v>
       </c>
@@ -2105,11 +2150,11 @@
       </c>
       <c r="J17" s="7"/>
     </row>
-    <row r="18" spans="1:11" ht="27">
+    <row r="18" spans="1:11" ht="27" x14ac:dyDescent="0.15">
       <c r="A18" s="13">
         <v>17</v>
       </c>
-      <c r="B18" s="50"/>
+      <c r="B18" s="46"/>
       <c r="C18" s="10" t="s">
         <v>147</v>
       </c>
@@ -2132,11 +2177,11 @@
       <c r="J18" s="18"/>
       <c r="K18" s="16"/>
     </row>
-    <row r="19" spans="1:11" ht="18" customHeight="1">
+    <row r="19" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="32">
         <v>18</v>
       </c>
-      <c r="B19" s="50"/>
+      <c r="B19" s="46"/>
       <c r="C19" s="10" t="s">
         <v>154</v>
       </c>
@@ -2159,11 +2204,11 @@
       <c r="J19" s="18"/>
       <c r="K19" s="16"/>
     </row>
-    <row r="20" spans="1:11" ht="22.15" customHeight="1">
+    <row r="20" spans="1:11" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="32">
         <v>19</v>
       </c>
-      <c r="B20" s="50"/>
+      <c r="B20" s="46"/>
       <c r="C20" s="10" t="s">
         <v>151</v>
       </c>
@@ -2186,11 +2231,11 @@
       <c r="J20" s="18"/>
       <c r="K20" s="16"/>
     </row>
-    <row r="21" spans="1:11" ht="13.5">
+    <row r="21" spans="1:11" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A21" s="32">
         <v>20</v>
       </c>
-      <c r="B21" s="50"/>
+      <c r="B21" s="46"/>
       <c r="C21" s="37" t="s">
         <v>168</v>
       </c>
@@ -2213,11 +2258,11 @@
       <c r="J21" s="18"/>
       <c r="K21" s="16"/>
     </row>
-    <row r="22" spans="1:11" ht="27">
+    <row r="22" spans="1:11" ht="27" x14ac:dyDescent="0.15">
       <c r="A22" s="32">
         <v>21</v>
       </c>
-      <c r="B22" s="50"/>
+      <c r="B22" s="46"/>
       <c r="C22" s="40" t="s">
         <v>181</v>
       </c>
@@ -2240,11 +2285,11 @@
       <c r="J22" s="18"/>
       <c r="K22" s="16"/>
     </row>
-    <row r="23" spans="1:11" ht="27">
+    <row r="23" spans="1:11" ht="27" x14ac:dyDescent="0.15">
       <c r="A23" s="32">
         <v>22</v>
       </c>
-      <c r="B23" s="50"/>
+      <c r="B23" s="46"/>
       <c r="C23" s="40" t="s">
         <v>182</v>
       </c>
@@ -2256,7 +2301,7 @@
       </c>
       <c r="F23" s="18"/>
       <c r="G23" s="29" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H23" s="33">
         <v>42893</v>
@@ -2267,11 +2312,11 @@
       <c r="J23" s="18"/>
       <c r="K23" s="16"/>
     </row>
-    <row r="24" spans="1:11" ht="27">
+    <row r="24" spans="1:11" ht="27" x14ac:dyDescent="0.15">
       <c r="A24" s="32">
         <v>23</v>
       </c>
-      <c r="B24" s="50"/>
+      <c r="B24" s="46"/>
       <c r="C24" s="10" t="s">
         <v>152</v>
       </c>
@@ -2294,11 +2339,11 @@
       <c r="J24" s="18"/>
       <c r="K24" s="16"/>
     </row>
-    <row r="25" spans="1:11" s="28" customFormat="1" ht="40.5">
+    <row r="25" spans="1:11" s="28" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A25" s="32">
         <v>24</v>
       </c>
-      <c r="B25" s="50"/>
+      <c r="B25" s="46"/>
       <c r="C25" s="30" t="s">
         <v>173</v>
       </c>
@@ -2321,11 +2366,11 @@
       <c r="J25" s="36"/>
       <c r="K25" s="34"/>
     </row>
-    <row r="26" spans="1:11" s="28" customFormat="1" ht="27">
+    <row r="26" spans="1:11" s="28" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A26" s="32">
         <v>25</v>
       </c>
-      <c r="B26" s="50"/>
+      <c r="B26" s="46"/>
       <c r="C26" s="6" t="s">
         <v>174</v>
       </c>
@@ -2348,11 +2393,11 @@
       <c r="J26" s="36"/>
       <c r="K26" s="34"/>
     </row>
-    <row r="27" spans="1:11" s="34" customFormat="1" ht="13.5">
+    <row r="27" spans="1:11" s="34" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A27" s="32">
         <v>26</v>
       </c>
-      <c r="B27" s="50"/>
+      <c r="B27" s="46"/>
       <c r="C27" s="6" t="s">
         <v>177</v>
       </c>
@@ -2374,11 +2419,11 @@
       </c>
       <c r="J27" s="29"/>
     </row>
-    <row r="28" spans="1:11" s="34" customFormat="1" ht="13.5">
+    <row r="28" spans="1:11" s="34" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A28" s="32">
         <v>27</v>
       </c>
-      <c r="B28" s="51"/>
+      <c r="B28" s="46"/>
       <c r="C28" s="6" t="s">
         <v>178</v>
       </c>
@@ -2400,409 +2445,359 @@
       </c>
       <c r="J28" s="29"/>
     </row>
-    <row r="29" spans="1:11" ht="22.15" customHeight="1">
-      <c r="A29" s="32">
+    <row r="29" spans="1:11" s="34" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A29" s="32"/>
+      <c r="B29" s="46"/>
+      <c r="C29" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="D29" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" s="33">
+        <v>42899</v>
+      </c>
+      <c r="F29" s="29"/>
+      <c r="G29" s="29"/>
+      <c r="H29" s="33"/>
+      <c r="I29" s="29"/>
+      <c r="J29" s="29"/>
+    </row>
+    <row r="30" spans="1:11" s="34" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A30" s="32"/>
+      <c r="B30" s="46"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="29"/>
+      <c r="E30" s="33"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="29"/>
+      <c r="H30" s="33"/>
+      <c r="I30" s="29"/>
+      <c r="J30" s="29"/>
+    </row>
+    <row r="31" spans="1:11" s="34" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A31" s="32"/>
+      <c r="B31" s="46"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="29"/>
+      <c r="E31" s="33"/>
+      <c r="F31" s="29"/>
+      <c r="G31" s="29"/>
+      <c r="H31" s="33"/>
+      <c r="I31" s="29"/>
+      <c r="J31" s="29"/>
+    </row>
+    <row r="32" spans="1:11" s="34" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A32" s="32"/>
+      <c r="B32" s="47"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="33"/>
+      <c r="F32" s="29"/>
+      <c r="G32" s="29"/>
+      <c r="H32" s="33"/>
+      <c r="I32" s="29"/>
+      <c r="J32" s="29"/>
+    </row>
+    <row r="33" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="32">
         <v>28</v>
       </c>
-      <c r="B29" s="49" t="s">
+      <c r="B33" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C33" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D29" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E29" s="14">
+      <c r="D33" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" s="14">
         <v>42825</v>
-      </c>
-      <c r="F29" s="12"/>
-      <c r="G29" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="H29" s="14">
-        <v>42826</v>
-      </c>
-      <c r="I29" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="J29" s="12"/>
-    </row>
-    <row r="30" spans="1:11" ht="22.15" customHeight="1">
-      <c r="A30" s="32">
-        <v>29</v>
-      </c>
-      <c r="B30" s="50"/>
-      <c r="C30" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D30" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E30" s="14">
-        <v>42825</v>
-      </c>
-      <c r="F30" s="12"/>
-      <c r="G30" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="H30" s="14">
-        <v>42826</v>
-      </c>
-      <c r="I30" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="J30" s="12"/>
-    </row>
-    <row r="31" spans="1:11" ht="27">
-      <c r="A31" s="32">
-        <v>30</v>
-      </c>
-      <c r="B31" s="50"/>
-      <c r="C31" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D31" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E31" s="14">
-        <v>42825</v>
-      </c>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="H31" s="14">
-        <v>42826</v>
-      </c>
-      <c r="I31" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="J31" s="12"/>
-    </row>
-    <row r="32" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A32" s="32">
-        <v>31</v>
-      </c>
-      <c r="B32" s="50"/>
-      <c r="C32" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="D32" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E32" s="14">
-        <v>42863</v>
-      </c>
-      <c r="F32" s="12"/>
-      <c r="G32" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="H32" s="14">
-        <v>42880</v>
-      </c>
-      <c r="I32" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="J32" s="12"/>
-    </row>
-    <row r="33" spans="1:10" ht="27">
-      <c r="A33" s="32">
-        <v>32</v>
-      </c>
-      <c r="B33" s="50"/>
-      <c r="C33" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D33" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E33" s="14">
-        <v>42863</v>
       </c>
       <c r="F33" s="12"/>
       <c r="G33" s="12" t="s">
         <v>49</v>
       </c>
       <c r="H33" s="14">
-        <v>42880</v>
+        <v>42826</v>
       </c>
       <c r="I33" s="12" t="s">
         <v>50</v>
       </c>
       <c r="J33" s="12"/>
     </row>
-    <row r="34" spans="1:10" s="26" customFormat="1" ht="13.5">
+    <row r="34" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="32">
+        <v>29</v>
+      </c>
+      <c r="B34" s="46"/>
+      <c r="C34" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D34" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34" s="14">
+        <v>42825</v>
+      </c>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="H34" s="14">
+        <v>42826</v>
+      </c>
+      <c r="I34" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="J34" s="12"/>
+    </row>
+    <row r="35" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+      <c r="A35" s="32">
+        <v>30</v>
+      </c>
+      <c r="B35" s="46"/>
+      <c r="C35" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D35" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35" s="14">
+        <v>42825</v>
+      </c>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="H35" s="14">
+        <v>42826</v>
+      </c>
+      <c r="I35" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="J35" s="12"/>
+    </row>
+    <row r="36" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="32">
+        <v>31</v>
+      </c>
+      <c r="B36" s="46"/>
+      <c r="C36" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D36" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E36" s="14">
+        <v>42863</v>
+      </c>
+      <c r="F36" s="12"/>
+      <c r="G36" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="H36" s="14">
+        <v>42880</v>
+      </c>
+      <c r="I36" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="J36" s="12"/>
+    </row>
+    <row r="37" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+      <c r="A37" s="32">
+        <v>32</v>
+      </c>
+      <c r="B37" s="46"/>
+      <c r="C37" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D37" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37" s="14">
+        <v>42863</v>
+      </c>
+      <c r="F37" s="12"/>
+      <c r="G37" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="H37" s="14">
+        <v>42880</v>
+      </c>
+      <c r="I37" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="J37" s="12"/>
+    </row>
+    <row r="38" spans="1:10" s="26" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A38" s="32">
         <v>33</v>
       </c>
-      <c r="B34" s="50"/>
-      <c r="C34" s="4" t="s">
+      <c r="B38" s="46"/>
+      <c r="C38" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="D34" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="E34" s="25">
+      <c r="D38" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E38" s="25">
         <v>42887</v>
       </c>
-      <c r="F34" s="12"/>
-      <c r="G34" s="29" t="s">
+      <c r="F38" s="12"/>
+      <c r="G38" s="29" t="s">
         <v>175</v>
       </c>
-      <c r="H34" s="33">
+      <c r="H38" s="33">
         <v>42888</v>
       </c>
-      <c r="I34" s="29" t="s">
+      <c r="I38" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="J34" s="11"/>
-    </row>
-    <row r="35" spans="1:10" s="26" customFormat="1" ht="40.5">
-      <c r="A35" s="32">
+      <c r="J38" s="11"/>
+    </row>
+    <row r="39" spans="1:10" s="26" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A39" s="32">
         <v>34</v>
       </c>
-      <c r="B35" s="50"/>
-      <c r="C35" s="4" t="s">
+      <c r="B39" s="46"/>
+      <c r="C39" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="D35" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="E35" s="25">
+      <c r="D39" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E39" s="25">
         <v>42887</v>
       </c>
-      <c r="F35" s="12"/>
-      <c r="G35" s="29" t="s">
+      <c r="F39" s="12"/>
+      <c r="G39" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="H35" s="33">
+      <c r="H39" s="33">
         <v>42891</v>
       </c>
-      <c r="I35" s="29" t="s">
+      <c r="I39" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="J35" s="11"/>
-    </row>
-    <row r="36" spans="1:10" s="26" customFormat="1" ht="27">
-      <c r="A36" s="32">
+      <c r="J39" s="11"/>
+    </row>
+    <row r="40" spans="1:10" s="26" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A40" s="32">
         <v>35</v>
       </c>
-      <c r="B36" s="50"/>
-      <c r="C36" s="4" t="s">
+      <c r="B40" s="46"/>
+      <c r="C40" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="D36" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="E36" s="25">
+      <c r="D40" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E40" s="25">
         <v>42887</v>
       </c>
-      <c r="F36" s="12"/>
-      <c r="G36" s="29" t="s">
+      <c r="F40" s="12"/>
+      <c r="G40" s="29" t="s">
         <v>175</v>
       </c>
-      <c r="H36" s="33">
+      <c r="H40" s="33">
         <v>42888</v>
       </c>
-      <c r="I36" s="29" t="s">
+      <c r="I40" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="J36" s="11"/>
-    </row>
-    <row r="37" spans="1:10" s="26" customFormat="1" ht="27">
-      <c r="A37" s="32">
+      <c r="J40" s="11"/>
+    </row>
+    <row r="41" spans="1:10" s="26" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A41" s="32">
         <v>36</v>
       </c>
-      <c r="B37" s="51"/>
-      <c r="C37" s="4" t="s">
+      <c r="B41" s="47"/>
+      <c r="C41" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="D37" s="24" t="s">
+      <c r="D41" s="24" t="s">
         <v>164</v>
       </c>
-      <c r="E37" s="25">
+      <c r="E41" s="25">
         <v>42887</v>
       </c>
-      <c r="F37" s="12"/>
-      <c r="G37" s="11"/>
-      <c r="H37" s="2"/>
-      <c r="I37" s="11"/>
-      <c r="J37" s="11"/>
-    </row>
-    <row r="38" spans="1:10" ht="40.5">
-      <c r="A38" s="32">
+      <c r="F41" s="12"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="11"/>
+      <c r="J41" s="11"/>
+    </row>
+    <row r="42" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A42" s="32">
         <v>37</v>
       </c>
-      <c r="B38" s="45" t="s">
+      <c r="B42" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="C42" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D38" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E38" s="14">
+      <c r="D42" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E42" s="14">
         <v>42825</v>
-      </c>
-      <c r="F38" s="12"/>
-      <c r="G38" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="H38" s="14">
-        <v>42830</v>
-      </c>
-      <c r="I38" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="J38" s="12" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" ht="27">
-      <c r="A39" s="32">
-        <v>38</v>
-      </c>
-      <c r="B39" s="45"/>
-      <c r="C39" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D39" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E39" s="14">
-        <v>42825</v>
-      </c>
-      <c r="F39" s="12"/>
-      <c r="G39" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="H39" s="14">
-        <v>42830</v>
-      </c>
-      <c r="I39" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="J39" s="12"/>
-    </row>
-    <row r="40" spans="1:10" ht="27">
-      <c r="A40" s="32">
-        <v>39</v>
-      </c>
-      <c r="B40" s="45"/>
-      <c r="C40" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D40" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E40" s="14">
-        <v>42831</v>
-      </c>
-      <c r="F40" s="12"/>
-      <c r="G40" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="H40" s="14">
-        <v>42880</v>
-      </c>
-      <c r="I40" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="J40" s="12"/>
-    </row>
-    <row r="41" spans="1:10" ht="22.15" customHeight="1">
-      <c r="A41" s="32">
-        <v>40</v>
-      </c>
-      <c r="B41" s="45"/>
-      <c r="C41" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="D41" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E41" s="14">
-        <v>42837</v>
-      </c>
-      <c r="F41" s="12"/>
-      <c r="G41" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="H41" s="14">
-        <v>42839</v>
-      </c>
-      <c r="I41" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="J41" s="12"/>
-    </row>
-    <row r="42" spans="1:10" ht="27">
-      <c r="A42" s="32">
-        <v>41</v>
-      </c>
-      <c r="B42" s="45"/>
-      <c r="C42" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="D42" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E42" s="14">
-        <v>42837</v>
       </c>
       <c r="F42" s="12"/>
       <c r="G42" s="12" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H42" s="14">
-        <v>42839</v>
+        <v>42830</v>
       </c>
       <c r="I42" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="J42" s="12"/>
-    </row>
-    <row r="43" spans="1:10" ht="22.15" customHeight="1">
+        <v>59</v>
+      </c>
+      <c r="J42" s="12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A43" s="32">
-        <v>42</v>
-      </c>
-      <c r="B43" s="45"/>
+        <v>38</v>
+      </c>
+      <c r="B43" s="48"/>
       <c r="C43" s="4" t="s">
-        <v>94</v>
+        <v>21</v>
       </c>
       <c r="D43" s="12" t="s">
         <v>10</v>
       </c>
       <c r="E43" s="14">
-        <v>42857</v>
+        <v>42825</v>
       </c>
       <c r="F43" s="12"/>
       <c r="G43" s="12" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="H43" s="14">
-        <v>42880</v>
+        <v>42830</v>
       </c>
       <c r="I43" s="12" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="J43" s="12"/>
     </row>
-    <row r="44" spans="1:10" ht="27">
+    <row r="44" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A44" s="32">
-        <v>43</v>
-      </c>
-      <c r="B44" s="45"/>
+        <v>39</v>
+      </c>
+      <c r="B44" s="48"/>
       <c r="C44" s="4" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="D44" s="12" t="s">
         <v>10</v>
       </c>
       <c r="E44" s="14">
-        <v>42857</v>
+        <v>42831</v>
       </c>
       <c r="F44" s="12"/>
       <c r="G44" s="12" t="s">
@@ -2816,201 +2811,199 @@
       </c>
       <c r="J44" s="12"/>
     </row>
-    <row r="45" spans="1:10" ht="27">
+    <row r="45" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="32">
-        <v>44</v>
-      </c>
-      <c r="B45" s="45"/>
+        <v>40</v>
+      </c>
+      <c r="B45" s="48"/>
       <c r="C45" s="4" t="s">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="D45" s="12" t="s">
         <v>10</v>
       </c>
       <c r="E45" s="14">
-        <v>42886</v>
-      </c>
-      <c r="F45" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="G45" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="H45" s="2">
-        <v>42887</v>
-      </c>
-      <c r="I45" s="11" t="s">
-        <v>158</v>
+        <v>42837</v>
+      </c>
+      <c r="F45" s="12"/>
+      <c r="G45" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="H45" s="14">
+        <v>42839</v>
+      </c>
+      <c r="I45" s="12" t="s">
+        <v>50</v>
       </c>
       <c r="J45" s="12"/>
     </row>
-    <row r="46" spans="1:10" s="16" customFormat="1" ht="54">
+    <row r="46" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A46" s="32">
-        <v>45</v>
-      </c>
-      <c r="B46" s="45"/>
-      <c r="C46" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="D46" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E46" s="15">
-        <v>42863</v>
-      </c>
-      <c r="F46" s="7"/>
+        <v>41</v>
+      </c>
+      <c r="B46" s="48"/>
+      <c r="C46" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D46" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E46" s="14">
+        <v>42837</v>
+      </c>
+      <c r="F46" s="12"/>
       <c r="G46" s="12" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="H46" s="14">
-        <v>42880</v>
+        <v>42839</v>
       </c>
       <c r="I46" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="J46" s="7"/>
-    </row>
-    <row r="47" spans="1:10" ht="22.15" customHeight="1">
+      <c r="J46" s="12"/>
+    </row>
+    <row r="47" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="32">
-        <v>46</v>
-      </c>
-      <c r="B47" s="45"/>
+        <v>42</v>
+      </c>
+      <c r="B47" s="48"/>
       <c r="C47" s="4" t="s">
-        <v>22</v>
+        <v>94</v>
       </c>
       <c r="D47" s="12" t="s">
         <v>10</v>
       </c>
       <c r="E47" s="14">
-        <v>42825</v>
+        <v>42857</v>
       </c>
       <c r="F47" s="12"/>
       <c r="G47" s="12" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="H47" s="14">
-        <v>42830</v>
+        <v>42880</v>
       </c>
       <c r="I47" s="12" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="J47" s="12"/>
     </row>
-    <row r="48" spans="1:10" ht="22.15" customHeight="1">
+    <row r="48" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A48" s="32">
-        <v>47</v>
-      </c>
-      <c r="B48" s="45" t="s">
-        <v>23</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="B48" s="48"/>
       <c r="C48" s="4" t="s">
-        <v>24</v>
+        <v>96</v>
       </c>
       <c r="D48" s="12" t="s">
         <v>10</v>
       </c>
       <c r="E48" s="14">
-        <v>42825</v>
+        <v>42857</v>
       </c>
       <c r="F48" s="12"/>
       <c r="G48" s="12" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="H48" s="14">
-        <v>42830</v>
+        <v>42880</v>
       </c>
       <c r="I48" s="12" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="J48" s="12"/>
     </row>
-    <row r="49" spans="1:10" ht="27">
+    <row r="49" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A49" s="32">
-        <v>48</v>
-      </c>
-      <c r="B49" s="45"/>
+        <v>44</v>
+      </c>
+      <c r="B49" s="48"/>
       <c r="C49" s="4" t="s">
-        <v>92</v>
+        <v>150</v>
       </c>
       <c r="D49" s="12" t="s">
         <v>10</v>
       </c>
       <c r="E49" s="14">
-        <v>42857</v>
+        <v>42886</v>
       </c>
       <c r="F49" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="G49" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="G49" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="H49" s="14">
-        <v>42880</v>
-      </c>
-      <c r="I49" s="12" t="s">
-        <v>50</v>
+      <c r="H49" s="2">
+        <v>42887</v>
+      </c>
+      <c r="I49" s="11" t="s">
+        <v>158</v>
       </c>
       <c r="J49" s="12"/>
     </row>
-    <row r="50" spans="1:10" s="16" customFormat="1" ht="22.15" customHeight="1">
+    <row r="50" spans="1:10" s="16" customFormat="1" ht="54" x14ac:dyDescent="0.15">
       <c r="A50" s="32">
-        <v>49</v>
-      </c>
-      <c r="B50" s="45"/>
+        <v>45</v>
+      </c>
+      <c r="B50" s="48"/>
       <c r="C50" s="6" t="s">
-        <v>91</v>
+        <v>137</v>
       </c>
       <c r="D50" s="7" t="s">
         <v>10</v>
       </c>
       <c r="E50" s="15">
-        <v>42857</v>
+        <v>42863</v>
       </c>
       <c r="F50" s="7"/>
-      <c r="G50" s="7" t="s">
+      <c r="G50" s="12" t="s">
         <v>49</v>
       </c>
       <c r="H50" s="14">
         <v>42880</v>
       </c>
-      <c r="I50" s="7" t="s">
+      <c r="I50" s="12" t="s">
         <v>50</v>
       </c>
       <c r="J50" s="7"/>
     </row>
-    <row r="51" spans="1:10" s="16" customFormat="1" ht="22.15" customHeight="1">
+    <row r="51" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="32">
-        <v>50</v>
-      </c>
-      <c r="B51" s="45"/>
-      <c r="C51" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="D51" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E51" s="17">
-        <v>42886</v>
-      </c>
-      <c r="F51" s="7"/>
-      <c r="G51" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="H51" s="2">
-        <v>42887</v>
-      </c>
-      <c r="I51" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="J51" s="7"/>
-    </row>
-    <row r="52" spans="1:10" ht="22.15" customHeight="1">
+        <v>46</v>
+      </c>
+      <c r="B51" s="48"/>
+      <c r="C51" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D51" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E51" s="14">
+        <v>42825</v>
+      </c>
+      <c r="F51" s="12"/>
+      <c r="G51" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="H51" s="14">
+        <v>42830</v>
+      </c>
+      <c r="I51" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="J51" s="12"/>
+    </row>
+    <row r="52" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="32">
-        <v>51</v>
-      </c>
-      <c r="B52" s="45"/>
+        <v>47</v>
+      </c>
+      <c r="B52" s="48" t="s">
+        <v>23</v>
+      </c>
       <c r="C52" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D52" s="12" t="s">
         <v>10</v>
@@ -3030,197 +3023,201 @@
       </c>
       <c r="J52" s="12"/>
     </row>
-    <row r="53" spans="1:10" ht="22.15" customHeight="1">
+    <row r="53" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A53" s="32">
-        <v>52</v>
-      </c>
-      <c r="B53" s="45" t="s">
-        <v>26</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="B53" s="48"/>
       <c r="C53" s="4" t="s">
-        <v>27</v>
+        <v>92</v>
       </c>
       <c r="D53" s="12" t="s">
         <v>10</v>
       </c>
       <c r="E53" s="14">
+        <v>42857</v>
+      </c>
+      <c r="F53" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="G53" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="H53" s="14">
+        <v>42880</v>
+      </c>
+      <c r="I53" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="J53" s="12"/>
+    </row>
+    <row r="54" spans="1:10" s="16" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="32">
+        <v>49</v>
+      </c>
+      <c r="B54" s="48"/>
+      <c r="C54" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E54" s="15">
+        <v>42857</v>
+      </c>
+      <c r="F54" s="7"/>
+      <c r="G54" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H54" s="14">
+        <v>42880</v>
+      </c>
+      <c r="I54" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="J54" s="7"/>
+    </row>
+    <row r="55" spans="1:10" s="16" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="32">
+        <v>50</v>
+      </c>
+      <c r="B55" s="48"/>
+      <c r="C55" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E55" s="17">
+        <v>42886</v>
+      </c>
+      <c r="F55" s="7"/>
+      <c r="G55" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="H55" s="2">
+        <v>42887</v>
+      </c>
+      <c r="I55" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="J55" s="7"/>
+    </row>
+    <row r="56" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="32">
+        <v>51</v>
+      </c>
+      <c r="B56" s="48"/>
+      <c r="C56" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D56" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E56" s="14">
         <v>42825</v>
-      </c>
-      <c r="F53" s="12"/>
-      <c r="G53" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="H53" s="14">
-        <v>42830</v>
-      </c>
-      <c r="I53" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="J53" s="12"/>
-    </row>
-    <row r="54" spans="1:10" ht="22.15" customHeight="1">
-      <c r="A54" s="32">
-        <v>53</v>
-      </c>
-      <c r="B54" s="45"/>
-      <c r="C54" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D54" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E54" s="14">
-        <v>42825</v>
-      </c>
-      <c r="F54" s="12"/>
-      <c r="G54" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="H54" s="14">
-        <v>42830</v>
-      </c>
-      <c r="I54" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="J54" s="12"/>
-    </row>
-    <row r="55" spans="1:10" ht="22.15" customHeight="1">
-      <c r="A55" s="32">
-        <v>54</v>
-      </c>
-      <c r="B55" s="45" t="s">
-        <v>29</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D55" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E55" s="14">
-        <v>42825</v>
-      </c>
-      <c r="F55" s="12"/>
-      <c r="G55" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="H55" s="14">
-        <v>42832</v>
-      </c>
-      <c r="I55" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="J55" s="12"/>
-    </row>
-    <row r="56" spans="1:10" ht="27">
-      <c r="A56" s="32">
-        <v>55</v>
-      </c>
-      <c r="B56" s="45"/>
-      <c r="C56" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D56" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E56" s="14">
-        <v>42830</v>
       </c>
       <c r="F56" s="12"/>
       <c r="G56" s="12" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="H56" s="14">
-        <v>42832</v>
+        <v>42830</v>
       </c>
       <c r="I56" s="12" t="s">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="J56" s="12"/>
     </row>
-    <row r="57" spans="1:10" ht="22.15" customHeight="1">
+    <row r="57" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="32">
-        <v>56</v>
-      </c>
-      <c r="B57" s="45"/>
+        <v>52</v>
+      </c>
+      <c r="B57" s="48" t="s">
+        <v>26</v>
+      </c>
       <c r="C57" s="4" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="D57" s="12" t="s">
         <v>10</v>
       </c>
       <c r="E57" s="14">
-        <v>42830</v>
+        <v>42825</v>
       </c>
       <c r="F57" s="12"/>
       <c r="G57" s="12" t="s">
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="H57" s="14">
-        <v>42832</v>
+        <v>42830</v>
       </c>
       <c r="I57" s="12" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="J57" s="12"/>
     </row>
-    <row r="58" spans="1:10" ht="22.15" customHeight="1">
+    <row r="58" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="32">
-        <v>57</v>
-      </c>
-      <c r="B58" s="45"/>
+        <v>53</v>
+      </c>
+      <c r="B58" s="48"/>
       <c r="C58" s="4" t="s">
-        <v>72</v>
+        <v>28</v>
       </c>
       <c r="D58" s="12" t="s">
         <v>10</v>
       </c>
       <c r="E58" s="14">
-        <v>42831</v>
+        <v>42825</v>
       </c>
       <c r="F58" s="12"/>
       <c r="G58" s="12" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="H58" s="14">
-        <v>42832</v>
+        <v>42830</v>
       </c>
       <c r="I58" s="12" t="s">
-        <v>84</v>
+        <v>50</v>
       </c>
       <c r="J58" s="12"/>
     </row>
-    <row r="59" spans="1:10" s="28" customFormat="1" ht="40.5">
-      <c r="A59" s="32"/>
-      <c r="B59" s="45"/>
+    <row r="59" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="32">
+        <v>54</v>
+      </c>
+      <c r="B59" s="48" t="s">
+        <v>29</v>
+      </c>
       <c r="C59" s="4" t="s">
-        <v>195</v>
+        <v>30</v>
       </c>
       <c r="D59" s="12" t="s">
         <v>10</v>
       </c>
       <c r="E59" s="14">
-        <v>42892</v>
+        <v>42825</v>
       </c>
       <c r="F59" s="12"/>
       <c r="G59" s="12" t="s">
-        <v>234</v>
+        <v>81</v>
       </c>
       <c r="H59" s="14">
-        <v>42898</v>
+        <v>42832</v>
       </c>
       <c r="I59" s="12" t="s">
-        <v>236</v>
+        <v>83</v>
       </c>
       <c r="J59" s="12"/>
     </row>
-    <row r="60" spans="1:10" ht="22.15" customHeight="1">
+    <row r="60" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A60" s="32">
-        <v>58</v>
-      </c>
-      <c r="B60" s="45"/>
+        <v>55</v>
+      </c>
+      <c r="B60" s="48"/>
       <c r="C60" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D60" s="12" t="s">
         <v>10</v>
@@ -3230,7 +3227,7 @@
       </c>
       <c r="F60" s="12"/>
       <c r="G60" s="12" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H60" s="14">
         <v>42832</v>
@@ -3240,125 +3237,113 @@
       </c>
       <c r="J60" s="12"/>
     </row>
-    <row r="61" spans="1:10" ht="22.15" customHeight="1">
+    <row r="61" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="32">
-        <v>59</v>
-      </c>
-      <c r="B61" s="45" t="s">
-        <v>31</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="B61" s="48"/>
       <c r="C61" s="4" t="s">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="D61" s="12" t="s">
         <v>10</v>
       </c>
       <c r="E61" s="14">
-        <v>42825</v>
+        <v>42830</v>
       </c>
       <c r="F61" s="12"/>
       <c r="G61" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H61" s="14">
         <v>42832</v>
       </c>
       <c r="I61" s="12" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="J61" s="12"/>
     </row>
-    <row r="62" spans="1:10" s="28" customFormat="1" ht="22.15" customHeight="1">
-      <c r="A62" s="32"/>
-      <c r="B62" s="45"/>
+    <row r="62" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A62" s="32">
+        <v>57</v>
+      </c>
+      <c r="B62" s="48"/>
       <c r="C62" s="4" t="s">
-        <v>191</v>
+        <v>72</v>
       </c>
       <c r="D62" s="12" t="s">
         <v>10</v>
       </c>
       <c r="E62" s="14">
-        <v>42892</v>
+        <v>42831</v>
       </c>
       <c r="F62" s="12"/>
       <c r="G62" s="12" t="s">
-        <v>234</v>
+        <v>82</v>
       </c>
       <c r="H62" s="14">
-        <v>42898</v>
+        <v>42832</v>
       </c>
       <c r="I62" s="12" t="s">
-        <v>236</v>
+        <v>84</v>
       </c>
       <c r="J62" s="12"/>
     </row>
-    <row r="63" spans="1:10" ht="22.15" customHeight="1">
-      <c r="A63" s="32">
-        <v>60</v>
-      </c>
-      <c r="B63" s="45"/>
+    <row r="63" spans="1:10" s="28" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A63" s="32"/>
+      <c r="B63" s="48"/>
       <c r="C63" s="4" t="s">
-        <v>64</v>
+        <v>240</v>
       </c>
       <c r="D63" s="12" t="s">
         <v>10</v>
       </c>
       <c r="E63" s="14">
-        <v>42830</v>
+        <v>42899</v>
       </c>
       <c r="F63" s="12"/>
-      <c r="G63" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="H63" s="14">
-        <v>42832</v>
-      </c>
-      <c r="I63" s="12" t="s">
-        <v>83</v>
-      </c>
+      <c r="G63" s="12"/>
+      <c r="H63" s="14"/>
+      <c r="I63" s="12"/>
       <c r="J63" s="12"/>
     </row>
-    <row r="64" spans="1:10" ht="22.15" customHeight="1">
-      <c r="A64" s="32">
-        <v>61</v>
-      </c>
-      <c r="B64" s="49" t="s">
-        <v>33</v>
-      </c>
+    <row r="64" spans="1:10" s="28" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A64" s="32"/>
+      <c r="B64" s="48"/>
       <c r="C64" s="4" t="s">
-        <v>34</v>
+        <v>194</v>
       </c>
       <c r="D64" s="12" t="s">
         <v>10</v>
       </c>
       <c r="E64" s="14">
-        <v>42825</v>
+        <v>42892</v>
       </c>
       <c r="F64" s="12"/>
       <c r="G64" s="12" t="s">
-        <v>81</v>
+        <v>232</v>
       </c>
       <c r="H64" s="14">
-        <v>42832</v>
+        <v>42898</v>
       </c>
       <c r="I64" s="12" t="s">
-        <v>83</v>
+        <v>234</v>
       </c>
       <c r="J64" s="12"/>
     </row>
-    <row r="65" spans="1:10" ht="22.15" customHeight="1">
+    <row r="65" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="32">
-        <v>62</v>
-      </c>
-      <c r="B65" s="50"/>
+        <v>58</v>
+      </c>
+      <c r="B65" s="48"/>
       <c r="C65" s="4" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="D65" s="12" t="s">
         <v>10</v>
       </c>
       <c r="E65" s="14">
-        <v>42825</v>
+        <v>42830</v>
       </c>
       <c r="F65" s="12"/>
       <c r="G65" s="12" t="s">
@@ -3372,35 +3357,39 @@
       </c>
       <c r="J65" s="12"/>
     </row>
-    <row r="66" spans="1:10" s="28" customFormat="1" ht="22.15" customHeight="1">
-      <c r="A66" s="32"/>
-      <c r="B66" s="50"/>
+    <row r="66" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A66" s="32">
+        <v>59</v>
+      </c>
+      <c r="B66" s="48" t="s">
+        <v>31</v>
+      </c>
       <c r="C66" s="4" t="s">
-        <v>193</v>
+        <v>32</v>
       </c>
       <c r="D66" s="12" t="s">
         <v>10</v>
       </c>
       <c r="E66" s="14">
-        <v>42892</v>
+        <v>42825</v>
       </c>
       <c r="F66" s="12"/>
       <c r="G66" s="12" t="s">
-        <v>234</v>
+        <v>82</v>
       </c>
       <c r="H66" s="14">
-        <v>42898</v>
+        <v>42832</v>
       </c>
       <c r="I66" s="12" t="s">
-        <v>236</v>
+        <v>84</v>
       </c>
       <c r="J66" s="12"/>
     </row>
-    <row r="67" spans="1:10" s="28" customFormat="1" ht="54">
+    <row r="67" spans="1:10" s="28" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="32"/>
-      <c r="B67" s="50"/>
+      <c r="B67" s="48"/>
       <c r="C67" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D67" s="12" t="s">
         <v>10</v>
@@ -3410,71 +3399,77 @@
       </c>
       <c r="F67" s="12"/>
       <c r="G67" s="12" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="H67" s="14">
         <v>42898</v>
       </c>
       <c r="I67" s="12" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="J67" s="12"/>
     </row>
-    <row r="68" spans="1:10" s="28" customFormat="1" ht="13.5">
-      <c r="A68" s="32"/>
-      <c r="B68" s="50"/>
+    <row r="68" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A68" s="32">
+        <v>60</v>
+      </c>
+      <c r="B68" s="48"/>
       <c r="C68" s="4" t="s">
-        <v>194</v>
+        <v>64</v>
       </c>
       <c r="D68" s="12" t="s">
         <v>10</v>
       </c>
       <c r="E68" s="14">
-        <v>42892</v>
+        <v>42830</v>
       </c>
       <c r="F68" s="12"/>
       <c r="G68" s="12" t="s">
-        <v>234</v>
+        <v>81</v>
       </c>
       <c r="H68" s="14">
-        <v>42898</v>
+        <v>42832</v>
       </c>
       <c r="I68" s="12" t="s">
-        <v>236</v>
+        <v>83</v>
       </c>
       <c r="J68" s="12"/>
     </row>
-    <row r="69" spans="1:10" s="28" customFormat="1" ht="27">
-      <c r="A69" s="32"/>
-      <c r="B69" s="50"/>
+    <row r="69" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A69" s="32">
+        <v>61</v>
+      </c>
+      <c r="B69" s="45" t="s">
+        <v>33</v>
+      </c>
       <c r="C69" s="4" t="s">
-        <v>230</v>
+        <v>34</v>
       </c>
       <c r="D69" s="12" t="s">
         <v>10</v>
       </c>
       <c r="E69" s="14">
-        <v>42894</v>
+        <v>42825</v>
       </c>
       <c r="F69" s="12"/>
       <c r="G69" s="12" t="s">
-        <v>234</v>
+        <v>81</v>
       </c>
       <c r="H69" s="14">
-        <v>42898</v>
+        <v>42832</v>
       </c>
       <c r="I69" s="12" t="s">
-        <v>236</v>
+        <v>83</v>
       </c>
       <c r="J69" s="12"/>
     </row>
-    <row r="70" spans="1:10" ht="22.15" customHeight="1">
+    <row r="70" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="32">
-        <v>64</v>
-      </c>
-      <c r="B70" s="50"/>
+        <v>62</v>
+      </c>
+      <c r="B70" s="46"/>
       <c r="C70" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D70" s="12" t="s">
         <v>10</v>
@@ -3484,329 +3479,323 @@
       </c>
       <c r="F70" s="12"/>
       <c r="G70" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="H70" s="14">
+        <v>42832</v>
+      </c>
+      <c r="I70" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="J70" s="12"/>
+    </row>
+    <row r="71" spans="1:10" s="28" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A71" s="32"/>
+      <c r="B71" s="46"/>
+      <c r="C71" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="D71" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E71" s="14">
+        <v>42892</v>
+      </c>
+      <c r="F71" s="12"/>
+      <c r="G71" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="H71" s="14">
+        <v>42898</v>
+      </c>
+      <c r="I71" s="12" t="s">
         <v>234</v>
       </c>
-      <c r="H70" s="14">
-        <v>42898</v>
-      </c>
-      <c r="I70" s="12" t="s">
-        <v>236</v>
-      </c>
-      <c r="J70" s="12" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" s="26" customFormat="1" ht="27">
-      <c r="A71" s="32">
-        <v>65</v>
-      </c>
-      <c r="B71" s="51"/>
-      <c r="C71" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="D71" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="E71" s="25">
-        <v>42887</v>
-      </c>
-      <c r="F71" s="12"/>
-      <c r="G71" s="31" t="s">
-        <v>234</v>
-      </c>
-      <c r="H71" s="2">
-        <v>42898</v>
-      </c>
-      <c r="I71" s="31" t="s">
-        <v>236</v>
-      </c>
-      <c r="J71" s="11"/>
-    </row>
-    <row r="72" spans="1:10" ht="40.5">
-      <c r="A72" s="32">
-        <v>66</v>
-      </c>
-      <c r="B72" s="45" t="s">
-        <v>206</v>
-      </c>
+      <c r="J71" s="12"/>
+    </row>
+    <row r="72" spans="1:10" s="28" customFormat="1" ht="54" x14ac:dyDescent="0.15">
+      <c r="A72" s="32"/>
+      <c r="B72" s="46"/>
       <c r="C72" s="4" t="s">
-        <v>38</v>
+        <v>192</v>
       </c>
       <c r="D72" s="12" t="s">
         <v>10</v>
       </c>
       <c r="E72" s="14">
-        <v>42826</v>
+        <v>42892</v>
       </c>
       <c r="F72" s="12"/>
       <c r="G72" s="12" t="s">
-        <v>75</v>
+        <v>232</v>
       </c>
       <c r="H72" s="14">
-        <v>42831</v>
+        <v>42898</v>
       </c>
       <c r="I72" s="12" t="s">
-        <v>50</v>
+        <v>234</v>
       </c>
       <c r="J72" s="12"/>
     </row>
-    <row r="73" spans="1:10" ht="22.15" customHeight="1">
-      <c r="A73" s="32">
-        <v>67</v>
-      </c>
-      <c r="B73" s="45"/>
-      <c r="C73" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="D73" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E73" s="14">
-        <v>42863</v>
-      </c>
-      <c r="F73" s="12"/>
-      <c r="G73" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="H73" s="14">
-        <v>42864</v>
-      </c>
-      <c r="I73" s="12" t="s">
-        <v>50</v>
+    <row r="73" spans="1:10" s="28" customFormat="1" ht="81" x14ac:dyDescent="0.15">
+      <c r="A73" s="32"/>
+      <c r="B73" s="46"/>
+      <c r="C73" s="42" t="s">
+        <v>238</v>
+      </c>
+      <c r="D73" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="E73" s="44">
+        <v>42892</v>
+      </c>
+      <c r="F73" s="43" t="s">
+        <v>239</v>
+      </c>
+      <c r="G73" s="43" t="s">
+        <v>232</v>
+      </c>
+      <c r="H73" s="44">
+        <v>42898</v>
+      </c>
+      <c r="I73" s="43" t="s">
+        <v>234</v>
       </c>
       <c r="J73" s="12"/>
     </row>
-    <row r="74" spans="1:10" ht="22.15" customHeight="1">
-      <c r="A74" s="32">
-        <v>68</v>
-      </c>
-      <c r="B74" s="45"/>
+    <row r="74" spans="1:10" s="28" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A74" s="32"/>
+      <c r="B74" s="46"/>
       <c r="C74" s="4" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="D74" s="12" t="s">
         <v>10</v>
       </c>
       <c r="E74" s="14">
-        <v>42886</v>
+        <v>42894</v>
       </c>
       <c r="F74" s="12"/>
       <c r="G74" s="12" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="H74" s="14">
         <v>42898</v>
       </c>
       <c r="I74" s="12" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="J74" s="12"/>
     </row>
-    <row r="75" spans="1:10" s="28" customFormat="1" ht="22.15" customHeight="1">
-      <c r="A75" s="32"/>
-      <c r="B75" s="45"/>
+    <row r="75" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A75" s="32">
+        <v>64</v>
+      </c>
+      <c r="B75" s="46"/>
       <c r="C75" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="D75" s="12"/>
-      <c r="E75" s="14"/>
+        <v>36</v>
+      </c>
+      <c r="D75" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E75" s="14">
+        <v>42825</v>
+      </c>
       <c r="F75" s="12"/>
       <c r="G75" s="12" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="H75" s="14">
         <v>42898</v>
       </c>
       <c r="I75" s="12" t="s">
-        <v>236</v>
-      </c>
-      <c r="J75" s="12"/>
-    </row>
-    <row r="76" spans="1:10" ht="27">
+        <v>234</v>
+      </c>
+      <c r="J75" s="12" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" s="26" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A76" s="32">
-        <v>69</v>
-      </c>
-      <c r="B76" s="45"/>
+        <v>65</v>
+      </c>
+      <c r="B76" s="47"/>
       <c r="C76" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="D76" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E76" s="14">
-        <v>42886</v>
+        <v>165</v>
+      </c>
+      <c r="D76" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E76" s="25">
+        <v>42887</v>
       </c>
       <c r="F76" s="12"/>
-      <c r="G76" s="12" t="s">
+      <c r="G76" s="31" t="s">
+        <v>232</v>
+      </c>
+      <c r="H76" s="2">
+        <v>42898</v>
+      </c>
+      <c r="I76" s="31" t="s">
         <v>234</v>
       </c>
-      <c r="H76" s="14">
-        <v>42898</v>
-      </c>
-      <c r="I76" s="12" t="s">
-        <v>236</v>
-      </c>
-      <c r="J76" s="12"/>
-    </row>
-    <row r="77" spans="1:10" s="28" customFormat="1" ht="40.5">
-      <c r="A77" s="32"/>
-      <c r="B77" s="45"/>
+      <c r="J76" s="11"/>
+    </row>
+    <row r="77" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A77" s="32">
+        <v>66</v>
+      </c>
+      <c r="B77" s="48" t="s">
+        <v>205</v>
+      </c>
       <c r="C77" s="4" t="s">
-        <v>239</v>
+        <v>38</v>
       </c>
       <c r="D77" s="12" t="s">
         <v>10</v>
       </c>
       <c r="E77" s="14">
-        <v>42892</v>
+        <v>42826</v>
       </c>
       <c r="F77" s="12"/>
       <c r="G77" s="12" t="s">
-        <v>234</v>
+        <v>75</v>
       </c>
       <c r="H77" s="14">
-        <v>42898</v>
+        <v>42831</v>
       </c>
       <c r="I77" s="12" t="s">
-        <v>236</v>
+        <v>50</v>
       </c>
       <c r="J77" s="12"/>
     </row>
-    <row r="78" spans="1:10" ht="22.15" customHeight="1">
+    <row r="78" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="32">
-        <v>70</v>
-      </c>
-      <c r="B78" s="45"/>
+        <v>67</v>
+      </c>
+      <c r="B78" s="48"/>
       <c r="C78" s="4" t="s">
-        <v>37</v>
+        <v>105</v>
       </c>
       <c r="D78" s="12" t="s">
         <v>10</v>
       </c>
       <c r="E78" s="14">
-        <v>42826</v>
+        <v>42863</v>
       </c>
       <c r="F78" s="12"/>
       <c r="G78" s="12" t="s">
         <v>75</v>
       </c>
       <c r="H78" s="14">
-        <v>42831</v>
+        <v>42864</v>
       </c>
       <c r="I78" s="12" t="s">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="J78" s="12"/>
     </row>
-    <row r="79" spans="1:10" ht="27">
+    <row r="79" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="32">
-        <v>71</v>
-      </c>
-      <c r="B79" s="45" t="s">
-        <v>39</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="B79" s="48"/>
       <c r="C79" s="4" t="s">
-        <v>40</v>
+        <v>236</v>
       </c>
       <c r="D79" s="12" t="s">
         <v>10</v>
       </c>
       <c r="E79" s="14">
-        <v>42826</v>
+        <v>42886</v>
       </c>
       <c r="F79" s="12"/>
       <c r="G79" s="12" t="s">
-        <v>75</v>
+        <v>232</v>
       </c>
       <c r="H79" s="14">
-        <v>42831</v>
+        <v>42898</v>
       </c>
       <c r="I79" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="J79" s="12" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" s="28" customFormat="1" ht="13.5">
+        <v>234</v>
+      </c>
+      <c r="J79" s="12"/>
+    </row>
+    <row r="80" spans="1:10" s="28" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="32"/>
-      <c r="B80" s="45"/>
+      <c r="B80" s="48"/>
       <c r="C80" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="D80" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E80" s="14">
-        <v>42892</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="D80" s="12"/>
+      <c r="E80" s="14"/>
       <c r="F80" s="12"/>
       <c r="G80" s="12" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="H80" s="14">
         <v>42898</v>
       </c>
       <c r="I80" s="12" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="J80" s="12"/>
     </row>
-    <row r="81" spans="1:10" s="28" customFormat="1" ht="25.9" customHeight="1">
-      <c r="A81" s="32"/>
-      <c r="B81" s="45"/>
+    <row r="81" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+      <c r="A81" s="32">
+        <v>69</v>
+      </c>
+      <c r="B81" s="48"/>
       <c r="C81" s="4" t="s">
-        <v>211</v>
+        <v>235</v>
       </c>
       <c r="D81" s="12" t="s">
         <v>10</v>
       </c>
       <c r="E81" s="14">
-        <v>42892</v>
+        <v>42886</v>
       </c>
       <c r="F81" s="12"/>
       <c r="G81" s="12" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="H81" s="14">
         <v>42898</v>
       </c>
       <c r="I81" s="12" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="J81" s="12"/>
     </row>
-    <row r="82" spans="1:10" ht="22.15" customHeight="1">
-      <c r="A82" s="32">
-        <v>72</v>
-      </c>
-      <c r="B82" s="45"/>
+    <row r="82" spans="1:10" s="28" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A82" s="32"/>
+      <c r="B82" s="48"/>
       <c r="C82" s="4" t="s">
-        <v>105</v>
+        <v>237</v>
       </c>
       <c r="D82" s="12" t="s">
         <v>10</v>
       </c>
       <c r="E82" s="14">
-        <v>42863</v>
+        <v>42892</v>
       </c>
       <c r="F82" s="12"/>
       <c r="G82" s="12" t="s">
-        <v>129</v>
+        <v>232</v>
       </c>
       <c r="H82" s="14">
-        <v>42864</v>
+        <v>42898</v>
       </c>
       <c r="I82" s="12" t="s">
-        <v>130</v>
+        <v>234</v>
       </c>
       <c r="J82" s="12"/>
     </row>
-    <row r="83" spans="1:10" ht="22.15" customHeight="1">
+    <row r="83" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="32">
-        <v>73</v>
-      </c>
-      <c r="B83" s="45"/>
+        <v>70</v>
+      </c>
+      <c r="B83" s="48"/>
       <c r="C83" s="4" t="s">
         <v>37</v>
       </c>
@@ -3818,25 +3807,25 @@
       </c>
       <c r="F83" s="12"/>
       <c r="G83" s="12" t="s">
-        <v>131</v>
+        <v>75</v>
       </c>
       <c r="H83" s="14">
         <v>42831</v>
       </c>
       <c r="I83" s="12" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J83" s="12"/>
     </row>
-    <row r="84" spans="1:10" ht="27">
+    <row r="84" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A84" s="32">
-        <v>74</v>
-      </c>
-      <c r="B84" s="45" t="s">
-        <v>41</v>
+        <v>71</v>
+      </c>
+      <c r="B84" s="48" t="s">
+        <v>39</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D84" s="12" t="s">
         <v>10</v>
@@ -3846,21 +3835,23 @@
       </c>
       <c r="F84" s="12"/>
       <c r="G84" s="12" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H84" s="14">
-        <v>42830</v>
+        <v>42831</v>
       </c>
       <c r="I84" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="J84" s="12"/>
-    </row>
-    <row r="85" spans="1:10" s="28" customFormat="1" ht="13.5">
+        <v>50</v>
+      </c>
+      <c r="J84" s="12" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" s="28" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A85" s="32"/>
-      <c r="B85" s="45"/>
+      <c r="B85" s="48"/>
       <c r="C85" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D85" s="12" t="s">
         <v>10</v>
@@ -3870,21 +3861,21 @@
       </c>
       <c r="F85" s="12"/>
       <c r="G85" s="12" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="H85" s="14">
         <v>42898</v>
       </c>
       <c r="I85" s="12" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="J85" s="12"/>
     </row>
-    <row r="86" spans="1:10" s="28" customFormat="1" ht="13.5">
+    <row r="86" spans="1:10" s="28" customFormat="1" ht="25.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="32"/>
-      <c r="B86" s="45"/>
+      <c r="B86" s="48"/>
       <c r="C86" s="4" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="D86" s="12" t="s">
         <v>10</v>
@@ -3894,21 +3885,21 @@
       </c>
       <c r="F86" s="12"/>
       <c r="G86" s="12" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="H86" s="14">
         <v>42898</v>
       </c>
       <c r="I86" s="12" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="J86" s="12"/>
     </row>
-    <row r="87" spans="1:10" ht="22.15" customHeight="1">
+    <row r="87" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="32">
-        <v>75</v>
-      </c>
-      <c r="B87" s="45"/>
+        <v>72</v>
+      </c>
+      <c r="B87" s="48"/>
       <c r="C87" s="4" t="s">
         <v>105</v>
       </c>
@@ -3920,21 +3911,21 @@
       </c>
       <c r="F87" s="12"/>
       <c r="G87" s="12" t="s">
-        <v>75</v>
+        <v>129</v>
       </c>
       <c r="H87" s="14">
         <v>42864</v>
       </c>
       <c r="I87" s="12" t="s">
-        <v>50</v>
+        <v>130</v>
       </c>
       <c r="J87" s="12"/>
     </row>
-    <row r="88" spans="1:10" ht="22.15" customHeight="1">
+    <row r="88" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="32">
-        <v>76</v>
-      </c>
-      <c r="B88" s="45"/>
+        <v>73</v>
+      </c>
+      <c r="B88" s="48"/>
       <c r="C88" s="4" t="s">
         <v>37</v>
       </c>
@@ -3946,25 +3937,25 @@
       </c>
       <c r="F88" s="12"/>
       <c r="G88" s="12" t="s">
-        <v>69</v>
+        <v>131</v>
       </c>
       <c r="H88" s="14">
-        <v>42830</v>
+        <v>42831</v>
       </c>
       <c r="I88" s="12" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="J88" s="12"/>
     </row>
-    <row r="89" spans="1:10" ht="29.25" customHeight="1">
+    <row r="89" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A89" s="32">
-        <v>77</v>
-      </c>
-      <c r="B89" s="45" t="s">
-        <v>43</v>
+        <v>74</v>
+      </c>
+      <c r="B89" s="48" t="s">
+        <v>41</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D89" s="12" t="s">
         <v>10</v>
@@ -3973,162 +3964,194 @@
         <v>42826</v>
       </c>
       <c r="F89" s="12"/>
-      <c r="G89" s="12"/>
-      <c r="H89" s="12"/>
-      <c r="I89" s="12"/>
+      <c r="G89" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="H89" s="14">
+        <v>42830</v>
+      </c>
+      <c r="I89" s="12" t="s">
+        <v>70</v>
+      </c>
       <c r="J89" s="12"/>
     </row>
-    <row r="90" spans="1:10" s="28" customFormat="1" ht="28.15" customHeight="1">
+    <row r="90" spans="1:10" s="28" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A90" s="32"/>
-      <c r="B90" s="45"/>
+      <c r="B90" s="48"/>
       <c r="C90" s="4" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="D90" s="12" t="s">
         <v>10</v>
       </c>
       <c r="E90" s="14">
-        <v>42893</v>
+        <v>42892</v>
       </c>
       <c r="F90" s="12"/>
       <c r="G90" s="12" t="s">
-        <v>78</v>
+        <v>232</v>
       </c>
       <c r="H90" s="14">
-        <v>42893</v>
+        <v>42898</v>
       </c>
       <c r="I90" s="12" t="s">
-        <v>76</v>
+        <v>234</v>
       </c>
       <c r="J90" s="12"/>
     </row>
-    <row r="91" spans="1:10" ht="27">
-      <c r="A91" s="32">
-        <v>78</v>
-      </c>
-      <c r="B91" s="45"/>
+    <row r="91" spans="1:10" s="28" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A91" s="32"/>
+      <c r="B91" s="48"/>
       <c r="C91" s="4" t="s">
-        <v>126</v>
+        <v>213</v>
       </c>
       <c r="D91" s="12" t="s">
         <v>10</v>
       </c>
       <c r="E91" s="14">
-        <v>42880</v>
+        <v>42892</v>
       </c>
       <c r="F91" s="12"/>
       <c r="G91" s="12" t="s">
-        <v>78</v>
+        <v>232</v>
       </c>
       <c r="H91" s="14">
-        <v>42893</v>
+        <v>42898</v>
       </c>
       <c r="I91" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="J91" s="12"/>
+    </row>
+    <row r="92" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A92" s="32">
+        <v>75</v>
+      </c>
+      <c r="B92" s="48"/>
+      <c r="C92" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D92" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E92" s="14">
+        <v>42863</v>
+      </c>
+      <c r="F92" s="12"/>
+      <c r="G92" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="H92" s="14">
+        <v>42864</v>
+      </c>
+      <c r="I92" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="J92" s="12"/>
+    </row>
+    <row r="93" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A93" s="32">
         <v>76</v>
       </c>
-      <c r="J91" s="12"/>
-    </row>
-    <row r="92" spans="1:10" s="28" customFormat="1" ht="27" customHeight="1">
-      <c r="A92" s="32"/>
-      <c r="B92" s="45"/>
-      <c r="C92" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="D92" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E92" s="14">
-        <v>42893</v>
-      </c>
-      <c r="F92" s="12"/>
-      <c r="G92" s="12"/>
-      <c r="H92" s="12"/>
-      <c r="I92" s="12"/>
-      <c r="J92" s="12"/>
-    </row>
-    <row r="93" spans="1:10" s="28" customFormat="1" ht="24.6" customHeight="1">
-      <c r="A93" s="32"/>
-      <c r="B93" s="45"/>
+      <c r="B93" s="48"/>
       <c r="C93" s="4" t="s">
-        <v>219</v>
+        <v>37</v>
       </c>
       <c r="D93" s="12" t="s">
         <v>10</v>
       </c>
       <c r="E93" s="14">
-        <v>42893</v>
+        <v>42826</v>
       </c>
       <c r="F93" s="12"/>
       <c r="G93" s="12" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="H93" s="14">
-        <v>42893</v>
+        <v>42830</v>
       </c>
       <c r="I93" s="12" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="J93" s="12"/>
     </row>
-    <row r="94" spans="1:10" s="28" customFormat="1" ht="24.6" customHeight="1">
-      <c r="A94" s="32"/>
-      <c r="B94" s="45"/>
+    <row r="94" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A94" s="32">
+        <v>77</v>
+      </c>
+      <c r="B94" s="48" t="s">
+        <v>43</v>
+      </c>
       <c r="C94" s="4" t="s">
-        <v>229</v>
+        <v>46</v>
       </c>
       <c r="D94" s="12" t="s">
         <v>10</v>
       </c>
       <c r="E94" s="14">
-        <v>42894</v>
+        <v>42826</v>
       </c>
       <c r="F94" s="12"/>
       <c r="G94" s="12"/>
-      <c r="H94" s="14"/>
+      <c r="H94" s="12"/>
       <c r="I94" s="12"/>
       <c r="J94" s="12"/>
     </row>
-    <row r="95" spans="1:10" s="28" customFormat="1" ht="24.6" customHeight="1">
+    <row r="95" spans="1:10" s="28" customFormat="1" ht="28.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="32"/>
-      <c r="B95" s="45"/>
+      <c r="B95" s="48"/>
       <c r="C95" s="4" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="D95" s="12" t="s">
-        <v>225</v>
+        <v>10</v>
       </c>
       <c r="E95" s="14">
         <v>42893</v>
       </c>
       <c r="F95" s="12"/>
-      <c r="G95" s="12"/>
-      <c r="H95" s="14"/>
-      <c r="I95" s="12"/>
+      <c r="G95" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="H95" s="14">
+        <v>42893</v>
+      </c>
+      <c r="I95" s="12" t="s">
+        <v>76</v>
+      </c>
       <c r="J95" s="12"/>
     </row>
-    <row r="96" spans="1:10" s="28" customFormat="1" ht="24.6" customHeight="1">
-      <c r="A96" s="32"/>
-      <c r="B96" s="45"/>
+    <row r="96" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+      <c r="A96" s="32">
+        <v>78</v>
+      </c>
+      <c r="B96" s="48"/>
       <c r="C96" s="4" t="s">
-        <v>226</v>
+        <v>126</v>
       </c>
       <c r="D96" s="12" t="s">
-        <v>225</v>
+        <v>10</v>
       </c>
       <c r="E96" s="14">
+        <v>42880</v>
+      </c>
+      <c r="F96" s="12"/>
+      <c r="G96" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="H96" s="14">
         <v>42893</v>
       </c>
-      <c r="F96" s="12"/>
-      <c r="G96" s="12"/>
-      <c r="H96" s="14"/>
-      <c r="I96" s="12"/>
+      <c r="I96" s="12" t="s">
+        <v>76</v>
+      </c>
       <c r="J96" s="12"/>
     </row>
-    <row r="97" spans="1:10" s="28" customFormat="1" ht="27">
+    <row r="97" spans="1:10" s="28" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="32"/>
-      <c r="B97" s="45"/>
+      <c r="B97" s="48"/>
       <c r="C97" s="4" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D97" s="12" t="s">
         <v>10</v>
@@ -4142,11 +4165,11 @@
       <c r="I97" s="12"/>
       <c r="J97" s="12"/>
     </row>
-    <row r="98" spans="1:10" s="28" customFormat="1" ht="25.9" customHeight="1">
+    <row r="98" spans="1:10" s="28" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="32"/>
-      <c r="B98" s="45"/>
+      <c r="B98" s="48"/>
       <c r="C98" s="4" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D98" s="12" t="s">
         <v>10</v>
@@ -4166,601 +4189,547 @@
       </c>
       <c r="J98" s="12"/>
     </row>
-    <row r="99" spans="1:10" ht="22.15" customHeight="1">
-      <c r="A99" s="32">
-        <v>79</v>
-      </c>
-      <c r="B99" s="45"/>
+    <row r="99" spans="1:10" s="28" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A99" s="32"/>
+      <c r="B99" s="48"/>
       <c r="C99" s="4" t="s">
-        <v>45</v>
+        <v>227</v>
       </c>
       <c r="D99" s="12" t="s">
         <v>10</v>
       </c>
       <c r="E99" s="14">
-        <v>42826</v>
+        <v>42894</v>
       </c>
       <c r="F99" s="12"/>
       <c r="G99" s="12"/>
-      <c r="H99" s="12"/>
+      <c r="H99" s="14"/>
       <c r="I99" s="12"/>
       <c r="J99" s="12"/>
     </row>
-    <row r="100" spans="1:10" ht="27.75" customHeight="1">
-      <c r="A100" s="32">
-        <v>80</v>
-      </c>
-      <c r="B100" s="45" t="s">
-        <v>44</v>
-      </c>
+    <row r="100" spans="1:10" s="28" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A100" s="32"/>
+      <c r="B100" s="48"/>
       <c r="C100" s="4" t="s">
-        <v>47</v>
+        <v>223</v>
       </c>
       <c r="D100" s="12" t="s">
-        <v>10</v>
+        <v>224</v>
       </c>
       <c r="E100" s="14">
-        <v>42826</v>
+        <v>42893</v>
       </c>
       <c r="F100" s="12"/>
-      <c r="G100" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="H100" s="14">
-        <v>42832</v>
-      </c>
-      <c r="I100" s="12" t="s">
-        <v>70</v>
-      </c>
+      <c r="G100" s="12"/>
+      <c r="H100" s="14"/>
+      <c r="I100" s="12"/>
       <c r="J100" s="12"/>
     </row>
-    <row r="101" spans="1:10" s="28" customFormat="1" ht="27.75" customHeight="1">
+    <row r="101" spans="1:10" s="28" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="32"/>
-      <c r="B101" s="45"/>
+      <c r="B101" s="48"/>
       <c r="C101" s="4" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D101" s="12" t="s">
-        <v>10</v>
+        <v>224</v>
       </c>
       <c r="E101" s="14">
         <v>42893</v>
       </c>
       <c r="F101" s="12"/>
-      <c r="G101" s="12" t="s">
+      <c r="G101" s="12"/>
+      <c r="H101" s="14"/>
+      <c r="I101" s="12"/>
+      <c r="J101" s="12"/>
+    </row>
+    <row r="102" spans="1:10" s="28" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A102" s="32"/>
+      <c r="B102" s="48"/>
+      <c r="C102" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="D102" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E102" s="14">
+        <v>42893</v>
+      </c>
+      <c r="F102" s="12"/>
+      <c r="G102" s="12"/>
+      <c r="H102" s="12"/>
+      <c r="I102" s="12"/>
+      <c r="J102" s="12"/>
+    </row>
+    <row r="103" spans="1:10" s="28" customFormat="1" ht="25.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A103" s="32"/>
+      <c r="B103" s="48"/>
+      <c r="C103" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="D103" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E103" s="14">
+        <v>42893</v>
+      </c>
+      <c r="F103" s="12"/>
+      <c r="G103" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="H101" s="14">
-        <v>42895</v>
-      </c>
-      <c r="I101" s="12" t="s">
+      <c r="H103" s="14">
+        <v>42893</v>
+      </c>
+      <c r="I103" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="J101" s="12"/>
-    </row>
-    <row r="102" spans="1:10" s="28" customFormat="1" ht="27.75" customHeight="1">
-      <c r="A102" s="32"/>
-      <c r="B102" s="45"/>
-      <c r="C102" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="D102" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E102" s="14">
-        <v>42894</v>
-      </c>
-      <c r="F102" s="12"/>
-      <c r="G102" s="12" t="s">
-        <v>233</v>
-      </c>
-      <c r="H102" s="14">
-        <v>42895</v>
-      </c>
-      <c r="I102" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="J102" s="12"/>
-    </row>
-    <row r="103" spans="1:10" s="28" customFormat="1" ht="27.75" customHeight="1">
-      <c r="A103" s="32"/>
-      <c r="B103" s="45"/>
-      <c r="C103" s="42" t="s">
-        <v>227</v>
-      </c>
-      <c r="D103" s="43"/>
-      <c r="E103" s="44"/>
-      <c r="F103" s="12"/>
-      <c r="G103" s="12"/>
-      <c r="H103" s="14"/>
-      <c r="I103" s="12"/>
       <c r="J103" s="12"/>
     </row>
-    <row r="104" spans="1:10" s="28" customFormat="1" ht="27.75" customHeight="1">
+    <row r="104" spans="1:10" s="28" customFormat="1" ht="25.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="32"/>
-      <c r="B104" s="45"/>
+      <c r="B104" s="48"/>
       <c r="C104" s="4" t="s">
-        <v>215</v>
+        <v>45</v>
       </c>
       <c r="D104" s="12" t="s">
         <v>10</v>
       </c>
       <c r="E104" s="14">
-        <v>42893</v>
+        <v>42826</v>
       </c>
       <c r="F104" s="12"/>
-      <c r="G104" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="H104" s="14">
-        <v>42893</v>
-      </c>
-      <c r="I104" s="12" t="s">
-        <v>76</v>
-      </c>
+      <c r="G104" s="12"/>
+      <c r="H104" s="14"/>
+      <c r="I104" s="12"/>
       <c r="J104" s="12"/>
     </row>
-    <row r="105" spans="1:10" s="28" customFormat="1" ht="27.75" customHeight="1">
+    <row r="105" spans="1:10" s="28" customFormat="1" ht="25.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="32"/>
-      <c r="B105" s="45"/>
+      <c r="B105" s="48"/>
       <c r="C105" s="4" t="s">
-        <v>222</v>
+        <v>242</v>
       </c>
       <c r="D105" s="12" t="s">
         <v>10</v>
       </c>
       <c r="E105" s="14">
-        <v>42893</v>
+        <v>42899</v>
       </c>
       <c r="F105" s="12"/>
-      <c r="G105" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="H105" s="14">
-        <v>42893</v>
-      </c>
-      <c r="I105" s="12" t="s">
-        <v>76</v>
-      </c>
+      <c r="G105" s="12"/>
+      <c r="H105" s="14"/>
+      <c r="I105" s="12"/>
       <c r="J105" s="12"/>
     </row>
-    <row r="106" spans="1:10" ht="27">
-      <c r="A106" s="32">
-        <v>81</v>
-      </c>
-      <c r="B106" s="45"/>
+    <row r="106" spans="1:10" s="28" customFormat="1" ht="25.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A106" s="32"/>
+      <c r="B106" s="48"/>
       <c r="C106" s="4" t="s">
-        <v>136</v>
+        <v>245</v>
       </c>
       <c r="D106" s="12" t="s">
         <v>10</v>
       </c>
       <c r="E106" s="14">
-        <v>42880</v>
+        <v>42899</v>
       </c>
       <c r="F106" s="12"/>
-      <c r="G106" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="H106" s="14">
-        <v>42893</v>
-      </c>
-      <c r="I106" s="12" t="s">
-        <v>76</v>
-      </c>
+      <c r="G106" s="12"/>
+      <c r="H106" s="14"/>
+      <c r="I106" s="12"/>
       <c r="J106" s="12"/>
     </row>
-    <row r="107" spans="1:10" ht="37.5" customHeight="1">
+    <row r="107" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="32">
-        <v>82</v>
-      </c>
-      <c r="B107" s="49" t="s">
-        <v>65</v>
-      </c>
-      <c r="C107" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D107" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E107" s="14">
-        <v>42830</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="B107" s="48"/>
+      <c r="C107" s="12"/>
+      <c r="D107" s="12"/>
+      <c r="E107" s="12"/>
       <c r="F107" s="12"/>
-      <c r="G107" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="H107" s="14">
-        <v>42830</v>
-      </c>
-      <c r="I107" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="J107" s="12" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="108" spans="1:10" s="28" customFormat="1" ht="20.45" customHeight="1">
-      <c r="A108" s="32"/>
-      <c r="B108" s="50"/>
+      <c r="G107" s="12"/>
+      <c r="H107" s="12"/>
+      <c r="I107" s="12"/>
+      <c r="J107" s="12"/>
+    </row>
+    <row r="108" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A108" s="32">
+        <v>80</v>
+      </c>
+      <c r="B108" s="48" t="s">
+        <v>44</v>
+      </c>
       <c r="C108" s="4" t="s">
-        <v>184</v>
+        <v>47</v>
       </c>
       <c r="D108" s="12" t="s">
         <v>10</v>
       </c>
       <c r="E108" s="14">
-        <v>42892</v>
+        <v>42826</v>
       </c>
       <c r="F108" s="12"/>
       <c r="G108" s="12" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H108" s="14">
-        <v>42892</v>
+        <v>42832</v>
       </c>
       <c r="I108" s="12" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="J108" s="12"/>
     </row>
-    <row r="109" spans="1:10" s="28" customFormat="1" ht="20.45" customHeight="1">
+    <row r="109" spans="1:10" s="28" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" s="32"/>
-      <c r="B109" s="51"/>
+      <c r="B109" s="48"/>
       <c r="C109" s="4" t="s">
-        <v>183</v>
+        <v>222</v>
       </c>
       <c r="D109" s="12" t="s">
         <v>10</v>
       </c>
       <c r="E109" s="14">
-        <v>42892</v>
+        <v>42893</v>
       </c>
       <c r="F109" s="12"/>
       <c r="G109" s="12" t="s">
         <v>78</v>
       </c>
       <c r="H109" s="14">
-        <v>42892</v>
+        <v>42895</v>
       </c>
       <c r="I109" s="12" t="s">
         <v>76</v>
       </c>
       <c r="J109" s="12"/>
     </row>
-    <row r="110" spans="1:10" s="20" customFormat="1" ht="22.15" customHeight="1">
-      <c r="A110" s="32">
-        <v>83</v>
-      </c>
-      <c r="B110" s="52" t="s">
-        <v>67</v>
-      </c>
-      <c r="C110" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="D110" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E110" s="19">
+    <row r="110" spans="1:10" s="28" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A110" s="32"/>
+      <c r="B110" s="48"/>
+      <c r="C110" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="D110" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E110" s="14">
+        <v>42894</v>
+      </c>
+      <c r="F110" s="12"/>
+      <c r="G110" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="H110" s="14">
+        <v>42895</v>
+      </c>
+      <c r="I110" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="J110" s="12"/>
+    </row>
+    <row r="111" spans="1:10" s="28" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A111" s="32"/>
+      <c r="B111" s="48"/>
+      <c r="C111" s="6"/>
+      <c r="D111" s="29"/>
+      <c r="E111" s="33"/>
+      <c r="F111" s="12"/>
+      <c r="G111" s="12"/>
+      <c r="H111" s="14"/>
+      <c r="I111" s="12"/>
+      <c r="J111" s="12"/>
+    </row>
+    <row r="112" spans="1:10" s="28" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A112" s="32"/>
+      <c r="B112" s="48"/>
+      <c r="C112" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="D112" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E112" s="14">
+        <v>42893</v>
+      </c>
+      <c r="F112" s="12"/>
+      <c r="G112" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="H112" s="14">
+        <v>42893</v>
+      </c>
+      <c r="I112" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="J112" s="12"/>
+    </row>
+    <row r="113" spans="1:10" s="28" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A113" s="32"/>
+      <c r="B113" s="48"/>
+      <c r="C113" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="D113" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E113" s="14">
+        <v>42893</v>
+      </c>
+      <c r="F113" s="12"/>
+      <c r="G113" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="H113" s="14">
+        <v>42893</v>
+      </c>
+      <c r="I113" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="J113" s="12"/>
+    </row>
+    <row r="114" spans="1:10" s="28" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A114" s="32"/>
+      <c r="B114" s="48"/>
+      <c r="C114" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D114" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E114" s="14">
+        <v>42880</v>
+      </c>
+      <c r="F114" s="12"/>
+      <c r="G114" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="H114" s="14">
+        <v>42893</v>
+      </c>
+      <c r="I114" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="J114" s="12"/>
+    </row>
+    <row r="115" spans="1:10" s="28" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A115" s="32"/>
+      <c r="B115" s="48"/>
+      <c r="C115" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="D115" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E115" s="14">
+        <v>42899</v>
+      </c>
+      <c r="F115" s="12"/>
+      <c r="G115" s="12"/>
+      <c r="H115" s="14"/>
+      <c r="I115" s="12"/>
+      <c r="J115" s="12"/>
+    </row>
+    <row r="116" spans="1:10" s="28" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A116" s="32"/>
+      <c r="B116" s="48"/>
+      <c r="C116" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="D116" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E116" s="14">
+        <v>42899</v>
+      </c>
+      <c r="F116" s="53"/>
+      <c r="G116" s="53"/>
+      <c r="H116" s="54"/>
+      <c r="I116" s="53"/>
+      <c r="J116" s="12"/>
+    </row>
+    <row r="117" spans="1:10" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A117" s="32">
+        <v>81</v>
+      </c>
+      <c r="B117" s="48"/>
+      <c r="C117" s="12"/>
+      <c r="D117" s="12"/>
+      <c r="E117" s="12"/>
+      <c r="J117" s="12"/>
+    </row>
+    <row r="118" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A118" s="32">
+        <v>82</v>
+      </c>
+      <c r="B118" s="45" t="s">
+        <v>65</v>
+      </c>
+      <c r="C118" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D118" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E118" s="14">
         <v>42830</v>
       </c>
-      <c r="F110" s="9"/>
-      <c r="G110" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="H110" s="19">
-        <v>42831</v>
-      </c>
-      <c r="I110" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="J110" s="9"/>
-    </row>
-    <row r="111" spans="1:10" s="20" customFormat="1" ht="22.15" customHeight="1">
-      <c r="A111" s="32">
-        <v>84</v>
-      </c>
-      <c r="B111" s="52"/>
-      <c r="C111" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="D111" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E111" s="19">
-        <v>42857</v>
-      </c>
-      <c r="F111" s="9"/>
-      <c r="G111" s="9"/>
-      <c r="H111" s="19"/>
-      <c r="I111" s="9"/>
-      <c r="J111" s="9"/>
-    </row>
-    <row r="112" spans="1:10" s="20" customFormat="1" ht="22.15" customHeight="1">
-      <c r="A112" s="32">
-        <v>85</v>
-      </c>
-      <c r="B112" s="52"/>
-      <c r="C112" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="D112" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E112" s="19">
-        <v>42857</v>
-      </c>
-      <c r="F112" s="9"/>
-      <c r="G112" s="9"/>
-      <c r="H112" s="19"/>
-      <c r="I112" s="9"/>
-      <c r="J112" s="9"/>
-    </row>
-    <row r="113" spans="1:10" s="20" customFormat="1" ht="22.15" customHeight="1">
-      <c r="A113" s="32">
-        <v>86</v>
-      </c>
-      <c r="B113" s="52"/>
-      <c r="C113" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="D113" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E113" s="19">
-        <v>42857</v>
-      </c>
-      <c r="F113" s="9"/>
-      <c r="G113" s="9"/>
-      <c r="H113" s="19"/>
-      <c r="I113" s="9"/>
-      <c r="J113" s="9"/>
-    </row>
-    <row r="114" spans="1:10" s="20" customFormat="1" ht="22.15" customHeight="1">
-      <c r="A114" s="32"/>
-      <c r="B114" s="52"/>
-      <c r="C114" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="D114" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E114" s="14">
+      <c r="F118" s="12"/>
+      <c r="G118" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="H118" s="14">
+        <v>42830</v>
+      </c>
+      <c r="I118" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="J118" s="12" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" s="28" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A119" s="32"/>
+      <c r="B119" s="46"/>
+      <c r="C119" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D119" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E119" s="14">
         <v>42892</v>
-      </c>
-      <c r="F114" s="9"/>
-      <c r="G114" s="9"/>
-      <c r="H114" s="19"/>
-      <c r="I114" s="9"/>
-      <c r="J114" s="9"/>
-    </row>
-    <row r="115" spans="1:10" s="20" customFormat="1" ht="22.15" customHeight="1">
-      <c r="A115" s="32"/>
-      <c r="B115" s="52"/>
-      <c r="C115" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="D115" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E115" s="14">
-        <v>42892</v>
-      </c>
-      <c r="F115" s="9"/>
-      <c r="G115" s="9"/>
-      <c r="H115" s="19"/>
-      <c r="I115" s="9"/>
-      <c r="J115" s="9"/>
-    </row>
-    <row r="116" spans="1:10" s="20" customFormat="1" ht="22.15" customHeight="1">
-      <c r="A116" s="32"/>
-      <c r="B116" s="52"/>
-      <c r="C116" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="D116" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E116" s="14">
-        <v>42892</v>
-      </c>
-      <c r="F116" s="9"/>
-      <c r="G116" s="9"/>
-      <c r="H116" s="19"/>
-      <c r="I116" s="9"/>
-      <c r="J116" s="9"/>
-    </row>
-    <row r="117" spans="1:10" s="20" customFormat="1" ht="22.15" customHeight="1">
-      <c r="A117" s="32"/>
-      <c r="B117" s="52"/>
-      <c r="C117" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="D117" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E117" s="14">
-        <v>42892</v>
-      </c>
-      <c r="F117" s="9"/>
-      <c r="G117" s="9"/>
-      <c r="H117" s="19"/>
-      <c r="I117" s="9"/>
-      <c r="J117" s="9"/>
-    </row>
-    <row r="118" spans="1:10" s="20" customFormat="1" ht="27">
-      <c r="A118" s="32">
-        <v>87</v>
-      </c>
-      <c r="B118" s="52"/>
-      <c r="C118" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="D118" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E118" s="19">
-        <v>42826</v>
-      </c>
-      <c r="F118" s="9"/>
-      <c r="G118" s="9"/>
-      <c r="H118" s="9"/>
-      <c r="I118" s="9"/>
-      <c r="J118" s="9"/>
-    </row>
-    <row r="119" spans="1:10" ht="22.15" customHeight="1">
-      <c r="A119" s="32">
-        <v>88</v>
-      </c>
-      <c r="B119" s="45" t="s">
-        <v>87</v>
-      </c>
-      <c r="C119" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D119" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E119" s="14">
-        <v>42837</v>
       </c>
       <c r="F119" s="12"/>
       <c r="G119" s="12" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="H119" s="14">
-        <v>42839</v>
+        <v>42892</v>
       </c>
       <c r="I119" s="12" t="s">
-        <v>50</v>
+        <v>76</v>
       </c>
       <c r="J119" s="12"/>
     </row>
-    <row r="120" spans="1:10" ht="22.15" customHeight="1">
-      <c r="A120" s="32">
-        <v>89</v>
-      </c>
-      <c r="B120" s="45"/>
+    <row r="120" spans="1:10" s="28" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A120" s="32"/>
+      <c r="B120" s="47"/>
       <c r="C120" s="4" t="s">
-        <v>93</v>
+        <v>183</v>
       </c>
       <c r="D120" s="12" t="s">
         <v>10</v>
       </c>
       <c r="E120" s="14">
-        <v>42857</v>
+        <v>42892</v>
       </c>
       <c r="F120" s="12"/>
       <c r="G120" s="12" t="s">
-        <v>143</v>
+        <v>78</v>
       </c>
       <c r="H120" s="14">
-        <v>42882</v>
+        <v>42892</v>
       </c>
       <c r="I120" s="12" t="s">
-        <v>144</v>
+        <v>76</v>
       </c>
       <c r="J120" s="12"/>
     </row>
-    <row r="121" spans="1:10" ht="22.15" customHeight="1">
+    <row r="121" spans="1:10" s="20" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A121" s="32">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="B121" s="49" t="s">
-        <v>97</v>
-      </c>
-      <c r="C121" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="D121" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E121" s="14">
+        <v>67</v>
+      </c>
+      <c r="C121" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D121" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E121" s="19">
+        <v>42830</v>
+      </c>
+      <c r="F121" s="9"/>
+      <c r="G121" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="H121" s="19">
+        <v>42831</v>
+      </c>
+      <c r="I121" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="J121" s="9"/>
+    </row>
+    <row r="122" spans="1:10" s="20" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A122" s="32">
+        <v>84</v>
+      </c>
+      <c r="B122" s="49"/>
+      <c r="C122" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="D122" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E122" s="19">
         <v>42857</v>
       </c>
-      <c r="F121" s="12"/>
-      <c r="G121" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="H121" s="14">
+      <c r="F122" s="9"/>
+      <c r="G122" s="9"/>
+      <c r="H122" s="19"/>
+      <c r="I122" s="9"/>
+      <c r="J122" s="9"/>
+    </row>
+    <row r="123" spans="1:10" s="20" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A123" s="32">
+        <v>85</v>
+      </c>
+      <c r="B123" s="49"/>
+      <c r="C123" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="D123" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E123" s="19">
         <v>42857</v>
       </c>
-      <c r="I121" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="J121" s="12"/>
-    </row>
-    <row r="122" spans="1:10" s="28" customFormat="1" ht="22.15" customHeight="1">
-      <c r="A122" s="32"/>
-      <c r="B122" s="50"/>
-      <c r="C122" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="D122" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E122" s="14">
-        <v>42892</v>
-      </c>
-      <c r="F122" s="12"/>
-      <c r="G122" s="12" t="s">
-        <v>234</v>
-      </c>
-      <c r="H122" s="14">
-        <v>42898</v>
-      </c>
-      <c r="I122" s="12" t="s">
-        <v>236</v>
-      </c>
-      <c r="J122" s="12"/>
-    </row>
-    <row r="123" spans="1:10" s="28" customFormat="1" ht="22.15" customHeight="1">
-      <c r="A123" s="32"/>
-      <c r="B123" s="50"/>
-      <c r="C123" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="D123" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E123" s="14">
-        <v>42892</v>
-      </c>
-      <c r="F123" s="12"/>
-      <c r="G123" s="12"/>
-      <c r="H123" s="14"/>
-      <c r="I123" s="12"/>
-      <c r="J123" s="12"/>
-    </row>
-    <row r="124" spans="1:10" s="28" customFormat="1" ht="22.15" customHeight="1">
-      <c r="A124" s="32"/>
-      <c r="B124" s="50"/>
-      <c r="C124" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="D124" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E124" s="14">
-        <v>42892</v>
-      </c>
-      <c r="F124" s="12"/>
-      <c r="G124" s="12" t="s">
-        <v>234</v>
-      </c>
-      <c r="H124" s="14">
-        <v>42898</v>
-      </c>
-      <c r="I124" s="12" t="s">
-        <v>236</v>
-      </c>
-      <c r="J124" s="12"/>
-    </row>
-    <row r="125" spans="1:10" s="28" customFormat="1" ht="27">
+      <c r="F123" s="9"/>
+      <c r="G123" s="9"/>
+      <c r="H123" s="19"/>
+      <c r="I123" s="9"/>
+      <c r="J123" s="9"/>
+    </row>
+    <row r="124" spans="1:10" s="20" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A124" s="32">
+        <v>86</v>
+      </c>
+      <c r="B124" s="49"/>
+      <c r="C124" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="D124" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E124" s="19">
+        <v>42857</v>
+      </c>
+      <c r="F124" s="9"/>
+      <c r="G124" s="9"/>
+      <c r="H124" s="19"/>
+      <c r="I124" s="9"/>
+      <c r="J124" s="9"/>
+    </row>
+    <row r="125" spans="1:10" s="20" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A125" s="32"/>
-      <c r="B125" s="50"/>
-      <c r="C125" s="4" t="s">
-        <v>204</v>
+      <c r="B125" s="49"/>
+      <c r="C125" s="8" t="s">
+        <v>188</v>
       </c>
       <c r="D125" s="12" t="s">
         <v>10</v>
@@ -4768,771 +4737,893 @@
       <c r="E125" s="14">
         <v>42892</v>
       </c>
-      <c r="F125" s="12"/>
-      <c r="G125" s="12"/>
-      <c r="H125" s="14"/>
-      <c r="I125" s="12"/>
-      <c r="J125" s="12"/>
-    </row>
-    <row r="126" spans="1:10" s="28" customFormat="1" ht="29.45" customHeight="1">
+      <c r="F125" s="9"/>
+      <c r="G125" s="9"/>
+      <c r="H125" s="19"/>
+      <c r="I125" s="9"/>
+      <c r="J125" s="9"/>
+    </row>
+    <row r="126" spans="1:10" s="20" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A126" s="32"/>
-      <c r="B126" s="50"/>
-      <c r="C126" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="D126" s="12"/>
-      <c r="E126" s="14"/>
-      <c r="F126" s="12"/>
-      <c r="G126" s="12" t="s">
-        <v>234</v>
-      </c>
-      <c r="H126" s="14">
-        <v>42898</v>
-      </c>
-      <c r="I126" s="12" t="s">
-        <v>236</v>
-      </c>
-      <c r="J126" s="12"/>
-    </row>
-    <row r="127" spans="1:10" ht="27">
-      <c r="A127" s="32">
-        <v>91</v>
-      </c>
-      <c r="B127" s="51"/>
-      <c r="C127" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="D127" s="24" t="s">
+      <c r="B126" s="49"/>
+      <c r="C126" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="D126" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E126" s="14">
+        <v>42892</v>
+      </c>
+      <c r="F126" s="9"/>
+      <c r="G126" s="9"/>
+      <c r="H126" s="19"/>
+      <c r="I126" s="9"/>
+      <c r="J126" s="9"/>
+    </row>
+    <row r="127" spans="1:10" s="20" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A127" s="32"/>
+      <c r="B127" s="49"/>
+      <c r="C127" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="D127" s="12" t="s">
         <v>10</v>
       </c>
       <c r="E127" s="14">
         <v>42892</v>
       </c>
-      <c r="F127" s="12"/>
-      <c r="G127" s="12"/>
-      <c r="H127" s="14"/>
-      <c r="I127" s="12"/>
-      <c r="J127" s="12"/>
-    </row>
-    <row r="128" spans="1:10" ht="22.15" customHeight="1">
-      <c r="A128" s="32">
-        <v>92</v>
-      </c>
-      <c r="B128" s="45" t="s">
-        <v>99</v>
-      </c>
-      <c r="C128" s="4" t="s">
-        <v>100</v>
+      <c r="F127" s="9"/>
+      <c r="G127" s="9"/>
+      <c r="H127" s="19"/>
+      <c r="I127" s="9"/>
+      <c r="J127" s="9"/>
+    </row>
+    <row r="128" spans="1:10" s="20" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A128" s="32"/>
+      <c r="B128" s="49"/>
+      <c r="C128" s="8" t="s">
+        <v>209</v>
       </c>
       <c r="D128" s="12" t="s">
         <v>10</v>
       </c>
       <c r="E128" s="14">
-        <v>42857</v>
-      </c>
-      <c r="F128" s="12"/>
-      <c r="G128" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="H128" s="14">
-        <v>42857</v>
-      </c>
-      <c r="I128" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="J128" s="12"/>
-    </row>
-    <row r="129" spans="1:10" ht="22.15" customHeight="1">
+        <v>42892</v>
+      </c>
+      <c r="F128" s="9"/>
+      <c r="G128" s="9"/>
+      <c r="H128" s="19"/>
+      <c r="I128" s="9"/>
+      <c r="J128" s="9"/>
+    </row>
+    <row r="129" spans="1:10" s="20" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A129" s="32">
-        <v>93</v>
-      </c>
-      <c r="B129" s="45"/>
-      <c r="C129" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="D129" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E129" s="14">
-        <v>42857</v>
-      </c>
-      <c r="F129" s="12"/>
-      <c r="G129" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="H129" s="14">
-        <v>42857</v>
-      </c>
-      <c r="I129" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="J129" s="12"/>
-    </row>
-    <row r="130" spans="1:10" ht="22.15" customHeight="1">
+        <v>87</v>
+      </c>
+      <c r="B129" s="49"/>
+      <c r="C129" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="D129" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E129" s="19">
+        <v>42826</v>
+      </c>
+      <c r="F129" s="9"/>
+      <c r="G129" s="9"/>
+      <c r="H129" s="9"/>
+      <c r="I129" s="9"/>
+      <c r="J129" s="9"/>
+    </row>
+    <row r="130" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A130" s="32">
-        <v>94</v>
-      </c>
-      <c r="B130" s="45"/>
+        <v>88</v>
+      </c>
+      <c r="B130" s="48" t="s">
+        <v>87</v>
+      </c>
       <c r="C130" s="4" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="D130" s="12" t="s">
         <v>10</v>
       </c>
       <c r="E130" s="14">
-        <v>42857</v>
+        <v>42837</v>
       </c>
       <c r="F130" s="12"/>
       <c r="G130" s="12" t="s">
-        <v>103</v>
+        <v>56</v>
       </c>
       <c r="H130" s="14">
+        <v>42839</v>
+      </c>
+      <c r="I130" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="J130" s="12"/>
+    </row>
+    <row r="131" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A131" s="32">
+        <v>89</v>
+      </c>
+      <c r="B131" s="48"/>
+      <c r="C131" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D131" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E131" s="14">
         <v>42857</v>
       </c>
-      <c r="I130" s="12" t="s">
+      <c r="F131" s="12"/>
+      <c r="G131" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="H131" s="14">
+        <v>42882</v>
+      </c>
+      <c r="I131" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="J131" s="12"/>
+    </row>
+    <row r="132" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A132" s="32">
+        <v>90</v>
+      </c>
+      <c r="B132" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="C132" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D132" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E132" s="14">
+        <v>42857</v>
+      </c>
+      <c r="F132" s="12"/>
+      <c r="G132" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="H132" s="14">
+        <v>42857</v>
+      </c>
+      <c r="I132" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="J130" s="12"/>
-    </row>
-    <row r="131" spans="1:10" s="28" customFormat="1" ht="40.9" customHeight="1">
-      <c r="A131" s="32"/>
-      <c r="B131" s="41" t="s">
-        <v>198</v>
-      </c>
-      <c r="C131" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="D131" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E131" s="14">
-        <v>42892</v>
-      </c>
-      <c r="F131" s="12"/>
-      <c r="G131" s="12"/>
-      <c r="H131" s="14"/>
-      <c r="I131" s="12"/>
-      <c r="J131" s="12"/>
-    </row>
-    <row r="132" spans="1:10" ht="27">
-      <c r="A132" s="32">
-        <v>95</v>
-      </c>
-      <c r="B132" s="49" t="s">
-        <v>111</v>
-      </c>
-      <c r="C132" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="D132" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E132" s="14">
-        <v>42863</v>
-      </c>
-      <c r="F132" s="12"/>
-      <c r="G132" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="H132" s="15">
-        <v>42881</v>
-      </c>
-      <c r="I132" s="12" t="s">
-        <v>146</v>
-      </c>
       <c r="J132" s="12"/>
     </row>
-    <row r="133" spans="1:10" s="28" customFormat="1" ht="13.5">
+    <row r="133" spans="1:10" s="28" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A133" s="32"/>
-      <c r="B133" s="50"/>
+      <c r="B133" s="46"/>
       <c r="C133" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="D133" s="24" t="s">
+        <v>204</v>
+      </c>
+      <c r="D133" s="12" t="s">
         <v>10</v>
       </c>
       <c r="E133" s="14">
         <v>42892</v>
       </c>
       <c r="F133" s="12"/>
-      <c r="G133" s="29"/>
-      <c r="H133" s="33"/>
-      <c r="I133" s="12"/>
+      <c r="G133" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="H133" s="14">
+        <v>42898</v>
+      </c>
+      <c r="I133" s="12" t="s">
+        <v>234</v>
+      </c>
       <c r="J133" s="12"/>
     </row>
-    <row r="134" spans="1:10" ht="27">
-      <c r="A134" s="32">
-        <v>96</v>
-      </c>
-      <c r="B134" s="50"/>
+    <row r="134" spans="1:10" s="28" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A134" s="32"/>
+      <c r="B134" s="46"/>
       <c r="C134" s="4" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="D134" s="12" t="s">
         <v>10</v>
       </c>
       <c r="E134" s="14">
-        <v>42886</v>
+        <v>42892</v>
       </c>
       <c r="F134" s="12"/>
-      <c r="G134" s="7"/>
-      <c r="H134" s="15"/>
+      <c r="G134" s="12"/>
+      <c r="H134" s="14"/>
       <c r="I134" s="12"/>
       <c r="J134" s="12"/>
     </row>
-    <row r="135" spans="1:10" s="28" customFormat="1" ht="27">
+    <row r="135" spans="1:10" s="28" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A135" s="32"/>
-      <c r="B135" s="50"/>
+      <c r="B135" s="46"/>
       <c r="C135" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="D135" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E135" s="14">
+        <v>42892</v>
+      </c>
+      <c r="F135" s="12"/>
+      <c r="G135" s="12" t="s">
         <v>232</v>
       </c>
-      <c r="D135" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="E135" s="14">
-        <v>42894</v>
-      </c>
-      <c r="F135" s="12"/>
-      <c r="G135" s="29"/>
-      <c r="H135" s="33"/>
-      <c r="I135" s="12"/>
+      <c r="H135" s="14">
+        <v>42898</v>
+      </c>
+      <c r="I135" s="12" t="s">
+        <v>234</v>
+      </c>
       <c r="J135" s="12"/>
     </row>
-    <row r="136" spans="1:10" ht="22.15" customHeight="1">
-      <c r="A136" s="32">
-        <v>97</v>
-      </c>
-      <c r="B136" s="50"/>
+    <row r="136" spans="1:10" s="28" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A136" s="32"/>
+      <c r="B136" s="46"/>
       <c r="C136" s="4" t="s">
-        <v>149</v>
+        <v>203</v>
       </c>
       <c r="D136" s="12" t="s">
         <v>10</v>
       </c>
       <c r="E136" s="14">
-        <v>42886</v>
+        <v>42892</v>
       </c>
       <c r="F136" s="12"/>
-      <c r="G136" s="7"/>
-      <c r="H136" s="15"/>
+      <c r="G136" s="12"/>
+      <c r="H136" s="14"/>
       <c r="I136" s="12"/>
       <c r="J136" s="12"/>
     </row>
-    <row r="137" spans="1:10" s="28" customFormat="1" ht="22.15" customHeight="1">
-      <c r="A137" s="46" t="s">
-        <v>196</v>
-      </c>
-      <c r="B137" s="47"/>
-      <c r="C137" s="47"/>
-      <c r="D137" s="47"/>
-      <c r="E137" s="47"/>
-      <c r="F137" s="47"/>
-      <c r="G137" s="47"/>
-      <c r="H137" s="47"/>
-      <c r="I137" s="47"/>
-      <c r="J137" s="48"/>
-    </row>
-    <row r="138" spans="1:10" ht="40.5">
+    <row r="137" spans="1:10" s="28" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A137" s="32"/>
+      <c r="B137" s="46"/>
+      <c r="C137" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D137" s="12"/>
+      <c r="E137" s="14"/>
+      <c r="F137" s="12"/>
+      <c r="G137" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="H137" s="14">
+        <v>42898</v>
+      </c>
+      <c r="I137" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="J137" s="12"/>
+    </row>
+    <row r="138" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A138" s="32">
-        <v>98</v>
-      </c>
-      <c r="B138" s="45" t="s">
-        <v>113</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="B138" s="47"/>
       <c r="C138" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="D138" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="D138" s="24" t="s">
         <v>10</v>
       </c>
       <c r="E138" s="14">
-        <v>42863</v>
+        <v>42892</v>
       </c>
       <c r="F138" s="12"/>
-      <c r="G138" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="H138" s="14">
-        <v>42141</v>
-      </c>
-      <c r="I138" s="12" t="s">
-        <v>145</v>
-      </c>
+      <c r="G138" s="12"/>
+      <c r="H138" s="14"/>
+      <c r="I138" s="12"/>
       <c r="J138" s="12"/>
     </row>
-    <row r="139" spans="1:10" ht="22.15" customHeight="1">
+    <row r="139" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A139" s="32">
+        <v>92</v>
+      </c>
+      <c r="B139" s="48" t="s">
         <v>99</v>
       </c>
-      <c r="B139" s="45"/>
       <c r="C139" s="4" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="D139" s="12" t="s">
         <v>10</v>
       </c>
       <c r="E139" s="14">
-        <v>42863</v>
+        <v>42857</v>
       </c>
       <c r="F139" s="12"/>
       <c r="G139" s="12" t="s">
-        <v>123</v>
+        <v>103</v>
       </c>
       <c r="H139" s="14">
-        <v>42141</v>
+        <v>42857</v>
       </c>
       <c r="I139" s="12" t="s">
-        <v>124</v>
+        <v>76</v>
       </c>
       <c r="J139" s="12"/>
     </row>
-    <row r="140" spans="1:10" ht="40.5">
+    <row r="140" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A140" s="32">
-        <v>100</v>
-      </c>
-      <c r="B140" s="45" t="s">
-        <v>114</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="B140" s="48"/>
       <c r="C140" s="4" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="D140" s="12" t="s">
         <v>10</v>
       </c>
       <c r="E140" s="14">
-        <v>42863</v>
+        <v>42857</v>
       </c>
       <c r="F140" s="12"/>
       <c r="G140" s="12" t="s">
-        <v>123</v>
+        <v>103</v>
       </c>
       <c r="H140" s="14">
-        <v>42141</v>
+        <v>42857</v>
       </c>
       <c r="I140" s="12" t="s">
-        <v>124</v>
+        <v>76</v>
       </c>
       <c r="J140" s="12"/>
     </row>
-    <row r="141" spans="1:10" ht="22.15" customHeight="1">
+    <row r="141" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A141" s="32">
+        <v>94</v>
+      </c>
+      <c r="B141" s="48"/>
+      <c r="C141" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="B141" s="45"/>
-      <c r="C141" s="4" t="s">
-        <v>117</v>
-      </c>
       <c r="D141" s="12" t="s">
         <v>10</v>
       </c>
       <c r="E141" s="14">
-        <v>42863</v>
+        <v>42857</v>
       </c>
       <c r="F141" s="12"/>
       <c r="G141" s="12" t="s">
-        <v>123</v>
+        <v>103</v>
       </c>
       <c r="H141" s="14">
-        <v>42141</v>
+        <v>42857</v>
       </c>
       <c r="I141" s="12" t="s">
-        <v>124</v>
+        <v>76</v>
       </c>
       <c r="J141" s="12"/>
     </row>
-    <row r="142" spans="1:10" ht="41.25" customHeight="1">
-      <c r="A142" s="32">
-        <v>102</v>
-      </c>
-      <c r="B142" s="49" t="s">
-        <v>118</v>
+    <row r="142" spans="1:10" s="28" customFormat="1" ht="40.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A142" s="32"/>
+      <c r="B142" s="41" t="s">
+        <v>197</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="D142" s="12" t="s">
         <v>10</v>
       </c>
       <c r="E142" s="14">
+        <v>42892</v>
+      </c>
+      <c r="F142" s="12"/>
+      <c r="G142" s="12"/>
+      <c r="H142" s="14"/>
+      <c r="I142" s="12"/>
+      <c r="J142" s="12"/>
+    </row>
+    <row r="143" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+      <c r="A143" s="32">
+        <v>95</v>
+      </c>
+      <c r="B143" s="45" t="s">
+        <v>111</v>
+      </c>
+      <c r="C143" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D143" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E143" s="14">
         <v>42863</v>
       </c>
-      <c r="F142" s="12"/>
-      <c r="G142" s="7" t="s">
+      <c r="F143" s="12"/>
+      <c r="G143" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="H142" s="15">
-        <v>42882</v>
-      </c>
-      <c r="I142" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="J142" s="12"/>
-    </row>
-    <row r="143" spans="1:10" s="26" customFormat="1" ht="27">
-      <c r="A143" s="32">
-        <v>103</v>
-      </c>
-      <c r="B143" s="51"/>
-      <c r="C143" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="D143" s="24" t="s">
-        <v>167</v>
-      </c>
-      <c r="E143" s="25">
-        <v>42887</v>
-      </c>
-      <c r="F143" s="12"/>
-      <c r="G143" s="24"/>
-      <c r="H143" s="27"/>
-      <c r="I143" s="11"/>
-      <c r="J143" s="11"/>
-    </row>
-    <row r="144" spans="1:10" ht="42">
-      <c r="A144" s="32">
-        <v>104</v>
-      </c>
-      <c r="B144" s="22" t="s">
-        <v>122</v>
-      </c>
+      <c r="H143" s="15">
+        <v>42881</v>
+      </c>
+      <c r="I143" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="J143" s="12"/>
+    </row>
+    <row r="144" spans="1:10" s="28" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A144" s="32"/>
+      <c r="B144" s="46"/>
       <c r="C144" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="D144" s="12" t="s">
-        <v>120</v>
+        <v>208</v>
+      </c>
+      <c r="D144" s="24" t="s">
+        <v>10</v>
       </c>
       <c r="E144" s="14">
-        <v>42864</v>
+        <v>42892</v>
       </c>
       <c r="F144" s="12"/>
-      <c r="G144" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="H144" s="14">
-        <v>42151</v>
-      </c>
-      <c r="I144" s="12" t="s">
-        <v>124</v>
-      </c>
+      <c r="G144" s="29"/>
+      <c r="H144" s="33"/>
+      <c r="I144" s="12"/>
       <c r="J144" s="12"/>
     </row>
-    <row r="145" spans="1:10" ht="22.15" customHeight="1">
+    <row r="145" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A145" s="32">
-        <v>105</v>
-      </c>
-      <c r="B145" s="49" t="s">
-        <v>132</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="B145" s="46"/>
       <c r="C145" s="4" t="s">
-        <v>133</v>
+        <v>207</v>
       </c>
       <c r="D145" s="12" t="s">
-        <v>134</v>
+        <v>10</v>
       </c>
       <c r="E145" s="14">
-        <v>42880</v>
+        <v>42886</v>
       </c>
       <c r="F145" s="12"/>
-      <c r="G145" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="H145" s="14">
-        <v>42151</v>
-      </c>
-      <c r="I145" s="12" t="s">
-        <v>142</v>
-      </c>
+      <c r="G145" s="7"/>
+      <c r="H145" s="15"/>
+      <c r="I145" s="12"/>
       <c r="J145" s="12"/>
     </row>
-    <row r="146" spans="1:10" s="28" customFormat="1" ht="22.15" customHeight="1">
+    <row r="146" spans="1:10" s="28" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A146" s="32"/>
-      <c r="B146" s="50"/>
+      <c r="B146" s="46"/>
       <c r="C146" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="D146" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="D146" s="24" t="s">
         <v>10</v>
       </c>
       <c r="E146" s="14">
         <v>42894</v>
       </c>
       <c r="F146" s="12"/>
-      <c r="G146" s="12" t="s">
-        <v>234</v>
-      </c>
-      <c r="H146" s="14">
+      <c r="G146" s="29"/>
+      <c r="H146" s="33"/>
+      <c r="I146" s="12"/>
+      <c r="J146" s="12"/>
+    </row>
+    <row r="147" spans="1:10" s="28" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A147" s="32"/>
+      <c r="B147" s="46"/>
+      <c r="C147" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D147" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E147" s="14">
+        <v>42886</v>
+      </c>
+      <c r="F147" s="12"/>
+      <c r="G147" s="29"/>
+      <c r="H147" s="33"/>
+      <c r="I147" s="12"/>
+      <c r="J147" s="12"/>
+    </row>
+    <row r="148" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A148" s="32">
+        <v>97</v>
+      </c>
+      <c r="B148" s="46"/>
+      <c r="C148" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="D148" s="12"/>
+      <c r="E148" s="12"/>
+      <c r="F148" s="12"/>
+      <c r="G148" s="7"/>
+      <c r="H148" s="15"/>
+      <c r="I148" s="12"/>
+      <c r="J148" s="12"/>
+    </row>
+    <row r="149" spans="1:10" s="28" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A149" s="50" t="s">
+        <v>195</v>
+      </c>
+      <c r="B149" s="51"/>
+      <c r="C149" s="51"/>
+      <c r="D149" s="51"/>
+      <c r="E149" s="51"/>
+      <c r="F149" s="51"/>
+      <c r="G149" s="51"/>
+      <c r="H149" s="51"/>
+      <c r="I149" s="51"/>
+      <c r="J149" s="52"/>
+    </row>
+    <row r="150" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A150" s="32">
+        <v>98</v>
+      </c>
+      <c r="B150" s="48" t="s">
+        <v>113</v>
+      </c>
+      <c r="C150" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D150" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E150" s="14">
+        <v>42863</v>
+      </c>
+      <c r="F150" s="12"/>
+      <c r="G150" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="H150" s="14">
+        <v>42141</v>
+      </c>
+      <c r="I150" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="J150" s="12"/>
+    </row>
+    <row r="151" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A151" s="32">
+        <v>99</v>
+      </c>
+      <c r="B151" s="48"/>
+      <c r="C151" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D151" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E151" s="14">
+        <v>42863</v>
+      </c>
+      <c r="F151" s="12"/>
+      <c r="G151" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="H151" s="14">
+        <v>42141</v>
+      </c>
+      <c r="I151" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="J151" s="12"/>
+    </row>
+    <row r="152" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A152" s="32">
+        <v>100</v>
+      </c>
+      <c r="B152" s="48" t="s">
+        <v>114</v>
+      </c>
+      <c r="C152" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D152" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E152" s="14">
+        <v>42863</v>
+      </c>
+      <c r="F152" s="12"/>
+      <c r="G152" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="H152" s="14">
+        <v>42141</v>
+      </c>
+      <c r="I152" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="J152" s="12"/>
+    </row>
+    <row r="153" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A153" s="32">
+        <v>101</v>
+      </c>
+      <c r="B153" s="48"/>
+      <c r="C153" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D153" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E153" s="14">
+        <v>42863</v>
+      </c>
+      <c r="F153" s="12"/>
+      <c r="G153" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="H153" s="14">
+        <v>42141</v>
+      </c>
+      <c r="I153" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="J153" s="12"/>
+    </row>
+    <row r="154" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A154" s="32">
+        <v>102</v>
+      </c>
+      <c r="B154" s="45" t="s">
+        <v>118</v>
+      </c>
+      <c r="C154" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="D154" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E154" s="14">
+        <v>42863</v>
+      </c>
+      <c r="F154" s="12"/>
+      <c r="G154" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H154" s="15">
+        <v>42882</v>
+      </c>
+      <c r="I154" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="J154" s="12"/>
+    </row>
+    <row r="155" spans="1:10" s="26" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A155" s="32">
+        <v>103</v>
+      </c>
+      <c r="B155" s="47"/>
+      <c r="C155" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="D155" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="E155" s="25">
+        <v>42887</v>
+      </c>
+      <c r="F155" s="12"/>
+      <c r="G155" s="24"/>
+      <c r="H155" s="27"/>
+      <c r="I155" s="11"/>
+      <c r="J155" s="11"/>
+    </row>
+    <row r="156" spans="1:10" ht="42" x14ac:dyDescent="0.15">
+      <c r="A156" s="32">
+        <v>104</v>
+      </c>
+      <c r="B156" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="C156" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="D156" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="E156" s="14">
+        <v>42864</v>
+      </c>
+      <c r="F156" s="12"/>
+      <c r="G156" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="H156" s="14">
+        <v>42151</v>
+      </c>
+      <c r="I156" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="J156" s="12"/>
+    </row>
+    <row r="157" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A157" s="32">
+        <v>105</v>
+      </c>
+      <c r="B157" s="45" t="s">
+        <v>132</v>
+      </c>
+      <c r="C157" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="D157" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="E157" s="14">
+        <v>42880</v>
+      </c>
+      <c r="F157" s="12"/>
+      <c r="G157" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="H157" s="14">
+        <v>42151</v>
+      </c>
+      <c r="I157" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="J157" s="12"/>
+    </row>
+    <row r="158" spans="1:10" s="28" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A158" s="32"/>
+      <c r="B158" s="46"/>
+      <c r="C158" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="D158" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E158" s="14">
+        <v>42894</v>
+      </c>
+      <c r="F158" s="12"/>
+      <c r="G158" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="H158" s="14">
         <v>42167</v>
       </c>
-      <c r="I146" s="12" t="s">
-        <v>235</v>
-      </c>
-      <c r="J146" s="12"/>
-    </row>
-    <row r="147" spans="1:10" ht="22.15" customHeight="1">
-      <c r="A147" s="32">
+      <c r="I158" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="J158" s="12"/>
+    </row>
+    <row r="159" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A159" s="32">
         <v>106</v>
       </c>
-      <c r="B147" s="50"/>
-      <c r="C147" s="4" t="s">
+      <c r="B159" s="46"/>
+      <c r="C159" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="D147" s="12" t="s">
+      <c r="D159" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="E147" s="14">
+      <c r="E159" s="14">
         <v>42880</v>
       </c>
-      <c r="F147" s="12"/>
-      <c r="G147" s="12" t="s">
+      <c r="F159" s="12"/>
+      <c r="G159" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="H147" s="14">
+      <c r="H159" s="14">
         <v>42151</v>
       </c>
-      <c r="I147" s="12" t="s">
+      <c r="I159" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="J147" s="12"/>
-    </row>
-    <row r="148" spans="1:10" ht="27">
-      <c r="A148" s="32">
-        <v>107</v>
-      </c>
-      <c r="B148" s="51"/>
-      <c r="C148" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="D148" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="E148" s="14">
-        <v>42880</v>
-      </c>
-      <c r="F148" s="12"/>
-      <c r="G148" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="H148" s="14">
-        <v>42151</v>
-      </c>
-      <c r="I148" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="J148" s="12"/>
-    </row>
-    <row r="149" spans="1:10" s="26" customFormat="1" ht="27">
-      <c r="A149" s="32">
-        <v>108</v>
-      </c>
-      <c r="B149" s="11" t="s">
-        <v>170</v>
-      </c>
-      <c r="C149" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="D149" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="E149" s="25">
-        <v>42888</v>
-      </c>
-      <c r="F149" s="12"/>
-      <c r="G149" s="11"/>
-      <c r="H149" s="11"/>
-      <c r="I149" s="11"/>
-      <c r="J149" s="11"/>
-    </row>
-    <row r="150" spans="1:10" ht="27">
-      <c r="A150" s="32">
-        <v>109</v>
-      </c>
-      <c r="B150" s="31" t="s">
-        <v>197</v>
-      </c>
-      <c r="C150" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="D150" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="E150" s="25">
-        <v>42888</v>
-      </c>
-      <c r="F150" s="12"/>
-      <c r="G150" s="12"/>
-      <c r="H150" s="12"/>
-      <c r="I150" s="12"/>
-      <c r="J150" s="12"/>
-    </row>
-    <row r="151" spans="1:10" ht="22.15" customHeight="1">
-      <c r="A151" s="12"/>
-      <c r="B151" s="22"/>
-      <c r="C151" s="4"/>
-      <c r="D151" s="12"/>
-      <c r="E151" s="12"/>
-      <c r="F151" s="12"/>
-      <c r="G151" s="12"/>
-      <c r="H151" s="12"/>
-      <c r="I151" s="12"/>
-      <c r="J151" s="12"/>
-    </row>
-    <row r="152" spans="1:10" ht="22.15" customHeight="1">
-      <c r="A152" s="12"/>
-      <c r="B152" s="22"/>
-      <c r="C152" s="4"/>
-      <c r="D152" s="12"/>
-      <c r="E152" s="12"/>
-      <c r="F152" s="12"/>
-      <c r="G152" s="12"/>
-      <c r="H152" s="12"/>
-      <c r="I152" s="12"/>
-      <c r="J152" s="12"/>
-    </row>
-    <row r="153" spans="1:10" ht="22.15" customHeight="1">
-      <c r="A153" s="12"/>
-      <c r="B153" s="22"/>
-      <c r="C153" s="4"/>
-      <c r="D153" s="12"/>
-      <c r="E153" s="12"/>
-      <c r="F153" s="12"/>
-      <c r="G153" s="12"/>
-      <c r="H153" s="12"/>
-      <c r="I153" s="12"/>
-      <c r="J153" s="12"/>
-    </row>
-    <row r="154" spans="1:10" ht="22.15" customHeight="1">
-      <c r="A154" s="12"/>
-      <c r="B154" s="22"/>
-      <c r="C154" s="4"/>
-      <c r="D154" s="12"/>
-      <c r="E154" s="12"/>
-      <c r="F154" s="12"/>
-      <c r="G154" s="12"/>
-      <c r="H154" s="12"/>
-      <c r="I154" s="12"/>
-      <c r="J154" s="12"/>
-    </row>
-    <row r="155" spans="1:10" ht="22.15" customHeight="1">
-      <c r="A155" s="12"/>
-      <c r="B155" s="22"/>
-      <c r="C155" s="4"/>
-      <c r="D155" s="12"/>
-      <c r="E155" s="12"/>
-      <c r="F155" s="12"/>
-      <c r="G155" s="12"/>
-      <c r="H155" s="12"/>
-      <c r="I155" s="12"/>
-      <c r="J155" s="12"/>
-    </row>
-    <row r="156" spans="1:10" ht="22.15" customHeight="1">
-      <c r="A156" s="12"/>
-      <c r="B156" s="22"/>
-      <c r="C156" s="4"/>
-      <c r="D156" s="12"/>
-      <c r="E156" s="12"/>
-      <c r="F156" s="12"/>
-      <c r="G156" s="12"/>
-      <c r="H156" s="12"/>
-      <c r="I156" s="12"/>
-      <c r="J156" s="12"/>
-    </row>
-    <row r="157" spans="1:10" ht="22.15" customHeight="1">
-      <c r="A157" s="12"/>
-      <c r="B157" s="22"/>
-      <c r="C157" s="4"/>
-      <c r="D157" s="12"/>
-      <c r="E157" s="12"/>
-      <c r="F157" s="12"/>
-      <c r="G157" s="12"/>
-      <c r="H157" s="12"/>
-      <c r="I157" s="12"/>
-      <c r="J157" s="12"/>
-    </row>
-    <row r="158" spans="1:10" ht="22.15" customHeight="1">
-      <c r="A158" s="12"/>
-      <c r="B158" s="22"/>
-      <c r="C158" s="4"/>
-      <c r="D158" s="12"/>
-      <c r="E158" s="12"/>
-      <c r="F158" s="12"/>
-      <c r="G158" s="12"/>
-      <c r="H158" s="12"/>
-      <c r="I158" s="12"/>
-      <c r="J158" s="12"/>
-    </row>
-    <row r="159" spans="1:10" ht="22.15" customHeight="1">
-      <c r="A159" s="12"/>
-      <c r="B159" s="22"/>
-      <c r="C159" s="4"/>
-      <c r="D159" s="12"/>
-      <c r="E159" s="12"/>
-      <c r="F159" s="12"/>
-      <c r="G159" s="12"/>
-      <c r="H159" s="12"/>
-      <c r="I159" s="12"/>
       <c r="J159" s="12"/>
     </row>
-    <row r="160" spans="1:10" ht="22.15" customHeight="1">
-      <c r="A160" s="12"/>
-      <c r="B160" s="22"/>
-      <c r="C160" s="4"/>
-      <c r="D160" s="12"/>
-      <c r="E160" s="12"/>
+    <row r="160" spans="1:10" s="28" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A160" s="32"/>
+      <c r="B160" s="46"/>
+      <c r="C160" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="D160" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E160" s="14">
+        <v>42899</v>
+      </c>
       <c r="F160" s="12"/>
       <c r="G160" s="12"/>
-      <c r="H160" s="12"/>
+      <c r="H160" s="14"/>
       <c r="I160" s="12"/>
       <c r="J160" s="12"/>
     </row>
-    <row r="161" spans="1:10" ht="22.15" customHeight="1">
-      <c r="A161" s="12"/>
-      <c r="B161" s="22"/>
-      <c r="C161" s="4"/>
-      <c r="D161" s="12"/>
-      <c r="E161" s="12"/>
+    <row r="161" spans="1:10" s="28" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A161" s="32"/>
+      <c r="B161" s="46"/>
+      <c r="C161" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="D161" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E161" s="14">
+        <v>42899</v>
+      </c>
       <c r="F161" s="12"/>
       <c r="G161" s="12"/>
-      <c r="H161" s="12"/>
+      <c r="H161" s="14"/>
       <c r="I161" s="12"/>
       <c r="J161" s="12"/>
     </row>
-    <row r="162" spans="1:10" ht="22.15" customHeight="1">
-      <c r="A162" s="12"/>
-      <c r="B162" s="22"/>
-      <c r="C162" s="4"/>
-      <c r="D162" s="12"/>
-      <c r="E162" s="12"/>
+    <row r="162" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+      <c r="A162" s="32">
+        <v>107</v>
+      </c>
+      <c r="B162" s="47"/>
+      <c r="C162" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="D162" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="E162" s="14">
+        <v>42880</v>
+      </c>
       <c r="F162" s="12"/>
-      <c r="G162" s="12"/>
-      <c r="H162" s="12"/>
-      <c r="I162" s="12"/>
+      <c r="G162" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="H162" s="14">
+        <v>42151</v>
+      </c>
+      <c r="I162" s="12" t="s">
+        <v>142</v>
+      </c>
       <c r="J162" s="12"/>
     </row>
-    <row r="163" spans="1:10" ht="22.15" customHeight="1">
-      <c r="A163" s="12"/>
-      <c r="B163" s="22"/>
-      <c r="C163" s="4"/>
-      <c r="D163" s="12"/>
-      <c r="E163" s="12"/>
+    <row r="163" spans="1:10" s="26" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A163" s="32">
+        <v>108</v>
+      </c>
+      <c r="B163" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="C163" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="D163" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E163" s="25">
+        <v>42888</v>
+      </c>
       <c r="F163" s="12"/>
-      <c r="G163" s="12"/>
-      <c r="H163" s="12"/>
-      <c r="I163" s="12"/>
-      <c r="J163" s="12"/>
-    </row>
-    <row r="164" spans="1:10" ht="22.15" customHeight="1">
-      <c r="A164" s="12"/>
-      <c r="B164" s="22"/>
-      <c r="C164" s="4"/>
-      <c r="D164" s="12"/>
-      <c r="E164" s="12"/>
+      <c r="G163" s="11"/>
+      <c r="H163" s="11"/>
+      <c r="I163" s="11"/>
+      <c r="J163" s="11"/>
+    </row>
+    <row r="164" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+      <c r="A164" s="32">
+        <v>109</v>
+      </c>
+      <c r="B164" s="31" t="s">
+        <v>196</v>
+      </c>
+      <c r="C164" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="D164" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E164" s="25">
+        <v>42888</v>
+      </c>
       <c r="F164" s="12"/>
       <c r="G164" s="12"/>
       <c r="H164" s="12"/>
       <c r="I164" s="12"/>
       <c r="J164" s="12"/>
     </row>
-    <row r="165" spans="1:10" ht="22.15" customHeight="1">
+    <row r="165" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A165" s="12"/>
       <c r="B165" s="22"/>
       <c r="C165" s="4"/>
@@ -5544,7 +5635,7 @@
       <c r="I165" s="12"/>
       <c r="J165" s="12"/>
     </row>
-    <row r="166" spans="1:10" ht="22.15" customHeight="1">
+    <row r="166" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A166" s="12"/>
       <c r="B166" s="22"/>
       <c r="C166" s="4"/>
@@ -5556,7 +5647,7 @@
       <c r="I166" s="12"/>
       <c r="J166" s="12"/>
     </row>
-    <row r="167" spans="1:10" ht="22.15" customHeight="1">
+    <row r="167" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A167" s="12"/>
       <c r="B167" s="22"/>
       <c r="C167" s="4"/>
@@ -5568,7 +5659,7 @@
       <c r="I167" s="12"/>
       <c r="J167" s="12"/>
     </row>
-    <row r="168" spans="1:10" ht="22.15" customHeight="1">
+    <row r="168" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A168" s="12"/>
       <c r="B168" s="22"/>
       <c r="C168" s="4"/>
@@ -5580,7 +5671,7 @@
       <c r="I168" s="12"/>
       <c r="J168" s="12"/>
     </row>
-    <row r="169" spans="1:10" ht="22.15" customHeight="1">
+    <row r="169" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A169" s="12"/>
       <c r="B169" s="22"/>
       <c r="C169" s="4"/>
@@ -5592,7 +5683,7 @@
       <c r="I169" s="12"/>
       <c r="J169" s="12"/>
     </row>
-    <row r="170" spans="1:10" ht="22.15" customHeight="1">
+    <row r="170" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A170" s="12"/>
       <c r="B170" s="22"/>
       <c r="C170" s="4"/>
@@ -5604,7 +5695,7 @@
       <c r="I170" s="12"/>
       <c r="J170" s="12"/>
     </row>
-    <row r="171" spans="1:10" ht="22.15" customHeight="1">
+    <row r="171" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A171" s="12"/>
       <c r="B171" s="22"/>
       <c r="C171" s="4"/>
@@ -5616,7 +5707,7 @@
       <c r="I171" s="12"/>
       <c r="J171" s="12"/>
     </row>
-    <row r="172" spans="1:10" ht="22.15" customHeight="1">
+    <row r="172" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A172" s="12"/>
       <c r="B172" s="22"/>
       <c r="C172" s="4"/>
@@ -5628,7 +5719,7 @@
       <c r="I172" s="12"/>
       <c r="J172" s="12"/>
     </row>
-    <row r="173" spans="1:10" ht="22.15" customHeight="1">
+    <row r="173" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A173" s="12"/>
       <c r="B173" s="22"/>
       <c r="C173" s="4"/>
@@ -5640,7 +5731,7 @@
       <c r="I173" s="12"/>
       <c r="J173" s="12"/>
     </row>
-    <row r="174" spans="1:10" ht="22.15" customHeight="1">
+    <row r="174" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A174" s="12"/>
       <c r="B174" s="22"/>
       <c r="C174" s="4"/>
@@ -5652,7 +5743,7 @@
       <c r="I174" s="12"/>
       <c r="J174" s="12"/>
     </row>
-    <row r="175" spans="1:10" ht="22.15" customHeight="1">
+    <row r="175" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A175" s="12"/>
       <c r="B175" s="22"/>
       <c r="C175" s="4"/>
@@ -5664,7 +5755,7 @@
       <c r="I175" s="12"/>
       <c r="J175" s="12"/>
     </row>
-    <row r="176" spans="1:10" ht="22.15" customHeight="1">
+    <row r="176" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A176" s="12"/>
       <c r="B176" s="22"/>
       <c r="C176" s="4"/>
@@ -5676,7 +5767,7 @@
       <c r="I176" s="12"/>
       <c r="J176" s="12"/>
     </row>
-    <row r="177" spans="1:10" ht="22.15" customHeight="1">
+    <row r="177" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A177" s="12"/>
       <c r="B177" s="22"/>
       <c r="C177" s="4"/>
@@ -5688,7 +5779,7 @@
       <c r="I177" s="12"/>
       <c r="J177" s="12"/>
     </row>
-    <row r="178" spans="1:10" ht="22.15" customHeight="1">
+    <row r="178" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A178" s="12"/>
       <c r="B178" s="22"/>
       <c r="C178" s="4"/>
@@ -5700,7 +5791,7 @@
       <c r="I178" s="12"/>
       <c r="J178" s="12"/>
     </row>
-    <row r="179" spans="1:10" ht="22.15" customHeight="1">
+    <row r="179" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A179" s="12"/>
       <c r="B179" s="22"/>
       <c r="C179" s="4"/>
@@ -5712,7 +5803,7 @@
       <c r="I179" s="12"/>
       <c r="J179" s="12"/>
     </row>
-    <row r="180" spans="1:10" ht="22.15" customHeight="1">
+    <row r="180" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A180" s="12"/>
       <c r="B180" s="22"/>
       <c r="C180" s="4"/>
@@ -5724,7 +5815,7 @@
       <c r="I180" s="12"/>
       <c r="J180" s="12"/>
     </row>
-    <row r="181" spans="1:10" ht="22.15" customHeight="1">
+    <row r="181" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A181" s="12"/>
       <c r="B181" s="22"/>
       <c r="C181" s="4"/>
@@ -5736,7 +5827,7 @@
       <c r="I181" s="12"/>
       <c r="J181" s="12"/>
     </row>
-    <row r="182" spans="1:10" ht="22.15" customHeight="1">
+    <row r="182" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A182" s="12"/>
       <c r="B182" s="22"/>
       <c r="C182" s="4"/>
@@ -5748,7 +5839,7 @@
       <c r="I182" s="12"/>
       <c r="J182" s="12"/>
     </row>
-    <row r="183" spans="1:10" ht="22.15" customHeight="1">
+    <row r="183" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A183" s="12"/>
       <c r="B183" s="22"/>
       <c r="C183" s="4"/>
@@ -5760,7 +5851,7 @@
       <c r="I183" s="12"/>
       <c r="J183" s="12"/>
     </row>
-    <row r="184" spans="1:10" ht="22.15" customHeight="1">
+    <row r="184" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A184" s="12"/>
       <c r="B184" s="22"/>
       <c r="C184" s="4"/>
@@ -5772,7 +5863,7 @@
       <c r="I184" s="12"/>
       <c r="J184" s="12"/>
     </row>
-    <row r="185" spans="1:10" ht="22.15" customHeight="1">
+    <row r="185" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A185" s="12"/>
       <c r="B185" s="22"/>
       <c r="C185" s="4"/>
@@ -5784,7 +5875,7 @@
       <c r="I185" s="12"/>
       <c r="J185" s="12"/>
     </row>
-    <row r="186" spans="1:10" ht="22.15" customHeight="1">
+    <row r="186" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A186" s="12"/>
       <c r="B186" s="22"/>
       <c r="C186" s="4"/>
@@ -5796,7 +5887,7 @@
       <c r="I186" s="12"/>
       <c r="J186" s="12"/>
     </row>
-    <row r="187" spans="1:10" ht="22.15" customHeight="1">
+    <row r="187" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A187" s="12"/>
       <c r="B187" s="22"/>
       <c r="C187" s="4"/>
@@ -5808,7 +5899,7 @@
       <c r="I187" s="12"/>
       <c r="J187" s="12"/>
     </row>
-    <row r="188" spans="1:10" ht="22.15" customHeight="1">
+    <row r="188" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A188" s="12"/>
       <c r="B188" s="22"/>
       <c r="C188" s="4"/>
@@ -5820,7 +5911,7 @@
       <c r="I188" s="12"/>
       <c r="J188" s="12"/>
     </row>
-    <row r="189" spans="1:10" ht="22.15" customHeight="1">
+    <row r="189" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A189" s="12"/>
       <c r="B189" s="22"/>
       <c r="C189" s="4"/>
@@ -5832,7 +5923,7 @@
       <c r="I189" s="12"/>
       <c r="J189" s="12"/>
     </row>
-    <row r="190" spans="1:10" ht="22.15" customHeight="1">
+    <row r="190" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A190" s="12"/>
       <c r="B190" s="22"/>
       <c r="C190" s="4"/>
@@ -5844,7 +5935,7 @@
       <c r="I190" s="12"/>
       <c r="J190" s="12"/>
     </row>
-    <row r="191" spans="1:10" ht="22.15" customHeight="1">
+    <row r="191" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A191" s="12"/>
       <c r="B191" s="22"/>
       <c r="C191" s="4"/>
@@ -5856,7 +5947,7 @@
       <c r="I191" s="12"/>
       <c r="J191" s="12"/>
     </row>
-    <row r="192" spans="1:10" ht="22.15" customHeight="1">
+    <row r="192" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A192" s="12"/>
       <c r="B192" s="22"/>
       <c r="C192" s="4"/>
@@ -5868,7 +5959,7 @@
       <c r="I192" s="12"/>
       <c r="J192" s="12"/>
     </row>
-    <row r="193" spans="1:10" ht="22.15" customHeight="1">
+    <row r="193" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A193" s="12"/>
       <c r="B193" s="22"/>
       <c r="C193" s="4"/>
@@ -5880,7 +5971,7 @@
       <c r="I193" s="12"/>
       <c r="J193" s="12"/>
     </row>
-    <row r="194" spans="1:10" ht="22.15" customHeight="1">
+    <row r="194" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A194" s="12"/>
       <c r="B194" s="22"/>
       <c r="C194" s="4"/>
@@ -5892,7 +5983,7 @@
       <c r="I194" s="12"/>
       <c r="J194" s="12"/>
     </row>
-    <row r="195" spans="1:10" ht="22.15" customHeight="1">
+    <row r="195" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A195" s="12"/>
       <c r="B195" s="22"/>
       <c r="C195" s="4"/>
@@ -5904,7 +5995,7 @@
       <c r="I195" s="12"/>
       <c r="J195" s="12"/>
     </row>
-    <row r="196" spans="1:10" ht="22.15" customHeight="1">
+    <row r="196" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A196" s="12"/>
       <c r="B196" s="22"/>
       <c r="C196" s="4"/>
@@ -5916,7 +6007,7 @@
       <c r="I196" s="12"/>
       <c r="J196" s="12"/>
     </row>
-    <row r="197" spans="1:10" ht="22.15" customHeight="1">
+    <row r="197" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A197" s="12"/>
       <c r="B197" s="22"/>
       <c r="C197" s="4"/>
@@ -5928,7 +6019,7 @@
       <c r="I197" s="12"/>
       <c r="J197" s="12"/>
     </row>
-    <row r="198" spans="1:10" ht="22.15" customHeight="1">
+    <row r="198" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A198" s="12"/>
       <c r="B198" s="22"/>
       <c r="C198" s="4"/>
@@ -5940,7 +6031,7 @@
       <c r="I198" s="12"/>
       <c r="J198" s="12"/>
     </row>
-    <row r="199" spans="1:10" ht="22.15" customHeight="1">
+    <row r="199" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A199" s="12"/>
       <c r="B199" s="22"/>
       <c r="C199" s="4"/>
@@ -5952,7 +6043,7 @@
       <c r="I199" s="12"/>
       <c r="J199" s="12"/>
     </row>
-    <row r="200" spans="1:10" ht="22.15" customHeight="1">
+    <row r="200" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A200" s="12"/>
       <c r="B200" s="22"/>
       <c r="C200" s="4"/>
@@ -5964,7 +6055,7 @@
       <c r="I200" s="12"/>
       <c r="J200" s="12"/>
     </row>
-    <row r="201" spans="1:10" ht="22.15" customHeight="1">
+    <row r="201" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A201" s="12"/>
       <c r="B201" s="22"/>
       <c r="C201" s="4"/>
@@ -5976,7 +6067,7 @@
       <c r="I201" s="12"/>
       <c r="J201" s="12"/>
     </row>
-    <row r="202" spans="1:10" ht="22.15" customHeight="1">
+    <row r="202" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A202" s="12"/>
       <c r="B202" s="22"/>
       <c r="C202" s="4"/>
@@ -5988,7 +6079,7 @@
       <c r="I202" s="12"/>
       <c r="J202" s="12"/>
     </row>
-    <row r="203" spans="1:10" ht="22.15" customHeight="1">
+    <row r="203" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A203" s="12"/>
       <c r="B203" s="22"/>
       <c r="C203" s="4"/>
@@ -6000,7 +6091,7 @@
       <c r="I203" s="12"/>
       <c r="J203" s="12"/>
     </row>
-    <row r="204" spans="1:10" ht="22.15" customHeight="1">
+    <row r="204" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A204" s="12"/>
       <c r="B204" s="22"/>
       <c r="C204" s="4"/>
@@ -6012,7 +6103,7 @@
       <c r="I204" s="12"/>
       <c r="J204" s="12"/>
     </row>
-    <row r="205" spans="1:10" ht="22.15" customHeight="1">
+    <row r="205" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A205" s="12"/>
       <c r="B205" s="22"/>
       <c r="C205" s="4"/>
@@ -6024,7 +6115,7 @@
       <c r="I205" s="12"/>
       <c r="J205" s="12"/>
     </row>
-    <row r="206" spans="1:10" ht="22.15" customHeight="1">
+    <row r="206" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A206" s="12"/>
       <c r="B206" s="22"/>
       <c r="C206" s="4"/>
@@ -6036,7 +6127,7 @@
       <c r="I206" s="12"/>
       <c r="J206" s="12"/>
     </row>
-    <row r="207" spans="1:10" ht="22.15" customHeight="1">
+    <row r="207" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A207" s="12"/>
       <c r="B207" s="22"/>
       <c r="C207" s="4"/>
@@ -6048,7 +6139,7 @@
       <c r="I207" s="12"/>
       <c r="J207" s="12"/>
     </row>
-    <row r="208" spans="1:10" ht="22.15" customHeight="1">
+    <row r="208" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A208" s="12"/>
       <c r="B208" s="22"/>
       <c r="C208" s="4"/>
@@ -6060,7 +6151,7 @@
       <c r="I208" s="12"/>
       <c r="J208" s="12"/>
     </row>
-    <row r="209" spans="1:10" ht="22.15" customHeight="1">
+    <row r="209" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A209" s="12"/>
       <c r="B209" s="22"/>
       <c r="C209" s="4"/>
@@ -6072,7 +6163,7 @@
       <c r="I209" s="12"/>
       <c r="J209" s="12"/>
     </row>
-    <row r="210" spans="1:10" ht="22.15" customHeight="1">
+    <row r="210" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A210" s="12"/>
       <c r="B210" s="22"/>
       <c r="C210" s="4"/>
@@ -6084,7 +6175,7 @@
       <c r="I210" s="12"/>
       <c r="J210" s="12"/>
     </row>
-    <row r="211" spans="1:10" ht="22.15" customHeight="1">
+    <row r="211" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A211" s="12"/>
       <c r="B211" s="22"/>
       <c r="C211" s="4"/>
@@ -6096,7 +6187,7 @@
       <c r="I211" s="12"/>
       <c r="J211" s="12"/>
     </row>
-    <row r="212" spans="1:10" ht="22.15" customHeight="1">
+    <row r="212" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A212" s="12"/>
       <c r="B212" s="22"/>
       <c r="C212" s="4"/>
@@ -6108,7 +6199,7 @@
       <c r="I212" s="12"/>
       <c r="J212" s="12"/>
     </row>
-    <row r="213" spans="1:10" ht="22.15" customHeight="1">
+    <row r="213" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A213" s="12"/>
       <c r="B213" s="22"/>
       <c r="C213" s="4"/>
@@ -6120,7 +6211,7 @@
       <c r="I213" s="12"/>
       <c r="J213" s="12"/>
     </row>
-    <row r="214" spans="1:10" ht="22.15" customHeight="1">
+    <row r="214" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A214" s="12"/>
       <c r="B214" s="22"/>
       <c r="C214" s="4"/>
@@ -6132,7 +6223,7 @@
       <c r="I214" s="12"/>
       <c r="J214" s="12"/>
     </row>
-    <row r="215" spans="1:10" ht="22.15" customHeight="1">
+    <row r="215" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A215" s="12"/>
       <c r="B215" s="22"/>
       <c r="C215" s="4"/>
@@ -6144,7 +6235,7 @@
       <c r="I215" s="12"/>
       <c r="J215" s="12"/>
     </row>
-    <row r="216" spans="1:10" ht="22.15" customHeight="1">
+    <row r="216" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A216" s="12"/>
       <c r="B216" s="22"/>
       <c r="C216" s="4"/>
@@ -6156,7 +6247,7 @@
       <c r="I216" s="12"/>
       <c r="J216" s="12"/>
     </row>
-    <row r="217" spans="1:10" ht="22.15" customHeight="1">
+    <row r="217" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A217" s="12"/>
       <c r="B217" s="22"/>
       <c r="C217" s="4"/>
@@ -6168,7 +6259,7 @@
       <c r="I217" s="12"/>
       <c r="J217" s="12"/>
     </row>
-    <row r="218" spans="1:10" ht="22.15" customHeight="1">
+    <row r="218" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A218" s="12"/>
       <c r="B218" s="22"/>
       <c r="C218" s="4"/>
@@ -6180,7 +6271,7 @@
       <c r="I218" s="12"/>
       <c r="J218" s="12"/>
     </row>
-    <row r="219" spans="1:10" ht="22.15" customHeight="1">
+    <row r="219" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A219" s="12"/>
       <c r="B219" s="22"/>
       <c r="C219" s="4"/>
@@ -6192,7 +6283,7 @@
       <c r="I219" s="12"/>
       <c r="J219" s="12"/>
     </row>
-    <row r="220" spans="1:10" ht="22.15" customHeight="1">
+    <row r="220" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A220" s="12"/>
       <c r="B220" s="22"/>
       <c r="C220" s="4"/>
@@ -6204,7 +6295,7 @@
       <c r="I220" s="12"/>
       <c r="J220" s="12"/>
     </row>
-    <row r="221" spans="1:10" ht="22.15" customHeight="1">
+    <row r="221" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A221" s="12"/>
       <c r="B221" s="22"/>
       <c r="C221" s="4"/>
@@ -6216,7 +6307,7 @@
       <c r="I221" s="12"/>
       <c r="J221" s="12"/>
     </row>
-    <row r="222" spans="1:10" ht="22.15" customHeight="1">
+    <row r="222" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A222" s="12"/>
       <c r="B222" s="22"/>
       <c r="C222" s="4"/>
@@ -6228,7 +6319,7 @@
       <c r="I222" s="12"/>
       <c r="J222" s="12"/>
     </row>
-    <row r="223" spans="1:10" ht="22.15" customHeight="1">
+    <row r="223" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A223" s="12"/>
       <c r="B223" s="22"/>
       <c r="C223" s="4"/>
@@ -6240,7 +6331,7 @@
       <c r="I223" s="12"/>
       <c r="J223" s="12"/>
     </row>
-    <row r="224" spans="1:10" ht="22.15" customHeight="1">
+    <row r="224" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A224" s="12"/>
       <c r="B224" s="22"/>
       <c r="C224" s="4"/>
@@ -6252,7 +6343,7 @@
       <c r="I224" s="12"/>
       <c r="J224" s="12"/>
     </row>
-    <row r="225" spans="1:10" ht="22.15" customHeight="1">
+    <row r="225" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A225" s="12"/>
       <c r="B225" s="22"/>
       <c r="C225" s="4"/>
@@ -6264,7 +6355,7 @@
       <c r="I225" s="12"/>
       <c r="J225" s="12"/>
     </row>
-    <row r="226" spans="1:10" ht="22.15" customHeight="1">
+    <row r="226" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A226" s="12"/>
       <c r="B226" s="22"/>
       <c r="C226" s="4"/>
@@ -6276,7 +6367,7 @@
       <c r="I226" s="12"/>
       <c r="J226" s="12"/>
     </row>
-    <row r="227" spans="1:10" ht="22.15" customHeight="1">
+    <row r="227" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A227" s="12"/>
       <c r="B227" s="22"/>
       <c r="C227" s="4"/>
@@ -6288,7 +6379,7 @@
       <c r="I227" s="12"/>
       <c r="J227" s="12"/>
     </row>
-    <row r="228" spans="1:10" ht="22.15" customHeight="1">
+    <row r="228" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A228" s="12"/>
       <c r="B228" s="22"/>
       <c r="C228" s="4"/>
@@ -6300,7 +6391,7 @@
       <c r="I228" s="12"/>
       <c r="J228" s="12"/>
     </row>
-    <row r="229" spans="1:10" ht="22.15" customHeight="1">
+    <row r="229" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A229" s="12"/>
       <c r="B229" s="22"/>
       <c r="C229" s="4"/>
@@ -6312,7 +6403,7 @@
       <c r="I229" s="12"/>
       <c r="J229" s="12"/>
     </row>
-    <row r="230" spans="1:10" ht="22.15" customHeight="1">
+    <row r="230" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A230" s="12"/>
       <c r="B230" s="22"/>
       <c r="C230" s="4"/>
@@ -6324,7 +6415,7 @@
       <c r="I230" s="12"/>
       <c r="J230" s="12"/>
     </row>
-    <row r="231" spans="1:10" ht="22.15" customHeight="1">
+    <row r="231" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A231" s="12"/>
       <c r="B231" s="22"/>
       <c r="C231" s="4"/>
@@ -6336,7 +6427,7 @@
       <c r="I231" s="12"/>
       <c r="J231" s="12"/>
     </row>
-    <row r="232" spans="1:10" ht="22.15" customHeight="1">
+    <row r="232" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A232" s="12"/>
       <c r="B232" s="22"/>
       <c r="C232" s="4"/>
@@ -6348,7 +6439,7 @@
       <c r="I232" s="12"/>
       <c r="J232" s="12"/>
     </row>
-    <row r="233" spans="1:10" ht="22.15" customHeight="1">
+    <row r="233" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A233" s="12"/>
       <c r="B233" s="22"/>
       <c r="C233" s="4"/>
@@ -6360,7 +6451,7 @@
       <c r="I233" s="12"/>
       <c r="J233" s="12"/>
     </row>
-    <row r="234" spans="1:10" ht="22.15" customHeight="1">
+    <row r="234" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A234" s="12"/>
       <c r="B234" s="22"/>
       <c r="C234" s="4"/>
@@ -6372,7 +6463,7 @@
       <c r="I234" s="12"/>
       <c r="J234" s="12"/>
     </row>
-    <row r="235" spans="1:10" ht="22.15" customHeight="1">
+    <row r="235" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A235" s="12"/>
       <c r="B235" s="22"/>
       <c r="C235" s="4"/>
@@ -6384,7 +6475,7 @@
       <c r="I235" s="12"/>
       <c r="J235" s="12"/>
     </row>
-    <row r="236" spans="1:10" ht="22.15" customHeight="1">
+    <row r="236" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A236" s="12"/>
       <c r="B236" s="22"/>
       <c r="C236" s="4"/>
@@ -6396,7 +6487,7 @@
       <c r="I236" s="12"/>
       <c r="J236" s="12"/>
     </row>
-    <row r="237" spans="1:10" ht="22.15" customHeight="1">
+    <row r="237" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A237" s="12"/>
       <c r="B237" s="22"/>
       <c r="C237" s="4"/>
@@ -6408,7 +6499,7 @@
       <c r="I237" s="12"/>
       <c r="J237" s="12"/>
     </row>
-    <row r="238" spans="1:10" ht="22.15" customHeight="1">
+    <row r="238" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A238" s="12"/>
       <c r="B238" s="22"/>
       <c r="C238" s="4"/>
@@ -6420,7 +6511,7 @@
       <c r="I238" s="12"/>
       <c r="J238" s="12"/>
     </row>
-    <row r="239" spans="1:10" ht="22.15" customHeight="1">
+    <row r="239" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A239" s="12"/>
       <c r="B239" s="22"/>
       <c r="C239" s="4"/>
@@ -6432,7 +6523,7 @@
       <c r="I239" s="12"/>
       <c r="J239" s="12"/>
     </row>
-    <row r="240" spans="1:10" ht="22.15" customHeight="1">
+    <row r="240" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A240" s="12"/>
       <c r="B240" s="22"/>
       <c r="C240" s="4"/>
@@ -6444,7 +6535,7 @@
       <c r="I240" s="12"/>
       <c r="J240" s="12"/>
     </row>
-    <row r="241" spans="1:10" ht="22.15" customHeight="1">
+    <row r="241" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A241" s="12"/>
       <c r="B241" s="22"/>
       <c r="C241" s="4"/>
@@ -6456,7 +6547,7 @@
       <c r="I241" s="12"/>
       <c r="J241" s="12"/>
     </row>
-    <row r="242" spans="1:10" ht="22.15" customHeight="1">
+    <row r="242" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A242" s="12"/>
       <c r="B242" s="22"/>
       <c r="C242" s="4"/>
@@ -6468,7 +6559,7 @@
       <c r="I242" s="12"/>
       <c r="J242" s="12"/>
     </row>
-    <row r="243" spans="1:10" ht="22.15" customHeight="1">
+    <row r="243" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A243" s="12"/>
       <c r="B243" s="22"/>
       <c r="C243" s="4"/>
@@ -6480,7 +6571,7 @@
       <c r="I243" s="12"/>
       <c r="J243" s="12"/>
     </row>
-    <row r="244" spans="1:10" ht="22.15" customHeight="1">
+    <row r="244" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A244" s="12"/>
       <c r="B244" s="22"/>
       <c r="C244" s="4"/>
@@ -6492,7 +6583,7 @@
       <c r="I244" s="12"/>
       <c r="J244" s="12"/>
     </row>
-    <row r="245" spans="1:10" ht="22.15" customHeight="1">
+    <row r="245" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A245" s="12"/>
       <c r="B245" s="22"/>
       <c r="C245" s="4"/>
@@ -6504,7 +6595,7 @@
       <c r="I245" s="12"/>
       <c r="J245" s="12"/>
     </row>
-    <row r="246" spans="1:10" ht="22.15" customHeight="1">
+    <row r="246" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A246" s="12"/>
       <c r="B246" s="22"/>
       <c r="C246" s="4"/>
@@ -6516,7 +6607,7 @@
       <c r="I246" s="12"/>
       <c r="J246" s="12"/>
     </row>
-    <row r="247" spans="1:10" ht="22.15" customHeight="1">
+    <row r="247" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A247" s="12"/>
       <c r="B247" s="22"/>
       <c r="C247" s="4"/>
@@ -6528,7 +6619,7 @@
       <c r="I247" s="12"/>
       <c r="J247" s="12"/>
     </row>
-    <row r="248" spans="1:10" ht="22.15" customHeight="1">
+    <row r="248" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A248" s="12"/>
       <c r="B248" s="22"/>
       <c r="C248" s="4"/>
@@ -6540,7 +6631,7 @@
       <c r="I248" s="12"/>
       <c r="J248" s="12"/>
     </row>
-    <row r="249" spans="1:10" ht="22.15" customHeight="1">
+    <row r="249" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A249" s="12"/>
       <c r="B249" s="22"/>
       <c r="C249" s="4"/>
@@ -6552,7 +6643,7 @@
       <c r="I249" s="12"/>
       <c r="J249" s="12"/>
     </row>
-    <row r="250" spans="1:10" ht="22.15" customHeight="1">
+    <row r="250" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A250" s="12"/>
       <c r="B250" s="22"/>
       <c r="C250" s="4"/>
@@ -6564,7 +6655,7 @@
       <c r="I250" s="12"/>
       <c r="J250" s="12"/>
     </row>
-    <row r="251" spans="1:10" ht="22.15" customHeight="1">
+    <row r="251" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A251" s="12"/>
       <c r="B251" s="22"/>
       <c r="C251" s="4"/>
@@ -6576,7 +6667,7 @@
       <c r="I251" s="12"/>
       <c r="J251" s="12"/>
     </row>
-    <row r="252" spans="1:10" ht="22.15" customHeight="1">
+    <row r="252" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A252" s="12"/>
       <c r="B252" s="22"/>
       <c r="C252" s="4"/>
@@ -6588,7 +6679,7 @@
       <c r="I252" s="12"/>
       <c r="J252" s="12"/>
     </row>
-    <row r="253" spans="1:10" ht="22.15" customHeight="1">
+    <row r="253" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A253" s="12"/>
       <c r="B253" s="22"/>
       <c r="C253" s="4"/>
@@ -6600,7 +6691,7 @@
       <c r="I253" s="12"/>
       <c r="J253" s="12"/>
     </row>
-    <row r="254" spans="1:10" ht="22.15" customHeight="1">
+    <row r="254" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A254" s="12"/>
       <c r="B254" s="22"/>
       <c r="C254" s="4"/>
@@ -6612,7 +6703,7 @@
       <c r="I254" s="12"/>
       <c r="J254" s="12"/>
     </row>
-    <row r="255" spans="1:10" ht="22.15" customHeight="1">
+    <row r="255" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A255" s="12"/>
       <c r="B255" s="22"/>
       <c r="C255" s="4"/>
@@ -6624,7 +6715,7 @@
       <c r="I255" s="12"/>
       <c r="J255" s="12"/>
     </row>
-    <row r="256" spans="1:10" ht="22.15" customHeight="1">
+    <row r="256" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A256" s="12"/>
       <c r="B256" s="22"/>
       <c r="C256" s="4"/>
@@ -6636,7 +6727,7 @@
       <c r="I256" s="12"/>
       <c r="J256" s="12"/>
     </row>
-    <row r="257" spans="1:10" ht="22.15" customHeight="1">
+    <row r="257" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A257" s="12"/>
       <c r="B257" s="22"/>
       <c r="C257" s="4"/>
@@ -6648,7 +6739,7 @@
       <c r="I257" s="12"/>
       <c r="J257" s="12"/>
     </row>
-    <row r="258" spans="1:10" ht="22.15" customHeight="1">
+    <row r="258" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A258" s="12"/>
       <c r="B258" s="22"/>
       <c r="C258" s="4"/>
@@ -6660,7 +6751,7 @@
       <c r="I258" s="12"/>
       <c r="J258" s="12"/>
     </row>
-    <row r="259" spans="1:10" ht="22.15" customHeight="1">
+    <row r="259" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A259" s="12"/>
       <c r="B259" s="22"/>
       <c r="C259" s="4"/>
@@ -6672,7 +6763,7 @@
       <c r="I259" s="12"/>
       <c r="J259" s="12"/>
     </row>
-    <row r="260" spans="1:10" ht="22.15" customHeight="1">
+    <row r="260" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A260" s="12"/>
       <c r="B260" s="22"/>
       <c r="C260" s="4"/>
@@ -6684,7 +6775,7 @@
       <c r="I260" s="12"/>
       <c r="J260" s="12"/>
     </row>
-    <row r="261" spans="1:10" ht="22.15" customHeight="1">
+    <row r="261" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A261" s="12"/>
       <c r="B261" s="22"/>
       <c r="C261" s="4"/>
@@ -6696,7 +6787,7 @@
       <c r="I261" s="12"/>
       <c r="J261" s="12"/>
     </row>
-    <row r="262" spans="1:10" ht="22.15" customHeight="1">
+    <row r="262" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A262" s="12"/>
       <c r="B262" s="22"/>
       <c r="C262" s="4"/>
@@ -6708,7 +6799,7 @@
       <c r="I262" s="12"/>
       <c r="J262" s="12"/>
     </row>
-    <row r="263" spans="1:10" ht="22.15" customHeight="1">
+    <row r="263" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A263" s="12"/>
       <c r="B263" s="22"/>
       <c r="C263" s="4"/>
@@ -6720,7 +6811,7 @@
       <c r="I263" s="12"/>
       <c r="J263" s="12"/>
     </row>
-    <row r="264" spans="1:10" ht="22.15" customHeight="1">
+    <row r="264" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A264" s="12"/>
       <c r="B264" s="22"/>
       <c r="C264" s="4"/>
@@ -6732,7 +6823,7 @@
       <c r="I264" s="12"/>
       <c r="J264" s="12"/>
     </row>
-    <row r="265" spans="1:10" ht="22.15" customHeight="1">
+    <row r="265" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A265" s="12"/>
       <c r="B265" s="22"/>
       <c r="C265" s="4"/>
@@ -6744,7 +6835,7 @@
       <c r="I265" s="12"/>
       <c r="J265" s="12"/>
     </row>
-    <row r="266" spans="1:10" ht="22.15" customHeight="1">
+    <row r="266" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A266" s="12"/>
       <c r="B266" s="22"/>
       <c r="C266" s="4"/>
@@ -6756,7 +6847,7 @@
       <c r="I266" s="12"/>
       <c r="J266" s="12"/>
     </row>
-    <row r="267" spans="1:10" ht="22.15" customHeight="1">
+    <row r="267" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A267" s="12"/>
       <c r="B267" s="22"/>
       <c r="C267" s="4"/>
@@ -6768,7 +6859,7 @@
       <c r="I267" s="12"/>
       <c r="J267" s="12"/>
     </row>
-    <row r="268" spans="1:10" ht="22.15" customHeight="1">
+    <row r="268" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A268" s="12"/>
       <c r="B268" s="22"/>
       <c r="C268" s="4"/>
@@ -6780,7 +6871,7 @@
       <c r="I268" s="12"/>
       <c r="J268" s="12"/>
     </row>
-    <row r="269" spans="1:10" ht="22.15" customHeight="1">
+    <row r="269" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A269" s="12"/>
       <c r="B269" s="22"/>
       <c r="C269" s="4"/>
@@ -6792,7 +6883,7 @@
       <c r="I269" s="12"/>
       <c r="J269" s="12"/>
     </row>
-    <row r="270" spans="1:10" ht="22.15" customHeight="1">
+    <row r="270" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A270" s="12"/>
       <c r="B270" s="22"/>
       <c r="C270" s="4"/>
@@ -6804,7 +6895,7 @@
       <c r="I270" s="12"/>
       <c r="J270" s="12"/>
     </row>
-    <row r="271" spans="1:10" ht="22.15" customHeight="1">
+    <row r="271" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A271" s="12"/>
       <c r="B271" s="22"/>
       <c r="C271" s="4"/>
@@ -6816,7 +6907,7 @@
       <c r="I271" s="12"/>
       <c r="J271" s="12"/>
     </row>
-    <row r="272" spans="1:10" ht="22.15" customHeight="1">
+    <row r="272" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A272" s="12"/>
       <c r="B272" s="22"/>
       <c r="C272" s="4"/>
@@ -6828,7 +6919,7 @@
       <c r="I272" s="12"/>
       <c r="J272" s="12"/>
     </row>
-    <row r="273" spans="1:10" ht="22.15" customHeight="1">
+    <row r="273" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A273" s="12"/>
       <c r="B273" s="22"/>
       <c r="C273" s="4"/>
@@ -6840,7 +6931,7 @@
       <c r="I273" s="12"/>
       <c r="J273" s="12"/>
     </row>
-    <row r="274" spans="1:10" ht="22.15" customHeight="1">
+    <row r="274" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A274" s="12"/>
       <c r="B274" s="22"/>
       <c r="C274" s="4"/>
@@ -6852,7 +6943,7 @@
       <c r="I274" s="12"/>
       <c r="J274" s="12"/>
     </row>
-    <row r="275" spans="1:10" ht="22.15" customHeight="1">
+    <row r="275" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A275" s="12"/>
       <c r="B275" s="22"/>
       <c r="C275" s="4"/>
@@ -6864,7 +6955,7 @@
       <c r="I275" s="12"/>
       <c r="J275" s="12"/>
     </row>
-    <row r="276" spans="1:10" ht="22.15" customHeight="1">
+    <row r="276" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A276" s="12"/>
       <c r="B276" s="22"/>
       <c r="C276" s="4"/>
@@ -6876,7 +6967,7 @@
       <c r="I276" s="12"/>
       <c r="J276" s="12"/>
     </row>
-    <row r="277" spans="1:10" ht="22.15" customHeight="1">
+    <row r="277" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A277" s="12"/>
       <c r="B277" s="22"/>
       <c r="C277" s="4"/>
@@ -6888,7 +6979,7 @@
       <c r="I277" s="12"/>
       <c r="J277" s="12"/>
     </row>
-    <row r="278" spans="1:10" ht="22.15" customHeight="1">
+    <row r="278" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A278" s="12"/>
       <c r="B278" s="22"/>
       <c r="C278" s="4"/>
@@ -6900,7 +6991,7 @@
       <c r="I278" s="12"/>
       <c r="J278" s="12"/>
     </row>
-    <row r="279" spans="1:10" ht="22.15" customHeight="1">
+    <row r="279" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A279" s="12"/>
       <c r="B279" s="22"/>
       <c r="C279" s="4"/>
@@ -6912,7 +7003,7 @@
       <c r="I279" s="12"/>
       <c r="J279" s="12"/>
     </row>
-    <row r="280" spans="1:10" ht="22.15" customHeight="1">
+    <row r="280" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A280" s="12"/>
       <c r="B280" s="22"/>
       <c r="C280" s="4"/>
@@ -6924,7 +7015,7 @@
       <c r="I280" s="12"/>
       <c r="J280" s="12"/>
     </row>
-    <row r="281" spans="1:10" ht="22.15" customHeight="1">
+    <row r="281" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A281" s="12"/>
       <c r="B281" s="22"/>
       <c r="C281" s="4"/>
@@ -6936,7 +7027,7 @@
       <c r="I281" s="12"/>
       <c r="J281" s="12"/>
     </row>
-    <row r="282" spans="1:10" ht="22.15" customHeight="1">
+    <row r="282" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A282" s="12"/>
       <c r="B282" s="22"/>
       <c r="C282" s="4"/>
@@ -6948,7 +7039,7 @@
       <c r="I282" s="12"/>
       <c r="J282" s="12"/>
     </row>
-    <row r="283" spans="1:10" ht="22.15" customHeight="1">
+    <row r="283" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A283" s="12"/>
       <c r="B283" s="22"/>
       <c r="C283" s="4"/>
@@ -6960,7 +7051,7 @@
       <c r="I283" s="12"/>
       <c r="J283" s="12"/>
     </row>
-    <row r="284" spans="1:10" ht="22.15" customHeight="1">
+    <row r="284" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A284" s="12"/>
       <c r="B284" s="22"/>
       <c r="C284" s="4"/>
@@ -6972,7 +7063,7 @@
       <c r="I284" s="12"/>
       <c r="J284" s="12"/>
     </row>
-    <row r="285" spans="1:10" ht="22.15" customHeight="1">
+    <row r="285" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A285" s="12"/>
       <c r="B285" s="22"/>
       <c r="C285" s="4"/>
@@ -6984,7 +7075,7 @@
       <c r="I285" s="12"/>
       <c r="J285" s="12"/>
     </row>
-    <row r="286" spans="1:10" ht="22.15" customHeight="1">
+    <row r="286" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A286" s="12"/>
       <c r="B286" s="22"/>
       <c r="C286" s="4"/>
@@ -6996,7 +7087,7 @@
       <c r="I286" s="12"/>
       <c r="J286" s="12"/>
     </row>
-    <row r="287" spans="1:10" ht="22.15" customHeight="1">
+    <row r="287" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A287" s="12"/>
       <c r="B287" s="22"/>
       <c r="C287" s="4"/>
@@ -7008,7 +7099,7 @@
       <c r="I287" s="12"/>
       <c r="J287" s="12"/>
     </row>
-    <row r="288" spans="1:10" ht="22.15" customHeight="1">
+    <row r="288" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A288" s="12"/>
       <c r="B288" s="22"/>
       <c r="C288" s="4"/>
@@ -7020,7 +7111,7 @@
       <c r="I288" s="12"/>
       <c r="J288" s="12"/>
     </row>
-    <row r="289" spans="1:10" ht="22.15" customHeight="1">
+    <row r="289" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A289" s="12"/>
       <c r="B289" s="22"/>
       <c r="C289" s="4"/>
@@ -7032,7 +7123,7 @@
       <c r="I289" s="12"/>
       <c r="J289" s="12"/>
     </row>
-    <row r="290" spans="1:10" ht="22.15" customHeight="1">
+    <row r="290" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A290" s="12"/>
       <c r="B290" s="22"/>
       <c r="C290" s="4"/>
@@ -7044,37 +7135,205 @@
       <c r="I290" s="12"/>
       <c r="J290" s="12"/>
     </row>
+    <row r="291" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A291" s="12"/>
+      <c r="B291" s="22"/>
+      <c r="C291" s="4"/>
+      <c r="D291" s="12"/>
+      <c r="E291" s="12"/>
+      <c r="F291" s="12"/>
+      <c r="G291" s="12"/>
+      <c r="H291" s="12"/>
+      <c r="I291" s="12"/>
+      <c r="J291" s="12"/>
+    </row>
+    <row r="292" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A292" s="12"/>
+      <c r="B292" s="22"/>
+      <c r="C292" s="4"/>
+      <c r="D292" s="12"/>
+      <c r="E292" s="12"/>
+      <c r="F292" s="12"/>
+      <c r="G292" s="12"/>
+      <c r="H292" s="12"/>
+      <c r="I292" s="12"/>
+      <c r="J292" s="12"/>
+    </row>
+    <row r="293" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A293" s="12"/>
+      <c r="B293" s="22"/>
+      <c r="C293" s="4"/>
+      <c r="D293" s="12"/>
+      <c r="E293" s="12"/>
+      <c r="F293" s="12"/>
+      <c r="G293" s="12"/>
+      <c r="H293" s="12"/>
+      <c r="I293" s="12"/>
+      <c r="J293" s="12"/>
+    </row>
+    <row r="294" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A294" s="12"/>
+      <c r="B294" s="22"/>
+      <c r="C294" s="4"/>
+      <c r="D294" s="12"/>
+      <c r="E294" s="12"/>
+      <c r="F294" s="12"/>
+      <c r="G294" s="12"/>
+      <c r="H294" s="12"/>
+      <c r="I294" s="12"/>
+      <c r="J294" s="12"/>
+    </row>
+    <row r="295" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A295" s="12"/>
+      <c r="B295" s="22"/>
+      <c r="C295" s="4"/>
+      <c r="D295" s="12"/>
+      <c r="E295" s="12"/>
+      <c r="F295" s="12"/>
+      <c r="G295" s="12"/>
+      <c r="H295" s="12"/>
+      <c r="I295" s="12"/>
+      <c r="J295" s="12"/>
+    </row>
+    <row r="296" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A296" s="12"/>
+      <c r="B296" s="22"/>
+      <c r="C296" s="4"/>
+      <c r="D296" s="12"/>
+      <c r="E296" s="12"/>
+      <c r="F296" s="12"/>
+      <c r="G296" s="12"/>
+      <c r="H296" s="12"/>
+      <c r="I296" s="12"/>
+      <c r="J296" s="12"/>
+    </row>
+    <row r="297" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A297" s="12"/>
+      <c r="B297" s="22"/>
+      <c r="C297" s="4"/>
+      <c r="D297" s="12"/>
+      <c r="E297" s="12"/>
+      <c r="F297" s="12"/>
+      <c r="G297" s="12"/>
+      <c r="H297" s="12"/>
+      <c r="I297" s="12"/>
+      <c r="J297" s="12"/>
+    </row>
+    <row r="298" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A298" s="12"/>
+      <c r="B298" s="22"/>
+      <c r="C298" s="4"/>
+      <c r="D298" s="12"/>
+      <c r="E298" s="12"/>
+      <c r="F298" s="12"/>
+      <c r="G298" s="12"/>
+      <c r="H298" s="12"/>
+      <c r="I298" s="12"/>
+      <c r="J298" s="12"/>
+    </row>
+    <row r="299" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A299" s="12"/>
+      <c r="B299" s="22"/>
+      <c r="C299" s="4"/>
+      <c r="D299" s="12"/>
+      <c r="E299" s="12"/>
+      <c r="F299" s="12"/>
+      <c r="G299" s="12"/>
+      <c r="H299" s="12"/>
+      <c r="I299" s="12"/>
+      <c r="J299" s="12"/>
+    </row>
+    <row r="300" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A300" s="12"/>
+      <c r="B300" s="22"/>
+      <c r="C300" s="4"/>
+      <c r="D300" s="12"/>
+      <c r="E300" s="12"/>
+      <c r="F300" s="12"/>
+      <c r="G300" s="12"/>
+      <c r="H300" s="12"/>
+      <c r="I300" s="12"/>
+      <c r="J300" s="12"/>
+    </row>
+    <row r="301" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A301" s="12"/>
+      <c r="B301" s="22"/>
+      <c r="C301" s="4"/>
+      <c r="D301" s="12"/>
+      <c r="E301" s="12"/>
+      <c r="F301" s="12"/>
+      <c r="G301" s="12"/>
+      <c r="H301" s="12"/>
+      <c r="I301" s="12"/>
+      <c r="J301" s="12"/>
+    </row>
+    <row r="302" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A302" s="12"/>
+      <c r="B302" s="22"/>
+      <c r="C302" s="4"/>
+      <c r="D302" s="12"/>
+      <c r="E302" s="12"/>
+      <c r="F302" s="12"/>
+      <c r="G302" s="12"/>
+      <c r="H302" s="12"/>
+      <c r="I302" s="12"/>
+      <c r="J302" s="12"/>
+    </row>
+    <row r="303" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A303" s="12"/>
+      <c r="B303" s="22"/>
+      <c r="C303" s="4"/>
+      <c r="D303" s="12"/>
+      <c r="E303" s="12"/>
+      <c r="F303" s="12"/>
+      <c r="G303" s="12"/>
+      <c r="H303" s="12"/>
+      <c r="I303" s="12"/>
+      <c r="J303" s="12"/>
+    </row>
+    <row r="304" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A304" s="12"/>
+      <c r="B304" s="22"/>
+      <c r="C304" s="4"/>
+      <c r="D304" s="12"/>
+      <c r="E304" s="12"/>
+      <c r="F304" s="12"/>
+      <c r="G304" s="12"/>
+      <c r="H304" s="12"/>
+      <c r="I304" s="12"/>
+      <c r="J304" s="12"/>
+    </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B29:B37"/>
-    <mergeCell ref="B64:B71"/>
-    <mergeCell ref="B2:B28"/>
-    <mergeCell ref="B121:B127"/>
-    <mergeCell ref="B145:B148"/>
-    <mergeCell ref="B72:B78"/>
-    <mergeCell ref="B79:B83"/>
+    <mergeCell ref="B2:B32"/>
+    <mergeCell ref="B59:B65"/>
+    <mergeCell ref="B66:B68"/>
+    <mergeCell ref="B150:B151"/>
+    <mergeCell ref="B42:B51"/>
+    <mergeCell ref="B52:B56"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="A149:J149"/>
+    <mergeCell ref="B118:B120"/>
+    <mergeCell ref="B33:B41"/>
+    <mergeCell ref="B69:B76"/>
+    <mergeCell ref="B132:B138"/>
+    <mergeCell ref="B157:B162"/>
+    <mergeCell ref="B77:B83"/>
     <mergeCell ref="B84:B88"/>
-    <mergeCell ref="B89:B99"/>
-    <mergeCell ref="B140:B141"/>
-    <mergeCell ref="B100:B106"/>
-    <mergeCell ref="B110:B118"/>
-    <mergeCell ref="B119:B120"/>
-    <mergeCell ref="B128:B130"/>
-    <mergeCell ref="B132:B136"/>
-    <mergeCell ref="B142:B143"/>
-    <mergeCell ref="B55:B60"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="B138:B139"/>
-    <mergeCell ref="B38:B47"/>
-    <mergeCell ref="B48:B52"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="A137:J137"/>
-    <mergeCell ref="B107:B109"/>
+    <mergeCell ref="B89:B93"/>
+    <mergeCell ref="B94:B107"/>
+    <mergeCell ref="B152:B153"/>
+    <mergeCell ref="B108:B117"/>
+    <mergeCell ref="B121:B129"/>
+    <mergeCell ref="B130:B131"/>
+    <mergeCell ref="B139:B141"/>
+    <mergeCell ref="B143:B148"/>
+    <mergeCell ref="B154:B155"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="I44:I46 I49:I51">
+  <conditionalFormatting sqref="I48:I50 I53:I55">
     <cfRule type="timePeriod" dxfId="0" priority="6" timePeriod="lastMonth">
-      <formula>AND(MONTH(I44)=MONTH(TODAY())-1,OR(YEAR(I44)=YEAR(TODAY()),AND(MONTH(I44)=1,YEAR(I44)=YEAR(TODAY())-1)))</formula>
+      <formula>AND(MONTH(I48)=MONTH(EDATE(TODAY(),0-1)),YEAR(I48)=YEAR(EDATE(TODAY(),0-1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ProjectManagement/文档/问题点一览.xlsx
+++ b/ProjectManagement/文档/问题点一览.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8025"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="253">
   <si>
     <t>NO</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -805,10 +805,6 @@
   </si>
   <si>
     <t>分包合同列表里，只显示编号和分包合同名称即可</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>供应商详细信息，无法上传附件，并且上传附件操作方式不统一，请参考“项目基本信息”的相关附件操作</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1017,12 +1013,32 @@
     <t>添加清除查询条件的按钮，点击后清空所有条件。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>朱冠军</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                                                                                                                                                                                                                          </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1189,7 +1205,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1314,13 +1330,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1335,9 +1348,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1347,11 +1357,8 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1424,7 +1431,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1456,10 +1463,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1491,7 +1497,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1667,14 +1672,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K304"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
-      <selection activeCell="D160" sqref="D160:E160"/>
+    <sheetView tabSelected="1" topLeftCell="C154" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I161" sqref="I161"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="22.15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="22.15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="4" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.875" style="23" customWidth="1"/>
@@ -1690,7 +1695,7 @@
     <col min="12" max="16384" width="8.875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" ht="22.15" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1722,11 +1727,11 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" ht="22.15" customHeight="1">
       <c r="A2" s="13">
         <v>1</v>
       </c>
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="44" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -1750,11 +1755,11 @@
       </c>
       <c r="J2" s="12"/>
     </row>
-    <row r="3" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" ht="27">
       <c r="A3" s="13">
         <v>2</v>
       </c>
-      <c r="B3" s="46"/>
+      <c r="B3" s="45"/>
       <c r="C3" s="4" t="s">
         <v>51</v>
       </c>
@@ -1776,11 +1781,11 @@
       </c>
       <c r="J3" s="12"/>
     </row>
-    <row r="4" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" ht="27">
       <c r="A4" s="13">
         <v>3</v>
       </c>
-      <c r="B4" s="46"/>
+      <c r="B4" s="45"/>
       <c r="C4" s="4" t="s">
         <v>52</v>
       </c>
@@ -1802,11 +1807,11 @@
       </c>
       <c r="J4" s="12"/>
     </row>
-    <row r="5" spans="1:11" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" ht="22.15" customHeight="1">
       <c r="A5" s="13">
         <v>4</v>
       </c>
-      <c r="B5" s="46"/>
+      <c r="B5" s="45"/>
       <c r="C5" s="4" t="s">
         <v>13</v>
       </c>
@@ -1828,11 +1833,11 @@
       </c>
       <c r="J5" s="12"/>
     </row>
-    <row r="6" spans="1:11" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11" ht="22.15" customHeight="1">
       <c r="A6" s="13">
         <v>5</v>
       </c>
-      <c r="B6" s="46"/>
+      <c r="B6" s="45"/>
       <c r="C6" s="4" t="s">
         <v>53</v>
       </c>
@@ -1854,11 +1859,11 @@
       </c>
       <c r="J6" s="12"/>
     </row>
-    <row r="7" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11" ht="27">
       <c r="A7" s="13">
         <v>6</v>
       </c>
-      <c r="B7" s="46"/>
+      <c r="B7" s="45"/>
       <c r="C7" s="4" t="s">
         <v>16</v>
       </c>
@@ -1880,11 +1885,11 @@
       </c>
       <c r="J7" s="12"/>
     </row>
-    <row r="8" spans="1:11" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11" ht="22.15" customHeight="1">
       <c r="A8" s="13">
         <v>7</v>
       </c>
-      <c r="B8" s="46"/>
+      <c r="B8" s="45"/>
       <c r="C8" s="4" t="s">
         <v>14</v>
       </c>
@@ -1906,11 +1911,11 @@
       </c>
       <c r="J8" s="12"/>
     </row>
-    <row r="9" spans="1:11" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:11" ht="22.15" customHeight="1">
       <c r="A9" s="13">
         <v>8</v>
       </c>
-      <c r="B9" s="46"/>
+      <c r="B9" s="45"/>
       <c r="C9" s="4" t="s">
         <v>17</v>
       </c>
@@ -1932,11 +1937,11 @@
       </c>
       <c r="J9" s="12"/>
     </row>
-    <row r="10" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11" ht="27">
       <c r="A10" s="13">
         <v>9</v>
       </c>
-      <c r="B10" s="46"/>
+      <c r="B10" s="45"/>
       <c r="C10" s="6" t="s">
         <v>160</v>
       </c>
@@ -1965,11 +1970,11 @@
         <v>108</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11" ht="22.15" customHeight="1">
       <c r="A11" s="13">
         <v>10</v>
       </c>
-      <c r="B11" s="46"/>
+      <c r="B11" s="45"/>
       <c r="C11" s="4" t="s">
         <v>48</v>
       </c>
@@ -1991,11 +1996,11 @@
       </c>
       <c r="J11" s="12"/>
     </row>
-    <row r="12" spans="1:11" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:11" ht="22.15" customHeight="1">
       <c r="A12" s="13">
         <v>11</v>
       </c>
-      <c r="B12" s="46"/>
+      <c r="B12" s="45"/>
       <c r="C12" s="4" t="s">
         <v>107</v>
       </c>
@@ -2017,11 +2022,11 @@
       </c>
       <c r="J12" s="12"/>
     </row>
-    <row r="13" spans="1:11" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:11" ht="22.15" customHeight="1">
       <c r="A13" s="13">
         <v>12</v>
       </c>
-      <c r="B13" s="46"/>
+      <c r="B13" s="45"/>
       <c r="C13" s="4" t="s">
         <v>110</v>
       </c>
@@ -2043,11 +2048,11 @@
       </c>
       <c r="J13" s="12"/>
     </row>
-    <row r="14" spans="1:11" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:11" ht="22.15" customHeight="1">
       <c r="A14" s="13">
         <v>13</v>
       </c>
-      <c r="B14" s="46"/>
+      <c r="B14" s="45"/>
       <c r="C14" s="4" t="s">
         <v>109</v>
       </c>
@@ -2069,11 +2074,11 @@
       </c>
       <c r="J14" s="12"/>
     </row>
-    <row r="15" spans="1:11" s="16" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:11" s="16" customFormat="1" ht="27">
       <c r="A15" s="13">
         <v>14</v>
       </c>
-      <c r="B15" s="46"/>
+      <c r="B15" s="45"/>
       <c r="C15" s="6" t="s">
         <v>138</v>
       </c>
@@ -2095,11 +2100,11 @@
       </c>
       <c r="J15" s="7"/>
     </row>
-    <row r="16" spans="1:11" s="16" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:11" s="16" customFormat="1" ht="40.5">
       <c r="A16" s="13">
         <v>15</v>
       </c>
-      <c r="B16" s="46"/>
+      <c r="B16" s="45"/>
       <c r="C16" s="6" t="s">
         <v>153</v>
       </c>
@@ -2124,11 +2129,11 @@
         <v>125</v>
       </c>
     </row>
-    <row r="17" spans="1:11" s="16" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:11" s="16" customFormat="1" ht="27">
       <c r="A17" s="13">
         <v>16</v>
       </c>
-      <c r="B17" s="46"/>
+      <c r="B17" s="45"/>
       <c r="C17" s="6" t="s">
         <v>156</v>
       </c>
@@ -2150,11 +2155,11 @@
       </c>
       <c r="J17" s="7"/>
     </row>
-    <row r="18" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:11" ht="27">
       <c r="A18" s="13">
         <v>17</v>
       </c>
-      <c r="B18" s="46"/>
+      <c r="B18" s="45"/>
       <c r="C18" s="10" t="s">
         <v>147</v>
       </c>
@@ -2177,11 +2182,11 @@
       <c r="J18" s="18"/>
       <c r="K18" s="16"/>
     </row>
-    <row r="19" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:11" ht="18" customHeight="1">
       <c r="A19" s="32">
         <v>18</v>
       </c>
-      <c r="B19" s="46"/>
+      <c r="B19" s="45"/>
       <c r="C19" s="10" t="s">
         <v>154</v>
       </c>
@@ -2204,11 +2209,11 @@
       <c r="J19" s="18"/>
       <c r="K19" s="16"/>
     </row>
-    <row r="20" spans="1:11" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:11" ht="22.15" customHeight="1">
       <c r="A20" s="32">
         <v>19</v>
       </c>
-      <c r="B20" s="46"/>
+      <c r="B20" s="45"/>
       <c r="C20" s="10" t="s">
         <v>151</v>
       </c>
@@ -2231,11 +2236,11 @@
       <c r="J20" s="18"/>
       <c r="K20" s="16"/>
     </row>
-    <row r="21" spans="1:11" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:11" ht="13.5">
       <c r="A21" s="32">
         <v>20</v>
       </c>
-      <c r="B21" s="46"/>
+      <c r="B21" s="45"/>
       <c r="C21" s="37" t="s">
         <v>168</v>
       </c>
@@ -2258,11 +2263,11 @@
       <c r="J21" s="18"/>
       <c r="K21" s="16"/>
     </row>
-    <row r="22" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:11" ht="27">
       <c r="A22" s="32">
         <v>21</v>
       </c>
-      <c r="B22" s="46"/>
+      <c r="B22" s="45"/>
       <c r="C22" s="40" t="s">
         <v>181</v>
       </c>
@@ -2285,11 +2290,11 @@
       <c r="J22" s="18"/>
       <c r="K22" s="16"/>
     </row>
-    <row r="23" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:11" ht="27">
       <c r="A23" s="32">
         <v>22</v>
       </c>
-      <c r="B23" s="46"/>
+      <c r="B23" s="45"/>
       <c r="C23" s="40" t="s">
         <v>182</v>
       </c>
@@ -2301,7 +2306,7 @@
       </c>
       <c r="F23" s="18"/>
       <c r="G23" s="29" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H23" s="33">
         <v>42893</v>
@@ -2312,11 +2317,11 @@
       <c r="J23" s="18"/>
       <c r="K23" s="16"/>
     </row>
-    <row r="24" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:11" ht="27">
       <c r="A24" s="32">
         <v>23</v>
       </c>
-      <c r="B24" s="46"/>
+      <c r="B24" s="45"/>
       <c r="C24" s="10" t="s">
         <v>152</v>
       </c>
@@ -2339,11 +2344,11 @@
       <c r="J24" s="18"/>
       <c r="K24" s="16"/>
     </row>
-    <row r="25" spans="1:11" s="28" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:11" s="28" customFormat="1" ht="40.5">
       <c r="A25" s="32">
         <v>24</v>
       </c>
-      <c r="B25" s="46"/>
+      <c r="B25" s="45"/>
       <c r="C25" s="30" t="s">
         <v>173</v>
       </c>
@@ -2366,11 +2371,11 @@
       <c r="J25" s="36"/>
       <c r="K25" s="34"/>
     </row>
-    <row r="26" spans="1:11" s="28" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:11" s="28" customFormat="1" ht="27">
       <c r="A26" s="32">
         <v>25</v>
       </c>
-      <c r="B26" s="46"/>
+      <c r="B26" s="45"/>
       <c r="C26" s="6" t="s">
         <v>174</v>
       </c>
@@ -2393,11 +2398,11 @@
       <c r="J26" s="36"/>
       <c r="K26" s="34"/>
     </row>
-    <row r="27" spans="1:11" s="34" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:11" s="34" customFormat="1" ht="13.5">
       <c r="A27" s="32">
         <v>26</v>
       </c>
-      <c r="B27" s="46"/>
+      <c r="B27" s="45"/>
       <c r="C27" s="6" t="s">
         <v>177</v>
       </c>
@@ -2419,11 +2424,11 @@
       </c>
       <c r="J27" s="29"/>
     </row>
-    <row r="28" spans="1:11" s="34" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:11" s="34" customFormat="1" ht="13.5">
       <c r="A28" s="32">
         <v>27</v>
       </c>
-      <c r="B28" s="46"/>
+      <c r="B28" s="45"/>
       <c r="C28" s="6" t="s">
         <v>178</v>
       </c>
@@ -2445,11 +2450,11 @@
       </c>
       <c r="J28" s="29"/>
     </row>
-    <row r="29" spans="1:11" s="34" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:11" s="34" customFormat="1" ht="27">
       <c r="A29" s="32"/>
-      <c r="B29" s="46"/>
+      <c r="B29" s="45"/>
       <c r="C29" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D29" s="29" t="s">
         <v>10</v>
@@ -2463,9 +2468,9 @@
       <c r="I29" s="29"/>
       <c r="J29" s="29"/>
     </row>
-    <row r="30" spans="1:11" s="34" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:11" s="34" customFormat="1" ht="13.5">
       <c r="A30" s="32"/>
-      <c r="B30" s="46"/>
+      <c r="B30" s="45"/>
       <c r="C30" s="6"/>
       <c r="D30" s="29"/>
       <c r="E30" s="33"/>
@@ -2475,9 +2480,9 @@
       <c r="I30" s="29"/>
       <c r="J30" s="29"/>
     </row>
-    <row r="31" spans="1:11" s="34" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:11" s="34" customFormat="1" ht="13.5">
       <c r="A31" s="32"/>
-      <c r="B31" s="46"/>
+      <c r="B31" s="45"/>
       <c r="C31" s="6"/>
       <c r="D31" s="29"/>
       <c r="E31" s="33"/>
@@ -2487,9 +2492,9 @@
       <c r="I31" s="29"/>
       <c r="J31" s="29"/>
     </row>
-    <row r="32" spans="1:11" s="34" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:11" s="34" customFormat="1" ht="13.5">
       <c r="A32" s="32"/>
-      <c r="B32" s="47"/>
+      <c r="B32" s="46"/>
       <c r="C32" s="6"/>
       <c r="D32" s="29"/>
       <c r="E32" s="33"/>
@@ -2499,11 +2504,11 @@
       <c r="I32" s="29"/>
       <c r="J32" s="29"/>
     </row>
-    <row r="33" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:10" ht="22.15" customHeight="1">
       <c r="A33" s="32">
         <v>28</v>
       </c>
-      <c r="B33" s="45" t="s">
+      <c r="B33" s="44" t="s">
         <v>12</v>
       </c>
       <c r="C33" s="4" t="s">
@@ -2527,11 +2532,11 @@
       </c>
       <c r="J33" s="12"/>
     </row>
-    <row r="34" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:10" ht="22.15" customHeight="1">
       <c r="A34" s="32">
         <v>29</v>
       </c>
-      <c r="B34" s="46"/>
+      <c r="B34" s="45"/>
       <c r="C34" s="4" t="s">
         <v>17</v>
       </c>
@@ -2553,11 +2558,11 @@
       </c>
       <c r="J34" s="12"/>
     </row>
-    <row r="35" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:10" ht="27">
       <c r="A35" s="32">
         <v>30</v>
       </c>
-      <c r="B35" s="46"/>
+      <c r="B35" s="45"/>
       <c r="C35" s="4" t="s">
         <v>18</v>
       </c>
@@ -2579,11 +2584,11 @@
       </c>
       <c r="J35" s="12"/>
     </row>
-    <row r="36" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:10" ht="19.5" customHeight="1">
       <c r="A36" s="32">
         <v>31</v>
       </c>
-      <c r="B36" s="46"/>
+      <c r="B36" s="45"/>
       <c r="C36" s="4" t="s">
         <v>106</v>
       </c>
@@ -2605,11 +2610,11 @@
       </c>
       <c r="J36" s="12"/>
     </row>
-    <row r="37" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:10" ht="27">
       <c r="A37" s="32">
         <v>32</v>
       </c>
-      <c r="B37" s="46"/>
+      <c r="B37" s="45"/>
       <c r="C37" s="4" t="s">
         <v>55</v>
       </c>
@@ -2631,11 +2636,11 @@
       </c>
       <c r="J37" s="12"/>
     </row>
-    <row r="38" spans="1:10" s="26" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:10" s="26" customFormat="1" ht="13.5">
       <c r="A38" s="32">
         <v>33</v>
       </c>
-      <c r="B38" s="46"/>
+      <c r="B38" s="45"/>
       <c r="C38" s="4" t="s">
         <v>161</v>
       </c>
@@ -2657,11 +2662,11 @@
       </c>
       <c r="J38" s="11"/>
     </row>
-    <row r="39" spans="1:10" s="26" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:10" s="26" customFormat="1" ht="40.5">
       <c r="A39" s="32">
         <v>34</v>
       </c>
-      <c r="B39" s="46"/>
+      <c r="B39" s="45"/>
       <c r="C39" s="4" t="s">
         <v>176</v>
       </c>
@@ -2683,11 +2688,11 @@
       </c>
       <c r="J39" s="11"/>
     </row>
-    <row r="40" spans="1:10" s="26" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:10" s="26" customFormat="1" ht="27">
       <c r="A40" s="32">
         <v>35</v>
       </c>
-      <c r="B40" s="46"/>
+      <c r="B40" s="45"/>
       <c r="C40" s="4" t="s">
         <v>163</v>
       </c>
@@ -2709,11 +2714,11 @@
       </c>
       <c r="J40" s="11"/>
     </row>
-    <row r="41" spans="1:10" s="26" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:10" s="26" customFormat="1" ht="27">
       <c r="A41" s="32">
         <v>36</v>
       </c>
-      <c r="B41" s="47"/>
+      <c r="B41" s="46"/>
       <c r="C41" s="4" t="s">
         <v>162</v>
       </c>
@@ -2729,11 +2734,11 @@
       <c r="I41" s="11"/>
       <c r="J41" s="11"/>
     </row>
-    <row r="42" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:10" ht="40.5">
       <c r="A42" s="32">
         <v>37</v>
       </c>
-      <c r="B42" s="48" t="s">
+      <c r="B42" s="47" t="s">
         <v>19</v>
       </c>
       <c r="C42" s="4" t="s">
@@ -2759,11 +2764,11 @@
         <v>60</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:10" ht="27">
       <c r="A43" s="32">
         <v>38</v>
       </c>
-      <c r="B43" s="48"/>
+      <c r="B43" s="47"/>
       <c r="C43" s="4" t="s">
         <v>21</v>
       </c>
@@ -2785,11 +2790,11 @@
       </c>
       <c r="J43" s="12"/>
     </row>
-    <row r="44" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:10" ht="27">
       <c r="A44" s="32">
         <v>39</v>
       </c>
-      <c r="B44" s="48"/>
+      <c r="B44" s="47"/>
       <c r="C44" s="4" t="s">
         <v>71</v>
       </c>
@@ -2811,11 +2816,11 @@
       </c>
       <c r="J44" s="12"/>
     </row>
-    <row r="45" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:10" ht="22.15" customHeight="1">
       <c r="A45" s="32">
         <v>40</v>
       </c>
-      <c r="B45" s="48"/>
+      <c r="B45" s="47"/>
       <c r="C45" s="4" t="s">
         <v>90</v>
       </c>
@@ -2837,11 +2842,11 @@
       </c>
       <c r="J45" s="12"/>
     </row>
-    <row r="46" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:10" ht="27">
       <c r="A46" s="32">
         <v>41</v>
       </c>
-      <c r="B46" s="48"/>
+      <c r="B46" s="47"/>
       <c r="C46" s="4" t="s">
         <v>89</v>
       </c>
@@ -2863,11 +2868,11 @@
       </c>
       <c r="J46" s="12"/>
     </row>
-    <row r="47" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:10" ht="22.15" customHeight="1">
       <c r="A47" s="32">
         <v>42</v>
       </c>
-      <c r="B47" s="48"/>
+      <c r="B47" s="47"/>
       <c r="C47" s="4" t="s">
         <v>94</v>
       </c>
@@ -2889,11 +2894,11 @@
       </c>
       <c r="J47" s="12"/>
     </row>
-    <row r="48" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:10" ht="27">
       <c r="A48" s="32">
         <v>43</v>
       </c>
-      <c r="B48" s="48"/>
+      <c r="B48" s="47"/>
       <c r="C48" s="4" t="s">
         <v>96</v>
       </c>
@@ -2915,11 +2920,11 @@
       </c>
       <c r="J48" s="12"/>
     </row>
-    <row r="49" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:10" ht="27">
       <c r="A49" s="32">
         <v>44</v>
       </c>
-      <c r="B49" s="48"/>
+      <c r="B49" s="47"/>
       <c r="C49" s="4" t="s">
         <v>150</v>
       </c>
@@ -2943,11 +2948,11 @@
       </c>
       <c r="J49" s="12"/>
     </row>
-    <row r="50" spans="1:10" s="16" customFormat="1" ht="54" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:10" s="16" customFormat="1" ht="54">
       <c r="A50" s="32">
         <v>45</v>
       </c>
-      <c r="B50" s="48"/>
+      <c r="B50" s="47"/>
       <c r="C50" s="6" t="s">
         <v>137</v>
       </c>
@@ -2969,11 +2974,11 @@
       </c>
       <c r="J50" s="7"/>
     </row>
-    <row r="51" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:10" ht="22.15" customHeight="1">
       <c r="A51" s="32">
         <v>46</v>
       </c>
-      <c r="B51" s="48"/>
+      <c r="B51" s="47"/>
       <c r="C51" s="4" t="s">
         <v>22</v>
       </c>
@@ -2995,11 +3000,11 @@
       </c>
       <c r="J51" s="12"/>
     </row>
-    <row r="52" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:10" ht="22.15" customHeight="1">
       <c r="A52" s="32">
         <v>47</v>
       </c>
-      <c r="B52" s="48" t="s">
+      <c r="B52" s="47" t="s">
         <v>23</v>
       </c>
       <c r="C52" s="4" t="s">
@@ -3023,11 +3028,11 @@
       </c>
       <c r="J52" s="12"/>
     </row>
-    <row r="53" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:10" ht="27">
       <c r="A53" s="32">
         <v>48</v>
       </c>
-      <c r="B53" s="48"/>
+      <c r="B53" s="47"/>
       <c r="C53" s="4" t="s">
         <v>92</v>
       </c>
@@ -3051,11 +3056,11 @@
       </c>
       <c r="J53" s="12"/>
     </row>
-    <row r="54" spans="1:10" s="16" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:10" s="16" customFormat="1" ht="22.15" customHeight="1">
       <c r="A54" s="32">
         <v>49</v>
       </c>
-      <c r="B54" s="48"/>
+      <c r="B54" s="47"/>
       <c r="C54" s="6" t="s">
         <v>91</v>
       </c>
@@ -3077,11 +3082,11 @@
       </c>
       <c r="J54" s="7"/>
     </row>
-    <row r="55" spans="1:10" s="16" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:10" s="16" customFormat="1" ht="22.15" customHeight="1">
       <c r="A55" s="32">
         <v>50</v>
       </c>
-      <c r="B55" s="48"/>
+      <c r="B55" s="47"/>
       <c r="C55" s="6" t="s">
         <v>148</v>
       </c>
@@ -3103,11 +3108,11 @@
       </c>
       <c r="J55" s="7"/>
     </row>
-    <row r="56" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:10" ht="22.15" customHeight="1">
       <c r="A56" s="32">
         <v>51</v>
       </c>
-      <c r="B56" s="48"/>
+      <c r="B56" s="47"/>
       <c r="C56" s="4" t="s">
         <v>25</v>
       </c>
@@ -3129,11 +3134,11 @@
       </c>
       <c r="J56" s="12"/>
     </row>
-    <row r="57" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:10" ht="22.15" customHeight="1">
       <c r="A57" s="32">
         <v>52</v>
       </c>
-      <c r="B57" s="48" t="s">
+      <c r="B57" s="47" t="s">
         <v>26</v>
       </c>
       <c r="C57" s="4" t="s">
@@ -3157,11 +3162,11 @@
       </c>
       <c r="J57" s="12"/>
     </row>
-    <row r="58" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:10" ht="22.15" customHeight="1">
       <c r="A58" s="32">
         <v>53</v>
       </c>
-      <c r="B58" s="48"/>
+      <c r="B58" s="47"/>
       <c r="C58" s="4" t="s">
         <v>28</v>
       </c>
@@ -3183,11 +3188,11 @@
       </c>
       <c r="J58" s="12"/>
     </row>
-    <row r="59" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:10" ht="22.15" customHeight="1">
       <c r="A59" s="32">
         <v>54</v>
       </c>
-      <c r="B59" s="48" t="s">
+      <c r="B59" s="47" t="s">
         <v>29</v>
       </c>
       <c r="C59" s="4" t="s">
@@ -3211,11 +3216,11 @@
       </c>
       <c r="J59" s="12"/>
     </row>
-    <row r="60" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:10" ht="27">
       <c r="A60" s="32">
         <v>55</v>
       </c>
-      <c r="B60" s="48"/>
+      <c r="B60" s="47"/>
       <c r="C60" s="4" t="s">
         <v>62</v>
       </c>
@@ -3237,11 +3242,11 @@
       </c>
       <c r="J60" s="12"/>
     </row>
-    <row r="61" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:10" ht="22.15" customHeight="1">
       <c r="A61" s="32">
         <v>56</v>
       </c>
-      <c r="B61" s="48"/>
+      <c r="B61" s="47"/>
       <c r="C61" s="4" t="s">
         <v>63</v>
       </c>
@@ -3263,11 +3268,11 @@
       </c>
       <c r="J61" s="12"/>
     </row>
-    <row r="62" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:10" ht="22.15" customHeight="1">
       <c r="A62" s="32">
         <v>57</v>
       </c>
-      <c r="B62" s="48"/>
+      <c r="B62" s="47"/>
       <c r="C62" s="4" t="s">
         <v>72</v>
       </c>
@@ -3289,11 +3294,11 @@
       </c>
       <c r="J62" s="12"/>
     </row>
-    <row r="63" spans="1:10" s="28" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:10" s="28" customFormat="1" ht="22.15" customHeight="1">
       <c r="A63" s="32"/>
-      <c r="B63" s="48"/>
+      <c r="B63" s="47"/>
       <c r="C63" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D63" s="12" t="s">
         <v>10</v>
@@ -3302,14 +3307,18 @@
         <v>42899</v>
       </c>
       <c r="F63" s="12"/>
-      <c r="G63" s="12"/>
-      <c r="H63" s="14"/>
+      <c r="G63" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="H63" s="14">
+        <v>42900</v>
+      </c>
       <c r="I63" s="12"/>
       <c r="J63" s="12"/>
     </row>
-    <row r="64" spans="1:10" s="28" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:10" s="28" customFormat="1" ht="40.5">
       <c r="A64" s="32"/>
-      <c r="B64" s="48"/>
+      <c r="B64" s="47"/>
       <c r="C64" s="4" t="s">
         <v>194</v>
       </c>
@@ -3321,21 +3330,21 @@
       </c>
       <c r="F64" s="12"/>
       <c r="G64" s="12" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H64" s="14">
         <v>42898</v>
       </c>
       <c r="I64" s="12" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="J64" s="12"/>
     </row>
-    <row r="65" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:10" ht="22.15" customHeight="1">
       <c r="A65" s="32">
         <v>58</v>
       </c>
-      <c r="B65" s="48"/>
+      <c r="B65" s="47"/>
       <c r="C65" s="4" t="s">
         <v>61</v>
       </c>
@@ -3357,11 +3366,11 @@
       </c>
       <c r="J65" s="12"/>
     </row>
-    <row r="66" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:10" ht="22.15" customHeight="1">
       <c r="A66" s="32">
         <v>59</v>
       </c>
-      <c r="B66" s="48" t="s">
+      <c r="B66" s="47" t="s">
         <v>31</v>
       </c>
       <c r="C66" s="4" t="s">
@@ -3385,9 +3394,9 @@
       </c>
       <c r="J66" s="12"/>
     </row>
-    <row r="67" spans="1:10" s="28" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:10" s="28" customFormat="1" ht="22.15" customHeight="1">
       <c r="A67" s="32"/>
-      <c r="B67" s="48"/>
+      <c r="B67" s="47"/>
       <c r="C67" s="4" t="s">
         <v>191</v>
       </c>
@@ -3399,21 +3408,21 @@
       </c>
       <c r="F67" s="12"/>
       <c r="G67" s="12" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H67" s="14">
         <v>42898</v>
       </c>
       <c r="I67" s="12" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="J67" s="12"/>
     </row>
-    <row r="68" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:10" ht="22.15" customHeight="1">
       <c r="A68" s="32">
         <v>60</v>
       </c>
-      <c r="B68" s="48"/>
+      <c r="B68" s="47"/>
       <c r="C68" s="4" t="s">
         <v>64</v>
       </c>
@@ -3435,11 +3444,11 @@
       </c>
       <c r="J68" s="12"/>
     </row>
-    <row r="69" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:10" ht="22.15" customHeight="1">
       <c r="A69" s="32">
         <v>61</v>
       </c>
-      <c r="B69" s="45" t="s">
+      <c r="B69" s="44" t="s">
         <v>33</v>
       </c>
       <c r="C69" s="4" t="s">
@@ -3463,11 +3472,11 @@
       </c>
       <c r="J69" s="12"/>
     </row>
-    <row r="70" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:10" ht="22.15" customHeight="1">
       <c r="A70" s="32">
         <v>62</v>
       </c>
-      <c r="B70" s="46"/>
+      <c r="B70" s="45"/>
       <c r="C70" s="4" t="s">
         <v>35</v>
       </c>
@@ -3489,9 +3498,9 @@
       </c>
       <c r="J70" s="12"/>
     </row>
-    <row r="71" spans="1:10" s="28" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:10" s="28" customFormat="1" ht="22.15" customHeight="1">
       <c r="A71" s="32"/>
-      <c r="B71" s="46"/>
+      <c r="B71" s="45"/>
       <c r="C71" s="4" t="s">
         <v>193</v>
       </c>
@@ -3503,19 +3512,19 @@
       </c>
       <c r="F71" s="12"/>
       <c r="G71" s="12" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H71" s="14">
         <v>42898</v>
       </c>
       <c r="I71" s="12" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="J71" s="12"/>
     </row>
-    <row r="72" spans="1:10" s="28" customFormat="1" ht="54" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:10" s="28" customFormat="1" ht="54">
       <c r="A72" s="32"/>
-      <c r="B72" s="46"/>
+      <c r="B72" s="45"/>
       <c r="C72" s="4" t="s">
         <v>192</v>
       </c>
@@ -3527,47 +3536,47 @@
       </c>
       <c r="F72" s="12"/>
       <c r="G72" s="12" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H72" s="14">
         <v>42898</v>
       </c>
       <c r="I72" s="12" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="J72" s="12"/>
     </row>
-    <row r="73" spans="1:10" s="28" customFormat="1" ht="81" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:10" s="28" customFormat="1" ht="81">
       <c r="A73" s="32"/>
-      <c r="B73" s="46"/>
-      <c r="C73" s="42" t="s">
+      <c r="B73" s="45"/>
+      <c r="C73" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="D73" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="E73" s="14">
+        <v>42892</v>
+      </c>
+      <c r="F73" s="12" t="s">
         <v>238</v>
       </c>
-      <c r="D73" s="43" t="s">
-        <v>10</v>
-      </c>
-      <c r="E73" s="44">
-        <v>42892</v>
-      </c>
-      <c r="F73" s="43" t="s">
-        <v>239</v>
-      </c>
-      <c r="G73" s="43" t="s">
-        <v>232</v>
-      </c>
-      <c r="H73" s="44">
+      <c r="G73" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="H73" s="14">
         <v>42898</v>
       </c>
-      <c r="I73" s="43" t="s">
-        <v>234</v>
+      <c r="I73" s="12" t="s">
+        <v>70</v>
       </c>
       <c r="J73" s="12"/>
     </row>
-    <row r="74" spans="1:10" s="28" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:10" s="28" customFormat="1" ht="27">
       <c r="A74" s="32"/>
-      <c r="B74" s="46"/>
+      <c r="B74" s="45"/>
       <c r="C74" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D74" s="12" t="s">
         <v>10</v>
@@ -3577,21 +3586,21 @@
       </c>
       <c r="F74" s="12"/>
       <c r="G74" s="12" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H74" s="14">
         <v>42898</v>
       </c>
       <c r="I74" s="12" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="J74" s="12"/>
     </row>
-    <row r="75" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:10" ht="22.15" customHeight="1">
       <c r="A75" s="32">
         <v>64</v>
       </c>
-      <c r="B75" s="46"/>
+      <c r="B75" s="45"/>
       <c r="C75" s="4" t="s">
         <v>36</v>
       </c>
@@ -3603,23 +3612,23 @@
       </c>
       <c r="F75" s="12"/>
       <c r="G75" s="12" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H75" s="14">
         <v>42898</v>
       </c>
       <c r="I75" s="12" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="J75" s="12" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="76" spans="1:10" s="26" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:10" s="26" customFormat="1" ht="27">
       <c r="A76" s="32">
         <v>65</v>
       </c>
-      <c r="B76" s="47"/>
+      <c r="B76" s="46"/>
       <c r="C76" s="4" t="s">
         <v>165</v>
       </c>
@@ -3631,22 +3640,22 @@
       </c>
       <c r="F76" s="12"/>
       <c r="G76" s="31" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H76" s="2">
         <v>42898</v>
       </c>
       <c r="I76" s="31" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="J76" s="11"/>
     </row>
-    <row r="77" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:10" ht="40.5">
       <c r="A77" s="32">
         <v>66</v>
       </c>
-      <c r="B77" s="48" t="s">
-        <v>205</v>
+      <c r="B77" s="47" t="s">
+        <v>204</v>
       </c>
       <c r="C77" s="4" t="s">
         <v>38</v>
@@ -3669,11 +3678,11 @@
       </c>
       <c r="J77" s="12"/>
     </row>
-    <row r="78" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:10" ht="22.15" customHeight="1">
       <c r="A78" s="32">
         <v>67</v>
       </c>
-      <c r="B78" s="48"/>
+      <c r="B78" s="47"/>
       <c r="C78" s="4" t="s">
         <v>105</v>
       </c>
@@ -3695,13 +3704,13 @@
       </c>
       <c r="J78" s="12"/>
     </row>
-    <row r="79" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:10" ht="22.15" customHeight="1">
       <c r="A79" s="32">
         <v>68</v>
       </c>
-      <c r="B79" s="48"/>
+      <c r="B79" s="47"/>
       <c r="C79" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D79" s="12" t="s">
         <v>10</v>
@@ -3711,43 +3720,43 @@
       </c>
       <c r="F79" s="12"/>
       <c r="G79" s="12" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H79" s="14">
         <v>42898</v>
       </c>
       <c r="I79" s="12" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="J79" s="12"/>
     </row>
-    <row r="80" spans="1:10" s="28" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:10" s="28" customFormat="1" ht="22.15" customHeight="1">
       <c r="A80" s="32"/>
-      <c r="B80" s="48"/>
+      <c r="B80" s="47"/>
       <c r="C80" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D80" s="12"/>
       <c r="E80" s="14"/>
       <c r="F80" s="12"/>
       <c r="G80" s="12" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H80" s="14">
         <v>42898</v>
       </c>
       <c r="I80" s="12" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="J80" s="12"/>
     </row>
-    <row r="81" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:10" ht="27">
       <c r="A81" s="32">
         <v>69</v>
       </c>
-      <c r="B81" s="48"/>
+      <c r="B81" s="47"/>
       <c r="C81" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D81" s="12" t="s">
         <v>10</v>
@@ -3757,21 +3766,21 @@
       </c>
       <c r="F81" s="12"/>
       <c r="G81" s="12" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H81" s="14">
         <v>42898</v>
       </c>
       <c r="I81" s="12" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="J81" s="12"/>
     </row>
-    <row r="82" spans="1:10" s="28" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:10" s="28" customFormat="1" ht="40.5">
       <c r="A82" s="32"/>
-      <c r="B82" s="48"/>
+      <c r="B82" s="47"/>
       <c r="C82" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D82" s="12" t="s">
         <v>10</v>
@@ -3781,21 +3790,21 @@
       </c>
       <c r="F82" s="12"/>
       <c r="G82" s="12" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H82" s="14">
         <v>42898</v>
       </c>
       <c r="I82" s="12" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="J82" s="12"/>
     </row>
-    <row r="83" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:10" ht="22.15" customHeight="1">
       <c r="A83" s="32">
         <v>70</v>
       </c>
-      <c r="B83" s="48"/>
+      <c r="B83" s="47"/>
       <c r="C83" s="4" t="s">
         <v>37</v>
       </c>
@@ -3817,11 +3826,11 @@
       </c>
       <c r="J83" s="12"/>
     </row>
-    <row r="84" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:10" ht="27">
       <c r="A84" s="32">
         <v>71</v>
       </c>
-      <c r="B84" s="48" t="s">
+      <c r="B84" s="47" t="s">
         <v>39</v>
       </c>
       <c r="C84" s="4" t="s">
@@ -3847,11 +3856,11 @@
         <v>85</v>
       </c>
     </row>
-    <row r="85" spans="1:10" s="28" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:10" s="28" customFormat="1" ht="13.5">
       <c r="A85" s="32"/>
-      <c r="B85" s="48"/>
+      <c r="B85" s="47"/>
       <c r="C85" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D85" s="12" t="s">
         <v>10</v>
@@ -3861,21 +3870,21 @@
       </c>
       <c r="F85" s="12"/>
       <c r="G85" s="12" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H85" s="14">
         <v>42898</v>
       </c>
       <c r="I85" s="12" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="J85" s="12"/>
     </row>
-    <row r="86" spans="1:10" s="28" customFormat="1" ht="25.9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:10" s="28" customFormat="1" ht="25.9" customHeight="1">
       <c r="A86" s="32"/>
-      <c r="B86" s="48"/>
+      <c r="B86" s="47"/>
       <c r="C86" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D86" s="12" t="s">
         <v>10</v>
@@ -3885,21 +3894,21 @@
       </c>
       <c r="F86" s="12"/>
       <c r="G86" s="12" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H86" s="14">
         <v>42898</v>
       </c>
       <c r="I86" s="12" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="J86" s="12"/>
     </row>
-    <row r="87" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:10" ht="22.15" customHeight="1">
       <c r="A87" s="32">
         <v>72</v>
       </c>
-      <c r="B87" s="48"/>
+      <c r="B87" s="47"/>
       <c r="C87" s="4" t="s">
         <v>105</v>
       </c>
@@ -3921,11 +3930,11 @@
       </c>
       <c r="J87" s="12"/>
     </row>
-    <row r="88" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:10" ht="22.15" customHeight="1">
       <c r="A88" s="32">
         <v>73</v>
       </c>
-      <c r="B88" s="48"/>
+      <c r="B88" s="47"/>
       <c r="C88" s="4" t="s">
         <v>37</v>
       </c>
@@ -3947,11 +3956,11 @@
       </c>
       <c r="J88" s="12"/>
     </row>
-    <row r="89" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:10" ht="27">
       <c r="A89" s="32">
         <v>74</v>
       </c>
-      <c r="B89" s="48" t="s">
+      <c r="B89" s="47" t="s">
         <v>41</v>
       </c>
       <c r="C89" s="4" t="s">
@@ -3975,11 +3984,11 @@
       </c>
       <c r="J89" s="12"/>
     </row>
-    <row r="90" spans="1:10" s="28" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:10" s="28" customFormat="1" ht="13.5">
       <c r="A90" s="32"/>
-      <c r="B90" s="48"/>
+      <c r="B90" s="47"/>
       <c r="C90" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D90" s="12" t="s">
         <v>10</v>
@@ -3989,21 +3998,21 @@
       </c>
       <c r="F90" s="12"/>
       <c r="G90" s="12" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H90" s="14">
         <v>42898</v>
       </c>
       <c r="I90" s="12" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="J90" s="12"/>
     </row>
-    <row r="91" spans="1:10" s="28" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:10" s="28" customFormat="1" ht="13.5">
       <c r="A91" s="32"/>
-      <c r="B91" s="48"/>
+      <c r="B91" s="47"/>
       <c r="C91" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D91" s="12" t="s">
         <v>10</v>
@@ -4013,21 +4022,21 @@
       </c>
       <c r="F91" s="12"/>
       <c r="G91" s="12" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H91" s="14">
         <v>42898</v>
       </c>
       <c r="I91" s="12" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="J91" s="12"/>
     </row>
-    <row r="92" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:10" ht="22.15" customHeight="1">
       <c r="A92" s="32">
         <v>75</v>
       </c>
-      <c r="B92" s="48"/>
+      <c r="B92" s="47"/>
       <c r="C92" s="4" t="s">
         <v>105</v>
       </c>
@@ -4049,11 +4058,11 @@
       </c>
       <c r="J92" s="12"/>
     </row>
-    <row r="93" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:10" ht="22.15" customHeight="1">
       <c r="A93" s="32">
         <v>76</v>
       </c>
-      <c r="B93" s="48"/>
+      <c r="B93" s="47"/>
       <c r="C93" s="4" t="s">
         <v>37</v>
       </c>
@@ -4075,11 +4084,11 @@
       </c>
       <c r="J93" s="12"/>
     </row>
-    <row r="94" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:10" ht="29.25" customHeight="1">
       <c r="A94" s="32">
         <v>77</v>
       </c>
-      <c r="B94" s="48" t="s">
+      <c r="B94" s="47" t="s">
         <v>43</v>
       </c>
       <c r="C94" s="4" t="s">
@@ -4097,11 +4106,11 @@
       <c r="I94" s="12"/>
       <c r="J94" s="12"/>
     </row>
-    <row r="95" spans="1:10" s="28" customFormat="1" ht="28.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:10" s="28" customFormat="1" ht="28.15" customHeight="1">
       <c r="A95" s="32"/>
-      <c r="B95" s="48"/>
+      <c r="B95" s="47"/>
       <c r="C95" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D95" s="12" t="s">
         <v>10</v>
@@ -4121,11 +4130,11 @@
       </c>
       <c r="J95" s="12"/>
     </row>
-    <row r="96" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:10" ht="27">
       <c r="A96" s="32">
         <v>78</v>
       </c>
-      <c r="B96" s="48"/>
+      <c r="B96" s="47"/>
       <c r="C96" s="4" t="s">
         <v>126</v>
       </c>
@@ -4147,11 +4156,11 @@
       </c>
       <c r="J96" s="12"/>
     </row>
-    <row r="97" spans="1:10" s="28" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:10" s="28" customFormat="1" ht="27" customHeight="1">
       <c r="A97" s="32"/>
-      <c r="B97" s="48"/>
+      <c r="B97" s="47"/>
       <c r="C97" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D97" s="12" t="s">
         <v>10</v>
@@ -4165,11 +4174,11 @@
       <c r="I97" s="12"/>
       <c r="J97" s="12"/>
     </row>
-    <row r="98" spans="1:10" s="28" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:10" s="28" customFormat="1" ht="24.6" customHeight="1">
       <c r="A98" s="32"/>
-      <c r="B98" s="48"/>
+      <c r="B98" s="47"/>
       <c r="C98" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D98" s="12" t="s">
         <v>10</v>
@@ -4189,11 +4198,11 @@
       </c>
       <c r="J98" s="12"/>
     </row>
-    <row r="99" spans="1:10" s="28" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:10" s="28" customFormat="1" ht="24.6" customHeight="1">
       <c r="A99" s="32"/>
-      <c r="B99" s="48"/>
+      <c r="B99" s="47"/>
       <c r="C99" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D99" s="12" t="s">
         <v>10</v>
@@ -4207,14 +4216,14 @@
       <c r="I99" s="12"/>
       <c r="J99" s="12"/>
     </row>
-    <row r="100" spans="1:10" s="28" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:10" s="28" customFormat="1" ht="24.6" customHeight="1">
       <c r="A100" s="32"/>
-      <c r="B100" s="48"/>
+      <c r="B100" s="47"/>
       <c r="C100" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="D100" s="12" t="s">
         <v>223</v>
-      </c>
-      <c r="D100" s="12" t="s">
-        <v>224</v>
       </c>
       <c r="E100" s="14">
         <v>42893</v>
@@ -4225,14 +4234,14 @@
       <c r="I100" s="12"/>
       <c r="J100" s="12"/>
     </row>
-    <row r="101" spans="1:10" s="28" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:10" s="28" customFormat="1" ht="24.6" customHeight="1">
       <c r="A101" s="32"/>
-      <c r="B101" s="48"/>
+      <c r="B101" s="47"/>
       <c r="C101" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D101" s="12" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E101" s="14">
         <v>42893</v>
@@ -4243,11 +4252,11 @@
       <c r="I101" s="12"/>
       <c r="J101" s="12"/>
     </row>
-    <row r="102" spans="1:10" s="28" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:10" s="28" customFormat="1" ht="27">
       <c r="A102" s="32"/>
-      <c r="B102" s="48"/>
+      <c r="B102" s="47"/>
       <c r="C102" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D102" s="12" t="s">
         <v>10</v>
@@ -4261,11 +4270,11 @@
       <c r="I102" s="12"/>
       <c r="J102" s="12"/>
     </row>
-    <row r="103" spans="1:10" s="28" customFormat="1" ht="25.9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:10" s="28" customFormat="1" ht="25.9" customHeight="1">
       <c r="A103" s="32"/>
-      <c r="B103" s="48"/>
+      <c r="B103" s="47"/>
       <c r="C103" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D103" s="12" t="s">
         <v>10</v>
@@ -4285,9 +4294,9 @@
       </c>
       <c r="J103" s="12"/>
     </row>
-    <row r="104" spans="1:10" s="28" customFormat="1" ht="25.9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:10" s="28" customFormat="1" ht="25.9" customHeight="1">
       <c r="A104" s="32"/>
-      <c r="B104" s="48"/>
+      <c r="B104" s="47"/>
       <c r="C104" s="4" t="s">
         <v>45</v>
       </c>
@@ -4303,11 +4312,11 @@
       <c r="I104" s="12"/>
       <c r="J104" s="12"/>
     </row>
-    <row r="105" spans="1:10" s="28" customFormat="1" ht="25.9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:10" s="28" customFormat="1" ht="25.9" customHeight="1">
       <c r="A105" s="32"/>
-      <c r="B105" s="48"/>
+      <c r="B105" s="47"/>
       <c r="C105" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D105" s="12" t="s">
         <v>10</v>
@@ -4321,11 +4330,11 @@
       <c r="I105" s="12"/>
       <c r="J105" s="12"/>
     </row>
-    <row r="106" spans="1:10" s="28" customFormat="1" ht="25.9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:10" s="28" customFormat="1" ht="25.9" customHeight="1">
       <c r="A106" s="32"/>
-      <c r="B106" s="48"/>
+      <c r="B106" s="47"/>
       <c r="C106" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D106" s="12" t="s">
         <v>10</v>
@@ -4339,11 +4348,11 @@
       <c r="I106" s="12"/>
       <c r="J106" s="12"/>
     </row>
-    <row r="107" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:10" ht="22.15" customHeight="1">
       <c r="A107" s="32">
         <v>79</v>
       </c>
-      <c r="B107" s="48"/>
+      <c r="B107" s="47"/>
       <c r="C107" s="12"/>
       <c r="D107" s="12"/>
       <c r="E107" s="12"/>
@@ -4353,11 +4362,11 @@
       <c r="I107" s="12"/>
       <c r="J107" s="12"/>
     </row>
-    <row r="108" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:10" ht="27.75" customHeight="1">
       <c r="A108" s="32">
         <v>80</v>
       </c>
-      <c r="B108" s="48" t="s">
+      <c r="B108" s="47" t="s">
         <v>44</v>
       </c>
       <c r="C108" s="4" t="s">
@@ -4381,11 +4390,11 @@
       </c>
       <c r="J108" s="12"/>
     </row>
-    <row r="109" spans="1:10" s="28" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:10" s="28" customFormat="1" ht="27.75" customHeight="1">
       <c r="A109" s="32"/>
-      <c r="B109" s="48"/>
+      <c r="B109" s="47"/>
       <c r="C109" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D109" s="12" t="s">
         <v>10</v>
@@ -4405,11 +4414,11 @@
       </c>
       <c r="J109" s="12"/>
     </row>
-    <row r="110" spans="1:10" s="28" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:10" s="28" customFormat="1" ht="27.75" customHeight="1">
       <c r="A110" s="32"/>
-      <c r="B110" s="48"/>
+      <c r="B110" s="47"/>
       <c r="C110" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D110" s="12" t="s">
         <v>10</v>
@@ -4419,7 +4428,7 @@
       </c>
       <c r="F110" s="12"/>
       <c r="G110" s="12" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H110" s="14">
         <v>42895</v>
@@ -4429,9 +4438,9 @@
       </c>
       <c r="J110" s="12"/>
     </row>
-    <row r="111" spans="1:10" s="28" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:10" s="28" customFormat="1" ht="27.75" customHeight="1">
       <c r="A111" s="32"/>
-      <c r="B111" s="48"/>
+      <c r="B111" s="47"/>
       <c r="C111" s="6"/>
       <c r="D111" s="29"/>
       <c r="E111" s="33"/>
@@ -4441,11 +4450,11 @@
       <c r="I111" s="12"/>
       <c r="J111" s="12"/>
     </row>
-    <row r="112" spans="1:10" s="28" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:10" s="28" customFormat="1" ht="27.75" customHeight="1">
       <c r="A112" s="32"/>
-      <c r="B112" s="48"/>
+      <c r="B112" s="47"/>
       <c r="C112" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D112" s="12" t="s">
         <v>10</v>
@@ -4465,11 +4474,11 @@
       </c>
       <c r="J112" s="12"/>
     </row>
-    <row r="113" spans="1:10" s="28" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:10" s="28" customFormat="1" ht="27.75" customHeight="1">
       <c r="A113" s="32"/>
-      <c r="B113" s="48"/>
+      <c r="B113" s="47"/>
       <c r="C113" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D113" s="12" t="s">
         <v>10</v>
@@ -4489,9 +4498,9 @@
       </c>
       <c r="J113" s="12"/>
     </row>
-    <row r="114" spans="1:10" s="28" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:10" s="28" customFormat="1" ht="27.75" customHeight="1">
       <c r="A114" s="32"/>
-      <c r="B114" s="48"/>
+      <c r="B114" s="47"/>
       <c r="C114" s="4" t="s">
         <v>136</v>
       </c>
@@ -4513,11 +4522,11 @@
       </c>
       <c r="J114" s="12"/>
     </row>
-    <row r="115" spans="1:10" s="28" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:10" s="28" customFormat="1" ht="27.75" customHeight="1">
       <c r="A115" s="32"/>
-      <c r="B115" s="48"/>
+      <c r="B115" s="47"/>
       <c r="C115" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D115" s="12" t="s">
         <v>10</v>
@@ -4531,11 +4540,11 @@
       <c r="I115" s="12"/>
       <c r="J115" s="12"/>
     </row>
-    <row r="116" spans="1:10" s="28" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:10" s="28" customFormat="1" ht="27.75" customHeight="1">
       <c r="A116" s="32"/>
-      <c r="B116" s="48"/>
+      <c r="B116" s="47"/>
       <c r="C116" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D116" s="12" t="s">
         <v>10</v>
@@ -4543,27 +4552,27 @@
       <c r="E116" s="14">
         <v>42899</v>
       </c>
-      <c r="F116" s="53"/>
-      <c r="G116" s="53"/>
-      <c r="H116" s="54"/>
-      <c r="I116" s="53"/>
+      <c r="F116" s="42"/>
+      <c r="G116" s="42"/>
+      <c r="H116" s="43"/>
+      <c r="I116" s="42"/>
       <c r="J116" s="12"/>
     </row>
-    <row r="117" spans="1:10" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:10" ht="13.5">
       <c r="A117" s="32">
         <v>81</v>
       </c>
-      <c r="B117" s="48"/>
+      <c r="B117" s="47"/>
       <c r="C117" s="12"/>
       <c r="D117" s="12"/>
       <c r="E117" s="12"/>
       <c r="J117" s="12"/>
     </row>
-    <row r="118" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:10" ht="37.5" customHeight="1">
       <c r="A118" s="32">
         <v>82</v>
       </c>
-      <c r="B118" s="45" t="s">
+      <c r="B118" s="44" t="s">
         <v>65</v>
       </c>
       <c r="C118" s="4" t="s">
@@ -4589,9 +4598,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="119" spans="1:10" s="28" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:10" s="28" customFormat="1" ht="20.45" customHeight="1">
       <c r="A119" s="32"/>
-      <c r="B119" s="46"/>
+      <c r="B119" s="45"/>
       <c r="C119" s="4" t="s">
         <v>184</v>
       </c>
@@ -4613,9 +4622,9 @@
       </c>
       <c r="J119" s="12"/>
     </row>
-    <row r="120" spans="1:10" s="28" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:10" s="28" customFormat="1" ht="20.45" customHeight="1">
       <c r="A120" s="32"/>
-      <c r="B120" s="47"/>
+      <c r="B120" s="46"/>
       <c r="C120" s="4" t="s">
         <v>183</v>
       </c>
@@ -4637,11 +4646,11 @@
       </c>
       <c r="J120" s="12"/>
     </row>
-    <row r="121" spans="1:10" s="20" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:10" s="20" customFormat="1" ht="22.15" customHeight="1">
       <c r="A121" s="32">
         <v>83</v>
       </c>
-      <c r="B121" s="49" t="s">
+      <c r="B121" s="51" t="s">
         <v>67</v>
       </c>
       <c r="C121" s="8" t="s">
@@ -4665,11 +4674,11 @@
       </c>
       <c r="J121" s="9"/>
     </row>
-    <row r="122" spans="1:10" s="20" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:10" s="20" customFormat="1" ht="22.15" customHeight="1">
       <c r="A122" s="32">
         <v>84</v>
       </c>
-      <c r="B122" s="49"/>
+      <c r="B122" s="51"/>
       <c r="C122" s="8" t="s">
         <v>95</v>
       </c>
@@ -4685,11 +4694,11 @@
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
     </row>
-    <row r="123" spans="1:10" s="20" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:10" s="20" customFormat="1" ht="22.15" customHeight="1">
       <c r="A123" s="32">
         <v>85</v>
       </c>
-      <c r="B123" s="49"/>
+      <c r="B123" s="51"/>
       <c r="C123" s="8" t="s">
         <v>187</v>
       </c>
@@ -4705,11 +4714,11 @@
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
     </row>
-    <row r="124" spans="1:10" s="20" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:10" s="20" customFormat="1" ht="22.15" customHeight="1">
       <c r="A124" s="32">
         <v>86</v>
       </c>
-      <c r="B124" s="49"/>
+      <c r="B124" s="51"/>
       <c r="C124" s="8" t="s">
         <v>186</v>
       </c>
@@ -4725,9 +4734,9 @@
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
     </row>
-    <row r="125" spans="1:10" s="20" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:10" s="20" customFormat="1" ht="22.15" customHeight="1">
       <c r="A125" s="32"/>
-      <c r="B125" s="49"/>
+      <c r="B125" s="51"/>
       <c r="C125" s="8" t="s">
         <v>188</v>
       </c>
@@ -4743,9 +4752,9 @@
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
     </row>
-    <row r="126" spans="1:10" s="20" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:10" s="20" customFormat="1" ht="22.15" customHeight="1">
       <c r="A126" s="32"/>
-      <c r="B126" s="49"/>
+      <c r="B126" s="51"/>
       <c r="C126" s="8" t="s">
         <v>189</v>
       </c>
@@ -4761,9 +4770,9 @@
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
     </row>
-    <row r="127" spans="1:10" s="20" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:10" s="20" customFormat="1" ht="22.15" customHeight="1">
       <c r="A127" s="32"/>
-      <c r="B127" s="49"/>
+      <c r="B127" s="51"/>
       <c r="C127" s="8" t="s">
         <v>190</v>
       </c>
@@ -4779,11 +4788,11 @@
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
     </row>
-    <row r="128" spans="1:10" s="20" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:10" s="20" customFormat="1" ht="22.15" customHeight="1">
       <c r="A128" s="32"/>
-      <c r="B128" s="49"/>
+      <c r="B128" s="51"/>
       <c r="C128" s="8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D128" s="12" t="s">
         <v>10</v>
@@ -4797,11 +4806,11 @@
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
     </row>
-    <row r="129" spans="1:10" s="20" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:10" s="20" customFormat="1" ht="27">
       <c r="A129" s="32">
         <v>87</v>
       </c>
-      <c r="B129" s="49"/>
+      <c r="B129" s="51"/>
       <c r="C129" s="8" t="s">
         <v>185</v>
       </c>
@@ -4817,11 +4826,11 @@
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
     </row>
-    <row r="130" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:10" ht="22.15" customHeight="1">
       <c r="A130" s="32">
         <v>88</v>
       </c>
-      <c r="B130" s="48" t="s">
+      <c r="B130" s="47" t="s">
         <v>87</v>
       </c>
       <c r="C130" s="4" t="s">
@@ -4845,11 +4854,11 @@
       </c>
       <c r="J130" s="12"/>
     </row>
-    <row r="131" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:10" ht="22.15" customHeight="1">
       <c r="A131" s="32">
         <v>89</v>
       </c>
-      <c r="B131" s="48"/>
+      <c r="B131" s="47"/>
       <c r="C131" s="4" t="s">
         <v>93</v>
       </c>
@@ -4871,11 +4880,11 @@
       </c>
       <c r="J131" s="12"/>
     </row>
-    <row r="132" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:10" ht="22.15" customHeight="1">
       <c r="A132" s="32">
         <v>90</v>
       </c>
-      <c r="B132" s="45" t="s">
+      <c r="B132" s="44" t="s">
         <v>97</v>
       </c>
       <c r="C132" s="4" t="s">
@@ -4899,11 +4908,11 @@
       </c>
       <c r="J132" s="12"/>
     </row>
-    <row r="133" spans="1:10" s="28" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:10" s="28" customFormat="1" ht="22.15" customHeight="1">
       <c r="A133" s="32"/>
-      <c r="B133" s="46"/>
+      <c r="B133" s="45"/>
       <c r="C133" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D133" s="12" t="s">
         <v>10</v>
@@ -4913,19 +4922,19 @@
       </c>
       <c r="F133" s="12"/>
       <c r="G133" s="12" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H133" s="14">
         <v>42898</v>
       </c>
       <c r="I133" s="12" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="J133" s="12"/>
     </row>
-    <row r="134" spans="1:10" s="28" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:10" s="28" customFormat="1" ht="22.15" customHeight="1">
       <c r="A134" s="32"/>
-      <c r="B134" s="46"/>
+      <c r="B134" s="45"/>
       <c r="C134" s="4" t="s">
         <v>198</v>
       </c>
@@ -4941,9 +4950,9 @@
       <c r="I134" s="12"/>
       <c r="J134" s="12"/>
     </row>
-    <row r="135" spans="1:10" s="28" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:10" s="28" customFormat="1" ht="22.15" customHeight="1">
       <c r="A135" s="32"/>
-      <c r="B135" s="46"/>
+      <c r="B135" s="45"/>
       <c r="C135" s="4" t="s">
         <v>199</v>
       </c>
@@ -4955,21 +4964,21 @@
       </c>
       <c r="F135" s="12"/>
       <c r="G135" s="12" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H135" s="14">
         <v>42898</v>
       </c>
       <c r="I135" s="12" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="J135" s="12"/>
     </row>
-    <row r="136" spans="1:10" s="28" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:10" s="28" customFormat="1" ht="27">
       <c r="A136" s="32"/>
-      <c r="B136" s="46"/>
+      <c r="B136" s="45"/>
       <c r="C136" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D136" s="12" t="s">
         <v>10</v>
@@ -4983,33 +4992,33 @@
       <c r="I136" s="12"/>
       <c r="J136" s="12"/>
     </row>
-    <row r="137" spans="1:10" s="28" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:10" s="28" customFormat="1" ht="29.45" customHeight="1">
       <c r="A137" s="32"/>
-      <c r="B137" s="46"/>
+      <c r="B137" s="45"/>
       <c r="C137" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D137" s="12"/>
       <c r="E137" s="14"/>
       <c r="F137" s="12"/>
       <c r="G137" s="12" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H137" s="14">
         <v>42898</v>
       </c>
       <c r="I137" s="12" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="J137" s="12"/>
     </row>
-    <row r="138" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:10" ht="27">
       <c r="A138" s="32">
         <v>91</v>
       </c>
-      <c r="B138" s="47"/>
+      <c r="B138" s="46"/>
       <c r="C138" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D138" s="24" t="s">
         <v>10</v>
@@ -5018,16 +5027,22 @@
         <v>42892</v>
       </c>
       <c r="F138" s="12"/>
-      <c r="G138" s="12"/>
-      <c r="H138" s="14"/>
-      <c r="I138" s="12"/>
+      <c r="G138" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="H138" s="14">
+        <v>42900</v>
+      </c>
+      <c r="I138" s="12" t="s">
+        <v>249</v>
+      </c>
       <c r="J138" s="12"/>
     </row>
-    <row r="139" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:10" ht="22.15" customHeight="1">
       <c r="A139" s="32">
         <v>92</v>
       </c>
-      <c r="B139" s="48" t="s">
+      <c r="B139" s="47" t="s">
         <v>99</v>
       </c>
       <c r="C139" s="4" t="s">
@@ -5051,11 +5066,11 @@
       </c>
       <c r="J139" s="12"/>
     </row>
-    <row r="140" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:10" ht="22.15" customHeight="1">
       <c r="A140" s="32">
         <v>93</v>
       </c>
-      <c r="B140" s="48"/>
+      <c r="B140" s="47"/>
       <c r="C140" s="4" t="s">
         <v>104</v>
       </c>
@@ -5077,11 +5092,11 @@
       </c>
       <c r="J140" s="12"/>
     </row>
-    <row r="141" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:10" ht="22.15" customHeight="1">
       <c r="A141" s="32">
         <v>94</v>
       </c>
-      <c r="B141" s="48"/>
+      <c r="B141" s="47"/>
       <c r="C141" s="4" t="s">
         <v>101</v>
       </c>
@@ -5103,13 +5118,13 @@
       </c>
       <c r="J141" s="12"/>
     </row>
-    <row r="142" spans="1:10" s="28" customFormat="1" ht="40.9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:10" s="28" customFormat="1" ht="40.9" customHeight="1">
       <c r="A142" s="32"/>
       <c r="B142" s="41" t="s">
         <v>197</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>200</v>
+        <v>251</v>
       </c>
       <c r="D142" s="12" t="s">
         <v>10</v>
@@ -5118,16 +5133,22 @@
         <v>42892</v>
       </c>
       <c r="F142" s="12"/>
-      <c r="G142" s="12"/>
-      <c r="H142" s="14"/>
-      <c r="I142" s="12"/>
+      <c r="G142" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="H142" s="14">
+        <v>42900</v>
+      </c>
+      <c r="I142" s="12" t="s">
+        <v>250</v>
+      </c>
       <c r="J142" s="12"/>
     </row>
-    <row r="143" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:10" ht="27">
       <c r="A143" s="32">
         <v>95</v>
       </c>
-      <c r="B143" s="45" t="s">
+      <c r="B143" s="44" t="s">
         <v>111</v>
       </c>
       <c r="C143" s="4" t="s">
@@ -5151,11 +5172,11 @@
       </c>
       <c r="J143" s="12"/>
     </row>
-    <row r="144" spans="1:10" s="28" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:10" s="28" customFormat="1" ht="13.5">
       <c r="A144" s="32"/>
-      <c r="B144" s="46"/>
+      <c r="B144" s="45"/>
       <c r="C144" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D144" s="24" t="s">
         <v>10</v>
@@ -5169,13 +5190,13 @@
       <c r="I144" s="12"/>
       <c r="J144" s="12"/>
     </row>
-    <row r="145" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:10" ht="27">
       <c r="A145" s="32">
         <v>96</v>
       </c>
-      <c r="B145" s="46"/>
+      <c r="B145" s="45"/>
       <c r="C145" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D145" s="12" t="s">
         <v>10</v>
@@ -5189,11 +5210,11 @@
       <c r="I145" s="12"/>
       <c r="J145" s="12"/>
     </row>
-    <row r="146" spans="1:10" s="28" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:10" s="28" customFormat="1" ht="27">
       <c r="A146" s="32"/>
-      <c r="B146" s="46"/>
+      <c r="B146" s="45"/>
       <c r="C146" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D146" s="24" t="s">
         <v>10</v>
@@ -5207,9 +5228,9 @@
       <c r="I146" s="12"/>
       <c r="J146" s="12"/>
     </row>
-    <row r="147" spans="1:10" s="28" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:10" s="28" customFormat="1" ht="13.5">
       <c r="A147" s="32"/>
-      <c r="B147" s="46"/>
+      <c r="B147" s="45"/>
       <c r="C147" s="4" t="s">
         <v>149</v>
       </c>
@@ -5225,13 +5246,13 @@
       <c r="I147" s="12"/>
       <c r="J147" s="12"/>
     </row>
-    <row r="148" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:10" ht="22.15" customHeight="1">
       <c r="A148" s="32">
         <v>97</v>
       </c>
-      <c r="B148" s="46"/>
+      <c r="B148" s="45"/>
       <c r="C148" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D148" s="12"/>
       <c r="E148" s="12"/>
@@ -5241,25 +5262,25 @@
       <c r="I148" s="12"/>
       <c r="J148" s="12"/>
     </row>
-    <row r="149" spans="1:10" s="28" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A149" s="50" t="s">
+    <row r="149" spans="1:10" s="28" customFormat="1" ht="22.15" customHeight="1">
+      <c r="A149" s="48" t="s">
         <v>195</v>
       </c>
-      <c r="B149" s="51"/>
-      <c r="C149" s="51"/>
-      <c r="D149" s="51"/>
-      <c r="E149" s="51"/>
-      <c r="F149" s="51"/>
-      <c r="G149" s="51"/>
-      <c r="H149" s="51"/>
-      <c r="I149" s="51"/>
-      <c r="J149" s="52"/>
-    </row>
-    <row r="150" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="B149" s="49"/>
+      <c r="C149" s="49"/>
+      <c r="D149" s="49"/>
+      <c r="E149" s="49"/>
+      <c r="F149" s="49"/>
+      <c r="G149" s="49"/>
+      <c r="H149" s="49"/>
+      <c r="I149" s="49"/>
+      <c r="J149" s="50"/>
+    </row>
+    <row r="150" spans="1:10" ht="40.5">
       <c r="A150" s="32">
         <v>98</v>
       </c>
-      <c r="B150" s="48" t="s">
+      <c r="B150" s="47" t="s">
         <v>113</v>
       </c>
       <c r="C150" s="4" t="s">
@@ -5276,18 +5297,18 @@
         <v>123</v>
       </c>
       <c r="H150" s="14">
-        <v>42141</v>
+        <v>42872</v>
       </c>
       <c r="I150" s="12" t="s">
         <v>145</v>
       </c>
       <c r="J150" s="12"/>
     </row>
-    <row r="151" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:10" ht="22.15" customHeight="1">
       <c r="A151" s="32">
         <v>99</v>
       </c>
-      <c r="B151" s="48"/>
+      <c r="B151" s="47"/>
       <c r="C151" s="4" t="s">
         <v>116</v>
       </c>
@@ -5309,11 +5330,11 @@
       </c>
       <c r="J151" s="12"/>
     </row>
-    <row r="152" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:10" ht="40.5">
       <c r="A152" s="32">
         <v>100</v>
       </c>
-      <c r="B152" s="48" t="s">
+      <c r="B152" s="47" t="s">
         <v>114</v>
       </c>
       <c r="C152" s="4" t="s">
@@ -5330,18 +5351,18 @@
         <v>123</v>
       </c>
       <c r="H152" s="14">
-        <v>42141</v>
+        <v>42872</v>
       </c>
       <c r="I152" s="12" t="s">
         <v>124</v>
       </c>
       <c r="J152" s="12"/>
     </row>
-    <row r="153" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:10" ht="22.15" customHeight="1">
       <c r="A153" s="32">
         <v>101</v>
       </c>
-      <c r="B153" s="48"/>
+      <c r="B153" s="47"/>
       <c r="C153" s="4" t="s">
         <v>117</v>
       </c>
@@ -5356,18 +5377,18 @@
         <v>123</v>
       </c>
       <c r="H153" s="14">
-        <v>42141</v>
+        <v>42872</v>
       </c>
       <c r="I153" s="12" t="s">
         <v>124</v>
       </c>
       <c r="J153" s="12"/>
     </row>
-    <row r="154" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:10" ht="41.25" customHeight="1">
       <c r="A154" s="32">
         <v>102</v>
       </c>
-      <c r="B154" s="45" t="s">
+      <c r="B154" s="44" t="s">
         <v>118</v>
       </c>
       <c r="C154" s="4" t="s">
@@ -5391,11 +5412,11 @@
       </c>
       <c r="J154" s="12"/>
     </row>
-    <row r="155" spans="1:10" s="26" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:10" s="26" customFormat="1" ht="27">
       <c r="A155" s="32">
         <v>103</v>
       </c>
-      <c r="B155" s="47"/>
+      <c r="B155" s="46"/>
       <c r="C155" s="4" t="s">
         <v>166</v>
       </c>
@@ -5411,7 +5432,7 @@
       <c r="I155" s="11"/>
       <c r="J155" s="11"/>
     </row>
-    <row r="156" spans="1:10" ht="42" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:10" ht="42">
       <c r="A156" s="32">
         <v>104</v>
       </c>
@@ -5432,18 +5453,18 @@
         <v>141</v>
       </c>
       <c r="H156" s="14">
-        <v>42151</v>
+        <v>42882</v>
       </c>
       <c r="I156" s="12" t="s">
         <v>124</v>
       </c>
       <c r="J156" s="12"/>
     </row>
-    <row r="157" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:10" ht="22.15" customHeight="1">
       <c r="A157" s="32">
         <v>105</v>
       </c>
-      <c r="B157" s="45" t="s">
+      <c r="B157" s="44" t="s">
         <v>132</v>
       </c>
       <c r="C157" s="4" t="s">
@@ -5460,18 +5481,18 @@
         <v>141</v>
       </c>
       <c r="H157" s="14">
-        <v>42151</v>
+        <v>42882</v>
       </c>
       <c r="I157" s="12" t="s">
         <v>142</v>
       </c>
       <c r="J157" s="12"/>
     </row>
-    <row r="158" spans="1:10" s="28" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:10" s="28" customFormat="1" ht="22.15" customHeight="1">
       <c r="A158" s="32"/>
-      <c r="B158" s="46"/>
+      <c r="B158" s="45"/>
       <c r="C158" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D158" s="12" t="s">
         <v>10</v>
@@ -5481,21 +5502,21 @@
       </c>
       <c r="F158" s="12"/>
       <c r="G158" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="H158" s="14">
+        <v>42898</v>
+      </c>
+      <c r="I158" s="12" t="s">
         <v>232</v>
       </c>
-      <c r="H158" s="14">
-        <v>42167</v>
-      </c>
-      <c r="I158" s="12" t="s">
-        <v>233</v>
-      </c>
       <c r="J158" s="12"/>
     </row>
-    <row r="159" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:10" ht="22.15" customHeight="1">
       <c r="A159" s="32">
         <v>106</v>
       </c>
-      <c r="B159" s="46"/>
+      <c r="B159" s="45"/>
       <c r="C159" s="4" t="s">
         <v>135</v>
       </c>
@@ -5510,18 +5531,18 @@
         <v>141</v>
       </c>
       <c r="H159" s="14">
-        <v>42151</v>
+        <v>42882</v>
       </c>
       <c r="I159" s="12" t="s">
         <v>142</v>
       </c>
       <c r="J159" s="12"/>
     </row>
-    <row r="160" spans="1:10" s="28" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:10" s="28" customFormat="1" ht="22.15" customHeight="1">
       <c r="A160" s="32"/>
-      <c r="B160" s="46"/>
+      <c r="B160" s="45"/>
       <c r="C160" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D160" s="12" t="s">
         <v>10</v>
@@ -5530,16 +5551,22 @@
         <v>42899</v>
       </c>
       <c r="F160" s="12"/>
-      <c r="G160" s="12"/>
-      <c r="H160" s="14"/>
-      <c r="I160" s="12"/>
+      <c r="G160" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="H160" s="14">
+        <v>42900</v>
+      </c>
+      <c r="I160" s="12" t="s">
+        <v>252</v>
+      </c>
       <c r="J160" s="12"/>
     </row>
-    <row r="161" spans="1:10" s="28" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:10" s="28" customFormat="1" ht="22.15" customHeight="1">
       <c r="A161" s="32"/>
-      <c r="B161" s="46"/>
+      <c r="B161" s="45"/>
       <c r="C161" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D161" s="12" t="s">
         <v>10</v>
@@ -5548,16 +5575,22 @@
         <v>42899</v>
       </c>
       <c r="F161" s="12"/>
-      <c r="G161" s="12"/>
-      <c r="H161" s="14"/>
-      <c r="I161" s="12"/>
+      <c r="G161" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="H161" s="14">
+        <v>42900</v>
+      </c>
+      <c r="I161" s="12" t="s">
+        <v>252</v>
+      </c>
       <c r="J161" s="12"/>
     </row>
-    <row r="162" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:10" ht="27">
       <c r="A162" s="32">
         <v>107</v>
       </c>
-      <c r="B162" s="47"/>
+      <c r="B162" s="46"/>
       <c r="C162" s="4" t="s">
         <v>139</v>
       </c>
@@ -5572,14 +5605,14 @@
         <v>141</v>
       </c>
       <c r="H162" s="14">
-        <v>42151</v>
+        <v>42882</v>
       </c>
       <c r="I162" s="12" t="s">
         <v>142</v>
       </c>
       <c r="J162" s="12"/>
     </row>
-    <row r="163" spans="1:10" s="26" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:10" s="26" customFormat="1" ht="27">
       <c r="A163" s="32">
         <v>108</v>
       </c>
@@ -5601,7 +5634,7 @@
       <c r="I163" s="11"/>
       <c r="J163" s="11"/>
     </row>
-    <row r="164" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:10" ht="27">
       <c r="A164" s="32">
         <v>109</v>
       </c>
@@ -5623,7 +5656,7 @@
       <c r="I164" s="12"/>
       <c r="J164" s="12"/>
     </row>
-    <row r="165" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:10" ht="22.15" customHeight="1">
       <c r="A165" s="12"/>
       <c r="B165" s="22"/>
       <c r="C165" s="4"/>
@@ -5635,7 +5668,7 @@
       <c r="I165" s="12"/>
       <c r="J165" s="12"/>
     </row>
-    <row r="166" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:10" ht="22.15" customHeight="1">
       <c r="A166" s="12"/>
       <c r="B166" s="22"/>
       <c r="C166" s="4"/>
@@ -5647,7 +5680,7 @@
       <c r="I166" s="12"/>
       <c r="J166" s="12"/>
     </row>
-    <row r="167" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:10" ht="22.15" customHeight="1">
       <c r="A167" s="12"/>
       <c r="B167" s="22"/>
       <c r="C167" s="4"/>
@@ -5659,7 +5692,7 @@
       <c r="I167" s="12"/>
       <c r="J167" s="12"/>
     </row>
-    <row r="168" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:10" ht="22.15" customHeight="1">
       <c r="A168" s="12"/>
       <c r="B168" s="22"/>
       <c r="C168" s="4"/>
@@ -5671,7 +5704,7 @@
       <c r="I168" s="12"/>
       <c r="J168" s="12"/>
     </row>
-    <row r="169" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:10" ht="22.15" customHeight="1">
       <c r="A169" s="12"/>
       <c r="B169" s="22"/>
       <c r="C169" s="4"/>
@@ -5683,7 +5716,7 @@
       <c r="I169" s="12"/>
       <c r="J169" s="12"/>
     </row>
-    <row r="170" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:10" ht="22.15" customHeight="1">
       <c r="A170" s="12"/>
       <c r="B170" s="22"/>
       <c r="C170" s="4"/>
@@ -5695,7 +5728,7 @@
       <c r="I170" s="12"/>
       <c r="J170" s="12"/>
     </row>
-    <row r="171" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:10" ht="22.15" customHeight="1">
       <c r="A171" s="12"/>
       <c r="B171" s="22"/>
       <c r="C171" s="4"/>
@@ -5707,7 +5740,7 @@
       <c r="I171" s="12"/>
       <c r="J171" s="12"/>
     </row>
-    <row r="172" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:10" ht="22.15" customHeight="1">
       <c r="A172" s="12"/>
       <c r="B172" s="22"/>
       <c r="C172" s="4"/>
@@ -5719,7 +5752,7 @@
       <c r="I172" s="12"/>
       <c r="J172" s="12"/>
     </row>
-    <row r="173" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:10" ht="22.15" customHeight="1">
       <c r="A173" s="12"/>
       <c r="B173" s="22"/>
       <c r="C173" s="4"/>
@@ -5731,7 +5764,7 @@
       <c r="I173" s="12"/>
       <c r="J173" s="12"/>
     </row>
-    <row r="174" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:10" ht="22.15" customHeight="1">
       <c r="A174" s="12"/>
       <c r="B174" s="22"/>
       <c r="C174" s="4"/>
@@ -5743,7 +5776,7 @@
       <c r="I174" s="12"/>
       <c r="J174" s="12"/>
     </row>
-    <row r="175" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:10" ht="22.15" customHeight="1">
       <c r="A175" s="12"/>
       <c r="B175" s="22"/>
       <c r="C175" s="4"/>
@@ -5755,7 +5788,7 @@
       <c r="I175" s="12"/>
       <c r="J175" s="12"/>
     </row>
-    <row r="176" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:10" ht="22.15" customHeight="1">
       <c r="A176" s="12"/>
       <c r="B176" s="22"/>
       <c r="C176" s="4"/>
@@ -5767,7 +5800,7 @@
       <c r="I176" s="12"/>
       <c r="J176" s="12"/>
     </row>
-    <row r="177" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:10" ht="22.15" customHeight="1">
       <c r="A177" s="12"/>
       <c r="B177" s="22"/>
       <c r="C177" s="4"/>
@@ -5779,7 +5812,7 @@
       <c r="I177" s="12"/>
       <c r="J177" s="12"/>
     </row>
-    <row r="178" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:10" ht="22.15" customHeight="1">
       <c r="A178" s="12"/>
       <c r="B178" s="22"/>
       <c r="C178" s="4"/>
@@ -5791,7 +5824,7 @@
       <c r="I178" s="12"/>
       <c r="J178" s="12"/>
     </row>
-    <row r="179" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:10" ht="22.15" customHeight="1">
       <c r="A179" s="12"/>
       <c r="B179" s="22"/>
       <c r="C179" s="4"/>
@@ -5803,7 +5836,7 @@
       <c r="I179" s="12"/>
       <c r="J179" s="12"/>
     </row>
-    <row r="180" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:10" ht="22.15" customHeight="1">
       <c r="A180" s="12"/>
       <c r="B180" s="22"/>
       <c r="C180" s="4"/>
@@ -5815,7 +5848,7 @@
       <c r="I180" s="12"/>
       <c r="J180" s="12"/>
     </row>
-    <row r="181" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:10" ht="22.15" customHeight="1">
       <c r="A181" s="12"/>
       <c r="B181" s="22"/>
       <c r="C181" s="4"/>
@@ -5827,7 +5860,7 @@
       <c r="I181" s="12"/>
       <c r="J181" s="12"/>
     </row>
-    <row r="182" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:10" ht="22.15" customHeight="1">
       <c r="A182" s="12"/>
       <c r="B182" s="22"/>
       <c r="C182" s="4"/>
@@ -5839,7 +5872,7 @@
       <c r="I182" s="12"/>
       <c r="J182" s="12"/>
     </row>
-    <row r="183" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:10" ht="22.15" customHeight="1">
       <c r="A183" s="12"/>
       <c r="B183" s="22"/>
       <c r="C183" s="4"/>
@@ -5851,7 +5884,7 @@
       <c r="I183" s="12"/>
       <c r="J183" s="12"/>
     </row>
-    <row r="184" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:10" ht="22.15" customHeight="1">
       <c r="A184" s="12"/>
       <c r="B184" s="22"/>
       <c r="C184" s="4"/>
@@ -5863,7 +5896,7 @@
       <c r="I184" s="12"/>
       <c r="J184" s="12"/>
     </row>
-    <row r="185" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:10" ht="22.15" customHeight="1">
       <c r="A185" s="12"/>
       <c r="B185" s="22"/>
       <c r="C185" s="4"/>
@@ -5875,7 +5908,7 @@
       <c r="I185" s="12"/>
       <c r="J185" s="12"/>
     </row>
-    <row r="186" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:10" ht="22.15" customHeight="1">
       <c r="A186" s="12"/>
       <c r="B186" s="22"/>
       <c r="C186" s="4"/>
@@ -5887,7 +5920,7 @@
       <c r="I186" s="12"/>
       <c r="J186" s="12"/>
     </row>
-    <row r="187" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:10" ht="22.15" customHeight="1">
       <c r="A187" s="12"/>
       <c r="B187" s="22"/>
       <c r="C187" s="4"/>
@@ -5899,7 +5932,7 @@
       <c r="I187" s="12"/>
       <c r="J187" s="12"/>
     </row>
-    <row r="188" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:10" ht="22.15" customHeight="1">
       <c r="A188" s="12"/>
       <c r="B188" s="22"/>
       <c r="C188" s="4"/>
@@ -5911,7 +5944,7 @@
       <c r="I188" s="12"/>
       <c r="J188" s="12"/>
     </row>
-    <row r="189" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:10" ht="22.15" customHeight="1">
       <c r="A189" s="12"/>
       <c r="B189" s="22"/>
       <c r="C189" s="4"/>
@@ -5923,7 +5956,7 @@
       <c r="I189" s="12"/>
       <c r="J189" s="12"/>
     </row>
-    <row r="190" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:10" ht="22.15" customHeight="1">
       <c r="A190" s="12"/>
       <c r="B190" s="22"/>
       <c r="C190" s="4"/>
@@ -5935,7 +5968,7 @@
       <c r="I190" s="12"/>
       <c r="J190" s="12"/>
     </row>
-    <row r="191" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:10" ht="22.15" customHeight="1">
       <c r="A191" s="12"/>
       <c r="B191" s="22"/>
       <c r="C191" s="4"/>
@@ -5947,7 +5980,7 @@
       <c r="I191" s="12"/>
       <c r="J191" s="12"/>
     </row>
-    <row r="192" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:10" ht="22.15" customHeight="1">
       <c r="A192" s="12"/>
       <c r="B192" s="22"/>
       <c r="C192" s="4"/>
@@ -5959,7 +5992,7 @@
       <c r="I192" s="12"/>
       <c r="J192" s="12"/>
     </row>
-    <row r="193" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:10" ht="22.15" customHeight="1">
       <c r="A193" s="12"/>
       <c r="B193" s="22"/>
       <c r="C193" s="4"/>
@@ -5971,7 +6004,7 @@
       <c r="I193" s="12"/>
       <c r="J193" s="12"/>
     </row>
-    <row r="194" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:10" ht="22.15" customHeight="1">
       <c r="A194" s="12"/>
       <c r="B194" s="22"/>
       <c r="C194" s="4"/>
@@ -5983,7 +6016,7 @@
       <c r="I194" s="12"/>
       <c r="J194" s="12"/>
     </row>
-    <row r="195" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:10" ht="22.15" customHeight="1">
       <c r="A195" s="12"/>
       <c r="B195" s="22"/>
       <c r="C195" s="4"/>
@@ -5995,7 +6028,7 @@
       <c r="I195" s="12"/>
       <c r="J195" s="12"/>
     </row>
-    <row r="196" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:10" ht="22.15" customHeight="1">
       <c r="A196" s="12"/>
       <c r="B196" s="22"/>
       <c r="C196" s="4"/>
@@ -6007,7 +6040,7 @@
       <c r="I196" s="12"/>
       <c r="J196" s="12"/>
     </row>
-    <row r="197" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:10" ht="22.15" customHeight="1">
       <c r="A197" s="12"/>
       <c r="B197" s="22"/>
       <c r="C197" s="4"/>
@@ -6019,7 +6052,7 @@
       <c r="I197" s="12"/>
       <c r="J197" s="12"/>
     </row>
-    <row r="198" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:10" ht="22.15" customHeight="1">
       <c r="A198" s="12"/>
       <c r="B198" s="22"/>
       <c r="C198" s="4"/>
@@ -6031,7 +6064,7 @@
       <c r="I198" s="12"/>
       <c r="J198" s="12"/>
     </row>
-    <row r="199" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:10" ht="22.15" customHeight="1">
       <c r="A199" s="12"/>
       <c r="B199" s="22"/>
       <c r="C199" s="4"/>
@@ -6043,7 +6076,7 @@
       <c r="I199" s="12"/>
       <c r="J199" s="12"/>
     </row>
-    <row r="200" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:10" ht="22.15" customHeight="1">
       <c r="A200" s="12"/>
       <c r="B200" s="22"/>
       <c r="C200" s="4"/>
@@ -6055,7 +6088,7 @@
       <c r="I200" s="12"/>
       <c r="J200" s="12"/>
     </row>
-    <row r="201" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:10" ht="22.15" customHeight="1">
       <c r="A201" s="12"/>
       <c r="B201" s="22"/>
       <c r="C201" s="4"/>
@@ -6067,7 +6100,7 @@
       <c r="I201" s="12"/>
       <c r="J201" s="12"/>
     </row>
-    <row r="202" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:10" ht="22.15" customHeight="1">
       <c r="A202" s="12"/>
       <c r="B202" s="22"/>
       <c r="C202" s="4"/>
@@ -6079,7 +6112,7 @@
       <c r="I202" s="12"/>
       <c r="J202" s="12"/>
     </row>
-    <row r="203" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:10" ht="22.15" customHeight="1">
       <c r="A203" s="12"/>
       <c r="B203" s="22"/>
       <c r="C203" s="4"/>
@@ -6091,7 +6124,7 @@
       <c r="I203" s="12"/>
       <c r="J203" s="12"/>
     </row>
-    <row r="204" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:10" ht="22.15" customHeight="1">
       <c r="A204" s="12"/>
       <c r="B204" s="22"/>
       <c r="C204" s="4"/>
@@ -6103,7 +6136,7 @@
       <c r="I204" s="12"/>
       <c r="J204" s="12"/>
     </row>
-    <row r="205" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:10" ht="22.15" customHeight="1">
       <c r="A205" s="12"/>
       <c r="B205" s="22"/>
       <c r="C205" s="4"/>
@@ -6115,7 +6148,7 @@
       <c r="I205" s="12"/>
       <c r="J205" s="12"/>
     </row>
-    <row r="206" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:10" ht="22.15" customHeight="1">
       <c r="A206" s="12"/>
       <c r="B206" s="22"/>
       <c r="C206" s="4"/>
@@ -6127,7 +6160,7 @@
       <c r="I206" s="12"/>
       <c r="J206" s="12"/>
     </row>
-    <row r="207" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:10" ht="22.15" customHeight="1">
       <c r="A207" s="12"/>
       <c r="B207" s="22"/>
       <c r="C207" s="4"/>
@@ -6139,7 +6172,7 @@
       <c r="I207" s="12"/>
       <c r="J207" s="12"/>
     </row>
-    <row r="208" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:10" ht="22.15" customHeight="1">
       <c r="A208" s="12"/>
       <c r="B208" s="22"/>
       <c r="C208" s="4"/>
@@ -6151,7 +6184,7 @@
       <c r="I208" s="12"/>
       <c r="J208" s="12"/>
     </row>
-    <row r="209" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:10" ht="22.15" customHeight="1">
       <c r="A209" s="12"/>
       <c r="B209" s="22"/>
       <c r="C209" s="4"/>
@@ -6163,7 +6196,7 @@
       <c r="I209" s="12"/>
       <c r="J209" s="12"/>
     </row>
-    <row r="210" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:10" ht="22.15" customHeight="1">
       <c r="A210" s="12"/>
       <c r="B210" s="22"/>
       <c r="C210" s="4"/>
@@ -6175,7 +6208,7 @@
       <c r="I210" s="12"/>
       <c r="J210" s="12"/>
     </row>
-    <row r="211" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:10" ht="22.15" customHeight="1">
       <c r="A211" s="12"/>
       <c r="B211" s="22"/>
       <c r="C211" s="4"/>
@@ -6187,7 +6220,7 @@
       <c r="I211" s="12"/>
       <c r="J211" s="12"/>
     </row>
-    <row r="212" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:10" ht="22.15" customHeight="1">
       <c r="A212" s="12"/>
       <c r="B212" s="22"/>
       <c r="C212" s="4"/>
@@ -6199,7 +6232,7 @@
       <c r="I212" s="12"/>
       <c r="J212" s="12"/>
     </row>
-    <row r="213" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:10" ht="22.15" customHeight="1">
       <c r="A213" s="12"/>
       <c r="B213" s="22"/>
       <c r="C213" s="4"/>
@@ -6211,7 +6244,7 @@
       <c r="I213" s="12"/>
       <c r="J213" s="12"/>
     </row>
-    <row r="214" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:10" ht="22.15" customHeight="1">
       <c r="A214" s="12"/>
       <c r="B214" s="22"/>
       <c r="C214" s="4"/>
@@ -6223,7 +6256,7 @@
       <c r="I214" s="12"/>
       <c r="J214" s="12"/>
     </row>
-    <row r="215" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:10" ht="22.15" customHeight="1">
       <c r="A215" s="12"/>
       <c r="B215" s="22"/>
       <c r="C215" s="4"/>
@@ -6235,7 +6268,7 @@
       <c r="I215" s="12"/>
       <c r="J215" s="12"/>
     </row>
-    <row r="216" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:10" ht="22.15" customHeight="1">
       <c r="A216" s="12"/>
       <c r="B216" s="22"/>
       <c r="C216" s="4"/>
@@ -6247,7 +6280,7 @@
       <c r="I216" s="12"/>
       <c r="J216" s="12"/>
     </row>
-    <row r="217" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:10" ht="22.15" customHeight="1">
       <c r="A217" s="12"/>
       <c r="B217" s="22"/>
       <c r="C217" s="4"/>
@@ -6259,7 +6292,7 @@
       <c r="I217" s="12"/>
       <c r="J217" s="12"/>
     </row>
-    <row r="218" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:10" ht="22.15" customHeight="1">
       <c r="A218" s="12"/>
       <c r="B218" s="22"/>
       <c r="C218" s="4"/>
@@ -6271,7 +6304,7 @@
       <c r="I218" s="12"/>
       <c r="J218" s="12"/>
     </row>
-    <row r="219" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:10" ht="22.15" customHeight="1">
       <c r="A219" s="12"/>
       <c r="B219" s="22"/>
       <c r="C219" s="4"/>
@@ -6283,7 +6316,7 @@
       <c r="I219" s="12"/>
       <c r="J219" s="12"/>
     </row>
-    <row r="220" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:10" ht="22.15" customHeight="1">
       <c r="A220" s="12"/>
       <c r="B220" s="22"/>
       <c r="C220" s="4"/>
@@ -6295,7 +6328,7 @@
       <c r="I220" s="12"/>
       <c r="J220" s="12"/>
     </row>
-    <row r="221" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:10" ht="22.15" customHeight="1">
       <c r="A221" s="12"/>
       <c r="B221" s="22"/>
       <c r="C221" s="4"/>
@@ -6307,7 +6340,7 @@
       <c r="I221" s="12"/>
       <c r="J221" s="12"/>
     </row>
-    <row r="222" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="222" spans="1:10" ht="22.15" customHeight="1">
       <c r="A222" s="12"/>
       <c r="B222" s="22"/>
       <c r="C222" s="4"/>
@@ -6319,7 +6352,7 @@
       <c r="I222" s="12"/>
       <c r="J222" s="12"/>
     </row>
-    <row r="223" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:10" ht="22.15" customHeight="1">
       <c r="A223" s="12"/>
       <c r="B223" s="22"/>
       <c r="C223" s="4"/>
@@ -6331,7 +6364,7 @@
       <c r="I223" s="12"/>
       <c r="J223" s="12"/>
     </row>
-    <row r="224" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:10" ht="22.15" customHeight="1">
       <c r="A224" s="12"/>
       <c r="B224" s="22"/>
       <c r="C224" s="4"/>
@@ -6343,7 +6376,7 @@
       <c r="I224" s="12"/>
       <c r="J224" s="12"/>
     </row>
-    <row r="225" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="225" spans="1:10" ht="22.15" customHeight="1">
       <c r="A225" s="12"/>
       <c r="B225" s="22"/>
       <c r="C225" s="4"/>
@@ -6355,7 +6388,7 @@
       <c r="I225" s="12"/>
       <c r="J225" s="12"/>
     </row>
-    <row r="226" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="226" spans="1:10" ht="22.15" customHeight="1">
       <c r="A226" s="12"/>
       <c r="B226" s="22"/>
       <c r="C226" s="4"/>
@@ -6367,7 +6400,7 @@
       <c r="I226" s="12"/>
       <c r="J226" s="12"/>
     </row>
-    <row r="227" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="227" spans="1:10" ht="22.15" customHeight="1">
       <c r="A227" s="12"/>
       <c r="B227" s="22"/>
       <c r="C227" s="4"/>
@@ -6379,7 +6412,7 @@
       <c r="I227" s="12"/>
       <c r="J227" s="12"/>
     </row>
-    <row r="228" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="228" spans="1:10" ht="22.15" customHeight="1">
       <c r="A228" s="12"/>
       <c r="B228" s="22"/>
       <c r="C228" s="4"/>
@@ -6391,7 +6424,7 @@
       <c r="I228" s="12"/>
       <c r="J228" s="12"/>
     </row>
-    <row r="229" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="229" spans="1:10" ht="22.15" customHeight="1">
       <c r="A229" s="12"/>
       <c r="B229" s="22"/>
       <c r="C229" s="4"/>
@@ -6403,7 +6436,7 @@
       <c r="I229" s="12"/>
       <c r="J229" s="12"/>
     </row>
-    <row r="230" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="230" spans="1:10" ht="22.15" customHeight="1">
       <c r="A230" s="12"/>
       <c r="B230" s="22"/>
       <c r="C230" s="4"/>
@@ -6415,7 +6448,7 @@
       <c r="I230" s="12"/>
       <c r="J230" s="12"/>
     </row>
-    <row r="231" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="231" spans="1:10" ht="22.15" customHeight="1">
       <c r="A231" s="12"/>
       <c r="B231" s="22"/>
       <c r="C231" s="4"/>
@@ -6427,7 +6460,7 @@
       <c r="I231" s="12"/>
       <c r="J231" s="12"/>
     </row>
-    <row r="232" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="232" spans="1:10" ht="22.15" customHeight="1">
       <c r="A232" s="12"/>
       <c r="B232" s="22"/>
       <c r="C232" s="4"/>
@@ -6439,7 +6472,7 @@
       <c r="I232" s="12"/>
       <c r="J232" s="12"/>
     </row>
-    <row r="233" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="233" spans="1:10" ht="22.15" customHeight="1">
       <c r="A233" s="12"/>
       <c r="B233" s="22"/>
       <c r="C233" s="4"/>
@@ -6451,7 +6484,7 @@
       <c r="I233" s="12"/>
       <c r="J233" s="12"/>
     </row>
-    <row r="234" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="234" spans="1:10" ht="22.15" customHeight="1">
       <c r="A234" s="12"/>
       <c r="B234" s="22"/>
       <c r="C234" s="4"/>
@@ -6463,7 +6496,7 @@
       <c r="I234" s="12"/>
       <c r="J234" s="12"/>
     </row>
-    <row r="235" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:10" ht="22.15" customHeight="1">
       <c r="A235" s="12"/>
       <c r="B235" s="22"/>
       <c r="C235" s="4"/>
@@ -6475,7 +6508,7 @@
       <c r="I235" s="12"/>
       <c r="J235" s="12"/>
     </row>
-    <row r="236" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="236" spans="1:10" ht="22.15" customHeight="1">
       <c r="A236" s="12"/>
       <c r="B236" s="22"/>
       <c r="C236" s="4"/>
@@ -6487,7 +6520,7 @@
       <c r="I236" s="12"/>
       <c r="J236" s="12"/>
     </row>
-    <row r="237" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="237" spans="1:10" ht="22.15" customHeight="1">
       <c r="A237" s="12"/>
       <c r="B237" s="22"/>
       <c r="C237" s="4"/>
@@ -6499,7 +6532,7 @@
       <c r="I237" s="12"/>
       <c r="J237" s="12"/>
     </row>
-    <row r="238" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:10" ht="22.15" customHeight="1">
       <c r="A238" s="12"/>
       <c r="B238" s="22"/>
       <c r="C238" s="4"/>
@@ -6511,7 +6544,7 @@
       <c r="I238" s="12"/>
       <c r="J238" s="12"/>
     </row>
-    <row r="239" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="239" spans="1:10" ht="22.15" customHeight="1">
       <c r="A239" s="12"/>
       <c r="B239" s="22"/>
       <c r="C239" s="4"/>
@@ -6523,7 +6556,7 @@
       <c r="I239" s="12"/>
       <c r="J239" s="12"/>
     </row>
-    <row r="240" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="240" spans="1:10" ht="22.15" customHeight="1">
       <c r="A240" s="12"/>
       <c r="B240" s="22"/>
       <c r="C240" s="4"/>
@@ -6535,7 +6568,7 @@
       <c r="I240" s="12"/>
       <c r="J240" s="12"/>
     </row>
-    <row r="241" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:10" ht="22.15" customHeight="1">
       <c r="A241" s="12"/>
       <c r="B241" s="22"/>
       <c r="C241" s="4"/>
@@ -6547,7 +6580,7 @@
       <c r="I241" s="12"/>
       <c r="J241" s="12"/>
     </row>
-    <row r="242" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="242" spans="1:10" ht="22.15" customHeight="1">
       <c r="A242" s="12"/>
       <c r="B242" s="22"/>
       <c r="C242" s="4"/>
@@ -6559,7 +6592,7 @@
       <c r="I242" s="12"/>
       <c r="J242" s="12"/>
     </row>
-    <row r="243" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="243" spans="1:10" ht="22.15" customHeight="1">
       <c r="A243" s="12"/>
       <c r="B243" s="22"/>
       <c r="C243" s="4"/>
@@ -6571,7 +6604,7 @@
       <c r="I243" s="12"/>
       <c r="J243" s="12"/>
     </row>
-    <row r="244" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="244" spans="1:10" ht="22.15" customHeight="1">
       <c r="A244" s="12"/>
       <c r="B244" s="22"/>
       <c r="C244" s="4"/>
@@ -6583,7 +6616,7 @@
       <c r="I244" s="12"/>
       <c r="J244" s="12"/>
     </row>
-    <row r="245" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="245" spans="1:10" ht="22.15" customHeight="1">
       <c r="A245" s="12"/>
       <c r="B245" s="22"/>
       <c r="C245" s="4"/>
@@ -6595,7 +6628,7 @@
       <c r="I245" s="12"/>
       <c r="J245" s="12"/>
     </row>
-    <row r="246" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="246" spans="1:10" ht="22.15" customHeight="1">
       <c r="A246" s="12"/>
       <c r="B246" s="22"/>
       <c r="C246" s="4"/>
@@ -6607,7 +6640,7 @@
       <c r="I246" s="12"/>
       <c r="J246" s="12"/>
     </row>
-    <row r="247" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="247" spans="1:10" ht="22.15" customHeight="1">
       <c r="A247" s="12"/>
       <c r="B247" s="22"/>
       <c r="C247" s="4"/>
@@ -6619,7 +6652,7 @@
       <c r="I247" s="12"/>
       <c r="J247" s="12"/>
     </row>
-    <row r="248" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="248" spans="1:10" ht="22.15" customHeight="1">
       <c r="A248" s="12"/>
       <c r="B248" s="22"/>
       <c r="C248" s="4"/>
@@ -6631,7 +6664,7 @@
       <c r="I248" s="12"/>
       <c r="J248" s="12"/>
     </row>
-    <row r="249" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="249" spans="1:10" ht="22.15" customHeight="1">
       <c r="A249" s="12"/>
       <c r="B249" s="22"/>
       <c r="C249" s="4"/>
@@ -6643,7 +6676,7 @@
       <c r="I249" s="12"/>
       <c r="J249" s="12"/>
     </row>
-    <row r="250" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="250" spans="1:10" ht="22.15" customHeight="1">
       <c r="A250" s="12"/>
       <c r="B250" s="22"/>
       <c r="C250" s="4"/>
@@ -6655,7 +6688,7 @@
       <c r="I250" s="12"/>
       <c r="J250" s="12"/>
     </row>
-    <row r="251" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="251" spans="1:10" ht="22.15" customHeight="1">
       <c r="A251" s="12"/>
       <c r="B251" s="22"/>
       <c r="C251" s="4"/>
@@ -6667,7 +6700,7 @@
       <c r="I251" s="12"/>
       <c r="J251" s="12"/>
     </row>
-    <row r="252" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="252" spans="1:10" ht="22.15" customHeight="1">
       <c r="A252" s="12"/>
       <c r="B252" s="22"/>
       <c r="C252" s="4"/>
@@ -6679,7 +6712,7 @@
       <c r="I252" s="12"/>
       <c r="J252" s="12"/>
     </row>
-    <row r="253" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="253" spans="1:10" ht="22.15" customHeight="1">
       <c r="A253" s="12"/>
       <c r="B253" s="22"/>
       <c r="C253" s="4"/>
@@ -6691,7 +6724,7 @@
       <c r="I253" s="12"/>
       <c r="J253" s="12"/>
     </row>
-    <row r="254" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="254" spans="1:10" ht="22.15" customHeight="1">
       <c r="A254" s="12"/>
       <c r="B254" s="22"/>
       <c r="C254" s="4"/>
@@ -6703,7 +6736,7 @@
       <c r="I254" s="12"/>
       <c r="J254" s="12"/>
     </row>
-    <row r="255" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="255" spans="1:10" ht="22.15" customHeight="1">
       <c r="A255" s="12"/>
       <c r="B255" s="22"/>
       <c r="C255" s="4"/>
@@ -6715,7 +6748,7 @@
       <c r="I255" s="12"/>
       <c r="J255" s="12"/>
     </row>
-    <row r="256" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="256" spans="1:10" ht="22.15" customHeight="1">
       <c r="A256" s="12"/>
       <c r="B256" s="22"/>
       <c r="C256" s="4"/>
@@ -6727,7 +6760,7 @@
       <c r="I256" s="12"/>
       <c r="J256" s="12"/>
     </row>
-    <row r="257" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="257" spans="1:10" ht="22.15" customHeight="1">
       <c r="A257" s="12"/>
       <c r="B257" s="22"/>
       <c r="C257" s="4"/>
@@ -6739,7 +6772,7 @@
       <c r="I257" s="12"/>
       <c r="J257" s="12"/>
     </row>
-    <row r="258" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="258" spans="1:10" ht="22.15" customHeight="1">
       <c r="A258" s="12"/>
       <c r="B258" s="22"/>
       <c r="C258" s="4"/>
@@ -6751,7 +6784,7 @@
       <c r="I258" s="12"/>
       <c r="J258" s="12"/>
     </row>
-    <row r="259" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="259" spans="1:10" ht="22.15" customHeight="1">
       <c r="A259" s="12"/>
       <c r="B259" s="22"/>
       <c r="C259" s="4"/>
@@ -6763,7 +6796,7 @@
       <c r="I259" s="12"/>
       <c r="J259" s="12"/>
     </row>
-    <row r="260" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="260" spans="1:10" ht="22.15" customHeight="1">
       <c r="A260" s="12"/>
       <c r="B260" s="22"/>
       <c r="C260" s="4"/>
@@ -6775,7 +6808,7 @@
       <c r="I260" s="12"/>
       <c r="J260" s="12"/>
     </row>
-    <row r="261" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="261" spans="1:10" ht="22.15" customHeight="1">
       <c r="A261" s="12"/>
       <c r="B261" s="22"/>
       <c r="C261" s="4"/>
@@ -6787,7 +6820,7 @@
       <c r="I261" s="12"/>
       <c r="J261" s="12"/>
     </row>
-    <row r="262" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="262" spans="1:10" ht="22.15" customHeight="1">
       <c r="A262" s="12"/>
       <c r="B262" s="22"/>
       <c r="C262" s="4"/>
@@ -6799,7 +6832,7 @@
       <c r="I262" s="12"/>
       <c r="J262" s="12"/>
     </row>
-    <row r="263" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="263" spans="1:10" ht="22.15" customHeight="1">
       <c r="A263" s="12"/>
       <c r="B263" s="22"/>
       <c r="C263" s="4"/>
@@ -6811,7 +6844,7 @@
       <c r="I263" s="12"/>
       <c r="J263" s="12"/>
     </row>
-    <row r="264" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="264" spans="1:10" ht="22.15" customHeight="1">
       <c r="A264" s="12"/>
       <c r="B264" s="22"/>
       <c r="C264" s="4"/>
@@ -6823,7 +6856,7 @@
       <c r="I264" s="12"/>
       <c r="J264" s="12"/>
     </row>
-    <row r="265" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="265" spans="1:10" ht="22.15" customHeight="1">
       <c r="A265" s="12"/>
       <c r="B265" s="22"/>
       <c r="C265" s="4"/>
@@ -6835,7 +6868,7 @@
       <c r="I265" s="12"/>
       <c r="J265" s="12"/>
     </row>
-    <row r="266" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="266" spans="1:10" ht="22.15" customHeight="1">
       <c r="A266" s="12"/>
       <c r="B266" s="22"/>
       <c r="C266" s="4"/>
@@ -6847,7 +6880,7 @@
       <c r="I266" s="12"/>
       <c r="J266" s="12"/>
     </row>
-    <row r="267" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="267" spans="1:10" ht="22.15" customHeight="1">
       <c r="A267" s="12"/>
       <c r="B267" s="22"/>
       <c r="C267" s="4"/>
@@ -6859,7 +6892,7 @@
       <c r="I267" s="12"/>
       <c r="J267" s="12"/>
     </row>
-    <row r="268" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="268" spans="1:10" ht="22.15" customHeight="1">
       <c r="A268" s="12"/>
       <c r="B268" s="22"/>
       <c r="C268" s="4"/>
@@ -6871,7 +6904,7 @@
       <c r="I268" s="12"/>
       <c r="J268" s="12"/>
     </row>
-    <row r="269" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="269" spans="1:10" ht="22.15" customHeight="1">
       <c r="A269" s="12"/>
       <c r="B269" s="22"/>
       <c r="C269" s="4"/>
@@ -6883,7 +6916,7 @@
       <c r="I269" s="12"/>
       <c r="J269" s="12"/>
     </row>
-    <row r="270" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="270" spans="1:10" ht="22.15" customHeight="1">
       <c r="A270" s="12"/>
       <c r="B270" s="22"/>
       <c r="C270" s="4"/>
@@ -6895,7 +6928,7 @@
       <c r="I270" s="12"/>
       <c r="J270" s="12"/>
     </row>
-    <row r="271" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="271" spans="1:10" ht="22.15" customHeight="1">
       <c r="A271" s="12"/>
       <c r="B271" s="22"/>
       <c r="C271" s="4"/>
@@ -6907,7 +6940,7 @@
       <c r="I271" s="12"/>
       <c r="J271" s="12"/>
     </row>
-    <row r="272" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="272" spans="1:10" ht="22.15" customHeight="1">
       <c r="A272" s="12"/>
       <c r="B272" s="22"/>
       <c r="C272" s="4"/>
@@ -6919,7 +6952,7 @@
       <c r="I272" s="12"/>
       <c r="J272" s="12"/>
     </row>
-    <row r="273" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="273" spans="1:10" ht="22.15" customHeight="1">
       <c r="A273" s="12"/>
       <c r="B273" s="22"/>
       <c r="C273" s="4"/>
@@ -6931,7 +6964,7 @@
       <c r="I273" s="12"/>
       <c r="J273" s="12"/>
     </row>
-    <row r="274" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="274" spans="1:10" ht="22.15" customHeight="1">
       <c r="A274" s="12"/>
       <c r="B274" s="22"/>
       <c r="C274" s="4"/>
@@ -6943,7 +6976,7 @@
       <c r="I274" s="12"/>
       <c r="J274" s="12"/>
     </row>
-    <row r="275" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="275" spans="1:10" ht="22.15" customHeight="1">
       <c r="A275" s="12"/>
       <c r="B275" s="22"/>
       <c r="C275" s="4"/>
@@ -6955,7 +6988,7 @@
       <c r="I275" s="12"/>
       <c r="J275" s="12"/>
     </row>
-    <row r="276" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="276" spans="1:10" ht="22.15" customHeight="1">
       <c r="A276" s="12"/>
       <c r="B276" s="22"/>
       <c r="C276" s="4"/>
@@ -6967,7 +7000,7 @@
       <c r="I276" s="12"/>
       <c r="J276" s="12"/>
     </row>
-    <row r="277" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="277" spans="1:10" ht="22.15" customHeight="1">
       <c r="A277" s="12"/>
       <c r="B277" s="22"/>
       <c r="C277" s="4"/>
@@ -6979,7 +7012,7 @@
       <c r="I277" s="12"/>
       <c r="J277" s="12"/>
     </row>
-    <row r="278" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="278" spans="1:10" ht="22.15" customHeight="1">
       <c r="A278" s="12"/>
       <c r="B278" s="22"/>
       <c r="C278" s="4"/>
@@ -6991,7 +7024,7 @@
       <c r="I278" s="12"/>
       <c r="J278" s="12"/>
     </row>
-    <row r="279" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="279" spans="1:10" ht="22.15" customHeight="1">
       <c r="A279" s="12"/>
       <c r="B279" s="22"/>
       <c r="C279" s="4"/>
@@ -7003,7 +7036,7 @@
       <c r="I279" s="12"/>
       <c r="J279" s="12"/>
     </row>
-    <row r="280" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="280" spans="1:10" ht="22.15" customHeight="1">
       <c r="A280" s="12"/>
       <c r="B280" s="22"/>
       <c r="C280" s="4"/>
@@ -7015,7 +7048,7 @@
       <c r="I280" s="12"/>
       <c r="J280" s="12"/>
     </row>
-    <row r="281" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="281" spans="1:10" ht="22.15" customHeight="1">
       <c r="A281" s="12"/>
       <c r="B281" s="22"/>
       <c r="C281" s="4"/>
@@ -7027,7 +7060,7 @@
       <c r="I281" s="12"/>
       <c r="J281" s="12"/>
     </row>
-    <row r="282" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="282" spans="1:10" ht="22.15" customHeight="1">
       <c r="A282" s="12"/>
       <c r="B282" s="22"/>
       <c r="C282" s="4"/>
@@ -7039,7 +7072,7 @@
       <c r="I282" s="12"/>
       <c r="J282" s="12"/>
     </row>
-    <row r="283" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="283" spans="1:10" ht="22.15" customHeight="1">
       <c r="A283" s="12"/>
       <c r="B283" s="22"/>
       <c r="C283" s="4"/>
@@ -7051,7 +7084,7 @@
       <c r="I283" s="12"/>
       <c r="J283" s="12"/>
     </row>
-    <row r="284" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="284" spans="1:10" ht="22.15" customHeight="1">
       <c r="A284" s="12"/>
       <c r="B284" s="22"/>
       <c r="C284" s="4"/>
@@ -7063,7 +7096,7 @@
       <c r="I284" s="12"/>
       <c r="J284" s="12"/>
     </row>
-    <row r="285" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="285" spans="1:10" ht="22.15" customHeight="1">
       <c r="A285" s="12"/>
       <c r="B285" s="22"/>
       <c r="C285" s="4"/>
@@ -7075,7 +7108,7 @@
       <c r="I285" s="12"/>
       <c r="J285" s="12"/>
     </row>
-    <row r="286" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="286" spans="1:10" ht="22.15" customHeight="1">
       <c r="A286" s="12"/>
       <c r="B286" s="22"/>
       <c r="C286" s="4"/>
@@ -7087,7 +7120,7 @@
       <c r="I286" s="12"/>
       <c r="J286" s="12"/>
     </row>
-    <row r="287" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="287" spans="1:10" ht="22.15" customHeight="1">
       <c r="A287" s="12"/>
       <c r="B287" s="22"/>
       <c r="C287" s="4"/>
@@ -7099,7 +7132,7 @@
       <c r="I287" s="12"/>
       <c r="J287" s="12"/>
     </row>
-    <row r="288" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="288" spans="1:10" ht="22.15" customHeight="1">
       <c r="A288" s="12"/>
       <c r="B288" s="22"/>
       <c r="C288" s="4"/>
@@ -7111,7 +7144,7 @@
       <c r="I288" s="12"/>
       <c r="J288" s="12"/>
     </row>
-    <row r="289" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="289" spans="1:10" ht="22.15" customHeight="1">
       <c r="A289" s="12"/>
       <c r="B289" s="22"/>
       <c r="C289" s="4"/>
@@ -7123,7 +7156,7 @@
       <c r="I289" s="12"/>
       <c r="J289" s="12"/>
     </row>
-    <row r="290" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="290" spans="1:10" ht="22.15" customHeight="1">
       <c r="A290" s="12"/>
       <c r="B290" s="22"/>
       <c r="C290" s="4"/>
@@ -7135,7 +7168,7 @@
       <c r="I290" s="12"/>
       <c r="J290" s="12"/>
     </row>
-    <row r="291" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="291" spans="1:10" ht="22.15" customHeight="1">
       <c r="A291" s="12"/>
       <c r="B291" s="22"/>
       <c r="C291" s="4"/>
@@ -7147,7 +7180,7 @@
       <c r="I291" s="12"/>
       <c r="J291" s="12"/>
     </row>
-    <row r="292" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="292" spans="1:10" ht="22.15" customHeight="1">
       <c r="A292" s="12"/>
       <c r="B292" s="22"/>
       <c r="C292" s="4"/>
@@ -7159,7 +7192,7 @@
       <c r="I292" s="12"/>
       <c r="J292" s="12"/>
     </row>
-    <row r="293" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="293" spans="1:10" ht="22.15" customHeight="1">
       <c r="A293" s="12"/>
       <c r="B293" s="22"/>
       <c r="C293" s="4"/>
@@ -7171,7 +7204,7 @@
       <c r="I293" s="12"/>
       <c r="J293" s="12"/>
     </row>
-    <row r="294" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="294" spans="1:10" ht="22.15" customHeight="1">
       <c r="A294" s="12"/>
       <c r="B294" s="22"/>
       <c r="C294" s="4"/>
@@ -7183,7 +7216,7 @@
       <c r="I294" s="12"/>
       <c r="J294" s="12"/>
     </row>
-    <row r="295" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="295" spans="1:10" ht="22.15" customHeight="1">
       <c r="A295" s="12"/>
       <c r="B295" s="22"/>
       <c r="C295" s="4"/>
@@ -7195,7 +7228,7 @@
       <c r="I295" s="12"/>
       <c r="J295" s="12"/>
     </row>
-    <row r="296" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="296" spans="1:10" ht="22.15" customHeight="1">
       <c r="A296" s="12"/>
       <c r="B296" s="22"/>
       <c r="C296" s="4"/>
@@ -7207,7 +7240,7 @@
       <c r="I296" s="12"/>
       <c r="J296" s="12"/>
     </row>
-    <row r="297" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="297" spans="1:10" ht="22.15" customHeight="1">
       <c r="A297" s="12"/>
       <c r="B297" s="22"/>
       <c r="C297" s="4"/>
@@ -7219,7 +7252,7 @@
       <c r="I297" s="12"/>
       <c r="J297" s="12"/>
     </row>
-    <row r="298" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="298" spans="1:10" ht="22.15" customHeight="1">
       <c r="A298" s="12"/>
       <c r="B298" s="22"/>
       <c r="C298" s="4"/>
@@ -7231,7 +7264,7 @@
       <c r="I298" s="12"/>
       <c r="J298" s="12"/>
     </row>
-    <row r="299" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="299" spans="1:10" ht="22.15" customHeight="1">
       <c r="A299" s="12"/>
       <c r="B299" s="22"/>
       <c r="C299" s="4"/>
@@ -7243,7 +7276,7 @@
       <c r="I299" s="12"/>
       <c r="J299" s="12"/>
     </row>
-    <row r="300" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="300" spans="1:10" ht="22.15" customHeight="1">
       <c r="A300" s="12"/>
       <c r="B300" s="22"/>
       <c r="C300" s="4"/>
@@ -7255,7 +7288,7 @@
       <c r="I300" s="12"/>
       <c r="J300" s="12"/>
     </row>
-    <row r="301" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="301" spans="1:10" ht="22.15" customHeight="1">
       <c r="A301" s="12"/>
       <c r="B301" s="22"/>
       <c r="C301" s="4"/>
@@ -7267,7 +7300,7 @@
       <c r="I301" s="12"/>
       <c r="J301" s="12"/>
     </row>
-    <row r="302" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="302" spans="1:10" ht="22.15" customHeight="1">
       <c r="A302" s="12"/>
       <c r="B302" s="22"/>
       <c r="C302" s="4"/>
@@ -7279,7 +7312,7 @@
       <c r="I302" s="12"/>
       <c r="J302" s="12"/>
     </row>
-    <row r="303" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="303" spans="1:10" ht="22.15" customHeight="1">
       <c r="A303" s="12"/>
       <c r="B303" s="22"/>
       <c r="C303" s="4"/>
@@ -7291,7 +7324,7 @@
       <c r="I303" s="12"/>
       <c r="J303" s="12"/>
     </row>
-    <row r="304" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="304" spans="1:10" ht="22.15" customHeight="1">
       <c r="A304" s="12"/>
       <c r="B304" s="22"/>
       <c r="C304" s="4"/>
@@ -7305,6 +7338,18 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="B157:B162"/>
+    <mergeCell ref="B77:B83"/>
+    <mergeCell ref="B84:B88"/>
+    <mergeCell ref="B89:B93"/>
+    <mergeCell ref="B94:B107"/>
+    <mergeCell ref="B152:B153"/>
+    <mergeCell ref="B108:B117"/>
+    <mergeCell ref="B121:B129"/>
+    <mergeCell ref="B130:B131"/>
+    <mergeCell ref="B139:B141"/>
+    <mergeCell ref="B143:B148"/>
+    <mergeCell ref="B154:B155"/>
     <mergeCell ref="B2:B32"/>
     <mergeCell ref="B59:B65"/>
     <mergeCell ref="B66:B68"/>
@@ -7317,23 +7362,11 @@
     <mergeCell ref="B33:B41"/>
     <mergeCell ref="B69:B76"/>
     <mergeCell ref="B132:B138"/>
-    <mergeCell ref="B157:B162"/>
-    <mergeCell ref="B77:B83"/>
-    <mergeCell ref="B84:B88"/>
-    <mergeCell ref="B89:B93"/>
-    <mergeCell ref="B94:B107"/>
-    <mergeCell ref="B152:B153"/>
-    <mergeCell ref="B108:B117"/>
-    <mergeCell ref="B121:B129"/>
-    <mergeCell ref="B130:B131"/>
-    <mergeCell ref="B139:B141"/>
-    <mergeCell ref="B143:B148"/>
-    <mergeCell ref="B154:B155"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I48:I50 I53:I55">
     <cfRule type="timePeriod" dxfId="0" priority="6" timePeriod="lastMonth">
-      <formula>AND(MONTH(I48)=MONTH(EDATE(TODAY(),0-1)),YEAR(I48)=YEAR(EDATE(TODAY(),0-1)))</formula>
+      <formula>AND(MONTH(I48)=MONTH(TODAY())-1,OR(YEAR(I48)=YEAR(TODAY()),AND(MONTH(I48)=1,YEAR(I48)=YEAR(TODAY())-1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ProjectManagement/文档/问题点一览.xlsx
+++ b/ProjectManagement/文档/问题点一览.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8025"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8025" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="2016-6-15" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="263">
   <si>
     <t>NO</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1033,12 +1034,52 @@
     <t>已完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t xml:space="preserve">问题管理 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日常管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分包合同</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同扫描件在上传之后，没有出现下载按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主合同名称和主合同编号，自动带出来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当点击“清空”按钮时，主合同名称和主合同编号不需要清空。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当点击“清空”按钮时，相关附件中的其它附件列表没有被清空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分包合同里的里程碑完成情况，和里程碑完成情况一致，不需要再次配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分包合同里的付款信息，和收款完成情况一致，不需要再次配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>付款批次改为文本框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1071,6 +1112,15 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
@@ -1205,7 +1255,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1348,6 +1398,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1357,9 +1410,10 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1431,7 +1485,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1463,9 +1517,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1497,6 +1552,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1672,14 +1728,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K304"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C154" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I161" sqref="I161"/>
+    <sheetView topLeftCell="A127" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I134" sqref="I134"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="22.15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="22.15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.875" style="23" customWidth="1"/>
@@ -1695,7 +1751,7 @@
     <col min="12" max="16384" width="8.875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="22.15" customHeight="1">
+    <row r="1" spans="1:11" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1727,7 +1783,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="22.15" customHeight="1">
+    <row r="2" spans="1:11" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="13">
         <v>1</v>
       </c>
@@ -1755,7 +1811,7 @@
       </c>
       <c r="J2" s="12"/>
     </row>
-    <row r="3" spans="1:11" ht="27">
+    <row r="3" spans="1:11" ht="27" x14ac:dyDescent="0.15">
       <c r="A3" s="13">
         <v>2</v>
       </c>
@@ -1781,7 +1837,7 @@
       </c>
       <c r="J3" s="12"/>
     </row>
-    <row r="4" spans="1:11" ht="27">
+    <row r="4" spans="1:11" ht="27" x14ac:dyDescent="0.15">
       <c r="A4" s="13">
         <v>3</v>
       </c>
@@ -1807,7 +1863,7 @@
       </c>
       <c r="J4" s="12"/>
     </row>
-    <row r="5" spans="1:11" ht="22.15" customHeight="1">
+    <row r="5" spans="1:11" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="13">
         <v>4</v>
       </c>
@@ -1833,7 +1889,7 @@
       </c>
       <c r="J5" s="12"/>
     </row>
-    <row r="6" spans="1:11" ht="22.15" customHeight="1">
+    <row r="6" spans="1:11" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="13">
         <v>5</v>
       </c>
@@ -1859,7 +1915,7 @@
       </c>
       <c r="J6" s="12"/>
     </row>
-    <row r="7" spans="1:11" ht="27">
+    <row r="7" spans="1:11" ht="27" x14ac:dyDescent="0.15">
       <c r="A7" s="13">
         <v>6</v>
       </c>
@@ -1885,7 +1941,7 @@
       </c>
       <c r="J7" s="12"/>
     </row>
-    <row r="8" spans="1:11" ht="22.15" customHeight="1">
+    <row r="8" spans="1:11" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="13">
         <v>7</v>
       </c>
@@ -1911,7 +1967,7 @@
       </c>
       <c r="J8" s="12"/>
     </row>
-    <row r="9" spans="1:11" ht="22.15" customHeight="1">
+    <row r="9" spans="1:11" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="13">
         <v>8</v>
       </c>
@@ -1937,7 +1993,7 @@
       </c>
       <c r="J9" s="12"/>
     </row>
-    <row r="10" spans="1:11" ht="27">
+    <row r="10" spans="1:11" ht="27" x14ac:dyDescent="0.15">
       <c r="A10" s="13">
         <v>9</v>
       </c>
@@ -1970,7 +2026,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="22.15" customHeight="1">
+    <row r="11" spans="1:11" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="13">
         <v>10</v>
       </c>
@@ -1996,7 +2052,7 @@
       </c>
       <c r="J11" s="12"/>
     </row>
-    <row r="12" spans="1:11" ht="22.15" customHeight="1">
+    <row r="12" spans="1:11" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="13">
         <v>11</v>
       </c>
@@ -2022,7 +2078,7 @@
       </c>
       <c r="J12" s="12"/>
     </row>
-    <row r="13" spans="1:11" ht="22.15" customHeight="1">
+    <row r="13" spans="1:11" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="13">
         <v>12</v>
       </c>
@@ -2048,7 +2104,7 @@
       </c>
       <c r="J13" s="12"/>
     </row>
-    <row r="14" spans="1:11" ht="22.15" customHeight="1">
+    <row r="14" spans="1:11" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="13">
         <v>13</v>
       </c>
@@ -2074,7 +2130,7 @@
       </c>
       <c r="J14" s="12"/>
     </row>
-    <row r="15" spans="1:11" s="16" customFormat="1" ht="27">
+    <row r="15" spans="1:11" s="16" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A15" s="13">
         <v>14</v>
       </c>
@@ -2100,7 +2156,7 @@
       </c>
       <c r="J15" s="7"/>
     </row>
-    <row r="16" spans="1:11" s="16" customFormat="1" ht="40.5">
+    <row r="16" spans="1:11" s="16" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A16" s="13">
         <v>15</v>
       </c>
@@ -2129,7 +2185,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="17" spans="1:11" s="16" customFormat="1" ht="27">
+    <row r="17" spans="1:11" s="16" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A17" s="13">
         <v>16</v>
       </c>
@@ -2155,7 +2211,7 @@
       </c>
       <c r="J17" s="7"/>
     </row>
-    <row r="18" spans="1:11" ht="27">
+    <row r="18" spans="1:11" ht="27" x14ac:dyDescent="0.15">
       <c r="A18" s="13">
         <v>17</v>
       </c>
@@ -2182,7 +2238,7 @@
       <c r="J18" s="18"/>
       <c r="K18" s="16"/>
     </row>
-    <row r="19" spans="1:11" ht="18" customHeight="1">
+    <row r="19" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="32">
         <v>18</v>
       </c>
@@ -2209,7 +2265,7 @@
       <c r="J19" s="18"/>
       <c r="K19" s="16"/>
     </row>
-    <row r="20" spans="1:11" ht="22.15" customHeight="1">
+    <row r="20" spans="1:11" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="32">
         <v>19</v>
       </c>
@@ -2236,7 +2292,7 @@
       <c r="J20" s="18"/>
       <c r="K20" s="16"/>
     </row>
-    <row r="21" spans="1:11" ht="13.5">
+    <row r="21" spans="1:11" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A21" s="32">
         <v>20</v>
       </c>
@@ -2263,7 +2319,7 @@
       <c r="J21" s="18"/>
       <c r="K21" s="16"/>
     </row>
-    <row r="22" spans="1:11" ht="27">
+    <row r="22" spans="1:11" ht="27" x14ac:dyDescent="0.15">
       <c r="A22" s="32">
         <v>21</v>
       </c>
@@ -2290,7 +2346,7 @@
       <c r="J22" s="18"/>
       <c r="K22" s="16"/>
     </row>
-    <row r="23" spans="1:11" ht="27">
+    <row r="23" spans="1:11" ht="27" x14ac:dyDescent="0.15">
       <c r="A23" s="32">
         <v>22</v>
       </c>
@@ -2317,7 +2373,7 @@
       <c r="J23" s="18"/>
       <c r="K23" s="16"/>
     </row>
-    <row r="24" spans="1:11" ht="27">
+    <row r="24" spans="1:11" ht="27" x14ac:dyDescent="0.15">
       <c r="A24" s="32">
         <v>23</v>
       </c>
@@ -2344,7 +2400,7 @@
       <c r="J24" s="18"/>
       <c r="K24" s="16"/>
     </row>
-    <row r="25" spans="1:11" s="28" customFormat="1" ht="40.5">
+    <row r="25" spans="1:11" s="28" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A25" s="32">
         <v>24</v>
       </c>
@@ -2371,7 +2427,7 @@
       <c r="J25" s="36"/>
       <c r="K25" s="34"/>
     </row>
-    <row r="26" spans="1:11" s="28" customFormat="1" ht="27">
+    <row r="26" spans="1:11" s="28" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A26" s="32">
         <v>25</v>
       </c>
@@ -2398,7 +2454,7 @@
       <c r="J26" s="36"/>
       <c r="K26" s="34"/>
     </row>
-    <row r="27" spans="1:11" s="34" customFormat="1" ht="13.5">
+    <row r="27" spans="1:11" s="34" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A27" s="32">
         <v>26</v>
       </c>
@@ -2424,7 +2480,7 @@
       </c>
       <c r="J27" s="29"/>
     </row>
-    <row r="28" spans="1:11" s="34" customFormat="1" ht="13.5">
+    <row r="28" spans="1:11" s="34" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A28" s="32">
         <v>27</v>
       </c>
@@ -2450,7 +2506,7 @@
       </c>
       <c r="J28" s="29"/>
     </row>
-    <row r="29" spans="1:11" s="34" customFormat="1" ht="27">
+    <row r="29" spans="1:11" s="34" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A29" s="32"/>
       <c r="B29" s="45"/>
       <c r="C29" s="6" t="s">
@@ -2468,7 +2524,7 @@
       <c r="I29" s="29"/>
       <c r="J29" s="29"/>
     </row>
-    <row r="30" spans="1:11" s="34" customFormat="1" ht="13.5">
+    <row r="30" spans="1:11" s="34" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A30" s="32"/>
       <c r="B30" s="45"/>
       <c r="C30" s="6"/>
@@ -2480,7 +2536,7 @@
       <c r="I30" s="29"/>
       <c r="J30" s="29"/>
     </row>
-    <row r="31" spans="1:11" s="34" customFormat="1" ht="13.5">
+    <row r="31" spans="1:11" s="34" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A31" s="32"/>
       <c r="B31" s="45"/>
       <c r="C31" s="6"/>
@@ -2492,7 +2548,7 @@
       <c r="I31" s="29"/>
       <c r="J31" s="29"/>
     </row>
-    <row r="32" spans="1:11" s="34" customFormat="1" ht="13.5">
+    <row r="32" spans="1:11" s="34" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A32" s="32"/>
       <c r="B32" s="46"/>
       <c r="C32" s="6"/>
@@ -2504,7 +2560,7 @@
       <c r="I32" s="29"/>
       <c r="J32" s="29"/>
     </row>
-    <row r="33" spans="1:10" ht="22.15" customHeight="1">
+    <row r="33" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="32">
         <v>28</v>
       </c>
@@ -2532,7 +2588,7 @@
       </c>
       <c r="J33" s="12"/>
     </row>
-    <row r="34" spans="1:10" ht="22.15" customHeight="1">
+    <row r="34" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="32">
         <v>29</v>
       </c>
@@ -2558,7 +2614,7 @@
       </c>
       <c r="J34" s="12"/>
     </row>
-    <row r="35" spans="1:10" ht="27">
+    <row r="35" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A35" s="32">
         <v>30</v>
       </c>
@@ -2584,7 +2640,7 @@
       </c>
       <c r="J35" s="12"/>
     </row>
-    <row r="36" spans="1:10" ht="19.5" customHeight="1">
+    <row r="36" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="32">
         <v>31</v>
       </c>
@@ -2610,7 +2666,7 @@
       </c>
       <c r="J36" s="12"/>
     </row>
-    <row r="37" spans="1:10" ht="27">
+    <row r="37" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A37" s="32">
         <v>32</v>
       </c>
@@ -2636,7 +2692,7 @@
       </c>
       <c r="J37" s="12"/>
     </row>
-    <row r="38" spans="1:10" s="26" customFormat="1" ht="13.5">
+    <row r="38" spans="1:10" s="26" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A38" s="32">
         <v>33</v>
       </c>
@@ -2662,7 +2718,7 @@
       </c>
       <c r="J38" s="11"/>
     </row>
-    <row r="39" spans="1:10" s="26" customFormat="1" ht="40.5">
+    <row r="39" spans="1:10" s="26" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A39" s="32">
         <v>34</v>
       </c>
@@ -2688,7 +2744,7 @@
       </c>
       <c r="J39" s="11"/>
     </row>
-    <row r="40" spans="1:10" s="26" customFormat="1" ht="27">
+    <row r="40" spans="1:10" s="26" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A40" s="32">
         <v>35</v>
       </c>
@@ -2714,7 +2770,7 @@
       </c>
       <c r="J40" s="11"/>
     </row>
-    <row r="41" spans="1:10" s="26" customFormat="1" ht="27">
+    <row r="41" spans="1:10" s="26" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A41" s="32">
         <v>36</v>
       </c>
@@ -2734,7 +2790,7 @@
       <c r="I41" s="11"/>
       <c r="J41" s="11"/>
     </row>
-    <row r="42" spans="1:10" ht="40.5">
+    <row r="42" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A42" s="32">
         <v>37</v>
       </c>
@@ -2764,7 +2820,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="27">
+    <row r="43" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A43" s="32">
         <v>38</v>
       </c>
@@ -2790,7 +2846,7 @@
       </c>
       <c r="J43" s="12"/>
     </row>
-    <row r="44" spans="1:10" ht="27">
+    <row r="44" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A44" s="32">
         <v>39</v>
       </c>
@@ -2816,7 +2872,7 @@
       </c>
       <c r="J44" s="12"/>
     </row>
-    <row r="45" spans="1:10" ht="22.15" customHeight="1">
+    <row r="45" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="32">
         <v>40</v>
       </c>
@@ -2842,7 +2898,7 @@
       </c>
       <c r="J45" s="12"/>
     </row>
-    <row r="46" spans="1:10" ht="27">
+    <row r="46" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A46" s="32">
         <v>41</v>
       </c>
@@ -2868,7 +2924,7 @@
       </c>
       <c r="J46" s="12"/>
     </row>
-    <row r="47" spans="1:10" ht="22.15" customHeight="1">
+    <row r="47" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="32">
         <v>42</v>
       </c>
@@ -2894,7 +2950,7 @@
       </c>
       <c r="J47" s="12"/>
     </row>
-    <row r="48" spans="1:10" ht="27">
+    <row r="48" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A48" s="32">
         <v>43</v>
       </c>
@@ -2920,7 +2976,7 @@
       </c>
       <c r="J48" s="12"/>
     </row>
-    <row r="49" spans="1:10" ht="27">
+    <row r="49" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A49" s="32">
         <v>44</v>
       </c>
@@ -2948,7 +3004,7 @@
       </c>
       <c r="J49" s="12"/>
     </row>
-    <row r="50" spans="1:10" s="16" customFormat="1" ht="54">
+    <row r="50" spans="1:10" s="16" customFormat="1" ht="54" x14ac:dyDescent="0.15">
       <c r="A50" s="32">
         <v>45</v>
       </c>
@@ -2974,7 +3030,7 @@
       </c>
       <c r="J50" s="7"/>
     </row>
-    <row r="51" spans="1:10" ht="22.15" customHeight="1">
+    <row r="51" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="32">
         <v>46</v>
       </c>
@@ -3000,7 +3056,7 @@
       </c>
       <c r="J51" s="12"/>
     </row>
-    <row r="52" spans="1:10" ht="22.15" customHeight="1">
+    <row r="52" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="32">
         <v>47</v>
       </c>
@@ -3028,7 +3084,7 @@
       </c>
       <c r="J52" s="12"/>
     </row>
-    <row r="53" spans="1:10" ht="27">
+    <row r="53" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A53" s="32">
         <v>48</v>
       </c>
@@ -3056,7 +3112,7 @@
       </c>
       <c r="J53" s="12"/>
     </row>
-    <row r="54" spans="1:10" s="16" customFormat="1" ht="22.15" customHeight="1">
+    <row r="54" spans="1:10" s="16" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="32">
         <v>49</v>
       </c>
@@ -3082,7 +3138,7 @@
       </c>
       <c r="J54" s="7"/>
     </row>
-    <row r="55" spans="1:10" s="16" customFormat="1" ht="22.15" customHeight="1">
+    <row r="55" spans="1:10" s="16" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="32">
         <v>50</v>
       </c>
@@ -3108,7 +3164,7 @@
       </c>
       <c r="J55" s="7"/>
     </row>
-    <row r="56" spans="1:10" ht="22.15" customHeight="1">
+    <row r="56" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="32">
         <v>51</v>
       </c>
@@ -3134,7 +3190,7 @@
       </c>
       <c r="J56" s="12"/>
     </row>
-    <row r="57" spans="1:10" ht="22.15" customHeight="1">
+    <row r="57" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="32">
         <v>52</v>
       </c>
@@ -3162,7 +3218,7 @@
       </c>
       <c r="J57" s="12"/>
     </row>
-    <row r="58" spans="1:10" ht="22.15" customHeight="1">
+    <row r="58" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="32">
         <v>53</v>
       </c>
@@ -3188,7 +3244,7 @@
       </c>
       <c r="J58" s="12"/>
     </row>
-    <row r="59" spans="1:10" ht="22.15" customHeight="1">
+    <row r="59" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="32">
         <v>54</v>
       </c>
@@ -3216,7 +3272,7 @@
       </c>
       <c r="J59" s="12"/>
     </row>
-    <row r="60" spans="1:10" ht="27">
+    <row r="60" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A60" s="32">
         <v>55</v>
       </c>
@@ -3242,7 +3298,7 @@
       </c>
       <c r="J60" s="12"/>
     </row>
-    <row r="61" spans="1:10" ht="22.15" customHeight="1">
+    <row r="61" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="32">
         <v>56</v>
       </c>
@@ -3268,7 +3324,7 @@
       </c>
       <c r="J61" s="12"/>
     </row>
-    <row r="62" spans="1:10" ht="22.15" customHeight="1">
+    <row r="62" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="32">
         <v>57</v>
       </c>
@@ -3294,7 +3350,7 @@
       </c>
       <c r="J62" s="12"/>
     </row>
-    <row r="63" spans="1:10" s="28" customFormat="1" ht="22.15" customHeight="1">
+    <row r="63" spans="1:10" s="28" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="32"/>
       <c r="B63" s="47"/>
       <c r="C63" s="4" t="s">
@@ -3316,7 +3372,7 @@
       <c r="I63" s="12"/>
       <c r="J63" s="12"/>
     </row>
-    <row r="64" spans="1:10" s="28" customFormat="1" ht="40.5">
+    <row r="64" spans="1:10" s="28" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A64" s="32"/>
       <c r="B64" s="47"/>
       <c r="C64" s="4" t="s">
@@ -3340,7 +3396,7 @@
       </c>
       <c r="J64" s="12"/>
     </row>
-    <row r="65" spans="1:10" ht="22.15" customHeight="1">
+    <row r="65" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="32">
         <v>58</v>
       </c>
@@ -3366,7 +3422,7 @@
       </c>
       <c r="J65" s="12"/>
     </row>
-    <row r="66" spans="1:10" ht="22.15" customHeight="1">
+    <row r="66" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="32">
         <v>59</v>
       </c>
@@ -3394,7 +3450,7 @@
       </c>
       <c r="J66" s="12"/>
     </row>
-    <row r="67" spans="1:10" s="28" customFormat="1" ht="22.15" customHeight="1">
+    <row r="67" spans="1:10" s="28" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="32"/>
       <c r="B67" s="47"/>
       <c r="C67" s="4" t="s">
@@ -3418,7 +3474,7 @@
       </c>
       <c r="J67" s="12"/>
     </row>
-    <row r="68" spans="1:10" ht="22.15" customHeight="1">
+    <row r="68" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="32">
         <v>60</v>
       </c>
@@ -3444,7 +3500,7 @@
       </c>
       <c r="J68" s="12"/>
     </row>
-    <row r="69" spans="1:10" ht="22.15" customHeight="1">
+    <row r="69" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="32">
         <v>61</v>
       </c>
@@ -3472,7 +3528,7 @@
       </c>
       <c r="J69" s="12"/>
     </row>
-    <row r="70" spans="1:10" ht="22.15" customHeight="1">
+    <row r="70" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="32">
         <v>62</v>
       </c>
@@ -3498,7 +3554,7 @@
       </c>
       <c r="J70" s="12"/>
     </row>
-    <row r="71" spans="1:10" s="28" customFormat="1" ht="22.15" customHeight="1">
+    <row r="71" spans="1:10" s="28" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="32"/>
       <c r="B71" s="45"/>
       <c r="C71" s="4" t="s">
@@ -3522,7 +3578,7 @@
       </c>
       <c r="J71" s="12"/>
     </row>
-    <row r="72" spans="1:10" s="28" customFormat="1" ht="54">
+    <row r="72" spans="1:10" s="28" customFormat="1" ht="54" x14ac:dyDescent="0.15">
       <c r="A72" s="32"/>
       <c r="B72" s="45"/>
       <c r="C72" s="4" t="s">
@@ -3546,7 +3602,7 @@
       </c>
       <c r="J72" s="12"/>
     </row>
-    <row r="73" spans="1:10" s="28" customFormat="1" ht="81">
+    <row r="73" spans="1:10" s="28" customFormat="1" ht="81" x14ac:dyDescent="0.15">
       <c r="A73" s="32"/>
       <c r="B73" s="45"/>
       <c r="C73" s="4" t="s">
@@ -3572,7 +3628,7 @@
       </c>
       <c r="J73" s="12"/>
     </row>
-    <row r="74" spans="1:10" s="28" customFormat="1" ht="27">
+    <row r="74" spans="1:10" s="28" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A74" s="32"/>
       <c r="B74" s="45"/>
       <c r="C74" s="4" t="s">
@@ -3596,7 +3652,7 @@
       </c>
       <c r="J74" s="12"/>
     </row>
-    <row r="75" spans="1:10" ht="22.15" customHeight="1">
+    <row r="75" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="32">
         <v>64</v>
       </c>
@@ -3624,7 +3680,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="76" spans="1:10" s="26" customFormat="1" ht="27">
+    <row r="76" spans="1:10" s="26" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A76" s="32">
         <v>65</v>
       </c>
@@ -3650,7 +3706,7 @@
       </c>
       <c r="J76" s="11"/>
     </row>
-    <row r="77" spans="1:10" ht="40.5">
+    <row r="77" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A77" s="32">
         <v>66</v>
       </c>
@@ -3678,7 +3734,7 @@
       </c>
       <c r="J77" s="12"/>
     </row>
-    <row r="78" spans="1:10" ht="22.15" customHeight="1">
+    <row r="78" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="32">
         <v>67</v>
       </c>
@@ -3704,7 +3760,7 @@
       </c>
       <c r="J78" s="12"/>
     </row>
-    <row r="79" spans="1:10" ht="22.15" customHeight="1">
+    <row r="79" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="32">
         <v>68</v>
       </c>
@@ -3730,7 +3786,7 @@
       </c>
       <c r="J79" s="12"/>
     </row>
-    <row r="80" spans="1:10" s="28" customFormat="1" ht="22.15" customHeight="1">
+    <row r="80" spans="1:10" s="28" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="32"/>
       <c r="B80" s="47"/>
       <c r="C80" s="4" t="s">
@@ -3750,7 +3806,7 @@
       </c>
       <c r="J80" s="12"/>
     </row>
-    <row r="81" spans="1:10" ht="27">
+    <row r="81" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A81" s="32">
         <v>69</v>
       </c>
@@ -3776,7 +3832,7 @@
       </c>
       <c r="J81" s="12"/>
     </row>
-    <row r="82" spans="1:10" s="28" customFormat="1" ht="40.5">
+    <row r="82" spans="1:10" s="28" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A82" s="32"/>
       <c r="B82" s="47"/>
       <c r="C82" s="4" t="s">
@@ -3800,7 +3856,7 @@
       </c>
       <c r="J82" s="12"/>
     </row>
-    <row r="83" spans="1:10" ht="22.15" customHeight="1">
+    <row r="83" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="32">
         <v>70</v>
       </c>
@@ -3826,7 +3882,7 @@
       </c>
       <c r="J83" s="12"/>
     </row>
-    <row r="84" spans="1:10" ht="27">
+    <row r="84" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A84" s="32">
         <v>71</v>
       </c>
@@ -3856,7 +3912,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="85" spans="1:10" s="28" customFormat="1" ht="13.5">
+    <row r="85" spans="1:10" s="28" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A85" s="32"/>
       <c r="B85" s="47"/>
       <c r="C85" s="4" t="s">
@@ -3880,7 +3936,7 @@
       </c>
       <c r="J85" s="12"/>
     </row>
-    <row r="86" spans="1:10" s="28" customFormat="1" ht="25.9" customHeight="1">
+    <row r="86" spans="1:10" s="28" customFormat="1" ht="25.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="32"/>
       <c r="B86" s="47"/>
       <c r="C86" s="4" t="s">
@@ -3904,7 +3960,7 @@
       </c>
       <c r="J86" s="12"/>
     </row>
-    <row r="87" spans="1:10" ht="22.15" customHeight="1">
+    <row r="87" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="32">
         <v>72</v>
       </c>
@@ -3930,7 +3986,7 @@
       </c>
       <c r="J87" s="12"/>
     </row>
-    <row r="88" spans="1:10" ht="22.15" customHeight="1">
+    <row r="88" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="32">
         <v>73</v>
       </c>
@@ -3956,7 +4012,7 @@
       </c>
       <c r="J88" s="12"/>
     </row>
-    <row r="89" spans="1:10" ht="27">
+    <row r="89" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A89" s="32">
         <v>74</v>
       </c>
@@ -3984,7 +4040,7 @@
       </c>
       <c r="J89" s="12"/>
     </row>
-    <row r="90" spans="1:10" s="28" customFormat="1" ht="13.5">
+    <row r="90" spans="1:10" s="28" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A90" s="32"/>
       <c r="B90" s="47"/>
       <c r="C90" s="4" t="s">
@@ -4008,7 +4064,7 @@
       </c>
       <c r="J90" s="12"/>
     </row>
-    <row r="91" spans="1:10" s="28" customFormat="1" ht="13.5">
+    <row r="91" spans="1:10" s="28" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A91" s="32"/>
       <c r="B91" s="47"/>
       <c r="C91" s="4" t="s">
@@ -4032,7 +4088,7 @@
       </c>
       <c r="J91" s="12"/>
     </row>
-    <row r="92" spans="1:10" ht="22.15" customHeight="1">
+    <row r="92" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="32">
         <v>75</v>
       </c>
@@ -4058,7 +4114,7 @@
       </c>
       <c r="J92" s="12"/>
     </row>
-    <row r="93" spans="1:10" ht="22.15" customHeight="1">
+    <row r="93" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="32">
         <v>76</v>
       </c>
@@ -4084,7 +4140,7 @@
       </c>
       <c r="J93" s="12"/>
     </row>
-    <row r="94" spans="1:10" ht="29.25" customHeight="1">
+    <row r="94" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="32">
         <v>77</v>
       </c>
@@ -4106,7 +4162,7 @@
       <c r="I94" s="12"/>
       <c r="J94" s="12"/>
     </row>
-    <row r="95" spans="1:10" s="28" customFormat="1" ht="28.15" customHeight="1">
+    <row r="95" spans="1:10" s="28" customFormat="1" ht="28.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="32"/>
       <c r="B95" s="47"/>
       <c r="C95" s="4" t="s">
@@ -4130,7 +4186,7 @@
       </c>
       <c r="J95" s="12"/>
     </row>
-    <row r="96" spans="1:10" ht="27">
+    <row r="96" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A96" s="32">
         <v>78</v>
       </c>
@@ -4156,7 +4212,7 @@
       </c>
       <c r="J96" s="12"/>
     </row>
-    <row r="97" spans="1:10" s="28" customFormat="1" ht="27" customHeight="1">
+    <row r="97" spans="1:10" s="28" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="32"/>
       <c r="B97" s="47"/>
       <c r="C97" s="4" t="s">
@@ -4174,7 +4230,7 @@
       <c r="I97" s="12"/>
       <c r="J97" s="12"/>
     </row>
-    <row r="98" spans="1:10" s="28" customFormat="1" ht="24.6" customHeight="1">
+    <row r="98" spans="1:10" s="28" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="32"/>
       <c r="B98" s="47"/>
       <c r="C98" s="4" t="s">
@@ -4198,7 +4254,7 @@
       </c>
       <c r="J98" s="12"/>
     </row>
-    <row r="99" spans="1:10" s="28" customFormat="1" ht="24.6" customHeight="1">
+    <row r="99" spans="1:10" s="28" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="32"/>
       <c r="B99" s="47"/>
       <c r="C99" s="4" t="s">
@@ -4216,7 +4272,7 @@
       <c r="I99" s="12"/>
       <c r="J99" s="12"/>
     </row>
-    <row r="100" spans="1:10" s="28" customFormat="1" ht="24.6" customHeight="1">
+    <row r="100" spans="1:10" s="28" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="32"/>
       <c r="B100" s="47"/>
       <c r="C100" s="4" t="s">
@@ -4234,7 +4290,7 @@
       <c r="I100" s="12"/>
       <c r="J100" s="12"/>
     </row>
-    <row r="101" spans="1:10" s="28" customFormat="1" ht="24.6" customHeight="1">
+    <row r="101" spans="1:10" s="28" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="32"/>
       <c r="B101" s="47"/>
       <c r="C101" s="4" t="s">
@@ -4252,7 +4308,7 @@
       <c r="I101" s="12"/>
       <c r="J101" s="12"/>
     </row>
-    <row r="102" spans="1:10" s="28" customFormat="1" ht="27">
+    <row r="102" spans="1:10" s="28" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A102" s="32"/>
       <c r="B102" s="47"/>
       <c r="C102" s="4" t="s">
@@ -4270,7 +4326,7 @@
       <c r="I102" s="12"/>
       <c r="J102" s="12"/>
     </row>
-    <row r="103" spans="1:10" s="28" customFormat="1" ht="25.9" customHeight="1">
+    <row r="103" spans="1:10" s="28" customFormat="1" ht="25.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="32"/>
       <c r="B103" s="47"/>
       <c r="C103" s="4" t="s">
@@ -4294,7 +4350,7 @@
       </c>
       <c r="J103" s="12"/>
     </row>
-    <row r="104" spans="1:10" s="28" customFormat="1" ht="25.9" customHeight="1">
+    <row r="104" spans="1:10" s="28" customFormat="1" ht="25.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="32"/>
       <c r="B104" s="47"/>
       <c r="C104" s="4" t="s">
@@ -4312,7 +4368,7 @@
       <c r="I104" s="12"/>
       <c r="J104" s="12"/>
     </row>
-    <row r="105" spans="1:10" s="28" customFormat="1" ht="25.9" customHeight="1">
+    <row r="105" spans="1:10" s="28" customFormat="1" ht="25.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="32"/>
       <c r="B105" s="47"/>
       <c r="C105" s="4" t="s">
@@ -4330,7 +4386,7 @@
       <c r="I105" s="12"/>
       <c r="J105" s="12"/>
     </row>
-    <row r="106" spans="1:10" s="28" customFormat="1" ht="25.9" customHeight="1">
+    <row r="106" spans="1:10" s="28" customFormat="1" ht="25.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="32"/>
       <c r="B106" s="47"/>
       <c r="C106" s="4" t="s">
@@ -4348,7 +4404,7 @@
       <c r="I106" s="12"/>
       <c r="J106" s="12"/>
     </row>
-    <row r="107" spans="1:10" ht="22.15" customHeight="1">
+    <row r="107" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="32">
         <v>79</v>
       </c>
@@ -4362,7 +4418,7 @@
       <c r="I107" s="12"/>
       <c r="J107" s="12"/>
     </row>
-    <row r="108" spans="1:10" ht="27.75" customHeight="1">
+    <row r="108" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="32">
         <v>80</v>
       </c>
@@ -4390,7 +4446,7 @@
       </c>
       <c r="J108" s="12"/>
     </row>
-    <row r="109" spans="1:10" s="28" customFormat="1" ht="27.75" customHeight="1">
+    <row r="109" spans="1:10" s="28" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" s="32"/>
       <c r="B109" s="47"/>
       <c r="C109" s="4" t="s">
@@ -4414,7 +4470,7 @@
       </c>
       <c r="J109" s="12"/>
     </row>
-    <row r="110" spans="1:10" s="28" customFormat="1" ht="27.75" customHeight="1">
+    <row r="110" spans="1:10" s="28" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A110" s="32"/>
       <c r="B110" s="47"/>
       <c r="C110" s="4" t="s">
@@ -4438,7 +4494,7 @@
       </c>
       <c r="J110" s="12"/>
     </row>
-    <row r="111" spans="1:10" s="28" customFormat="1" ht="27.75" customHeight="1">
+    <row r="111" spans="1:10" s="28" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="32"/>
       <c r="B111" s="47"/>
       <c r="C111" s="6"/>
@@ -4450,7 +4506,7 @@
       <c r="I111" s="12"/>
       <c r="J111" s="12"/>
     </row>
-    <row r="112" spans="1:10" s="28" customFormat="1" ht="27.75" customHeight="1">
+    <row r="112" spans="1:10" s="28" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="32"/>
       <c r="B112" s="47"/>
       <c r="C112" s="4" t="s">
@@ -4474,7 +4530,7 @@
       </c>
       <c r="J112" s="12"/>
     </row>
-    <row r="113" spans="1:10" s="28" customFormat="1" ht="27.75" customHeight="1">
+    <row r="113" spans="1:10" s="28" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A113" s="32"/>
       <c r="B113" s="47"/>
       <c r="C113" s="4" t="s">
@@ -4498,7 +4554,7 @@
       </c>
       <c r="J113" s="12"/>
     </row>
-    <row r="114" spans="1:10" s="28" customFormat="1" ht="27.75" customHeight="1">
+    <row r="114" spans="1:10" s="28" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" s="32"/>
       <c r="B114" s="47"/>
       <c r="C114" s="4" t="s">
@@ -4522,7 +4578,7 @@
       </c>
       <c r="J114" s="12"/>
     </row>
-    <row r="115" spans="1:10" s="28" customFormat="1" ht="27.75" customHeight="1">
+    <row r="115" spans="1:10" s="28" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A115" s="32"/>
       <c r="B115" s="47"/>
       <c r="C115" s="4" t="s">
@@ -4540,7 +4596,7 @@
       <c r="I115" s="12"/>
       <c r="J115" s="12"/>
     </row>
-    <row r="116" spans="1:10" s="28" customFormat="1" ht="27.75" customHeight="1">
+    <row r="116" spans="1:10" s="28" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A116" s="32"/>
       <c r="B116" s="47"/>
       <c r="C116" s="4" t="s">
@@ -4558,7 +4614,7 @@
       <c r="I116" s="42"/>
       <c r="J116" s="12"/>
     </row>
-    <row r="117" spans="1:10" ht="13.5">
+    <row r="117" spans="1:10" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A117" s="32">
         <v>81</v>
       </c>
@@ -4568,7 +4624,7 @@
       <c r="E117" s="12"/>
       <c r="J117" s="12"/>
     </row>
-    <row r="118" spans="1:10" ht="37.5" customHeight="1">
+    <row r="118" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A118" s="32">
         <v>82</v>
       </c>
@@ -4598,7 +4654,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="119" spans="1:10" s="28" customFormat="1" ht="20.45" customHeight="1">
+    <row r="119" spans="1:10" s="28" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A119" s="32"/>
       <c r="B119" s="45"/>
       <c r="C119" s="4" t="s">
@@ -4622,7 +4678,7 @@
       </c>
       <c r="J119" s="12"/>
     </row>
-    <row r="120" spans="1:10" s="28" customFormat="1" ht="20.45" customHeight="1">
+    <row r="120" spans="1:10" s="28" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A120" s="32"/>
       <c r="B120" s="46"/>
       <c r="C120" s="4" t="s">
@@ -4646,11 +4702,11 @@
       </c>
       <c r="J120" s="12"/>
     </row>
-    <row r="121" spans="1:10" s="20" customFormat="1" ht="22.15" customHeight="1">
+    <row r="121" spans="1:10" s="20" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A121" s="32">
         <v>83</v>
       </c>
-      <c r="B121" s="51" t="s">
+      <c r="B121" s="48" t="s">
         <v>67</v>
       </c>
       <c r="C121" s="8" t="s">
@@ -4674,11 +4730,11 @@
       </c>
       <c r="J121" s="9"/>
     </row>
-    <row r="122" spans="1:10" s="20" customFormat="1" ht="22.15" customHeight="1">
+    <row r="122" spans="1:10" s="20" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A122" s="32">
         <v>84</v>
       </c>
-      <c r="B122" s="51"/>
+      <c r="B122" s="48"/>
       <c r="C122" s="8" t="s">
         <v>95</v>
       </c>
@@ -4694,11 +4750,11 @@
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
     </row>
-    <row r="123" spans="1:10" s="20" customFormat="1" ht="22.15" customHeight="1">
+    <row r="123" spans="1:10" s="20" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A123" s="32">
         <v>85</v>
       </c>
-      <c r="B123" s="51"/>
+      <c r="B123" s="48"/>
       <c r="C123" s="8" t="s">
         <v>187</v>
       </c>
@@ -4714,11 +4770,11 @@
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
     </row>
-    <row r="124" spans="1:10" s="20" customFormat="1" ht="22.15" customHeight="1">
+    <row r="124" spans="1:10" s="20" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A124" s="32">
         <v>86</v>
       </c>
-      <c r="B124" s="51"/>
+      <c r="B124" s="48"/>
       <c r="C124" s="8" t="s">
         <v>186</v>
       </c>
@@ -4734,9 +4790,9 @@
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
     </row>
-    <row r="125" spans="1:10" s="20" customFormat="1" ht="22.15" customHeight="1">
+    <row r="125" spans="1:10" s="20" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A125" s="32"/>
-      <c r="B125" s="51"/>
+      <c r="B125" s="48"/>
       <c r="C125" s="8" t="s">
         <v>188</v>
       </c>
@@ -4752,9 +4808,9 @@
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
     </row>
-    <row r="126" spans="1:10" s="20" customFormat="1" ht="22.15" customHeight="1">
+    <row r="126" spans="1:10" s="20" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A126" s="32"/>
-      <c r="B126" s="51"/>
+      <c r="B126" s="48"/>
       <c r="C126" s="8" t="s">
         <v>189</v>
       </c>
@@ -4770,9 +4826,9 @@
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
     </row>
-    <row r="127" spans="1:10" s="20" customFormat="1" ht="22.15" customHeight="1">
+    <row r="127" spans="1:10" s="20" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A127" s="32"/>
-      <c r="B127" s="51"/>
+      <c r="B127" s="48"/>
       <c r="C127" s="8" t="s">
         <v>190</v>
       </c>
@@ -4788,9 +4844,9 @@
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
     </row>
-    <row r="128" spans="1:10" s="20" customFormat="1" ht="22.15" customHeight="1">
+    <row r="128" spans="1:10" s="20" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A128" s="32"/>
-      <c r="B128" s="51"/>
+      <c r="B128" s="48"/>
       <c r="C128" s="8" t="s">
         <v>208</v>
       </c>
@@ -4806,11 +4862,11 @@
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
     </row>
-    <row r="129" spans="1:10" s="20" customFormat="1" ht="27">
+    <row r="129" spans="1:10" s="20" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A129" s="32">
         <v>87</v>
       </c>
-      <c r="B129" s="51"/>
+      <c r="B129" s="48"/>
       <c r="C129" s="8" t="s">
         <v>185</v>
       </c>
@@ -4826,7 +4882,7 @@
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
     </row>
-    <row r="130" spans="1:10" ht="22.15" customHeight="1">
+    <row r="130" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A130" s="32">
         <v>88</v>
       </c>
@@ -4854,7 +4910,7 @@
       </c>
       <c r="J130" s="12"/>
     </row>
-    <row r="131" spans="1:10" ht="22.15" customHeight="1">
+    <row r="131" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A131" s="32">
         <v>89</v>
       </c>
@@ -4880,7 +4936,7 @@
       </c>
       <c r="J131" s="12"/>
     </row>
-    <row r="132" spans="1:10" ht="22.15" customHeight="1">
+    <row r="132" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A132" s="32">
         <v>90</v>
       </c>
@@ -4908,7 +4964,7 @@
       </c>
       <c r="J132" s="12"/>
     </row>
-    <row r="133" spans="1:10" s="28" customFormat="1" ht="22.15" customHeight="1">
+    <row r="133" spans="1:10" s="28" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A133" s="32"/>
       <c r="B133" s="45"/>
       <c r="C133" s="4" t="s">
@@ -4932,7 +4988,7 @@
       </c>
       <c r="J133" s="12"/>
     </row>
-    <row r="134" spans="1:10" s="28" customFormat="1" ht="22.15" customHeight="1">
+    <row r="134" spans="1:10" s="28" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A134" s="32"/>
       <c r="B134" s="45"/>
       <c r="C134" s="4" t="s">
@@ -4950,7 +5006,7 @@
       <c r="I134" s="12"/>
       <c r="J134" s="12"/>
     </row>
-    <row r="135" spans="1:10" s="28" customFormat="1" ht="22.15" customHeight="1">
+    <row r="135" spans="1:10" s="28" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A135" s="32"/>
       <c r="B135" s="45"/>
       <c r="C135" s="4" t="s">
@@ -4974,7 +5030,7 @@
       </c>
       <c r="J135" s="12"/>
     </row>
-    <row r="136" spans="1:10" s="28" customFormat="1" ht="27">
+    <row r="136" spans="1:10" s="28" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A136" s="32"/>
       <c r="B136" s="45"/>
       <c r="C136" s="4" t="s">
@@ -4992,7 +5048,7 @@
       <c r="I136" s="12"/>
       <c r="J136" s="12"/>
     </row>
-    <row r="137" spans="1:10" s="28" customFormat="1" ht="29.45" customHeight="1">
+    <row r="137" spans="1:10" s="28" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A137" s="32"/>
       <c r="B137" s="45"/>
       <c r="C137" s="4" t="s">
@@ -5012,7 +5068,7 @@
       </c>
       <c r="J137" s="12"/>
     </row>
-    <row r="138" spans="1:10" ht="27">
+    <row r="138" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A138" s="32">
         <v>91</v>
       </c>
@@ -5038,7 +5094,7 @@
       </c>
       <c r="J138" s="12"/>
     </row>
-    <row r="139" spans="1:10" ht="22.15" customHeight="1">
+    <row r="139" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A139" s="32">
         <v>92</v>
       </c>
@@ -5066,7 +5122,7 @@
       </c>
       <c r="J139" s="12"/>
     </row>
-    <row r="140" spans="1:10" ht="22.15" customHeight="1">
+    <row r="140" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A140" s="32">
         <v>93</v>
       </c>
@@ -5092,7 +5148,7 @@
       </c>
       <c r="J140" s="12"/>
     </row>
-    <row r="141" spans="1:10" ht="22.15" customHeight="1">
+    <row r="141" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A141" s="32">
         <v>94</v>
       </c>
@@ -5118,7 +5174,7 @@
       </c>
       <c r="J141" s="12"/>
     </row>
-    <row r="142" spans="1:10" s="28" customFormat="1" ht="40.9" customHeight="1">
+    <row r="142" spans="1:10" s="28" customFormat="1" ht="40.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A142" s="32"/>
       <c r="B142" s="41" t="s">
         <v>197</v>
@@ -5144,7 +5200,7 @@
       </c>
       <c r="J142" s="12"/>
     </row>
-    <row r="143" spans="1:10" ht="27">
+    <row r="143" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A143" s="32">
         <v>95</v>
       </c>
@@ -5172,7 +5228,7 @@
       </c>
       <c r="J143" s="12"/>
     </row>
-    <row r="144" spans="1:10" s="28" customFormat="1" ht="13.5">
+    <row r="144" spans="1:10" s="28" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A144" s="32"/>
       <c r="B144" s="45"/>
       <c r="C144" s="4" t="s">
@@ -5190,7 +5246,7 @@
       <c r="I144" s="12"/>
       <c r="J144" s="12"/>
     </row>
-    <row r="145" spans="1:10" ht="27">
+    <row r="145" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A145" s="32">
         <v>96</v>
       </c>
@@ -5210,7 +5266,7 @@
       <c r="I145" s="12"/>
       <c r="J145" s="12"/>
     </row>
-    <row r="146" spans="1:10" s="28" customFormat="1" ht="27">
+    <row r="146" spans="1:10" s="28" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A146" s="32"/>
       <c r="B146" s="45"/>
       <c r="C146" s="4" t="s">
@@ -5228,7 +5284,7 @@
       <c r="I146" s="12"/>
       <c r="J146" s="12"/>
     </row>
-    <row r="147" spans="1:10" s="28" customFormat="1" ht="13.5">
+    <row r="147" spans="1:10" s="28" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A147" s="32"/>
       <c r="B147" s="45"/>
       <c r="C147" s="4" t="s">
@@ -5246,7 +5302,7 @@
       <c r="I147" s="12"/>
       <c r="J147" s="12"/>
     </row>
-    <row r="148" spans="1:10" ht="22.15" customHeight="1">
+    <row r="148" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A148" s="32">
         <v>97</v>
       </c>
@@ -5262,21 +5318,21 @@
       <c r="I148" s="12"/>
       <c r="J148" s="12"/>
     </row>
-    <row r="149" spans="1:10" s="28" customFormat="1" ht="22.15" customHeight="1">
-      <c r="A149" s="48" t="s">
+    <row r="149" spans="1:10" s="28" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A149" s="49" t="s">
         <v>195</v>
       </c>
-      <c r="B149" s="49"/>
-      <c r="C149" s="49"/>
-      <c r="D149" s="49"/>
-      <c r="E149" s="49"/>
-      <c r="F149" s="49"/>
-      <c r="G149" s="49"/>
-      <c r="H149" s="49"/>
-      <c r="I149" s="49"/>
-      <c r="J149" s="50"/>
-    </row>
-    <row r="150" spans="1:10" ht="40.5">
+      <c r="B149" s="50"/>
+      <c r="C149" s="50"/>
+      <c r="D149" s="50"/>
+      <c r="E149" s="50"/>
+      <c r="F149" s="50"/>
+      <c r="G149" s="50"/>
+      <c r="H149" s="50"/>
+      <c r="I149" s="50"/>
+      <c r="J149" s="51"/>
+    </row>
+    <row r="150" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A150" s="32">
         <v>98</v>
       </c>
@@ -5304,7 +5360,7 @@
       </c>
       <c r="J150" s="12"/>
     </row>
-    <row r="151" spans="1:10" ht="22.15" customHeight="1">
+    <row r="151" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A151" s="32">
         <v>99</v>
       </c>
@@ -5330,7 +5386,7 @@
       </c>
       <c r="J151" s="12"/>
     </row>
-    <row r="152" spans="1:10" ht="40.5">
+    <row r="152" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A152" s="32">
         <v>100</v>
       </c>
@@ -5358,7 +5414,7 @@
       </c>
       <c r="J152" s="12"/>
     </row>
-    <row r="153" spans="1:10" ht="22.15" customHeight="1">
+    <row r="153" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A153" s="32">
         <v>101</v>
       </c>
@@ -5384,7 +5440,7 @@
       </c>
       <c r="J153" s="12"/>
     </row>
-    <row r="154" spans="1:10" ht="41.25" customHeight="1">
+    <row r="154" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A154" s="32">
         <v>102</v>
       </c>
@@ -5412,7 +5468,7 @@
       </c>
       <c r="J154" s="12"/>
     </row>
-    <row r="155" spans="1:10" s="26" customFormat="1" ht="27">
+    <row r="155" spans="1:10" s="26" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A155" s="32">
         <v>103</v>
       </c>
@@ -5432,7 +5488,7 @@
       <c r="I155" s="11"/>
       <c r="J155" s="11"/>
     </row>
-    <row r="156" spans="1:10" ht="42">
+    <row r="156" spans="1:10" ht="42" x14ac:dyDescent="0.15">
       <c r="A156" s="32">
         <v>104</v>
       </c>
@@ -5460,7 +5516,7 @@
       </c>
       <c r="J156" s="12"/>
     </row>
-    <row r="157" spans="1:10" ht="22.15" customHeight="1">
+    <row r="157" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A157" s="32">
         <v>105</v>
       </c>
@@ -5488,7 +5544,7 @@
       </c>
       <c r="J157" s="12"/>
     </row>
-    <row r="158" spans="1:10" s="28" customFormat="1" ht="22.15" customHeight="1">
+    <row r="158" spans="1:10" s="28" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A158" s="32"/>
       <c r="B158" s="45"/>
       <c r="C158" s="4" t="s">
@@ -5512,7 +5568,7 @@
       </c>
       <c r="J158" s="12"/>
     </row>
-    <row r="159" spans="1:10" ht="22.15" customHeight="1">
+    <row r="159" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A159" s="32">
         <v>106</v>
       </c>
@@ -5538,7 +5594,7 @@
       </c>
       <c r="J159" s="12"/>
     </row>
-    <row r="160" spans="1:10" s="28" customFormat="1" ht="22.15" customHeight="1">
+    <row r="160" spans="1:10" s="28" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A160" s="32"/>
       <c r="B160" s="45"/>
       <c r="C160" s="4" t="s">
@@ -5562,7 +5618,7 @@
       </c>
       <c r="J160" s="12"/>
     </row>
-    <row r="161" spans="1:10" s="28" customFormat="1" ht="22.15" customHeight="1">
+    <row r="161" spans="1:10" s="28" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A161" s="32"/>
       <c r="B161" s="45"/>
       <c r="C161" s="4" t="s">
@@ -5586,7 +5642,7 @@
       </c>
       <c r="J161" s="12"/>
     </row>
-    <row r="162" spans="1:10" ht="27">
+    <row r="162" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A162" s="32">
         <v>107</v>
       </c>
@@ -5612,7 +5668,7 @@
       </c>
       <c r="J162" s="12"/>
     </row>
-    <row r="163" spans="1:10" s="26" customFormat="1" ht="27">
+    <row r="163" spans="1:10" s="26" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A163" s="32">
         <v>108</v>
       </c>
@@ -5634,7 +5690,7 @@
       <c r="I163" s="11"/>
       <c r="J163" s="11"/>
     </row>
-    <row r="164" spans="1:10" ht="27">
+    <row r="164" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A164" s="32">
         <v>109</v>
       </c>
@@ -5656,7 +5712,7 @@
       <c r="I164" s="12"/>
       <c r="J164" s="12"/>
     </row>
-    <row r="165" spans="1:10" ht="22.15" customHeight="1">
+    <row r="165" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A165" s="12"/>
       <c r="B165" s="22"/>
       <c r="C165" s="4"/>
@@ -5668,7 +5724,7 @@
       <c r="I165" s="12"/>
       <c r="J165" s="12"/>
     </row>
-    <row r="166" spans="1:10" ht="22.15" customHeight="1">
+    <row r="166" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A166" s="12"/>
       <c r="B166" s="22"/>
       <c r="C166" s="4"/>
@@ -5680,7 +5736,7 @@
       <c r="I166" s="12"/>
       <c r="J166" s="12"/>
     </row>
-    <row r="167" spans="1:10" ht="22.15" customHeight="1">
+    <row r="167" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A167" s="12"/>
       <c r="B167" s="22"/>
       <c r="C167" s="4"/>
@@ -5692,7 +5748,7 @@
       <c r="I167" s="12"/>
       <c r="J167" s="12"/>
     </row>
-    <row r="168" spans="1:10" ht="22.15" customHeight="1">
+    <row r="168" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A168" s="12"/>
       <c r="B168" s="22"/>
       <c r="C168" s="4"/>
@@ -5704,7 +5760,7 @@
       <c r="I168" s="12"/>
       <c r="J168" s="12"/>
     </row>
-    <row r="169" spans="1:10" ht="22.15" customHeight="1">
+    <row r="169" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A169" s="12"/>
       <c r="B169" s="22"/>
       <c r="C169" s="4"/>
@@ -5716,7 +5772,7 @@
       <c r="I169" s="12"/>
       <c r="J169" s="12"/>
     </row>
-    <row r="170" spans="1:10" ht="22.15" customHeight="1">
+    <row r="170" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A170" s="12"/>
       <c r="B170" s="22"/>
       <c r="C170" s="4"/>
@@ -5728,7 +5784,7 @@
       <c r="I170" s="12"/>
       <c r="J170" s="12"/>
     </row>
-    <row r="171" spans="1:10" ht="22.15" customHeight="1">
+    <row r="171" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A171" s="12"/>
       <c r="B171" s="22"/>
       <c r="C171" s="4"/>
@@ -5740,7 +5796,7 @@
       <c r="I171" s="12"/>
       <c r="J171" s="12"/>
     </row>
-    <row r="172" spans="1:10" ht="22.15" customHeight="1">
+    <row r="172" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A172" s="12"/>
       <c r="B172" s="22"/>
       <c r="C172" s="4"/>
@@ -5752,7 +5808,7 @@
       <c r="I172" s="12"/>
       <c r="J172" s="12"/>
     </row>
-    <row r="173" spans="1:10" ht="22.15" customHeight="1">
+    <row r="173" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A173" s="12"/>
       <c r="B173" s="22"/>
       <c r="C173" s="4"/>
@@ -5764,7 +5820,7 @@
       <c r="I173" s="12"/>
       <c r="J173" s="12"/>
     </row>
-    <row r="174" spans="1:10" ht="22.15" customHeight="1">
+    <row r="174" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A174" s="12"/>
       <c r="B174" s="22"/>
       <c r="C174" s="4"/>
@@ -5776,7 +5832,7 @@
       <c r="I174" s="12"/>
       <c r="J174" s="12"/>
     </row>
-    <row r="175" spans="1:10" ht="22.15" customHeight="1">
+    <row r="175" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A175" s="12"/>
       <c r="B175" s="22"/>
       <c r="C175" s="4"/>
@@ -5788,7 +5844,7 @@
       <c r="I175" s="12"/>
       <c r="J175" s="12"/>
     </row>
-    <row r="176" spans="1:10" ht="22.15" customHeight="1">
+    <row r="176" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A176" s="12"/>
       <c r="B176" s="22"/>
       <c r="C176" s="4"/>
@@ -5800,7 +5856,7 @@
       <c r="I176" s="12"/>
       <c r="J176" s="12"/>
     </row>
-    <row r="177" spans="1:10" ht="22.15" customHeight="1">
+    <row r="177" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A177" s="12"/>
       <c r="B177" s="22"/>
       <c r="C177" s="4"/>
@@ -5812,7 +5868,7 @@
       <c r="I177" s="12"/>
       <c r="J177" s="12"/>
     </row>
-    <row r="178" spans="1:10" ht="22.15" customHeight="1">
+    <row r="178" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A178" s="12"/>
       <c r="B178" s="22"/>
       <c r="C178" s="4"/>
@@ -5824,7 +5880,7 @@
       <c r="I178" s="12"/>
       <c r="J178" s="12"/>
     </row>
-    <row r="179" spans="1:10" ht="22.15" customHeight="1">
+    <row r="179" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A179" s="12"/>
       <c r="B179" s="22"/>
       <c r="C179" s="4"/>
@@ -5836,7 +5892,7 @@
       <c r="I179" s="12"/>
       <c r="J179" s="12"/>
     </row>
-    <row r="180" spans="1:10" ht="22.15" customHeight="1">
+    <row r="180" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A180" s="12"/>
       <c r="B180" s="22"/>
       <c r="C180" s="4"/>
@@ -5848,7 +5904,7 @@
       <c r="I180" s="12"/>
       <c r="J180" s="12"/>
     </row>
-    <row r="181" spans="1:10" ht="22.15" customHeight="1">
+    <row r="181" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A181" s="12"/>
       <c r="B181" s="22"/>
       <c r="C181" s="4"/>
@@ -5860,7 +5916,7 @@
       <c r="I181" s="12"/>
       <c r="J181" s="12"/>
     </row>
-    <row r="182" spans="1:10" ht="22.15" customHeight="1">
+    <row r="182" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A182" s="12"/>
       <c r="B182" s="22"/>
       <c r="C182" s="4"/>
@@ -5872,7 +5928,7 @@
       <c r="I182" s="12"/>
       <c r="J182" s="12"/>
     </row>
-    <row r="183" spans="1:10" ht="22.15" customHeight="1">
+    <row r="183" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A183" s="12"/>
       <c r="B183" s="22"/>
       <c r="C183" s="4"/>
@@ -5884,7 +5940,7 @@
       <c r="I183" s="12"/>
       <c r="J183" s="12"/>
     </row>
-    <row r="184" spans="1:10" ht="22.15" customHeight="1">
+    <row r="184" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A184" s="12"/>
       <c r="B184" s="22"/>
       <c r="C184" s="4"/>
@@ -5896,7 +5952,7 @@
       <c r="I184" s="12"/>
       <c r="J184" s="12"/>
     </row>
-    <row r="185" spans="1:10" ht="22.15" customHeight="1">
+    <row r="185" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A185" s="12"/>
       <c r="B185" s="22"/>
       <c r="C185" s="4"/>
@@ -5908,7 +5964,7 @@
       <c r="I185" s="12"/>
       <c r="J185" s="12"/>
     </row>
-    <row r="186" spans="1:10" ht="22.15" customHeight="1">
+    <row r="186" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A186" s="12"/>
       <c r="B186" s="22"/>
       <c r="C186" s="4"/>
@@ -5920,7 +5976,7 @@
       <c r="I186" s="12"/>
       <c r="J186" s="12"/>
     </row>
-    <row r="187" spans="1:10" ht="22.15" customHeight="1">
+    <row r="187" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A187" s="12"/>
       <c r="B187" s="22"/>
       <c r="C187" s="4"/>
@@ -5932,7 +5988,7 @@
       <c r="I187" s="12"/>
       <c r="J187" s="12"/>
     </row>
-    <row r="188" spans="1:10" ht="22.15" customHeight="1">
+    <row r="188" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A188" s="12"/>
       <c r="B188" s="22"/>
       <c r="C188" s="4"/>
@@ -5944,7 +6000,7 @@
       <c r="I188" s="12"/>
       <c r="J188" s="12"/>
     </row>
-    <row r="189" spans="1:10" ht="22.15" customHeight="1">
+    <row r="189" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A189" s="12"/>
       <c r="B189" s="22"/>
       <c r="C189" s="4"/>
@@ -5956,7 +6012,7 @@
       <c r="I189" s="12"/>
       <c r="J189" s="12"/>
     </row>
-    <row r="190" spans="1:10" ht="22.15" customHeight="1">
+    <row r="190" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A190" s="12"/>
       <c r="B190" s="22"/>
       <c r="C190" s="4"/>
@@ -5968,7 +6024,7 @@
       <c r="I190" s="12"/>
       <c r="J190" s="12"/>
     </row>
-    <row r="191" spans="1:10" ht="22.15" customHeight="1">
+    <row r="191" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A191" s="12"/>
       <c r="B191" s="22"/>
       <c r="C191" s="4"/>
@@ -5980,7 +6036,7 @@
       <c r="I191" s="12"/>
       <c r="J191" s="12"/>
     </row>
-    <row r="192" spans="1:10" ht="22.15" customHeight="1">
+    <row r="192" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A192" s="12"/>
       <c r="B192" s="22"/>
       <c r="C192" s="4"/>
@@ -5992,7 +6048,7 @@
       <c r="I192" s="12"/>
       <c r="J192" s="12"/>
     </row>
-    <row r="193" spans="1:10" ht="22.15" customHeight="1">
+    <row r="193" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A193" s="12"/>
       <c r="B193" s="22"/>
       <c r="C193" s="4"/>
@@ -6004,7 +6060,7 @@
       <c r="I193" s="12"/>
       <c r="J193" s="12"/>
     </row>
-    <row r="194" spans="1:10" ht="22.15" customHeight="1">
+    <row r="194" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A194" s="12"/>
       <c r="B194" s="22"/>
       <c r="C194" s="4"/>
@@ -6016,7 +6072,7 @@
       <c r="I194" s="12"/>
       <c r="J194" s="12"/>
     </row>
-    <row r="195" spans="1:10" ht="22.15" customHeight="1">
+    <row r="195" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A195" s="12"/>
       <c r="B195" s="22"/>
       <c r="C195" s="4"/>
@@ -6028,7 +6084,7 @@
       <c r="I195" s="12"/>
       <c r="J195" s="12"/>
     </row>
-    <row r="196" spans="1:10" ht="22.15" customHeight="1">
+    <row r="196" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A196" s="12"/>
       <c r="B196" s="22"/>
       <c r="C196" s="4"/>
@@ -6040,7 +6096,7 @@
       <c r="I196" s="12"/>
       <c r="J196" s="12"/>
     </row>
-    <row r="197" spans="1:10" ht="22.15" customHeight="1">
+    <row r="197" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A197" s="12"/>
       <c r="B197" s="22"/>
       <c r="C197" s="4"/>
@@ -6052,7 +6108,7 @@
       <c r="I197" s="12"/>
       <c r="J197" s="12"/>
     </row>
-    <row r="198" spans="1:10" ht="22.15" customHeight="1">
+    <row r="198" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A198" s="12"/>
       <c r="B198" s="22"/>
       <c r="C198" s="4"/>
@@ -6064,7 +6120,7 @@
       <c r="I198" s="12"/>
       <c r="J198" s="12"/>
     </row>
-    <row r="199" spans="1:10" ht="22.15" customHeight="1">
+    <row r="199" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A199" s="12"/>
       <c r="B199" s="22"/>
       <c r="C199" s="4"/>
@@ -6076,7 +6132,7 @@
       <c r="I199" s="12"/>
       <c r="J199" s="12"/>
     </row>
-    <row r="200" spans="1:10" ht="22.15" customHeight="1">
+    <row r="200" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A200" s="12"/>
       <c r="B200" s="22"/>
       <c r="C200" s="4"/>
@@ -6088,7 +6144,7 @@
       <c r="I200" s="12"/>
       <c r="J200" s="12"/>
     </row>
-    <row r="201" spans="1:10" ht="22.15" customHeight="1">
+    <row r="201" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A201" s="12"/>
       <c r="B201" s="22"/>
       <c r="C201" s="4"/>
@@ -6100,7 +6156,7 @@
       <c r="I201" s="12"/>
       <c r="J201" s="12"/>
     </row>
-    <row r="202" spans="1:10" ht="22.15" customHeight="1">
+    <row r="202" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A202" s="12"/>
       <c r="B202" s="22"/>
       <c r="C202" s="4"/>
@@ -6112,7 +6168,7 @@
       <c r="I202" s="12"/>
       <c r="J202" s="12"/>
     </row>
-    <row r="203" spans="1:10" ht="22.15" customHeight="1">
+    <row r="203" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A203" s="12"/>
       <c r="B203" s="22"/>
       <c r="C203" s="4"/>
@@ -6124,7 +6180,7 @@
       <c r="I203" s="12"/>
       <c r="J203" s="12"/>
     </row>
-    <row r="204" spans="1:10" ht="22.15" customHeight="1">
+    <row r="204" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A204" s="12"/>
       <c r="B204" s="22"/>
       <c r="C204" s="4"/>
@@ -6136,7 +6192,7 @@
       <c r="I204" s="12"/>
       <c r="J204" s="12"/>
     </row>
-    <row r="205" spans="1:10" ht="22.15" customHeight="1">
+    <row r="205" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A205" s="12"/>
       <c r="B205" s="22"/>
       <c r="C205" s="4"/>
@@ -6148,7 +6204,7 @@
       <c r="I205" s="12"/>
       <c r="J205" s="12"/>
     </row>
-    <row r="206" spans="1:10" ht="22.15" customHeight="1">
+    <row r="206" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A206" s="12"/>
       <c r="B206" s="22"/>
       <c r="C206" s="4"/>
@@ -6160,7 +6216,7 @@
       <c r="I206" s="12"/>
       <c r="J206" s="12"/>
     </row>
-    <row r="207" spans="1:10" ht="22.15" customHeight="1">
+    <row r="207" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A207" s="12"/>
       <c r="B207" s="22"/>
       <c r="C207" s="4"/>
@@ -6172,7 +6228,7 @@
       <c r="I207" s="12"/>
       <c r="J207" s="12"/>
     </row>
-    <row r="208" spans="1:10" ht="22.15" customHeight="1">
+    <row r="208" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A208" s="12"/>
       <c r="B208" s="22"/>
       <c r="C208" s="4"/>
@@ -6184,7 +6240,7 @@
       <c r="I208" s="12"/>
       <c r="J208" s="12"/>
     </row>
-    <row r="209" spans="1:10" ht="22.15" customHeight="1">
+    <row r="209" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A209" s="12"/>
       <c r="B209" s="22"/>
       <c r="C209" s="4"/>
@@ -6196,7 +6252,7 @@
       <c r="I209" s="12"/>
       <c r="J209" s="12"/>
     </row>
-    <row r="210" spans="1:10" ht="22.15" customHeight="1">
+    <row r="210" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A210" s="12"/>
       <c r="B210" s="22"/>
       <c r="C210" s="4"/>
@@ -6208,7 +6264,7 @@
       <c r="I210" s="12"/>
       <c r="J210" s="12"/>
     </row>
-    <row r="211" spans="1:10" ht="22.15" customHeight="1">
+    <row r="211" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A211" s="12"/>
       <c r="B211" s="22"/>
       <c r="C211" s="4"/>
@@ -6220,7 +6276,7 @@
       <c r="I211" s="12"/>
       <c r="J211" s="12"/>
     </row>
-    <row r="212" spans="1:10" ht="22.15" customHeight="1">
+    <row r="212" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A212" s="12"/>
       <c r="B212" s="22"/>
       <c r="C212" s="4"/>
@@ -6232,7 +6288,7 @@
       <c r="I212" s="12"/>
       <c r="J212" s="12"/>
     </row>
-    <row r="213" spans="1:10" ht="22.15" customHeight="1">
+    <row r="213" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A213" s="12"/>
       <c r="B213" s="22"/>
       <c r="C213" s="4"/>
@@ -6244,7 +6300,7 @@
       <c r="I213" s="12"/>
       <c r="J213" s="12"/>
     </row>
-    <row r="214" spans="1:10" ht="22.15" customHeight="1">
+    <row r="214" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A214" s="12"/>
       <c r="B214" s="22"/>
       <c r="C214" s="4"/>
@@ -6256,7 +6312,7 @@
       <c r="I214" s="12"/>
       <c r="J214" s="12"/>
     </row>
-    <row r="215" spans="1:10" ht="22.15" customHeight="1">
+    <row r="215" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A215" s="12"/>
       <c r="B215" s="22"/>
       <c r="C215" s="4"/>
@@ -6268,7 +6324,7 @@
       <c r="I215" s="12"/>
       <c r="J215" s="12"/>
     </row>
-    <row r="216" spans="1:10" ht="22.15" customHeight="1">
+    <row r="216" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A216" s="12"/>
       <c r="B216" s="22"/>
       <c r="C216" s="4"/>
@@ -6280,7 +6336,7 @@
       <c r="I216" s="12"/>
       <c r="J216" s="12"/>
     </row>
-    <row r="217" spans="1:10" ht="22.15" customHeight="1">
+    <row r="217" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A217" s="12"/>
       <c r="B217" s="22"/>
       <c r="C217" s="4"/>
@@ -6292,7 +6348,7 @@
       <c r="I217" s="12"/>
       <c r="J217" s="12"/>
     </row>
-    <row r="218" spans="1:10" ht="22.15" customHeight="1">
+    <row r="218" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A218" s="12"/>
       <c r="B218" s="22"/>
       <c r="C218" s="4"/>
@@ -6304,7 +6360,7 @@
       <c r="I218" s="12"/>
       <c r="J218" s="12"/>
     </row>
-    <row r="219" spans="1:10" ht="22.15" customHeight="1">
+    <row r="219" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A219" s="12"/>
       <c r="B219" s="22"/>
       <c r="C219" s="4"/>
@@ -6316,7 +6372,7 @@
       <c r="I219" s="12"/>
       <c r="J219" s="12"/>
     </row>
-    <row r="220" spans="1:10" ht="22.15" customHeight="1">
+    <row r="220" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A220" s="12"/>
       <c r="B220" s="22"/>
       <c r="C220" s="4"/>
@@ -6328,7 +6384,7 @@
       <c r="I220" s="12"/>
       <c r="J220" s="12"/>
     </row>
-    <row r="221" spans="1:10" ht="22.15" customHeight="1">
+    <row r="221" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A221" s="12"/>
       <c r="B221" s="22"/>
       <c r="C221" s="4"/>
@@ -6340,7 +6396,7 @@
       <c r="I221" s="12"/>
       <c r="J221" s="12"/>
     </row>
-    <row r="222" spans="1:10" ht="22.15" customHeight="1">
+    <row r="222" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A222" s="12"/>
       <c r="B222" s="22"/>
       <c r="C222" s="4"/>
@@ -6352,7 +6408,7 @@
       <c r="I222" s="12"/>
       <c r="J222" s="12"/>
     </row>
-    <row r="223" spans="1:10" ht="22.15" customHeight="1">
+    <row r="223" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A223" s="12"/>
       <c r="B223" s="22"/>
       <c r="C223" s="4"/>
@@ -6364,7 +6420,7 @@
       <c r="I223" s="12"/>
       <c r="J223" s="12"/>
     </row>
-    <row r="224" spans="1:10" ht="22.15" customHeight="1">
+    <row r="224" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A224" s="12"/>
       <c r="B224" s="22"/>
       <c r="C224" s="4"/>
@@ -6376,7 +6432,7 @@
       <c r="I224" s="12"/>
       <c r="J224" s="12"/>
     </row>
-    <row r="225" spans="1:10" ht="22.15" customHeight="1">
+    <row r="225" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A225" s="12"/>
       <c r="B225" s="22"/>
       <c r="C225" s="4"/>
@@ -6388,7 +6444,7 @@
       <c r="I225" s="12"/>
       <c r="J225" s="12"/>
     </row>
-    <row r="226" spans="1:10" ht="22.15" customHeight="1">
+    <row r="226" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A226" s="12"/>
       <c r="B226" s="22"/>
       <c r="C226" s="4"/>
@@ -6400,7 +6456,7 @@
       <c r="I226" s="12"/>
       <c r="J226" s="12"/>
     </row>
-    <row r="227" spans="1:10" ht="22.15" customHeight="1">
+    <row r="227" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A227" s="12"/>
       <c r="B227" s="22"/>
       <c r="C227" s="4"/>
@@ -6412,7 +6468,7 @@
       <c r="I227" s="12"/>
       <c r="J227" s="12"/>
     </row>
-    <row r="228" spans="1:10" ht="22.15" customHeight="1">
+    <row r="228" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A228" s="12"/>
       <c r="B228" s="22"/>
       <c r="C228" s="4"/>
@@ -6424,7 +6480,7 @@
       <c r="I228" s="12"/>
       <c r="J228" s="12"/>
     </row>
-    <row r="229" spans="1:10" ht="22.15" customHeight="1">
+    <row r="229" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A229" s="12"/>
       <c r="B229" s="22"/>
       <c r="C229" s="4"/>
@@ -6436,7 +6492,7 @@
       <c r="I229" s="12"/>
       <c r="J229" s="12"/>
     </row>
-    <row r="230" spans="1:10" ht="22.15" customHeight="1">
+    <row r="230" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A230" s="12"/>
       <c r="B230" s="22"/>
       <c r="C230" s="4"/>
@@ -6448,7 +6504,7 @@
       <c r="I230" s="12"/>
       <c r="J230" s="12"/>
     </row>
-    <row r="231" spans="1:10" ht="22.15" customHeight="1">
+    <row r="231" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A231" s="12"/>
       <c r="B231" s="22"/>
       <c r="C231" s="4"/>
@@ -6460,7 +6516,7 @@
       <c r="I231" s="12"/>
       <c r="J231" s="12"/>
     </row>
-    <row r="232" spans="1:10" ht="22.15" customHeight="1">
+    <row r="232" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A232" s="12"/>
       <c r="B232" s="22"/>
       <c r="C232" s="4"/>
@@ -6472,7 +6528,7 @@
       <c r="I232" s="12"/>
       <c r="J232" s="12"/>
     </row>
-    <row r="233" spans="1:10" ht="22.15" customHeight="1">
+    <row r="233" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A233" s="12"/>
       <c r="B233" s="22"/>
       <c r="C233" s="4"/>
@@ -6484,7 +6540,7 @@
       <c r="I233" s="12"/>
       <c r="J233" s="12"/>
     </row>
-    <row r="234" spans="1:10" ht="22.15" customHeight="1">
+    <row r="234" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A234" s="12"/>
       <c r="B234" s="22"/>
       <c r="C234" s="4"/>
@@ -6496,7 +6552,7 @@
       <c r="I234" s="12"/>
       <c r="J234" s="12"/>
     </row>
-    <row r="235" spans="1:10" ht="22.15" customHeight="1">
+    <row r="235" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A235" s="12"/>
       <c r="B235" s="22"/>
       <c r="C235" s="4"/>
@@ -6508,7 +6564,7 @@
       <c r="I235" s="12"/>
       <c r="J235" s="12"/>
     </row>
-    <row r="236" spans="1:10" ht="22.15" customHeight="1">
+    <row r="236" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A236" s="12"/>
       <c r="B236" s="22"/>
       <c r="C236" s="4"/>
@@ -6520,7 +6576,7 @@
       <c r="I236" s="12"/>
       <c r="J236" s="12"/>
     </row>
-    <row r="237" spans="1:10" ht="22.15" customHeight="1">
+    <row r="237" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A237" s="12"/>
       <c r="B237" s="22"/>
       <c r="C237" s="4"/>
@@ -6532,7 +6588,7 @@
       <c r="I237" s="12"/>
       <c r="J237" s="12"/>
     </row>
-    <row r="238" spans="1:10" ht="22.15" customHeight="1">
+    <row r="238" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A238" s="12"/>
       <c r="B238" s="22"/>
       <c r="C238" s="4"/>
@@ -6544,7 +6600,7 @@
       <c r="I238" s="12"/>
       <c r="J238" s="12"/>
     </row>
-    <row r="239" spans="1:10" ht="22.15" customHeight="1">
+    <row r="239" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A239" s="12"/>
       <c r="B239" s="22"/>
       <c r="C239" s="4"/>
@@ -6556,7 +6612,7 @@
       <c r="I239" s="12"/>
       <c r="J239" s="12"/>
     </row>
-    <row r="240" spans="1:10" ht="22.15" customHeight="1">
+    <row r="240" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A240" s="12"/>
       <c r="B240" s="22"/>
       <c r="C240" s="4"/>
@@ -6568,7 +6624,7 @@
       <c r="I240" s="12"/>
       <c r="J240" s="12"/>
     </row>
-    <row r="241" spans="1:10" ht="22.15" customHeight="1">
+    <row r="241" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A241" s="12"/>
       <c r="B241" s="22"/>
       <c r="C241" s="4"/>
@@ -6580,7 +6636,7 @@
       <c r="I241" s="12"/>
       <c r="J241" s="12"/>
     </row>
-    <row r="242" spans="1:10" ht="22.15" customHeight="1">
+    <row r="242" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A242" s="12"/>
       <c r="B242" s="22"/>
       <c r="C242" s="4"/>
@@ -6592,7 +6648,7 @@
       <c r="I242" s="12"/>
       <c r="J242" s="12"/>
     </row>
-    <row r="243" spans="1:10" ht="22.15" customHeight="1">
+    <row r="243" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A243" s="12"/>
       <c r="B243" s="22"/>
       <c r="C243" s="4"/>
@@ -6604,7 +6660,7 @@
       <c r="I243" s="12"/>
       <c r="J243" s="12"/>
     </row>
-    <row r="244" spans="1:10" ht="22.15" customHeight="1">
+    <row r="244" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A244" s="12"/>
       <c r="B244" s="22"/>
       <c r="C244" s="4"/>
@@ -6616,7 +6672,7 @@
       <c r="I244" s="12"/>
       <c r="J244" s="12"/>
     </row>
-    <row r="245" spans="1:10" ht="22.15" customHeight="1">
+    <row r="245" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A245" s="12"/>
       <c r="B245" s="22"/>
       <c r="C245" s="4"/>
@@ -6628,7 +6684,7 @@
       <c r="I245" s="12"/>
       <c r="J245" s="12"/>
     </row>
-    <row r="246" spans="1:10" ht="22.15" customHeight="1">
+    <row r="246" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A246" s="12"/>
       <c r="B246" s="22"/>
       <c r="C246" s="4"/>
@@ -6640,7 +6696,7 @@
       <c r="I246" s="12"/>
       <c r="J246" s="12"/>
     </row>
-    <row r="247" spans="1:10" ht="22.15" customHeight="1">
+    <row r="247" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A247" s="12"/>
       <c r="B247" s="22"/>
       <c r="C247" s="4"/>
@@ -6652,7 +6708,7 @@
       <c r="I247" s="12"/>
       <c r="J247" s="12"/>
     </row>
-    <row r="248" spans="1:10" ht="22.15" customHeight="1">
+    <row r="248" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A248" s="12"/>
       <c r="B248" s="22"/>
       <c r="C248" s="4"/>
@@ -6664,7 +6720,7 @@
       <c r="I248" s="12"/>
       <c r="J248" s="12"/>
     </row>
-    <row r="249" spans="1:10" ht="22.15" customHeight="1">
+    <row r="249" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A249" s="12"/>
       <c r="B249" s="22"/>
       <c r="C249" s="4"/>
@@ -6676,7 +6732,7 @@
       <c r="I249" s="12"/>
       <c r="J249" s="12"/>
     </row>
-    <row r="250" spans="1:10" ht="22.15" customHeight="1">
+    <row r="250" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A250" s="12"/>
       <c r="B250" s="22"/>
       <c r="C250" s="4"/>
@@ -6688,7 +6744,7 @@
       <c r="I250" s="12"/>
       <c r="J250" s="12"/>
     </row>
-    <row r="251" spans="1:10" ht="22.15" customHeight="1">
+    <row r="251" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A251" s="12"/>
       <c r="B251" s="22"/>
       <c r="C251" s="4"/>
@@ -6700,7 +6756,7 @@
       <c r="I251" s="12"/>
       <c r="J251" s="12"/>
     </row>
-    <row r="252" spans="1:10" ht="22.15" customHeight="1">
+    <row r="252" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A252" s="12"/>
       <c r="B252" s="22"/>
       <c r="C252" s="4"/>
@@ -6712,7 +6768,7 @@
       <c r="I252" s="12"/>
       <c r="J252" s="12"/>
     </row>
-    <row r="253" spans="1:10" ht="22.15" customHeight="1">
+    <row r="253" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A253" s="12"/>
       <c r="B253" s="22"/>
       <c r="C253" s="4"/>
@@ -6724,7 +6780,7 @@
       <c r="I253" s="12"/>
       <c r="J253" s="12"/>
     </row>
-    <row r="254" spans="1:10" ht="22.15" customHeight="1">
+    <row r="254" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A254" s="12"/>
       <c r="B254" s="22"/>
       <c r="C254" s="4"/>
@@ -6736,7 +6792,7 @@
       <c r="I254" s="12"/>
       <c r="J254" s="12"/>
     </row>
-    <row r="255" spans="1:10" ht="22.15" customHeight="1">
+    <row r="255" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A255" s="12"/>
       <c r="B255" s="22"/>
       <c r="C255" s="4"/>
@@ -6748,7 +6804,7 @@
       <c r="I255" s="12"/>
       <c r="J255" s="12"/>
     </row>
-    <row r="256" spans="1:10" ht="22.15" customHeight="1">
+    <row r="256" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A256" s="12"/>
       <c r="B256" s="22"/>
       <c r="C256" s="4"/>
@@ -6760,7 +6816,7 @@
       <c r="I256" s="12"/>
       <c r="J256" s="12"/>
     </row>
-    <row r="257" spans="1:10" ht="22.15" customHeight="1">
+    <row r="257" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A257" s="12"/>
       <c r="B257" s="22"/>
       <c r="C257" s="4"/>
@@ -6772,7 +6828,7 @@
       <c r="I257" s="12"/>
       <c r="J257" s="12"/>
     </row>
-    <row r="258" spans="1:10" ht="22.15" customHeight="1">
+    <row r="258" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A258" s="12"/>
       <c r="B258" s="22"/>
       <c r="C258" s="4"/>
@@ -6784,7 +6840,7 @@
       <c r="I258" s="12"/>
       <c r="J258" s="12"/>
     </row>
-    <row r="259" spans="1:10" ht="22.15" customHeight="1">
+    <row r="259" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A259" s="12"/>
       <c r="B259" s="22"/>
       <c r="C259" s="4"/>
@@ -6796,7 +6852,7 @@
       <c r="I259" s="12"/>
       <c r="J259" s="12"/>
     </row>
-    <row r="260" spans="1:10" ht="22.15" customHeight="1">
+    <row r="260" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A260" s="12"/>
       <c r="B260" s="22"/>
       <c r="C260" s="4"/>
@@ -6808,7 +6864,7 @@
       <c r="I260" s="12"/>
       <c r="J260" s="12"/>
     </row>
-    <row r="261" spans="1:10" ht="22.15" customHeight="1">
+    <row r="261" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A261" s="12"/>
       <c r="B261" s="22"/>
       <c r="C261" s="4"/>
@@ -6820,7 +6876,7 @@
       <c r="I261" s="12"/>
       <c r="J261" s="12"/>
     </row>
-    <row r="262" spans="1:10" ht="22.15" customHeight="1">
+    <row r="262" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A262" s="12"/>
       <c r="B262" s="22"/>
       <c r="C262" s="4"/>
@@ -6832,7 +6888,7 @@
       <c r="I262" s="12"/>
       <c r="J262" s="12"/>
     </row>
-    <row r="263" spans="1:10" ht="22.15" customHeight="1">
+    <row r="263" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A263" s="12"/>
       <c r="B263" s="22"/>
       <c r="C263" s="4"/>
@@ -6844,7 +6900,7 @@
       <c r="I263" s="12"/>
       <c r="J263" s="12"/>
     </row>
-    <row r="264" spans="1:10" ht="22.15" customHeight="1">
+    <row r="264" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A264" s="12"/>
       <c r="B264" s="22"/>
       <c r="C264" s="4"/>
@@ -6856,7 +6912,7 @@
       <c r="I264" s="12"/>
       <c r="J264" s="12"/>
     </row>
-    <row r="265" spans="1:10" ht="22.15" customHeight="1">
+    <row r="265" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A265" s="12"/>
       <c r="B265" s="22"/>
       <c r="C265" s="4"/>
@@ -6868,7 +6924,7 @@
       <c r="I265" s="12"/>
       <c r="J265" s="12"/>
     </row>
-    <row r="266" spans="1:10" ht="22.15" customHeight="1">
+    <row r="266" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A266" s="12"/>
       <c r="B266" s="22"/>
       <c r="C266" s="4"/>
@@ -6880,7 +6936,7 @@
       <c r="I266" s="12"/>
       <c r="J266" s="12"/>
     </row>
-    <row r="267" spans="1:10" ht="22.15" customHeight="1">
+    <row r="267" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A267" s="12"/>
       <c r="B267" s="22"/>
       <c r="C267" s="4"/>
@@ -6892,7 +6948,7 @@
       <c r="I267" s="12"/>
       <c r="J267" s="12"/>
     </row>
-    <row r="268" spans="1:10" ht="22.15" customHeight="1">
+    <row r="268" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A268" s="12"/>
       <c r="B268" s="22"/>
       <c r="C268" s="4"/>
@@ -6904,7 +6960,7 @@
       <c r="I268" s="12"/>
       <c r="J268" s="12"/>
     </row>
-    <row r="269" spans="1:10" ht="22.15" customHeight="1">
+    <row r="269" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A269" s="12"/>
       <c r="B269" s="22"/>
       <c r="C269" s="4"/>
@@ -6916,7 +6972,7 @@
       <c r="I269" s="12"/>
       <c r="J269" s="12"/>
     </row>
-    <row r="270" spans="1:10" ht="22.15" customHeight="1">
+    <row r="270" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A270" s="12"/>
       <c r="B270" s="22"/>
       <c r="C270" s="4"/>
@@ -6928,7 +6984,7 @@
       <c r="I270" s="12"/>
       <c r="J270" s="12"/>
     </row>
-    <row r="271" spans="1:10" ht="22.15" customHeight="1">
+    <row r="271" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A271" s="12"/>
       <c r="B271" s="22"/>
       <c r="C271" s="4"/>
@@ -6940,7 +6996,7 @@
       <c r="I271" s="12"/>
       <c r="J271" s="12"/>
     </row>
-    <row r="272" spans="1:10" ht="22.15" customHeight="1">
+    <row r="272" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A272" s="12"/>
       <c r="B272" s="22"/>
       <c r="C272" s="4"/>
@@ -6952,7 +7008,7 @@
       <c r="I272" s="12"/>
       <c r="J272" s="12"/>
     </row>
-    <row r="273" spans="1:10" ht="22.15" customHeight="1">
+    <row r="273" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A273" s="12"/>
       <c r="B273" s="22"/>
       <c r="C273" s="4"/>
@@ -6964,7 +7020,7 @@
       <c r="I273" s="12"/>
       <c r="J273" s="12"/>
     </row>
-    <row r="274" spans="1:10" ht="22.15" customHeight="1">
+    <row r="274" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A274" s="12"/>
       <c r="B274" s="22"/>
       <c r="C274" s="4"/>
@@ -6976,7 +7032,7 @@
       <c r="I274" s="12"/>
       <c r="J274" s="12"/>
     </row>
-    <row r="275" spans="1:10" ht="22.15" customHeight="1">
+    <row r="275" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A275" s="12"/>
       <c r="B275" s="22"/>
       <c r="C275" s="4"/>
@@ -6988,7 +7044,7 @@
       <c r="I275" s="12"/>
       <c r="J275" s="12"/>
     </row>
-    <row r="276" spans="1:10" ht="22.15" customHeight="1">
+    <row r="276" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A276" s="12"/>
       <c r="B276" s="22"/>
       <c r="C276" s="4"/>
@@ -7000,7 +7056,7 @@
       <c r="I276" s="12"/>
       <c r="J276" s="12"/>
     </row>
-    <row r="277" spans="1:10" ht="22.15" customHeight="1">
+    <row r="277" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A277" s="12"/>
       <c r="B277" s="22"/>
       <c r="C277" s="4"/>
@@ -7012,7 +7068,7 @@
       <c r="I277" s="12"/>
       <c r="J277" s="12"/>
     </row>
-    <row r="278" spans="1:10" ht="22.15" customHeight="1">
+    <row r="278" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A278" s="12"/>
       <c r="B278" s="22"/>
       <c r="C278" s="4"/>
@@ -7024,7 +7080,7 @@
       <c r="I278" s="12"/>
       <c r="J278" s="12"/>
     </row>
-    <row r="279" spans="1:10" ht="22.15" customHeight="1">
+    <row r="279" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A279" s="12"/>
       <c r="B279" s="22"/>
       <c r="C279" s="4"/>
@@ -7036,7 +7092,7 @@
       <c r="I279" s="12"/>
       <c r="J279" s="12"/>
     </row>
-    <row r="280" spans="1:10" ht="22.15" customHeight="1">
+    <row r="280" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A280" s="12"/>
       <c r="B280" s="22"/>
       <c r="C280" s="4"/>
@@ -7048,7 +7104,7 @@
       <c r="I280" s="12"/>
       <c r="J280" s="12"/>
     </row>
-    <row r="281" spans="1:10" ht="22.15" customHeight="1">
+    <row r="281" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A281" s="12"/>
       <c r="B281" s="22"/>
       <c r="C281" s="4"/>
@@ -7060,7 +7116,7 @@
       <c r="I281" s="12"/>
       <c r="J281" s="12"/>
     </row>
-    <row r="282" spans="1:10" ht="22.15" customHeight="1">
+    <row r="282" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A282" s="12"/>
       <c r="B282" s="22"/>
       <c r="C282" s="4"/>
@@ -7072,7 +7128,7 @@
       <c r="I282" s="12"/>
       <c r="J282" s="12"/>
     </row>
-    <row r="283" spans="1:10" ht="22.15" customHeight="1">
+    <row r="283" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A283" s="12"/>
       <c r="B283" s="22"/>
       <c r="C283" s="4"/>
@@ -7084,7 +7140,7 @@
       <c r="I283" s="12"/>
       <c r="J283" s="12"/>
     </row>
-    <row r="284" spans="1:10" ht="22.15" customHeight="1">
+    <row r="284" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A284" s="12"/>
       <c r="B284" s="22"/>
       <c r="C284" s="4"/>
@@ -7096,7 +7152,7 @@
       <c r="I284" s="12"/>
       <c r="J284" s="12"/>
     </row>
-    <row r="285" spans="1:10" ht="22.15" customHeight="1">
+    <row r="285" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A285" s="12"/>
       <c r="B285" s="22"/>
       <c r="C285" s="4"/>
@@ -7108,7 +7164,7 @@
       <c r="I285" s="12"/>
       <c r="J285" s="12"/>
     </row>
-    <row r="286" spans="1:10" ht="22.15" customHeight="1">
+    <row r="286" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A286" s="12"/>
       <c r="B286" s="22"/>
       <c r="C286" s="4"/>
@@ -7120,7 +7176,7 @@
       <c r="I286" s="12"/>
       <c r="J286" s="12"/>
     </row>
-    <row r="287" spans="1:10" ht="22.15" customHeight="1">
+    <row r="287" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A287" s="12"/>
       <c r="B287" s="22"/>
       <c r="C287" s="4"/>
@@ -7132,7 +7188,7 @@
       <c r="I287" s="12"/>
       <c r="J287" s="12"/>
     </row>
-    <row r="288" spans="1:10" ht="22.15" customHeight="1">
+    <row r="288" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A288" s="12"/>
       <c r="B288" s="22"/>
       <c r="C288" s="4"/>
@@ -7144,7 +7200,7 @@
       <c r="I288" s="12"/>
       <c r="J288" s="12"/>
     </row>
-    <row r="289" spans="1:10" ht="22.15" customHeight="1">
+    <row r="289" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A289" s="12"/>
       <c r="B289" s="22"/>
       <c r="C289" s="4"/>
@@ -7156,7 +7212,7 @@
       <c r="I289" s="12"/>
       <c r="J289" s="12"/>
     </row>
-    <row r="290" spans="1:10" ht="22.15" customHeight="1">
+    <row r="290" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A290" s="12"/>
       <c r="B290" s="22"/>
       <c r="C290" s="4"/>
@@ -7168,7 +7224,7 @@
       <c r="I290" s="12"/>
       <c r="J290" s="12"/>
     </row>
-    <row r="291" spans="1:10" ht="22.15" customHeight="1">
+    <row r="291" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A291" s="12"/>
       <c r="B291" s="22"/>
       <c r="C291" s="4"/>
@@ -7180,7 +7236,7 @@
       <c r="I291" s="12"/>
       <c r="J291" s="12"/>
     </row>
-    <row r="292" spans="1:10" ht="22.15" customHeight="1">
+    <row r="292" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A292" s="12"/>
       <c r="B292" s="22"/>
       <c r="C292" s="4"/>
@@ -7192,7 +7248,7 @@
       <c r="I292" s="12"/>
       <c r="J292" s="12"/>
     </row>
-    <row r="293" spans="1:10" ht="22.15" customHeight="1">
+    <row r="293" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A293" s="12"/>
       <c r="B293" s="22"/>
       <c r="C293" s="4"/>
@@ -7204,7 +7260,7 @@
       <c r="I293" s="12"/>
       <c r="J293" s="12"/>
     </row>
-    <row r="294" spans="1:10" ht="22.15" customHeight="1">
+    <row r="294" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A294" s="12"/>
       <c r="B294" s="22"/>
       <c r="C294" s="4"/>
@@ -7216,7 +7272,7 @@
       <c r="I294" s="12"/>
       <c r="J294" s="12"/>
     </row>
-    <row r="295" spans="1:10" ht="22.15" customHeight="1">
+    <row r="295" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A295" s="12"/>
       <c r="B295" s="22"/>
       <c r="C295" s="4"/>
@@ -7228,7 +7284,7 @@
       <c r="I295" s="12"/>
       <c r="J295" s="12"/>
     </row>
-    <row r="296" spans="1:10" ht="22.15" customHeight="1">
+    <row r="296" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A296" s="12"/>
       <c r="B296" s="22"/>
       <c r="C296" s="4"/>
@@ -7240,7 +7296,7 @@
       <c r="I296" s="12"/>
       <c r="J296" s="12"/>
     </row>
-    <row r="297" spans="1:10" ht="22.15" customHeight="1">
+    <row r="297" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A297" s="12"/>
       <c r="B297" s="22"/>
       <c r="C297" s="4"/>
@@ -7252,7 +7308,7 @@
       <c r="I297" s="12"/>
       <c r="J297" s="12"/>
     </row>
-    <row r="298" spans="1:10" ht="22.15" customHeight="1">
+    <row r="298" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A298" s="12"/>
       <c r="B298" s="22"/>
       <c r="C298" s="4"/>
@@ -7264,7 +7320,7 @@
       <c r="I298" s="12"/>
       <c r="J298" s="12"/>
     </row>
-    <row r="299" spans="1:10" ht="22.15" customHeight="1">
+    <row r="299" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A299" s="12"/>
       <c r="B299" s="22"/>
       <c r="C299" s="4"/>
@@ -7276,7 +7332,7 @@
       <c r="I299" s="12"/>
       <c r="J299" s="12"/>
     </row>
-    <row r="300" spans="1:10" ht="22.15" customHeight="1">
+    <row r="300" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A300" s="12"/>
       <c r="B300" s="22"/>
       <c r="C300" s="4"/>
@@ -7288,7 +7344,7 @@
       <c r="I300" s="12"/>
       <c r="J300" s="12"/>
     </row>
-    <row r="301" spans="1:10" ht="22.15" customHeight="1">
+    <row r="301" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A301" s="12"/>
       <c r="B301" s="22"/>
       <c r="C301" s="4"/>
@@ -7300,7 +7356,7 @@
       <c r="I301" s="12"/>
       <c r="J301" s="12"/>
     </row>
-    <row r="302" spans="1:10" ht="22.15" customHeight="1">
+    <row r="302" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A302" s="12"/>
       <c r="B302" s="22"/>
       <c r="C302" s="4"/>
@@ -7312,7 +7368,7 @@
       <c r="I302" s="12"/>
       <c r="J302" s="12"/>
     </row>
-    <row r="303" spans="1:10" ht="22.15" customHeight="1">
+    <row r="303" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A303" s="12"/>
       <c r="B303" s="22"/>
       <c r="C303" s="4"/>
@@ -7324,7 +7380,7 @@
       <c r="I303" s="12"/>
       <c r="J303" s="12"/>
     </row>
-    <row r="304" spans="1:10" ht="22.15" customHeight="1">
+    <row r="304" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A304" s="12"/>
       <c r="B304" s="22"/>
       <c r="C304" s="4"/>
@@ -7338,6 +7394,18 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="B2:B32"/>
+    <mergeCell ref="B59:B65"/>
+    <mergeCell ref="B66:B68"/>
+    <mergeCell ref="B150:B151"/>
+    <mergeCell ref="B42:B51"/>
+    <mergeCell ref="B52:B56"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="A149:J149"/>
+    <mergeCell ref="B118:B120"/>
+    <mergeCell ref="B33:B41"/>
+    <mergeCell ref="B69:B76"/>
+    <mergeCell ref="B132:B138"/>
     <mergeCell ref="B157:B162"/>
     <mergeCell ref="B77:B83"/>
     <mergeCell ref="B84:B88"/>
@@ -7350,26 +7418,264 @@
     <mergeCell ref="B139:B141"/>
     <mergeCell ref="B143:B148"/>
     <mergeCell ref="B154:B155"/>
-    <mergeCell ref="B2:B32"/>
-    <mergeCell ref="B59:B65"/>
-    <mergeCell ref="B66:B68"/>
-    <mergeCell ref="B150:B151"/>
-    <mergeCell ref="B42:B51"/>
-    <mergeCell ref="B52:B56"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="A149:J149"/>
-    <mergeCell ref="B118:B120"/>
-    <mergeCell ref="B33:B41"/>
-    <mergeCell ref="B69:B76"/>
-    <mergeCell ref="B132:B138"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I48:I50 I53:I55">
     <cfRule type="timePeriod" dxfId="0" priority="6" timePeriod="lastMonth">
-      <formula>AND(MONTH(I48)=MONTH(TODAY())-1,OR(YEAR(I48)=YEAR(TODAY()),AND(MONTH(I48)=1,YEAR(I48)=YEAR(TODAY())-1)))</formula>
+      <formula>AND(MONTH(I48)=MONTH(EDATE(TODAY(),0-1)),YEAR(I48)=YEAR(EDATE(TODAY(),0-1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="16.5" customWidth="1"/>
+    <col min="2" max="2" width="54" customWidth="1"/>
+    <col min="3" max="8" width="11.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="52" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="52" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="52" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="52" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="52" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="53" t="s">
+        <v>253</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="14">
+        <v>42901</v>
+      </c>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+    </row>
+    <row r="3" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="A3" s="53"/>
+      <c r="B3" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="14">
+        <v>42901</v>
+      </c>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A4" s="53"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A5" s="53" t="s">
+        <v>254</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="14">
+        <v>42901</v>
+      </c>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="53"/>
+    </row>
+    <row r="6" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="A6" s="53"/>
+      <c r="B6" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="14">
+        <v>42901</v>
+      </c>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A7" s="53"/>
+      <c r="B7" s="53"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="53"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A8" s="53" t="s">
+        <v>255</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="14">
+        <v>42901</v>
+      </c>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="53"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A9" s="53"/>
+      <c r="B9" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="14">
+        <v>42901</v>
+      </c>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="53"/>
+      <c r="H9" s="53"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A10" s="53"/>
+      <c r="B10" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="14">
+        <v>42901</v>
+      </c>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A11" s="53"/>
+      <c r="B11" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="14">
+        <v>42901</v>
+      </c>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+    </row>
+    <row r="12" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="A12" s="53"/>
+      <c r="B12" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="14">
+        <v>42901</v>
+      </c>
+      <c r="E12" s="53"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="53"/>
+      <c r="H12" s="53"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A13" s="53"/>
+      <c r="B13" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="14">
+        <v>42901</v>
+      </c>
+      <c r="E13" s="53"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="53"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A14" s="53"/>
+      <c r="B14" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="14">
+        <v>42901</v>
+      </c>
+      <c r="E14" s="53"/>
+      <c r="F14" s="53"/>
+      <c r="G14" s="53"/>
+      <c r="H14" s="53"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/ProjectManagement/文档/问题点一览.xlsx
+++ b/ProjectManagement/文档/问题点一览.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8025" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8025"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="268">
   <si>
     <t>NO</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -786,10 +786,6 @@
   </si>
   <si>
     <t>添加背景颜色列，项目经理设置成绿色背景，其它人默认没有背景色，但可以自已设置。设置后，在沟通分析矩阵里的干系人清单也要对应显示出来。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>以下是报表信息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1063,15 +1059,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>分包合同里的付款信息，和收款完成情况一致，不需要再次配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关联责任人履历ID时没有判断Status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>程梦佳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>判断起始时间大于等于明天的为“未开始”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>分包合同里的里程碑完成情况，和里程碑完成情况一致，不需要再次配置</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>分包合同里的付款信息，和收款完成情况一致，不需要再次配置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>付款批次改为文本框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>程梦佳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>程梦佳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以下是报表信息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1255,7 +1275,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1383,9 +1403,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
@@ -1398,9 +1419,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1410,10 +1428,16 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1729,10 +1753,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K304"/>
+  <dimension ref="A1:K303"/>
   <sheetViews>
-    <sheetView topLeftCell="A127" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I134" sqref="I134"/>
+    <sheetView tabSelected="1" topLeftCell="A149" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G144" sqref="G144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="22.15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1787,7 +1811,7 @@
       <c r="A2" s="13">
         <v>1</v>
       </c>
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="45" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -1815,7 +1839,7 @@
       <c r="A3" s="13">
         <v>2</v>
       </c>
-      <c r="B3" s="45"/>
+      <c r="B3" s="46"/>
       <c r="C3" s="4" t="s">
         <v>51</v>
       </c>
@@ -1841,7 +1865,7 @@
       <c r="A4" s="13">
         <v>3</v>
       </c>
-      <c r="B4" s="45"/>
+      <c r="B4" s="46"/>
       <c r="C4" s="4" t="s">
         <v>52</v>
       </c>
@@ -1867,7 +1891,7 @@
       <c r="A5" s="13">
         <v>4</v>
       </c>
-      <c r="B5" s="45"/>
+      <c r="B5" s="46"/>
       <c r="C5" s="4" t="s">
         <v>13</v>
       </c>
@@ -1893,7 +1917,7 @@
       <c r="A6" s="13">
         <v>5</v>
       </c>
-      <c r="B6" s="45"/>
+      <c r="B6" s="46"/>
       <c r="C6" s="4" t="s">
         <v>53</v>
       </c>
@@ -1919,7 +1943,7 @@
       <c r="A7" s="13">
         <v>6</v>
       </c>
-      <c r="B7" s="45"/>
+      <c r="B7" s="46"/>
       <c r="C7" s="4" t="s">
         <v>16</v>
       </c>
@@ -1945,7 +1969,7 @@
       <c r="A8" s="13">
         <v>7</v>
       </c>
-      <c r="B8" s="45"/>
+      <c r="B8" s="46"/>
       <c r="C8" s="4" t="s">
         <v>14</v>
       </c>
@@ -1971,7 +1995,7 @@
       <c r="A9" s="13">
         <v>8</v>
       </c>
-      <c r="B9" s="45"/>
+      <c r="B9" s="46"/>
       <c r="C9" s="4" t="s">
         <v>17</v>
       </c>
@@ -1997,7 +2021,7 @@
       <c r="A10" s="13">
         <v>9</v>
       </c>
-      <c r="B10" s="45"/>
+      <c r="B10" s="46"/>
       <c r="C10" s="6" t="s">
         <v>160</v>
       </c>
@@ -2030,7 +2054,7 @@
       <c r="A11" s="13">
         <v>10</v>
       </c>
-      <c r="B11" s="45"/>
+      <c r="B11" s="46"/>
       <c r="C11" s="4" t="s">
         <v>48</v>
       </c>
@@ -2056,7 +2080,7 @@
       <c r="A12" s="13">
         <v>11</v>
       </c>
-      <c r="B12" s="45"/>
+      <c r="B12" s="46"/>
       <c r="C12" s="4" t="s">
         <v>107</v>
       </c>
@@ -2082,7 +2106,7 @@
       <c r="A13" s="13">
         <v>12</v>
       </c>
-      <c r="B13" s="45"/>
+      <c r="B13" s="46"/>
       <c r="C13" s="4" t="s">
         <v>110</v>
       </c>
@@ -2108,7 +2132,7 @@
       <c r="A14" s="13">
         <v>13</v>
       </c>
-      <c r="B14" s="45"/>
+      <c r="B14" s="46"/>
       <c r="C14" s="4" t="s">
         <v>109</v>
       </c>
@@ -2134,7 +2158,7 @@
       <c r="A15" s="13">
         <v>14</v>
       </c>
-      <c r="B15" s="45"/>
+      <c r="B15" s="46"/>
       <c r="C15" s="6" t="s">
         <v>138</v>
       </c>
@@ -2160,7 +2184,7 @@
       <c r="A16" s="13">
         <v>15</v>
       </c>
-      <c r="B16" s="45"/>
+      <c r="B16" s="46"/>
       <c r="C16" s="6" t="s">
         <v>153</v>
       </c>
@@ -2189,7 +2213,7 @@
       <c r="A17" s="13">
         <v>16</v>
       </c>
-      <c r="B17" s="45"/>
+      <c r="B17" s="46"/>
       <c r="C17" s="6" t="s">
         <v>156</v>
       </c>
@@ -2215,7 +2239,7 @@
       <c r="A18" s="13">
         <v>17</v>
       </c>
-      <c r="B18" s="45"/>
+      <c r="B18" s="46"/>
       <c r="C18" s="10" t="s">
         <v>147</v>
       </c>
@@ -2242,7 +2266,7 @@
       <c r="A19" s="32">
         <v>18</v>
       </c>
-      <c r="B19" s="45"/>
+      <c r="B19" s="46"/>
       <c r="C19" s="10" t="s">
         <v>154</v>
       </c>
@@ -2269,7 +2293,7 @@
       <c r="A20" s="32">
         <v>19</v>
       </c>
-      <c r="B20" s="45"/>
+      <c r="B20" s="46"/>
       <c r="C20" s="10" t="s">
         <v>151</v>
       </c>
@@ -2296,7 +2320,7 @@
       <c r="A21" s="32">
         <v>20</v>
       </c>
-      <c r="B21" s="45"/>
+      <c r="B21" s="46"/>
       <c r="C21" s="37" t="s">
         <v>168</v>
       </c>
@@ -2323,7 +2347,7 @@
       <c r="A22" s="32">
         <v>21</v>
       </c>
-      <c r="B22" s="45"/>
+      <c r="B22" s="46"/>
       <c r="C22" s="40" t="s">
         <v>181</v>
       </c>
@@ -2350,7 +2374,7 @@
       <c r="A23" s="32">
         <v>22</v>
       </c>
-      <c r="B23" s="45"/>
+      <c r="B23" s="46"/>
       <c r="C23" s="40" t="s">
         <v>182</v>
       </c>
@@ -2362,7 +2386,7 @@
       </c>
       <c r="F23" s="18"/>
       <c r="G23" s="29" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H23" s="33">
         <v>42893</v>
@@ -2377,7 +2401,7 @@
       <c r="A24" s="32">
         <v>23</v>
       </c>
-      <c r="B24" s="45"/>
+      <c r="B24" s="46"/>
       <c r="C24" s="10" t="s">
         <v>152</v>
       </c>
@@ -2404,7 +2428,7 @@
       <c r="A25" s="32">
         <v>24</v>
       </c>
-      <c r="B25" s="45"/>
+      <c r="B25" s="46"/>
       <c r="C25" s="30" t="s">
         <v>173</v>
       </c>
@@ -2431,7 +2455,7 @@
       <c r="A26" s="32">
         <v>25</v>
       </c>
-      <c r="B26" s="45"/>
+      <c r="B26" s="46"/>
       <c r="C26" s="6" t="s">
         <v>174</v>
       </c>
@@ -2458,7 +2482,7 @@
       <c r="A27" s="32">
         <v>26</v>
       </c>
-      <c r="B27" s="45"/>
+      <c r="B27" s="46"/>
       <c r="C27" s="6" t="s">
         <v>177</v>
       </c>
@@ -2484,7 +2508,7 @@
       <c r="A28" s="32">
         <v>27</v>
       </c>
-      <c r="B28" s="45"/>
+      <c r="B28" s="46"/>
       <c r="C28" s="6" t="s">
         <v>178</v>
       </c>
@@ -2508,9 +2532,9 @@
     </row>
     <row r="29" spans="1:11" s="34" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A29" s="32"/>
-      <c r="B29" s="45"/>
+      <c r="B29" s="46"/>
       <c r="C29" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D29" s="29" t="s">
         <v>10</v>
@@ -2526,7 +2550,7 @@
     </row>
     <row r="30" spans="1:11" s="34" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A30" s="32"/>
-      <c r="B30" s="45"/>
+      <c r="B30" s="46"/>
       <c r="C30" s="6"/>
       <c r="D30" s="29"/>
       <c r="E30" s="33"/>
@@ -2538,7 +2562,7 @@
     </row>
     <row r="31" spans="1:11" s="34" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A31" s="32"/>
-      <c r="B31" s="45"/>
+      <c r="B31" s="46"/>
       <c r="C31" s="6"/>
       <c r="D31" s="29"/>
       <c r="E31" s="33"/>
@@ -2550,7 +2574,7 @@
     </row>
     <row r="32" spans="1:11" s="34" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A32" s="32"/>
-      <c r="B32" s="46"/>
+      <c r="B32" s="47"/>
       <c r="C32" s="6"/>
       <c r="D32" s="29"/>
       <c r="E32" s="33"/>
@@ -2564,7 +2588,7 @@
       <c r="A33" s="32">
         <v>28</v>
       </c>
-      <c r="B33" s="44" t="s">
+      <c r="B33" s="45" t="s">
         <v>12</v>
       </c>
       <c r="C33" s="4" t="s">
@@ -2592,7 +2616,7 @@
       <c r="A34" s="32">
         <v>29</v>
       </c>
-      <c r="B34" s="45"/>
+      <c r="B34" s="46"/>
       <c r="C34" s="4" t="s">
         <v>17</v>
       </c>
@@ -2618,7 +2642,7 @@
       <c r="A35" s="32">
         <v>30</v>
       </c>
-      <c r="B35" s="45"/>
+      <c r="B35" s="46"/>
       <c r="C35" s="4" t="s">
         <v>18</v>
       </c>
@@ -2644,7 +2668,7 @@
       <c r="A36" s="32">
         <v>31</v>
       </c>
-      <c r="B36" s="45"/>
+      <c r="B36" s="46"/>
       <c r="C36" s="4" t="s">
         <v>106</v>
       </c>
@@ -2670,7 +2694,7 @@
       <c r="A37" s="32">
         <v>32</v>
       </c>
-      <c r="B37" s="45"/>
+      <c r="B37" s="46"/>
       <c r="C37" s="4" t="s">
         <v>55</v>
       </c>
@@ -2696,7 +2720,7 @@
       <c r="A38" s="32">
         <v>33</v>
       </c>
-      <c r="B38" s="45"/>
+      <c r="B38" s="46"/>
       <c r="C38" s="4" t="s">
         <v>161</v>
       </c>
@@ -2722,7 +2746,7 @@
       <c r="A39" s="32">
         <v>34</v>
       </c>
-      <c r="B39" s="45"/>
+      <c r="B39" s="46"/>
       <c r="C39" s="4" t="s">
         <v>176</v>
       </c>
@@ -2748,7 +2772,7 @@
       <c r="A40" s="32">
         <v>35</v>
       </c>
-      <c r="B40" s="45"/>
+      <c r="B40" s="46"/>
       <c r="C40" s="4" t="s">
         <v>163</v>
       </c>
@@ -2774,7 +2798,7 @@
       <c r="A41" s="32">
         <v>36</v>
       </c>
-      <c r="B41" s="46"/>
+      <c r="B41" s="47"/>
       <c r="C41" s="4" t="s">
         <v>162</v>
       </c>
@@ -2794,7 +2818,7 @@
       <c r="A42" s="32">
         <v>37</v>
       </c>
-      <c r="B42" s="47" t="s">
+      <c r="B42" s="48" t="s">
         <v>19</v>
       </c>
       <c r="C42" s="4" t="s">
@@ -2824,7 +2848,7 @@
       <c r="A43" s="32">
         <v>38</v>
       </c>
-      <c r="B43" s="47"/>
+      <c r="B43" s="48"/>
       <c r="C43" s="4" t="s">
         <v>21</v>
       </c>
@@ -2850,7 +2874,7 @@
       <c r="A44" s="32">
         <v>39</v>
       </c>
-      <c r="B44" s="47"/>
+      <c r="B44" s="48"/>
       <c r="C44" s="4" t="s">
         <v>71</v>
       </c>
@@ -2876,7 +2900,7 @@
       <c r="A45" s="32">
         <v>40</v>
       </c>
-      <c r="B45" s="47"/>
+      <c r="B45" s="48"/>
       <c r="C45" s="4" t="s">
         <v>90</v>
       </c>
@@ -2902,7 +2926,7 @@
       <c r="A46" s="32">
         <v>41</v>
       </c>
-      <c r="B46" s="47"/>
+      <c r="B46" s="48"/>
       <c r="C46" s="4" t="s">
         <v>89</v>
       </c>
@@ -2928,7 +2952,7 @@
       <c r="A47" s="32">
         <v>42</v>
       </c>
-      <c r="B47" s="47"/>
+      <c r="B47" s="48"/>
       <c r="C47" s="4" t="s">
         <v>94</v>
       </c>
@@ -2954,7 +2978,7 @@
       <c r="A48" s="32">
         <v>43</v>
       </c>
-      <c r="B48" s="47"/>
+      <c r="B48" s="48"/>
       <c r="C48" s="4" t="s">
         <v>96</v>
       </c>
@@ -2980,7 +3004,7 @@
       <c r="A49" s="32">
         <v>44</v>
       </c>
-      <c r="B49" s="47"/>
+      <c r="B49" s="48"/>
       <c r="C49" s="4" t="s">
         <v>150</v>
       </c>
@@ -3008,7 +3032,7 @@
       <c r="A50" s="32">
         <v>45</v>
       </c>
-      <c r="B50" s="47"/>
+      <c r="B50" s="48"/>
       <c r="C50" s="6" t="s">
         <v>137</v>
       </c>
@@ -3034,7 +3058,7 @@
       <c r="A51" s="32">
         <v>46</v>
       </c>
-      <c r="B51" s="47"/>
+      <c r="B51" s="48"/>
       <c r="C51" s="4" t="s">
         <v>22</v>
       </c>
@@ -3060,7 +3084,7 @@
       <c r="A52" s="32">
         <v>47</v>
       </c>
-      <c r="B52" s="47" t="s">
+      <c r="B52" s="48" t="s">
         <v>23</v>
       </c>
       <c r="C52" s="4" t="s">
@@ -3088,7 +3112,7 @@
       <c r="A53" s="32">
         <v>48</v>
       </c>
-      <c r="B53" s="47"/>
+      <c r="B53" s="48"/>
       <c r="C53" s="4" t="s">
         <v>92</v>
       </c>
@@ -3116,7 +3140,7 @@
       <c r="A54" s="32">
         <v>49</v>
       </c>
-      <c r="B54" s="47"/>
+      <c r="B54" s="48"/>
       <c r="C54" s="6" t="s">
         <v>91</v>
       </c>
@@ -3142,7 +3166,7 @@
       <c r="A55" s="32">
         <v>50</v>
       </c>
-      <c r="B55" s="47"/>
+      <c r="B55" s="48"/>
       <c r="C55" s="6" t="s">
         <v>148</v>
       </c>
@@ -3168,7 +3192,7 @@
       <c r="A56" s="32">
         <v>51</v>
       </c>
-      <c r="B56" s="47"/>
+      <c r="B56" s="48"/>
       <c r="C56" s="4" t="s">
         <v>25</v>
       </c>
@@ -3194,7 +3218,7 @@
       <c r="A57" s="32">
         <v>52</v>
       </c>
-      <c r="B57" s="47" t="s">
+      <c r="B57" s="48" t="s">
         <v>26</v>
       </c>
       <c r="C57" s="4" t="s">
@@ -3222,7 +3246,7 @@
       <c r="A58" s="32">
         <v>53</v>
       </c>
-      <c r="B58" s="47"/>
+      <c r="B58" s="48"/>
       <c r="C58" s="4" t="s">
         <v>28</v>
       </c>
@@ -3248,7 +3272,7 @@
       <c r="A59" s="32">
         <v>54</v>
       </c>
-      <c r="B59" s="47" t="s">
+      <c r="B59" s="48" t="s">
         <v>29</v>
       </c>
       <c r="C59" s="4" t="s">
@@ -3276,7 +3300,7 @@
       <c r="A60" s="32">
         <v>55</v>
       </c>
-      <c r="B60" s="47"/>
+      <c r="B60" s="48"/>
       <c r="C60" s="4" t="s">
         <v>62</v>
       </c>
@@ -3302,7 +3326,7 @@
       <c r="A61" s="32">
         <v>56</v>
       </c>
-      <c r="B61" s="47"/>
+      <c r="B61" s="48"/>
       <c r="C61" s="4" t="s">
         <v>63</v>
       </c>
@@ -3328,7 +3352,7 @@
       <c r="A62" s="32">
         <v>57</v>
       </c>
-      <c r="B62" s="47"/>
+      <c r="B62" s="48"/>
       <c r="C62" s="4" t="s">
         <v>72</v>
       </c>
@@ -3352,9 +3376,9 @@
     </row>
     <row r="63" spans="1:10" s="28" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="32"/>
-      <c r="B63" s="47"/>
+      <c r="B63" s="48"/>
       <c r="C63" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D63" s="12" t="s">
         <v>10</v>
@@ -3364,7 +3388,7 @@
       </c>
       <c r="F63" s="12"/>
       <c r="G63" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H63" s="14">
         <v>42900</v>
@@ -3374,7 +3398,7 @@
     </row>
     <row r="64" spans="1:10" s="28" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A64" s="32"/>
-      <c r="B64" s="47"/>
+      <c r="B64" s="48"/>
       <c r="C64" s="4" t="s">
         <v>194</v>
       </c>
@@ -3386,13 +3410,13 @@
       </c>
       <c r="F64" s="12"/>
       <c r="G64" s="12" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H64" s="14">
         <v>42898</v>
       </c>
       <c r="I64" s="12" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="J64" s="12"/>
     </row>
@@ -3400,7 +3424,7 @@
       <c r="A65" s="32">
         <v>58</v>
       </c>
-      <c r="B65" s="47"/>
+      <c r="B65" s="48"/>
       <c r="C65" s="4" t="s">
         <v>61</v>
       </c>
@@ -3426,7 +3450,7 @@
       <c r="A66" s="32">
         <v>59</v>
       </c>
-      <c r="B66" s="47" t="s">
+      <c r="B66" s="48" t="s">
         <v>31</v>
       </c>
       <c r="C66" s="4" t="s">
@@ -3452,7 +3476,7 @@
     </row>
     <row r="67" spans="1:10" s="28" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="32"/>
-      <c r="B67" s="47"/>
+      <c r="B67" s="48"/>
       <c r="C67" s="4" t="s">
         <v>191</v>
       </c>
@@ -3464,13 +3488,13 @@
       </c>
       <c r="F67" s="12"/>
       <c r="G67" s="12" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H67" s="14">
         <v>42898</v>
       </c>
       <c r="I67" s="12" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="J67" s="12"/>
     </row>
@@ -3478,7 +3502,7 @@
       <c r="A68" s="32">
         <v>60</v>
       </c>
-      <c r="B68" s="47"/>
+      <c r="B68" s="48"/>
       <c r="C68" s="4" t="s">
         <v>64</v>
       </c>
@@ -3504,7 +3528,7 @@
       <c r="A69" s="32">
         <v>61</v>
       </c>
-      <c r="B69" s="44" t="s">
+      <c r="B69" s="45" t="s">
         <v>33</v>
       </c>
       <c r="C69" s="4" t="s">
@@ -3532,7 +3556,7 @@
       <c r="A70" s="32">
         <v>62</v>
       </c>
-      <c r="B70" s="45"/>
+      <c r="B70" s="46"/>
       <c r="C70" s="4" t="s">
         <v>35</v>
       </c>
@@ -3556,7 +3580,7 @@
     </row>
     <row r="71" spans="1:10" s="28" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="32"/>
-      <c r="B71" s="45"/>
+      <c r="B71" s="46"/>
       <c r="C71" s="4" t="s">
         <v>193</v>
       </c>
@@ -3568,19 +3592,19 @@
       </c>
       <c r="F71" s="12"/>
       <c r="G71" s="12" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H71" s="14">
         <v>42898</v>
       </c>
       <c r="I71" s="12" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="J71" s="12"/>
     </row>
     <row r="72" spans="1:10" s="28" customFormat="1" ht="54" x14ac:dyDescent="0.15">
       <c r="A72" s="32"/>
-      <c r="B72" s="45"/>
+      <c r="B72" s="46"/>
       <c r="C72" s="4" t="s">
         <v>192</v>
       </c>
@@ -3592,21 +3616,21 @@
       </c>
       <c r="F72" s="12"/>
       <c r="G72" s="12" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H72" s="14">
         <v>42898</v>
       </c>
       <c r="I72" s="12" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="J72" s="12"/>
     </row>
     <row r="73" spans="1:10" s="28" customFormat="1" ht="81" x14ac:dyDescent="0.15">
       <c r="A73" s="32"/>
-      <c r="B73" s="45"/>
+      <c r="B73" s="46"/>
       <c r="C73" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D73" s="12" t="s">
         <v>119</v>
@@ -3615,7 +3639,7 @@
         <v>42892</v>
       </c>
       <c r="F73" s="12" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G73" s="12" t="s">
         <v>75</v>
@@ -3630,9 +3654,9 @@
     </row>
     <row r="74" spans="1:10" s="28" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A74" s="32"/>
-      <c r="B74" s="45"/>
+      <c r="B74" s="46"/>
       <c r="C74" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D74" s="12" t="s">
         <v>10</v>
@@ -3642,13 +3666,13 @@
       </c>
       <c r="F74" s="12"/>
       <c r="G74" s="12" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H74" s="14">
         <v>42898</v>
       </c>
       <c r="I74" s="12" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="J74" s="12"/>
     </row>
@@ -3656,7 +3680,7 @@
       <c r="A75" s="32">
         <v>64</v>
       </c>
-      <c r="B75" s="45"/>
+      <c r="B75" s="46"/>
       <c r="C75" s="4" t="s">
         <v>36</v>
       </c>
@@ -3668,13 +3692,13 @@
       </c>
       <c r="F75" s="12"/>
       <c r="G75" s="12" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H75" s="14">
         <v>42898</v>
       </c>
       <c r="I75" s="12" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="J75" s="12" t="s">
         <v>85</v>
@@ -3684,7 +3708,7 @@
       <c r="A76" s="32">
         <v>65</v>
       </c>
-      <c r="B76" s="46"/>
+      <c r="B76" s="47"/>
       <c r="C76" s="4" t="s">
         <v>165</v>
       </c>
@@ -3696,13 +3720,13 @@
       </c>
       <c r="F76" s="12"/>
       <c r="G76" s="31" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H76" s="2">
         <v>42898</v>
       </c>
       <c r="I76" s="31" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="J76" s="11"/>
     </row>
@@ -3710,8 +3734,8 @@
       <c r="A77" s="32">
         <v>66</v>
       </c>
-      <c r="B77" s="47" t="s">
-        <v>204</v>
+      <c r="B77" s="48" t="s">
+        <v>203</v>
       </c>
       <c r="C77" s="4" t="s">
         <v>38</v>
@@ -3738,7 +3762,7 @@
       <c r="A78" s="32">
         <v>67</v>
       </c>
-      <c r="B78" s="47"/>
+      <c r="B78" s="48"/>
       <c r="C78" s="4" t="s">
         <v>105</v>
       </c>
@@ -3764,9 +3788,9 @@
       <c r="A79" s="32">
         <v>68</v>
       </c>
-      <c r="B79" s="47"/>
+      <c r="B79" s="48"/>
       <c r="C79" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D79" s="12" t="s">
         <v>10</v>
@@ -3776,33 +3800,33 @@
       </c>
       <c r="F79" s="12"/>
       <c r="G79" s="12" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H79" s="14">
         <v>42898</v>
       </c>
       <c r="I79" s="12" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="J79" s="12"/>
     </row>
     <row r="80" spans="1:10" s="28" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="32"/>
-      <c r="B80" s="47"/>
+      <c r="B80" s="48"/>
       <c r="C80" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D80" s="12"/>
       <c r="E80" s="14"/>
       <c r="F80" s="12"/>
       <c r="G80" s="12" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H80" s="14">
         <v>42898</v>
       </c>
       <c r="I80" s="12" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="J80" s="12"/>
     </row>
@@ -3810,9 +3834,9 @@
       <c r="A81" s="32">
         <v>69</v>
       </c>
-      <c r="B81" s="47"/>
+      <c r="B81" s="48"/>
       <c r="C81" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D81" s="12" t="s">
         <v>10</v>
@@ -3822,21 +3846,21 @@
       </c>
       <c r="F81" s="12"/>
       <c r="G81" s="12" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H81" s="14">
         <v>42898</v>
       </c>
       <c r="I81" s="12" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="J81" s="12"/>
     </row>
     <row r="82" spans="1:10" s="28" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A82" s="32"/>
-      <c r="B82" s="47"/>
+      <c r="B82" s="48"/>
       <c r="C82" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D82" s="12" t="s">
         <v>10</v>
@@ -3846,13 +3870,13 @@
       </c>
       <c r="F82" s="12"/>
       <c r="G82" s="12" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H82" s="14">
         <v>42898</v>
       </c>
       <c r="I82" s="12" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="J82" s="12"/>
     </row>
@@ -3860,7 +3884,7 @@
       <c r="A83" s="32">
         <v>70</v>
       </c>
-      <c r="B83" s="47"/>
+      <c r="B83" s="48"/>
       <c r="C83" s="4" t="s">
         <v>37</v>
       </c>
@@ -3886,7 +3910,7 @@
       <c r="A84" s="32">
         <v>71</v>
       </c>
-      <c r="B84" s="47" t="s">
+      <c r="B84" s="48" t="s">
         <v>39</v>
       </c>
       <c r="C84" s="4" t="s">
@@ -3914,9 +3938,9 @@
     </row>
     <row r="85" spans="1:10" s="28" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A85" s="32"/>
-      <c r="B85" s="47"/>
+      <c r="B85" s="48"/>
       <c r="C85" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D85" s="12" t="s">
         <v>10</v>
@@ -3926,21 +3950,21 @@
       </c>
       <c r="F85" s="12"/>
       <c r="G85" s="12" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H85" s="14">
         <v>42898</v>
       </c>
       <c r="I85" s="12" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="J85" s="12"/>
     </row>
     <row r="86" spans="1:10" s="28" customFormat="1" ht="25.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="32"/>
-      <c r="B86" s="47"/>
+      <c r="B86" s="48"/>
       <c r="C86" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D86" s="12" t="s">
         <v>10</v>
@@ -3950,13 +3974,13 @@
       </c>
       <c r="F86" s="12"/>
       <c r="G86" s="12" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H86" s="14">
         <v>42898</v>
       </c>
       <c r="I86" s="12" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="J86" s="12"/>
     </row>
@@ -3964,7 +3988,7 @@
       <c r="A87" s="32">
         <v>72</v>
       </c>
-      <c r="B87" s="47"/>
+      <c r="B87" s="48"/>
       <c r="C87" s="4" t="s">
         <v>105</v>
       </c>
@@ -3990,7 +4014,7 @@
       <c r="A88" s="32">
         <v>73</v>
       </c>
-      <c r="B88" s="47"/>
+      <c r="B88" s="48"/>
       <c r="C88" s="4" t="s">
         <v>37</v>
       </c>
@@ -4016,7 +4040,7 @@
       <c r="A89" s="32">
         <v>74</v>
       </c>
-      <c r="B89" s="47" t="s">
+      <c r="B89" s="48" t="s">
         <v>41</v>
       </c>
       <c r="C89" s="4" t="s">
@@ -4042,9 +4066,9 @@
     </row>
     <row r="90" spans="1:10" s="28" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A90" s="32"/>
-      <c r="B90" s="47"/>
+      <c r="B90" s="48"/>
       <c r="C90" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D90" s="12" t="s">
         <v>10</v>
@@ -4054,21 +4078,21 @@
       </c>
       <c r="F90" s="12"/>
       <c r="G90" s="12" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H90" s="14">
         <v>42898</v>
       </c>
       <c r="I90" s="12" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="J90" s="12"/>
     </row>
     <row r="91" spans="1:10" s="28" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A91" s="32"/>
-      <c r="B91" s="47"/>
+      <c r="B91" s="48"/>
       <c r="C91" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D91" s="12" t="s">
         <v>10</v>
@@ -4078,13 +4102,13 @@
       </c>
       <c r="F91" s="12"/>
       <c r="G91" s="12" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H91" s="14">
         <v>42898</v>
       </c>
       <c r="I91" s="12" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="J91" s="12"/>
     </row>
@@ -4092,7 +4116,7 @@
       <c r="A92" s="32">
         <v>75</v>
       </c>
-      <c r="B92" s="47"/>
+      <c r="B92" s="48"/>
       <c r="C92" s="4" t="s">
         <v>105</v>
       </c>
@@ -4118,7 +4142,7 @@
       <c r="A93" s="32">
         <v>76</v>
       </c>
-      <c r="B93" s="47"/>
+      <c r="B93" s="48"/>
       <c r="C93" s="4" t="s">
         <v>37</v>
       </c>
@@ -4144,7 +4168,7 @@
       <c r="A94" s="32">
         <v>77</v>
       </c>
-      <c r="B94" s="47" t="s">
+      <c r="B94" s="48" t="s">
         <v>43</v>
       </c>
       <c r="C94" s="4" t="s">
@@ -4164,9 +4188,9 @@
     </row>
     <row r="95" spans="1:10" s="28" customFormat="1" ht="28.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="32"/>
-      <c r="B95" s="47"/>
+      <c r="B95" s="48"/>
       <c r="C95" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D95" s="12" t="s">
         <v>10</v>
@@ -4190,7 +4214,7 @@
       <c r="A96" s="32">
         <v>78</v>
       </c>
-      <c r="B96" s="47"/>
+      <c r="B96" s="48"/>
       <c r="C96" s="4" t="s">
         <v>126</v>
       </c>
@@ -4214,9 +4238,9 @@
     </row>
     <row r="97" spans="1:10" s="28" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="32"/>
-      <c r="B97" s="47"/>
+      <c r="B97" s="48"/>
       <c r="C97" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D97" s="12" t="s">
         <v>10</v>
@@ -4232,9 +4256,9 @@
     </row>
     <row r="98" spans="1:10" s="28" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="32"/>
-      <c r="B98" s="47"/>
+      <c r="B98" s="48"/>
       <c r="C98" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D98" s="12" t="s">
         <v>10</v>
@@ -4256,9 +4280,9 @@
     </row>
     <row r="99" spans="1:10" s="28" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="32"/>
-      <c r="B99" s="47"/>
+      <c r="B99" s="48"/>
       <c r="C99" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D99" s="12" t="s">
         <v>10</v>
@@ -4267,52 +4291,70 @@
         <v>42894</v>
       </c>
       <c r="F99" s="12"/>
-      <c r="G99" s="12"/>
-      <c r="H99" s="14"/>
-      <c r="I99" s="12"/>
+      <c r="G99" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="H99" s="14">
+        <v>42893</v>
+      </c>
+      <c r="I99" s="12" t="s">
+        <v>76</v>
+      </c>
       <c r="J99" s="12"/>
     </row>
     <row r="100" spans="1:10" s="28" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="32"/>
-      <c r="B100" s="47"/>
+      <c r="B100" s="48"/>
       <c r="C100" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="D100" s="12" t="s">
         <v>222</v>
-      </c>
-      <c r="D100" s="12" t="s">
-        <v>223</v>
       </c>
       <c r="E100" s="14">
         <v>42893</v>
       </c>
       <c r="F100" s="12"/>
-      <c r="G100" s="12"/>
-      <c r="H100" s="14"/>
-      <c r="I100" s="12"/>
+      <c r="G100" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="H100" s="14">
+        <v>42893</v>
+      </c>
+      <c r="I100" s="12" t="s">
+        <v>76</v>
+      </c>
       <c r="J100" s="12"/>
     </row>
     <row r="101" spans="1:10" s="28" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="32"/>
-      <c r="B101" s="47"/>
+      <c r="B101" s="48"/>
       <c r="C101" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D101" s="12" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E101" s="14">
         <v>42893</v>
       </c>
       <c r="F101" s="12"/>
-      <c r="G101" s="12"/>
-      <c r="H101" s="14"/>
-      <c r="I101" s="12"/>
+      <c r="G101" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="H101" s="14">
+        <v>42893</v>
+      </c>
+      <c r="I101" s="12" t="s">
+        <v>76</v>
+      </c>
       <c r="J101" s="12"/>
     </row>
     <row r="102" spans="1:10" s="28" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A102" s="32"/>
-      <c r="B102" s="47"/>
+      <c r="B102" s="48"/>
       <c r="C102" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D102" s="12" t="s">
         <v>10</v>
@@ -4321,16 +4363,22 @@
         <v>42893</v>
       </c>
       <c r="F102" s="12"/>
-      <c r="G102" s="12"/>
-      <c r="H102" s="12"/>
-      <c r="I102" s="12"/>
+      <c r="G102" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="H102" s="14">
+        <v>42893</v>
+      </c>
+      <c r="I102" s="12" t="s">
+        <v>76</v>
+      </c>
       <c r="J102" s="12"/>
     </row>
     <row r="103" spans="1:10" s="28" customFormat="1" ht="25.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="32"/>
-      <c r="B103" s="47"/>
+      <c r="B103" s="48"/>
       <c r="C103" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D103" s="12" t="s">
         <v>10</v>
@@ -4352,7 +4400,7 @@
     </row>
     <row r="104" spans="1:10" s="28" customFormat="1" ht="25.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="32"/>
-      <c r="B104" s="47"/>
+      <c r="B104" s="48"/>
       <c r="C104" s="4" t="s">
         <v>45</v>
       </c>
@@ -4370,9 +4418,9 @@
     </row>
     <row r="105" spans="1:10" s="28" customFormat="1" ht="25.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="32"/>
-      <c r="B105" s="47"/>
+      <c r="B105" s="48"/>
       <c r="C105" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D105" s="12" t="s">
         <v>10</v>
@@ -4381,16 +4429,22 @@
         <v>42899</v>
       </c>
       <c r="F105" s="12"/>
-      <c r="G105" s="12"/>
-      <c r="H105" s="14"/>
-      <c r="I105" s="12"/>
+      <c r="G105" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="H105" s="14">
+        <v>42905</v>
+      </c>
+      <c r="I105" s="12" t="s">
+        <v>76</v>
+      </c>
       <c r="J105" s="12"/>
     </row>
     <row r="106" spans="1:10" s="28" customFormat="1" ht="25.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="32"/>
-      <c r="B106" s="47"/>
+      <c r="B106" s="48"/>
       <c r="C106" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D106" s="12" t="s">
         <v>10</v>
@@ -4399,16 +4453,22 @@
         <v>42899</v>
       </c>
       <c r="F106" s="12"/>
-      <c r="G106" s="12"/>
-      <c r="H106" s="14"/>
-      <c r="I106" s="12"/>
+      <c r="G106" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="H106" s="14">
+        <v>42905</v>
+      </c>
+      <c r="I106" s="12" t="s">
+        <v>76</v>
+      </c>
       <c r="J106" s="12"/>
     </row>
     <row r="107" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="32">
         <v>79</v>
       </c>
-      <c r="B107" s="47"/>
+      <c r="B107" s="48"/>
       <c r="C107" s="12"/>
       <c r="D107" s="12"/>
       <c r="E107" s="12"/>
@@ -4422,7 +4482,7 @@
       <c r="A108" s="32">
         <v>80</v>
       </c>
-      <c r="B108" s="47" t="s">
+      <c r="B108" s="48" t="s">
         <v>44</v>
       </c>
       <c r="C108" s="4" t="s">
@@ -4448,9 +4508,9 @@
     </row>
     <row r="109" spans="1:10" s="28" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" s="32"/>
-      <c r="B109" s="47"/>
+      <c r="B109" s="48"/>
       <c r="C109" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D109" s="12" t="s">
         <v>10</v>
@@ -4472,9 +4532,9 @@
     </row>
     <row r="110" spans="1:10" s="28" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A110" s="32"/>
-      <c r="B110" s="47"/>
+      <c r="B110" s="48"/>
       <c r="C110" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D110" s="12" t="s">
         <v>10</v>
@@ -4484,7 +4544,7 @@
       </c>
       <c r="F110" s="12"/>
       <c r="G110" s="12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H110" s="14">
         <v>42895</v>
@@ -4496,21 +4556,33 @@
     </row>
     <row r="111" spans="1:10" s="28" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="32"/>
-      <c r="B111" s="47"/>
-      <c r="C111" s="6"/>
-      <c r="D111" s="29"/>
-      <c r="E111" s="33"/>
+      <c r="B111" s="48"/>
+      <c r="C111" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="D111" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E111" s="14">
+        <v>42893</v>
+      </c>
       <c r="F111" s="12"/>
-      <c r="G111" s="12"/>
-      <c r="H111" s="14"/>
-      <c r="I111" s="12"/>
+      <c r="G111" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="H111" s="14">
+        <v>42893</v>
+      </c>
+      <c r="I111" s="12" t="s">
+        <v>76</v>
+      </c>
       <c r="J111" s="12"/>
     </row>
     <row r="112" spans="1:10" s="28" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="32"/>
-      <c r="B112" s="47"/>
+      <c r="B112" s="48"/>
       <c r="C112" s="4" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="D112" s="12" t="s">
         <v>10</v>
@@ -4532,19 +4604,19 @@
     </row>
     <row r="113" spans="1:10" s="28" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A113" s="32"/>
-      <c r="B113" s="47"/>
+      <c r="B113" s="48"/>
       <c r="C113" s="4" t="s">
-        <v>220</v>
+        <v>136</v>
       </c>
       <c r="D113" s="12" t="s">
         <v>10</v>
       </c>
       <c r="E113" s="14">
-        <v>42893</v>
+        <v>42880</v>
       </c>
       <c r="F113" s="12"/>
       <c r="G113" s="12" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="H113" s="14">
         <v>42893</v>
@@ -4556,22 +4628,22 @@
     </row>
     <row r="114" spans="1:10" s="28" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" s="32"/>
-      <c r="B114" s="47"/>
+      <c r="B114" s="48"/>
       <c r="C114" s="4" t="s">
-        <v>136</v>
+        <v>241</v>
       </c>
       <c r="D114" s="12" t="s">
         <v>10</v>
       </c>
       <c r="E114" s="14">
-        <v>42880</v>
+        <v>42899</v>
       </c>
       <c r="F114" s="12"/>
       <c r="G114" s="12" t="s">
         <v>78</v>
       </c>
       <c r="H114" s="14">
-        <v>42893</v>
+        <v>42905</v>
       </c>
       <c r="I114" s="12" t="s">
         <v>76</v>
@@ -4580,7 +4652,7 @@
     </row>
     <row r="115" spans="1:10" s="28" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A115" s="32"/>
-      <c r="B115" s="47"/>
+      <c r="B115" s="48"/>
       <c r="C115" s="4" t="s">
         <v>242</v>
       </c>
@@ -4590,75 +4662,87 @@
       <c r="E115" s="14">
         <v>42899</v>
       </c>
-      <c r="F115" s="12"/>
-      <c r="G115" s="12"/>
-      <c r="H115" s="14"/>
-      <c r="I115" s="12"/>
+      <c r="F115" s="42"/>
+      <c r="G115" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="H115" s="14">
+        <v>42905</v>
+      </c>
+      <c r="I115" s="12" t="s">
+        <v>76</v>
+      </c>
       <c r="J115" s="12"/>
     </row>
-    <row r="116" spans="1:10" s="28" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A116" s="32"/>
-      <c r="B116" s="47"/>
-      <c r="C116" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="D116" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E116" s="14">
-        <v>42899</v>
-      </c>
-      <c r="F116" s="42"/>
-      <c r="G116" s="42"/>
-      <c r="H116" s="43"/>
-      <c r="I116" s="42"/>
+    <row r="116" spans="1:10" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A116" s="32">
+        <v>81</v>
+      </c>
+      <c r="B116" s="48"/>
+      <c r="C116" s="12"/>
+      <c r="D116" s="12"/>
+      <c r="E116" s="12"/>
       <c r="J116" s="12"/>
     </row>
-    <row r="117" spans="1:10" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A117" s="32">
-        <v>81</v>
-      </c>
-      <c r="B117" s="47"/>
-      <c r="C117" s="12"/>
-      <c r="D117" s="12"/>
-      <c r="E117" s="12"/>
-      <c r="J117" s="12"/>
-    </row>
-    <row r="118" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A118" s="32">
         <v>82</v>
       </c>
-      <c r="B118" s="44" t="s">
+      <c r="B117" s="45" t="s">
         <v>65</v>
       </c>
+      <c r="C117" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D117" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E117" s="14">
+        <v>42830</v>
+      </c>
+      <c r="F117" s="12"/>
+      <c r="G117" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="H117" s="14">
+        <v>42830</v>
+      </c>
+      <c r="I117" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="J117" s="12" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" s="28" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A118" s="32"/>
+      <c r="B118" s="46"/>
       <c r="C118" s="4" t="s">
-        <v>66</v>
+        <v>184</v>
       </c>
       <c r="D118" s="12" t="s">
         <v>10</v>
       </c>
       <c r="E118" s="14">
-        <v>42830</v>
+        <v>42892</v>
       </c>
       <c r="F118" s="12"/>
       <c r="G118" s="12" t="s">
         <v>78</v>
       </c>
       <c r="H118" s="14">
-        <v>42830</v>
+        <v>42892</v>
       </c>
       <c r="I118" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="J118" s="12" t="s">
-        <v>79</v>
-      </c>
+      <c r="J118" s="12"/>
     </row>
     <row r="119" spans="1:10" s="28" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A119" s="32"/>
-      <c r="B119" s="45"/>
+      <c r="B119" s="47"/>
       <c r="C119" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D119" s="12" t="s">
         <v>10</v>
@@ -4678,65 +4762,61 @@
       </c>
       <c r="J119" s="12"/>
     </row>
-    <row r="120" spans="1:10" s="28" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A120" s="32"/>
-      <c r="B120" s="46"/>
-      <c r="C120" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="D120" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E120" s="14">
-        <v>42892</v>
-      </c>
-      <c r="F120" s="12"/>
-      <c r="G120" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="H120" s="14">
-        <v>42892</v>
-      </c>
-      <c r="I120" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="J120" s="12"/>
+    <row r="120" spans="1:10" s="20" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A120" s="32">
+        <v>83</v>
+      </c>
+      <c r="B120" s="52" t="s">
+        <v>67</v>
+      </c>
+      <c r="C120" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D120" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E120" s="19">
+        <v>42830</v>
+      </c>
+      <c r="F120" s="9"/>
+      <c r="G120" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="H120" s="19">
+        <v>42831</v>
+      </c>
+      <c r="I120" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="J120" s="9"/>
     </row>
     <row r="121" spans="1:10" s="20" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A121" s="32">
-        <v>83</v>
-      </c>
-      <c r="B121" s="48" t="s">
-        <v>67</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="B121" s="52"/>
       <c r="C121" s="8" t="s">
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="D121" s="9" t="s">
         <v>10</v>
       </c>
       <c r="E121" s="19">
-        <v>42830</v>
+        <v>42857</v>
       </c>
       <c r="F121" s="9"/>
-      <c r="G121" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="H121" s="19">
-        <v>42831</v>
-      </c>
-      <c r="I121" s="9" t="s">
-        <v>70</v>
-      </c>
+      <c r="G121" s="9"/>
+      <c r="H121" s="19"/>
+      <c r="I121" s="9"/>
       <c r="J121" s="9"/>
     </row>
     <row r="122" spans="1:10" s="20" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A122" s="32">
-        <v>84</v>
-      </c>
-      <c r="B122" s="48"/>
+        <v>85</v>
+      </c>
+      <c r="B122" s="52"/>
       <c r="C122" s="8" t="s">
-        <v>95</v>
+        <v>187</v>
       </c>
       <c r="D122" s="9" t="s">
         <v>10</v>
@@ -4752,11 +4832,11 @@
     </row>
     <row r="123" spans="1:10" s="20" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A123" s="32">
-        <v>85</v>
-      </c>
-      <c r="B123" s="48"/>
+        <v>86</v>
+      </c>
+      <c r="B123" s="52"/>
       <c r="C123" s="8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D123" s="9" t="s">
         <v>10</v>
@@ -4771,18 +4851,16 @@
       <c r="J123" s="9"/>
     </row>
     <row r="124" spans="1:10" s="20" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A124" s="32">
-        <v>86</v>
-      </c>
-      <c r="B124" s="48"/>
+      <c r="A124" s="32"/>
+      <c r="B124" s="52"/>
       <c r="C124" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="D124" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E124" s="19">
-        <v>42857</v>
+        <v>188</v>
+      </c>
+      <c r="D124" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E124" s="14">
+        <v>42892</v>
       </c>
       <c r="F124" s="9"/>
       <c r="G124" s="9"/>
@@ -4792,9 +4870,9 @@
     </row>
     <row r="125" spans="1:10" s="20" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A125" s="32"/>
-      <c r="B125" s="48"/>
+      <c r="B125" s="52"/>
       <c r="C125" s="8" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D125" s="12" t="s">
         <v>10</v>
@@ -4810,9 +4888,9 @@
     </row>
     <row r="126" spans="1:10" s="20" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A126" s="32"/>
-      <c r="B126" s="48"/>
+      <c r="B126" s="52"/>
       <c r="C126" s="8" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D126" s="12" t="s">
         <v>10</v>
@@ -4828,9 +4906,9 @@
     </row>
     <row r="127" spans="1:10" s="20" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A127" s="32"/>
-      <c r="B127" s="48"/>
+      <c r="B127" s="52"/>
       <c r="C127" s="8" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="D127" s="12" t="s">
         <v>10</v>
@@ -4844,79 +4922,89 @@
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
     </row>
-    <row r="128" spans="1:10" s="20" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A128" s="32"/>
-      <c r="B128" s="48"/>
+    <row r="128" spans="1:10" s="20" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A128" s="32">
+        <v>87</v>
+      </c>
+      <c r="B128" s="52"/>
       <c r="C128" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="D128" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E128" s="14">
-        <v>42892</v>
+        <v>185</v>
+      </c>
+      <c r="D128" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E128" s="19">
+        <v>42826</v>
       </c>
       <c r="F128" s="9"/>
       <c r="G128" s="9"/>
-      <c r="H128" s="19"/>
+      <c r="H128" s="9"/>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
     </row>
-    <row r="129" spans="1:10" s="20" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A129" s="32">
+        <v>88</v>
+      </c>
+      <c r="B129" s="48" t="s">
         <v>87</v>
       </c>
-      <c r="B129" s="48"/>
-      <c r="C129" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="D129" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E129" s="19">
-        <v>42826</v>
-      </c>
-      <c r="F129" s="9"/>
-      <c r="G129" s="9"/>
-      <c r="H129" s="9"/>
-      <c r="I129" s="9"/>
-      <c r="J129" s="9"/>
+      <c r="C129" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D129" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E129" s="14">
+        <v>42837</v>
+      </c>
+      <c r="F129" s="12"/>
+      <c r="G129" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="H129" s="14">
+        <v>42839</v>
+      </c>
+      <c r="I129" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="J129" s="12"/>
     </row>
     <row r="130" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A130" s="32">
-        <v>88</v>
-      </c>
-      <c r="B130" s="47" t="s">
-        <v>87</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="B130" s="48"/>
       <c r="C130" s="4" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="D130" s="12" t="s">
         <v>10</v>
       </c>
       <c r="E130" s="14">
-        <v>42837</v>
+        <v>42857</v>
       </c>
       <c r="F130" s="12"/>
       <c r="G130" s="12" t="s">
-        <v>56</v>
+        <v>143</v>
       </c>
       <c r="H130" s="14">
-        <v>42839</v>
+        <v>42882</v>
       </c>
       <c r="I130" s="12" t="s">
-        <v>50</v>
+        <v>144</v>
       </c>
       <c r="J130" s="12"/>
     </row>
     <row r="131" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A131" s="32">
-        <v>89</v>
-      </c>
-      <c r="B131" s="47"/>
+        <v>90</v>
+      </c>
+      <c r="B131" s="45" t="s">
+        <v>97</v>
+      </c>
       <c r="C131" s="4" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="D131" s="12" t="s">
         <v>10</v>
@@ -4926,49 +5014,45 @@
       </c>
       <c r="F131" s="12"/>
       <c r="G131" s="12" t="s">
-        <v>143</v>
+        <v>102</v>
       </c>
       <c r="H131" s="14">
-        <v>42882</v>
+        <v>42857</v>
       </c>
       <c r="I131" s="12" t="s">
-        <v>144</v>
+        <v>76</v>
       </c>
       <c r="J131" s="12"/>
     </row>
-    <row r="132" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A132" s="32">
-        <v>90</v>
-      </c>
-      <c r="B132" s="44" t="s">
-        <v>97</v>
-      </c>
+    <row r="132" spans="1:10" s="28" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A132" s="32"/>
+      <c r="B132" s="46"/>
       <c r="C132" s="4" t="s">
-        <v>98</v>
+        <v>202</v>
       </c>
       <c r="D132" s="12" t="s">
         <v>10</v>
       </c>
       <c r="E132" s="14">
-        <v>42857</v>
+        <v>42892</v>
       </c>
       <c r="F132" s="12"/>
       <c r="G132" s="12" t="s">
-        <v>102</v>
+        <v>230</v>
       </c>
       <c r="H132" s="14">
-        <v>42857</v>
+        <v>42898</v>
       </c>
       <c r="I132" s="12" t="s">
-        <v>76</v>
+        <v>232</v>
       </c>
       <c r="J132" s="12"/>
     </row>
     <row r="133" spans="1:10" s="28" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A133" s="32"/>
-      <c r="B133" s="45"/>
+      <c r="B133" s="46"/>
       <c r="C133" s="4" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="D133" s="12" t="s">
         <v>10</v>
@@ -4978,19 +5062,19 @@
       </c>
       <c r="F133" s="12"/>
       <c r="G133" s="12" t="s">
-        <v>231</v>
+        <v>78</v>
       </c>
       <c r="H133" s="14">
-        <v>42898</v>
+        <v>42905</v>
       </c>
       <c r="I133" s="12" t="s">
-        <v>233</v>
+        <v>76</v>
       </c>
       <c r="J133" s="12"/>
     </row>
     <row r="134" spans="1:10" s="28" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A134" s="32"/>
-      <c r="B134" s="45"/>
+      <c r="B134" s="46"/>
       <c r="C134" s="4" t="s">
         <v>198</v>
       </c>
@@ -5001,16 +5085,22 @@
         <v>42892</v>
       </c>
       <c r="F134" s="12"/>
-      <c r="G134" s="12"/>
-      <c r="H134" s="14"/>
-      <c r="I134" s="12"/>
+      <c r="G134" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="H134" s="14">
+        <v>42898</v>
+      </c>
+      <c r="I134" s="12" t="s">
+        <v>232</v>
+      </c>
       <c r="J134" s="12"/>
     </row>
-    <row r="135" spans="1:10" s="28" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:10" s="28" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A135" s="32"/>
-      <c r="B135" s="45"/>
+      <c r="B135" s="46"/>
       <c r="C135" s="4" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D135" s="12" t="s">
         <v>10</v>
@@ -5020,89 +5110,97 @@
       </c>
       <c r="F135" s="12"/>
       <c r="G135" s="12" t="s">
-        <v>231</v>
+        <v>78</v>
       </c>
       <c r="H135" s="14">
+        <v>42905</v>
+      </c>
+      <c r="I135" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="J135" s="12"/>
+    </row>
+    <row r="136" spans="1:10" s="28" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A136" s="32"/>
+      <c r="B136" s="46"/>
+      <c r="C136" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="D136" s="12"/>
+      <c r="E136" s="14"/>
+      <c r="F136" s="12"/>
+      <c r="G136" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="H136" s="14">
         <v>42898</v>
       </c>
-      <c r="I135" s="12" t="s">
-        <v>233</v>
-      </c>
-      <c r="J135" s="12"/>
-    </row>
-    <row r="136" spans="1:10" s="28" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A136" s="32"/>
-      <c r="B136" s="45"/>
-      <c r="C136" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="D136" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E136" s="14">
+      <c r="I136" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="J136" s="12"/>
+    </row>
+    <row r="137" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+      <c r="A137" s="32">
+        <v>91</v>
+      </c>
+      <c r="B137" s="47"/>
+      <c r="C137" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="D137" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E137" s="14">
         <v>42892</v>
       </c>
-      <c r="F136" s="12"/>
-      <c r="G136" s="12"/>
-      <c r="H136" s="14"/>
-      <c r="I136" s="12"/>
-      <c r="J136" s="12"/>
-    </row>
-    <row r="137" spans="1:10" s="28" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A137" s="32"/>
-      <c r="B137" s="45"/>
-      <c r="C137" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="D137" s="12"/>
-      <c r="E137" s="14"/>
       <c r="F137" s="12"/>
       <c r="G137" s="12" t="s">
-        <v>231</v>
+        <v>247</v>
       </c>
       <c r="H137" s="14">
-        <v>42898</v>
+        <v>42900</v>
       </c>
       <c r="I137" s="12" t="s">
-        <v>233</v>
+        <v>248</v>
       </c>
       <c r="J137" s="12"/>
     </row>
-    <row r="138" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A138" s="32">
-        <v>91</v>
-      </c>
-      <c r="B138" s="46"/>
+        <v>92</v>
+      </c>
+      <c r="B138" s="48" t="s">
+        <v>99</v>
+      </c>
       <c r="C138" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="D138" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="D138" s="12" t="s">
         <v>10</v>
       </c>
       <c r="E138" s="14">
-        <v>42892</v>
+        <v>42857</v>
       </c>
       <c r="F138" s="12"/>
       <c r="G138" s="12" t="s">
-        <v>248</v>
+        <v>103</v>
       </c>
       <c r="H138" s="14">
-        <v>42900</v>
+        <v>42857</v>
       </c>
       <c r="I138" s="12" t="s">
-        <v>249</v>
+        <v>76</v>
       </c>
       <c r="J138" s="12"/>
     </row>
     <row r="139" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A139" s="32">
-        <v>92</v>
-      </c>
-      <c r="B139" s="47" t="s">
-        <v>99</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="B139" s="48"/>
       <c r="C139" s="4" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="D139" s="12" t="s">
         <v>10</v>
@@ -5124,11 +5222,11 @@
     </row>
     <row r="140" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A140" s="32">
-        <v>93</v>
-      </c>
-      <c r="B140" s="47"/>
+        <v>94</v>
+      </c>
+      <c r="B140" s="48"/>
       <c r="C140" s="4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D140" s="12" t="s">
         <v>10</v>
@@ -5148,199 +5246,217 @@
       </c>
       <c r="J140" s="12"/>
     </row>
-    <row r="141" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A141" s="32">
-        <v>94</v>
-      </c>
-      <c r="B141" s="47"/>
+    <row r="141" spans="1:10" s="28" customFormat="1" ht="40.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A141" s="32"/>
+      <c r="B141" s="41" t="s">
+        <v>196</v>
+      </c>
       <c r="C141" s="4" t="s">
-        <v>101</v>
+        <v>250</v>
       </c>
       <c r="D141" s="12" t="s">
         <v>10</v>
       </c>
       <c r="E141" s="14">
-        <v>42857</v>
+        <v>42892</v>
       </c>
       <c r="F141" s="12"/>
       <c r="G141" s="12" t="s">
-        <v>103</v>
+        <v>247</v>
       </c>
       <c r="H141" s="14">
-        <v>42857</v>
+        <v>42900</v>
       </c>
       <c r="I141" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="J141" s="12"/>
+    </row>
+    <row r="142" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+      <c r="A142" s="32">
+        <v>95</v>
+      </c>
+      <c r="B142" s="45" t="s">
+        <v>111</v>
+      </c>
+      <c r="C142" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D142" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E142" s="14">
+        <v>42863</v>
+      </c>
+      <c r="F142" s="12"/>
+      <c r="G142" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H142" s="15">
+        <v>42881</v>
+      </c>
+      <c r="I142" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="J142" s="12"/>
+    </row>
+    <row r="143" spans="1:10" s="28" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A143" s="32"/>
+      <c r="B143" s="46"/>
+      <c r="C143" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="D143" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E143" s="14">
+        <v>42892</v>
+      </c>
+      <c r="F143" s="12"/>
+      <c r="G143" s="29"/>
+      <c r="H143" s="33"/>
+      <c r="I143" s="12"/>
+      <c r="J143" s="12"/>
+    </row>
+    <row r="144" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+      <c r="A144" s="32">
+        <v>96</v>
+      </c>
+      <c r="B144" s="46"/>
+      <c r="C144" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D144" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E144" s="14">
+        <v>42886</v>
+      </c>
+      <c r="F144" s="12"/>
+      <c r="G144" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="H144" s="14">
+        <v>42898</v>
+      </c>
+      <c r="I144" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="J141" s="12"/>
-    </row>
-    <row r="142" spans="1:10" s="28" customFormat="1" ht="40.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A142" s="32"/>
-      <c r="B142" s="41" t="s">
-        <v>197</v>
-      </c>
-      <c r="C142" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="D142" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E142" s="14">
-        <v>42892</v>
-      </c>
-      <c r="F142" s="12"/>
-      <c r="G142" s="12" t="s">
-        <v>248</v>
-      </c>
-      <c r="H142" s="14">
-        <v>42900</v>
-      </c>
-      <c r="I142" s="12" t="s">
-        <v>250</v>
-      </c>
-      <c r="J142" s="12"/>
-    </row>
-    <row r="143" spans="1:10" ht="27" x14ac:dyDescent="0.15">
-      <c r="A143" s="32">
-        <v>95</v>
-      </c>
-      <c r="B143" s="44" t="s">
-        <v>111</v>
-      </c>
-      <c r="C143" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="D143" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E143" s="14">
-        <v>42863</v>
-      </c>
-      <c r="F143" s="12"/>
-      <c r="G143" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="H143" s="15">
-        <v>42881</v>
-      </c>
-      <c r="I143" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="J143" s="12"/>
-    </row>
-    <row r="144" spans="1:10" s="28" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A144" s="32"/>
-      <c r="B144" s="45"/>
-      <c r="C144" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="D144" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="E144" s="14">
-        <v>42892</v>
-      </c>
-      <c r="F144" s="12"/>
-      <c r="G144" s="29"/>
-      <c r="H144" s="33"/>
-      <c r="I144" s="12"/>
       <c r="J144" s="12"/>
     </row>
-    <row r="145" spans="1:10" ht="27" x14ac:dyDescent="0.15">
-      <c r="A145" s="32">
-        <v>96</v>
-      </c>
-      <c r="B145" s="45"/>
+    <row r="145" spans="1:10" s="28" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A145" s="32"/>
+      <c r="B145" s="46"/>
       <c r="C145" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="D145" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="D145" s="24" t="s">
         <v>10</v>
       </c>
       <c r="E145" s="14">
+        <v>42894</v>
+      </c>
+      <c r="F145" s="12"/>
+      <c r="G145" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="H145" s="14">
+        <v>42898</v>
+      </c>
+      <c r="I145" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="J145" s="12"/>
+    </row>
+    <row r="146" spans="1:10" s="28" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A146" s="32"/>
+      <c r="B146" s="46"/>
+      <c r="C146" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D146" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E146" s="14">
         <v>42886</v>
       </c>
-      <c r="F145" s="12"/>
-      <c r="G145" s="7"/>
-      <c r="H145" s="15"/>
-      <c r="I145" s="12"/>
-      <c r="J145" s="12"/>
-    </row>
-    <row r="146" spans="1:10" s="28" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A146" s="32"/>
-      <c r="B146" s="45"/>
-      <c r="C146" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="D146" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="E146" s="14">
-        <v>42894</v>
-      </c>
       <c r="F146" s="12"/>
-      <c r="G146" s="29"/>
-      <c r="H146" s="33"/>
-      <c r="I146" s="12"/>
+      <c r="G146" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="H146" s="14">
+        <v>42898</v>
+      </c>
+      <c r="I146" s="12" t="s">
+        <v>76</v>
+      </c>
       <c r="J146" s="12"/>
     </row>
-    <row r="147" spans="1:10" s="28" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A147" s="32"/>
-      <c r="B147" s="45"/>
+    <row r="147" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A147" s="32">
+        <v>97</v>
+      </c>
+      <c r="B147" s="46"/>
       <c r="C147" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="D147" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E147" s="14">
-        <v>42886</v>
-      </c>
+        <v>244</v>
+      </c>
+      <c r="D147" s="12"/>
+      <c r="E147" s="12"/>
       <c r="F147" s="12"/>
-      <c r="G147" s="29"/>
-      <c r="H147" s="33"/>
+      <c r="G147" s="7"/>
+      <c r="H147" s="15"/>
       <c r="I147" s="12"/>
       <c r="J147" s="12"/>
     </row>
-    <row r="148" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A148" s="32">
-        <v>97</v>
-      </c>
-      <c r="B148" s="45"/>
-      <c r="C148" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="D148" s="12"/>
-      <c r="E148" s="12"/>
-      <c r="F148" s="12"/>
-      <c r="G148" s="7"/>
-      <c r="H148" s="15"/>
-      <c r="I148" s="12"/>
-      <c r="J148" s="12"/>
-    </row>
-    <row r="149" spans="1:10" s="28" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A149" s="49" t="s">
-        <v>195</v>
-      </c>
-      <c r="B149" s="50"/>
-      <c r="C149" s="50"/>
-      <c r="D149" s="50"/>
-      <c r="E149" s="50"/>
-      <c r="F149" s="50"/>
-      <c r="G149" s="50"/>
-      <c r="H149" s="50"/>
-      <c r="I149" s="50"/>
-      <c r="J149" s="51"/>
-    </row>
-    <row r="150" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:10" s="28" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A148" s="49" t="s">
+        <v>267</v>
+      </c>
+      <c r="B148" s="50"/>
+      <c r="C148" s="50"/>
+      <c r="D148" s="50"/>
+      <c r="E148" s="50"/>
+      <c r="F148" s="50"/>
+      <c r="G148" s="50"/>
+      <c r="H148" s="50"/>
+      <c r="I148" s="50"/>
+      <c r="J148" s="51"/>
+    </row>
+    <row r="149" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A149" s="32">
+        <v>98</v>
+      </c>
+      <c r="B149" s="48" t="s">
+        <v>113</v>
+      </c>
+      <c r="C149" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D149" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E149" s="14">
+        <v>42863</v>
+      </c>
+      <c r="F149" s="12"/>
+      <c r="G149" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="H149" s="14">
+        <v>42872</v>
+      </c>
+      <c r="I149" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="J149" s="12"/>
+    </row>
+    <row r="150" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A150" s="32">
-        <v>98</v>
-      </c>
-      <c r="B150" s="47" t="s">
-        <v>113</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="B150" s="48"/>
       <c r="C150" s="4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D150" s="12" t="s">
         <v>10</v>
@@ -5353,20 +5469,22 @@
         <v>123</v>
       </c>
       <c r="H150" s="14">
-        <v>42872</v>
+        <v>42141</v>
       </c>
       <c r="I150" s="12" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="J150" s="12"/>
     </row>
-    <row r="151" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A151" s="32">
-        <v>99</v>
-      </c>
-      <c r="B151" s="47"/>
+        <v>100</v>
+      </c>
+      <c r="B151" s="48" t="s">
+        <v>114</v>
+      </c>
       <c r="C151" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D151" s="12" t="s">
         <v>10</v>
@@ -5379,22 +5497,20 @@
         <v>123</v>
       </c>
       <c r="H151" s="14">
-        <v>42141</v>
+        <v>42872</v>
       </c>
       <c r="I151" s="12" t="s">
         <v>124</v>
       </c>
       <c r="J151" s="12"/>
     </row>
-    <row r="152" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A152" s="32">
-        <v>100</v>
-      </c>
-      <c r="B152" s="47" t="s">
-        <v>114</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="B152" s="48"/>
       <c r="C152" s="4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D152" s="12" t="s">
         <v>10</v>
@@ -5414,13 +5530,15 @@
       </c>
       <c r="J152" s="12"/>
     </row>
-    <row r="153" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A153" s="32">
-        <v>101</v>
-      </c>
-      <c r="B153" s="47"/>
+        <v>102</v>
+      </c>
+      <c r="B153" s="45" t="s">
+        <v>118</v>
+      </c>
       <c r="C153" s="4" t="s">
-        <v>117</v>
+        <v>140</v>
       </c>
       <c r="D153" s="12" t="s">
         <v>10</v>
@@ -5429,80 +5547,80 @@
         <v>42863</v>
       </c>
       <c r="F153" s="12"/>
-      <c r="G153" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="H153" s="14">
-        <v>42872</v>
+      <c r="G153" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H153" s="15">
+        <v>42882</v>
       </c>
       <c r="I153" s="12" t="s">
         <v>124</v>
       </c>
       <c r="J153" s="12"/>
     </row>
-    <row r="154" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:10" s="26" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A154" s="32">
-        <v>102</v>
-      </c>
-      <c r="B154" s="44" t="s">
-        <v>118</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="B154" s="47"/>
       <c r="C154" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="D154" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E154" s="14">
-        <v>42863</v>
+        <v>166</v>
+      </c>
+      <c r="D154" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="E154" s="25">
+        <v>42887</v>
       </c>
       <c r="F154" s="12"/>
-      <c r="G154" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="H154" s="15">
+      <c r="G154" s="24"/>
+      <c r="H154" s="27"/>
+      <c r="I154" s="11"/>
+      <c r="J154" s="11"/>
+    </row>
+    <row r="155" spans="1:10" ht="41.25" x14ac:dyDescent="0.15">
+      <c r="A155" s="32">
+        <v>104</v>
+      </c>
+      <c r="B155" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="C155" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="D155" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="E155" s="14">
+        <v>42864</v>
+      </c>
+      <c r="F155" s="12"/>
+      <c r="G155" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="H155" s="14">
         <v>42882</v>
       </c>
-      <c r="I154" s="12" t="s">
+      <c r="I155" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="J154" s="12"/>
-    </row>
-    <row r="155" spans="1:10" s="26" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A155" s="32">
-        <v>103</v>
-      </c>
-      <c r="B155" s="46"/>
-      <c r="C155" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="D155" s="24" t="s">
-        <v>167</v>
-      </c>
-      <c r="E155" s="25">
-        <v>42887</v>
-      </c>
-      <c r="F155" s="12"/>
-      <c r="G155" s="24"/>
-      <c r="H155" s="27"/>
-      <c r="I155" s="11"/>
-      <c r="J155" s="11"/>
-    </row>
-    <row r="156" spans="1:10" ht="42" x14ac:dyDescent="0.15">
+      <c r="J155" s="12"/>
+    </row>
+    <row r="156" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A156" s="32">
-        <v>104</v>
-      </c>
-      <c r="B156" s="22" t="s">
-        <v>122</v>
+        <v>105</v>
+      </c>
+      <c r="B156" s="45" t="s">
+        <v>132</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="D156" s="12" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="E156" s="14">
-        <v>42864</v>
+        <v>42880</v>
       </c>
       <c r="F156" s="12"/>
       <c r="G156" s="12" t="s">
@@ -5512,93 +5630,89 @@
         <v>42882</v>
       </c>
       <c r="I156" s="12" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="J156" s="12"/>
     </row>
-    <row r="157" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A157" s="32">
-        <v>105</v>
-      </c>
-      <c r="B157" s="44" t="s">
-        <v>132</v>
-      </c>
+    <row r="157" spans="1:10" s="28" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A157" s="32"/>
+      <c r="B157" s="46"/>
       <c r="C157" s="4" t="s">
-        <v>133</v>
+        <v>227</v>
       </c>
       <c r="D157" s="12" t="s">
-        <v>134</v>
+        <v>10</v>
       </c>
       <c r="E157" s="14">
-        <v>42880</v>
+        <v>42894</v>
       </c>
       <c r="F157" s="12"/>
       <c r="G157" s="12" t="s">
-        <v>141</v>
+        <v>230</v>
       </c>
       <c r="H157" s="14">
-        <v>42882</v>
+        <v>42898</v>
       </c>
       <c r="I157" s="12" t="s">
-        <v>142</v>
+        <v>231</v>
       </c>
       <c r="J157" s="12"/>
     </row>
-    <row r="158" spans="1:10" s="28" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A158" s="32"/>
-      <c r="B158" s="45"/>
+    <row r="158" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A158" s="32">
+        <v>106</v>
+      </c>
+      <c r="B158" s="46"/>
       <c r="C158" s="4" t="s">
-        <v>228</v>
+        <v>135</v>
       </c>
       <c r="D158" s="12" t="s">
-        <v>10</v>
+        <v>134</v>
       </c>
       <c r="E158" s="14">
-        <v>42894</v>
+        <v>42880</v>
       </c>
       <c r="F158" s="12"/>
       <c r="G158" s="12" t="s">
-        <v>231</v>
+        <v>141</v>
       </c>
       <c r="H158" s="14">
-        <v>42898</v>
+        <v>42882</v>
       </c>
       <c r="I158" s="12" t="s">
-        <v>232</v>
+        <v>142</v>
       </c>
       <c r="J158" s="12"/>
     </row>
-    <row r="159" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A159" s="32">
-        <v>106</v>
-      </c>
-      <c r="B159" s="45"/>
+    <row r="159" spans="1:10" s="28" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A159" s="32"/>
+      <c r="B159" s="46"/>
       <c r="C159" s="4" t="s">
-        <v>135</v>
+        <v>246</v>
       </c>
       <c r="D159" s="12" t="s">
-        <v>134</v>
+        <v>10</v>
       </c>
       <c r="E159" s="14">
-        <v>42880</v>
+        <v>42899</v>
       </c>
       <c r="F159" s="12"/>
       <c r="G159" s="12" t="s">
-        <v>141</v>
+        <v>247</v>
       </c>
       <c r="H159" s="14">
-        <v>42882</v>
+        <v>42900</v>
       </c>
       <c r="I159" s="12" t="s">
-        <v>142</v>
+        <v>251</v>
       </c>
       <c r="J159" s="12"/>
     </row>
     <row r="160" spans="1:10" s="28" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A160" s="32"/>
-      <c r="B160" s="45"/>
+      <c r="B160" s="46"/>
       <c r="C160" s="4" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D160" s="12" t="s">
         <v>10</v>
@@ -5608,75 +5722,73 @@
       </c>
       <c r="F160" s="12"/>
       <c r="G160" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H160" s="14">
         <v>42900</v>
       </c>
       <c r="I160" s="12" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="J160" s="12"/>
     </row>
-    <row r="161" spans="1:10" s="28" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A161" s="32"/>
-      <c r="B161" s="45"/>
+    <row r="161" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+      <c r="A161" s="32">
+        <v>107</v>
+      </c>
+      <c r="B161" s="47"/>
       <c r="C161" s="4" t="s">
-        <v>246</v>
+        <v>139</v>
       </c>
       <c r="D161" s="12" t="s">
-        <v>10</v>
+        <v>134</v>
       </c>
       <c r="E161" s="14">
-        <v>42899</v>
+        <v>42880</v>
       </c>
       <c r="F161" s="12"/>
       <c r="G161" s="12" t="s">
-        <v>248</v>
+        <v>141</v>
       </c>
       <c r="H161" s="14">
-        <v>42900</v>
+        <v>42882</v>
       </c>
       <c r="I161" s="12" t="s">
-        <v>252</v>
+        <v>142</v>
       </c>
       <c r="J161" s="12"/>
     </row>
-    <row r="162" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:10" s="26" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A162" s="32">
-        <v>107</v>
-      </c>
-      <c r="B162" s="46"/>
+        <v>108</v>
+      </c>
+      <c r="B162" s="11" t="s">
+        <v>170</v>
+      </c>
       <c r="C162" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="D162" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="E162" s="14">
-        <v>42880</v>
+        <v>171</v>
+      </c>
+      <c r="D162" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E162" s="25">
+        <v>42888</v>
       </c>
       <c r="F162" s="12"/>
-      <c r="G162" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="H162" s="14">
-        <v>42882</v>
-      </c>
-      <c r="I162" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="J162" s="12"/>
-    </row>
-    <row r="163" spans="1:10" s="26" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="G162" s="11"/>
+      <c r="H162" s="11"/>
+      <c r="I162" s="11"/>
+      <c r="J162" s="11"/>
+    </row>
+    <row r="163" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A163" s="32">
-        <v>108</v>
-      </c>
-      <c r="B163" s="11" t="s">
-        <v>170</v>
+        <v>109</v>
+      </c>
+      <c r="B163" s="31" t="s">
+        <v>195</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D163" s="24" t="s">
         <v>10</v>
@@ -5685,27 +5797,17 @@
         <v>42888</v>
       </c>
       <c r="F163" s="12"/>
-      <c r="G163" s="11"/>
-      <c r="H163" s="11"/>
-      <c r="I163" s="11"/>
-      <c r="J163" s="11"/>
-    </row>
-    <row r="164" spans="1:10" ht="27" x14ac:dyDescent="0.15">
-      <c r="A164" s="32">
-        <v>109</v>
-      </c>
-      <c r="B164" s="31" t="s">
-        <v>196</v>
-      </c>
-      <c r="C164" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="D164" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="E164" s="25">
-        <v>42888</v>
-      </c>
+      <c r="G163" s="12"/>
+      <c r="H163" s="12"/>
+      <c r="I163" s="12"/>
+      <c r="J163" s="12"/>
+    </row>
+    <row r="164" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A164" s="12"/>
+      <c r="B164" s="22"/>
+      <c r="C164" s="4"/>
+      <c r="D164" s="12"/>
+      <c r="E164" s="12"/>
       <c r="F164" s="12"/>
       <c r="G164" s="12"/>
       <c r="H164" s="12"/>
@@ -7380,44 +7482,32 @@
       <c r="I303" s="12"/>
       <c r="J303" s="12"/>
     </row>
-    <row r="304" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A304" s="12"/>
-      <c r="B304" s="22"/>
-      <c r="C304" s="4"/>
-      <c r="D304" s="12"/>
-      <c r="E304" s="12"/>
-      <c r="F304" s="12"/>
-      <c r="G304" s="12"/>
-      <c r="H304" s="12"/>
-      <c r="I304" s="12"/>
-      <c r="J304" s="12"/>
-    </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B2:B32"/>
-    <mergeCell ref="B59:B65"/>
-    <mergeCell ref="B66:B68"/>
-    <mergeCell ref="B150:B151"/>
-    <mergeCell ref="B42:B51"/>
-    <mergeCell ref="B52:B56"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="A149:J149"/>
-    <mergeCell ref="B118:B120"/>
-    <mergeCell ref="B33:B41"/>
-    <mergeCell ref="B69:B76"/>
-    <mergeCell ref="B132:B138"/>
-    <mergeCell ref="B157:B162"/>
+    <mergeCell ref="B156:B161"/>
     <mergeCell ref="B77:B83"/>
     <mergeCell ref="B84:B88"/>
     <mergeCell ref="B89:B93"/>
     <mergeCell ref="B94:B107"/>
-    <mergeCell ref="B152:B153"/>
-    <mergeCell ref="B108:B117"/>
-    <mergeCell ref="B121:B129"/>
-    <mergeCell ref="B130:B131"/>
-    <mergeCell ref="B139:B141"/>
-    <mergeCell ref="B143:B148"/>
-    <mergeCell ref="B154:B155"/>
+    <mergeCell ref="B151:B152"/>
+    <mergeCell ref="B108:B116"/>
+    <mergeCell ref="B120:B128"/>
+    <mergeCell ref="B129:B130"/>
+    <mergeCell ref="B138:B140"/>
+    <mergeCell ref="B142:B147"/>
+    <mergeCell ref="B153:B154"/>
+    <mergeCell ref="B2:B32"/>
+    <mergeCell ref="B59:B65"/>
+    <mergeCell ref="B66:B68"/>
+    <mergeCell ref="B149:B150"/>
+    <mergeCell ref="B42:B51"/>
+    <mergeCell ref="B52:B56"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="A148:J148"/>
+    <mergeCell ref="B117:B119"/>
+    <mergeCell ref="B33:B41"/>
+    <mergeCell ref="B69:B76"/>
+    <mergeCell ref="B131:B137"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I48:I50 I53:I55">
@@ -7434,49 +7524,51 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="16.5" customWidth="1"/>
     <col min="2" max="2" width="54" customWidth="1"/>
-    <col min="3" max="8" width="11.5" customWidth="1"/>
+    <col min="3" max="4" width="11.5" customWidth="1"/>
+    <col min="5" max="5" width="13.875" style="54" customWidth="1"/>
+    <col min="6" max="8" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="52" t="s">
+      <c r="C1" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="52" t="s">
+      <c r="D1" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="52" t="s">
+      <c r="E1" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="52" t="s">
+      <c r="F1" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="52" t="s">
+      <c r="G1" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="52" t="s">
+      <c r="H1" s="43" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="53" t="s">
-        <v>253</v>
+    <row r="2" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A2" s="44" t="s">
+        <v>252</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>10</v>
@@ -7484,15 +7576,23 @@
       <c r="D2" s="14">
         <v>42901</v>
       </c>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-    </row>
-    <row r="3" spans="1:8" ht="27" x14ac:dyDescent="0.15">
-      <c r="A3" s="53"/>
+      <c r="E2" s="53" t="s">
+        <v>260</v>
+      </c>
+      <c r="F2" s="44" t="s">
+        <v>261</v>
+      </c>
+      <c r="G2" s="55">
+        <v>42905</v>
+      </c>
+      <c r="H2" s="44" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A3" s="44"/>
       <c r="B3" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C3" s="12" t="s">
         <v>10</v>
@@ -7500,27 +7600,35 @@
       <c r="D3" s="14">
         <v>42901</v>
       </c>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
+      <c r="E3" s="53" t="s">
+        <v>262</v>
+      </c>
+      <c r="F3" s="44" t="s">
+        <v>261</v>
+      </c>
+      <c r="G3" s="55">
+        <v>42905</v>
+      </c>
+      <c r="H3" s="44" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4" s="53"/>
-      <c r="B4" s="53"/>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
+      <c r="A4" s="44"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
       <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5" s="53" t="s">
-        <v>254</v>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
+    </row>
+    <row r="5" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A5" s="44" t="s">
+        <v>253</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C5" s="12" t="s">
         <v>10</v>
@@ -7528,15 +7636,23 @@
       <c r="D5" s="14">
         <v>42901</v>
       </c>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
-      <c r="G5" s="53"/>
-      <c r="H5" s="53"/>
-    </row>
-    <row r="6" spans="1:8" ht="27" x14ac:dyDescent="0.15">
-      <c r="A6" s="53"/>
+      <c r="E5" s="53" t="s">
+        <v>260</v>
+      </c>
+      <c r="F5" s="44" t="s">
+        <v>261</v>
+      </c>
+      <c r="G5" s="55">
+        <v>42905</v>
+      </c>
+      <c r="H5" s="44" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A6" s="44"/>
       <c r="B6" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>10</v>
@@ -7544,27 +7660,35 @@
       <c r="D6" s="14">
         <v>42901</v>
       </c>
-      <c r="E6" s="53"/>
-      <c r="F6" s="53"/>
-      <c r="G6" s="53"/>
-      <c r="H6" s="53"/>
+      <c r="E6" s="53" t="s">
+        <v>262</v>
+      </c>
+      <c r="F6" s="44" t="s">
+        <v>261</v>
+      </c>
+      <c r="G6" s="55">
+        <v>42905</v>
+      </c>
+      <c r="H6" s="44" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A7" s="53"/>
-      <c r="B7" s="53"/>
-      <c r="C7" s="53"/>
-      <c r="D7" s="53"/>
+      <c r="A7" s="44"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
       <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53"/>
-      <c r="H7" s="53"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="44"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" s="53" t="s">
+      <c r="A8" s="44" t="s">
+        <v>254</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>255</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>256</v>
       </c>
       <c r="C8" s="12" t="s">
         <v>10</v>
@@ -7573,14 +7697,20 @@
         <v>42901</v>
       </c>
       <c r="E8" s="53"/>
-      <c r="F8" s="53"/>
-      <c r="G8" s="53"/>
-      <c r="H8" s="53"/>
+      <c r="F8" s="44" t="s">
+        <v>261</v>
+      </c>
+      <c r="G8" s="55">
+        <v>42905</v>
+      </c>
+      <c r="H8" s="44" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A9" s="53"/>
+      <c r="A9" s="44"/>
       <c r="B9" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>10</v>
@@ -7589,14 +7719,20 @@
         <v>42901</v>
       </c>
       <c r="E9" s="53"/>
-      <c r="F9" s="53"/>
-      <c r="G9" s="53"/>
-      <c r="H9" s="53"/>
+      <c r="F9" s="44" t="s">
+        <v>261</v>
+      </c>
+      <c r="G9" s="55">
+        <v>42905</v>
+      </c>
+      <c r="H9" s="44" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10" s="53"/>
+      <c r="A10" s="44"/>
       <c r="B10" s="6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C10" s="12" t="s">
         <v>10</v>
@@ -7605,14 +7741,20 @@
         <v>42901</v>
       </c>
       <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="53"/>
-      <c r="H10" s="53"/>
+      <c r="F10" s="44" t="s">
+        <v>261</v>
+      </c>
+      <c r="G10" s="55">
+        <v>42905</v>
+      </c>
+      <c r="H10" s="44" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A11" s="53"/>
+      <c r="A11" s="44"/>
       <c r="B11" s="6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C11" s="12" t="s">
         <v>10</v>
@@ -7621,14 +7763,20 @@
         <v>42901</v>
       </c>
       <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="53"/>
+      <c r="F11" s="44" t="s">
+        <v>261</v>
+      </c>
+      <c r="G11" s="55">
+        <v>42905</v>
+      </c>
+      <c r="H11" s="44" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="12" spans="1:8" ht="27" x14ac:dyDescent="0.15">
-      <c r="A12" s="53"/>
+      <c r="A12" s="44"/>
       <c r="B12" s="6" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C12" s="12" t="s">
         <v>10</v>
@@ -7637,14 +7785,20 @@
         <v>42901</v>
       </c>
       <c r="E12" s="53"/>
-      <c r="F12" s="53"/>
-      <c r="G12" s="53"/>
-      <c r="H12" s="53"/>
+      <c r="F12" s="44" t="s">
+        <v>265</v>
+      </c>
+      <c r="G12" s="55">
+        <v>42905</v>
+      </c>
+      <c r="H12" s="44" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A13" s="53"/>
+      <c r="A13" s="44"/>
       <c r="B13" s="6" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C13" s="12" t="s">
         <v>10</v>
@@ -7653,14 +7807,20 @@
         <v>42901</v>
       </c>
       <c r="E13" s="53"/>
-      <c r="F13" s="53"/>
-      <c r="G13" s="53"/>
-      <c r="H13" s="53"/>
+      <c r="F13" s="44" t="s">
+        <v>261</v>
+      </c>
+      <c r="G13" s="55">
+        <v>42905</v>
+      </c>
+      <c r="H13" s="44" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A14" s="53"/>
+      <c r="A14" s="44"/>
       <c r="B14" s="6" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C14" s="12" t="s">
         <v>10</v>
@@ -7669,9 +7829,9 @@
         <v>42901</v>
       </c>
       <c r="E14" s="53"/>
-      <c r="F14" s="53"/>
-      <c r="G14" s="53"/>
-      <c r="H14" s="53"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="44"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/ProjectManagement/文档/问题点一览.xlsx
+++ b/ProjectManagement/文档/问题点一览.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="300">
   <si>
     <t>NO</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1225,6 +1225,26 @@
   </si>
   <si>
     <t>人员执行效率(见模板)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>l</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>iuxx</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1424,7 +1444,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1536,30 +1556,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1594,6 +1590,33 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2002,7 +2025,7 @@
       <c r="A2" s="13">
         <v>1</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="52" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="14" t="s">
@@ -2030,7 +2053,7 @@
       <c r="A3" s="13">
         <v>2</v>
       </c>
-      <c r="B3" s="40"/>
+      <c r="B3" s="53"/>
       <c r="C3" s="14" t="s">
         <v>51</v>
       </c>
@@ -2056,7 +2079,7 @@
       <c r="A4" s="13">
         <v>3</v>
       </c>
-      <c r="B4" s="40"/>
+      <c r="B4" s="53"/>
       <c r="C4" s="14" t="s">
         <v>52</v>
       </c>
@@ -2082,7 +2105,7 @@
       <c r="A5" s="13">
         <v>4</v>
       </c>
-      <c r="B5" s="40"/>
+      <c r="B5" s="53"/>
       <c r="C5" s="14" t="s">
         <v>13</v>
       </c>
@@ -2108,7 +2131,7 @@
       <c r="A6" s="13">
         <v>5</v>
       </c>
-      <c r="B6" s="40"/>
+      <c r="B6" s="53"/>
       <c r="C6" s="14" t="s">
         <v>53</v>
       </c>
@@ -2134,7 +2157,7 @@
       <c r="A7" s="13">
         <v>6</v>
       </c>
-      <c r="B7" s="40"/>
+      <c r="B7" s="53"/>
       <c r="C7" s="14" t="s">
         <v>16</v>
       </c>
@@ -2160,7 +2183,7 @@
       <c r="A8" s="13">
         <v>7</v>
       </c>
-      <c r="B8" s="40"/>
+      <c r="B8" s="53"/>
       <c r="C8" s="14" t="s">
         <v>14</v>
       </c>
@@ -2186,7 +2209,7 @@
       <c r="A9" s="13">
         <v>8</v>
       </c>
-      <c r="B9" s="40"/>
+      <c r="B9" s="53"/>
       <c r="C9" s="14" t="s">
         <v>17</v>
       </c>
@@ -2212,7 +2235,7 @@
       <c r="A10" s="13">
         <v>9</v>
       </c>
-      <c r="B10" s="40"/>
+      <c r="B10" s="53"/>
       <c r="C10" s="17" t="s">
         <v>160</v>
       </c>
@@ -2245,7 +2268,7 @@
       <c r="A11" s="13">
         <v>10</v>
       </c>
-      <c r="B11" s="40"/>
+      <c r="B11" s="53"/>
       <c r="C11" s="14" t="s">
         <v>48</v>
       </c>
@@ -2271,7 +2294,7 @@
       <c r="A12" s="13">
         <v>11</v>
       </c>
-      <c r="B12" s="40"/>
+      <c r="B12" s="53"/>
       <c r="C12" s="14" t="s">
         <v>107</v>
       </c>
@@ -2297,7 +2320,7 @@
       <c r="A13" s="13">
         <v>12</v>
       </c>
-      <c r="B13" s="40"/>
+      <c r="B13" s="53"/>
       <c r="C13" s="14" t="s">
         <v>110</v>
       </c>
@@ -2323,7 +2346,7 @@
       <c r="A14" s="13">
         <v>13</v>
       </c>
-      <c r="B14" s="40"/>
+      <c r="B14" s="53"/>
       <c r="C14" s="14" t="s">
         <v>109</v>
       </c>
@@ -2349,7 +2372,7 @@
       <c r="A15" s="13">
         <v>14</v>
       </c>
-      <c r="B15" s="40"/>
+      <c r="B15" s="53"/>
       <c r="C15" s="17" t="s">
         <v>138</v>
       </c>
@@ -2375,7 +2398,7 @@
       <c r="A16" s="13">
         <v>15</v>
       </c>
-      <c r="B16" s="40"/>
+      <c r="B16" s="53"/>
       <c r="C16" s="17" t="s">
         <v>153</v>
       </c>
@@ -2404,7 +2427,7 @@
       <c r="A17" s="13">
         <v>16</v>
       </c>
-      <c r="B17" s="40"/>
+      <c r="B17" s="53"/>
       <c r="C17" s="17" t="s">
         <v>156</v>
       </c>
@@ -2430,7 +2453,7 @@
       <c r="A18" s="13">
         <v>17</v>
       </c>
-      <c r="B18" s="40"/>
+      <c r="B18" s="53"/>
       <c r="C18" s="22" t="s">
         <v>147</v>
       </c>
@@ -2457,7 +2480,7 @@
       <c r="A19" s="13">
         <v>18</v>
       </c>
-      <c r="B19" s="40"/>
+      <c r="B19" s="53"/>
       <c r="C19" s="22" t="s">
         <v>154</v>
       </c>
@@ -2484,7 +2507,7 @@
       <c r="A20" s="13">
         <v>19</v>
       </c>
-      <c r="B20" s="40"/>
+      <c r="B20" s="53"/>
       <c r="C20" s="22" t="s">
         <v>151</v>
       </c>
@@ -2511,7 +2534,7 @@
       <c r="A21" s="13">
         <v>20</v>
       </c>
-      <c r="B21" s="40"/>
+      <c r="B21" s="53"/>
       <c r="C21" s="14" t="s">
         <v>168</v>
       </c>
@@ -2538,7 +2561,7 @@
       <c r="A22" s="13">
         <v>21</v>
       </c>
-      <c r="B22" s="40"/>
+      <c r="B22" s="53"/>
       <c r="C22" s="14" t="s">
         <v>181</v>
       </c>
@@ -2565,7 +2588,7 @@
       <c r="A23" s="13">
         <v>22</v>
       </c>
-      <c r="B23" s="40"/>
+      <c r="B23" s="53"/>
       <c r="C23" s="14" t="s">
         <v>182</v>
       </c>
@@ -2592,7 +2615,7 @@
       <c r="A24" s="13">
         <v>23</v>
       </c>
-      <c r="B24" s="40"/>
+      <c r="B24" s="53"/>
       <c r="C24" s="22" t="s">
         <v>152</v>
       </c>
@@ -2619,7 +2642,7 @@
       <c r="A25" s="13">
         <v>24</v>
       </c>
-      <c r="B25" s="40"/>
+      <c r="B25" s="53"/>
       <c r="C25" s="22" t="s">
         <v>173</v>
       </c>
@@ -2646,7 +2669,7 @@
       <c r="A26" s="13">
         <v>25</v>
       </c>
-      <c r="B26" s="40"/>
+      <c r="B26" s="53"/>
       <c r="C26" s="17" t="s">
         <v>174</v>
       </c>
@@ -2673,7 +2696,7 @@
       <c r="A27" s="13">
         <v>26</v>
       </c>
-      <c r="B27" s="40"/>
+      <c r="B27" s="53"/>
       <c r="C27" s="17" t="s">
         <v>177</v>
       </c>
@@ -2699,7 +2722,7 @@
       <c r="A28" s="13">
         <v>27</v>
       </c>
-      <c r="B28" s="40"/>
+      <c r="B28" s="53"/>
       <c r="C28" s="17" t="s">
         <v>178</v>
       </c>
@@ -2723,7 +2746,7 @@
     </row>
     <row r="29" spans="1:11" s="20" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A29" s="13"/>
-      <c r="B29" s="40"/>
+      <c r="B29" s="53"/>
       <c r="C29" s="17" t="s">
         <v>238</v>
       </c>
@@ -2741,7 +2764,7 @@
     </row>
     <row r="30" spans="1:11" s="20" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A30" s="13"/>
-      <c r="B30" s="40"/>
+      <c r="B30" s="53"/>
       <c r="C30" s="17"/>
       <c r="D30" s="18"/>
       <c r="E30" s="19"/>
@@ -2753,7 +2776,7 @@
     </row>
     <row r="31" spans="1:11" s="20" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A31" s="13"/>
-      <c r="B31" s="40"/>
+      <c r="B31" s="53"/>
       <c r="C31" s="17"/>
       <c r="D31" s="18"/>
       <c r="E31" s="19"/>
@@ -2765,7 +2788,7 @@
     </row>
     <row r="32" spans="1:11" s="20" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A32" s="13"/>
-      <c r="B32" s="41"/>
+      <c r="B32" s="54"/>
       <c r="C32" s="17"/>
       <c r="D32" s="18"/>
       <c r="E32" s="19"/>
@@ -2779,7 +2802,7 @@
       <c r="A33" s="13">
         <v>28</v>
       </c>
-      <c r="B33" s="39" t="s">
+      <c r="B33" s="52" t="s">
         <v>12</v>
       </c>
       <c r="C33" s="14" t="s">
@@ -2807,7 +2830,7 @@
       <c r="A34" s="13">
         <v>29</v>
       </c>
-      <c r="B34" s="40"/>
+      <c r="B34" s="53"/>
       <c r="C34" s="14" t="s">
         <v>17</v>
       </c>
@@ -2833,7 +2856,7 @@
       <c r="A35" s="13">
         <v>30</v>
       </c>
-      <c r="B35" s="40"/>
+      <c r="B35" s="53"/>
       <c r="C35" s="14" t="s">
         <v>18</v>
       </c>
@@ -2859,7 +2882,7 @@
       <c r="A36" s="13">
         <v>31</v>
       </c>
-      <c r="B36" s="40"/>
+      <c r="B36" s="53"/>
       <c r="C36" s="14" t="s">
         <v>106</v>
       </c>
@@ -2885,7 +2908,7 @@
       <c r="A37" s="13">
         <v>32</v>
       </c>
-      <c r="B37" s="40"/>
+      <c r="B37" s="53"/>
       <c r="C37" s="14" t="s">
         <v>55</v>
       </c>
@@ -2911,7 +2934,7 @@
       <c r="A38" s="13">
         <v>33</v>
       </c>
-      <c r="B38" s="40"/>
+      <c r="B38" s="53"/>
       <c r="C38" s="14" t="s">
         <v>161</v>
       </c>
@@ -2937,7 +2960,7 @@
       <c r="A39" s="13">
         <v>34</v>
       </c>
-      <c r="B39" s="40"/>
+      <c r="B39" s="53"/>
       <c r="C39" s="14" t="s">
         <v>176</v>
       </c>
@@ -2963,7 +2986,7 @@
       <c r="A40" s="13">
         <v>35</v>
       </c>
-      <c r="B40" s="40"/>
+      <c r="B40" s="53"/>
       <c r="C40" s="14" t="s">
         <v>163</v>
       </c>
@@ -2989,7 +3012,7 @@
       <c r="A41" s="13">
         <v>36</v>
       </c>
-      <c r="B41" s="41"/>
+      <c r="B41" s="54"/>
       <c r="C41" s="14" t="s">
         <v>162</v>
       </c>
@@ -3009,7 +3032,7 @@
       <c r="A42" s="13">
         <v>37</v>
       </c>
-      <c r="B42" s="42" t="s">
+      <c r="B42" s="55" t="s">
         <v>19</v>
       </c>
       <c r="C42" s="14" t="s">
@@ -3039,7 +3062,7 @@
       <c r="A43" s="13">
         <v>38</v>
       </c>
-      <c r="B43" s="42"/>
+      <c r="B43" s="55"/>
       <c r="C43" s="14" t="s">
         <v>21</v>
       </c>
@@ -3065,7 +3088,7 @@
       <c r="A44" s="13">
         <v>39</v>
       </c>
-      <c r="B44" s="42"/>
+      <c r="B44" s="55"/>
       <c r="C44" s="14" t="s">
         <v>71</v>
       </c>
@@ -3091,7 +3114,7 @@
       <c r="A45" s="13">
         <v>40</v>
       </c>
-      <c r="B45" s="42"/>
+      <c r="B45" s="55"/>
       <c r="C45" s="14" t="s">
         <v>90</v>
       </c>
@@ -3117,7 +3140,7 @@
       <c r="A46" s="13">
         <v>41</v>
       </c>
-      <c r="B46" s="42"/>
+      <c r="B46" s="55"/>
       <c r="C46" s="14" t="s">
         <v>89</v>
       </c>
@@ -3143,7 +3166,7 @@
       <c r="A47" s="13">
         <v>42</v>
       </c>
-      <c r="B47" s="42"/>
+      <c r="B47" s="55"/>
       <c r="C47" s="14" t="s">
         <v>94</v>
       </c>
@@ -3169,7 +3192,7 @@
       <c r="A48" s="13">
         <v>43</v>
       </c>
-      <c r="B48" s="42"/>
+      <c r="B48" s="55"/>
       <c r="C48" s="14" t="s">
         <v>96</v>
       </c>
@@ -3195,7 +3218,7 @@
       <c r="A49" s="13">
         <v>44</v>
       </c>
-      <c r="B49" s="42"/>
+      <c r="B49" s="55"/>
       <c r="C49" s="14" t="s">
         <v>150</v>
       </c>
@@ -3223,7 +3246,7 @@
       <c r="A50" s="13">
         <v>45</v>
       </c>
-      <c r="B50" s="42"/>
+      <c r="B50" s="55"/>
       <c r="C50" s="17" t="s">
         <v>137</v>
       </c>
@@ -3249,7 +3272,7 @@
       <c r="A51" s="13">
         <v>46</v>
       </c>
-      <c r="B51" s="42"/>
+      <c r="B51" s="55"/>
       <c r="C51" s="14" t="s">
         <v>22</v>
       </c>
@@ -3275,7 +3298,7 @@
       <c r="A52" s="13">
         <v>47</v>
       </c>
-      <c r="B52" s="42" t="s">
+      <c r="B52" s="55" t="s">
         <v>23</v>
       </c>
       <c r="C52" s="14" t="s">
@@ -3303,7 +3326,7 @@
       <c r="A53" s="13">
         <v>48</v>
       </c>
-      <c r="B53" s="42"/>
+      <c r="B53" s="55"/>
       <c r="C53" s="14" t="s">
         <v>92</v>
       </c>
@@ -3331,7 +3354,7 @@
       <c r="A54" s="13">
         <v>49</v>
       </c>
-      <c r="B54" s="42"/>
+      <c r="B54" s="55"/>
       <c r="C54" s="17" t="s">
         <v>91</v>
       </c>
@@ -3357,7 +3380,7 @@
       <c r="A55" s="13">
         <v>50</v>
       </c>
-      <c r="B55" s="42"/>
+      <c r="B55" s="55"/>
       <c r="C55" s="17" t="s">
         <v>148</v>
       </c>
@@ -3383,7 +3406,7 @@
       <c r="A56" s="13">
         <v>51</v>
       </c>
-      <c r="B56" s="42"/>
+      <c r="B56" s="55"/>
       <c r="C56" s="14" t="s">
         <v>25</v>
       </c>
@@ -3409,7 +3432,7 @@
       <c r="A57" s="13">
         <v>52</v>
       </c>
-      <c r="B57" s="42" t="s">
+      <c r="B57" s="55" t="s">
         <v>26</v>
       </c>
       <c r="C57" s="14" t="s">
@@ -3437,7 +3460,7 @@
       <c r="A58" s="13">
         <v>53</v>
       </c>
-      <c r="B58" s="42"/>
+      <c r="B58" s="55"/>
       <c r="C58" s="14" t="s">
         <v>28</v>
       </c>
@@ -3463,7 +3486,7 @@
       <c r="A59" s="13">
         <v>54</v>
       </c>
-      <c r="B59" s="42" t="s">
+      <c r="B59" s="55" t="s">
         <v>29</v>
       </c>
       <c r="C59" s="14" t="s">
@@ -3491,7 +3514,7 @@
       <c r="A60" s="13">
         <v>55</v>
       </c>
-      <c r="B60" s="42"/>
+      <c r="B60" s="55"/>
       <c r="C60" s="14" t="s">
         <v>62</v>
       </c>
@@ -3517,7 +3540,7 @@
       <c r="A61" s="13">
         <v>56</v>
       </c>
-      <c r="B61" s="42"/>
+      <c r="B61" s="55"/>
       <c r="C61" s="14" t="s">
         <v>63</v>
       </c>
@@ -3543,7 +3566,7 @@
       <c r="A62" s="13">
         <v>57</v>
       </c>
-      <c r="B62" s="42"/>
+      <c r="B62" s="55"/>
       <c r="C62" s="14" t="s">
         <v>72</v>
       </c>
@@ -3567,7 +3590,7 @@
     </row>
     <row r="63" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="13"/>
-      <c r="B63" s="42"/>
+      <c r="B63" s="55"/>
       <c r="C63" s="14" t="s">
         <v>237</v>
       </c>
@@ -3589,7 +3612,7 @@
     </row>
     <row r="64" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A64" s="13"/>
-      <c r="B64" s="42"/>
+      <c r="B64" s="55"/>
       <c r="C64" s="14" t="s">
         <v>194</v>
       </c>
@@ -3615,7 +3638,7 @@
       <c r="A65" s="13">
         <v>58</v>
       </c>
-      <c r="B65" s="42"/>
+      <c r="B65" s="55"/>
       <c r="C65" s="14" t="s">
         <v>61</v>
       </c>
@@ -3641,7 +3664,7 @@
       <c r="A66" s="13">
         <v>59</v>
       </c>
-      <c r="B66" s="42" t="s">
+      <c r="B66" s="55" t="s">
         <v>31</v>
       </c>
       <c r="C66" s="14" t="s">
@@ -3667,7 +3690,7 @@
     </row>
     <row r="67" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="13"/>
-      <c r="B67" s="42"/>
+      <c r="B67" s="55"/>
       <c r="C67" s="14" t="s">
         <v>191</v>
       </c>
@@ -3693,7 +3716,7 @@
       <c r="A68" s="13">
         <v>60</v>
       </c>
-      <c r="B68" s="42"/>
+      <c r="B68" s="55"/>
       <c r="C68" s="14" t="s">
         <v>64</v>
       </c>
@@ -3719,7 +3742,7 @@
       <c r="A69" s="13">
         <v>61</v>
       </c>
-      <c r="B69" s="39" t="s">
+      <c r="B69" s="52" t="s">
         <v>33</v>
       </c>
       <c r="C69" s="14" t="s">
@@ -3747,7 +3770,7 @@
       <c r="A70" s="13">
         <v>62</v>
       </c>
-      <c r="B70" s="40"/>
+      <c r="B70" s="53"/>
       <c r="C70" s="14" t="s">
         <v>35</v>
       </c>
@@ -3771,7 +3794,7 @@
     </row>
     <row r="71" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="13"/>
-      <c r="B71" s="40"/>
+      <c r="B71" s="53"/>
       <c r="C71" s="14" t="s">
         <v>193</v>
       </c>
@@ -3795,7 +3818,7 @@
     </row>
     <row r="72" spans="1:10" ht="54" x14ac:dyDescent="0.15">
       <c r="A72" s="13"/>
-      <c r="B72" s="40"/>
+      <c r="B72" s="53"/>
       <c r="C72" s="14" t="s">
         <v>192</v>
       </c>
@@ -3819,7 +3842,7 @@
     </row>
     <row r="73" spans="1:10" ht="81" x14ac:dyDescent="0.15">
       <c r="A73" s="13"/>
-      <c r="B73" s="40"/>
+      <c r="B73" s="53"/>
       <c r="C73" s="14" t="s">
         <v>235</v>
       </c>
@@ -3845,7 +3868,7 @@
     </row>
     <row r="74" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A74" s="13"/>
-      <c r="B74" s="40"/>
+      <c r="B74" s="53"/>
       <c r="C74" s="14" t="s">
         <v>226</v>
       </c>
@@ -3871,7 +3894,7 @@
       <c r="A75" s="13">
         <v>64</v>
       </c>
-      <c r="B75" s="40"/>
+      <c r="B75" s="53"/>
       <c r="C75" s="14" t="s">
         <v>36</v>
       </c>
@@ -3899,7 +3922,7 @@
       <c r="A76" s="13">
         <v>65</v>
       </c>
-      <c r="B76" s="41"/>
+      <c r="B76" s="54"/>
       <c r="C76" s="14" t="s">
         <v>165</v>
       </c>
@@ -3925,7 +3948,7 @@
       <c r="A77" s="13">
         <v>66</v>
       </c>
-      <c r="B77" s="42" t="s">
+      <c r="B77" s="55" t="s">
         <v>203</v>
       </c>
       <c r="C77" s="14" t="s">
@@ -3953,7 +3976,7 @@
       <c r="A78" s="13">
         <v>67</v>
       </c>
-      <c r="B78" s="42"/>
+      <c r="B78" s="55"/>
       <c r="C78" s="14" t="s">
         <v>105</v>
       </c>
@@ -3979,7 +4002,7 @@
       <c r="A79" s="13">
         <v>68</v>
       </c>
-      <c r="B79" s="42"/>
+      <c r="B79" s="55"/>
       <c r="C79" s="14" t="s">
         <v>267</v>
       </c>
@@ -4003,7 +4026,7 @@
     </row>
     <row r="80" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="13"/>
-      <c r="B80" s="42"/>
+      <c r="B80" s="55"/>
       <c r="C80" s="14" t="s">
         <v>204</v>
       </c>
@@ -4025,7 +4048,7 @@
       <c r="A81" s="13">
         <v>69</v>
       </c>
-      <c r="B81" s="42"/>
+      <c r="B81" s="55"/>
       <c r="C81" s="14" t="s">
         <v>233</v>
       </c>
@@ -4049,7 +4072,7 @@
     </row>
     <row r="82" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A82" s="13"/>
-      <c r="B82" s="42"/>
+      <c r="B82" s="55"/>
       <c r="C82" s="14" t="s">
         <v>234</v>
       </c>
@@ -4075,7 +4098,7 @@
       <c r="A83" s="13">
         <v>70</v>
       </c>
-      <c r="B83" s="42"/>
+      <c r="B83" s="55"/>
       <c r="C83" s="14" t="s">
         <v>37</v>
       </c>
@@ -4101,7 +4124,7 @@
       <c r="A84" s="13">
         <v>71</v>
       </c>
-      <c r="B84" s="42" t="s">
+      <c r="B84" s="55" t="s">
         <v>39</v>
       </c>
       <c r="C84" s="14" t="s">
@@ -4129,7 +4152,7 @@
     </row>
     <row r="85" spans="1:10" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A85" s="13"/>
-      <c r="B85" s="42"/>
+      <c r="B85" s="55"/>
       <c r="C85" s="14" t="s">
         <v>209</v>
       </c>
@@ -4153,7 +4176,7 @@
     </row>
     <row r="86" spans="1:10" ht="25.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="13"/>
-      <c r="B86" s="42"/>
+      <c r="B86" s="55"/>
       <c r="C86" s="14" t="s">
         <v>208</v>
       </c>
@@ -4179,7 +4202,7 @@
       <c r="A87" s="13">
         <v>72</v>
       </c>
-      <c r="B87" s="42"/>
+      <c r="B87" s="55"/>
       <c r="C87" s="14" t="s">
         <v>105</v>
       </c>
@@ -4205,7 +4228,7 @@
       <c r="A88" s="13">
         <v>73</v>
       </c>
-      <c r="B88" s="42"/>
+      <c r="B88" s="55"/>
       <c r="C88" s="14" t="s">
         <v>37</v>
       </c>
@@ -4231,7 +4254,7 @@
       <c r="A89" s="13">
         <v>74</v>
       </c>
-      <c r="B89" s="42" t="s">
+      <c r="B89" s="55" t="s">
         <v>41</v>
       </c>
       <c r="C89" s="14" t="s">
@@ -4257,7 +4280,7 @@
     </row>
     <row r="90" spans="1:10" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A90" s="13"/>
-      <c r="B90" s="42"/>
+      <c r="B90" s="55"/>
       <c r="C90" s="14" t="s">
         <v>210</v>
       </c>
@@ -4281,7 +4304,7 @@
     </row>
     <row r="91" spans="1:10" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A91" s="13"/>
-      <c r="B91" s="42"/>
+      <c r="B91" s="55"/>
       <c r="C91" s="14" t="s">
         <v>211</v>
       </c>
@@ -4307,7 +4330,7 @@
       <c r="A92" s="13">
         <v>75</v>
       </c>
-      <c r="B92" s="42"/>
+      <c r="B92" s="55"/>
       <c r="C92" s="14" t="s">
         <v>105</v>
       </c>
@@ -4333,7 +4356,7 @@
       <c r="A93" s="13">
         <v>76</v>
       </c>
-      <c r="B93" s="42"/>
+      <c r="B93" s="55"/>
       <c r="C93" s="14" t="s">
         <v>37</v>
       </c>
@@ -4359,7 +4382,7 @@
       <c r="A94" s="13">
         <v>77</v>
       </c>
-      <c r="B94" s="42" t="s">
+      <c r="B94" s="55" t="s">
         <v>43</v>
       </c>
       <c r="C94" s="14" t="s">
@@ -4379,7 +4402,7 @@
     </row>
     <row r="95" spans="1:10" ht="28.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="13"/>
-      <c r="B95" s="42"/>
+      <c r="B95" s="55"/>
       <c r="C95" s="14" t="s">
         <v>215</v>
       </c>
@@ -4405,7 +4428,7 @@
       <c r="A96" s="13">
         <v>78</v>
       </c>
-      <c r="B96" s="42"/>
+      <c r="B96" s="55"/>
       <c r="C96" s="14" t="s">
         <v>126</v>
       </c>
@@ -4429,7 +4452,7 @@
     </row>
     <row r="97" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="13"/>
-      <c r="B97" s="42"/>
+      <c r="B97" s="55"/>
       <c r="C97" s="14" t="s">
         <v>217</v>
       </c>
@@ -4447,7 +4470,7 @@
     </row>
     <row r="98" spans="1:10" ht="24.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="13"/>
-      <c r="B98" s="42"/>
+      <c r="B98" s="55"/>
       <c r="C98" s="14" t="s">
         <v>216</v>
       </c>
@@ -4471,7 +4494,7 @@
     </row>
     <row r="99" spans="1:10" ht="24.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="13"/>
-      <c r="B99" s="42"/>
+      <c r="B99" s="55"/>
       <c r="C99" s="14" t="s">
         <v>225</v>
       </c>
@@ -4495,7 +4518,7 @@
     </row>
     <row r="100" spans="1:10" ht="24.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="13"/>
-      <c r="B100" s="42"/>
+      <c r="B100" s="55"/>
       <c r="C100" s="14" t="s">
         <v>221</v>
       </c>
@@ -4519,7 +4542,7 @@
     </row>
     <row r="101" spans="1:10" ht="24.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="13"/>
-      <c r="B101" s="42"/>
+      <c r="B101" s="55"/>
       <c r="C101" s="14" t="s">
         <v>223</v>
       </c>
@@ -4543,7 +4566,7 @@
     </row>
     <row r="102" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A102" s="13"/>
-      <c r="B102" s="42"/>
+      <c r="B102" s="55"/>
       <c r="C102" s="14" t="s">
         <v>214</v>
       </c>
@@ -4567,7 +4590,7 @@
     </row>
     <row r="103" spans="1:10" ht="25.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="13"/>
-      <c r="B103" s="42"/>
+      <c r="B103" s="55"/>
       <c r="C103" s="14" t="s">
         <v>213</v>
       </c>
@@ -4591,7 +4614,7 @@
     </row>
     <row r="104" spans="1:10" ht="25.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="13"/>
-      <c r="B104" s="42"/>
+      <c r="B104" s="55"/>
       <c r="C104" s="14" t="s">
         <v>45</v>
       </c>
@@ -4609,7 +4632,7 @@
     </row>
     <row r="105" spans="1:10" ht="25.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="13"/>
-      <c r="B105" s="42"/>
+      <c r="B105" s="55"/>
       <c r="C105" s="14" t="s">
         <v>239</v>
       </c>
@@ -4633,7 +4656,7 @@
     </row>
     <row r="106" spans="1:10" ht="25.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="13"/>
-      <c r="B106" s="42"/>
+      <c r="B106" s="55"/>
       <c r="C106" s="14" t="s">
         <v>242</v>
       </c>
@@ -4659,7 +4682,7 @@
       <c r="A107" s="13">
         <v>79</v>
       </c>
-      <c r="B107" s="42"/>
+      <c r="B107" s="55"/>
       <c r="C107" s="15"/>
       <c r="D107" s="15"/>
       <c r="E107" s="15"/>
@@ -4673,7 +4696,7 @@
       <c r="A108" s="13">
         <v>80</v>
       </c>
-      <c r="B108" s="42" t="s">
+      <c r="B108" s="55" t="s">
         <v>44</v>
       </c>
       <c r="C108" s="14" t="s">
@@ -4699,7 +4722,7 @@
     </row>
     <row r="109" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" s="13"/>
-      <c r="B109" s="42"/>
+      <c r="B109" s="55"/>
       <c r="C109" s="14" t="s">
         <v>220</v>
       </c>
@@ -4723,7 +4746,7 @@
     </row>
     <row r="110" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A110" s="13"/>
-      <c r="B110" s="42"/>
+      <c r="B110" s="55"/>
       <c r="C110" s="14" t="s">
         <v>224</v>
       </c>
@@ -4747,7 +4770,7 @@
     </row>
     <row r="111" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="13"/>
-      <c r="B111" s="42"/>
+      <c r="B111" s="55"/>
       <c r="C111" s="14" t="s">
         <v>212</v>
       </c>
@@ -4771,7 +4794,7 @@
     </row>
     <row r="112" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="13"/>
-      <c r="B112" s="42"/>
+      <c r="B112" s="55"/>
       <c r="C112" s="14" t="s">
         <v>219</v>
       </c>
@@ -4795,7 +4818,7 @@
     </row>
     <row r="113" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A113" s="13"/>
-      <c r="B113" s="42"/>
+      <c r="B113" s="55"/>
       <c r="C113" s="14" t="s">
         <v>136</v>
       </c>
@@ -4819,7 +4842,7 @@
     </row>
     <row r="114" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" s="13"/>
-      <c r="B114" s="42"/>
+      <c r="B114" s="55"/>
       <c r="C114" s="14" t="s">
         <v>240</v>
       </c>
@@ -4843,7 +4866,7 @@
     </row>
     <row r="115" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A115" s="13"/>
-      <c r="B115" s="42"/>
+      <c r="B115" s="55"/>
       <c r="C115" s="14" t="s">
         <v>241</v>
       </c>
@@ -4869,7 +4892,7 @@
       <c r="A116" s="13">
         <v>81</v>
       </c>
-      <c r="B116" s="42"/>
+      <c r="B116" s="55"/>
       <c r="C116" s="15"/>
       <c r="D116" s="15"/>
       <c r="E116" s="15"/>
@@ -4879,7 +4902,7 @@
       <c r="A117" s="13">
         <v>82</v>
       </c>
-      <c r="B117" s="39" t="s">
+      <c r="B117" s="52" t="s">
         <v>65</v>
       </c>
       <c r="C117" s="14" t="s">
@@ -4907,7 +4930,7 @@
     </row>
     <row r="118" spans="1:10" ht="20.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A118" s="13"/>
-      <c r="B118" s="40"/>
+      <c r="B118" s="53"/>
       <c r="C118" s="14" t="s">
         <v>184</v>
       </c>
@@ -4931,7 +4954,7 @@
     </row>
     <row r="119" spans="1:10" ht="20.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A119" s="13"/>
-      <c r="B119" s="41"/>
+      <c r="B119" s="54"/>
       <c r="C119" s="14" t="s">
         <v>183</v>
       </c>
@@ -4957,7 +4980,7 @@
       <c r="A120" s="13">
         <v>83</v>
       </c>
-      <c r="B120" s="46" t="s">
+      <c r="B120" s="56" t="s">
         <v>67</v>
       </c>
       <c r="C120" s="30" t="s">
@@ -4985,7 +5008,7 @@
       <c r="A121" s="13">
         <v>84</v>
       </c>
-      <c r="B121" s="46"/>
+      <c r="B121" s="56"/>
       <c r="C121" s="30" t="s">
         <v>95</v>
       </c>
@@ -5005,7 +5028,7 @@
       <c r="A122" s="13">
         <v>85</v>
       </c>
-      <c r="B122" s="46"/>
+      <c r="B122" s="56"/>
       <c r="C122" s="30" t="s">
         <v>187</v>
       </c>
@@ -5025,7 +5048,7 @@
       <c r="A123" s="13">
         <v>86</v>
       </c>
-      <c r="B123" s="46"/>
+      <c r="B123" s="56"/>
       <c r="C123" s="30" t="s">
         <v>186</v>
       </c>
@@ -5043,7 +5066,7 @@
     </row>
     <row r="124" spans="1:10" s="33" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A124" s="13"/>
-      <c r="B124" s="46"/>
+      <c r="B124" s="56"/>
       <c r="C124" s="30" t="s">
         <v>188</v>
       </c>
@@ -5061,7 +5084,7 @@
     </row>
     <row r="125" spans="1:10" s="33" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A125" s="13"/>
-      <c r="B125" s="46"/>
+      <c r="B125" s="56"/>
       <c r="C125" s="30" t="s">
         <v>189</v>
       </c>
@@ -5079,7 +5102,7 @@
     </row>
     <row r="126" spans="1:10" s="33" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A126" s="13"/>
-      <c r="B126" s="46"/>
+      <c r="B126" s="56"/>
       <c r="C126" s="30" t="s">
         <v>190</v>
       </c>
@@ -5097,7 +5120,7 @@
     </row>
     <row r="127" spans="1:10" s="33" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A127" s="13"/>
-      <c r="B127" s="46"/>
+      <c r="B127" s="56"/>
       <c r="C127" s="30" t="s">
         <v>207</v>
       </c>
@@ -5117,7 +5140,7 @@
       <c r="A128" s="13">
         <v>87</v>
       </c>
-      <c r="B128" s="46"/>
+      <c r="B128" s="56"/>
       <c r="C128" s="30" t="s">
         <v>185</v>
       </c>
@@ -5137,7 +5160,7 @@
       <c r="A129" s="13">
         <v>88</v>
       </c>
-      <c r="B129" s="42" t="s">
+      <c r="B129" s="55" t="s">
         <v>87</v>
       </c>
       <c r="C129" s="14" t="s">
@@ -5165,7 +5188,7 @@
       <c r="A130" s="13">
         <v>89</v>
       </c>
-      <c r="B130" s="42"/>
+      <c r="B130" s="55"/>
       <c r="C130" s="14" t="s">
         <v>93</v>
       </c>
@@ -5191,7 +5214,7 @@
       <c r="A131" s="13">
         <v>90</v>
       </c>
-      <c r="B131" s="39" t="s">
+      <c r="B131" s="52" t="s">
         <v>97</v>
       </c>
       <c r="C131" s="14" t="s">
@@ -5217,7 +5240,7 @@
     </row>
     <row r="132" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A132" s="13"/>
-      <c r="B132" s="40"/>
+      <c r="B132" s="53"/>
       <c r="C132" s="14" t="s">
         <v>202</v>
       </c>
@@ -5241,7 +5264,7 @@
     </row>
     <row r="133" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A133" s="13"/>
-      <c r="B133" s="40"/>
+      <c r="B133" s="53"/>
       <c r="C133" s="14" t="s">
         <v>197</v>
       </c>
@@ -5265,7 +5288,7 @@
     </row>
     <row r="134" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A134" s="13"/>
-      <c r="B134" s="40"/>
+      <c r="B134" s="53"/>
       <c r="C134" s="14" t="s">
         <v>198</v>
       </c>
@@ -5289,7 +5312,7 @@
     </row>
     <row r="135" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A135" s="13"/>
-      <c r="B135" s="40"/>
+      <c r="B135" s="53"/>
       <c r="C135" s="14" t="s">
         <v>201</v>
       </c>
@@ -5313,7 +5336,7 @@
     </row>
     <row r="136" spans="1:10" ht="29.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A136" s="13"/>
-      <c r="B136" s="40"/>
+      <c r="B136" s="53"/>
       <c r="C136" s="14" t="s">
         <v>200</v>
       </c>
@@ -5335,7 +5358,7 @@
       <c r="A137" s="13">
         <v>91</v>
       </c>
-      <c r="B137" s="41"/>
+      <c r="B137" s="54"/>
       <c r="C137" s="14" t="s">
         <v>199</v>
       </c>
@@ -5361,7 +5384,7 @@
       <c r="A138" s="13">
         <v>92</v>
       </c>
-      <c r="B138" s="42" t="s">
+      <c r="B138" s="55" t="s">
         <v>99</v>
       </c>
       <c r="C138" s="14" t="s">
@@ -5389,7 +5412,7 @@
       <c r="A139" s="13">
         <v>93</v>
       </c>
-      <c r="B139" s="42"/>
+      <c r="B139" s="55"/>
       <c r="C139" s="14" t="s">
         <v>104</v>
       </c>
@@ -5415,7 +5438,7 @@
       <c r="A140" s="13">
         <v>94</v>
       </c>
-      <c r="B140" s="42"/>
+      <c r="B140" s="55"/>
       <c r="C140" s="14" t="s">
         <v>101</v>
       </c>
@@ -5467,7 +5490,7 @@
       <c r="A142" s="13">
         <v>95</v>
       </c>
-      <c r="B142" s="39" t="s">
+      <c r="B142" s="52" t="s">
         <v>111</v>
       </c>
       <c r="C142" s="14" t="s">
@@ -5493,7 +5516,7 @@
     </row>
     <row r="143" spans="1:10" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A143" s="13"/>
-      <c r="B143" s="40"/>
+      <c r="B143" s="53"/>
       <c r="C143" s="14" t="s">
         <v>206</v>
       </c>
@@ -5513,7 +5536,7 @@
       <c r="A144" s="13">
         <v>96</v>
       </c>
-      <c r="B144" s="40"/>
+      <c r="B144" s="53"/>
       <c r="C144" s="14" t="s">
         <v>205</v>
       </c>
@@ -5537,7 +5560,7 @@
     </row>
     <row r="145" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A145" s="13"/>
-      <c r="B145" s="40"/>
+      <c r="B145" s="53"/>
       <c r="C145" s="14" t="s">
         <v>228</v>
       </c>
@@ -5561,7 +5584,7 @@
     </row>
     <row r="146" spans="1:10" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A146" s="13"/>
-      <c r="B146" s="40"/>
+      <c r="B146" s="53"/>
       <c r="C146" s="14" t="s">
         <v>149</v>
       </c>
@@ -5587,7 +5610,7 @@
       <c r="A147" s="13">
         <v>97</v>
       </c>
-      <c r="B147" s="40"/>
+      <c r="B147" s="53"/>
       <c r="C147" s="14" t="s">
         <v>243</v>
       </c>
@@ -5600,24 +5623,24 @@
       <c r="J147" s="15"/>
     </row>
     <row r="148" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A148" s="43" t="s">
+      <c r="A148" s="57" t="s">
         <v>266</v>
       </c>
-      <c r="B148" s="44"/>
-      <c r="C148" s="44"/>
-      <c r="D148" s="44"/>
-      <c r="E148" s="44"/>
-      <c r="F148" s="44"/>
-      <c r="G148" s="44"/>
-      <c r="H148" s="44"/>
-      <c r="I148" s="44"/>
-      <c r="J148" s="45"/>
+      <c r="B148" s="58"/>
+      <c r="C148" s="58"/>
+      <c r="D148" s="58"/>
+      <c r="E148" s="58"/>
+      <c r="F148" s="58"/>
+      <c r="G148" s="58"/>
+      <c r="H148" s="58"/>
+      <c r="I148" s="58"/>
+      <c r="J148" s="59"/>
     </row>
     <row r="149" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A149" s="13">
         <v>98</v>
       </c>
-      <c r="B149" s="42" t="s">
+      <c r="B149" s="55" t="s">
         <v>113</v>
       </c>
       <c r="C149" s="14" t="s">
@@ -5645,7 +5668,7 @@
       <c r="A150" s="13">
         <v>99</v>
       </c>
-      <c r="B150" s="42"/>
+      <c r="B150" s="55"/>
       <c r="C150" s="14" t="s">
         <v>116</v>
       </c>
@@ -5671,7 +5694,7 @@
       <c r="A151" s="13">
         <v>100</v>
       </c>
-      <c r="B151" s="42" t="s">
+      <c r="B151" s="55" t="s">
         <v>114</v>
       </c>
       <c r="C151" s="14" t="s">
@@ -5699,7 +5722,7 @@
       <c r="A152" s="13">
         <v>101</v>
       </c>
-      <c r="B152" s="42"/>
+      <c r="B152" s="55"/>
       <c r="C152" s="14" t="s">
         <v>117</v>
       </c>
@@ -5725,7 +5748,7 @@
       <c r="A153" s="13">
         <v>102</v>
       </c>
-      <c r="B153" s="39" t="s">
+      <c r="B153" s="52" t="s">
         <v>118</v>
       </c>
       <c r="C153" s="14" t="s">
@@ -5753,7 +5776,7 @@
       <c r="A154" s="13">
         <v>103</v>
       </c>
-      <c r="B154" s="41"/>
+      <c r="B154" s="54"/>
       <c r="C154" s="14" t="s">
         <v>166</v>
       </c>
@@ -5801,7 +5824,7 @@
       <c r="A156" s="13">
         <v>105</v>
       </c>
-      <c r="B156" s="39" t="s">
+      <c r="B156" s="52" t="s">
         <v>132</v>
       </c>
       <c r="C156" s="14" t="s">
@@ -5827,7 +5850,7 @@
     </row>
     <row r="157" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A157" s="13"/>
-      <c r="B157" s="40"/>
+      <c r="B157" s="53"/>
       <c r="C157" s="14" t="s">
         <v>227</v>
       </c>
@@ -5853,7 +5876,7 @@
       <c r="A158" s="13">
         <v>106</v>
       </c>
-      <c r="B158" s="40"/>
+      <c r="B158" s="53"/>
       <c r="C158" s="14" t="s">
         <v>135</v>
       </c>
@@ -5877,7 +5900,7 @@
     </row>
     <row r="159" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A159" s="13"/>
-      <c r="B159" s="40"/>
+      <c r="B159" s="53"/>
       <c r="C159" s="14" t="s">
         <v>245</v>
       </c>
@@ -5901,7 +5924,7 @@
     </row>
     <row r="160" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A160" s="13"/>
-      <c r="B160" s="40"/>
+      <c r="B160" s="53"/>
       <c r="C160" s="14" t="s">
         <v>244</v>
       </c>
@@ -5927,7 +5950,7 @@
       <c r="A161" s="13">
         <v>107</v>
       </c>
-      <c r="B161" s="41"/>
+      <c r="B161" s="54"/>
       <c r="C161" s="14" t="s">
         <v>139</v>
       </c>
@@ -7675,6 +7698,18 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="B2:B32"/>
+    <mergeCell ref="B59:B65"/>
+    <mergeCell ref="B66:B68"/>
+    <mergeCell ref="B149:B150"/>
+    <mergeCell ref="B42:B51"/>
+    <mergeCell ref="B52:B56"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="A148:J148"/>
+    <mergeCell ref="B117:B119"/>
+    <mergeCell ref="B33:B41"/>
+    <mergeCell ref="B69:B76"/>
+    <mergeCell ref="B131:B137"/>
     <mergeCell ref="B156:B161"/>
     <mergeCell ref="B77:B83"/>
     <mergeCell ref="B84:B88"/>
@@ -7687,18 +7722,6 @@
     <mergeCell ref="B138:B140"/>
     <mergeCell ref="B142:B147"/>
     <mergeCell ref="B153:B154"/>
-    <mergeCell ref="B2:B32"/>
-    <mergeCell ref="B59:B65"/>
-    <mergeCell ref="B66:B68"/>
-    <mergeCell ref="B149:B150"/>
-    <mergeCell ref="B42:B51"/>
-    <mergeCell ref="B52:B56"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="A148:J148"/>
-    <mergeCell ref="B117:B119"/>
-    <mergeCell ref="B33:B41"/>
-    <mergeCell ref="B69:B76"/>
-    <mergeCell ref="B131:B137"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I48:I50 I53:I55">
@@ -8035,421 +8058,463 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="16.25" style="48" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="48.25" style="48" customWidth="1"/>
-    <col min="3" max="8" width="16.75" style="48" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="48"/>
+    <col min="1" max="1" width="16.25" style="40" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.25" style="40" customWidth="1"/>
+    <col min="3" max="8" width="16.75" style="40" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="40"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="47" t="s">
+      <c r="C1" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="47" t="s">
+      <c r="D1" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="47" t="s">
+      <c r="E1" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="47" t="s">
+      <c r="F1" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="47" t="s">
+      <c r="G1" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="47" t="s">
+      <c r="H1" s="39" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="52" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="49" t="s">
+    <row r="2" spans="1:8" s="44" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A2" s="41" t="s">
         <v>268</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="42" t="s">
         <v>272</v>
       </c>
-      <c r="C2" s="56" t="s">
+      <c r="C2" s="48" t="s">
         <v>269</v>
       </c>
-      <c r="D2" s="51">
+      <c r="D2" s="43">
         <v>42541</v>
       </c>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-    </row>
-    <row r="3" spans="1:8" s="52" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="49"/>
-      <c r="B3" s="50" t="s">
+      <c r="E2" s="41"/>
+      <c r="F2" s="60" t="s">
+        <v>298</v>
+      </c>
+      <c r="G2" s="43">
+        <v>42551</v>
+      </c>
+      <c r="H2" s="60" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="44" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A3" s="41"/>
+      <c r="B3" s="42" t="s">
         <v>270</v>
       </c>
-      <c r="C3" s="56" t="s">
+      <c r="C3" s="48" t="s">
         <v>269</v>
       </c>
-      <c r="D3" s="51">
+      <c r="D3" s="43">
         <v>42541</v>
       </c>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-    </row>
-    <row r="4" spans="1:8" s="52" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A4" s="49"/>
-      <c r="B4" s="50" t="s">
+      <c r="E3" s="41"/>
+      <c r="F3" s="60" t="s">
+        <v>298</v>
+      </c>
+      <c r="G3" s="43">
+        <v>42551</v>
+      </c>
+      <c r="H3" s="60" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="44" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A4" s="41"/>
+      <c r="B4" s="42" t="s">
         <v>271</v>
       </c>
-      <c r="C4" s="56" t="s">
+      <c r="C4" s="48" t="s">
         <v>269</v>
       </c>
-      <c r="D4" s="51">
+      <c r="D4" s="43">
         <v>42541</v>
       </c>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-    </row>
-    <row r="5" spans="1:8" s="52" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="49"/>
-      <c r="B5" s="50" t="s">
+      <c r="E4" s="41"/>
+      <c r="F4" s="60" t="s">
+        <v>298</v>
+      </c>
+      <c r="G4" s="43">
+        <v>42551</v>
+      </c>
+      <c r="H4" s="60" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="44" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="41"/>
+      <c r="B5" s="42" t="s">
         <v>273</v>
       </c>
-      <c r="C5" s="56" t="s">
+      <c r="C5" s="48" t="s">
         <v>269</v>
       </c>
-      <c r="D5" s="51">
+      <c r="D5" s="43">
         <v>42541</v>
       </c>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="49"/>
-    </row>
-    <row r="6" spans="1:8" s="52" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="49" t="s">
+      <c r="E5" s="41"/>
+      <c r="F5" s="60" t="s">
+        <v>298</v>
+      </c>
+      <c r="G5" s="43">
+        <v>42551</v>
+      </c>
+      <c r="H5" s="60" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="44" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="41" t="s">
         <v>274</v>
       </c>
-      <c r="B6" s="50" t="s">
+      <c r="B6" s="42" t="s">
         <v>275</v>
       </c>
-      <c r="C6" s="56" t="s">
+      <c r="C6" s="48" t="s">
         <v>269</v>
       </c>
-      <c r="D6" s="51">
+      <c r="D6" s="43">
         <v>42541</v>
       </c>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="49"/>
-    </row>
-    <row r="7" spans="1:8" s="52" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="49"/>
-      <c r="B7" s="53" t="s">
+      <c r="E6" s="41"/>
+      <c r="F6" s="60" t="s">
+        <v>298</v>
+      </c>
+      <c r="G6" s="43">
+        <v>42551</v>
+      </c>
+      <c r="H6" s="60" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="44" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="41"/>
+      <c r="B7" s="45" t="s">
         <v>263</v>
       </c>
-      <c r="C7" s="56" t="s">
+      <c r="C7" s="48" t="s">
         <v>269</v>
       </c>
-      <c r="D7" s="51">
+      <c r="D7" s="43">
         <v>42541</v>
       </c>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="49"/>
-    </row>
-    <row r="8" spans="1:8" s="52" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A8" s="49"/>
-      <c r="B8" s="50" t="s">
+      <c r="E7" s="41"/>
+      <c r="F7" s="60" t="s">
+        <v>298</v>
+      </c>
+      <c r="G7" s="43">
+        <v>42551</v>
+      </c>
+      <c r="H7" s="60" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="44" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A8" s="41"/>
+      <c r="B8" s="42" t="s">
         <v>276</v>
       </c>
-      <c r="C8" s="56" t="s">
+      <c r="C8" s="48" t="s">
         <v>269</v>
       </c>
-      <c r="D8" s="51">
+      <c r="D8" s="43">
         <v>42541</v>
       </c>
-      <c r="E8" s="49"/>
-      <c r="F8" s="49"/>
-      <c r="G8" s="49"/>
-      <c r="H8" s="49"/>
-    </row>
-    <row r="9" spans="1:8" s="52" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="49" t="s">
+      <c r="E8" s="41"/>
+      <c r="F8" s="60" t="s">
+        <v>298</v>
+      </c>
+      <c r="G8" s="43">
+        <v>42551</v>
+      </c>
+      <c r="H8" s="60" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="44" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="41" t="s">
         <v>277</v>
       </c>
-      <c r="B9" s="50" t="s">
+      <c r="B9" s="42" t="s">
         <v>278</v>
       </c>
-      <c r="C9" s="56" t="s">
+      <c r="C9" s="48" t="s">
         <v>269</v>
       </c>
-      <c r="D9" s="51">
+      <c r="D9" s="43">
         <v>42541</v>
       </c>
-      <c r="E9" s="49"/>
-      <c r="F9" s="49"/>
-      <c r="G9" s="49"/>
-      <c r="H9" s="49"/>
-    </row>
-    <row r="10" spans="1:8" s="52" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="49"/>
-      <c r="B10" s="50"/>
-      <c r="C10" s="56"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="49"/>
-      <c r="F10" s="49"/>
-      <c r="G10" s="49"/>
-      <c r="H10" s="49"/>
-    </row>
-    <row r="11" spans="1:8" s="52" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="49" t="s">
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
+    </row>
+    <row r="10" spans="1:8" s="44" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="41"/>
+      <c r="B10" s="42"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41"/>
+    </row>
+    <row r="11" spans="1:8" s="44" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="41" t="s">
         <v>279</v>
       </c>
-      <c r="B11" s="50" t="s">
+      <c r="B11" s="42" t="s">
         <v>280</v>
       </c>
-      <c r="C11" s="56" t="s">
+      <c r="C11" s="48" t="s">
         <v>269</v>
       </c>
-      <c r="D11" s="51">
+      <c r="D11" s="43">
         <v>42541</v>
       </c>
-      <c r="E11" s="49"/>
-      <c r="F11" s="49"/>
-      <c r="G11" s="49"/>
-      <c r="H11" s="49"/>
-    </row>
-    <row r="12" spans="1:8" s="52" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A12" s="49"/>
-      <c r="B12" s="50" t="s">
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="41"/>
+    </row>
+    <row r="12" spans="1:8" s="44" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A12" s="41"/>
+      <c r="B12" s="42" t="s">
         <v>290</v>
       </c>
-      <c r="C12" s="56" t="s">
+      <c r="C12" s="48" t="s">
         <v>269</v>
       </c>
-      <c r="D12" s="51">
+      <c r="D12" s="43">
         <v>42541</v>
       </c>
-      <c r="E12" s="49"/>
-      <c r="F12" s="49"/>
-      <c r="G12" s="49"/>
-      <c r="H12" s="49"/>
-    </row>
-    <row r="13" spans="1:8" s="52" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="49"/>
-      <c r="B13" s="50"/>
-      <c r="C13" s="56"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="49"/>
-      <c r="F13" s="49"/>
-      <c r="G13" s="49"/>
-      <c r="H13" s="49"/>
-    </row>
-    <row r="14" spans="1:8" s="52" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A14" s="49" t="s">
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41"/>
+    </row>
+    <row r="13" spans="1:8" s="44" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="41"/>
+      <c r="B13" s="42"/>
+      <c r="C13" s="48"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="41"/>
+    </row>
+    <row r="14" spans="1:8" s="44" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A14" s="41" t="s">
         <v>281</v>
       </c>
-      <c r="B14" s="50" t="s">
+      <c r="B14" s="42" t="s">
         <v>282</v>
       </c>
-      <c r="C14" s="56" t="s">
+      <c r="C14" s="48" t="s">
         <v>269</v>
       </c>
-      <c r="D14" s="51">
+      <c r="D14" s="43">
         <v>42541</v>
       </c>
-      <c r="E14" s="49"/>
-      <c r="F14" s="49"/>
-      <c r="G14" s="49"/>
-      <c r="H14" s="49"/>
-    </row>
-    <row r="15" spans="1:8" s="52" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A15" s="49"/>
-      <c r="B15" s="50" t="s">
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="41"/>
+    </row>
+    <row r="15" spans="1:8" s="44" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A15" s="41"/>
+      <c r="B15" s="42" t="s">
         <v>283</v>
       </c>
-      <c r="C15" s="56" t="s">
+      <c r="C15" s="48" t="s">
         <v>269</v>
       </c>
-      <c r="D15" s="51">
+      <c r="D15" s="43">
         <v>42541</v>
       </c>
-      <c r="E15" s="49"/>
-      <c r="F15" s="49"/>
-      <c r="G15" s="49"/>
-      <c r="H15" s="49"/>
-    </row>
-    <row r="16" spans="1:8" s="52" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A16" s="49"/>
-      <c r="B16" s="50" t="s">
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="41"/>
+    </row>
+    <row r="16" spans="1:8" s="44" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A16" s="41"/>
+      <c r="B16" s="42" t="s">
         <v>284</v>
       </c>
-      <c r="C16" s="56" t="s">
+      <c r="C16" s="48" t="s">
         <v>269</v>
       </c>
-      <c r="D16" s="51">
+      <c r="D16" s="43">
         <v>42541</v>
       </c>
-      <c r="E16" s="49"/>
-      <c r="F16" s="49"/>
-      <c r="G16" s="49"/>
-      <c r="H16" s="49"/>
-    </row>
-    <row r="17" spans="1:8" s="52" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A17" s="49"/>
-      <c r="B17" s="50" t="s">
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="41"/>
+    </row>
+    <row r="17" spans="1:8" s="44" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A17" s="41"/>
+      <c r="B17" s="42" t="s">
         <v>285</v>
       </c>
-      <c r="C17" s="56" t="s">
+      <c r="C17" s="48" t="s">
         <v>269</v>
       </c>
-      <c r="D17" s="51">
+      <c r="D17" s="43">
         <v>42541</v>
       </c>
-      <c r="E17" s="49"/>
-      <c r="F17" s="49"/>
-      <c r="G17" s="49"/>
-      <c r="H17" s="49"/>
-    </row>
-    <row r="18" spans="1:8" s="52" customFormat="1" ht="108" x14ac:dyDescent="0.15">
-      <c r="A18" s="49" t="s">
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="41"/>
+    </row>
+    <row r="18" spans="1:8" s="44" customFormat="1" ht="108" x14ac:dyDescent="0.15">
+      <c r="A18" s="41" t="s">
         <v>286</v>
       </c>
-      <c r="B18" s="50" t="s">
+      <c r="B18" s="42" t="s">
         <v>294</v>
       </c>
-      <c r="C18" s="56" t="s">
+      <c r="C18" s="48" t="s">
         <v>269</v>
       </c>
-      <c r="D18" s="51">
+      <c r="D18" s="43">
         <v>42541</v>
       </c>
-      <c r="E18" s="49"/>
-      <c r="F18" s="49"/>
-      <c r="G18" s="49"/>
-      <c r="H18" s="49"/>
-    </row>
-    <row r="19" spans="1:8" s="52" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="49"/>
-      <c r="B19" s="50"/>
-      <c r="C19" s="56"/>
-      <c r="D19" s="51"/>
-      <c r="E19" s="49"/>
-      <c r="F19" s="49"/>
-      <c r="G19" s="49"/>
-      <c r="H19" s="49"/>
-    </row>
-    <row r="20" spans="1:8" s="52" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="49" t="s">
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="41"/>
+    </row>
+    <row r="19" spans="1:8" s="44" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="41"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="41"/>
+    </row>
+    <row r="20" spans="1:8" s="44" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="41" t="s">
         <v>287</v>
       </c>
-      <c r="B20" s="50" t="s">
+      <c r="B20" s="42" t="s">
         <v>288</v>
       </c>
-      <c r="C20" s="56" t="s">
+      <c r="C20" s="48" t="s">
         <v>269</v>
       </c>
-      <c r="D20" s="51">
+      <c r="D20" s="43">
         <v>42541</v>
       </c>
-      <c r="E20" s="49"/>
-      <c r="F20" s="49"/>
-      <c r="G20" s="49"/>
-      <c r="H20" s="49"/>
-    </row>
-    <row r="21" spans="1:8" s="52" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A21" s="49" t="s">
+      <c r="E20" s="41"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="41"/>
+    </row>
+    <row r="21" spans="1:8" s="44" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A21" s="41" t="s">
         <v>291</v>
       </c>
-      <c r="B21" s="50" t="s">
+      <c r="B21" s="42" t="s">
         <v>292</v>
       </c>
-      <c r="C21" s="56" t="s">
+      <c r="C21" s="48" t="s">
         <v>269</v>
       </c>
-      <c r="D21" s="51">
+      <c r="D21" s="43">
         <v>42541</v>
       </c>
-      <c r="E21" s="49"/>
-      <c r="F21" s="49"/>
-      <c r="G21" s="49"/>
-      <c r="H21" s="49"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="41"/>
     </row>
     <row r="22" spans="1:8" ht="27" x14ac:dyDescent="0.15">
-      <c r="A22" s="54" t="s">
+      <c r="A22" s="46" t="s">
         <v>289</v>
       </c>
-      <c r="B22" s="50" t="s">
+      <c r="B22" s="42" t="s">
         <v>293</v>
       </c>
-      <c r="C22" s="56" t="s">
+      <c r="C22" s="48" t="s">
         <v>269</v>
       </c>
-      <c r="D22" s="51">
+      <c r="D22" s="43">
         <v>42541</v>
       </c>
-      <c r="E22" s="55"/>
-      <c r="F22" s="55"/>
-      <c r="G22" s="55"/>
-      <c r="H22" s="55"/>
+      <c r="E22" s="47"/>
+      <c r="F22" s="47"/>
+      <c r="G22" s="47"/>
+      <c r="H22" s="47"/>
     </row>
     <row r="23" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="55"/>
-      <c r="B23" s="56" t="s">
+      <c r="A23" s="47"/>
+      <c r="B23" s="48" t="s">
         <v>295</v>
       </c>
-      <c r="C23" s="56" t="s">
+      <c r="C23" s="48" t="s">
         <v>269</v>
       </c>
-      <c r="D23" s="57">
+      <c r="D23" s="49">
         <v>42542</v>
       </c>
-      <c r="E23" s="56"/>
-      <c r="F23" s="56"/>
-      <c r="G23" s="56"/>
-      <c r="H23" s="56"/>
+      <c r="E23" s="48"/>
+      <c r="F23" s="48"/>
+      <c r="G23" s="48"/>
+      <c r="H23" s="48"/>
     </row>
     <row r="24" spans="1:8" ht="27" x14ac:dyDescent="0.15">
-      <c r="A24" s="59" t="s">
+      <c r="A24" s="51" t="s">
         <v>297</v>
       </c>
       <c r="B24" s="14" t="s">
         <v>171</v>
       </c>
-      <c r="C24" s="58" t="s">
-        <v>10</v>
-      </c>
-      <c r="D24" s="57">
+      <c r="C24" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="49">
         <v>42544</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="27" x14ac:dyDescent="0.15">
-      <c r="A25" s="59" t="s">
+      <c r="A25" s="51" t="s">
         <v>296</v>
       </c>
       <c r="B25" s="14" t="s">
         <v>172</v>
       </c>
-      <c r="C25" s="58" t="s">
-        <v>10</v>
-      </c>
-      <c r="D25" s="57">
+      <c r="C25" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" s="49">
         <v>42544</v>
       </c>
     </row>

--- a/ProjectManagement/文档/问题点一览.xlsx
+++ b/ProjectManagement/文档/问题点一览.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18229"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8025" activeTab="2"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="302">
   <si>
     <t>NO</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1247,12 +1247,32 @@
     <t>已完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t>z</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>hugj</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1444,7 +1464,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1591,6 +1611,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
@@ -1603,9 +1626,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1615,7 +1635,13 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1647,7 +1673,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1689,7 +1715,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1721,27 +1747,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1773,24 +1781,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1966,14 +1956,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K303"/>
   <sheetViews>
-    <sheetView topLeftCell="A154" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A154" workbookViewId="0">
       <selection activeCell="B162" sqref="B162:D163"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="22.15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="22.15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="4" style="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.875" style="37" customWidth="1"/>
@@ -1989,7 +1979,7 @@
     <col min="12" max="16384" width="8.875" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" ht="22.15" customHeight="1">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -2021,11 +2011,11 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" ht="22.15" customHeight="1">
       <c r="A2" s="13">
         <v>1</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="53" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="14" t="s">
@@ -2049,11 +2039,11 @@
       </c>
       <c r="J2" s="15"/>
     </row>
-    <row r="3" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" ht="27">
       <c r="A3" s="13">
         <v>2</v>
       </c>
-      <c r="B3" s="53"/>
+      <c r="B3" s="54"/>
       <c r="C3" s="14" t="s">
         <v>51</v>
       </c>
@@ -2075,11 +2065,11 @@
       </c>
       <c r="J3" s="15"/>
     </row>
-    <row r="4" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" ht="27">
       <c r="A4" s="13">
         <v>3</v>
       </c>
-      <c r="B4" s="53"/>
+      <c r="B4" s="54"/>
       <c r="C4" s="14" t="s">
         <v>52</v>
       </c>
@@ -2101,11 +2091,11 @@
       </c>
       <c r="J4" s="15"/>
     </row>
-    <row r="5" spans="1:11" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" ht="22.15" customHeight="1">
       <c r="A5" s="13">
         <v>4</v>
       </c>
-      <c r="B5" s="53"/>
+      <c r="B5" s="54"/>
       <c r="C5" s="14" t="s">
         <v>13</v>
       </c>
@@ -2127,11 +2117,11 @@
       </c>
       <c r="J5" s="15"/>
     </row>
-    <row r="6" spans="1:11" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11" ht="22.15" customHeight="1">
       <c r="A6" s="13">
         <v>5</v>
       </c>
-      <c r="B6" s="53"/>
+      <c r="B6" s="54"/>
       <c r="C6" s="14" t="s">
         <v>53</v>
       </c>
@@ -2153,11 +2143,11 @@
       </c>
       <c r="J6" s="15"/>
     </row>
-    <row r="7" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11" ht="27">
       <c r="A7" s="13">
         <v>6</v>
       </c>
-      <c r="B7" s="53"/>
+      <c r="B7" s="54"/>
       <c r="C7" s="14" t="s">
         <v>16</v>
       </c>
@@ -2179,11 +2169,11 @@
       </c>
       <c r="J7" s="15"/>
     </row>
-    <row r="8" spans="1:11" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11" ht="22.15" customHeight="1">
       <c r="A8" s="13">
         <v>7</v>
       </c>
-      <c r="B8" s="53"/>
+      <c r="B8" s="54"/>
       <c r="C8" s="14" t="s">
         <v>14</v>
       </c>
@@ -2205,11 +2195,11 @@
       </c>
       <c r="J8" s="15"/>
     </row>
-    <row r="9" spans="1:11" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:11" ht="22.15" customHeight="1">
       <c r="A9" s="13">
         <v>8</v>
       </c>
-      <c r="B9" s="53"/>
+      <c r="B9" s="54"/>
       <c r="C9" s="14" t="s">
         <v>17</v>
       </c>
@@ -2231,11 +2221,11 @@
       </c>
       <c r="J9" s="15"/>
     </row>
-    <row r="10" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11" ht="27">
       <c r="A10" s="13">
         <v>9</v>
       </c>
-      <c r="B10" s="53"/>
+      <c r="B10" s="54"/>
       <c r="C10" s="17" t="s">
         <v>160</v>
       </c>
@@ -2264,11 +2254,11 @@
         <v>108</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11" ht="22.15" customHeight="1">
       <c r="A11" s="13">
         <v>10</v>
       </c>
-      <c r="B11" s="53"/>
+      <c r="B11" s="54"/>
       <c r="C11" s="14" t="s">
         <v>48</v>
       </c>
@@ -2290,11 +2280,11 @@
       </c>
       <c r="J11" s="15"/>
     </row>
-    <row r="12" spans="1:11" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:11" ht="22.15" customHeight="1">
       <c r="A12" s="13">
         <v>11</v>
       </c>
-      <c r="B12" s="53"/>
+      <c r="B12" s="54"/>
       <c r="C12" s="14" t="s">
         <v>107</v>
       </c>
@@ -2316,11 +2306,11 @@
       </c>
       <c r="J12" s="15"/>
     </row>
-    <row r="13" spans="1:11" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:11" ht="22.15" customHeight="1">
       <c r="A13" s="13">
         <v>12</v>
       </c>
-      <c r="B13" s="53"/>
+      <c r="B13" s="54"/>
       <c r="C13" s="14" t="s">
         <v>110</v>
       </c>
@@ -2342,11 +2332,11 @@
       </c>
       <c r="J13" s="15"/>
     </row>
-    <row r="14" spans="1:11" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:11" ht="22.15" customHeight="1">
       <c r="A14" s="13">
         <v>13</v>
       </c>
-      <c r="B14" s="53"/>
+      <c r="B14" s="54"/>
       <c r="C14" s="14" t="s">
         <v>109</v>
       </c>
@@ -2368,11 +2358,11 @@
       </c>
       <c r="J14" s="15"/>
     </row>
-    <row r="15" spans="1:11" s="20" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:11" s="20" customFormat="1" ht="27">
       <c r="A15" s="13">
         <v>14</v>
       </c>
-      <c r="B15" s="53"/>
+      <c r="B15" s="54"/>
       <c r="C15" s="17" t="s">
         <v>138</v>
       </c>
@@ -2394,11 +2384,11 @@
       </c>
       <c r="J15" s="18"/>
     </row>
-    <row r="16" spans="1:11" s="20" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:11" s="20" customFormat="1" ht="40.5">
       <c r="A16" s="13">
         <v>15</v>
       </c>
-      <c r="B16" s="53"/>
+      <c r="B16" s="54"/>
       <c r="C16" s="17" t="s">
         <v>153</v>
       </c>
@@ -2423,11 +2413,11 @@
         <v>125</v>
       </c>
     </row>
-    <row r="17" spans="1:11" s="20" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:11" s="20" customFormat="1" ht="27">
       <c r="A17" s="13">
         <v>16</v>
       </c>
-      <c r="B17" s="53"/>
+      <c r="B17" s="54"/>
       <c r="C17" s="17" t="s">
         <v>156</v>
       </c>
@@ -2449,11 +2439,11 @@
       </c>
       <c r="J17" s="18"/>
     </row>
-    <row r="18" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:11" ht="27">
       <c r="A18" s="13">
         <v>17</v>
       </c>
-      <c r="B18" s="53"/>
+      <c r="B18" s="54"/>
       <c r="C18" s="22" t="s">
         <v>147</v>
       </c>
@@ -2476,11 +2466,11 @@
       <c r="J18" s="23"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:11" ht="18" customHeight="1">
       <c r="A19" s="13">
         <v>18</v>
       </c>
-      <c r="B19" s="53"/>
+      <c r="B19" s="54"/>
       <c r="C19" s="22" t="s">
         <v>154</v>
       </c>
@@ -2503,11 +2493,11 @@
       <c r="J19" s="23"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:11" ht="22.15" customHeight="1">
       <c r="A20" s="13">
         <v>19</v>
       </c>
-      <c r="B20" s="53"/>
+      <c r="B20" s="54"/>
       <c r="C20" s="22" t="s">
         <v>151</v>
       </c>
@@ -2530,11 +2520,11 @@
       <c r="J20" s="23"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:11" ht="13.5">
       <c r="A21" s="13">
         <v>20</v>
       </c>
-      <c r="B21" s="53"/>
+      <c r="B21" s="54"/>
       <c r="C21" s="14" t="s">
         <v>168</v>
       </c>
@@ -2557,11 +2547,11 @@
       <c r="J21" s="23"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:11" ht="27">
       <c r="A22" s="13">
         <v>21</v>
       </c>
-      <c r="B22" s="53"/>
+      <c r="B22" s="54"/>
       <c r="C22" s="14" t="s">
         <v>181</v>
       </c>
@@ -2584,11 +2574,11 @@
       <c r="J22" s="23"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:11" ht="27">
       <c r="A23" s="13">
         <v>22</v>
       </c>
-      <c r="B23" s="53"/>
+      <c r="B23" s="54"/>
       <c r="C23" s="14" t="s">
         <v>182</v>
       </c>
@@ -2611,11 +2601,11 @@
       <c r="J23" s="23"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:11" ht="27">
       <c r="A24" s="13">
         <v>23</v>
       </c>
-      <c r="B24" s="53"/>
+      <c r="B24" s="54"/>
       <c r="C24" s="22" t="s">
         <v>152</v>
       </c>
@@ -2638,11 +2628,11 @@
       <c r="J24" s="23"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:11" ht="40.5">
       <c r="A25" s="13">
         <v>24</v>
       </c>
-      <c r="B25" s="53"/>
+      <c r="B25" s="54"/>
       <c r="C25" s="22" t="s">
         <v>173</v>
       </c>
@@ -2665,11 +2655,11 @@
       <c r="J25" s="23"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:11" ht="27">
       <c r="A26" s="13">
         <v>25</v>
       </c>
-      <c r="B26" s="53"/>
+      <c r="B26" s="54"/>
       <c r="C26" s="17" t="s">
         <v>174</v>
       </c>
@@ -2692,11 +2682,11 @@
       <c r="J26" s="23"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" s="20" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:11" s="20" customFormat="1" ht="13.5">
       <c r="A27" s="13">
         <v>26</v>
       </c>
-      <c r="B27" s="53"/>
+      <c r="B27" s="54"/>
       <c r="C27" s="17" t="s">
         <v>177</v>
       </c>
@@ -2718,11 +2708,11 @@
       </c>
       <c r="J27" s="18"/>
     </row>
-    <row r="28" spans="1:11" s="20" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:11" s="20" customFormat="1" ht="13.5">
       <c r="A28" s="13">
         <v>27</v>
       </c>
-      <c r="B28" s="53"/>
+      <c r="B28" s="54"/>
       <c r="C28" s="17" t="s">
         <v>178</v>
       </c>
@@ -2744,9 +2734,9 @@
       </c>
       <c r="J28" s="18"/>
     </row>
-    <row r="29" spans="1:11" s="20" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:11" s="20" customFormat="1" ht="27">
       <c r="A29" s="13"/>
-      <c r="B29" s="53"/>
+      <c r="B29" s="54"/>
       <c r="C29" s="17" t="s">
         <v>238</v>
       </c>
@@ -2762,9 +2752,9 @@
       <c r="I29" s="18"/>
       <c r="J29" s="18"/>
     </row>
-    <row r="30" spans="1:11" s="20" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:11" s="20" customFormat="1" ht="13.5">
       <c r="A30" s="13"/>
-      <c r="B30" s="53"/>
+      <c r="B30" s="54"/>
       <c r="C30" s="17"/>
       <c r="D30" s="18"/>
       <c r="E30" s="19"/>
@@ -2774,9 +2764,9 @@
       <c r="I30" s="18"/>
       <c r="J30" s="18"/>
     </row>
-    <row r="31" spans="1:11" s="20" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:11" s="20" customFormat="1" ht="13.5">
       <c r="A31" s="13"/>
-      <c r="B31" s="53"/>
+      <c r="B31" s="54"/>
       <c r="C31" s="17"/>
       <c r="D31" s="18"/>
       <c r="E31" s="19"/>
@@ -2786,9 +2776,9 @@
       <c r="I31" s="18"/>
       <c r="J31" s="18"/>
     </row>
-    <row r="32" spans="1:11" s="20" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:11" s="20" customFormat="1" ht="13.5">
       <c r="A32" s="13"/>
-      <c r="B32" s="54"/>
+      <c r="B32" s="55"/>
       <c r="C32" s="17"/>
       <c r="D32" s="18"/>
       <c r="E32" s="19"/>
@@ -2798,11 +2788,11 @@
       <c r="I32" s="18"/>
       <c r="J32" s="18"/>
     </row>
-    <row r="33" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:10" ht="22.15" customHeight="1">
       <c r="A33" s="13">
         <v>28</v>
       </c>
-      <c r="B33" s="52" t="s">
+      <c r="B33" s="53" t="s">
         <v>12</v>
       </c>
       <c r="C33" s="14" t="s">
@@ -2826,11 +2816,11 @@
       </c>
       <c r="J33" s="15"/>
     </row>
-    <row r="34" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:10" ht="22.15" customHeight="1">
       <c r="A34" s="13">
         <v>29</v>
       </c>
-      <c r="B34" s="53"/>
+      <c r="B34" s="54"/>
       <c r="C34" s="14" t="s">
         <v>17</v>
       </c>
@@ -2852,11 +2842,11 @@
       </c>
       <c r="J34" s="15"/>
     </row>
-    <row r="35" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:10" ht="27">
       <c r="A35" s="13">
         <v>30</v>
       </c>
-      <c r="B35" s="53"/>
+      <c r="B35" s="54"/>
       <c r="C35" s="14" t="s">
         <v>18</v>
       </c>
@@ -2878,11 +2868,11 @@
       </c>
       <c r="J35" s="15"/>
     </row>
-    <row r="36" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:10" ht="19.5" customHeight="1">
       <c r="A36" s="13">
         <v>31</v>
       </c>
-      <c r="B36" s="53"/>
+      <c r="B36" s="54"/>
       <c r="C36" s="14" t="s">
         <v>106</v>
       </c>
@@ -2904,11 +2894,11 @@
       </c>
       <c r="J36" s="15"/>
     </row>
-    <row r="37" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:10" ht="27">
       <c r="A37" s="13">
         <v>32</v>
       </c>
-      <c r="B37" s="53"/>
+      <c r="B37" s="54"/>
       <c r="C37" s="14" t="s">
         <v>55</v>
       </c>
@@ -2930,11 +2920,11 @@
       </c>
       <c r="J37" s="15"/>
     </row>
-    <row r="38" spans="1:10" s="27" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:10" s="27" customFormat="1" ht="13.5">
       <c r="A38" s="13">
         <v>33</v>
       </c>
-      <c r="B38" s="53"/>
+      <c r="B38" s="54"/>
       <c r="C38" s="14" t="s">
         <v>161</v>
       </c>
@@ -2956,11 +2946,11 @@
       </c>
       <c r="J38" s="26"/>
     </row>
-    <row r="39" spans="1:10" s="27" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:10" s="27" customFormat="1" ht="40.5">
       <c r="A39" s="13">
         <v>34</v>
       </c>
-      <c r="B39" s="53"/>
+      <c r="B39" s="54"/>
       <c r="C39" s="14" t="s">
         <v>176</v>
       </c>
@@ -2982,11 +2972,11 @@
       </c>
       <c r="J39" s="26"/>
     </row>
-    <row r="40" spans="1:10" s="27" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:10" s="27" customFormat="1" ht="27">
       <c r="A40" s="13">
         <v>35</v>
       </c>
-      <c r="B40" s="53"/>
+      <c r="B40" s="54"/>
       <c r="C40" s="14" t="s">
         <v>163</v>
       </c>
@@ -3008,11 +2998,11 @@
       </c>
       <c r="J40" s="26"/>
     </row>
-    <row r="41" spans="1:10" s="27" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:10" s="27" customFormat="1" ht="27">
       <c r="A41" s="13">
         <v>36</v>
       </c>
-      <c r="B41" s="54"/>
+      <c r="B41" s="55"/>
       <c r="C41" s="14" t="s">
         <v>162</v>
       </c>
@@ -3028,11 +3018,11 @@
       <c r="I41" s="26"/>
       <c r="J41" s="26"/>
     </row>
-    <row r="42" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:10" ht="40.5">
       <c r="A42" s="13">
         <v>37</v>
       </c>
-      <c r="B42" s="55" t="s">
+      <c r="B42" s="56" t="s">
         <v>19</v>
       </c>
       <c r="C42" s="14" t="s">
@@ -3058,11 +3048,11 @@
         <v>60</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:10" ht="27">
       <c r="A43" s="13">
         <v>38</v>
       </c>
-      <c r="B43" s="55"/>
+      <c r="B43" s="56"/>
       <c r="C43" s="14" t="s">
         <v>21</v>
       </c>
@@ -3084,11 +3074,11 @@
       </c>
       <c r="J43" s="15"/>
     </row>
-    <row r="44" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:10" ht="27">
       <c r="A44" s="13">
         <v>39</v>
       </c>
-      <c r="B44" s="55"/>
+      <c r="B44" s="56"/>
       <c r="C44" s="14" t="s">
         <v>71</v>
       </c>
@@ -3110,11 +3100,11 @@
       </c>
       <c r="J44" s="15"/>
     </row>
-    <row r="45" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:10" ht="22.15" customHeight="1">
       <c r="A45" s="13">
         <v>40</v>
       </c>
-      <c r="B45" s="55"/>
+      <c r="B45" s="56"/>
       <c r="C45" s="14" t="s">
         <v>90</v>
       </c>
@@ -3136,11 +3126,11 @@
       </c>
       <c r="J45" s="15"/>
     </row>
-    <row r="46" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:10" ht="27">
       <c r="A46" s="13">
         <v>41</v>
       </c>
-      <c r="B46" s="55"/>
+      <c r="B46" s="56"/>
       <c r="C46" s="14" t="s">
         <v>89</v>
       </c>
@@ -3162,11 +3152,11 @@
       </c>
       <c r="J46" s="15"/>
     </row>
-    <row r="47" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:10" ht="22.15" customHeight="1">
       <c r="A47" s="13">
         <v>42</v>
       </c>
-      <c r="B47" s="55"/>
+      <c r="B47" s="56"/>
       <c r="C47" s="14" t="s">
         <v>94</v>
       </c>
@@ -3188,11 +3178,11 @@
       </c>
       <c r="J47" s="15"/>
     </row>
-    <row r="48" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:10" ht="27">
       <c r="A48" s="13">
         <v>43</v>
       </c>
-      <c r="B48" s="55"/>
+      <c r="B48" s="56"/>
       <c r="C48" s="14" t="s">
         <v>96</v>
       </c>
@@ -3214,11 +3204,11 @@
       </c>
       <c r="J48" s="15"/>
     </row>
-    <row r="49" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:10" ht="27">
       <c r="A49" s="13">
         <v>44</v>
       </c>
-      <c r="B49" s="55"/>
+      <c r="B49" s="56"/>
       <c r="C49" s="14" t="s">
         <v>150</v>
       </c>
@@ -3242,11 +3232,11 @@
       </c>
       <c r="J49" s="15"/>
     </row>
-    <row r="50" spans="1:10" s="20" customFormat="1" ht="54" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:10" s="20" customFormat="1" ht="54">
       <c r="A50" s="13">
         <v>45</v>
       </c>
-      <c r="B50" s="55"/>
+      <c r="B50" s="56"/>
       <c r="C50" s="17" t="s">
         <v>137</v>
       </c>
@@ -3268,11 +3258,11 @@
       </c>
       <c r="J50" s="18"/>
     </row>
-    <row r="51" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:10" ht="22.15" customHeight="1">
       <c r="A51" s="13">
         <v>46</v>
       </c>
-      <c r="B51" s="55"/>
+      <c r="B51" s="56"/>
       <c r="C51" s="14" t="s">
         <v>22</v>
       </c>
@@ -3294,11 +3284,11 @@
       </c>
       <c r="J51" s="15"/>
     </row>
-    <row r="52" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:10" ht="22.15" customHeight="1">
       <c r="A52" s="13">
         <v>47</v>
       </c>
-      <c r="B52" s="55" t="s">
+      <c r="B52" s="56" t="s">
         <v>23</v>
       </c>
       <c r="C52" s="14" t="s">
@@ -3322,11 +3312,11 @@
       </c>
       <c r="J52" s="15"/>
     </row>
-    <row r="53" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:10" ht="27">
       <c r="A53" s="13">
         <v>48</v>
       </c>
-      <c r="B53" s="55"/>
+      <c r="B53" s="56"/>
       <c r="C53" s="14" t="s">
         <v>92</v>
       </c>
@@ -3350,11 +3340,11 @@
       </c>
       <c r="J53" s="15"/>
     </row>
-    <row r="54" spans="1:10" s="20" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:10" s="20" customFormat="1" ht="22.15" customHeight="1">
       <c r="A54" s="13">
         <v>49</v>
       </c>
-      <c r="B54" s="55"/>
+      <c r="B54" s="56"/>
       <c r="C54" s="17" t="s">
         <v>91</v>
       </c>
@@ -3376,11 +3366,11 @@
       </c>
       <c r="J54" s="18"/>
     </row>
-    <row r="55" spans="1:10" s="20" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:10" s="20" customFormat="1" ht="22.15" customHeight="1">
       <c r="A55" s="13">
         <v>50</v>
       </c>
-      <c r="B55" s="55"/>
+      <c r="B55" s="56"/>
       <c r="C55" s="17" t="s">
         <v>148</v>
       </c>
@@ -3402,11 +3392,11 @@
       </c>
       <c r="J55" s="18"/>
     </row>
-    <row r="56" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:10" ht="22.15" customHeight="1">
       <c r="A56" s="13">
         <v>51</v>
       </c>
-      <c r="B56" s="55"/>
+      <c r="B56" s="56"/>
       <c r="C56" s="14" t="s">
         <v>25</v>
       </c>
@@ -3428,11 +3418,11 @@
       </c>
       <c r="J56" s="15"/>
     </row>
-    <row r="57" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:10" ht="22.15" customHeight="1">
       <c r="A57" s="13">
         <v>52</v>
       </c>
-      <c r="B57" s="55" t="s">
+      <c r="B57" s="56" t="s">
         <v>26</v>
       </c>
       <c r="C57" s="14" t="s">
@@ -3456,11 +3446,11 @@
       </c>
       <c r="J57" s="15"/>
     </row>
-    <row r="58" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:10" ht="22.15" customHeight="1">
       <c r="A58" s="13">
         <v>53</v>
       </c>
-      <c r="B58" s="55"/>
+      <c r="B58" s="56"/>
       <c r="C58" s="14" t="s">
         <v>28</v>
       </c>
@@ -3482,11 +3472,11 @@
       </c>
       <c r="J58" s="15"/>
     </row>
-    <row r="59" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:10" ht="22.15" customHeight="1">
       <c r="A59" s="13">
         <v>54</v>
       </c>
-      <c r="B59" s="55" t="s">
+      <c r="B59" s="56" t="s">
         <v>29</v>
       </c>
       <c r="C59" s="14" t="s">
@@ -3510,11 +3500,11 @@
       </c>
       <c r="J59" s="15"/>
     </row>
-    <row r="60" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:10" ht="27">
       <c r="A60" s="13">
         <v>55</v>
       </c>
-      <c r="B60" s="55"/>
+      <c r="B60" s="56"/>
       <c r="C60" s="14" t="s">
         <v>62</v>
       </c>
@@ -3536,11 +3526,11 @@
       </c>
       <c r="J60" s="15"/>
     </row>
-    <row r="61" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:10" ht="22.15" customHeight="1">
       <c r="A61" s="13">
         <v>56</v>
       </c>
-      <c r="B61" s="55"/>
+      <c r="B61" s="56"/>
       <c r="C61" s="14" t="s">
         <v>63</v>
       </c>
@@ -3562,11 +3552,11 @@
       </c>
       <c r="J61" s="15"/>
     </row>
-    <row r="62" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:10" ht="22.15" customHeight="1">
       <c r="A62" s="13">
         <v>57</v>
       </c>
-      <c r="B62" s="55"/>
+      <c r="B62" s="56"/>
       <c r="C62" s="14" t="s">
         <v>72</v>
       </c>
@@ -3588,9 +3578,9 @@
       </c>
       <c r="J62" s="15"/>
     </row>
-    <row r="63" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:10" ht="22.15" customHeight="1">
       <c r="A63" s="13"/>
-      <c r="B63" s="55"/>
+      <c r="B63" s="56"/>
       <c r="C63" s="14" t="s">
         <v>237</v>
       </c>
@@ -3610,9 +3600,9 @@
       <c r="I63" s="15"/>
       <c r="J63" s="15"/>
     </row>
-    <row r="64" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:10" ht="40.5">
       <c r="A64" s="13"/>
-      <c r="B64" s="55"/>
+      <c r="B64" s="56"/>
       <c r="C64" s="14" t="s">
         <v>194</v>
       </c>
@@ -3634,11 +3624,11 @@
       </c>
       <c r="J64" s="15"/>
     </row>
-    <row r="65" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:10" ht="22.15" customHeight="1">
       <c r="A65" s="13">
         <v>58</v>
       </c>
-      <c r="B65" s="55"/>
+      <c r="B65" s="56"/>
       <c r="C65" s="14" t="s">
         <v>61</v>
       </c>
@@ -3660,11 +3650,11 @@
       </c>
       <c r="J65" s="15"/>
     </row>
-    <row r="66" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:10" ht="22.15" customHeight="1">
       <c r="A66" s="13">
         <v>59</v>
       </c>
-      <c r="B66" s="55" t="s">
+      <c r="B66" s="56" t="s">
         <v>31</v>
       </c>
       <c r="C66" s="14" t="s">
@@ -3688,9 +3678,9 @@
       </c>
       <c r="J66" s="15"/>
     </row>
-    <row r="67" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:10" ht="22.15" customHeight="1">
       <c r="A67" s="13"/>
-      <c r="B67" s="55"/>
+      <c r="B67" s="56"/>
       <c r="C67" s="14" t="s">
         <v>191</v>
       </c>
@@ -3712,11 +3702,11 @@
       </c>
       <c r="J67" s="15"/>
     </row>
-    <row r="68" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:10" ht="22.15" customHeight="1">
       <c r="A68" s="13">
         <v>60</v>
       </c>
-      <c r="B68" s="55"/>
+      <c r="B68" s="56"/>
       <c r="C68" s="14" t="s">
         <v>64</v>
       </c>
@@ -3738,11 +3728,11 @@
       </c>
       <c r="J68" s="15"/>
     </row>
-    <row r="69" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:10" ht="22.15" customHeight="1">
       <c r="A69" s="13">
         <v>61</v>
       </c>
-      <c r="B69" s="52" t="s">
+      <c r="B69" s="53" t="s">
         <v>33</v>
       </c>
       <c r="C69" s="14" t="s">
@@ -3766,11 +3756,11 @@
       </c>
       <c r="J69" s="15"/>
     </row>
-    <row r="70" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:10" ht="22.15" customHeight="1">
       <c r="A70" s="13">
         <v>62</v>
       </c>
-      <c r="B70" s="53"/>
+      <c r="B70" s="54"/>
       <c r="C70" s="14" t="s">
         <v>35</v>
       </c>
@@ -3792,9 +3782,9 @@
       </c>
       <c r="J70" s="15"/>
     </row>
-    <row r="71" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:10" ht="22.15" customHeight="1">
       <c r="A71" s="13"/>
-      <c r="B71" s="53"/>
+      <c r="B71" s="54"/>
       <c r="C71" s="14" t="s">
         <v>193</v>
       </c>
@@ -3816,9 +3806,9 @@
       </c>
       <c r="J71" s="15"/>
     </row>
-    <row r="72" spans="1:10" ht="54" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:10" ht="54">
       <c r="A72" s="13"/>
-      <c r="B72" s="53"/>
+      <c r="B72" s="54"/>
       <c r="C72" s="14" t="s">
         <v>192</v>
       </c>
@@ -3840,9 +3830,9 @@
       </c>
       <c r="J72" s="15"/>
     </row>
-    <row r="73" spans="1:10" ht="81" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:10" ht="81">
       <c r="A73" s="13"/>
-      <c r="B73" s="53"/>
+      <c r="B73" s="54"/>
       <c r="C73" s="14" t="s">
         <v>235</v>
       </c>
@@ -3866,9 +3856,9 @@
       </c>
       <c r="J73" s="15"/>
     </row>
-    <row r="74" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:10" ht="27">
       <c r="A74" s="13"/>
-      <c r="B74" s="53"/>
+      <c r="B74" s="54"/>
       <c r="C74" s="14" t="s">
         <v>226</v>
       </c>
@@ -3890,11 +3880,11 @@
       </c>
       <c r="J74" s="15"/>
     </row>
-    <row r="75" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:10" ht="22.15" customHeight="1">
       <c r="A75" s="13">
         <v>64</v>
       </c>
-      <c r="B75" s="53"/>
+      <c r="B75" s="54"/>
       <c r="C75" s="14" t="s">
         <v>36</v>
       </c>
@@ -3918,11 +3908,11 @@
         <v>85</v>
       </c>
     </row>
-    <row r="76" spans="1:10" s="27" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:10" s="27" customFormat="1" ht="27">
       <c r="A76" s="13">
         <v>65</v>
       </c>
-      <c r="B76" s="54"/>
+      <c r="B76" s="55"/>
       <c r="C76" s="14" t="s">
         <v>165</v>
       </c>
@@ -3944,11 +3934,11 @@
       </c>
       <c r="J76" s="26"/>
     </row>
-    <row r="77" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:10" ht="40.5">
       <c r="A77" s="13">
         <v>66</v>
       </c>
-      <c r="B77" s="55" t="s">
+      <c r="B77" s="56" t="s">
         <v>203</v>
       </c>
       <c r="C77" s="14" t="s">
@@ -3972,11 +3962,11 @@
       </c>
       <c r="J77" s="15"/>
     </row>
-    <row r="78" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:10" ht="22.15" customHeight="1">
       <c r="A78" s="13">
         <v>67</v>
       </c>
-      <c r="B78" s="55"/>
+      <c r="B78" s="56"/>
       <c r="C78" s="14" t="s">
         <v>105</v>
       </c>
@@ -3998,11 +3988,11 @@
       </c>
       <c r="J78" s="15"/>
     </row>
-    <row r="79" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:10" ht="22.15" customHeight="1">
       <c r="A79" s="13">
         <v>68</v>
       </c>
-      <c r="B79" s="55"/>
+      <c r="B79" s="56"/>
       <c r="C79" s="14" t="s">
         <v>267</v>
       </c>
@@ -4024,9 +4014,9 @@
       </c>
       <c r="J79" s="15"/>
     </row>
-    <row r="80" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:10" ht="22.15" customHeight="1">
       <c r="A80" s="13"/>
-      <c r="B80" s="55"/>
+      <c r="B80" s="56"/>
       <c r="C80" s="14" t="s">
         <v>204</v>
       </c>
@@ -4044,11 +4034,11 @@
       </c>
       <c r="J80" s="15"/>
     </row>
-    <row r="81" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:10" ht="27">
       <c r="A81" s="13">
         <v>69</v>
       </c>
-      <c r="B81" s="55"/>
+      <c r="B81" s="56"/>
       <c r="C81" s="14" t="s">
         <v>233</v>
       </c>
@@ -4070,9 +4060,9 @@
       </c>
       <c r="J81" s="15"/>
     </row>
-    <row r="82" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:10" ht="40.5">
       <c r="A82" s="13"/>
-      <c r="B82" s="55"/>
+      <c r="B82" s="56"/>
       <c r="C82" s="14" t="s">
         <v>234</v>
       </c>
@@ -4094,11 +4084,11 @@
       </c>
       <c r="J82" s="15"/>
     </row>
-    <row r="83" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:10" ht="22.15" customHeight="1">
       <c r="A83" s="13">
         <v>70</v>
       </c>
-      <c r="B83" s="55"/>
+      <c r="B83" s="56"/>
       <c r="C83" s="14" t="s">
         <v>37</v>
       </c>
@@ -4120,11 +4110,11 @@
       </c>
       <c r="J83" s="15"/>
     </row>
-    <row r="84" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:10" ht="27">
       <c r="A84" s="13">
         <v>71</v>
       </c>
-      <c r="B84" s="55" t="s">
+      <c r="B84" s="56" t="s">
         <v>39</v>
       </c>
       <c r="C84" s="14" t="s">
@@ -4150,9 +4140,9 @@
         <v>85</v>
       </c>
     </row>
-    <row r="85" spans="1:10" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:10" ht="13.5">
       <c r="A85" s="13"/>
-      <c r="B85" s="55"/>
+      <c r="B85" s="56"/>
       <c r="C85" s="14" t="s">
         <v>209</v>
       </c>
@@ -4174,9 +4164,9 @@
       </c>
       <c r="J85" s="15"/>
     </row>
-    <row r="86" spans="1:10" ht="25.9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:10" ht="25.9" customHeight="1">
       <c r="A86" s="13"/>
-      <c r="B86" s="55"/>
+      <c r="B86" s="56"/>
       <c r="C86" s="14" t="s">
         <v>208</v>
       </c>
@@ -4198,11 +4188,11 @@
       </c>
       <c r="J86" s="15"/>
     </row>
-    <row r="87" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:10" ht="22.15" customHeight="1">
       <c r="A87" s="13">
         <v>72</v>
       </c>
-      <c r="B87" s="55"/>
+      <c r="B87" s="56"/>
       <c r="C87" s="14" t="s">
         <v>105</v>
       </c>
@@ -4224,11 +4214,11 @@
       </c>
       <c r="J87" s="15"/>
     </row>
-    <row r="88" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:10" ht="22.15" customHeight="1">
       <c r="A88" s="13">
         <v>73</v>
       </c>
-      <c r="B88" s="55"/>
+      <c r="B88" s="56"/>
       <c r="C88" s="14" t="s">
         <v>37</v>
       </c>
@@ -4250,11 +4240,11 @@
       </c>
       <c r="J88" s="15"/>
     </row>
-    <row r="89" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:10" ht="27">
       <c r="A89" s="13">
         <v>74</v>
       </c>
-      <c r="B89" s="55" t="s">
+      <c r="B89" s="56" t="s">
         <v>41</v>
       </c>
       <c r="C89" s="14" t="s">
@@ -4278,9 +4268,9 @@
       </c>
       <c r="J89" s="15"/>
     </row>
-    <row r="90" spans="1:10" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:10" ht="13.5">
       <c r="A90" s="13"/>
-      <c r="B90" s="55"/>
+      <c r="B90" s="56"/>
       <c r="C90" s="14" t="s">
         <v>210</v>
       </c>
@@ -4302,9 +4292,9 @@
       </c>
       <c r="J90" s="15"/>
     </row>
-    <row r="91" spans="1:10" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:10" ht="13.5">
       <c r="A91" s="13"/>
-      <c r="B91" s="55"/>
+      <c r="B91" s="56"/>
       <c r="C91" s="14" t="s">
         <v>211</v>
       </c>
@@ -4326,11 +4316,11 @@
       </c>
       <c r="J91" s="15"/>
     </row>
-    <row r="92" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:10" ht="22.15" customHeight="1">
       <c r="A92" s="13">
         <v>75</v>
       </c>
-      <c r="B92" s="55"/>
+      <c r="B92" s="56"/>
       <c r="C92" s="14" t="s">
         <v>105</v>
       </c>
@@ -4352,11 +4342,11 @@
       </c>
       <c r="J92" s="15"/>
     </row>
-    <row r="93" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:10" ht="22.15" customHeight="1">
       <c r="A93" s="13">
         <v>76</v>
       </c>
-      <c r="B93" s="55"/>
+      <c r="B93" s="56"/>
       <c r="C93" s="14" t="s">
         <v>37</v>
       </c>
@@ -4378,11 +4368,11 @@
       </c>
       <c r="J93" s="15"/>
     </row>
-    <row r="94" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:10" ht="29.25" customHeight="1">
       <c r="A94" s="13">
         <v>77</v>
       </c>
-      <c r="B94" s="55" t="s">
+      <c r="B94" s="56" t="s">
         <v>43</v>
       </c>
       <c r="C94" s="14" t="s">
@@ -4400,9 +4390,9 @@
       <c r="I94" s="15"/>
       <c r="J94" s="15"/>
     </row>
-    <row r="95" spans="1:10" ht="28.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:10" ht="28.15" customHeight="1">
       <c r="A95" s="13"/>
-      <c r="B95" s="55"/>
+      <c r="B95" s="56"/>
       <c r="C95" s="14" t="s">
         <v>215</v>
       </c>
@@ -4424,11 +4414,11 @@
       </c>
       <c r="J95" s="15"/>
     </row>
-    <row r="96" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:10" ht="27">
       <c r="A96" s="13">
         <v>78</v>
       </c>
-      <c r="B96" s="55"/>
+      <c r="B96" s="56"/>
       <c r="C96" s="14" t="s">
         <v>126</v>
       </c>
@@ -4450,9 +4440,9 @@
       </c>
       <c r="J96" s="15"/>
     </row>
-    <row r="97" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:10" ht="27" customHeight="1">
       <c r="A97" s="13"/>
-      <c r="B97" s="55"/>
+      <c r="B97" s="56"/>
       <c r="C97" s="14" t="s">
         <v>217</v>
       </c>
@@ -4468,9 +4458,9 @@
       <c r="I97" s="15"/>
       <c r="J97" s="15"/>
     </row>
-    <row r="98" spans="1:10" ht="24.6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:10" ht="24.6" customHeight="1">
       <c r="A98" s="13"/>
-      <c r="B98" s="55"/>
+      <c r="B98" s="56"/>
       <c r="C98" s="14" t="s">
         <v>216</v>
       </c>
@@ -4492,9 +4482,9 @@
       </c>
       <c r="J98" s="15"/>
     </row>
-    <row r="99" spans="1:10" ht="24.6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:10" ht="24.6" customHeight="1">
       <c r="A99" s="13"/>
-      <c r="B99" s="55"/>
+      <c r="B99" s="56"/>
       <c r="C99" s="14" t="s">
         <v>225</v>
       </c>
@@ -4516,9 +4506,9 @@
       </c>
       <c r="J99" s="15"/>
     </row>
-    <row r="100" spans="1:10" ht="24.6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:10" ht="24.6" customHeight="1">
       <c r="A100" s="13"/>
-      <c r="B100" s="55"/>
+      <c r="B100" s="56"/>
       <c r="C100" s="14" t="s">
         <v>221</v>
       </c>
@@ -4540,9 +4530,9 @@
       </c>
       <c r="J100" s="15"/>
     </row>
-    <row r="101" spans="1:10" ht="24.6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:10" ht="24.6" customHeight="1">
       <c r="A101" s="13"/>
-      <c r="B101" s="55"/>
+      <c r="B101" s="56"/>
       <c r="C101" s="14" t="s">
         <v>223</v>
       </c>
@@ -4564,9 +4554,9 @@
       </c>
       <c r="J101" s="15"/>
     </row>
-    <row r="102" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:10" ht="27">
       <c r="A102" s="13"/>
-      <c r="B102" s="55"/>
+      <c r="B102" s="56"/>
       <c r="C102" s="14" t="s">
         <v>214</v>
       </c>
@@ -4588,9 +4578,9 @@
       </c>
       <c r="J102" s="15"/>
     </row>
-    <row r="103" spans="1:10" ht="25.9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:10" ht="25.9" customHeight="1">
       <c r="A103" s="13"/>
-      <c r="B103" s="55"/>
+      <c r="B103" s="56"/>
       <c r="C103" s="14" t="s">
         <v>213</v>
       </c>
@@ -4612,9 +4602,9 @@
       </c>
       <c r="J103" s="15"/>
     </row>
-    <row r="104" spans="1:10" ht="25.9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:10" ht="25.9" customHeight="1">
       <c r="A104" s="13"/>
-      <c r="B104" s="55"/>
+      <c r="B104" s="56"/>
       <c r="C104" s="14" t="s">
         <v>45</v>
       </c>
@@ -4630,9 +4620,9 @@
       <c r="I104" s="15"/>
       <c r="J104" s="15"/>
     </row>
-    <row r="105" spans="1:10" ht="25.9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:10" ht="25.9" customHeight="1">
       <c r="A105" s="13"/>
-      <c r="B105" s="55"/>
+      <c r="B105" s="56"/>
       <c r="C105" s="14" t="s">
         <v>239</v>
       </c>
@@ -4654,9 +4644,9 @@
       </c>
       <c r="J105" s="15"/>
     </row>
-    <row r="106" spans="1:10" ht="25.9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:10" ht="25.9" customHeight="1">
       <c r="A106" s="13"/>
-      <c r="B106" s="55"/>
+      <c r="B106" s="56"/>
       <c r="C106" s="14" t="s">
         <v>242</v>
       </c>
@@ -4678,11 +4668,11 @@
       </c>
       <c r="J106" s="15"/>
     </row>
-    <row r="107" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:10" ht="22.15" customHeight="1">
       <c r="A107" s="13">
         <v>79</v>
       </c>
-      <c r="B107" s="55"/>
+      <c r="B107" s="56"/>
       <c r="C107" s="15"/>
       <c r="D107" s="15"/>
       <c r="E107" s="15"/>
@@ -4692,11 +4682,11 @@
       <c r="I107" s="15"/>
       <c r="J107" s="15"/>
     </row>
-    <row r="108" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:10" ht="27.75" customHeight="1">
       <c r="A108" s="13">
         <v>80</v>
       </c>
-      <c r="B108" s="55" t="s">
+      <c r="B108" s="56" t="s">
         <v>44</v>
       </c>
       <c r="C108" s="14" t="s">
@@ -4720,9 +4710,9 @@
       </c>
       <c r="J108" s="15"/>
     </row>
-    <row r="109" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:10" ht="27.75" customHeight="1">
       <c r="A109" s="13"/>
-      <c r="B109" s="55"/>
+      <c r="B109" s="56"/>
       <c r="C109" s="14" t="s">
         <v>220</v>
       </c>
@@ -4744,9 +4734,9 @@
       </c>
       <c r="J109" s="15"/>
     </row>
-    <row r="110" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:10" ht="27.75" customHeight="1">
       <c r="A110" s="13"/>
-      <c r="B110" s="55"/>
+      <c r="B110" s="56"/>
       <c r="C110" s="14" t="s">
         <v>224</v>
       </c>
@@ -4768,9 +4758,9 @@
       </c>
       <c r="J110" s="15"/>
     </row>
-    <row r="111" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:10" ht="27.75" customHeight="1">
       <c r="A111" s="13"/>
-      <c r="B111" s="55"/>
+      <c r="B111" s="56"/>
       <c r="C111" s="14" t="s">
         <v>212</v>
       </c>
@@ -4792,9 +4782,9 @@
       </c>
       <c r="J111" s="15"/>
     </row>
-    <row r="112" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:10" ht="27.75" customHeight="1">
       <c r="A112" s="13"/>
-      <c r="B112" s="55"/>
+      <c r="B112" s="56"/>
       <c r="C112" s="14" t="s">
         <v>219</v>
       </c>
@@ -4816,9 +4806,9 @@
       </c>
       <c r="J112" s="15"/>
     </row>
-    <row r="113" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:10" ht="27.75" customHeight="1">
       <c r="A113" s="13"/>
-      <c r="B113" s="55"/>
+      <c r="B113" s="56"/>
       <c r="C113" s="14" t="s">
         <v>136</v>
       </c>
@@ -4840,9 +4830,9 @@
       </c>
       <c r="J113" s="15"/>
     </row>
-    <row r="114" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:10" ht="27.75" customHeight="1">
       <c r="A114" s="13"/>
-      <c r="B114" s="55"/>
+      <c r="B114" s="56"/>
       <c r="C114" s="14" t="s">
         <v>240</v>
       </c>
@@ -4864,9 +4854,9 @@
       </c>
       <c r="J114" s="15"/>
     </row>
-    <row r="115" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:10" ht="27.75" customHeight="1">
       <c r="A115" s="13"/>
-      <c r="B115" s="55"/>
+      <c r="B115" s="56"/>
       <c r="C115" s="14" t="s">
         <v>241</v>
       </c>
@@ -4888,21 +4878,21 @@
       </c>
       <c r="J115" s="15"/>
     </row>
-    <row r="116" spans="1:10" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:10" ht="13.5">
       <c r="A116" s="13">
         <v>81</v>
       </c>
-      <c r="B116" s="55"/>
+      <c r="B116" s="56"/>
       <c r="C116" s="15"/>
       <c r="D116" s="15"/>
       <c r="E116" s="15"/>
       <c r="J116" s="15"/>
     </row>
-    <row r="117" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:10" ht="37.5" customHeight="1">
       <c r="A117" s="13">
         <v>82</v>
       </c>
-      <c r="B117" s="52" t="s">
+      <c r="B117" s="53" t="s">
         <v>65</v>
       </c>
       <c r="C117" s="14" t="s">
@@ -4928,9 +4918,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="118" spans="1:10" ht="20.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:10" ht="20.45" customHeight="1">
       <c r="A118" s="13"/>
-      <c r="B118" s="53"/>
+      <c r="B118" s="54"/>
       <c r="C118" s="14" t="s">
         <v>184</v>
       </c>
@@ -4952,9 +4942,9 @@
       </c>
       <c r="J118" s="15"/>
     </row>
-    <row r="119" spans="1:10" ht="20.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:10" ht="20.45" customHeight="1">
       <c r="A119" s="13"/>
-      <c r="B119" s="54"/>
+      <c r="B119" s="55"/>
       <c r="C119" s="14" t="s">
         <v>183</v>
       </c>
@@ -4976,11 +4966,11 @@
       </c>
       <c r="J119" s="15"/>
     </row>
-    <row r="120" spans="1:10" s="33" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:10" s="33" customFormat="1" ht="22.15" customHeight="1">
       <c r="A120" s="13">
         <v>83</v>
       </c>
-      <c r="B120" s="56" t="s">
+      <c r="B120" s="60" t="s">
         <v>67</v>
       </c>
       <c r="C120" s="30" t="s">
@@ -5004,11 +4994,11 @@
       </c>
       <c r="J120" s="31"/>
     </row>
-    <row r="121" spans="1:10" s="33" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:10" s="33" customFormat="1" ht="22.15" customHeight="1">
       <c r="A121" s="13">
         <v>84</v>
       </c>
-      <c r="B121" s="56"/>
+      <c r="B121" s="60"/>
       <c r="C121" s="30" t="s">
         <v>95</v>
       </c>
@@ -5024,11 +5014,11 @@
       <c r="I121" s="31"/>
       <c r="J121" s="31"/>
     </row>
-    <row r="122" spans="1:10" s="33" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:10" s="33" customFormat="1" ht="22.15" customHeight="1">
       <c r="A122" s="13">
         <v>85</v>
       </c>
-      <c r="B122" s="56"/>
+      <c r="B122" s="60"/>
       <c r="C122" s="30" t="s">
         <v>187</v>
       </c>
@@ -5044,11 +5034,11 @@
       <c r="I122" s="31"/>
       <c r="J122" s="31"/>
     </row>
-    <row r="123" spans="1:10" s="33" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:10" s="33" customFormat="1" ht="22.15" customHeight="1">
       <c r="A123" s="13">
         <v>86</v>
       </c>
-      <c r="B123" s="56"/>
+      <c r="B123" s="60"/>
       <c r="C123" s="30" t="s">
         <v>186</v>
       </c>
@@ -5064,9 +5054,9 @@
       <c r="I123" s="31"/>
       <c r="J123" s="31"/>
     </row>
-    <row r="124" spans="1:10" s="33" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:10" s="33" customFormat="1" ht="22.15" customHeight="1">
       <c r="A124" s="13"/>
-      <c r="B124" s="56"/>
+      <c r="B124" s="60"/>
       <c r="C124" s="30" t="s">
         <v>188</v>
       </c>
@@ -5082,9 +5072,9 @@
       <c r="I124" s="31"/>
       <c r="J124" s="31"/>
     </row>
-    <row r="125" spans="1:10" s="33" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:10" s="33" customFormat="1" ht="22.15" customHeight="1">
       <c r="A125" s="13"/>
-      <c r="B125" s="56"/>
+      <c r="B125" s="60"/>
       <c r="C125" s="30" t="s">
         <v>189</v>
       </c>
@@ -5100,9 +5090,9 @@
       <c r="I125" s="31"/>
       <c r="J125" s="31"/>
     </row>
-    <row r="126" spans="1:10" s="33" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:10" s="33" customFormat="1" ht="22.15" customHeight="1">
       <c r="A126" s="13"/>
-      <c r="B126" s="56"/>
+      <c r="B126" s="60"/>
       <c r="C126" s="30" t="s">
         <v>190</v>
       </c>
@@ -5118,9 +5108,9 @@
       <c r="I126" s="31"/>
       <c r="J126" s="31"/>
     </row>
-    <row r="127" spans="1:10" s="33" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:10" s="33" customFormat="1" ht="22.15" customHeight="1">
       <c r="A127" s="13"/>
-      <c r="B127" s="56"/>
+      <c r="B127" s="60"/>
       <c r="C127" s="30" t="s">
         <v>207</v>
       </c>
@@ -5136,11 +5126,11 @@
       <c r="I127" s="31"/>
       <c r="J127" s="31"/>
     </row>
-    <row r="128" spans="1:10" s="33" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:10" s="33" customFormat="1" ht="27">
       <c r="A128" s="13">
         <v>87</v>
       </c>
-      <c r="B128" s="56"/>
+      <c r="B128" s="60"/>
       <c r="C128" s="30" t="s">
         <v>185</v>
       </c>
@@ -5156,11 +5146,11 @@
       <c r="I128" s="31"/>
       <c r="J128" s="31"/>
     </row>
-    <row r="129" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:10" ht="22.15" customHeight="1">
       <c r="A129" s="13">
         <v>88</v>
       </c>
-      <c r="B129" s="55" t="s">
+      <c r="B129" s="56" t="s">
         <v>87</v>
       </c>
       <c r="C129" s="14" t="s">
@@ -5184,11 +5174,11 @@
       </c>
       <c r="J129" s="15"/>
     </row>
-    <row r="130" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:10" ht="22.15" customHeight="1">
       <c r="A130" s="13">
         <v>89</v>
       </c>
-      <c r="B130" s="55"/>
+      <c r="B130" s="56"/>
       <c r="C130" s="14" t="s">
         <v>93</v>
       </c>
@@ -5210,11 +5200,11 @@
       </c>
       <c r="J130" s="15"/>
     </row>
-    <row r="131" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:10" ht="22.15" customHeight="1">
       <c r="A131" s="13">
         <v>90</v>
       </c>
-      <c r="B131" s="52" t="s">
+      <c r="B131" s="53" t="s">
         <v>97</v>
       </c>
       <c r="C131" s="14" t="s">
@@ -5238,9 +5228,9 @@
       </c>
       <c r="J131" s="15"/>
     </row>
-    <row r="132" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:10" ht="22.15" customHeight="1">
       <c r="A132" s="13"/>
-      <c r="B132" s="53"/>
+      <c r="B132" s="54"/>
       <c r="C132" s="14" t="s">
         <v>202</v>
       </c>
@@ -5262,9 +5252,9 @@
       </c>
       <c r="J132" s="15"/>
     </row>
-    <row r="133" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:10" ht="22.15" customHeight="1">
       <c r="A133" s="13"/>
-      <c r="B133" s="53"/>
+      <c r="B133" s="54"/>
       <c r="C133" s="14" t="s">
         <v>197</v>
       </c>
@@ -5286,9 +5276,9 @@
       </c>
       <c r="J133" s="15"/>
     </row>
-    <row r="134" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:10" ht="22.15" customHeight="1">
       <c r="A134" s="13"/>
-      <c r="B134" s="53"/>
+      <c r="B134" s="54"/>
       <c r="C134" s="14" t="s">
         <v>198</v>
       </c>
@@ -5310,9 +5300,9 @@
       </c>
       <c r="J134" s="15"/>
     </row>
-    <row r="135" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:10" ht="27">
       <c r="A135" s="13"/>
-      <c r="B135" s="53"/>
+      <c r="B135" s="54"/>
       <c r="C135" s="14" t="s">
         <v>201</v>
       </c>
@@ -5334,9 +5324,9 @@
       </c>
       <c r="J135" s="15"/>
     </row>
-    <row r="136" spans="1:10" ht="29.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:10" ht="29.45" customHeight="1">
       <c r="A136" s="13"/>
-      <c r="B136" s="53"/>
+      <c r="B136" s="54"/>
       <c r="C136" s="14" t="s">
         <v>200</v>
       </c>
@@ -5354,11 +5344,11 @@
       </c>
       <c r="J136" s="15"/>
     </row>
-    <row r="137" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:10" ht="27">
       <c r="A137" s="13">
         <v>91</v>
       </c>
-      <c r="B137" s="54"/>
+      <c r="B137" s="55"/>
       <c r="C137" s="14" t="s">
         <v>199</v>
       </c>
@@ -5380,11 +5370,11 @@
       </c>
       <c r="J137" s="15"/>
     </row>
-    <row r="138" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:10" ht="22.15" customHeight="1">
       <c r="A138" s="13">
         <v>92</v>
       </c>
-      <c r="B138" s="55" t="s">
+      <c r="B138" s="56" t="s">
         <v>99</v>
       </c>
       <c r="C138" s="14" t="s">
@@ -5408,11 +5398,11 @@
       </c>
       <c r="J138" s="15"/>
     </row>
-    <row r="139" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:10" ht="22.15" customHeight="1">
       <c r="A139" s="13">
         <v>93</v>
       </c>
-      <c r="B139" s="55"/>
+      <c r="B139" s="56"/>
       <c r="C139" s="14" t="s">
         <v>104</v>
       </c>
@@ -5434,11 +5424,11 @@
       </c>
       <c r="J139" s="15"/>
     </row>
-    <row r="140" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:10" ht="22.15" customHeight="1">
       <c r="A140" s="13">
         <v>94</v>
       </c>
-      <c r="B140" s="55"/>
+      <c r="B140" s="56"/>
       <c r="C140" s="14" t="s">
         <v>101</v>
       </c>
@@ -5460,7 +5450,7 @@
       </c>
       <c r="J140" s="15"/>
     </row>
-    <row r="141" spans="1:10" ht="40.9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:10" ht="40.9" customHeight="1">
       <c r="A141" s="13"/>
       <c r="B141" s="34" t="s">
         <v>196</v>
@@ -5486,11 +5476,11 @@
       </c>
       <c r="J141" s="15"/>
     </row>
-    <row r="142" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:10" ht="27">
       <c r="A142" s="13">
         <v>95</v>
       </c>
-      <c r="B142" s="52" t="s">
+      <c r="B142" s="53" t="s">
         <v>111</v>
       </c>
       <c r="C142" s="14" t="s">
@@ -5514,9 +5504,9 @@
       </c>
       <c r="J142" s="15"/>
     </row>
-    <row r="143" spans="1:10" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:10" ht="13.5">
       <c r="A143" s="13"/>
-      <c r="B143" s="53"/>
+      <c r="B143" s="54"/>
       <c r="C143" s="14" t="s">
         <v>206</v>
       </c>
@@ -5532,11 +5522,11 @@
       <c r="I143" s="15"/>
       <c r="J143" s="15"/>
     </row>
-    <row r="144" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:10" ht="27">
       <c r="A144" s="13">
         <v>96</v>
       </c>
-      <c r="B144" s="53"/>
+      <c r="B144" s="54"/>
       <c r="C144" s="14" t="s">
         <v>205</v>
       </c>
@@ -5558,9 +5548,9 @@
       </c>
       <c r="J144" s="15"/>
     </row>
-    <row r="145" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:10" ht="27">
       <c r="A145" s="13"/>
-      <c r="B145" s="53"/>
+      <c r="B145" s="54"/>
       <c r="C145" s="14" t="s">
         <v>228</v>
       </c>
@@ -5582,9 +5572,9 @@
       </c>
       <c r="J145" s="15"/>
     </row>
-    <row r="146" spans="1:10" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:10" ht="13.5">
       <c r="A146" s="13"/>
-      <c r="B146" s="53"/>
+      <c r="B146" s="54"/>
       <c r="C146" s="14" t="s">
         <v>149</v>
       </c>
@@ -5606,11 +5596,11 @@
       </c>
       <c r="J146" s="15"/>
     </row>
-    <row r="147" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:10" ht="22.15" customHeight="1">
       <c r="A147" s="13">
         <v>97</v>
       </c>
-      <c r="B147" s="53"/>
+      <c r="B147" s="54"/>
       <c r="C147" s="14" t="s">
         <v>243</v>
       </c>
@@ -5622,7 +5612,7 @@
       <c r="I147" s="15"/>
       <c r="J147" s="15"/>
     </row>
-    <row r="148" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:10" ht="22.15" customHeight="1">
       <c r="A148" s="57" t="s">
         <v>266</v>
       </c>
@@ -5636,11 +5626,11 @@
       <c r="I148" s="58"/>
       <c r="J148" s="59"/>
     </row>
-    <row r="149" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:10" ht="40.5">
       <c r="A149" s="13">
         <v>98</v>
       </c>
-      <c r="B149" s="55" t="s">
+      <c r="B149" s="56" t="s">
         <v>113</v>
       </c>
       <c r="C149" s="14" t="s">
@@ -5664,11 +5654,11 @@
       </c>
       <c r="J149" s="15"/>
     </row>
-    <row r="150" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:10" ht="22.15" customHeight="1">
       <c r="A150" s="13">
         <v>99</v>
       </c>
-      <c r="B150" s="55"/>
+      <c r="B150" s="56"/>
       <c r="C150" s="14" t="s">
         <v>116</v>
       </c>
@@ -5690,11 +5680,11 @@
       </c>
       <c r="J150" s="15"/>
     </row>
-    <row r="151" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:10" ht="40.5">
       <c r="A151" s="13">
         <v>100</v>
       </c>
-      <c r="B151" s="55" t="s">
+      <c r="B151" s="56" t="s">
         <v>114</v>
       </c>
       <c r="C151" s="14" t="s">
@@ -5718,11 +5708,11 @@
       </c>
       <c r="J151" s="15"/>
     </row>
-    <row r="152" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:10" ht="22.15" customHeight="1">
       <c r="A152" s="13">
         <v>101</v>
       </c>
-      <c r="B152" s="55"/>
+      <c r="B152" s="56"/>
       <c r="C152" s="14" t="s">
         <v>117</v>
       </c>
@@ -5744,11 +5734,11 @@
       </c>
       <c r="J152" s="15"/>
     </row>
-    <row r="153" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:10" ht="41.25" customHeight="1">
       <c r="A153" s="13">
         <v>102</v>
       </c>
-      <c r="B153" s="52" t="s">
+      <c r="B153" s="53" t="s">
         <v>118</v>
       </c>
       <c r="C153" s="14" t="s">
@@ -5772,11 +5762,11 @@
       </c>
       <c r="J153" s="15"/>
     </row>
-    <row r="154" spans="1:10" s="27" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:10" s="27" customFormat="1" ht="27">
       <c r="A154" s="13">
         <v>103</v>
       </c>
-      <c r="B154" s="54"/>
+      <c r="B154" s="55"/>
       <c r="C154" s="14" t="s">
         <v>166</v>
       </c>
@@ -5792,7 +5782,7 @@
       <c r="I154" s="26"/>
       <c r="J154" s="26"/>
     </row>
-    <row r="155" spans="1:10" ht="42" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:10" ht="42">
       <c r="A155" s="13">
         <v>104</v>
       </c>
@@ -5820,11 +5810,11 @@
       </c>
       <c r="J155" s="15"/>
     </row>
-    <row r="156" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:10" ht="22.15" customHeight="1">
       <c r="A156" s="13">
         <v>105</v>
       </c>
-      <c r="B156" s="52" t="s">
+      <c r="B156" s="53" t="s">
         <v>132</v>
       </c>
       <c r="C156" s="14" t="s">
@@ -5848,9 +5838,9 @@
       </c>
       <c r="J156" s="15"/>
     </row>
-    <row r="157" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:10" ht="22.15" customHeight="1">
       <c r="A157" s="13"/>
-      <c r="B157" s="53"/>
+      <c r="B157" s="54"/>
       <c r="C157" s="14" t="s">
         <v>227</v>
       </c>
@@ -5872,11 +5862,11 @@
       </c>
       <c r="J157" s="15"/>
     </row>
-    <row r="158" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:10" ht="22.15" customHeight="1">
       <c r="A158" s="13">
         <v>106</v>
       </c>
-      <c r="B158" s="53"/>
+      <c r="B158" s="54"/>
       <c r="C158" s="14" t="s">
         <v>135</v>
       </c>
@@ -5898,9 +5888,9 @@
       </c>
       <c r="J158" s="15"/>
     </row>
-    <row r="159" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:10" ht="22.15" customHeight="1">
       <c r="A159" s="13"/>
-      <c r="B159" s="53"/>
+      <c r="B159" s="54"/>
       <c r="C159" s="14" t="s">
         <v>245</v>
       </c>
@@ -5922,9 +5912,9 @@
       </c>
       <c r="J159" s="15"/>
     </row>
-    <row r="160" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:10" ht="22.15" customHeight="1">
       <c r="A160" s="13"/>
-      <c r="B160" s="53"/>
+      <c r="B160" s="54"/>
       <c r="C160" s="14" t="s">
         <v>244</v>
       </c>
@@ -5946,11 +5936,11 @@
       </c>
       <c r="J160" s="15"/>
     </row>
-    <row r="161" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:10" ht="27">
       <c r="A161" s="13">
         <v>107</v>
       </c>
-      <c r="B161" s="54"/>
+      <c r="B161" s="55"/>
       <c r="C161" s="14" t="s">
         <v>139</v>
       </c>
@@ -5972,7 +5962,7 @@
       </c>
       <c r="J161" s="15"/>
     </row>
-    <row r="162" spans="1:10" s="27" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:10" s="27" customFormat="1" ht="27">
       <c r="A162" s="13">
         <v>108</v>
       </c>
@@ -5994,7 +5984,7 @@
       <c r="I162" s="26"/>
       <c r="J162" s="26"/>
     </row>
-    <row r="163" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:10" ht="27">
       <c r="A163" s="13">
         <v>109</v>
       </c>
@@ -6016,7 +6006,7 @@
       <c r="I163" s="15"/>
       <c r="J163" s="15"/>
     </row>
-    <row r="164" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:10" ht="22.15" customHeight="1">
       <c r="A164" s="15"/>
       <c r="B164" s="36"/>
       <c r="C164" s="14"/>
@@ -6028,7 +6018,7 @@
       <c r="I164" s="15"/>
       <c r="J164" s="15"/>
     </row>
-    <row r="165" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:10" ht="22.15" customHeight="1">
       <c r="A165" s="15"/>
       <c r="B165" s="36"/>
       <c r="C165" s="14"/>
@@ -6040,7 +6030,7 @@
       <c r="I165" s="15"/>
       <c r="J165" s="15"/>
     </row>
-    <row r="166" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:10" ht="22.15" customHeight="1">
       <c r="A166" s="15"/>
       <c r="B166" s="36"/>
       <c r="C166" s="14"/>
@@ -6052,7 +6042,7 @@
       <c r="I166" s="15"/>
       <c r="J166" s="15"/>
     </row>
-    <row r="167" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:10" ht="22.15" customHeight="1">
       <c r="A167" s="15"/>
       <c r="B167" s="36"/>
       <c r="C167" s="14"/>
@@ -6064,7 +6054,7 @@
       <c r="I167" s="15"/>
       <c r="J167" s="15"/>
     </row>
-    <row r="168" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:10" ht="22.15" customHeight="1">
       <c r="A168" s="15"/>
       <c r="B168" s="36"/>
       <c r="C168" s="14"/>
@@ -6076,7 +6066,7 @@
       <c r="I168" s="15"/>
       <c r="J168" s="15"/>
     </row>
-    <row r="169" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:10" ht="22.15" customHeight="1">
       <c r="A169" s="15"/>
       <c r="B169" s="36"/>
       <c r="C169" s="14"/>
@@ -6088,7 +6078,7 @@
       <c r="I169" s="15"/>
       <c r="J169" s="15"/>
     </row>
-    <row r="170" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:10" ht="22.15" customHeight="1">
       <c r="A170" s="15"/>
       <c r="B170" s="36"/>
       <c r="C170" s="14"/>
@@ -6100,7 +6090,7 @@
       <c r="I170" s="15"/>
       <c r="J170" s="15"/>
     </row>
-    <row r="171" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:10" ht="22.15" customHeight="1">
       <c r="A171" s="15"/>
       <c r="B171" s="36"/>
       <c r="C171" s="14"/>
@@ -6112,7 +6102,7 @@
       <c r="I171" s="15"/>
       <c r="J171" s="15"/>
     </row>
-    <row r="172" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:10" ht="22.15" customHeight="1">
       <c r="A172" s="15"/>
       <c r="B172" s="36"/>
       <c r="C172" s="14"/>
@@ -6124,7 +6114,7 @@
       <c r="I172" s="15"/>
       <c r="J172" s="15"/>
     </row>
-    <row r="173" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:10" ht="22.15" customHeight="1">
       <c r="A173" s="15"/>
       <c r="B173" s="36"/>
       <c r="C173" s="14"/>
@@ -6136,7 +6126,7 @@
       <c r="I173" s="15"/>
       <c r="J173" s="15"/>
     </row>
-    <row r="174" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:10" ht="22.15" customHeight="1">
       <c r="A174" s="15"/>
       <c r="B174" s="36"/>
       <c r="C174" s="14"/>
@@ -6148,7 +6138,7 @@
       <c r="I174" s="15"/>
       <c r="J174" s="15"/>
     </row>
-    <row r="175" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:10" ht="22.15" customHeight="1">
       <c r="A175" s="15"/>
       <c r="B175" s="36"/>
       <c r="C175" s="14"/>
@@ -6160,7 +6150,7 @@
       <c r="I175" s="15"/>
       <c r="J175" s="15"/>
     </row>
-    <row r="176" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:10" ht="22.15" customHeight="1">
       <c r="A176" s="15"/>
       <c r="B176" s="36"/>
       <c r="C176" s="14"/>
@@ -6172,7 +6162,7 @@
       <c r="I176" s="15"/>
       <c r="J176" s="15"/>
     </row>
-    <row r="177" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:10" ht="22.15" customHeight="1">
       <c r="A177" s="15"/>
       <c r="B177" s="36"/>
       <c r="C177" s="14"/>
@@ -6184,7 +6174,7 @@
       <c r="I177" s="15"/>
       <c r="J177" s="15"/>
     </row>
-    <row r="178" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:10" ht="22.15" customHeight="1">
       <c r="A178" s="15"/>
       <c r="B178" s="36"/>
       <c r="C178" s="14"/>
@@ -6196,7 +6186,7 @@
       <c r="I178" s="15"/>
       <c r="J178" s="15"/>
     </row>
-    <row r="179" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:10" ht="22.15" customHeight="1">
       <c r="A179" s="15"/>
       <c r="B179" s="36"/>
       <c r="C179" s="14"/>
@@ -6208,7 +6198,7 @@
       <c r="I179" s="15"/>
       <c r="J179" s="15"/>
     </row>
-    <row r="180" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:10" ht="22.15" customHeight="1">
       <c r="A180" s="15"/>
       <c r="B180" s="36"/>
       <c r="C180" s="14"/>
@@ -6220,7 +6210,7 @@
       <c r="I180" s="15"/>
       <c r="J180" s="15"/>
     </row>
-    <row r="181" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:10" ht="22.15" customHeight="1">
       <c r="A181" s="15"/>
       <c r="B181" s="36"/>
       <c r="C181" s="14"/>
@@ -6232,7 +6222,7 @@
       <c r="I181" s="15"/>
       <c r="J181" s="15"/>
     </row>
-    <row r="182" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:10" ht="22.15" customHeight="1">
       <c r="A182" s="15"/>
       <c r="B182" s="36"/>
       <c r="C182" s="14"/>
@@ -6244,7 +6234,7 @@
       <c r="I182" s="15"/>
       <c r="J182" s="15"/>
     </row>
-    <row r="183" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:10" ht="22.15" customHeight="1">
       <c r="A183" s="15"/>
       <c r="B183" s="36"/>
       <c r="C183" s="14"/>
@@ -6256,7 +6246,7 @@
       <c r="I183" s="15"/>
       <c r="J183" s="15"/>
     </row>
-    <row r="184" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:10" ht="22.15" customHeight="1">
       <c r="A184" s="15"/>
       <c r="B184" s="36"/>
       <c r="C184" s="14"/>
@@ -6268,7 +6258,7 @@
       <c r="I184" s="15"/>
       <c r="J184" s="15"/>
     </row>
-    <row r="185" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:10" ht="22.15" customHeight="1">
       <c r="A185" s="15"/>
       <c r="B185" s="36"/>
       <c r="C185" s="14"/>
@@ -6280,7 +6270,7 @@
       <c r="I185" s="15"/>
       <c r="J185" s="15"/>
     </row>
-    <row r="186" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:10" ht="22.15" customHeight="1">
       <c r="A186" s="15"/>
       <c r="B186" s="36"/>
       <c r="C186" s="14"/>
@@ -6292,7 +6282,7 @@
       <c r="I186" s="15"/>
       <c r="J186" s="15"/>
     </row>
-    <row r="187" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:10" ht="22.15" customHeight="1">
       <c r="A187" s="15"/>
       <c r="B187" s="36"/>
       <c r="C187" s="14"/>
@@ -6304,7 +6294,7 @@
       <c r="I187" s="15"/>
       <c r="J187" s="15"/>
     </row>
-    <row r="188" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:10" ht="22.15" customHeight="1">
       <c r="A188" s="15"/>
       <c r="B188" s="36"/>
       <c r="C188" s="14"/>
@@ -6316,7 +6306,7 @@
       <c r="I188" s="15"/>
       <c r="J188" s="15"/>
     </row>
-    <row r="189" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:10" ht="22.15" customHeight="1">
       <c r="A189" s="15"/>
       <c r="B189" s="36"/>
       <c r="C189" s="14"/>
@@ -6328,7 +6318,7 @@
       <c r="I189" s="15"/>
       <c r="J189" s="15"/>
     </row>
-    <row r="190" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:10" ht="22.15" customHeight="1">
       <c r="A190" s="15"/>
       <c r="B190" s="36"/>
       <c r="C190" s="14"/>
@@ -6340,7 +6330,7 @@
       <c r="I190" s="15"/>
       <c r="J190" s="15"/>
     </row>
-    <row r="191" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:10" ht="22.15" customHeight="1">
       <c r="A191" s="15"/>
       <c r="B191" s="36"/>
       <c r="C191" s="14"/>
@@ -6352,7 +6342,7 @@
       <c r="I191" s="15"/>
       <c r="J191" s="15"/>
     </row>
-    <row r="192" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:10" ht="22.15" customHeight="1">
       <c r="A192" s="15"/>
       <c r="B192" s="36"/>
       <c r="C192" s="14"/>
@@ -6364,7 +6354,7 @@
       <c r="I192" s="15"/>
       <c r="J192" s="15"/>
     </row>
-    <row r="193" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:10" ht="22.15" customHeight="1">
       <c r="A193" s="15"/>
       <c r="B193" s="36"/>
       <c r="C193" s="14"/>
@@ -6376,7 +6366,7 @@
       <c r="I193" s="15"/>
       <c r="J193" s="15"/>
     </row>
-    <row r="194" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:10" ht="22.15" customHeight="1">
       <c r="A194" s="15"/>
       <c r="B194" s="36"/>
       <c r="C194" s="14"/>
@@ -6388,7 +6378,7 @@
       <c r="I194" s="15"/>
       <c r="J194" s="15"/>
     </row>
-    <row r="195" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:10" ht="22.15" customHeight="1">
       <c r="A195" s="15"/>
       <c r="B195" s="36"/>
       <c r="C195" s="14"/>
@@ -6400,7 +6390,7 @@
       <c r="I195" s="15"/>
       <c r="J195" s="15"/>
     </row>
-    <row r="196" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:10" ht="22.15" customHeight="1">
       <c r="A196" s="15"/>
       <c r="B196" s="36"/>
       <c r="C196" s="14"/>
@@ -6412,7 +6402,7 @@
       <c r="I196" s="15"/>
       <c r="J196" s="15"/>
     </row>
-    <row r="197" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:10" ht="22.15" customHeight="1">
       <c r="A197" s="15"/>
       <c r="B197" s="36"/>
       <c r="C197" s="14"/>
@@ -6424,7 +6414,7 @@
       <c r="I197" s="15"/>
       <c r="J197" s="15"/>
     </row>
-    <row r="198" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:10" ht="22.15" customHeight="1">
       <c r="A198" s="15"/>
       <c r="B198" s="36"/>
       <c r="C198" s="14"/>
@@ -6436,7 +6426,7 @@
       <c r="I198" s="15"/>
       <c r="J198" s="15"/>
     </row>
-    <row r="199" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:10" ht="22.15" customHeight="1">
       <c r="A199" s="15"/>
       <c r="B199" s="36"/>
       <c r="C199" s="14"/>
@@ -6448,7 +6438,7 @@
       <c r="I199" s="15"/>
       <c r="J199" s="15"/>
     </row>
-    <row r="200" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:10" ht="22.15" customHeight="1">
       <c r="A200" s="15"/>
       <c r="B200" s="36"/>
       <c r="C200" s="14"/>
@@ -6460,7 +6450,7 @@
       <c r="I200" s="15"/>
       <c r="J200" s="15"/>
     </row>
-    <row r="201" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:10" ht="22.15" customHeight="1">
       <c r="A201" s="15"/>
       <c r="B201" s="36"/>
       <c r="C201" s="14"/>
@@ -6472,7 +6462,7 @@
       <c r="I201" s="15"/>
       <c r="J201" s="15"/>
     </row>
-    <row r="202" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:10" ht="22.15" customHeight="1">
       <c r="A202" s="15"/>
       <c r="B202" s="36"/>
       <c r="C202" s="14"/>
@@ -6484,7 +6474,7 @@
       <c r="I202" s="15"/>
       <c r="J202" s="15"/>
     </row>
-    <row r="203" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:10" ht="22.15" customHeight="1">
       <c r="A203" s="15"/>
       <c r="B203" s="36"/>
       <c r="C203" s="14"/>
@@ -6496,7 +6486,7 @@
       <c r="I203" s="15"/>
       <c r="J203" s="15"/>
     </row>
-    <row r="204" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:10" ht="22.15" customHeight="1">
       <c r="A204" s="15"/>
       <c r="B204" s="36"/>
       <c r="C204" s="14"/>
@@ -6508,7 +6498,7 @@
       <c r="I204" s="15"/>
       <c r="J204" s="15"/>
     </row>
-    <row r="205" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:10" ht="22.15" customHeight="1">
       <c r="A205" s="15"/>
       <c r="B205" s="36"/>
       <c r="C205" s="14"/>
@@ -6520,7 +6510,7 @@
       <c r="I205" s="15"/>
       <c r="J205" s="15"/>
     </row>
-    <row r="206" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:10" ht="22.15" customHeight="1">
       <c r="A206" s="15"/>
       <c r="B206" s="36"/>
       <c r="C206" s="14"/>
@@ -6532,7 +6522,7 @@
       <c r="I206" s="15"/>
       <c r="J206" s="15"/>
     </row>
-    <row r="207" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:10" ht="22.15" customHeight="1">
       <c r="A207" s="15"/>
       <c r="B207" s="36"/>
       <c r="C207" s="14"/>
@@ -6544,7 +6534,7 @@
       <c r="I207" s="15"/>
       <c r="J207" s="15"/>
     </row>
-    <row r="208" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:10" ht="22.15" customHeight="1">
       <c r="A208" s="15"/>
       <c r="B208" s="36"/>
       <c r="C208" s="14"/>
@@ -6556,7 +6546,7 @@
       <c r="I208" s="15"/>
       <c r="J208" s="15"/>
     </row>
-    <row r="209" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:10" ht="22.15" customHeight="1">
       <c r="A209" s="15"/>
       <c r="B209" s="36"/>
       <c r="C209" s="14"/>
@@ -6568,7 +6558,7 @@
       <c r="I209" s="15"/>
       <c r="J209" s="15"/>
     </row>
-    <row r="210" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:10" ht="22.15" customHeight="1">
       <c r="A210" s="15"/>
       <c r="B210" s="36"/>
       <c r="C210" s="14"/>
@@ -6580,7 +6570,7 @@
       <c r="I210" s="15"/>
       <c r="J210" s="15"/>
     </row>
-    <row r="211" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:10" ht="22.15" customHeight="1">
       <c r="A211" s="15"/>
       <c r="B211" s="36"/>
       <c r="C211" s="14"/>
@@ -6592,7 +6582,7 @@
       <c r="I211" s="15"/>
       <c r="J211" s="15"/>
     </row>
-    <row r="212" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:10" ht="22.15" customHeight="1">
       <c r="A212" s="15"/>
       <c r="B212" s="36"/>
       <c r="C212" s="14"/>
@@ -6604,7 +6594,7 @@
       <c r="I212" s="15"/>
       <c r="J212" s="15"/>
     </row>
-    <row r="213" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:10" ht="22.15" customHeight="1">
       <c r="A213" s="15"/>
       <c r="B213" s="36"/>
       <c r="C213" s="14"/>
@@ -6616,7 +6606,7 @@
       <c r="I213" s="15"/>
       <c r="J213" s="15"/>
     </row>
-    <row r="214" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:10" ht="22.15" customHeight="1">
       <c r="A214" s="15"/>
       <c r="B214" s="36"/>
       <c r="C214" s="14"/>
@@ -6628,7 +6618,7 @@
       <c r="I214" s="15"/>
       <c r="J214" s="15"/>
     </row>
-    <row r="215" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:10" ht="22.15" customHeight="1">
       <c r="A215" s="15"/>
       <c r="B215" s="36"/>
       <c r="C215" s="14"/>
@@ -6640,7 +6630,7 @@
       <c r="I215" s="15"/>
       <c r="J215" s="15"/>
     </row>
-    <row r="216" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:10" ht="22.15" customHeight="1">
       <c r="A216" s="15"/>
       <c r="B216" s="36"/>
       <c r="C216" s="14"/>
@@ -6652,7 +6642,7 @@
       <c r="I216" s="15"/>
       <c r="J216" s="15"/>
     </row>
-    <row r="217" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:10" ht="22.15" customHeight="1">
       <c r="A217" s="15"/>
       <c r="B217" s="36"/>
       <c r="C217" s="14"/>
@@ -6664,7 +6654,7 @@
       <c r="I217" s="15"/>
       <c r="J217" s="15"/>
     </row>
-    <row r="218" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:10" ht="22.15" customHeight="1">
       <c r="A218" s="15"/>
       <c r="B218" s="36"/>
       <c r="C218" s="14"/>
@@ -6676,7 +6666,7 @@
       <c r="I218" s="15"/>
       <c r="J218" s="15"/>
     </row>
-    <row r="219" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:10" ht="22.15" customHeight="1">
       <c r="A219" s="15"/>
       <c r="B219" s="36"/>
       <c r="C219" s="14"/>
@@ -6688,7 +6678,7 @@
       <c r="I219" s="15"/>
       <c r="J219" s="15"/>
     </row>
-    <row r="220" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:10" ht="22.15" customHeight="1">
       <c r="A220" s="15"/>
       <c r="B220" s="36"/>
       <c r="C220" s="14"/>
@@ -6700,7 +6690,7 @@
       <c r="I220" s="15"/>
       <c r="J220" s="15"/>
     </row>
-    <row r="221" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:10" ht="22.15" customHeight="1">
       <c r="A221" s="15"/>
       <c r="B221" s="36"/>
       <c r="C221" s="14"/>
@@ -6712,7 +6702,7 @@
       <c r="I221" s="15"/>
       <c r="J221" s="15"/>
     </row>
-    <row r="222" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="222" spans="1:10" ht="22.15" customHeight="1">
       <c r="A222" s="15"/>
       <c r="B222" s="36"/>
       <c r="C222" s="14"/>
@@ -6724,7 +6714,7 @@
       <c r="I222" s="15"/>
       <c r="J222" s="15"/>
     </row>
-    <row r="223" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:10" ht="22.15" customHeight="1">
       <c r="A223" s="15"/>
       <c r="B223" s="36"/>
       <c r="C223" s="14"/>
@@ -6736,7 +6726,7 @@
       <c r="I223" s="15"/>
       <c r="J223" s="15"/>
     </row>
-    <row r="224" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:10" ht="22.15" customHeight="1">
       <c r="A224" s="15"/>
       <c r="B224" s="36"/>
       <c r="C224" s="14"/>
@@ -6748,7 +6738,7 @@
       <c r="I224" s="15"/>
       <c r="J224" s="15"/>
     </row>
-    <row r="225" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="225" spans="1:10" ht="22.15" customHeight="1">
       <c r="A225" s="15"/>
       <c r="B225" s="36"/>
       <c r="C225" s="14"/>
@@ -6760,7 +6750,7 @@
       <c r="I225" s="15"/>
       <c r="J225" s="15"/>
     </row>
-    <row r="226" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="226" spans="1:10" ht="22.15" customHeight="1">
       <c r="A226" s="15"/>
       <c r="B226" s="36"/>
       <c r="C226" s="14"/>
@@ -6772,7 +6762,7 @@
       <c r="I226" s="15"/>
       <c r="J226" s="15"/>
     </row>
-    <row r="227" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="227" spans="1:10" ht="22.15" customHeight="1">
       <c r="A227" s="15"/>
       <c r="B227" s="36"/>
       <c r="C227" s="14"/>
@@ -6784,7 +6774,7 @@
       <c r="I227" s="15"/>
       <c r="J227" s="15"/>
     </row>
-    <row r="228" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="228" spans="1:10" ht="22.15" customHeight="1">
       <c r="A228" s="15"/>
       <c r="B228" s="36"/>
       <c r="C228" s="14"/>
@@ -6796,7 +6786,7 @@
       <c r="I228" s="15"/>
       <c r="J228" s="15"/>
     </row>
-    <row r="229" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="229" spans="1:10" ht="22.15" customHeight="1">
       <c r="A229" s="15"/>
       <c r="B229" s="36"/>
       <c r="C229" s="14"/>
@@ -6808,7 +6798,7 @@
       <c r="I229" s="15"/>
       <c r="J229" s="15"/>
     </row>
-    <row r="230" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="230" spans="1:10" ht="22.15" customHeight="1">
       <c r="A230" s="15"/>
       <c r="B230" s="36"/>
       <c r="C230" s="14"/>
@@ -6820,7 +6810,7 @@
       <c r="I230" s="15"/>
       <c r="J230" s="15"/>
     </row>
-    <row r="231" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="231" spans="1:10" ht="22.15" customHeight="1">
       <c r="A231" s="15"/>
       <c r="B231" s="36"/>
       <c r="C231" s="14"/>
@@ -6832,7 +6822,7 @@
       <c r="I231" s="15"/>
       <c r="J231" s="15"/>
     </row>
-    <row r="232" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="232" spans="1:10" ht="22.15" customHeight="1">
       <c r="A232" s="15"/>
       <c r="B232" s="36"/>
       <c r="C232" s="14"/>
@@ -6844,7 +6834,7 @@
       <c r="I232" s="15"/>
       <c r="J232" s="15"/>
     </row>
-    <row r="233" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="233" spans="1:10" ht="22.15" customHeight="1">
       <c r="A233" s="15"/>
       <c r="B233" s="36"/>
       <c r="C233" s="14"/>
@@ -6856,7 +6846,7 @@
       <c r="I233" s="15"/>
       <c r="J233" s="15"/>
     </row>
-    <row r="234" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="234" spans="1:10" ht="22.15" customHeight="1">
       <c r="A234" s="15"/>
       <c r="B234" s="36"/>
       <c r="C234" s="14"/>
@@ -6868,7 +6858,7 @@
       <c r="I234" s="15"/>
       <c r="J234" s="15"/>
     </row>
-    <row r="235" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:10" ht="22.15" customHeight="1">
       <c r="A235" s="15"/>
       <c r="B235" s="36"/>
       <c r="C235" s="14"/>
@@ -6880,7 +6870,7 @@
       <c r="I235" s="15"/>
       <c r="J235" s="15"/>
     </row>
-    <row r="236" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="236" spans="1:10" ht="22.15" customHeight="1">
       <c r="A236" s="15"/>
       <c r="B236" s="36"/>
       <c r="C236" s="14"/>
@@ -6892,7 +6882,7 @@
       <c r="I236" s="15"/>
       <c r="J236" s="15"/>
     </row>
-    <row r="237" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="237" spans="1:10" ht="22.15" customHeight="1">
       <c r="A237" s="15"/>
       <c r="B237" s="36"/>
       <c r="C237" s="14"/>
@@ -6904,7 +6894,7 @@
       <c r="I237" s="15"/>
       <c r="J237" s="15"/>
     </row>
-    <row r="238" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:10" ht="22.15" customHeight="1">
       <c r="A238" s="15"/>
       <c r="B238" s="36"/>
       <c r="C238" s="14"/>
@@ -6916,7 +6906,7 @@
       <c r="I238" s="15"/>
       <c r="J238" s="15"/>
     </row>
-    <row r="239" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="239" spans="1:10" ht="22.15" customHeight="1">
       <c r="A239" s="15"/>
       <c r="B239" s="36"/>
       <c r="C239" s="14"/>
@@ -6928,7 +6918,7 @@
       <c r="I239" s="15"/>
       <c r="J239" s="15"/>
     </row>
-    <row r="240" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="240" spans="1:10" ht="22.15" customHeight="1">
       <c r="A240" s="15"/>
       <c r="B240" s="36"/>
       <c r="C240" s="14"/>
@@ -6940,7 +6930,7 @@
       <c r="I240" s="15"/>
       <c r="J240" s="15"/>
     </row>
-    <row r="241" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:10" ht="22.15" customHeight="1">
       <c r="A241" s="15"/>
       <c r="B241" s="36"/>
       <c r="C241" s="14"/>
@@ -6952,7 +6942,7 @@
       <c r="I241" s="15"/>
       <c r="J241" s="15"/>
     </row>
-    <row r="242" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="242" spans="1:10" ht="22.15" customHeight="1">
       <c r="A242" s="15"/>
       <c r="B242" s="36"/>
       <c r="C242" s="14"/>
@@ -6964,7 +6954,7 @@
       <c r="I242" s="15"/>
       <c r="J242" s="15"/>
     </row>
-    <row r="243" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="243" spans="1:10" ht="22.15" customHeight="1">
       <c r="A243" s="15"/>
       <c r="B243" s="36"/>
       <c r="C243" s="14"/>
@@ -6976,7 +6966,7 @@
       <c r="I243" s="15"/>
       <c r="J243" s="15"/>
     </row>
-    <row r="244" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="244" spans="1:10" ht="22.15" customHeight="1">
       <c r="A244" s="15"/>
       <c r="B244" s="36"/>
       <c r="C244" s="14"/>
@@ -6988,7 +6978,7 @@
       <c r="I244" s="15"/>
       <c r="J244" s="15"/>
     </row>
-    <row r="245" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="245" spans="1:10" ht="22.15" customHeight="1">
       <c r="A245" s="15"/>
       <c r="B245" s="36"/>
       <c r="C245" s="14"/>
@@ -7000,7 +6990,7 @@
       <c r="I245" s="15"/>
       <c r="J245" s="15"/>
     </row>
-    <row r="246" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="246" spans="1:10" ht="22.15" customHeight="1">
       <c r="A246" s="15"/>
       <c r="B246" s="36"/>
       <c r="C246" s="14"/>
@@ -7012,7 +7002,7 @@
       <c r="I246" s="15"/>
       <c r="J246" s="15"/>
     </row>
-    <row r="247" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="247" spans="1:10" ht="22.15" customHeight="1">
       <c r="A247" s="15"/>
       <c r="B247" s="36"/>
       <c r="C247" s="14"/>
@@ -7024,7 +7014,7 @@
       <c r="I247" s="15"/>
       <c r="J247" s="15"/>
     </row>
-    <row r="248" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="248" spans="1:10" ht="22.15" customHeight="1">
       <c r="A248" s="15"/>
       <c r="B248" s="36"/>
       <c r="C248" s="14"/>
@@ -7036,7 +7026,7 @@
       <c r="I248" s="15"/>
       <c r="J248" s="15"/>
     </row>
-    <row r="249" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="249" spans="1:10" ht="22.15" customHeight="1">
       <c r="A249" s="15"/>
       <c r="B249" s="36"/>
       <c r="C249" s="14"/>
@@ -7048,7 +7038,7 @@
       <c r="I249" s="15"/>
       <c r="J249" s="15"/>
     </row>
-    <row r="250" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="250" spans="1:10" ht="22.15" customHeight="1">
       <c r="A250" s="15"/>
       <c r="B250" s="36"/>
       <c r="C250" s="14"/>
@@ -7060,7 +7050,7 @@
       <c r="I250" s="15"/>
       <c r="J250" s="15"/>
     </row>
-    <row r="251" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="251" spans="1:10" ht="22.15" customHeight="1">
       <c r="A251" s="15"/>
       <c r="B251" s="36"/>
       <c r="C251" s="14"/>
@@ -7072,7 +7062,7 @@
       <c r="I251" s="15"/>
       <c r="J251" s="15"/>
     </row>
-    <row r="252" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="252" spans="1:10" ht="22.15" customHeight="1">
       <c r="A252" s="15"/>
       <c r="B252" s="36"/>
       <c r="C252" s="14"/>
@@ -7084,7 +7074,7 @@
       <c r="I252" s="15"/>
       <c r="J252" s="15"/>
     </row>
-    <row r="253" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="253" spans="1:10" ht="22.15" customHeight="1">
       <c r="A253" s="15"/>
       <c r="B253" s="36"/>
       <c r="C253" s="14"/>
@@ -7096,7 +7086,7 @@
       <c r="I253" s="15"/>
       <c r="J253" s="15"/>
     </row>
-    <row r="254" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="254" spans="1:10" ht="22.15" customHeight="1">
       <c r="A254" s="15"/>
       <c r="B254" s="36"/>
       <c r="C254" s="14"/>
@@ -7108,7 +7098,7 @@
       <c r="I254" s="15"/>
       <c r="J254" s="15"/>
     </row>
-    <row r="255" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="255" spans="1:10" ht="22.15" customHeight="1">
       <c r="A255" s="15"/>
       <c r="B255" s="36"/>
       <c r="C255" s="14"/>
@@ -7120,7 +7110,7 @@
       <c r="I255" s="15"/>
       <c r="J255" s="15"/>
     </row>
-    <row r="256" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="256" spans="1:10" ht="22.15" customHeight="1">
       <c r="A256" s="15"/>
       <c r="B256" s="36"/>
       <c r="C256" s="14"/>
@@ -7132,7 +7122,7 @@
       <c r="I256" s="15"/>
       <c r="J256" s="15"/>
     </row>
-    <row r="257" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="257" spans="1:10" ht="22.15" customHeight="1">
       <c r="A257" s="15"/>
       <c r="B257" s="36"/>
       <c r="C257" s="14"/>
@@ -7144,7 +7134,7 @@
       <c r="I257" s="15"/>
       <c r="J257" s="15"/>
     </row>
-    <row r="258" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="258" spans="1:10" ht="22.15" customHeight="1">
       <c r="A258" s="15"/>
       <c r="B258" s="36"/>
       <c r="C258" s="14"/>
@@ -7156,7 +7146,7 @@
       <c r="I258" s="15"/>
       <c r="J258" s="15"/>
     </row>
-    <row r="259" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="259" spans="1:10" ht="22.15" customHeight="1">
       <c r="A259" s="15"/>
       <c r="B259" s="36"/>
       <c r="C259" s="14"/>
@@ -7168,7 +7158,7 @@
       <c r="I259" s="15"/>
       <c r="J259" s="15"/>
     </row>
-    <row r="260" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="260" spans="1:10" ht="22.15" customHeight="1">
       <c r="A260" s="15"/>
       <c r="B260" s="36"/>
       <c r="C260" s="14"/>
@@ -7180,7 +7170,7 @@
       <c r="I260" s="15"/>
       <c r="J260" s="15"/>
     </row>
-    <row r="261" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="261" spans="1:10" ht="22.15" customHeight="1">
       <c r="A261" s="15"/>
       <c r="B261" s="36"/>
       <c r="C261" s="14"/>
@@ -7192,7 +7182,7 @@
       <c r="I261" s="15"/>
       <c r="J261" s="15"/>
     </row>
-    <row r="262" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="262" spans="1:10" ht="22.15" customHeight="1">
       <c r="A262" s="15"/>
       <c r="B262" s="36"/>
       <c r="C262" s="14"/>
@@ -7204,7 +7194,7 @@
       <c r="I262" s="15"/>
       <c r="J262" s="15"/>
     </row>
-    <row r="263" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="263" spans="1:10" ht="22.15" customHeight="1">
       <c r="A263" s="15"/>
       <c r="B263" s="36"/>
       <c r="C263" s="14"/>
@@ -7216,7 +7206,7 @@
       <c r="I263" s="15"/>
       <c r="J263" s="15"/>
     </row>
-    <row r="264" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="264" spans="1:10" ht="22.15" customHeight="1">
       <c r="A264" s="15"/>
       <c r="B264" s="36"/>
       <c r="C264" s="14"/>
@@ -7228,7 +7218,7 @@
       <c r="I264" s="15"/>
       <c r="J264" s="15"/>
     </row>
-    <row r="265" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="265" spans="1:10" ht="22.15" customHeight="1">
       <c r="A265" s="15"/>
       <c r="B265" s="36"/>
       <c r="C265" s="14"/>
@@ -7240,7 +7230,7 @@
       <c r="I265" s="15"/>
       <c r="J265" s="15"/>
     </row>
-    <row r="266" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="266" spans="1:10" ht="22.15" customHeight="1">
       <c r="A266" s="15"/>
       <c r="B266" s="36"/>
       <c r="C266" s="14"/>
@@ -7252,7 +7242,7 @@
       <c r="I266" s="15"/>
       <c r="J266" s="15"/>
     </row>
-    <row r="267" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="267" spans="1:10" ht="22.15" customHeight="1">
       <c r="A267" s="15"/>
       <c r="B267" s="36"/>
       <c r="C267" s="14"/>
@@ -7264,7 +7254,7 @@
       <c r="I267" s="15"/>
       <c r="J267" s="15"/>
     </row>
-    <row r="268" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="268" spans="1:10" ht="22.15" customHeight="1">
       <c r="A268" s="15"/>
       <c r="B268" s="36"/>
       <c r="C268" s="14"/>
@@ -7276,7 +7266,7 @@
       <c r="I268" s="15"/>
       <c r="J268" s="15"/>
     </row>
-    <row r="269" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="269" spans="1:10" ht="22.15" customHeight="1">
       <c r="A269" s="15"/>
       <c r="B269" s="36"/>
       <c r="C269" s="14"/>
@@ -7288,7 +7278,7 @@
       <c r="I269" s="15"/>
       <c r="J269" s="15"/>
     </row>
-    <row r="270" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="270" spans="1:10" ht="22.15" customHeight="1">
       <c r="A270" s="15"/>
       <c r="B270" s="36"/>
       <c r="C270" s="14"/>
@@ -7300,7 +7290,7 @@
       <c r="I270" s="15"/>
       <c r="J270" s="15"/>
     </row>
-    <row r="271" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="271" spans="1:10" ht="22.15" customHeight="1">
       <c r="A271" s="15"/>
       <c r="B271" s="36"/>
       <c r="C271" s="14"/>
@@ -7312,7 +7302,7 @@
       <c r="I271" s="15"/>
       <c r="J271" s="15"/>
     </row>
-    <row r="272" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="272" spans="1:10" ht="22.15" customHeight="1">
       <c r="A272" s="15"/>
       <c r="B272" s="36"/>
       <c r="C272" s="14"/>
@@ -7324,7 +7314,7 @@
       <c r="I272" s="15"/>
       <c r="J272" s="15"/>
     </row>
-    <row r="273" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="273" spans="1:10" ht="22.15" customHeight="1">
       <c r="A273" s="15"/>
       <c r="B273" s="36"/>
       <c r="C273" s="14"/>
@@ -7336,7 +7326,7 @@
       <c r="I273" s="15"/>
       <c r="J273" s="15"/>
     </row>
-    <row r="274" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="274" spans="1:10" ht="22.15" customHeight="1">
       <c r="A274" s="15"/>
       <c r="B274" s="36"/>
       <c r="C274" s="14"/>
@@ -7348,7 +7338,7 @@
       <c r="I274" s="15"/>
       <c r="J274" s="15"/>
     </row>
-    <row r="275" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="275" spans="1:10" ht="22.15" customHeight="1">
       <c r="A275" s="15"/>
       <c r="B275" s="36"/>
       <c r="C275" s="14"/>
@@ -7360,7 +7350,7 @@
       <c r="I275" s="15"/>
       <c r="J275" s="15"/>
     </row>
-    <row r="276" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="276" spans="1:10" ht="22.15" customHeight="1">
       <c r="A276" s="15"/>
       <c r="B276" s="36"/>
       <c r="C276" s="14"/>
@@ -7372,7 +7362,7 @@
       <c r="I276" s="15"/>
       <c r="J276" s="15"/>
     </row>
-    <row r="277" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="277" spans="1:10" ht="22.15" customHeight="1">
       <c r="A277" s="15"/>
       <c r="B277" s="36"/>
       <c r="C277" s="14"/>
@@ -7384,7 +7374,7 @@
       <c r="I277" s="15"/>
       <c r="J277" s="15"/>
     </row>
-    <row r="278" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="278" spans="1:10" ht="22.15" customHeight="1">
       <c r="A278" s="15"/>
       <c r="B278" s="36"/>
       <c r="C278" s="14"/>
@@ -7396,7 +7386,7 @@
       <c r="I278" s="15"/>
       <c r="J278" s="15"/>
     </row>
-    <row r="279" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="279" spans="1:10" ht="22.15" customHeight="1">
       <c r="A279" s="15"/>
       <c r="B279" s="36"/>
       <c r="C279" s="14"/>
@@ -7408,7 +7398,7 @@
       <c r="I279" s="15"/>
       <c r="J279" s="15"/>
     </row>
-    <row r="280" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="280" spans="1:10" ht="22.15" customHeight="1">
       <c r="A280" s="15"/>
       <c r="B280" s="36"/>
       <c r="C280" s="14"/>
@@ -7420,7 +7410,7 @@
       <c r="I280" s="15"/>
       <c r="J280" s="15"/>
     </row>
-    <row r="281" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="281" spans="1:10" ht="22.15" customHeight="1">
       <c r="A281" s="15"/>
       <c r="B281" s="36"/>
       <c r="C281" s="14"/>
@@ -7432,7 +7422,7 @@
       <c r="I281" s="15"/>
       <c r="J281" s="15"/>
     </row>
-    <row r="282" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="282" spans="1:10" ht="22.15" customHeight="1">
       <c r="A282" s="15"/>
       <c r="B282" s="36"/>
       <c r="C282" s="14"/>
@@ -7444,7 +7434,7 @@
       <c r="I282" s="15"/>
       <c r="J282" s="15"/>
     </row>
-    <row r="283" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="283" spans="1:10" ht="22.15" customHeight="1">
       <c r="A283" s="15"/>
       <c r="B283" s="36"/>
       <c r="C283" s="14"/>
@@ -7456,7 +7446,7 @@
       <c r="I283" s="15"/>
       <c r="J283" s="15"/>
     </row>
-    <row r="284" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="284" spans="1:10" ht="22.15" customHeight="1">
       <c r="A284" s="15"/>
       <c r="B284" s="36"/>
       <c r="C284" s="14"/>
@@ -7468,7 +7458,7 @@
       <c r="I284" s="15"/>
       <c r="J284" s="15"/>
     </row>
-    <row r="285" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="285" spans="1:10" ht="22.15" customHeight="1">
       <c r="A285" s="15"/>
       <c r="B285" s="36"/>
       <c r="C285" s="14"/>
@@ -7480,7 +7470,7 @@
       <c r="I285" s="15"/>
       <c r="J285" s="15"/>
     </row>
-    <row r="286" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="286" spans="1:10" ht="22.15" customHeight="1">
       <c r="A286" s="15"/>
       <c r="B286" s="36"/>
       <c r="C286" s="14"/>
@@ -7492,7 +7482,7 @@
       <c r="I286" s="15"/>
       <c r="J286" s="15"/>
     </row>
-    <row r="287" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="287" spans="1:10" ht="22.15" customHeight="1">
       <c r="A287" s="15"/>
       <c r="B287" s="36"/>
       <c r="C287" s="14"/>
@@ -7504,7 +7494,7 @@
       <c r="I287" s="15"/>
       <c r="J287" s="15"/>
     </row>
-    <row r="288" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="288" spans="1:10" ht="22.15" customHeight="1">
       <c r="A288" s="15"/>
       <c r="B288" s="36"/>
       <c r="C288" s="14"/>
@@ -7516,7 +7506,7 @@
       <c r="I288" s="15"/>
       <c r="J288" s="15"/>
     </row>
-    <row r="289" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="289" spans="1:10" ht="22.15" customHeight="1">
       <c r="A289" s="15"/>
       <c r="B289" s="36"/>
       <c r="C289" s="14"/>
@@ -7528,7 +7518,7 @@
       <c r="I289" s="15"/>
       <c r="J289" s="15"/>
     </row>
-    <row r="290" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="290" spans="1:10" ht="22.15" customHeight="1">
       <c r="A290" s="15"/>
       <c r="B290" s="36"/>
       <c r="C290" s="14"/>
@@ -7540,7 +7530,7 @@
       <c r="I290" s="15"/>
       <c r="J290" s="15"/>
     </row>
-    <row r="291" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="291" spans="1:10" ht="22.15" customHeight="1">
       <c r="A291" s="15"/>
       <c r="B291" s="36"/>
       <c r="C291" s="14"/>
@@ -7552,7 +7542,7 @@
       <c r="I291" s="15"/>
       <c r="J291" s="15"/>
     </row>
-    <row r="292" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="292" spans="1:10" ht="22.15" customHeight="1">
       <c r="A292" s="15"/>
       <c r="B292" s="36"/>
       <c r="C292" s="14"/>
@@ -7564,7 +7554,7 @@
       <c r="I292" s="15"/>
       <c r="J292" s="15"/>
     </row>
-    <row r="293" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="293" spans="1:10" ht="22.15" customHeight="1">
       <c r="A293" s="15"/>
       <c r="B293" s="36"/>
       <c r="C293" s="14"/>
@@ -7576,7 +7566,7 @@
       <c r="I293" s="15"/>
       <c r="J293" s="15"/>
     </row>
-    <row r="294" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="294" spans="1:10" ht="22.15" customHeight="1">
       <c r="A294" s="15"/>
       <c r="B294" s="36"/>
       <c r="C294" s="14"/>
@@ -7588,7 +7578,7 @@
       <c r="I294" s="15"/>
       <c r="J294" s="15"/>
     </row>
-    <row r="295" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="295" spans="1:10" ht="22.15" customHeight="1">
       <c r="A295" s="15"/>
       <c r="B295" s="36"/>
       <c r="C295" s="14"/>
@@ -7600,7 +7590,7 @@
       <c r="I295" s="15"/>
       <c r="J295" s="15"/>
     </row>
-    <row r="296" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="296" spans="1:10" ht="22.15" customHeight="1">
       <c r="A296" s="15"/>
       <c r="B296" s="36"/>
       <c r="C296" s="14"/>
@@ -7612,7 +7602,7 @@
       <c r="I296" s="15"/>
       <c r="J296" s="15"/>
     </row>
-    <row r="297" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="297" spans="1:10" ht="22.15" customHeight="1">
       <c r="A297" s="15"/>
       <c r="B297" s="36"/>
       <c r="C297" s="14"/>
@@ -7624,7 +7614,7 @@
       <c r="I297" s="15"/>
       <c r="J297" s="15"/>
     </row>
-    <row r="298" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="298" spans="1:10" ht="22.15" customHeight="1">
       <c r="A298" s="15"/>
       <c r="B298" s="36"/>
       <c r="C298" s="14"/>
@@ -7636,7 +7626,7 @@
       <c r="I298" s="15"/>
       <c r="J298" s="15"/>
     </row>
-    <row r="299" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="299" spans="1:10" ht="22.15" customHeight="1">
       <c r="A299" s="15"/>
       <c r="B299" s="36"/>
       <c r="C299" s="14"/>
@@ -7648,7 +7638,7 @@
       <c r="I299" s="15"/>
       <c r="J299" s="15"/>
     </row>
-    <row r="300" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="300" spans="1:10" ht="22.15" customHeight="1">
       <c r="A300" s="15"/>
       <c r="B300" s="36"/>
       <c r="C300" s="14"/>
@@ -7660,7 +7650,7 @@
       <c r="I300" s="15"/>
       <c r="J300" s="15"/>
     </row>
-    <row r="301" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="301" spans="1:10" ht="22.15" customHeight="1">
       <c r="A301" s="15"/>
       <c r="B301" s="36"/>
       <c r="C301" s="14"/>
@@ -7672,7 +7662,7 @@
       <c r="I301" s="15"/>
       <c r="J301" s="15"/>
     </row>
-    <row r="302" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="302" spans="1:10" ht="22.15" customHeight="1">
       <c r="A302" s="15"/>
       <c r="B302" s="36"/>
       <c r="C302" s="14"/>
@@ -7684,7 +7674,7 @@
       <c r="I302" s="15"/>
       <c r="J302" s="15"/>
     </row>
-    <row r="303" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="303" spans="1:10" ht="22.15" customHeight="1">
       <c r="A303" s="15"/>
       <c r="B303" s="36"/>
       <c r="C303" s="14"/>
@@ -7698,6 +7688,18 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="B156:B161"/>
+    <mergeCell ref="B77:B83"/>
+    <mergeCell ref="B84:B88"/>
+    <mergeCell ref="B89:B93"/>
+    <mergeCell ref="B94:B107"/>
+    <mergeCell ref="B151:B152"/>
+    <mergeCell ref="B108:B116"/>
+    <mergeCell ref="B120:B128"/>
+    <mergeCell ref="B129:B130"/>
+    <mergeCell ref="B138:B140"/>
+    <mergeCell ref="B142:B147"/>
+    <mergeCell ref="B153:B154"/>
     <mergeCell ref="B2:B32"/>
     <mergeCell ref="B59:B65"/>
     <mergeCell ref="B66:B68"/>
@@ -7710,23 +7712,11 @@
     <mergeCell ref="B33:B41"/>
     <mergeCell ref="B69:B76"/>
     <mergeCell ref="B131:B137"/>
-    <mergeCell ref="B156:B161"/>
-    <mergeCell ref="B77:B83"/>
-    <mergeCell ref="B84:B88"/>
-    <mergeCell ref="B89:B93"/>
-    <mergeCell ref="B94:B107"/>
-    <mergeCell ref="B151:B152"/>
-    <mergeCell ref="B108:B116"/>
-    <mergeCell ref="B120:B128"/>
-    <mergeCell ref="B129:B130"/>
-    <mergeCell ref="B138:B140"/>
-    <mergeCell ref="B142:B147"/>
-    <mergeCell ref="B153:B154"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I48:I50 I53:I55">
     <cfRule type="timePeriod" dxfId="0" priority="6" timePeriod="lastMonth">
-      <formula>AND(MONTH(I48)=MONTH(EDATE(TODAY(),0-1)),YEAR(I48)=YEAR(EDATE(TODAY(),0-1)))</formula>
+      <formula>AND(MONTH(I48)=MONTH(TODAY())-1,OR(YEAR(I48)=YEAR(TODAY()),AND(MONTH(I48)=1,YEAR(I48)=YEAR(TODAY())-1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7735,14 +7725,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="16.5" customWidth="1"/>
     <col min="2" max="2" width="54" customWidth="1"/>
@@ -7751,7 +7741,7 @@
     <col min="6" max="8" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" ht="29.25" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>8</v>
       </c>
@@ -7777,7 +7767,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" ht="40.5">
       <c r="A2" s="6" t="s">
         <v>251</v>
       </c>
@@ -7803,7 +7793,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" ht="40.5">
       <c r="A3" s="6"/>
       <c r="B3" s="1" t="s">
         <v>242</v>
@@ -7827,7 +7817,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -7837,7 +7827,7 @@
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
     </row>
-    <row r="5" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" ht="40.5">
       <c r="A5" s="6" t="s">
         <v>252</v>
       </c>
@@ -7863,7 +7853,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" ht="40.5">
       <c r="A6" s="6"/>
       <c r="B6" s="1" t="s">
         <v>242</v>
@@ -7887,7 +7877,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -7897,7 +7887,7 @@
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8">
       <c r="A8" s="6" t="s">
         <v>253</v>
       </c>
@@ -7921,7 +7911,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8">
       <c r="A9" s="6"/>
       <c r="B9" s="2" t="s">
         <v>255</v>
@@ -7943,7 +7933,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8">
       <c r="A10" s="6"/>
       <c r="B10" s="2" t="s">
         <v>256</v>
@@ -7965,7 +7955,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8">
       <c r="A11" s="6"/>
       <c r="B11" s="2" t="s">
         <v>257</v>
@@ -7987,7 +7977,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" ht="27">
       <c r="A12" s="6"/>
       <c r="B12" s="2" t="s">
         <v>262</v>
@@ -8009,7 +7999,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8">
       <c r="A13" s="6"/>
       <c r="B13" s="2" t="s">
         <v>258</v>
@@ -8031,7 +8021,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8">
       <c r="A14" s="6"/>
       <c r="B14" s="2" t="s">
         <v>263</v>
@@ -8055,22 +8045,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="16.25" style="40" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="48.25" style="40" customWidth="1"/>
-    <col min="3" max="8" width="16.75" style="40" customWidth="1"/>
+    <col min="3" max="4" width="16.75" style="40" customWidth="1"/>
+    <col min="5" max="5" width="20.25" style="40" customWidth="1"/>
+    <col min="6" max="8" width="16.75" style="40" customWidth="1"/>
     <col min="9" max="16384" width="9" style="40"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" ht="14.25">
       <c r="A1" s="39" t="s">
         <v>8</v>
       </c>
@@ -8096,7 +8088,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="44" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" s="44" customFormat="1" ht="40.5">
       <c r="A2" s="41" t="s">
         <v>268</v>
       </c>
@@ -8110,17 +8102,17 @@
         <v>42541</v>
       </c>
       <c r="E2" s="41"/>
-      <c r="F2" s="60" t="s">
+      <c r="F2" s="52" t="s">
         <v>298</v>
       </c>
       <c r="G2" s="43">
         <v>42551</v>
       </c>
-      <c r="H2" s="60" t="s">
+      <c r="H2" s="52" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="44" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" s="44" customFormat="1" ht="40.5">
       <c r="A3" s="41"/>
       <c r="B3" s="42" t="s">
         <v>270</v>
@@ -8132,17 +8124,17 @@
         <v>42541</v>
       </c>
       <c r="E3" s="41"/>
-      <c r="F3" s="60" t="s">
+      <c r="F3" s="52" t="s">
         <v>298</v>
       </c>
       <c r="G3" s="43">
         <v>42551</v>
       </c>
-      <c r="H3" s="60" t="s">
+      <c r="H3" s="52" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="44" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" s="44" customFormat="1" ht="27">
       <c r="A4" s="41"/>
       <c r="B4" s="42" t="s">
         <v>271</v>
@@ -8154,17 +8146,17 @@
         <v>42541</v>
       </c>
       <c r="E4" s="41"/>
-      <c r="F4" s="60" t="s">
+      <c r="F4" s="52" t="s">
         <v>298</v>
       </c>
       <c r="G4" s="43">
         <v>42551</v>
       </c>
-      <c r="H4" s="60" t="s">
+      <c r="H4" s="52" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="44" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" s="44" customFormat="1">
       <c r="A5" s="41"/>
       <c r="B5" s="42" t="s">
         <v>273</v>
@@ -8176,17 +8168,17 @@
         <v>42541</v>
       </c>
       <c r="E5" s="41"/>
-      <c r="F5" s="60" t="s">
+      <c r="F5" s="52" t="s">
         <v>298</v>
       </c>
       <c r="G5" s="43">
         <v>42551</v>
       </c>
-      <c r="H5" s="60" t="s">
+      <c r="H5" s="52" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="44" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" s="44" customFormat="1">
       <c r="A6" s="41" t="s">
         <v>274</v>
       </c>
@@ -8200,17 +8192,17 @@
         <v>42541</v>
       </c>
       <c r="E6" s="41"/>
-      <c r="F6" s="60" t="s">
+      <c r="F6" s="52" t="s">
         <v>298</v>
 